--- a/Portfolio.xlsx
+++ b/Portfolio.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Python27\Git\SMA_GTAA\"/>
@@ -12,7 +12,8 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12135"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Portfolio" sheetId="1" r:id="rId1"/>
+    <sheet name="Daily" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="36">
   <si>
     <t>Symbol</t>
   </si>
@@ -90,14 +91,57 @@
   </si>
   <si>
     <t>TLT</t>
+  </si>
+  <si>
+    <t>Last</t>
+  </si>
+  <si>
+    <t>Realtime +/-</t>
+  </si>
+  <si>
+    <t>PnL</t>
+  </si>
+  <si>
+    <t>AGG</t>
+  </si>
+  <si>
+    <t>ACWI</t>
+  </si>
+  <si>
+    <t>60/40</t>
+  </si>
+  <si>
+    <t>Market Value</t>
+  </si>
+  <si>
+    <t>Cash</t>
+  </si>
+  <si>
+    <t>Porfolio Value</t>
+  </si>
+  <si>
+    <t>Position MV</t>
+  </si>
+  <si>
+    <t>NAV</t>
+  </si>
+  <si>
+    <t>Daily Returns</t>
+  </si>
+  <si>
+    <t>MTD</t>
+  </si>
+  <si>
+    <t>YTD</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -151,7 +195,7 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -166,6 +210,13 @@
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -190,7 +241,16 @@
 <file path=xl/volatileDependencies.xml><?xml version="1.0" encoding="utf-8"?>
 <volTypes xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <volType type="realTimeData">
-    <main first="rtdsrv.a300462a3ad444eb9e3d8c7486fcb3c4">
+    <main first="rtdsrv.3b81a987f74b4eea988e6d2f004204c2">
+      <tp t="s">
+        <v>SPDR INDEX SHS FDS-DJ INTL RL ETF</v>
+        <stp/>
+        <stp>RWX</stp>
+        <stp>description</stp>
+        <tr r="B7" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.3b81a987f74b4eea988e6d2f004204c2">
       <tp t="s">
         <v>ISHARES TR-20 YR TR BD ETF</v>
         <stp/>
@@ -198,13 +258,44 @@
         <stp>description</stp>
         <tr r="B11" s="1"/>
       </tp>
+    </main>
+    <main first="rtdsrv.3b81a987f74b4eea988e6d2f004204c2">
       <tp t="s">
-        <v>SPDR INDEX SHS FDS-DJ INTL RL ETF</v>
-        <stp/>
-        <stp>RWX</stp>
+        <v>ISHARES TR-MSCI EMG MKT ETF</v>
+        <stp/>
+        <stp>EEM</stp>
         <stp>description</stp>
-        <tr r="B7" s="1"/>
-      </tp>
+        <tr r="B8" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.3b81a987f74b4eea988e6d2f004204c2">
+      <tp t="s">
+        <v>ISHARES INC-MSCI JPN ETF NEW</v>
+        <stp/>
+        <stp>EWJ</stp>
+        <stp>description</stp>
+        <tr r="B3" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.3b81a987f74b4eea988e6d2f004204c2">
+      <tp t="s">
+        <v>POWERSHARES DB CMDTY IDX TRA-UNIT BEN INT</v>
+        <stp/>
+        <stp>DBC</stp>
+        <stp>description</stp>
+        <tr r="B2" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.3b81a987f74b4eea988e6d2f004204c2">
+      <tp t="s">
+        <v>SPDR GOLD TRUST-GOLD SHS</v>
+        <stp/>
+        <stp>GLD</stp>
+        <stp>description</stp>
+        <tr r="B4" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.3b81a987f74b4eea988e6d2f004204c2">
       <tp t="s">
         <v>ISHARES TR-EUROPE ETF</v>
         <stp/>
@@ -219,6 +310,8 @@
         <stp>description</stp>
         <tr r="B10" s="1"/>
       </tp>
+    </main>
+    <main first="rtdsrv.3b81a987f74b4eea988e6d2f004204c2">
       <tp t="s">
         <v>ISHARES TR-U.S. REAL ES ETF</v>
         <stp/>
@@ -233,36 +326,42 @@
         <stp>description</stp>
         <tr r="B6" s="1"/>
       </tp>
-      <tp t="s">
-        <v>SPDR GOLD TRUST-GOLD SHS</v>
+    </main>
+    <main first="rtdsrv.3b81a987f74b4eea988e6d2f004204c2">
+      <tp>
+        <v>0</v>
+        <stp/>
+        <stp>AGG</stp>
+        <stp>change in percent</stp>
+        <tr r="K23" s="1"/>
+      </tp>
+      <tp>
+        <v>-4.1718815185648314E-3</v>
+        <stp/>
+        <stp>ACWI</stp>
+        <stp>change in percent</stp>
+        <tr r="K22" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.3b81a987f74b4eea988e6d2f004204c2">
+      <tp>
+        <v>-6.9707304276129369E-3</v>
+        <stp/>
+        <stp>IVV</stp>
+        <stp>change in percent</stp>
+        <tr r="K24" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.3b81a987f74b4eea988e6d2f004204c2">
+      <tp>
+        <v>123.65</v>
         <stp/>
         <stp>GLD</stp>
-        <stp>description</stp>
-        <tr r="B4" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>ISHARES TR-MSCI EMG MKT ETF</v>
-        <stp/>
-        <stp>EEM</stp>
-        <stp>description</stp>
-        <tr r="B8" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>ISHARES INC-MSCI JPN ETF NEW</v>
-        <stp/>
-        <stp>EWJ</stp>
-        <stp>description</stp>
-        <tr r="B3" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>POWERSHARES DB CMDTY IDX TRA-UNIT BEN INT</v>
-        <stp/>
-        <stp>DBC</stp>
-        <stp>description</stp>
-        <tr r="B2" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.a300462a3ad444eb9e3d8c7486fcb3c4">
+        <stp>last</stp>
+        <tr r="J4" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.3b81a987f74b4eea988e6d2f004204c2">
       <tp>
         <v>47.34</v>
         <stp/>
@@ -278,7 +377,16 @@
         <tr r="G6" s="1"/>
       </tp>
     </main>
-    <main first="rtdsrv.a300462a3ad444eb9e3d8c7486fcb3c4">
+    <main first="rtdsrv.3b81a987f74b4eea988e6d2f004204c2">
+      <tp>
+        <v>47.36</v>
+        <stp/>
+        <stp>IEV</stp>
+        <stp>last</stp>
+        <tr r="J5" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.3b81a987f74b4eea988e6d2f004204c2">
       <tp>
         <v>40.729999999999997</v>
         <stp/>
@@ -287,7 +395,25 @@
         <tr r="G7" s="1"/>
       </tp>
     </main>
-    <main first="rtdsrv.a300462a3ad444eb9e3d8c7486fcb3c4">
+    <main first="rtdsrv.3b81a987f74b4eea988e6d2f004204c2">
+      <tp>
+        <v>17.46</v>
+        <stp/>
+        <stp>DBC</stp>
+        <stp>last</stp>
+        <tr r="J2" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.3b81a987f74b4eea988e6d2f004204c2">
+      <tp>
+        <v>123.71</v>
+        <stp/>
+        <stp>GLD</stp>
+        <stp>close</stp>
+        <tr r="G4" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.3b81a987f74b4eea988e6d2f004204c2">
       <tp>
         <v>17.46</v>
         <stp/>
@@ -296,16 +422,34 @@
         <tr r="G2" s="1"/>
       </tp>
     </main>
-    <main first="rtdsrv.a300462a3ad444eb9e3d8c7486fcb3c4">
-      <tp>
-        <v>123.71</v>
-        <stp/>
-        <stp>GLD</stp>
-        <stp>close</stp>
-        <tr r="G4" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.a300462a3ad444eb9e3d8c7486fcb3c4">
+    <main first="rtdsrv.3b81a987f74b4eea988e6d2f004204c2">
+      <tp>
+        <v>60.23</v>
+        <stp/>
+        <stp>EWJ</stp>
+        <stp>last</stp>
+        <tr r="J3" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.3b81a987f74b4eea988e6d2f004204c2">
+      <tp>
+        <v>40.409999999999997</v>
+        <stp/>
+        <stp>RWX</stp>
+        <stp>last</stp>
+        <tr r="J7" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.3b81a987f74b4eea988e6d2f004204c2">
+      <tp>
+        <v>264.97000000000003</v>
+        <stp/>
+        <stp>IVV</stp>
+        <stp>last</stp>
+        <tr r="J6" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.3b81a987f74b4eea988e6d2f004204c2">
       <tp>
         <v>60.59</v>
         <stp/>
@@ -581,10 +725,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I22"/>
+  <sheetPr codeName="Sheet1"/>
+  <dimension ref="A1:L26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="M28" sqref="M28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -598,9 +743,10 @@
     <col min="7" max="7" width="12.28515625" customWidth="1"/>
     <col min="8" max="8" width="14.42578125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -628,8 +774,14 @@
       <c r="I1" s="7" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J1" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="K1" s="7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -644,11 +796,11 @@
         <v>17.469000000000001</v>
       </c>
       <c r="E2" s="5">
-        <f>G2/D2-1</f>
+        <f t="shared" ref="E2:E7" si="0">G2/D2-1</f>
         <v>-5.1519835136526471E-4</v>
       </c>
       <c r="F2" s="5">
-        <f>I2/$I$21</f>
+        <f t="shared" ref="F2:F7" si="1">I2/$I$21</f>
         <v>0.11367802345078762</v>
       </c>
       <c r="G2" s="4">
@@ -659,11 +811,19 @@
         <v>130</v>
       </c>
       <c r="I2" s="4">
-        <f>H2*G2</f>
+        <f t="shared" ref="I2:I7" si="2">H2*G2</f>
         <v>2269.8000000000002</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J2">
+        <f>_xll.RealtimeData(A2,"Last")</f>
+        <v>17.46</v>
+      </c>
+      <c r="K2" s="5">
+        <f>J2/D2-1</f>
+        <v>-5.1519835136526471E-4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -678,11 +838,11 @@
         <v>60.645000000000003</v>
       </c>
       <c r="E3" s="5">
-        <f>G3/D3-1</f>
+        <f t="shared" si="0"/>
         <v>-9.0691730563108308E-4</v>
       </c>
       <c r="F3" s="5">
-        <f>I3/$I$21</f>
+        <f t="shared" si="1"/>
         <v>0.24883056575576004</v>
       </c>
       <c r="G3" s="4">
@@ -693,11 +853,19 @@
         <v>82</v>
       </c>
       <c r="I3" s="4">
-        <f>H3*G3</f>
+        <f t="shared" si="2"/>
         <v>4968.38</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J3">
+        <f>_xll.RealtimeData(A3,"Last")</f>
+        <v>60.23</v>
+      </c>
+      <c r="K3" s="5">
+        <f t="shared" ref="K3:K7" si="3">J3/D3-1</f>
+        <v>-6.8431033061259194E-3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -712,11 +880,11 @@
         <v>123.8145</v>
       </c>
       <c r="E4" s="5">
-        <f>G4/D4-1</f>
+        <f t="shared" si="0"/>
         <v>-8.4400453904831529E-4</v>
       </c>
       <c r="F4" s="5">
-        <f>I4/$I$21</f>
+        <f t="shared" si="1"/>
         <v>0.27880864950628342</v>
       </c>
       <c r="G4" s="4">
@@ -727,11 +895,19 @@
         <v>45</v>
       </c>
       <c r="I4" s="4">
-        <f>H4*G4</f>
+        <f t="shared" si="2"/>
         <v>5566.95</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J4">
+        <f>_xll.RealtimeData(A4,"Last")</f>
+        <v>123.65</v>
+      </c>
+      <c r="K4" s="5">
+        <f t="shared" si="3"/>
+        <v>-1.3286004466358525E-3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>11</v>
       </c>
@@ -746,11 +922,11 @@
         <v>47.325000000000003</v>
       </c>
       <c r="E5" s="5">
-        <f>G5/D5-1</f>
+        <f t="shared" si="0"/>
         <v>3.1695721077662498E-4</v>
       </c>
       <c r="F5" s="5">
-        <f>I5/$I$21</f>
+        <f t="shared" si="1"/>
         <v>9.0095017158379975E-2</v>
       </c>
       <c r="G5" s="4">
@@ -761,11 +937,19 @@
         <v>38</v>
       </c>
       <c r="I5" s="4">
-        <f>H5*G5</f>
+        <f t="shared" si="2"/>
         <v>1798.92</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J5">
+        <f>_xll.RealtimeData(A5,"Last")</f>
+        <v>47.36</v>
+      </c>
+      <c r="K5" s="5">
+        <f t="shared" si="3"/>
+        <v>7.3956682514531025E-4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -780,11 +964,11 @@
         <v>266.35950000000003</v>
       </c>
       <c r="E6" s="5">
-        <f>G6/D6-1</f>
+        <f t="shared" si="0"/>
         <v>1.7664096831535581E-3</v>
       </c>
       <c r="F6" s="5">
-        <f>I6/$I$21</f>
+        <f t="shared" si="1"/>
         <v>0.17372684420030732</v>
       </c>
       <c r="G6" s="4">
@@ -795,11 +979,19 @@
         <v>13</v>
       </c>
       <c r="I6" s="4">
-        <f>H6*G6</f>
+        <f t="shared" si="2"/>
         <v>3468.79</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J6">
+        <f>_xll.RealtimeData(A6,"Last")</f>
+        <v>264.97000000000003</v>
+      </c>
+      <c r="K6" s="5">
+        <f t="shared" si="3"/>
+        <v>-5.2166339101853421E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>12</v>
       </c>
@@ -814,11 +1006,11 @@
         <v>40.709899999999998</v>
       </c>
       <c r="E7" s="5">
-        <f>G7/D7-1</f>
+        <f t="shared" si="0"/>
         <v>4.9373739557201368E-4</v>
       </c>
       <c r="F7" s="5">
-        <f>I7/$I$21</f>
+        <f t="shared" si="1"/>
         <v>7.3435462254569067E-2</v>
       </c>
       <c r="G7" s="4">
@@ -829,11 +1021,19 @@
         <v>36</v>
       </c>
       <c r="I7" s="4">
-        <f>H7*G7</f>
+        <f t="shared" si="2"/>
         <v>1466.28</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J7">
+        <f>_xll.RealtimeData(A7,"Last")</f>
+        <v>40.409999999999997</v>
+      </c>
+      <c r="K7" s="5">
+        <f t="shared" si="3"/>
+        <v>-7.3667584543317677E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>18</v>
       </c>
@@ -842,7 +1042,7 @@
         <v>ISHARES TR-MSCI EMG MKT ETF</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>19</v>
       </c>
@@ -851,7 +1051,7 @@
         <v>ISHARES TR-U.S. REAL ES ETF</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>20</v>
       </c>
@@ -860,7 +1060,7 @@
         <v>ISHARES TR-BARCLAYS 7 10 YR</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>21</v>
       </c>
@@ -869,8 +1069,8 @@
         <v>ISHARES TR-20 YR TR BD ETF</v>
       </c>
     </row>
-    <row r="19" spans="8:9" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="20" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="8:12" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="20" spans="8:12" x14ac:dyDescent="0.25">
       <c r="H20" s="2" t="s">
         <v>14</v>
       </c>
@@ -878,7 +1078,7 @@
         <v>427.8</v>
       </c>
     </row>
-    <row r="21" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="8:12" x14ac:dyDescent="0.25">
       <c r="H21" s="2" t="s">
         <v>16</v>
       </c>
@@ -886,13 +1086,69 @@
         <f>SUM(I2:I20)</f>
         <v>19966.919999999998</v>
       </c>
-    </row>
-    <row r="22" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="J21" t="s">
+        <v>24</v>
+      </c>
+      <c r="K21" s="8">
+        <f>SUMPRODUCT(K2:K7,F2:F7)</f>
+        <v>-3.512384666891901E-3</v>
+      </c>
+    </row>
+    <row r="22" spans="8:12" x14ac:dyDescent="0.25">
       <c r="H22" t="s">
         <v>17</v>
       </c>
       <c r="I22">
         <v>20000</v>
+      </c>
+      <c r="J22" t="s">
+        <v>26</v>
+      </c>
+      <c r="K22" s="8">
+        <f>_xll.RealtimeData(J22,"Change in Percent")</f>
+        <v>-4.1718815185648314E-3</v>
+      </c>
+      <c r="L22">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="23" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="J23" t="s">
+        <v>25</v>
+      </c>
+      <c r="K23" s="8">
+        <f>_xll.RealtimeData(J23,"Change in Percent")</f>
+        <v>0</v>
+      </c>
+      <c r="L23">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="24" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="J24" t="s">
+        <v>9</v>
+      </c>
+      <c r="K24" s="8">
+        <f>_xll.RealtimeData(J24,"Change in Percent")</f>
+        <v>-6.9707304276129369E-3</v>
+      </c>
+    </row>
+    <row r="25" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="J25" t="s">
+        <v>27</v>
+      </c>
+      <c r="K25" s="8">
+        <f t="array" ref="K25">SUMPRODUCT(K22:K23,L22:L23)</f>
+        <v>-2.5031289111388986E-3</v>
+      </c>
+    </row>
+    <row r="26" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="H26" t="s">
+        <v>28</v>
+      </c>
+      <c r="I26" s="6">
+        <f>SUM(I2:I18)</f>
+        <v>19539.12</v>
       </c>
     </row>
   </sheetData>
@@ -901,4 +1157,108 @@
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet2"/>
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="4" width="18.85546875" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.5703125" style="4" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="9">
+        <v>43220</v>
+      </c>
+      <c r="B2" s="4">
+        <v>0</v>
+      </c>
+      <c r="C2" s="4">
+        <v>20000</v>
+      </c>
+      <c r="D2" s="4">
+        <v>20000</v>
+      </c>
+      <c r="E2" s="4">
+        <v>1</v>
+      </c>
+      <c r="F2" s="10">
+        <v>1</v>
+      </c>
+      <c r="G2" s="4">
+        <v>1</v>
+      </c>
+      <c r="H2" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="9">
+        <v>43221</v>
+      </c>
+      <c r="B3" s="4">
+        <v>19539.12</v>
+      </c>
+      <c r="C3" s="4">
+        <v>427.8</v>
+      </c>
+      <c r="D3" s="4">
+        <f>B3+C3</f>
+        <v>19966.919999999998</v>
+      </c>
+      <c r="E3" s="5">
+        <f>D3/D2-1</f>
+        <v>-1.6540000000000443E-3</v>
+      </c>
+      <c r="F3" s="10">
+        <f>F2*(1+E3)</f>
+        <v>0.99834599999999996</v>
+      </c>
+      <c r="G3" s="5">
+        <f>F3/$F$2-1</f>
+        <v>-1.6540000000000443E-3</v>
+      </c>
+      <c r="H3" s="8">
+        <f>F3/$F$2-1</f>
+        <v>-1.6540000000000443E-3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Portfolio.xlsx
+++ b/Portfolio.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="54">
   <si>
     <t>Symbol</t>
   </si>
@@ -99,9 +99,6 @@
     <t>Realtime +/-</t>
   </si>
   <si>
-    <t>PnL</t>
-  </si>
-  <si>
     <t>AGG</t>
   </si>
   <si>
@@ -133,6 +130,63 @@
   </si>
   <si>
     <t>YTD</t>
+  </si>
+  <si>
+    <t>Total PnL</t>
+  </si>
+  <si>
+    <t>Daily Pnl</t>
+  </si>
+  <si>
+    <t>Daily Change</t>
+  </si>
+  <si>
+    <t>NAV_ACWI</t>
+  </si>
+  <si>
+    <t>NAV_AGG</t>
+  </si>
+  <si>
+    <t>NAV_SPY</t>
+  </si>
+  <si>
+    <t>ACWI_Daily</t>
+  </si>
+  <si>
+    <t>AGG_Daily</t>
+  </si>
+  <si>
+    <t>SPY_Daily</t>
+  </si>
+  <si>
+    <t>60/40Index</t>
+  </si>
+  <si>
+    <t>NAV_6040</t>
+  </si>
+  <si>
+    <t>MTD_ACWI</t>
+  </si>
+  <si>
+    <t>MTD_AGG</t>
+  </si>
+  <si>
+    <t>MTD_SPY</t>
+  </si>
+  <si>
+    <t>MTD_60/40</t>
+  </si>
+  <si>
+    <t>YTD_ACWI</t>
+  </si>
+  <si>
+    <t>YTD_AGG</t>
+  </si>
+  <si>
+    <t>YTD_SPY</t>
+  </si>
+  <si>
+    <t>YTD_60/40</t>
   </si>
 </sst>
 </file>
@@ -195,7 +249,7 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -219,6 +273,8 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -241,7 +297,245 @@
 <file path=xl/volatileDependencies.xml><?xml version="1.0" encoding="utf-8"?>
 <volTypes xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <volType type="realTimeData">
-    <main first="rtdsrv.3b81a987f74b4eea988e6d2f004204c2">
+    <main first="rtdsrv.cf9b9f1097d041b2af10a25271d9a27e">
+      <tp>
+        <v>-3.1500572737685967E-3</v>
+        <stp/>
+        <stp>DBC</stp>
+        <stp>change in percent</stp>
+        <tr r="L2" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.cf9b9f1097d041b2af10a25271d9a27e">
+      <tp>
+        <v>6.712494945410416E-3</v>
+        <stp/>
+        <stp>GLD</stp>
+        <stp>change in percent</stp>
+        <tr r="L4" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.cf9b9f1097d041b2af10a25271d9a27e">
+      <tp>
+        <v>1.9873190120184916E-3</v>
+        <stp/>
+        <stp>AGG</stp>
+        <stp>change in percent</stp>
+        <tr r="K23" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.cf9b9f1097d041b2af10a25271d9a27e">
+      <tp>
+        <v>-6.842619745845482E-3</v>
+        <stp/>
+        <stp>ACWI</stp>
+        <stp>change in percent</stp>
+        <tr r="K22" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.cf9b9f1097d041b2af10a25271d9a27e">
+      <tp>
+        <v>-2.1583928274945211E-3</v>
+        <stp/>
+        <stp>EWJ</stp>
+        <stp>change in percent</stp>
+        <tr r="L3" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.cf9b9f1097d041b2af10a25271d9a27e">
+      <tp>
+        <v>-1.4780405405405469E-3</v>
+        <stp/>
+        <stp>IEV</stp>
+        <stp>change in percent</stp>
+        <tr r="L5" s="1"/>
+      </tp>
+      <tp>
+        <v>-9.7746914745066599E-3</v>
+        <stp/>
+        <stp>IVV</stp>
+        <stp>change in percent</stp>
+        <tr r="K24" s="1"/>
+        <tr r="L6" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.cf9b9f1097d041b2af10a25271d9a27e">
+      <tp>
+        <v>-1.6085127443701485E-3</v>
+        <stp/>
+        <stp>RWX</stp>
+        <stp>change in percent</stp>
+        <tr r="L7" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.cf9b9f1097d041b2af10a25271d9a27e">
+      <tp t="s">
+        <v>POWERSHARES DB CMDTY IDX TRA-UNIT BEN INT</v>
+        <stp/>
+        <stp>DBC</stp>
+        <stp>description</stp>
+        <tr r="B2" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.cf9b9f1097d041b2af10a25271d9a27e">
+      <tp>
+        <v>47.29</v>
+        <stp/>
+        <stp>IEV</stp>
+        <stp>last</stp>
+        <tr r="J5" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.cf9b9f1097d041b2af10a25271d9a27e">
+      <tp t="s">
+        <v>ISHARES TR-MSCI EMG MKT ETF</v>
+        <stp/>
+        <stp>EEM</stp>
+        <stp>description</stp>
+        <tr r="B8" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.cf9b9f1097d041b2af10a25271d9a27e">
+      <tp t="s">
+        <v>ISHARES INC-MSCI JPN ETF NEW</v>
+        <stp/>
+        <stp>EWJ</stp>
+        <stp>description</stp>
+        <tr r="B3" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.cf9b9f1097d041b2af10a25271d9a27e">
+      <tp>
+        <v>40.409999999999997</v>
+        <stp/>
+        <stp>RWX</stp>
+        <stp>close</stp>
+        <tr r="G7" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.cf9b9f1097d041b2af10a25271d9a27e">
+      <tp t="s">
+        <v>SPDR GOLD TRUST-GOLD SHS</v>
+        <stp/>
+        <stp>GLD</stp>
+        <stp>description</stp>
+        <tr r="B4" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.cf9b9f1097d041b2af10a25271d9a27e">
+      <tp>
+        <v>17.405000000000001</v>
+        <stp/>
+        <stp>DBC</stp>
+        <stp>last</stp>
+        <tr r="J2" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.cf9b9f1097d041b2af10a25271d9a27e">
+      <tp>
+        <v>124.48</v>
+        <stp/>
+        <stp>GLD</stp>
+        <stp>last</stp>
+        <tr r="J4" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.cf9b9f1097d041b2af10a25271d9a27e">
+      <tp>
+        <v>47.36</v>
+        <stp/>
+        <stp>IEV</stp>
+        <stp>close</stp>
+        <tr r="G5" s="1"/>
+      </tp>
+      <tp>
+        <v>264.97000000000003</v>
+        <stp/>
+        <stp>IVV</stp>
+        <stp>close</stp>
+        <tr r="G6" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.cf9b9f1097d041b2af10a25271d9a27e">
+      <tp t="s">
+        <v>ISHARES TR-EUROPE ETF</v>
+        <stp/>
+        <stp>IEV</stp>
+        <stp>description</stp>
+        <tr r="B5" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>ISHARES TR-BARCLAYS 7 10 YR</v>
+        <stp/>
+        <stp>IEF</stp>
+        <stp>description</stp>
+        <tr r="B10" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.cf9b9f1097d041b2af10a25271d9a27e">
+      <tp t="s">
+        <v>ISHARES TR-CORE S&amp;P500 ETF</v>
+        <stp/>
+        <stp>IVV</stp>
+        <stp>description</stp>
+        <tr r="B6" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.cf9b9f1097d041b2af10a25271d9a27e">
+      <tp t="s">
+        <v>ISHARES TR-U.S. REAL ES ETF</v>
+        <stp/>
+        <stp>IYR</stp>
+        <stp>description</stp>
+        <tr r="B9" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.cf9b9f1097d041b2af10a25271d9a27e">
+      <tp>
+        <v>60.23</v>
+        <stp/>
+        <stp>EWJ</stp>
+        <stp>close</stp>
+        <tr r="G3" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.cf9b9f1097d041b2af10a25271d9a27e">
+      <tp t="s">
+        <v>ISHARES TR-20 YR TR BD ETF</v>
+        <stp/>
+        <stp>TLT</stp>
+        <stp>description</stp>
+        <tr r="B11" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.cf9b9f1097d041b2af10a25271d9a27e">
+      <tp>
+        <v>60.1</v>
+        <stp/>
+        <stp>EWJ</stp>
+        <stp>last</stp>
+        <tr r="J3" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.cf9b9f1097d041b2af10a25271d9a27e">
+      <tp>
+        <v>40.344999999999999</v>
+        <stp/>
+        <stp>RWX</stp>
+        <stp>last</stp>
+        <tr r="J7" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.cf9b9f1097d041b2af10a25271d9a27e">
+      <tp>
+        <v>262.38</v>
+        <stp/>
+        <stp>IVV</stp>
+        <stp>last</stp>
+        <tr r="J6" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.cf9b9f1097d041b2af10a25271d9a27e">
       <tp t="s">
         <v>SPDR INDEX SHS FDS-DJ INTL RL ETF</v>
         <stp/>
@@ -250,212 +544,22 @@
         <tr r="B7" s="1"/>
       </tp>
     </main>
-    <main first="rtdsrv.3b81a987f74b4eea988e6d2f004204c2">
-      <tp t="s">
-        <v>ISHARES TR-20 YR TR BD ETF</v>
-        <stp/>
-        <stp>TLT</stp>
-        <stp>description</stp>
-        <tr r="B11" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.3b81a987f74b4eea988e6d2f004204c2">
-      <tp t="s">
-        <v>ISHARES TR-MSCI EMG MKT ETF</v>
-        <stp/>
-        <stp>EEM</stp>
-        <stp>description</stp>
-        <tr r="B8" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.3b81a987f74b4eea988e6d2f004204c2">
-      <tp t="s">
-        <v>ISHARES INC-MSCI JPN ETF NEW</v>
-        <stp/>
-        <stp>EWJ</stp>
-        <stp>description</stp>
-        <tr r="B3" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.3b81a987f74b4eea988e6d2f004204c2">
-      <tp t="s">
-        <v>POWERSHARES DB CMDTY IDX TRA-UNIT BEN INT</v>
+    <main first="rtdsrv.cf9b9f1097d041b2af10a25271d9a27e">
+      <tp>
+        <v>17.46</v>
         <stp/>
         <stp>DBC</stp>
-        <stp>description</stp>
-        <tr r="B2" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.3b81a987f74b4eea988e6d2f004204c2">
-      <tp t="s">
-        <v>SPDR GOLD TRUST-GOLD SHS</v>
-        <stp/>
-        <stp>GLD</stp>
-        <stp>description</stp>
-        <tr r="B4" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.3b81a987f74b4eea988e6d2f004204c2">
-      <tp t="s">
-        <v>ISHARES TR-EUROPE ETF</v>
-        <stp/>
-        <stp>IEV</stp>
-        <stp>description</stp>
-        <tr r="B5" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>ISHARES TR-BARCLAYS 7 10 YR</v>
-        <stp/>
-        <stp>IEF</stp>
-        <stp>description</stp>
-        <tr r="B10" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.3b81a987f74b4eea988e6d2f004204c2">
-      <tp t="s">
-        <v>ISHARES TR-U.S. REAL ES ETF</v>
-        <stp/>
-        <stp>IYR</stp>
-        <stp>description</stp>
-        <tr r="B9" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>ISHARES TR-CORE S&amp;P500 ETF</v>
-        <stp/>
-        <stp>IVV</stp>
-        <stp>description</stp>
-        <tr r="B6" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.3b81a987f74b4eea988e6d2f004204c2">
-      <tp>
-        <v>0</v>
-        <stp/>
-        <stp>AGG</stp>
-        <stp>change in percent</stp>
-        <tr r="K23" s="1"/>
-      </tp>
-      <tp>
-        <v>-4.1718815185648314E-3</v>
-        <stp/>
-        <stp>ACWI</stp>
-        <stp>change in percent</stp>
-        <tr r="K22" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.3b81a987f74b4eea988e6d2f004204c2">
-      <tp>
-        <v>-6.9707304276129369E-3</v>
-        <stp/>
-        <stp>IVV</stp>
-        <stp>change in percent</stp>
-        <tr r="K24" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.3b81a987f74b4eea988e6d2f004204c2">
+        <stp>close</stp>
+        <tr r="G2" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.cf9b9f1097d041b2af10a25271d9a27e">
       <tp>
         <v>123.65</v>
-        <stp/>
-        <stp>GLD</stp>
-        <stp>last</stp>
-        <tr r="J4" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.3b81a987f74b4eea988e6d2f004204c2">
-      <tp>
-        <v>47.34</v>
-        <stp/>
-        <stp>IEV</stp>
-        <stp>close</stp>
-        <tr r="G5" s="1"/>
-      </tp>
-      <tp>
-        <v>266.83</v>
-        <stp/>
-        <stp>IVV</stp>
-        <stp>close</stp>
-        <tr r="G6" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.3b81a987f74b4eea988e6d2f004204c2">
-      <tp>
-        <v>47.36</v>
-        <stp/>
-        <stp>IEV</stp>
-        <stp>last</stp>
-        <tr r="J5" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.3b81a987f74b4eea988e6d2f004204c2">
-      <tp>
-        <v>40.729999999999997</v>
-        <stp/>
-        <stp>RWX</stp>
-        <stp>close</stp>
-        <tr r="G7" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.3b81a987f74b4eea988e6d2f004204c2">
-      <tp>
-        <v>17.46</v>
-        <stp/>
-        <stp>DBC</stp>
-        <stp>last</stp>
-        <tr r="J2" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.3b81a987f74b4eea988e6d2f004204c2">
-      <tp>
-        <v>123.71</v>
         <stp/>
         <stp>GLD</stp>
         <stp>close</stp>
         <tr r="G4" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.3b81a987f74b4eea988e6d2f004204c2">
-      <tp>
-        <v>17.46</v>
-        <stp/>
-        <stp>DBC</stp>
-        <stp>close</stp>
-        <tr r="G2" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.3b81a987f74b4eea988e6d2f004204c2">
-      <tp>
-        <v>60.23</v>
-        <stp/>
-        <stp>EWJ</stp>
-        <stp>last</stp>
-        <tr r="J3" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.3b81a987f74b4eea988e6d2f004204c2">
-      <tp>
-        <v>40.409999999999997</v>
-        <stp/>
-        <stp>RWX</stp>
-        <stp>last</stp>
-        <tr r="J7" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.3b81a987f74b4eea988e6d2f004204c2">
-      <tp>
-        <v>264.97000000000003</v>
-        <stp/>
-        <stp>IVV</stp>
-        <stp>last</stp>
-        <tr r="J6" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.3b81a987f74b4eea988e6d2f004204c2">
-      <tp>
-        <v>60.59</v>
-        <stp/>
-        <stp>EWJ</stp>
-        <stp>close</stp>
-        <tr r="G3" s="1"/>
       </tp>
     </main>
   </volType>
@@ -726,10 +830,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:L26"/>
+  <dimension ref="A1:N26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M28" sqref="M28"/>
+      <selection activeCell="O31" sqref="O31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -744,9 +848,10 @@
     <col min="8" max="8" width="14.42578125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11.5703125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="12" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -780,8 +885,11 @@
       <c r="K1" s="7" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L1" s="7" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -801,7 +909,7 @@
       </c>
       <c r="F2" s="5">
         <f t="shared" ref="F2:F7" si="1">I2/$I$21</f>
-        <v>0.11367802345078762</v>
+        <v>0.1140616771257543</v>
       </c>
       <c r="G2" s="4">
         <f>_xll.RealtimeData(A2,"Close")</f>
@@ -816,14 +924,18 @@
       </c>
       <c r="J2">
         <f>_xll.RealtimeData(A2,"Last")</f>
-        <v>17.46</v>
+        <v>17.405000000000001</v>
       </c>
       <c r="K2" s="5">
         <f>J2/D2-1</f>
-        <v>-5.1519835136526471E-4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+        <v>-3.6636327208197095E-3</v>
+      </c>
+      <c r="L2" s="8">
+        <f>_xll.RealtimeData(A2,"Change in Percent")</f>
+        <v>-3.1500572737685967E-3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -839,33 +951,37 @@
       </c>
       <c r="E3" s="5">
         <f t="shared" si="0"/>
-        <v>-9.0691730563108308E-4</v>
+        <v>-6.8431033061259194E-3</v>
       </c>
       <c r="F3" s="5">
         <f t="shared" si="1"/>
-        <v>0.24883056575576004</v>
+        <v>0.24818691280698862</v>
       </c>
       <c r="G3" s="4">
         <f>_xll.RealtimeData(A3,"Close")</f>
-        <v>60.59</v>
+        <v>60.23</v>
       </c>
       <c r="H3" s="4">
         <v>82</v>
       </c>
       <c r="I3" s="4">
         <f t="shared" si="2"/>
-        <v>4968.38</v>
+        <v>4938.8599999999997</v>
       </c>
       <c r="J3">
         <f>_xll.RealtimeData(A3,"Last")</f>
-        <v>60.23</v>
+        <v>60.1</v>
       </c>
       <c r="K3" s="5">
-        <f t="shared" ref="K3:K7" si="3">J3/D3-1</f>
-        <v>-6.8431033061259194E-3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+        <f>J3/D3-1</f>
+        <v>-8.9867260285266815E-3</v>
+      </c>
+      <c r="L3" s="8">
+        <f>_xll.RealtimeData(A3,"Change in Percent")</f>
+        <v>-2.1583928274945211E-3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -881,33 +997,37 @@
       </c>
       <c r="E4" s="5">
         <f t="shared" si="0"/>
-        <v>-8.4400453904831529E-4</v>
+        <v>-1.3286004466358525E-3</v>
       </c>
       <c r="F4" s="5">
         <f t="shared" si="1"/>
-        <v>0.27880864950628342</v>
+        <v>0.27961392499206023</v>
       </c>
       <c r="G4" s="4">
         <f>_xll.RealtimeData(A4,"Close")</f>
-        <v>123.71</v>
+        <v>123.65</v>
       </c>
       <c r="H4" s="4">
         <v>45</v>
       </c>
       <c r="I4" s="4">
         <f t="shared" si="2"/>
-        <v>5566.95</v>
+        <v>5564.25</v>
       </c>
       <c r="J4">
         <f>_xll.RealtimeData(A4,"Last")</f>
-        <v>123.65</v>
+        <v>124.48</v>
       </c>
       <c r="K4" s="5">
-        <f t="shared" si="3"/>
-        <v>-1.3286004466358525E-3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+        <f t="shared" ref="K4:K7" si="3">J4/D4-1</f>
+        <v>5.3749762749921715E-3</v>
+      </c>
+      <c r="L4" s="8">
+        <f>_xll.RealtimeData(A4,"Change in Percent")</f>
+        <v>6.712494945410416E-3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>11</v>
       </c>
@@ -923,33 +1043,37 @@
       </c>
       <c r="E5" s="5">
         <f t="shared" si="0"/>
-        <v>3.1695721077662498E-4</v>
+        <v>7.3956682514531025E-4</v>
       </c>
       <c r="F5" s="5">
         <f t="shared" si="1"/>
-        <v>9.0095017158379975E-2</v>
+        <v>9.0437271605285696E-2</v>
       </c>
       <c r="G5" s="4">
         <f>_xll.RealtimeData(A5,"Close")</f>
-        <v>47.34</v>
+        <v>47.36</v>
       </c>
       <c r="H5" s="4">
         <v>38</v>
       </c>
       <c r="I5" s="4">
         <f t="shared" si="2"/>
-        <v>1798.92</v>
+        <v>1799.68</v>
       </c>
       <c r="J5">
         <f>_xll.RealtimeData(A5,"Last")</f>
-        <v>47.36</v>
+        <v>47.29</v>
       </c>
       <c r="K5" s="5">
         <f t="shared" si="3"/>
-        <v>7.3956682514531025E-4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+        <v>-7.3956682514531025E-4</v>
+      </c>
+      <c r="L5" s="8">
+        <f>_xll.RealtimeData(A5,"Change in Percent")</f>
+        <v>-1.4780405405405469E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -965,33 +1089,37 @@
       </c>
       <c r="E6" s="5">
         <f t="shared" si="0"/>
-        <v>1.7664096831535581E-3</v>
+        <v>-5.2166339101853421E-3</v>
       </c>
       <c r="F6" s="5">
         <f t="shared" si="1"/>
-        <v>0.17372684420030732</v>
+        <v>0.17309806751438211</v>
       </c>
       <c r="G6" s="4">
         <f>_xll.RealtimeData(A6,"Close")</f>
-        <v>266.83</v>
+        <v>264.97000000000003</v>
       </c>
       <c r="H6" s="4">
         <v>13</v>
       </c>
       <c r="I6" s="4">
         <f t="shared" si="2"/>
-        <v>3468.79</v>
+        <v>3444.6100000000006</v>
       </c>
       <c r="J6">
         <f>_xll.RealtimeData(A6,"Last")</f>
-        <v>264.97000000000003</v>
+        <v>262.38</v>
       </c>
       <c r="K6" s="5">
         <f t="shared" si="3"/>
-        <v>-5.2166339101853421E-3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+        <v>-1.4940334397684496E-2</v>
+      </c>
+      <c r="L6" s="8">
+        <f>_xll.RealtimeData(A6,"Change in Percent")</f>
+        <v>-9.7746914745066599E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>12</v>
       </c>
@@ -1007,33 +1135,37 @@
       </c>
       <c r="E7" s="5">
         <f t="shared" si="0"/>
-        <v>4.9373739557201368E-4</v>
+        <v>-7.3667584543317677E-3</v>
       </c>
       <c r="F7" s="5">
         <f t="shared" si="1"/>
-        <v>7.3435462254569067E-2</v>
+        <v>7.3104399249036167E-2</v>
       </c>
       <c r="G7" s="4">
         <f>_xll.RealtimeData(A7,"Close")</f>
-        <v>40.729999999999997</v>
+        <v>40.409999999999997</v>
       </c>
       <c r="H7" s="4">
         <v>36</v>
       </c>
       <c r="I7" s="4">
         <f t="shared" si="2"/>
-        <v>1466.28</v>
+        <v>1454.7599999999998</v>
       </c>
       <c r="J7">
         <f>_xll.RealtimeData(A7,"Last")</f>
-        <v>40.409999999999997</v>
+        <v>40.344999999999999</v>
       </c>
       <c r="K7" s="5">
         <f t="shared" si="3"/>
-        <v>-7.3667584543317677E-3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+        <v>-8.9634216738434525E-3</v>
+      </c>
+      <c r="L7" s="8">
+        <f>_xll.RealtimeData(A7,"Change in Percent")</f>
+        <v>-1.6085127443701485E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>18</v>
       </c>
@@ -1042,7 +1174,7 @@
         <v>ISHARES TR-MSCI EMG MKT ETF</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>19</v>
       </c>
@@ -1051,7 +1183,7 @@
         <v>ISHARES TR-U.S. REAL ES ETF</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>20</v>
       </c>
@@ -1060,7 +1192,7 @@
         <v>ISHARES TR-BARCLAYS 7 10 YR</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>21</v>
       </c>
@@ -1069,8 +1201,8 @@
         <v>ISHARES TR-20 YR TR BD ETF</v>
       </c>
     </row>
-    <row r="19" spans="8:12" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="20" spans="8:12" x14ac:dyDescent="0.25">
+    <row r="19" spans="8:14" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="20" spans="8:14" x14ac:dyDescent="0.25">
       <c r="H20" s="2" t="s">
         <v>14</v>
       </c>
@@ -1078,23 +1210,30 @@
         <v>427.8</v>
       </c>
     </row>
-    <row r="21" spans="8:12" x14ac:dyDescent="0.25">
+    <row r="21" spans="8:14" x14ac:dyDescent="0.25">
       <c r="H21" s="2" t="s">
         <v>16</v>
       </c>
       <c r="I21" s="6">
         <f>SUM(I2:I20)</f>
-        <v>19966.919999999998</v>
+        <v>19899.759999999998</v>
       </c>
       <c r="J21" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="K21" s="8">
         <f>SUMPRODUCT(K2:K7,F2:F7)</f>
-        <v>-3.512384666891901E-3</v>
-      </c>
-    </row>
-    <row r="22" spans="8:12" x14ac:dyDescent="0.25">
+        <v>-4.4536426435578457E-3</v>
+      </c>
+      <c r="M21" t="s">
+        <v>36</v>
+      </c>
+      <c r="N21" s="8">
+        <f t="array" ref="N21">SUMPRODUCT(F2:F7,L2:L7)</f>
+        <v>-9.6131812644976436E-4</v>
+      </c>
+    </row>
+    <row r="22" spans="8:14" x14ac:dyDescent="0.25">
       <c r="H22" t="s">
         <v>17</v>
       </c>
@@ -1102,53 +1241,53 @@
         <v>20000</v>
       </c>
       <c r="J22" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K22" s="8">
         <f>_xll.RealtimeData(J22,"Change in Percent")</f>
-        <v>-4.1718815185648314E-3</v>
+        <v>-6.842619745845482E-3</v>
       </c>
       <c r="L22">
         <v>0.6</v>
       </c>
     </row>
-    <row r="23" spans="8:12" x14ac:dyDescent="0.25">
+    <row r="23" spans="8:14" x14ac:dyDescent="0.25">
       <c r="J23" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K23" s="8">
         <f>_xll.RealtimeData(J23,"Change in Percent")</f>
-        <v>0</v>
+        <v>1.9873190120184916E-3</v>
       </c>
       <c r="L23">
         <v>0.4</v>
       </c>
     </row>
-    <row r="24" spans="8:12" x14ac:dyDescent="0.25">
+    <row r="24" spans="8:14" x14ac:dyDescent="0.25">
       <c r="J24" t="s">
         <v>9</v>
       </c>
       <c r="K24" s="8">
         <f>_xll.RealtimeData(J24,"Change in Percent")</f>
-        <v>-6.9707304276129369E-3</v>
-      </c>
-    </row>
-    <row r="25" spans="8:12" x14ac:dyDescent="0.25">
+        <v>-9.7746914745066599E-3</v>
+      </c>
+    </row>
+    <row r="25" spans="8:14" x14ac:dyDescent="0.25">
       <c r="J25" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K25" s="8">
         <f t="array" ref="K25">SUMPRODUCT(K22:K23,L22:L23)</f>
-        <v>-2.5031289111388986E-3</v>
-      </c>
-    </row>
-    <row r="26" spans="8:12" x14ac:dyDescent="0.25">
+        <v>-3.310644242699892E-3</v>
+      </c>
+    </row>
+    <row r="26" spans="8:14" x14ac:dyDescent="0.25">
       <c r="H26" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I26" s="6">
         <f>SUM(I2:I18)</f>
-        <v>19539.12</v>
+        <v>19471.96</v>
       </c>
     </row>
   </sheetData>
@@ -1162,10 +1301,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:AB50"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A38" sqref="A38:A40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1173,35 +1312,85 @@
     <col min="1" max="4" width="18.85546875" customWidth="1"/>
     <col min="5" max="5" width="12.7109375" style="4" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="F1" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="E1" s="7" t="s">
+      <c r="G1" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="F1" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="H1" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J1" t="s">
+        <v>41</v>
+      </c>
+      <c r="K1" t="s">
+        <v>42</v>
+      </c>
+      <c r="L1" t="s">
+        <v>43</v>
+      </c>
+      <c r="M1" t="s">
+        <v>44</v>
+      </c>
+      <c r="O1" t="s">
+        <v>38</v>
+      </c>
+      <c r="P1" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>40</v>
+      </c>
+      <c r="R1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T1" t="s">
+        <v>46</v>
+      </c>
+      <c r="U1" t="s">
+        <v>47</v>
+      </c>
+      <c r="V1" t="s">
+        <v>48</v>
+      </c>
+      <c r="W1" t="s">
+        <v>49</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>50</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>51</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A2" s="9">
         <v>43220</v>
       </c>
@@ -1215,19 +1404,67 @@
         <v>20000</v>
       </c>
       <c r="E2" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F2" s="10">
         <v>1</v>
       </c>
       <c r="G2" s="4">
+        <v>0</v>
+      </c>
+      <c r="H2" s="4">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="O2">
         <v>1</v>
       </c>
-      <c r="H2" s="4">
+      <c r="P2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="Q2">
+        <v>1</v>
+      </c>
+      <c r="R2">
+        <v>1</v>
+      </c>
+      <c r="T2">
+        <v>0</v>
+      </c>
+      <c r="U2">
+        <v>0</v>
+      </c>
+      <c r="V2">
+        <v>0</v>
+      </c>
+      <c r="W2">
+        <v>0</v>
+      </c>
+      <c r="Y2">
+        <v>0</v>
+      </c>
+      <c r="Z2">
+        <v>0</v>
+      </c>
+      <c r="AA2">
+        <v>0</v>
+      </c>
+      <c r="AB2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A3" s="9">
         <v>43221</v>
       </c>
@@ -1257,6 +1494,768 @@
         <f>F3/$F$2-1</f>
         <v>-1.6540000000000443E-3</v>
       </c>
+      <c r="J3" s="11">
+        <v>-1.1100000000000001E-3</v>
+      </c>
+      <c r="K3" s="11">
+        <v>-8.4999999999999995E-4</v>
+      </c>
+      <c r="L3" s="11">
+        <v>1.7700000000000001E-3</v>
+      </c>
+      <c r="M3" s="11">
+        <f>0.6*J3 + 0.4*K3</f>
+        <v>-1.0059999999999999E-3</v>
+      </c>
+      <c r="O3" s="10">
+        <f>O2*(1+J3)</f>
+        <v>0.99888999999999994</v>
+      </c>
+      <c r="P3" s="10">
+        <f>P2*(1+K3)</f>
+        <v>0.99914999999999998</v>
+      </c>
+      <c r="Q3" s="10">
+        <f>Q2*(1+L3)</f>
+        <v>1.00177</v>
+      </c>
+      <c r="R3" s="10">
+        <f>R2*(1+M3)</f>
+        <v>0.99899400000000005</v>
+      </c>
+      <c r="T3" s="5">
+        <f>O3/$O$2-1</f>
+        <v>-1.1100000000000554E-3</v>
+      </c>
+      <c r="U3" s="5">
+        <f t="shared" ref="U3:W3" si="0">P3/$O$2-1</f>
+        <v>-8.5000000000001741E-4</v>
+      </c>
+      <c r="V3" s="5">
+        <f t="shared" si="0"/>
+        <v>1.7700000000000493E-3</v>
+      </c>
+      <c r="W3" s="5">
+        <f t="shared" si="0"/>
+        <v>-1.0059999999999514E-3</v>
+      </c>
+      <c r="Y3" s="8">
+        <f>O3/$O$2-1</f>
+        <v>-1.1100000000000554E-3</v>
+      </c>
+      <c r="Z3" s="8">
+        <f t="shared" ref="Z3:AB3" si="1">P3/$O$2-1</f>
+        <v>-8.5000000000001741E-4</v>
+      </c>
+      <c r="AA3" s="8">
+        <f t="shared" si="1"/>
+        <v>1.7700000000000493E-3</v>
+      </c>
+      <c r="AB3" s="8">
+        <f t="shared" si="1"/>
+        <v>-1.0059999999999514E-3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A4" s="9">
+        <v>43222</v>
+      </c>
+      <c r="B4" s="4">
+        <v>19471.96</v>
+      </c>
+      <c r="C4" s="4">
+        <v>427.7</v>
+      </c>
+      <c r="D4" s="4">
+        <f>B4+C4</f>
+        <v>19899.66</v>
+      </c>
+      <c r="E4" s="5">
+        <f>D4/D3-1</f>
+        <v>-3.368571617455185E-3</v>
+      </c>
+      <c r="F4" s="10">
+        <f>F3*(1+E4)</f>
+        <v>0.99498300000000006</v>
+      </c>
+      <c r="G4" s="5">
+        <f>F4/$F$2-1</f>
+        <v>-5.0169999999999382E-3</v>
+      </c>
+      <c r="H4" s="8">
+        <f>F4/$F$2-1</f>
+        <v>-5.0169999999999382E-3</v>
+      </c>
+      <c r="J4" s="11">
+        <v>-4.1700000000000001E-3</v>
+      </c>
+      <c r="K4" s="12">
+        <v>0</v>
+      </c>
+      <c r="L4" s="11">
+        <v>-6.7000000000000002E-3</v>
+      </c>
+      <c r="M4" s="11">
+        <f t="shared" ref="M4" si="2">0.6*J4 + 0.4*K4</f>
+        <v>-2.5019999999999999E-3</v>
+      </c>
+      <c r="O4" s="10">
+        <f t="shared" ref="O4" si="3">O3*(1+J4)</f>
+        <v>0.99472462869999989</v>
+      </c>
+      <c r="P4" s="10">
+        <f t="shared" ref="P4" si="4">P3*(1+K4)</f>
+        <v>0.99914999999999998</v>
+      </c>
+      <c r="Q4" s="10">
+        <f t="shared" ref="Q4" si="5">Q3*(1+L4)</f>
+        <v>0.99505814100000001</v>
+      </c>
+      <c r="R4" s="10">
+        <f t="shared" ref="R4" si="6">R3*(1+M4)</f>
+        <v>0.99649451701200009</v>
+      </c>
+      <c r="T4" s="5">
+        <f t="shared" ref="T4" si="7">O4/$O$2-1</f>
+        <v>-5.275371300000109E-3</v>
+      </c>
+      <c r="U4" s="5">
+        <f t="shared" ref="U4" si="8">P4/$O$2-1</f>
+        <v>-8.5000000000001741E-4</v>
+      </c>
+      <c r="V4" s="5">
+        <f t="shared" ref="V4" si="9">Q4/$O$2-1</f>
+        <v>-4.9418589999999929E-3</v>
+      </c>
+      <c r="W4" s="5">
+        <f t="shared" ref="W4" si="10">R4/$O$2-1</f>
+        <v>-3.5054829879999083E-3</v>
+      </c>
+      <c r="Y4" s="8">
+        <f>O4/$O$2-1</f>
+        <v>-5.275371300000109E-3</v>
+      </c>
+      <c r="Z4" s="8">
+        <f t="shared" ref="Z4" si="11">P4/$O$2-1</f>
+        <v>-8.5000000000001741E-4</v>
+      </c>
+      <c r="AA4" s="8">
+        <f t="shared" ref="AA4" si="12">Q4/$O$2-1</f>
+        <v>-4.9418589999999929E-3</v>
+      </c>
+      <c r="AB4" s="8">
+        <f t="shared" ref="AB4" si="13">R4/$O$2-1</f>
+        <v>-3.5054829879999083E-3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A5" s="9"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="8"/>
+      <c r="M5" s="11"/>
+      <c r="O5" s="10"/>
+      <c r="P5" s="10"/>
+      <c r="Q5" s="10"/>
+      <c r="R5" s="10"/>
+      <c r="T5" s="5"/>
+      <c r="U5" s="5"/>
+      <c r="V5" s="5"/>
+      <c r="W5" s="5"/>
+    </row>
+    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A6" s="9"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="8"/>
+      <c r="O6" s="10"/>
+      <c r="P6" s="10"/>
+      <c r="Q6" s="10"/>
+      <c r="R6" s="10"/>
+      <c r="T6" s="5"/>
+      <c r="U6" s="5"/>
+      <c r="V6" s="5"/>
+      <c r="W6" s="5"/>
+    </row>
+    <row r="7" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A7" s="9"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="8"/>
+      <c r="O7" s="10"/>
+      <c r="P7" s="10"/>
+      <c r="Q7" s="10"/>
+      <c r="R7" s="10"/>
+      <c r="T7" s="5"/>
+      <c r="U7" s="5"/>
+      <c r="V7" s="5"/>
+      <c r="W7" s="5"/>
+    </row>
+    <row r="8" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A8" s="9"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="8"/>
+      <c r="O8" s="10"/>
+      <c r="P8" s="10"/>
+      <c r="Q8" s="10"/>
+      <c r="R8" s="10"/>
+      <c r="T8" s="5"/>
+      <c r="U8" s="5"/>
+      <c r="V8" s="5"/>
+      <c r="W8" s="5"/>
+    </row>
+    <row r="9" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A9" s="9"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="8"/>
+      <c r="O9" s="10"/>
+      <c r="P9" s="10"/>
+      <c r="Q9" s="10"/>
+      <c r="R9" s="10"/>
+      <c r="T9" s="5"/>
+      <c r="U9" s="5"/>
+      <c r="V9" s="5"/>
+      <c r="W9" s="5"/>
+    </row>
+    <row r="10" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A10" s="9"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="10"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="8"/>
+      <c r="O10" s="10"/>
+      <c r="P10" s="10"/>
+      <c r="Q10" s="10"/>
+      <c r="R10" s="10"/>
+      <c r="T10" s="5"/>
+      <c r="U10" s="5"/>
+      <c r="V10" s="5"/>
+      <c r="W10" s="5"/>
+    </row>
+    <row r="11" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A11" s="9"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="10"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="8"/>
+      <c r="O11" s="10"/>
+      <c r="P11" s="10"/>
+      <c r="Q11" s="10"/>
+      <c r="R11" s="10"/>
+      <c r="T11" s="5"/>
+      <c r="U11" s="5"/>
+      <c r="V11" s="5"/>
+      <c r="W11" s="5"/>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A12" s="9"/>
+      <c r="B12" s="4"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="10"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="8"/>
+      <c r="O12" s="10"/>
+      <c r="P12" s="10"/>
+      <c r="Q12" s="10"/>
+      <c r="R12" s="10"/>
+      <c r="T12" s="5"/>
+      <c r="U12" s="5"/>
+      <c r="V12" s="5"/>
+      <c r="W12" s="5"/>
+    </row>
+    <row r="13" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A13" s="9"/>
+      <c r="B13" s="4"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="10"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="8"/>
+      <c r="O13" s="10"/>
+      <c r="P13" s="10"/>
+      <c r="Q13" s="10"/>
+      <c r="R13" s="10"/>
+      <c r="T13" s="5"/>
+      <c r="U13" s="5"/>
+      <c r="V13" s="5"/>
+      <c r="W13" s="5"/>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A14" s="9"/>
+      <c r="B14" s="4"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="10"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="8"/>
+      <c r="O14" s="10"/>
+      <c r="P14" s="10"/>
+      <c r="Q14" s="10"/>
+      <c r="R14" s="10"/>
+      <c r="T14" s="5"/>
+      <c r="U14" s="5"/>
+      <c r="V14" s="5"/>
+      <c r="W14" s="5"/>
+    </row>
+    <row r="15" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A15" s="9"/>
+      <c r="B15" s="4"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="10"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="8"/>
+      <c r="O15" s="10"/>
+      <c r="P15" s="10"/>
+      <c r="Q15" s="10"/>
+      <c r="R15" s="10"/>
+      <c r="T15" s="5"/>
+      <c r="U15" s="5"/>
+      <c r="V15" s="5"/>
+      <c r="W15" s="5"/>
+    </row>
+    <row r="16" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A16" s="9"/>
+      <c r="B16" s="4"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="10"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="8"/>
+      <c r="O16" s="10"/>
+      <c r="P16" s="10"/>
+      <c r="Q16" s="10"/>
+      <c r="R16" s="10"/>
+      <c r="T16" s="5"/>
+      <c r="U16" s="5"/>
+      <c r="V16" s="5"/>
+      <c r="W16" s="5"/>
+    </row>
+    <row r="17" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A17" s="9"/>
+      <c r="B17" s="4"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="10"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="8"/>
+      <c r="O17" s="10"/>
+      <c r="P17" s="10"/>
+      <c r="Q17" s="10"/>
+      <c r="T17" s="5"/>
+      <c r="U17" s="5"/>
+      <c r="V17" s="5"/>
+      <c r="W17" s="5"/>
+    </row>
+    <row r="18" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A18" s="9"/>
+      <c r="B18" s="4"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="10"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="8"/>
+      <c r="O18" s="10"/>
+      <c r="P18" s="10"/>
+      <c r="Q18" s="10"/>
+      <c r="T18" s="5"/>
+      <c r="U18" s="5"/>
+      <c r="V18" s="5"/>
+      <c r="W18" s="5"/>
+    </row>
+    <row r="19" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A19" s="9"/>
+      <c r="B19" s="4"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="10"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="8"/>
+      <c r="O19" s="10"/>
+      <c r="P19" s="10"/>
+      <c r="Q19" s="10"/>
+      <c r="T19" s="5"/>
+      <c r="U19" s="5"/>
+      <c r="V19" s="5"/>
+      <c r="W19" s="5"/>
+    </row>
+    <row r="20" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A20" s="9"/>
+      <c r="B20" s="4"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="10"/>
+      <c r="G20" s="5"/>
+      <c r="H20" s="8"/>
+      <c r="O20" s="10"/>
+      <c r="P20" s="10"/>
+      <c r="Q20" s="10"/>
+      <c r="T20" s="5"/>
+      <c r="U20" s="5"/>
+      <c r="V20" s="5"/>
+      <c r="W20" s="5"/>
+    </row>
+    <row r="21" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A21" s="9"/>
+      <c r="B21" s="4"/>
+      <c r="C21" s="4"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="10"/>
+      <c r="G21" s="5"/>
+      <c r="H21" s="8"/>
+      <c r="O21" s="10"/>
+      <c r="P21" s="10"/>
+      <c r="Q21" s="10"/>
+      <c r="T21" s="5"/>
+      <c r="U21" s="5"/>
+      <c r="V21" s="5"/>
+      <c r="W21" s="5"/>
+    </row>
+    <row r="22" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A22" s="9"/>
+      <c r="B22" s="4"/>
+      <c r="C22" s="4"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="5"/>
+      <c r="F22" s="10"/>
+      <c r="G22" s="5"/>
+      <c r="H22" s="8"/>
+      <c r="O22" s="10"/>
+      <c r="P22" s="10"/>
+      <c r="Q22" s="10"/>
+      <c r="T22" s="5"/>
+      <c r="U22" s="5"/>
+      <c r="V22" s="5"/>
+      <c r="W22" s="5"/>
+    </row>
+    <row r="23" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A23" s="9"/>
+      <c r="B23" s="4"/>
+      <c r="C23" s="4"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="10"/>
+      <c r="G23" s="5"/>
+      <c r="H23" s="8"/>
+      <c r="O23" s="10"/>
+      <c r="P23" s="10"/>
+      <c r="Q23" s="10"/>
+      <c r="T23" s="5"/>
+      <c r="U23" s="5"/>
+      <c r="V23" s="5"/>
+      <c r="W23" s="5"/>
+    </row>
+    <row r="24" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A24" s="9"/>
+      <c r="B24" s="4"/>
+      <c r="C24" s="4"/>
+      <c r="D24" s="4"/>
+      <c r="E24" s="5"/>
+      <c r="F24" s="10"/>
+      <c r="G24" s="5"/>
+      <c r="H24" s="8"/>
+      <c r="O24" s="10"/>
+      <c r="P24" s="10"/>
+      <c r="Q24" s="10"/>
+    </row>
+    <row r="25" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A25" s="9"/>
+      <c r="B25" s="4"/>
+      <c r="C25" s="4"/>
+      <c r="D25" s="4"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="10"/>
+      <c r="G25" s="5"/>
+      <c r="H25" s="8"/>
+    </row>
+    <row r="26" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A26" s="9"/>
+      <c r="B26" s="4"/>
+      <c r="C26" s="4"/>
+      <c r="D26" s="4"/>
+      <c r="E26" s="5"/>
+      <c r="F26" s="10"/>
+      <c r="G26" s="5"/>
+      <c r="H26" s="8"/>
+    </row>
+    <row r="27" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A27" s="9"/>
+      <c r="B27" s="4"/>
+      <c r="C27" s="4"/>
+      <c r="D27" s="4"/>
+      <c r="E27" s="5"/>
+      <c r="F27" s="10"/>
+      <c r="G27" s="5"/>
+      <c r="H27" s="8"/>
+    </row>
+    <row r="28" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A28" s="9"/>
+      <c r="B28" s="4"/>
+      <c r="C28" s="4"/>
+      <c r="D28" s="4"/>
+      <c r="E28" s="5"/>
+      <c r="F28" s="10"/>
+      <c r="G28" s="5"/>
+      <c r="H28" s="8"/>
+    </row>
+    <row r="29" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A29" s="9"/>
+      <c r="B29" s="4"/>
+      <c r="C29" s="4"/>
+      <c r="D29" s="4"/>
+      <c r="E29" s="5"/>
+      <c r="F29" s="10"/>
+      <c r="G29" s="5"/>
+      <c r="H29" s="8"/>
+    </row>
+    <row r="30" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A30" s="9"/>
+      <c r="B30" s="4"/>
+      <c r="C30" s="4"/>
+      <c r="D30" s="4"/>
+      <c r="E30" s="5"/>
+      <c r="F30" s="10"/>
+      <c r="G30" s="5"/>
+      <c r="H30" s="8"/>
+    </row>
+    <row r="31" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A31" s="9"/>
+      <c r="B31" s="4"/>
+      <c r="C31" s="4"/>
+      <c r="D31" s="4"/>
+      <c r="E31" s="5"/>
+      <c r="F31" s="10"/>
+      <c r="G31" s="5"/>
+      <c r="H31" s="8"/>
+    </row>
+    <row r="32" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A32" s="9"/>
+      <c r="B32" s="4"/>
+      <c r="C32" s="4"/>
+      <c r="D32" s="4"/>
+      <c r="E32" s="5"/>
+      <c r="F32" s="10"/>
+      <c r="G32" s="5"/>
+      <c r="H32" s="8"/>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" s="9"/>
+      <c r="B33" s="4"/>
+      <c r="C33" s="4"/>
+      <c r="D33" s="4"/>
+      <c r="E33" s="5"/>
+      <c r="F33" s="10"/>
+      <c r="G33" s="5"/>
+      <c r="H33" s="8"/>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34" s="9"/>
+      <c r="B34" s="4"/>
+      <c r="C34" s="4"/>
+      <c r="D34" s="4"/>
+      <c r="E34" s="5"/>
+      <c r="F34" s="10"/>
+      <c r="G34" s="5"/>
+      <c r="H34" s="8"/>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35" s="9"/>
+      <c r="B35" s="4"/>
+      <c r="C35" s="4"/>
+      <c r="D35" s="4"/>
+      <c r="E35" s="5"/>
+      <c r="F35" s="10"/>
+      <c r="G35" s="5"/>
+      <c r="H35" s="8"/>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A36" s="9"/>
+      <c r="B36" s="4"/>
+      <c r="C36" s="4"/>
+      <c r="D36" s="4"/>
+      <c r="E36" s="5"/>
+      <c r="F36" s="10"/>
+      <c r="G36" s="5"/>
+      <c r="H36" s="8"/>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A37" s="9"/>
+      <c r="B37" s="4"/>
+      <c r="C37" s="4"/>
+      <c r="D37" s="4"/>
+      <c r="E37" s="5"/>
+      <c r="F37" s="10"/>
+      <c r="G37" s="5"/>
+      <c r="H37" s="8"/>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A38" s="9"/>
+      <c r="B38" s="4"/>
+      <c r="C38" s="4"/>
+      <c r="D38" s="4"/>
+      <c r="E38" s="5"/>
+      <c r="F38" s="10"/>
+      <c r="G38" s="5"/>
+      <c r="H38" s="8"/>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A39" s="9"/>
+      <c r="B39" s="4"/>
+      <c r="C39" s="4"/>
+      <c r="D39" s="4"/>
+      <c r="E39" s="5"/>
+      <c r="F39" s="10"/>
+      <c r="G39" s="5"/>
+      <c r="H39" s="8"/>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A40" s="9"/>
+      <c r="B40" s="4"/>
+      <c r="C40" s="4"/>
+      <c r="D40" s="4"/>
+      <c r="E40" s="5"/>
+      <c r="F40" s="10"/>
+      <c r="G40" s="5"/>
+      <c r="H40" s="8"/>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A41" s="9"/>
+      <c r="B41" s="4"/>
+      <c r="C41" s="4"/>
+      <c r="D41" s="4"/>
+      <c r="E41" s="5"/>
+      <c r="F41" s="10"/>
+      <c r="G41" s="5"/>
+      <c r="H41" s="8"/>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A42" s="9"/>
+      <c r="B42" s="4"/>
+      <c r="C42" s="4"/>
+      <c r="D42" s="4"/>
+      <c r="E42" s="5"/>
+      <c r="F42" s="10"/>
+      <c r="G42" s="5"/>
+      <c r="H42" s="8"/>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A43" s="9"/>
+      <c r="B43" s="4"/>
+      <c r="C43" s="4"/>
+      <c r="D43" s="4"/>
+      <c r="E43" s="5"/>
+      <c r="F43" s="10"/>
+      <c r="G43" s="5"/>
+      <c r="H43" s="8"/>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A44" s="9"/>
+      <c r="B44" s="4"/>
+      <c r="C44" s="4"/>
+      <c r="D44" s="4"/>
+      <c r="E44" s="5"/>
+      <c r="F44" s="10"/>
+      <c r="G44" s="5"/>
+      <c r="H44" s="8"/>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A45" s="9"/>
+      <c r="B45" s="4"/>
+      <c r="C45" s="4"/>
+      <c r="D45" s="4"/>
+      <c r="E45" s="5"/>
+      <c r="F45" s="10"/>
+      <c r="G45" s="5"/>
+      <c r="H45" s="8"/>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A46" s="9"/>
+      <c r="B46" s="4"/>
+      <c r="C46" s="4"/>
+      <c r="D46" s="4"/>
+      <c r="E46" s="5"/>
+      <c r="F46" s="10"/>
+      <c r="G46" s="5"/>
+      <c r="H46" s="8"/>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A47" s="9"/>
+      <c r="B47" s="4"/>
+      <c r="C47" s="4"/>
+      <c r="D47" s="4"/>
+      <c r="E47" s="5"/>
+      <c r="F47" s="10"/>
+      <c r="G47" s="5"/>
+      <c r="H47" s="8"/>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A48" s="9"/>
+      <c r="B48" s="4"/>
+      <c r="C48" s="4"/>
+      <c r="D48" s="4"/>
+      <c r="E48" s="5"/>
+      <c r="F48" s="10"/>
+      <c r="G48" s="5"/>
+      <c r="H48" s="8"/>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A49" s="9"/>
+      <c r="B49" s="4"/>
+      <c r="C49" s="4"/>
+      <c r="D49" s="4"/>
+      <c r="E49" s="5"/>
+      <c r="F49" s="10"/>
+      <c r="G49" s="5"/>
+      <c r="H49" s="8"/>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A50" s="9"/>
+      <c r="B50" s="4"/>
+      <c r="C50" s="4"/>
+      <c r="D50" s="4"/>
+      <c r="E50" s="5"/>
+      <c r="F50" s="10"/>
+      <c r="G50" s="5"/>
+      <c r="H50" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Portfolio.xlsx
+++ b/Portfolio.xlsx
@@ -14,6 +14,7 @@
   <sheets>
     <sheet name="Portfolio" sheetId="1" r:id="rId1"/>
     <sheet name="Daily" sheetId="2" r:id="rId2"/>
+    <sheet name="Prices" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="63">
   <si>
     <t>Symbol</t>
   </si>
@@ -105,9 +106,6 @@
     <t>ACWI</t>
   </si>
   <si>
-    <t>60/40</t>
-  </si>
-  <si>
     <t>Market Value</t>
   </si>
   <si>
@@ -187,6 +185,36 @@
   </si>
   <si>
     <t>YTD_60/40</t>
+  </si>
+  <si>
+    <t>GYLD_Daily</t>
+  </si>
+  <si>
+    <t>NAV_GYLD</t>
+  </si>
+  <si>
+    <t>MTD_GYLD</t>
+  </si>
+  <si>
+    <t>YTD_GLYD</t>
+  </si>
+  <si>
+    <t>GYLD</t>
+  </si>
+  <si>
+    <t>60/40 ACWI/AGG</t>
+  </si>
+  <si>
+    <t>Portfolio</t>
+  </si>
+  <si>
+    <t>ACWI/AGG</t>
+  </si>
+  <si>
+    <t>SPY</t>
+  </si>
+  <si>
+    <t>Daily</t>
   </si>
 </sst>
 </file>
@@ -235,12 +263,252 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="17">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -249,7 +517,7 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -274,7 +542,50 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="10" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="11" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="15" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="16" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -297,78 +608,162 @@
 <file path=xl/volatileDependencies.xml><?xml version="1.0" encoding="utf-8"?>
 <volTypes xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <volType type="realTimeData">
-    <main first="rtdsrv.cf9b9f1097d041b2af10a25271d9a27e">
+    <main first="rtdsrv.fa54dbfa7d1a43488c694bd2669a0ba1">
       <tp>
-        <v>-3.1500572737685967E-3</v>
+        <v>0</v>
+        <stp/>
+        <stp>GYLD</stp>
+        <stp>change in percent</stp>
+        <tr r="K26" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.fa54dbfa7d1a43488c694bd2669a0ba1">
+      <tp>
+        <v>0</v>
+        <stp/>
+        <stp>ACWI</stp>
+        <stp>change in percent</stp>
+        <tr r="K22" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.fa54dbfa7d1a43488c694bd2669a0ba1">
+      <tp>
+        <v>268.79000000000002</v>
+        <stp/>
+        <stp>IVV</stp>
+        <stp>last</stp>
+        <tr r="J6" s="1"/>
+      </tp>
+      <tp>
+        <v>60.8</v>
+        <stp/>
+        <stp>EWJ</stp>
+        <stp>last</stp>
+        <tr r="J3" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.fa54dbfa7d1a43488c694bd2669a0ba1">
+      <tp>
+        <v>40.520000000000003</v>
+        <stp/>
+        <stp>RWX</stp>
+        <stp>last</stp>
+        <tr r="J7" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.fa54dbfa7d1a43488c694bd2669a0ba1">
+      <tp>
+        <v>124.57</v>
+        <stp/>
+        <stp>GLD</stp>
+        <stp>last</stp>
+        <tr r="J4" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.fa54dbfa7d1a43488c694bd2669a0ba1">
+      <tp>
+        <v>47.66</v>
+        <stp/>
+        <stp>IEV</stp>
+        <stp>last</stp>
+        <tr r="J5" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.fa54dbfa7d1a43488c694bd2669a0ba1">
+      <tp t="s">
+        <v>ARROW ETF TR-ARROW DJ GLB YLD</v>
+        <stp/>
+        <stp>GYLD</stp>
+        <stp>description</stp>
+        <tr r="L26" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.fa54dbfa7d1a43488c694bd2669a0ba1">
+      <tp>
+        <v>17.68</v>
+        <stp/>
+        <stp>DBC</stp>
+        <stp>last</stp>
+        <tr r="J2" s="1"/>
+      </tp>
+      <tp>
+        <v>0</v>
+        <stp/>
+        <stp>EWJ</stp>
+        <stp>change in percent</stp>
+        <tr r="L3" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.fa54dbfa7d1a43488c694bd2669a0ba1">
+      <tp>
+        <v>0</v>
         <stp/>
         <stp>DBC</stp>
         <stp>change in percent</stp>
         <tr r="L2" s="1"/>
       </tp>
     </main>
-    <main first="rtdsrv.cf9b9f1097d041b2af10a25271d9a27e">
+    <main first="rtdsrv.fa54dbfa7d1a43488c694bd2669a0ba1">
       <tp>
-        <v>6.712494945410416E-3</v>
+        <v>0</v>
+        <stp/>
+        <stp>AGG</stp>
+        <stp>change in percent</stp>
+        <tr r="K23" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.fa54dbfa7d1a43488c694bd2669a0ba1">
+      <tp>
+        <v>0</v>
         <stp/>
         <stp>GLD</stp>
         <stp>change in percent</stp>
         <tr r="L4" s="1"/>
       </tp>
     </main>
-    <main first="rtdsrv.cf9b9f1097d041b2af10a25271d9a27e">
+    <main first="rtdsrv.fa54dbfa7d1a43488c694bd2669a0ba1">
       <tp>
-        <v>1.9873190120184916E-3</v>
+        <v>0</v>
         <stp/>
-        <stp>AGG</stp>
+        <stp>RWX</stp>
         <stp>change in percent</stp>
-        <tr r="K23" s="1"/>
+        <tr r="L7" s="1"/>
       </tp>
     </main>
-    <main first="rtdsrv.cf9b9f1097d041b2af10a25271d9a27e">
+    <main first="rtdsrv.fa54dbfa7d1a43488c694bd2669a0ba1">
       <tp>
-        <v>-6.842619745845482E-3</v>
-        <stp/>
-        <stp>ACWI</stp>
-        <stp>change in percent</stp>
-        <tr r="K22" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.cf9b9f1097d041b2af10a25271d9a27e">
-      <tp>
-        <v>-2.1583928274945211E-3</v>
-        <stp/>
-        <stp>EWJ</stp>
-        <stp>change in percent</stp>
-        <tr r="L3" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.cf9b9f1097d041b2af10a25271d9a27e">
-      <tp>
-        <v>-1.4780405405405469E-3</v>
-        <stp/>
-        <stp>IEV</stp>
-        <stp>change in percent</stp>
-        <tr r="L5" s="1"/>
-      </tp>
-      <tp>
-        <v>-9.7746914745066599E-3</v>
+        <v>0</v>
         <stp/>
         <stp>IVV</stp>
         <stp>change in percent</stp>
         <tr r="K24" s="1"/>
         <tr r="L6" s="1"/>
       </tp>
-    </main>
-    <main first="rtdsrv.cf9b9f1097d041b2af10a25271d9a27e">
       <tp>
-        <v>-1.6085127443701485E-3</v>
+        <v>0</v>
         <stp/>
-        <stp>RWX</stp>
+        <stp>IEV</stp>
         <stp>change in percent</stp>
-        <tr r="L7" s="1"/>
+        <tr r="L5" s="1"/>
       </tp>
     </main>
-    <main first="rtdsrv.cf9b9f1097d041b2af10a25271d9a27e">
+    <main first="rtdsrv.fa54dbfa7d1a43488c694bd2669a0ba1">
+      <tp t="s">
+        <v>ISHARES INC-MSCI JPN ETF NEW</v>
+        <stp/>
+        <stp>EWJ</stp>
+        <stp>description</stp>
+        <tr r="B3" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>ISHARES TR-MSCI EMG MKT ETF</v>
+        <stp/>
+        <stp>EEM</stp>
+        <stp>description</stp>
+        <tr r="B8" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.fa54dbfa7d1a43488c694bd2669a0ba1">
       <tp t="s">
         <v>POWERSHARES DB CMDTY IDX TRA-UNIT BEN INT</v>
         <stp/>
@@ -377,43 +772,7 @@
         <tr r="B2" s="1"/>
       </tp>
     </main>
-    <main first="rtdsrv.cf9b9f1097d041b2af10a25271d9a27e">
-      <tp>
-        <v>47.29</v>
-        <stp/>
-        <stp>IEV</stp>
-        <stp>last</stp>
-        <tr r="J5" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.cf9b9f1097d041b2af10a25271d9a27e">
-      <tp t="s">
-        <v>ISHARES TR-MSCI EMG MKT ETF</v>
-        <stp/>
-        <stp>EEM</stp>
-        <stp>description</stp>
-        <tr r="B8" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.cf9b9f1097d041b2af10a25271d9a27e">
-      <tp t="s">
-        <v>ISHARES INC-MSCI JPN ETF NEW</v>
-        <stp/>
-        <stp>EWJ</stp>
-        <stp>description</stp>
-        <tr r="B3" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.cf9b9f1097d041b2af10a25271d9a27e">
-      <tp>
-        <v>40.409999999999997</v>
-        <stp/>
-        <stp>RWX</stp>
-        <stp>close</stp>
-        <tr r="G7" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.cf9b9f1097d041b2af10a25271d9a27e">
+    <main first="rtdsrv.fa54dbfa7d1a43488c694bd2669a0ba1">
       <tp t="s">
         <v>SPDR GOLD TRUST-GOLD SHS</v>
         <stp/>
@@ -422,41 +781,37 @@
         <tr r="B4" s="1"/>
       </tp>
     </main>
-    <main first="rtdsrv.cf9b9f1097d041b2af10a25271d9a27e">
+    <main first="rtdsrv.fa54dbfa7d1a43488c694bd2669a0ba1">
       <tp>
-        <v>17.405000000000001</v>
+        <v>268.79000000000002</v>
         <stp/>
-        <stp>DBC</stp>
-        <stp>last</stp>
-        <tr r="J2" s="1"/>
+        <stp>IVV</stp>
+        <stp>close</stp>
+        <tr r="G6" s="1"/>
       </tp>
-    </main>
-    <main first="rtdsrv.cf9b9f1097d041b2af10a25271d9a27e">
       <tp>
-        <v>124.48</v>
-        <stp/>
-        <stp>GLD</stp>
-        <stp>last</stp>
-        <tr r="J4" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.cf9b9f1097d041b2af10a25271d9a27e">
-      <tp>
-        <v>47.36</v>
+        <v>47.66</v>
         <stp/>
         <stp>IEV</stp>
         <stp>close</stp>
         <tr r="G5" s="1"/>
       </tp>
-      <tp>
-        <v>264.97000000000003</v>
+    </main>
+    <main first="rtdsrv.fa54dbfa7d1a43488c694bd2669a0ba1">
+      <tp t="s">
+        <v>ISHARES TR-U.S. REAL ES ETF</v>
+        <stp/>
+        <stp>IYR</stp>
+        <stp>description</stp>
+        <tr r="B9" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>ISHARES TR-CORE S&amp;P500 ETF</v>
         <stp/>
         <stp>IVV</stp>
-        <stp>close</stp>
-        <tr r="G6" s="1"/>
+        <stp>description</stp>
+        <tr r="B6" s="1"/>
       </tp>
-    </main>
-    <main first="rtdsrv.cf9b9f1097d041b2af10a25271d9a27e">
       <tp t="s">
         <v>ISHARES TR-EUROPE ETF</v>
         <stp/>
@@ -472,34 +827,41 @@
         <tr r="B10" s="1"/>
       </tp>
     </main>
-    <main first="rtdsrv.cf9b9f1097d041b2af10a25271d9a27e">
-      <tp t="s">
-        <v>ISHARES TR-CORE S&amp;P500 ETF</v>
+    <main first="rtdsrv.fa54dbfa7d1a43488c694bd2669a0ba1">
+      <tp>
+        <v>40.520000000000003</v>
         <stp/>
-        <stp>IVV</stp>
-        <stp>description</stp>
-        <tr r="B6" s="1"/>
+        <stp>RWX</stp>
+        <stp>close</stp>
+        <tr r="G7" s="1"/>
       </tp>
     </main>
-    <main first="rtdsrv.cf9b9f1097d041b2af10a25271d9a27e">
+    <main first="rtdsrv.fa54dbfa7d1a43488c694bd2669a0ba1">
       <tp t="s">
-        <v>ISHARES TR-U.S. REAL ES ETF</v>
+        <v>SPDR INDEX SHS FDS-DJ INTL RL ETF</v>
         <stp/>
-        <stp>IYR</stp>
+        <stp>RWX</stp>
         <stp>description</stp>
-        <tr r="B9" s="1"/>
+        <tr r="B7" s="1"/>
       </tp>
     </main>
-    <main first="rtdsrv.cf9b9f1097d041b2af10a25271d9a27e">
+    <main first="rtdsrv.fa54dbfa7d1a43488c694bd2669a0ba1">
       <tp>
-        <v>60.23</v>
+        <v>17.68</v>
         <stp/>
-        <stp>EWJ</stp>
+        <stp>DBC</stp>
         <stp>close</stp>
-        <tr r="G3" s="1"/>
+        <tr r="G2" s="1"/>
       </tp>
     </main>
-    <main first="rtdsrv.cf9b9f1097d041b2af10a25271d9a27e">
+    <main first="rtdsrv.fa54dbfa7d1a43488c694bd2669a0ba1">
+      <tp>
+        <v>124.57</v>
+        <stp/>
+        <stp>GLD</stp>
+        <stp>close</stp>
+        <tr r="G4" s="1"/>
+      </tp>
       <tp t="s">
         <v>ISHARES TR-20 YR TR BD ETF</v>
         <stp/>
@@ -508,58 +870,13 @@
         <tr r="B11" s="1"/>
       </tp>
     </main>
-    <main first="rtdsrv.cf9b9f1097d041b2af10a25271d9a27e">
+    <main first="rtdsrv.fa54dbfa7d1a43488c694bd2669a0ba1">
       <tp>
-        <v>60.1</v>
+        <v>60.8</v>
         <stp/>
         <stp>EWJ</stp>
-        <stp>last</stp>
-        <tr r="J3" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.cf9b9f1097d041b2af10a25271d9a27e">
-      <tp>
-        <v>40.344999999999999</v>
-        <stp/>
-        <stp>RWX</stp>
-        <stp>last</stp>
-        <tr r="J7" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.cf9b9f1097d041b2af10a25271d9a27e">
-      <tp>
-        <v>262.38</v>
-        <stp/>
-        <stp>IVV</stp>
-        <stp>last</stp>
-        <tr r="J6" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.cf9b9f1097d041b2af10a25271d9a27e">
-      <tp t="s">
-        <v>SPDR INDEX SHS FDS-DJ INTL RL ETF</v>
-        <stp/>
-        <stp>RWX</stp>
-        <stp>description</stp>
-        <tr r="B7" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.cf9b9f1097d041b2af10a25271d9a27e">
-      <tp>
-        <v>17.46</v>
-        <stp/>
-        <stp>DBC</stp>
         <stp>close</stp>
-        <tr r="G2" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.cf9b9f1097d041b2af10a25271d9a27e">
-      <tp>
-        <v>123.65</v>
-        <stp/>
-        <stp>GLD</stp>
-        <stp>close</stp>
-        <tr r="G4" s="1"/>
+        <tr r="G3" s="1"/>
       </tp>
     </main>
   </volType>
@@ -830,10 +1147,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:N26"/>
+  <dimension ref="A1:N34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O31" sqref="O31"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="N39" sqref="N39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -847,6 +1164,7 @@
     <col min="7" max="7" width="12.28515625" customWidth="1"/>
     <col min="8" max="8" width="14.42578125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="12" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="12.42578125" bestFit="1" customWidth="1"/>
   </cols>
@@ -886,7 +1204,7 @@
         <v>23</v>
       </c>
       <c r="L1" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
@@ -905,34 +1223,34 @@
       </c>
       <c r="E2" s="5">
         <f t="shared" ref="E2:E7" si="0">G2/D2-1</f>
-        <v>-5.1519835136526471E-4</v>
+        <v>1.2078539126452403E-2</v>
       </c>
       <c r="F2" s="5">
-        <f t="shared" ref="F2:F7" si="1">I2/$I$21</f>
-        <v>0.1140616771257543</v>
+        <f>I2/$I$21</f>
+        <v>0.11445405753178808</v>
       </c>
       <c r="G2" s="4">
         <f>_xll.RealtimeData(A2,"Close")</f>
-        <v>17.46</v>
+        <v>17.68</v>
       </c>
       <c r="H2" s="4">
         <v>130</v>
       </c>
       <c r="I2" s="4">
-        <f t="shared" ref="I2:I7" si="2">H2*G2</f>
-        <v>2269.8000000000002</v>
+        <f t="shared" ref="I2:I7" si="1">H2*G2</f>
+        <v>2298.4</v>
       </c>
       <c r="J2">
         <f>_xll.RealtimeData(A2,"Last")</f>
-        <v>17.405000000000001</v>
+        <v>17.68</v>
       </c>
       <c r="K2" s="5">
         <f>J2/D2-1</f>
-        <v>-3.6636327208197095E-3</v>
+        <v>1.2078539126452403E-2</v>
       </c>
       <c r="L2" s="8">
         <f>_xll.RealtimeData(A2,"Change in Percent")</f>
-        <v>-3.1500572737685967E-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
@@ -951,34 +1269,34 @@
       </c>
       <c r="E3" s="5">
         <f t="shared" si="0"/>
-        <v>-6.8431033061259194E-3</v>
+        <v>2.5558578613240623E-3</v>
       </c>
       <c r="F3" s="5">
-        <f t="shared" si="1"/>
-        <v>0.24818691280698862</v>
+        <f t="shared" ref="F3:F7" si="2">I3/$I$21</f>
+        <v>0.24826929569721659</v>
       </c>
       <c r="G3" s="4">
         <f>_xll.RealtimeData(A3,"Close")</f>
-        <v>60.23</v>
+        <v>60.8</v>
       </c>
       <c r="H3" s="4">
         <v>82</v>
       </c>
       <c r="I3" s="4">
-        <f t="shared" si="2"/>
-        <v>4938.8599999999997</v>
+        <f t="shared" si="1"/>
+        <v>4985.5999999999995</v>
       </c>
       <c r="J3">
         <f>_xll.RealtimeData(A3,"Last")</f>
-        <v>60.1</v>
+        <v>60.8</v>
       </c>
       <c r="K3" s="5">
         <f>J3/D3-1</f>
-        <v>-8.9867260285266815E-3</v>
+        <v>2.5558578613240623E-3</v>
       </c>
       <c r="L3" s="8">
         <f>_xll.RealtimeData(A3,"Change in Percent")</f>
-        <v>-2.1583928274945211E-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
@@ -997,34 +1315,34 @@
       </c>
       <c r="E4" s="5">
         <f t="shared" si="0"/>
-        <v>-1.3286004466358525E-3</v>
+        <v>6.1018701363733108E-3</v>
       </c>
       <c r="F4" s="5">
-        <f t="shared" si="1"/>
-        <v>0.27961392499206023</v>
+        <f t="shared" si="2"/>
+        <v>0.27914609624219799</v>
       </c>
       <c r="G4" s="4">
         <f>_xll.RealtimeData(A4,"Close")</f>
-        <v>123.65</v>
+        <v>124.57</v>
       </c>
       <c r="H4" s="4">
         <v>45</v>
       </c>
       <c r="I4" s="4">
-        <f t="shared" si="2"/>
-        <v>5564.25</v>
+        <f t="shared" si="1"/>
+        <v>5605.65</v>
       </c>
       <c r="J4">
         <f>_xll.RealtimeData(A4,"Last")</f>
-        <v>124.48</v>
+        <v>124.57</v>
       </c>
       <c r="K4" s="5">
         <f t="shared" ref="K4:K7" si="3">J4/D4-1</f>
-        <v>5.3749762749921715E-3</v>
+        <v>6.1018701363733108E-3</v>
       </c>
       <c r="L4" s="8">
         <f>_xll.RealtimeData(A4,"Change in Percent")</f>
-        <v>6.712494945410416E-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
@@ -1043,34 +1361,34 @@
       </c>
       <c r="E5" s="5">
         <f t="shared" si="0"/>
-        <v>7.3956682514531025E-4</v>
+        <v>7.0787110406760334E-3</v>
       </c>
       <c r="F5" s="5">
-        <f t="shared" si="1"/>
-        <v>9.0437271605285696E-2</v>
+        <f t="shared" si="2"/>
+        <v>9.0186849336351696E-2</v>
       </c>
       <c r="G5" s="4">
         <f>_xll.RealtimeData(A5,"Close")</f>
-        <v>47.36</v>
+        <v>47.66</v>
       </c>
       <c r="H5" s="4">
         <v>38</v>
       </c>
       <c r="I5" s="4">
-        <f t="shared" si="2"/>
-        <v>1799.68</v>
+        <f t="shared" si="1"/>
+        <v>1811.08</v>
       </c>
       <c r="J5">
         <f>_xll.RealtimeData(A5,"Last")</f>
-        <v>47.29</v>
+        <v>47.66</v>
       </c>
       <c r="K5" s="5">
         <f t="shared" si="3"/>
-        <v>-7.3956682514531025E-4</v>
+        <v>7.0787110406760334E-3</v>
       </c>
       <c r="L5" s="8">
         <f>_xll.RealtimeData(A5,"Change in Percent")</f>
-        <v>-1.4780405405405469E-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
@@ -1089,34 +1407,34 @@
       </c>
       <c r="E6" s="5">
         <f t="shared" si="0"/>
-        <v>-5.2166339101853421E-3</v>
+        <v>9.1248857277477224E-3</v>
       </c>
       <c r="F6" s="5">
-        <f t="shared" si="1"/>
-        <v>0.17309806751438211</v>
+        <f t="shared" si="2"/>
+        <v>0.17400512513557309</v>
       </c>
       <c r="G6" s="4">
         <f>_xll.RealtimeData(A6,"Close")</f>
-        <v>264.97000000000003</v>
+        <v>268.79000000000002</v>
       </c>
       <c r="H6" s="4">
         <v>13</v>
       </c>
       <c r="I6" s="4">
-        <f t="shared" si="2"/>
-        <v>3444.6100000000006</v>
+        <f t="shared" si="1"/>
+        <v>3494.2700000000004</v>
       </c>
       <c r="J6">
         <f>_xll.RealtimeData(A6,"Last")</f>
-        <v>262.38</v>
+        <v>268.79000000000002</v>
       </c>
       <c r="K6" s="5">
         <f t="shared" si="3"/>
-        <v>-1.4940334397684496E-2</v>
+        <v>9.1248857277477224E-3</v>
       </c>
       <c r="L6" s="8">
         <f>_xll.RealtimeData(A6,"Change in Percent")</f>
-        <v>-9.7746914745066599E-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
@@ -1135,34 +1453,34 @@
       </c>
       <c r="E7" s="5">
         <f t="shared" si="0"/>
-        <v>-7.3667584543317677E-3</v>
+        <v>-4.6647130059271902E-3</v>
       </c>
       <c r="F7" s="5">
-        <f t="shared" si="1"/>
-        <v>7.3104399249036167E-2</v>
+        <f t="shared" si="2"/>
+        <v>7.2640281414362129E-2</v>
       </c>
       <c r="G7" s="4">
         <f>_xll.RealtimeData(A7,"Close")</f>
-        <v>40.409999999999997</v>
+        <v>40.520000000000003</v>
       </c>
       <c r="H7" s="4">
         <v>36</v>
       </c>
       <c r="I7" s="4">
-        <f t="shared" si="2"/>
-        <v>1454.7599999999998</v>
+        <f t="shared" si="1"/>
+        <v>1458.72</v>
       </c>
       <c r="J7">
         <f>_xll.RealtimeData(A7,"Last")</f>
-        <v>40.344999999999999</v>
+        <v>40.520000000000003</v>
       </c>
       <c r="K7" s="5">
         <f t="shared" si="3"/>
-        <v>-8.9634216738434525E-3</v>
+        <v>-4.6647130059271902E-3</v>
       </c>
       <c r="L7" s="8">
         <f>_xll.RealtimeData(A7,"Change in Percent")</f>
-        <v>-1.6085127443701485E-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
@@ -1207,7 +1525,7 @@
         <v>14</v>
       </c>
       <c r="I20" s="6">
-        <v>427.8</v>
+        <v>427.7</v>
       </c>
     </row>
     <row r="21" spans="8:14" x14ac:dyDescent="0.25">
@@ -1216,21 +1534,21 @@
       </c>
       <c r="I21" s="6">
         <f>SUM(I2:I20)</f>
-        <v>19899.759999999998</v>
+        <v>20081.420000000002</v>
       </c>
       <c r="J21" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K21" s="8">
         <f>SUMPRODUCT(K2:K7,F2:F7)</f>
-        <v>-4.4536426435578457E-3</v>
+        <v>5.6076295351152935E-3</v>
       </c>
       <c r="M21" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="N21" s="8">
         <f t="array" ref="N21">SUMPRODUCT(F2:F7,L2:L7)</f>
-        <v>-9.6131812644976436E-4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="8:14" x14ac:dyDescent="0.25">
@@ -1245,9 +1563,9 @@
       </c>
       <c r="K22" s="8">
         <f>_xll.RealtimeData(J22,"Change in Percent")</f>
-        <v>-6.842619745845482E-3</v>
-      </c>
-      <c r="L22">
+        <v>0</v>
+      </c>
+      <c r="L22" s="12">
         <v>0.6</v>
       </c>
     </row>
@@ -1257,9 +1575,9 @@
       </c>
       <c r="K23" s="8">
         <f>_xll.RealtimeData(J23,"Change in Percent")</f>
-        <v>1.9873190120184916E-3</v>
-      </c>
-      <c r="L23">
+        <v>0</v>
+      </c>
+      <c r="L23" s="12">
         <v>0.4</v>
       </c>
     </row>
@@ -1269,25 +1587,122 @@
       </c>
       <c r="K24" s="8">
         <f>_xll.RealtimeData(J24,"Change in Percent")</f>
-        <v>-9.7746914745066599E-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="8:14" x14ac:dyDescent="0.25">
       <c r="J25" t="s">
-        <v>26</v>
+        <v>58</v>
       </c>
       <c r="K25" s="8">
         <f t="array" ref="K25">SUMPRODUCT(K22:K23,L22:L23)</f>
-        <v>-3.310644242699892E-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="8:14" x14ac:dyDescent="0.25">
       <c r="H26" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I26" s="6">
         <f>SUM(I2:I18)</f>
-        <v>19471.96</v>
+        <v>19653.72</v>
+      </c>
+      <c r="J26" t="s">
+        <v>57</v>
+      </c>
+      <c r="K26" s="8">
+        <f>_xll.RealtimeData(J26,"Change in Percent")</f>
+        <v>0</v>
+      </c>
+      <c r="L26" t="str">
+        <f>_xll.RealtimeData(J26,"Description")</f>
+        <v>ARROW ETF TR-ARROW DJ GLB YLD</v>
+      </c>
+    </row>
+    <row r="27" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="K27" s="12"/>
+    </row>
+    <row r="29" spans="8:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="30" spans="8:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H30" s="29">
+        <v>43227</v>
+      </c>
+      <c r="I30" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="J30" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="K30" s="17" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="31" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H31" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="I31" s="21">
+        <f>$N$21</f>
+        <v>0</v>
+      </c>
+      <c r="J31" s="22">
+        <f>VLOOKUP($H$30,Daily!$A:$AF,7,0)</f>
+        <v>4.0815000000000712E-3</v>
+      </c>
+      <c r="K31" s="23">
+        <f>VLOOKUP($H$30,Daily!$A:$AF,8,0)</f>
+        <v>4.0815000000000712E-3</v>
+      </c>
+    </row>
+    <row r="32" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H32" s="19" t="s">
+        <v>60</v>
+      </c>
+      <c r="I32" s="24">
+        <f>$K$25</f>
+        <v>0</v>
+      </c>
+      <c r="J32" s="14">
+        <f>VLOOKUP($H$30,Daily!$A:$AF,25,0)</f>
+        <v>3.1160437189563517E-3</v>
+      </c>
+      <c r="K32" s="25">
+        <f>VLOOKUP($H$30,Daily!$A:$AF,31,0)</f>
+        <v>3.1160437189563517E-3</v>
+      </c>
+    </row>
+    <row r="33" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H33" s="19" t="s">
+        <v>61</v>
+      </c>
+      <c r="I33" s="24">
+        <f>$K$24</f>
+        <v>0</v>
+      </c>
+      <c r="J33" s="14">
+        <f>VLOOKUP($H$30,Daily!$A:$AF,24,0)</f>
+        <v>9.403621992640776E-3</v>
+      </c>
+      <c r="K33" s="25">
+        <f>VLOOKUP($H$30,Daily!$A:$AF,30,0)</f>
+        <v>9.403621992640776E-3</v>
+      </c>
+    </row>
+    <row r="34" spans="8:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H34" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="I34" s="26">
+        <f>$K$26</f>
+        <v>0</v>
+      </c>
+      <c r="J34" s="27">
+        <f>VLOOKUP($H$30,Daily!$A:$AF,26,0)</f>
+        <v>1.9466513843773292E-3</v>
+      </c>
+      <c r="K34" s="28">
+        <f>VLOOKUP($H$30,Daily!$A:$AF,32,0)</f>
+        <v>1.9466513843773292E-3</v>
       </c>
     </row>
   </sheetData>
@@ -1301,10 +1716,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:AB50"/>
+  <dimension ref="A1:AF50"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A38" sqref="A38:A40"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1312,85 +1727,108 @@
     <col min="1" max="4" width="18.85546875" customWidth="1"/>
     <col min="5" max="5" width="12.7109375" style="4" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.5703125" style="4" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="10" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="10.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="F1" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E1" s="7" t="s">
+      <c r="G1" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="F1" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="H1" s="2" t="s">
-        <v>34</v>
-      </c>
       <c r="J1" t="s">
+        <v>40</v>
+      </c>
+      <c r="K1" t="s">
         <v>41</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>42</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>43</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
+        <v>53</v>
+      </c>
+      <c r="P1" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>38</v>
+      </c>
+      <c r="R1" t="s">
+        <v>39</v>
+      </c>
+      <c r="S1" t="s">
         <v>44</v>
       </c>
-      <c r="O1" t="s">
-        <v>38</v>
-      </c>
-      <c r="P1" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>40</v>
-      </c>
-      <c r="R1" t="s">
+      <c r="T1" t="s">
+        <v>54</v>
+      </c>
+      <c r="V1" t="s">
         <v>45</v>
       </c>
-      <c r="T1" t="s">
+      <c r="W1" t="s">
         <v>46</v>
       </c>
-      <c r="U1" t="s">
+      <c r="X1" t="s">
         <v>47</v>
       </c>
-      <c r="V1" t="s">
+      <c r="Y1" t="s">
         <v>48</v>
       </c>
-      <c r="W1" t="s">
+      <c r="Z1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AB1" t="s">
         <v>49</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="AC1" t="s">
         <v>50</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AD1" t="s">
         <v>51</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AE1" t="s">
         <v>52</v>
       </c>
-      <c r="AB1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AF1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A2" s="9">
         <v>43220</v>
       </c>
@@ -1427,23 +1865,27 @@
       <c r="M2">
         <v>0</v>
       </c>
-      <c r="O2">
-        <v>1</v>
+      <c r="N2">
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="Q2">
-        <v>1</v>
+        <f>P2</f>
+        <v>100</v>
       </c>
       <c r="R2">
-        <v>1</v>
+        <f t="shared" ref="R2:T2" si="0">Q2</f>
+        <v>100</v>
+      </c>
+      <c r="S2">
+        <f t="shared" si="0"/>
+        <v>100</v>
       </c>
       <c r="T2">
-        <v>0</v>
-      </c>
-      <c r="U2">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>100</v>
       </c>
       <c r="V2">
         <v>0</v>
@@ -1451,20 +1893,32 @@
       <c r="W2">
         <v>0</v>
       </c>
+      <c r="X2">
+        <v>0</v>
+      </c>
       <c r="Y2">
         <v>0</v>
       </c>
       <c r="Z2">
         <v>0</v>
       </c>
-      <c r="AA2">
-        <v>0</v>
-      </c>
       <c r="AB2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC2">
+        <v>0</v>
+      </c>
+      <c r="AD2">
+        <v>0</v>
+      </c>
+      <c r="AE2">
+        <v>0</v>
+      </c>
+      <c r="AF2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A3" s="9">
         <v>43221</v>
       </c>
@@ -1507,56 +1961,71 @@
         <f>0.6*J3 + 0.4*K3</f>
         <v>-1.0059999999999999E-3</v>
       </c>
-      <c r="O3" s="10">
-        <f>O2*(1+J3)</f>
-        <v>0.99888999999999994</v>
+      <c r="N3" s="11">
+        <v>-7.4799999999999997E-3</v>
       </c>
       <c r="P3" s="10">
-        <f>P2*(1+K3)</f>
-        <v>0.99914999999999998</v>
+        <f>P2*(1+J3)</f>
+        <v>99.888999999999996</v>
       </c>
       <c r="Q3" s="10">
-        <f>Q2*(1+L3)</f>
-        <v>1.00177</v>
+        <f>Q2*(1+K3)</f>
+        <v>99.914999999999992</v>
       </c>
       <c r="R3" s="10">
-        <f>R2*(1+M3)</f>
-        <v>0.99899400000000005</v>
-      </c>
-      <c r="T3" s="5">
-        <f>O3/$O$2-1</f>
+        <f>R2*(1+L3)</f>
+        <v>100.17700000000001</v>
+      </c>
+      <c r="S3" s="10">
+        <f>S2*(1+M3)</f>
+        <v>99.8994</v>
+      </c>
+      <c r="T3" s="10">
+        <f>T2*(1+N3)</f>
+        <v>99.251999999999995</v>
+      </c>
+      <c r="V3" s="5">
+        <f>P3/$P$2-1</f>
         <v>-1.1100000000000554E-3</v>
       </c>
-      <c r="U3" s="5">
-        <f t="shared" ref="U3:W3" si="0">P3/$O$2-1</f>
-        <v>-8.5000000000001741E-4</v>
-      </c>
-      <c r="V3" s="5">
-        <f t="shared" si="0"/>
+      <c r="W3" s="5">
+        <f>Q3/$Q$2-1</f>
+        <v>-8.5000000000012843E-4</v>
+      </c>
+      <c r="X3" s="5">
+        <f>R3/$R$2-1</f>
         <v>1.7700000000000493E-3</v>
       </c>
-      <c r="W3" s="5">
-        <f t="shared" si="0"/>
+      <c r="Y3" s="5">
+        <f>S3/$S$2-1</f>
         <v>-1.0059999999999514E-3</v>
       </c>
-      <c r="Y3" s="8">
-        <f>O3/$O$2-1</f>
+      <c r="Z3" s="5">
+        <f>T3/$T$2-1</f>
+        <v>-7.4800000000000422E-3</v>
+      </c>
+      <c r="AB3" s="8">
+        <f>P3/$P$2-1</f>
         <v>-1.1100000000000554E-3</v>
       </c>
-      <c r="Z3" s="8">
-        <f t="shared" ref="Z3:AB3" si="1">P3/$O$2-1</f>
-        <v>-8.5000000000001741E-4</v>
-      </c>
-      <c r="AA3" s="8">
+      <c r="AC3" s="8">
+        <f t="shared" ref="AC3:AE3" si="1">Q3/$P$2-1</f>
+        <v>-8.5000000000012843E-4</v>
+      </c>
+      <c r="AD3" s="8">
         <f t="shared" si="1"/>
         <v>1.7700000000000493E-3</v>
       </c>
-      <c r="AB3" s="8">
+      <c r="AE3" s="8">
         <f t="shared" si="1"/>
         <v>-1.0059999999999514E-3</v>
       </c>
-    </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AF3" s="8">
+        <f>T3/$T$2-1</f>
+        <v>-7.4800000000000422E-3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A4" s="9">
         <v>43222</v>
       </c>
@@ -1589,121 +2058,411 @@
       <c r="J4" s="11">
         <v>-4.1700000000000001E-3</v>
       </c>
-      <c r="K4" s="12">
+      <c r="K4" s="11">
         <v>0</v>
       </c>
       <c r="L4" s="11">
         <v>-6.7000000000000002E-3</v>
       </c>
       <c r="M4" s="11">
-        <f t="shared" ref="M4" si="2">0.6*J4 + 0.4*K4</f>
+        <f t="shared" ref="M4:M7" si="2">0.6*J4 + 0.4*K4</f>
         <v>-2.5019999999999999E-3</v>
       </c>
-      <c r="O4" s="10">
-        <f t="shared" ref="O4" si="3">O3*(1+J4)</f>
-        <v>0.99472462869999989</v>
+      <c r="N4" s="11">
+        <v>1.3299999999999999E-2</v>
       </c>
       <c r="P4" s="10">
-        <f t="shared" ref="P4" si="4">P3*(1+K4)</f>
-        <v>0.99914999999999998</v>
+        <f t="shared" ref="P4" si="3">P3*(1+J4)</f>
+        <v>99.472462870000001</v>
       </c>
       <c r="Q4" s="10">
-        <f t="shared" ref="Q4" si="5">Q3*(1+L4)</f>
-        <v>0.99505814100000001</v>
+        <f t="shared" ref="Q4" si="4">Q3*(1+K4)</f>
+        <v>99.914999999999992</v>
       </c>
       <c r="R4" s="10">
-        <f t="shared" ref="R4" si="6">R3*(1+M4)</f>
-        <v>0.99649451701200009</v>
-      </c>
-      <c r="T4" s="5">
-        <f t="shared" ref="T4" si="7">O4/$O$2-1</f>
-        <v>-5.275371300000109E-3</v>
-      </c>
-      <c r="U4" s="5">
-        <f t="shared" ref="U4" si="8">P4/$O$2-1</f>
-        <v>-8.5000000000001741E-4</v>
+        <f t="shared" ref="R4" si="5">R3*(1+L4)</f>
+        <v>99.505814100000009</v>
+      </c>
+      <c r="S4" s="10">
+        <f t="shared" ref="S4" si="6">S3*(1+M4)</f>
+        <v>99.649451701199993</v>
+      </c>
+      <c r="T4" s="10">
+        <f>T3*(1+N4)</f>
+        <v>100.57205160000001</v>
       </c>
       <c r="V4" s="5">
-        <f t="shared" ref="V4" si="9">Q4/$O$2-1</f>
-        <v>-4.9418589999999929E-3</v>
+        <f>P4/$P$2-1</f>
+        <v>-5.275371299999998E-3</v>
       </c>
       <c r="W4" s="5">
-        <f t="shared" ref="W4" si="10">R4/$O$2-1</f>
-        <v>-3.5054829879999083E-3</v>
-      </c>
-      <c r="Y4" s="8">
-        <f>O4/$O$2-1</f>
-        <v>-5.275371300000109E-3</v>
-      </c>
-      <c r="Z4" s="8">
-        <f t="shared" ref="Z4" si="11">P4/$O$2-1</f>
-        <v>-8.5000000000001741E-4</v>
-      </c>
-      <c r="AA4" s="8">
-        <f t="shared" ref="AA4" si="12">Q4/$O$2-1</f>
-        <v>-4.9418589999999929E-3</v>
+        <f>Q4/$Q$2-1</f>
+        <v>-8.5000000000012843E-4</v>
+      </c>
+      <c r="X4" s="5">
+        <f>R4/$R$2-1</f>
+        <v>-4.9418589999998819E-3</v>
+      </c>
+      <c r="Y4" s="5">
+        <f>S4/$S$2-1</f>
+        <v>-3.5054829880000193E-3</v>
+      </c>
+      <c r="Z4" s="5">
+        <f>T4/$T$2-1</f>
+        <v>5.7205160000000088E-3</v>
       </c>
       <c r="AB4" s="8">
-        <f t="shared" ref="AB4" si="13">R4/$O$2-1</f>
-        <v>-3.5054829879999083E-3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A5" s="9"/>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="10"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="8"/>
-      <c r="M5" s="11"/>
-      <c r="O5" s="10"/>
-      <c r="P5" s="10"/>
-      <c r="Q5" s="10"/>
-      <c r="R5" s="10"/>
-      <c r="T5" s="5"/>
-      <c r="U5" s="5"/>
-      <c r="V5" s="5"/>
-      <c r="W5" s="5"/>
-    </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A6" s="9"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="10"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="8"/>
-      <c r="O6" s="10"/>
-      <c r="P6" s="10"/>
-      <c r="Q6" s="10"/>
-      <c r="R6" s="10"/>
-      <c r="T6" s="5"/>
-      <c r="U6" s="5"/>
-      <c r="V6" s="5"/>
-      <c r="W6" s="5"/>
-    </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A7" s="9"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="10"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="8"/>
-      <c r="O7" s="10"/>
-      <c r="P7" s="10"/>
-      <c r="Q7" s="10"/>
-      <c r="R7" s="10"/>
-      <c r="T7" s="5"/>
-      <c r="U7" s="5"/>
-      <c r="V7" s="5"/>
-      <c r="W7" s="5"/>
-    </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.25">
+        <f>P4/$P$2-1</f>
+        <v>-5.275371299999998E-3</v>
+      </c>
+      <c r="AC4" s="8">
+        <f t="shared" ref="AC4" si="7">Q4/$P$2-1</f>
+        <v>-8.5000000000012843E-4</v>
+      </c>
+      <c r="AD4" s="8">
+        <f t="shared" ref="AD4" si="8">R4/$P$2-1</f>
+        <v>-4.9418589999998819E-3</v>
+      </c>
+      <c r="AE4" s="8">
+        <f t="shared" ref="AE4" si="9">S4/$P$2-1</f>
+        <v>-3.5054829880000193E-3</v>
+      </c>
+      <c r="AF4" s="8">
+        <f>T4/$T$2-1</f>
+        <v>5.7205160000000088E-3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A5" s="9">
+        <v>43223</v>
+      </c>
+      <c r="B5" s="4">
+        <v>19525.419999999998</v>
+      </c>
+      <c r="C5" s="4">
+        <v>427.9</v>
+      </c>
+      <c r="D5" s="4">
+        <v>19953.32</v>
+      </c>
+      <c r="E5" s="5">
+        <f>D5/D4-1</f>
+        <v>2.6965284834012948E-3</v>
+      </c>
+      <c r="F5" s="10">
+        <f>F4*(1+E5)</f>
+        <v>0.99766600000000016</v>
+      </c>
+      <c r="G5" s="5">
+        <f>F5/$F$2-1</f>
+        <v>-2.3339999999998362E-3</v>
+      </c>
+      <c r="H5" s="8">
+        <f>F5/$F$2-1</f>
+        <v>-2.3339999999998362E-3</v>
+      </c>
+      <c r="J5" s="11">
+        <f>VLOOKUP($A5,Prices!$A:$J,MATCH(J$1,Prices!$1:$1,0),0)</f>
+        <v>1.3964530093568683E-4</v>
+      </c>
+      <c r="K5" s="11">
+        <f>VLOOKUP($A5,Prices!$A:$J,MATCH(K$1,Prices!$1:$1,0),0)</f>
+        <v>1.1356108640105944E-3</v>
+      </c>
+      <c r="L5" s="11">
+        <f>VLOOKUP($A5,Prices!$A:$J,MATCH(L$1,Prices!$1:$1,0),0)</f>
+        <v>-2.1511869268221462E-3</v>
+      </c>
+      <c r="M5" s="11">
+        <f t="shared" si="2"/>
+        <v>5.3803152616564991E-4</v>
+      </c>
+      <c r="N5" s="11">
+        <f>VLOOKUP($A5,Prices!$A:$J,MATCH(N$1,Prices!$1:$1,0),0)</f>
+        <v>-1.9220303056343258E-2</v>
+      </c>
+      <c r="P5" s="10">
+        <f t="shared" ref="P5" si="10">P4*(1+J5)</f>
+        <v>99.48635373201229</v>
+      </c>
+      <c r="Q5" s="10">
+        <f t="shared" ref="Q5" si="11">Q4*(1+K5)</f>
+        <v>100.02846455947761</v>
+      </c>
+      <c r="R5" s="10">
+        <f t="shared" ref="R5" si="12">R4*(1+L5)</f>
+        <v>99.291758493565297</v>
+      </c>
+      <c r="S5" s="10">
+        <f t="shared" ref="S5" si="13">S4*(1+M5)</f>
+        <v>99.703066247780356</v>
+      </c>
+      <c r="T5" s="10">
+        <f>T4*(1+N5)</f>
+        <v>98.639026289249813</v>
+      </c>
+      <c r="V5" s="5">
+        <f>P5/$P$2-1</f>
+        <v>-5.1364626798771074E-3</v>
+      </c>
+      <c r="W5" s="5">
+        <f>Q5/$Q$2-1</f>
+        <v>2.8464559477603402E-4</v>
+      </c>
+      <c r="X5" s="5">
+        <f>R5/$R$2-1</f>
+        <v>-7.0824150643470363E-3</v>
+      </c>
+      <c r="Y5" s="5">
+        <f>S5/$S$2-1</f>
+        <v>-2.9693375221964136E-3</v>
+      </c>
+      <c r="Z5" s="5">
+        <f>T5/$T$2-1</f>
+        <v>-1.3609737107501907E-2</v>
+      </c>
+      <c r="AB5" s="8">
+        <f>P5/$P$2-1</f>
+        <v>-5.1364626798771074E-3</v>
+      </c>
+      <c r="AC5" s="8">
+        <f t="shared" ref="AC5" si="14">Q5/$P$2-1</f>
+        <v>2.8464559477603402E-4</v>
+      </c>
+      <c r="AD5" s="8">
+        <f t="shared" ref="AD5" si="15">R5/$P$2-1</f>
+        <v>-7.0824150643470363E-3</v>
+      </c>
+      <c r="AE5" s="8">
+        <f t="shared" ref="AE5" si="16">S5/$P$2-1</f>
+        <v>-2.9693375221964136E-3</v>
+      </c>
+      <c r="AF5" s="8">
+        <f>T5/$T$2-1</f>
+        <v>-1.3609737107501907E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A6" s="9">
+        <v>43224</v>
+      </c>
+      <c r="B6" s="4">
+        <v>19634.889999999996</v>
+      </c>
+      <c r="C6" s="4">
+        <v>427.9</v>
+      </c>
+      <c r="D6" s="4">
+        <v>20062.789999999997</v>
+      </c>
+      <c r="E6" s="5">
+        <f>D6/D5-1</f>
+        <v>5.4863050359537091E-3</v>
+      </c>
+      <c r="F6" s="10">
+        <f>F5*(1+E6)</f>
+        <v>1.0031394999999999</v>
+      </c>
+      <c r="G6" s="5">
+        <f>F6/$F$2-1</f>
+        <v>3.1394999999998507E-3</v>
+      </c>
+      <c r="H6" s="8">
+        <f>F6/$F$2-1</f>
+        <v>3.1394999999998507E-3</v>
+      </c>
+      <c r="J6" s="11">
+        <f>VLOOKUP($A6,Prices!$A:$J,MATCH(J$1,Prices!$1:$1,0),0)</f>
+        <v>8.3775481709018607E-3</v>
+      </c>
+      <c r="K6" s="11">
+        <f>VLOOKUP($A6,Prices!$A:$J,MATCH(K$1,Prices!$1:$1,0),0)</f>
+        <v>6.6168825030721301E-4</v>
+      </c>
+      <c r="L6" s="11">
+        <f>VLOOKUP($A6,Prices!$A:$J,MATCH(L$1,Prices!$1:$1,0),0)</f>
+        <v>1.2934947049924483E-2</v>
+      </c>
+      <c r="M6" s="11">
+        <f t="shared" si="2"/>
+        <v>5.2912042026640018E-3</v>
+      </c>
+      <c r="N6" s="11">
+        <f>VLOOKUP($A6,Prices!$A:$J,MATCH(N$1,Prices!$1:$1,0),0)</f>
+        <v>3.9193925233644844E-3</v>
+      </c>
+      <c r="P6" s="10">
+        <f t="shared" ref="P6" si="17">P5*(1+J6)</f>
+        <v>100.31980545274961</v>
+      </c>
+      <c r="Q6" s="10">
+        <f t="shared" ref="Q6" si="18">Q5*(1+K6)</f>
+        <v>100.09465221917289</v>
+      </c>
+      <c r="R6" s="10">
+        <f t="shared" ref="R6" si="19">R5*(1+L6)</f>
+        <v>100.57609213217346</v>
+      </c>
+      <c r="S6" s="10">
+        <f t="shared" ref="S6" si="20">S5*(1+M6)</f>
+        <v>100.2306155309291</v>
+      </c>
+      <c r="T6" s="10">
+        <f>T5*(1+N6)</f>
+        <v>99.025631351399852</v>
+      </c>
+      <c r="V6" s="5">
+        <f>P6/$P$2-1</f>
+        <v>3.1980545274961081E-3</v>
+      </c>
+      <c r="W6" s="5">
+        <f>Q6/$Q$2-1</f>
+        <v>9.4652219172886021E-4</v>
+      </c>
+      <c r="X6" s="5">
+        <f>R6/$R$2-1</f>
+        <v>5.7609213217346689E-3</v>
+      </c>
+      <c r="Y6" s="5">
+        <f>S6/$S$2-1</f>
+        <v>2.3061553092909026E-3</v>
+      </c>
+      <c r="Z6" s="5">
+        <f>T6/$T$2-1</f>
+        <v>-9.7436864860014349E-3</v>
+      </c>
+      <c r="AB6" s="8">
+        <f>P6/$P$2-1</f>
+        <v>3.1980545274961081E-3</v>
+      </c>
+      <c r="AC6" s="8">
+        <f t="shared" ref="AC6" si="21">Q6/$P$2-1</f>
+        <v>9.4652219172886021E-4</v>
+      </c>
+      <c r="AD6" s="8">
+        <f t="shared" ref="AD6" si="22">R6/$P$2-1</f>
+        <v>5.7609213217346689E-3</v>
+      </c>
+      <c r="AE6" s="8">
+        <f t="shared" ref="AE6" si="23">S6/$P$2-1</f>
+        <v>2.3061553092909026E-3</v>
+      </c>
+      <c r="AF6" s="8">
+        <f>T6/$T$2-1</f>
+        <v>-9.7436864860014349E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A7" s="9">
+        <v>43227</v>
+      </c>
+      <c r="B7" s="4">
+        <v>19653.72</v>
+      </c>
+      <c r="C7" s="4">
+        <v>427.7</v>
+      </c>
+      <c r="D7" s="4">
+        <v>20081.63</v>
+      </c>
+      <c r="E7" s="5">
+        <f>D7/D6-1</f>
+        <v>9.3905184672737896E-4</v>
+      </c>
+      <c r="F7" s="10">
+        <f>F6*(1+E7)</f>
+        <v>1.0040815000000001</v>
+      </c>
+      <c r="G7" s="5">
+        <f>F7/$F$2-1</f>
+        <v>4.0815000000000712E-3</v>
+      </c>
+      <c r="H7" s="8">
+        <f>F7/$F$2-1</f>
+        <v>4.0815000000000712E-3</v>
+      </c>
+      <c r="J7" s="11">
+        <f>VLOOKUP($A7,Prices!$A:$J,MATCH(J$1,Prices!$1:$1,0),0)</f>
+        <v>1.6615895873719477E-3</v>
+      </c>
+      <c r="K7" s="11">
+        <f>VLOOKUP($A7,Prices!$A:$J,MATCH(K$1,Prices!$1:$1,0),0)</f>
+        <v>-4.7232193463064842E-4</v>
+      </c>
+      <c r="L7" s="11">
+        <f>VLOOKUP($A7,Prices!$A:$J,MATCH(L$1,Prices!$1:$1,0),0)</f>
+        <v>3.6218355611978836E-3</v>
+      </c>
+      <c r="M7" s="11">
+        <f t="shared" si="2"/>
+        <v>8.0802497857090916E-4</v>
+      </c>
+      <c r="N7" s="11">
+        <f>VLOOKUP($A7,Prices!$A:$J,MATCH(N$1,Prices!$1:$1,0),0)</f>
+        <v>1.180536565214596E-2</v>
+      </c>
+      <c r="P7" s="10">
+        <f t="shared" ref="P7" si="24">P6*(1+J7)</f>
+        <v>100.48649579689707</v>
+      </c>
+      <c r="Q7" s="10">
+        <f t="shared" ref="Q7" si="25">Q6*(1+K7)</f>
+        <v>100.04737531939054</v>
+      </c>
+      <c r="R7" s="10">
+        <f t="shared" ref="R7" si="26">R6*(1+L7)</f>
+        <v>100.94036219926407</v>
+      </c>
+      <c r="S7" s="10">
+        <f t="shared" ref="S7" si="27">S6*(1+M7)</f>
+        <v>100.31160437189563</v>
+      </c>
+      <c r="T7" s="10">
+        <f>T6*(1+N7)</f>
+        <v>100.19466513843774</v>
+      </c>
+      <c r="V7" s="5">
+        <f>P7/$P$2-1</f>
+        <v>4.8649579689707956E-3</v>
+      </c>
+      <c r="W7" s="5">
+        <f>Q7/$Q$2-1</f>
+        <v>4.7375319390541293E-4</v>
+      </c>
+      <c r="X7" s="5">
+        <f>R7/$R$2-1</f>
+        <v>9.403621992640776E-3</v>
+      </c>
+      <c r="Y7" s="5">
+        <f>S7/$S$2-1</f>
+        <v>3.1160437189563517E-3</v>
+      </c>
+      <c r="Z7" s="5">
+        <f>T7/$T$2-1</f>
+        <v>1.9466513843773292E-3</v>
+      </c>
+      <c r="AB7" s="8">
+        <f>P7/$P$2-1</f>
+        <v>4.8649579689707956E-3</v>
+      </c>
+      <c r="AC7" s="8">
+        <f t="shared" ref="AC7" si="28">Q7/$P$2-1</f>
+        <v>4.7375319390541293E-4</v>
+      </c>
+      <c r="AD7" s="8">
+        <f t="shared" ref="AD7" si="29">R7/$P$2-1</f>
+        <v>9.403621992640776E-3</v>
+      </c>
+      <c r="AE7" s="8">
+        <f t="shared" ref="AE7" si="30">S7/$P$2-1</f>
+        <v>3.1160437189563517E-3</v>
+      </c>
+      <c r="AF7" s="8">
+        <f>T7/$T$2-1</f>
+        <v>1.9466513843773292E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A8" s="9"/>
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
@@ -1712,16 +2471,22 @@
       <c r="F8" s="10"/>
       <c r="G8" s="5"/>
       <c r="H8" s="8"/>
-      <c r="O8" s="10"/>
+      <c r="J8" s="11"/>
+      <c r="K8" s="11"/>
+      <c r="L8" s="11"/>
+      <c r="M8" s="11"/>
+      <c r="N8" s="11"/>
       <c r="P8" s="10"/>
       <c r="Q8" s="10"/>
       <c r="R8" s="10"/>
-      <c r="T8" s="5"/>
-      <c r="U8" s="5"/>
+      <c r="S8" s="10"/>
       <c r="V8" s="5"/>
       <c r="W8" s="5"/>
-    </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="X8" s="5"/>
+      <c r="Y8" s="5"/>
+      <c r="Z8" s="5"/>
+    </row>
+    <row r="9" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A9" s="9"/>
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
@@ -1730,16 +2495,22 @@
       <c r="F9" s="10"/>
       <c r="G9" s="5"/>
       <c r="H9" s="8"/>
-      <c r="O9" s="10"/>
+      <c r="J9" s="11"/>
+      <c r="K9" s="11"/>
+      <c r="L9" s="11"/>
+      <c r="M9" s="11"/>
+      <c r="N9" s="11"/>
       <c r="P9" s="10"/>
       <c r="Q9" s="10"/>
       <c r="R9" s="10"/>
-      <c r="T9" s="5"/>
-      <c r="U9" s="5"/>
+      <c r="S9" s="10"/>
       <c r="V9" s="5"/>
       <c r="W9" s="5"/>
-    </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="X9" s="5"/>
+      <c r="Y9" s="5"/>
+      <c r="Z9" s="5"/>
+    </row>
+    <row r="10" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A10" s="9"/>
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
@@ -1748,16 +2519,22 @@
       <c r="F10" s="10"/>
       <c r="G10" s="5"/>
       <c r="H10" s="8"/>
-      <c r="O10" s="10"/>
+      <c r="J10" s="11"/>
+      <c r="K10" s="11"/>
+      <c r="L10" s="11"/>
+      <c r="M10" s="11"/>
+      <c r="N10" s="11"/>
       <c r="P10" s="10"/>
       <c r="Q10" s="10"/>
       <c r="R10" s="10"/>
-      <c r="T10" s="5"/>
-      <c r="U10" s="5"/>
+      <c r="S10" s="10"/>
       <c r="V10" s="5"/>
       <c r="W10" s="5"/>
-    </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="X10" s="5"/>
+      <c r="Y10" s="5"/>
+      <c r="Z10" s="5"/>
+    </row>
+    <row r="11" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A11" s="9"/>
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
@@ -1766,16 +2543,22 @@
       <c r="F11" s="10"/>
       <c r="G11" s="5"/>
       <c r="H11" s="8"/>
-      <c r="O11" s="10"/>
+      <c r="J11" s="11"/>
+      <c r="K11" s="11"/>
+      <c r="L11" s="11"/>
+      <c r="M11" s="11"/>
+      <c r="N11" s="11"/>
       <c r="P11" s="10"/>
       <c r="Q11" s="10"/>
       <c r="R11" s="10"/>
-      <c r="T11" s="5"/>
-      <c r="U11" s="5"/>
+      <c r="S11" s="10"/>
       <c r="V11" s="5"/>
       <c r="W11" s="5"/>
-    </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="X11" s="5"/>
+      <c r="Y11" s="5"/>
+      <c r="Z11" s="5"/>
+    </row>
+    <row r="12" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A12" s="9"/>
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
@@ -1784,16 +2567,22 @@
       <c r="F12" s="10"/>
       <c r="G12" s="5"/>
       <c r="H12" s="8"/>
-      <c r="O12" s="10"/>
+      <c r="J12" s="11"/>
+      <c r="K12" s="11"/>
+      <c r="L12" s="11"/>
+      <c r="M12" s="11"/>
+      <c r="N12" s="11"/>
       <c r="P12" s="10"/>
       <c r="Q12" s="10"/>
       <c r="R12" s="10"/>
-      <c r="T12" s="5"/>
-      <c r="U12" s="5"/>
+      <c r="S12" s="10"/>
       <c r="V12" s="5"/>
       <c r="W12" s="5"/>
-    </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="X12" s="5"/>
+      <c r="Y12" s="5"/>
+      <c r="Z12" s="5"/>
+    </row>
+    <row r="13" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A13" s="9"/>
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
@@ -1802,16 +2591,22 @@
       <c r="F13" s="10"/>
       <c r="G13" s="5"/>
       <c r="H13" s="8"/>
-      <c r="O13" s="10"/>
+      <c r="J13" s="11"/>
+      <c r="K13" s="11"/>
+      <c r="L13" s="11"/>
+      <c r="M13" s="11"/>
+      <c r="N13" s="11"/>
       <c r="P13" s="10"/>
       <c r="Q13" s="10"/>
       <c r="R13" s="10"/>
-      <c r="T13" s="5"/>
-      <c r="U13" s="5"/>
+      <c r="S13" s="10"/>
       <c r="V13" s="5"/>
       <c r="W13" s="5"/>
-    </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="X13" s="5"/>
+      <c r="Y13" s="5"/>
+      <c r="Z13" s="5"/>
+    </row>
+    <row r="14" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A14" s="9"/>
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
@@ -1820,16 +2615,22 @@
       <c r="F14" s="10"/>
       <c r="G14" s="5"/>
       <c r="H14" s="8"/>
-      <c r="O14" s="10"/>
+      <c r="J14" s="11"/>
+      <c r="K14" s="11"/>
+      <c r="L14" s="11"/>
+      <c r="M14" s="11"/>
+      <c r="N14" s="11"/>
       <c r="P14" s="10"/>
       <c r="Q14" s="10"/>
       <c r="R14" s="10"/>
-      <c r="T14" s="5"/>
-      <c r="U14" s="5"/>
+      <c r="S14" s="10"/>
       <c r="V14" s="5"/>
       <c r="W14" s="5"/>
-    </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="X14" s="5"/>
+      <c r="Y14" s="5"/>
+      <c r="Z14" s="5"/>
+    </row>
+    <row r="15" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A15" s="9"/>
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
@@ -1838,16 +2639,22 @@
       <c r="F15" s="10"/>
       <c r="G15" s="5"/>
       <c r="H15" s="8"/>
-      <c r="O15" s="10"/>
+      <c r="J15" s="11"/>
+      <c r="K15" s="11"/>
+      <c r="L15" s="11"/>
+      <c r="M15" s="11"/>
+      <c r="N15" s="11"/>
       <c r="P15" s="10"/>
       <c r="Q15" s="10"/>
       <c r="R15" s="10"/>
-      <c r="T15" s="5"/>
-      <c r="U15" s="5"/>
+      <c r="S15" s="10"/>
       <c r="V15" s="5"/>
       <c r="W15" s="5"/>
-    </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="X15" s="5"/>
+      <c r="Y15" s="5"/>
+      <c r="Z15" s="5"/>
+    </row>
+    <row r="16" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A16" s="9"/>
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
@@ -1856,16 +2663,22 @@
       <c r="F16" s="10"/>
       <c r="G16" s="5"/>
       <c r="H16" s="8"/>
-      <c r="O16" s="10"/>
+      <c r="J16" s="11"/>
+      <c r="K16" s="11"/>
+      <c r="L16" s="11"/>
+      <c r="M16" s="11"/>
+      <c r="N16" s="11"/>
       <c r="P16" s="10"/>
       <c r="Q16" s="10"/>
       <c r="R16" s="10"/>
-      <c r="T16" s="5"/>
-      <c r="U16" s="5"/>
+      <c r="S16" s="10"/>
       <c r="V16" s="5"/>
       <c r="W16" s="5"/>
-    </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X16" s="5"/>
+      <c r="Y16" s="5"/>
+      <c r="Z16" s="5"/>
+    </row>
+    <row r="17" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A17" s="9"/>
       <c r="B17" s="4"/>
       <c r="C17" s="4"/>
@@ -1874,15 +2687,21 @@
       <c r="F17" s="10"/>
       <c r="G17" s="5"/>
       <c r="H17" s="8"/>
-      <c r="O17" s="10"/>
+      <c r="J17" s="11"/>
+      <c r="K17" s="11"/>
+      <c r="L17" s="11"/>
+      <c r="M17" s="11"/>
+      <c r="N17" s="11"/>
       <c r="P17" s="10"/>
       <c r="Q17" s="10"/>
-      <c r="T17" s="5"/>
-      <c r="U17" s="5"/>
+      <c r="R17" s="10"/>
       <c r="V17" s="5"/>
       <c r="W17" s="5"/>
-    </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X17" s="5"/>
+      <c r="Y17" s="5"/>
+      <c r="Z17" s="5"/>
+    </row>
+    <row r="18" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A18" s="9"/>
       <c r="B18" s="4"/>
       <c r="C18" s="4"/>
@@ -1891,15 +2710,21 @@
       <c r="F18" s="10"/>
       <c r="G18" s="5"/>
       <c r="H18" s="8"/>
-      <c r="O18" s="10"/>
+      <c r="J18" s="11"/>
+      <c r="K18" s="11"/>
+      <c r="L18" s="11"/>
+      <c r="M18" s="11"/>
+      <c r="N18" s="11"/>
       <c r="P18" s="10"/>
       <c r="Q18" s="10"/>
-      <c r="T18" s="5"/>
-      <c r="U18" s="5"/>
+      <c r="R18" s="10"/>
       <c r="V18" s="5"/>
       <c r="W18" s="5"/>
-    </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X18" s="5"/>
+      <c r="Y18" s="5"/>
+      <c r="Z18" s="5"/>
+    </row>
+    <row r="19" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A19" s="9"/>
       <c r="B19" s="4"/>
       <c r="C19" s="4"/>
@@ -1908,15 +2733,21 @@
       <c r="F19" s="10"/>
       <c r="G19" s="5"/>
       <c r="H19" s="8"/>
-      <c r="O19" s="10"/>
+      <c r="J19" s="11"/>
+      <c r="K19" s="11"/>
+      <c r="L19" s="11"/>
+      <c r="M19" s="11"/>
+      <c r="N19" s="11"/>
       <c r="P19" s="10"/>
       <c r="Q19" s="10"/>
-      <c r="T19" s="5"/>
-      <c r="U19" s="5"/>
+      <c r="R19" s="10"/>
       <c r="V19" s="5"/>
       <c r="W19" s="5"/>
-    </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X19" s="5"/>
+      <c r="Y19" s="5"/>
+      <c r="Z19" s="5"/>
+    </row>
+    <row r="20" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A20" s="9"/>
       <c r="B20" s="4"/>
       <c r="C20" s="4"/>
@@ -1925,15 +2756,21 @@
       <c r="F20" s="10"/>
       <c r="G20" s="5"/>
       <c r="H20" s="8"/>
-      <c r="O20" s="10"/>
+      <c r="J20" s="11"/>
+      <c r="K20" s="11"/>
+      <c r="L20" s="11"/>
+      <c r="M20" s="11"/>
+      <c r="N20" s="11"/>
       <c r="P20" s="10"/>
       <c r="Q20" s="10"/>
-      <c r="T20" s="5"/>
-      <c r="U20" s="5"/>
+      <c r="R20" s="10"/>
       <c r="V20" s="5"/>
       <c r="W20" s="5"/>
-    </row>
-    <row r="21" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X20" s="5"/>
+      <c r="Y20" s="5"/>
+      <c r="Z20" s="5"/>
+    </row>
+    <row r="21" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A21" s="9"/>
       <c r="B21" s="4"/>
       <c r="C21" s="4"/>
@@ -1942,15 +2779,21 @@
       <c r="F21" s="10"/>
       <c r="G21" s="5"/>
       <c r="H21" s="8"/>
-      <c r="O21" s="10"/>
+      <c r="J21" s="11"/>
+      <c r="K21" s="11"/>
+      <c r="L21" s="11"/>
+      <c r="M21" s="11"/>
+      <c r="N21" s="11"/>
       <c r="P21" s="10"/>
       <c r="Q21" s="10"/>
-      <c r="T21" s="5"/>
-      <c r="U21" s="5"/>
+      <c r="R21" s="10"/>
       <c r="V21" s="5"/>
       <c r="W21" s="5"/>
-    </row>
-    <row r="22" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X21" s="5"/>
+      <c r="Y21" s="5"/>
+      <c r="Z21" s="5"/>
+    </row>
+    <row r="22" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A22" s="9"/>
       <c r="B22" s="4"/>
       <c r="C22" s="4"/>
@@ -1959,15 +2802,21 @@
       <c r="F22" s="10"/>
       <c r="G22" s="5"/>
       <c r="H22" s="8"/>
-      <c r="O22" s="10"/>
+      <c r="J22" s="11"/>
+      <c r="K22" s="11"/>
+      <c r="L22" s="11"/>
+      <c r="M22" s="11"/>
+      <c r="N22" s="11"/>
       <c r="P22" s="10"/>
       <c r="Q22" s="10"/>
-      <c r="T22" s="5"/>
-      <c r="U22" s="5"/>
+      <c r="R22" s="10"/>
       <c r="V22" s="5"/>
       <c r="W22" s="5"/>
-    </row>
-    <row r="23" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X22" s="5"/>
+      <c r="Y22" s="5"/>
+      <c r="Z22" s="5"/>
+    </row>
+    <row r="23" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A23" s="9"/>
       <c r="B23" s="4"/>
       <c r="C23" s="4"/>
@@ -1976,15 +2825,21 @@
       <c r="F23" s="10"/>
       <c r="G23" s="5"/>
       <c r="H23" s="8"/>
-      <c r="O23" s="10"/>
+      <c r="J23" s="11"/>
+      <c r="K23" s="11"/>
+      <c r="L23" s="11"/>
+      <c r="M23" s="11"/>
+      <c r="N23" s="11"/>
       <c r="P23" s="10"/>
       <c r="Q23" s="10"/>
-      <c r="T23" s="5"/>
-      <c r="U23" s="5"/>
+      <c r="R23" s="10"/>
       <c r="V23" s="5"/>
       <c r="W23" s="5"/>
-    </row>
-    <row r="24" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X23" s="5"/>
+      <c r="Y23" s="5"/>
+      <c r="Z23" s="5"/>
+    </row>
+    <row r="24" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A24" s="9"/>
       <c r="B24" s="4"/>
       <c r="C24" s="4"/>
@@ -1993,11 +2848,16 @@
       <c r="F24" s="10"/>
       <c r="G24" s="5"/>
       <c r="H24" s="8"/>
-      <c r="O24" s="10"/>
+      <c r="J24" s="11"/>
+      <c r="K24" s="11"/>
+      <c r="L24" s="11"/>
+      <c r="M24" s="11"/>
+      <c r="N24" s="11"/>
       <c r="P24" s="10"/>
       <c r="Q24" s="10"/>
-    </row>
-    <row r="25" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="R24" s="10"/>
+    </row>
+    <row r="25" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A25" s="9"/>
       <c r="B25" s="4"/>
       <c r="C25" s="4"/>
@@ -2006,8 +2866,13 @@
       <c r="F25" s="10"/>
       <c r="G25" s="5"/>
       <c r="H25" s="8"/>
-    </row>
-    <row r="26" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="J25" s="11"/>
+      <c r="K25" s="11"/>
+      <c r="L25" s="11"/>
+      <c r="M25" s="11"/>
+      <c r="N25" s="11"/>
+    </row>
+    <row r="26" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A26" s="9"/>
       <c r="B26" s="4"/>
       <c r="C26" s="4"/>
@@ -2016,8 +2881,13 @@
       <c r="F26" s="10"/>
       <c r="G26" s="5"/>
       <c r="H26" s="8"/>
-    </row>
-    <row r="27" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="J26" s="11"/>
+      <c r="K26" s="11"/>
+      <c r="L26" s="11"/>
+      <c r="M26" s="11"/>
+      <c r="N26" s="11"/>
+    </row>
+    <row r="27" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A27" s="9"/>
       <c r="B27" s="4"/>
       <c r="C27" s="4"/>
@@ -2026,8 +2896,13 @@
       <c r="F27" s="10"/>
       <c r="G27" s="5"/>
       <c r="H27" s="8"/>
-    </row>
-    <row r="28" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="J27" s="11"/>
+      <c r="K27" s="11"/>
+      <c r="L27" s="11"/>
+      <c r="M27" s="11"/>
+      <c r="N27" s="11"/>
+    </row>
+    <row r="28" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A28" s="9"/>
       <c r="B28" s="4"/>
       <c r="C28" s="4"/>
@@ -2036,8 +2911,13 @@
       <c r="F28" s="10"/>
       <c r="G28" s="5"/>
       <c r="H28" s="8"/>
-    </row>
-    <row r="29" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="J28" s="11"/>
+      <c r="K28" s="11"/>
+      <c r="L28" s="11"/>
+      <c r="M28" s="11"/>
+      <c r="N28" s="11"/>
+    </row>
+    <row r="29" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A29" s="9"/>
       <c r="B29" s="4"/>
       <c r="C29" s="4"/>
@@ -2046,8 +2926,13 @@
       <c r="F29" s="10"/>
       <c r="G29" s="5"/>
       <c r="H29" s="8"/>
-    </row>
-    <row r="30" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="J29" s="11"/>
+      <c r="K29" s="11"/>
+      <c r="L29" s="11"/>
+      <c r="M29" s="11"/>
+      <c r="N29" s="11"/>
+    </row>
+    <row r="30" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A30" s="9"/>
       <c r="B30" s="4"/>
       <c r="C30" s="4"/>
@@ -2056,8 +2941,13 @@
       <c r="F30" s="10"/>
       <c r="G30" s="5"/>
       <c r="H30" s="8"/>
-    </row>
-    <row r="31" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="J30" s="11"/>
+      <c r="K30" s="11"/>
+      <c r="L30" s="11"/>
+      <c r="M30" s="11"/>
+      <c r="N30" s="11"/>
+    </row>
+    <row r="31" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A31" s="9"/>
       <c r="B31" s="4"/>
       <c r="C31" s="4"/>
@@ -2066,8 +2956,13 @@
       <c r="F31" s="10"/>
       <c r="G31" s="5"/>
       <c r="H31" s="8"/>
-    </row>
-    <row r="32" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="J31" s="11"/>
+      <c r="K31" s="11"/>
+      <c r="L31" s="11"/>
+      <c r="M31" s="11"/>
+      <c r="N31" s="11"/>
+    </row>
+    <row r="32" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A32" s="9"/>
       <c r="B32" s="4"/>
       <c r="C32" s="4"/>
@@ -2076,6 +2971,11 @@
       <c r="F32" s="10"/>
       <c r="G32" s="5"/>
       <c r="H32" s="8"/>
+      <c r="J32" s="11"/>
+      <c r="K32" s="11"/>
+      <c r="L32" s="11"/>
+      <c r="M32" s="11"/>
+      <c r="N32" s="11"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="9"/>
@@ -2260,4 +3160,270 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="5" width="14.85546875" customWidth="1"/>
+    <col min="7" max="10" width="17.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" t="s">
+        <v>57</v>
+      </c>
+      <c r="G1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H1" t="s">
+        <v>41</v>
+      </c>
+      <c r="I1" t="s">
+        <v>42</v>
+      </c>
+      <c r="J1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="9">
+        <v>43220</v>
+      </c>
+      <c r="B3">
+        <f t="array" ref="B3">_xll.HistoricalData(B$1,"Adj. Close",$A3,$A3,"Daily","RemoveHeaders = True","ReverseOrder =True","RemoveDates =""True")</f>
+        <v>71.989999999999995</v>
+      </c>
+      <c r="C3">
+        <f t="array" ref="C3">_xll.HistoricalData(C$1,"Adj. Close",$A3,$A3,"Daily","RemoveHeaders = True","ReverseOrder =True","RemoveDates =""True")</f>
+        <v>105.7599</v>
+      </c>
+      <c r="D3">
+        <f t="array" ref="D3">_xll.HistoricalData(D$1,"Adj. Close",$A3,$A3,"Daily","RemoveHeaders = True","ReverseOrder =True","RemoveDates =""True")</f>
+        <v>266.31</v>
+      </c>
+      <c r="E3">
+        <f t="array" ref="E3">_xll.HistoricalData(E$1,"Adj. Close",$A3,$A3,"Daily","RemoveHeaders = True","ReverseOrder =True","RemoveDates =""True")</f>
+        <v>17.36</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="9">
+        <v>43221</v>
+      </c>
+      <c r="B4">
+        <f t="array" ref="B4">_xll.HistoricalData(B$1,"Adj. Close",$A4,$A4,"Daily","RemoveHeaders = True","ReverseOrder =True","RemoveDates =""True")</f>
+        <v>71.91</v>
+      </c>
+      <c r="C4">
+        <f t="array" ref="C4">_xll.HistoricalData(C$1,"Adj. Close",$A4,$A4,"Daily","RemoveHeaders = True","ReverseOrder =True","RemoveDates =""True")</f>
+        <v>105.67</v>
+      </c>
+      <c r="D4">
+        <f t="array" ref="D4">_xll.HistoricalData(D$1,"Adj. Close",$A4,$A4,"Daily","RemoveHeaders = True","ReverseOrder =True","RemoveDates =""True")</f>
+        <v>266.83</v>
+      </c>
+      <c r="E4">
+        <f t="array" ref="E4">_xll.HistoricalData(E$1,"Adj. Close",$A4,$A4,"Daily","RemoveHeaders = True","ReverseOrder =True","RemoveDates =""True")</f>
+        <v>17.23</v>
+      </c>
+      <c r="G4" s="5">
+        <f>B4/B3-1</f>
+        <v>-1.1112654535352373E-3</v>
+      </c>
+      <c r="H4" s="5">
+        <f t="shared" ref="H4:J4" si="0">C4/C3-1</f>
+        <v>-8.5003862522559093E-4</v>
+      </c>
+      <c r="I4" s="5">
+        <f t="shared" si="0"/>
+        <v>1.9526116180390574E-3</v>
+      </c>
+      <c r="J4" s="5">
+        <f t="shared" si="0"/>
+        <v>-7.4884792626727092E-3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="9">
+        <v>43222</v>
+      </c>
+      <c r="B5">
+        <f t="array" ref="B5">_xll.HistoricalData(B$1,"Adj. Close",$A5,$A5,"Daily","RemoveHeaders = True","ReverseOrder =True","RemoveDates =""True")</f>
+        <v>71.61</v>
+      </c>
+      <c r="C5">
+        <f t="array" ref="C5">_xll.HistoricalData(C$1,"Adj. Close",$A5,$A5,"Daily","RemoveHeaders = True","ReverseOrder =True","RemoveDates =""True")</f>
+        <v>105.67</v>
+      </c>
+      <c r="D5">
+        <f t="array" ref="D5">_xll.HistoricalData(D$1,"Adj. Close",$A5,$A5,"Daily","RemoveHeaders = True","ReverseOrder =True","RemoveDates =""True")</f>
+        <v>264.97000000000003</v>
+      </c>
+      <c r="E5">
+        <f t="array" ref="E5">_xll.HistoricalData(E$1,"Adj. Close",$A5,$A5,"Daily","RemoveHeaders = True","ReverseOrder =True","RemoveDates =""True")</f>
+        <v>17.455500000000001</v>
+      </c>
+      <c r="G5" s="5">
+        <f>B5/B4-1</f>
+        <v>-4.1718815185648461E-3</v>
+      </c>
+      <c r="H5" s="5">
+        <f t="shared" ref="H5" si="1">C5/C4-1</f>
+        <v>0</v>
+      </c>
+      <c r="I5" s="5">
+        <f t="shared" ref="I5" si="2">D5/D4-1</f>
+        <v>-6.9707304276128701E-3</v>
+      </c>
+      <c r="J5" s="5">
+        <f t="shared" ref="J5" si="3">E5/E4-1</f>
+        <v>1.3087637840974997E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="13">
+        <v>43223</v>
+      </c>
+      <c r="B6">
+        <f t="array" ref="B6">_xll.HistoricalData(B$1,"Adj. Close",$A6,$A6,"Daily","RemoveHeaders = True","ReverseOrder =True","RemoveDates =""True")</f>
+        <v>71.62</v>
+      </c>
+      <c r="C6">
+        <f t="array" ref="C6">_xll.HistoricalData(C$1,"Adj. Close",$A6,$A6,"Daily","RemoveHeaders = True","ReverseOrder =True","RemoveDates =""True")</f>
+        <v>105.79</v>
+      </c>
+      <c r="D6">
+        <f t="array" ref="D6">_xll.HistoricalData(D$1,"Adj. Close",$A6,$A6,"Daily","RemoveHeaders = True","ReverseOrder =True","RemoveDates =""True")</f>
+        <v>264.39999999999998</v>
+      </c>
+      <c r="E6">
+        <f t="array" ref="E6">_xll.HistoricalData(E$1,"Adj. Close",$A6,$A6,"Daily","RemoveHeaders = True","ReverseOrder =True","RemoveDates =""True")</f>
+        <v>17.12</v>
+      </c>
+      <c r="G6" s="5">
+        <f>B6/B5-1</f>
+        <v>1.3964530093568683E-4</v>
+      </c>
+      <c r="H6" s="5">
+        <f t="shared" ref="H6" si="4">C6/C5-1</f>
+        <v>1.1356108640105944E-3</v>
+      </c>
+      <c r="I6" s="5">
+        <f t="shared" ref="I6" si="5">D6/D5-1</f>
+        <v>-2.1511869268221462E-3</v>
+      </c>
+      <c r="J6" s="5">
+        <f t="shared" ref="J6" si="6">E6/E5-1</f>
+        <v>-1.9220303056343258E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="13">
+        <v>43224</v>
+      </c>
+      <c r="B7">
+        <f t="array" ref="B7">_xll.HistoricalData(B$1,"Adj. Close",$A7,$A7,"Daily","RemoveHeaders = True","ReverseOrder =True","RemoveDates =""True")</f>
+        <v>72.22</v>
+      </c>
+      <c r="C7">
+        <f t="array" ref="C7">_xll.HistoricalData(C$1,"Adj. Close",$A7,$A7,"Daily","RemoveHeaders = True","ReverseOrder =True","RemoveDates =""True")</f>
+        <v>105.86</v>
+      </c>
+      <c r="D7">
+        <f t="array" ref="D7">_xll.HistoricalData(D$1,"Adj. Close",$A7,$A7,"Daily","RemoveHeaders = True","ReverseOrder =True","RemoveDates =""True")</f>
+        <v>267.82</v>
+      </c>
+      <c r="E7">
+        <f t="array" ref="E7">_xll.HistoricalData(E$1,"Adj. Close",$A7,$A7,"Daily","RemoveHeaders = True","ReverseOrder =True","RemoveDates =""True")</f>
+        <v>17.187100000000001</v>
+      </c>
+      <c r="G7" s="5">
+        <f>B7/B6-1</f>
+        <v>8.3775481709018607E-3</v>
+      </c>
+      <c r="H7" s="5">
+        <f t="shared" ref="H7" si="7">C7/C6-1</f>
+        <v>6.6168825030721301E-4</v>
+      </c>
+      <c r="I7" s="5">
+        <f t="shared" ref="I7" si="8">D7/D6-1</f>
+        <v>1.2934947049924483E-2</v>
+      </c>
+      <c r="J7" s="5">
+        <f t="shared" ref="J7" si="9">E7/E6-1</f>
+        <v>3.9193925233644844E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="13">
+        <v>43227</v>
+      </c>
+      <c r="B8">
+        <f t="array" ref="B8">_xll.HistoricalData(B$1,"Adj. Close",$A8,$A8,"Daily","RemoveHeaders = True","ReverseOrder =True","RemoveDates =""True")</f>
+        <v>72.34</v>
+      </c>
+      <c r="C8">
+        <f t="array" ref="C8">_xll.HistoricalData(C$1,"Adj. Close",$A8,$A8,"Daily","RemoveHeaders = True","ReverseOrder =True","RemoveDates =""True")</f>
+        <v>105.81</v>
+      </c>
+      <c r="D8">
+        <f t="array" ref="D8">_xll.HistoricalData(D$1,"Adj. Close",$A8,$A8,"Daily","RemoveHeaders = True","ReverseOrder =True","RemoveDates =""True")</f>
+        <v>268.79000000000002</v>
+      </c>
+      <c r="E8">
+        <f t="array" ref="E8">_xll.HistoricalData(E$1,"Adj. Close",$A8,$A8,"Daily","RemoveHeaders = True","ReverseOrder =True","RemoveDates =""True")</f>
+        <v>17.39</v>
+      </c>
+      <c r="G8" s="5">
+        <f>B8/B7-1</f>
+        <v>1.6615895873719477E-3</v>
+      </c>
+      <c r="H8" s="5">
+        <f t="shared" ref="H8" si="10">C8/C7-1</f>
+        <v>-4.7232193463064842E-4</v>
+      </c>
+      <c r="I8" s="5">
+        <f t="shared" ref="I8" si="11">D8/D7-1</f>
+        <v>3.6218355611978836E-3</v>
+      </c>
+      <c r="J8" s="5">
+        <f t="shared" ref="J8" si="12">E8/E7-1</f>
+        <v>1.180536565214596E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Portfolio.xlsx
+++ b/Portfolio.xlsx
@@ -608,7 +608,69 @@
 <file path=xl/volatileDependencies.xml><?xml version="1.0" encoding="utf-8"?>
 <volTypes xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <volType type="realTimeData">
-    <main first="rtdsrv.fa54dbfa7d1a43488c694bd2669a0ba1">
+    <main first="rtdsrv.34017bac0b7c498896f9ecb43d8944ec">
+      <tp>
+        <v>0</v>
+        <stp/>
+        <stp>RWX</stp>
+        <stp>change in percent</stp>
+        <tr r="L7" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.34017bac0b7c498896f9ecb43d8944ec">
+      <tp>
+        <v>0</v>
+        <stp/>
+        <stp>IVV</stp>
+        <stp>change in percent</stp>
+        <tr r="K24" s="1"/>
+        <tr r="L6" s="1"/>
+      </tp>
+      <tp>
+        <v>0</v>
+        <stp/>
+        <stp>IEV</stp>
+        <stp>change in percent</stp>
+        <tr r="L5" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.34017bac0b7c498896f9ecb43d8944ec">
+      <tp>
+        <v>0</v>
+        <stp/>
+        <stp>EWJ</stp>
+        <stp>change in percent</stp>
+        <tr r="L3" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.34017bac0b7c498896f9ecb43d8944ec">
+      <tp>
+        <v>0</v>
+        <stp/>
+        <stp>ACWI</stp>
+        <stp>change in percent</stp>
+        <tr r="K22" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.34017bac0b7c498896f9ecb43d8944ec">
+      <tp>
+        <v>0</v>
+        <stp/>
+        <stp>DBC</stp>
+        <stp>change in percent</stp>
+        <tr r="L2" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.34017bac0b7c498896f9ecb43d8944ec">
+      <tp>
+        <v>0</v>
+        <stp/>
+        <stp>AGG</stp>
+        <stp>change in percent</stp>
+        <tr r="K23" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.34017bac0b7c498896f9ecb43d8944ec">
       <tp>
         <v>0</v>
         <stp/>
@@ -617,59 +679,89 @@
         <tr r="K26" s="1"/>
       </tp>
     </main>
-    <main first="rtdsrv.fa54dbfa7d1a43488c694bd2669a0ba1">
+    <main first="rtdsrv.34017bac0b7c498896f9ecb43d8944ec">
       <tp>
         <v>0</v>
         <stp/>
-        <stp>ACWI</stp>
+        <stp>GLD</stp>
         <stp>change in percent</stp>
-        <tr r="K22" s="1"/>
+        <tr r="L4" s="1"/>
       </tp>
     </main>
-    <main first="rtdsrv.fa54dbfa7d1a43488c694bd2669a0ba1">
+    <main first="rtdsrv.34017bac0b7c498896f9ecb43d8944ec">
       <tp>
-        <v>268.79000000000002</v>
+        <v>40.76</v>
+        <stp/>
+        <stp>RWX</stp>
+        <stp>last</stp>
+        <tr r="J7" s="1"/>
+      </tp>
+      <tp>
+        <v>61.28</v>
+        <stp/>
+        <stp>EWJ</stp>
+        <stp>last</stp>
+        <tr r="J3" s="1"/>
+      </tp>
+      <tp>
+        <v>274.47000000000003</v>
         <stp/>
         <stp>IVV</stp>
         <stp>last</stp>
         <tr r="J6" s="1"/>
       </tp>
       <tp>
-        <v>60.8</v>
+        <v>17.87</v>
+        <stp/>
+        <stp>DBC</stp>
+        <stp>close</stp>
+        <tr r="G2" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.34017bac0b7c498896f9ecb43d8944ec">
+      <tp>
+        <v>125</v>
+        <stp/>
+        <stp>GLD</stp>
+        <stp>close</stp>
+        <tr r="G4" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.34017bac0b7c498896f9ecb43d8944ec">
+      <tp t="s">
+        <v>SPDR INDEX SHS FDS-DJ INTL RL ETF</v>
+        <stp/>
+        <stp>RWX</stp>
+        <stp>description</stp>
+        <tr r="B7" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.34017bac0b7c498896f9ecb43d8944ec">
+      <tp>
+        <v>61.28</v>
         <stp/>
         <stp>EWJ</stp>
-        <stp>last</stp>
-        <tr r="J3" s="1"/>
+        <stp>close</stp>
+        <tr r="G3" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>ISHARES TR-20 YR TR BD ETF</v>
+        <stp/>
+        <stp>TLT</stp>
+        <stp>description</stp>
+        <tr r="B11" s="1"/>
       </tp>
     </main>
-    <main first="rtdsrv.fa54dbfa7d1a43488c694bd2669a0ba1">
+    <main first="rtdsrv.34017bac0b7c498896f9ecb43d8944ec">
       <tp>
-        <v>40.520000000000003</v>
-        <stp/>
-        <stp>RWX</stp>
-        <stp>last</stp>
-        <tr r="J7" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.fa54dbfa7d1a43488c694bd2669a0ba1">
-      <tp>
-        <v>124.57</v>
-        <stp/>
-        <stp>GLD</stp>
-        <stp>last</stp>
-        <tr r="J4" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.fa54dbfa7d1a43488c694bd2669a0ba1">
-      <tp>
-        <v>47.66</v>
+        <v>48.23</v>
         <stp/>
         <stp>IEV</stp>
         <stp>last</stp>
         <tr r="J5" s="1"/>
       </tp>
     </main>
-    <main first="rtdsrv.fa54dbfa7d1a43488c694bd2669a0ba1">
+    <main first="rtdsrv.34017bac0b7c498896f9ecb43d8944ec">
       <tp t="s">
         <v>ARROW ETF TR-ARROW DJ GLB YLD</v>
         <stp/>
@@ -678,76 +770,90 @@
         <tr r="L26" s="1"/>
       </tp>
     </main>
-    <main first="rtdsrv.fa54dbfa7d1a43488c694bd2669a0ba1">
+    <main first="rtdsrv.34017bac0b7c498896f9ecb43d8944ec">
+      <tp t="s">
+        <v>ISHARES TR-CORE S&amp;P500 ETF</v>
+        <stp/>
+        <stp>IVV</stp>
+        <stp>description</stp>
+        <tr r="B6" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>ISHARES TR-U.S. REAL ES ETF</v>
+        <stp/>
+        <stp>IYR</stp>
+        <stp>description</stp>
+        <tr r="B9" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>ISHARES TR-BARCLAYS 7 10 YR</v>
+        <stp/>
+        <stp>IEF</stp>
+        <stp>description</stp>
+        <tr r="B10" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>ISHARES TR-EUROPE ETF</v>
+        <stp/>
+        <stp>IEV</stp>
+        <stp>description</stp>
+        <tr r="B5" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.34017bac0b7c498896f9ecb43d8944ec">
       <tp>
-        <v>17.68</v>
+        <v>274.47000000000003</v>
+        <stp/>
+        <stp>IVV</stp>
+        <stp>close</stp>
+        <tr r="G6" s="1"/>
+      </tp>
+      <tp>
+        <v>48.23</v>
+        <stp/>
+        <stp>IEV</stp>
+        <stp>close</stp>
+        <tr r="G5" s="1"/>
+      </tp>
+      <tp>
+        <v>17.87</v>
         <stp/>
         <stp>DBC</stp>
         <stp>last</stp>
         <tr r="J2" s="1"/>
       </tp>
       <tp>
-        <v>0</v>
+        <v>40.76</v>
         <stp/>
-        <stp>EWJ</stp>
-        <stp>change in percent</stp>
-        <tr r="L3" s="1"/>
+        <stp>RWX</stp>
+        <stp>close</stp>
+        <tr r="G7" s="1"/>
+      </tp>
+      <tp>
+        <v>125</v>
+        <stp/>
+        <stp>GLD</stp>
+        <stp>last</stp>
+        <tr r="J4" s="1"/>
       </tp>
     </main>
-    <main first="rtdsrv.fa54dbfa7d1a43488c694bd2669a0ba1">
-      <tp>
-        <v>0</v>
+    <main first="rtdsrv.34017bac0b7c498896f9ecb43d8944ec">
+      <tp t="s">
+        <v>SPDR GOLD TRUST-GOLD SHS</v>
+        <stp/>
+        <stp>GLD</stp>
+        <stp>description</stp>
+        <tr r="B4" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.34017bac0b7c498896f9ecb43d8944ec">
+      <tp t="s">
+        <v>POWERSHARES DB CMDTY IDX TRA-UNIT BEN INT</v>
         <stp/>
         <stp>DBC</stp>
-        <stp>change in percent</stp>
-        <tr r="L2" s="1"/>
+        <stp>description</stp>
+        <tr r="B2" s="1"/>
       </tp>
-    </main>
-    <main first="rtdsrv.fa54dbfa7d1a43488c694bd2669a0ba1">
-      <tp>
-        <v>0</v>
-        <stp/>
-        <stp>AGG</stp>
-        <stp>change in percent</stp>
-        <tr r="K23" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.fa54dbfa7d1a43488c694bd2669a0ba1">
-      <tp>
-        <v>0</v>
-        <stp/>
-        <stp>GLD</stp>
-        <stp>change in percent</stp>
-        <tr r="L4" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.fa54dbfa7d1a43488c694bd2669a0ba1">
-      <tp>
-        <v>0</v>
-        <stp/>
-        <stp>RWX</stp>
-        <stp>change in percent</stp>
-        <tr r="L7" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.fa54dbfa7d1a43488c694bd2669a0ba1">
-      <tp>
-        <v>0</v>
-        <stp/>
-        <stp>IVV</stp>
-        <stp>change in percent</stp>
-        <tr r="K24" s="1"/>
-        <tr r="L6" s="1"/>
-      </tp>
-      <tp>
-        <v>0</v>
-        <stp/>
-        <stp>IEV</stp>
-        <stp>change in percent</stp>
-        <tr r="L5" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.fa54dbfa7d1a43488c694bd2669a0ba1">
       <tp t="s">
         <v>ISHARES INC-MSCI JPN ETF NEW</v>
         <stp/>
@@ -761,122 +867,6 @@
         <stp>EEM</stp>
         <stp>description</stp>
         <tr r="B8" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.fa54dbfa7d1a43488c694bd2669a0ba1">
-      <tp t="s">
-        <v>POWERSHARES DB CMDTY IDX TRA-UNIT BEN INT</v>
-        <stp/>
-        <stp>DBC</stp>
-        <stp>description</stp>
-        <tr r="B2" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.fa54dbfa7d1a43488c694bd2669a0ba1">
-      <tp t="s">
-        <v>SPDR GOLD TRUST-GOLD SHS</v>
-        <stp/>
-        <stp>GLD</stp>
-        <stp>description</stp>
-        <tr r="B4" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.fa54dbfa7d1a43488c694bd2669a0ba1">
-      <tp>
-        <v>268.79000000000002</v>
-        <stp/>
-        <stp>IVV</stp>
-        <stp>close</stp>
-        <tr r="G6" s="1"/>
-      </tp>
-      <tp>
-        <v>47.66</v>
-        <stp/>
-        <stp>IEV</stp>
-        <stp>close</stp>
-        <tr r="G5" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.fa54dbfa7d1a43488c694bd2669a0ba1">
-      <tp t="s">
-        <v>ISHARES TR-U.S. REAL ES ETF</v>
-        <stp/>
-        <stp>IYR</stp>
-        <stp>description</stp>
-        <tr r="B9" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>ISHARES TR-CORE S&amp;P500 ETF</v>
-        <stp/>
-        <stp>IVV</stp>
-        <stp>description</stp>
-        <tr r="B6" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>ISHARES TR-EUROPE ETF</v>
-        <stp/>
-        <stp>IEV</stp>
-        <stp>description</stp>
-        <tr r="B5" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>ISHARES TR-BARCLAYS 7 10 YR</v>
-        <stp/>
-        <stp>IEF</stp>
-        <stp>description</stp>
-        <tr r="B10" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.fa54dbfa7d1a43488c694bd2669a0ba1">
-      <tp>
-        <v>40.520000000000003</v>
-        <stp/>
-        <stp>RWX</stp>
-        <stp>close</stp>
-        <tr r="G7" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.fa54dbfa7d1a43488c694bd2669a0ba1">
-      <tp t="s">
-        <v>SPDR INDEX SHS FDS-DJ INTL RL ETF</v>
-        <stp/>
-        <stp>RWX</stp>
-        <stp>description</stp>
-        <tr r="B7" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.fa54dbfa7d1a43488c694bd2669a0ba1">
-      <tp>
-        <v>17.68</v>
-        <stp/>
-        <stp>DBC</stp>
-        <stp>close</stp>
-        <tr r="G2" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.fa54dbfa7d1a43488c694bd2669a0ba1">
-      <tp>
-        <v>124.57</v>
-        <stp/>
-        <stp>GLD</stp>
-        <stp>close</stp>
-        <tr r="G4" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>ISHARES TR-20 YR TR BD ETF</v>
-        <stp/>
-        <stp>TLT</stp>
-        <stp>description</stp>
-        <tr r="B11" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.fa54dbfa7d1a43488c694bd2669a0ba1">
-      <tp>
-        <v>60.8</v>
-        <stp/>
-        <stp>EWJ</stp>
-        <stp>close</stp>
-        <tr r="G3" s="1"/>
       </tp>
     </main>
   </volType>
@@ -1149,8 +1139,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:N34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="N39" sqref="N39"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1223,30 +1213,30 @@
       </c>
       <c r="E2" s="5">
         <f t="shared" ref="E2:E7" si="0">G2/D2-1</f>
-        <v>1.2078539126452403E-2</v>
+        <v>2.2954948766386263E-2</v>
       </c>
       <c r="F2" s="5">
         <f>I2/$I$21</f>
-        <v>0.11445405753178808</v>
+        <v>0.11461361874826397</v>
       </c>
       <c r="G2" s="4">
         <f>_xll.RealtimeData(A2,"Close")</f>
-        <v>17.68</v>
+        <v>17.87</v>
       </c>
       <c r="H2" s="4">
         <v>130</v>
       </c>
       <c r="I2" s="4">
         <f t="shared" ref="I2:I7" si="1">H2*G2</f>
-        <v>2298.4</v>
+        <v>2323.1</v>
       </c>
       <c r="J2">
         <f>_xll.RealtimeData(A2,"Last")</f>
-        <v>17.68</v>
+        <v>17.87</v>
       </c>
       <c r="K2" s="5">
         <f>J2/D2-1</f>
-        <v>1.2078539126452403E-2</v>
+        <v>2.2954948766386263E-2</v>
       </c>
       <c r="L2" s="8">
         <f>_xll.RealtimeData(A2,"Change in Percent")</f>
@@ -1269,30 +1259,30 @@
       </c>
       <c r="E3" s="5">
         <f t="shared" si="0"/>
-        <v>2.5558578613240623E-3</v>
+        <v>1.0470772528650363E-2</v>
       </c>
       <c r="F3" s="5">
         <f t="shared" ref="F3:F7" si="2">I3/$I$21</f>
-        <v>0.24826929569721659</v>
+        <v>0.24791392951886551</v>
       </c>
       <c r="G3" s="4">
         <f>_xll.RealtimeData(A3,"Close")</f>
-        <v>60.8</v>
+        <v>61.28</v>
       </c>
       <c r="H3" s="4">
         <v>82</v>
       </c>
       <c r="I3" s="4">
         <f t="shared" si="1"/>
-        <v>4985.5999999999995</v>
+        <v>5024.96</v>
       </c>
       <c r="J3">
         <f>_xll.RealtimeData(A3,"Last")</f>
-        <v>60.8</v>
+        <v>61.28</v>
       </c>
       <c r="K3" s="5">
         <f>J3/D3-1</f>
-        <v>2.5558578613240623E-3</v>
+        <v>1.0470772528650363E-2</v>
       </c>
       <c r="L3" s="8">
         <f>_xll.RealtimeData(A3,"Change in Percent")</f>
@@ -1315,30 +1305,30 @@
       </c>
       <c r="E4" s="5">
         <f t="shared" si="0"/>
-        <v>6.1018701363733108E-3</v>
+        <v>9.5748074740842348E-3</v>
       </c>
       <c r="F4" s="5">
         <f t="shared" si="2"/>
-        <v>0.27914609624219799</v>
+        <v>0.27751780184192881</v>
       </c>
       <c r="G4" s="4">
         <f>_xll.RealtimeData(A4,"Close")</f>
-        <v>124.57</v>
+        <v>125</v>
       </c>
       <c r="H4" s="4">
         <v>45</v>
       </c>
       <c r="I4" s="4">
         <f t="shared" si="1"/>
-        <v>5605.65</v>
+        <v>5625</v>
       </c>
       <c r="J4">
         <f>_xll.RealtimeData(A4,"Last")</f>
-        <v>124.57</v>
+        <v>125</v>
       </c>
       <c r="K4" s="5">
         <f t="shared" ref="K4:K7" si="3">J4/D4-1</f>
-        <v>6.1018701363733108E-3</v>
+        <v>9.5748074740842348E-3</v>
       </c>
       <c r="L4" s="8">
         <f>_xll.RealtimeData(A4,"Change in Percent")</f>
@@ -1361,30 +1351,30 @@
       </c>
       <c r="E5" s="5">
         <f t="shared" si="0"/>
-        <v>7.0787110406760334E-3</v>
+        <v>1.9123085050184674E-2</v>
       </c>
       <c r="F5" s="5">
         <f t="shared" si="2"/>
-        <v>9.0186849336351696E-2</v>
+        <v>9.0420973537382501E-2</v>
       </c>
       <c r="G5" s="4">
         <f>_xll.RealtimeData(A5,"Close")</f>
-        <v>47.66</v>
+        <v>48.23</v>
       </c>
       <c r="H5" s="4">
         <v>38</v>
       </c>
       <c r="I5" s="4">
         <f t="shared" si="1"/>
-        <v>1811.08</v>
+        <v>1832.7399999999998</v>
       </c>
       <c r="J5">
         <f>_xll.RealtimeData(A5,"Last")</f>
-        <v>47.66</v>
+        <v>48.23</v>
       </c>
       <c r="K5" s="5">
         <f t="shared" si="3"/>
-        <v>7.0787110406760334E-3</v>
+        <v>1.9123085050184674E-2</v>
       </c>
       <c r="L5" s="8">
         <f>_xll.RealtimeData(A5,"Change in Percent")</f>
@@ -1407,30 +1397,30 @@
       </c>
       <c r="E6" s="5">
         <f t="shared" si="0"/>
-        <v>9.1248857277477224E-3</v>
+        <v>3.0449448959019687E-2</v>
       </c>
       <c r="F6" s="5">
         <f t="shared" si="2"/>
-        <v>0.17400512513557309</v>
+        <v>0.17603805225425861</v>
       </c>
       <c r="G6" s="4">
         <f>_xll.RealtimeData(A6,"Close")</f>
-        <v>268.79000000000002</v>
+        <v>274.47000000000003</v>
       </c>
       <c r="H6" s="4">
         <v>13</v>
       </c>
       <c r="I6" s="4">
         <f t="shared" si="1"/>
-        <v>3494.2700000000004</v>
+        <v>3568.1100000000006</v>
       </c>
       <c r="J6">
         <f>_xll.RealtimeData(A6,"Last")</f>
-        <v>268.79000000000002</v>
+        <v>274.47000000000003</v>
       </c>
       <c r="K6" s="5">
         <f t="shared" si="3"/>
-        <v>9.1248857277477224E-3</v>
+        <v>3.0449448959019687E-2</v>
       </c>
       <c r="L6" s="8">
         <f>_xll.RealtimeData(A6,"Change in Percent")</f>
@@ -1453,30 +1443,30 @@
       </c>
       <c r="E7" s="5">
         <f t="shared" si="0"/>
-        <v>-4.6647130059271902E-3</v>
+        <v>1.2306588815005348E-3</v>
       </c>
       <c r="F7" s="5">
         <f t="shared" si="2"/>
-        <v>7.2640281414362129E-2</v>
+        <v>7.239440385969291E-2</v>
       </c>
       <c r="G7" s="4">
         <f>_xll.RealtimeData(A7,"Close")</f>
-        <v>40.520000000000003</v>
+        <v>40.76</v>
       </c>
       <c r="H7" s="4">
         <v>36</v>
       </c>
       <c r="I7" s="4">
         <f t="shared" si="1"/>
-        <v>1458.72</v>
+        <v>1467.36</v>
       </c>
       <c r="J7">
         <f>_xll.RealtimeData(A7,"Last")</f>
-        <v>40.520000000000003</v>
+        <v>40.76</v>
       </c>
       <c r="K7" s="5">
         <f t="shared" si="3"/>
-        <v>-4.6647130059271902E-3</v>
+        <v>1.2306588815005348E-3</v>
       </c>
       <c r="L7" s="8">
         <f>_xll.RealtimeData(A7,"Change in Percent")</f>
@@ -1534,20 +1524,20 @@
       </c>
       <c r="I21" s="6">
         <f>SUM(I2:I20)</f>
-        <v>20081.420000000002</v>
+        <v>20268.97</v>
       </c>
       <c r="J21" t="s">
         <v>34</v>
       </c>
       <c r="K21" s="8">
         <f>SUMPRODUCT(K2:K7,F2:F7)</f>
-        <v>5.6076295351152935E-3</v>
+        <v>1.5062462102557975E-2</v>
       </c>
       <c r="M21" t="s">
         <v>35</v>
       </c>
       <c r="N21" s="8">
-        <f t="array" ref="N21">SUMPRODUCT(F2:F7,L2:L7)</f>
+        <f>SUMPRODUCT(F2:F7,L2:L7)</f>
         <v>0</v>
       </c>
     </row>
@@ -1605,7 +1595,7 @@
       </c>
       <c r="I26" s="6">
         <f>SUM(I2:I18)</f>
-        <v>19653.72</v>
+        <v>19841.27</v>
       </c>
       <c r="J26" t="s">
         <v>57</v>
@@ -1625,7 +1615,7 @@
     <row r="29" spans="8:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="30" spans="8:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H30" s="29">
-        <v>43227</v>
+        <v>43230</v>
       </c>
       <c r="I30" s="15" t="s">
         <v>62</v>
@@ -1647,11 +1637,11 @@
       </c>
       <c r="J31" s="22">
         <f>VLOOKUP($H$30,Daily!$A:$AF,7,0)</f>
-        <v>4.0815000000000712E-3</v>
+        <v>1.20815000000003E-2</v>
       </c>
       <c r="K31" s="23">
         <f>VLOOKUP($H$30,Daily!$A:$AF,8,0)</f>
-        <v>4.0815000000000712E-3</v>
+        <v>1.20815000000003E-2</v>
       </c>
     </row>
     <row r="32" spans="8:14" x14ac:dyDescent="0.25">
@@ -1664,11 +1654,11 @@
       </c>
       <c r="J32" s="14">
         <f>VLOOKUP($H$30,Daily!$A:$AF,25,0)</f>
-        <v>3.1160437189563517E-3</v>
+        <v>1.2998121435466858E-2</v>
       </c>
       <c r="K32" s="25">
         <f>VLOOKUP($H$30,Daily!$A:$AF,31,0)</f>
-        <v>3.1160437189563517E-3</v>
+        <v>1.2998121435466858E-2</v>
       </c>
     </row>
     <row r="33" spans="8:11" x14ac:dyDescent="0.25">
@@ -1681,11 +1671,11 @@
       </c>
       <c r="J33" s="14">
         <f>VLOOKUP($H$30,Daily!$A:$AF,24,0)</f>
-        <v>9.403621992640776E-3</v>
+        <v>2.8593519341434837E-2</v>
       </c>
       <c r="K33" s="25">
         <f>VLOOKUP($H$30,Daily!$A:$AF,30,0)</f>
-        <v>9.403621992640776E-3</v>
+        <v>2.8593519341434837E-2</v>
       </c>
     </row>
     <row r="34" spans="8:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1698,11 +1688,11 @@
       </c>
       <c r="J34" s="27">
         <f>VLOOKUP($H$30,Daily!$A:$AF,26,0)</f>
-        <v>1.9466513843773292E-3</v>
+        <v>1.1165251972157453E-2</v>
       </c>
       <c r="K34" s="28">
         <f>VLOOKUP($H$30,Daily!$A:$AF,32,0)</f>
-        <v>1.9466513843773292E-3</v>
+        <v>1.1165251972157453E-2</v>
       </c>
     </row>
   </sheetData>
@@ -1719,7 +1709,7 @@
   <dimension ref="A1:AF50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+      <selection activeCell="H29" sqref="H29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1933,19 +1923,19 @@
         <v>19966.919999999998</v>
       </c>
       <c r="E3" s="5">
-        <f>D3/D2-1</f>
+        <f t="shared" ref="E3:E9" si="1">D3/D2-1</f>
         <v>-1.6540000000000443E-3</v>
       </c>
       <c r="F3" s="10">
-        <f>F2*(1+E3)</f>
+        <f t="shared" ref="F3:F8" si="2">F2*(1+E3)</f>
         <v>0.99834599999999996</v>
       </c>
       <c r="G3" s="5">
-        <f>F3/$F$2-1</f>
+        <f t="shared" ref="G3:G9" si="3">F3/$F$2-1</f>
         <v>-1.6540000000000443E-3</v>
       </c>
       <c r="H3" s="8">
-        <f>F3/$F$2-1</f>
+        <f t="shared" ref="H3:H8" si="4">F3/$F$2-1</f>
         <v>-1.6540000000000443E-3</v>
       </c>
       <c r="J3" s="11">
@@ -1985,43 +1975,43 @@
         <v>99.251999999999995</v>
       </c>
       <c r="V3" s="5">
-        <f>P3/$P$2-1</f>
+        <f t="shared" ref="V3:V8" si="5">P3/$P$2-1</f>
         <v>-1.1100000000000554E-3</v>
       </c>
       <c r="W3" s="5">
-        <f>Q3/$Q$2-1</f>
+        <f t="shared" ref="W3:W8" si="6">Q3/$Q$2-1</f>
         <v>-8.5000000000012843E-4</v>
       </c>
       <c r="X3" s="5">
-        <f>R3/$R$2-1</f>
+        <f t="shared" ref="X3:X8" si="7">R3/$R$2-1</f>
         <v>1.7700000000000493E-3</v>
       </c>
       <c r="Y3" s="5">
-        <f>S3/$S$2-1</f>
+        <f t="shared" ref="Y3:Y8" si="8">S3/$S$2-1</f>
         <v>-1.0059999999999514E-3</v>
       </c>
       <c r="Z3" s="5">
-        <f>T3/$T$2-1</f>
+        <f t="shared" ref="Z3:Z8" si="9">T3/$T$2-1</f>
         <v>-7.4800000000000422E-3</v>
       </c>
       <c r="AB3" s="8">
-        <f>P3/$P$2-1</f>
+        <f t="shared" ref="AB3:AB8" si="10">P3/$P$2-1</f>
         <v>-1.1100000000000554E-3</v>
       </c>
       <c r="AC3" s="8">
-        <f t="shared" ref="AC3:AE3" si="1">Q3/$P$2-1</f>
+        <f t="shared" ref="AC3:AE3" si="11">Q3/$P$2-1</f>
         <v>-8.5000000000012843E-4</v>
       </c>
       <c r="AD3" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>1.7700000000000493E-3</v>
       </c>
       <c r="AE3" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>-1.0059999999999514E-3</v>
       </c>
       <c r="AF3" s="8">
-        <f>T3/$T$2-1</f>
+        <f t="shared" ref="AF3:AF8" si="12">T3/$T$2-1</f>
         <v>-7.4800000000000422E-3</v>
       </c>
     </row>
@@ -2040,19 +2030,19 @@
         <v>19899.66</v>
       </c>
       <c r="E4" s="5">
-        <f>D4/D3-1</f>
+        <f t="shared" si="1"/>
         <v>-3.368571617455185E-3</v>
       </c>
       <c r="F4" s="10">
-        <f>F3*(1+E4)</f>
+        <f t="shared" si="2"/>
         <v>0.99498300000000006</v>
       </c>
       <c r="G4" s="5">
-        <f>F4/$F$2-1</f>
+        <f t="shared" si="3"/>
         <v>-5.0169999999999382E-3</v>
       </c>
       <c r="H4" s="8">
-        <f>F4/$F$2-1</f>
+        <f t="shared" si="4"/>
         <v>-5.0169999999999382E-3</v>
       </c>
       <c r="J4" s="11">
@@ -2065,70 +2055,70 @@
         <v>-6.7000000000000002E-3</v>
       </c>
       <c r="M4" s="11">
-        <f t="shared" ref="M4:M7" si="2">0.6*J4 + 0.4*K4</f>
+        <f t="shared" ref="M4:M9" si="13">0.6*J4 + 0.4*K4</f>
         <v>-2.5019999999999999E-3</v>
       </c>
       <c r="N4" s="11">
         <v>1.3299999999999999E-2</v>
       </c>
       <c r="P4" s="10">
-        <f t="shared" ref="P4" si="3">P3*(1+J4)</f>
+        <f t="shared" ref="P4" si="14">P3*(1+J4)</f>
         <v>99.472462870000001</v>
       </c>
       <c r="Q4" s="10">
-        <f t="shared" ref="Q4" si="4">Q3*(1+K4)</f>
+        <f t="shared" ref="Q4" si="15">Q3*(1+K4)</f>
         <v>99.914999999999992</v>
       </c>
       <c r="R4" s="10">
-        <f t="shared" ref="R4" si="5">R3*(1+L4)</f>
+        <f t="shared" ref="R4" si="16">R3*(1+L4)</f>
         <v>99.505814100000009</v>
       </c>
       <c r="S4" s="10">
-        <f t="shared" ref="S4" si="6">S3*(1+M4)</f>
+        <f t="shared" ref="S4" si="17">S3*(1+M4)</f>
         <v>99.649451701199993</v>
       </c>
       <c r="T4" s="10">
-        <f>T3*(1+N4)</f>
+        <f t="shared" ref="T4:T9" si="18">T3*(1+N4)</f>
         <v>100.57205160000001</v>
       </c>
       <c r="V4" s="5">
-        <f>P4/$P$2-1</f>
+        <f t="shared" si="5"/>
         <v>-5.275371299999998E-3</v>
       </c>
       <c r="W4" s="5">
-        <f>Q4/$Q$2-1</f>
+        <f t="shared" si="6"/>
         <v>-8.5000000000012843E-4</v>
       </c>
       <c r="X4" s="5">
-        <f>R4/$R$2-1</f>
+        <f t="shared" si="7"/>
         <v>-4.9418589999998819E-3</v>
       </c>
       <c r="Y4" s="5">
-        <f>S4/$S$2-1</f>
+        <f t="shared" si="8"/>
         <v>-3.5054829880000193E-3</v>
       </c>
       <c r="Z4" s="5">
-        <f>T4/$T$2-1</f>
+        <f t="shared" si="9"/>
         <v>5.7205160000000088E-3</v>
       </c>
       <c r="AB4" s="8">
-        <f>P4/$P$2-1</f>
+        <f t="shared" si="10"/>
         <v>-5.275371299999998E-3</v>
       </c>
       <c r="AC4" s="8">
-        <f t="shared" ref="AC4" si="7">Q4/$P$2-1</f>
+        <f t="shared" ref="AC4" si="19">Q4/$P$2-1</f>
         <v>-8.5000000000012843E-4</v>
       </c>
       <c r="AD4" s="8">
-        <f t="shared" ref="AD4" si="8">R4/$P$2-1</f>
+        <f t="shared" ref="AD4" si="20">R4/$P$2-1</f>
         <v>-4.9418589999998819E-3</v>
       </c>
       <c r="AE4" s="8">
-        <f t="shared" ref="AE4" si="9">S4/$P$2-1</f>
+        <f t="shared" ref="AE4" si="21">S4/$P$2-1</f>
         <v>-3.5054829880000193E-3</v>
       </c>
       <c r="AF4" s="8">
-        <f>T4/$T$2-1</f>
+        <f t="shared" si="12"/>
         <v>5.7205160000000088E-3</v>
       </c>
     </row>
@@ -2146,19 +2136,19 @@
         <v>19953.32</v>
       </c>
       <c r="E5" s="5">
-        <f>D5/D4-1</f>
+        <f t="shared" si="1"/>
         <v>2.6965284834012948E-3</v>
       </c>
       <c r="F5" s="10">
-        <f>F4*(1+E5)</f>
+        <f t="shared" si="2"/>
         <v>0.99766600000000016</v>
       </c>
       <c r="G5" s="5">
-        <f>F5/$F$2-1</f>
+        <f t="shared" si="3"/>
         <v>-2.3339999999998362E-3</v>
       </c>
       <c r="H5" s="8">
-        <f>F5/$F$2-1</f>
+        <f t="shared" si="4"/>
         <v>-2.3339999999998362E-3</v>
       </c>
       <c r="J5" s="11">
@@ -2174,7 +2164,7 @@
         <v>-2.1511869268221462E-3</v>
       </c>
       <c r="M5" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="13"/>
         <v>5.3803152616564991E-4</v>
       </c>
       <c r="N5" s="11">
@@ -2182,63 +2172,63 @@
         <v>-1.9220303056343258E-2</v>
       </c>
       <c r="P5" s="10">
-        <f t="shared" ref="P5" si="10">P4*(1+J5)</f>
+        <f t="shared" ref="P5" si="22">P4*(1+J5)</f>
         <v>99.48635373201229</v>
       </c>
       <c r="Q5" s="10">
-        <f t="shared" ref="Q5" si="11">Q4*(1+K5)</f>
+        <f t="shared" ref="Q5" si="23">Q4*(1+K5)</f>
         <v>100.02846455947761</v>
       </c>
       <c r="R5" s="10">
-        <f t="shared" ref="R5" si="12">R4*(1+L5)</f>
+        <f t="shared" ref="R5" si="24">R4*(1+L5)</f>
         <v>99.291758493565297</v>
       </c>
       <c r="S5" s="10">
-        <f t="shared" ref="S5" si="13">S4*(1+M5)</f>
+        <f t="shared" ref="S5" si="25">S4*(1+M5)</f>
         <v>99.703066247780356</v>
       </c>
       <c r="T5" s="10">
-        <f>T4*(1+N5)</f>
+        <f t="shared" si="18"/>
         <v>98.639026289249813</v>
       </c>
       <c r="V5" s="5">
-        <f>P5/$P$2-1</f>
+        <f t="shared" si="5"/>
         <v>-5.1364626798771074E-3</v>
       </c>
       <c r="W5" s="5">
-        <f>Q5/$Q$2-1</f>
+        <f t="shared" si="6"/>
         <v>2.8464559477603402E-4</v>
       </c>
       <c r="X5" s="5">
-        <f>R5/$R$2-1</f>
+        <f t="shared" si="7"/>
         <v>-7.0824150643470363E-3</v>
       </c>
       <c r="Y5" s="5">
-        <f>S5/$S$2-1</f>
+        <f t="shared" si="8"/>
         <v>-2.9693375221964136E-3</v>
       </c>
       <c r="Z5" s="5">
-        <f>T5/$T$2-1</f>
+        <f t="shared" si="9"/>
         <v>-1.3609737107501907E-2</v>
       </c>
       <c r="AB5" s="8">
-        <f>P5/$P$2-1</f>
+        <f t="shared" si="10"/>
         <v>-5.1364626798771074E-3</v>
       </c>
       <c r="AC5" s="8">
-        <f t="shared" ref="AC5" si="14">Q5/$P$2-1</f>
+        <f t="shared" ref="AC5" si="26">Q5/$P$2-1</f>
         <v>2.8464559477603402E-4</v>
       </c>
       <c r="AD5" s="8">
-        <f t="shared" ref="AD5" si="15">R5/$P$2-1</f>
+        <f t="shared" ref="AD5" si="27">R5/$P$2-1</f>
         <v>-7.0824150643470363E-3</v>
       </c>
       <c r="AE5" s="8">
-        <f t="shared" ref="AE5" si="16">S5/$P$2-1</f>
+        <f t="shared" ref="AE5" si="28">S5/$P$2-1</f>
         <v>-2.9693375221964136E-3</v>
       </c>
       <c r="AF5" s="8">
-        <f>T5/$T$2-1</f>
+        <f t="shared" si="12"/>
         <v>-1.3609737107501907E-2</v>
       </c>
     </row>
@@ -2256,19 +2246,19 @@
         <v>20062.789999999997</v>
       </c>
       <c r="E6" s="5">
-        <f>D6/D5-1</f>
+        <f t="shared" si="1"/>
         <v>5.4863050359537091E-3</v>
       </c>
       <c r="F6" s="10">
-        <f>F5*(1+E6)</f>
+        <f t="shared" si="2"/>
         <v>1.0031394999999999</v>
       </c>
       <c r="G6" s="5">
-        <f>F6/$F$2-1</f>
+        <f t="shared" si="3"/>
         <v>3.1394999999998507E-3</v>
       </c>
       <c r="H6" s="8">
-        <f>F6/$F$2-1</f>
+        <f t="shared" si="4"/>
         <v>3.1394999999998507E-3</v>
       </c>
       <c r="J6" s="11">
@@ -2284,7 +2274,7 @@
         <v>1.2934947049924483E-2</v>
       </c>
       <c r="M6" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="13"/>
         <v>5.2912042026640018E-3</v>
       </c>
       <c r="N6" s="11">
@@ -2292,63 +2282,63 @@
         <v>3.9193925233644844E-3</v>
       </c>
       <c r="P6" s="10">
-        <f t="shared" ref="P6" si="17">P5*(1+J6)</f>
+        <f t="shared" ref="P6" si="29">P5*(1+J6)</f>
         <v>100.31980545274961</v>
       </c>
       <c r="Q6" s="10">
-        <f t="shared" ref="Q6" si="18">Q5*(1+K6)</f>
+        <f t="shared" ref="Q6" si="30">Q5*(1+K6)</f>
         <v>100.09465221917289</v>
       </c>
       <c r="R6" s="10">
-        <f t="shared" ref="R6" si="19">R5*(1+L6)</f>
+        <f t="shared" ref="R6" si="31">R5*(1+L6)</f>
         <v>100.57609213217346</v>
       </c>
       <c r="S6" s="10">
-        <f t="shared" ref="S6" si="20">S5*(1+M6)</f>
+        <f t="shared" ref="S6" si="32">S5*(1+M6)</f>
         <v>100.2306155309291</v>
       </c>
       <c r="T6" s="10">
-        <f>T5*(1+N6)</f>
+        <f t="shared" si="18"/>
         <v>99.025631351399852</v>
       </c>
       <c r="V6" s="5">
-        <f>P6/$P$2-1</f>
+        <f t="shared" si="5"/>
         <v>3.1980545274961081E-3</v>
       </c>
       <c r="W6" s="5">
-        <f>Q6/$Q$2-1</f>
+        <f t="shared" si="6"/>
         <v>9.4652219172886021E-4</v>
       </c>
       <c r="X6" s="5">
-        <f>R6/$R$2-1</f>
+        <f t="shared" si="7"/>
         <v>5.7609213217346689E-3</v>
       </c>
       <c r="Y6" s="5">
-        <f>S6/$S$2-1</f>
+        <f t="shared" si="8"/>
         <v>2.3061553092909026E-3</v>
       </c>
       <c r="Z6" s="5">
-        <f>T6/$T$2-1</f>
+        <f t="shared" si="9"/>
         <v>-9.7436864860014349E-3</v>
       </c>
       <c r="AB6" s="8">
-        <f>P6/$P$2-1</f>
+        <f t="shared" si="10"/>
         <v>3.1980545274961081E-3</v>
       </c>
       <c r="AC6" s="8">
-        <f t="shared" ref="AC6" si="21">Q6/$P$2-1</f>
+        <f t="shared" ref="AC6" si="33">Q6/$P$2-1</f>
         <v>9.4652219172886021E-4</v>
       </c>
       <c r="AD6" s="8">
-        <f t="shared" ref="AD6" si="22">R6/$P$2-1</f>
+        <f t="shared" ref="AD6" si="34">R6/$P$2-1</f>
         <v>5.7609213217346689E-3</v>
       </c>
       <c r="AE6" s="8">
-        <f t="shared" ref="AE6" si="23">S6/$P$2-1</f>
+        <f t="shared" ref="AE6" si="35">S6/$P$2-1</f>
         <v>2.3061553092909026E-3</v>
       </c>
       <c r="AF6" s="8">
-        <f>T6/$T$2-1</f>
+        <f t="shared" si="12"/>
         <v>-9.7436864860014349E-3</v>
       </c>
     </row>
@@ -2366,19 +2356,19 @@
         <v>20081.63</v>
       </c>
       <c r="E7" s="5">
-        <f>D7/D6-1</f>
+        <f t="shared" si="1"/>
         <v>9.3905184672737896E-4</v>
       </c>
       <c r="F7" s="10">
-        <f>F6*(1+E7)</f>
+        <f t="shared" si="2"/>
         <v>1.0040815000000001</v>
       </c>
       <c r="G7" s="5">
-        <f>F7/$F$2-1</f>
+        <f t="shared" si="3"/>
         <v>4.0815000000000712E-3</v>
       </c>
       <c r="H7" s="8">
-        <f>F7/$F$2-1</f>
+        <f t="shared" si="4"/>
         <v>4.0815000000000712E-3</v>
       </c>
       <c r="J7" s="11">
@@ -2394,7 +2384,7 @@
         <v>3.6218355611978836E-3</v>
       </c>
       <c r="M7" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="13"/>
         <v>8.0802497857090916E-4</v>
       </c>
       <c r="N7" s="11">
@@ -2402,161 +2392,505 @@
         <v>1.180536565214596E-2</v>
       </c>
       <c r="P7" s="10">
-        <f t="shared" ref="P7" si="24">P6*(1+J7)</f>
+        <f t="shared" ref="P7" si="36">P6*(1+J7)</f>
         <v>100.48649579689707</v>
       </c>
       <c r="Q7" s="10">
-        <f t="shared" ref="Q7" si="25">Q6*(1+K7)</f>
+        <f t="shared" ref="Q7" si="37">Q6*(1+K7)</f>
         <v>100.04737531939054</v>
       </c>
       <c r="R7" s="10">
-        <f t="shared" ref="R7" si="26">R6*(1+L7)</f>
+        <f t="shared" ref="R7" si="38">R6*(1+L7)</f>
         <v>100.94036219926407</v>
       </c>
       <c r="S7" s="10">
-        <f t="shared" ref="S7" si="27">S6*(1+M7)</f>
+        <f t="shared" ref="S7" si="39">S6*(1+M7)</f>
         <v>100.31160437189563</v>
       </c>
       <c r="T7" s="10">
-        <f>T6*(1+N7)</f>
+        <f t="shared" si="18"/>
         <v>100.19466513843774</v>
       </c>
       <c r="V7" s="5">
-        <f>P7/$P$2-1</f>
+        <f t="shared" si="5"/>
         <v>4.8649579689707956E-3</v>
       </c>
       <c r="W7" s="5">
-        <f>Q7/$Q$2-1</f>
+        <f t="shared" si="6"/>
         <v>4.7375319390541293E-4</v>
       </c>
       <c r="X7" s="5">
-        <f>R7/$R$2-1</f>
+        <f t="shared" si="7"/>
         <v>9.403621992640776E-3</v>
       </c>
       <c r="Y7" s="5">
-        <f>S7/$S$2-1</f>
+        <f t="shared" si="8"/>
         <v>3.1160437189563517E-3</v>
       </c>
       <c r="Z7" s="5">
-        <f>T7/$T$2-1</f>
+        <f t="shared" si="9"/>
         <v>1.9466513843773292E-3</v>
       </c>
       <c r="AB7" s="8">
-        <f>P7/$P$2-1</f>
+        <f t="shared" si="10"/>
         <v>4.8649579689707956E-3</v>
       </c>
       <c r="AC7" s="8">
-        <f t="shared" ref="AC7" si="28">Q7/$P$2-1</f>
+        <f t="shared" ref="AC7" si="40">Q7/$P$2-1</f>
         <v>4.7375319390541293E-4</v>
       </c>
       <c r="AD7" s="8">
-        <f t="shared" ref="AD7" si="29">R7/$P$2-1</f>
+        <f t="shared" ref="AD7" si="41">R7/$P$2-1</f>
         <v>9.403621992640776E-3</v>
       </c>
       <c r="AE7" s="8">
-        <f t="shared" ref="AE7" si="30">S7/$P$2-1</f>
+        <f t="shared" ref="AE7" si="42">S7/$P$2-1</f>
         <v>3.1160437189563517E-3</v>
       </c>
       <c r="AF7" s="8">
-        <f>T7/$T$2-1</f>
+        <f t="shared" si="12"/>
         <v>1.9466513843773292E-3</v>
       </c>
     </row>
     <row r="8" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A8" s="9"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="10"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="8"/>
-      <c r="J8" s="11"/>
-      <c r="K8" s="11"/>
-      <c r="L8" s="11"/>
-      <c r="M8" s="11"/>
-      <c r="N8" s="11"/>
-      <c r="P8" s="10"/>
-      <c r="Q8" s="10"/>
-      <c r="R8" s="10"/>
-      <c r="S8" s="10"/>
-      <c r="V8" s="5"/>
-      <c r="W8" s="5"/>
-      <c r="X8" s="5"/>
-      <c r="Y8" s="5"/>
-      <c r="Z8" s="5"/>
+      <c r="A8" s="9">
+        <v>43228</v>
+      </c>
+      <c r="B8" s="4">
+        <v>19673.96</v>
+      </c>
+      <c r="C8" s="4">
+        <v>427.7</v>
+      </c>
+      <c r="D8" s="4">
+        <v>20101.66</v>
+      </c>
+      <c r="E8" s="5">
+        <f t="shared" si="1"/>
+        <v>9.9742899356281001E-4</v>
+      </c>
+      <c r="F8" s="10">
+        <f t="shared" si="2"/>
+        <v>1.0050830000000002</v>
+      </c>
+      <c r="G8" s="5">
+        <f t="shared" si="3"/>
+        <v>5.0830000000001707E-3</v>
+      </c>
+      <c r="H8" s="8">
+        <f t="shared" si="4"/>
+        <v>5.0830000000001707E-3</v>
+      </c>
+      <c r="J8" s="11">
+        <f>VLOOKUP($A8,Prices!$A:$J,MATCH(J$1,Prices!$1:$1,0),0)</f>
+        <v>4.147083218137837E-4</v>
+      </c>
+      <c r="K8" s="11">
+        <f>VLOOKUP($A8,Prices!$A:$J,MATCH(K$1,Prices!$1:$1,0),0)</f>
+        <v>-1.1341083073433955E-3</v>
+      </c>
+      <c r="L8" s="11">
+        <f>VLOOKUP($A8,Prices!$A:$J,MATCH(L$1,Prices!$1:$1,0),0)</f>
+        <v>-4.0924141523124291E-4</v>
+      </c>
+      <c r="M8" s="11">
+        <f t="shared" si="13"/>
+        <v>-2.0481832984908799E-4</v>
+      </c>
+      <c r="N8" s="11">
+        <f>VLOOKUP($A8,Prices!$A:$J,MATCH(N$1,Prices!$1:$1,0),0)</f>
+        <v>5.1753881541114488E-3</v>
+      </c>
+      <c r="P8" s="10">
+        <f t="shared" ref="P8" si="43">P7*(1+J8)</f>
+        <v>100.52816838293396</v>
+      </c>
+      <c r="Q8" s="10">
+        <f t="shared" ref="Q8" si="44">Q7*(1+K8)</f>
+        <v>99.933910759912919</v>
+      </c>
+      <c r="R8" s="10">
+        <f t="shared" ref="R8" si="45">R7*(1+L8)</f>
+        <v>100.89905322258369</v>
+      </c>
+      <c r="S8" s="10">
+        <f t="shared" ref="S8" si="46">S7*(1+M8)</f>
+        <v>100.2910587166237</v>
+      </c>
+      <c r="T8" s="10">
+        <f t="shared" si="18"/>
+        <v>100.71321142150038</v>
+      </c>
+      <c r="V8" s="5">
+        <f t="shared" si="5"/>
+        <v>5.2816838293394675E-3</v>
+      </c>
+      <c r="W8" s="5">
+        <f t="shared" si="6"/>
+        <v>-6.6089240087086054E-4</v>
+      </c>
+      <c r="X8" s="5">
+        <f t="shared" si="7"/>
+        <v>8.9905322258367892E-3</v>
+      </c>
+      <c r="Y8" s="5">
+        <f t="shared" si="8"/>
+        <v>2.9105871662369331E-3</v>
+      </c>
+      <c r="Z8" s="5">
+        <f t="shared" si="9"/>
+        <v>7.1321142150038153E-3</v>
+      </c>
+      <c r="AB8" s="8">
+        <f t="shared" si="10"/>
+        <v>5.2816838293394675E-3</v>
+      </c>
+      <c r="AC8" s="8">
+        <f t="shared" ref="AC8" si="47">Q8/$P$2-1</f>
+        <v>-6.6089240087086054E-4</v>
+      </c>
+      <c r="AD8" s="8">
+        <f t="shared" ref="AD8" si="48">R8/$P$2-1</f>
+        <v>8.9905322258367892E-3</v>
+      </c>
+      <c r="AE8" s="8">
+        <f t="shared" ref="AE8" si="49">S8/$P$2-1</f>
+        <v>2.9105871662369331E-3</v>
+      </c>
+      <c r="AF8" s="8">
+        <f t="shared" si="12"/>
+        <v>7.1321142150038153E-3</v>
+      </c>
     </row>
     <row r="9" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A9" s="9"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="10"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="8"/>
-      <c r="J9" s="11"/>
-      <c r="K9" s="11"/>
-      <c r="L9" s="11"/>
-      <c r="M9" s="11"/>
-      <c r="N9" s="11"/>
-      <c r="P9" s="10"/>
-      <c r="Q9" s="10"/>
-      <c r="R9" s="10"/>
-      <c r="S9" s="10"/>
-      <c r="V9" s="5"/>
-      <c r="W9" s="5"/>
-      <c r="X9" s="5"/>
-      <c r="Y9" s="5"/>
-      <c r="Z9" s="5"/>
+      <c r="A9" s="9">
+        <v>43229</v>
+      </c>
+      <c r="B9" s="4">
+        <v>19685.2</v>
+      </c>
+      <c r="C9" s="4">
+        <v>427.7</v>
+      </c>
+      <c r="D9" s="4">
+        <v>20112.900000000001</v>
+      </c>
+      <c r="E9" s="5">
+        <f t="shared" si="1"/>
+        <v>5.5915780089810241E-4</v>
+      </c>
+      <c r="F9" s="10">
+        <f t="shared" ref="F9" si="50">F8*(1+E9)</f>
+        <v>1.0056450000000003</v>
+      </c>
+      <c r="G9" s="5">
+        <f t="shared" si="3"/>
+        <v>5.6450000000003442E-3</v>
+      </c>
+      <c r="H9" s="8">
+        <f t="shared" ref="H9" si="51">F9/$F$2-1</f>
+        <v>5.6450000000003442E-3</v>
+      </c>
+      <c r="J9" s="11">
+        <f>VLOOKUP($A9,Prices!$A:$J,MATCH(J$1,Prices!$1:$1,0),0)</f>
+        <v>5.8035097416055947E-3</v>
+      </c>
+      <c r="K9" s="11">
+        <f>VLOOKUP($A9,Prices!$A:$J,MATCH(K$1,Prices!$1:$1,0),0)</f>
+        <v>-1.1353959693443105E-3</v>
+      </c>
+      <c r="L9" s="11">
+        <f>VLOOKUP($A9,Prices!$A:$J,MATCH(L$1,Prices!$1:$1,0),0)</f>
+        <v>1.0272443054935243E-2</v>
+      </c>
+      <c r="M9" s="11">
+        <f t="shared" si="13"/>
+        <v>3.0279474572256324E-3</v>
+      </c>
+      <c r="N9" s="11">
+        <f>VLOOKUP($A9,Prices!$A:$J,MATCH(N$1,Prices!$1:$1,0),0)</f>
+        <v>5.720823798625041E-4</v>
+      </c>
+      <c r="P9" s="10">
+        <f t="shared" ref="P9" si="52">P8*(1+J9)</f>
+        <v>101.11158458745008</v>
+      </c>
+      <c r="Q9" s="10">
+        <f t="shared" ref="Q9" si="53">Q8*(1+K9)</f>
+        <v>99.820446200435299</v>
+      </c>
+      <c r="R9" s="10">
+        <f t="shared" ref="R9" si="54">R8*(1+L9)</f>
+        <v>101.93553300110956</v>
+      </c>
+      <c r="S9" s="10">
+        <f t="shared" ref="S9" si="55">S8*(1+M9)</f>
+        <v>100.59473477284716</v>
+      </c>
+      <c r="T9" s="10">
+        <f t="shared" si="18"/>
+        <v>100.77082767517398</v>
+      </c>
+      <c r="V9" s="5">
+        <f t="shared" ref="V9" si="56">P9/$P$2-1</f>
+        <v>1.1115845874500874E-2</v>
+      </c>
+      <c r="W9" s="5">
+        <f t="shared" ref="W9" si="57">Q9/$Q$2-1</f>
+        <v>-1.795537995647023E-3</v>
+      </c>
+      <c r="X9" s="5">
+        <f t="shared" ref="X9" si="58">R9/$R$2-1</f>
+        <v>1.9355330011095573E-2</v>
+      </c>
+      <c r="Y9" s="5">
+        <f t="shared" ref="Y9" si="59">S9/$S$2-1</f>
+        <v>5.9473477284717191E-3</v>
+      </c>
+      <c r="Z9" s="5">
+        <f t="shared" ref="Z9" si="60">T9/$T$2-1</f>
+        <v>7.7082767517397954E-3</v>
+      </c>
+      <c r="AB9" s="8">
+        <f t="shared" ref="AB9" si="61">P9/$P$2-1</f>
+        <v>1.1115845874500874E-2</v>
+      </c>
+      <c r="AC9" s="8">
+        <f t="shared" ref="AC9" si="62">Q9/$P$2-1</f>
+        <v>-1.795537995647023E-3</v>
+      </c>
+      <c r="AD9" s="8">
+        <f t="shared" ref="AD9" si="63">R9/$P$2-1</f>
+        <v>1.9355330011095573E-2</v>
+      </c>
+      <c r="AE9" s="8">
+        <f t="shared" ref="AE9" si="64">S9/$P$2-1</f>
+        <v>5.9473477284717191E-3</v>
+      </c>
+      <c r="AF9" s="8">
+        <f t="shared" ref="AF9" si="65">T9/$T$2-1</f>
+        <v>7.7082767517397954E-3</v>
+      </c>
     </row>
     <row r="10" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A10" s="9"/>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="10"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="8"/>
-      <c r="J10" s="11"/>
-      <c r="K10" s="11"/>
-      <c r="L10" s="11"/>
-      <c r="M10" s="11"/>
-      <c r="N10" s="11"/>
-      <c r="P10" s="10"/>
-      <c r="Q10" s="10"/>
-      <c r="R10" s="10"/>
-      <c r="S10" s="10"/>
-      <c r="V10" s="5"/>
-      <c r="W10" s="5"/>
-      <c r="X10" s="5"/>
-      <c r="Y10" s="5"/>
-      <c r="Z10" s="5"/>
+      <c r="A10" s="9">
+        <v>43230</v>
+      </c>
+      <c r="B10" s="4">
+        <v>19813.93</v>
+      </c>
+      <c r="C10" s="4">
+        <v>427.7</v>
+      </c>
+      <c r="D10" s="4">
+        <v>20241.63</v>
+      </c>
+      <c r="E10" s="5">
+        <f t="shared" ref="E10" si="66">D10/D9-1</f>
+        <v>6.4003699118475588E-3</v>
+      </c>
+      <c r="F10" s="10">
+        <f t="shared" ref="F10" si="67">F9*(1+E10)</f>
+        <v>1.0120815000000003</v>
+      </c>
+      <c r="G10" s="5">
+        <f t="shared" ref="G10" si="68">F10/$F$2-1</f>
+        <v>1.20815000000003E-2</v>
+      </c>
+      <c r="H10" s="8">
+        <f t="shared" ref="H10" si="69">F10/$F$2-1</f>
+        <v>1.20815000000003E-2</v>
+      </c>
+      <c r="J10" s="11">
+        <f>VLOOKUP($A10,Prices!$A:$J,MATCH(J$1,Prices!$1:$1,0),0)</f>
+        <v>1.0166231625223121E-2</v>
+      </c>
+      <c r="K10" s="11">
+        <f>VLOOKUP($A10,Prices!$A:$J,MATCH(K$1,Prices!$1:$1,0),0)</f>
+        <v>2.2733731173629756E-3</v>
+      </c>
+      <c r="L10" s="11">
+        <f>VLOOKUP($A10,Prices!$A:$J,MATCH(L$1,Prices!$1:$1,0),0)</f>
+        <v>9.0627763041555287E-3</v>
+      </c>
+      <c r="M10" s="11">
+        <f t="shared" ref="M10" si="70">0.6*J10 + 0.4*K10</f>
+        <v>7.0090882220790627E-3</v>
+      </c>
+      <c r="N10" s="11">
+        <f>VLOOKUP($A10,Prices!$A:$J,MATCH(N$1,Prices!$1:$1,0),0)</f>
+        <v>3.4305317324185847E-3</v>
+      </c>
+      <c r="P10" s="10">
+        <f t="shared" ref="P10" si="71">P9*(1+J10)</f>
+        <v>102.13950837635944</v>
+      </c>
+      <c r="Q10" s="10">
+        <f t="shared" ref="Q10" si="72">Q9*(1+K10)</f>
+        <v>100.04737531939054</v>
+      </c>
+      <c r="R10" s="10">
+        <f t="shared" ref="R10" si="73">R9*(1+L10)</f>
+        <v>102.85935193414348</v>
+      </c>
+      <c r="S10" s="10">
+        <f t="shared" ref="S10" si="74">S9*(1+M10)</f>
+        <v>101.29981214354669</v>
+      </c>
+      <c r="T10" s="10">
+        <f t="shared" ref="T10" si="75">T9*(1+N10)</f>
+        <v>101.11652519721575</v>
+      </c>
+      <c r="V10" s="5">
+        <f t="shared" ref="V10" si="76">P10/$P$2-1</f>
+        <v>2.1395083763594336E-2</v>
+      </c>
+      <c r="W10" s="5">
+        <f t="shared" ref="W10" si="77">Q10/$Q$2-1</f>
+        <v>4.7375319390541293E-4</v>
+      </c>
+      <c r="X10" s="5">
+        <f t="shared" ref="X10" si="78">R10/$R$2-1</f>
+        <v>2.8593519341434837E-2</v>
+      </c>
+      <c r="Y10" s="5">
+        <f t="shared" ref="Y10" si="79">S10/$S$2-1</f>
+        <v>1.2998121435466858E-2</v>
+      </c>
+      <c r="Z10" s="5">
+        <f t="shared" ref="Z10" si="80">T10/$T$2-1</f>
+        <v>1.1165251972157453E-2</v>
+      </c>
+      <c r="AB10" s="8">
+        <f t="shared" ref="AB10" si="81">P10/$P$2-1</f>
+        <v>2.1395083763594336E-2</v>
+      </c>
+      <c r="AC10" s="8">
+        <f t="shared" ref="AC10" si="82">Q10/$P$2-1</f>
+        <v>4.7375319390541293E-4</v>
+      </c>
+      <c r="AD10" s="8">
+        <f t="shared" ref="AD10" si="83">R10/$P$2-1</f>
+        <v>2.8593519341434837E-2</v>
+      </c>
+      <c r="AE10" s="8">
+        <f t="shared" ref="AE10" si="84">S10/$P$2-1</f>
+        <v>1.2998121435466858E-2</v>
+      </c>
+      <c r="AF10" s="8">
+        <f t="shared" ref="AF10" si="85">T10/$T$2-1</f>
+        <v>1.1165251972157453E-2</v>
+      </c>
     </row>
     <row r="11" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A11" s="9"/>
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="10"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="8"/>
-      <c r="J11" s="11"/>
-      <c r="K11" s="11"/>
-      <c r="L11" s="11"/>
-      <c r="M11" s="11"/>
-      <c r="N11" s="11"/>
-      <c r="P11" s="10"/>
-      <c r="Q11" s="10"/>
-      <c r="R11" s="10"/>
-      <c r="S11" s="10"/>
-      <c r="V11" s="5"/>
-      <c r="W11" s="5"/>
-      <c r="X11" s="5"/>
-      <c r="Y11" s="5"/>
-      <c r="Z11" s="5"/>
+      <c r="A11" s="9">
+        <v>43231</v>
+      </c>
+      <c r="B11" s="4">
+        <v>19841.489999999998</v>
+      </c>
+      <c r="C11" s="4">
+        <v>427.7</v>
+      </c>
+      <c r="D11" s="4">
+        <v>20269.189999999999</v>
+      </c>
+      <c r="E11" s="5">
+        <f t="shared" ref="E11" si="86">D11/D10-1</f>
+        <v>1.3615504284980595E-3</v>
+      </c>
+      <c r="F11" s="10">
+        <f t="shared" ref="F11" si="87">F10*(1+E11)</f>
+        <v>1.0134595000000002</v>
+      </c>
+      <c r="G11" s="5">
+        <f t="shared" ref="G11" si="88">F11/$F$2-1</f>
+        <v>1.345950000000018E-2</v>
+      </c>
+      <c r="H11" s="8">
+        <f t="shared" ref="H11" si="89">F11/$F$2-1</f>
+        <v>1.345950000000018E-2</v>
+      </c>
+      <c r="J11" s="11">
+        <f>VLOOKUP($A11,Prices!$A:$J,MATCH(J$1,Prices!$1:$1,0),0)</f>
+        <v>2.1759825921392473E-3</v>
+      </c>
+      <c r="K11" s="11">
+        <f>VLOOKUP($A11,Prices!$A:$J,MATCH(K$1,Prices!$1:$1,0),0)</f>
+        <v>4.7254512805960935E-4</v>
+      </c>
+      <c r="L11" s="11">
+        <f>VLOOKUP($A11,Prices!$A:$J,MATCH(L$1,Prices!$1:$1,0),0)</f>
+        <v>2.0810514786420153E-3</v>
+      </c>
+      <c r="M11" s="11">
+        <f t="shared" ref="M11" si="90">0.6*J11 + 0.4*K11</f>
+        <v>1.4946076065073921E-3</v>
+      </c>
+      <c r="N11" s="11">
+        <f>VLOOKUP($A11,Prices!$A:$J,MATCH(N$1,Prices!$1:$1,0),0)</f>
+        <v>5.6980056980049376E-4</v>
+      </c>
+      <c r="P11" s="10">
+        <f t="shared" ref="P11" si="91">P10*(1+J11)</f>
+        <v>102.36176216855607</v>
+      </c>
+      <c r="Q11" s="10">
+        <f t="shared" ref="Q11" si="92">Q10*(1+K11)</f>
+        <v>100.09465221917287</v>
+      </c>
+      <c r="R11" s="10">
+        <f t="shared" ref="R11" si="93">R10*(1+L11)</f>
+        <v>103.07340754057819</v>
+      </c>
+      <c r="S11" s="10">
+        <f t="shared" ref="S11" si="94">S10*(1+M11)</f>
+        <v>101.4512156133142</v>
+      </c>
+      <c r="T11" s="10">
+        <f t="shared" ref="T11" si="95">T10*(1+N11)</f>
+        <v>101.17414145088937</v>
+      </c>
+      <c r="V11" s="5">
+        <f t="shared" ref="V11" si="96">P11/$P$2-1</f>
+        <v>2.3617621685560586E-2</v>
+      </c>
+      <c r="W11" s="5">
+        <f t="shared" ref="W11" si="97">Q11/$Q$2-1</f>
+        <v>9.4652219172863816E-4</v>
+      </c>
+      <c r="X11" s="5">
+        <f t="shared" ref="X11" si="98">R11/$R$2-1</f>
+        <v>3.073407540578188E-2</v>
+      </c>
+      <c r="Y11" s="5">
+        <f t="shared" ref="Y11" si="99">S11/$S$2-1</f>
+        <v>1.4512156133142051E-2</v>
+      </c>
+      <c r="Z11" s="5">
+        <f t="shared" ref="Z11" si="100">T11/$T$2-1</f>
+        <v>1.1741414508893655E-2</v>
+      </c>
+      <c r="AB11" s="8">
+        <f t="shared" ref="AB11" si="101">P11/$P$2-1</f>
+        <v>2.3617621685560586E-2</v>
+      </c>
+      <c r="AC11" s="8">
+        <f t="shared" ref="AC11" si="102">Q11/$P$2-1</f>
+        <v>9.4652219172863816E-4</v>
+      </c>
+      <c r="AD11" s="8">
+        <f t="shared" ref="AD11" si="103">R11/$P$2-1</f>
+        <v>3.073407540578188E-2</v>
+      </c>
+      <c r="AE11" s="8">
+        <f t="shared" ref="AE11" si="104">S11/$P$2-1</f>
+        <v>1.4512156133142051E-2</v>
+      </c>
+      <c r="AF11" s="8">
+        <f t="shared" ref="AF11" si="105">T11/$T$2-1</f>
+        <v>1.1741414508893655E-2</v>
+      </c>
     </row>
     <row r="12" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A12" s="9"/>
@@ -3164,10 +3498,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J8"/>
+  <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3259,19 +3593,19 @@
         <v>17.23</v>
       </c>
       <c r="G4" s="5">
-        <f>B4/B3-1</f>
+        <f t="shared" ref="G4:G9" si="0">B4/B3-1</f>
         <v>-1.1112654535352373E-3</v>
       </c>
       <c r="H4" s="5">
-        <f t="shared" ref="H4:J4" si="0">C4/C3-1</f>
+        <f t="shared" ref="H4:J4" si="1">C4/C3-1</f>
         <v>-8.5003862522559093E-4</v>
       </c>
       <c r="I4" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.9526116180390574E-3</v>
       </c>
       <c r="J4" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-7.4884792626727092E-3</v>
       </c>
     </row>
@@ -3296,19 +3630,19 @@
         <v>17.455500000000001</v>
       </c>
       <c r="G5" s="5">
-        <f>B5/B4-1</f>
+        <f t="shared" si="0"/>
         <v>-4.1718815185648461E-3</v>
       </c>
       <c r="H5" s="5">
-        <f t="shared" ref="H5" si="1">C5/C4-1</f>
+        <f t="shared" ref="H5" si="2">C5/C4-1</f>
         <v>0</v>
       </c>
       <c r="I5" s="5">
-        <f t="shared" ref="I5" si="2">D5/D4-1</f>
+        <f t="shared" ref="I5" si="3">D5/D4-1</f>
         <v>-6.9707304276128701E-3</v>
       </c>
       <c r="J5" s="5">
-        <f t="shared" ref="J5" si="3">E5/E4-1</f>
+        <f t="shared" ref="J5" si="4">E5/E4-1</f>
         <v>1.3087637840974997E-2</v>
       </c>
     </row>
@@ -3333,19 +3667,19 @@
         <v>17.12</v>
       </c>
       <c r="G6" s="5">
-        <f>B6/B5-1</f>
+        <f t="shared" si="0"/>
         <v>1.3964530093568683E-4</v>
       </c>
       <c r="H6" s="5">
-        <f t="shared" ref="H6" si="4">C6/C5-1</f>
+        <f t="shared" ref="H6" si="5">C6/C5-1</f>
         <v>1.1356108640105944E-3</v>
       </c>
       <c r="I6" s="5">
-        <f t="shared" ref="I6" si="5">D6/D5-1</f>
+        <f t="shared" ref="I6" si="6">D6/D5-1</f>
         <v>-2.1511869268221462E-3</v>
       </c>
       <c r="J6" s="5">
-        <f t="shared" ref="J6" si="6">E6/E5-1</f>
+        <f t="shared" ref="J6" si="7">E6/E5-1</f>
         <v>-1.9220303056343258E-2</v>
       </c>
     </row>
@@ -3370,19 +3704,19 @@
         <v>17.187100000000001</v>
       </c>
       <c r="G7" s="5">
-        <f>B7/B6-1</f>
+        <f t="shared" si="0"/>
         <v>8.3775481709018607E-3</v>
       </c>
       <c r="H7" s="5">
-        <f t="shared" ref="H7" si="7">C7/C6-1</f>
+        <f t="shared" ref="H7" si="8">C7/C6-1</f>
         <v>6.6168825030721301E-4</v>
       </c>
       <c r="I7" s="5">
-        <f t="shared" ref="I7" si="8">D7/D6-1</f>
+        <f t="shared" ref="I7" si="9">D7/D6-1</f>
         <v>1.2934947049924483E-2</v>
       </c>
       <c r="J7" s="5">
-        <f t="shared" ref="J7" si="9">E7/E6-1</f>
+        <f t="shared" ref="J7" si="10">E7/E6-1</f>
         <v>3.9193925233644844E-3</v>
       </c>
     </row>
@@ -3407,20 +3741,168 @@
         <v>17.39</v>
       </c>
       <c r="G8" s="5">
-        <f>B8/B7-1</f>
+        <f t="shared" si="0"/>
         <v>1.6615895873719477E-3</v>
       </c>
       <c r="H8" s="5">
-        <f t="shared" ref="H8" si="10">C8/C7-1</f>
+        <f t="shared" ref="H8" si="11">C8/C7-1</f>
         <v>-4.7232193463064842E-4</v>
       </c>
       <c r="I8" s="5">
-        <f t="shared" ref="I8" si="11">D8/D7-1</f>
+        <f t="shared" ref="I8" si="12">D8/D7-1</f>
         <v>3.6218355611978836E-3</v>
       </c>
       <c r="J8" s="5">
-        <f t="shared" ref="J8" si="12">E8/E7-1</f>
+        <f t="shared" ref="J8" si="13">E8/E7-1</f>
         <v>1.180536565214596E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="13">
+        <v>43228</v>
+      </c>
+      <c r="B9">
+        <f t="array" ref="B9">_xll.HistoricalData(B$1,"Adj. Close",$A9,$A9,"Daily","RemoveHeaders = True","ReverseOrder =True","RemoveDates =""True")</f>
+        <v>72.37</v>
+      </c>
+      <c r="C9">
+        <f t="array" ref="C9">_xll.HistoricalData(C$1,"Adj. Close",$A9,$A9,"Daily","RemoveHeaders = True","ReverseOrder =True","RemoveDates =""True")</f>
+        <v>105.69</v>
+      </c>
+      <c r="D9">
+        <f t="array" ref="D9">_xll.HistoricalData(D$1,"Adj. Close",$A9,$A9,"Daily","RemoveHeaders = True","ReverseOrder =True","RemoveDates =""True")</f>
+        <v>268.68</v>
+      </c>
+      <c r="E9">
+        <f t="array" ref="E9">_xll.HistoricalData(E$1,"Adj. Close",$A9,$A9,"Daily","RemoveHeaders = True","ReverseOrder =True","RemoveDates =""True")</f>
+        <v>17.48</v>
+      </c>
+      <c r="G9" s="5">
+        <f t="shared" si="0"/>
+        <v>4.147083218137837E-4</v>
+      </c>
+      <c r="H9" s="5">
+        <f t="shared" ref="H9" si="14">C9/C8-1</f>
+        <v>-1.1341083073433955E-3</v>
+      </c>
+      <c r="I9" s="5">
+        <f t="shared" ref="I9" si="15">D9/D8-1</f>
+        <v>-4.0924141523124291E-4</v>
+      </c>
+      <c r="J9" s="5">
+        <f t="shared" ref="J9" si="16">E9/E8-1</f>
+        <v>5.1753881541114488E-3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="13">
+        <v>43229</v>
+      </c>
+      <c r="B10">
+        <f t="array" ref="B10">_xll.HistoricalData(B$1,"Adj. Close",$A10,$A10,"Daily","RemoveHeaders = True","ReverseOrder =True","RemoveDates =""True")</f>
+        <v>72.790000000000006</v>
+      </c>
+      <c r="C10">
+        <f t="array" ref="C10">_xll.HistoricalData(C$1,"Adj. Close",$A10,$A10,"Daily","RemoveHeaders = True","ReverseOrder =True","RemoveDates =""True")</f>
+        <v>105.57</v>
+      </c>
+      <c r="D10">
+        <f t="array" ref="D10">_xll.HistoricalData(D$1,"Adj. Close",$A10,$A10,"Daily","RemoveHeaders = True","ReverseOrder =True","RemoveDates =""True")</f>
+        <v>271.44</v>
+      </c>
+      <c r="E10">
+        <f t="array" ref="E10">_xll.HistoricalData(E$1,"Adj. Close",$A10,$A10,"Daily","RemoveHeaders = True","ReverseOrder =True","RemoveDates =""True")</f>
+        <v>17.489999999999998</v>
+      </c>
+      <c r="G10" s="5">
+        <f t="shared" ref="G10" si="17">B10/B9-1</f>
+        <v>5.8035097416055947E-3</v>
+      </c>
+      <c r="H10" s="5">
+        <f t="shared" ref="H10" si="18">C10/C9-1</f>
+        <v>-1.1353959693443105E-3</v>
+      </c>
+      <c r="I10" s="5">
+        <f t="shared" ref="I10" si="19">D10/D9-1</f>
+        <v>1.0272443054935243E-2</v>
+      </c>
+      <c r="J10" s="5">
+        <f t="shared" ref="J10" si="20">E10/E9-1</f>
+        <v>5.720823798625041E-4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="13">
+        <v>43230</v>
+      </c>
+      <c r="B11">
+        <f t="array" ref="B11">_xll.HistoricalData(B$1,"Adj. Close",$A11,$A11,"Daily","RemoveHeaders = True","ReverseOrder =True","RemoveDates =""True")</f>
+        <v>73.53</v>
+      </c>
+      <c r="C11">
+        <f t="array" ref="C11">_xll.HistoricalData(C$1,"Adj. Close",$A11,$A11,"Daily","RemoveHeaders = True","ReverseOrder =True","RemoveDates =""True")</f>
+        <v>105.81</v>
+      </c>
+      <c r="D11">
+        <f t="array" ref="D11">_xll.HistoricalData(D$1,"Adj. Close",$A11,$A11,"Daily","RemoveHeaders = True","ReverseOrder =True","RemoveDates =""True")</f>
+        <v>273.89999999999998</v>
+      </c>
+      <c r="E11">
+        <f t="array" ref="E11">_xll.HistoricalData(E$1,"Adj. Close",$A11,$A11,"Daily","RemoveHeaders = True","ReverseOrder =True","RemoveDates =""True")</f>
+        <v>17.55</v>
+      </c>
+      <c r="G11" s="5">
+        <f t="shared" ref="G11" si="21">B11/B10-1</f>
+        <v>1.0166231625223121E-2</v>
+      </c>
+      <c r="H11" s="5">
+        <f t="shared" ref="H11" si="22">C11/C10-1</f>
+        <v>2.2733731173629756E-3</v>
+      </c>
+      <c r="I11" s="5">
+        <f t="shared" ref="I11" si="23">D11/D10-1</f>
+        <v>9.0627763041555287E-3</v>
+      </c>
+      <c r="J11" s="5">
+        <f t="shared" ref="J11" si="24">E11/E10-1</f>
+        <v>3.4305317324185847E-3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="13">
+        <v>43231</v>
+      </c>
+      <c r="B12">
+        <f t="array" ref="B12">_xll.HistoricalData(B$1,"Adj. Close",$A12,$A12,"Daily","RemoveHeaders = True","ReverseOrder =True","RemoveDates =""True")</f>
+        <v>73.69</v>
+      </c>
+      <c r="C12">
+        <f t="array" ref="C12">_xll.HistoricalData(C$1,"Adj. Close",$A12,$A12,"Daily","RemoveHeaders = True","ReverseOrder =True","RemoveDates =""True")</f>
+        <v>105.86</v>
+      </c>
+      <c r="D12">
+        <f t="array" ref="D12">_xll.HistoricalData(D$1,"Adj. Close",$A12,$A12,"Daily","RemoveHeaders = True","ReverseOrder =True","RemoveDates =""True")</f>
+        <v>274.47000000000003</v>
+      </c>
+      <c r="E12">
+        <f t="array" ref="E12">_xll.HistoricalData(E$1,"Adj. Close",$A12,$A12,"Daily","RemoveHeaders = True","ReverseOrder =True","RemoveDates =""True")</f>
+        <v>17.559999999999999</v>
+      </c>
+      <c r="G12" s="5">
+        <f t="shared" ref="G12" si="25">B12/B11-1</f>
+        <v>2.1759825921392473E-3</v>
+      </c>
+      <c r="H12" s="5">
+        <f t="shared" ref="H12" si="26">C12/C11-1</f>
+        <v>4.7254512805960935E-4</v>
+      </c>
+      <c r="I12" s="5">
+        <f t="shared" ref="I12" si="27">D12/D11-1</f>
+        <v>2.0810514786420153E-3</v>
+      </c>
+      <c r="J12" s="5">
+        <f t="shared" ref="J12" si="28">E12/E11-1</f>
+        <v>5.6980056980049376E-4</v>
       </c>
     </row>
   </sheetData>

--- a/Portfolio.xlsx
+++ b/Portfolio.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="72">
   <si>
     <t>Symbol</t>
   </si>
@@ -215,6 +215,33 @@
   </si>
   <si>
     <t>Daily</t>
+  </si>
+  <si>
+    <t>Avg Universe</t>
+  </si>
+  <si>
+    <t>Previous Day</t>
+  </si>
+  <si>
+    <t>Yield</t>
+  </si>
+  <si>
+    <t>Universe yld</t>
+  </si>
+  <si>
+    <t>New</t>
+  </si>
+  <si>
+    <t>Change</t>
+  </si>
+  <si>
+    <t>Shares</t>
+  </si>
+  <si>
+    <t>$</t>
+  </si>
+  <si>
+    <t>Trade</t>
   </si>
 </sst>
 </file>
@@ -225,7 +252,7 @@
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -248,8 +275,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -259,6 +292,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -517,7 +556,7 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -583,8 +622,12 @@
     <xf numFmtId="10" fontId="0" fillId="0" borderId="16" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -608,142 +651,25 @@
 <file path=xl/volatileDependencies.xml><?xml version="1.0" encoding="utf-8"?>
 <volTypes xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <volType type="realTimeData">
-    <main first="rtdsrv.34017bac0b7c498896f9ecb43d8944ec">
+    <main first="rtdsrv.bbefb89e286f4ee994950062144d3069">
       <tp>
-        <v>0</v>
+        <v>-7.0280898876404485E-3</v>
         <stp/>
-        <stp>RWX</stp>
+        <stp>GYLD</stp>
         <stp>change in percent</stp>
-        <tr r="L7" s="1"/>
+        <tr r="K26" s="1"/>
       </tp>
     </main>
-    <main first="rtdsrv.34017bac0b7c498896f9ecb43d8944ec">
+    <main first="rtdsrv.bbefb89e286f4ee994950062144d3069">
       <tp>
-        <v>0</v>
-        <stp/>
-        <stp>IVV</stp>
-        <stp>change in percent</stp>
-        <tr r="K24" s="1"/>
-        <tr r="L6" s="1"/>
-      </tp>
-      <tp>
-        <v>0</v>
-        <stp/>
-        <stp>IEV</stp>
-        <stp>change in percent</stp>
-        <tr r="L5" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.34017bac0b7c498896f9ecb43d8944ec">
-      <tp>
-        <v>0</v>
-        <stp/>
-        <stp>EWJ</stp>
-        <stp>change in percent</stp>
-        <tr r="L3" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.34017bac0b7c498896f9ecb43d8944ec">
-      <tp>
-        <v>0</v>
+        <v>4.5155993431855229E-3</v>
         <stp/>
         <stp>ACWI</stp>
         <stp>change in percent</stp>
         <tr r="K22" s="1"/>
       </tp>
     </main>
-    <main first="rtdsrv.34017bac0b7c498896f9ecb43d8944ec">
-      <tp>
-        <v>0</v>
-        <stp/>
-        <stp>DBC</stp>
-        <stp>change in percent</stp>
-        <tr r="L2" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.34017bac0b7c498896f9ecb43d8944ec">
-      <tp>
-        <v>0</v>
-        <stp/>
-        <stp>AGG</stp>
-        <stp>change in percent</stp>
-        <tr r="K23" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.34017bac0b7c498896f9ecb43d8944ec">
-      <tp>
-        <v>0</v>
-        <stp/>
-        <stp>GYLD</stp>
-        <stp>change in percent</stp>
-        <tr r="K26" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.34017bac0b7c498896f9ecb43d8944ec">
-      <tp>
-        <v>0</v>
-        <stp/>
-        <stp>GLD</stp>
-        <stp>change in percent</stp>
-        <tr r="L4" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.34017bac0b7c498896f9ecb43d8944ec">
-      <tp>
-        <v>40.76</v>
-        <stp/>
-        <stp>RWX</stp>
-        <stp>last</stp>
-        <tr r="J7" s="1"/>
-      </tp>
-      <tp>
-        <v>61.28</v>
-        <stp/>
-        <stp>EWJ</stp>
-        <stp>last</stp>
-        <tr r="J3" s="1"/>
-      </tp>
-      <tp>
-        <v>274.47000000000003</v>
-        <stp/>
-        <stp>IVV</stp>
-        <stp>last</stp>
-        <tr r="J6" s="1"/>
-      </tp>
-      <tp>
-        <v>17.87</v>
-        <stp/>
-        <stp>DBC</stp>
-        <stp>close</stp>
-        <tr r="G2" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.34017bac0b7c498896f9ecb43d8944ec">
-      <tp>
-        <v>125</v>
-        <stp/>
-        <stp>GLD</stp>
-        <stp>close</stp>
-        <tr r="G4" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.34017bac0b7c498896f9ecb43d8944ec">
-      <tp t="s">
-        <v>SPDR INDEX SHS FDS-DJ INTL RL ETF</v>
-        <stp/>
-        <stp>RWX</stp>
-        <stp>description</stp>
-        <tr r="B7" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.34017bac0b7c498896f9ecb43d8944ec">
-      <tp>
-        <v>61.28</v>
-        <stp/>
-        <stp>EWJ</stp>
-        <stp>close</stp>
-        <tr r="G3" s="1"/>
-      </tp>
+    <main first="rtdsrv.bbefb89e286f4ee994950062144d3069">
       <tp t="s">
         <v>ISHARES TR-20 YR TR BD ETF</v>
         <stp/>
@@ -752,16 +678,265 @@
         <tr r="B11" s="1"/>
       </tp>
     </main>
-    <main first="rtdsrv.34017bac0b7c498896f9ecb43d8944ec">
-      <tp>
-        <v>48.23</v>
+    <main first="rtdsrv.bbefb89e286f4ee994950062144d3069">
+      <tp t="s">
+        <v>SPDR INDEX SHS FDS-DJ INTL RL ETF</v>
+        <stp/>
+        <stp>RWX</stp>
+        <stp>description</stp>
+        <tr r="B5" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.bbefb89e286f4ee994950062144d3069">
+      <tp t="s">
+        <v>ISHARES TR-EUROPE ETF</v>
         <stp/>
         <stp>IEV</stp>
-        <stp>last</stp>
-        <tr r="J5" s="1"/>
+        <stp>description</stp>
+        <tr r="B8" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>ISHARES TR-BARCLAYS 7 10 YR</v>
+        <stp/>
+        <stp>IEF</stp>
+        <stp>description</stp>
+        <tr r="B10" s="1"/>
       </tp>
     </main>
-    <main first="rtdsrv.34017bac0b7c498896f9ecb43d8944ec">
+    <main first="rtdsrv.bbefb89e286f4ee994950062144d3069">
+      <tp t="s">
+        <v>ISHARES TR-U.S. REAL ES ETF</v>
+        <stp/>
+        <stp>IYR</stp>
+        <stp>description</stp>
+        <tr r="B4" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>ISHARES TR-CORE S&amp;P500 ETF</v>
+        <stp/>
+        <stp>IVV</stp>
+        <stp>description</stp>
+        <tr r="B3" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.bbefb89e286f4ee994950062144d3069">
+      <tp t="s">
+        <v>SPDR GOLD TRUST-GOLD SHS</v>
+        <stp/>
+        <stp>GLD</stp>
+        <stp>description</stp>
+        <tr r="B7" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.bbefb89e286f4ee994950062144d3069">
+      <tp t="s">
+        <v>ISHARES TR-MSCI EMG MKT ETF</v>
+        <stp/>
+        <stp>EEM</stp>
+        <stp>description</stp>
+        <tr r="B9" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>ISHARES INC-MSCI JPN ETF NEW</v>
+        <stp/>
+        <stp>EWJ</stp>
+        <stp>description</stp>
+        <tr r="B6" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.bbefb89e286f4ee994950062144d3069">
+      <tp t="s">
+        <v>POWERSHARES DB CMDTY IDX TRA-UNIT BEN INT</v>
+        <stp/>
+        <stp>DBC</stp>
+        <stp>description</stp>
+        <tr r="B2" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.bbefb89e286f4ee994950062144d3069">
+      <tp>
+        <v>1.0576300453270062E-2</v>
+        <stp/>
+        <stp>EEM</stp>
+        <stp>change in percent</stp>
+        <tr r="L9" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.bbefb89e286f4ee994950062144d3069">
+      <tp>
+        <v>8.3125519534497094E-3</v>
+        <stp/>
+        <stp>EWJ</stp>
+        <stp>change in percent</stp>
+        <tr r="L6" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.bbefb89e286f4ee994950062144d3069">
+      <tp>
+        <v>2.3675402073639151E-3</v>
+        <stp/>
+        <stp>GLD</stp>
+        <stp>change in percent</stp>
+        <tr r="L7" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.bbefb89e286f4ee994950062144d3069">
+      <tp>
+        <v>-8.4841628959279219E-4</v>
+        <stp/>
+        <stp>AGG</stp>
+        <stp>change in percent</stp>
+        <tr r="K23" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.bbefb89e286f4ee994950062144d3069">
+      <tp>
+        <v>-1.373491611890523E-3</v>
+        <stp/>
+        <stp>IEF</stp>
+        <stp>change in percent</stp>
+        <tr r="L10" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.bbefb89e286f4ee994950062144d3069">
+      <tp>
+        <v>-5.5834729201563937E-3</v>
+        <stp/>
+        <stp>DBC</stp>
+        <stp>change in percent</stp>
+        <tr r="L2" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.bbefb89e286f4ee994950062144d3069">
+      <tp>
+        <v>1.1008256192144059E-2</v>
+        <stp/>
+        <stp>RWX</stp>
+        <stp>change in percent</stp>
+        <tr r="L5" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.bbefb89e286f4ee994950062144d3069">
+      <tp>
+        <v>-2.4937655860348879E-3</v>
+        <stp/>
+        <stp>TLT</stp>
+        <stp>change in percent</stp>
+        <tr r="L11" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.bbefb89e286f4ee994950062144d3069">
+      <tp>
+        <v>4.0667808219177655E-3</v>
+        <stp/>
+        <stp>IEV</stp>
+        <stp>change in percent</stp>
+        <tr r="L8" s="1"/>
+      </tp>
+      <tp>
+        <v>3.4841940986463766E-3</v>
+        <stp/>
+        <stp>IVV</stp>
+        <stp>change in percent</stp>
+        <tr r="K24" s="1"/>
+        <tr r="L3" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.bbefb89e286f4ee994950062144d3069">
+      <tp>
+        <v>7.6472087687996825E-4</v>
+        <stp/>
+        <stp>IYR</stp>
+        <stp>change in percent</stp>
+        <tr r="L4" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.bbefb89e286f4ee994950062144d3069">
+      <tp>
+        <v>275.52999999999997</v>
+        <stp/>
+        <stp>IVV</stp>
+        <stp>close</stp>
+        <tr r="G3" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.bbefb89e286f4ee994950062144d3069">
+      <tp>
+        <v>3.15</v>
+        <stp/>
+        <stp>IYR</stp>
+        <stp>dividend yield</stp>
+        <tr r="M4" s="1"/>
+      </tp>
+      <tp>
+        <v>1.78</v>
+        <stp/>
+        <stp>IVV</stp>
+        <stp>dividend yield</stp>
+        <tr r="M3" s="1"/>
+      </tp>
+      <tp>
+        <v>2.38</v>
+        <stp/>
+        <stp>IEF</stp>
+        <stp>dividend yield</stp>
+        <tr r="M10" s="1"/>
+      </tp>
+      <tp>
+        <v>1.3</v>
+        <stp/>
+        <stp>IEV</stp>
+        <stp>dividend yield</stp>
+        <tr r="M8" s="1"/>
+      </tp>
+      <tp>
+        <v>0</v>
+        <stp/>
+        <stp>DBC</stp>
+        <stp>dividend yield</stp>
+        <tr r="M2" s="1"/>
+      </tp>
+      <tp>
+        <v>1.33</v>
+        <stp/>
+        <stp>EWJ</stp>
+        <stp>dividend yield</stp>
+        <tr r="M6" s="1"/>
+      </tp>
+      <tp>
+        <v>2.98</v>
+        <stp/>
+        <stp>EEM</stp>
+        <stp>dividend yield</stp>
+        <tr r="M9" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.bbefb89e286f4ee994950062144d3069">
+      <tp>
+        <v>2.8</v>
+        <stp/>
+        <stp>TLT</stp>
+        <stp>dividend yield</stp>
+        <tr r="M11" s="1"/>
+      </tp>
+      <tp>
+        <v>1.99</v>
+        <stp/>
+        <stp>RWX</stp>
+        <stp>dividend yield</stp>
+        <tr r="M5" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.bbefb89e286f4ee994950062144d3069">
+      <tp>
+        <v>78.459999999999994</v>
+        <stp/>
+        <stp>IYR</stp>
+        <stp>close</stp>
+        <tr r="G4" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.bbefb89e286f4ee994950062144d3069">
       <tp t="s">
         <v>ARROW ETF TR-ARROW DJ GLB YLD</v>
         <stp/>
@@ -770,103 +945,58 @@
         <tr r="L26" s="1"/>
       </tp>
     </main>
-    <main first="rtdsrv.34017bac0b7c498896f9ecb43d8944ec">
-      <tp t="s">
-        <v>ISHARES TR-CORE S&amp;P500 ETF</v>
+    <main first="rtdsrv.bbefb89e286f4ee994950062144d3069">
+      <tp>
+        <v>39.97</v>
         <stp/>
-        <stp>IVV</stp>
-        <stp>description</stp>
-        <tr r="B6" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>ISHARES TR-U.S. REAL ES ETF</v>
-        <stp/>
-        <stp>IYR</stp>
-        <stp>description</stp>
-        <tr r="B9" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>ISHARES TR-BARCLAYS 7 10 YR</v>
-        <stp/>
-        <stp>IEF</stp>
-        <stp>description</stp>
-        <tr r="B10" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>ISHARES TR-EUROPE ETF</v>
-        <stp/>
-        <stp>IEV</stp>
-        <stp>description</stp>
-        <tr r="B5" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.34017bac0b7c498896f9ecb43d8944ec">
-      <tp>
-        <v>274.47000000000003</v>
-        <stp/>
-        <stp>IVV</stp>
-        <stp>close</stp>
-        <tr r="G6" s="1"/>
-      </tp>
-      <tp>
-        <v>48.23</v>
-        <stp/>
-        <stp>IEV</stp>
+        <stp>RWX</stp>
         <stp>close</stp>
         <tr r="G5" s="1"/>
       </tp>
+    </main>
+    <main first="rtdsrv.bbefb89e286f4ee994950062144d3069">
       <tp>
-        <v>17.87</v>
+        <v>17.809999999999999</v>
         <stp/>
         <stp>DBC</stp>
         <stp>last</stp>
         <tr r="J2" s="1"/>
       </tp>
+    </main>
+    <main first="rtdsrv.bbefb89e286f4ee994950062144d3069">
       <tp>
-        <v>40.76</v>
+        <v>78.52</v>
         <stp/>
-        <stp>RWX</stp>
-        <stp>close</stp>
-        <tr r="G7" s="1"/>
-      </tp>
-      <tp>
-        <v>125</v>
-        <stp/>
-        <stp>GLD</stp>
+        <stp>IYR</stp>
         <stp>last</stp>
         <tr r="J4" s="1"/>
       </tp>
     </main>
-    <main first="rtdsrv.34017bac0b7c498896f9ecb43d8944ec">
-      <tp t="s">
-        <v>SPDR GOLD TRUST-GOLD SHS</v>
+    <main first="rtdsrv.bbefb89e286f4ee994950062144d3069">
+      <tp>
+        <v>17.91</v>
         <stp/>
-        <stp>GLD</stp>
-        <stp>description</stp>
-        <tr r="B4" s="1"/>
+        <stp>DBC</stp>
+        <stp>close</stp>
+        <tr r="G2" s="1"/>
       </tp>
     </main>
-    <main first="rtdsrv.34017bac0b7c498896f9ecb43d8944ec">
-      <tp t="s">
-        <v>POWERSHARES DB CMDTY IDX TRA-UNIT BEN INT</v>
+    <main first="rtdsrv.bbefb89e286f4ee994950062144d3069">
+      <tp>
+        <v>40.409999999999997</v>
         <stp/>
-        <stp>DBC</stp>
-        <stp>description</stp>
-        <tr r="B2" s="1"/>
+        <stp>RWX</stp>
+        <stp>last</stp>
+        <tr r="J5" s="1"/>
       </tp>
-      <tp t="s">
-        <v>ISHARES INC-MSCI JPN ETF NEW</v>
+    </main>
+    <main first="rtdsrv.bbefb89e286f4ee994950062144d3069">
+      <tp>
+        <v>276.49</v>
         <stp/>
-        <stp>EWJ</stp>
-        <stp>description</stp>
-        <tr r="B3" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>ISHARES TR-MSCI EMG MKT ETF</v>
-        <stp/>
-        <stp>EEM</stp>
-        <stp>description</stp>
-        <tr r="B8" s="1"/>
+        <stp>IVV</stp>
+        <stp>last</stp>
+        <tr r="J3" s="1"/>
       </tp>
     </main>
   </volType>
@@ -1137,10 +1267,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:N34"/>
+  <dimension ref="A1:T37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1153,13 +1283,14 @@
     <col min="6" max="6" width="14.28515625" customWidth="1"/>
     <col min="7" max="7" width="12.28515625" customWidth="1"/>
     <col min="8" max="8" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.140625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="16" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="12" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="11.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -1196,8 +1327,26 @@
       <c r="L1" s="7" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M1" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="O1" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="P1" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q1" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="R1" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="S1" s="7" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -1208,290 +1357,473 @@
       <c r="C2" s="3">
         <v>43221</v>
       </c>
-      <c r="D2" s="4">
-        <v>17.469000000000001</v>
+      <c r="D2" s="31">
+        <v>17.826820999999999</v>
       </c>
       <c r="E2" s="5">
-        <f t="shared" ref="E2:E7" si="0">G2/D2-1</f>
-        <v>2.2954948766386263E-2</v>
+        <f>G2/D2-1</f>
+        <v>4.6659468898015977E-3</v>
       </c>
       <c r="F2" s="5">
         <f>I2/$I$21</f>
-        <v>0.11461361874826397</v>
+        <v>0.56812011221056624</v>
       </c>
       <c r="G2" s="4">
         <f>_xll.RealtimeData(A2,"Close")</f>
-        <v>17.87</v>
+        <v>17.91</v>
       </c>
       <c r="H2" s="4">
-        <v>130</v>
+        <v>633</v>
       </c>
       <c r="I2" s="4">
-        <f t="shared" ref="I2:I7" si="1">H2*G2</f>
-        <v>2323.1</v>
-      </c>
-      <c r="J2">
+        <f>H2*G2</f>
+        <v>11337.03</v>
+      </c>
+      <c r="J2" s="4">
         <f>_xll.RealtimeData(A2,"Last")</f>
-        <v>17.87</v>
+        <v>17.809999999999999</v>
       </c>
       <c r="K2" s="5">
         <f>J2/D2-1</f>
-        <v>2.2954948766386263E-2</v>
+        <v>-9.4357821846080547E-4</v>
       </c>
       <c r="L2" s="8">
         <f>_xll.RealtimeData(A2,"Change in Percent")</f>
+        <v>-5.5834729201563937E-3</v>
+      </c>
+      <c r="M2" s="29">
+        <f>_xll.RealtimeData(A2,"Dividend Yield")</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="O2">
+        <v>0.56899999999999995</v>
+      </c>
+      <c r="P2" s="11">
+        <f t="shared" ref="P2:P11" si="0">O2-F2</f>
+        <v>8.7988778943370871E-4</v>
+      </c>
+      <c r="Q2">
+        <f>O2*Daily!$D$24</f>
+        <v>11354.810369999999</v>
+      </c>
+      <c r="R2">
+        <f t="shared" ref="R2:R11" si="1">ROUND(Q2/J2,0)</f>
+        <v>638</v>
+      </c>
+      <c r="S2">
+        <f t="shared" ref="S2:S11" si="2">R2-H2</f>
+        <v>5</v>
+      </c>
+      <c r="T2" t="str">
+        <f t="shared" ref="T2:T11" si="3">A2</f>
+        <v>DBC</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B3" t="str">
         <f>_xll.RealtimeData(A3,"Description")</f>
-        <v>ISHARES INC-MSCI JPN ETF NEW</v>
+        <v>ISHARES TR-CORE S&amp;P500 ETF</v>
       </c>
       <c r="C3" s="3">
         <v>43221</v>
       </c>
-      <c r="D3" s="4">
-        <v>60.645000000000003</v>
+      <c r="D3" s="31">
+        <v>266.35950000000003</v>
       </c>
       <c r="E3" s="5">
-        <f t="shared" si="0"/>
-        <v>1.0470772528650363E-2</v>
+        <f>G3/D3-1</f>
+        <v>3.4429032942320248E-2</v>
       </c>
       <c r="F3" s="5">
-        <f t="shared" ref="F3:F7" si="2">I3/$I$21</f>
-        <v>0.24791392951886551</v>
+        <f>I3/$I$21</f>
+        <v>0.13807331771846532</v>
       </c>
       <c r="G3" s="4">
         <f>_xll.RealtimeData(A3,"Close")</f>
-        <v>61.28</v>
+        <v>275.52999999999997</v>
       </c>
       <c r="H3" s="4">
-        <v>82</v>
+        <v>10</v>
       </c>
       <c r="I3" s="4">
-        <f t="shared" si="1"/>
-        <v>5024.96</v>
-      </c>
-      <c r="J3">
+        <f>H3*G3</f>
+        <v>2755.2999999999997</v>
+      </c>
+      <c r="J3" s="4">
         <f>_xll.RealtimeData(A3,"Last")</f>
-        <v>61.28</v>
+        <v>276.49</v>
       </c>
       <c r="K3" s="5">
         <f>J3/D3-1</f>
-        <v>1.0470772528650363E-2</v>
+        <v>3.8033184474366433E-2</v>
       </c>
       <c r="L3" s="8">
         <f>_xll.RealtimeData(A3,"Change in Percent")</f>
+        <v>3.4841940986463766E-3</v>
+      </c>
+      <c r="M3" s="29">
+        <f>_xll.RealtimeData(A3,"Dividend Yield")</f>
+        <v>1.78</v>
+      </c>
+      <c r="O3">
+        <v>0.13300000000000001</v>
+      </c>
+      <c r="P3" s="11">
+        <f t="shared" si="0"/>
+        <v>-5.0733177184653089E-3</v>
+      </c>
+      <c r="Q3">
+        <f>O3*Daily!$D$24</f>
+        <v>2654.1120900000001</v>
+      </c>
+      <c r="R3">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="S3">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="T3" t="str">
+        <f t="shared" si="3"/>
+        <v>IVV</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="B4" t="str">
         <f>_xll.RealtimeData(A4,"Description")</f>
-        <v>SPDR GOLD TRUST-GOLD SHS</v>
+        <v>ISHARES TR-U.S. REAL ES ETF</v>
       </c>
       <c r="C4" s="3">
-        <v>43221</v>
-      </c>
-      <c r="D4" s="4">
-        <v>123.8145</v>
+        <v>43255</v>
+      </c>
+      <c r="D4" s="31">
+        <v>78.430000000000007</v>
       </c>
       <c r="E4" s="5">
-        <f t="shared" si="0"/>
-        <v>9.5748074740842348E-3</v>
+        <f>G4/D4-1</f>
+        <v>3.8250669386696856E-4</v>
       </c>
       <c r="F4" s="5">
-        <f t="shared" si="2"/>
-        <v>0.27751780184192881</v>
+        <f>I4/$I$21</f>
+        <v>0.1690665255515566</v>
       </c>
       <c r="G4" s="4">
         <f>_xll.RealtimeData(A4,"Close")</f>
-        <v>125</v>
+        <v>78.459999999999994</v>
       </c>
       <c r="H4" s="4">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="I4" s="4">
+        <f>H4*G4</f>
+        <v>3373.7799999999997</v>
+      </c>
+      <c r="J4" s="4">
+        <f>_xll.RealtimeData(A4,"Last")</f>
+        <v>78.52</v>
+      </c>
+      <c r="K4" s="5">
+        <f>J4/D4-1</f>
+        <v>1.1475200816013498E-3</v>
+      </c>
+      <c r="L4" s="8">
+        <f t="array" ref="L4">_xll.RealtimeData(A4,"Change in Percent")</f>
+        <v>7.6472087687996825E-4</v>
+      </c>
+      <c r="M4" s="29">
+        <f>_xll.RealtimeData(A4,"Dividend Yield")</f>
+        <v>3.15</v>
+      </c>
+      <c r="O4">
+        <v>0.16800000000000001</v>
+      </c>
+      <c r="P4" s="11">
+        <f t="shared" si="0"/>
+        <v>-1.0665255515565908E-3</v>
+      </c>
+      <c r="Q4">
+        <f>O4*Daily!$D$24</f>
+        <v>3352.5626400000001</v>
+      </c>
+      <c r="R4">
         <f t="shared" si="1"/>
-        <v>5625</v>
-      </c>
-      <c r="J4">
-        <f>_xll.RealtimeData(A4,"Last")</f>
-        <v>125</v>
-      </c>
-      <c r="K4" s="5">
-        <f t="shared" ref="K4:K7" si="3">J4/D4-1</f>
-        <v>9.5748074740842348E-3</v>
-      </c>
-      <c r="L4" s="8">
-        <f>_xll.RealtimeData(A4,"Change in Percent")</f>
+        <v>43</v>
+      </c>
+      <c r="S4">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="T4" t="str">
+        <f t="shared" si="3"/>
+        <v>IYR</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B5" t="str">
         <f>_xll.RealtimeData(A5,"Description")</f>
-        <v>ISHARES TR-EUROPE ETF</v>
+        <v>SPDR INDEX SHS FDS-DJ INTL RL ETF</v>
       </c>
       <c r="C5" s="3">
         <v>43221</v>
       </c>
-      <c r="D5" s="4">
-        <v>47.325000000000003</v>
+      <c r="D5" s="31">
+        <v>40.432963999999998</v>
       </c>
       <c r="E5" s="5">
-        <f t="shared" si="0"/>
-        <v>1.9123085050184674E-2</v>
+        <f>G5/D5-1</f>
+        <v>-1.1450162298267341E-2</v>
       </c>
       <c r="F5" s="5">
-        <f t="shared" si="2"/>
-        <v>9.0420973537382501E-2</v>
+        <f>I5/$I$21</f>
+        <v>0.11817538563612547</v>
       </c>
       <c r="G5" s="4">
         <f>_xll.RealtimeData(A5,"Close")</f>
-        <v>48.23</v>
+        <v>39.97</v>
       </c>
       <c r="H5" s="4">
-        <v>38</v>
+        <v>59</v>
       </c>
       <c r="I5" s="4">
-        <f t="shared" si="1"/>
-        <v>1832.7399999999998</v>
-      </c>
-      <c r="J5">
+        <f>H5*G5</f>
+        <v>2358.23</v>
+      </c>
+      <c r="J5" s="31">
         <f>_xll.RealtimeData(A5,"Last")</f>
-        <v>48.23</v>
+        <v>40.409999999999997</v>
       </c>
       <c r="K5" s="5">
-        <f t="shared" si="3"/>
-        <v>1.9123085050184674E-2</v>
+        <f>J5/D5-1</f>
+        <v>-5.6795242614426922E-4</v>
       </c>
       <c r="L5" s="8">
         <f>_xll.RealtimeData(A5,"Change in Percent")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1.1008256192144059E-2</v>
+      </c>
+      <c r="M5" s="29">
+        <f>_xll.RealtimeData(A5,"Dividend Yield")</f>
+        <v>1.99</v>
+      </c>
+      <c r="O5">
+        <v>0.13100000000000001</v>
+      </c>
+      <c r="P5" s="11">
+        <f t="shared" si="0"/>
+        <v>1.282461436387454E-2</v>
+      </c>
+      <c r="Q5">
+        <f>O5*Daily!$D$24</f>
+        <v>2614.2006300000003</v>
+      </c>
+      <c r="R5">
+        <f t="shared" si="1"/>
+        <v>65</v>
+      </c>
+      <c r="S5">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="T5" t="str">
+        <f t="shared" si="3"/>
+        <v>RWX</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B6" t="str">
         <f>_xll.RealtimeData(A6,"Description")</f>
-        <v>ISHARES TR-CORE S&amp;P500 ETF</v>
-      </c>
-      <c r="C6" s="3">
-        <v>43221</v>
-      </c>
-      <c r="D6" s="4">
-        <v>266.35950000000003</v>
-      </c>
-      <c r="E6" s="5">
-        <f t="shared" si="0"/>
-        <v>3.0449448959019687E-2</v>
-      </c>
-      <c r="F6" s="5">
-        <f t="shared" si="2"/>
-        <v>0.17603805225425861</v>
-      </c>
-      <c r="G6" s="4">
-        <f>_xll.RealtimeData(A6,"Close")</f>
-        <v>274.47000000000003</v>
-      </c>
-      <c r="H6" s="4">
-        <v>13</v>
-      </c>
-      <c r="I6" s="4">
-        <f t="shared" si="1"/>
-        <v>3568.1100000000006</v>
-      </c>
-      <c r="J6">
-        <f>_xll.RealtimeData(A6,"Last")</f>
-        <v>274.47000000000003</v>
-      </c>
-      <c r="K6" s="5">
-        <f t="shared" si="3"/>
-        <v>3.0449448959019687E-2</v>
-      </c>
+        <v>ISHARES INC-MSCI JPN ETF NEW</v>
+      </c>
+      <c r="C6" s="3"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
+      <c r="K6" s="5"/>
       <c r="L6" s="8">
         <f>_xll.RealtimeData(A6,"Change in Percent")</f>
+        <v>8.3125519534497094E-3</v>
+      </c>
+      <c r="M6" s="29">
+        <f>_xll.RealtimeData(A6,"Dividend Yield")</f>
+        <v>1.33</v>
+      </c>
+      <c r="O6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="P6" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <f>O6*Daily!$D$24</f>
+        <v>0</v>
+      </c>
+      <c r="R6" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S6" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T6" t="str">
+        <f t="shared" si="3"/>
+        <v>EWJ</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B7" t="str">
         <f>_xll.RealtimeData(A7,"Description")</f>
-        <v>SPDR INDEX SHS FDS-DJ INTL RL ETF</v>
-      </c>
-      <c r="C7" s="3">
-        <v>43221</v>
-      </c>
-      <c r="D7" s="4">
-        <v>40.709899999999998</v>
-      </c>
-      <c r="E7" s="5">
-        <f t="shared" si="0"/>
-        <v>1.2306588815005348E-3</v>
-      </c>
-      <c r="F7" s="5">
-        <f t="shared" si="2"/>
-        <v>7.239440385969291E-2</v>
-      </c>
-      <c r="G7" s="4">
-        <f>_xll.RealtimeData(A7,"Close")</f>
-        <v>40.76</v>
-      </c>
-      <c r="H7" s="4">
-        <v>36</v>
-      </c>
-      <c r="I7" s="4">
-        <f t="shared" si="1"/>
-        <v>1467.36</v>
-      </c>
-      <c r="J7">
-        <f>_xll.RealtimeData(A7,"Last")</f>
-        <v>40.76</v>
-      </c>
-      <c r="K7" s="5">
-        <f t="shared" si="3"/>
-        <v>1.2306588815005348E-3</v>
-      </c>
+        <v>SPDR GOLD TRUST-GOLD SHS</v>
+      </c>
+      <c r="C7" s="3"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+      <c r="K7" s="5"/>
       <c r="L7" s="8">
         <f>_xll.RealtimeData(A7,"Change in Percent")</f>
+        <v>2.3675402073639151E-3</v>
+      </c>
+      <c r="M7" s="29">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="O7">
+        <v>0</v>
+      </c>
+      <c r="P7" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <f>O7*Daily!$D$24</f>
+        <v>0</v>
+      </c>
+      <c r="R7" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S7" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T7" t="str">
+        <f t="shared" si="3"/>
+        <v>GLD</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="B8" t="str">
         <f>_xll.RealtimeData(A8,"Description")</f>
-        <v>ISHARES TR-MSCI EMG MKT ETF</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+        <v>ISHARES TR-EUROPE ETF</v>
+      </c>
+      <c r="C8" s="3"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
+      <c r="K8" s="5"/>
+      <c r="L8" s="8">
+        <f>_xll.RealtimeData(A8,"Change in Percent")</f>
+        <v>4.0667808219177655E-3</v>
+      </c>
+      <c r="M8" s="29">
+        <f>_xll.RealtimeData(A8,"Dividend Yield")</f>
+        <v>1.3</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+      <c r="P8" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <f>O8*Daily!$D$24</f>
+        <v>0</v>
+      </c>
+      <c r="R8" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S8" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T8" t="str">
+        <f t="shared" si="3"/>
+        <v>IEV</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B9" t="str">
         <f>_xll.RealtimeData(A9,"Description")</f>
-        <v>ISHARES TR-U.S. REAL ES ETF</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+        <v>ISHARES TR-MSCI EMG MKT ETF</v>
+      </c>
+      <c r="G9" s="4"/>
+      <c r="K9" s="5"/>
+      <c r="L9" s="8">
+        <f t="array" ref="L9">_xll.RealtimeData(A9,"Change in Percent")</f>
+        <v>1.0576300453270062E-2</v>
+      </c>
+      <c r="M9" s="29">
+        <f>_xll.RealtimeData(A9,"Dividend Yield")</f>
+        <v>2.98</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+      <c r="P9" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <f>O9*Daily!$D$24</f>
+        <v>0</v>
+      </c>
+      <c r="R9" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S9" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T9" t="str">
+        <f t="shared" si="3"/>
+        <v>EEM</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>20</v>
       </c>
@@ -1499,8 +1831,41 @@
         <f>_xll.RealtimeData(A10,"Description")</f>
         <v>ISHARES TR-BARCLAYS 7 10 YR</v>
       </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="G10" s="4"/>
+      <c r="K10" s="5"/>
+      <c r="L10" s="8">
+        <f t="array" ref="L10">_xll.RealtimeData(A10,"Change in Percent")</f>
+        <v>-1.373491611890523E-3</v>
+      </c>
+      <c r="M10" s="29">
+        <f>_xll.RealtimeData(A10,"Dividend Yield")</f>
+        <v>2.38</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+      <c r="P10" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <f>O10*Daily!$D$24</f>
+        <v>0</v>
+      </c>
+      <c r="R10" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S10" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T10" t="str">
+        <f t="shared" si="3"/>
+        <v>IEF</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>21</v>
       </c>
@@ -1508,6 +1873,44 @@
         <f>_xll.RealtimeData(A11,"Description")</f>
         <v>ISHARES TR-20 YR TR BD ETF</v>
       </c>
+      <c r="K11" s="5"/>
+      <c r="L11" s="8">
+        <f t="array" ref="L11">_xll.RealtimeData(A11,"Change in Percent")</f>
+        <v>-2.4937655860348879E-3</v>
+      </c>
+      <c r="M11" s="29">
+        <f>_xll.RealtimeData(A11,"Dividend Yield")</f>
+        <v>2.8</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+      <c r="P11" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <f>O11*Daily!$D$24</f>
+        <v>0</v>
+      </c>
+      <c r="R11" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S11" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T11" t="str">
+        <f t="shared" si="3"/>
+        <v>TLT</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="M12" s="8"/>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="M13" s="8"/>
     </row>
     <row r="19" spans="8:14" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="20" spans="8:14" x14ac:dyDescent="0.25">
@@ -1515,7 +1918,7 @@
         <v>14</v>
       </c>
       <c r="I20" s="6">
-        <v>427.7</v>
+        <v>131</v>
       </c>
     </row>
     <row r="21" spans="8:14" x14ac:dyDescent="0.25">
@@ -1524,21 +1927,21 @@
       </c>
       <c r="I21" s="6">
         <f>SUM(I2:I20)</f>
-        <v>20268.97</v>
+        <v>19955.34</v>
       </c>
       <c r="J21" t="s">
         <v>34</v>
       </c>
       <c r="K21" s="8">
         <f>SUMPRODUCT(K2:K7,F2:F7)</f>
-        <v>1.5062462102557975E-2</v>
+        <v>4.8421914366372056E-3</v>
       </c>
       <c r="M21" t="s">
         <v>35</v>
       </c>
       <c r="N21" s="8">
         <f>SUMPRODUCT(F2:F7,L2:L7)</f>
-        <v>0</v>
+        <v>-1.2608154007899793E-3</v>
       </c>
     </row>
     <row r="22" spans="8:14" x14ac:dyDescent="0.25">
@@ -1553,7 +1956,7 @@
       </c>
       <c r="K22" s="8">
         <f>_xll.RealtimeData(J22,"Change in Percent")</f>
-        <v>0</v>
+        <v>4.5155993431855229E-3</v>
       </c>
       <c r="L22" s="12">
         <v>0.6</v>
@@ -1565,7 +1968,7 @@
       </c>
       <c r="K23" s="8">
         <f>_xll.RealtimeData(J23,"Change in Percent")</f>
-        <v>0</v>
+        <v>-8.4841628959279219E-4</v>
       </c>
       <c r="L23" s="12">
         <v>0.4</v>
@@ -1577,7 +1980,7 @@
       </c>
       <c r="K24" s="8">
         <f>_xll.RealtimeData(J24,"Change in Percent")</f>
-        <v>0</v>
+        <v>3.4841940986463766E-3</v>
       </c>
     </row>
     <row r="25" spans="8:14" x14ac:dyDescent="0.25">
@@ -1586,7 +1989,7 @@
       </c>
       <c r="K25" s="8">
         <f t="array" ref="K25">SUMPRODUCT(K22:K23,L22:L23)</f>
-        <v>0</v>
+        <v>2.3699930900741967E-3</v>
       </c>
     </row>
     <row r="26" spans="8:14" x14ac:dyDescent="0.25">
@@ -1595,14 +1998,14 @@
       </c>
       <c r="I26" s="6">
         <f>SUM(I2:I18)</f>
-        <v>19841.27</v>
+        <v>19824.34</v>
       </c>
       <c r="J26" t="s">
         <v>57</v>
       </c>
       <c r="K26" s="8">
         <f>_xll.RealtimeData(J26,"Change in Percent")</f>
-        <v>0</v>
+        <v>-7.0280898876404485E-3</v>
       </c>
       <c r="L26" t="str">
         <f>_xll.RealtimeData(J26,"Description")</f>
@@ -1610,20 +2013,45 @@
       </c>
     </row>
     <row r="27" spans="8:14" x14ac:dyDescent="0.25">
-      <c r="K27" s="12"/>
+      <c r="J27" t="s">
+        <v>63</v>
+      </c>
+      <c r="K27" s="8">
+        <f>AVERAGE(L2:L11)</f>
+        <v>3.1129614485590055E-3</v>
+      </c>
+    </row>
+    <row r="28" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="J28" t="s">
+        <v>65</v>
+      </c>
+      <c r="K28" s="8">
+        <f>SUMPRODUCT(F2:F7,M2:M7)*0.01</f>
+        <v>1.0134990784421611E-2</v>
+      </c>
+      <c r="L28" t="s">
+        <v>66</v>
+      </c>
+      <c r="M28" s="8">
+        <f>AVERAGE(M2:M11)*0.01</f>
+        <v>1.771E-2</v>
+      </c>
     </row>
     <row r="29" spans="8:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="30" spans="8:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H30" s="29">
-        <v>43230</v>
+      <c r="H30" s="30">
+        <v>43252</v>
       </c>
       <c r="I30" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="J30" s="16" t="s">
+      <c r="J30" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="K30" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="K30" s="17" t="s">
+      <c r="L30" s="17" t="s">
         <v>33</v>
       </c>
     </row>
@@ -1633,15 +2061,19 @@
       </c>
       <c r="I31" s="21">
         <f>$N$21</f>
-        <v>0</v>
-      </c>
-      <c r="J31" s="22">
+        <v>-1.2608154007899793E-3</v>
+      </c>
+      <c r="J31" s="21">
+        <f>LOOKUP(2,1/(Daily!E:E&lt;&gt;""),Daily!E:E)</f>
+        <v>-1.9042149798642605E-5</v>
+      </c>
+      <c r="K31" s="22">
         <f>VLOOKUP($H$30,Daily!$A:$AF,7,0)</f>
-        <v>1.20815000000003E-2</v>
-      </c>
-      <c r="K31" s="23">
+        <v>-2.2325000000001927E-3</v>
+      </c>
+      <c r="L31" s="23">
         <f>VLOOKUP($H$30,Daily!$A:$AF,8,0)</f>
-        <v>1.20815000000003E-2</v>
+        <v>-2.2325000000001927E-3</v>
       </c>
     </row>
     <row r="32" spans="8:14" x14ac:dyDescent="0.25">
@@ -1650,54 +2082,104 @@
       </c>
       <c r="I32" s="24">
         <f>$K$25</f>
-        <v>0</v>
-      </c>
-      <c r="J32" s="14">
+        <v>2.3699930900741967E-3</v>
+      </c>
+      <c r="J32" s="24">
+        <f>LOOKUP(2,1/(Daily!M:M&lt;&gt;""),Daily!M:M)</f>
+        <v>5.7292557353628036E-3</v>
+      </c>
+      <c r="K32" s="14">
         <f>VLOOKUP($H$30,Daily!$A:$AF,25,0)</f>
-        <v>1.2998121435466858E-2</v>
-      </c>
-      <c r="K32" s="25">
+        <v>1.0434995246007217E-2</v>
+      </c>
+      <c r="L32" s="25">
         <f>VLOOKUP($H$30,Daily!$A:$AF,31,0)</f>
-        <v>1.2998121435466858E-2</v>
-      </c>
-    </row>
-    <row r="33" spans="8:11" x14ac:dyDescent="0.25">
+        <v>1.0434995246007217E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="3:12" x14ac:dyDescent="0.25">
       <c r="H33" s="19" t="s">
         <v>61</v>
       </c>
       <c r="I33" s="24">
         <f>$K$24</f>
-        <v>0</v>
-      </c>
-      <c r="J33" s="14">
+        <v>3.4841940986463766E-3</v>
+      </c>
+      <c r="J33" s="24">
+        <f>LOOKUP(2,1/(Daily!L:L&lt;&gt;""),Daily!L:L)</f>
+        <v>1.0266564001026435E-2</v>
+      </c>
+      <c r="K33" s="14">
         <f>VLOOKUP($H$30,Daily!$A:$AF,24,0)</f>
-        <v>2.8593519341434837E-2</v>
-      </c>
-      <c r="K33" s="25">
+        <v>3.4714758613163088E-2</v>
+      </c>
+      <c r="L33" s="25">
         <f>VLOOKUP($H$30,Daily!$A:$AF,30,0)</f>
-        <v>2.8593519341434837E-2</v>
-      </c>
-    </row>
-    <row r="34" spans="8:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>3.4714758613163088E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="3:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C34">
+        <v>23</v>
+      </c>
+      <c r="D34">
+        <v>39.999499999999998</v>
+      </c>
+      <c r="E34">
+        <f>D34*C34</f>
+        <v>919.98849999999993</v>
+      </c>
       <c r="H34" s="20" t="s">
         <v>57</v>
       </c>
       <c r="I34" s="26">
         <f>$K$26</f>
-        <v>0</v>
-      </c>
-      <c r="J34" s="27">
+        <v>-7.0280898876404485E-3</v>
+      </c>
+      <c r="J34" s="26">
+        <f>LOOKUP(2,1/(Daily!N:N&lt;&gt;""),Daily!N:N)</f>
+        <v>1.7724413950829243E-2</v>
+      </c>
+      <c r="K34" s="27">
         <f>VLOOKUP($H$30,Daily!$A:$AF,26,0)</f>
-        <v>1.1165251972157453E-2</v>
-      </c>
-      <c r="K34" s="28">
+        <v>3.2317182280554801E-2</v>
+      </c>
+      <c r="L34" s="28">
         <f>VLOOKUP($H$30,Daily!$A:$AF,32,0)</f>
-        <v>1.1165251972157453E-2</v>
+        <v>3.2317182280554801E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C35">
+        <v>36</v>
+      </c>
+      <c r="D35">
+        <v>40.709899999999998</v>
+      </c>
+      <c r="E35">
+        <f>D35*C35</f>
+        <v>1465.5563999999999</v>
+      </c>
+    </row>
+    <row r="36" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="E36">
+        <f>SUM(E34:E35)</f>
+        <v>2385.5448999999999</v>
+      </c>
+    </row>
+    <row r="37" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C37">
+        <f>SUM(C34:C35)</f>
+        <v>59</v>
+      </c>
+      <c r="E37">
+        <f>E36/C37</f>
+        <v>40.432964406779661</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:I8">
-    <sortCondition ref="A2:A8"/>
+  <sortState ref="A2:T5">
+    <sortCondition ref="A2:A5"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1708,8 +2190,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:AF50"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H29" sqref="H29"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1717,8 +2199,8 @@
     <col min="1" max="4" width="18.85546875" customWidth="1"/>
     <col min="5" max="5" width="12.7109375" style="4" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.5703125" style="4" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.42578125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="9.5703125" bestFit="1" customWidth="1"/>
     <col min="13" max="14" width="10.85546875" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="10.85546875" bestFit="1" customWidth="1"/>
@@ -1835,7 +2317,7 @@
         <v>0</v>
       </c>
       <c r="F2" s="10">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="G2" s="4">
         <v>0</v>
@@ -1928,7 +2410,7 @@
       </c>
       <c r="F3" s="10">
         <f t="shared" ref="F3:F8" si="2">F2*(1+E3)</f>
-        <v>0.99834599999999996</v>
+        <v>99.834599999999995</v>
       </c>
       <c r="G3" s="5">
         <f t="shared" ref="G3:G9" si="3">F3/$F$2-1</f>
@@ -2035,15 +2517,15 @@
       </c>
       <c r="F4" s="10">
         <f t="shared" si="2"/>
-        <v>0.99498300000000006</v>
+        <v>99.4983</v>
       </c>
       <c r="G4" s="5">
         <f t="shared" si="3"/>
-        <v>-5.0169999999999382E-3</v>
+        <v>-5.0170000000000492E-3</v>
       </c>
       <c r="H4" s="8">
         <f t="shared" si="4"/>
-        <v>-5.0169999999999382E-3</v>
+        <v>-5.0170000000000492E-3</v>
       </c>
       <c r="J4" s="11">
         <v>-4.1700000000000001E-3</v>
@@ -2055,30 +2537,30 @@
         <v>-6.7000000000000002E-3</v>
       </c>
       <c r="M4" s="11">
-        <f t="shared" ref="M4:M9" si="13">0.6*J4 + 0.4*K4</f>
+        <f>0.6*J4 + 0.4*K4</f>
         <v>-2.5019999999999999E-3</v>
       </c>
       <c r="N4" s="11">
         <v>1.3299999999999999E-2</v>
       </c>
       <c r="P4" s="10">
-        <f t="shared" ref="P4" si="14">P3*(1+J4)</f>
+        <f t="shared" ref="P4" si="13">P3*(1+J4)</f>
         <v>99.472462870000001</v>
       </c>
       <c r="Q4" s="10">
-        <f t="shared" ref="Q4" si="15">Q3*(1+K4)</f>
+        <f t="shared" ref="Q4" si="14">Q3*(1+K4)</f>
         <v>99.914999999999992</v>
       </c>
       <c r="R4" s="10">
-        <f t="shared" ref="R4" si="16">R3*(1+L4)</f>
+        <f t="shared" ref="R4" si="15">R3*(1+L4)</f>
         <v>99.505814100000009</v>
       </c>
       <c r="S4" s="10">
-        <f t="shared" ref="S4" si="17">S3*(1+M4)</f>
+        <f t="shared" ref="S4" si="16">S3*(1+M4)</f>
         <v>99.649451701199993</v>
       </c>
       <c r="T4" s="10">
-        <f t="shared" ref="T4:T9" si="18">T3*(1+N4)</f>
+        <f t="shared" ref="T4:T9" si="17">T3*(1+N4)</f>
         <v>100.57205160000001</v>
       </c>
       <c r="V4" s="5">
@@ -2106,15 +2588,15 @@
         <v>-5.275371299999998E-3</v>
       </c>
       <c r="AC4" s="8">
-        <f t="shared" ref="AC4" si="19">Q4/$P$2-1</f>
+        <f t="shared" ref="AC4" si="18">Q4/$P$2-1</f>
         <v>-8.5000000000012843E-4</v>
       </c>
       <c r="AD4" s="8">
-        <f t="shared" ref="AD4" si="20">R4/$P$2-1</f>
+        <f t="shared" ref="AD4" si="19">R4/$P$2-1</f>
         <v>-4.9418589999998819E-3</v>
       </c>
       <c r="AE4" s="8">
-        <f t="shared" ref="AE4" si="21">S4/$P$2-1</f>
+        <f t="shared" ref="AE4" si="20">S4/$P$2-1</f>
         <v>-3.5054829880000193E-3</v>
       </c>
       <c r="AF4" s="8">
@@ -2141,7 +2623,7 @@
       </c>
       <c r="F5" s="10">
         <f t="shared" si="2"/>
-        <v>0.99766600000000016</v>
+        <v>99.766600000000011</v>
       </c>
       <c r="G5" s="5">
         <f t="shared" si="3"/>
@@ -2164,12 +2646,12 @@
         <v>-2.1511869268221462E-3</v>
       </c>
       <c r="M5" s="11">
-        <f t="shared" si="13"/>
+        <f t="shared" ref="M5:M9" si="21">0.6*J5 + 0.4*K5</f>
         <v>5.3803152616564991E-4</v>
       </c>
       <c r="N5" s="11">
         <f>VLOOKUP($A5,Prices!$A:$J,MATCH(N$1,Prices!$1:$1,0),0)</f>
-        <v>-1.9220303056343258E-2</v>
+        <v>-1.9346765543727718E-2</v>
       </c>
       <c r="P5" s="10">
         <f t="shared" ref="P5" si="22">P4*(1+J5)</f>
@@ -2188,8 +2670,8 @@
         <v>99.703066247780356</v>
       </c>
       <c r="T5" s="10">
-        <f t="shared" si="18"/>
-        <v>98.639026289249813</v>
+        <f t="shared" si="17"/>
+        <v>98.626307697443124</v>
       </c>
       <c r="V5" s="5">
         <f t="shared" si="5"/>
@@ -2209,7 +2691,7 @@
       </c>
       <c r="Z5" s="5">
         <f t="shared" si="9"/>
-        <v>-1.3609737107501907E-2</v>
+        <v>-1.3736923025568726E-2</v>
       </c>
       <c r="AB5" s="8">
         <f t="shared" si="10"/>
@@ -2229,7 +2711,7 @@
       </c>
       <c r="AF5" s="8">
         <f t="shared" si="12"/>
-        <v>-1.3609737107501907E-2</v>
+        <v>-1.3736923025568726E-2</v>
       </c>
     </row>
     <row r="6" spans="1:32" x14ac:dyDescent="0.25">
@@ -2251,7 +2733,7 @@
       </c>
       <c r="F6" s="10">
         <f t="shared" si="2"/>
-        <v>1.0031394999999999</v>
+        <v>100.31394999999999</v>
       </c>
       <c r="G6" s="5">
         <f t="shared" si="3"/>
@@ -2274,12 +2756,12 @@
         <v>1.2934947049924483E-2</v>
       </c>
       <c r="M6" s="11">
-        <f t="shared" si="13"/>
+        <f t="shared" si="21"/>
         <v>5.2912042026640018E-3</v>
       </c>
       <c r="N6" s="11">
         <f>VLOOKUP($A6,Prices!$A:$J,MATCH(N$1,Prices!$1:$1,0),0)</f>
-        <v>3.9193925233644844E-3</v>
+        <v>3.945689437195421E-3</v>
       </c>
       <c r="P6" s="10">
         <f t="shared" ref="P6" si="29">P5*(1+J6)</f>
@@ -2294,12 +2776,12 @@
         <v>100.57609213217346</v>
       </c>
       <c r="S6" s="10">
-        <f t="shared" ref="S6" si="32">S5*(1+M6)</f>
+        <f>S5*(1+M6)</f>
         <v>100.2306155309291</v>
       </c>
       <c r="T6" s="10">
-        <f t="shared" si="18"/>
-        <v>99.025631351399852</v>
+        <f t="shared" si="17"/>
+        <v>99.015456477954515</v>
       </c>
       <c r="V6" s="5">
         <f t="shared" si="5"/>
@@ -2319,27 +2801,27 @@
       </c>
       <c r="Z6" s="5">
         <f t="shared" si="9"/>
-        <v>-9.7436864860014349E-3</v>
+        <v>-9.8454352204548901E-3</v>
       </c>
       <c r="AB6" s="8">
         <f t="shared" si="10"/>
         <v>3.1980545274961081E-3</v>
       </c>
       <c r="AC6" s="8">
-        <f t="shared" ref="AC6" si="33">Q6/$P$2-1</f>
+        <f t="shared" ref="AC6" si="32">Q6/$P$2-1</f>
         <v>9.4652219172886021E-4</v>
       </c>
       <c r="AD6" s="8">
-        <f t="shared" ref="AD6" si="34">R6/$P$2-1</f>
+        <f t="shared" ref="AD6" si="33">R6/$P$2-1</f>
         <v>5.7609213217346689E-3</v>
       </c>
       <c r="AE6" s="8">
-        <f t="shared" ref="AE6" si="35">S6/$P$2-1</f>
+        <f t="shared" ref="AE6" si="34">S6/$P$2-1</f>
         <v>2.3061553092909026E-3</v>
       </c>
       <c r="AF6" s="8">
         <f t="shared" si="12"/>
-        <v>-9.7436864860014349E-3</v>
+        <v>-9.8454352204548901E-3</v>
       </c>
     </row>
     <row r="7" spans="1:32" x14ac:dyDescent="0.25">
@@ -2361,7 +2843,7 @@
       </c>
       <c r="F7" s="10">
         <f t="shared" si="2"/>
-        <v>1.0040815000000001</v>
+        <v>100.40815000000001</v>
       </c>
       <c r="G7" s="5">
         <f t="shared" si="3"/>
@@ -2384,32 +2866,32 @@
         <v>3.6218355611978836E-3</v>
       </c>
       <c r="M7" s="11">
-        <f t="shared" si="13"/>
+        <f t="shared" si="21"/>
         <v>8.0802497857090916E-4</v>
       </c>
       <c r="N7" s="11">
         <f>VLOOKUP($A7,Prices!$A:$J,MATCH(N$1,Prices!$1:$1,0),0)</f>
-        <v>1.180536565214596E-2</v>
+        <v>1.1884261699759868E-2</v>
       </c>
       <c r="P7" s="10">
-        <f t="shared" ref="P7" si="36">P6*(1+J7)</f>
+        <f t="shared" ref="P7" si="35">P6*(1+J7)</f>
         <v>100.48649579689707</v>
       </c>
       <c r="Q7" s="10">
-        <f t="shared" ref="Q7" si="37">Q6*(1+K7)</f>
+        <f t="shared" ref="Q7" si="36">Q6*(1+K7)</f>
         <v>100.04737531939054</v>
       </c>
       <c r="R7" s="10">
-        <f t="shared" ref="R7" si="38">R6*(1+L7)</f>
+        <f t="shared" ref="R7" si="37">R6*(1+L7)</f>
         <v>100.94036219926407</v>
       </c>
       <c r="S7" s="10">
-        <f t="shared" ref="S7" si="39">S6*(1+M7)</f>
+        <f t="shared" ref="S7" si="38">S6*(1+M7)</f>
         <v>100.31160437189563</v>
       </c>
       <c r="T7" s="10">
-        <f t="shared" si="18"/>
-        <v>100.19466513843774</v>
+        <f t="shared" si="17"/>
+        <v>100.1921820750597</v>
       </c>
       <c r="V7" s="5">
         <f t="shared" si="5"/>
@@ -2429,27 +2911,27 @@
       </c>
       <c r="Z7" s="5">
         <f t="shared" si="9"/>
-        <v>1.9466513843773292E-3</v>
+        <v>1.921820750597103E-3</v>
       </c>
       <c r="AB7" s="8">
         <f t="shared" si="10"/>
         <v>4.8649579689707956E-3</v>
       </c>
       <c r="AC7" s="8">
-        <f t="shared" ref="AC7" si="40">Q7/$P$2-1</f>
+        <f t="shared" ref="AC7" si="39">Q7/$P$2-1</f>
         <v>4.7375319390541293E-4</v>
       </c>
       <c r="AD7" s="8">
-        <f t="shared" ref="AD7" si="41">R7/$P$2-1</f>
+        <f t="shared" ref="AD7" si="40">R7/$P$2-1</f>
         <v>9.403621992640776E-3</v>
       </c>
       <c r="AE7" s="8">
-        <f t="shared" ref="AE7" si="42">S7/$P$2-1</f>
+        <f t="shared" ref="AE7" si="41">S7/$P$2-1</f>
         <v>3.1160437189563517E-3</v>
       </c>
       <c r="AF7" s="8">
         <f t="shared" si="12"/>
-        <v>1.9466513843773292E-3</v>
+        <v>1.921820750597103E-3</v>
       </c>
     </row>
     <row r="8" spans="1:32" x14ac:dyDescent="0.25">
@@ -2471,15 +2953,15 @@
       </c>
       <c r="F8" s="10">
         <f t="shared" si="2"/>
-        <v>1.0050830000000002</v>
+        <v>100.50830000000001</v>
       </c>
       <c r="G8" s="5">
         <f t="shared" si="3"/>
-        <v>5.0830000000001707E-3</v>
+        <v>5.0829999999999487E-3</v>
       </c>
       <c r="H8" s="8">
         <f t="shared" si="4"/>
-        <v>5.0830000000001707E-3</v>
+        <v>5.0829999999999487E-3</v>
       </c>
       <c r="J8" s="11">
         <f>VLOOKUP($A8,Prices!$A:$J,MATCH(J$1,Prices!$1:$1,0),0)</f>
@@ -2494,32 +2976,32 @@
         <v>-4.0924141523124291E-4</v>
       </c>
       <c r="M8" s="11">
-        <f t="shared" si="13"/>
+        <f t="shared" si="21"/>
         <v>-2.0481832984908799E-4</v>
       </c>
       <c r="N8" s="11">
         <f>VLOOKUP($A8,Prices!$A:$J,MATCH(N$1,Prices!$1:$1,0),0)</f>
-        <v>5.1753881541114488E-3</v>
+        <v>5.2095694001470516E-3</v>
       </c>
       <c r="P8" s="10">
-        <f t="shared" ref="P8" si="43">P7*(1+J8)</f>
+        <f t="shared" ref="P8" si="42">P7*(1+J8)</f>
         <v>100.52816838293396</v>
       </c>
       <c r="Q8" s="10">
-        <f t="shared" ref="Q8" si="44">Q7*(1+K8)</f>
+        <f t="shared" ref="Q8" si="43">Q7*(1+K8)</f>
         <v>99.933910759912919</v>
       </c>
       <c r="R8" s="10">
-        <f t="shared" ref="R8" si="45">R7*(1+L8)</f>
+        <f t="shared" ref="R8" si="44">R7*(1+L8)</f>
         <v>100.89905322258369</v>
       </c>
       <c r="S8" s="10">
-        <f t="shared" ref="S8" si="46">S7*(1+M8)</f>
+        <f t="shared" ref="S8" si="45">S7*(1+M8)</f>
         <v>100.2910587166237</v>
       </c>
       <c r="T8" s="10">
-        <f t="shared" si="18"/>
-        <v>100.71321142150038</v>
+        <f t="shared" si="17"/>
+        <v>100.71414020093189</v>
       </c>
       <c r="V8" s="5">
         <f t="shared" si="5"/>
@@ -2539,27 +3021,27 @@
       </c>
       <c r="Z8" s="5">
         <f t="shared" si="9"/>
-        <v>7.1321142150038153E-3</v>
+        <v>7.1414020093190089E-3</v>
       </c>
       <c r="AB8" s="8">
         <f t="shared" si="10"/>
         <v>5.2816838293394675E-3</v>
       </c>
       <c r="AC8" s="8">
-        <f t="shared" ref="AC8" si="47">Q8/$P$2-1</f>
+        <f t="shared" ref="AC8" si="46">Q8/$P$2-1</f>
         <v>-6.6089240087086054E-4</v>
       </c>
       <c r="AD8" s="8">
-        <f t="shared" ref="AD8" si="48">R8/$P$2-1</f>
+        <f t="shared" ref="AD8" si="47">R8/$P$2-1</f>
         <v>8.9905322258367892E-3</v>
       </c>
       <c r="AE8" s="8">
-        <f t="shared" ref="AE8" si="49">S8/$P$2-1</f>
+        <f t="shared" ref="AE8" si="48">S8/$P$2-1</f>
         <v>2.9105871662369331E-3</v>
       </c>
       <c r="AF8" s="8">
         <f t="shared" si="12"/>
-        <v>7.1321142150038153E-3</v>
+        <v>7.1414020093190089E-3</v>
       </c>
     </row>
     <row r="9" spans="1:32" x14ac:dyDescent="0.25">
@@ -2580,16 +3062,16 @@
         <v>5.5915780089810241E-4</v>
       </c>
       <c r="F9" s="10">
-        <f t="shared" ref="F9" si="50">F8*(1+E9)</f>
-        <v>1.0056450000000003</v>
+        <f t="shared" ref="F9" si="49">F8*(1+E9)</f>
+        <v>100.56450000000001</v>
       </c>
       <c r="G9" s="5">
         <f t="shared" si="3"/>
-        <v>5.6450000000003442E-3</v>
+        <v>5.6450000000001221E-3</v>
       </c>
       <c r="H9" s="8">
-        <f t="shared" ref="H9" si="51">F9/$F$2-1</f>
-        <v>5.6450000000003442E-3</v>
+        <f t="shared" ref="H9" si="50">F9/$F$2-1</f>
+        <v>5.6450000000001221E-3</v>
       </c>
       <c r="J9" s="11">
         <f>VLOOKUP($A9,Prices!$A:$J,MATCH(J$1,Prices!$1:$1,0),0)</f>
@@ -2604,72 +3086,72 @@
         <v>1.0272443054935243E-2</v>
       </c>
       <c r="M9" s="11">
-        <f t="shared" si="13"/>
+        <f t="shared" si="21"/>
         <v>3.0279474572256324E-3</v>
       </c>
       <c r="N9" s="11">
         <f>VLOOKUP($A9,Prices!$A:$J,MATCH(N$1,Prices!$1:$1,0),0)</f>
-        <v>5.720823798625041E-4</v>
+        <v>5.7584115997455498E-4</v>
       </c>
       <c r="P9" s="10">
-        <f t="shared" ref="P9" si="52">P8*(1+J9)</f>
+        <f t="shared" ref="P9" si="51">P8*(1+J9)</f>
         <v>101.11158458745008</v>
       </c>
       <c r="Q9" s="10">
-        <f t="shared" ref="Q9" si="53">Q8*(1+K9)</f>
+        <f t="shared" ref="Q9" si="52">Q8*(1+K9)</f>
         <v>99.820446200435299</v>
       </c>
       <c r="R9" s="10">
-        <f t="shared" ref="R9" si="54">R8*(1+L9)</f>
+        <f t="shared" ref="R9" si="53">R8*(1+L9)</f>
         <v>101.93553300110956</v>
       </c>
       <c r="S9" s="10">
-        <f t="shared" ref="S9" si="55">S8*(1+M9)</f>
+        <f t="shared" ref="S9" si="54">S8*(1+M9)</f>
         <v>100.59473477284716</v>
       </c>
       <c r="T9" s="10">
-        <f t="shared" si="18"/>
-        <v>100.77082767517398</v>
+        <f t="shared" si="17"/>
+        <v>100.77213554825104</v>
       </c>
       <c r="V9" s="5">
-        <f t="shared" ref="V9" si="56">P9/$P$2-1</f>
+        <f t="shared" ref="V9" si="55">P9/$P$2-1</f>
         <v>1.1115845874500874E-2</v>
       </c>
       <c r="W9" s="5">
-        <f t="shared" ref="W9" si="57">Q9/$Q$2-1</f>
+        <f t="shared" ref="W9" si="56">Q9/$Q$2-1</f>
         <v>-1.795537995647023E-3</v>
       </c>
       <c r="X9" s="5">
-        <f t="shared" ref="X9" si="58">R9/$R$2-1</f>
+        <f t="shared" ref="X9" si="57">R9/$R$2-1</f>
         <v>1.9355330011095573E-2</v>
       </c>
       <c r="Y9" s="5">
-        <f t="shared" ref="Y9" si="59">S9/$S$2-1</f>
+        <f t="shared" ref="Y9" si="58">S9/$S$2-1</f>
         <v>5.9473477284717191E-3</v>
       </c>
       <c r="Z9" s="5">
-        <f t="shared" ref="Z9" si="60">T9/$T$2-1</f>
-        <v>7.7082767517397954E-3</v>
+        <f t="shared" ref="Z9" si="59">T9/$T$2-1</f>
+        <v>7.7213554825104058E-3</v>
       </c>
       <c r="AB9" s="8">
-        <f t="shared" ref="AB9" si="61">P9/$P$2-1</f>
+        <f t="shared" ref="AB9" si="60">P9/$P$2-1</f>
         <v>1.1115845874500874E-2</v>
       </c>
       <c r="AC9" s="8">
-        <f t="shared" ref="AC9" si="62">Q9/$P$2-1</f>
+        <f t="shared" ref="AC9" si="61">Q9/$P$2-1</f>
         <v>-1.795537995647023E-3</v>
       </c>
       <c r="AD9" s="8">
-        <f t="shared" ref="AD9" si="63">R9/$P$2-1</f>
+        <f t="shared" ref="AD9" si="62">R9/$P$2-1</f>
         <v>1.9355330011095573E-2</v>
       </c>
       <c r="AE9" s="8">
-        <f t="shared" ref="AE9" si="64">S9/$P$2-1</f>
+        <f t="shared" ref="AE9" si="63">S9/$P$2-1</f>
         <v>5.9473477284717191E-3</v>
       </c>
       <c r="AF9" s="8">
-        <f t="shared" ref="AF9" si="65">T9/$T$2-1</f>
-        <v>7.7082767517397954E-3</v>
+        <f t="shared" ref="AF9" si="64">T9/$T$2-1</f>
+        <v>7.7213554825104058E-3</v>
       </c>
     </row>
     <row r="10" spans="1:32" x14ac:dyDescent="0.25">
@@ -2686,20 +3168,20 @@
         <v>20241.63</v>
       </c>
       <c r="E10" s="5">
-        <f t="shared" ref="E10" si="66">D10/D9-1</f>
+        <f t="shared" ref="E10" si="65">D10/D9-1</f>
         <v>6.4003699118475588E-3</v>
       </c>
       <c r="F10" s="10">
-        <f t="shared" ref="F10" si="67">F9*(1+E10)</f>
-        <v>1.0120815000000003</v>
+        <f t="shared" ref="F10" si="66">F9*(1+E10)</f>
+        <v>101.20815</v>
       </c>
       <c r="G10" s="5">
-        <f t="shared" ref="G10" si="68">F10/$F$2-1</f>
-        <v>1.20815000000003E-2</v>
+        <f t="shared" ref="G10" si="67">F10/$F$2-1</f>
+        <v>1.2081500000000078E-2</v>
       </c>
       <c r="H10" s="8">
-        <f t="shared" ref="H10" si="69">F10/$F$2-1</f>
-        <v>1.20815000000003E-2</v>
+        <f t="shared" ref="H10" si="68">F10/$F$2-1</f>
+        <v>1.2081500000000078E-2</v>
       </c>
       <c r="J10" s="11">
         <f>VLOOKUP($A10,Prices!$A:$J,MATCH(J$1,Prices!$1:$1,0),0)</f>
@@ -2714,72 +3196,72 @@
         <v>9.0627763041555287E-3</v>
       </c>
       <c r="M10" s="11">
-        <f t="shared" ref="M10" si="70">0.6*J10 + 0.4*K10</f>
+        <f t="shared" ref="M10" si="69">0.6*J10 + 0.4*K10</f>
         <v>7.0090882220790627E-3</v>
       </c>
       <c r="N10" s="11">
         <f>VLOOKUP($A10,Prices!$A:$J,MATCH(N$1,Prices!$1:$1,0),0)</f>
-        <v>3.4305317324185847E-3</v>
+        <v>3.4530585466074903E-3</v>
       </c>
       <c r="P10" s="10">
-        <f t="shared" ref="P10" si="71">P9*(1+J10)</f>
+        <f t="shared" ref="P10" si="70">P9*(1+J10)</f>
         <v>102.13950837635944</v>
       </c>
       <c r="Q10" s="10">
-        <f t="shared" ref="Q10" si="72">Q9*(1+K10)</f>
+        <f t="shared" ref="Q10" si="71">Q9*(1+K10)</f>
         <v>100.04737531939054</v>
       </c>
       <c r="R10" s="10">
-        <f t="shared" ref="R10" si="73">R9*(1+L10)</f>
+        <f t="shared" ref="R10" si="72">R9*(1+L10)</f>
         <v>102.85935193414348</v>
       </c>
       <c r="S10" s="10">
-        <f t="shared" ref="S10" si="74">S9*(1+M10)</f>
+        <f t="shared" ref="S10" si="73">S9*(1+M10)</f>
         <v>101.29981214354669</v>
       </c>
       <c r="T10" s="10">
-        <f t="shared" ref="T10" si="75">T9*(1+N10)</f>
-        <v>101.11652519721575</v>
+        <f t="shared" ref="T10" si="74">T9*(1+N10)</f>
+        <v>101.12010763216583</v>
       </c>
       <c r="V10" s="5">
-        <f t="shared" ref="V10" si="76">P10/$P$2-1</f>
+        <f t="shared" ref="V10" si="75">P10/$P$2-1</f>
         <v>2.1395083763594336E-2</v>
       </c>
       <c r="W10" s="5">
-        <f t="shared" ref="W10" si="77">Q10/$Q$2-1</f>
+        <f t="shared" ref="W10" si="76">Q10/$Q$2-1</f>
         <v>4.7375319390541293E-4</v>
       </c>
       <c r="X10" s="5">
-        <f t="shared" ref="X10" si="78">R10/$R$2-1</f>
+        <f t="shared" ref="X10" si="77">R10/$R$2-1</f>
         <v>2.8593519341434837E-2</v>
       </c>
       <c r="Y10" s="5">
-        <f t="shared" ref="Y10" si="79">S10/$S$2-1</f>
+        <f t="shared" ref="Y10" si="78">S10/$S$2-1</f>
         <v>1.2998121435466858E-2</v>
       </c>
       <c r="Z10" s="5">
-        <f t="shared" ref="Z10" si="80">T10/$T$2-1</f>
-        <v>1.1165251972157453E-2</v>
+        <f t="shared" ref="Z10" si="79">T10/$T$2-1</f>
+        <v>1.1201076321658343E-2</v>
       </c>
       <c r="AB10" s="8">
-        <f t="shared" ref="AB10" si="81">P10/$P$2-1</f>
+        <f t="shared" ref="AB10" si="80">P10/$P$2-1</f>
         <v>2.1395083763594336E-2</v>
       </c>
       <c r="AC10" s="8">
-        <f t="shared" ref="AC10" si="82">Q10/$P$2-1</f>
+        <f t="shared" ref="AC10" si="81">Q10/$P$2-1</f>
         <v>4.7375319390541293E-4</v>
       </c>
       <c r="AD10" s="8">
-        <f t="shared" ref="AD10" si="83">R10/$P$2-1</f>
+        <f t="shared" ref="AD10" si="82">R10/$P$2-1</f>
         <v>2.8593519341434837E-2</v>
       </c>
       <c r="AE10" s="8">
-        <f t="shared" ref="AE10" si="84">S10/$P$2-1</f>
+        <f t="shared" ref="AE10" si="83">S10/$P$2-1</f>
         <v>1.2998121435466858E-2</v>
       </c>
       <c r="AF10" s="8">
-        <f t="shared" ref="AF10" si="85">T10/$T$2-1</f>
-        <v>1.1165251972157453E-2</v>
+        <f t="shared" ref="AF10" si="84">T10/$T$2-1</f>
+        <v>1.1201076321658343E-2</v>
       </c>
     </row>
     <row r="11" spans="1:32" x14ac:dyDescent="0.25">
@@ -2796,20 +3278,20 @@
         <v>20269.189999999999</v>
       </c>
       <c r="E11" s="5">
-        <f t="shared" ref="E11" si="86">D11/D10-1</f>
+        <f t="shared" ref="E11" si="85">D11/D10-1</f>
         <v>1.3615504284980595E-3</v>
       </c>
       <c r="F11" s="10">
-        <f t="shared" ref="F11" si="87">F10*(1+E11)</f>
-        <v>1.0134595000000002</v>
+        <f t="shared" ref="F11" si="86">F10*(1+E11)</f>
+        <v>101.34595</v>
       </c>
       <c r="G11" s="5">
-        <f t="shared" ref="G11" si="88">F11/$F$2-1</f>
-        <v>1.345950000000018E-2</v>
+        <f t="shared" ref="G11" si="87">F11/$F$2-1</f>
+        <v>1.3459499999999958E-2</v>
       </c>
       <c r="H11" s="8">
-        <f t="shared" ref="H11" si="89">F11/$F$2-1</f>
-        <v>1.345950000000018E-2</v>
+        <f t="shared" ref="H11" si="88">F11/$F$2-1</f>
+        <v>1.3459499999999958E-2</v>
       </c>
       <c r="J11" s="11">
         <f>VLOOKUP($A11,Prices!$A:$J,MATCH(J$1,Prices!$1:$1,0),0)</f>
@@ -2824,389 +3306,1620 @@
         <v>2.0810514786420153E-3</v>
       </c>
       <c r="M11" s="11">
-        <f t="shared" ref="M11" si="90">0.6*J11 + 0.4*K11</f>
+        <f t="shared" ref="M11" si="89">0.6*J11 + 0.4*K11</f>
         <v>1.4946076065073921E-3</v>
       </c>
       <c r="N11" s="11">
         <f>VLOOKUP($A11,Prices!$A:$J,MATCH(N$1,Prices!$1:$1,0),0)</f>
-        <v>5.6980056980049376E-4</v>
+        <v>5.7352932742227303E-4</v>
       </c>
       <c r="P11" s="10">
-        <f t="shared" ref="P11" si="91">P10*(1+J11)</f>
+        <f t="shared" ref="P11" si="90">P10*(1+J11)</f>
         <v>102.36176216855607</v>
       </c>
       <c r="Q11" s="10">
-        <f t="shared" ref="Q11" si="92">Q10*(1+K11)</f>
+        <f t="shared" ref="Q11" si="91">Q10*(1+K11)</f>
         <v>100.09465221917287</v>
       </c>
       <c r="R11" s="10">
-        <f t="shared" ref="R11" si="93">R10*(1+L11)</f>
+        <f t="shared" ref="R11" si="92">R10*(1+L11)</f>
         <v>103.07340754057819</v>
       </c>
       <c r="S11" s="10">
-        <f t="shared" ref="S11" si="94">S10*(1+M11)</f>
+        <f t="shared" ref="S11" si="93">S10*(1+M11)</f>
         <v>101.4512156133142</v>
       </c>
       <c r="T11" s="10">
-        <f t="shared" ref="T11" si="95">T10*(1+N11)</f>
-        <v>101.17414145088937</v>
+        <f t="shared" ref="T11" si="94">T10*(1+N11)</f>
+        <v>101.17810297948498</v>
       </c>
       <c r="V11" s="5">
-        <f t="shared" ref="V11" si="96">P11/$P$2-1</f>
+        <f t="shared" ref="V11" si="95">P11/$P$2-1</f>
         <v>2.3617621685560586E-2</v>
       </c>
       <c r="W11" s="5">
-        <f t="shared" ref="W11" si="97">Q11/$Q$2-1</f>
+        <f t="shared" ref="W11" si="96">Q11/$Q$2-1</f>
         <v>9.4652219172863816E-4</v>
       </c>
       <c r="X11" s="5">
-        <f t="shared" ref="X11" si="98">R11/$R$2-1</f>
+        <f t="shared" ref="X11" si="97">R11/$R$2-1</f>
         <v>3.073407540578188E-2</v>
       </c>
       <c r="Y11" s="5">
-        <f t="shared" ref="Y11" si="99">S11/$S$2-1</f>
+        <f t="shared" ref="Y11" si="98">S11/$S$2-1</f>
         <v>1.4512156133142051E-2</v>
       </c>
       <c r="Z11" s="5">
-        <f t="shared" ref="Z11" si="100">T11/$T$2-1</f>
-        <v>1.1741414508893655E-2</v>
+        <f t="shared" ref="Z11" si="99">T11/$T$2-1</f>
+        <v>1.178102979484974E-2</v>
       </c>
       <c r="AB11" s="8">
-        <f t="shared" ref="AB11" si="101">P11/$P$2-1</f>
+        <f t="shared" ref="AB11" si="100">P11/$P$2-1</f>
         <v>2.3617621685560586E-2</v>
       </c>
       <c r="AC11" s="8">
-        <f t="shared" ref="AC11" si="102">Q11/$P$2-1</f>
+        <f t="shared" ref="AC11" si="101">Q11/$P$2-1</f>
         <v>9.4652219172863816E-4</v>
       </c>
       <c r="AD11" s="8">
-        <f t="shared" ref="AD11" si="103">R11/$P$2-1</f>
+        <f t="shared" ref="AD11" si="102">R11/$P$2-1</f>
         <v>3.073407540578188E-2</v>
       </c>
       <c r="AE11" s="8">
-        <f t="shared" ref="AE11" si="104">S11/$P$2-1</f>
+        <f t="shared" ref="AE11" si="103">S11/$P$2-1</f>
         <v>1.4512156133142051E-2</v>
       </c>
       <c r="AF11" s="8">
-        <f t="shared" ref="AF11" si="105">T11/$T$2-1</f>
-        <v>1.1741414508893655E-2</v>
+        <f t="shared" ref="AF11" si="104">T11/$T$2-1</f>
+        <v>1.178102979484974E-2</v>
       </c>
     </row>
     <row r="12" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A12" s="9"/>
-      <c r="B12" s="4"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="5"/>
-      <c r="H12" s="8"/>
-      <c r="J12" s="11"/>
-      <c r="K12" s="11"/>
-      <c r="L12" s="11"/>
-      <c r="M12" s="11"/>
-      <c r="N12" s="11"/>
-      <c r="P12" s="10"/>
-      <c r="Q12" s="10"/>
-      <c r="R12" s="10"/>
-      <c r="S12" s="10"/>
-      <c r="V12" s="5"/>
-      <c r="W12" s="5"/>
-      <c r="X12" s="5"/>
-      <c r="Y12" s="5"/>
-      <c r="Z12" s="5"/>
+      <c r="A12" s="9">
+        <v>43234</v>
+      </c>
+      <c r="B12" s="4">
+        <v>19873.309999999998</v>
+      </c>
+      <c r="C12" s="4">
+        <v>427.7</v>
+      </c>
+      <c r="D12" s="4">
+        <v>20301.009999999998</v>
+      </c>
+      <c r="E12" s="5">
+        <f t="shared" ref="E12" si="105">D12/D11-1</f>
+        <v>1.5698703302895467E-3</v>
+      </c>
+      <c r="F12" s="10">
+        <f t="shared" ref="F12" si="106">F11*(1+E12)</f>
+        <v>101.50505000000001</v>
+      </c>
+      <c r="G12" s="5">
+        <f t="shared" ref="G12" si="107">F12/$F$2-1</f>
+        <v>1.5050500000000078E-2</v>
+      </c>
+      <c r="H12" s="8">
+        <f t="shared" ref="H12" si="108">F12/$F$2-1</f>
+        <v>1.5050500000000078E-2</v>
+      </c>
+      <c r="J12" s="11">
+        <f>VLOOKUP($A12,Prices!$A:$J,MATCH(J$1,Prices!$1:$1,0),0)</f>
+        <v>1.4927398561541683E-3</v>
+      </c>
+      <c r="K12" s="11">
+        <f>VLOOKUP($A12,Prices!$A:$J,MATCH(K$1,Prices!$1:$1,0),0)</f>
+        <v>-9.4464386926118582E-4</v>
+      </c>
+      <c r="L12" s="11">
+        <f>VLOOKUP($A12,Prices!$A:$J,MATCH(L$1,Prices!$1:$1,0),0)</f>
+        <v>1.2751849018106665E-3</v>
+      </c>
+      <c r="M12" s="11">
+        <f t="shared" ref="M12" si="109">0.6*J12 + 0.4*K12</f>
+        <v>5.1778636598802657E-4</v>
+      </c>
+      <c r="N12" s="11">
+        <f>VLOOKUP($A12,Prices!$A:$J,MATCH(N$1,Prices!$1:$1,0),0)</f>
+        <v>1.3183613341816613E-2</v>
+      </c>
+      <c r="P12" s="10">
+        <f t="shared" ref="P12" si="110">P11*(1+J12)</f>
+        <v>102.51456165069125</v>
+      </c>
+      <c r="Q12" s="10">
+        <f t="shared" ref="Q12" si="111">Q11*(1+K12)</f>
+        <v>100.00009841960819</v>
+      </c>
+      <c r="R12" s="10">
+        <f t="shared" ref="R12" si="112">R11*(1+L12)</f>
+        <v>103.2048451936521</v>
+      </c>
+      <c r="S12" s="10">
+        <f t="shared" ref="S12" si="113">S11*(1+M12)</f>
+        <v>101.50374566957169</v>
+      </c>
+      <c r="T12" s="10">
+        <f t="shared" ref="T12" si="114">T11*(1+N12)</f>
+        <v>102.51199596782502</v>
+      </c>
+      <c r="V12" s="5">
+        <f t="shared" ref="V12" si="115">P12/$P$2-1</f>
+        <v>2.5145616506912383E-2</v>
+      </c>
+      <c r="W12" s="5">
+        <f t="shared" ref="W12" si="116">Q12/$Q$2-1</f>
+        <v>9.8419608196564923E-7</v>
+      </c>
+      <c r="X12" s="5">
+        <f t="shared" ref="X12" si="117">R12/$R$2-1</f>
+        <v>3.204845193652095E-2</v>
+      </c>
+      <c r="Y12" s="5">
+        <f t="shared" ref="Y12" si="118">S12/$S$2-1</f>
+        <v>1.5037456695716767E-2</v>
+      </c>
+      <c r="Z12" s="5">
+        <f t="shared" ref="Z12" si="119">T12/$T$2-1</f>
+        <v>2.5119959678250092E-2</v>
+      </c>
+      <c r="AB12" s="8">
+        <f t="shared" ref="AB12" si="120">P12/$P$2-1</f>
+        <v>2.5145616506912383E-2</v>
+      </c>
+      <c r="AC12" s="8">
+        <f t="shared" ref="AC12" si="121">Q12/$P$2-1</f>
+        <v>9.8419608196564923E-7</v>
+      </c>
+      <c r="AD12" s="8">
+        <f t="shared" ref="AD12" si="122">R12/$P$2-1</f>
+        <v>3.204845193652095E-2</v>
+      </c>
+      <c r="AE12" s="8">
+        <f t="shared" ref="AE12" si="123">S12/$P$2-1</f>
+        <v>1.5037456695716767E-2</v>
+      </c>
+      <c r="AF12" s="8">
+        <f t="shared" ref="AF12" si="124">T12/$T$2-1</f>
+        <v>2.5119959678250092E-2</v>
+      </c>
     </row>
     <row r="13" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A13" s="9"/>
-      <c r="B13" s="4"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="10"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="8"/>
-      <c r="J13" s="11"/>
-      <c r="K13" s="11"/>
-      <c r="L13" s="11"/>
-      <c r="M13" s="11"/>
-      <c r="N13" s="11"/>
-      <c r="P13" s="10"/>
-      <c r="Q13" s="10"/>
-      <c r="R13" s="10"/>
-      <c r="S13" s="10"/>
-      <c r="V13" s="5"/>
-      <c r="W13" s="5"/>
-      <c r="X13" s="5"/>
-      <c r="Y13" s="5"/>
-      <c r="Z13" s="5"/>
+      <c r="A13" s="9">
+        <v>43235</v>
+      </c>
+      <c r="B13" s="4">
+        <v>19679.809999999998</v>
+      </c>
+      <c r="C13" s="4">
+        <v>427.7</v>
+      </c>
+      <c r="D13" s="4">
+        <v>20107.509999999998</v>
+      </c>
+      <c r="E13" s="5">
+        <f t="shared" ref="E13" si="125">D13/D12-1</f>
+        <v>-9.531545474831038E-3</v>
+      </c>
+      <c r="F13" s="10">
+        <f t="shared" ref="F13" si="126">F12*(1+E13)</f>
+        <v>100.53755000000001</v>
+      </c>
+      <c r="G13" s="5">
+        <f t="shared" ref="G13" si="127">F13/$F$2-1</f>
+        <v>5.3755000000001996E-3</v>
+      </c>
+      <c r="H13" s="8">
+        <f t="shared" ref="H13" si="128">F13/$F$2-1</f>
+        <v>5.3755000000001996E-3</v>
+      </c>
+      <c r="J13" s="11">
+        <f>VLOOKUP($A13,Prices!$A:$J,MATCH(J$1,Prices!$1:$1,0),0)</f>
+        <v>-8.672086720867167E-3</v>
+      </c>
+      <c r="K13" s="11">
+        <f>VLOOKUP($A13,Prices!$A:$J,MATCH(K$1,Prices!$1:$1,0),0)</f>
+        <v>-4.4440242057488533E-3</v>
+      </c>
+      <c r="L13" s="11">
+        <f>VLOOKUP($A13,Prices!$A:$J,MATCH(L$1,Prices!$1:$1,0),0)</f>
+        <v>-7.3138781748053328E-3</v>
+      </c>
+      <c r="M13" s="11">
+        <f t="shared" ref="M13" si="129">0.6*J13 + 0.4*K13</f>
+        <v>-6.9808617148198419E-3</v>
+      </c>
+      <c r="N13" s="11">
+        <f>VLOOKUP($A13,Prices!$A:$J,MATCH(N$1,Prices!$1:$1,0),0)</f>
+        <v>-2.1498198111552957E-2</v>
+      </c>
+      <c r="P13" s="10">
+        <f t="shared" ref="P13" si="130">P12*(1+J13)</f>
+        <v>101.62554648190478</v>
+      </c>
+      <c r="Q13" s="10">
+        <f t="shared" ref="Q13" si="131">Q12*(1+K13)</f>
+        <v>99.55569556165419</v>
+      </c>
+      <c r="R13" s="10">
+        <f t="shared" ref="R13" si="132">R12*(1+L13)</f>
+        <v>102.45001752885609</v>
+      </c>
+      <c r="S13" s="10">
+        <f t="shared" ref="S13" si="133">S12*(1+M13)</f>
+        <v>100.79516205751617</v>
+      </c>
+      <c r="T13" s="10">
+        <f t="shared" ref="T13" si="134">T12*(1+N13)</f>
+        <v>100.30817276969799</v>
+      </c>
+      <c r="V13" s="5">
+        <f t="shared" ref="V13" si="135">P13/$P$2-1</f>
+        <v>1.6255464819047827E-2</v>
+      </c>
+      <c r="W13" s="5">
+        <f t="shared" ref="W13" si="136">Q13/$Q$2-1</f>
+        <v>-4.4430443834581057E-3</v>
+      </c>
+      <c r="X13" s="5">
+        <f t="shared" ref="X13" si="137">R13/$R$2-1</f>
+        <v>2.4500175288560966E-2</v>
+      </c>
+      <c r="Y13" s="5">
+        <f t="shared" ref="Y13" si="138">S13/$S$2-1</f>
+        <v>7.9516205751617441E-3</v>
+      </c>
+      <c r="Z13" s="5">
+        <f t="shared" ref="Z13" si="139">T13/$T$2-1</f>
+        <v>3.0817276969798968E-3</v>
+      </c>
+      <c r="AB13" s="8">
+        <f t="shared" ref="AB13" si="140">P13/$P$2-1</f>
+        <v>1.6255464819047827E-2</v>
+      </c>
+      <c r="AC13" s="8">
+        <f t="shared" ref="AC13" si="141">Q13/$P$2-1</f>
+        <v>-4.4430443834581057E-3</v>
+      </c>
+      <c r="AD13" s="8">
+        <f t="shared" ref="AD13" si="142">R13/$P$2-1</f>
+        <v>2.4500175288560966E-2</v>
+      </c>
+      <c r="AE13" s="8">
+        <f t="shared" ref="AE13" si="143">S13/$P$2-1</f>
+        <v>7.9516205751617441E-3</v>
+      </c>
+      <c r="AF13" s="8">
+        <f t="shared" ref="AF13" si="144">T13/$T$2-1</f>
+        <v>3.0817276969798968E-3</v>
+      </c>
     </row>
     <row r="14" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A14" s="9"/>
-      <c r="B14" s="4"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="10"/>
-      <c r="G14" s="5"/>
-      <c r="H14" s="8"/>
-      <c r="J14" s="11"/>
-      <c r="K14" s="11"/>
-      <c r="L14" s="11"/>
-      <c r="M14" s="11"/>
-      <c r="N14" s="11"/>
-      <c r="P14" s="10"/>
-      <c r="Q14" s="10"/>
-      <c r="R14" s="10"/>
-      <c r="S14" s="10"/>
-      <c r="V14" s="5"/>
-      <c r="W14" s="5"/>
-      <c r="X14" s="5"/>
-      <c r="Y14" s="5"/>
-      <c r="Z14" s="5"/>
+      <c r="A14" s="9">
+        <v>43236</v>
+      </c>
+      <c r="B14" s="4">
+        <v>19707.439999999999</v>
+      </c>
+      <c r="C14" s="4">
+        <v>427.7</v>
+      </c>
+      <c r="D14" s="4">
+        <v>20135.14</v>
+      </c>
+      <c r="E14" s="5">
+        <f t="shared" ref="E14" si="145">D14/D13-1</f>
+        <v>1.3741134531326527E-3</v>
+      </c>
+      <c r="F14" s="10">
+        <f t="shared" ref="F14" si="146">F13*(1+E14)</f>
+        <v>100.67570000000001</v>
+      </c>
+      <c r="G14" s="5">
+        <f t="shared" ref="G14" si="147">F14/$F$2-1</f>
+        <v>6.757000000000124E-3</v>
+      </c>
+      <c r="H14" s="8">
+        <f t="shared" ref="H14" si="148">F14/$F$2-1</f>
+        <v>6.757000000000124E-3</v>
+      </c>
+      <c r="J14" s="11">
+        <f>VLOOKUP($A14,Prices!$A:$J,MATCH(J$1,Prices!$1:$1,0),0)</f>
+        <v>4.5106615636960612E-3</v>
+      </c>
+      <c r="K14" s="11">
+        <f>VLOOKUP($A14,Prices!$A:$J,MATCH(K$1,Prices!$1:$1,0),0)</f>
+        <v>-1.1397093741096764E-3</v>
+      </c>
+      <c r="L14" s="11">
+        <f>VLOOKUP($A14,Prices!$A:$J,MATCH(L$1,Prices!$1:$1,0),0)</f>
+        <v>4.7285656684139532E-3</v>
+      </c>
+      <c r="M14" s="11">
+        <f t="shared" ref="M14" si="149">0.6*J14 + 0.4*K14</f>
+        <v>2.250513188573766E-3</v>
+      </c>
+      <c r="N14" s="11">
+        <f>VLOOKUP($A14,Prices!$A:$J,MATCH(N$1,Prices!$1:$1,0),0)</f>
+        <v>1.3922374666828663E-2</v>
+      </c>
+      <c r="P14" s="10">
+        <f t="shared" ref="P14" si="150">P13*(1+J14)</f>
+        <v>102.08394492831032</v>
+      </c>
+      <c r="Q14" s="10">
+        <f t="shared" ref="Q14" si="151">Q13*(1+K14)</f>
+        <v>99.44223100217657</v>
+      </c>
+      <c r="R14" s="10">
+        <f t="shared" ref="R14" si="152">R13*(1+L14)</f>
+        <v>102.93445916447145</v>
+      </c>
+      <c r="S14" s="10">
+        <f t="shared" ref="S14" si="153">S13*(1+M14)</f>
+        <v>101.02200289907103</v>
+      </c>
+      <c r="T14" s="10">
+        <f t="shared" ref="T14" si="154">T13*(1+N14)</f>
+        <v>101.7047007331427</v>
+      </c>
+      <c r="V14" s="5">
+        <f t="shared" ref="V14" si="155">P14/$P$2-1</f>
+        <v>2.0839449283103217E-2</v>
+      </c>
+      <c r="W14" s="5">
+        <f t="shared" ref="W14" si="156">Q14/$Q$2-1</f>
+        <v>-5.5776899782342682E-3</v>
+      </c>
+      <c r="X14" s="5">
+        <f t="shared" ref="X14" si="157">R14/$R$2-1</f>
+        <v>2.934459164471459E-2</v>
+      </c>
+      <c r="Y14" s="5">
+        <f t="shared" ref="Y14" si="158">S14/$S$2-1</f>
+        <v>1.0220028990710173E-2</v>
+      </c>
+      <c r="Z14" s="5">
+        <f t="shared" ref="Z14" si="159">T14/$T$2-1</f>
+        <v>1.7047007331427055E-2</v>
+      </c>
+      <c r="AB14" s="8">
+        <f t="shared" ref="AB14" si="160">P14/$P$2-1</f>
+        <v>2.0839449283103217E-2</v>
+      </c>
+      <c r="AC14" s="8">
+        <f t="shared" ref="AC14" si="161">Q14/$P$2-1</f>
+        <v>-5.5776899782342682E-3</v>
+      </c>
+      <c r="AD14" s="8">
+        <f t="shared" ref="AD14" si="162">R14/$P$2-1</f>
+        <v>2.934459164471459E-2</v>
+      </c>
+      <c r="AE14" s="8">
+        <f t="shared" ref="AE14" si="163">S14/$P$2-1</f>
+        <v>1.0220028990710173E-2</v>
+      </c>
+      <c r="AF14" s="8">
+        <f t="shared" ref="AF14" si="164">T14/$T$2-1</f>
+        <v>1.7047007331427055E-2</v>
+      </c>
     </row>
     <row r="15" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A15" s="9"/>
-      <c r="B15" s="4"/>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="10"/>
-      <c r="G15" s="5"/>
-      <c r="H15" s="8"/>
-      <c r="J15" s="11"/>
-      <c r="K15" s="11"/>
-      <c r="L15" s="11"/>
-      <c r="M15" s="11"/>
-      <c r="N15" s="11"/>
-      <c r="P15" s="10"/>
-      <c r="Q15" s="10"/>
-      <c r="R15" s="10"/>
-      <c r="S15" s="10"/>
-      <c r="V15" s="5"/>
-      <c r="W15" s="5"/>
-      <c r="X15" s="5"/>
-      <c r="Y15" s="5"/>
-      <c r="Z15" s="5"/>
+      <c r="A15" s="9">
+        <v>43237</v>
+      </c>
+      <c r="B15" s="4">
+        <v>19707.63</v>
+      </c>
+      <c r="C15" s="4">
+        <v>427.7</v>
+      </c>
+      <c r="D15" s="4">
+        <v>20135.330000000002</v>
+      </c>
+      <c r="E15" s="5">
+        <f t="shared" ref="E15" si="165">D15/D14-1</f>
+        <v>9.4362393310287729E-6</v>
+      </c>
+      <c r="F15" s="10">
+        <f t="shared" ref="F15" si="166">F14*(1+E15)</f>
+        <v>100.67665000000002</v>
+      </c>
+      <c r="G15" s="5">
+        <f t="shared" ref="G15" si="167">F15/$F$2-1</f>
+        <v>6.7665000000003417E-3</v>
+      </c>
+      <c r="H15" s="8">
+        <f t="shared" ref="H15" si="168">F15/$F$2-1</f>
+        <v>6.7665000000003417E-3</v>
+      </c>
+      <c r="J15" s="11">
+        <f>VLOOKUP($A15,Prices!$A:$J,MATCH(J$1,Prices!$1:$1,0),0)</f>
+        <v>-1.2246564158386875E-3</v>
+      </c>
+      <c r="K15" s="11">
+        <f>VLOOKUP($A15,Prices!$A:$J,MATCH(K$1,Prices!$1:$1,0),0)</f>
+        <v>-1.3311780926119621E-3</v>
+      </c>
+      <c r="L15" s="11">
+        <f>VLOOKUP($A15,Prices!$A:$J,MATCH(L$1,Prices!$1:$1,0),0)</f>
+        <v>-8.0262677854803233E-4</v>
+      </c>
+      <c r="M15" s="11">
+        <f t="shared" ref="M15" si="169">0.6*J15 + 0.4*K15</f>
+        <v>-1.2672650865479971E-3</v>
+      </c>
+      <c r="N15" s="11">
+        <f>VLOOKUP($A15,Prices!$A:$J,MATCH(N$1,Prices!$1:$1,0),0)</f>
+        <v>-9.505779308535689E-3</v>
+      </c>
+      <c r="P15" s="10">
+        <f t="shared" ref="P15" si="170">P14*(1+J15)</f>
+        <v>101.95892717019974</v>
+      </c>
+      <c r="Q15" s="10">
+        <f t="shared" ref="Q15" si="171">Q14*(1+K15)</f>
+        <v>99.309855682786008</v>
+      </c>
+      <c r="R15" s="10">
+        <f t="shared" ref="R15" si="172">R14*(1+L15)</f>
+        <v>102.85184121111068</v>
+      </c>
+      <c r="S15" s="10">
+        <f t="shared" ref="S15" si="173">S14*(1+M15)</f>
+        <v>100.89398124182389</v>
+      </c>
+      <c r="T15" s="10">
+        <f t="shared" ref="T15" si="174">T14*(1+N15)</f>
+        <v>100.73791829333278</v>
+      </c>
+      <c r="V15" s="5">
+        <f t="shared" ref="V15" si="175">P15/$P$2-1</f>
+        <v>1.9589271701997424E-2</v>
+      </c>
+      <c r="W15" s="5">
+        <f t="shared" ref="W15" si="176">Q15/$Q$2-1</f>
+        <v>-6.9014431721399205E-3</v>
+      </c>
+      <c r="X15" s="5">
+        <f t="shared" ref="X15" si="177">R15/$R$2-1</f>
+        <v>2.8518412111106839E-2</v>
+      </c>
+      <c r="Y15" s="5">
+        <f t="shared" ref="Y15" si="178">S15/$S$2-1</f>
+        <v>8.9398124182389349E-3</v>
+      </c>
+      <c r="Z15" s="5">
+        <f t="shared" ref="Z15" si="179">T15/$T$2-1</f>
+        <v>7.3791829333278436E-3</v>
+      </c>
+      <c r="AB15" s="8">
+        <f t="shared" ref="AB15" si="180">P15/$P$2-1</f>
+        <v>1.9589271701997424E-2</v>
+      </c>
+      <c r="AC15" s="8">
+        <f t="shared" ref="AC15" si="181">Q15/$P$2-1</f>
+        <v>-6.9014431721399205E-3</v>
+      </c>
+      <c r="AD15" s="8">
+        <f t="shared" ref="AD15" si="182">R15/$P$2-1</f>
+        <v>2.8518412111106839E-2</v>
+      </c>
+      <c r="AE15" s="8">
+        <f t="shared" ref="AE15" si="183">S15/$P$2-1</f>
+        <v>8.9398124182389349E-3</v>
+      </c>
+      <c r="AF15" s="8">
+        <f t="shared" ref="AF15" si="184">T15/$T$2-1</f>
+        <v>7.3791829333278436E-3</v>
+      </c>
     </row>
     <row r="16" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A16" s="9"/>
-      <c r="B16" s="4"/>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="5"/>
-      <c r="F16" s="10"/>
-      <c r="G16" s="5"/>
-      <c r="H16" s="8"/>
-      <c r="J16" s="11"/>
-      <c r="K16" s="11"/>
-      <c r="L16" s="11"/>
-      <c r="M16" s="11"/>
-      <c r="N16" s="11"/>
-      <c r="P16" s="10"/>
-      <c r="Q16" s="10"/>
-      <c r="R16" s="10"/>
-      <c r="S16" s="10"/>
-      <c r="V16" s="5"/>
-      <c r="W16" s="5"/>
-      <c r="X16" s="5"/>
-      <c r="Y16" s="5"/>
-      <c r="Z16" s="5"/>
-    </row>
-    <row r="17" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A17" s="9"/>
-      <c r="B17" s="4"/>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="10"/>
-      <c r="G17" s="5"/>
-      <c r="H17" s="8"/>
-      <c r="J17" s="11"/>
-      <c r="K17" s="11"/>
-      <c r="L17" s="11"/>
-      <c r="M17" s="11"/>
-      <c r="N17" s="11"/>
-      <c r="P17" s="10"/>
-      <c r="Q17" s="10"/>
-      <c r="R17" s="10"/>
-      <c r="V17" s="5"/>
-      <c r="W17" s="5"/>
-      <c r="X17" s="5"/>
-      <c r="Y17" s="5"/>
-      <c r="Z17" s="5"/>
-    </row>
-    <row r="18" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A18" s="9"/>
-      <c r="B18" s="4"/>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="5"/>
-      <c r="F18" s="10"/>
-      <c r="G18" s="5"/>
-      <c r="H18" s="8"/>
-      <c r="J18" s="11"/>
-      <c r="K18" s="11"/>
-      <c r="L18" s="11"/>
-      <c r="M18" s="11"/>
-      <c r="N18" s="11"/>
-      <c r="P18" s="10"/>
-      <c r="Q18" s="10"/>
-      <c r="R18" s="10"/>
-      <c r="V18" s="5"/>
-      <c r="W18" s="5"/>
-      <c r="X18" s="5"/>
-      <c r="Y18" s="5"/>
-      <c r="Z18" s="5"/>
-    </row>
-    <row r="19" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A19" s="9"/>
-      <c r="B19" s="4"/>
-      <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="10"/>
-      <c r="G19" s="5"/>
-      <c r="H19" s="8"/>
-      <c r="J19" s="11"/>
-      <c r="K19" s="11"/>
-      <c r="L19" s="11"/>
-      <c r="M19" s="11"/>
-      <c r="N19" s="11"/>
-      <c r="P19" s="10"/>
-      <c r="Q19" s="10"/>
-      <c r="R19" s="10"/>
-      <c r="V19" s="5"/>
-      <c r="W19" s="5"/>
-      <c r="X19" s="5"/>
-      <c r="Y19" s="5"/>
-      <c r="Z19" s="5"/>
-    </row>
-    <row r="20" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A20" s="9"/>
-      <c r="B20" s="4"/>
-      <c r="C20" s="4"/>
-      <c r="D20" s="4"/>
-      <c r="E20" s="5"/>
-      <c r="F20" s="10"/>
-      <c r="G20" s="5"/>
-      <c r="H20" s="8"/>
-      <c r="J20" s="11"/>
-      <c r="K20" s="11"/>
-      <c r="L20" s="11"/>
-      <c r="M20" s="11"/>
-      <c r="N20" s="11"/>
-      <c r="P20" s="10"/>
-      <c r="Q20" s="10"/>
-      <c r="R20" s="10"/>
-      <c r="V20" s="5"/>
-      <c r="W20" s="5"/>
-      <c r="X20" s="5"/>
-      <c r="Y20" s="5"/>
-      <c r="Z20" s="5"/>
-    </row>
-    <row r="21" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A21" s="9"/>
-      <c r="B21" s="4"/>
-      <c r="C21" s="4"/>
-      <c r="D21" s="4"/>
-      <c r="E21" s="5"/>
-      <c r="F21" s="10"/>
-      <c r="G21" s="5"/>
-      <c r="H21" s="8"/>
-      <c r="J21" s="11"/>
-      <c r="K21" s="11"/>
-      <c r="L21" s="11"/>
-      <c r="M21" s="11"/>
-      <c r="N21" s="11"/>
-      <c r="P21" s="10"/>
-      <c r="Q21" s="10"/>
-      <c r="R21" s="10"/>
-      <c r="V21" s="5"/>
-      <c r="W21" s="5"/>
-      <c r="X21" s="5"/>
-      <c r="Y21" s="5"/>
-      <c r="Z21" s="5"/>
-    </row>
-    <row r="22" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A22" s="9"/>
-      <c r="B22" s="4"/>
-      <c r="C22" s="4"/>
-      <c r="D22" s="4"/>
-      <c r="E22" s="5"/>
-      <c r="F22" s="10"/>
-      <c r="G22" s="5"/>
-      <c r="H22" s="8"/>
-      <c r="J22" s="11"/>
-      <c r="K22" s="11"/>
-      <c r="L22" s="11"/>
-      <c r="M22" s="11"/>
-      <c r="N22" s="11"/>
-      <c r="P22" s="10"/>
-      <c r="Q22" s="10"/>
-      <c r="R22" s="10"/>
-      <c r="V22" s="5"/>
-      <c r="W22" s="5"/>
-      <c r="X22" s="5"/>
-      <c r="Y22" s="5"/>
-      <c r="Z22" s="5"/>
-    </row>
-    <row r="23" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A23" s="9"/>
-      <c r="B23" s="4"/>
-      <c r="C23" s="4"/>
-      <c r="D23" s="4"/>
-      <c r="E23" s="5"/>
-      <c r="F23" s="10"/>
-      <c r="G23" s="5"/>
-      <c r="H23" s="8"/>
-      <c r="J23" s="11"/>
-      <c r="K23" s="11"/>
-      <c r="L23" s="11"/>
-      <c r="M23" s="11"/>
-      <c r="N23" s="11"/>
-      <c r="P23" s="10"/>
-      <c r="Q23" s="10"/>
-      <c r="R23" s="10"/>
-      <c r="V23" s="5"/>
-      <c r="W23" s="5"/>
-      <c r="X23" s="5"/>
-      <c r="Y23" s="5"/>
-      <c r="Z23" s="5"/>
-    </row>
-    <row r="24" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A24" s="9"/>
-      <c r="B24" s="4"/>
-      <c r="C24" s="4"/>
-      <c r="D24" s="4"/>
-      <c r="E24" s="5"/>
-      <c r="F24" s="10"/>
-      <c r="G24" s="5"/>
-      <c r="H24" s="8"/>
-      <c r="J24" s="11"/>
-      <c r="K24" s="11"/>
-      <c r="L24" s="11"/>
-      <c r="M24" s="11"/>
-      <c r="N24" s="11"/>
-      <c r="P24" s="10"/>
-      <c r="Q24" s="10"/>
-      <c r="R24" s="10"/>
-    </row>
-    <row r="25" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A25" s="9"/>
-      <c r="B25" s="4"/>
-      <c r="C25" s="4"/>
-      <c r="D25" s="4"/>
-      <c r="E25" s="5"/>
-      <c r="F25" s="10"/>
-      <c r="G25" s="5"/>
-      <c r="H25" s="8"/>
-      <c r="J25" s="11"/>
-      <c r="K25" s="11"/>
-      <c r="L25" s="11"/>
-      <c r="M25" s="11"/>
-      <c r="N25" s="11"/>
-    </row>
-    <row r="26" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A16" s="9">
+        <v>43238</v>
+      </c>
+      <c r="B16" s="4">
+        <v>19679.02</v>
+      </c>
+      <c r="C16" s="4">
+        <v>427.7</v>
+      </c>
+      <c r="D16" s="4">
+        <v>20106.72</v>
+      </c>
+      <c r="E16" s="5">
+        <f t="shared" ref="E16" si="185">D16/D15-1</f>
+        <v>-1.420885577738229E-3</v>
+      </c>
+      <c r="F16" s="10">
+        <f t="shared" ref="F16" si="186">F15*(1+E16)</f>
+        <v>100.53360000000002</v>
+      </c>
+      <c r="G16" s="5">
+        <f t="shared" ref="G16" si="187">F16/$F$2-1</f>
+        <v>5.3360000000002294E-3</v>
+      </c>
+      <c r="H16" s="8">
+        <f t="shared" ref="H16" si="188">F16/$F$2-1</f>
+        <v>5.3360000000002294E-3</v>
+      </c>
+      <c r="J16" s="11">
+        <f>VLOOKUP($A16,Prices!$A:$J,MATCH(J$1,Prices!$1:$1,0),0)</f>
+        <v>-3.4059945504086864E-3</v>
+      </c>
+      <c r="K16" s="11">
+        <f>VLOOKUP($A16,Prices!$A:$J,MATCH(K$1,Prices!$1:$1,0),0)</f>
+        <v>2.5706940874035134E-3</v>
+      </c>
+      <c r="L16" s="11">
+        <f>VLOOKUP($A16,Prices!$A:$J,MATCH(L$1,Prices!$1:$1,0),0)</f>
+        <v>-2.4463268584782316E-3</v>
+      </c>
+      <c r="M16" s="11">
+        <f t="shared" ref="M16" si="189">0.6*J16 + 0.4*K16</f>
+        <v>-1.0153190952838064E-3</v>
+      </c>
+      <c r="N16" s="11">
+        <f>VLOOKUP($A16,Prices!$A:$J,MATCH(N$1,Prices!$1:$1,0),0)</f>
+        <v>6.9084628670119663E-3</v>
+      </c>
+      <c r="P16" s="10">
+        <f t="shared" ref="P16" si="190">P15*(1+J16)</f>
+        <v>101.61165561989253</v>
+      </c>
+      <c r="Q16" s="10">
+        <f t="shared" ref="Q16" si="191">Q15*(1+K16)</f>
+        <v>99.565150941610639</v>
+      </c>
+      <c r="R16" s="10">
+        <f t="shared" ref="R16" si="192">R15*(1+L16)</f>
+        <v>102.600231989512</v>
+      </c>
+      <c r="S16" s="10">
+        <f t="shared" ref="S16" si="193">S15*(1+M16)</f>
+        <v>100.79154165606985</v>
+      </c>
+      <c r="T16" s="10">
+        <f t="shared" ref="T16" si="194">T15*(1+N16)</f>
+        <v>101.43386246116236</v>
+      </c>
+      <c r="V16" s="5">
+        <f t="shared" ref="V16" si="195">P16/$P$2-1</f>
+        <v>1.611655619892538E-2</v>
+      </c>
+      <c r="W16" s="5">
+        <f t="shared" ref="W16" si="196">Q16/$Q$2-1</f>
+        <v>-4.3484905838936383E-3</v>
+      </c>
+      <c r="X16" s="5">
+        <f t="shared" ref="X16" si="197">R16/$R$2-1</f>
+        <v>2.600231989512003E-2</v>
+      </c>
+      <c r="Y16" s="5">
+        <f t="shared" ref="Y16" si="198">S16/$S$2-1</f>
+        <v>7.9154165606984961E-3</v>
+      </c>
+      <c r="Z16" s="5">
+        <f t="shared" ref="Z16" si="199">T16/$T$2-1</f>
+        <v>1.4338624611623718E-2</v>
+      </c>
+      <c r="AB16" s="8">
+        <f t="shared" ref="AB16" si="200">P16/$P$2-1</f>
+        <v>1.611655619892538E-2</v>
+      </c>
+      <c r="AC16" s="8">
+        <f t="shared" ref="AC16" si="201">Q16/$P$2-1</f>
+        <v>-4.3484905838936383E-3</v>
+      </c>
+      <c r="AD16" s="8">
+        <f t="shared" ref="AD16" si="202">R16/$P$2-1</f>
+        <v>2.600231989512003E-2</v>
+      </c>
+      <c r="AE16" s="8">
+        <f t="shared" ref="AE16" si="203">S16/$P$2-1</f>
+        <v>7.9154165606984961E-3</v>
+      </c>
+      <c r="AF16" s="8">
+        <f t="shared" ref="AF16" si="204">T16/$T$2-1</f>
+        <v>1.4338624611623718E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A17" s="9">
+        <v>43241</v>
+      </c>
+      <c r="B17" s="4">
+        <f>D17-C17</f>
+        <v>19752.489999999998</v>
+      </c>
+      <c r="C17" s="4">
+        <v>427.7</v>
+      </c>
+      <c r="D17" s="4">
+        <v>20180.189999999999</v>
+      </c>
+      <c r="E17" s="5">
+        <f t="shared" ref="E17" si="205">D17/D16-1</f>
+        <v>3.6540022440256781E-3</v>
+      </c>
+      <c r="F17" s="10">
+        <f t="shared" ref="F17" si="206">F16*(1+E17)</f>
+        <v>100.90094999999999</v>
+      </c>
+      <c r="G17" s="5">
+        <f t="shared" ref="G17" si="207">F17/$F$2-1</f>
+        <v>9.0094999999998926E-3</v>
+      </c>
+      <c r="H17" s="8">
+        <f t="shared" ref="H17" si="208">F17/$F$2-1</f>
+        <v>9.0094999999998926E-3</v>
+      </c>
+      <c r="J17" s="11">
+        <f>VLOOKUP($A17,Prices!$A:$J,MATCH(J$1,Prices!$1:$1,0),0)</f>
+        <v>6.4251537935748892E-3</v>
+      </c>
+      <c r="K17" s="11">
+        <f>VLOOKUP($A17,Prices!$A:$J,MATCH(K$1,Prices!$1:$1,0),0)</f>
+        <v>9.4966761633452634E-5</v>
+      </c>
+      <c r="L17" s="11">
+        <f>VLOOKUP($A17,Prices!$A:$J,MATCH(L$1,Prices!$1:$1,0),0)</f>
+        <v>7.3203762673401673E-3</v>
+      </c>
+      <c r="M17" s="11">
+        <f t="shared" ref="M17" si="209">0.6*J17 + 0.4*K17</f>
+        <v>3.8930789807983144E-3</v>
+      </c>
+      <c r="N17" s="11">
+        <f>VLOOKUP($A17,Prices!$A:$J,MATCH(N$1,Prices!$1:$1,0),0)</f>
+        <v>6.8610634648371693E-3</v>
+      </c>
+      <c r="P17" s="10">
+        <f t="shared" ref="P17" si="210">P16*(1+J17)</f>
+        <v>102.2645261344701</v>
+      </c>
+      <c r="Q17" s="10">
+        <f t="shared" ref="Q17" si="211">Q16*(1+K17)</f>
+        <v>99.574606321567103</v>
+      </c>
+      <c r="R17" s="10">
+        <f t="shared" ref="R17" si="212">R16*(1+L17)</f>
+        <v>103.35130429279161</v>
+      </c>
+      <c r="S17" s="10">
+        <f t="shared" ref="S17" si="213">S16*(1+M17)</f>
+        <v>101.18393108833335</v>
+      </c>
+      <c r="T17" s="10">
+        <f t="shared" ref="T17" si="214">T16*(1+N17)</f>
+        <v>102.12980662899196</v>
+      </c>
+      <c r="V17" s="5">
+        <f t="shared" ref="V17" si="215">P17/$P$2-1</f>
+        <v>2.2645261344701018E-2</v>
+      </c>
+      <c r="W17" s="5">
+        <f t="shared" ref="W17" si="216">Q17/$Q$2-1</f>
+        <v>-4.2539367843289488E-3</v>
+      </c>
+      <c r="X17" s="5">
+        <f t="shared" ref="X17" si="217">R17/$R$2-1</f>
+        <v>3.3513042927916015E-2</v>
+      </c>
+      <c r="Y17" s="5">
+        <f t="shared" ref="Y17" si="218">S17/$S$2-1</f>
+        <v>1.1839310883333454E-2</v>
+      </c>
+      <c r="Z17" s="5">
+        <f t="shared" ref="Z17" si="219">T17/$T$2-1</f>
+        <v>2.1298066289919593E-2</v>
+      </c>
+      <c r="AB17" s="8">
+        <f t="shared" ref="AB17" si="220">P17/$P$2-1</f>
+        <v>2.2645261344701018E-2</v>
+      </c>
+      <c r="AC17" s="8">
+        <f t="shared" ref="AC17" si="221">Q17/$P$2-1</f>
+        <v>-4.2539367843289488E-3</v>
+      </c>
+      <c r="AD17" s="8">
+        <f t="shared" ref="AD17" si="222">R17/$P$2-1</f>
+        <v>3.3513042927916015E-2</v>
+      </c>
+      <c r="AE17" s="8">
+        <f t="shared" ref="AE17" si="223">S17/$P$2-1</f>
+        <v>1.1839310883333454E-2</v>
+      </c>
+      <c r="AF17" s="8">
+        <f t="shared" ref="AF17" si="224">T17/$T$2-1</f>
+        <v>2.1298066289919593E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A18" s="9">
+        <v>43242</v>
+      </c>
+      <c r="B18" s="4">
+        <v>19728</v>
+      </c>
+      <c r="C18" s="4">
+        <v>427.7</v>
+      </c>
+      <c r="D18" s="4">
+        <v>20155.7</v>
+      </c>
+      <c r="E18" s="5">
+        <f t="shared" ref="E18" si="225">D18/D17-1</f>
+        <v>-1.2135663737555813E-3</v>
+      </c>
+      <c r="F18" s="10">
+        <f t="shared" ref="F18" si="226">F17*(1+E18)</f>
+        <v>100.77850000000001</v>
+      </c>
+      <c r="G18" s="5">
+        <f t="shared" ref="G18" si="227">F18/$F$2-1</f>
+        <v>7.7850000000001529E-3</v>
+      </c>
+      <c r="H18" s="8">
+        <f t="shared" ref="H18" si="228">F18/$F$2-1</f>
+        <v>7.7850000000001529E-3</v>
+      </c>
+      <c r="J18" s="11">
+        <f>VLOOKUP($A18,Prices!$A:$J,MATCH(J$1,Prices!$1:$1,0),0)</f>
+        <v>-1.0866612333604309E-3</v>
+      </c>
+      <c r="K18" s="11">
+        <f>VLOOKUP($A18,Prices!$A:$J,MATCH(K$1,Prices!$1:$1,0),0)</f>
+        <v>0</v>
+      </c>
+      <c r="L18" s="11">
+        <f>VLOOKUP($A18,Prices!$A:$J,MATCH(L$1,Prices!$1:$1,0),0)</f>
+        <v>-2.6888557828566029E-3</v>
+      </c>
+      <c r="M18" s="11">
+        <f t="shared" ref="M18" si="229">0.6*J18 + 0.4*K18</f>
+        <v>-6.5199674001625851E-4</v>
+      </c>
+      <c r="N18" s="11">
+        <f>VLOOKUP($A18,Prices!$A:$J,MATCH(N$1,Prices!$1:$1,0),0)</f>
+        <v>-1.1925042589437829E-2</v>
+      </c>
+      <c r="P18" s="10">
+        <f t="shared" ref="P18" si="230">P17*(1+J18)</f>
+        <v>102.1533992383718</v>
+      </c>
+      <c r="Q18" s="10">
+        <f t="shared" ref="Q18" si="231">Q17*(1+K18)</f>
+        <v>99.574606321567103</v>
+      </c>
+      <c r="R18" s="10">
+        <f t="shared" ref="R18" si="232">R17*(1+L18)</f>
+        <v>103.07340754057816</v>
+      </c>
+      <c r="S18" s="10">
+        <f t="shared" ref="S18" si="233">S17*(1+M18)</f>
+        <v>101.11795949512172</v>
+      </c>
+      <c r="T18" s="10">
+        <f t="shared" ref="T18" si="234">T17*(1+N18)</f>
+        <v>100.91190433529017</v>
+      </c>
+      <c r="V18" s="5">
+        <f t="shared" ref="V18" si="235">P18/$P$2-1</f>
+        <v>2.1533992383718115E-2</v>
+      </c>
+      <c r="W18" s="5">
+        <f t="shared" ref="W18" si="236">Q18/$Q$2-1</f>
+        <v>-4.2539367843289488E-3</v>
+      </c>
+      <c r="X18" s="5">
+        <f t="shared" ref="X18" si="237">R18/$R$2-1</f>
+        <v>3.0734075405781658E-2</v>
+      </c>
+      <c r="Y18" s="5">
+        <f t="shared" ref="Y18" si="238">S18/$S$2-1</f>
+        <v>1.1179594951217231E-2</v>
+      </c>
+      <c r="Z18" s="5">
+        <f t="shared" ref="Z18" si="239">T18/$T$2-1</f>
+        <v>9.1190433529018122E-3</v>
+      </c>
+      <c r="AB18" s="8">
+        <f t="shared" ref="AB18" si="240">P18/$P$2-1</f>
+        <v>2.1533992383718115E-2</v>
+      </c>
+      <c r="AC18" s="8">
+        <f t="shared" ref="AC18" si="241">Q18/$P$2-1</f>
+        <v>-4.2539367843289488E-3</v>
+      </c>
+      <c r="AD18" s="8">
+        <f t="shared" ref="AD18" si="242">R18/$P$2-1</f>
+        <v>3.0734075405781658E-2</v>
+      </c>
+      <c r="AE18" s="8">
+        <f t="shared" ref="AE18" si="243">S18/$P$2-1</f>
+        <v>1.1179594951217231E-2</v>
+      </c>
+      <c r="AF18" s="8">
+        <f t="shared" ref="AF18" si="244">T18/$T$2-1</f>
+        <v>9.1190433529018122E-3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A19" s="9">
+        <v>43243</v>
+      </c>
+      <c r="B19" s="4">
+        <v>19713.37</v>
+      </c>
+      <c r="C19" s="4">
+        <v>427.7</v>
+      </c>
+      <c r="D19" s="4">
+        <v>20141.07</v>
+      </c>
+      <c r="E19" s="5">
+        <f t="shared" ref="E19" si="245">D19/D18-1</f>
+        <v>-7.2584926348384649E-4</v>
+      </c>
+      <c r="F19" s="10">
+        <f t="shared" ref="F19" si="246">F18*(1+E19)</f>
+        <v>100.70535</v>
+      </c>
+      <c r="G19" s="5">
+        <f t="shared" ref="G19" si="247">F19/$F$2-1</f>
+        <v>7.0535000000000458E-3</v>
+      </c>
+      <c r="H19" s="8">
+        <f t="shared" ref="H19" si="248">F19/$F$2-1</f>
+        <v>7.0535000000000458E-3</v>
+      </c>
+      <c r="J19" s="11">
+        <f>VLOOKUP($A19,Prices!$A:$J,MATCH(J$1,Prices!$1:$1,0),0)</f>
+        <v>-2.0397062822954393E-3</v>
+      </c>
+      <c r="K19" s="11">
+        <f>VLOOKUP($A19,Prices!$A:$J,MATCH(K$1,Prices!$1:$1,0),0)</f>
+        <v>2.7537745703161143E-3</v>
+      </c>
+      <c r="L19" s="11">
+        <f>VLOOKUP($A19,Prices!$A:$J,MATCH(L$1,Prices!$1:$1,0),0)</f>
+        <v>2.8418406383210471E-3</v>
+      </c>
+      <c r="M19" s="11">
+        <f t="shared" ref="M19" si="249">0.6*J19 + 0.4*K19</f>
+        <v>-1.2231394125081772E-4</v>
+      </c>
+      <c r="N19" s="11">
+        <f>VLOOKUP($A19,Prices!$A:$J,MATCH(N$1,Prices!$1:$1,0),0)</f>
+        <v>1.0603448275862126E-2</v>
+      </c>
+      <c r="P19" s="10">
+        <f t="shared" ref="P19" si="250">P18*(1+J19)</f>
+        <v>101.94503630818747</v>
+      </c>
+      <c r="Q19" s="10">
+        <f t="shared" ref="Q19" si="251">Q18*(1+K19)</f>
+        <v>99.848812340304676</v>
+      </c>
+      <c r="R19" s="10">
+        <f t="shared" ref="R19" si="252">R18*(1+L19)</f>
+        <v>103.3663257388572</v>
+      </c>
+      <c r="S19" s="10">
+        <f t="shared" ref="S19" si="253">S18*(1+M19)</f>
+        <v>101.10559135896463</v>
+      </c>
+      <c r="T19" s="10">
+        <f t="shared" ref="T19" si="254">T18*(1+N19)</f>
+        <v>101.98191849332817</v>
+      </c>
+      <c r="V19" s="5">
+        <f t="shared" ref="V19" si="255">P19/$P$2-1</f>
+        <v>1.9450363081874755E-2</v>
+      </c>
+      <c r="W19" s="5">
+        <f t="shared" ref="W19" si="256">Q19/$Q$2-1</f>
+        <v>-1.5118765969532877E-3</v>
+      </c>
+      <c r="X19" s="5">
+        <f t="shared" ref="X19" si="257">R19/$R$2-1</f>
+        <v>3.366325738857201E-2</v>
+      </c>
+      <c r="Y19" s="5">
+        <f t="shared" ref="Y19" si="258">S19/$S$2-1</f>
+        <v>1.1055913589646416E-2</v>
+      </c>
+      <c r="Z19" s="5">
+        <f t="shared" ref="Z19" si="259">T19/$T$2-1</f>
+        <v>1.9819184933281608E-2</v>
+      </c>
+      <c r="AB19" s="8">
+        <f t="shared" ref="AB19" si="260">P19/$P$2-1</f>
+        <v>1.9450363081874755E-2</v>
+      </c>
+      <c r="AC19" s="8">
+        <f t="shared" ref="AC19" si="261">Q19/$P$2-1</f>
+        <v>-1.5118765969532877E-3</v>
+      </c>
+      <c r="AD19" s="8">
+        <f t="shared" ref="AD19" si="262">R19/$P$2-1</f>
+        <v>3.366325738857201E-2</v>
+      </c>
+      <c r="AE19" s="8">
+        <f t="shared" ref="AE19" si="263">S19/$P$2-1</f>
+        <v>1.1055913589646416E-2</v>
+      </c>
+      <c r="AF19" s="8">
+        <f t="shared" ref="AF19" si="264">T19/$T$2-1</f>
+        <v>1.9819184933281608E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A20" s="9">
+        <v>43244</v>
+      </c>
+      <c r="B20" s="4">
+        <v>19705.38</v>
+      </c>
+      <c r="C20" s="4">
+        <v>427.7</v>
+      </c>
+      <c r="D20" s="4">
+        <f>B20+C20</f>
+        <v>20133.080000000002</v>
+      </c>
+      <c r="E20" s="5">
+        <f t="shared" ref="E20" si="265">D20/D19-1</f>
+        <v>-3.9670186340634572E-4</v>
+      </c>
+      <c r="F20" s="10">
+        <f t="shared" ref="F20" si="266">F19*(1+E20)</f>
+        <v>100.66540000000001</v>
+      </c>
+      <c r="G20" s="5">
+        <f t="shared" ref="G20" si="267">F20/$F$2-1</f>
+        <v>6.6540000000001598E-3</v>
+      </c>
+      <c r="H20" s="8">
+        <f t="shared" ref="H20" si="268">F20/$F$2-1</f>
+        <v>6.6540000000001598E-3</v>
+      </c>
+      <c r="J20" s="11">
+        <f>VLOOKUP($A20,Prices!$A:$J,MATCH(J$1,Prices!$1:$1,0),0)</f>
+        <v>-3.6789753372393763E-3</v>
+      </c>
+      <c r="K20" s="11">
+        <f>VLOOKUP($A20,Prices!$A:$J,MATCH(K$1,Prices!$1:$1,0),0)</f>
+        <v>2.7462121212122881E-3</v>
+      </c>
+      <c r="L20" s="11">
+        <f>VLOOKUP($A20,Prices!$A:$J,MATCH(L$1,Prices!$1:$1,0),0)</f>
+        <v>-1.8165304268846771E-3</v>
+      </c>
+      <c r="M20" s="11">
+        <f t="shared" ref="M20" si="269">0.6*J20 + 0.4*K20</f>
+        <v>-1.1089003538587107E-3</v>
+      </c>
+      <c r="N20" s="11">
+        <f>VLOOKUP($A20,Prices!$A:$J,MATCH(N$1,Prices!$1:$1,0),0)</f>
+        <v>-5.3740510108334361E-3</v>
+      </c>
+      <c r="P20" s="10">
+        <f t="shared" ref="P20" si="270">P19*(1+J20)</f>
+        <v>101.56998303385568</v>
+      </c>
+      <c r="Q20" s="10">
+        <f t="shared" ref="Q20" si="271">Q19*(1+K20)</f>
+        <v>100.12301835904228</v>
+      </c>
+      <c r="R20" s="10">
+        <f t="shared" ref="R20" si="272">R19*(1+L20)</f>
+        <v>103.1785576630373</v>
+      </c>
+      <c r="S20" s="10">
+        <f t="shared" ref="S20" si="273">S19*(1+M20)</f>
+        <v>100.99347533292958</v>
+      </c>
+      <c r="T20" s="10">
+        <f t="shared" ref="T20" si="274">T19*(1+N20)</f>
+        <v>101.43386246116236</v>
+      </c>
+      <c r="V20" s="5">
+        <f t="shared" ref="V20" si="275">P20/$P$2-1</f>
+        <v>1.5699830338556708E-2</v>
+      </c>
+      <c r="W20" s="5">
+        <f t="shared" ref="W20" si="276">Q20/$Q$2-1</f>
+        <v>1.2301835904227065E-3</v>
+      </c>
+      <c r="X20" s="5">
+        <f t="shared" ref="X20" si="277">R20/$R$2-1</f>
+        <v>3.1785576630372958E-2</v>
+      </c>
+      <c r="Y20" s="5">
+        <f t="shared" ref="Y20" si="278">S20/$S$2-1</f>
+        <v>9.9347533292957202E-3</v>
+      </c>
+      <c r="Z20" s="5">
+        <f t="shared" ref="Z20" si="279">T20/$T$2-1</f>
+        <v>1.4338624611623718E-2</v>
+      </c>
+      <c r="AB20" s="8">
+        <f t="shared" ref="AB20" si="280">P20/$P$2-1</f>
+        <v>1.5699830338556708E-2</v>
+      </c>
+      <c r="AC20" s="8">
+        <f t="shared" ref="AC20" si="281">Q20/$P$2-1</f>
+        <v>1.2301835904227065E-3</v>
+      </c>
+      <c r="AD20" s="8">
+        <f t="shared" ref="AD20" si="282">R20/$P$2-1</f>
+        <v>3.1785576630372958E-2</v>
+      </c>
+      <c r="AE20" s="8">
+        <f t="shared" ref="AE20" si="283">S20/$P$2-1</f>
+        <v>9.9347533292957202E-3</v>
+      </c>
+      <c r="AF20" s="8">
+        <f t="shared" ref="AF20" si="284">T20/$T$2-1</f>
+        <v>1.4338624611623718E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A21" s="9">
+        <v>43245</v>
+      </c>
+      <c r="B21" s="4">
+        <v>19609.37</v>
+      </c>
+      <c r="C21" s="4">
+        <v>427.7</v>
+      </c>
+      <c r="D21" s="4">
+        <v>20037.07</v>
+      </c>
+      <c r="E21" s="5">
+        <f t="shared" ref="E21" si="285">D21/D20-1</f>
+        <v>-4.768768613644947E-3</v>
+      </c>
+      <c r="F21" s="10">
+        <f t="shared" ref="F21" si="286">F20*(1+E21)</f>
+        <v>100.18534999999999</v>
+      </c>
+      <c r="G21" s="5">
+        <f t="shared" ref="G21" si="287">F21/$F$2-1</f>
+        <v>1.8534999999999524E-3</v>
+      </c>
+      <c r="H21" s="8">
+        <f t="shared" ref="H21" si="288">F21/$F$2-1</f>
+        <v>1.8534999999999524E-3</v>
+      </c>
+      <c r="J21" s="11">
+        <f>VLOOKUP($A21,Prices!$A:$J,MATCH(J$1,Prices!$1:$1,0),0)</f>
+        <v>-2.8719912472648934E-3</v>
+      </c>
+      <c r="K21" s="11">
+        <f>VLOOKUP($A21,Prices!$A:$J,MATCH(K$1,Prices!$1:$1,0),0)</f>
+        <v>2.1720653508359167E-3</v>
+      </c>
+      <c r="L21" s="11">
+        <f>VLOOKUP($A21,Prices!$A:$J,MATCH(L$1,Prices!$1:$1,0),0)</f>
+        <v>-2.8025477707005475E-3</v>
+      </c>
+      <c r="M21" s="11">
+        <f t="shared" ref="M21" si="289">0.6*J21 + 0.4*K21</f>
+        <v>-8.5436860802456927E-4</v>
+      </c>
+      <c r="N21" s="11">
+        <f>VLOOKUP($A21,Prices!$A:$J,MATCH(N$1,Prices!$1:$1,0),0)</f>
+        <v>-6.8610634648369473E-3</v>
+      </c>
+      <c r="P21" s="10">
+        <f t="shared" ref="P21" si="290">P20*(1+J21)</f>
+        <v>101.27827493159761</v>
+      </c>
+      <c r="Q21" s="10">
+        <f t="shared" ref="Q21" si="291">Q20*(1+K21)</f>
+        <v>100.34049209804107</v>
+      </c>
+      <c r="R21" s="10">
+        <f t="shared" ref="R21" si="292">R20*(1+L21)</f>
+        <v>102.88939482627465</v>
+      </c>
+      <c r="S21" s="10">
+        <f t="shared" ref="S21" si="293">S20*(1+M21)</f>
+        <v>100.90718967798982</v>
+      </c>
+      <c r="T21" s="10">
+        <f t="shared" ref="T21" si="294">T20*(1+N21)</f>
+        <v>100.73791829333278</v>
+      </c>
+      <c r="V21" s="5">
+        <f t="shared" ref="V21" si="295">P21/$P$2-1</f>
+        <v>1.2782749315976005E-2</v>
+      </c>
+      <c r="W21" s="5">
+        <f t="shared" ref="W21" si="296">Q21/$Q$2-1</f>
+        <v>3.4049209804107861E-3</v>
+      </c>
+      <c r="X21" s="5">
+        <f t="shared" ref="X21" si="297">R21/$R$2-1</f>
+        <v>2.8893948262746605E-2</v>
+      </c>
+      <c r="Y21" s="5">
+        <f t="shared" ref="Y21" si="298">S21/$S$2-1</f>
+        <v>9.0718967798981698E-3</v>
+      </c>
+      <c r="Z21" s="5">
+        <f t="shared" ref="Z21" si="299">T21/$T$2-1</f>
+        <v>7.3791829333278436E-3</v>
+      </c>
+      <c r="AB21" s="8">
+        <f t="shared" ref="AB21" si="300">P21/$P$2-1</f>
+        <v>1.2782749315976005E-2</v>
+      </c>
+      <c r="AC21" s="8">
+        <f t="shared" ref="AC21" si="301">Q21/$P$2-1</f>
+        <v>3.4049209804107861E-3</v>
+      </c>
+      <c r="AD21" s="8">
+        <f t="shared" ref="AD21" si="302">R21/$P$2-1</f>
+        <v>2.8893948262746605E-2</v>
+      </c>
+      <c r="AE21" s="8">
+        <f t="shared" ref="AE21" si="303">S21/$P$2-1</f>
+        <v>9.0718967798981698E-3</v>
+      </c>
+      <c r="AF21" s="8">
+        <f t="shared" ref="AF21" si="304">T21/$T$2-1</f>
+        <v>7.3791829333278436E-3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A22" s="9">
+        <v>43249</v>
+      </c>
+      <c r="B22" s="4">
+        <v>19452.379999999997</v>
+      </c>
+      <c r="C22" s="4">
+        <v>427.7</v>
+      </c>
+      <c r="D22" s="4">
+        <f>B22+C22</f>
+        <v>19880.079999999998</v>
+      </c>
+      <c r="E22" s="5">
+        <f t="shared" ref="E22:E23" si="305">D22/D21-1</f>
+        <v>-7.8349778685208316E-3</v>
+      </c>
+      <c r="F22" s="10">
+        <f t="shared" ref="F22:F23" si="306">F21*(1+E22)</f>
+        <v>99.400399999999976</v>
+      </c>
+      <c r="G22" s="5">
+        <f t="shared" ref="G22:G23" si="307">F22/$F$2-1</f>
+        <v>-5.9960000000002234E-3</v>
+      </c>
+      <c r="H22" s="8">
+        <f t="shared" ref="H22:H23" si="308">F22/$F$2-1</f>
+        <v>-5.9960000000002234E-3</v>
+      </c>
+      <c r="J22" s="11">
+        <f>VLOOKUP($A22,Prices!$A:$J,MATCH(J$1,Prices!$1:$1,0),0)</f>
+        <v>-1.5224249074201057E-2</v>
+      </c>
+      <c r="K22" s="11">
+        <f>VLOOKUP($A22,Prices!$A:$J,MATCH(K$1,Prices!$1:$1,0),0)</f>
+        <v>6.5963060686013986E-3</v>
+      </c>
+      <c r="L22" s="11">
+        <f>VLOOKUP($A22,Prices!$A:$J,MATCH(L$1,Prices!$1:$1,0),0)</f>
+        <v>-1.1132199430615386E-2</v>
+      </c>
+      <c r="M22" s="11">
+        <f t="shared" ref="M22:M23" si="309">0.6*J22 + 0.4*K22</f>
+        <v>-6.4960270170800749E-3</v>
+      </c>
+      <c r="N22" s="11">
+        <f>VLOOKUP($A22,Prices!$A:$J,MATCH(N$1,Prices!$1:$1,0),0)</f>
+        <v>1.1514104778354017E-3</v>
+      </c>
+      <c r="P22" s="10">
+        <f t="shared" ref="P22:P23" si="310">P21*(1+J22)</f>
+        <v>99.73638924823355</v>
+      </c>
+      <c r="Q22" s="10">
+        <f t="shared" ref="Q22:Q23" si="311">Q21*(1+K22)</f>
+        <v>101.00236869499383</v>
+      </c>
+      <c r="R22" s="10">
+        <f t="shared" ref="R22:R23" si="312">R21*(1+L22)</f>
+        <v>101.74400956377323</v>
+      </c>
+      <c r="S22" s="10">
+        <f t="shared" ref="S22:S23" si="313">S21*(1+M22)</f>
+        <v>100.25169384762397</v>
+      </c>
+      <c r="T22" s="10">
+        <f t="shared" ref="T22:T23" si="314">T21*(1+N22)</f>
+        <v>100.85390898797105</v>
+      </c>
+      <c r="V22" s="5">
+        <f t="shared" ref="V22:V23" si="315">P22/$P$2-1</f>
+        <v>-2.636107517664521E-3</v>
+      </c>
+      <c r="W22" s="5">
+        <f t="shared" ref="W22:W23" si="316">Q22/$Q$2-1</f>
+        <v>1.0023686949938382E-2</v>
+      </c>
+      <c r="X22" s="5">
+        <f t="shared" ref="X22:X23" si="317">R22/$R$2-1</f>
+        <v>1.74400956377323E-2</v>
+      </c>
+      <c r="Y22" s="5">
+        <f t="shared" ref="Y22:Y23" si="318">S22/$S$2-1</f>
+        <v>2.5169384762397939E-3</v>
+      </c>
+      <c r="Z22" s="5">
+        <f t="shared" ref="Z22:Z23" si="319">T22/$T$2-1</f>
+        <v>8.5390898797106374E-3</v>
+      </c>
+      <c r="AB22" s="8">
+        <f t="shared" ref="AB22:AB23" si="320">P22/$P$2-1</f>
+        <v>-2.636107517664521E-3</v>
+      </c>
+      <c r="AC22" s="8">
+        <f t="shared" ref="AC22:AC23" si="321">Q22/$P$2-1</f>
+        <v>1.0023686949938382E-2</v>
+      </c>
+      <c r="AD22" s="8">
+        <f t="shared" ref="AD22:AD23" si="322">R22/$P$2-1</f>
+        <v>1.74400956377323E-2</v>
+      </c>
+      <c r="AE22" s="8">
+        <f t="shared" ref="AE22:AE23" si="323">S22/$P$2-1</f>
+        <v>2.5169384762397939E-3</v>
+      </c>
+      <c r="AF22" s="8">
+        <f t="shared" ref="AF22:AF23" si="324">T22/$T$2-1</f>
+        <v>8.5390898797106374E-3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A23" s="9">
+        <v>43250</v>
+      </c>
+      <c r="B23" s="4">
+        <v>19617.420000000002</v>
+      </c>
+      <c r="C23" s="4">
+        <v>427.7</v>
+      </c>
+      <c r="D23" s="4">
+        <f>B23+C23</f>
+        <v>20045.120000000003</v>
+      </c>
+      <c r="E23" s="5">
+        <f t="shared" si="305"/>
+        <v>8.3017774576361614E-3</v>
+      </c>
+      <c r="F23" s="10">
+        <f t="shared" si="306"/>
+        <v>100.2256</v>
+      </c>
+      <c r="G23" s="5">
+        <f t="shared" si="307"/>
+        <v>2.2560000000000358E-3</v>
+      </c>
+      <c r="H23" s="8">
+        <f t="shared" si="308"/>
+        <v>2.2560000000000358E-3</v>
+      </c>
+      <c r="J23" s="11">
+        <f>VLOOKUP($A23,Prices!$A:$J,MATCH(J$1,Prices!$1:$1,0),0)</f>
+        <v>1.3091922005570966E-2</v>
+      </c>
+      <c r="K23" s="11">
+        <f>VLOOKUP($A23,Prices!$A:$J,MATCH(K$1,Prices!$1:$1,0),0)</f>
+        <v>-2.5276165512075899E-3</v>
+      </c>
+      <c r="L23" s="11">
+        <f>VLOOKUP($A23,Prices!$A:$J,MATCH(L$1,Prices!$1:$1,0),0)</f>
+        <v>1.3361384859557734E-2</v>
+      </c>
+      <c r="M23" s="11">
+        <f t="shared" si="309"/>
+        <v>6.8441065828595427E-3</v>
+      </c>
+      <c r="N23" s="11">
+        <f>VLOOKUP($A23,Prices!$A:$J,MATCH(N$1,Prices!$1:$1,0),0)</f>
+        <v>1.8976423231742201E-2</v>
+      </c>
+      <c r="P23" s="10">
+        <f t="shared" si="310"/>
+        <v>101.04213027738869</v>
+      </c>
+      <c r="Q23" s="10">
+        <f t="shared" si="311"/>
+        <v>100.7470734361692</v>
+      </c>
+      <c r="R23" s="10">
+        <f t="shared" si="312"/>
+        <v>103.10345043270932</v>
+      </c>
+      <c r="S23" s="10">
+        <f t="shared" si="313"/>
+        <v>100.93782712542931</v>
+      </c>
+      <c r="T23" s="10">
+        <f t="shared" si="314"/>
+        <v>102.7677554495024</v>
+      </c>
+      <c r="V23" s="5">
+        <f t="shared" si="315"/>
+        <v>1.0421302773886865E-2</v>
+      </c>
+      <c r="W23" s="5">
+        <f t="shared" si="316"/>
+        <v>7.4707343616919886E-3</v>
+      </c>
+      <c r="X23" s="5">
+        <f t="shared" si="317"/>
+        <v>3.1034504327093204E-2</v>
+      </c>
+      <c r="Y23" s="5">
+        <f t="shared" si="318"/>
+        <v>9.3782712542931357E-3</v>
+      </c>
+      <c r="Z23" s="5">
+        <f t="shared" si="319"/>
+        <v>2.767755449502407E-2</v>
+      </c>
+      <c r="AB23" s="8">
+        <f t="shared" si="320"/>
+        <v>1.0421302773886865E-2</v>
+      </c>
+      <c r="AC23" s="8">
+        <f t="shared" si="321"/>
+        <v>7.4707343616919886E-3</v>
+      </c>
+      <c r="AD23" s="8">
+        <f t="shared" si="322"/>
+        <v>3.1034504327093204E-2</v>
+      </c>
+      <c r="AE23" s="8">
+        <f t="shared" si="323"/>
+        <v>9.3782712542931357E-3</v>
+      </c>
+      <c r="AF23" s="8">
+        <f t="shared" si="324"/>
+        <v>2.767755449502407E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A24" s="9">
+        <v>43251</v>
+      </c>
+      <c r="B24" s="4">
+        <v>19527.77</v>
+      </c>
+      <c r="C24" s="4">
+        <v>427.96</v>
+      </c>
+      <c r="D24" s="4">
+        <f>B24+C24</f>
+        <v>19955.73</v>
+      </c>
+      <c r="E24" s="5">
+        <f t="shared" ref="E24" si="325">D24/D23-1</f>
+        <v>-4.4594395044780244E-3</v>
+      </c>
+      <c r="F24" s="10">
+        <f t="shared" ref="F24" si="326">F23*(1+E24)</f>
+        <v>99.778649999999985</v>
+      </c>
+      <c r="G24" s="5">
+        <f t="shared" ref="G24" si="327">F24/$F$2-1</f>
+        <v>-2.2135000000002014E-3</v>
+      </c>
+      <c r="H24" s="8">
+        <f t="shared" ref="H24" si="328">F24/$F$2-1</f>
+        <v>-2.2135000000002014E-3</v>
+      </c>
+      <c r="J24" s="11">
+        <f>VLOOKUP($A24,Prices!$A:$J,MATCH(J$1,Prices!$1:$1,0),0)</f>
+        <v>-5.6365136101181879E-3</v>
+      </c>
+      <c r="K24" s="11">
+        <f>VLOOKUP($A24,Prices!$A:$J,MATCH(K$1,Prices!$1:$1,0),0)</f>
+        <v>-3.1844204598779902E-3</v>
+      </c>
+      <c r="L24" s="11">
+        <f>VLOOKUP($A24,Prices!$A:$J,MATCH(L$1,Prices!$1:$1,0),0)</f>
+        <v>-6.6290293207066364E-3</v>
+      </c>
+      <c r="M24" s="11">
+        <f t="shared" ref="M24" si="329">0.6*J24 + 0.4*K24</f>
+        <v>-4.6556763500221086E-3</v>
+      </c>
+      <c r="N24" s="11">
+        <f>VLOOKUP($A24,Prices!$A:$J,MATCH(N$1,Prices!$1:$1,0),0)</f>
+        <v>-1.2979683972911937E-2</v>
+      </c>
+      <c r="P24" s="10">
+        <f t="shared" ref="P24" si="330">P23*(1+J24)</f>
+        <v>100.47260493488486</v>
+      </c>
+      <c r="Q24" s="10">
+        <f t="shared" ref="Q24" si="331">Q23*(1+K24)</f>
+        <v>100.42625239424623</v>
+      </c>
+      <c r="R24" s="10">
+        <f t="shared" ref="R24" si="332">R23*(1+L24)</f>
+        <v>102.41997463672487</v>
+      </c>
+      <c r="S24" s="10">
+        <f t="shared" ref="S24" si="333">S23*(1+M24)</f>
+        <v>100.46789327085884</v>
+      </c>
+      <c r="T24" s="10">
+        <f t="shared" ref="T24" si="334">T23*(1+N24)</f>
+        <v>101.43386246116236</v>
+      </c>
+      <c r="V24" s="5">
+        <f t="shared" ref="V24" si="335">P24/$P$2-1</f>
+        <v>4.7260493488485711E-3</v>
+      </c>
+      <c r="W24" s="5">
+        <f t="shared" ref="W24" si="336">Q24/$Q$2-1</f>
+        <v>4.2625239424622929E-3</v>
+      </c>
+      <c r="X24" s="5">
+        <f t="shared" ref="X24" si="337">R24/$R$2-1</f>
+        <v>2.4199746367248753E-2</v>
+      </c>
+      <c r="Y24" s="5">
+        <f t="shared" ref="Y24" si="338">S24/$S$2-1</f>
+        <v>4.6789327085883237E-3</v>
+      </c>
+      <c r="Z24" s="5">
+        <f t="shared" ref="Z24" si="339">T24/$T$2-1</f>
+        <v>1.4338624611623718E-2</v>
+      </c>
+      <c r="AB24" s="8">
+        <f t="shared" ref="AB24" si="340">P24/$P$2-1</f>
+        <v>4.7260493488485711E-3</v>
+      </c>
+      <c r="AC24" s="8">
+        <f t="shared" ref="AC24" si="341">Q24/$P$2-1</f>
+        <v>4.2625239424622929E-3</v>
+      </c>
+      <c r="AD24" s="8">
+        <f t="shared" ref="AD24" si="342">R24/$P$2-1</f>
+        <v>2.4199746367248753E-2</v>
+      </c>
+      <c r="AE24" s="8">
+        <f t="shared" ref="AE24" si="343">S24/$P$2-1</f>
+        <v>4.6789327085883237E-3</v>
+      </c>
+      <c r="AF24" s="8">
+        <f t="shared" ref="AF24" si="344">T24/$T$2-1</f>
+        <v>1.4338624611623718E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A25" s="9">
+        <v>43252</v>
+      </c>
+      <c r="B25" s="4">
+        <v>19824.349999999999</v>
+      </c>
+      <c r="C25" s="4">
+        <v>131</v>
+      </c>
+      <c r="D25" s="4">
+        <v>19955.349999999999</v>
+      </c>
+      <c r="E25" s="5">
+        <f t="shared" ref="E25" si="345">D25/D24-1</f>
+        <v>-1.9042149798642605E-5</v>
+      </c>
+      <c r="F25" s="10">
+        <f t="shared" ref="F25" si="346">F24*(1+E25)</f>
+        <v>99.776749999999979</v>
+      </c>
+      <c r="G25" s="5">
+        <f t="shared" ref="G25" si="347">F25/$F$2-1</f>
+        <v>-2.2325000000001927E-3</v>
+      </c>
+      <c r="H25" s="8">
+        <f t="shared" ref="H25" si="348">F25/$F$2-1</f>
+        <v>-2.2325000000001927E-3</v>
+      </c>
+      <c r="J25" s="11">
+        <f>VLOOKUP($A25,Prices!$A:$J,MATCH(J$1,Prices!$1:$1,0),0)</f>
+        <v>1.0369141435089269E-2</v>
+      </c>
+      <c r="K25" s="11">
+        <f>VLOOKUP($A25,Prices!$A:$J,MATCH(K$1,Prices!$1:$1,0),0)</f>
+        <v>-1.2305728142268935E-3</v>
+      </c>
+      <c r="L25" s="11">
+        <f>VLOOKUP($A25,Prices!$A:$J,MATCH(L$1,Prices!$1:$1,0),0)</f>
+        <v>1.0266564001026435E-2</v>
+      </c>
+      <c r="M25" s="11">
+        <f t="shared" ref="M25" si="349">0.6*J25 + 0.4*K25</f>
+        <v>5.7292557353628036E-3</v>
+      </c>
+      <c r="N25" s="11">
+        <f>VLOOKUP($A25,Prices!$A:$J,MATCH(N$1,Prices!$1:$1,0),0)</f>
+        <v>1.7724413950829243E-2</v>
+      </c>
+      <c r="P25" s="10">
+        <f t="shared" ref="P25" si="350">P24*(1+J25)</f>
+        <v>101.51441958580652</v>
+      </c>
+      <c r="Q25" s="10">
+        <f t="shared" ref="Q25" si="351">Q24*(1+K25)</f>
+        <v>100.30267057821519</v>
+      </c>
+      <c r="R25" s="10">
+        <f t="shared" ref="R25" si="352">R24*(1+L25)</f>
+        <v>103.47147586131631</v>
+      </c>
+      <c r="S25" s="10">
+        <f t="shared" ref="S25" si="353">S24*(1+M25)</f>
+        <v>101.04349952460072</v>
+      </c>
+      <c r="T25" s="10">
+        <f t="shared" ref="T25" si="354">T24*(1+N25)</f>
+        <v>103.23171822805548</v>
+      </c>
+      <c r="V25" s="5">
+        <f t="shared" ref="V25" si="355">P25/$P$2-1</f>
+        <v>1.5144195858065146E-2</v>
+      </c>
+      <c r="W25" s="5">
+        <f t="shared" ref="W25" si="356">Q25/$Q$2-1</f>
+        <v>3.0267057821518062E-3</v>
+      </c>
+      <c r="X25" s="5">
+        <f t="shared" ref="X25" si="357">R25/$R$2-1</f>
+        <v>3.4714758613163088E-2</v>
+      </c>
+      <c r="Y25" s="5">
+        <f t="shared" ref="Y25" si="358">S25/$S$2-1</f>
+        <v>1.0434995246007217E-2</v>
+      </c>
+      <c r="Z25" s="5">
+        <f t="shared" ref="Z25" si="359">T25/$T$2-1</f>
+        <v>3.2317182280554801E-2</v>
+      </c>
+      <c r="AB25" s="8">
+        <f t="shared" ref="AB25" si="360">P25/$P$2-1</f>
+        <v>1.5144195858065146E-2</v>
+      </c>
+      <c r="AC25" s="8">
+        <f t="shared" ref="AC25" si="361">Q25/$P$2-1</f>
+        <v>3.0267057821518062E-3</v>
+      </c>
+      <c r="AD25" s="8">
+        <f t="shared" ref="AD25" si="362">R25/$P$2-1</f>
+        <v>3.4714758613163088E-2</v>
+      </c>
+      <c r="AE25" s="8">
+        <f t="shared" ref="AE25" si="363">S25/$P$2-1</f>
+        <v>1.0434995246007217E-2</v>
+      </c>
+      <c r="AF25" s="8">
+        <f t="shared" ref="AF25" si="364">T25/$T$2-1</f>
+        <v>3.2317182280554801E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A26" s="9"/>
       <c r="B26" s="4"/>
       <c r="C26" s="4"/>
@@ -3221,7 +4934,7 @@
       <c r="M26" s="11"/>
       <c r="N26" s="11"/>
     </row>
-    <row r="27" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A27" s="9"/>
       <c r="B27" s="4"/>
       <c r="C27" s="4"/>
@@ -3236,7 +4949,7 @@
       <c r="M27" s="11"/>
       <c r="N27" s="11"/>
     </row>
-    <row r="28" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A28" s="9"/>
       <c r="B28" s="4"/>
       <c r="C28" s="4"/>
@@ -3251,7 +4964,7 @@
       <c r="M28" s="11"/>
       <c r="N28" s="11"/>
     </row>
-    <row r="29" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A29" s="9"/>
       <c r="B29" s="4"/>
       <c r="C29" s="4"/>
@@ -3266,7 +4979,7 @@
       <c r="M29" s="11"/>
       <c r="N29" s="11"/>
     </row>
-    <row r="30" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A30" s="9"/>
       <c r="B30" s="4"/>
       <c r="C30" s="4"/>
@@ -3281,7 +4994,7 @@
       <c r="M30" s="11"/>
       <c r="N30" s="11"/>
     </row>
-    <row r="31" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A31" s="9"/>
       <c r="B31" s="4"/>
       <c r="C31" s="4"/>
@@ -3290,13 +5003,13 @@
       <c r="F31" s="10"/>
       <c r="G31" s="5"/>
       <c r="H31" s="8"/>
-      <c r="J31" s="11"/>
-      <c r="K31" s="11"/>
-      <c r="L31" s="11"/>
-      <c r="M31" s="11"/>
-      <c r="N31" s="11"/>
-    </row>
-    <row r="32" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="J31" s="5"/>
+      <c r="K31" s="5"/>
+      <c r="L31" s="5"/>
+      <c r="M31" s="5"/>
+      <c r="N31" s="5"/>
+    </row>
+    <row r="32" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A32" s="9"/>
       <c r="B32" s="4"/>
       <c r="C32" s="4"/>
@@ -3498,10 +5211,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J12"/>
+  <sheetPr codeName="Sheet3"/>
+  <dimension ref="A1:J26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3569,7 +5283,7 @@
       </c>
       <c r="E3">
         <f t="array" ref="E3">_xll.HistoricalData(E$1,"Adj. Close",$A3,$A3,"Daily","RemoveHeaders = True","ReverseOrder =True","RemoveDates =""True")</f>
-        <v>17.36</v>
+        <v>17.245899999999999</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
@@ -3590,7 +5304,7 @@
       </c>
       <c r="E4">
         <f t="array" ref="E4">_xll.HistoricalData(E$1,"Adj. Close",$A4,$A4,"Daily","RemoveHeaders = True","ReverseOrder =True","RemoveDates =""True")</f>
-        <v>17.23</v>
+        <v>17.1159</v>
       </c>
       <c r="G4" s="5">
         <f t="shared" ref="G4:G9" si="0">B4/B3-1</f>
@@ -3606,7 +5320,7 @@
       </c>
       <c r="J4" s="5">
         <f t="shared" si="1"/>
-        <v>-7.4884792626727092E-3</v>
+        <v>-7.5380235302303644E-3</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
@@ -3627,7 +5341,7 @@
       </c>
       <c r="E5">
         <f t="array" ref="E5">_xll.HistoricalData(E$1,"Adj. Close",$A5,$A5,"Daily","RemoveHeaders = True","ReverseOrder =True","RemoveDates =""True")</f>
-        <v>17.455500000000001</v>
+        <v>17.3414</v>
       </c>
       <c r="G5" s="5">
         <f t="shared" si="0"/>
@@ -3643,7 +5357,7 @@
       </c>
       <c r="J5" s="5">
         <f t="shared" ref="J5" si="4">E5/E4-1</f>
-        <v>1.3087637840974997E-2</v>
+        <v>1.3174884172027168E-2</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
@@ -3664,7 +5378,7 @@
       </c>
       <c r="E6">
         <f t="array" ref="E6">_xll.HistoricalData(E$1,"Adj. Close",$A6,$A6,"Daily","RemoveHeaders = True","ReverseOrder =True","RemoveDates =""True")</f>
-        <v>17.12</v>
+        <v>17.0059</v>
       </c>
       <c r="G6" s="5">
         <f t="shared" si="0"/>
@@ -3680,7 +5394,7 @@
       </c>
       <c r="J6" s="5">
         <f t="shared" ref="J6" si="7">E6/E5-1</f>
-        <v>-1.9220303056343258E-2</v>
+        <v>-1.9346765543727718E-2</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
@@ -3701,7 +5415,7 @@
       </c>
       <c r="E7">
         <f t="array" ref="E7">_xll.HistoricalData(E$1,"Adj. Close",$A7,$A7,"Daily","RemoveHeaders = True","ReverseOrder =True","RemoveDates =""True")</f>
-        <v>17.187100000000001</v>
+        <v>17.073</v>
       </c>
       <c r="G7" s="5">
         <f t="shared" si="0"/>
@@ -3717,7 +5431,7 @@
       </c>
       <c r="J7" s="5">
         <f t="shared" ref="J7" si="10">E7/E6-1</f>
-        <v>3.9193925233644844E-3</v>
+        <v>3.945689437195421E-3</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
@@ -3738,7 +5452,7 @@
       </c>
       <c r="E8">
         <f t="array" ref="E8">_xll.HistoricalData(E$1,"Adj. Close",$A8,$A8,"Daily","RemoveHeaders = True","ReverseOrder =True","RemoveDates =""True")</f>
-        <v>17.39</v>
+        <v>17.2759</v>
       </c>
       <c r="G8" s="5">
         <f t="shared" si="0"/>
@@ -3754,7 +5468,7 @@
       </c>
       <c r="J8" s="5">
         <f t="shared" ref="J8" si="13">E8/E7-1</f>
-        <v>1.180536565214596E-2</v>
+        <v>1.1884261699759868E-2</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
@@ -3775,7 +5489,7 @@
       </c>
       <c r="E9">
         <f t="array" ref="E9">_xll.HistoricalData(E$1,"Adj. Close",$A9,$A9,"Daily","RemoveHeaders = True","ReverseOrder =True","RemoveDates =""True")</f>
-        <v>17.48</v>
+        <v>17.3659</v>
       </c>
       <c r="G9" s="5">
         <f t="shared" si="0"/>
@@ -3791,7 +5505,7 @@
       </c>
       <c r="J9" s="5">
         <f t="shared" ref="J9" si="16">E9/E8-1</f>
-        <v>5.1753881541114488E-3</v>
+        <v>5.2095694001470516E-3</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
@@ -3812,7 +5526,7 @@
       </c>
       <c r="E10">
         <f t="array" ref="E10">_xll.HistoricalData(E$1,"Adj. Close",$A10,$A10,"Daily","RemoveHeaders = True","ReverseOrder =True","RemoveDates =""True")</f>
-        <v>17.489999999999998</v>
+        <v>17.375900000000001</v>
       </c>
       <c r="G10" s="5">
         <f t="shared" ref="G10" si="17">B10/B9-1</f>
@@ -3828,7 +5542,7 @@
       </c>
       <c r="J10" s="5">
         <f t="shared" ref="J10" si="20">E10/E9-1</f>
-        <v>5.720823798625041E-4</v>
+        <v>5.7584115997455498E-4</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
@@ -3849,7 +5563,7 @@
       </c>
       <c r="E11">
         <f t="array" ref="E11">_xll.HistoricalData(E$1,"Adj. Close",$A11,$A11,"Daily","RemoveHeaders = True","ReverseOrder =True","RemoveDates =""True")</f>
-        <v>17.55</v>
+        <v>17.4359</v>
       </c>
       <c r="G11" s="5">
         <f t="shared" ref="G11" si="21">B11/B10-1</f>
@@ -3865,7 +5579,7 @@
       </c>
       <c r="J11" s="5">
         <f t="shared" ref="J11" si="24">E11/E10-1</f>
-        <v>3.4305317324185847E-3</v>
+        <v>3.4530585466074903E-3</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
@@ -3886,7 +5600,7 @@
       </c>
       <c r="E12">
         <f t="array" ref="E12">_xll.HistoricalData(E$1,"Adj. Close",$A12,$A12,"Daily","RemoveHeaders = True","ReverseOrder =True","RemoveDates =""True")</f>
-        <v>17.559999999999999</v>
+        <v>17.445900000000002</v>
       </c>
       <c r="G12" s="5">
         <f t="shared" ref="G12" si="25">B12/B11-1</f>
@@ -3902,7 +5616,525 @@
       </c>
       <c r="J12" s="5">
         <f t="shared" ref="J12" si="28">E12/E11-1</f>
-        <v>5.6980056980049376E-4</v>
+        <v>5.7352932742227303E-4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="13">
+        <v>43234</v>
+      </c>
+      <c r="B13">
+        <f t="array" ref="B13">_xll.HistoricalData(B$1,"Adj. Close",$A13,$A13,"Daily","RemoveHeaders = True","ReverseOrder =True","RemoveDates =""True")</f>
+        <v>73.8</v>
+      </c>
+      <c r="C13">
+        <f t="array" ref="C13">_xll.HistoricalData(C$1,"Adj. Close",$A13,$A13,"Daily","RemoveHeaders = True","ReverseOrder =True","RemoveDates =""True")</f>
+        <v>105.76</v>
+      </c>
+      <c r="D13">
+        <f t="array" ref="D13">_xll.HistoricalData(D$1,"Adj. Close",$A13,$A13,"Daily","RemoveHeaders = True","ReverseOrder =True","RemoveDates =""True")</f>
+        <v>274.82</v>
+      </c>
+      <c r="E13">
+        <f t="array" ref="E13">_xll.HistoricalData(E$1,"Adj. Close",$A13,$A13,"Daily","RemoveHeaders = True","ReverseOrder =True","RemoveDates =""True")</f>
+        <v>17.675899999999999</v>
+      </c>
+      <c r="G13" s="5">
+        <f t="shared" ref="G13" si="29">B13/B12-1</f>
+        <v>1.4927398561541683E-3</v>
+      </c>
+      <c r="H13" s="5">
+        <f t="shared" ref="H13" si="30">C13/C12-1</f>
+        <v>-9.4464386926118582E-4</v>
+      </c>
+      <c r="I13" s="5">
+        <f t="shared" ref="I13" si="31">D13/D12-1</f>
+        <v>1.2751849018106665E-3</v>
+      </c>
+      <c r="J13" s="5">
+        <f t="shared" ref="J13" si="32">E13/E12-1</f>
+        <v>1.3183613341816613E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" s="13">
+        <v>43235</v>
+      </c>
+      <c r="B14">
+        <f t="array" ref="B14">_xll.HistoricalData(B$1,"Adj. Close",$A14,$A14,"Daily","RemoveHeaders = True","ReverseOrder =True","RemoveDates =""True")</f>
+        <v>73.16</v>
+      </c>
+      <c r="C14">
+        <f t="array" ref="C14">_xll.HistoricalData(C$1,"Adj. Close",$A14,$A14,"Daily","RemoveHeaders = True","ReverseOrder =True","RemoveDates =""True")</f>
+        <v>105.29</v>
+      </c>
+      <c r="D14">
+        <f t="array" ref="D14">_xll.HistoricalData(D$1,"Adj. Close",$A14,$A14,"Daily","RemoveHeaders = True","ReverseOrder =True","RemoveDates =""True")</f>
+        <v>272.81</v>
+      </c>
+      <c r="E14">
+        <f t="array" ref="E14">_xll.HistoricalData(E$1,"Adj. Close",$A14,$A14,"Daily","RemoveHeaders = True","ReverseOrder =True","RemoveDates =""True")</f>
+        <v>17.2959</v>
+      </c>
+      <c r="G14" s="5">
+        <f t="shared" ref="G14" si="33">B14/B13-1</f>
+        <v>-8.672086720867167E-3</v>
+      </c>
+      <c r="H14" s="5">
+        <f t="shared" ref="H14" si="34">C14/C13-1</f>
+        <v>-4.4440242057488533E-3</v>
+      </c>
+      <c r="I14" s="5">
+        <f t="shared" ref="I14" si="35">D14/D13-1</f>
+        <v>-7.3138781748053328E-3</v>
+      </c>
+      <c r="J14" s="5">
+        <f t="shared" ref="J14" si="36">E14/E13-1</f>
+        <v>-2.1498198111552957E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" s="13">
+        <v>43236</v>
+      </c>
+      <c r="B15">
+        <f t="array" ref="B15">_xll.HistoricalData(B$1,"Adj. Close",$A15,$A15,"Daily","RemoveHeaders = True","ReverseOrder =True","RemoveDates =""True")</f>
+        <v>73.489999999999995</v>
+      </c>
+      <c r="C15">
+        <f t="array" ref="C15">_xll.HistoricalData(C$1,"Adj. Close",$A15,$A15,"Daily","RemoveHeaders = True","ReverseOrder =True","RemoveDates =""True")</f>
+        <v>105.17</v>
+      </c>
+      <c r="D15">
+        <f t="array" ref="D15">_xll.HistoricalData(D$1,"Adj. Close",$A15,$A15,"Daily","RemoveHeaders = True","ReverseOrder =True","RemoveDates =""True")</f>
+        <v>274.10000000000002</v>
+      </c>
+      <c r="E15">
+        <f t="array" ref="E15">_xll.HistoricalData(E$1,"Adj. Close",$A15,$A15,"Daily","RemoveHeaders = True","ReverseOrder =True","RemoveDates =""True")</f>
+        <v>17.5367</v>
+      </c>
+      <c r="G15" s="5">
+        <f t="shared" ref="G15" si="37">B15/B14-1</f>
+        <v>4.5106615636960612E-3</v>
+      </c>
+      <c r="H15" s="5">
+        <f t="shared" ref="H15" si="38">C15/C14-1</f>
+        <v>-1.1397093741096764E-3</v>
+      </c>
+      <c r="I15" s="5">
+        <f t="shared" ref="I15" si="39">D15/D14-1</f>
+        <v>4.7285656684139532E-3</v>
+      </c>
+      <c r="J15" s="5">
+        <f t="shared" ref="J15" si="40">E15/E14-1</f>
+        <v>1.3922374666828663E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" s="13">
+        <v>43237</v>
+      </c>
+      <c r="B16">
+        <f t="array" ref="B16">_xll.HistoricalData(B$1,"Adj. Close",$A16,$A16,"Daily","RemoveHeaders = True","ReverseOrder =True","RemoveDates =""True")</f>
+        <v>73.400000000000006</v>
+      </c>
+      <c r="C16">
+        <f t="array" ref="C16">_xll.HistoricalData(C$1,"Adj. Close",$A16,$A16,"Daily","RemoveHeaders = True","ReverseOrder =True","RemoveDates =""True")</f>
+        <v>105.03</v>
+      </c>
+      <c r="D16">
+        <f t="array" ref="D16">_xll.HistoricalData(D$1,"Adj. Close",$A16,$A16,"Daily","RemoveHeaders = True","ReverseOrder =True","RemoveDates =""True")</f>
+        <v>273.88</v>
+      </c>
+      <c r="E16">
+        <f t="array" ref="E16">_xll.HistoricalData(E$1,"Adj. Close",$A16,$A16,"Daily","RemoveHeaders = True","ReverseOrder =True","RemoveDates =""True")</f>
+        <v>17.37</v>
+      </c>
+      <c r="G16" s="5">
+        <f t="shared" ref="G16" si="41">B16/B15-1</f>
+        <v>-1.2246564158386875E-3</v>
+      </c>
+      <c r="H16" s="5">
+        <f t="shared" ref="H16" si="42">C16/C15-1</f>
+        <v>-1.3311780926119621E-3</v>
+      </c>
+      <c r="I16" s="5">
+        <f t="shared" ref="I16" si="43">D16/D15-1</f>
+        <v>-8.0262677854803233E-4</v>
+      </c>
+      <c r="J16" s="5">
+        <f t="shared" ref="J16" si="44">E16/E15-1</f>
+        <v>-9.505779308535689E-3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" s="13">
+        <v>43238</v>
+      </c>
+      <c r="B17">
+        <f t="array" ref="B17">_xll.HistoricalData(B$1,"Adj. Close",$A17,$A17,"Daily","RemoveHeaders = True","ReverseOrder =True","RemoveDates =""True")</f>
+        <v>73.150000000000006</v>
+      </c>
+      <c r="C17">
+        <f t="array" ref="C17">_xll.HistoricalData(C$1,"Adj. Close",$A17,$A17,"Daily","RemoveHeaders = True","ReverseOrder =True","RemoveDates =""True")</f>
+        <v>105.3</v>
+      </c>
+      <c r="D17">
+        <f t="array" ref="D17">_xll.HistoricalData(D$1,"Adj. Close",$A17,$A17,"Daily","RemoveHeaders = True","ReverseOrder =True","RemoveDates =""True")</f>
+        <v>273.20999999999998</v>
+      </c>
+      <c r="E17">
+        <f t="array" ref="E17">_xll.HistoricalData(E$1,"Adj. Close",$A17,$A17,"Daily","RemoveHeaders = True","ReverseOrder =True","RemoveDates =""True")</f>
+        <v>17.489999999999998</v>
+      </c>
+      <c r="G17" s="5">
+        <f t="shared" ref="G17" si="45">B17/B16-1</f>
+        <v>-3.4059945504086864E-3</v>
+      </c>
+      <c r="H17" s="5">
+        <f t="shared" ref="H17" si="46">C17/C16-1</f>
+        <v>2.5706940874035134E-3</v>
+      </c>
+      <c r="I17" s="5">
+        <f t="shared" ref="I17" si="47">D17/D16-1</f>
+        <v>-2.4463268584782316E-3</v>
+      </c>
+      <c r="J17" s="5">
+        <f t="shared" ref="J17" si="48">E17/E16-1</f>
+        <v>6.9084628670119663E-3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" s="13">
+        <v>43241</v>
+      </c>
+      <c r="B18">
+        <f t="array" ref="B18">_xll.HistoricalData(B$1,"Adj. Close",$A18,$A18,"Daily","RemoveHeaders = True","ReverseOrder =True","RemoveDates =""True")</f>
+        <v>73.62</v>
+      </c>
+      <c r="C18">
+        <f t="array" ref="C18">_xll.HistoricalData(C$1,"Adj. Close",$A18,$A18,"Daily","RemoveHeaders = True","ReverseOrder =True","RemoveDates =""True")</f>
+        <v>105.31</v>
+      </c>
+      <c r="D18">
+        <f t="array" ref="D18">_xll.HistoricalData(D$1,"Adj. Close",$A18,$A18,"Daily","RemoveHeaders = True","ReverseOrder =True","RemoveDates =""True")</f>
+        <v>275.20999999999998</v>
+      </c>
+      <c r="E18">
+        <f t="array" ref="E18">_xll.HistoricalData(E$1,"Adj. Close",$A18,$A18,"Daily","RemoveHeaders = True","ReverseOrder =True","RemoveDates =""True")</f>
+        <v>17.61</v>
+      </c>
+      <c r="G18" s="5">
+        <f t="shared" ref="G18" si="49">B18/B17-1</f>
+        <v>6.4251537935748892E-3</v>
+      </c>
+      <c r="H18" s="5">
+        <f t="shared" ref="H18" si="50">C18/C17-1</f>
+        <v>9.4966761633452634E-5</v>
+      </c>
+      <c r="I18" s="5">
+        <f t="shared" ref="I18" si="51">D18/D17-1</f>
+        <v>7.3203762673401673E-3</v>
+      </c>
+      <c r="J18" s="5">
+        <f t="shared" ref="J18" si="52">E18/E17-1</f>
+        <v>6.8610634648371693E-3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" s="13">
+        <v>43242</v>
+      </c>
+      <c r="B19">
+        <f t="array" ref="B19">_xll.HistoricalData(B$1,"Adj. Close",$A19,$A19,"Daily","RemoveHeaders = True","ReverseOrder =True","RemoveDates =""True")</f>
+        <v>73.540000000000006</v>
+      </c>
+      <c r="C19">
+        <f t="array" ref="C19">_xll.HistoricalData(C$1,"Adj. Close",$A19,$A19,"Daily","RemoveHeaders = True","ReverseOrder =True","RemoveDates =""True")</f>
+        <v>105.31</v>
+      </c>
+      <c r="D19">
+        <f t="array" ref="D19">_xll.HistoricalData(D$1,"Adj. Close",$A19,$A19,"Daily","RemoveHeaders = True","ReverseOrder =True","RemoveDates =""True")</f>
+        <v>274.47000000000003</v>
+      </c>
+      <c r="E19">
+        <f t="array" ref="E19">_xll.HistoricalData(E$1,"Adj. Close",$A19,$A19,"Daily","RemoveHeaders = True","ReverseOrder =True","RemoveDates =""True")</f>
+        <v>17.399999999999999</v>
+      </c>
+      <c r="G19" s="5">
+        <f t="shared" ref="G19" si="53">B19/B18-1</f>
+        <v>-1.0866612333604309E-3</v>
+      </c>
+      <c r="H19" s="5">
+        <f t="shared" ref="H19" si="54">C19/C18-1</f>
+        <v>0</v>
+      </c>
+      <c r="I19" s="5">
+        <f t="shared" ref="I19" si="55">D19/D18-1</f>
+        <v>-2.6888557828566029E-3</v>
+      </c>
+      <c r="J19" s="5">
+        <f t="shared" ref="J19" si="56">E19/E18-1</f>
+        <v>-1.1925042589437829E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20" s="13">
+        <v>43243</v>
+      </c>
+      <c r="B20">
+        <f t="array" ref="B20">_xll.HistoricalData(B$1,"Adj. Close",$A20,$A20,"Daily","RemoveHeaders = True","ReverseOrder =True","RemoveDates =""True")</f>
+        <v>73.39</v>
+      </c>
+      <c r="C20">
+        <f t="array" ref="C20">_xll.HistoricalData(C$1,"Adj. Close",$A20,$A20,"Daily","RemoveHeaders = True","ReverseOrder =True","RemoveDates =""True")</f>
+        <v>105.6</v>
+      </c>
+      <c r="D20">
+        <f t="array" ref="D20">_xll.HistoricalData(D$1,"Adj. Close",$A20,$A20,"Daily","RemoveHeaders = True","ReverseOrder =True","RemoveDates =""True")</f>
+        <v>275.25</v>
+      </c>
+      <c r="E20">
+        <f t="array" ref="E20">_xll.HistoricalData(E$1,"Adj. Close",$A20,$A20,"Daily","RemoveHeaders = True","ReverseOrder =True","RemoveDates =""True")</f>
+        <v>17.584499999999998</v>
+      </c>
+      <c r="G20" s="5">
+        <f t="shared" ref="G20" si="57">B20/B19-1</f>
+        <v>-2.0397062822954393E-3</v>
+      </c>
+      <c r="H20" s="5">
+        <f t="shared" ref="H20:J21" si="58">C20/C19-1</f>
+        <v>2.7537745703161143E-3</v>
+      </c>
+      <c r="I20" s="5">
+        <f t="shared" si="58"/>
+        <v>2.8418406383210471E-3</v>
+      </c>
+      <c r="J20" s="5">
+        <f t="shared" si="58"/>
+        <v>1.0603448275862126E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21" s="13">
+        <v>43244</v>
+      </c>
+      <c r="B21">
+        <f t="array" ref="B21">_xll.HistoricalData(B$1,"Adj. Close",$A21,$A21,"Daily","RemoveHeaders = True","ReverseOrder =True","RemoveDates =""True")</f>
+        <v>73.12</v>
+      </c>
+      <c r="C21">
+        <f t="array" ref="C21">_xll.HistoricalData(C$1,"Adj. Close",$A21,$A21,"Daily","RemoveHeaders = True","ReverseOrder =True","RemoveDates =""True")</f>
+        <v>105.89</v>
+      </c>
+      <c r="D21">
+        <f t="array" ref="D21">_xll.HistoricalData(D$1,"Adj. Close",$A21,$A21,"Daily","RemoveHeaders = True","ReverseOrder =True","RemoveDates =""True")</f>
+        <v>274.75</v>
+      </c>
+      <c r="E21">
+        <f t="array" ref="E21">_xll.HistoricalData(E$1,"Adj. Close",$A21,$A21,"Daily","RemoveHeaders = True","ReverseOrder =True","RemoveDates =""True")</f>
+        <v>17.489999999999998</v>
+      </c>
+      <c r="G21" s="5">
+        <f t="shared" ref="G21" si="59">B21/B20-1</f>
+        <v>-3.6789753372393763E-3</v>
+      </c>
+      <c r="H21" s="5">
+        <f t="shared" si="58"/>
+        <v>2.7462121212122881E-3</v>
+      </c>
+      <c r="I21" s="5">
+        <f t="shared" si="58"/>
+        <v>-1.8165304268846771E-3</v>
+      </c>
+      <c r="J21" s="5">
+        <f t="shared" si="58"/>
+        <v>-5.3740510108334361E-3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22" s="13">
+        <v>43245</v>
+      </c>
+      <c r="B22">
+        <f t="array" ref="B22">_xll.HistoricalData(B$1,"Adj. Close",$A22,$A22,"Daily","RemoveHeaders = True","ReverseOrder =True","RemoveDates =""True")</f>
+        <v>72.91</v>
+      </c>
+      <c r="C22">
+        <f t="array" ref="C22">_xll.HistoricalData(C$1,"Adj. Close",$A22,$A22,"Daily","RemoveHeaders = True","ReverseOrder =True","RemoveDates =""True")</f>
+        <v>106.12</v>
+      </c>
+      <c r="D22">
+        <f t="array" ref="D22">_xll.HistoricalData(D$1,"Adj. Close",$A22,$A22,"Daily","RemoveHeaders = True","ReverseOrder =True","RemoveDates =""True")</f>
+        <v>273.98</v>
+      </c>
+      <c r="E22">
+        <f t="array" ref="E22">_xll.HistoricalData(E$1,"Adj. Close",$A22,$A22,"Daily","RemoveHeaders = True","ReverseOrder =True","RemoveDates =""True")</f>
+        <v>17.37</v>
+      </c>
+      <c r="G22" s="5">
+        <f t="shared" ref="G22" si="60">B22/B21-1</f>
+        <v>-2.8719912472648934E-3</v>
+      </c>
+      <c r="H22" s="5">
+        <f t="shared" ref="H22" si="61">C22/C21-1</f>
+        <v>2.1720653508359167E-3</v>
+      </c>
+      <c r="I22" s="5">
+        <f t="shared" ref="I22" si="62">D22/D21-1</f>
+        <v>-2.8025477707005475E-3</v>
+      </c>
+      <c r="J22" s="5">
+        <f t="shared" ref="J22" si="63">E22/E21-1</f>
+        <v>-6.8610634648369473E-3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23" s="13">
+        <v>43249</v>
+      </c>
+      <c r="B23">
+        <f t="array" ref="B23">_xll.HistoricalData(B$1,"Adj. Close",$A23,$A23,"Daily","RemoveHeaders = True","ReverseOrder =True","RemoveDates =""True")</f>
+        <v>71.8</v>
+      </c>
+      <c r="C23">
+        <f t="array" ref="C23">_xll.HistoricalData(C$1,"Adj. Close",$A23,$A23,"Daily","RemoveHeaders = True","ReverseOrder =True","RemoveDates =""True")</f>
+        <v>106.82</v>
+      </c>
+      <c r="D23">
+        <f t="array" ref="D23">_xll.HistoricalData(D$1,"Adj. Close",$A23,$A23,"Daily","RemoveHeaders = True","ReverseOrder =True","RemoveDates =""True")</f>
+        <v>270.93</v>
+      </c>
+      <c r="E23">
+        <f t="array" ref="E23">_xll.HistoricalData(E$1,"Adj. Close",$A23,$A23,"Daily","RemoveHeaders = True","ReverseOrder =True","RemoveDates =""True")</f>
+        <v>17.39</v>
+      </c>
+      <c r="G23" s="5">
+        <f t="shared" ref="G23" si="64">B23/B22-1</f>
+        <v>-1.5224249074201057E-2</v>
+      </c>
+      <c r="H23" s="5">
+        <f t="shared" ref="H23" si="65">C23/C22-1</f>
+        <v>6.5963060686013986E-3</v>
+      </c>
+      <c r="I23" s="5">
+        <f t="shared" ref="I23" si="66">D23/D22-1</f>
+        <v>-1.1132199430615386E-2</v>
+      </c>
+      <c r="J23" s="5">
+        <f t="shared" ref="J23" si="67">E23/E22-1</f>
+        <v>1.1514104778354017E-3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A24" s="13">
+        <v>43250</v>
+      </c>
+      <c r="B24">
+        <f t="array" ref="B24">_xll.HistoricalData(B$1,"Adj. Close",$A24,$A24,"Daily","RemoveHeaders = True","ReverseOrder =True","RemoveDates =""True")</f>
+        <v>72.739999999999995</v>
+      </c>
+      <c r="C24">
+        <f t="array" ref="C24">_xll.HistoricalData(C$1,"Adj. Close",$A24,$A24,"Daily","RemoveHeaders = True","ReverseOrder =True","RemoveDates =""True")</f>
+        <v>106.55</v>
+      </c>
+      <c r="D24">
+        <f t="array" ref="D24">_xll.HistoricalData(D$1,"Adj. Close",$A24,$A24,"Daily","RemoveHeaders = True","ReverseOrder =True","RemoveDates =""True")</f>
+        <v>274.55</v>
+      </c>
+      <c r="E24">
+        <f t="array" ref="E24">_xll.HistoricalData(E$1,"Adj. Close",$A24,$A24,"Daily","RemoveHeaders = True","ReverseOrder =True","RemoveDates =""True")</f>
+        <v>17.72</v>
+      </c>
+      <c r="G24" s="5">
+        <f t="shared" ref="G24" si="68">B24/B23-1</f>
+        <v>1.3091922005570966E-2</v>
+      </c>
+      <c r="H24" s="5">
+        <f t="shared" ref="H24" si="69">C24/C23-1</f>
+        <v>-2.5276165512075899E-3</v>
+      </c>
+      <c r="I24" s="5">
+        <f t="shared" ref="I24" si="70">D24/D23-1</f>
+        <v>1.3361384859557734E-2</v>
+      </c>
+      <c r="J24" s="5">
+        <f t="shared" ref="J24" si="71">E24/E23-1</f>
+        <v>1.8976423231742201E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A25" s="13">
+        <v>43251</v>
+      </c>
+      <c r="B25">
+        <f t="array" ref="B25">_xll.HistoricalData(B$1,"Adj. Close",$A25,$A25,"Daily","RemoveHeaders = True","ReverseOrder =True","RemoveDates =""True")</f>
+        <v>72.33</v>
+      </c>
+      <c r="C25">
+        <f t="array" ref="C25">_xll.HistoricalData(C$1,"Adj. Close",$A25,$A25,"Daily","RemoveHeaders = True","ReverseOrder =True","RemoveDates =""True")</f>
+        <v>106.2107</v>
+      </c>
+      <c r="D25">
+        <f t="array" ref="D25">_xll.HistoricalData(D$1,"Adj. Close",$A25,$A25,"Daily","RemoveHeaders = True","ReverseOrder =True","RemoveDates =""True")</f>
+        <v>272.73</v>
+      </c>
+      <c r="E25">
+        <f t="array" ref="E25">_xll.HistoricalData(E$1,"Adj. Close",$A25,$A25,"Daily","RemoveHeaders = True","ReverseOrder =True","RemoveDates =""True")</f>
+        <v>17.489999999999998</v>
+      </c>
+      <c r="G25" s="5">
+        <f t="shared" ref="G25" si="72">B25/B24-1</f>
+        <v>-5.6365136101181879E-3</v>
+      </c>
+      <c r="H25" s="5">
+        <f t="shared" ref="H25" si="73">C25/C24-1</f>
+        <v>-3.1844204598779902E-3</v>
+      </c>
+      <c r="I25" s="5">
+        <f t="shared" ref="I25" si="74">D25/D24-1</f>
+        <v>-6.6290293207066364E-3</v>
+      </c>
+      <c r="J25" s="5">
+        <f t="shared" ref="J25" si="75">E25/E24-1</f>
+        <v>-1.2979683972911937E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A26" s="13">
+        <v>43252</v>
+      </c>
+      <c r="B26">
+        <f t="array" ref="B26">_xll.HistoricalData(B$1,"Adj. Close",$A26,$A26,"Daily","RemoveHeaders = True","ReverseOrder =True","RemoveDates =""True")</f>
+        <v>73.08</v>
+      </c>
+      <c r="C26">
+        <f t="array" ref="C26">_xll.HistoricalData(C$1,"Adj. Close",$A26,$A26,"Daily","RemoveHeaders = True","ReverseOrder =True","RemoveDates =""True")</f>
+        <v>106.08</v>
+      </c>
+      <c r="D26">
+        <f t="array" ref="D26">_xll.HistoricalData(D$1,"Adj. Close",$A26,$A26,"Daily","RemoveHeaders = True","ReverseOrder =True","RemoveDates =""True")</f>
+        <v>275.52999999999997</v>
+      </c>
+      <c r="E26">
+        <f t="array" ref="E26">_xll.HistoricalData(E$1,"Adj. Close",$A26,$A26,"Daily","RemoveHeaders = True","ReverseOrder =True","RemoveDates =""True")</f>
+        <v>17.8</v>
+      </c>
+      <c r="G26" s="5">
+        <f t="shared" ref="G26" si="76">B26/B25-1</f>
+        <v>1.0369141435089269E-2</v>
+      </c>
+      <c r="H26" s="5">
+        <f t="shared" ref="H26" si="77">C26/C25-1</f>
+        <v>-1.2305728142268935E-3</v>
+      </c>
+      <c r="I26" s="5">
+        <f t="shared" ref="I26" si="78">D26/D25-1</f>
+        <v>1.0266564001026435E-2</v>
+      </c>
+      <c r="J26" s="5">
+        <f t="shared" ref="J26" si="79">E26/E25-1</f>
+        <v>1.7724413950829243E-2</v>
       </c>
     </row>
   </sheetData>

--- a/Portfolio.xlsx
+++ b/Portfolio.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="86">
   <si>
     <t>Symbol</t>
   </si>
@@ -281,6 +281,9 @@
   </si>
   <si>
     <t>Max DD (30 day)</t>
+  </si>
+  <si>
+    <t>SHY</t>
   </si>
 </sst>
 </file>
@@ -942,150 +945,27 @@
 <file path=xl/volatileDependencies.xml><?xml version="1.0" encoding="utf-8"?>
 <volTypes xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <volType type="realTimeData">
-    <main first="rtdsrv.194ca04fd7fa411b89ccdcaf03001557">
+    <main first="rtdsrv.8e8a415e349149ca90766c03467d8c22">
       <tp>
-        <v>-7.5490689481631599E-3</v>
+        <v>1.99</v>
+        <stp/>
+        <stp>SHY</stp>
+        <stp>dividend yield</stp>
+        <tr r="M12" s="1"/>
+      </tp>
+      <tp>
+        <v>3.65</v>
         <stp/>
         <stp>RWX</stp>
-        <stp>change in percent</stp>
-        <tr r="L6" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.194ca04fd7fa411b89ccdcaf03001557">
-      <tp>
-        <v>-8.9390142021721804E-3</v>
-        <stp/>
-        <stp>TLT</stp>
-        <stp>change in percent</stp>
-        <tr r="L5" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.194ca04fd7fa411b89ccdcaf03001557">
-      <tp>
-        <v>-7.5490830636461273E-3</v>
-        <stp/>
-        <stp>IEV</stp>
-        <stp>change in percent</stp>
-        <tr r="L9" s="1"/>
+        <stp>dividend yield</stp>
+        <tr r="M6" s="1"/>
       </tp>
       <tp>
-        <v>-1.0590228748939392E-3</v>
-        <stp/>
-        <stp>IVV</stp>
-        <stp>change in percent</stp>
-        <tr r="K24" s="1"/>
-        <tr r="L3" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.194ca04fd7fa411b89ccdcaf03001557">
-      <tp>
-        <v>-3.8153846153846397E-3</v>
-        <stp/>
-        <stp>IYR</stp>
-        <stp>change in percent</stp>
-        <tr r="L4" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.194ca04fd7fa411b89ccdcaf03001557">
-      <tp>
-        <v>-9.6968345965225584E-3</v>
-        <stp/>
-        <stp>EEM</stp>
-        <stp>change in percent</stp>
-        <tr r="L10" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.194ca04fd7fa411b89ccdcaf03001557">
-      <tp>
-        <v>5.1084913719459928E-3</v>
-        <stp/>
-        <stp>EWJ</stp>
-        <stp>change in percent</stp>
-        <tr r="L7" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.194ca04fd7fa411b89ccdcaf03001557">
-      <tp>
-        <v>-4.7417880851797316E-3</v>
-        <stp/>
-        <stp>GLD</stp>
-        <stp>change in percent</stp>
-        <tr r="L8" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.194ca04fd7fa411b89ccdcaf03001557">
-      <tp>
-        <v>-9.4517958412092913E-4</v>
-        <stp/>
-        <stp>AGG</stp>
-        <stp>change in percent</stp>
-        <tr r="K23" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.194ca04fd7fa411b89ccdcaf03001557">
-      <tp>
-        <v>-4.5195519748477894E-3</v>
-        <stp/>
-        <stp>IEF</stp>
-        <stp>change in percent</stp>
-        <tr r="L11" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.194ca04fd7fa411b89ccdcaf03001557">
-      <tp>
-        <v>-1.4492753623188406E-2</v>
-        <stp/>
-        <stp>DBC</stp>
-        <stp>change in percent</stp>
-        <tr r="L2" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.194ca04fd7fa411b89ccdcaf03001557">
-      <tp>
-        <v>17.25</v>
-        <stp/>
-        <stp>DBC</stp>
-        <stp>close</stp>
-        <tr r="G2" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.194ca04fd7fa411b89ccdcaf03001557">
-      <tp>
-        <v>283.27999999999997</v>
-        <stp/>
-        <stp>IVV</stp>
-        <stp>close</stp>
-        <tr r="G3" s="1"/>
-      </tp>
-      <tp>
-        <v>119.7</v>
-        <stp/>
-        <stp>TLT</stp>
-        <stp>close</stp>
-        <tr r="G5" s="1"/>
-      </tp>
-      <tp>
-        <v>81.25</v>
-        <stp/>
-        <stp>IYR</stp>
-        <stp>close</stp>
-        <tr r="G4" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.194ca04fd7fa411b89ccdcaf03001557">
-      <tp t="s">
-        <v>--</v>
+        <v>2.7</v>
         <stp/>
         <stp>TLT</stp>
         <stp>dividend yield</stp>
         <tr r="M5" s="1"/>
-      </tp>
-      <tp>
-        <v>3.64</v>
-        <stp/>
-        <stp>RWX</stp>
-        <stp>dividend yield</stp>
-        <tr r="M6" s="1"/>
       </tp>
       <tp>
         <v>0.49</v>
@@ -1095,25 +975,39 @@
         <tr r="M4" s="1"/>
       </tp>
       <tp>
-        <v>1.81</v>
+        <v>1.82</v>
         <stp/>
         <stp>IVV</stp>
         <stp>dividend yield</stp>
         <tr r="M3" s="1"/>
       </tp>
       <tp>
-        <v>4.59</v>
+        <v>2.36</v>
+        <stp/>
+        <stp>IEF</stp>
+        <stp>dividend yield</stp>
+        <tr r="M11" s="1"/>
+      </tp>
+      <tp>
+        <v>4.66</v>
         <stp/>
         <stp>IEV</stp>
         <stp>dividend yield</stp>
         <tr r="M9" s="1"/>
       </tp>
-      <tp t="s">
-        <v>--</v>
+      <tp>
+        <v>1.58</v>
         <stp/>
-        <stp>IEF</stp>
+        <stp>EWJ</stp>
         <stp>dividend yield</stp>
-        <tr r="M11" s="1"/>
+        <tr r="M7" s="1"/>
+      </tp>
+      <tp>
+        <v>1.32</v>
+        <stp/>
+        <stp>EEM</stp>
+        <stp>dividend yield</stp>
+        <tr r="M10" s="1"/>
       </tp>
       <tp t="s">
         <v>--</v>
@@ -1122,63 +1016,237 @@
         <stp>dividend yield</stp>
         <tr r="M2" s="1"/>
       </tp>
+    </main>
+    <main first="rtdsrv.8e8a415e349149ca90766c03467d8c22">
       <tp>
-        <v>1.56</v>
+        <v>-6.0261415718892717E-3</v>
         <stp/>
         <stp>EWJ</stp>
-        <stp>dividend yield</stp>
-        <tr r="M7" s="1"/>
+        <stp>change in percent</stp>
+        <tr r="L7" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.8e8a415e349149ca90766c03467d8c22">
+      <tp>
+        <v>2.0655983999999998</v>
+        <stp/>
+        <stp>IYR</stp>
+        <stp>mtd percent change</stp>
+        <tr r="U4" s="1"/>
       </tp>
       <tp>
-        <v>1.3</v>
+        <v>0.73464172999999999</v>
+        <stp/>
+        <stp>IVV</stp>
+        <stp>mtd percent change</stp>
+        <tr r="U3" s="1"/>
+      </tp>
+      <tp>
+        <v>-1.34315425</v>
+        <stp/>
+        <stp>IEV</stp>
+        <stp>mtd percent change</stp>
+        <tr r="U9" s="1"/>
+      </tp>
+      <tp>
+        <v>-0.17709563</v>
+        <stp/>
+        <stp>IEF</stp>
+        <stp>mtd percent change</stp>
+        <tr r="U11" s="1"/>
+      </tp>
+      <tp>
+        <v>-0.69174232999999996</v>
+        <stp/>
+        <stp>GLD</stp>
+        <stp>mtd percent change</stp>
+        <tr r="U8" s="1"/>
+      </tp>
+      <tp>
+        <v>-0.72058325000000001</v>
+        <stp/>
+        <stp>EWJ</stp>
+        <stp>mtd percent change</stp>
+        <tr r="U7" s="1"/>
+      </tp>
+      <tp>
+        <v>-1.6808605999999999</v>
         <stp/>
         <stp>EEM</stp>
-        <stp>dividend yield</stp>
-        <tr r="M10" s="1"/>
+        <stp>mtd percent change</stp>
+        <tr r="U10" s="1"/>
+      </tp>
+      <tp>
+        <v>-1.2391930799999999</v>
+        <stp/>
+        <stp>DBC</stp>
+        <stp>mtd percent change</stp>
+        <tr r="U2" s="1"/>
+      </tp>
+      <tp>
+        <v>-0.11419642000000001</v>
+        <stp/>
+        <stp>SHY</stp>
+        <stp>mtd percent change</stp>
+        <tr r="U12" s="1"/>
+      </tp>
+      <tp>
+        <v>-0.40444893999999998</v>
+        <stp/>
+        <stp>RWX</stp>
+        <stp>mtd percent change</stp>
+        <tr r="U6" s="1"/>
+      </tp>
+      <tp>
+        <v>-0.29399412000000003</v>
+        <stp/>
+        <stp>TLT</stp>
+        <stp>mtd percent change</stp>
+        <tr r="U5" s="1"/>
       </tp>
     </main>
-    <main first="rtdsrv.194ca04fd7fa411b89ccdcaf03001557">
+    <main first="rtdsrv.8e8a415e349149ca90766c03467d8c22">
       <tp>
-        <v>-8.6797752808989888E-3</v>
+        <v>-1.32703553756186E-2</v>
         <stp/>
-        <stp>GYLD</stp>
+        <stp>EEM</stp>
         <stp>change in percent</stp>
-        <tr r="K26" s="1"/>
+        <tr r="L10" s="1"/>
       </tp>
     </main>
-    <main first="rtdsrv.194ca04fd7fa411b89ccdcaf03001557">
+    <main first="rtdsrv.8e8a415e349149ca90766c03467d8c22">
       <tp>
-        <v>-2.3192360163711051E-3</v>
+        <v>-2.1875854525566997E-3</v>
         <stp/>
         <stp>ACWI</stp>
         <stp>change in percent</stp>
         <tr r="K22" s="1"/>
       </tp>
     </main>
-    <main first="rtdsrv.194ca04fd7fa411b89ccdcaf03001557">
+    <main first="rtdsrv.8e8a415e349149ca90766c03467d8c22">
       <tp>
-        <v>118.63</v>
+        <v>7.2778720996037908E-3</v>
+        <stp/>
+        <stp>GYLD</stp>
+        <stp>change in percent</stp>
+        <tr r="K26" s="1"/>
+      </tp>
+      <tp>
+        <v>7.9411764705883542E-3</v>
+        <stp/>
+        <stp>DBC</stp>
+        <stp>change in percent</stp>
+        <tr r="L2" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.8e8a415e349149ca90766c03467d8c22">
+      <tp>
+        <v>-2.5186729199236234E-3</v>
+        <stp/>
+        <stp>GLD</stp>
+        <stp>change in percent</stp>
+        <tr r="L8" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.8e8a415e349149ca90766c03467d8c22">
+      <tp>
+        <v>1.1841326228536609E-3</v>
+        <stp/>
+        <stp>IEF</stp>
+        <stp>change in percent</stp>
+        <tr r="L11" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.8e8a415e349149ca90766c03467d8c22">
+      <tp>
+        <v>3.074739829706613E-4</v>
+        <stp/>
+        <stp>AGG</stp>
+        <stp>change in percent</stp>
+        <tr r="K23" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.8e8a415e349149ca90766c03467d8c22">
+      <tp>
+        <v>-2.5316455696202788E-3</v>
+        <stp/>
+        <stp>RWX</stp>
+        <stp>change in percent</stp>
+        <tr r="L6" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.8e8a415e349149ca90766c03467d8c22">
+      <tp>
+        <v>4.2138213339750304E-4</v>
+        <stp/>
+        <stp>SHY</stp>
+        <stp>change in percent</stp>
+        <tr r="L12" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.8e8a415e349149ca90766c03467d8c22">
+      <tp>
+        <v>1.2266928361144629E-4</v>
+        <stp/>
+        <stp>IYR</stp>
+        <stp>change in percent</stp>
+        <tr r="L4" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.8e8a415e349149ca90766c03467d8c22">
+      <tp>
+        <v>2.0260003376667991E-3</v>
         <stp/>
         <stp>TLT</stp>
-        <stp>last</stp>
-        <tr r="J5" s="1"/>
+        <stp>change in percent</stp>
+        <tr r="L5" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.8e8a415e349149ca90766c03467d8c22">
+      <tp>
+        <v>-1.0000000000000023E-2</v>
+        <stp/>
+        <stp>IEV</stp>
+        <stp>change in percent</stp>
+        <tr r="L9" s="1"/>
       </tp>
       <tp>
-        <v>115.44</v>
+        <v>3.3936651583709701E-3</v>
+        <stp/>
+        <stp>IVV</stp>
+        <stp>change in percent</stp>
+        <tr r="K24" s="1"/>
+        <tr r="L3" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.8e8a415e349149ca90766c03467d8c22">
+      <tp>
+        <v>114.85</v>
         <stp/>
         <stp>GLD</stp>
         <stp>last</stp>
         <tr r="J8" s="1"/>
       </tp>
     </main>
-    <main first="rtdsrv.194ca04fd7fa411b89ccdcaf03001557">
-      <tp t="s">
-        <v>7-10 Year Treas Bond Ishares ETF</v>
+    <main first="rtdsrv.8e8a415e349149ca90766c03467d8c22">
+      <tp>
+        <v>118.7</v>
         <stp/>
-        <stp>IEF</stp>
-        <stp>description</stp>
-        <tr r="B11" s="1"/>
+        <stp>TLT</stp>
+        <stp>last</stp>
+        <tr r="J5" s="1"/>
       </tp>
+    </main>
+    <main first="rtdsrv.8e8a415e349149ca90766c03467d8c22">
+      <tp>
+        <v>81.52</v>
+        <stp/>
+        <stp>IYR</stp>
+        <stp>close</stp>
+        <tr r="G4" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.8e8a415e349149ca90766c03467d8c22">
       <tp t="s">
         <v>ISHARES TR-EUROPE ETF</v>
         <stp/>
@@ -1186,6 +1254,15 @@
         <stp>description</stp>
         <tr r="B9" s="1"/>
       </tp>
+      <tp t="s">
+        <v>ISHARES TR-BARCLAYS 7 10 YR</v>
+        <stp/>
+        <stp>IEF</stp>
+        <stp>description</stp>
+        <tr r="B11" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.8e8a415e349149ca90766c03467d8c22">
       <tp t="s">
         <v>ISHARES TR-U.S. REAL ES ETF</v>
         <stp/>
@@ -1201,7 +1278,59 @@
         <tr r="B3" s="1"/>
       </tp>
     </main>
-    <main first="rtdsrv.194ca04fd7fa411b89ccdcaf03001557">
+    <main first="rtdsrv.8e8a415e349149ca90766c03467d8c22">
+      <tp>
+        <v>83.094999999999999</v>
+        <stp/>
+        <stp>SHY</stp>
+        <stp>last</stp>
+        <tr r="J12" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.8e8a415e349149ca90766c03467d8c22">
+      <tp>
+        <v>282.88</v>
+        <stp/>
+        <stp>IVV</stp>
+        <stp>close</stp>
+        <tr r="G3" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.8e8a415e349149ca90766c03467d8c22">
+      <tp>
+        <v>118.46</v>
+        <stp/>
+        <stp>TLT</stp>
+        <stp>close</stp>
+        <tr r="G5" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.8e8a415e349149ca90766c03467d8c22">
+      <tp>
+        <v>43.87</v>
+        <stp/>
+        <stp>EEM</stp>
+        <stp>last</stp>
+        <tr r="J10" s="1"/>
+      </tp>
+      <tp>
+        <v>101.46</v>
+        <stp/>
+        <stp>IEF</stp>
+        <stp>last</stp>
+        <tr r="J11" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.8e8a415e349149ca90766c03467d8c22">
+      <tp>
+        <v>45.54</v>
+        <stp/>
+        <stp>IEV</stp>
+        <stp>last</stp>
+        <tr r="J9" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.8e8a415e349149ca90766c03467d8c22">
       <tp t="s">
         <v>ARROW ETF TR-ARROW DJ GLB YLD</v>
         <stp/>
@@ -1210,7 +1339,16 @@
         <tr r="L26" s="1"/>
       </tp>
     </main>
-    <main first="rtdsrv.194ca04fd7fa411b89ccdcaf03001557">
+    <main first="rtdsrv.8e8a415e349149ca90766c03467d8c22">
+      <tp t="s">
+        <v>INVESCO DB COMMDY INDX TRCK-UNIT</v>
+        <stp/>
+        <stp>DBC</stp>
+        <stp>description</stp>
+        <tr r="B2" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.8e8a415e349149ca90766c03467d8c22">
       <tp t="s">
         <v>ISHARES TR-MSCI EMG MKT ETF</v>
         <stp/>
@@ -1218,6 +1356,8 @@
         <stp>description</stp>
         <tr r="B10" s="1"/>
       </tp>
+    </main>
+    <main first="rtdsrv.8e8a415e349149ca90766c03467d8c22">
       <tp t="s">
         <v>ISHARES INC-MSCI JPN ETF NEW</v>
         <stp/>
@@ -1226,39 +1366,16 @@
         <tr r="B7" s="1"/>
       </tp>
     </main>
-    <main first="rtdsrv.194ca04fd7fa411b89ccdcaf03001557">
-      <tp t="s">
-        <v>INVESCO DB COMMDY INDX TRCK-UNIT</v>
+    <main first="rtdsrv.8e8a415e349149ca90766c03467d8c22">
+      <tp>
+        <v>17.135000000000002</v>
         <stp/>
         <stp>DBC</stp>
-        <stp>description</stp>
-        <tr r="B2" s="1"/>
-      </tp>
-      <tp>
-        <v>46.000100000000003</v>
-        <stp/>
-        <stp>IEV</stp>
         <stp>last</stp>
-        <tr r="J9" s="1"/>
+        <tr r="J2" s="1"/>
       </tp>
     </main>
-    <main first="rtdsrv.194ca04fd7fa411b89ccdcaf03001557">
-      <tp>
-        <v>44.424999999999997</v>
-        <stp/>
-        <stp>EEM</stp>
-        <stp>last</stp>
-        <tr r="J10" s="1"/>
-      </tp>
-      <tp>
-        <v>101.32</v>
-        <stp/>
-        <stp>IEF</stp>
-        <stp>last</stp>
-        <tr r="J11" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.194ca04fd7fa411b89ccdcaf03001557">
+    <main first="rtdsrv.8e8a415e349149ca90766c03467d8c22">
       <tp t="s">
         <v>SPDR GOLD TRUST-GOLD SHS</v>
         <stp/>
@@ -1267,63 +1384,72 @@
         <tr r="B8" s="1"/>
       </tp>
     </main>
-    <main first="rtdsrv.194ca04fd7fa411b89ccdcaf03001557">
+    <main first="rtdsrv.8e8a415e349149ca90766c03467d8c22">
       <tp>
         <v>17</v>
         <stp/>
         <stp>DBC</stp>
-        <stp>last</stp>
-        <tr r="J2" s="1"/>
+        <stp>close</stp>
+        <tr r="G2" s="1"/>
       </tp>
     </main>
-    <main first="rtdsrv.194ca04fd7fa411b89ccdcaf03001557">
+    <main first="rtdsrv.8e8a415e349149ca90766c03467d8c22">
       <tp>
-        <v>80.94</v>
+        <v>81.53</v>
         <stp/>
         <stp>IYR</stp>
         <stp>last</stp>
         <tr r="J4" s="1"/>
       </tp>
     </main>
-    <main first="rtdsrv.194ca04fd7fa411b89ccdcaf03001557">
+    <main first="rtdsrv.8e8a415e349149ca90766c03467d8c22">
       <tp>
-        <v>39.44</v>
-        <stp/>
-        <stp>RWX</stp>
-        <stp>last</stp>
-        <tr r="J6" s="1"/>
-      </tp>
-      <tp>
-        <v>58.829000000000001</v>
-        <stp/>
-        <stp>EWJ</stp>
-        <stp>last</stp>
-        <tr r="J7" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.194ca04fd7fa411b89ccdcaf03001557">
-      <tp>
-        <v>282.98</v>
+        <v>283.83999999999997</v>
         <stp/>
         <stp>IVV</stp>
         <stp>last</stp>
         <tr r="J3" s="1"/>
       </tp>
       <tp t="s">
-        <v>20+ Year Treas Bond Ishares ETF</v>
-        <stp/>
-        <stp>TLT</stp>
-        <stp>description</stp>
-        <tr r="B5" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.194ca04fd7fa411b89ccdcaf03001557">
-      <tp t="s">
         <v>SPDR INDEX SHS FDS-DJ INTL RL ETF</v>
         <stp/>
         <stp>RWX</stp>
         <stp>description</stp>
         <tr r="B6" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.8e8a415e349149ca90766c03467d8c22">
+      <tp>
+        <v>58.555</v>
+        <stp/>
+        <stp>EWJ</stp>
+        <stp>last</stp>
+        <tr r="J7" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>ISHARES TR-1 3 YR TREAS BD</v>
+        <stp/>
+        <stp>SHY</stp>
+        <stp>description</stp>
+        <tr r="B12" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.8e8a415e349149ca90766c03467d8c22">
+      <tp>
+        <v>39.4</v>
+        <stp/>
+        <stp>RWX</stp>
+        <stp>last</stp>
+        <tr r="J6" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.8e8a415e349149ca90766c03467d8c22">
+      <tp t="s">
+        <v>ISHARES TR-20 YR TR BD ETF</v>
+        <stp/>
+        <stp>TLT</stp>
+        <stp>description</stp>
+        <tr r="B5" s="1"/>
       </tp>
     </main>
   </volType>
@@ -1594,10 +1720,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:T46"/>
+  <dimension ref="A1:V46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="U13" sqref="U13"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1622,7 +1748,7 @@
     <col min="19" max="19" width="11.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -1677,8 +1803,11 @@
       <c r="S1" s="7" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U1" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -1694,68 +1823,72 @@
       </c>
       <c r="E2" s="5">
         <f>G2/D2-1</f>
-        <v>-3.2356918824730352E-2</v>
+        <v>-4.6380731595386471E-2</v>
       </c>
       <c r="F2" s="5">
         <f>I2/$I$21</f>
-        <v>0.15238301742466678</v>
+        <v>0.15081359701518116</v>
       </c>
       <c r="G2" s="4">
         <f>_xll.RealtimeData(A2,"Close")</f>
-        <v>17.25</v>
+        <v>17</v>
       </c>
       <c r="H2" s="4">
         <v>176</v>
       </c>
       <c r="I2" s="4">
         <f>H2*G2</f>
-        <v>3036</v>
+        <v>2992</v>
       </c>
       <c r="J2" s="4">
         <f>_xll.RealtimeData(A2,"Last")</f>
-        <v>17</v>
+        <v>17.135000000000002</v>
       </c>
       <c r="K2" s="5">
         <f>J2/D2-1</f>
-        <v>-4.6380731595386471E-2</v>
+        <v>-3.8807872699232138E-2</v>
       </c>
       <c r="L2" s="8">
         <f>_xll.RealtimeData(A2,"Change in Percent")</f>
-        <v>-1.4492753623188406E-2</v>
+        <v>7.9411764705883542E-3</v>
       </c>
       <c r="M2" s="29" t="str">
         <f>_xll.RealtimeData(A2,"Dividend Yield")</f>
         <v>--</v>
       </c>
       <c r="N2" s="4" t="str">
-        <f t="shared" ref="N2:N11" si="0">A2</f>
+        <f t="shared" ref="N2:N12" si="0">A2</f>
         <v>DBC</v>
       </c>
       <c r="O2" s="5">
-        <v>0.189</v>
+        <v>0.14199999999999999</v>
       </c>
       <c r="P2" s="60">
-        <f t="shared" ref="P2:P11" si="1">O2-F2</f>
-        <v>3.6616982575333218E-2</v>
+        <f t="shared" ref="P2:P12" si="1">O2-F2</f>
+        <v>-8.8135970151811682E-3</v>
       </c>
       <c r="Q2" s="31">
         <f>O2*Daily!$D$66</f>
-        <v>3765.5414999999998</v>
+        <v>2829.1369999999997</v>
       </c>
       <c r="R2">
         <f t="shared" ref="R2:R11" si="2">ROUND(Q2/J2,0)</f>
-        <v>222</v>
+        <v>165</v>
       </c>
       <c r="S2">
         <f t="shared" ref="S2:S11" si="3">R2-H2</f>
-        <v>46</v>
+        <v>-11</v>
       </c>
       <c r="T2" t="str">
-        <f t="shared" ref="T2:T11" si="4">A2</f>
+        <f t="shared" ref="T2:T12" si="4">A2</f>
         <v>DBC</v>
       </c>
-    </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U2">
+        <f>_xll.RealtimeData(T2,"MTD Percent Change")</f>
+        <v>-1.2391930799999999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -1771,68 +1904,72 @@
       </c>
       <c r="E3" s="5">
         <f>G3/D3-1</f>
-        <v>6.3525047914566368E-2</v>
+        <v>6.202331810954731E-2</v>
       </c>
       <c r="F3" s="5">
         <f>I3/$I$21</f>
-        <v>0.41233358830886968</v>
+        <v>0.413503462361624</v>
       </c>
       <c r="G3" s="4">
         <f>_xll.RealtimeData(A3,"Close")</f>
-        <v>283.27999999999997</v>
+        <v>282.88</v>
       </c>
       <c r="H3" s="4">
         <v>29</v>
       </c>
       <c r="I3" s="4">
         <f>H3*G3</f>
-        <v>8215.119999999999</v>
+        <v>8203.52</v>
       </c>
       <c r="J3" s="4">
         <f>_xll.RealtimeData(A3,"Last")</f>
-        <v>282.98</v>
+        <v>283.83999999999997</v>
       </c>
       <c r="K3" s="5">
         <f>J3/D3-1</f>
-        <v>6.239875056080213E-2</v>
+        <v>6.5627469641593272E-2</v>
       </c>
       <c r="L3" s="8">
         <f>_xll.RealtimeData(A3,"Change in Percent")</f>
-        <v>-1.0590228748939392E-3</v>
+        <v>3.3936651583709701E-3</v>
       </c>
       <c r="M3" s="29">
         <f>_xll.RealtimeData(A3,"Dividend Yield")</f>
-        <v>1.81</v>
+        <v>1.82</v>
       </c>
       <c r="N3" s="4" t="str">
         <f t="shared" si="0"/>
         <v>IVV</v>
       </c>
       <c r="O3" s="5">
-        <v>0.33600000000000002</v>
+        <v>0.36599999999999999</v>
       </c>
       <c r="P3" s="60">
         <f t="shared" si="1"/>
-        <v>-7.633358830886966E-2</v>
+        <v>-4.7503462361624005E-2</v>
       </c>
       <c r="Q3" s="31">
         <f>O3*Daily!$D$66</f>
-        <v>6694.2960000000003</v>
+        <v>7292.0010000000002</v>
       </c>
       <c r="R3">
         <f t="shared" si="2"/>
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="S3">
         <f t="shared" si="3"/>
-        <v>-5</v>
+        <v>-3</v>
       </c>
       <c r="T3" t="str">
         <f t="shared" si="4"/>
         <v>IVV</v>
       </c>
-    </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U3">
+        <f>_xll.RealtimeData(T3,"MTD Percent Change")</f>
+        <v>0.73464172999999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>19</v>
       </c>
@@ -1848,34 +1985,34 @@
       </c>
       <c r="E4" s="5">
         <f>G4/D4-1</f>
-        <v>3.5955629223511254E-2</v>
+        <v>3.9398189468315525E-2</v>
       </c>
       <c r="F4" s="5">
         <f>I4/$I$21</f>
-        <v>0.22021755235531143</v>
+        <v>0.22188954516998283</v>
       </c>
       <c r="G4" s="4">
         <f>_xll.RealtimeData(A4,"Close")</f>
-        <v>81.25</v>
+        <v>81.52</v>
       </c>
       <c r="H4" s="4">
         <v>54</v>
       </c>
       <c r="I4" s="4">
         <f>H4*G4</f>
-        <v>4387.5</v>
+        <v>4402.08</v>
       </c>
       <c r="J4" s="4">
         <f>_xll.RealtimeData(A4,"Last")</f>
-        <v>80.94</v>
+        <v>81.53</v>
       </c>
       <c r="K4" s="5">
         <f>J4/D4-1</f>
-        <v>3.2003060053550803E-2</v>
+        <v>3.9525691699604737E-2</v>
       </c>
       <c r="L4" s="8">
         <f t="array" ref="L4">_xll.RealtimeData(A4,"Change in Percent")</f>
-        <v>-3.8153846153846397E-3</v>
+        <v>1.2266928361144629E-4</v>
       </c>
       <c r="M4" s="29">
         <f>_xll.RealtimeData(A4,"Dividend Yield")</f>
@@ -1886,36 +2023,40 @@
         <v>IYR</v>
       </c>
       <c r="O4" s="5">
-        <v>0.314</v>
+        <v>0.39300000000000002</v>
       </c>
       <c r="P4" s="60">
         <f t="shared" si="1"/>
-        <v>9.3782447644688571E-2</v>
+        <v>0.17111045483001719</v>
       </c>
       <c r="Q4" s="31">
         <f>O4*Daily!$D$66</f>
-        <v>6255.9790000000003</v>
+        <v>7829.9355000000005</v>
       </c>
       <c r="R4">
         <f t="shared" si="2"/>
-        <v>77</v>
+        <v>96</v>
       </c>
       <c r="S4">
         <f t="shared" si="3"/>
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="T4" t="str">
         <f t="shared" si="4"/>
         <v>IYR</v>
       </c>
-    </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U4">
+        <f>_xll.RealtimeData(T4,"MTD Percent Change")</f>
+        <v>2.0655983999999998</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>21</v>
       </c>
       <c r="B5" t="str">
         <f>_xll.RealtimeData(A5,"Description")</f>
-        <v>20+ Year Treas Bond Ishares ETF</v>
+        <v>ISHARES TR-20 YR TR BD ETF</v>
       </c>
       <c r="C5" s="3">
         <v>43286</v>
@@ -1925,38 +2066,38 @@
       </c>
       <c r="E5" s="5">
         <f>G5/D5-1</f>
-        <v>-2.1209578899339165E-2</v>
+        <v>-3.134909537523578E-2</v>
       </c>
       <c r="F5" s="5">
         <f>I5/$I$21</f>
-        <v>0.21027952947978967</v>
+        <v>0.20898671610449282</v>
       </c>
       <c r="G5" s="4">
         <f>_xll.RealtimeData(A5,"Close")</f>
-        <v>119.7</v>
+        <v>118.46</v>
       </c>
       <c r="H5" s="4">
         <v>35</v>
       </c>
       <c r="I5" s="4">
         <f>H5*G5</f>
-        <v>4189.5</v>
+        <v>4146.0999999999995</v>
       </c>
       <c r="J5" s="31">
         <f>_xll.RealtimeData(A5,"Last")</f>
-        <v>118.63</v>
+        <v>118.7</v>
       </c>
       <c r="K5" s="5">
         <f>J5/D5-1</f>
-        <v>-2.9959000374508049E-2</v>
+        <v>-2.9386608315384755E-2</v>
       </c>
       <c r="L5" s="8">
         <f t="array" ref="L5">_xll.RealtimeData(A5,"Change in Percent")</f>
-        <v>-8.9390142021721804E-3</v>
-      </c>
-      <c r="M5" s="29" t="str">
+        <v>2.0260003376667991E-3</v>
+      </c>
+      <c r="M5" s="29">
         <f>_xll.RealtimeData(A5,"Dividend Yield")</f>
-        <v>--</v>
+        <v>2.7</v>
       </c>
       <c r="N5" s="4" t="str">
         <f t="shared" si="0"/>
@@ -1967,7 +2108,7 @@
       </c>
       <c r="P5" s="60">
         <f t="shared" si="1"/>
-        <v>-0.21027952947978967</v>
+        <v>-0.20898671610449282</v>
       </c>
       <c r="Q5" s="31">
         <f>O5*Daily!$D$66</f>
@@ -1985,8 +2126,12 @@
         <f t="shared" si="4"/>
         <v>TLT</v>
       </c>
-    </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U5">
+        <f>_xll.RealtimeData(T5,"MTD Percent Change")</f>
+        <v>-0.29399412000000003</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>12</v>
       </c>
@@ -2003,16 +2148,16 @@
       <c r="I6" s="4"/>
       <c r="J6" s="31">
         <f>_xll.RealtimeData(A6,"Last")</f>
-        <v>39.44</v>
+        <v>39.4</v>
       </c>
       <c r="K6" s="5"/>
       <c r="L6" s="8">
         <f>_xll.RealtimeData(A6,"Change in Percent")</f>
-        <v>-7.5490689481631599E-3</v>
+        <v>-2.5316455696202788E-3</v>
       </c>
       <c r="M6" s="29">
         <f>_xll.RealtimeData(A6,"Dividend Yield")</f>
-        <v>3.64</v>
+        <v>3.65</v>
       </c>
       <c r="N6" s="4" t="str">
         <f t="shared" si="0"/>
@@ -2041,8 +2186,12 @@
         <f t="shared" si="4"/>
         <v>RWX</v>
       </c>
-    </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U6">
+        <f>_xll.RealtimeData(T6,"MTD Percent Change")</f>
+        <v>-0.40444893999999998</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>13</v>
       </c>
@@ -2059,16 +2208,16 @@
       <c r="I7" s="4"/>
       <c r="J7" s="31">
         <f>_xll.RealtimeData(A7,"Last")</f>
-        <v>58.829000000000001</v>
+        <v>58.555</v>
       </c>
       <c r="K7" s="5"/>
       <c r="L7" s="8">
         <f>_xll.RealtimeData(A7,"Change in Percent")</f>
-        <v>5.1084913719459928E-3</v>
+        <v>-6.0261415718892717E-3</v>
       </c>
       <c r="M7" s="29">
         <f>_xll.RealtimeData(A7,"Dividend Yield")</f>
-        <v>1.56</v>
+        <v>1.58</v>
       </c>
       <c r="N7" s="4" t="str">
         <f t="shared" si="0"/>
@@ -2097,8 +2246,12 @@
         <f t="shared" si="4"/>
         <v>EWJ</v>
       </c>
-    </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U7">
+        <f>_xll.RealtimeData(T7,"MTD Percent Change")</f>
+        <v>-0.72058325000000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>10</v>
       </c>
@@ -2115,12 +2268,12 @@
       <c r="I8" s="4"/>
       <c r="J8" s="31">
         <f>_xll.RealtimeData(A8,"Last")</f>
-        <v>115.44</v>
+        <v>114.85</v>
       </c>
       <c r="K8" s="5"/>
       <c r="L8" s="8">
         <f>_xll.RealtimeData(A8,"Change in Percent")</f>
-        <v>-4.7417880851797316E-3</v>
+        <v>-2.5186729199236234E-3</v>
       </c>
       <c r="M8" s="29">
         <v>0</v>
@@ -2152,8 +2305,12 @@
         <f t="shared" si="4"/>
         <v>GLD</v>
       </c>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U8">
+        <f>_xll.RealtimeData(T8,"MTD Percent Change")</f>
+        <v>-0.69174232999999996</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>11</v>
       </c>
@@ -2170,46 +2327,50 @@
       <c r="I9" s="4"/>
       <c r="J9" s="31">
         <f>_xll.RealtimeData(A9,"Last")</f>
-        <v>46.000100000000003</v>
+        <v>45.54</v>
       </c>
       <c r="K9" s="5"/>
       <c r="L9" s="8">
         <f>_xll.RealtimeData(A9,"Change in Percent")</f>
-        <v>-7.5490830636461273E-3</v>
+        <v>-1.0000000000000023E-2</v>
       </c>
       <c r="M9" s="29">
         <f>_xll.RealtimeData(A9,"Dividend Yield")</f>
-        <v>4.59</v>
+        <v>4.66</v>
       </c>
       <c r="N9" s="4" t="str">
         <f t="shared" si="0"/>
         <v>IEV</v>
       </c>
       <c r="O9" s="5">
-        <v>0.161</v>
+        <v>0</v>
       </c>
       <c r="P9" s="60">
         <f t="shared" si="1"/>
-        <v>0.161</v>
+        <v>0</v>
       </c>
       <c r="Q9" s="31">
         <f>O9*Daily!$D$66</f>
-        <v>3207.6835000000001</v>
+        <v>0</v>
       </c>
       <c r="R9">
         <f t="shared" si="2"/>
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="S9">
         <f t="shared" si="3"/>
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="T9" t="str">
         <f t="shared" si="4"/>
         <v>IEV</v>
       </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U9">
+        <f>_xll.RealtimeData(T9,"MTD Percent Change")</f>
+        <v>-1.34315425</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>18</v>
       </c>
@@ -2220,16 +2381,16 @@
       <c r="G10" s="4"/>
       <c r="J10" s="31">
         <f>_xll.RealtimeData(A10,"Last")</f>
-        <v>44.424999999999997</v>
+        <v>43.87</v>
       </c>
       <c r="K10" s="5"/>
       <c r="L10" s="8">
         <f t="array" ref="L10">_xll.RealtimeData(A10,"Change in Percent")</f>
-        <v>-9.6968345965225584E-3</v>
+        <v>-1.32703553756186E-2</v>
       </c>
       <c r="M10" s="29">
         <f>_xll.RealtimeData(A10,"Dividend Yield")</f>
-        <v>1.3</v>
+        <v>1.32</v>
       </c>
       <c r="N10" s="4" t="str">
         <f t="shared" si="0"/>
@@ -2258,28 +2419,32 @@
         <f t="shared" si="4"/>
         <v>EEM</v>
       </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U10">
+        <f>_xll.RealtimeData(T10,"MTD Percent Change")</f>
+        <v>-1.6808605999999999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>20</v>
       </c>
       <c r="B11" t="str">
         <f>_xll.RealtimeData(A11,"Description")</f>
-        <v>7-10 Year Treas Bond Ishares ETF</v>
+        <v>ISHARES TR-BARCLAYS 7 10 YR</v>
       </c>
       <c r="G11" s="4"/>
       <c r="J11" s="31">
         <f>_xll.RealtimeData(A11,"Last")</f>
-        <v>101.32</v>
+        <v>101.46</v>
       </c>
       <c r="K11" s="5"/>
       <c r="L11" s="8">
         <f t="array" ref="L11">_xll.RealtimeData(A11,"Change in Percent")</f>
-        <v>-4.5195519748477894E-3</v>
-      </c>
-      <c r="M11" s="29" t="str">
+        <v>1.1841326228536609E-3</v>
+      </c>
+      <c r="M11" s="29">
         <f>_xll.RealtimeData(A11,"Dividend Yield")</f>
-        <v>--</v>
+        <v>2.36</v>
       </c>
       <c r="N11" s="4" t="str">
         <f t="shared" si="0"/>
@@ -2308,29 +2473,92 @@
         <f t="shared" si="4"/>
         <v>IEF</v>
       </c>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="J12" s="31" t="str">
+      <c r="U11">
+        <f>_xll.RealtimeData(T11,"MTD Percent Change")</f>
+        <v>-0.17709563</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>85</v>
+      </c>
+      <c r="B12" t="str">
+        <f>_xll.RealtimeData(A12,"Description")</f>
+        <v>ISHARES TR-1 3 YR TREAS BD</v>
+      </c>
+      <c r="J12" s="31">
         <f>_xll.RealtimeData(A12,"Last")</f>
-        <v>--</v>
-      </c>
-      <c r="M12" s="8"/>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+        <v>83.094999999999999</v>
+      </c>
+      <c r="L12" s="8">
+        <f t="array" ref="L12">_xll.RealtimeData(A12,"Change in Percent")</f>
+        <v>4.2138213339750304E-4</v>
+      </c>
+      <c r="M12" s="29">
+        <f>_xll.RealtimeData(A12,"Dividend Yield")</f>
+        <v>1.99</v>
+      </c>
+      <c r="N12" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>SHY</v>
+      </c>
+      <c r="O12" s="5">
+        <v>9.9000000000000005E-2</v>
+      </c>
+      <c r="P12" s="60">
+        <f t="shared" si="1"/>
+        <v>9.9000000000000005E-2</v>
+      </c>
+      <c r="Q12" s="31">
+        <f>O12*Daily!$D$66</f>
+        <v>1972.4265</v>
+      </c>
+      <c r="R12">
+        <f t="shared" ref="R12" si="5">ROUND(Q12/J12,0)</f>
+        <v>24</v>
+      </c>
+      <c r="S12">
+        <f t="shared" ref="S12" si="6">R12-H12</f>
+        <v>24</v>
+      </c>
+      <c r="T12" t="str">
+        <f t="shared" si="4"/>
+        <v>SHY</v>
+      </c>
+      <c r="U12">
+        <f>_xll.RealtimeData(T12,"MTD Percent Change")</f>
+        <v>-0.11419642000000001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
       <c r="J13" s="31" t="str">
         <f>_xll.RealtimeData(A13,"Last")</f>
         <v>--</v>
       </c>
+      <c r="L13" s="8" t="str">
+        <f t="array" ref="L13">_xll.RealtimeData(A13,"Change in Percent")</f>
+        <v>--</v>
+      </c>
       <c r="M13" s="8"/>
     </row>
-    <row r="19" spans="5:15" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="20" spans="5:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="U14" s="29">
+        <f t="array" ref="U14">MMULT(TRANSPOSE(O2:O12),U2:U12)</f>
+        <v>0.89338818143999998</v>
+      </c>
+      <c r="V14" s="8">
+        <f>U14*0.01</f>
+        <v>8.9338818144E-3</v>
+      </c>
+    </row>
+    <row r="19" spans="5:16" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="20" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E20" t="s">
         <v>70</v>
       </c>
       <c r="F20" s="11">
         <f>SUM(F2:F5)</f>
-        <v>0.99521368756863748</v>
+        <v>0.99519332065128085</v>
       </c>
       <c r="H20" s="2" t="s">
         <v>14</v>
@@ -2339,41 +2567,45 @@
         <v>95.36</v>
       </c>
       <c r="O20" s="11">
-        <f>SUM(O2:O11)</f>
+        <f>SUM(O2:O12)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="5:15" x14ac:dyDescent="0.25">
+    <row r="21" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E21" t="s">
         <v>71</v>
       </c>
       <c r="F21" s="11">
         <f>1-F20</f>
-        <v>4.7863124313625161E-3</v>
+        <v>4.806679348719145E-3</v>
       </c>
       <c r="H21" s="2" t="s">
         <v>16</v>
       </c>
       <c r="I21" s="6">
         <f>SUM(I2:I20)</f>
-        <v>19923.48</v>
+        <v>19839.060000000001</v>
       </c>
       <c r="J21" t="s">
         <v>33</v>
       </c>
       <c r="K21" s="8">
         <f>SUMPRODUCT(K2:K7,F2:F7)</f>
-        <v>1.9409335944293671E-2</v>
+        <v>2.3913358033025755E-2</v>
       </c>
       <c r="M21" t="s">
         <v>34</v>
       </c>
       <c r="N21" s="8">
         <f t="array" ref="N21">MMULT(TRANSPOSE(F2:F5),L2:L5)</f>
-        <v>-5.3650265917399549E-3</v>
-      </c>
-    </row>
-    <row r="22" spans="5:15" x14ac:dyDescent="0.25">
+        <v>3.0515558700866053E-3</v>
+      </c>
+      <c r="P21" s="8">
+        <f t="array" ref="P21">SUMPRODUCT(L2:L12,O2:O12)</f>
+        <v>2.4596543664529721E-3</v>
+      </c>
+    </row>
+    <row r="22" spans="5:16" x14ac:dyDescent="0.25">
       <c r="H22" t="s">
         <v>17</v>
       </c>
@@ -2385,91 +2617,91 @@
       </c>
       <c r="K22" s="8">
         <f>_xll.RealtimeData(J22,"Change in Percent")</f>
-        <v>-2.3192360163711051E-3</v>
+        <v>-2.1875854525566997E-3</v>
       </c>
       <c r="L22" s="12">
         <v>0.6</v>
       </c>
     </row>
-    <row r="23" spans="5:15" x14ac:dyDescent="0.25">
+    <row r="23" spans="5:16" x14ac:dyDescent="0.25">
       <c r="J23" t="s">
         <v>23</v>
       </c>
       <c r="K23" s="8">
         <f>_xll.RealtimeData(J23,"Change in Percent")</f>
-        <v>-9.4517958412092913E-4</v>
+        <v>3.074739829706613E-4</v>
       </c>
       <c r="L23" s="12">
         <v>0.4</v>
       </c>
     </row>
-    <row r="24" spans="5:15" x14ac:dyDescent="0.25">
+    <row r="24" spans="5:16" x14ac:dyDescent="0.25">
       <c r="J24" t="s">
         <v>9</v>
       </c>
       <c r="K24" s="8">
         <f>_xll.RealtimeData(J24,"Change in Percent")</f>
-        <v>-1.0590228748939392E-3</v>
-      </c>
-    </row>
-    <row r="25" spans="5:15" x14ac:dyDescent="0.25">
+        <v>3.3936651583709701E-3</v>
+      </c>
+    </row>
+    <row r="25" spans="5:16" x14ac:dyDescent="0.25">
       <c r="J25" t="s">
         <v>57</v>
       </c>
       <c r="K25" s="8">
         <f t="array" ref="K25">SUMPRODUCT(K22:K23,L22:L23)</f>
-        <v>-1.7696134434710348E-3</v>
-      </c>
-    </row>
-    <row r="26" spans="5:15" x14ac:dyDescent="0.25">
+        <v>-1.1895616783457552E-3</v>
+      </c>
+    </row>
+    <row r="26" spans="5:16" x14ac:dyDescent="0.25">
       <c r="H26" t="s">
         <v>25</v>
       </c>
       <c r="I26" s="6">
         <f>SUM(I2:I18)</f>
-        <v>19828.12</v>
+        <v>19743.7</v>
       </c>
       <c r="J26" t="s">
         <v>56</v>
       </c>
       <c r="K26" s="8">
         <f>_xll.RealtimeData(J26,"Change in Percent")</f>
-        <v>-8.6797752808989888E-3</v>
+        <v>7.2778720996037908E-3</v>
       </c>
       <c r="L26" t="str">
         <f>_xll.RealtimeData(J26,"Description")</f>
         <v>ARROW ETF TR-ARROW DJ GLB YLD</v>
       </c>
     </row>
-    <row r="27" spans="5:15" x14ac:dyDescent="0.25">
+    <row r="27" spans="5:16" x14ac:dyDescent="0.25">
       <c r="J27" t="s">
         <v>62</v>
       </c>
       <c r="K27" s="8">
         <f>AVERAGE(L2:L11)</f>
-        <v>-5.7254010612052533E-3</v>
-      </c>
-    </row>
-    <row r="28" spans="5:15" x14ac:dyDescent="0.25">
+        <v>-1.9679171563960567E-3</v>
+      </c>
+    </row>
+    <row r="28" spans="5:16" x14ac:dyDescent="0.25">
       <c r="J28" t="s">
         <v>64</v>
       </c>
       <c r="K28" s="8">
         <f>SUMPRODUCT(F2:F7,M2:M7)*0.01</f>
-        <v>8.5423039549315672E-3</v>
+        <v>1.425566312113578E-2</v>
       </c>
       <c r="L28" t="s">
         <v>65</v>
       </c>
       <c r="M28" s="8">
         <f>AVERAGE(M2:M11)*0.01</f>
-        <v>1.9128571428571432E-2</v>
-      </c>
-    </row>
-    <row r="29" spans="5:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="30" spans="5:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>2.0644444444444444E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="5:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="30" spans="5:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H30" s="30">
-        <v>43312</v>
+        <v>43313</v>
       </c>
       <c r="I30" s="15" t="s">
         <v>61</v>
@@ -2484,46 +2716,46 @@
         <v>32</v>
       </c>
     </row>
-    <row r="31" spans="5:15" x14ac:dyDescent="0.25">
+    <row r="31" spans="5:16" x14ac:dyDescent="0.25">
       <c r="H31" s="18" t="s">
         <v>58</v>
       </c>
       <c r="I31" s="21">
         <f>$N$21</f>
-        <v>-5.3650265917399549E-3</v>
+        <v>3.0515558700866053E-3</v>
       </c>
       <c r="J31" s="21">
         <f>LOOKUP(2,1/(Daily!E:E&lt;&gt;""),Daily!E:E)</f>
-        <v>6.2078989605356405E-3</v>
+        <v>-4.2372073179913761E-3</v>
       </c>
       <c r="K31" s="22">
         <f>VLOOKUP($H$30,Daily!$A:$AF,7,0)</f>
-        <v>3.7857032016752612E-3</v>
+        <v>-4.675449256260622E-4</v>
       </c>
       <c r="L31" s="23">
         <f>VLOOKUP($H$30,Daily!$A:$AF,8,0)</f>
-        <v>-3.8250000000001894E-3</v>
-      </c>
-    </row>
-    <row r="32" spans="5:15" x14ac:dyDescent="0.25">
+        <v>-8.0460000000002196E-3</v>
+      </c>
+    </row>
+    <row r="32" spans="5:16" x14ac:dyDescent="0.25">
       <c r="H32" s="19" t="s">
         <v>59</v>
       </c>
       <c r="I32" s="24">
         <f>$K$25</f>
-        <v>-1.7696134434710348E-3</v>
+        <v>-1.1895616783457552E-3</v>
       </c>
       <c r="J32" s="24">
         <f>LOOKUP(2,1/(Daily!M:M&lt;&gt;""),Daily!M:M)</f>
-        <v>1.8990130025341224E-3</v>
+        <v>-2.6674082651354956E-3</v>
       </c>
       <c r="K32" s="14">
         <f>VLOOKUP($H$30,Daily!$A:$AF,25,0)</f>
-        <v>1.8243913577117965E-2</v>
+        <v>1.5527841346118398E-2</v>
       </c>
       <c r="L32" s="25">
         <f>VLOOKUP($H$30,Daily!$A:$AF,31,0)</f>
-        <v>1.2398039169946085E-2</v>
+        <v>9.6975602726572241E-3</v>
       </c>
     </row>
     <row r="33" spans="8:18" x14ac:dyDescent="0.25">
@@ -2532,19 +2764,19 @@
       </c>
       <c r="I33" s="24">
         <f>$K$24</f>
-        <v>-1.0590228748939392E-3</v>
+        <v>3.3936651583709701E-3</v>
       </c>
       <c r="J33" s="24">
         <f>LOOKUP(2,1/(Daily!L:L&lt;&gt;""),Daily!L:L)</f>
-        <v>5.3589807289633473E-3</v>
+        <v>-1.4120304998587185E-3</v>
       </c>
       <c r="K33" s="14">
         <f>VLOOKUP($H$30,Daily!$A:$AF,24,0)</f>
-        <v>3.7465665629005329E-2</v>
+        <v>3.6000732466580754E-2</v>
       </c>
       <c r="L33" s="25">
         <f>VLOOKUP($H$30,Daily!$A:$AF,30,0)</f>
-        <v>6.3818810365247947E-2</v>
+        <v>6.2316665758688661E-2</v>
       </c>
     </row>
     <row r="34" spans="8:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2553,19 +2785,19 @@
       </c>
       <c r="I34" s="26">
         <f>$K$26</f>
-        <v>-8.6797752808989888E-3</v>
+        <v>7.2778720996037908E-3</v>
       </c>
       <c r="J34" s="26">
         <f>LOOKUP(2,1/(Daily!N:N&lt;&gt;""),Daily!N:N)</f>
-        <v>9.9863822060828333E-3</v>
+        <v>-7.3033707865167719E-3</v>
       </c>
       <c r="K34" s="27">
         <f>VLOOKUP($H$30,Daily!$A:$AF,26,0)</f>
-        <v>2.2988505747126853E-2</v>
+        <v>1.5517241379310764E-2</v>
       </c>
       <c r="L34" s="28">
         <f>VLOOKUP($H$30,Daily!$A:$AF,32,0)</f>
-        <v>3.2317182280555024E-2</v>
+        <v>2.4777787129067974E-2</v>
       </c>
     </row>
     <row r="35" spans="8:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -2600,7 +2832,7 @@
       </c>
       <c r="I37" s="46">
         <f>AVERAGE(Daily!E$3:E380)</f>
-        <v>-4.6872319399454687E-5</v>
+        <v>-1.1133901168548424E-4</v>
       </c>
       <c r="J37" s="44"/>
       <c r="K37" s="22"/>
@@ -2608,23 +2840,23 @@
       <c r="M37" s="50"/>
       <c r="N37" s="38">
         <f>AVERAGE(Daily!J$3:J380)</f>
-        <v>3.0150403310139344E-4</v>
+        <v>2.6328381154061477E-4</v>
       </c>
       <c r="O37" s="22">
         <f>AVERAGE(Daily!K$3:K380)</f>
-        <v>4.5822163370923881E-5</v>
+        <v>-7.1028716088581822E-6</v>
       </c>
       <c r="P37" s="22">
         <f>AVERAGE(Daily!L$3:L380)</f>
-        <v>9.8504127565031039E-4</v>
+        <v>9.4816324833478689E-4</v>
       </c>
       <c r="Q37" s="22">
         <f>AVERAGE(Daily!M$3:M380)</f>
-        <v>1.9923128520920558E-4</v>
+        <v>1.5512913828082556E-4</v>
       </c>
       <c r="R37" s="23">
         <f>AVERAGE(Daily!N$3:N380)</f>
-        <v>5.3153540554503394E-4</v>
+        <v>4.1099838720562155E-4</v>
       </c>
     </row>
     <row r="38" spans="8:18" x14ac:dyDescent="0.25">
@@ -2633,7 +2865,7 @@
       </c>
       <c r="I38" s="47">
         <f>STDEV(Daily!E$3:E380)</f>
-        <v>5.1385923318745608E-3</v>
+        <v>5.1247134569516071E-3</v>
       </c>
       <c r="J38" s="45"/>
       <c r="K38" s="14"/>
@@ -2641,23 +2873,23 @@
       <c r="M38" s="51"/>
       <c r="N38" s="40">
         <f>STDEV(Daily!J$3:J380)</f>
-        <v>6.3131389887279487E-3</v>
+        <v>6.2711983904234917E-3</v>
       </c>
       <c r="O38" s="14">
         <f>STDEV(Daily!K$3:K380)</f>
-        <v>1.7731150536771641E-3</v>
+        <v>1.8102159634548203E-3</v>
       </c>
       <c r="P38" s="14">
         <f>STDEV(Daily!L$3:L380)</f>
-        <v>6.0348242128998135E-3</v>
+        <v>5.9948689785730052E-3</v>
       </c>
       <c r="Q38" s="14">
         <f>STDEV(Daily!M$3:M380)</f>
-        <v>3.683969677972472E-3</v>
+        <v>3.6723290685435122E-3</v>
       </c>
       <c r="R38" s="25">
         <f>STDEV(Daily!N$3:N380)</f>
-        <v>8.3657105425102903E-3</v>
+        <v>8.3567931483112135E-3</v>
       </c>
     </row>
     <row r="39" spans="8:18" x14ac:dyDescent="0.25">
@@ -2732,7 +2964,7 @@
       </c>
       <c r="I41" s="47">
         <f>SUMIF(Daily!E$3:E380,"&lt;0")</f>
-        <v>-0.12119874479131054</v>
+        <v>-0.12543595210930192</v>
       </c>
       <c r="J41" s="45"/>
       <c r="K41" s="14"/>
@@ -2740,23 +2972,23 @@
       <c r="M41" s="51"/>
       <c r="N41" s="40">
         <f>SUMIF(Daily!J$3:J380,"&lt;0")</f>
-        <v>-0.14780541383235707</v>
+        <v>-0.14998822420070629</v>
       </c>
       <c r="O41" s="14">
         <f>SUMIF(Daily!K$3:K380,"&lt;0")</f>
-        <v>-4.1760739202887906E-2</v>
+        <v>-4.5155044313202816E-2</v>
       </c>
       <c r="P41" s="14">
         <f>SUMIF(Daily!L$3:L380,"&lt;0")</f>
-        <v>-0.12248983195218606</v>
+        <v>-0.12390186245204478</v>
       </c>
       <c r="Q41" s="14">
         <f>SUMIF(Daily!M$3:M380,"&lt;0")</f>
-        <v>-8.5062541961776678E-2</v>
+        <v>-8.7729950226912171E-2</v>
       </c>
       <c r="R41" s="25">
         <f>SUMIF(Daily!N$3:N380,"&lt;0")</f>
-        <v>-0.1942604005586252</v>
+        <v>-0.20156377134514197</v>
       </c>
     </row>
     <row r="42" spans="8:18" x14ac:dyDescent="0.25">
@@ -2765,7 +2997,7 @@
       </c>
       <c r="I42" s="48">
         <f>COUNT(Daily!E$3:E380)</f>
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="J42" s="45"/>
       <c r="K42" s="14"/>
@@ -2773,23 +3005,23 @@
       <c r="M42" s="51"/>
       <c r="N42" s="41">
         <f>COUNT(Daily!J$3:J380)</f>
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="O42" s="33">
         <f>COUNT(Daily!K$3:K380)</f>
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="P42" s="33">
         <f>COUNT(Daily!L$3:L380)</f>
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="Q42" s="33">
         <f>COUNT(Daily!M$3:M380)</f>
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="R42" s="35">
         <f>COUNT(Daily!N$3:N380)</f>
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="43" spans="8:18" x14ac:dyDescent="0.25">
@@ -2798,7 +3030,7 @@
       </c>
       <c r="I43" s="48">
         <f>I42-I39</f>
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J43" s="45"/>
       <c r="K43" s="14"/>
@@ -2806,23 +3038,23 @@
       <c r="M43" s="51"/>
       <c r="N43" s="41">
         <f>N42-N39</f>
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="O43" s="33">
         <f>O42-O39</f>
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="P43" s="33">
         <f>P42-P39</f>
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="Q43" s="33">
         <f>Q42-Q39</f>
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="R43" s="35">
         <f>R42-R39</f>
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="44" spans="8:18" x14ac:dyDescent="0.25">
@@ -2831,7 +3063,7 @@
       </c>
       <c r="I44" s="49">
         <f>(I40/I41)*(I39/I43)*-1</f>
-        <v>1.2538911650321911</v>
+        <v>1.1697578468882366</v>
       </c>
       <c r="J44" s="45"/>
       <c r="K44" s="14"/>
@@ -2839,23 +3071,23 @@
       <c r="M44" s="51"/>
       <c r="N44" s="42">
         <f>(N40/N41)*(N39/N43)*-1</f>
-        <v>1.2034905919054479</v>
+        <v>1.1489141905481586</v>
       </c>
       <c r="O44" s="34">
         <f>(O40/O41)*(O39/O43)*-1</f>
-        <v>1.0702242946776268</v>
+        <v>0.95978232656681628</v>
       </c>
       <c r="P44" s="34">
         <f>(P40/P41)*(P39/P43)*-1</f>
-        <v>2.0756678370962307</v>
+        <v>1.9787266041264102</v>
       </c>
       <c r="Q44" s="34">
         <f>(Q40/Q41)*(Q39/Q43)*-1</f>
-        <v>1.3032190302244664</v>
+        <v>1.2228338377302548</v>
       </c>
       <c r="R44" s="36">
         <f>(R40/R41)*(R39/R43)*-1</f>
-        <v>1.6103452884797413</v>
+        <v>1.4965683077145584</v>
       </c>
     </row>
     <row r="45" spans="8:18" x14ac:dyDescent="0.25">
@@ -2864,7 +3096,7 @@
       </c>
       <c r="I45" s="62">
         <f>I39/I42</f>
-        <v>0.5625</v>
+        <v>0.55384615384615388</v>
       </c>
       <c r="J45" s="63"/>
       <c r="K45" s="64"/>
@@ -2872,23 +3104,23 @@
       <c r="M45" s="66"/>
       <c r="N45" s="67">
         <f>N39/N42</f>
-        <v>0.515625</v>
+        <v>0.50769230769230766</v>
       </c>
       <c r="O45" s="64">
         <f>O39/O42</f>
-        <v>0.5</v>
+        <v>0.49230769230769234</v>
       </c>
       <c r="P45" s="64">
         <f>P39/P42</f>
-        <v>0.578125</v>
+        <v>0.56923076923076921</v>
       </c>
       <c r="Q45" s="64">
         <f>Q39/Q42</f>
-        <v>0.53125</v>
+        <v>0.52307692307692311</v>
       </c>
       <c r="R45" s="68">
         <f>R39/R42</f>
-        <v>0.578125</v>
+        <v>0.56923076923076921</v>
       </c>
     </row>
     <row r="46" spans="8:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2942,7 +3174,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B24" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D66" sqref="D66"/>
+      <selection pane="bottomRight" activeCell="AH55" sqref="AH55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8957,7 +9189,7 @@
         <v>43291</v>
       </c>
       <c r="B51" s="4">
-        <f t="shared" ref="B51:B66" si="812">D51-C51</f>
+        <f t="shared" ref="B51:B67" si="812">D51-C51</f>
         <v>19902.79</v>
       </c>
       <c r="C51" s="4">
@@ -11129,33 +11361,140 @@
       </c>
     </row>
     <row r="67" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A67" s="9"/>
-      <c r="B67" s="4"/>
-      <c r="E67" s="5"/>
-      <c r="F67" s="10"/>
-      <c r="G67" s="5"/>
-      <c r="H67" s="8"/>
-      <c r="I67" s="8"/>
-      <c r="J67" s="11"/>
-      <c r="K67" s="11"/>
-      <c r="L67" s="11"/>
-      <c r="M67" s="11"/>
-      <c r="N67" s="11"/>
-      <c r="P67" s="10"/>
-      <c r="Q67" s="10"/>
-      <c r="R67" s="10"/>
-      <c r="S67" s="10"/>
-      <c r="T67" s="10"/>
-      <c r="V67" s="5"/>
-      <c r="W67" s="5"/>
-      <c r="X67" s="5"/>
-      <c r="Y67" s="5"/>
-      <c r="Z67" s="5"/>
-      <c r="AB67" s="8"/>
-      <c r="AC67" s="8"/>
-      <c r="AD67" s="8"/>
-      <c r="AE67" s="8"/>
-      <c r="AF67" s="8"/>
+      <c r="A67" s="9">
+        <v>43313</v>
+      </c>
+      <c r="B67" s="4">
+        <f t="shared" si="812"/>
+        <v>19743.699999999997</v>
+      </c>
+      <c r="C67" s="4">
+        <v>95.38</v>
+      </c>
+      <c r="D67" s="4">
+        <f>19805.92+33.16</f>
+        <v>19839.079999999998</v>
+      </c>
+      <c r="E67" s="5">
+        <f t="shared" ref="E67" si="1128">D67/D66-1</f>
+        <v>-4.2372073179913761E-3</v>
+      </c>
+      <c r="F67" s="10">
+        <f t="shared" ref="F67" si="1129">F66*(1+E67)</f>
+        <v>99.195399999999978</v>
+      </c>
+      <c r="G67" s="5">
+        <f t="shared" ref="G67" si="1130">F67/F$45-1</f>
+        <v>-4.675449256260622E-4</v>
+      </c>
+      <c r="H67" s="8">
+        <f t="shared" ref="H67" si="1131">F67/$F$2-1</f>
+        <v>-8.0460000000002196E-3</v>
+      </c>
+      <c r="J67" s="11">
+        <f>VLOOKUP($A67,Prices!$A:$J,MATCH(J$1,Prices!$1:$1,0),0)</f>
+        <v>-2.1828103683492195E-3</v>
+      </c>
+      <c r="K67" s="11">
+        <f>VLOOKUP($A67,Prices!$A:$J,MATCH(K$1,Prices!$1:$1,0),0)</f>
+        <v>-3.3943051103149102E-3</v>
+      </c>
+      <c r="L67" s="11">
+        <f>VLOOKUP($A67,Prices!$A:$J,MATCH(L$1,Prices!$1:$1,0),0)</f>
+        <v>-1.4120304998587185E-3</v>
+      </c>
+      <c r="M67" s="11">
+        <f t="shared" ref="M67" si="1132">0.6*J67 + 0.4*K67</f>
+        <v>-2.6674082651354956E-3</v>
+      </c>
+      <c r="N67" s="11">
+        <f>VLOOKUP($A67,Prices!$A:$J,MATCH(N$1,Prices!$1:$1,0),0)</f>
+        <v>-7.3033707865167719E-3</v>
+      </c>
+      <c r="P67" s="10">
+        <f t="shared" ref="P67" si="1133">P66*(1+J67)</f>
+        <v>101.59776475788028</v>
+      </c>
+      <c r="Q67" s="10">
+        <f t="shared" ref="Q67" si="1134">Q66*(1+K67)</f>
+        <v>99.943366139869326</v>
+      </c>
+      <c r="R67" s="10">
+        <f t="shared" ref="R67" si="1135">R66*(1+L67)</f>
+        <v>106.23166657586887</v>
+      </c>
+      <c r="S67" s="10">
+        <f t="shared" ref="S67" si="1136">S66*(1+M67)</f>
+        <v>100.96975602726572</v>
+      </c>
+      <c r="T67" s="10">
+        <f t="shared" ref="T67" si="1137">T66*(1+N67)</f>
+        <v>102.4777787129068</v>
+      </c>
+      <c r="V67" s="5">
+        <f t="shared" ref="V67" si="1138">P67/P$45-1</f>
+        <v>2.8402699662542163E-2</v>
+      </c>
+      <c r="W67" s="5">
+        <f t="shared" ref="W67" si="1139">Q67/Q$45-1</f>
+        <v>-3.6836370354456083E-3</v>
+      </c>
+      <c r="X67" s="5">
+        <f t="shared" ref="X67" si="1140">R67/R$45-1</f>
+        <v>3.6000732466580754E-2</v>
+      </c>
+      <c r="Y67" s="5">
+        <f t="shared" ref="Y67" si="1141">S67/S$45-1</f>
+        <v>1.5527841346118398E-2</v>
+      </c>
+      <c r="Z67" s="5">
+        <f t="shared" ref="Z67" si="1142">T67/T$45-1</f>
+        <v>1.5517241379310764E-2</v>
+      </c>
+      <c r="AB67" s="8">
+        <f t="shared" ref="AB67" si="1143">P67/$P$2-1</f>
+        <v>1.5977647578802934E-2</v>
+      </c>
+      <c r="AC67" s="8">
+        <f t="shared" ref="AC67" si="1144">Q67/$P$2-1</f>
+        <v>-5.663386013067262E-4</v>
+      </c>
+      <c r="AD67" s="8">
+        <f t="shared" ref="AD67" si="1145">R67/$P$2-1</f>
+        <v>6.2316665758688661E-2</v>
+      </c>
+      <c r="AE67" s="8">
+        <f t="shared" ref="AE67" si="1146">S67/$P$2-1</f>
+        <v>9.6975602726572241E-3</v>
+      </c>
+      <c r="AF67" s="8">
+        <f t="shared" ref="AF67" si="1147">T67/$T$2-1</f>
+        <v>2.4777787129067974E-2</v>
+      </c>
+      <c r="AI67" s="8">
+        <f t="shared" ref="AI67" si="1148">MIN(0,(F67-MAX(F38:F67))/MAX(F38:F67))</f>
+        <v>-7.9542357668084228E-3</v>
+      </c>
+      <c r="AJ67" s="8">
+        <f t="shared" ref="AJ67" si="1149">MIN(0,(P67-MAX(P38:P67))/MAX(P38:P67))</f>
+        <v>-1.0016242555495311E-2</v>
+      </c>
+      <c r="AK67" s="8">
+        <f t="shared" ref="AK67" si="1150">MIN(0,(Q67-MAX(Q38:Q67))/MAX(Q38:Q67))</f>
+        <v>-7.6049197258472867E-3</v>
+      </c>
+      <c r="AL67" s="8">
+        <f t="shared" ref="AL67" si="1151">MIN(0,(R67-MAX(R38:R67))/MAX(R38:R67))</f>
+        <v>-1.1531204137256525E-2</v>
+      </c>
+      <c r="AM67" s="8">
+        <f t="shared" ref="AM67" si="1152">MIN(0,(S67-MAX(S38:S67))/MAX(S38:S67))</f>
+        <v>-7.3683746455965064E-3</v>
+      </c>
+      <c r="AN67" s="8">
+        <f t="shared" ref="AN67" si="1153">MIN(0,(T67-MAX(T38:T67))/MAX(T38:T67))</f>
+        <v>-1.2297372833985406E-2</v>
+      </c>
     </row>
     <row r="68" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A68" s="9"/>
@@ -11183,10 +11522,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:J67"/>
+  <dimension ref="A1:J72"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="Q49" sqref="Q49"/>
+    <sheetView topLeftCell="A51" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="J83" sqref="J83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13625,6 +13964,179 @@
         <v>9.9863822060828333E-3</v>
       </c>
     </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A68" s="13">
+        <v>43313</v>
+      </c>
+      <c r="B68">
+        <f t="array" ref="B68">_xll.HistoricalData(B$1,"Adj. Close",$A68,$A68,"Daily","RemoveHeaders = True","ReverseOrder =True","RemoveDates =""True")</f>
+        <v>73.14</v>
+      </c>
+      <c r="C68">
+        <f t="array" ref="C68">_xll.HistoricalData(C$1,"Adj. Close",$A68,$A68,"Daily","RemoveHeaders = True","ReverseOrder =True","RemoveDates =""True")</f>
+        <v>105.7</v>
+      </c>
+      <c r="D68">
+        <f t="array" ref="D68">_xll.HistoricalData(D$1,"Adj. Close",$A68,$A68,"Daily","RemoveHeaders = True","ReverseOrder =True","RemoveDates =""True")</f>
+        <v>282.88</v>
+      </c>
+      <c r="E68">
+        <f t="array" ref="E68">_xll.HistoricalData(E$1,"Adj. Close",$A68,$A68,"Daily","RemoveHeaders = True","ReverseOrder =True","RemoveDates =""True")</f>
+        <v>17.670000000000002</v>
+      </c>
+      <c r="G68" s="5">
+        <f t="shared" ref="G68:G72" si="216">B68/B67-1</f>
+        <v>-2.1828103683492195E-3</v>
+      </c>
+      <c r="H68" s="5">
+        <f t="shared" ref="H68:H72" si="217">C68/C67-1</f>
+        <v>-3.3943051103149102E-3</v>
+      </c>
+      <c r="I68" s="5">
+        <f t="shared" ref="I68:I72" si="218">D68/D67-1</f>
+        <v>-1.4120304998587185E-3</v>
+      </c>
+      <c r="J68" s="5">
+        <f t="shared" ref="J68:J72" si="219">E68/E67-1</f>
+        <v>-7.3033707865167719E-3</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B69" t="str">
+        <f t="array" ref="B69">_xll.HistoricalData(B$1,"Adj. Close",$A69,$A69,"Daily","RemoveHeaders = True","ReverseOrder =True","RemoveDates =""True")</f>
+        <v>--</v>
+      </c>
+      <c r="C69" t="str">
+        <f t="array" ref="C69">_xll.HistoricalData(C$1,"Adj. Close",$A69,$A69,"Daily","RemoveHeaders = True","ReverseOrder =True","RemoveDates =""True")</f>
+        <v>--</v>
+      </c>
+      <c r="D69" t="str">
+        <f t="array" ref="D69">_xll.HistoricalData(D$1,"Adj. Close",$A69,$A69,"Daily","RemoveHeaders = True","ReverseOrder =True","RemoveDates =""True")</f>
+        <v>--</v>
+      </c>
+      <c r="E69" t="str">
+        <f t="array" ref="E69">_xll.HistoricalData(E$1,"Adj. Close",$A69,$A69,"Daily","RemoveHeaders = True","ReverseOrder =True","RemoveDates =""True")</f>
+        <v>--</v>
+      </c>
+      <c r="G69" s="5" t="e">
+        <f t="shared" si="216"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H69" s="5" t="e">
+        <f t="shared" si="217"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I69" s="5" t="e">
+        <f t="shared" si="218"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="J69" s="5" t="e">
+        <f t="shared" si="219"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B70" t="str">
+        <f t="array" ref="B70">_xll.HistoricalData(B$1,"Adj. Close",$A70,$A70,"Daily","RemoveHeaders = True","ReverseOrder =True","RemoveDates =""True")</f>
+        <v>--</v>
+      </c>
+      <c r="C70" t="str">
+        <f t="array" ref="C70">_xll.HistoricalData(C$1,"Adj. Close",$A70,$A70,"Daily","RemoveHeaders = True","ReverseOrder =True","RemoveDates =""True")</f>
+        <v>--</v>
+      </c>
+      <c r="D70" t="str">
+        <f t="array" ref="D70">_xll.HistoricalData(D$1,"Adj. Close",$A70,$A70,"Daily","RemoveHeaders = True","ReverseOrder =True","RemoveDates =""True")</f>
+        <v>--</v>
+      </c>
+      <c r="E70" t="str">
+        <f t="array" ref="E70">_xll.HistoricalData(E$1,"Adj. Close",$A70,$A70,"Daily","RemoveHeaders = True","ReverseOrder =True","RemoveDates =""True")</f>
+        <v>--</v>
+      </c>
+      <c r="G70" s="5" t="e">
+        <f t="shared" si="216"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H70" s="5" t="e">
+        <f t="shared" si="217"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I70" s="5" t="e">
+        <f t="shared" si="218"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="J70" s="5" t="e">
+        <f t="shared" si="219"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B71" t="str">
+        <f t="array" ref="B71">_xll.HistoricalData(B$1,"Adj. Close",$A71,$A71,"Daily","RemoveHeaders = True","ReverseOrder =True","RemoveDates =""True")</f>
+        <v>--</v>
+      </c>
+      <c r="C71" t="str">
+        <f t="array" ref="C71">_xll.HistoricalData(C$1,"Adj. Close",$A71,$A71,"Daily","RemoveHeaders = True","ReverseOrder =True","RemoveDates =""True")</f>
+        <v>--</v>
+      </c>
+      <c r="D71" t="str">
+        <f t="array" ref="D71">_xll.HistoricalData(D$1,"Adj. Close",$A71,$A71,"Daily","RemoveHeaders = True","ReverseOrder =True","RemoveDates =""True")</f>
+        <v>--</v>
+      </c>
+      <c r="E71" t="str">
+        <f t="array" ref="E71">_xll.HistoricalData(E$1,"Adj. Close",$A71,$A71,"Daily","RemoveHeaders = True","ReverseOrder =True","RemoveDates =""True")</f>
+        <v>--</v>
+      </c>
+      <c r="G71" s="5" t="e">
+        <f t="shared" si="216"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H71" s="5" t="e">
+        <f t="shared" si="217"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I71" s="5" t="e">
+        <f t="shared" si="218"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="J71" s="5" t="e">
+        <f t="shared" si="219"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B72" t="str">
+        <f t="array" ref="B72">_xll.HistoricalData(B$1,"Adj. Close",$A72,$A72,"Daily","RemoveHeaders = True","ReverseOrder =True","RemoveDates =""True")</f>
+        <v>--</v>
+      </c>
+      <c r="C72" t="str">
+        <f t="array" ref="C72">_xll.HistoricalData(C$1,"Adj. Close",$A72,$A72,"Daily","RemoveHeaders = True","ReverseOrder =True","RemoveDates =""True")</f>
+        <v>--</v>
+      </c>
+      <c r="D72" t="str">
+        <f t="array" ref="D72">_xll.HistoricalData(D$1,"Adj. Close",$A72,$A72,"Daily","RemoveHeaders = True","ReverseOrder =True","RemoveDates =""True")</f>
+        <v>--</v>
+      </c>
+      <c r="E72" t="str">
+        <f t="array" ref="E72">_xll.HistoricalData(E$1,"Adj. Close",$A72,$A72,"Daily","RemoveHeaders = True","ReverseOrder =True","RemoveDates =""True")</f>
+        <v>--</v>
+      </c>
+      <c r="G72" s="5" t="e">
+        <f t="shared" si="216"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H72" s="5" t="e">
+        <f t="shared" si="217"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I72" s="5" t="e">
+        <f t="shared" si="218"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="J72" s="5" t="e">
+        <f t="shared" si="219"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Portfolio.xlsx
+++ b/Portfolio.xlsx
@@ -9,12 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12135"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12135" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Portfolio" sheetId="1" r:id="rId1"/>
     <sheet name="Daily" sheetId="2" r:id="rId2"/>
     <sheet name="Prices" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="111">
   <si>
     <t>Symbol</t>
   </si>
@@ -285,14 +286,90 @@
   <si>
     <t>SHY</t>
   </si>
+  <si>
+    <t>ALGN</t>
+  </si>
+  <si>
+    <t>AMZN</t>
+  </si>
+  <si>
+    <t>CSCO</t>
+  </si>
+  <si>
+    <t>ISRG</t>
+  </si>
+  <si>
+    <t>MU</t>
+  </si>
+  <si>
+    <t>STX</t>
+  </si>
+  <si>
+    <t>Beg Value</t>
+  </si>
+  <si>
+    <t>Equity</t>
+  </si>
+  <si>
+    <t>GTAA</t>
+  </si>
+  <si>
+    <t>Ex Px</t>
+  </si>
+  <si>
+    <t>Weights</t>
+  </si>
+  <si>
+    <t>Shares</t>
+  </si>
+  <si>
+    <t>PnL</t>
+  </si>
+  <si>
+    <t>Pnl</t>
+  </si>
+  <si>
+    <t>GTAA MV</t>
+  </si>
+  <si>
+    <t>Total Portfolio</t>
+  </si>
+  <si>
+    <t>Current Wt</t>
+  </si>
+  <si>
+    <t>current wt</t>
+  </si>
+  <si>
+    <t>Tot Wt</t>
+  </si>
+  <si>
+    <t>Total Ret</t>
+  </si>
+  <si>
+    <t>Return</t>
+  </si>
+  <si>
+    <t>return</t>
+  </si>
+  <si>
+    <t>QQQE</t>
+  </si>
+  <si>
+    <t>GAL</t>
+  </si>
+  <si>
+    <t>QQQ</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="0.000"/>
+    <numFmt numFmtId="165" formatCode="0.0%"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -763,7 +840,7 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="71">
+  <cellXfs count="74">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -923,6 +1000,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -945,308 +1025,142 @@
 <file path=xl/volatileDependencies.xml><?xml version="1.0" encoding="utf-8"?>
 <volTypes xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <volType type="realTimeData">
-    <main first="rtdsrv.8e8a415e349149ca90766c03467d8c22">
+    <main first="rtdsrv.b680f398aee849e8bbd7e44ce06d14f2">
       <tp>
-        <v>1.99</v>
+        <v>0</v>
+        <stp/>
+        <stp>ACWI</stp>
+        <stp>change in percent</stp>
+        <tr r="K22" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.b680f398aee849e8bbd7e44ce06d14f2">
+      <tp>
+        <v>0.64156676999999995</v>
+        <stp/>
+        <stp>TLT</stp>
+        <stp>mtd percent change</stp>
+        <tr r="U5" s="1"/>
+      </tp>
+      <tp>
+        <v>7.2236939999999999E-2</v>
         <stp/>
         <stp>SHY</stp>
-        <stp>dividend yield</stp>
-        <tr r="M12" s="1"/>
+        <stp>mtd percent change</stp>
+        <tr r="U12" s="1"/>
       </tp>
       <tp>
-        <v>3.65</v>
+        <v>0.12658227999999999</v>
         <stp/>
         <stp>RWX</stp>
-        <stp>dividend yield</stp>
-        <tr r="M6" s="1"/>
+        <stp>mtd percent change</stp>
+        <tr r="U6" s="1"/>
       </tp>
       <tp>
-        <v>2.7</v>
+        <v>0.94386312000000006</v>
         <stp/>
-        <stp>TLT</stp>
-        <stp>dividend yield</stp>
-        <tr r="M5" s="1"/>
+        <stp>IVV</stp>
+        <stp>mtd percent change</stp>
+        <tr r="U3" s="1"/>
       </tp>
       <tp>
-        <v>0.49</v>
-        <stp/>
-        <stp>IYR</stp>
-        <stp>dividend yield</stp>
-        <tr r="M4" s="1"/>
-      </tp>
-      <tp>
-        <v>1.82</v>
-        <stp/>
-        <stp>IVV</stp>
-        <stp>dividend yield</stp>
-        <tr r="M3" s="1"/>
-      </tp>
-      <tp>
-        <v>2.36</v>
-        <stp/>
-        <stp>IEF</stp>
-        <stp>dividend yield</stp>
-        <tr r="M11" s="1"/>
-      </tp>
-      <tp>
-        <v>4.66</v>
-        <stp/>
-        <stp>IEV</stp>
-        <stp>dividend yield</stp>
-        <tr r="M9" s="1"/>
-      </tp>
-      <tp>
-        <v>1.58</v>
-        <stp/>
-        <stp>EWJ</stp>
-        <stp>dividend yield</stp>
-        <tr r="M7" s="1"/>
-      </tp>
-      <tp>
-        <v>1.32</v>
-        <stp/>
-        <stp>EEM</stp>
-        <stp>dividend yield</stp>
-        <tr r="M10" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>--</v>
-        <stp/>
-        <stp>DBC</stp>
-        <stp>dividend yield</stp>
-        <tr r="M2" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.8e8a415e349149ca90766c03467d8c22">
-      <tp>
-        <v>-6.0261415718892717E-3</v>
-        <stp/>
-        <stp>EWJ</stp>
-        <stp>change in percent</stp>
-        <tr r="L7" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.8e8a415e349149ca90766c03467d8c22">
-      <tp>
-        <v>2.0655983999999998</v>
+        <v>0.84641805999999997</v>
         <stp/>
         <stp>IYR</stp>
         <stp>mtd percent change</stp>
         <tr r="U4" s="1"/>
       </tp>
       <tp>
-        <v>0.73464172999999999</v>
-        <stp/>
-        <stp>IVV</stp>
-        <stp>mtd percent change</stp>
-        <tr r="U3" s="1"/>
-      </tp>
-      <tp>
-        <v>-1.34315425</v>
+        <v>-0.71739129999999995</v>
         <stp/>
         <stp>IEV</stp>
         <stp>mtd percent change</stp>
         <tr r="U9" s="1"/>
       </tp>
       <tp>
-        <v>-0.17709563</v>
+        <v>0.37497533</v>
         <stp/>
         <stp>IEF</stp>
         <stp>mtd percent change</stp>
         <tr r="U11" s="1"/>
       </tp>
       <tp>
-        <v>-0.69174232999999996</v>
+        <v>-0.19107173999999999</v>
         <stp/>
         <stp>GLD</stp>
         <stp>mtd percent change</stp>
         <tr r="U8" s="1"/>
       </tp>
+    </main>
+    <main first="rtdsrv.b680f398aee849e8bbd7e44ce06d14f2">
       <tp>
-        <v>-0.72058325000000001</v>
+        <v>-0.57715159000000005</v>
         <stp/>
         <stp>EWJ</stp>
         <stp>mtd percent change</stp>
         <tr r="U7" s="1"/>
       </tp>
       <tp>
-        <v>-1.6808605999999999</v>
+        <v>-0.56230318999999995</v>
         <stp/>
         <stp>EEM</stp>
         <stp>mtd percent change</stp>
         <tr r="U10" s="1"/>
       </tp>
       <tp>
-        <v>-1.2391930799999999</v>
+        <v>0.94117647000000004</v>
         <stp/>
         <stp>DBC</stp>
         <stp>mtd percent change</stp>
         <tr r="U2" s="1"/>
       </tp>
+    </main>
+    <main first="rtdsrv.b680f398aee849e8bbd7e44ce06d14f2">
       <tp>
-        <v>-0.11419642000000001</v>
-        <stp/>
-        <stp>SHY</stp>
-        <stp>mtd percent change</stp>
-        <tr r="U12" s="1"/>
-      </tp>
-      <tp>
-        <v>-0.40444893999999998</v>
-        <stp/>
-        <stp>RWX</stp>
-        <stp>mtd percent change</stp>
-        <tr r="U6" s="1"/>
-      </tp>
-      <tp>
-        <v>-0.29399412000000003</v>
-        <stp/>
-        <stp>TLT</stp>
-        <stp>mtd percent change</stp>
-        <tr r="U5" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.8e8a415e349149ca90766c03467d8c22">
-      <tp>
-        <v>-1.32703553756186E-2</v>
-        <stp/>
-        <stp>EEM</stp>
-        <stp>change in percent</stp>
-        <tr r="L10" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.8e8a415e349149ca90766c03467d8c22">
-      <tp>
-        <v>-2.1875854525566997E-3</v>
-        <stp/>
-        <stp>ACWI</stp>
-        <stp>change in percent</stp>
-        <tr r="K22" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.8e8a415e349149ca90766c03467d8c22">
-      <tp>
-        <v>7.2778720996037908E-3</v>
+        <v>0</v>
         <stp/>
         <stp>GYLD</stp>
         <stp>change in percent</stp>
         <tr r="K26" s="1"/>
       </tp>
-      <tp>
-        <v>7.9411764705883542E-3</v>
+    </main>
+    <main first="rtdsrv.b680f398aee849e8bbd7e44ce06d14f2">
+      <tp t="s">
+        <v>ISHARES TR-20 YR TR BD ETF</v>
         <stp/>
-        <stp>DBC</stp>
-        <stp>change in percent</stp>
-        <tr r="L2" s="1"/>
+        <stp>TLT</stp>
+        <stp>description</stp>
+        <tr r="B5" s="1"/>
       </tp>
     </main>
-    <main first="rtdsrv.8e8a415e349149ca90766c03467d8c22">
-      <tp>
-        <v>-2.5186729199236234E-3</v>
+    <main first="rtdsrv.b680f398aee849e8bbd7e44ce06d14f2">
+      <tp t="s">
+        <v>SPDR INDEX SHS FDS-DJ INTL RL ETF</v>
         <stp/>
-        <stp>GLD</stp>
-        <stp>change in percent</stp>
-        <tr r="L8" s="1"/>
+        <stp>RWX</stp>
+        <stp>description</stp>
+        <tr r="B6" s="1"/>
       </tp>
     </main>
-    <main first="rtdsrv.8e8a415e349149ca90766c03467d8c22">
+    <main first="rtdsrv.b680f398aee849e8bbd7e44ce06d14f2">
       <tp>
-        <v>1.1841326228536609E-3</v>
+        <v>52.81</v>
         <stp/>
-        <stp>IEF</stp>
-        <stp>change in percent</stp>
-        <tr r="L11" s="1"/>
+        <stp>MU</stp>
+        <stp>last</stp>
+        <tr r="C9" s="4"/>
       </tp>
     </main>
-    <main first="rtdsrv.8e8a415e349149ca90766c03467d8c22">
-      <tp>
-        <v>3.074739829706613E-4</v>
+    <main first="rtdsrv.b680f398aee849e8bbd7e44ce06d14f2">
+      <tp t="s">
+        <v>ISHARES TR-1 3 YR TREAS BD</v>
         <stp/>
-        <stp>AGG</stp>
-        <stp>change in percent</stp>
-        <tr r="K23" s="1"/>
+        <stp>SHY</stp>
+        <stp>description</stp>
+        <tr r="B12" s="1"/>
       </tp>
     </main>
-    <main first="rtdsrv.8e8a415e349149ca90766c03467d8c22">
-      <tp>
-        <v>-2.5316455696202788E-3</v>
-        <stp/>
-        <stp>RWX</stp>
-        <stp>change in percent</stp>
-        <tr r="L6" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.8e8a415e349149ca90766c03467d8c22">
-      <tp>
-        <v>4.2138213339750304E-4</v>
-        <stp/>
-        <stp>SHY</stp>
-        <stp>change in percent</stp>
-        <tr r="L12" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.8e8a415e349149ca90766c03467d8c22">
-      <tp>
-        <v>1.2266928361144629E-4</v>
-        <stp/>
-        <stp>IYR</stp>
-        <stp>change in percent</stp>
-        <tr r="L4" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.8e8a415e349149ca90766c03467d8c22">
-      <tp>
-        <v>2.0260003376667991E-3</v>
-        <stp/>
-        <stp>TLT</stp>
-        <stp>change in percent</stp>
-        <tr r="L5" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.8e8a415e349149ca90766c03467d8c22">
-      <tp>
-        <v>-1.0000000000000023E-2</v>
-        <stp/>
-        <stp>IEV</stp>
-        <stp>change in percent</stp>
-        <tr r="L9" s="1"/>
-      </tp>
-      <tp>
-        <v>3.3936651583709701E-3</v>
-        <stp/>
-        <stp>IVV</stp>
-        <stp>change in percent</stp>
-        <tr r="K24" s="1"/>
-        <tr r="L3" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.8e8a415e349149ca90766c03467d8c22">
-      <tp>
-        <v>114.85</v>
-        <stp/>
-        <stp>GLD</stp>
-        <stp>last</stp>
-        <tr r="J8" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.8e8a415e349149ca90766c03467d8c22">
-      <tp>
-        <v>118.7</v>
-        <stp/>
-        <stp>TLT</stp>
-        <stp>last</stp>
-        <tr r="J5" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.8e8a415e349149ca90766c03467d8c22">
-      <tp>
-        <v>81.52</v>
-        <stp/>
-        <stp>IYR</stp>
-        <stp>close</stp>
-        <tr r="G4" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.8e8a415e349149ca90766c03467d8c22">
+    <main first="rtdsrv.b680f398aee849e8bbd7e44ce06d14f2">
       <tp t="s">
         <v>ISHARES TR-EUROPE ETF</v>
         <stp/>
@@ -1262,7 +1176,14 @@
         <tr r="B11" s="1"/>
       </tp>
     </main>
-    <main first="rtdsrv.8e8a415e349149ca90766c03467d8c22">
+    <main first="rtdsrv.b680f398aee849e8bbd7e44ce06d14f2">
+      <tp t="s">
+        <v>ISHARES TR-CORE S&amp;P500 ETF</v>
+        <stp/>
+        <stp>IVV</stp>
+        <stp>description</stp>
+        <tr r="B3" s="1"/>
+      </tp>
       <tp t="s">
         <v>ISHARES TR-U.S. REAL ES ETF</v>
         <stp/>
@@ -1270,67 +1191,213 @@
         <stp>description</stp>
         <tr r="B4" s="1"/>
       </tp>
+    </main>
+    <main first="rtdsrv.b680f398aee849e8bbd7e44ce06d14f2">
       <tp t="s">
-        <v>ISHARES TR-CORE S&amp;P500 ETF</v>
+        <v>INVESCO DB COMMDY INDX TRCK-UNIT</v>
+        <stp/>
+        <stp>DBC</stp>
+        <stp>description</stp>
+        <tr r="B2" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.b680f398aee849e8bbd7e44ce06d14f2">
+      <tp t="s">
+        <v>ISHARES TR-MSCI EMG MKT ETF</v>
+        <stp/>
+        <stp>EEM</stp>
+        <stp>description</stp>
+        <tr r="B10" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.b680f398aee849e8bbd7e44ce06d14f2">
+      <tp t="s">
+        <v>ISHARES INC-MSCI JPN ETF NEW</v>
+        <stp/>
+        <stp>EWJ</stp>
+        <stp>description</stp>
+        <tr r="B7" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.b680f398aee849e8bbd7e44ce06d14f2">
+      <tp t="s">
+        <v>SPDR GOLD TRUST-GOLD SHS</v>
+        <stp/>
+        <stp>GLD</stp>
+        <stp>description</stp>
+        <tr r="B8" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.b680f398aee849e8bbd7e44ce06d14f2">
+      <tp>
+        <v>0</v>
+        <stp/>
+        <stp>DBC</stp>
+        <stp>change in percent</stp>
+        <tr r="L2" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.b680f398aee849e8bbd7e44ce06d14f2">
+      <tp>
+        <v>0</v>
+        <stp/>
+        <stp>IEF</stp>
+        <stp>change in percent</stp>
+        <tr r="L11" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.b680f398aee849e8bbd7e44ce06d14f2">
+      <tp>
+        <v>0</v>
+        <stp/>
+        <stp>AGG</stp>
+        <stp>change in percent</stp>
+        <tr r="K23" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.b680f398aee849e8bbd7e44ce06d14f2">
+      <tp>
+        <v>0</v>
+        <stp/>
+        <stp>GLD</stp>
+        <stp>change in percent</stp>
+        <tr r="L8" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.b680f398aee849e8bbd7e44ce06d14f2">
+      <tp>
+        <v>0</v>
+        <stp/>
+        <stp>EWJ</stp>
+        <stp>change in percent</stp>
+        <tr r="L7" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.b680f398aee849e8bbd7e44ce06d14f2">
+      <tp>
+        <v>0</v>
+        <stp/>
+        <stp>EEM</stp>
+        <stp>change in percent</stp>
+        <tr r="L10" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.b680f398aee849e8bbd7e44ce06d14f2">
+      <tp>
+        <v>0</v>
+        <stp/>
+        <stp>IYR</stp>
+        <stp>change in percent</stp>
+        <tr r="L4" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.b680f398aee849e8bbd7e44ce06d14f2">
+      <tp>
+        <v>0</v>
+        <stp/>
+        <stp>IEV</stp>
+        <stp>change in percent</stp>
+        <tr r="L9" s="1"/>
+      </tp>
+      <tp>
+        <v>0</v>
         <stp/>
         <stp>IVV</stp>
-        <stp>description</stp>
-        <tr r="B3" s="1"/>
+        <stp>change in percent</stp>
+        <tr r="K24" s="1"/>
+        <tr r="L3" s="1"/>
       </tp>
     </main>
-    <main first="rtdsrv.8e8a415e349149ca90766c03467d8c22">
+    <main first="rtdsrv.b680f398aee849e8bbd7e44ce06d14f2">
       <tp>
-        <v>83.094999999999999</v>
+        <v>0</v>
+        <stp/>
+        <stp>TLT</stp>
+        <stp>change in percent</stp>
+        <tr r="L5" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.b680f398aee849e8bbd7e44ce06d14f2">
+      <tp>
+        <v>0</v>
+        <stp/>
+        <stp>RWX</stp>
+        <stp>change in percent</stp>
+        <tr r="L6" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.b680f398aee849e8bbd7e44ce06d14f2">
+      <tp>
+        <v>0</v>
         <stp/>
         <stp>SHY</stp>
-        <stp>last</stp>
-        <tr r="J12" s="1"/>
+        <stp>change in percent</stp>
+        <tr r="L12" s="1"/>
       </tp>
     </main>
-    <main first="rtdsrv.8e8a415e349149ca90766c03467d8c22">
+    <main first="rtdsrv.b680f398aee849e8bbd7e44ce06d14f2">
       <tp>
-        <v>282.88</v>
+        <v>38.303100000000001</v>
         <stp/>
-        <stp>IVV</stp>
-        <stp>close</stp>
-        <tr r="G3" s="1"/>
+        <stp>GAL</stp>
+        <stp>last</stp>
+        <tr r="C37" s="4"/>
       </tp>
     </main>
-    <main first="rtdsrv.8e8a415e349149ca90766c03467d8c22">
+    <main first="rtdsrv.b680f398aee849e8bbd7e44ce06d14f2">
       <tp>
-        <v>118.46</v>
+        <v>17.16</v>
         <stp/>
-        <stp>TLT</stp>
-        <stp>close</stp>
-        <tr r="G5" s="1"/>
+        <stp>DBC</stp>
+        <stp>last</stp>
+        <tr r="J2" s="1"/>
+        <tr r="C20" s="4"/>
       </tp>
     </main>
-    <main first="rtdsrv.8e8a415e349149ca90766c03467d8c22">
+    <main first="rtdsrv.b680f398aee849e8bbd7e44ce06d14f2">
       <tp>
-        <v>43.87</v>
+        <v>101.72</v>
+        <stp/>
+        <stp>IEF</stp>
+        <stp>last</stp>
+        <tr r="J11" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.b680f398aee849e8bbd7e44ce06d14f2">
+      <tp>
+        <v>44.21</v>
         <stp/>
         <stp>EEM</stp>
         <stp>last</stp>
         <tr r="J10" s="1"/>
       </tp>
       <tp>
-        <v>101.46</v>
-        <stp/>
-        <stp>IEF</stp>
-        <stp>last</stp>
-        <tr r="J11" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.8e8a415e349149ca90766c03467d8c22">
-      <tp>
-        <v>45.54</v>
+        <v>45.67</v>
         <stp/>
         <stp>IEV</stp>
         <stp>last</stp>
         <tr r="J9" s="1"/>
       </tp>
     </main>
-    <main first="rtdsrv.8e8a415e349149ca90766c03467d8c22">
+    <main first="rtdsrv.b680f398aee849e8bbd7e44ce06d14f2">
+      <tp>
+        <v>522.6</v>
+        <stp/>
+        <stp>ISRG</stp>
+        <stp>last</stp>
+        <tr r="C8" s="4"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.b680f398aee849e8bbd7e44ce06d14f2">
+      <tp>
+        <v>46.82</v>
+        <stp/>
+        <stp>QQQE</stp>
+        <stp>last</stp>
+        <tr r="C40" s="4"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.b680f398aee849e8bbd7e44ce06d14f2">
       <tp t="s">
         <v>ARROW ETF TR-ARROW DJ GLB YLD</v>
         <stp/>
@@ -1339,117 +1406,224 @@
         <tr r="L26" s="1"/>
       </tp>
     </main>
-    <main first="rtdsrv.8e8a415e349149ca90766c03467d8c22">
+    <main first="rtdsrv.b680f398aee849e8bbd7e44ce06d14f2">
+      <tp>
+        <v>83.12</v>
+        <stp/>
+        <stp>SHY</stp>
+        <stp>last</stp>
+        <tr r="J12" s="1"/>
+        <tr r="C23" s="4"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.b680f398aee849e8bbd7e44ce06d14f2">
+      <tp>
+        <v>82.21</v>
+        <stp/>
+        <stp>IYR</stp>
+        <stp>close</stp>
+        <tr r="G4" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.b680f398aee849e8bbd7e44ce06d14f2">
+      <tp>
+        <v>1823.29</v>
+        <stp/>
+        <stp>AMZN</stp>
+        <stp>last</stp>
+        <tr r="C6" s="4"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.b680f398aee849e8bbd7e44ce06d14f2">
+      <tp>
+        <v>114.92</v>
+        <stp/>
+        <stp>GLD</stp>
+        <stp>last</stp>
+        <tr r="J8" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.b680f398aee849e8bbd7e44ce06d14f2">
+      <tp>
+        <v>119.22</v>
+        <stp/>
+        <stp>TLT</stp>
+        <stp>last</stp>
+        <tr r="J5" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.b680f398aee849e8bbd7e44ce06d14f2">
+      <tp>
+        <v>119.22</v>
+        <stp/>
+        <stp>TLT</stp>
+        <stp>close</stp>
+        <tr r="G5" s="1"/>
+      </tp>
+      <tp>
+        <v>1.79</v>
+        <stp/>
+        <stp>IVV</stp>
+        <stp>dividend yield</stp>
+        <tr r="M3" s="1"/>
+      </tp>
+      <tp>
+        <v>0.49</v>
+        <stp/>
+        <stp>IYR</stp>
+        <stp>dividend yield</stp>
+        <tr r="M4" s="1"/>
+      </tp>
+      <tp>
+        <v>2.36</v>
+        <stp/>
+        <stp>IEF</stp>
+        <stp>dividend yield</stp>
+        <tr r="M11" s="1"/>
+      </tp>
+      <tp>
+        <v>4.63</v>
+        <stp/>
+        <stp>IEV</stp>
+        <stp>dividend yield</stp>
+        <tr r="M9" s="1"/>
+      </tp>
+      <tp>
+        <v>1.57</v>
+        <stp/>
+        <stp>EWJ</stp>
+        <stp>dividend yield</stp>
+        <tr r="M7" s="1"/>
+      </tp>
+      <tp>
+        <v>1.31</v>
+        <stp/>
+        <stp>EEM</stp>
+        <stp>dividend yield</stp>
+        <tr r="M10" s="1"/>
+      </tp>
       <tp t="s">
-        <v>INVESCO DB COMMDY INDX TRCK-UNIT</v>
+        <v>--</v>
         <stp/>
         <stp>DBC</stp>
-        <stp>description</stp>
-        <tr r="B2" s="1"/>
+        <stp>dividend yield</stp>
+        <tr r="M2" s="1"/>
       </tp>
     </main>
-    <main first="rtdsrv.8e8a415e349149ca90766c03467d8c22">
-      <tp t="s">
-        <v>ISHARES TR-MSCI EMG MKT ETF</v>
+    <main first="rtdsrv.b680f398aee849e8bbd7e44ce06d14f2">
+      <tp>
+        <v>2.69</v>
         <stp/>
-        <stp>EEM</stp>
-        <stp>description</stp>
-        <tr r="B10" s="1"/>
+        <stp>TLT</stp>
+        <stp>dividend yield</stp>
+        <tr r="M5" s="1"/>
+      </tp>
+      <tp>
+        <v>1.99</v>
+        <stp/>
+        <stp>SHY</stp>
+        <stp>dividend yield</stp>
+        <tr r="M12" s="1"/>
+      </tp>
+      <tp>
+        <v>3.63</v>
+        <stp/>
+        <stp>RWX</stp>
+        <stp>dividend yield</stp>
+        <tr r="M6" s="1"/>
       </tp>
     </main>
-    <main first="rtdsrv.8e8a415e349149ca90766c03467d8c22">
-      <tp t="s">
-        <v>ISHARES INC-MSCI JPN ETF NEW</v>
+    <main first="rtdsrv.b680f398aee849e8bbd7e44ce06d14f2">
+      <tp>
+        <v>285.55</v>
         <stp/>
-        <stp>EWJ</stp>
-        <stp>description</stp>
-        <tr r="B7" s="1"/>
+        <stp>IVV</stp>
+        <stp>close</stp>
+        <tr r="G3" s="1"/>
       </tp>
     </main>
-    <main first="rtdsrv.8e8a415e349149ca90766c03467d8c22">
+    <main first="rtdsrv.b680f398aee849e8bbd7e44ce06d14f2">
       <tp>
-        <v>17.135000000000002</v>
+        <v>363.51</v>
         <stp/>
-        <stp>DBC</stp>
+        <stp>ALGN</stp>
         <stp>last</stp>
-        <tr r="J2" s="1"/>
+        <tr r="C5" s="4"/>
       </tp>
     </main>
-    <main first="rtdsrv.8e8a415e349149ca90766c03467d8c22">
-      <tp t="s">
-        <v>SPDR GOLD TRUST-GOLD SHS</v>
+    <main first="rtdsrv.b680f398aee849e8bbd7e44ce06d14f2">
+      <tp>
+        <v>180.08</v>
         <stp/>
-        <stp>GLD</stp>
-        <stp>description</stp>
-        <tr r="B8" s="1"/>
+        <stp>QQQ</stp>
+        <stp>last</stp>
+        <tr r="C39" s="4"/>
       </tp>
     </main>
-    <main first="rtdsrv.8e8a415e349149ca90766c03467d8c22">
+    <main first="rtdsrv.b680f398aee849e8bbd7e44ce06d14f2">
       <tp>
-        <v>17</v>
+        <v>42.83</v>
         <stp/>
-        <stp>DBC</stp>
-        <stp>close</stp>
-        <tr r="G2" s="1"/>
+        <stp>CSCO</stp>
+        <stp>last</stp>
+        <tr r="C7" s="4"/>
       </tp>
     </main>
-    <main first="rtdsrv.8e8a415e349149ca90766c03467d8c22">
+    <main first="rtdsrv.b680f398aee849e8bbd7e44ce06d14f2">
       <tp>
-        <v>81.53</v>
+        <v>53.88</v>
         <stp/>
-        <stp>IYR</stp>
+        <stp>STX</stp>
         <stp>last</stp>
-        <tr r="J4" s="1"/>
+        <tr r="C10" s="4"/>
       </tp>
     </main>
-    <main first="rtdsrv.8e8a415e349149ca90766c03467d8c22">
+    <main first="rtdsrv.b680f398aee849e8bbd7e44ce06d14f2">
       <tp>
-        <v>283.83999999999997</v>
-        <stp/>
-        <stp>IVV</stp>
-        <stp>last</stp>
-        <tr r="J3" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>SPDR INDEX SHS FDS-DJ INTL RL ETF</v>
-        <stp/>
-        <stp>RWX</stp>
-        <stp>description</stp>
-        <tr r="B6" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.8e8a415e349149ca90766c03467d8c22">
-      <tp>
-        <v>58.555</v>
+        <v>58.57</v>
         <stp/>
         <stp>EWJ</stp>
         <stp>last</stp>
         <tr r="J7" s="1"/>
       </tp>
-      <tp t="s">
-        <v>ISHARES TR-1 3 YR TREAS BD</v>
-        <stp/>
-        <stp>SHY</stp>
-        <stp>description</stp>
-        <tr r="B12" s="1"/>
-      </tp>
     </main>
-    <main first="rtdsrv.8e8a415e349149ca90766c03467d8c22">
+    <main first="rtdsrv.b680f398aee849e8bbd7e44ce06d14f2">
       <tp>
-        <v>39.4</v>
+        <v>39.549999999999997</v>
         <stp/>
         <stp>RWX</stp>
         <stp>last</stp>
         <tr r="J6" s="1"/>
       </tp>
     </main>
-    <main first="rtdsrv.8e8a415e349149ca90766c03467d8c22">
-      <tp t="s">
-        <v>ISHARES TR-20 YR TR BD ETF</v>
+    <main first="rtdsrv.b680f398aee849e8bbd7e44ce06d14f2">
+      <tp>
+        <v>285.55</v>
         <stp/>
-        <stp>TLT</stp>
-        <stp>description</stp>
-        <tr r="B5" s="1"/>
+        <stp>IVV</stp>
+        <stp>last</stp>
+        <tr r="C38" s="4"/>
+        <tr r="J3" s="1"/>
+        <tr r="C21" s="4"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.b680f398aee849e8bbd7e44ce06d14f2">
+      <tp>
+        <v>82.21</v>
+        <stp/>
+        <stp>IYR</stp>
+        <stp>last</stp>
+        <tr r="J4" s="1"/>
+        <tr r="C22" s="4"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.b680f398aee849e8bbd7e44ce06d14f2">
+      <tp>
+        <v>17.16</v>
+        <stp/>
+        <stp>DBC</stp>
+        <stp>close</stp>
+        <tr r="G2" s="1"/>
       </tp>
     </main>
   </volType>
@@ -1722,8 +1896,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:V46"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B33" sqref="B33"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="O30" sqref="O30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1823,34 +1997,34 @@
       </c>
       <c r="E2" s="5">
         <f>G2/D2-1</f>
-        <v>-4.6380731595386471E-2</v>
+        <v>-3.7405491422166537E-2</v>
       </c>
       <c r="F2" s="5">
         <f>I2/$I$21</f>
-        <v>0.15081359701518116</v>
+        <v>0.1509437734244079</v>
       </c>
       <c r="G2" s="4">
         <f>_xll.RealtimeData(A2,"Close")</f>
-        <v>17</v>
+        <v>17.16</v>
       </c>
       <c r="H2" s="4">
         <v>176</v>
       </c>
       <c r="I2" s="4">
         <f>H2*G2</f>
-        <v>2992</v>
+        <v>3020.16</v>
       </c>
       <c r="J2" s="4">
         <f>_xll.RealtimeData(A2,"Last")</f>
-        <v>17.135000000000002</v>
+        <v>17.16</v>
       </c>
       <c r="K2" s="5">
         <f>J2/D2-1</f>
-        <v>-3.8807872699232138E-2</v>
+        <v>-3.7405491422166537E-2</v>
       </c>
       <c r="L2" s="8">
         <f>_xll.RealtimeData(A2,"Change in Percent")</f>
-        <v>7.9411764705883542E-3</v>
+        <v>0</v>
       </c>
       <c r="M2" s="29" t="str">
         <f>_xll.RealtimeData(A2,"Dividend Yield")</f>
@@ -1865,11 +2039,11 @@
       </c>
       <c r="P2" s="60">
         <f t="shared" ref="P2:P12" si="1">O2-F2</f>
-        <v>-8.8135970151811682E-3</v>
+        <v>-8.9437734244079137E-3</v>
       </c>
       <c r="Q2" s="31">
-        <f>O2*Daily!$D$66</f>
-        <v>2829.1369999999997</v>
+        <f>O2*Daily!$D$68</f>
+        <v>2823.9823999999999</v>
       </c>
       <c r="R2">
         <f t="shared" ref="R2:R11" si="2">ROUND(Q2/J2,0)</f>
@@ -1885,7 +2059,7 @@
       </c>
       <c r="U2">
         <f>_xll.RealtimeData(T2,"MTD Percent Change")</f>
-        <v>-1.2391930799999999</v>
+        <v>0.94117647000000004</v>
       </c>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.25">
@@ -1904,38 +2078,38 @@
       </c>
       <c r="E3" s="5">
         <f>G3/D3-1</f>
-        <v>6.202331810954731E-2</v>
+        <v>7.2047364558050164E-2</v>
       </c>
       <c r="F3" s="5">
         <f>I3/$I$21</f>
-        <v>0.413503462361624</v>
+        <v>0.41387139772027004</v>
       </c>
       <c r="G3" s="4">
         <f>_xll.RealtimeData(A3,"Close")</f>
-        <v>282.88</v>
+        <v>285.55</v>
       </c>
       <c r="H3" s="4">
         <v>29</v>
       </c>
       <c r="I3" s="4">
         <f>H3*G3</f>
-        <v>8203.52</v>
+        <v>8280.9500000000007</v>
       </c>
       <c r="J3" s="4">
         <f>_xll.RealtimeData(A3,"Last")</f>
-        <v>283.83999999999997</v>
+        <v>285.55</v>
       </c>
       <c r="K3" s="5">
         <f>J3/D3-1</f>
-        <v>6.5627469641593272E-2</v>
+        <v>7.2047364558050164E-2</v>
       </c>
       <c r="L3" s="8">
         <f>_xll.RealtimeData(A3,"Change in Percent")</f>
-        <v>3.3936651583709701E-3</v>
+        <v>0</v>
       </c>
       <c r="M3" s="29">
         <f>_xll.RealtimeData(A3,"Dividend Yield")</f>
-        <v>1.82</v>
+        <v>1.79</v>
       </c>
       <c r="N3" s="4" t="str">
         <f t="shared" si="0"/>
@@ -1946,19 +2120,19 @@
       </c>
       <c r="P3" s="60">
         <f t="shared" si="1"/>
-        <v>-4.7503462361624005E-2</v>
+        <v>-4.7871397720270048E-2</v>
       </c>
       <c r="Q3" s="31">
-        <f>O3*Daily!$D$66</f>
-        <v>7292.0010000000002</v>
+        <f>O3*Daily!$D$68</f>
+        <v>7278.7152000000006</v>
       </c>
       <c r="R3">
         <f t="shared" si="2"/>
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="S3">
         <f t="shared" si="3"/>
-        <v>-3</v>
+        <v>-4</v>
       </c>
       <c r="T3" t="str">
         <f t="shared" si="4"/>
@@ -1966,7 +2140,7 @@
       </c>
       <c r="U3">
         <f>_xll.RealtimeData(T3,"MTD Percent Change")</f>
-        <v>0.73464172999999999</v>
+        <v>0.94386312000000006</v>
       </c>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.25">
@@ -1985,34 +2159,34 @@
       </c>
       <c r="E4" s="5">
         <f>G4/D4-1</f>
-        <v>3.9398189468315525E-2</v>
+        <v>4.8195843427259799E-2</v>
       </c>
       <c r="F4" s="5">
         <f>I4/$I$21</f>
-        <v>0.22188954516998283</v>
+        <v>0.22187259321158842</v>
       </c>
       <c r="G4" s="4">
         <f>_xll.RealtimeData(A4,"Close")</f>
-        <v>81.52</v>
+        <v>82.21</v>
       </c>
       <c r="H4" s="4">
         <v>54</v>
       </c>
       <c r="I4" s="4">
         <f>H4*G4</f>
-        <v>4402.08</v>
+        <v>4439.3399999999992</v>
       </c>
       <c r="J4" s="4">
         <f>_xll.RealtimeData(A4,"Last")</f>
-        <v>81.53</v>
+        <v>82.21</v>
       </c>
       <c r="K4" s="5">
         <f>J4/D4-1</f>
-        <v>3.9525691699604737E-2</v>
+        <v>4.8195843427259799E-2</v>
       </c>
       <c r="L4" s="8">
         <f t="array" ref="L4">_xll.RealtimeData(A4,"Change in Percent")</f>
-        <v>1.2266928361144629E-4</v>
+        <v>0</v>
       </c>
       <c r="M4" s="29">
         <f>_xll.RealtimeData(A4,"Dividend Yield")</f>
@@ -2027,19 +2201,19 @@
       </c>
       <c r="P4" s="60">
         <f t="shared" si="1"/>
-        <v>0.17111045483001719</v>
+        <v>0.1711274067884116</v>
       </c>
       <c r="Q4" s="31">
-        <f>O4*Daily!$D$66</f>
-        <v>7829.9355000000005</v>
+        <f>O4*Daily!$D$68</f>
+        <v>7815.6696000000002</v>
       </c>
       <c r="R4">
         <f t="shared" si="2"/>
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="S4">
         <f t="shared" si="3"/>
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="T4" t="str">
         <f t="shared" si="4"/>
@@ -2047,7 +2221,7 @@
       </c>
       <c r="U4">
         <f>_xll.RealtimeData(T4,"MTD Percent Change")</f>
-        <v>2.0655983999999998</v>
+        <v>0.84641805999999997</v>
       </c>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.25">
@@ -2066,38 +2240,38 @@
       </c>
       <c r="E5" s="5">
         <f>G5/D5-1</f>
-        <v>-3.134909537523578E-2</v>
+        <v>-2.5134553019041106E-2</v>
       </c>
       <c r="F5" s="5">
         <f>I5/$I$21</f>
-        <v>0.20898671610449282</v>
+        <v>0.20854626356485312</v>
       </c>
       <c r="G5" s="4">
         <f>_xll.RealtimeData(A5,"Close")</f>
-        <v>118.46</v>
+        <v>119.22</v>
       </c>
       <c r="H5" s="4">
         <v>35</v>
       </c>
       <c r="I5" s="4">
         <f>H5*G5</f>
-        <v>4146.0999999999995</v>
+        <v>4172.7</v>
       </c>
       <c r="J5" s="31">
         <f>_xll.RealtimeData(A5,"Last")</f>
-        <v>118.7</v>
+        <v>119.22</v>
       </c>
       <c r="K5" s="5">
         <f>J5/D5-1</f>
-        <v>-2.9386608315384755E-2</v>
+        <v>-2.5134553019041106E-2</v>
       </c>
       <c r="L5" s="8">
         <f t="array" ref="L5">_xll.RealtimeData(A5,"Change in Percent")</f>
-        <v>2.0260003376667991E-3</v>
+        <v>0</v>
       </c>
       <c r="M5" s="29">
         <f>_xll.RealtimeData(A5,"Dividend Yield")</f>
-        <v>2.7</v>
+        <v>2.69</v>
       </c>
       <c r="N5" s="4" t="str">
         <f t="shared" si="0"/>
@@ -2108,10 +2282,10 @@
       </c>
       <c r="P5" s="60">
         <f t="shared" si="1"/>
-        <v>-0.20898671610449282</v>
+        <v>-0.20854626356485312</v>
       </c>
       <c r="Q5" s="31">
-        <f>O5*Daily!$D$66</f>
+        <f>O5*Daily!$D$68</f>
         <v>0</v>
       </c>
       <c r="R5">
@@ -2128,7 +2302,7 @@
       </c>
       <c r="U5">
         <f>_xll.RealtimeData(T5,"MTD Percent Change")</f>
-        <v>-0.29399412000000003</v>
+        <v>0.64156676999999995</v>
       </c>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.25">
@@ -2148,16 +2322,16 @@
       <c r="I6" s="4"/>
       <c r="J6" s="31">
         <f>_xll.RealtimeData(A6,"Last")</f>
-        <v>39.4</v>
+        <v>39.549999999999997</v>
       </c>
       <c r="K6" s="5"/>
       <c r="L6" s="8">
         <f>_xll.RealtimeData(A6,"Change in Percent")</f>
-        <v>-2.5316455696202788E-3</v>
+        <v>0</v>
       </c>
       <c r="M6" s="29">
         <f>_xll.RealtimeData(A6,"Dividend Yield")</f>
-        <v>3.65</v>
+        <v>3.63</v>
       </c>
       <c r="N6" s="4" t="str">
         <f t="shared" si="0"/>
@@ -2171,7 +2345,7 @@
         <v>0</v>
       </c>
       <c r="Q6" s="31">
-        <f>O6*Daily!$D$66</f>
+        <f>O6*Daily!$D$68</f>
         <v>0</v>
       </c>
       <c r="R6">
@@ -2188,7 +2362,7 @@
       </c>
       <c r="U6">
         <f>_xll.RealtimeData(T6,"MTD Percent Change")</f>
-        <v>-0.40444893999999998</v>
+        <v>0.12658227999999999</v>
       </c>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.25">
@@ -2208,16 +2382,16 @@
       <c r="I7" s="4"/>
       <c r="J7" s="31">
         <f>_xll.RealtimeData(A7,"Last")</f>
-        <v>58.555</v>
+        <v>58.57</v>
       </c>
       <c r="K7" s="5"/>
       <c r="L7" s="8">
         <f>_xll.RealtimeData(A7,"Change in Percent")</f>
-        <v>-6.0261415718892717E-3</v>
+        <v>0</v>
       </c>
       <c r="M7" s="29">
         <f>_xll.RealtimeData(A7,"Dividend Yield")</f>
-        <v>1.58</v>
+        <v>1.57</v>
       </c>
       <c r="N7" s="4" t="str">
         <f t="shared" si="0"/>
@@ -2231,7 +2405,7 @@
         <v>0</v>
       </c>
       <c r="Q7" s="31">
-        <f>O7*Daily!$D$66</f>
+        <f>O7*Daily!$D$68</f>
         <v>0</v>
       </c>
       <c r="R7">
@@ -2248,7 +2422,7 @@
       </c>
       <c r="U7">
         <f>_xll.RealtimeData(T7,"MTD Percent Change")</f>
-        <v>-0.72058325000000001</v>
+        <v>-0.57715159000000005</v>
       </c>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.25">
@@ -2268,12 +2442,12 @@
       <c r="I8" s="4"/>
       <c r="J8" s="31">
         <f>_xll.RealtimeData(A8,"Last")</f>
-        <v>114.85</v>
+        <v>114.92</v>
       </c>
       <c r="K8" s="5"/>
       <c r="L8" s="8">
         <f>_xll.RealtimeData(A8,"Change in Percent")</f>
-        <v>-2.5186729199236234E-3</v>
+        <v>0</v>
       </c>
       <c r="M8" s="29">
         <v>0</v>
@@ -2290,7 +2464,7 @@
         <v>0</v>
       </c>
       <c r="Q8" s="31">
-        <f>O8*Daily!$D$66</f>
+        <f>O8*Daily!$D$68</f>
         <v>0</v>
       </c>
       <c r="R8">
@@ -2307,7 +2481,7 @@
       </c>
       <c r="U8">
         <f>_xll.RealtimeData(T8,"MTD Percent Change")</f>
-        <v>-0.69174232999999996</v>
+        <v>-0.19107173999999999</v>
       </c>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.25">
@@ -2327,16 +2501,16 @@
       <c r="I9" s="4"/>
       <c r="J9" s="31">
         <f>_xll.RealtimeData(A9,"Last")</f>
-        <v>45.54</v>
+        <v>45.67</v>
       </c>
       <c r="K9" s="5"/>
       <c r="L9" s="8">
         <f>_xll.RealtimeData(A9,"Change in Percent")</f>
-        <v>-1.0000000000000023E-2</v>
+        <v>0</v>
       </c>
       <c r="M9" s="29">
         <f>_xll.RealtimeData(A9,"Dividend Yield")</f>
-        <v>4.66</v>
+        <v>4.63</v>
       </c>
       <c r="N9" s="4" t="str">
         <f t="shared" si="0"/>
@@ -2350,7 +2524,7 @@
         <v>0</v>
       </c>
       <c r="Q9" s="31">
-        <f>O9*Daily!$D$66</f>
+        <f>O9*Daily!$D$68</f>
         <v>0</v>
       </c>
       <c r="R9">
@@ -2367,7 +2541,7 @@
       </c>
       <c r="U9">
         <f>_xll.RealtimeData(T9,"MTD Percent Change")</f>
-        <v>-1.34315425</v>
+        <v>-0.71739129999999995</v>
       </c>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.25">
@@ -2381,16 +2555,16 @@
       <c r="G10" s="4"/>
       <c r="J10" s="31">
         <f>_xll.RealtimeData(A10,"Last")</f>
-        <v>43.87</v>
+        <v>44.21</v>
       </c>
       <c r="K10" s="5"/>
       <c r="L10" s="8">
         <f t="array" ref="L10">_xll.RealtimeData(A10,"Change in Percent")</f>
-        <v>-1.32703553756186E-2</v>
+        <v>0</v>
       </c>
       <c r="M10" s="29">
         <f>_xll.RealtimeData(A10,"Dividend Yield")</f>
-        <v>1.32</v>
+        <v>1.31</v>
       </c>
       <c r="N10" s="4" t="str">
         <f t="shared" si="0"/>
@@ -2404,7 +2578,7 @@
         <v>0</v>
       </c>
       <c r="Q10" s="31">
-        <f>O10*Daily!$D$66</f>
+        <f>O10*Daily!$D$68</f>
         <v>0</v>
       </c>
       <c r="R10">
@@ -2421,7 +2595,7 @@
       </c>
       <c r="U10">
         <f>_xll.RealtimeData(T10,"MTD Percent Change")</f>
-        <v>-1.6808605999999999</v>
+        <v>-0.56230318999999995</v>
       </c>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.25">
@@ -2435,12 +2609,12 @@
       <c r="G11" s="4"/>
       <c r="J11" s="31">
         <f>_xll.RealtimeData(A11,"Last")</f>
-        <v>101.46</v>
+        <v>101.72</v>
       </c>
       <c r="K11" s="5"/>
       <c r="L11" s="8">
         <f t="array" ref="L11">_xll.RealtimeData(A11,"Change in Percent")</f>
-        <v>1.1841326228536609E-3</v>
+        <v>0</v>
       </c>
       <c r="M11" s="29">
         <f>_xll.RealtimeData(A11,"Dividend Yield")</f>
@@ -2458,7 +2632,7 @@
         <v>0</v>
       </c>
       <c r="Q11" s="31">
-        <f>O11*Daily!$D$66</f>
+        <f>O11*Daily!$D$68</f>
         <v>0</v>
       </c>
       <c r="R11">
@@ -2475,7 +2649,7 @@
       </c>
       <c r="U11">
         <f>_xll.RealtimeData(T11,"MTD Percent Change")</f>
-        <v>-0.17709563</v>
+        <v>0.37497533</v>
       </c>
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.25">
@@ -2488,11 +2662,11 @@
       </c>
       <c r="J12" s="31">
         <f>_xll.RealtimeData(A12,"Last")</f>
-        <v>83.094999999999999</v>
+        <v>83.12</v>
       </c>
       <c r="L12" s="8">
         <f t="array" ref="L12">_xll.RealtimeData(A12,"Change in Percent")</f>
-        <v>4.2138213339750304E-4</v>
+        <v>0</v>
       </c>
       <c r="M12" s="29">
         <f>_xll.RealtimeData(A12,"Dividend Yield")</f>
@@ -2510,8 +2684,8 @@
         <v>9.9000000000000005E-2</v>
       </c>
       <c r="Q12" s="31">
-        <f>O12*Daily!$D$66</f>
-        <v>1972.4265</v>
+        <f>O12*Daily!$D$68</f>
+        <v>1968.8328000000001</v>
       </c>
       <c r="R12">
         <f t="shared" ref="R12" si="5">ROUND(Q12/J12,0)</f>
@@ -2527,7 +2701,7 @@
       </c>
       <c r="U12">
         <f>_xll.RealtimeData(T12,"MTD Percent Change")</f>
-        <v>-0.11419642000000001</v>
+        <v>7.2236939999999999E-2</v>
       </c>
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.25">
@@ -2544,11 +2718,11 @@
     <row r="14" spans="1:22" x14ac:dyDescent="0.25">
       <c r="U14" s="29">
         <f t="array" ref="U14">MMULT(TRANSPOSE(O2:O12),U2:U12)</f>
-        <v>0.89338818143999998</v>
+        <v>0.81889471530000002</v>
       </c>
       <c r="V14" s="8">
         <f>U14*0.01</f>
-        <v>8.9338818144E-3</v>
+        <v>8.1889471530000001E-3</v>
       </c>
     </row>
     <row r="19" spans="5:16" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
@@ -2558,7 +2732,7 @@
       </c>
       <c r="F20" s="11">
         <f>SUM(F2:F5)</f>
-        <v>0.99519332065128085</v>
+        <v>0.99523402792111959</v>
       </c>
       <c r="H20" s="2" t="s">
         <v>14</v>
@@ -2577,32 +2751,32 @@
       </c>
       <c r="F21" s="11">
         <f>1-F20</f>
-        <v>4.806679348719145E-3</v>
+        <v>4.7659720788804094E-3</v>
       </c>
       <c r="H21" s="2" t="s">
         <v>16</v>
       </c>
       <c r="I21" s="6">
         <f>SUM(I2:I20)</f>
-        <v>19839.060000000001</v>
+        <v>20008.510000000002</v>
       </c>
       <c r="J21" t="s">
         <v>33</v>
       </c>
       <c r="K21" s="8">
         <f>SUMPRODUCT(K2:K7,F2:F7)</f>
-        <v>2.3913358033025755E-2</v>
+        <v>2.9623837094378026E-2</v>
       </c>
       <c r="M21" t="s">
         <v>34</v>
       </c>
       <c r="N21" s="8">
         <f t="array" ref="N21">MMULT(TRANSPOSE(F2:F5),L2:L5)</f>
-        <v>3.0515558700866053E-3</v>
+        <v>0</v>
       </c>
       <c r="P21" s="8">
         <f t="array" ref="P21">SUMPRODUCT(L2:L12,O2:O12)</f>
-        <v>2.4596543664529721E-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="5:16" x14ac:dyDescent="0.25">
@@ -2617,7 +2791,7 @@
       </c>
       <c r="K22" s="8">
         <f>_xll.RealtimeData(J22,"Change in Percent")</f>
-        <v>-2.1875854525566997E-3</v>
+        <v>0</v>
       </c>
       <c r="L22" s="12">
         <v>0.6</v>
@@ -2629,7 +2803,7 @@
       </c>
       <c r="K23" s="8">
         <f>_xll.RealtimeData(J23,"Change in Percent")</f>
-        <v>3.074739829706613E-4</v>
+        <v>0</v>
       </c>
       <c r="L23" s="12">
         <v>0.4</v>
@@ -2641,7 +2815,7 @@
       </c>
       <c r="K24" s="8">
         <f>_xll.RealtimeData(J24,"Change in Percent")</f>
-        <v>3.3936651583709701E-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="5:16" x14ac:dyDescent="0.25">
@@ -2650,7 +2824,7 @@
       </c>
       <c r="K25" s="8">
         <f t="array" ref="K25">SUMPRODUCT(K22:K23,L22:L23)</f>
-        <v>-1.1895616783457552E-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="5:16" x14ac:dyDescent="0.25">
@@ -2659,14 +2833,14 @@
       </c>
       <c r="I26" s="6">
         <f>SUM(I2:I18)</f>
-        <v>19743.7</v>
+        <v>19913.150000000001</v>
       </c>
       <c r="J26" t="s">
         <v>56</v>
       </c>
       <c r="K26" s="8">
         <f>_xll.RealtimeData(J26,"Change in Percent")</f>
-        <v>7.2778720996037908E-3</v>
+        <v>0</v>
       </c>
       <c r="L26" t="str">
         <f>_xll.RealtimeData(J26,"Description")</f>
@@ -2679,7 +2853,7 @@
       </c>
       <c r="K27" s="8">
         <f>AVERAGE(L2:L11)</f>
-        <v>-1.9679171563960567E-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="5:16" x14ac:dyDescent="0.25">
@@ -2688,20 +2862,20 @@
       </c>
       <c r="K28" s="8">
         <f>SUMPRODUCT(F2:F7,M2:M7)*0.01</f>
-        <v>1.425566312113578E-2</v>
+        <v>1.4105368215824166E-2</v>
       </c>
       <c r="L28" t="s">
         <v>65</v>
       </c>
       <c r="M28" s="8">
         <f>AVERAGE(M2:M11)*0.01</f>
-        <v>2.0644444444444444E-2</v>
+        <v>2.0522222222222219E-2</v>
       </c>
     </row>
     <row r="29" spans="5:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="30" spans="5:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H30" s="30">
-        <v>43313</v>
+        <v>43315</v>
       </c>
       <c r="I30" s="15" t="s">
         <v>61</v>
@@ -2722,19 +2896,19 @@
       </c>
       <c r="I31" s="21">
         <f>$N$21</f>
-        <v>3.0515558700866053E-3</v>
+        <v>0</v>
       </c>
       <c r="J31" s="21">
         <f>LOOKUP(2,1/(Daily!E:E&lt;&gt;""),Daily!E:E)</f>
-        <v>-4.2372073179913761E-3</v>
+        <v>6.1009091274790705E-3</v>
       </c>
       <c r="K31" s="22">
         <f>VLOOKUP($H$30,Daily!$A:$AF,7,0)</f>
-        <v>-4.675449256260622E-4</v>
+        <v>8.0696843467171764E-3</v>
       </c>
       <c r="L31" s="23">
         <f>VLOOKUP($H$30,Daily!$A:$AF,8,0)</f>
-        <v>-8.0460000000002196E-3</v>
+        <v>4.2650000000010735E-4</v>
       </c>
     </row>
     <row r="32" spans="5:16" x14ac:dyDescent="0.25">
@@ -2743,19 +2917,19 @@
       </c>
       <c r="I32" s="24">
         <f>$K$25</f>
-        <v>-1.1895616783457552E-3</v>
+        <v>0</v>
       </c>
       <c r="J32" s="24">
         <f>LOOKUP(2,1/(Daily!M:M&lt;&gt;""),Daily!M:M)</f>
-        <v>-2.6674082651354956E-3</v>
+        <v>3.0862009052481376E-3</v>
       </c>
       <c r="K32" s="14">
         <f>VLOOKUP($H$30,Daily!$A:$AF,25,0)</f>
-        <v>1.5527841346118398E-2</v>
+        <v>1.8481899477520214E-2</v>
       </c>
       <c r="L32" s="25">
         <f>VLOOKUP($H$30,Daily!$A:$AF,31,0)</f>
-        <v>9.6975602726572241E-3</v>
+        <v>1.2634658761484729E-2</v>
       </c>
     </row>
     <row r="33" spans="8:18" x14ac:dyDescent="0.25">
@@ -2764,19 +2938,19 @@
       </c>
       <c r="I33" s="24">
         <f>$K$24</f>
-        <v>3.3936651583709701E-3</v>
+        <v>0</v>
       </c>
       <c r="J33" s="24">
         <f>LOOKUP(2,1/(Daily!L:L&lt;&gt;""),Daily!L:L)</f>
-        <v>-1.4120304998587185E-3</v>
+        <v>4.6441262357950208E-3</v>
       </c>
       <c r="K33" s="14">
         <f>VLOOKUP($H$30,Daily!$A:$AF,24,0)</f>
-        <v>3.6000732466580754E-2</v>
+        <v>4.5779161325764317E-2</v>
       </c>
       <c r="L33" s="25">
         <f>VLOOKUP($H$30,Daily!$A:$AF,30,0)</f>
-        <v>6.2316665758688661E-2</v>
+        <v>7.2343481007471899E-2</v>
       </c>
     </row>
     <row r="34" spans="8:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2785,19 +2959,19 @@
       </c>
       <c r="I34" s="26">
         <f>$K$26</f>
-        <v>7.2778720996037908E-3</v>
+        <v>0</v>
       </c>
       <c r="J34" s="26">
         <f>LOOKUP(2,1/(Daily!N:N&lt;&gt;""),Daily!N:N)</f>
-        <v>-7.3033707865167719E-3</v>
+        <v>-1.6968325791856254E-3</v>
       </c>
       <c r="K34" s="27">
         <f>VLOOKUP($H$30,Daily!$A:$AF,26,0)</f>
-        <v>1.5517241379310764E-2</v>
+        <v>1.4367816091954255E-2</v>
       </c>
       <c r="L34" s="28">
         <f>VLOOKUP($H$30,Daily!$A:$AF,32,0)</f>
-        <v>2.4777787129067974E-2</v>
+        <v>2.361788018268518E-2</v>
       </c>
     </row>
     <row r="35" spans="8:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -2832,7 +3006,7 @@
       </c>
       <c r="I37" s="46">
         <f>AVERAGE(Daily!E$3:E380)</f>
-        <v>-1.1133901168548424E-4</v>
+        <v>1.9244612943873453E-5</v>
       </c>
       <c r="J37" s="44"/>
       <c r="K37" s="22"/>
@@ -2840,23 +3014,23 @@
       <c r="M37" s="50"/>
       <c r="N37" s="38">
         <f>AVERAGE(Daily!J$3:J380)</f>
-        <v>2.6328381154061477E-4</v>
+        <v>3.0238987818562873E-4</v>
       </c>
       <c r="O37" s="22">
         <f>AVERAGE(Daily!K$3:K380)</f>
-        <v>-7.1028716088581822E-6</v>
+        <v>3.1222230580478587E-5</v>
       </c>
       <c r="P37" s="22">
         <f>AVERAGE(Daily!L$3:L380)</f>
-        <v>9.4816324833478689E-4</v>
+        <v>1.0604041642763508E-3</v>
       </c>
       <c r="Q37" s="22">
         <f>AVERAGE(Daily!M$3:M380)</f>
-        <v>1.5512913828082556E-4</v>
+        <v>1.9392281914356864E-4</v>
       </c>
       <c r="R37" s="23">
         <f>AVERAGE(Daily!N$3:N380)</f>
-        <v>4.1099838720562155E-4</v>
+        <v>3.8185064993437291E-4</v>
       </c>
     </row>
     <row r="38" spans="8:18" x14ac:dyDescent="0.25">
@@ -2865,7 +3039,7 @@
       </c>
       <c r="I38" s="47">
         <f>STDEV(Daily!E$3:E380)</f>
-        <v>5.1247134569516071E-3</v>
+        <v>5.1119248616554851E-3</v>
       </c>
       <c r="J38" s="45"/>
       <c r="K38" s="14"/>
@@ -2873,23 +3047,23 @@
       <c r="M38" s="51"/>
       <c r="N38" s="40">
         <f>STDEV(Daily!J$3:J380)</f>
-        <v>6.2711983904234917E-3</v>
+        <v>6.1905454163445998E-3</v>
       </c>
       <c r="O38" s="14">
         <f>STDEV(Daily!K$3:K380)</f>
-        <v>1.8102159634548203E-3</v>
+        <v>1.8029137814250227E-3</v>
       </c>
       <c r="P38" s="14">
         <f>STDEV(Daily!L$3:L380)</f>
-        <v>5.9948689785730052E-3</v>
+        <v>5.9384487766776378E-3</v>
       </c>
       <c r="Q38" s="14">
         <f>STDEV(Daily!M$3:M380)</f>
-        <v>3.6723290685435122E-3</v>
+        <v>3.6342323495953503E-3</v>
       </c>
       <c r="R38" s="25">
         <f>STDEV(Daily!N$3:N380)</f>
-        <v>8.3567931483112135E-3</v>
+        <v>8.2332598787320851E-3</v>
       </c>
     </row>
     <row r="39" spans="8:18" x14ac:dyDescent="0.25">
@@ -2898,7 +3072,7 @@
       </c>
       <c r="I39" s="48">
         <f>COUNTIF(Daily!E$3:E380,"&gt;0")</f>
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="J39" s="45"/>
       <c r="K39" s="14"/>
@@ -2906,23 +3080,23 @@
       <c r="M39" s="51"/>
       <c r="N39" s="41">
         <f>COUNTIF(Daily!J$3:J380,"&gt;0")</f>
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="O39" s="33">
         <f>COUNTIF(Daily!K$3:K380,"&gt;0")</f>
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="P39" s="33">
         <f>COUNTIF(Daily!L$3:L380,"&gt;0")</f>
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="Q39" s="33">
         <f>COUNTIF(Daily!M$3:M380,"&gt;0")</f>
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="R39" s="35">
         <f>COUNTIF(Daily!N$3:N380,"&gt;0")</f>
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="40" spans="8:18" x14ac:dyDescent="0.25">
@@ -2931,7 +3105,7 @@
       </c>
       <c r="I40" s="47">
         <f>SUMIF(Daily!E$3:E380,"&gt;0")</f>
-        <v>0.11819891634974544</v>
+        <v>0.12672534117654144</v>
       </c>
       <c r="J40" s="45"/>
       <c r="K40" s="14"/>
@@ -2939,23 +3113,23 @@
       <c r="M40" s="51"/>
       <c r="N40" s="40">
         <f>SUMIF(Daily!J$3:J380,"&gt;0")</f>
-        <v>0.16710167195084624</v>
+        <v>0.17079524240228272</v>
       </c>
       <c r="O40" s="14">
         <f>SUMIF(Daily!K$3:K380,"&gt;0")</f>
-        <v>4.4693357658627031E-2</v>
+        <v>4.7246933762094878E-2</v>
       </c>
       <c r="P40" s="14">
         <f>SUMIF(Daily!L$3:L380,"&gt;0")</f>
-        <v>0.18553247359380592</v>
+        <v>0.19494894145856029</v>
       </c>
       <c r="Q40" s="14">
         <f>SUMIF(Daily!M$3:M380,"&gt;0")</f>
-        <v>9.7813344215165798E-2</v>
+        <v>0.10089954512041394</v>
       </c>
       <c r="R40" s="25">
         <f>SUMIF(Daily!N$3:N380,"&gt;0")</f>
-        <v>0.22827866651350739</v>
+        <v>0.22884459746993061</v>
       </c>
     </row>
     <row r="41" spans="8:18" x14ac:dyDescent="0.25">
@@ -2972,7 +3146,7 @@
       <c r="M41" s="51"/>
       <c r="N41" s="40">
         <f>SUMIF(Daily!J$3:J380,"&lt;0")</f>
-        <v>-0.14998822420070629</v>
+        <v>-0.1505351205638456</v>
       </c>
       <c r="O41" s="14">
         <f>SUMIF(Daily!K$3:K380,"&lt;0")</f>
@@ -2984,11 +3158,11 @@
       </c>
       <c r="Q41" s="14">
         <f>SUMIF(Daily!M$3:M380,"&lt;0")</f>
-        <v>-8.7729950226912171E-2</v>
+        <v>-8.7906716237794877E-2</v>
       </c>
       <c r="R41" s="25">
         <f>SUMIF(Daily!N$3:N380,"&lt;0")</f>
-        <v>-0.20156377134514197</v>
+        <v>-0.2032606039243276</v>
       </c>
     </row>
     <row r="42" spans="8:18" x14ac:dyDescent="0.25">
@@ -2997,7 +3171,7 @@
       </c>
       <c r="I42" s="48">
         <f>COUNT(Daily!E$3:E380)</f>
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="J42" s="45"/>
       <c r="K42" s="14"/>
@@ -3005,23 +3179,23 @@
       <c r="M42" s="51"/>
       <c r="N42" s="41">
         <f>COUNT(Daily!J$3:J380)</f>
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="O42" s="33">
         <f>COUNT(Daily!K$3:K380)</f>
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="P42" s="33">
         <f>COUNT(Daily!L$3:L380)</f>
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="Q42" s="33">
         <f>COUNT(Daily!M$3:M380)</f>
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="R42" s="35">
         <f>COUNT(Daily!N$3:N380)</f>
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="43" spans="8:18" x14ac:dyDescent="0.25">
@@ -3038,7 +3212,7 @@
       <c r="M43" s="51"/>
       <c r="N43" s="41">
         <f>N42-N39</f>
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="O43" s="33">
         <f>O42-O39</f>
@@ -3050,11 +3224,11 @@
       </c>
       <c r="Q43" s="33">
         <f>Q42-Q39</f>
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="R43" s="35">
         <f>R42-R39</f>
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="44" spans="8:18" x14ac:dyDescent="0.25">
@@ -3063,7 +3237,7 @@
       </c>
       <c r="I44" s="49">
         <f>(I40/I41)*(I39/I43)*-1</f>
-        <v>1.1697578468882366</v>
+        <v>1.3238142059150872</v>
       </c>
       <c r="J44" s="45"/>
       <c r="K44" s="14"/>
@@ -3071,23 +3245,23 @@
       <c r="M44" s="51"/>
       <c r="N44" s="42">
         <f>(N40/N41)*(N39/N43)*-1</f>
-        <v>1.1489141905481586</v>
+        <v>1.168968777181661</v>
       </c>
       <c r="O44" s="34">
         <f>(O40/O41)*(O39/O43)*-1</f>
-        <v>0.95978232656681628</v>
+        <v>1.0780336896575655</v>
       </c>
       <c r="P44" s="34">
         <f>(P40/P41)*(P39/P43)*-1</f>
-        <v>1.9787266041264102</v>
+        <v>2.1915411135009411</v>
       </c>
       <c r="Q44" s="34">
         <f>(Q40/Q41)*(Q39/Q43)*-1</f>
-        <v>1.2228338377302548</v>
+        <v>1.2554089402784985</v>
       </c>
       <c r="R44" s="36">
         <f>(R40/R41)*(R39/R43)*-1</f>
-        <v>1.4965683077145584</v>
+        <v>1.475275232023854</v>
       </c>
     </row>
     <row r="45" spans="8:18" x14ac:dyDescent="0.25">
@@ -3096,7 +3270,7 @@
       </c>
       <c r="I45" s="62">
         <f>I39/I42</f>
-        <v>0.55384615384615388</v>
+        <v>0.56716417910447758</v>
       </c>
       <c r="J45" s="63"/>
       <c r="K45" s="64"/>
@@ -3104,23 +3278,23 @@
       <c r="M45" s="66"/>
       <c r="N45" s="67">
         <f>N39/N42</f>
-        <v>0.50769230769230766</v>
+        <v>0.5074626865671642</v>
       </c>
       <c r="O45" s="64">
         <f>O39/O42</f>
-        <v>0.49230769230769234</v>
+        <v>0.5074626865671642</v>
       </c>
       <c r="P45" s="64">
         <f>P39/P42</f>
-        <v>0.56923076923076921</v>
+        <v>0.58208955223880599</v>
       </c>
       <c r="Q45" s="64">
         <f>Q39/Q42</f>
-        <v>0.52307692307692311</v>
+        <v>0.52238805970149249</v>
       </c>
       <c r="R45" s="68">
         <f>R39/R42</f>
-        <v>0.56923076923076921</v>
+        <v>0.56716417910447758</v>
       </c>
     </row>
     <row r="46" spans="8:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3171,10 +3345,10 @@
   <dimension ref="A1:AN72"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B24" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="L49" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AH55" sqref="AH55"/>
+      <selection pane="bottomRight" activeCell="Y81" sqref="Y81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9189,7 +9363,7 @@
         <v>43291</v>
       </c>
       <c r="B51" s="4">
-        <f t="shared" ref="B51:B67" si="812">D51-C51</f>
+        <f t="shared" ref="B51:B69" si="812">D51-C51</f>
         <v>19902.79</v>
       </c>
       <c r="C51" s="4">
@@ -11497,13 +11671,276 @@
       </c>
     </row>
     <row r="68" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A68" s="9"/>
-      <c r="B68" s="4"/>
-      <c r="I68" s="8"/>
+      <c r="A68" s="9">
+        <v>43314</v>
+      </c>
+      <c r="B68" s="4">
+        <f t="shared" si="812"/>
+        <v>19791.82</v>
+      </c>
+      <c r="C68" s="4">
+        <v>95.38</v>
+      </c>
+      <c r="D68" s="4">
+        <f>19912.2-25</f>
+        <v>19887.2</v>
+      </c>
+      <c r="E68" s="5">
+        <f t="shared" ref="E68" si="1154">D68/D67-1</f>
+        <v>2.4255156993169269E-3</v>
+      </c>
+      <c r="F68" s="10">
+        <f t="shared" ref="F68" si="1155">F67*(1+E68)</f>
+        <v>99.436000000000007</v>
+      </c>
+      <c r="G68" s="5">
+        <f t="shared" ref="G68" si="1156">F68/F$45-1</f>
+        <v>1.9568367361337824E-3</v>
+      </c>
+      <c r="H68" s="8">
+        <f t="shared" ref="H68" si="1157">F68/$F$2-1</f>
+        <v>-5.6399999999999784E-3</v>
+      </c>
+      <c r="J68" s="11">
+        <f>VLOOKUP($A68,Prices!$A:$J,MATCH(J$1,Prices!$1:$1,0),0)</f>
+        <v>-5.4689636313931533E-4</v>
+      </c>
+      <c r="K68" s="11">
+        <f>VLOOKUP($A68,Prices!$A:$J,MATCH(K$1,Prices!$1:$1,0),0)</f>
+        <v>3.784295175022212E-4</v>
+      </c>
+      <c r="L68" s="11">
+        <f>VLOOKUP($A68,Prices!$A:$J,MATCH(L$1,Prices!$1:$1,0),0)</f>
+        <v>4.7723416289593423E-3</v>
+      </c>
+      <c r="M68" s="11">
+        <f t="shared" ref="M68" si="1158">0.6*J68 + 0.4*K68</f>
+        <v>-1.7676601088270069E-4</v>
+      </c>
+      <c r="N68" s="11">
+        <f>VLOOKUP($A68,Prices!$A:$J,MATCH(N$1,Prices!$1:$1,0),0)</f>
+        <v>5.6593095642321067E-4</v>
+      </c>
+      <c r="P68" s="10">
+        <f t="shared" ref="P68" si="1159">P67*(1+J68)</f>
+        <v>101.54220130983111</v>
+      </c>
+      <c r="Q68" s="10">
+        <f t="shared" ref="Q68" si="1160">Q67*(1+K68)</f>
+        <v>99.981187659695181</v>
+      </c>
+      <c r="R68" s="10">
+        <f t="shared" ref="R68" si="1161">R67*(1+L68)</f>
+        <v>106.73864038058262</v>
+      </c>
+      <c r="S68" s="10">
+        <f t="shared" ref="S68" si="1162">S67*(1+M68)</f>
+        <v>100.95190800627299</v>
+      </c>
+      <c r="T68" s="10">
+        <f t="shared" ref="T68" si="1163">T67*(1+N68)</f>
+        <v>102.53577406022592</v>
+      </c>
+      <c r="V68" s="5">
+        <f t="shared" ref="V68" si="1164">P68/P$45-1</f>
+        <v>2.7840269966254105E-2</v>
+      </c>
+      <c r="W68" s="5">
+        <f t="shared" ref="W68" si="1165">Q68/Q$45-1</f>
+        <v>-3.3066015149294525E-3</v>
+      </c>
+      <c r="X68" s="5">
+        <f t="shared" ref="X68" si="1166">R68/R$45-1</f>
+        <v>4.0944881889763529E-2</v>
+      </c>
+      <c r="Y68" s="5">
+        <f t="shared" ref="Y68" si="1167">S68/S$45-1</f>
+        <v>1.5348330540663424E-2</v>
+      </c>
+      <c r="Z68" s="5">
+        <f t="shared" ref="Z68" si="1168">T68/T$45-1</f>
+        <v>1.6091954022988686E-2</v>
+      </c>
+      <c r="AB68" s="8">
+        <f t="shared" ref="AB68" si="1169">P68/$P$2-1</f>
+        <v>1.5422013098311149E-2</v>
+      </c>
+      <c r="AC68" s="8">
+        <f t="shared" ref="AC68" si="1170">Q68/$P$2-1</f>
+        <v>-1.8812340304819042E-4</v>
+      </c>
+      <c r="AD68" s="8">
+        <f t="shared" ref="AD68" si="1171">R68/$P$2-1</f>
+        <v>6.7386403805826278E-2</v>
+      </c>
+      <c r="AE68" s="8">
+        <f t="shared" ref="AE68" si="1172">S68/$P$2-1</f>
+        <v>9.5190800627298344E-3</v>
+      </c>
+      <c r="AF68" s="8">
+        <f t="shared" ref="AF68" si="1173">T68/$T$2-1</f>
+        <v>2.5357740602259149E-2</v>
+      </c>
+      <c r="AI68" s="8">
+        <f t="shared" ref="AI68" si="1174">MIN(0,(F68-MAX(F39:F68))/MAX(F39:F68))</f>
+        <v>-5.5480131912198898E-3</v>
+      </c>
+      <c r="AJ68" s="8">
+        <f t="shared" ref="AJ68" si="1175">MIN(0,(P68-MAX(P39:P68))/MAX(P39:P68))</f>
+        <v>-1.0557661072008725E-2</v>
+      </c>
+      <c r="AK68" s="8">
+        <f t="shared" ref="AK68" si="1176">MIN(0,(Q68-MAX(Q39:Q68))/MAX(Q39:Q68))</f>
+        <v>-7.2293681344476014E-3</v>
+      </c>
+      <c r="AL68" s="8">
+        <f t="shared" ref="AL68" si="1177">MIN(0,(R68-MAX(R39:R68))/MAX(R39:R68))</f>
+        <v>-6.8138933538334015E-3</v>
+      </c>
+      <c r="AM68" s="8">
+        <f t="shared" ref="AM68" si="1178">MIN(0,(S68-MAX(S39:S68))/MAX(S39:S68))</f>
+        <v>-7.5438381782863256E-3</v>
+      </c>
+      <c r="AN68" s="8">
+        <f t="shared" ref="AN68" si="1179">MIN(0,(T68-MAX(T39:T68))/MAX(T39:T68))</f>
+        <v>-1.1738401341531628E-2</v>
+      </c>
     </row>
     <row r="69" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A69" s="9"/>
-      <c r="B69" s="4"/>
+      <c r="A69" s="9">
+        <v>43315</v>
+      </c>
+      <c r="B69" s="4">
+        <f t="shared" si="812"/>
+        <v>19913.150000000001</v>
+      </c>
+      <c r="C69" s="4">
+        <v>95.38</v>
+      </c>
+      <c r="D69" s="4">
+        <f>20015.2-6.67</f>
+        <v>20008.530000000002</v>
+      </c>
+      <c r="E69" s="5">
+        <f t="shared" ref="E69" si="1180">D69/D68-1</f>
+        <v>6.1009091274790705E-3</v>
+      </c>
+      <c r="F69" s="10">
+        <f t="shared" ref="F69" si="1181">F68*(1+E69)</f>
+        <v>100.04265000000001</v>
+      </c>
+      <c r="G69" s="5">
+        <f t="shared" ref="G69" si="1182">F69/F$45-1</f>
+        <v>8.0696843467171764E-3</v>
+      </c>
+      <c r="H69" s="8">
+        <f t="shared" ref="H69" si="1183">F69/$F$2-1</f>
+        <v>4.2650000000010735E-4</v>
+      </c>
+      <c r="J69" s="11">
+        <f>VLOOKUP($A69,Prices!$A:$J,MATCH(J$1,Prices!$1:$1,0),0)</f>
+        <v>3.6935704514364787E-3</v>
+      </c>
+      <c r="K69" s="11">
+        <f>VLOOKUP($A69,Prices!$A:$J,MATCH(K$1,Prices!$1:$1,0),0)</f>
+        <v>2.175146585965626E-3</v>
+      </c>
+      <c r="L69" s="11">
+        <f>VLOOKUP($A69,Prices!$A:$J,MATCH(L$1,Prices!$1:$1,0),0)</f>
+        <v>4.6441262357950208E-3</v>
+      </c>
+      <c r="M69" s="11">
+        <f t="shared" ref="M69" si="1184">0.6*J69 + 0.4*K69</f>
+        <v>3.0862009052481376E-3</v>
+      </c>
+      <c r="N69" s="11">
+        <f>VLOOKUP($A69,Prices!$A:$J,MATCH(N$1,Prices!$1:$1,0),0)</f>
+        <v>-1.6968325791856254E-3</v>
+      </c>
+      <c r="P69" s="10">
+        <f t="shared" ref="P69" si="1185">P68*(1+J69)</f>
+        <v>101.91725458416292</v>
+      </c>
+      <c r="Q69" s="10">
+        <f t="shared" ref="Q69" si="1186">Q68*(1+K69)</f>
+        <v>100.19866139869396</v>
+      </c>
+      <c r="R69" s="10">
+        <f t="shared" ref="R69" si="1187">R68*(1+L69)</f>
+        <v>107.23434810074718</v>
+      </c>
+      <c r="S69" s="10">
+        <f t="shared" ref="S69" si="1188">S68*(1+M69)</f>
+        <v>101.26346587614847</v>
+      </c>
+      <c r="T69" s="10">
+        <f t="shared" ref="T69" si="1189">T68*(1+N69)</f>
+        <v>102.36178801826851</v>
+      </c>
+      <c r="V69" s="5">
+        <f t="shared" ref="V69" si="1190">P69/P$45-1</f>
+        <v>3.1636670416197887E-2</v>
+      </c>
+      <c r="W69" s="5">
+        <f t="shared" ref="W69" si="1191">Q69/Q$45-1</f>
+        <v>-1.1386472719601137E-3</v>
+      </c>
+      <c r="X69" s="5">
+        <f t="shared" ref="X69" si="1192">R69/R$45-1</f>
+        <v>4.5779161325764317E-2</v>
+      </c>
+      <c r="Y69" s="5">
+        <f t="shared" ref="Y69" si="1193">S69/S$45-1</f>
+        <v>1.8481899477520214E-2</v>
+      </c>
+      <c r="Z69" s="5">
+        <f t="shared" ref="Z69" si="1194">T69/T$45-1</f>
+        <v>1.4367816091954255E-2</v>
+      </c>
+      <c r="AB69" s="8">
+        <f t="shared" ref="AB69" si="1195">P69/$P$2-1</f>
+        <v>1.9172545841629196E-2</v>
+      </c>
+      <c r="AC69" s="8">
+        <f t="shared" ref="AC69" si="1196">Q69/$P$2-1</f>
+        <v>1.986613986939556E-3</v>
+      </c>
+      <c r="AD69" s="8">
+        <f t="shared" ref="AD69" si="1197">R69/$P$2-1</f>
+        <v>7.2343481007471899E-2</v>
+      </c>
+      <c r="AE69" s="8">
+        <f t="shared" ref="AE69" si="1198">S69/$P$2-1</f>
+        <v>1.2634658761484729E-2</v>
+      </c>
+      <c r="AF69" s="8">
+        <f t="shared" ref="AF69" si="1199">T69/$T$2-1</f>
+        <v>2.361788018268518E-2</v>
+      </c>
+      <c r="AI69" s="8">
+        <f t="shared" ref="AI69" si="1200">MIN(0,(F69-MAX(F40:F69))/MAX(F40:F69))</f>
+        <v>0</v>
+      </c>
+      <c r="AJ69" s="8">
+        <f t="shared" ref="AJ69" si="1201">MIN(0,(P69-MAX(P40:P69))/MAX(P40:P69))</f>
+        <v>-6.9030860855441179E-3</v>
+      </c>
+      <c r="AK69" s="8">
+        <f t="shared" ref="AK69" si="1202">MIN(0,(Q69-MAX(Q40:Q69))/MAX(Q40:Q69))</f>
+        <v>-5.0699464838982848E-3</v>
+      </c>
+      <c r="AL69" s="8">
+        <f t="shared" ref="AL69" si="1203">MIN(0,(R69-MAX(R40:R69))/MAX(R40:R69))</f>
+        <v>-2.2014116989307647E-3</v>
+      </c>
+      <c r="AM69" s="8">
+        <f t="shared" ref="AM69" si="1204">MIN(0,(S69-MAX(S40:S69))/MAX(S40:S69))</f>
+        <v>-4.4809190732530649E-3</v>
+      </c>
+      <c r="AN69" s="8">
+        <f t="shared" ref="AN69" si="1205">MIN(0,(T69-MAX(T40:T69))/MAX(T40:T69))</f>
+        <v>-1.3415315818893369E-2</v>
+      </c>
     </row>
     <row r="70" spans="1:40" x14ac:dyDescent="0.25">
       <c r="B70" s="4"/>
@@ -11525,7 +11962,7 @@
   <dimension ref="A1:J72"/>
   <sheetViews>
     <sheetView topLeftCell="A51" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="J83" sqref="J83"/>
+      <selection activeCell="D80" sqref="D80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14002,71 +14439,77 @@
       </c>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B69" t="str">
+      <c r="A69" s="13">
+        <v>43314</v>
+      </c>
+      <c r="B69">
         <f t="array" ref="B69">_xll.HistoricalData(B$1,"Adj. Close",$A69,$A69,"Daily","RemoveHeaders = True","ReverseOrder =True","RemoveDates =""True")</f>
-        <v>--</v>
-      </c>
-      <c r="C69" t="str">
+        <v>73.099999999999994</v>
+      </c>
+      <c r="C69">
         <f t="array" ref="C69">_xll.HistoricalData(C$1,"Adj. Close",$A69,$A69,"Daily","RemoveHeaders = True","ReverseOrder =True","RemoveDates =""True")</f>
-        <v>--</v>
-      </c>
-      <c r="D69" t="str">
+        <v>105.74</v>
+      </c>
+      <c r="D69">
         <f t="array" ref="D69">_xll.HistoricalData(D$1,"Adj. Close",$A69,$A69,"Daily","RemoveHeaders = True","ReverseOrder =True","RemoveDates =""True")</f>
-        <v>--</v>
-      </c>
-      <c r="E69" t="str">
+        <v>284.23</v>
+      </c>
+      <c r="E69">
         <f t="array" ref="E69">_xll.HistoricalData(E$1,"Adj. Close",$A69,$A69,"Daily","RemoveHeaders = True","ReverseOrder =True","RemoveDates =""True")</f>
-        <v>--</v>
-      </c>
-      <c r="G69" s="5" t="e">
+        <v>17.68</v>
+      </c>
+      <c r="G69" s="5">
         <f t="shared" si="216"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="H69" s="5" t="e">
+        <v>-5.4689636313931533E-4</v>
+      </c>
+      <c r="H69" s="5">
         <f t="shared" si="217"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I69" s="5" t="e">
+        <v>3.784295175022212E-4</v>
+      </c>
+      <c r="I69" s="5">
         <f t="shared" si="218"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="J69" s="5" t="e">
+        <v>4.7723416289593423E-3</v>
+      </c>
+      <c r="J69" s="5">
         <f t="shared" si="219"/>
-        <v>#VALUE!</v>
+        <v>5.6593095642321067E-4</v>
       </c>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B70" t="str">
+      <c r="A70" s="13">
+        <v>43315</v>
+      </c>
+      <c r="B70">
         <f t="array" ref="B70">_xll.HistoricalData(B$1,"Adj. Close",$A70,$A70,"Daily","RemoveHeaders = True","ReverseOrder =True","RemoveDates =""True")</f>
-        <v>--</v>
-      </c>
-      <c r="C70" t="str">
+        <v>73.37</v>
+      </c>
+      <c r="C70">
         <f t="array" ref="C70">_xll.HistoricalData(C$1,"Adj. Close",$A70,$A70,"Daily","RemoveHeaders = True","ReverseOrder =True","RemoveDates =""True")</f>
-        <v>--</v>
-      </c>
-      <c r="D70" t="str">
+        <v>105.97</v>
+      </c>
+      <c r="D70">
         <f t="array" ref="D70">_xll.HistoricalData(D$1,"Adj. Close",$A70,$A70,"Daily","RemoveHeaders = True","ReverseOrder =True","RemoveDates =""True")</f>
-        <v>--</v>
-      </c>
-      <c r="E70" t="str">
+        <v>285.55</v>
+      </c>
+      <c r="E70">
         <f t="array" ref="E70">_xll.HistoricalData(E$1,"Adj. Close",$A70,$A70,"Daily","RemoveHeaders = True","ReverseOrder =True","RemoveDates =""True")</f>
-        <v>--</v>
-      </c>
-      <c r="G70" s="5" t="e">
+        <v>17.649999999999999</v>
+      </c>
+      <c r="G70" s="5">
         <f t="shared" si="216"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="H70" s="5" t="e">
+        <v>3.6935704514364787E-3</v>
+      </c>
+      <c r="H70" s="5">
         <f t="shared" si="217"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I70" s="5" t="e">
+        <v>2.175146585965626E-3</v>
+      </c>
+      <c r="I70" s="5">
         <f t="shared" si="218"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="J70" s="5" t="e">
+        <v>4.6441262357950208E-3</v>
+      </c>
+      <c r="J70" s="5">
         <f t="shared" si="219"/>
-        <v>#VALUE!</v>
+        <v>-1.6968325791856254E-3</v>
       </c>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.25">
@@ -14140,4 +14583,583 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:W40"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="G28" sqref="G28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="8.7109375" customWidth="1"/>
+    <col min="10" max="10" width="9.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B1">
+        <v>100000</v>
+      </c>
+      <c r="J1" s="13">
+        <v>43251</v>
+      </c>
+      <c r="W1">
+        <f t="array" ref="W1">_xll.HistoricalData("AAPL","Close","5/31/2018","5/31/2018","Daily","RemoveHeaders = True","RemoveDates=True")</f>
+        <v>186.87</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B2" s="71">
+        <v>0.7</v>
+      </c>
+      <c r="C2">
+        <f>B2*$B$1</f>
+        <v>70000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>94</v>
+      </c>
+      <c r="B3" s="71">
+        <f>1-B2</f>
+        <v>0.30000000000000004</v>
+      </c>
+      <c r="C3">
+        <f>B3*B1</f>
+        <v>30000.000000000004</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>95</v>
+      </c>
+      <c r="C4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" t="s">
+        <v>97</v>
+      </c>
+      <c r="E4" t="s">
+        <v>98</v>
+      </c>
+      <c r="F4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G4" t="s">
+        <v>102</v>
+      </c>
+      <c r="H4" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>86</v>
+      </c>
+      <c r="B5">
+        <v>331.95</v>
+      </c>
+      <c r="C5">
+        <f>_xll.RealtimeData(A5,"Last")</f>
+        <v>363.51</v>
+      </c>
+      <c r="D5">
+        <f>ROUNDDOWN(($C$2/6)/B5,0)</f>
+        <v>35</v>
+      </c>
+      <c r="E5" s="8">
+        <f>C5/B5-1</f>
+        <v>9.5074559421599592E-2</v>
+      </c>
+      <c r="F5">
+        <f>C5*D5</f>
+        <v>12722.85</v>
+      </c>
+      <c r="G5" s="73">
+        <f>F5/$F$13</f>
+        <v>0.17633909730448727</v>
+      </c>
+      <c r="H5" s="8">
+        <f>F5/$F$31</f>
+        <v>0.12468706587970688</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>87</v>
+      </c>
+      <c r="B6">
+        <v>1629.62</v>
+      </c>
+      <c r="C6">
+        <f>_xll.RealtimeData(A6,"Last")</f>
+        <v>1823.29</v>
+      </c>
+      <c r="D6">
+        <f t="shared" ref="D6:D10" si="0">ROUNDDOWN(($C$2/6)/B6,0)</f>
+        <v>7</v>
+      </c>
+      <c r="E6" s="8">
+        <f t="shared" ref="E6:E10" si="1">C6/B6-1</f>
+        <v>0.11884365680342657</v>
+      </c>
+      <c r="F6">
+        <f t="shared" ref="F6:F9" si="2">C6*D6</f>
+        <v>12763.029999999999</v>
+      </c>
+      <c r="G6" s="73">
+        <f t="shared" ref="G6:G10" si="3">F6/$F$13</f>
+        <v>0.17689599335605544</v>
+      </c>
+      <c r="H6" s="8">
+        <f t="shared" ref="H6:H10" si="4">F6/$F$31</f>
+        <v>0.12508083978312054</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>88</v>
+      </c>
+      <c r="B7">
+        <v>42.38</v>
+      </c>
+      <c r="C7">
+        <f>_xll.RealtimeData(A7,"Last")</f>
+        <v>42.83</v>
+      </c>
+      <c r="D7">
+        <f t="shared" si="0"/>
+        <v>275</v>
+      </c>
+      <c r="E7" s="8">
+        <f t="shared" si="1"/>
+        <v>1.0618216139688386E-2</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="2"/>
+        <v>11778.25</v>
+      </c>
+      <c r="G7" s="73">
+        <f t="shared" si="3"/>
+        <v>0.16324691188110976</v>
+      </c>
+      <c r="H7" s="8">
+        <f t="shared" si="4"/>
+        <v>0.11542975305828941</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>89</v>
+      </c>
+      <c r="B8">
+        <v>459.67</v>
+      </c>
+      <c r="C8">
+        <f>_xll.RealtimeData(A8,"Last")</f>
+        <v>522.6</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="E8" s="8">
+        <f t="shared" si="1"/>
+        <v>0.13690256053255601</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="2"/>
+        <v>13065</v>
+      </c>
+      <c r="G8" s="73">
+        <f t="shared" si="3"/>
+        <v>0.18108130696212926</v>
+      </c>
+      <c r="H8" s="8">
+        <f t="shared" si="4"/>
+        <v>0.12804022021153832</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>90</v>
+      </c>
+      <c r="B9">
+        <v>57.59</v>
+      </c>
+      <c r="C9">
+        <f>_xll.RealtimeData(A9,"Last")</f>
+        <v>52.81</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="0"/>
+        <v>202</v>
+      </c>
+      <c r="E9" s="8">
+        <f t="shared" si="1"/>
+        <v>-8.3000520923771526E-2</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="2"/>
+        <v>10667.62</v>
+      </c>
+      <c r="G9" s="73">
+        <f t="shared" si="3"/>
+        <v>0.14785354548605814</v>
+      </c>
+      <c r="H9" s="8">
+        <f t="shared" si="4"/>
+        <v>0.10454530531442867</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>91</v>
+      </c>
+      <c r="B10">
+        <v>56.35</v>
+      </c>
+      <c r="C10">
+        <f>_xll.RealtimeData(A10,"Last")</f>
+        <v>53.88</v>
+      </c>
+      <c r="D10">
+        <f t="shared" si="0"/>
+        <v>207</v>
+      </c>
+      <c r="E10" s="8">
+        <f t="shared" si="1"/>
+        <v>-4.3833185448092227E-2</v>
+      </c>
+      <c r="F10">
+        <f>C10*D10</f>
+        <v>11153.16</v>
+      </c>
+      <c r="G10" s="73">
+        <f t="shared" si="3"/>
+        <v>0.1545831450101601</v>
+      </c>
+      <c r="H10" s="8">
+        <f t="shared" si="4"/>
+        <v>0.10930371698848226</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="E13" t="s">
+        <v>93</v>
+      </c>
+      <c r="F13">
+        <f>SUM(F5:F10)</f>
+        <v>72149.91</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="E14" t="s">
+        <v>107</v>
+      </c>
+      <c r="F14" s="8">
+        <f>F13/C2-1</f>
+        <v>3.071299999999999E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="E15" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>95</v>
+      </c>
+      <c r="C19" t="s">
+        <v>22</v>
+      </c>
+      <c r="D19" t="s">
+        <v>97</v>
+      </c>
+      <c r="E19" t="s">
+        <v>96</v>
+      </c>
+      <c r="F19" t="s">
+        <v>99</v>
+      </c>
+      <c r="G19" t="s">
+        <v>7</v>
+      </c>
+      <c r="H19" t="s">
+        <v>103</v>
+      </c>
+      <c r="I19" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>8</v>
+      </c>
+      <c r="B20">
+        <f>_xll.HistoricalData(A20,"Close","8/1/2018","8/1/2018","Daily","RemoveHeaders = True","RemoveDates=True")</f>
+        <v>17</v>
+      </c>
+      <c r="C20">
+        <f>_xll.RealtimeData(A20,"Last")</f>
+        <v>17.16</v>
+      </c>
+      <c r="D20">
+        <f>ROUNDDOWN(($C$3*E20)/B20,0)</f>
+        <v>250</v>
+      </c>
+      <c r="E20" s="11">
+        <v>0.14199999999999999</v>
+      </c>
+      <c r="F20" s="8">
+        <f>C20/B20-1</f>
+        <v>9.4117647058824527E-3</v>
+      </c>
+      <c r="G20">
+        <f>D20*C20</f>
+        <v>4290</v>
+      </c>
+      <c r="H20" s="8">
+        <f>G20/$G$27</f>
+        <v>0.14353423442051316</v>
+      </c>
+      <c r="I20" s="8">
+        <f>G20/$F$31</f>
+        <v>4.2043057382893177E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>9</v>
+      </c>
+      <c r="B21">
+        <f>_xll.HistoricalData(A21,"Close","8/1/2018","8/1/2018","Daily","RemoveHeaders = True","RemoveDates=True")</f>
+        <v>282.88</v>
+      </c>
+      <c r="C21">
+        <f>_xll.RealtimeData(A21,"Last")</f>
+        <v>285.55</v>
+      </c>
+      <c r="D21">
+        <f t="shared" ref="D21:D23" si="5">ROUNDDOWN(($C$3*E21)/B21,0)</f>
+        <v>38</v>
+      </c>
+      <c r="E21" s="11">
+        <v>0.36599999999999999</v>
+      </c>
+      <c r="F21" s="8">
+        <f t="shared" ref="F21:F23" si="6">C21/B21-1</f>
+        <v>9.4386312217196178E-3</v>
+      </c>
+      <c r="G21">
+        <f t="shared" ref="G21:G23" si="7">D21*C21</f>
+        <v>10850.9</v>
+      </c>
+      <c r="H21" s="8">
+        <f t="shared" ref="H21:H23" si="8">G21/$G$27</f>
+        <v>0.36304793106609468</v>
+      </c>
+      <c r="I21" s="8">
+        <f t="shared" ref="I21:I23" si="9">G21/$F$31</f>
+        <v>0.10634149448858639</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>19</v>
+      </c>
+      <c r="B22">
+        <f>_xll.HistoricalData(A22,"Close","8/1/2018","8/1/2018","Daily","RemoveHeaders = True","RemoveDates=True")</f>
+        <v>81.52</v>
+      </c>
+      <c r="C22">
+        <f>_xll.RealtimeData(A22,"Last")</f>
+        <v>82.21</v>
+      </c>
+      <c r="D22">
+        <f t="shared" si="5"/>
+        <v>144</v>
+      </c>
+      <c r="E22" s="11">
+        <v>0.39300000000000002</v>
+      </c>
+      <c r="F22" s="8">
+        <f t="shared" si="6"/>
+        <v>8.4641805691854088E-3</v>
+      </c>
+      <c r="G22">
+        <f t="shared" si="7"/>
+        <v>11838.24</v>
+      </c>
+      <c r="H22" s="8">
+        <f t="shared" si="8"/>
+        <v>0.39608221801545351</v>
+      </c>
+      <c r="I22" s="8">
+        <f t="shared" si="9"/>
+        <v>0.11601766984439658</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>85</v>
+      </c>
+      <c r="B23">
+        <f>_xll.HistoricalData(A23,"Close","8/1/2018","8/1/2018","Daily","RemoveHeaders = True","RemoveDates=True")</f>
+        <v>83.06</v>
+      </c>
+      <c r="C23">
+        <f>_xll.RealtimeData(A23,"Last")</f>
+        <v>83.12</v>
+      </c>
+      <c r="D23">
+        <f t="shared" si="5"/>
+        <v>35</v>
+      </c>
+      <c r="E23" s="11">
+        <v>9.9000000000000005E-2</v>
+      </c>
+      <c r="F23" s="8">
+        <f t="shared" si="6"/>
+        <v>7.2236937153857816E-4</v>
+      </c>
+      <c r="G23">
+        <f t="shared" si="7"/>
+        <v>2909.2000000000003</v>
+      </c>
+      <c r="H23" s="8">
+        <f t="shared" si="8"/>
+        <v>9.7335616497938676E-2</v>
+      </c>
+      <c r="I23" s="8">
+        <f t="shared" si="9"/>
+        <v>2.8510877048557773E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B24" s="72"/>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F27" t="s">
+        <v>100</v>
+      </c>
+      <c r="G27">
+        <f>SUM(G20:G23)</f>
+        <v>29888.34</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F28" t="s">
+        <v>106</v>
+      </c>
+      <c r="G28" s="8">
+        <f>G27/C3-1</f>
+        <v>-3.7220000000001141E-3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E31" t="s">
+        <v>101</v>
+      </c>
+      <c r="F31">
+        <f>SUM(F13,G27)</f>
+        <v>102038.25</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E33" t="s">
+        <v>105</v>
+      </c>
+      <c r="F33" s="8">
+        <f>F31/B1-1</f>
+        <v>2.038249999999997E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>109</v>
+      </c>
+      <c r="B37">
+        <f>_xll.HistoricalData(A37,"Close","8/1/2018","8/1/2018","Daily","RemoveHeaders = True","RemoveDates=True")</f>
+        <v>38.26</v>
+      </c>
+      <c r="C37">
+        <f>_xll.RealtimeData(A37,"Last")</f>
+        <v>38.303100000000001</v>
+      </c>
+      <c r="D37" s="8">
+        <f>C37/B37-1</f>
+        <v>1.1265028750653272E-3</v>
+      </c>
+      <c r="E37" s="11"/>
+      <c r="F37" s="8"/>
+      <c r="H37" s="8"/>
+      <c r="I37" s="8"/>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>9</v>
+      </c>
+      <c r="B38">
+        <f>_xll.HistoricalData(A38,"Close","5/31/2018","5/31/2018","Daily","RemoveHeaders = True","RemoveDates=True")</f>
+        <v>272.73</v>
+      </c>
+      <c r="C38">
+        <f>_xll.RealtimeData(A38,"Last")</f>
+        <v>285.55</v>
+      </c>
+      <c r="D38" s="8">
+        <f t="shared" ref="D38:D40" si="10">C38/B38-1</f>
+        <v>4.7006196604700623E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>110</v>
+      </c>
+      <c r="B39">
+        <f>_xll.HistoricalData(A39,"Close","5/31/2018","5/31/2018","Daily","RemoveHeaders = True","RemoveDates=True")</f>
+        <v>170.07</v>
+      </c>
+      <c r="C39">
+        <f>_xll.RealtimeData(A39,"Last")</f>
+        <v>180.08</v>
+      </c>
+      <c r="D39" s="8">
+        <f t="shared" si="10"/>
+        <v>5.8858117245840003E-2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>108</v>
+      </c>
+      <c r="B40">
+        <f>_xll.HistoricalData(A40,"Close","5/31/2018","5/31/2018","Daily","RemoveHeaders = True","RemoveDates=True")</f>
+        <v>44.7</v>
+      </c>
+      <c r="C40">
+        <f>_xll.RealtimeData(A40,"Last")</f>
+        <v>46.82</v>
+      </c>
+      <c r="D40" s="8">
+        <f t="shared" si="10"/>
+        <v>4.7427293064876919E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Portfolio.xlsx
+++ b/Portfolio.xlsx
@@ -840,7 +840,7 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="74">
+  <cellXfs count="75">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1003,6 +1003,7 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -1027,7 +1028,7 @@
   <volType type="realTimeData">
     <main first="rtdsrv.b680f398aee849e8bbd7e44ce06d14f2">
       <tp>
-        <v>0</v>
+        <v>-2.58961428376718E-3</v>
         <stp/>
         <stp>ACWI</stp>
         <stp>change in percent</stp>
@@ -1036,56 +1037,56 @@
     </main>
     <main first="rtdsrv.b680f398aee849e8bbd7e44ce06d14f2">
       <tp>
-        <v>0.64156676999999995</v>
+        <v>1.13118352</v>
         <stp/>
         <stp>TLT</stp>
         <stp>mtd percent change</stp>
         <tr r="U5" s="1"/>
       </tp>
       <tp>
-        <v>7.2236939999999999E-2</v>
+        <v>0.10835541</v>
         <stp/>
         <stp>SHY</stp>
         <stp>mtd percent change</stp>
         <tr r="U12" s="1"/>
       </tp>
       <tp>
-        <v>0.12658227999999999</v>
+        <v>-0.44303797</v>
         <stp/>
         <stp>RWX</stp>
         <stp>mtd percent change</stp>
         <tr r="U6" s="1"/>
       </tp>
       <tp>
-        <v>0.94386312000000006</v>
+        <v>0.97214367000000002</v>
         <stp/>
         <stp>IVV</stp>
         <stp>mtd percent change</stp>
         <tr r="U3" s="1"/>
       </tp>
       <tp>
-        <v>0.84641805999999997</v>
+        <v>0.79735034000000005</v>
         <stp/>
         <stp>IYR</stp>
         <stp>mtd percent change</stp>
         <tr r="U4" s="1"/>
       </tp>
       <tp>
-        <v>-0.71739129999999995</v>
+        <v>-1.30434783</v>
         <stp/>
         <stp>IEV</stp>
         <stp>mtd percent change</stp>
         <tr r="U9" s="1"/>
       </tp>
       <tp>
-        <v>0.37497533</v>
+        <v>0.59206630999999998</v>
         <stp/>
         <stp>IEF</stp>
         <stp>mtd percent change</stp>
         <tr r="U11" s="1"/>
       </tp>
       <tp>
-        <v>-0.19107173999999999</v>
+        <v>-0.42991140999999999</v>
         <stp/>
         <stp>GLD</stp>
         <stp>mtd percent change</stp>
@@ -1094,21 +1095,21 @@
     </main>
     <main first="rtdsrv.b680f398aee849e8bbd7e44ce06d14f2">
       <tp>
-        <v>-0.57715159000000005</v>
+        <v>-1.4938041099999999</v>
         <stp/>
         <stp>EWJ</stp>
         <stp>mtd percent change</stp>
         <tr r="U7" s="1"/>
       </tp>
       <tp>
-        <v>-0.56230318999999995</v>
+        <v>-1.3495276700000001</v>
         <stp/>
         <stp>EEM</stp>
         <stp>mtd percent change</stp>
         <tr r="U10" s="1"/>
       </tp>
       <tp>
-        <v>0.94117647000000004</v>
+        <v>1.29411765</v>
         <stp/>
         <stp>DBC</stp>
         <stp>mtd percent change</stp>
@@ -1117,7 +1118,7 @@
     </main>
     <main first="rtdsrv.b680f398aee849e8bbd7e44ce06d14f2">
       <tp>
-        <v>0</v>
+        <v>1.1331444759208555E-3</v>
         <stp/>
         <stp>GYLD</stp>
         <stp>change in percent</stp>
@@ -1144,7 +1145,7 @@
     </main>
     <main first="rtdsrv.b680f398aee849e8bbd7e44ce06d14f2">
       <tp>
-        <v>52.81</v>
+        <v>51.955800000000004</v>
         <stp/>
         <stp>MU</stp>
         <stp>last</stp>
@@ -1230,7 +1231,7 @@
     </main>
     <main first="rtdsrv.b680f398aee849e8bbd7e44ce06d14f2">
       <tp>
-        <v>0</v>
+        <v>3.4965034965034206E-3</v>
         <stp/>
         <stp>DBC</stp>
         <stp>change in percent</stp>
@@ -1239,7 +1240,7 @@
     </main>
     <main first="rtdsrv.b680f398aee849e8bbd7e44ce06d14f2">
       <tp>
-        <v>0</v>
+        <v>2.1627998427054562E-3</v>
         <stp/>
         <stp>IEF</stp>
         <stp>change in percent</stp>
@@ -1248,7 +1249,7 @@
     </main>
     <main first="rtdsrv.b680f398aee849e8bbd7e44ce06d14f2">
       <tp>
-        <v>0</v>
+        <v>1.1333396244220819E-3</v>
         <stp/>
         <stp>AGG</stp>
         <stp>change in percent</stp>
@@ -1257,7 +1258,7 @@
     </main>
     <main first="rtdsrv.b680f398aee849e8bbd7e44ce06d14f2">
       <tp>
-        <v>0</v>
+        <v>-2.3929690219283502E-3</v>
         <stp/>
         <stp>GLD</stp>
         <stp>change in percent</stp>
@@ -1266,7 +1267,7 @@
     </main>
     <main first="rtdsrv.b680f398aee849e8bbd7e44ce06d14f2">
       <tp>
-        <v>0</v>
+        <v>-9.2197370667577092E-3</v>
         <stp/>
         <stp>EWJ</stp>
         <stp>change in percent</stp>
@@ -1275,7 +1276,7 @@
     </main>
     <main first="rtdsrv.b680f398aee849e8bbd7e44ce06d14f2">
       <tp>
-        <v>0</v>
+        <v>-7.916760913820424E-3</v>
         <stp/>
         <stp>EEM</stp>
         <stp>change in percent</stp>
@@ -1284,7 +1285,7 @@
     </main>
     <main first="rtdsrv.b680f398aee849e8bbd7e44ce06d14f2">
       <tp>
-        <v>0</v>
+        <v>-4.8655881279639952E-4</v>
         <stp/>
         <stp>IYR</stp>
         <stp>change in percent</stp>
@@ -1293,14 +1294,14 @@
     </main>
     <main first="rtdsrv.b680f398aee849e8bbd7e44ce06d14f2">
       <tp>
-        <v>0</v>
+        <v>-5.9119772279396321E-3</v>
         <stp/>
         <stp>IEV</stp>
         <stp>change in percent</stp>
         <tr r="L9" s="1"/>
       </tp>
       <tp>
-        <v>0</v>
+        <v>2.8016109262820552E-4</v>
         <stp/>
         <stp>IVV</stp>
         <stp>change in percent</stp>
@@ -1310,7 +1311,7 @@
     </main>
     <main first="rtdsrv.b680f398aee849e8bbd7e44ce06d14f2">
       <tp>
-        <v>0</v>
+        <v>4.8649555443717324E-3</v>
         <stp/>
         <stp>TLT</stp>
         <stp>change in percent</stp>
@@ -1319,7 +1320,7 @@
     </main>
     <main first="rtdsrv.b680f398aee849e8bbd7e44ce06d14f2">
       <tp>
-        <v>0</v>
+        <v>-5.6890012642223523E-3</v>
         <stp/>
         <stp>RWX</stp>
         <stp>change in percent</stp>
@@ -1328,7 +1329,7 @@
     </main>
     <main first="rtdsrv.b680f398aee849e8bbd7e44ce06d14f2">
       <tp>
-        <v>0</v>
+        <v>3.6092396535131253E-4</v>
         <stp/>
         <stp>SHY</stp>
         <stp>change in percent</stp>
@@ -1337,7 +1338,7 @@
     </main>
     <main first="rtdsrv.b680f398aee849e8bbd7e44ce06d14f2">
       <tp>
-        <v>38.303100000000001</v>
+        <v>38.28</v>
         <stp/>
         <stp>GAL</stp>
         <stp>last</stp>
@@ -1346,7 +1347,7 @@
     </main>
     <main first="rtdsrv.b680f398aee849e8bbd7e44ce06d14f2">
       <tp>
-        <v>17.16</v>
+        <v>17.22</v>
         <stp/>
         <stp>DBC</stp>
         <stp>last</stp>
@@ -1356,7 +1357,7 @@
     </main>
     <main first="rtdsrv.b680f398aee849e8bbd7e44ce06d14f2">
       <tp>
-        <v>101.72</v>
+        <v>101.94</v>
         <stp/>
         <stp>IEF</stp>
         <stp>last</stp>
@@ -1365,14 +1366,14 @@
     </main>
     <main first="rtdsrv.b680f398aee849e8bbd7e44ce06d14f2">
       <tp>
-        <v>44.21</v>
+        <v>43.86</v>
         <stp/>
         <stp>EEM</stp>
         <stp>last</stp>
         <tr r="J10" s="1"/>
       </tp>
       <tp>
-        <v>45.67</v>
+        <v>45.4</v>
         <stp/>
         <stp>IEV</stp>
         <stp>last</stp>
@@ -1381,7 +1382,7 @@
     </main>
     <main first="rtdsrv.b680f398aee849e8bbd7e44ce06d14f2">
       <tp>
-        <v>522.6</v>
+        <v>520.69000000000005</v>
         <stp/>
         <stp>ISRG</stp>
         <stp>last</stp>
@@ -1390,7 +1391,7 @@
     </main>
     <main first="rtdsrv.b680f398aee849e8bbd7e44ce06d14f2">
       <tp>
-        <v>46.82</v>
+        <v>46.930399999999999</v>
         <stp/>
         <stp>QQQE</stp>
         <stp>last</stp>
@@ -1408,7 +1409,7 @@
     </main>
     <main first="rtdsrv.b680f398aee849e8bbd7e44ce06d14f2">
       <tp>
-        <v>83.12</v>
+        <v>83.15</v>
         <stp/>
         <stp>SHY</stp>
         <stp>last</stp>
@@ -1427,7 +1428,7 @@
     </main>
     <main first="rtdsrv.b680f398aee849e8bbd7e44ce06d14f2">
       <tp>
-        <v>1823.29</v>
+        <v>1828.72</v>
         <stp/>
         <stp>AMZN</stp>
         <stp>last</stp>
@@ -1436,7 +1437,7 @@
     </main>
     <main first="rtdsrv.b680f398aee849e8bbd7e44ce06d14f2">
       <tp>
-        <v>114.92</v>
+        <v>114.645</v>
         <stp/>
         <stp>GLD</stp>
         <stp>last</stp>
@@ -1445,7 +1446,7 @@
     </main>
     <main first="rtdsrv.b680f398aee849e8bbd7e44ce06d14f2">
       <tp>
-        <v>119.22</v>
+        <v>119.8</v>
         <stp/>
         <stp>TLT</stp>
         <stp>last</stp>
@@ -1475,14 +1476,14 @@
         <tr r="M4" s="1"/>
       </tp>
       <tp>
-        <v>2.36</v>
+        <v>2.35</v>
         <stp/>
         <stp>IEF</stp>
         <stp>dividend yield</stp>
         <tr r="M11" s="1"/>
       </tp>
       <tp>
-        <v>4.63</v>
+        <v>4.67</v>
         <stp/>
         <stp>IEV</stp>
         <stp>dividend yield</stp>
@@ -1496,7 +1497,7 @@
         <tr r="M7" s="1"/>
       </tp>
       <tp>
-        <v>1.31</v>
+        <v>1.32</v>
         <stp/>
         <stp>EEM</stp>
         <stp>dividend yield</stp>
@@ -1526,7 +1527,7 @@
         <tr r="M12" s="1"/>
       </tp>
       <tp>
-        <v>3.63</v>
+        <v>3.66</v>
         <stp/>
         <stp>RWX</stp>
         <stp>dividend yield</stp>
@@ -1544,7 +1545,7 @@
     </main>
     <main first="rtdsrv.b680f398aee849e8bbd7e44ce06d14f2">
       <tp>
-        <v>363.51</v>
+        <v>365.26100000000002</v>
         <stp/>
         <stp>ALGN</stp>
         <stp>last</stp>
@@ -1553,7 +1554,7 @@
     </main>
     <main first="rtdsrv.b680f398aee849e8bbd7e44ce06d14f2">
       <tp>
-        <v>180.08</v>
+        <v>180.14</v>
         <stp/>
         <stp>QQQ</stp>
         <stp>last</stp>
@@ -1571,7 +1572,7 @@
     </main>
     <main first="rtdsrv.b680f398aee849e8bbd7e44ce06d14f2">
       <tp>
-        <v>53.88</v>
+        <v>53.61</v>
         <stp/>
         <stp>STX</stp>
         <stp>last</stp>
@@ -1580,7 +1581,7 @@
     </main>
     <main first="rtdsrv.b680f398aee849e8bbd7e44ce06d14f2">
       <tp>
-        <v>58.57</v>
+        <v>58.03</v>
         <stp/>
         <stp>EWJ</stp>
         <stp>last</stp>
@@ -1589,7 +1590,7 @@
     </main>
     <main first="rtdsrv.b680f398aee849e8bbd7e44ce06d14f2">
       <tp>
-        <v>39.549999999999997</v>
+        <v>39.325000000000003</v>
         <stp/>
         <stp>RWX</stp>
         <stp>last</stp>
@@ -1598,18 +1599,18 @@
     </main>
     <main first="rtdsrv.b680f398aee849e8bbd7e44ce06d14f2">
       <tp>
-        <v>285.55</v>
+        <v>285.63</v>
         <stp/>
         <stp>IVV</stp>
         <stp>last</stp>
-        <tr r="C38" s="4"/>
         <tr r="J3" s="1"/>
         <tr r="C21" s="4"/>
+        <tr r="C38" s="4"/>
       </tp>
     </main>
     <main first="rtdsrv.b680f398aee849e8bbd7e44ce06d14f2">
       <tp>
-        <v>82.21</v>
+        <v>82.17</v>
         <stp/>
         <stp>IYR</stp>
         <stp>last</stp>
@@ -1897,7 +1898,7 @@
   <dimension ref="A1:V46"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="O30" sqref="O30"/>
+      <selection activeCell="E37" sqref="E37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2016,15 +2017,15 @@
       </c>
       <c r="J2" s="4">
         <f>_xll.RealtimeData(A2,"Last")</f>
-        <v>17.16</v>
+        <v>17.22</v>
       </c>
       <c r="K2" s="5">
         <f>J2/D2-1</f>
-        <v>-3.7405491422166537E-2</v>
+        <v>-3.4039776357209228E-2</v>
       </c>
       <c r="L2" s="8">
         <f>_xll.RealtimeData(A2,"Change in Percent")</f>
-        <v>0</v>
+        <v>3.4965034965034206E-3</v>
       </c>
       <c r="M2" s="29" t="str">
         <f>_xll.RealtimeData(A2,"Dividend Yield")</f>
@@ -2047,11 +2048,11 @@
       </c>
       <c r="R2">
         <f t="shared" ref="R2:R11" si="2">ROUND(Q2/J2,0)</f>
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="S2">
         <f t="shared" ref="S2:S11" si="3">R2-H2</f>
-        <v>-11</v>
+        <v>-12</v>
       </c>
       <c r="T2" t="str">
         <f t="shared" ref="T2:T12" si="4">A2</f>
@@ -2059,7 +2060,7 @@
       </c>
       <c r="U2">
         <f>_xll.RealtimeData(T2,"MTD Percent Change")</f>
-        <v>0.94117647000000004</v>
+        <v>1.29411765</v>
       </c>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.25">
@@ -2097,15 +2098,15 @@
       </c>
       <c r="J3" s="4">
         <f>_xll.RealtimeData(A3,"Last")</f>
-        <v>285.55</v>
+        <v>285.63</v>
       </c>
       <c r="K3" s="5">
         <f>J3/D3-1</f>
-        <v>7.2047364558050164E-2</v>
+        <v>7.2347710519053976E-2</v>
       </c>
       <c r="L3" s="8">
         <f>_xll.RealtimeData(A3,"Change in Percent")</f>
-        <v>0</v>
+        <v>2.8016109262820552E-4</v>
       </c>
       <c r="M3" s="29">
         <f>_xll.RealtimeData(A3,"Dividend Yield")</f>
@@ -2140,7 +2141,7 @@
       </c>
       <c r="U3">
         <f>_xll.RealtimeData(T3,"MTD Percent Change")</f>
-        <v>0.94386312000000006</v>
+        <v>0.97214367000000002</v>
       </c>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.25">
@@ -2178,15 +2179,15 @@
       </c>
       <c r="J4" s="4">
         <f>_xll.RealtimeData(A4,"Last")</f>
-        <v>82.21</v>
+        <v>82.17</v>
       </c>
       <c r="K4" s="5">
         <f>J4/D4-1</f>
-        <v>4.8195843427259799E-2</v>
+        <v>4.7685834502103619E-2</v>
       </c>
       <c r="L4" s="8">
         <f t="array" ref="L4">_xll.RealtimeData(A4,"Change in Percent")</f>
-        <v>0</v>
+        <v>-4.8655881279639952E-4</v>
       </c>
       <c r="M4" s="29">
         <f>_xll.RealtimeData(A4,"Dividend Yield")</f>
@@ -2221,7 +2222,7 @@
       </c>
       <c r="U4">
         <f>_xll.RealtimeData(T4,"MTD Percent Change")</f>
-        <v>0.84641805999999997</v>
+        <v>0.79735034000000005</v>
       </c>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.25">
@@ -2259,15 +2260,15 @@
       </c>
       <c r="J5" s="31">
         <f>_xll.RealtimeData(A5,"Last")</f>
-        <v>119.22</v>
+        <v>119.8</v>
       </c>
       <c r="K5" s="5">
         <f>J5/D5-1</f>
-        <v>-2.5134553019041106E-2</v>
+        <v>-2.0391875957734618E-2</v>
       </c>
       <c r="L5" s="8">
         <f t="array" ref="L5">_xll.RealtimeData(A5,"Change in Percent")</f>
-        <v>0</v>
+        <v>4.8649555443717324E-3</v>
       </c>
       <c r="M5" s="29">
         <f>_xll.RealtimeData(A5,"Dividend Yield")</f>
@@ -2302,7 +2303,7 @@
       </c>
       <c r="U5">
         <f>_xll.RealtimeData(T5,"MTD Percent Change")</f>
-        <v>0.64156676999999995</v>
+        <v>1.13118352</v>
       </c>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.25">
@@ -2322,16 +2323,16 @@
       <c r="I6" s="4"/>
       <c r="J6" s="31">
         <f>_xll.RealtimeData(A6,"Last")</f>
-        <v>39.549999999999997</v>
+        <v>39.325000000000003</v>
       </c>
       <c r="K6" s="5"/>
       <c r="L6" s="8">
         <f>_xll.RealtimeData(A6,"Change in Percent")</f>
-        <v>0</v>
+        <v>-5.6890012642223523E-3</v>
       </c>
       <c r="M6" s="29">
         <f>_xll.RealtimeData(A6,"Dividend Yield")</f>
-        <v>3.63</v>
+        <v>3.66</v>
       </c>
       <c r="N6" s="4" t="str">
         <f t="shared" si="0"/>
@@ -2362,7 +2363,7 @@
       </c>
       <c r="U6">
         <f>_xll.RealtimeData(T6,"MTD Percent Change")</f>
-        <v>0.12658227999999999</v>
+        <v>-0.44303797</v>
       </c>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.25">
@@ -2382,12 +2383,12 @@
       <c r="I7" s="4"/>
       <c r="J7" s="31">
         <f>_xll.RealtimeData(A7,"Last")</f>
-        <v>58.57</v>
+        <v>58.03</v>
       </c>
       <c r="K7" s="5"/>
       <c r="L7" s="8">
         <f>_xll.RealtimeData(A7,"Change in Percent")</f>
-        <v>0</v>
+        <v>-9.2197370667577092E-3</v>
       </c>
       <c r="M7" s="29">
         <f>_xll.RealtimeData(A7,"Dividend Yield")</f>
@@ -2422,7 +2423,7 @@
       </c>
       <c r="U7">
         <f>_xll.RealtimeData(T7,"MTD Percent Change")</f>
-        <v>-0.57715159000000005</v>
+        <v>-1.4938041099999999</v>
       </c>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.25">
@@ -2442,12 +2443,12 @@
       <c r="I8" s="4"/>
       <c r="J8" s="31">
         <f>_xll.RealtimeData(A8,"Last")</f>
-        <v>114.92</v>
+        <v>114.645</v>
       </c>
       <c r="K8" s="5"/>
       <c r="L8" s="8">
         <f>_xll.RealtimeData(A8,"Change in Percent")</f>
-        <v>0</v>
+        <v>-2.3929690219283502E-3</v>
       </c>
       <c r="M8" s="29">
         <v>0</v>
@@ -2481,7 +2482,7 @@
       </c>
       <c r="U8">
         <f>_xll.RealtimeData(T8,"MTD Percent Change")</f>
-        <v>-0.19107173999999999</v>
+        <v>-0.42991140999999999</v>
       </c>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.25">
@@ -2501,16 +2502,16 @@
       <c r="I9" s="4"/>
       <c r="J9" s="31">
         <f>_xll.RealtimeData(A9,"Last")</f>
-        <v>45.67</v>
+        <v>45.4</v>
       </c>
       <c r="K9" s="5"/>
       <c r="L9" s="8">
         <f>_xll.RealtimeData(A9,"Change in Percent")</f>
-        <v>0</v>
+        <v>-5.9119772279396321E-3</v>
       </c>
       <c r="M9" s="29">
         <f>_xll.RealtimeData(A9,"Dividend Yield")</f>
-        <v>4.63</v>
+        <v>4.67</v>
       </c>
       <c r="N9" s="4" t="str">
         <f t="shared" si="0"/>
@@ -2541,7 +2542,7 @@
       </c>
       <c r="U9">
         <f>_xll.RealtimeData(T9,"MTD Percent Change")</f>
-        <v>-0.71739129999999995</v>
+        <v>-1.30434783</v>
       </c>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.25">
@@ -2555,16 +2556,16 @@
       <c r="G10" s="4"/>
       <c r="J10" s="31">
         <f>_xll.RealtimeData(A10,"Last")</f>
-        <v>44.21</v>
+        <v>43.86</v>
       </c>
       <c r="K10" s="5"/>
       <c r="L10" s="8">
         <f t="array" ref="L10">_xll.RealtimeData(A10,"Change in Percent")</f>
-        <v>0</v>
+        <v>-7.916760913820424E-3</v>
       </c>
       <c r="M10" s="29">
         <f>_xll.RealtimeData(A10,"Dividend Yield")</f>
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="N10" s="4" t="str">
         <f t="shared" si="0"/>
@@ -2595,7 +2596,7 @@
       </c>
       <c r="U10">
         <f>_xll.RealtimeData(T10,"MTD Percent Change")</f>
-        <v>-0.56230318999999995</v>
+        <v>-1.3495276700000001</v>
       </c>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.25">
@@ -2609,16 +2610,16 @@
       <c r="G11" s="4"/>
       <c r="J11" s="31">
         <f>_xll.RealtimeData(A11,"Last")</f>
-        <v>101.72</v>
+        <v>101.94</v>
       </c>
       <c r="K11" s="5"/>
       <c r="L11" s="8">
         <f t="array" ref="L11">_xll.RealtimeData(A11,"Change in Percent")</f>
-        <v>0</v>
+        <v>2.1627998427054562E-3</v>
       </c>
       <c r="M11" s="29">
         <f>_xll.RealtimeData(A11,"Dividend Yield")</f>
-        <v>2.36</v>
+        <v>2.35</v>
       </c>
       <c r="N11" s="4" t="str">
         <f t="shared" si="0"/>
@@ -2649,7 +2650,7 @@
       </c>
       <c r="U11">
         <f>_xll.RealtimeData(T11,"MTD Percent Change")</f>
-        <v>0.37497533</v>
+        <v>0.59206630999999998</v>
       </c>
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.25">
@@ -2662,11 +2663,11 @@
       </c>
       <c r="J12" s="31">
         <f>_xll.RealtimeData(A12,"Last")</f>
-        <v>83.12</v>
+        <v>83.15</v>
       </c>
       <c r="L12" s="8">
         <f t="array" ref="L12">_xll.RealtimeData(A12,"Change in Percent")</f>
-        <v>0</v>
+        <v>3.6092396535131253E-4</v>
       </c>
       <c r="M12" s="29">
         <f>_xll.RealtimeData(A12,"Dividend Yield")</f>
@@ -2701,7 +2702,7 @@
       </c>
       <c r="U12">
         <f>_xll.RealtimeData(T12,"MTD Percent Change")</f>
-        <v>7.2236939999999999E-2</v>
+        <v>0.10835541</v>
       </c>
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.25">
@@ -2718,11 +2719,11 @@
     <row r="14" spans="1:22" x14ac:dyDescent="0.25">
       <c r="U14" s="29">
         <f t="array" ref="U14">MMULT(TRANSPOSE(O2:O12),U2:U12)</f>
-        <v>0.81889471530000002</v>
+        <v>0.86365515872999987</v>
       </c>
       <c r="V14" s="8">
         <f>U14*0.01</f>
-        <v>8.1889471530000001E-3</v>
+        <v>8.6365515872999996E-3</v>
       </c>
     </row>
     <row r="19" spans="5:16" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
@@ -2765,18 +2766,18 @@
       </c>
       <c r="K21" s="8">
         <f>SUMPRODUCT(K2:K7,F2:F7)</f>
-        <v>2.9623837094378026E-2</v>
+        <v>3.1132086006879098E-2</v>
       </c>
       <c r="M21" t="s">
         <v>34</v>
       </c>
       <c r="N21" s="8">
         <f t="array" ref="N21">MMULT(TRANSPOSE(F2:F5),L2:L5)</f>
-        <v>0</v>
+        <v>1.5503403301894876E-3</v>
       </c>
       <c r="P21" s="8">
         <f t="array" ref="P21">SUMPRODUCT(L2:L12,O2:O12)</f>
-        <v>0</v>
+        <v>4.4355631554620386E-4</v>
       </c>
     </row>
     <row r="22" spans="5:16" x14ac:dyDescent="0.25">
@@ -2791,7 +2792,7 @@
       </c>
       <c r="K22" s="8">
         <f>_xll.RealtimeData(J22,"Change in Percent")</f>
-        <v>0</v>
+        <v>-2.58961428376718E-3</v>
       </c>
       <c r="L22" s="12">
         <v>0.6</v>
@@ -2803,7 +2804,7 @@
       </c>
       <c r="K23" s="8">
         <f>_xll.RealtimeData(J23,"Change in Percent")</f>
-        <v>0</v>
+        <v>1.1333396244220819E-3</v>
       </c>
       <c r="L23" s="12">
         <v>0.4</v>
@@ -2815,7 +2816,7 @@
       </c>
       <c r="K24" s="8">
         <f>_xll.RealtimeData(J24,"Change in Percent")</f>
-        <v>0</v>
+        <v>2.8016109262820552E-4</v>
       </c>
     </row>
     <row r="25" spans="5:16" x14ac:dyDescent="0.25">
@@ -2824,7 +2825,7 @@
       </c>
       <c r="K25" s="8">
         <f t="array" ref="K25">SUMPRODUCT(K22:K23,L22:L23)</f>
-        <v>0</v>
+        <v>-1.1004327204914752E-3</v>
       </c>
     </row>
     <row r="26" spans="5:16" x14ac:dyDescent="0.25">
@@ -2840,7 +2841,7 @@
       </c>
       <c r="K26" s="8">
         <f>_xll.RealtimeData(J26,"Change in Percent")</f>
-        <v>0</v>
+        <v>1.1331444759208555E-3</v>
       </c>
       <c r="L26" t="str">
         <f>_xll.RealtimeData(J26,"Description")</f>
@@ -2853,7 +2854,7 @@
       </c>
       <c r="K27" s="8">
         <f>AVERAGE(L2:L11)</f>
-        <v>0</v>
+        <v>-2.0812584331256052E-3</v>
       </c>
     </row>
     <row r="28" spans="5:16" x14ac:dyDescent="0.25">
@@ -2869,7 +2870,7 @@
       </c>
       <c r="M28" s="8">
         <f>AVERAGE(M2:M11)*0.01</f>
-        <v>2.0522222222222219E-2</v>
+        <v>2.0600000000000004E-2</v>
       </c>
     </row>
     <row r="29" spans="5:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -2896,7 +2897,7 @@
       </c>
       <c r="I31" s="21">
         <f>$N$21</f>
-        <v>0</v>
+        <v>1.5503403301894876E-3</v>
       </c>
       <c r="J31" s="21">
         <f>LOOKUP(2,1/(Daily!E:E&lt;&gt;""),Daily!E:E)</f>
@@ -2917,7 +2918,7 @@
       </c>
       <c r="I32" s="24">
         <f>$K$25</f>
-        <v>0</v>
+        <v>-1.1004327204914752E-3</v>
       </c>
       <c r="J32" s="24">
         <f>LOOKUP(2,1/(Daily!M:M&lt;&gt;""),Daily!M:M)</f>
@@ -2938,7 +2939,7 @@
       </c>
       <c r="I33" s="24">
         <f>$K$24</f>
-        <v>0</v>
+        <v>2.8016109262820552E-4</v>
       </c>
       <c r="J33" s="24">
         <f>LOOKUP(2,1/(Daily!L:L&lt;&gt;""),Daily!L:L)</f>
@@ -2959,7 +2960,7 @@
       </c>
       <c r="I34" s="26">
         <f>$K$26</f>
-        <v>0</v>
+        <v>1.1331444759208555E-3</v>
       </c>
       <c r="J34" s="26">
         <f>LOOKUP(2,1/(Daily!N:N&lt;&gt;""),Daily!N:N)</f>
@@ -14589,13 +14590,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="G28" sqref="G28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="W24" sqref="W24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="8.7109375" customWidth="1"/>
+    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="9.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -14625,18 +14627,21 @@
         <f>B2*$B$1</f>
         <v>70000</v>
       </c>
+      <c r="G2" s="74">
+        <f>SUM(G5:G10)</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>94</v>
       </c>
       <c r="B3" s="71">
-        <f>1-B2</f>
-        <v>0.30000000000000004</v>
+        <v>0.3</v>
       </c>
       <c r="C3">
         <f>B3*B1</f>
-        <v>30000.000000000004</v>
+        <v>30000</v>
       </c>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.25">
@@ -14667,11 +14672,12 @@
         <v>86</v>
       </c>
       <c r="B5">
+        <f>_xll.HistoricalData(A5,"Close","5/31/2018","5/31/2018","Daily","RemoveHeaders = True","RemoveDates=True")</f>
         <v>331.95</v>
       </c>
       <c r="C5">
         <f>_xll.RealtimeData(A5,"Last")</f>
-        <v>363.51</v>
+        <v>365.26100000000002</v>
       </c>
       <c r="D5">
         <f>ROUNDDOWN(($C$2/6)/B5,0)</f>
@@ -14679,19 +14685,19 @@
       </c>
       <c r="E5" s="8">
         <f>C5/B5-1</f>
-        <v>9.5074559421599592E-2</v>
+        <v>0.10034945021840658</v>
       </c>
       <c r="F5">
         <f>C5*D5</f>
-        <v>12722.85</v>
+        <v>12784.135</v>
       </c>
       <c r="G5" s="73">
         <f>F5/$F$13</f>
-        <v>0.17633909730448727</v>
+        <v>0.17762399860283193</v>
       </c>
       <c r="H5" s="8">
         <f>F5/$F$31</f>
-        <v>0.12468706587970688</v>
+        <v>0.12548882776145887</v>
       </c>
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.25">
@@ -14699,11 +14705,12 @@
         <v>87</v>
       </c>
       <c r="B6">
+        <f>_xll.HistoricalData(A6,"Close","5/31/2018","5/31/2018","Daily","RemoveHeaders = True","RemoveDates=True")</f>
         <v>1629.62</v>
       </c>
       <c r="C6">
         <f>_xll.RealtimeData(A6,"Last")</f>
-        <v>1823.29</v>
+        <v>1828.72</v>
       </c>
       <c r="D6">
         <f t="shared" ref="D6:D10" si="0">ROUNDDOWN(($C$2/6)/B6,0)</f>
@@ -14711,19 +14718,19 @@
       </c>
       <c r="E6" s="8">
         <f t="shared" ref="E6:E10" si="1">C6/B6-1</f>
-        <v>0.11884365680342657</v>
+        <v>0.12217572194744797</v>
       </c>
       <c r="F6">
         <f t="shared" ref="F6:F9" si="2">C6*D6</f>
-        <v>12763.029999999999</v>
+        <v>12801.04</v>
       </c>
       <c r="G6" s="73">
         <f t="shared" ref="G6:G10" si="3">F6/$F$13</f>
-        <v>0.17689599335605544</v>
+        <v>0.17785887829523045</v>
       </c>
       <c r="H6" s="8">
         <f t="shared" ref="H6:H10" si="4">F6/$F$31</f>
-        <v>0.12508083978312054</v>
+        <v>0.12565476692224739</v>
       </c>
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.25">
@@ -14731,6 +14738,7 @@
         <v>88</v>
       </c>
       <c r="B7">
+        <f>_xll.HistoricalData(A7,"Close","5/31/2018","5/31/2018","Daily","RemoveHeaders = True","RemoveDates=True")</f>
         <v>42.38</v>
       </c>
       <c r="C7">
@@ -14751,11 +14759,11 @@
       </c>
       <c r="G7" s="73">
         <f t="shared" si="3"/>
-        <v>0.16324691188110976</v>
+        <v>0.16364813587652235</v>
       </c>
       <c r="H7" s="8">
         <f t="shared" si="4"/>
-        <v>0.11542975305828941</v>
+        <v>0.11561507959524854</v>
       </c>
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.25">
@@ -14763,11 +14771,12 @@
         <v>89</v>
       </c>
       <c r="B8">
+        <f>_xll.HistoricalData(A8,"Close","5/31/2018","5/31/2018","Daily","RemoveHeaders = True","RemoveDates=True")</f>
         <v>459.67</v>
       </c>
       <c r="C8">
         <f>_xll.RealtimeData(A8,"Last")</f>
-        <v>522.6</v>
+        <v>520.69000000000005</v>
       </c>
       <c r="D8">
         <f t="shared" si="0"/>
@@ -14775,19 +14784,19 @@
       </c>
       <c r="E8" s="8">
         <f t="shared" si="1"/>
-        <v>0.13690256053255601</v>
+        <v>0.13274740574760169</v>
       </c>
       <c r="F8">
         <f t="shared" si="2"/>
-        <v>13065</v>
+        <v>13017.250000000002</v>
       </c>
       <c r="G8" s="73">
         <f t="shared" si="3"/>
-        <v>0.18108130696212926</v>
+        <v>0.1808629207852322</v>
       </c>
       <c r="H8" s="8">
         <f t="shared" si="4"/>
-        <v>0.12804022021153832</v>
+        <v>0.12777708019962636</v>
       </c>
     </row>
     <row r="9" spans="1:23" x14ac:dyDescent="0.25">
@@ -14795,11 +14804,12 @@
         <v>90</v>
       </c>
       <c r="B9">
+        <f>_xll.HistoricalData(A9,"Close","5/31/2018","5/31/2018","Daily","RemoveHeaders = True","RemoveDates=True")</f>
         <v>57.59</v>
       </c>
       <c r="C9">
         <f>_xll.RealtimeData(A9,"Last")</f>
-        <v>52.81</v>
+        <v>51.955800000000004</v>
       </c>
       <c r="D9">
         <f t="shared" si="0"/>
@@ -14807,19 +14817,19 @@
       </c>
       <c r="E9" s="8">
         <f t="shared" si="1"/>
-        <v>-8.3000520923771526E-2</v>
+        <v>-9.7832957110609464E-2</v>
       </c>
       <c r="F9">
         <f t="shared" si="2"/>
-        <v>10667.62</v>
+        <v>10495.071600000001</v>
       </c>
       <c r="G9" s="73">
         <f t="shared" si="3"/>
-        <v>0.14785354548605814</v>
+        <v>0.1458195320383445</v>
       </c>
       <c r="H9" s="8">
         <f t="shared" si="4"/>
-        <v>0.10454530531442867</v>
+        <v>0.10301942465067668</v>
       </c>
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.25">
@@ -14827,11 +14837,12 @@
         <v>91</v>
       </c>
       <c r="B10">
+        <f>_xll.HistoricalData(A10,"Close","5/31/2018","5/31/2018","Daily","RemoveHeaders = True","RemoveDates=True")</f>
         <v>56.35</v>
       </c>
       <c r="C10">
         <f>_xll.RealtimeData(A10,"Last")</f>
-        <v>53.88</v>
+        <v>53.61</v>
       </c>
       <c r="D10">
         <f t="shared" si="0"/>
@@ -14839,19 +14850,19 @@
       </c>
       <c r="E10" s="8">
         <f t="shared" si="1"/>
-        <v>-4.3833185448092227E-2</v>
+        <v>-4.8624667258207688E-2</v>
       </c>
       <c r="F10">
         <f>C10*D10</f>
-        <v>11153.16</v>
+        <v>11097.27</v>
       </c>
       <c r="G10" s="73">
         <f t="shared" si="3"/>
-        <v>0.1545831450101601</v>
+        <v>0.1541865344018386</v>
       </c>
       <c r="H10" s="8">
         <f t="shared" si="4"/>
-        <v>0.10930371698848226</v>
+        <v>0.1089305927739659</v>
       </c>
     </row>
     <row r="13" spans="1:23" x14ac:dyDescent="0.25">
@@ -14860,7 +14871,7 @@
       </c>
       <c r="F13">
         <f>SUM(F5:F10)</f>
-        <v>72149.91</v>
+        <v>71973.016600000003</v>
       </c>
     </row>
     <row r="14" spans="1:23" x14ac:dyDescent="0.25">
@@ -14869,7 +14880,7 @@
       </c>
       <c r="F14" s="8">
         <f>F13/C2-1</f>
-        <v>3.071299999999999E-2</v>
+        <v>2.8185951428571387E-2</v>
       </c>
     </row>
     <row r="15" spans="1:23" x14ac:dyDescent="0.25">
@@ -14877,6 +14888,12 @@
         <v>108</v>
       </c>
     </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H17" s="11">
+        <f>SUM(H20:H23)</f>
+        <v>1</v>
+      </c>
+    </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>95</v>
@@ -14913,7 +14930,7 @@
       </c>
       <c r="C20">
         <f>_xll.RealtimeData(A20,"Last")</f>
-        <v>17.16</v>
+        <v>17.22</v>
       </c>
       <c r="D20">
         <f>ROUNDDOWN(($C$3*E20)/B20,0)</f>
@@ -14924,19 +14941,19 @@
       </c>
       <c r="F20" s="8">
         <f>C20/B20-1</f>
-        <v>9.4117647058824527E-3</v>
+        <v>1.2941176470588234E-2</v>
       </c>
       <c r="G20">
         <f>D20*C20</f>
-        <v>4290</v>
+        <v>4305</v>
       </c>
       <c r="H20" s="8">
         <f>G20/$G$27</f>
-        <v>0.14353423442051316</v>
+        <v>0.14397189187092227</v>
       </c>
       <c r="I20" s="8">
         <f>G20/$F$31</f>
-        <v>4.2043057382893177E-2</v>
+        <v>4.225779871012629E-2</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
@@ -14949,10 +14966,10 @@
       </c>
       <c r="C21">
         <f>_xll.RealtimeData(A21,"Last")</f>
-        <v>285.55</v>
+        <v>285.63</v>
       </c>
       <c r="D21">
-        <f t="shared" ref="D21:D23" si="5">ROUNDDOWN(($C$3*E21)/B21,0)</f>
+        <f t="shared" ref="D21:D22" si="5">ROUNDDOWN(($C$3*E21)/B21,0)</f>
         <v>38</v>
       </c>
       <c r="E21" s="11">
@@ -14960,19 +14977,19 @@
       </c>
       <c r="F21" s="8">
         <f t="shared" ref="F21:F23" si="6">C21/B21-1</f>
-        <v>9.4386312217196178E-3</v>
+        <v>9.7214366515836481E-3</v>
       </c>
       <c r="G21">
-        <f t="shared" ref="G21:G23" si="7">D21*C21</f>
-        <v>10850.9</v>
+        <f t="shared" ref="G21:G22" si="7">D21*C21</f>
+        <v>10853.94</v>
       </c>
       <c r="H21" s="8">
         <f t="shared" ref="H21:H23" si="8">G21/$G$27</f>
-        <v>0.36304793106609468</v>
+        <v>0.36298775285795076</v>
       </c>
       <c r="I21" s="8">
         <f t="shared" ref="I21:I23" si="9">G21/$F$31</f>
-        <v>0.10634149448858639</v>
+        <v>0.10654207008868483</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
@@ -14985,7 +15002,7 @@
       </c>
       <c r="C22">
         <f>_xll.RealtimeData(A22,"Last")</f>
-        <v>82.21</v>
+        <v>82.17</v>
       </c>
       <c r="D22">
         <f t="shared" si="5"/>
@@ -14996,19 +15013,19 @@
       </c>
       <c r="F22" s="8">
         <f t="shared" si="6"/>
-        <v>8.4641805691854088E-3</v>
+        <v>7.9735034347399036E-3</v>
       </c>
       <c r="G22">
         <f t="shared" si="7"/>
-        <v>11838.24</v>
+        <v>11832.48</v>
       </c>
       <c r="H22" s="8">
         <f t="shared" si="8"/>
-        <v>0.39608221801545351</v>
+        <v>0.39571301536001169</v>
       </c>
       <c r="I22" s="8">
         <f t="shared" si="9"/>
-        <v>0.11601766984439658</v>
+        <v>0.11614740025124161</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
@@ -15021,10 +15038,10 @@
       </c>
       <c r="C23">
         <f>_xll.RealtimeData(A23,"Last")</f>
-        <v>83.12</v>
+        <v>83.15</v>
       </c>
       <c r="D23">
-        <f t="shared" si="5"/>
+        <f>ROUNDDOWN(($C$3*E23)/B23,0)</f>
         <v>35</v>
       </c>
       <c r="E23" s="11">
@@ -15032,19 +15049,19 @@
       </c>
       <c r="F23" s="8">
         <f t="shared" si="6"/>
-        <v>7.2236937153857816E-4</v>
+        <v>1.0835540573079783E-3</v>
       </c>
       <c r="G23">
-        <f t="shared" si="7"/>
-        <v>2909.2000000000003</v>
+        <f>D23*C23</f>
+        <v>2910.25</v>
       </c>
       <c r="H23" s="8">
         <f t="shared" si="8"/>
-        <v>9.7335616497938676E-2</v>
+        <v>9.7327339911115335E-2</v>
       </c>
       <c r="I23" s="8">
         <f t="shared" si="9"/>
-        <v>2.8510877048557773E-2</v>
+        <v>2.8566959046723586E-2</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
@@ -15056,7 +15073,7 @@
       </c>
       <c r="G27">
         <f>SUM(G20:G23)</f>
-        <v>29888.34</v>
+        <v>29901.67</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
@@ -15065,7 +15082,7 @@
       </c>
       <c r="G28" s="8">
         <f>G27/C3-1</f>
-        <v>-3.7220000000001141E-3</v>
+        <v>-3.2776666666667342E-3</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
@@ -15074,7 +15091,7 @@
       </c>
       <c r="F31">
         <f>SUM(F13,G27)</f>
-        <v>102038.25</v>
+        <v>101874.6866</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
@@ -15083,7 +15100,7 @@
       </c>
       <c r="F33" s="8">
         <f>F31/B1-1</f>
-        <v>2.038249999999997E-2</v>
+        <v>1.8746866000000084E-2</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
@@ -15096,14 +15113,17 @@
       </c>
       <c r="C37">
         <f>_xll.RealtimeData(A37,"Last")</f>
-        <v>38.303100000000001</v>
+        <v>38.28</v>
       </c>
       <c r="D37" s="8">
         <f>C37/B37-1</f>
-        <v>1.1265028750653272E-3</v>
+        <v>5.2273915316258801E-4</v>
       </c>
       <c r="E37" s="11"/>
-      <c r="F37" s="8"/>
+      <c r="F37" s="8">
+        <f>D37*$B$3+D40*$B$2</f>
+        <v>3.5084785951765229E-2</v>
+      </c>
       <c r="H37" s="8"/>
       <c r="I37" s="8"/>
     </row>
@@ -15117,11 +15137,11 @@
       </c>
       <c r="C38">
         <f>_xll.RealtimeData(A38,"Last")</f>
-        <v>285.55</v>
+        <v>285.63</v>
       </c>
       <c r="D38" s="8">
         <f t="shared" ref="D38:D40" si="10">C38/B38-1</f>
-        <v>4.7006196604700623E-2</v>
+        <v>4.7299527004729836E-2</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
@@ -15134,11 +15154,11 @@
       </c>
       <c r="C39">
         <f>_xll.RealtimeData(A39,"Last")</f>
-        <v>180.08</v>
+        <v>180.14</v>
       </c>
       <c r="D39" s="8">
         <f t="shared" si="10"/>
-        <v>5.8858117245840003E-2</v>
+        <v>5.9210913153407319E-2</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
@@ -15151,11 +15171,11 @@
       </c>
       <c r="C40">
         <f>_xll.RealtimeData(A40,"Last")</f>
-        <v>46.82</v>
+        <v>46.930399999999999</v>
       </c>
       <c r="D40" s="8">
         <f t="shared" si="10"/>
-        <v>4.7427293064876919E-2</v>
+        <v>4.9897091722594933E-2</v>
       </c>
     </row>
   </sheetData>

--- a/Portfolio.xlsx
+++ b/Portfolio.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12135" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12135"/>
   </bookViews>
   <sheets>
     <sheet name="Portfolio" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="112">
   <si>
     <t>Symbol</t>
   </si>
@@ -361,15 +361,19 @@
   <si>
     <t>QQQ</t>
   </si>
+  <si>
+    <t>IMV</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="3">
+  <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="0.0%"/>
+    <numFmt numFmtId="166" formatCode="0.0"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -840,7 +844,7 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="75">
+  <cellXfs count="76">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1004,6 +1008,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -1028,7 +1033,7 @@
   <volType type="realTimeData">
     <main first="rtdsrv.b680f398aee849e8bbd7e44ce06d14f2">
       <tp>
-        <v>-2.58961428376718E-3</v>
+        <v>-1.362954886193962E-4</v>
         <stp/>
         <stp>ACWI</stp>
         <stp>change in percent</stp>
@@ -1037,56 +1042,56 @@
     </main>
     <main first="rtdsrv.b680f398aee849e8bbd7e44ce06d14f2">
       <tp>
-        <v>1.13118352</v>
+        <v>0.81968596999999999</v>
         <stp/>
         <stp>TLT</stp>
         <stp>mtd percent change</stp>
         <tr r="U5" s="1"/>
       </tp>
       <tp>
-        <v>0.10835541</v>
+        <v>9.6315919999999999E-2</v>
         <stp/>
         <stp>SHY</stp>
         <stp>mtd percent change</stp>
         <tr r="U12" s="1"/>
       </tp>
       <tp>
-        <v>-0.44303797</v>
+        <v>-0.37974683999999997</v>
         <stp/>
         <stp>RWX</stp>
         <stp>mtd percent change</stp>
         <tr r="U6" s="1"/>
       </tp>
       <tp>
-        <v>0.97214367000000002</v>
+        <v>1.3009049800000001</v>
         <stp/>
         <stp>IVV</stp>
         <stp>mtd percent change</stp>
         <tr r="U3" s="1"/>
       </tp>
       <tp>
-        <v>0.79735034000000005</v>
+        <v>0.50294406000000003</v>
         <stp/>
         <stp>IYR</stp>
         <stp>mtd percent change</stp>
         <tr r="U4" s="1"/>
       </tp>
       <tp>
-        <v>-1.30434783</v>
+        <v>-1.19565217</v>
         <stp/>
         <stp>IEV</stp>
         <stp>mtd percent change</stp>
         <tr r="U9" s="1"/>
       </tp>
       <tp>
-        <v>0.59206630999999998</v>
+        <v>0.47858694000000002</v>
         <stp/>
         <stp>IEF</stp>
         <stp>mtd percent change</stp>
         <tr r="U11" s="1"/>
       </tp>
       <tp>
-        <v>-0.42991140999999999</v>
+        <v>-0.71955880000000005</v>
         <stp/>
         <stp>GLD</stp>
         <stp>mtd percent change</stp>
@@ -1095,21 +1100,21 @@
     </main>
     <main first="rtdsrv.b680f398aee849e8bbd7e44ce06d14f2">
       <tp>
-        <v>-1.4938041099999999</v>
+        <v>-1.3155661199999999</v>
         <stp/>
         <stp>EWJ</stp>
         <stp>mtd percent change</stp>
         <tr r="U7" s="1"/>
       </tp>
       <tp>
-        <v>-1.3495276700000001</v>
+        <v>-1.2145748999999999</v>
         <stp/>
         <stp>EEM</stp>
         <stp>mtd percent change</stp>
         <tr r="U10" s="1"/>
       </tp>
       <tp>
-        <v>1.29411765</v>
+        <v>1.14705882</v>
         <stp/>
         <stp>DBC</stp>
         <stp>mtd percent change</stp>
@@ -1118,7 +1123,7 @@
     </main>
     <main first="rtdsrv.b680f398aee849e8bbd7e44ce06d14f2">
       <tp>
-        <v>1.1331444759208555E-3</v>
+        <v>2.8328611898017393E-3</v>
         <stp/>
         <stp>GYLD</stp>
         <stp>change in percent</stp>
@@ -1145,7 +1150,7 @@
     </main>
     <main first="rtdsrv.b680f398aee849e8bbd7e44ce06d14f2">
       <tp>
-        <v>51.955800000000004</v>
+        <v>52.79</v>
         <stp/>
         <stp>MU</stp>
         <stp>last</stp>
@@ -1231,7 +1236,7 @@
     </main>
     <main first="rtdsrv.b680f398aee849e8bbd7e44ce06d14f2">
       <tp>
-        <v>3.4965034965034206E-3</v>
+        <v>2.0396270396270456E-3</v>
         <stp/>
         <stp>DBC</stp>
         <stp>change in percent</stp>
@@ -1240,7 +1245,7 @@
     </main>
     <main first="rtdsrv.b680f398aee849e8bbd7e44ce06d14f2">
       <tp>
-        <v>2.1627998427054562E-3</v>
+        <v>1.0322453794731027E-3</v>
         <stp/>
         <stp>IEF</stp>
         <stp>change in percent</stp>
@@ -1249,7 +1254,7 @@
     </main>
     <main first="rtdsrv.b680f398aee849e8bbd7e44ce06d14f2">
       <tp>
-        <v>1.1333396244220819E-3</v>
+        <v>9.4366330093417295E-4</v>
         <stp/>
         <stp>AGG</stp>
         <stp>change in percent</stp>
@@ -1258,7 +1263,7 @@
     </main>
     <main first="rtdsrv.b680f398aee849e8bbd7e44ce06d14f2">
       <tp>
-        <v>-2.3929690219283502E-3</v>
+        <v>-5.2949878176123044E-3</v>
         <stp/>
         <stp>GLD</stp>
         <stp>change in percent</stp>
@@ -1267,7 +1272,7 @@
     </main>
     <main first="rtdsrv.b680f398aee849e8bbd7e44ce06d14f2">
       <tp>
-        <v>-9.2197370667577092E-3</v>
+        <v>-7.3416424790848558E-3</v>
         <stp/>
         <stp>EWJ</stp>
         <stp>change in percent</stp>
@@ -1276,7 +1281,7 @@
     </main>
     <main first="rtdsrv.b680f398aee849e8bbd7e44ce06d14f2">
       <tp>
-        <v>-7.916760913820424E-3</v>
+        <v>-6.6726984845058126E-3</v>
         <stp/>
         <stp>EEM</stp>
         <stp>change in percent</stp>
@@ -1285,7 +1290,7 @@
     </main>
     <main first="rtdsrv.b680f398aee849e8bbd7e44ce06d14f2">
       <tp>
-        <v>-4.8655881279639952E-4</v>
+        <v>-3.4059116895753193E-3</v>
         <stp/>
         <stp>IYR</stp>
         <stp>change in percent</stp>
@@ -1294,14 +1299,14 @@
     </main>
     <main first="rtdsrv.b680f398aee849e8bbd7e44ce06d14f2">
       <tp>
-        <v>-5.9119772279396321E-3</v>
+        <v>-4.8171666301729584E-3</v>
         <stp/>
         <stp>IEV</stp>
         <stp>change in percent</stp>
         <tr r="L9" s="1"/>
       </tp>
       <tp>
-        <v>2.8016109262820552E-4</v>
+        <v>3.5370337944317632E-3</v>
         <stp/>
         <stp>IVV</stp>
         <stp>change in percent</stp>
@@ -1311,7 +1316,7 @@
     </main>
     <main first="rtdsrv.b680f398aee849e8bbd7e44ce06d14f2">
       <tp>
-        <v>4.8649555443717324E-3</v>
+        <v>1.7698372756248866E-3</v>
         <stp/>
         <stp>TLT</stp>
         <stp>change in percent</stp>
@@ -1320,7 +1325,7 @@
     </main>
     <main first="rtdsrv.b680f398aee849e8bbd7e44ce06d14f2">
       <tp>
-        <v>-5.6890012642223523E-3</v>
+        <v>-5.056890012642124E-3</v>
         <stp/>
         <stp>RWX</stp>
         <stp>change in percent</stp>
@@ -1329,7 +1334,7 @@
     </main>
     <main first="rtdsrv.b680f398aee849e8bbd7e44ce06d14f2">
       <tp>
-        <v>3.6092396535131253E-4</v>
+        <v>2.4061597690081809E-4</v>
         <stp/>
         <stp>SHY</stp>
         <stp>change in percent</stp>
@@ -1338,7 +1343,7 @@
     </main>
     <main first="rtdsrv.b680f398aee849e8bbd7e44ce06d14f2">
       <tp>
-        <v>38.28</v>
+        <v>38.406599999999997</v>
         <stp/>
         <stp>GAL</stp>
         <stp>last</stp>
@@ -1347,7 +1352,7 @@
     </main>
     <main first="rtdsrv.b680f398aee849e8bbd7e44ce06d14f2">
       <tp>
-        <v>17.22</v>
+        <v>17.195</v>
         <stp/>
         <stp>DBC</stp>
         <stp>last</stp>
@@ -1357,7 +1362,7 @@
     </main>
     <main first="rtdsrv.b680f398aee849e8bbd7e44ce06d14f2">
       <tp>
-        <v>101.94</v>
+        <v>101.825</v>
         <stp/>
         <stp>IEF</stp>
         <stp>last</stp>
@@ -1366,14 +1371,14 @@
     </main>
     <main first="rtdsrv.b680f398aee849e8bbd7e44ce06d14f2">
       <tp>
-        <v>43.86</v>
+        <v>43.914999999999999</v>
         <stp/>
         <stp>EEM</stp>
         <stp>last</stp>
         <tr r="J10" s="1"/>
       </tp>
       <tp>
-        <v>45.4</v>
+        <v>45.45</v>
         <stp/>
         <stp>IEV</stp>
         <stp>last</stp>
@@ -1382,7 +1387,7 @@
     </main>
     <main first="rtdsrv.b680f398aee849e8bbd7e44ce06d14f2">
       <tp>
-        <v>520.69000000000005</v>
+        <v>518.92499999999995</v>
         <stp/>
         <stp>ISRG</stp>
         <stp>last</stp>
@@ -1391,7 +1396,7 @@
     </main>
     <main first="rtdsrv.b680f398aee849e8bbd7e44ce06d14f2">
       <tp>
-        <v>46.930399999999999</v>
+        <v>47.04</v>
         <stp/>
         <stp>QQQE</stp>
         <stp>last</stp>
@@ -1409,7 +1414,7 @@
     </main>
     <main first="rtdsrv.b680f398aee849e8bbd7e44ce06d14f2">
       <tp>
-        <v>83.15</v>
+        <v>83.14</v>
         <stp/>
         <stp>SHY</stp>
         <stp>last</stp>
@@ -1428,7 +1433,7 @@
     </main>
     <main first="rtdsrv.b680f398aee849e8bbd7e44ce06d14f2">
       <tp>
-        <v>1828.72</v>
+        <v>1845.2989</v>
         <stp/>
         <stp>AMZN</stp>
         <stp>last</stp>
@@ -1437,7 +1442,7 @@
     </main>
     <main first="rtdsrv.b680f398aee849e8bbd7e44ce06d14f2">
       <tp>
-        <v>114.645</v>
+        <v>114.3115</v>
         <stp/>
         <stp>GLD</stp>
         <stp>last</stp>
@@ -1446,7 +1451,7 @@
     </main>
     <main first="rtdsrv.b680f398aee849e8bbd7e44ce06d14f2">
       <tp>
-        <v>119.8</v>
+        <v>119.431</v>
         <stp/>
         <stp>TLT</stp>
         <stp>last</stp>
@@ -1476,7 +1481,7 @@
         <tr r="M4" s="1"/>
       </tp>
       <tp>
-        <v>2.35</v>
+        <v>2.36</v>
         <stp/>
         <stp>IEF</stp>
         <stp>dividend yield</stp>
@@ -1513,7 +1518,7 @@
     </main>
     <main first="rtdsrv.b680f398aee849e8bbd7e44ce06d14f2">
       <tp>
-        <v>2.69</v>
+        <v>2.68</v>
         <stp/>
         <stp>TLT</stp>
         <stp>dividend yield</stp>
@@ -1527,7 +1532,7 @@
         <tr r="M12" s="1"/>
       </tp>
       <tp>
-        <v>3.66</v>
+        <v>3.65</v>
         <stp/>
         <stp>RWX</stp>
         <stp>dividend yield</stp>
@@ -1545,7 +1550,7 @@
     </main>
     <main first="rtdsrv.b680f398aee849e8bbd7e44ce06d14f2">
       <tp>
-        <v>365.26100000000002</v>
+        <v>368.15</v>
         <stp/>
         <stp>ALGN</stp>
         <stp>last</stp>
@@ -1554,7 +1559,7 @@
     </main>
     <main first="rtdsrv.b680f398aee849e8bbd7e44ce06d14f2">
       <tp>
-        <v>180.14</v>
+        <v>181.07</v>
         <stp/>
         <stp>QQQ</stp>
         <stp>last</stp>
@@ -1563,7 +1568,7 @@
     </main>
     <main first="rtdsrv.b680f398aee849e8bbd7e44ce06d14f2">
       <tp>
-        <v>42.83</v>
+        <v>43.365000000000002</v>
         <stp/>
         <stp>CSCO</stp>
         <stp>last</stp>
@@ -1572,7 +1577,7 @@
     </main>
     <main first="rtdsrv.b680f398aee849e8bbd7e44ce06d14f2">
       <tp>
-        <v>53.61</v>
+        <v>54.024999999999999</v>
         <stp/>
         <stp>STX</stp>
         <stp>last</stp>
@@ -1581,7 +1586,7 @@
     </main>
     <main first="rtdsrv.b680f398aee849e8bbd7e44ce06d14f2">
       <tp>
-        <v>58.03</v>
+        <v>58.14</v>
         <stp/>
         <stp>EWJ</stp>
         <stp>last</stp>
@@ -1590,7 +1595,7 @@
     </main>
     <main first="rtdsrv.b680f398aee849e8bbd7e44ce06d14f2">
       <tp>
-        <v>39.325000000000003</v>
+        <v>39.35</v>
         <stp/>
         <stp>RWX</stp>
         <stp>last</stp>
@@ -1599,7 +1604,7 @@
     </main>
     <main first="rtdsrv.b680f398aee849e8bbd7e44ce06d14f2">
       <tp>
-        <v>285.63</v>
+        <v>286.56</v>
         <stp/>
         <stp>IVV</stp>
         <stp>last</stp>
@@ -1610,7 +1615,7 @@
     </main>
     <main first="rtdsrv.b680f398aee849e8bbd7e44ce06d14f2">
       <tp>
-        <v>82.17</v>
+        <v>81.93</v>
         <stp/>
         <stp>IYR</stp>
         <stp>last</stp>
@@ -1897,8 +1902,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:V46"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E37" sqref="E37"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="S23" sqref="S23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2017,15 +2022,15 @@
       </c>
       <c r="J2" s="4">
         <f>_xll.RealtimeData(A2,"Last")</f>
-        <v>17.22</v>
+        <v>17.195</v>
       </c>
       <c r="K2" s="5">
         <f>J2/D2-1</f>
-        <v>-3.4039776357209228E-2</v>
+        <v>-3.5442157634274718E-2</v>
       </c>
       <c r="L2" s="8">
         <f>_xll.RealtimeData(A2,"Change in Percent")</f>
-        <v>3.4965034965034206E-3</v>
+        <v>2.0396270396270456E-3</v>
       </c>
       <c r="M2" s="29" t="str">
         <f>_xll.RealtimeData(A2,"Dividend Yield")</f>
@@ -2060,7 +2065,7 @@
       </c>
       <c r="U2">
         <f>_xll.RealtimeData(T2,"MTD Percent Change")</f>
-        <v>1.29411765</v>
+        <v>1.14705882</v>
       </c>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.25">
@@ -2098,15 +2103,15 @@
       </c>
       <c r="J3" s="4">
         <f>_xll.RealtimeData(A3,"Last")</f>
-        <v>285.63</v>
+        <v>286.56</v>
       </c>
       <c r="K3" s="5">
         <f>J3/D3-1</f>
-        <v>7.2347710519053976E-2</v>
+        <v>7.5839232315723537E-2</v>
       </c>
       <c r="L3" s="8">
         <f>_xll.RealtimeData(A3,"Change in Percent")</f>
-        <v>2.8016109262820552E-4</v>
+        <v>3.5370337944317632E-3</v>
       </c>
       <c r="M3" s="29">
         <f>_xll.RealtimeData(A3,"Dividend Yield")</f>
@@ -2141,7 +2146,7 @@
       </c>
       <c r="U3">
         <f>_xll.RealtimeData(T3,"MTD Percent Change")</f>
-        <v>0.97214367000000002</v>
+        <v>1.3009049800000001</v>
       </c>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.25">
@@ -2179,15 +2184,15 @@
       </c>
       <c r="J4" s="4">
         <f>_xll.RealtimeData(A4,"Last")</f>
-        <v>82.17</v>
+        <v>81.93</v>
       </c>
       <c r="K4" s="5">
         <f>J4/D4-1</f>
-        <v>4.7685834502103619E-2</v>
+        <v>4.4625780951166538E-2</v>
       </c>
       <c r="L4" s="8">
         <f t="array" ref="L4">_xll.RealtimeData(A4,"Change in Percent")</f>
-        <v>-4.8655881279639952E-4</v>
+        <v>-3.4059116895753193E-3</v>
       </c>
       <c r="M4" s="29">
         <f>_xll.RealtimeData(A4,"Dividend Yield")</f>
@@ -2222,7 +2227,7 @@
       </c>
       <c r="U4">
         <f>_xll.RealtimeData(T4,"MTD Percent Change")</f>
-        <v>0.79735034000000005</v>
+        <v>0.50294406000000003</v>
       </c>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.25">
@@ -2260,19 +2265,19 @@
       </c>
       <c r="J5" s="31">
         <f>_xll.RealtimeData(A5,"Last")</f>
-        <v>119.8</v>
+        <v>119.431</v>
       </c>
       <c r="K5" s="5">
         <f>J5/D5-1</f>
-        <v>-2.0391875957734618E-2</v>
+        <v>-2.3409199812255421E-2</v>
       </c>
       <c r="L5" s="8">
         <f t="array" ref="L5">_xll.RealtimeData(A5,"Change in Percent")</f>
-        <v>4.8649555443717324E-3</v>
+        <v>1.7698372756248866E-3</v>
       </c>
       <c r="M5" s="29">
         <f>_xll.RealtimeData(A5,"Dividend Yield")</f>
-        <v>2.69</v>
+        <v>2.68</v>
       </c>
       <c r="N5" s="4" t="str">
         <f t="shared" si="0"/>
@@ -2303,7 +2308,7 @@
       </c>
       <c r="U5">
         <f>_xll.RealtimeData(T5,"MTD Percent Change")</f>
-        <v>1.13118352</v>
+        <v>0.81968596999999999</v>
       </c>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.25">
@@ -2323,16 +2328,16 @@
       <c r="I6" s="4"/>
       <c r="J6" s="31">
         <f>_xll.RealtimeData(A6,"Last")</f>
-        <v>39.325000000000003</v>
+        <v>39.35</v>
       </c>
       <c r="K6" s="5"/>
       <c r="L6" s="8">
         <f>_xll.RealtimeData(A6,"Change in Percent")</f>
-        <v>-5.6890012642223523E-3</v>
+        <v>-5.056890012642124E-3</v>
       </c>
       <c r="M6" s="29">
         <f>_xll.RealtimeData(A6,"Dividend Yield")</f>
-        <v>3.66</v>
+        <v>3.65</v>
       </c>
       <c r="N6" s="4" t="str">
         <f t="shared" si="0"/>
@@ -2363,7 +2368,7 @@
       </c>
       <c r="U6">
         <f>_xll.RealtimeData(T6,"MTD Percent Change")</f>
-        <v>-0.44303797</v>
+        <v>-0.37974683999999997</v>
       </c>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.25">
@@ -2383,12 +2388,12 @@
       <c r="I7" s="4"/>
       <c r="J7" s="31">
         <f>_xll.RealtimeData(A7,"Last")</f>
-        <v>58.03</v>
+        <v>58.14</v>
       </c>
       <c r="K7" s="5"/>
       <c r="L7" s="8">
         <f>_xll.RealtimeData(A7,"Change in Percent")</f>
-        <v>-9.2197370667577092E-3</v>
+        <v>-7.3416424790848558E-3</v>
       </c>
       <c r="M7" s="29">
         <f>_xll.RealtimeData(A7,"Dividend Yield")</f>
@@ -2423,7 +2428,7 @@
       </c>
       <c r="U7">
         <f>_xll.RealtimeData(T7,"MTD Percent Change")</f>
-        <v>-1.4938041099999999</v>
+        <v>-1.3155661199999999</v>
       </c>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.25">
@@ -2443,12 +2448,12 @@
       <c r="I8" s="4"/>
       <c r="J8" s="31">
         <f>_xll.RealtimeData(A8,"Last")</f>
-        <v>114.645</v>
+        <v>114.3115</v>
       </c>
       <c r="K8" s="5"/>
       <c r="L8" s="8">
         <f>_xll.RealtimeData(A8,"Change in Percent")</f>
-        <v>-2.3929690219283502E-3</v>
+        <v>-5.2949878176123044E-3</v>
       </c>
       <c r="M8" s="29">
         <v>0</v>
@@ -2482,7 +2487,7 @@
       </c>
       <c r="U8">
         <f>_xll.RealtimeData(T8,"MTD Percent Change")</f>
-        <v>-0.42991140999999999</v>
+        <v>-0.71955880000000005</v>
       </c>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.25">
@@ -2502,12 +2507,12 @@
       <c r="I9" s="4"/>
       <c r="J9" s="31">
         <f>_xll.RealtimeData(A9,"Last")</f>
-        <v>45.4</v>
+        <v>45.45</v>
       </c>
       <c r="K9" s="5"/>
       <c r="L9" s="8">
         <f>_xll.RealtimeData(A9,"Change in Percent")</f>
-        <v>-5.9119772279396321E-3</v>
+        <v>-4.8171666301729584E-3</v>
       </c>
       <c r="M9" s="29">
         <f>_xll.RealtimeData(A9,"Dividend Yield")</f>
@@ -2542,7 +2547,7 @@
       </c>
       <c r="U9">
         <f>_xll.RealtimeData(T9,"MTD Percent Change")</f>
-        <v>-1.30434783</v>
+        <v>-1.19565217</v>
       </c>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.25">
@@ -2556,12 +2561,12 @@
       <c r="G10" s="4"/>
       <c r="J10" s="31">
         <f>_xll.RealtimeData(A10,"Last")</f>
-        <v>43.86</v>
+        <v>43.914999999999999</v>
       </c>
       <c r="K10" s="5"/>
       <c r="L10" s="8">
         <f t="array" ref="L10">_xll.RealtimeData(A10,"Change in Percent")</f>
-        <v>-7.916760913820424E-3</v>
+        <v>-6.6726984845058126E-3</v>
       </c>
       <c r="M10" s="29">
         <f>_xll.RealtimeData(A10,"Dividend Yield")</f>
@@ -2596,7 +2601,7 @@
       </c>
       <c r="U10">
         <f>_xll.RealtimeData(T10,"MTD Percent Change")</f>
-        <v>-1.3495276700000001</v>
+        <v>-1.2145748999999999</v>
       </c>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.25">
@@ -2610,16 +2615,16 @@
       <c r="G11" s="4"/>
       <c r="J11" s="31">
         <f>_xll.RealtimeData(A11,"Last")</f>
-        <v>101.94</v>
+        <v>101.825</v>
       </c>
       <c r="K11" s="5"/>
       <c r="L11" s="8">
         <f t="array" ref="L11">_xll.RealtimeData(A11,"Change in Percent")</f>
-        <v>2.1627998427054562E-3</v>
+        <v>1.0322453794731027E-3</v>
       </c>
       <c r="M11" s="29">
         <f>_xll.RealtimeData(A11,"Dividend Yield")</f>
-        <v>2.35</v>
+        <v>2.36</v>
       </c>
       <c r="N11" s="4" t="str">
         <f t="shared" si="0"/>
@@ -2650,7 +2655,7 @@
       </c>
       <c r="U11">
         <f>_xll.RealtimeData(T11,"MTD Percent Change")</f>
-        <v>0.59206630999999998</v>
+        <v>0.47858694000000002</v>
       </c>
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.25">
@@ -2663,11 +2668,11 @@
       </c>
       <c r="J12" s="31">
         <f>_xll.RealtimeData(A12,"Last")</f>
-        <v>83.15</v>
+        <v>83.14</v>
       </c>
       <c r="L12" s="8">
         <f t="array" ref="L12">_xll.RealtimeData(A12,"Change in Percent")</f>
-        <v>3.6092396535131253E-4</v>
+        <v>2.4061597690081809E-4</v>
       </c>
       <c r="M12" s="29">
         <f>_xll.RealtimeData(A12,"Dividend Yield")</f>
@@ -2702,7 +2707,7 @@
       </c>
       <c r="U12">
         <f>_xll.RealtimeData(T12,"MTD Percent Change")</f>
-        <v>0.10835541</v>
+        <v>9.6315919999999999E-2</v>
       </c>
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.25">
@@ -2719,11 +2724,11 @@
     <row r="14" spans="1:22" x14ac:dyDescent="0.25">
       <c r="U14" s="29">
         <f t="array" ref="U14">MMULT(TRANSPOSE(O2:O12),U2:U12)</f>
-        <v>0.86365515872999987</v>
+        <v>0.84620586678000009</v>
       </c>
       <c r="V14" s="8">
         <f>U14*0.01</f>
-        <v>8.6365515872999996E-3</v>
+        <v>8.4620586678000008E-3</v>
       </c>
     </row>
     <row r="19" spans="5:16" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
@@ -2766,18 +2771,18 @@
       </c>
       <c r="K21" s="8">
         <f>SUMPRODUCT(K2:K7,F2:F7)</f>
-        <v>3.1132086006879098E-2</v>
+        <v>3.1057252658759353E-2</v>
       </c>
       <c r="M21" t="s">
         <v>34</v>
       </c>
       <c r="N21" s="8">
         <f t="array" ref="N21">MMULT(TRANSPOSE(F2:F5),L2:L5)</f>
-        <v>1.5503403301894876E-3</v>
+        <v>1.3851606141586956E-3</v>
       </c>
       <c r="P21" s="8">
         <f t="array" ref="P21">SUMPRODUCT(L2:L12,O2:O12)</f>
-        <v>4.4355631554620386E-4</v>
+        <v>2.6947909609914604E-4</v>
       </c>
     </row>
     <row r="22" spans="5:16" x14ac:dyDescent="0.25">
@@ -2792,7 +2797,7 @@
       </c>
       <c r="K22" s="8">
         <f>_xll.RealtimeData(J22,"Change in Percent")</f>
-        <v>-2.58961428376718E-3</v>
+        <v>-1.362954886193962E-4</v>
       </c>
       <c r="L22" s="12">
         <v>0.6</v>
@@ -2804,7 +2809,7 @@
       </c>
       <c r="K23" s="8">
         <f>_xll.RealtimeData(J23,"Change in Percent")</f>
-        <v>1.1333396244220819E-3</v>
+        <v>9.4366330093417295E-4</v>
       </c>
       <c r="L23" s="12">
         <v>0.4</v>
@@ -2816,7 +2821,7 @@
       </c>
       <c r="K24" s="8">
         <f>_xll.RealtimeData(J24,"Change in Percent")</f>
-        <v>2.8016109262820552E-4</v>
+        <v>3.5370337944317632E-3</v>
       </c>
     </row>
     <row r="25" spans="5:16" x14ac:dyDescent="0.25">
@@ -2825,7 +2830,7 @@
       </c>
       <c r="K25" s="8">
         <f t="array" ref="K25">SUMPRODUCT(K22:K23,L22:L23)</f>
-        <v>-1.1004327204914752E-3</v>
+        <v>2.9568802720203149E-4</v>
       </c>
     </row>
     <row r="26" spans="5:16" x14ac:dyDescent="0.25">
@@ -2841,7 +2846,7 @@
       </c>
       <c r="K26" s="8">
         <f>_xll.RealtimeData(J26,"Change in Percent")</f>
-        <v>1.1331444759208555E-3</v>
+        <v>2.8328611898017393E-3</v>
       </c>
       <c r="L26" t="str">
         <f>_xll.RealtimeData(J26,"Description")</f>
@@ -2854,7 +2859,7 @@
       </c>
       <c r="K27" s="8">
         <f>AVERAGE(L2:L11)</f>
-        <v>-2.0812584331256052E-3</v>
+        <v>-2.4210553624436576E-3</v>
       </c>
     </row>
     <row r="28" spans="5:16" x14ac:dyDescent="0.25">
@@ -2863,14 +2868,14 @@
       </c>
       <c r="K28" s="8">
         <f>SUMPRODUCT(F2:F7,M2:M7)*0.01</f>
-        <v>1.4105368215824166E-2</v>
+        <v>1.4084513589467679E-2</v>
       </c>
       <c r="L28" t="s">
         <v>65</v>
       </c>
       <c r="M28" s="8">
         <f>AVERAGE(M2:M11)*0.01</f>
-        <v>2.0600000000000004E-2</v>
+        <v>2.0588888888888893E-2</v>
       </c>
     </row>
     <row r="29" spans="5:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -2897,7 +2902,7 @@
       </c>
       <c r="I31" s="21">
         <f>$N$21</f>
-        <v>1.5503403301894876E-3</v>
+        <v>1.3851606141586956E-3</v>
       </c>
       <c r="J31" s="21">
         <f>LOOKUP(2,1/(Daily!E:E&lt;&gt;""),Daily!E:E)</f>
@@ -2918,7 +2923,7 @@
       </c>
       <c r="I32" s="24">
         <f>$K$25</f>
-        <v>-1.1004327204914752E-3</v>
+        <v>2.9568802720203149E-4</v>
       </c>
       <c r="J32" s="24">
         <f>LOOKUP(2,1/(Daily!M:M&lt;&gt;""),Daily!M:M)</f>
@@ -2939,7 +2944,7 @@
       </c>
       <c r="I33" s="24">
         <f>$K$24</f>
-        <v>2.8016109262820552E-4</v>
+        <v>3.5370337944317632E-3</v>
       </c>
       <c r="J33" s="24">
         <f>LOOKUP(2,1/(Daily!L:L&lt;&gt;""),Daily!L:L)</f>
@@ -2960,7 +2965,7 @@
       </c>
       <c r="I34" s="26">
         <f>$K$26</f>
-        <v>1.1331444759208555E-3</v>
+        <v>2.8328611898017393E-3</v>
       </c>
       <c r="J34" s="26">
         <f>LOOKUP(2,1/(Daily!N:N&lt;&gt;""),Daily!N:N)</f>
@@ -14590,8 +14595,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="W24" sqref="W24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="P31" sqref="P31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14629,7 +14634,7 @@
       </c>
       <c r="G2" s="74">
         <f>SUM(G5:G10)</f>
-        <v>1</v>
+        <v>0.99274023542198764</v>
       </c>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.25">
@@ -14637,11 +14642,12 @@
         <v>94</v>
       </c>
       <c r="B3" s="71">
-        <v>0.3</v>
+        <f>1-B2</f>
+        <v>0.30000000000000004</v>
       </c>
       <c r="C3">
         <f>B3*B1</f>
-        <v>30000</v>
+        <v>30000.000000000004</v>
       </c>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.25">
@@ -14666,6 +14672,9 @@
       <c r="H4" t="s">
         <v>104</v>
       </c>
+      <c r="I4" t="s">
+        <v>111</v>
+      </c>
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -14677,7 +14686,7 @@
       </c>
       <c r="C5">
         <f>_xll.RealtimeData(A5,"Last")</f>
-        <v>365.26100000000002</v>
+        <v>368.15</v>
       </c>
       <c r="D5">
         <f>ROUNDDOWN(($C$2/6)/B5,0)</f>
@@ -14685,19 +14694,23 @@
       </c>
       <c r="E5" s="8">
         <f>C5/B5-1</f>
-        <v>0.10034945021840658</v>
+        <v>0.10905256815785513</v>
       </c>
       <c r="F5">
         <f>C5*D5</f>
-        <v>12784.135</v>
+        <v>12885.25</v>
       </c>
       <c r="G5" s="73">
         <f>F5/$F$13</f>
-        <v>0.17762399860283193</v>
+        <v>0.17632156810892988</v>
       </c>
       <c r="H5" s="8">
         <f>F5/$F$31</f>
-        <v>0.12548882776145887</v>
+        <v>0.12470173141573514</v>
+      </c>
+      <c r="I5">
+        <f>B5*D5</f>
+        <v>11618.25</v>
       </c>
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.25">
@@ -14710,7 +14723,7 @@
       </c>
       <c r="C6">
         <f>_xll.RealtimeData(A6,"Last")</f>
-        <v>1828.72</v>
+        <v>1845.2989</v>
       </c>
       <c r="D6">
         <f t="shared" ref="D6:D10" si="0">ROUNDDOWN(($C$2/6)/B6,0)</f>
@@ -14718,19 +14731,23 @@
       </c>
       <c r="E6" s="8">
         <f t="shared" ref="E6:E10" si="1">C6/B6-1</f>
-        <v>0.12217572194744797</v>
+        <v>0.13234919797253353</v>
       </c>
       <c r="F6">
         <f t="shared" ref="F6:F9" si="2">C6*D6</f>
-        <v>12801.04</v>
+        <v>12917.0923</v>
       </c>
       <c r="G6" s="73">
         <f t="shared" ref="G6:G10" si="3">F6/$F$13</f>
-        <v>0.17785887829523045</v>
+        <v>0.17675729766545342</v>
       </c>
       <c r="H6" s="8">
         <f t="shared" ref="H6:H10" si="4">F6/$F$31</f>
-        <v>0.12565476692224739</v>
+        <v>0.12500989694936929</v>
+      </c>
+      <c r="I6">
+        <f t="shared" ref="I6:I10" si="5">B6*D6</f>
+        <v>11407.34</v>
       </c>
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.25">
@@ -14743,7 +14760,7 @@
       </c>
       <c r="C7">
         <f>_xll.RealtimeData(A7,"Last")</f>
-        <v>42.83</v>
+        <v>43.365000000000002</v>
       </c>
       <c r="D7">
         <f t="shared" si="0"/>
@@ -14751,19 +14768,23 @@
       </c>
       <c r="E7" s="8">
         <f t="shared" si="1"/>
-        <v>1.0618216139688386E-2</v>
+        <v>2.3242095327984824E-2</v>
       </c>
       <c r="F7">
         <f t="shared" si="2"/>
-        <v>11778.25</v>
+        <v>11925.375</v>
       </c>
       <c r="G7" s="73">
         <f t="shared" si="3"/>
-        <v>0.16364813587652235</v>
+        <v>0.16318665297817503</v>
       </c>
       <c r="H7" s="8">
         <f t="shared" si="4"/>
-        <v>0.11561507959524854</v>
+        <v>0.11541218915286257</v>
+      </c>
+      <c r="I7">
+        <f t="shared" si="5"/>
+        <v>11654.5</v>
       </c>
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.25">
@@ -14776,7 +14797,7 @@
       </c>
       <c r="C8">
         <f>_xll.RealtimeData(A8,"Last")</f>
-        <v>520.69000000000005</v>
+        <v>518.92499999999995</v>
       </c>
       <c r="D8">
         <f t="shared" si="0"/>
@@ -14784,19 +14805,23 @@
       </c>
       <c r="E8" s="8">
         <f t="shared" si="1"/>
-        <v>0.13274740574760169</v>
+        <v>0.12890769465051011</v>
       </c>
       <c r="F8">
         <f t="shared" si="2"/>
-        <v>13017.250000000002</v>
+        <v>12973.124999999998</v>
       </c>
       <c r="G8" s="73">
         <f t="shared" si="3"/>
-        <v>0.1808629207852322</v>
+        <v>0.17752404829344876</v>
       </c>
       <c r="H8" s="8">
         <f t="shared" si="4"/>
-        <v>0.12777708019962636</v>
+        <v>0.12555217394872112</v>
+      </c>
+      <c r="I8">
+        <f t="shared" si="5"/>
+        <v>11491.75</v>
       </c>
     </row>
     <row r="9" spans="1:23" x14ac:dyDescent="0.25">
@@ -14809,7 +14834,7 @@
       </c>
       <c r="C9">
         <f>_xll.RealtimeData(A9,"Last")</f>
-        <v>51.955800000000004</v>
+        <v>52.79</v>
       </c>
       <c r="D9">
         <f t="shared" si="0"/>
@@ -14817,19 +14842,23 @@
       </c>
       <c r="E9" s="8">
         <f t="shared" si="1"/>
-        <v>-9.7832957110609464E-2</v>
+        <v>-8.3347803438097001E-2</v>
       </c>
       <c r="F9">
         <f t="shared" si="2"/>
-        <v>10495.071600000001</v>
+        <v>10663.58</v>
       </c>
       <c r="G9" s="73">
         <f t="shared" si="3"/>
-        <v>0.1458195320383445</v>
+        <v>0.14592026908713626</v>
       </c>
       <c r="H9" s="8">
         <f t="shared" si="4"/>
-        <v>0.10301942465067668</v>
+        <v>0.1032007053871834</v>
+      </c>
+      <c r="I9">
+        <f t="shared" si="5"/>
+        <v>11633.18</v>
       </c>
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.25">
@@ -14842,7 +14871,7 @@
       </c>
       <c r="C10">
         <f>_xll.RealtimeData(A10,"Last")</f>
-        <v>53.61</v>
+        <v>54.024999999999999</v>
       </c>
       <c r="D10">
         <f t="shared" si="0"/>
@@ -14850,28 +14879,45 @@
       </c>
       <c r="E10" s="8">
         <f t="shared" si="1"/>
-        <v>-4.8624667258207688E-2</v>
+        <v>-4.1259982253771144E-2</v>
       </c>
       <c r="F10">
         <f>C10*D10</f>
-        <v>11097.27</v>
+        <v>11183.174999999999</v>
       </c>
       <c r="G10" s="73">
         <f t="shared" si="3"/>
-        <v>0.1541865344018386</v>
+        <v>0.15303039928884438</v>
       </c>
       <c r="H10" s="8">
         <f t="shared" si="4"/>
-        <v>0.1089305927739659</v>
+        <v>0.10822927651579625</v>
+      </c>
+      <c r="I10">
+        <f t="shared" si="5"/>
+        <v>11664.45</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="I12">
+        <f>SUM(I5:I10)</f>
+        <v>69469.47</v>
       </c>
     </row>
     <row r="13" spans="1:23" x14ac:dyDescent="0.25">
       <c r="E13" t="s">
         <v>93</v>
       </c>
-      <c r="F13">
-        <f>SUM(F5:F10)</f>
-        <v>71973.016600000003</v>
+      <c r="F13" s="75">
+        <f>SUM(F5:F10)+I13</f>
+        <v>73078.127300000007</v>
+      </c>
+      <c r="H13" t="s">
+        <v>26</v>
+      </c>
+      <c r="I13">
+        <f>C2-I12</f>
+        <v>530.52999999999884</v>
       </c>
     </row>
     <row r="14" spans="1:23" x14ac:dyDescent="0.25">
@@ -14880,7 +14926,7 @@
       </c>
       <c r="F14" s="8">
         <f>F13/C2-1</f>
-        <v>2.8185951428571387E-2</v>
+        <v>4.397324714285733E-2</v>
       </c>
     </row>
     <row r="15" spans="1:23" x14ac:dyDescent="0.25">
@@ -14888,13 +14934,13 @@
         <v>108</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H17" s="11">
         <f>SUM(H20:H23)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+        <v>0.988278513726912</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>95</v>
       </c>
@@ -14919,8 +14965,11 @@
       <c r="I19" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J19" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>8</v>
       </c>
@@ -14930,7 +14979,7 @@
       </c>
       <c r="C20">
         <f>_xll.RealtimeData(A20,"Last")</f>
-        <v>17.22</v>
+        <v>17.195</v>
       </c>
       <c r="D20">
         <f>ROUNDDOWN(($C$3*E20)/B20,0)</f>
@@ -14941,22 +14990,26 @@
       </c>
       <c r="F20" s="8">
         <f>C20/B20-1</f>
-        <v>1.2941176470588234E-2</v>
+        <v>1.1470588235294121E-2</v>
       </c>
       <c r="G20">
         <f>D20*C20</f>
-        <v>4305</v>
+        <v>4298.75</v>
       </c>
       <c r="H20" s="8">
         <f>G20/$G$27</f>
-        <v>0.14397189187092227</v>
+        <v>0.14210541800562829</v>
       </c>
       <c r="I20" s="8">
         <f>G20/$F$31</f>
-        <v>4.225779871012629E-2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+        <v>4.1602729316341666E-2</v>
+      </c>
+      <c r="J20">
+        <f>B20*D20</f>
+        <v>4250</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>9</v>
       </c>
@@ -14966,33 +15019,37 @@
       </c>
       <c r="C21">
         <f>_xll.RealtimeData(A21,"Last")</f>
-        <v>285.63</v>
+        <v>286.56</v>
       </c>
       <c r="D21">
-        <f t="shared" ref="D21:D22" si="5">ROUNDDOWN(($C$3*E21)/B21,0)</f>
+        <f t="shared" ref="D21:D22" si="6">ROUNDDOWN(($C$3*E21)/B21,0)</f>
         <v>38</v>
       </c>
       <c r="E21" s="11">
         <v>0.36599999999999999</v>
       </c>
       <c r="F21" s="8">
-        <f t="shared" ref="F21:F23" si="6">C21/B21-1</f>
-        <v>9.7214366515836481E-3</v>
+        <f t="shared" ref="F21:F23" si="7">C21/B21-1</f>
+        <v>1.300904977375561E-2</v>
       </c>
       <c r="G21">
-        <f t="shared" ref="G21:G22" si="7">D21*C21</f>
-        <v>10853.94</v>
+        <f t="shared" ref="G21:G22" si="8">D21*C21</f>
+        <v>10889.28</v>
       </c>
       <c r="H21" s="8">
-        <f t="shared" ref="H21:H23" si="8">G21/$G$27</f>
-        <v>0.36298775285795076</v>
+        <f t="shared" ref="H21:H23" si="9">G21/$G$27</f>
+        <v>0.3599710814028097</v>
       </c>
       <c r="I21" s="8">
-        <f t="shared" ref="I21:I23" si="9">G21/$F$31</f>
-        <v>0.10654207008868483</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+        <f t="shared" ref="I21:I23" si="10">G21/$F$31</f>
+        <v>0.10538499989295795</v>
+      </c>
+      <c r="J21">
+        <f t="shared" ref="J21:J23" si="11">B21*D21</f>
+        <v>10749.44</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>19</v>
       </c>
@@ -15002,33 +15059,37 @@
       </c>
       <c r="C22">
         <f>_xll.RealtimeData(A22,"Last")</f>
-        <v>82.17</v>
+        <v>81.93</v>
       </c>
       <c r="D22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>144</v>
       </c>
       <c r="E22" s="11">
         <v>0.39300000000000002</v>
       </c>
       <c r="F22" s="8">
-        <f t="shared" si="6"/>
-        <v>7.9735034347399036E-3</v>
+        <f t="shared" si="7"/>
+        <v>5.0294406280668724E-3</v>
       </c>
       <c r="G22">
-        <f t="shared" si="7"/>
-        <v>11832.48</v>
+        <f t="shared" si="8"/>
+        <v>11797.920000000002</v>
       </c>
       <c r="H22" s="8">
-        <f t="shared" si="8"/>
-        <v>0.39571301536001169</v>
+        <f t="shared" si="9"/>
+        <v>0.39000834037731025</v>
       </c>
       <c r="I22" s="8">
-        <f t="shared" si="9"/>
-        <v>0.11614740025124161</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+        <f t="shared" si="10"/>
+        <v>0.11417869665736638</v>
+      </c>
+      <c r="J22">
+        <f t="shared" si="11"/>
+        <v>11738.88</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>85</v>
       </c>
@@ -15038,7 +15099,7 @@
       </c>
       <c r="C23">
         <f>_xll.RealtimeData(A23,"Last")</f>
-        <v>83.15</v>
+        <v>83.14</v>
       </c>
       <c r="D23">
         <f>ROUNDDOWN(($C$3*E23)/B23,0)</f>
@@ -15048,50 +15109,65 @@
         <v>9.9000000000000005E-2</v>
       </c>
       <c r="F23" s="8">
-        <f t="shared" si="6"/>
-        <v>1.0835540573079783E-3</v>
+        <f t="shared" si="7"/>
+        <v>9.6315916205158558E-4</v>
       </c>
       <c r="G23">
         <f>D23*C23</f>
-        <v>2910.25</v>
+        <v>2909.9</v>
       </c>
       <c r="H23" s="8">
-        <f t="shared" si="8"/>
-        <v>9.7327339911115335E-2</v>
+        <f t="shared" si="9"/>
+        <v>9.6193673941163779E-2</v>
       </c>
       <c r="I23" s="8">
-        <f t="shared" si="9"/>
-        <v>2.8566959046723586E-2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+        <f t="shared" si="10"/>
+        <v>2.8161624201831371E-2</v>
+      </c>
+      <c r="J23">
+        <f t="shared" si="11"/>
+        <v>2907.1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B24" s="72"/>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="F27" t="s">
         <v>100</v>
       </c>
       <c r="G27">
-        <f>SUM(G20:G23)</f>
-        <v>29901.67</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+        <f>SUM(G20:G23)+J28</f>
+        <v>30250.430000000011</v>
+      </c>
+      <c r="J27">
+        <f>SUM(J20:J23)</f>
+        <v>29645.42</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="F28" t="s">
         <v>106</v>
       </c>
       <c r="G28" s="8">
-        <f>G27/C3-1</f>
-        <v>-3.2776666666667342E-3</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+        <f>G27/J27-1</f>
+        <v>2.0408211453911473E-2</v>
+      </c>
+      <c r="I28" t="s">
+        <v>26</v>
+      </c>
+      <c r="J28">
+        <f>C3-J27</f>
+        <v>354.58000000000538</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="E31" t="s">
         <v>101</v>
       </c>
       <c r="F31">
         <f>SUM(F13,G27)</f>
-        <v>101874.6866</v>
+        <v>103328.55730000001</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
@@ -15100,7 +15176,7 @@
       </c>
       <c r="F33" s="8">
         <f>F31/B1-1</f>
-        <v>1.8746866000000084E-2</v>
+        <v>3.3285573000000124E-2</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
@@ -15113,16 +15189,16 @@
       </c>
       <c r="C37">
         <f>_xll.RealtimeData(A37,"Last")</f>
-        <v>38.28</v>
+        <v>38.406599999999997</v>
       </c>
       <c r="D37" s="8">
         <f>C37/B37-1</f>
-        <v>5.2273915316258801E-4</v>
+        <v>3.8316779926816924E-3</v>
       </c>
       <c r="E37" s="11"/>
       <c r="F37" s="8">
         <f>D37*$B$3+D40*$B$2</f>
-        <v>3.5084785951765229E-2</v>
+        <v>3.7793798699817888E-2</v>
       </c>
       <c r="H37" s="8"/>
       <c r="I37" s="8"/>
@@ -15137,11 +15213,11 @@
       </c>
       <c r="C38">
         <f>_xll.RealtimeData(A38,"Last")</f>
-        <v>285.63</v>
+        <v>286.56</v>
       </c>
       <c r="D38" s="8">
-        <f t="shared" ref="D38:D40" si="10">C38/B38-1</f>
-        <v>4.7299527004729836E-2</v>
+        <f t="shared" ref="D38:D40" si="12">C38/B38-1</f>
+        <v>5.0709492905070874E-2</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
@@ -15154,11 +15230,11 @@
       </c>
       <c r="C39">
         <f>_xll.RealtimeData(A39,"Last")</f>
-        <v>180.14</v>
+        <v>181.07</v>
       </c>
       <c r="D39" s="8">
-        <f t="shared" si="10"/>
-        <v>5.9210913153407319E-2</v>
+        <f t="shared" si="12"/>
+        <v>6.4679249720703158E-2</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
@@ -15171,11 +15247,11 @@
       </c>
       <c r="C40">
         <f>_xll.RealtimeData(A40,"Last")</f>
-        <v>46.930399999999999</v>
+        <v>47.04</v>
       </c>
       <c r="D40" s="8">
-        <f t="shared" si="10"/>
-        <v>4.9897091722594933E-2</v>
+        <f>C40/B40-1</f>
+        <v>5.2348993288590551E-2</v>
       </c>
     </row>
   </sheetData>

--- a/Portfolio.xlsx
+++ b/Portfolio.xlsx
@@ -1031,22 +1031,71 @@
 <file path=xl/volatileDependencies.xml><?xml version="1.0" encoding="utf-8"?>
 <volTypes xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <volType type="realTimeData">
-    <main first="rtdsrv.b680f398aee849e8bbd7e44ce06d14f2">
+    <main first="rtdsrv.eb495c69147540fdba794816bbe3e9ee">
       <tp>
-        <v>-1.362954886193962E-4</v>
+        <v>0</v>
         <stp/>
-        <stp>ACWI</stp>
+        <stp>GYLD</stp>
         <stp>change in percent</stp>
-        <tr r="K22" s="1"/>
+        <tr r="K26" s="1"/>
       </tp>
     </main>
-    <main first="rtdsrv.b680f398aee849e8bbd7e44ce06d14f2">
+    <main first="rtdsrv.eb495c69147540fdba794816bbe3e9ee">
       <tp>
-        <v>0.81968596999999999</v>
+        <v>1.3327205900000001</v>
         <stp/>
-        <stp>TLT</stp>
+        <stp>IVV</stp>
         <stp>mtd percent change</stp>
-        <tr r="U5" s="1"/>
+        <tr r="U3" s="1"/>
+      </tp>
+      <tp>
+        <v>0.78508341999999998</v>
+        <stp/>
+        <stp>IYR</stp>
+        <stp>mtd percent change</stp>
+        <tr r="U4" s="1"/>
+      </tp>
+      <tp>
+        <v>-1.17391304</v>
+        <stp/>
+        <stp>IEV</stp>
+        <stp>mtd percent change</stp>
+        <tr r="U9" s="1"/>
+      </tp>
+      <tp>
+        <v>0.42431418999999998</v>
+        <stp/>
+        <stp>IEF</stp>
+        <stp>mtd percent change</stp>
+        <tr r="U11" s="1"/>
+      </tp>
+      <tp>
+        <v>-0.70349139999999999</v>
+        <stp/>
+        <stp>GLD</stp>
+        <stp>mtd percent change</stp>
+        <tr r="U8" s="1"/>
+      </tp>
+      <tp>
+        <v>-1.32405364</v>
+        <stp/>
+        <stp>EWJ</stp>
+        <stp>mtd percent change</stp>
+        <tr r="U7" s="1"/>
+      </tp>
+      <tp>
+        <v>-1.32703554</v>
+        <stp/>
+        <stp>EEM</stp>
+        <stp>mtd percent change</stp>
+        <tr r="U10" s="1"/>
+      </tp>
+      <tp>
+        <v>1.1176470599999999</v>
+        <stp/>
+        <stp>DBC</stp>
+        <stp>mtd percent change</stp>
+        <tr r="U2" s="1"/>
       </tp>
       <tp>
         <v>9.6315919999999999E-2</v>
@@ -1056,117 +1105,142 @@
         <tr r="U12" s="1"/>
       </tp>
       <tp>
-        <v>-0.37974683999999997</v>
+        <v>-0.32911392</v>
         <stp/>
         <stp>RWX</stp>
         <stp>mtd percent change</stp>
         <tr r="U6" s="1"/>
       </tp>
       <tp>
-        <v>1.3009049800000001</v>
+        <v>0.70065845000000004</v>
+        <stp/>
+        <stp>TLT</stp>
+        <stp>mtd percent change</stp>
+        <tr r="U5" s="1"/>
+      </tp>
+      <tp>
+        <v>-1.362954886193962E-4</v>
+        <stp/>
+        <stp>ACWI</stp>
+        <stp>change in percent</stp>
+        <tr r="K22" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.eb495c69147540fdba794816bbe3e9ee">
+      <tp>
+        <v>-5.1340062652280105E-3</v>
+        <stp/>
+        <stp>GLD</stp>
+        <stp>change in percent</stp>
+        <tr r="L8" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.eb495c69147540fdba794816bbe3e9ee">
+      <tp>
+        <v>0</v>
+        <stp/>
+        <stp>IEF</stp>
+        <stp>change in percent</stp>
+        <tr r="L11" s="1"/>
+      </tp>
+      <tp>
+        <v>6.6056431065402853E-4</v>
+        <stp/>
+        <stp>AGG</stp>
+        <stp>change in percent</stp>
+        <tr r="K23" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.eb495c69147540fdba794816bbe3e9ee">
+      <tp>
+        <v>0</v>
+        <stp/>
+        <stp>DBC</stp>
+        <stp>change in percent</stp>
+        <tr r="L2" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.eb495c69147540fdba794816bbe3e9ee">
+      <tp>
+        <v>-7.6905677448541737E-3</v>
+        <stp/>
+        <stp>EEM</stp>
+        <stp>change in percent</stp>
+        <tr r="L10" s="1"/>
+      </tp>
+      <tp>
+        <v>0</v>
+        <stp/>
+        <stp>EWJ</stp>
+        <stp>change in percent</stp>
+        <tr r="L7" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.eb495c69147540fdba794816bbe3e9ee">
+      <tp>
+        <v>0</v>
+        <stp/>
+        <stp>TLT</stp>
+        <stp>change in percent</stp>
+        <tr r="L5" s="1"/>
+      </tp>
+      <tp>
+        <v>0</v>
+        <stp/>
+        <stp>IEV</stp>
+        <stp>change in percent</stp>
+        <tr r="L9" s="1"/>
+      </tp>
+      <tp>
+        <v>0</v>
         <stp/>
         <stp>IVV</stp>
-        <stp>mtd percent change</stp>
-        <tr r="U3" s="1"/>
+        <stp>change in percent</stp>
+        <tr r="K24" s="1"/>
+        <tr r="L3" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.eb495c69147540fdba794816bbe3e9ee">
+      <tp>
+        <v>0</v>
+        <stp/>
+        <stp>IYR</stp>
+        <stp>change in percent</stp>
+        <tr r="L4" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.eb495c69147540fdba794816bbe3e9ee">
+      <tp>
+        <v>0</v>
+        <stp/>
+        <stp>RWX</stp>
+        <stp>change in percent</stp>
+        <tr r="L6" s="1"/>
       </tp>
       <tp>
-        <v>0.50294406000000003</v>
+        <v>0</v>
         <stp/>
-        <stp>IYR</stp>
-        <stp>mtd percent change</stp>
-        <tr r="U4" s="1"/>
+        <stp>SHY</stp>
+        <stp>change in percent</stp>
+        <tr r="L12" s="1"/>
       </tp>
       <tp>
-        <v>-1.19565217</v>
+        <v>47.069000000000003</v>
         <stp/>
-        <stp>IEV</stp>
-        <stp>mtd percent change</stp>
-        <tr r="U9" s="1"/>
-      </tp>
-      <tp>
-        <v>0.47858694000000002</v>
-        <stp/>
-        <stp>IEF</stp>
-        <stp>mtd percent change</stp>
-        <tr r="U11" s="1"/>
-      </tp>
-      <tp>
-        <v>-0.71955880000000005</v>
-        <stp/>
-        <stp>GLD</stp>
-        <stp>mtd percent change</stp>
-        <tr r="U8" s="1"/>
+        <stp>QQQE</stp>
+        <stp>last</stp>
+        <tr r="C40" s="4"/>
       </tp>
     </main>
-    <main first="rtdsrv.b680f398aee849e8bbd7e44ce06d14f2">
+    <main first="rtdsrv.eb495c69147540fdba794816bbe3e9ee">
       <tp>
-        <v>-1.3155661199999999</v>
-        <stp/>
-        <stp>EWJ</stp>
-        <stp>mtd percent change</stp>
-        <tr r="U7" s="1"/>
-      </tp>
-      <tp>
-        <v>-1.2145748999999999</v>
-        <stp/>
-        <stp>EEM</stp>
-        <stp>mtd percent change</stp>
-        <tr r="U10" s="1"/>
-      </tp>
-      <tp>
-        <v>1.14705882</v>
+        <v>17.190000000000001</v>
         <stp/>
         <stp>DBC</stp>
-        <stp>mtd percent change</stp>
-        <tr r="U2" s="1"/>
+        <stp>last</stp>
+        <tr r="J2" s="1"/>
+        <tr r="C20" s="4"/>
       </tp>
-    </main>
-    <main first="rtdsrv.b680f398aee849e8bbd7e44ce06d14f2">
-      <tp>
-        <v>2.8328611898017393E-3</v>
-        <stp/>
-        <stp>GYLD</stp>
-        <stp>change in percent</stp>
-        <tr r="K26" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.b680f398aee849e8bbd7e44ce06d14f2">
-      <tp t="s">
-        <v>ISHARES TR-20 YR TR BD ETF</v>
-        <stp/>
-        <stp>TLT</stp>
-        <stp>description</stp>
-        <tr r="B5" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.b680f398aee849e8bbd7e44ce06d14f2">
-      <tp t="s">
-        <v>SPDR INDEX SHS FDS-DJ INTL RL ETF</v>
-        <stp/>
-        <stp>RWX</stp>
-        <stp>description</stp>
-        <tr r="B6" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.b680f398aee849e8bbd7e44ce06d14f2">
-      <tp>
-        <v>52.79</v>
-        <stp/>
-        <stp>MU</stp>
-        <stp>last</stp>
-        <tr r="C9" s="4"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.b680f398aee849e8bbd7e44ce06d14f2">
-      <tp t="s">
-        <v>ISHARES TR-1 3 YR TREAS BD</v>
-        <stp/>
-        <stp>SHY</stp>
-        <stp>description</stp>
-        <tr r="B12" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.b680f398aee849e8bbd7e44ce06d14f2">
       <tp t="s">
         <v>ISHARES TR-EUROPE ETF</v>
         <stp/>
@@ -1181,8 +1255,6 @@
         <stp>description</stp>
         <tr r="B11" s="1"/>
       </tp>
-    </main>
-    <main first="rtdsrv.b680f398aee849e8bbd7e44ce06d14f2">
       <tp t="s">
         <v>ISHARES TR-CORE S&amp;P500 ETF</v>
         <stp/>
@@ -1197,274 +1269,26 @@
         <stp>description</stp>
         <tr r="B4" s="1"/>
       </tp>
-    </main>
-    <main first="rtdsrv.b680f398aee849e8bbd7e44ce06d14f2">
-      <tp t="s">
-        <v>INVESCO DB COMMDY INDX TRCK-UNIT</v>
+      <tp>
+        <v>1.99</v>
         <stp/>
-        <stp>DBC</stp>
-        <stp>description</stp>
-        <tr r="B2" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.b680f398aee849e8bbd7e44ce06d14f2">
-      <tp t="s">
-        <v>ISHARES TR-MSCI EMG MKT ETF</v>
-        <stp/>
-        <stp>EEM</stp>
-        <stp>description</stp>
-        <tr r="B10" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.b680f398aee849e8bbd7e44ce06d14f2">
-      <tp t="s">
-        <v>ISHARES INC-MSCI JPN ETF NEW</v>
-        <stp/>
-        <stp>EWJ</stp>
-        <stp>description</stp>
-        <tr r="B7" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.b680f398aee849e8bbd7e44ce06d14f2">
-      <tp t="s">
-        <v>SPDR GOLD TRUST-GOLD SHS</v>
-        <stp/>
-        <stp>GLD</stp>
-        <stp>description</stp>
-        <tr r="B8" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.b680f398aee849e8bbd7e44ce06d14f2">
-      <tp>
-        <v>2.0396270396270456E-3</v>
-        <stp/>
-        <stp>DBC</stp>
-        <stp>change in percent</stp>
-        <tr r="L2" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.b680f398aee849e8bbd7e44ce06d14f2">
-      <tp>
-        <v>1.0322453794731027E-3</v>
-        <stp/>
-        <stp>IEF</stp>
-        <stp>change in percent</stp>
-        <tr r="L11" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.b680f398aee849e8bbd7e44ce06d14f2">
-      <tp>
-        <v>9.4366330093417295E-4</v>
-        <stp/>
-        <stp>AGG</stp>
-        <stp>change in percent</stp>
-        <tr r="K23" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.b680f398aee849e8bbd7e44ce06d14f2">
-      <tp>
-        <v>-5.2949878176123044E-3</v>
-        <stp/>
-        <stp>GLD</stp>
-        <stp>change in percent</stp>
-        <tr r="L8" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.b680f398aee849e8bbd7e44ce06d14f2">
-      <tp>
-        <v>-7.3416424790848558E-3</v>
-        <stp/>
-        <stp>EWJ</stp>
-        <stp>change in percent</stp>
-        <tr r="L7" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.b680f398aee849e8bbd7e44ce06d14f2">
-      <tp>
-        <v>-6.6726984845058126E-3</v>
-        <stp/>
-        <stp>EEM</stp>
-        <stp>change in percent</stp>
-        <tr r="L10" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.b680f398aee849e8bbd7e44ce06d14f2">
-      <tp>
-        <v>-3.4059116895753193E-3</v>
-        <stp/>
-        <stp>IYR</stp>
-        <stp>change in percent</stp>
-        <tr r="L4" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.b680f398aee849e8bbd7e44ce06d14f2">
-      <tp>
-        <v>-4.8171666301729584E-3</v>
-        <stp/>
-        <stp>IEV</stp>
-        <stp>change in percent</stp>
-        <tr r="L9" s="1"/>
+        <stp>SHY</stp>
+        <stp>dividend yield</stp>
+        <tr r="M12" s="1"/>
       </tp>
       <tp>
-        <v>3.5370337944317632E-3</v>
+        <v>3.65</v>
         <stp/>
-        <stp>IVV</stp>
-        <stp>change in percent</stp>
-        <tr r="K24" s="1"/>
-        <tr r="L3" s="1"/>
+        <stp>RWX</stp>
+        <stp>dividend yield</stp>
+        <tr r="M6" s="1"/>
       </tp>
-    </main>
-    <main first="rtdsrv.b680f398aee849e8bbd7e44ce06d14f2">
       <tp>
-        <v>1.7698372756248866E-3</v>
+        <v>2.68</v>
         <stp/>
         <stp>TLT</stp>
-        <stp>change in percent</stp>
-        <tr r="L5" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.b680f398aee849e8bbd7e44ce06d14f2">
-      <tp>
-        <v>-5.056890012642124E-3</v>
-        <stp/>
-        <stp>RWX</stp>
-        <stp>change in percent</stp>
-        <tr r="L6" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.b680f398aee849e8bbd7e44ce06d14f2">
-      <tp>
-        <v>2.4061597690081809E-4</v>
-        <stp/>
-        <stp>SHY</stp>
-        <stp>change in percent</stp>
-        <tr r="L12" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.b680f398aee849e8bbd7e44ce06d14f2">
-      <tp>
-        <v>38.406599999999997</v>
-        <stp/>
-        <stp>GAL</stp>
-        <stp>last</stp>
-        <tr r="C37" s="4"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.b680f398aee849e8bbd7e44ce06d14f2">
-      <tp>
-        <v>17.195</v>
-        <stp/>
-        <stp>DBC</stp>
-        <stp>last</stp>
-        <tr r="J2" s="1"/>
-        <tr r="C20" s="4"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.b680f398aee849e8bbd7e44ce06d14f2">
-      <tp>
-        <v>101.825</v>
-        <stp/>
-        <stp>IEF</stp>
-        <stp>last</stp>
-        <tr r="J11" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.b680f398aee849e8bbd7e44ce06d14f2">
-      <tp>
-        <v>43.914999999999999</v>
-        <stp/>
-        <stp>EEM</stp>
-        <stp>last</stp>
-        <tr r="J10" s="1"/>
-      </tp>
-      <tp>
-        <v>45.45</v>
-        <stp/>
-        <stp>IEV</stp>
-        <stp>last</stp>
-        <tr r="J9" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.b680f398aee849e8bbd7e44ce06d14f2">
-      <tp>
-        <v>518.92499999999995</v>
-        <stp/>
-        <stp>ISRG</stp>
-        <stp>last</stp>
-        <tr r="C8" s="4"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.b680f398aee849e8bbd7e44ce06d14f2">
-      <tp>
-        <v>47.04</v>
-        <stp/>
-        <stp>QQQE</stp>
-        <stp>last</stp>
-        <tr r="C40" s="4"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.b680f398aee849e8bbd7e44ce06d14f2">
-      <tp t="s">
-        <v>ARROW ETF TR-ARROW DJ GLB YLD</v>
-        <stp/>
-        <stp>GYLD</stp>
-        <stp>description</stp>
-        <tr r="L26" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.b680f398aee849e8bbd7e44ce06d14f2">
-      <tp>
-        <v>83.14</v>
-        <stp/>
-        <stp>SHY</stp>
-        <stp>last</stp>
-        <tr r="J12" s="1"/>
-        <tr r="C23" s="4"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.b680f398aee849e8bbd7e44ce06d14f2">
-      <tp>
-        <v>82.21</v>
-        <stp/>
-        <stp>IYR</stp>
-        <stp>close</stp>
-        <tr r="G4" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.b680f398aee849e8bbd7e44ce06d14f2">
-      <tp>
-        <v>1845.2989</v>
-        <stp/>
-        <stp>AMZN</stp>
-        <stp>last</stp>
-        <tr r="C6" s="4"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.b680f398aee849e8bbd7e44ce06d14f2">
-      <tp>
-        <v>114.3115</v>
-        <stp/>
-        <stp>GLD</stp>
-        <stp>last</stp>
-        <tr r="J8" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.b680f398aee849e8bbd7e44ce06d14f2">
-      <tp>
-        <v>119.431</v>
-        <stp/>
-        <stp>TLT</stp>
-        <stp>last</stp>
-        <tr r="J5" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.b680f398aee849e8bbd7e44ce06d14f2">
-      <tp>
-        <v>119.22</v>
-        <stp/>
-        <stp>TLT</stp>
-        <stp>close</stp>
-        <tr r="G5" s="1"/>
+        <stp>dividend yield</stp>
+        <tr r="M5" s="1"/>
       </tp>
       <tp>
         <v>1.79</v>
@@ -1488,14 +1312,14 @@
         <tr r="M11" s="1"/>
       </tp>
       <tp>
-        <v>4.67</v>
+        <v>4.6500000000000004</v>
         <stp/>
         <stp>IEV</stp>
         <stp>dividend yield</stp>
         <tr r="M9" s="1"/>
       </tp>
       <tp>
-        <v>1.57</v>
+        <v>1.58</v>
         <stp/>
         <stp>EWJ</stp>
         <stp>dividend yield</stp>
@@ -1515,96 +1339,176 @@
         <stp>dividend yield</stp>
         <tr r="M2" s="1"/>
       </tp>
-    </main>
-    <main first="rtdsrv.b680f398aee849e8bbd7e44ce06d14f2">
       <tp>
-        <v>2.68</v>
+        <v>38.354999999999997</v>
         <stp/>
-        <stp>TLT</stp>
-        <stp>dividend yield</stp>
-        <tr r="M5" s="1"/>
+        <stp>GAL</stp>
+        <stp>last</stp>
+        <tr r="C37" s="4"/>
       </tp>
       <tp>
-        <v>1.99</v>
+        <v>520.79999999999995</v>
         <stp/>
-        <stp>SHY</stp>
-        <stp>dividend yield</stp>
-        <tr r="M12" s="1"/>
+        <stp>ISRG</stp>
+        <stp>last</stp>
+        <tr r="C8" s="4"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.eb495c69147540fdba794816bbe3e9ee">
+      <tp t="s">
+        <v>ARROW ETF TR-ARROW DJ GLB YLD</v>
+        <stp/>
+        <stp>GYLD</stp>
+        <stp>description</stp>
+        <tr r="L26" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.eb495c69147540fdba794816bbe3e9ee">
+      <tp>
+        <v>101.77</v>
+        <stp/>
+        <stp>IEF</stp>
+        <stp>last</stp>
+        <tr r="J11" s="1"/>
       </tp>
       <tp>
-        <v>3.65</v>
+        <v>43.87</v>
         <stp/>
-        <stp>RWX</stp>
-        <stp>dividend yield</stp>
-        <tr r="M6" s="1"/>
+        <stp>EEM</stp>
+        <stp>last</stp>
+        <tr r="J10" s="1"/>
+      </tp>
+      <tp>
+        <v>45.46</v>
+        <stp/>
+        <stp>IEV</stp>
+        <stp>last</stp>
+        <tr r="J9" s="1"/>
       </tp>
     </main>
-    <main first="rtdsrv.b680f398aee849e8bbd7e44ce06d14f2">
+    <main first="rtdsrv.eb495c69147540fdba794816bbe3e9ee">
       <tp>
-        <v>285.55</v>
+        <v>286.64999999999998</v>
         <stp/>
         <stp>IVV</stp>
         <stp>close</stp>
         <tr r="G3" s="1"/>
       </tp>
     </main>
-    <main first="rtdsrv.b680f398aee849e8bbd7e44ce06d14f2">
+    <main first="rtdsrv.eb495c69147540fdba794816bbe3e9ee">
       <tp>
-        <v>368.15</v>
+        <v>1847.75</v>
         <stp/>
-        <stp>ALGN</stp>
+        <stp>AMZN</stp>
         <stp>last</stp>
-        <tr r="C5" s="4"/>
+        <tr r="C6" s="4"/>
+      </tp>
+      <tp>
+        <v>119.29</v>
+        <stp/>
+        <stp>TLT</stp>
+        <stp>close</stp>
+        <tr r="G5" s="1"/>
+      </tp>
+      <tp>
+        <v>83.14</v>
+        <stp/>
+        <stp>SHY</stp>
+        <stp>last</stp>
+        <tr r="J12" s="1"/>
+        <tr r="C23" s="4"/>
       </tp>
     </main>
-    <main first="rtdsrv.b680f398aee849e8bbd7e44ce06d14f2">
+    <main first="rtdsrv.eb495c69147540fdba794816bbe3e9ee">
+      <tp t="s">
+        <v>INVESCO DB COMMDY INDX TRCK-UNIT</v>
+        <stp/>
+        <stp>DBC</stp>
+        <stp>description</stp>
+        <tr r="B2" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.eb495c69147540fdba794816bbe3e9ee">
+      <tp t="s">
+        <v>ISHARES TR-MSCI EMG MKT ETF</v>
+        <stp/>
+        <stp>EEM</stp>
+        <stp>description</stp>
+        <tr r="B10" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.eb495c69147540fdba794816bbe3e9ee">
       <tp>
-        <v>181.07</v>
+        <v>82.16</v>
+        <stp/>
+        <stp>IYR</stp>
+        <stp>close</stp>
+        <tr r="G4" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>ISHARES INC-MSCI JPN ETF NEW</v>
+        <stp/>
+        <stp>EWJ</stp>
+        <stp>description</stp>
+        <tr r="B7" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.eb495c69147540fdba794816bbe3e9ee">
+      <tp>
+        <v>114.33</v>
+        <stp/>
+        <stp>GLD</stp>
+        <stp>last</stp>
+        <tr r="J8" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>SPDR GOLD TRUST-GOLD SHS</v>
+        <stp/>
+        <stp>GLD</stp>
+        <stp>description</stp>
+        <tr r="B8" s="1"/>
+      </tp>
+      <tp>
+        <v>119.29</v>
+        <stp/>
+        <stp>TLT</stp>
+        <stp>last</stp>
+        <tr r="J5" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.eb495c69147540fdba794816bbe3e9ee">
+      <tp>
+        <v>43.3</v>
+        <stp/>
+        <stp>CSCO</stp>
+        <stp>last</stp>
+        <tr r="C7" s="4"/>
+      </tp>
+      <tp>
+        <v>181.14</v>
         <stp/>
         <stp>QQQ</stp>
         <stp>last</stp>
         <tr r="C39" s="4"/>
       </tp>
     </main>
-    <main first="rtdsrv.b680f398aee849e8bbd7e44ce06d14f2">
+    <main first="rtdsrv.eb495c69147540fdba794816bbe3e9ee">
       <tp>
-        <v>43.365000000000002</v>
-        <stp/>
-        <stp>CSCO</stp>
-        <stp>last</stp>
-        <tr r="C7" s="4"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.b680f398aee849e8bbd7e44ce06d14f2">
-      <tp>
-        <v>54.024999999999999</v>
-        <stp/>
-        <stp>STX</stp>
-        <stp>last</stp>
-        <tr r="C10" s="4"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.b680f398aee849e8bbd7e44ce06d14f2">
-      <tp>
-        <v>58.14</v>
+        <v>58.13</v>
         <stp/>
         <stp>EWJ</stp>
         <stp>last</stp>
         <tr r="J7" s="1"/>
       </tp>
-    </main>
-    <main first="rtdsrv.b680f398aee849e8bbd7e44ce06d14f2">
       <tp>
-        <v>39.35</v>
+        <v>39.369999999999997</v>
         <stp/>
         <stp>RWX</stp>
         <stp>last</stp>
         <tr r="J6" s="1"/>
       </tp>
-    </main>
-    <main first="rtdsrv.b680f398aee849e8bbd7e44ce06d14f2">
       <tp>
-        <v>286.56</v>
+        <v>286.64999999999998</v>
         <stp/>
         <stp>IVV</stp>
         <stp>last</stp>
@@ -1613,19 +1517,65 @@
         <tr r="C38" s="4"/>
       </tp>
     </main>
-    <main first="rtdsrv.b680f398aee849e8bbd7e44ce06d14f2">
+    <main first="rtdsrv.eb495c69147540fdba794816bbe3e9ee">
       <tp>
-        <v>81.93</v>
+        <v>369.55</v>
+        <stp/>
+        <stp>ALGN</stp>
+        <stp>last</stp>
+        <tr r="C5" s="4"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.eb495c69147540fdba794816bbe3e9ee">
+      <tp>
+        <v>54.23</v>
+        <stp/>
+        <stp>STX</stp>
+        <stp>last</stp>
+        <tr r="C10" s="4"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.eb495c69147540fdba794816bbe3e9ee">
+      <tp>
+        <v>82.16</v>
         <stp/>
         <stp>IYR</stp>
         <stp>last</stp>
         <tr r="J4" s="1"/>
         <tr r="C22" s="4"/>
       </tp>
+      <tp t="s">
+        <v>SPDR INDEX SHS FDS-DJ INTL RL ETF</v>
+        <stp/>
+        <stp>RWX</stp>
+        <stp>description</stp>
+        <tr r="B6" s="1"/>
+      </tp>
     </main>
-    <main first="rtdsrv.b680f398aee849e8bbd7e44ce06d14f2">
+    <main first="rtdsrv.eb495c69147540fdba794816bbe3e9ee">
       <tp>
-        <v>17.16</v>
+        <v>52.67</v>
+        <stp/>
+        <stp>MU</stp>
+        <stp>last</stp>
+        <tr r="C9" s="4"/>
+      </tp>
+      <tp t="s">
+        <v>ISHARES TR-1 3 YR TREAS BD</v>
+        <stp/>
+        <stp>SHY</stp>
+        <stp>description</stp>
+        <tr r="B12" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>ISHARES TR-20 YR TR BD ETF</v>
+        <stp/>
+        <stp>TLT</stp>
+        <stp>description</stp>
+        <tr r="B5" s="1"/>
+      </tp>
+      <tp>
+        <v>17.190000000000001</v>
         <stp/>
         <stp>DBC</stp>
         <stp>close</stp>
@@ -1902,8 +1852,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:V46"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="S23" sqref="S23"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2003,34 +1953,34 @@
       </c>
       <c r="E2" s="5">
         <f>G2/D2-1</f>
-        <v>-3.7405491422166537E-2</v>
+        <v>-3.5722633889687772E-2</v>
       </c>
       <c r="F2" s="5">
         <f>I2/$I$21</f>
-        <v>0.1509437734244079</v>
+        <v>0.15085864730638052</v>
       </c>
       <c r="G2" s="4">
         <f>_xll.RealtimeData(A2,"Close")</f>
-        <v>17.16</v>
+        <v>17.190000000000001</v>
       </c>
       <c r="H2" s="4">
         <v>176</v>
       </c>
       <c r="I2" s="4">
         <f>H2*G2</f>
-        <v>3020.16</v>
+        <v>3025.44</v>
       </c>
       <c r="J2" s="4">
         <f>_xll.RealtimeData(A2,"Last")</f>
-        <v>17.195</v>
+        <v>17.190000000000001</v>
       </c>
       <c r="K2" s="5">
         <f>J2/D2-1</f>
-        <v>-3.5442157634274718E-2</v>
+        <v>-3.5722633889687772E-2</v>
       </c>
       <c r="L2" s="8">
         <f>_xll.RealtimeData(A2,"Change in Percent")</f>
-        <v>2.0396270396270456E-3</v>
+        <v>0</v>
       </c>
       <c r="M2" s="29" t="str">
         <f>_xll.RealtimeData(A2,"Dividend Yield")</f>
@@ -2045,7 +1995,7 @@
       </c>
       <c r="P2" s="60">
         <f t="shared" ref="P2:P12" si="1">O2-F2</f>
-        <v>-8.9437734244079137E-3</v>
+        <v>-8.8586473063805293E-3</v>
       </c>
       <c r="Q2" s="31">
         <f>O2*Daily!$D$68</f>
@@ -2065,7 +2015,7 @@
       </c>
       <c r="U2">
         <f>_xll.RealtimeData(T2,"MTD Percent Change")</f>
-        <v>1.14705882</v>
+        <v>1.1176470599999999</v>
       </c>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.25">
@@ -2084,34 +2034,34 @@
       </c>
       <c r="E3" s="5">
         <f>G3/D3-1</f>
-        <v>7.2047364558050164E-2</v>
+        <v>7.6177121521852742E-2</v>
       </c>
       <c r="F3" s="5">
         <f>I3/$I$21</f>
-        <v>0.41387139772027004</v>
+        <v>0.4145067515008875</v>
       </c>
       <c r="G3" s="4">
         <f>_xll.RealtimeData(A3,"Close")</f>
-        <v>285.55</v>
+        <v>286.64999999999998</v>
       </c>
       <c r="H3" s="4">
         <v>29</v>
       </c>
       <c r="I3" s="4">
         <f>H3*G3</f>
-        <v>8280.9500000000007</v>
+        <v>8312.8499999999985</v>
       </c>
       <c r="J3" s="4">
         <f>_xll.RealtimeData(A3,"Last")</f>
-        <v>286.56</v>
+        <v>286.64999999999998</v>
       </c>
       <c r="K3" s="5">
         <f>J3/D3-1</f>
-        <v>7.5839232315723537E-2</v>
+        <v>7.6177121521852742E-2</v>
       </c>
       <c r="L3" s="8">
         <f>_xll.RealtimeData(A3,"Change in Percent")</f>
-        <v>3.5370337944317632E-3</v>
+        <v>0</v>
       </c>
       <c r="M3" s="29">
         <f>_xll.RealtimeData(A3,"Dividend Yield")</f>
@@ -2126,7 +2076,7 @@
       </c>
       <c r="P3" s="60">
         <f t="shared" si="1"/>
-        <v>-4.7871397720270048E-2</v>
+        <v>-4.8506751500887513E-2</v>
       </c>
       <c r="Q3" s="31">
         <f>O3*Daily!$D$68</f>
@@ -2146,7 +2096,7 @@
       </c>
       <c r="U3">
         <f>_xll.RealtimeData(T3,"MTD Percent Change")</f>
-        <v>1.3009049800000001</v>
+        <v>1.3327205900000001</v>
       </c>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.25">
@@ -2165,34 +2115,34 @@
       </c>
       <c r="E4" s="5">
         <f>G4/D4-1</f>
-        <v>4.8195843427259799E-2</v>
+        <v>4.7558332270814629E-2</v>
       </c>
       <c r="F4" s="5">
         <f>I4/$I$21</f>
-        <v>0.22187259321158842</v>
+        <v>0.22122584119512534</v>
       </c>
       <c r="G4" s="4">
         <f>_xll.RealtimeData(A4,"Close")</f>
-        <v>82.21</v>
+        <v>82.16</v>
       </c>
       <c r="H4" s="4">
         <v>54</v>
       </c>
       <c r="I4" s="4">
         <f>H4*G4</f>
-        <v>4439.3399999999992</v>
+        <v>4436.6399999999994</v>
       </c>
       <c r="J4" s="4">
         <f>_xll.RealtimeData(A4,"Last")</f>
-        <v>81.93</v>
+        <v>82.16</v>
       </c>
       <c r="K4" s="5">
         <f>J4/D4-1</f>
-        <v>4.4625780951166538E-2</v>
+        <v>4.7558332270814629E-2</v>
       </c>
       <c r="L4" s="8">
         <f t="array" ref="L4">_xll.RealtimeData(A4,"Change in Percent")</f>
-        <v>-3.4059116895753193E-3</v>
+        <v>0</v>
       </c>
       <c r="M4" s="29">
         <f>_xll.RealtimeData(A4,"Dividend Yield")</f>
@@ -2207,7 +2157,7 @@
       </c>
       <c r="P4" s="60">
         <f t="shared" si="1"/>
-        <v>0.1711274067884116</v>
+        <v>0.17177415880487468</v>
       </c>
       <c r="Q4" s="31">
         <f>O4*Daily!$D$68</f>
@@ -2227,7 +2177,7 @@
       </c>
       <c r="U4">
         <f>_xll.RealtimeData(T4,"MTD Percent Change")</f>
-        <v>0.50294406000000003</v>
+        <v>0.78508341999999998</v>
       </c>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.25">
@@ -2246,34 +2196,34 @@
       </c>
       <c r="E5" s="5">
         <f>G5/D5-1</f>
-        <v>-2.5134553019041106E-2</v>
+        <v>-2.4562160959917811E-2</v>
       </c>
       <c r="F5" s="5">
         <f>I5/$I$21</f>
-        <v>0.20854626356485312</v>
+        <v>0.20818706743522752</v>
       </c>
       <c r="G5" s="4">
         <f>_xll.RealtimeData(A5,"Close")</f>
-        <v>119.22</v>
+        <v>119.29</v>
       </c>
       <c r="H5" s="4">
         <v>35</v>
       </c>
       <c r="I5" s="4">
         <f>H5*G5</f>
-        <v>4172.7</v>
+        <v>4175.1500000000005</v>
       </c>
       <c r="J5" s="31">
         <f>_xll.RealtimeData(A5,"Last")</f>
-        <v>119.431</v>
+        <v>119.29</v>
       </c>
       <c r="K5" s="5">
         <f>J5/D5-1</f>
-        <v>-2.3409199812255421E-2</v>
+        <v>-2.4562160959917811E-2</v>
       </c>
       <c r="L5" s="8">
         <f t="array" ref="L5">_xll.RealtimeData(A5,"Change in Percent")</f>
-        <v>1.7698372756248866E-3</v>
+        <v>0</v>
       </c>
       <c r="M5" s="29">
         <f>_xll.RealtimeData(A5,"Dividend Yield")</f>
@@ -2288,7 +2238,7 @@
       </c>
       <c r="P5" s="60">
         <f t="shared" si="1"/>
-        <v>-0.20854626356485312</v>
+        <v>-0.20818706743522752</v>
       </c>
       <c r="Q5" s="31">
         <f>O5*Daily!$D$68</f>
@@ -2308,7 +2258,7 @@
       </c>
       <c r="U5">
         <f>_xll.RealtimeData(T5,"MTD Percent Change")</f>
-        <v>0.81968596999999999</v>
+        <v>0.70065845000000004</v>
       </c>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.25">
@@ -2328,12 +2278,12 @@
       <c r="I6" s="4"/>
       <c r="J6" s="31">
         <f>_xll.RealtimeData(A6,"Last")</f>
-        <v>39.35</v>
+        <v>39.369999999999997</v>
       </c>
       <c r="K6" s="5"/>
       <c r="L6" s="8">
         <f>_xll.RealtimeData(A6,"Change in Percent")</f>
-        <v>-5.056890012642124E-3</v>
+        <v>0</v>
       </c>
       <c r="M6" s="29">
         <f>_xll.RealtimeData(A6,"Dividend Yield")</f>
@@ -2368,7 +2318,7 @@
       </c>
       <c r="U6">
         <f>_xll.RealtimeData(T6,"MTD Percent Change")</f>
-        <v>-0.37974683999999997</v>
+        <v>-0.32911392</v>
       </c>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.25">
@@ -2388,16 +2338,16 @@
       <c r="I7" s="4"/>
       <c r="J7" s="31">
         <f>_xll.RealtimeData(A7,"Last")</f>
-        <v>58.14</v>
+        <v>58.13</v>
       </c>
       <c r="K7" s="5"/>
       <c r="L7" s="8">
         <f>_xll.RealtimeData(A7,"Change in Percent")</f>
-        <v>-7.3416424790848558E-3</v>
+        <v>0</v>
       </c>
       <c r="M7" s="29">
         <f>_xll.RealtimeData(A7,"Dividend Yield")</f>
-        <v>1.57</v>
+        <v>1.58</v>
       </c>
       <c r="N7" s="4" t="str">
         <f t="shared" si="0"/>
@@ -2428,7 +2378,7 @@
       </c>
       <c r="U7">
         <f>_xll.RealtimeData(T7,"MTD Percent Change")</f>
-        <v>-1.3155661199999999</v>
+        <v>-1.32405364</v>
       </c>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.25">
@@ -2448,12 +2398,12 @@
       <c r="I8" s="4"/>
       <c r="J8" s="31">
         <f>_xll.RealtimeData(A8,"Last")</f>
-        <v>114.3115</v>
+        <v>114.33</v>
       </c>
       <c r="K8" s="5"/>
       <c r="L8" s="8">
         <f>_xll.RealtimeData(A8,"Change in Percent")</f>
-        <v>-5.2949878176123044E-3</v>
+        <v>-5.1340062652280105E-3</v>
       </c>
       <c r="M8" s="29">
         <v>0</v>
@@ -2487,7 +2437,7 @@
       </c>
       <c r="U8">
         <f>_xll.RealtimeData(T8,"MTD Percent Change")</f>
-        <v>-0.71955880000000005</v>
+        <v>-0.70349139999999999</v>
       </c>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.25">
@@ -2507,16 +2457,16 @@
       <c r="I9" s="4"/>
       <c r="J9" s="31">
         <f>_xll.RealtimeData(A9,"Last")</f>
-        <v>45.45</v>
+        <v>45.46</v>
       </c>
       <c r="K9" s="5"/>
       <c r="L9" s="8">
         <f>_xll.RealtimeData(A9,"Change in Percent")</f>
-        <v>-4.8171666301729584E-3</v>
+        <v>0</v>
       </c>
       <c r="M9" s="29">
         <f>_xll.RealtimeData(A9,"Dividend Yield")</f>
-        <v>4.67</v>
+        <v>4.6500000000000004</v>
       </c>
       <c r="N9" s="4" t="str">
         <f t="shared" si="0"/>
@@ -2547,7 +2497,7 @@
       </c>
       <c r="U9">
         <f>_xll.RealtimeData(T9,"MTD Percent Change")</f>
-        <v>-1.19565217</v>
+        <v>-1.17391304</v>
       </c>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.25">
@@ -2561,12 +2511,12 @@
       <c r="G10" s="4"/>
       <c r="J10" s="31">
         <f>_xll.RealtimeData(A10,"Last")</f>
-        <v>43.914999999999999</v>
+        <v>43.87</v>
       </c>
       <c r="K10" s="5"/>
       <c r="L10" s="8">
         <f t="array" ref="L10">_xll.RealtimeData(A10,"Change in Percent")</f>
-        <v>-6.6726984845058126E-3</v>
+        <v>-7.6905677448541737E-3</v>
       </c>
       <c r="M10" s="29">
         <f>_xll.RealtimeData(A10,"Dividend Yield")</f>
@@ -2601,7 +2551,7 @@
       </c>
       <c r="U10">
         <f>_xll.RealtimeData(T10,"MTD Percent Change")</f>
-        <v>-1.2145748999999999</v>
+        <v>-1.32703554</v>
       </c>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.25">
@@ -2615,12 +2565,12 @@
       <c r="G11" s="4"/>
       <c r="J11" s="31">
         <f>_xll.RealtimeData(A11,"Last")</f>
-        <v>101.825</v>
+        <v>101.77</v>
       </c>
       <c r="K11" s="5"/>
       <c r="L11" s="8">
         <f t="array" ref="L11">_xll.RealtimeData(A11,"Change in Percent")</f>
-        <v>1.0322453794731027E-3</v>
+        <v>0</v>
       </c>
       <c r="M11" s="29">
         <f>_xll.RealtimeData(A11,"Dividend Yield")</f>
@@ -2655,7 +2605,7 @@
       </c>
       <c r="U11">
         <f>_xll.RealtimeData(T11,"MTD Percent Change")</f>
-        <v>0.47858694000000002</v>
+        <v>0.42431418999999998</v>
       </c>
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.25">
@@ -2672,7 +2622,7 @@
       </c>
       <c r="L12" s="8">
         <f t="array" ref="L12">_xll.RealtimeData(A12,"Change in Percent")</f>
-        <v>2.4061597690081809E-4</v>
+        <v>0</v>
       </c>
       <c r="M12" s="29">
         <f>_xll.RealtimeData(A12,"Dividend Yield")</f>
@@ -2724,11 +2674,11 @@
     <row r="14" spans="1:22" x14ac:dyDescent="0.25">
       <c r="U14" s="29">
         <f t="array" ref="U14">MMULT(TRANSPOSE(O2:O12),U2:U12)</f>
-        <v>0.84620586678000009</v>
+        <v>0.96455467859999999</v>
       </c>
       <c r="V14" s="8">
         <f>U14*0.01</f>
-        <v>8.4620586678000008E-3</v>
+        <v>9.6455467860000008E-3</v>
       </c>
     </row>
     <row r="19" spans="5:16" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
@@ -2738,13 +2688,13 @@
       </c>
       <c r="F20" s="11">
         <f>SUM(F2:F5)</f>
-        <v>0.99523402792111959</v>
+        <v>0.99477830743762086</v>
       </c>
       <c r="H20" s="2" t="s">
         <v>14</v>
       </c>
       <c r="I20" s="6">
-        <v>95.36</v>
+        <v>104.72</v>
       </c>
       <c r="O20" s="11">
         <f>SUM(O2:O12)</f>
@@ -2757,32 +2707,32 @@
       </c>
       <c r="F21" s="11">
         <f>1-F20</f>
-        <v>4.7659720788804094E-3</v>
+        <v>5.2216925623791433E-3</v>
       </c>
       <c r="H21" s="2" t="s">
         <v>16</v>
       </c>
       <c r="I21" s="6">
         <f>SUM(I2:I20)</f>
-        <v>20008.510000000002</v>
+        <v>20054.8</v>
       </c>
       <c r="J21" t="s">
         <v>33</v>
       </c>
       <c r="K21" s="8">
         <f>SUMPRODUCT(K2:K7,F2:F7)</f>
-        <v>3.1057252658759353E-2</v>
+        <v>3.1594470756223077E-2</v>
       </c>
       <c r="M21" t="s">
         <v>34</v>
       </c>
       <c r="N21" s="8">
         <f t="array" ref="N21">MMULT(TRANSPOSE(F2:F5),L2:L5)</f>
-        <v>1.3851606141586956E-3</v>
+        <v>0</v>
       </c>
       <c r="P21" s="8">
         <f t="array" ref="P21">SUMPRODUCT(L2:L12,O2:O12)</f>
-        <v>2.6947909609914604E-4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="5:16" x14ac:dyDescent="0.25">
@@ -2809,7 +2759,7 @@
       </c>
       <c r="K23" s="8">
         <f>_xll.RealtimeData(J23,"Change in Percent")</f>
-        <v>9.4366330093417295E-4</v>
+        <v>6.6056431065402853E-4</v>
       </c>
       <c r="L23" s="12">
         <v>0.4</v>
@@ -2821,7 +2771,7 @@
       </c>
       <c r="K24" s="8">
         <f>_xll.RealtimeData(J24,"Change in Percent")</f>
-        <v>3.5370337944317632E-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="5:16" x14ac:dyDescent="0.25">
@@ -2830,7 +2780,7 @@
       </c>
       <c r="K25" s="8">
         <f t="array" ref="K25">SUMPRODUCT(K22:K23,L22:L23)</f>
-        <v>2.9568802720203149E-4</v>
+        <v>1.8244843108997371E-4</v>
       </c>
     </row>
     <row r="26" spans="5:16" x14ac:dyDescent="0.25">
@@ -2839,14 +2789,14 @@
       </c>
       <c r="I26" s="6">
         <f>SUM(I2:I18)</f>
-        <v>19913.150000000001</v>
+        <v>19950.079999999998</v>
       </c>
       <c r="J26" t="s">
         <v>56</v>
       </c>
       <c r="K26" s="8">
         <f>_xll.RealtimeData(J26,"Change in Percent")</f>
-        <v>2.8328611898017393E-3</v>
+        <v>0</v>
       </c>
       <c r="L26" t="str">
         <f>_xll.RealtimeData(J26,"Description")</f>
@@ -2859,7 +2809,7 @@
       </c>
       <c r="K27" s="8">
         <f>AVERAGE(L2:L11)</f>
-        <v>-2.4210553624436576E-3</v>
+        <v>-1.2824574010082183E-3</v>
       </c>
     </row>
     <row r="28" spans="5:16" x14ac:dyDescent="0.25">
@@ -2868,20 +2818,20 @@
       </c>
       <c r="K28" s="8">
         <f>SUMPRODUCT(F2:F7,M2:M7)*0.01</f>
-        <v>1.4084513589467679E-2</v>
+        <v>1.4083090880986098E-2</v>
       </c>
       <c r="L28" t="s">
         <v>65</v>
       </c>
       <c r="M28" s="8">
         <f>AVERAGE(M2:M11)*0.01</f>
-        <v>2.0588888888888893E-2</v>
+        <v>2.0577777777777778E-2</v>
       </c>
     </row>
     <row r="29" spans="5:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="30" spans="5:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H30" s="30">
-        <v>43315</v>
+        <v>43318</v>
       </c>
       <c r="I30" s="15" t="s">
         <v>61</v>
@@ -2902,19 +2852,19 @@
       </c>
       <c r="I31" s="21">
         <f>$N$21</f>
-        <v>1.3851606141586956E-3</v>
+        <v>0</v>
       </c>
       <c r="J31" s="21">
         <f>LOOKUP(2,1/(Daily!E:E&lt;&gt;""),Daily!E:E)</f>
-        <v>6.1009091274790705E-3</v>
+        <v>1.845712803489219E-3</v>
       </c>
       <c r="K31" s="22">
         <f>VLOOKUP($H$30,Daily!$A:$AF,7,0)</f>
-        <v>8.0696843467171764E-3</v>
+        <v>9.9302914699253009E-3</v>
       </c>
       <c r="L31" s="23">
         <f>VLOOKUP($H$30,Daily!$A:$AF,8,0)</f>
-        <v>4.2650000000010735E-4</v>
+        <v>2.2729999999999695E-3</v>
       </c>
     </row>
     <row r="32" spans="5:16" x14ac:dyDescent="0.25">
@@ -2923,19 +2873,19 @@
       </c>
       <c r="I32" s="24">
         <f>$K$25</f>
-        <v>2.9568802720203149E-4</v>
+        <v>1.8244843108997371E-4</v>
       </c>
       <c r="J32" s="24">
         <f>LOOKUP(2,1/(Daily!M:M&lt;&gt;""),Daily!M:M)</f>
-        <v>3.0862009052481376E-3</v>
+        <v>1.8244843109000989E-4</v>
       </c>
       <c r="K32" s="14">
         <f>VLOOKUP($H$30,Daily!$A:$AF,25,0)</f>
-        <v>1.8481899477520214E-2</v>
+        <v>1.8667719902173419E-2</v>
       </c>
       <c r="L32" s="25">
         <f>VLOOKUP($H$30,Daily!$A:$AF,31,0)</f>
-        <v>1.2634658761484729E-2</v>
+        <v>1.2819412366243066E-2</v>
       </c>
     </row>
     <row r="33" spans="8:18" x14ac:dyDescent="0.25">
@@ -2944,19 +2894,19 @@
       </c>
       <c r="I33" s="24">
         <f>$K$24</f>
-        <v>3.5370337944317632E-3</v>
+        <v>0</v>
       </c>
       <c r="J33" s="24">
         <f>LOOKUP(2,1/(Daily!L:L&lt;&gt;""),Daily!L:L)</f>
-        <v>4.6441262357950208E-3</v>
+        <v>3.8522150236384167E-3</v>
       </c>
       <c r="K33" s="14">
         <f>VLOOKUP($H$30,Daily!$A:$AF,24,0)</f>
-        <v>4.5779161325764317E-2</v>
+        <v>4.9807727522431344E-2</v>
       </c>
       <c r="L33" s="25">
         <f>VLOOKUP($H$30,Daily!$A:$AF,30,0)</f>
-        <v>7.2343481007471899E-2</v>
+        <v>7.6474378675509547E-2</v>
       </c>
     </row>
     <row r="34" spans="8:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2965,19 +2915,19 @@
       </c>
       <c r="I34" s="26">
         <f>$K$26</f>
-        <v>2.8328611898017393E-3</v>
+        <v>0</v>
       </c>
       <c r="J34" s="26">
         <f>LOOKUP(2,1/(Daily!N:N&lt;&gt;""),Daily!N:N)</f>
-        <v>-1.6968325791856254E-3</v>
+        <v>5.6657223796041656E-4</v>
       </c>
       <c r="K34" s="27">
         <f>VLOOKUP($H$30,Daily!$A:$AF,26,0)</f>
-        <v>1.4367816091954255E-2</v>
+        <v>1.4942528735632399E-2</v>
       </c>
       <c r="L34" s="28">
         <f>VLOOKUP($H$30,Daily!$A:$AF,32,0)</f>
-        <v>2.361788018268518E-2</v>
+        <v>2.4197833655876577E-2</v>
       </c>
     </row>
     <row r="35" spans="8:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -3012,7 +2962,7 @@
       </c>
       <c r="I37" s="46">
         <f>AVERAGE(Daily!E$3:E380)</f>
-        <v>1.9244612943873453E-5</v>
+        <v>4.6104439275422655E-5</v>
       </c>
       <c r="J37" s="44"/>
       <c r="K37" s="22"/>
@@ -3020,23 +2970,23 @@
       <c r="M37" s="50"/>
       <c r="N37" s="38">
         <f>AVERAGE(Daily!J$3:J380)</f>
-        <v>3.0238987818562873E-4</v>
+        <v>2.9593862279143749E-4</v>
       </c>
       <c r="O37" s="22">
         <f>AVERAGE(Daily!K$3:K380)</f>
-        <v>3.1222230580478587E-5</v>
+        <v>4.0477261169796373E-5</v>
       </c>
       <c r="P37" s="22">
         <f>AVERAGE(Daily!L$3:L380)</f>
-        <v>1.0604041642763508E-3</v>
+        <v>1.1014602063257931E-3</v>
       </c>
       <c r="Q37" s="22">
         <f>AVERAGE(Daily!M$3:M380)</f>
-        <v>1.9392281914356864E-4</v>
+        <v>1.9375407814278101E-4</v>
       </c>
       <c r="R37" s="23">
         <f>AVERAGE(Daily!N$3:N380)</f>
-        <v>3.8185064993437291E-4</v>
+        <v>3.8456714387593237E-4</v>
       </c>
     </row>
     <row r="38" spans="8:18" x14ac:dyDescent="0.25">
@@ -3045,7 +2995,7 @@
       </c>
       <c r="I38" s="47">
         <f>STDEV(Daily!E$3:E380)</f>
-        <v>5.1119248616554851E-3</v>
+        <v>5.0784651131284891E-3</v>
       </c>
       <c r="J38" s="45"/>
       <c r="K38" s="14"/>
@@ -3053,23 +3003,23 @@
       <c r="M38" s="51"/>
       <c r="N38" s="40">
         <f>STDEV(Daily!J$3:J380)</f>
-        <v>6.1905454163445998E-3</v>
+        <v>6.1444039376701348E-3</v>
       </c>
       <c r="O38" s="14">
         <f>STDEV(Daily!K$3:K380)</f>
-        <v>1.8029137814250227E-3</v>
+        <v>1.7910353950692974E-3</v>
       </c>
       <c r="P38" s="14">
         <f>STDEV(Daily!L$3:L380)</f>
-        <v>5.9384487766776378E-3</v>
+        <v>5.9036809448474907E-3</v>
       </c>
       <c r="Q38" s="14">
         <f>STDEV(Daily!M$3:M380)</f>
-        <v>3.6342323495953503E-3</v>
+        <v>3.6070095204496669E-3</v>
       </c>
       <c r="R38" s="25">
         <f>STDEV(Daily!N$3:N380)</f>
-        <v>8.2332598787320851E-3</v>
+        <v>8.1716173553021201E-3</v>
       </c>
     </row>
     <row r="39" spans="8:18" x14ac:dyDescent="0.25">
@@ -3078,7 +3028,7 @@
       </c>
       <c r="I39" s="48">
         <f>COUNTIF(Daily!E$3:E380,"&gt;0")</f>
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J39" s="45"/>
       <c r="K39" s="14"/>
@@ -3090,19 +3040,19 @@
       </c>
       <c r="O39" s="33">
         <f>COUNTIF(Daily!K$3:K380,"&gt;0")</f>
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="P39" s="33">
         <f>COUNTIF(Daily!L$3:L380,"&gt;0")</f>
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="Q39" s="33">
         <f>COUNTIF(Daily!M$3:M380,"&gt;0")</f>
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="R39" s="35">
         <f>COUNTIF(Daily!N$3:N380,"&gt;0")</f>
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="40" spans="8:18" x14ac:dyDescent="0.25">
@@ -3111,7 +3061,7 @@
       </c>
       <c r="I40" s="47">
         <f>SUMIF(Daily!E$3:E380,"&gt;0")</f>
-        <v>0.12672534117654144</v>
+        <v>0.12857105398003066</v>
       </c>
       <c r="J40" s="45"/>
       <c r="K40" s="14"/>
@@ -3123,19 +3073,19 @@
       </c>
       <c r="O40" s="14">
         <f>SUMIF(Daily!K$3:K380,"&gt;0")</f>
-        <v>4.7246933762094878E-2</v>
+        <v>4.7907498072748966E-2</v>
       </c>
       <c r="P40" s="14">
         <f>SUMIF(Daily!L$3:L380,"&gt;0")</f>
-        <v>0.19494894145856029</v>
+        <v>0.1988011564821987</v>
       </c>
       <c r="Q40" s="14">
         <f>SUMIF(Daily!M$3:M380,"&gt;0")</f>
-        <v>0.10089954512041394</v>
+        <v>0.10108199355150395</v>
       </c>
       <c r="R40" s="25">
         <f>SUMIF(Daily!N$3:N380,"&gt;0")</f>
-        <v>0.22884459746993061</v>
+        <v>0.22941116970789102</v>
       </c>
     </row>
     <row r="41" spans="8:18" x14ac:dyDescent="0.25">
@@ -3152,7 +3102,7 @@
       <c r="M41" s="51"/>
       <c r="N41" s="40">
         <f>SUMIF(Daily!J$3:J380,"&lt;0")</f>
-        <v>-0.1505351205638456</v>
+        <v>-0.15067141605246498</v>
       </c>
       <c r="O41" s="14">
         <f>SUMIF(Daily!K$3:K380,"&lt;0")</f>
@@ -3177,7 +3127,7 @@
       </c>
       <c r="I42" s="48">
         <f>COUNT(Daily!E$3:E380)</f>
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="J42" s="45"/>
       <c r="K42" s="14"/>
@@ -3185,23 +3135,23 @@
       <c r="M42" s="51"/>
       <c r="N42" s="41">
         <f>COUNT(Daily!J$3:J380)</f>
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="O42" s="33">
         <f>COUNT(Daily!K$3:K380)</f>
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="P42" s="33">
         <f>COUNT(Daily!L$3:L380)</f>
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="Q42" s="33">
         <f>COUNT(Daily!M$3:M380)</f>
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="R42" s="35">
         <f>COUNT(Daily!N$3:N380)</f>
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="43" spans="8:18" x14ac:dyDescent="0.25">
@@ -3218,7 +3168,7 @@
       <c r="M43" s="51"/>
       <c r="N43" s="41">
         <f>N42-N39</f>
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="O43" s="33">
         <f>O42-O39</f>
@@ -3243,7 +3193,7 @@
       </c>
       <c r="I44" s="49">
         <f>(I40/I41)*(I39/I43)*-1</f>
-        <v>1.3238142059150872</v>
+        <v>1.3784397317714392</v>
       </c>
       <c r="J44" s="45"/>
       <c r="K44" s="14"/>
@@ -3251,23 +3201,23 @@
       <c r="M44" s="51"/>
       <c r="N44" s="42">
         <f>(N40/N41)*(N39/N43)*-1</f>
-        <v>1.168968777181661</v>
+        <v>1.1335610089627781</v>
       </c>
       <c r="O44" s="34">
         <f>(O40/O41)*(O39/O43)*-1</f>
-        <v>1.0780336896575655</v>
+        <v>1.1252559614823405</v>
       </c>
       <c r="P44" s="34">
         <f>(P40/P41)*(P39/P43)*-1</f>
-        <v>2.1915411135009411</v>
+        <v>2.2921499846489177</v>
       </c>
       <c r="Q44" s="34">
         <f>(Q40/Q41)*(Q39/Q43)*-1</f>
-        <v>1.2554089402784985</v>
+        <v>1.2936126795798795</v>
       </c>
       <c r="R44" s="36">
         <f>(R40/R41)*(R39/R43)*-1</f>
-        <v>1.475275232023854</v>
+        <v>1.5178468608802465</v>
       </c>
     </row>
     <row r="45" spans="8:18" x14ac:dyDescent="0.25">
@@ -3276,7 +3226,7 @@
       </c>
       <c r="I45" s="62">
         <f>I39/I42</f>
-        <v>0.56716417910447758</v>
+        <v>0.57352941176470584</v>
       </c>
       <c r="J45" s="63"/>
       <c r="K45" s="64"/>
@@ -3284,23 +3234,23 @@
       <c r="M45" s="66"/>
       <c r="N45" s="67">
         <f>N39/N42</f>
-        <v>0.5074626865671642</v>
+        <v>0.5</v>
       </c>
       <c r="O45" s="64">
         <f>O39/O42</f>
-        <v>0.5074626865671642</v>
+        <v>0.51470588235294112</v>
       </c>
       <c r="P45" s="64">
         <f>P39/P42</f>
-        <v>0.58208955223880599</v>
+        <v>0.58823529411764708</v>
       </c>
       <c r="Q45" s="64">
         <f>Q39/Q42</f>
-        <v>0.52238805970149249</v>
+        <v>0.52941176470588236</v>
       </c>
       <c r="R45" s="68">
         <f>R39/R42</f>
-        <v>0.56716417910447758</v>
+        <v>0.57352941176470584</v>
       </c>
     </row>
     <row r="46" spans="8:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3351,15 +3301,16 @@
   <dimension ref="A1:AN72"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="L49" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B49" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="Y81" sqref="Y81"/>
+      <selection pane="bottomRight" activeCell="D84" sqref="D84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="18.85546875" customWidth="1"/>
+    <col min="1" max="1" width="18.85546875" style="9" customWidth="1"/>
+    <col min="2" max="3" width="18.85546875" customWidth="1"/>
     <col min="4" max="4" width="18.85546875" style="4" customWidth="1"/>
     <col min="5" max="5" width="12.7109375" style="4" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.5703125" style="4" bestFit="1" customWidth="1"/>
@@ -3381,7 +3332,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="9" t="s">
         <v>1</v>
       </c>
       <c r="B1" s="2" t="s">
@@ -9369,7 +9320,7 @@
         <v>43291</v>
       </c>
       <c r="B51" s="4">
-        <f t="shared" ref="B51:B69" si="812">D51-C51</f>
+        <f t="shared" ref="B51:B70" si="812">D51-C51</f>
         <v>19902.79</v>
       </c>
       <c r="C51" s="4">
@@ -11949,7 +11900,140 @@
       </c>
     </row>
     <row r="70" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="B70" s="4"/>
+      <c r="A70" s="9">
+        <v>43318</v>
+      </c>
+      <c r="B70" s="4">
+        <f t="shared" si="812"/>
+        <v>19940.739999999998</v>
+      </c>
+      <c r="C70" s="4">
+        <v>104.72</v>
+      </c>
+      <c r="D70" s="4">
+        <f>20072.78-27.32</f>
+        <v>20045.46</v>
+      </c>
+      <c r="E70" s="5">
+        <f t="shared" ref="E70" si="1206">D70/D69-1</f>
+        <v>1.845712803489219E-3</v>
+      </c>
+      <c r="F70" s="10">
+        <f t="shared" ref="F70" si="1207">F69*(1+E70)</f>
+        <v>100.2273</v>
+      </c>
+      <c r="G70" s="5">
+        <f t="shared" ref="G70" si="1208">F70/F$45-1</f>
+        <v>9.9302914699253009E-3</v>
+      </c>
+      <c r="H70" s="8">
+        <f t="shared" ref="H70" si="1209">F70/$F$2-1</f>
+        <v>2.2729999999999695E-3</v>
+      </c>
+      <c r="J70" s="11">
+        <f>VLOOKUP($A70,Prices!$A:$J,MATCH(J$1,Prices!$1:$1,0),0)</f>
+        <v>-1.3629548861937568E-4</v>
+      </c>
+      <c r="K70" s="11">
+        <f>VLOOKUP($A70,Prices!$A:$J,MATCH(K$1,Prices!$1:$1,0),0)</f>
+        <v>6.6056431065408816E-4</v>
+      </c>
+      <c r="L70" s="11">
+        <f>VLOOKUP($A70,Prices!$A:$J,MATCH(L$1,Prices!$1:$1,0),0)</f>
+        <v>3.8522150236384167E-3</v>
+      </c>
+      <c r="M70" s="11">
+        <f t="shared" ref="M70" si="1210">0.6*J70 + 0.4*K70</f>
+        <v>1.8244843109000989E-4</v>
+      </c>
+      <c r="N70" s="11">
+        <f>VLOOKUP($A70,Prices!$A:$J,MATCH(N$1,Prices!$1:$1,0),0)</f>
+        <v>5.6657223796041656E-4</v>
+      </c>
+      <c r="P70" s="10">
+        <f t="shared" ref="P70" si="1211">P69*(1+J70)</f>
+        <v>101.90336372215063</v>
+      </c>
+      <c r="Q70" s="10">
+        <f t="shared" ref="Q70" si="1212">Q69*(1+K70)</f>
+        <v>100.26484905838925</v>
+      </c>
+      <c r="R70" s="10">
+        <f t="shared" ref="R70" si="1213">R69*(1+L70)</f>
+        <v>107.64743786755095</v>
+      </c>
+      <c r="S70" s="10">
+        <f t="shared" ref="S70" si="1214">S69*(1+M70)</f>
+        <v>101.28194123662431</v>
+      </c>
+      <c r="T70" s="10">
+        <f t="shared" ref="T70" si="1215">T69*(1+N70)</f>
+        <v>102.41978336558765</v>
+      </c>
+      <c r="V70" s="5">
+        <f t="shared" ref="V70" si="1216">P70/P$45-1</f>
+        <v>3.1496062992125928E-2</v>
+      </c>
+      <c r="W70" s="5">
+        <f t="shared" ref="W70" si="1217">Q70/Q$45-1</f>
+        <v>-4.7883511105628607E-4</v>
+      </c>
+      <c r="X70" s="5">
+        <f t="shared" ref="X70" si="1218">R70/R$45-1</f>
+        <v>4.9807727522431344E-2</v>
+      </c>
+      <c r="Y70" s="5">
+        <f t="shared" ref="Y70" si="1219">S70/S$45-1</f>
+        <v>1.8667719902173419E-2</v>
+      </c>
+      <c r="Z70" s="5">
+        <f t="shared" ref="Z70" si="1220">T70/T$45-1</f>
+        <v>1.4942528735632399E-2</v>
+      </c>
+      <c r="AB70" s="8">
+        <f t="shared" ref="AB70" si="1221">P70/$P$2-1</f>
+        <v>1.9033637221506305E-2</v>
+      </c>
+      <c r="AC70" s="8">
+        <f t="shared" ref="AC70" si="1222">Q70/$P$2-1</f>
+        <v>2.6484905838923822E-3</v>
+      </c>
+      <c r="AD70" s="8">
+        <f t="shared" ref="AD70" si="1223">R70/$P$2-1</f>
+        <v>7.6474378675509547E-2</v>
+      </c>
+      <c r="AE70" s="8">
+        <f t="shared" ref="AE70" si="1224">S70/$P$2-1</f>
+        <v>1.2819412366243066E-2</v>
+      </c>
+      <c r="AF70" s="8">
+        <f t="shared" ref="AF70" si="1225">T70/$T$2-1</f>
+        <v>2.4197833655876577E-2</v>
+      </c>
+      <c r="AI70" s="8">
+        <f t="shared" ref="AI70" si="1226">MIN(0,(F70-MAX(F41:F70))/MAX(F41:F70))</f>
+        <v>0</v>
+      </c>
+      <c r="AJ70" s="8">
+        <f t="shared" ref="AJ70" si="1227">MIN(0,(P70-MAX(P41:P70))/MAX(P41:P70))</f>
+        <v>-7.0384407146724367E-3</v>
+      </c>
+      <c r="AK70" s="8">
+        <f t="shared" ref="AK70" si="1228">MIN(0,(Q70-MAX(Q41:Q70))/MAX(Q41:Q70))</f>
+        <v>-4.4127311989484138E-3</v>
+      </c>
+      <c r="AL70" s="8">
+        <f t="shared" ref="AL70" si="1229">MIN(0,(R70-MAX(R41:R70))/MAX(R41:R70))</f>
+        <v>0</v>
+      </c>
+      <c r="AM70" s="8">
+        <f t="shared" ref="AM70" si="1230">MIN(0,(S70-MAX(S41:S70))/MAX(S41:S70))</f>
+        <v>-4.2992881788178833E-3</v>
+      </c>
+      <c r="AN70" s="8">
+        <f t="shared" ref="AN70" si="1231">MIN(0,(T70-MAX(T41:T70))/MAX(T41:T70))</f>
+        <v>-1.2856344326439456E-2</v>
+      </c>
     </row>
     <row r="71" spans="1:40" x14ac:dyDescent="0.25">
       <c r="B71" s="4"/>
@@ -11965,10 +12049,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:J72"/>
+  <dimension ref="A1:J78"/>
   <sheetViews>
     <sheetView topLeftCell="A51" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D80" sqref="D80"/>
+      <selection activeCell="N78" sqref="N78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14519,37 +14603,40 @@
       </c>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B71" t="str">
+      <c r="A71" s="13">
+        <v>43318</v>
+      </c>
+      <c r="B71">
         <f t="array" ref="B71">_xll.HistoricalData(B$1,"Adj. Close",$A71,$A71,"Daily","RemoveHeaders = True","ReverseOrder =True","RemoveDates =""True")</f>
-        <v>--</v>
-      </c>
-      <c r="C71" t="str">
+        <v>73.36</v>
+      </c>
+      <c r="C71">
         <f t="array" ref="C71">_xll.HistoricalData(C$1,"Adj. Close",$A71,$A71,"Daily","RemoveHeaders = True","ReverseOrder =True","RemoveDates =""True")</f>
-        <v>--</v>
-      </c>
-      <c r="D71" t="str">
+        <v>106.04</v>
+      </c>
+      <c r="D71">
         <f t="array" ref="D71">_xll.HistoricalData(D$1,"Adj. Close",$A71,$A71,"Daily","RemoveHeaders = True","ReverseOrder =True","RemoveDates =""True")</f>
-        <v>--</v>
-      </c>
-      <c r="E71" t="str">
+        <v>286.64999999999998</v>
+      </c>
+      <c r="E71">
         <f t="array" ref="E71">_xll.HistoricalData(E$1,"Adj. Close",$A71,$A71,"Daily","RemoveHeaders = True","ReverseOrder =True","RemoveDates =""True")</f>
-        <v>--</v>
-      </c>
-      <c r="G71" s="5" t="e">
+        <v>17.66</v>
+      </c>
+      <c r="G71" s="5">
         <f t="shared" si="216"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="H71" s="5" t="e">
+        <v>-1.3629548861937568E-4</v>
+      </c>
+      <c r="H71" s="5">
         <f t="shared" si="217"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I71" s="5" t="e">
+        <v>6.6056431065408816E-4</v>
+      </c>
+      <c r="I71" s="5">
         <f t="shared" si="218"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="J71" s="5" t="e">
+        <v>3.8522150236384167E-3</v>
+      </c>
+      <c r="J71" s="5">
         <f t="shared" si="219"/>
-        <v>#VALUE!</v>
+        <v>5.6657223796041656E-4</v>
       </c>
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.25">
@@ -14583,6 +14670,210 @@
       </c>
       <c r="J72" s="5" t="e">
         <f t="shared" si="219"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B73" t="str">
+        <f t="array" ref="B73">_xll.HistoricalData(B$1,"Adj. Close",$A73,$A73,"Daily","RemoveHeaders = True","ReverseOrder =True","RemoveDates =""True")</f>
+        <v>--</v>
+      </c>
+      <c r="C73" t="str">
+        <f t="array" ref="C73">_xll.HistoricalData(C$1,"Adj. Close",$A73,$A73,"Daily","RemoveHeaders = True","ReverseOrder =True","RemoveDates =""True")</f>
+        <v>--</v>
+      </c>
+      <c r="D73" t="str">
+        <f t="array" ref="D73">_xll.HistoricalData(D$1,"Adj. Close",$A73,$A73,"Daily","RemoveHeaders = True","ReverseOrder =True","RemoveDates =""True")</f>
+        <v>--</v>
+      </c>
+      <c r="E73" t="str">
+        <f t="array" ref="E73">_xll.HistoricalData(E$1,"Adj. Close",$A73,$A73,"Daily","RemoveHeaders = True","ReverseOrder =True","RemoveDates =""True")</f>
+        <v>--</v>
+      </c>
+      <c r="G73" s="5" t="e">
+        <f t="shared" ref="G73:G78" si="220">B73/B72-1</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H73" s="5" t="e">
+        <f t="shared" ref="H73:H78" si="221">C73/C72-1</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I73" s="5" t="e">
+        <f t="shared" ref="I73:I78" si="222">D73/D72-1</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="J73" s="5" t="e">
+        <f t="shared" ref="J73:J78" si="223">E73/E72-1</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B74" t="str">
+        <f t="array" ref="B74">_xll.HistoricalData(B$1,"Adj. Close",$A74,$A74,"Daily","RemoveHeaders = True","ReverseOrder =True","RemoveDates =""True")</f>
+        <v>--</v>
+      </c>
+      <c r="C74" t="str">
+        <f t="array" ref="C74">_xll.HistoricalData(C$1,"Adj. Close",$A74,$A74,"Daily","RemoveHeaders = True","ReverseOrder =True","RemoveDates =""True")</f>
+        <v>--</v>
+      </c>
+      <c r="D74" t="str">
+        <f t="array" ref="D74">_xll.HistoricalData(D$1,"Adj. Close",$A74,$A74,"Daily","RemoveHeaders = True","ReverseOrder =True","RemoveDates =""True")</f>
+        <v>--</v>
+      </c>
+      <c r="E74" t="str">
+        <f t="array" ref="E74">_xll.HistoricalData(E$1,"Adj. Close",$A74,$A74,"Daily","RemoveHeaders = True","ReverseOrder =True","RemoveDates =""True")</f>
+        <v>--</v>
+      </c>
+      <c r="G74" s="5" t="e">
+        <f t="shared" si="220"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H74" s="5" t="e">
+        <f t="shared" si="221"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I74" s="5" t="e">
+        <f t="shared" si="222"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="J74" s="5" t="e">
+        <f t="shared" si="223"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B75" t="str">
+        <f t="array" ref="B75">_xll.HistoricalData(B$1,"Adj. Close",$A75,$A75,"Daily","RemoveHeaders = True","ReverseOrder =True","RemoveDates =""True")</f>
+        <v>--</v>
+      </c>
+      <c r="C75" t="str">
+        <f t="array" ref="C75">_xll.HistoricalData(C$1,"Adj. Close",$A75,$A75,"Daily","RemoveHeaders = True","ReverseOrder =True","RemoveDates =""True")</f>
+        <v>--</v>
+      </c>
+      <c r="D75" t="str">
+        <f t="array" ref="D75">_xll.HistoricalData(D$1,"Adj. Close",$A75,$A75,"Daily","RemoveHeaders = True","ReverseOrder =True","RemoveDates =""True")</f>
+        <v>--</v>
+      </c>
+      <c r="E75" t="str">
+        <f t="array" ref="E75">_xll.HistoricalData(E$1,"Adj. Close",$A75,$A75,"Daily","RemoveHeaders = True","ReverseOrder =True","RemoveDates =""True")</f>
+        <v>--</v>
+      </c>
+      <c r="G75" s="5" t="e">
+        <f t="shared" si="220"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H75" s="5" t="e">
+        <f t="shared" si="221"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I75" s="5" t="e">
+        <f t="shared" si="222"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="J75" s="5" t="e">
+        <f t="shared" si="223"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B76" t="str">
+        <f t="array" ref="B76">_xll.HistoricalData(B$1,"Adj. Close",$A76,$A76,"Daily","RemoveHeaders = True","ReverseOrder =True","RemoveDates =""True")</f>
+        <v>--</v>
+      </c>
+      <c r="C76" t="str">
+        <f t="array" ref="C76">_xll.HistoricalData(C$1,"Adj. Close",$A76,$A76,"Daily","RemoveHeaders = True","ReverseOrder =True","RemoveDates =""True")</f>
+        <v>--</v>
+      </c>
+      <c r="D76" t="str">
+        <f t="array" ref="D76">_xll.HistoricalData(D$1,"Adj. Close",$A76,$A76,"Daily","RemoveHeaders = True","ReverseOrder =True","RemoveDates =""True")</f>
+        <v>--</v>
+      </c>
+      <c r="E76" t="str">
+        <f t="array" ref="E76">_xll.HistoricalData(E$1,"Adj. Close",$A76,$A76,"Daily","RemoveHeaders = True","ReverseOrder =True","RemoveDates =""True")</f>
+        <v>--</v>
+      </c>
+      <c r="G76" s="5" t="e">
+        <f t="shared" si="220"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H76" s="5" t="e">
+        <f t="shared" si="221"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I76" s="5" t="e">
+        <f t="shared" si="222"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="J76" s="5" t="e">
+        <f t="shared" si="223"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B77" t="str">
+        <f t="array" ref="B77">_xll.HistoricalData(B$1,"Adj. Close",$A77,$A77,"Daily","RemoveHeaders = True","ReverseOrder =True","RemoveDates =""True")</f>
+        <v>--</v>
+      </c>
+      <c r="C77" t="str">
+        <f t="array" ref="C77">_xll.HistoricalData(C$1,"Adj. Close",$A77,$A77,"Daily","RemoveHeaders = True","ReverseOrder =True","RemoveDates =""True")</f>
+        <v>--</v>
+      </c>
+      <c r="D77" t="str">
+        <f t="array" ref="D77">_xll.HistoricalData(D$1,"Adj. Close",$A77,$A77,"Daily","RemoveHeaders = True","ReverseOrder =True","RemoveDates =""True")</f>
+        <v>--</v>
+      </c>
+      <c r="E77" t="str">
+        <f t="array" ref="E77">_xll.HistoricalData(E$1,"Adj. Close",$A77,$A77,"Daily","RemoveHeaders = True","ReverseOrder =True","RemoveDates =""True")</f>
+        <v>--</v>
+      </c>
+      <c r="G77" s="5" t="e">
+        <f t="shared" si="220"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H77" s="5" t="e">
+        <f t="shared" si="221"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I77" s="5" t="e">
+        <f t="shared" si="222"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="J77" s="5" t="e">
+        <f t="shared" si="223"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B78" t="str">
+        <f t="array" ref="B78">_xll.HistoricalData(B$1,"Adj. Close",$A78,$A78,"Daily","RemoveHeaders = True","ReverseOrder =True","RemoveDates =""True")</f>
+        <v>--</v>
+      </c>
+      <c r="C78" t="str">
+        <f t="array" ref="C78">_xll.HistoricalData(C$1,"Adj. Close",$A78,$A78,"Daily","RemoveHeaders = True","ReverseOrder =True","RemoveDates =""True")</f>
+        <v>--</v>
+      </c>
+      <c r="D78" t="str">
+        <f t="array" ref="D78">_xll.HistoricalData(D$1,"Adj. Close",$A78,$A78,"Daily","RemoveHeaders = True","ReverseOrder =True","RemoveDates =""True")</f>
+        <v>--</v>
+      </c>
+      <c r="E78" t="str">
+        <f t="array" ref="E78">_xll.HistoricalData(E$1,"Adj. Close",$A78,$A78,"Daily","RemoveHeaders = True","ReverseOrder =True","RemoveDates =""True")</f>
+        <v>--</v>
+      </c>
+      <c r="G78" s="5" t="e">
+        <f t="shared" si="220"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H78" s="5" t="e">
+        <f t="shared" si="221"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I78" s="5" t="e">
+        <f t="shared" si="222"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="J78" s="5" t="e">
+        <f t="shared" si="223"/>
         <v>#VALUE!</v>
       </c>
     </row>
@@ -14634,7 +14925,7 @@
       </c>
       <c r="G2" s="74">
         <f>SUM(G5:G10)</f>
-        <v>0.99274023542198764</v>
+        <v>0.99275147872402636</v>
       </c>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.25">
@@ -14686,7 +14977,7 @@
       </c>
       <c r="C5">
         <f>_xll.RealtimeData(A5,"Last")</f>
-        <v>368.15</v>
+        <v>369.55</v>
       </c>
       <c r="D5">
         <f>ROUNDDOWN(($C$2/6)/B5,0)</f>
@@ -14694,19 +14985,19 @@
       </c>
       <c r="E5" s="8">
         <f>C5/B5-1</f>
-        <v>0.10905256815785513</v>
+        <v>0.11327007079379436</v>
       </c>
       <c r="F5">
         <f>C5*D5</f>
-        <v>12885.25</v>
+        <v>12934.25</v>
       </c>
       <c r="G5" s="73">
         <f>F5/$F$13</f>
-        <v>0.17632156810892988</v>
+        <v>0.17671797318485705</v>
       </c>
       <c r="H5" s="8">
         <f>F5/$F$31</f>
-        <v>0.12470173141573514</v>
+        <v>0.12499613441415114</v>
       </c>
       <c r="I5">
         <f>B5*D5</f>
@@ -14723,7 +15014,7 @@
       </c>
       <c r="C6">
         <f>_xll.RealtimeData(A6,"Last")</f>
-        <v>1845.2989</v>
+        <v>1847.75</v>
       </c>
       <c r="D6">
         <f t="shared" ref="D6:D10" si="0">ROUNDDOWN(($C$2/6)/B6,0)</f>
@@ -14731,19 +15022,19 @@
       </c>
       <c r="E6" s="8">
         <f t="shared" ref="E6:E10" si="1">C6/B6-1</f>
-        <v>0.13234919797253353</v>
+        <v>0.13385329095126486</v>
       </c>
       <c r="F6">
         <f t="shared" ref="F6:F9" si="2">C6*D6</f>
-        <v>12917.0923</v>
+        <v>12934.25</v>
       </c>
       <c r="G6" s="73">
         <f t="shared" ref="G6:G10" si="3">F6/$F$13</f>
-        <v>0.17675729766545342</v>
+        <v>0.17671797318485705</v>
       </c>
       <c r="H6" s="8">
         <f t="shared" ref="H6:H10" si="4">F6/$F$31</f>
-        <v>0.12500989694936929</v>
+        <v>0.12499613441415114</v>
       </c>
       <c r="I6">
         <f t="shared" ref="I6:I10" si="5">B6*D6</f>
@@ -14760,7 +15051,7 @@
       </c>
       <c r="C7">
         <f>_xll.RealtimeData(A7,"Last")</f>
-        <v>43.365000000000002</v>
+        <v>43.3</v>
       </c>
       <c r="D7">
         <f t="shared" si="0"/>
@@ -14768,19 +15059,19 @@
       </c>
       <c r="E7" s="8">
         <f t="shared" si="1"/>
-        <v>2.3242095327984824E-2</v>
+        <v>2.1708352996696378E-2</v>
       </c>
       <c r="F7">
         <f t="shared" si="2"/>
-        <v>11925.375</v>
+        <v>11907.5</v>
       </c>
       <c r="G7" s="73">
         <f t="shared" si="3"/>
-        <v>0.16318665297817503</v>
+        <v>0.16268970104170596</v>
       </c>
       <c r="H7" s="8">
         <f t="shared" si="4"/>
-        <v>0.11541218915286257</v>
+        <v>0.1150736587383501</v>
       </c>
       <c r="I7">
         <f t="shared" si="5"/>
@@ -14797,7 +15088,7 @@
       </c>
       <c r="C8">
         <f>_xll.RealtimeData(A8,"Last")</f>
-        <v>518.92499999999995</v>
+        <v>520.79999999999995</v>
       </c>
       <c r="D8">
         <f t="shared" si="0"/>
@@ -14805,19 +15096,19 @@
       </c>
       <c r="E8" s="8">
         <f t="shared" si="1"/>
-        <v>0.12890769465051011</v>
+        <v>0.13298670785563549</v>
       </c>
       <c r="F8">
         <f t="shared" si="2"/>
-        <v>12973.124999999998</v>
+        <v>13019.999999999998</v>
       </c>
       <c r="G8" s="73">
         <f t="shared" si="3"/>
-        <v>0.17752404829344876</v>
+        <v>0.17788955763703643</v>
       </c>
       <c r="H8" s="8">
         <f t="shared" si="4"/>
-        <v>0.12555217394872112</v>
+        <v>0.12582481938050119</v>
       </c>
       <c r="I8">
         <f t="shared" si="5"/>
@@ -14834,7 +15125,7 @@
       </c>
       <c r="C9">
         <f>_xll.RealtimeData(A9,"Last")</f>
-        <v>52.79</v>
+        <v>52.67</v>
       </c>
       <c r="D9">
         <f t="shared" si="0"/>
@@ -14842,19 +15133,19 @@
       </c>
       <c r="E9" s="8">
         <f t="shared" si="1"/>
-        <v>-8.3347803438097001E-2</v>
+        <v>-8.5431498524049299E-2</v>
       </c>
       <c r="F9">
         <f t="shared" si="2"/>
-        <v>10663.58</v>
+        <v>10639.34</v>
       </c>
       <c r="G9" s="73">
         <f t="shared" si="3"/>
-        <v>0.14592026908713626</v>
+        <v>0.14536309417434926</v>
       </c>
       <c r="H9" s="8">
         <f t="shared" si="4"/>
-        <v>0.1032007053871834</v>
+        <v>0.10281820536311381</v>
       </c>
       <c r="I9">
         <f t="shared" si="5"/>
@@ -14871,7 +15162,7 @@
       </c>
       <c r="C10">
         <f>_xll.RealtimeData(A10,"Last")</f>
-        <v>54.024999999999999</v>
+        <v>54.23</v>
       </c>
       <c r="D10">
         <f t="shared" si="0"/>
@@ -14879,19 +15170,19 @@
       </c>
       <c r="E10" s="8">
         <f t="shared" si="1"/>
-        <v>-4.1259982253771144E-2</v>
+        <v>-3.7622005323868724E-2</v>
       </c>
       <c r="F10">
         <f>C10*D10</f>
-        <v>11183.174999999999</v>
+        <v>11225.609999999999</v>
       </c>
       <c r="G10" s="73">
         <f t="shared" si="3"/>
-        <v>0.15303039928884438</v>
+        <v>0.15337317950122062</v>
       </c>
       <c r="H10" s="8">
         <f t="shared" si="4"/>
-        <v>0.10822927651579625</v>
+        <v>0.10848389790214655</v>
       </c>
       <c r="I10">
         <f t="shared" si="5"/>
@@ -14910,7 +15201,7 @@
       </c>
       <c r="F13" s="75">
         <f>SUM(F5:F10)+I13</f>
-        <v>73078.127300000007</v>
+        <v>73191.48</v>
       </c>
       <c r="H13" t="s">
         <v>26</v>
@@ -14926,7 +15217,7 @@
       </c>
       <c r="F14" s="8">
         <f>F13/C2-1</f>
-        <v>4.397324714285733E-2</v>
+        <v>4.5592571428571427E-2</v>
       </c>
     </row>
     <row r="15" spans="1:23" x14ac:dyDescent="0.25">
@@ -14937,7 +15228,7 @@
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H17" s="11">
         <f>SUM(H20:H23)</f>
-        <v>0.988278513726912</v>
+        <v>0.98829217202034469</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
@@ -14979,7 +15270,7 @@
       </c>
       <c r="C20">
         <f>_xll.RealtimeData(A20,"Last")</f>
-        <v>17.195</v>
+        <v>17.190000000000001</v>
       </c>
       <c r="D20">
         <f>ROUNDDOWN(($C$3*E20)/B20,0)</f>
@@ -14990,19 +15281,19 @@
       </c>
       <c r="F20" s="8">
         <f>C20/B20-1</f>
-        <v>1.1470588235294121E-2</v>
+        <v>1.1176470588235343E-2</v>
       </c>
       <c r="G20">
         <f>D20*C20</f>
-        <v>4298.75</v>
+        <v>4297.5</v>
       </c>
       <c r="H20" s="8">
         <f>G20/$G$27</f>
-        <v>0.14210541800562829</v>
+        <v>0.1418985581323475</v>
       </c>
       <c r="I20" s="8">
         <f>G20/$F$31</f>
-        <v>4.1602729316341666E-2</v>
+        <v>4.1530887963725345E-2</v>
       </c>
       <c r="J20">
         <f>B20*D20</f>
@@ -15019,7 +15310,7 @@
       </c>
       <c r="C21">
         <f>_xll.RealtimeData(A21,"Last")</f>
-        <v>286.56</v>
+        <v>286.64999999999998</v>
       </c>
       <c r="D21">
         <f t="shared" ref="D21:D22" si="6">ROUNDDOWN(($C$3*E21)/B21,0)</f>
@@ -15030,19 +15321,19 @@
       </c>
       <c r="F21" s="8">
         <f t="shared" ref="F21:F23" si="7">C21/B21-1</f>
-        <v>1.300904977375561E-2</v>
+        <v>1.3327205882352811E-2</v>
       </c>
       <c r="G21">
         <f t="shared" ref="G21:G22" si="8">D21*C21</f>
-        <v>10889.28</v>
+        <v>10892.699999999999</v>
       </c>
       <c r="H21" s="8">
         <f t="shared" ref="H21:H23" si="9">G21/$G$27</f>
-        <v>0.3599710814028097</v>
+        <v>0.35966455478027259</v>
       </c>
       <c r="I21" s="8">
         <f t="shared" ref="I21:I23" si="10">G21/$F$31</f>
-        <v>0.10538499989295795</v>
+        <v>0.10526666743978383</v>
       </c>
       <c r="J21">
         <f t="shared" ref="J21:J23" si="11">B21*D21</f>
@@ -15059,7 +15350,7 @@
       </c>
       <c r="C22">
         <f>_xll.RealtimeData(A22,"Last")</f>
-        <v>81.93</v>
+        <v>82.16</v>
       </c>
       <c r="D22">
         <f t="shared" si="6"/>
@@ -15070,19 +15361,19 @@
       </c>
       <c r="F22" s="8">
         <f t="shared" si="7"/>
-        <v>5.0294406280668724E-3</v>
+        <v>7.8508341511285273E-3</v>
       </c>
       <c r="G22">
         <f t="shared" si="8"/>
-        <v>11797.920000000002</v>
+        <v>11831.039999999999</v>
       </c>
       <c r="H22" s="8">
         <f t="shared" si="9"/>
-        <v>0.39000834037731025</v>
+        <v>0.39064747346274076</v>
       </c>
       <c r="I22" s="8">
         <f t="shared" si="10"/>
-        <v>0.11417869665736638</v>
+        <v>0.11433475200333985</v>
       </c>
       <c r="J22">
         <f t="shared" si="11"/>
@@ -15118,11 +15409,11 @@
       </c>
       <c r="H23" s="8">
         <f t="shared" si="9"/>
-        <v>9.6193673941163779E-2</v>
+        <v>9.6081585644983827E-2</v>
       </c>
       <c r="I23" s="8">
         <f t="shared" si="10"/>
-        <v>2.8161624201831371E-2</v>
+        <v>2.8121170654018472E-2</v>
       </c>
       <c r="J23">
         <f t="shared" si="11"/>
@@ -15138,7 +15429,7 @@
       </c>
       <c r="G27">
         <f>SUM(G20:G23)+J28</f>
-        <v>30250.430000000011</v>
+        <v>30285.720000000005</v>
       </c>
       <c r="J27">
         <f>SUM(J20:J23)</f>
@@ -15151,7 +15442,7 @@
       </c>
       <c r="G28" s="8">
         <f>G27/J27-1</f>
-        <v>2.0408211453911473E-2</v>
+        <v>2.1598614558336671E-2</v>
       </c>
       <c r="I28" t="s">
         <v>26</v>
@@ -15167,7 +15458,7 @@
       </c>
       <c r="F31">
         <f>SUM(F13,G27)</f>
-        <v>103328.55730000001</v>
+        <v>103477.2</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
@@ -15176,7 +15467,7 @@
       </c>
       <c r="F33" s="8">
         <f>F31/B1-1</f>
-        <v>3.3285573000000124E-2</v>
+        <v>3.4772000000000025E-2</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
@@ -15189,16 +15480,16 @@
       </c>
       <c r="C37">
         <f>_xll.RealtimeData(A37,"Last")</f>
-        <v>38.406599999999997</v>
+        <v>38.354999999999997</v>
       </c>
       <c r="D37" s="8">
         <f>C37/B37-1</f>
-        <v>3.8316779926816924E-3</v>
+        <v>2.4830109775222375E-3</v>
       </c>
       <c r="E37" s="11"/>
       <c r="F37" s="8">
         <f>D37*$B$3+D40*$B$2</f>
-        <v>3.7793798699817888E-2</v>
+        <v>3.7843337297730997E-2</v>
       </c>
       <c r="H37" s="8"/>
       <c r="I37" s="8"/>
@@ -15213,11 +15504,11 @@
       </c>
       <c r="C38">
         <f>_xll.RealtimeData(A38,"Last")</f>
-        <v>286.56</v>
+        <v>286.64999999999998</v>
       </c>
       <c r="D38" s="8">
-        <f t="shared" ref="D38:D40" si="12">C38/B38-1</f>
-        <v>5.0709492905070874E-2</v>
+        <f t="shared" ref="D38:D39" si="12">C38/B38-1</f>
+        <v>5.1039489605103849E-2</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
@@ -15230,11 +15521,11 @@
       </c>
       <c r="C39">
         <f>_xll.RealtimeData(A39,"Last")</f>
-        <v>181.07</v>
+        <v>181.14</v>
       </c>
       <c r="D39" s="8">
         <f t="shared" si="12"/>
-        <v>6.4679249720703158E-2</v>
+        <v>6.5090844946198656E-2</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
@@ -15247,11 +15538,11 @@
       </c>
       <c r="C40">
         <f>_xll.RealtimeData(A40,"Last")</f>
-        <v>47.04</v>
+        <v>47.069000000000003</v>
       </c>
       <c r="D40" s="8">
         <f>C40/B40-1</f>
-        <v>5.2348993288590551E-2</v>
+        <v>5.2997762863534748E-2</v>
       </c>
     </row>
   </sheetData>

--- a/Portfolio.xlsx
+++ b/Portfolio.xlsx
@@ -1031,215 +1031,195 @@
 <file path=xl/volatileDependencies.xml><?xml version="1.0" encoding="utf-8"?>
 <volTypes xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <volType type="realTimeData">
-    <main first="rtdsrv.eb495c69147540fdba794816bbe3e9ee">
+    <main first="rtdsrv.73fabed4f35948249f716fcc482c8fe5">
       <tp>
-        <v>0</v>
+        <v>1.1325028312570557E-3</v>
         <stp/>
         <stp>GYLD</stp>
         <stp>change in percent</stp>
         <tr r="K26" s="1"/>
       </tp>
     </main>
-    <main first="rtdsrv.eb495c69147540fdba794816bbe3e9ee">
+    <main first="rtdsrv.73fabed4f35948249f716fcc482c8fe5">
       <tp>
-        <v>1.3327205900000001</v>
+        <v>4.6346782988004771E-3</v>
+        <stp/>
+        <stp>ACWI</stp>
+        <stp>change in percent</stp>
+        <tr r="K22" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.73fabed4f35948249f716fcc482c8fe5">
+      <tp>
+        <v>0</v>
+        <stp/>
+        <stp>RWX</stp>
+        <stp>mtd percent change</stp>
+        <tr r="U6" s="1"/>
+      </tp>
+      <tp>
+        <v>6.019745E-2</v>
+        <stp/>
+        <stp>SHY</stp>
+        <stp>mtd percent change</stp>
+        <tr r="U12" s="1"/>
+      </tp>
+      <tp>
+        <v>0.17727503</v>
+        <stp/>
+        <stp>TLT</stp>
+        <stp>mtd percent change</stp>
+        <tr r="U5" s="1"/>
+      </tp>
+      <tp>
+        <v>-0.39130435000000002</v>
+        <stp/>
+        <stp>IEV</stp>
+        <stp>mtd percent change</stp>
+        <tr r="U9" s="1"/>
+      </tp>
+      <tp>
+        <v>0.21709097999999999</v>
+        <stp/>
+        <stp>IEF</stp>
+        <stp>mtd percent change</stp>
+        <tr r="U11" s="1"/>
+      </tp>
+      <tp>
+        <v>1.6225961499999999</v>
         <stp/>
         <stp>IVV</stp>
         <stp>mtd percent change</stp>
         <tr r="U3" s="1"/>
       </tp>
       <tp>
-        <v>0.78508341999999998</v>
+        <v>0.45387634999999998</v>
         <stp/>
         <stp>IYR</stp>
         <stp>mtd percent change</stp>
         <tr r="U4" s="1"/>
       </tp>
       <tp>
-        <v>-1.17391304</v>
+        <v>1.8823529400000001</v>
         <stp/>
-        <stp>IEV</stp>
+        <stp>DBC</stp>
         <stp>mtd percent change</stp>
-        <tr r="U9" s="1"/>
+        <tr r="U2" s="1"/>
       </tp>
       <tp>
-        <v>0.42431418999999998</v>
+        <v>-0.29239766</v>
         <stp/>
-        <stp>IEF</stp>
+        <stp>EEM</stp>
         <stp>mtd percent change</stp>
-        <tr r="U11" s="1"/>
+        <tr r="U10" s="1"/>
       </tp>
       <tp>
-        <v>-0.70349139999999999</v>
+        <v>-0.49227634999999997</v>
+        <stp/>
+        <stp>EWJ</stp>
+        <stp>mtd percent change</stp>
+        <tr r="U7" s="1"/>
+      </tp>
+      <tp>
+        <v>-0.47767935</v>
         <stp/>
         <stp>GLD</stp>
         <stp>mtd percent change</stp>
         <tr r="U8" s="1"/>
       </tp>
       <tp>
-        <v>-1.32405364</v>
+        <v>58.62</v>
         <stp/>
         <stp>EWJ</stp>
-        <stp>mtd percent change</stp>
-        <tr r="U7" s="1"/>
+        <stp>last</stp>
+        <tr r="J7" s="1"/>
       </tp>
       <tp>
-        <v>-1.32703554</v>
+        <v>39.5</v>
         <stp/>
-        <stp>EEM</stp>
-        <stp>mtd percent change</stp>
-        <tr r="U10" s="1"/>
+        <stp>RWX</stp>
+        <stp>last</stp>
+        <tr r="J6" s="1"/>
       </tp>
       <tp>
-        <v>1.1176470599999999</v>
+        <v>287.47000000000003</v>
         <stp/>
-        <stp>DBC</stp>
-        <stp>mtd percent change</stp>
-        <tr r="U2" s="1"/>
+        <stp>IVV</stp>
+        <stp>last</stp>
+        <tr r="J3" s="1"/>
+        <tr r="C38" s="4"/>
+        <tr r="C21" s="4"/>
       </tp>
       <tp>
-        <v>9.6315919999999999E-2</v>
+        <v>54.87</v>
+        <stp/>
+        <stp>STX</stp>
+        <stp>last</stp>
+        <tr r="C10" s="4"/>
+      </tp>
+      <tp>
+        <v>181.8</v>
+        <stp/>
+        <stp>QQQ</stp>
+        <stp>last</stp>
+        <tr r="C39" s="4"/>
+      </tp>
+      <tp>
+        <v>53.03</v>
+        <stp/>
+        <stp>MU</stp>
+        <stp>last</stp>
+        <tr r="C9" s="4"/>
+      </tp>
+      <tp t="s">
+        <v>ISHARES TR-1 3 YR TREAS BD</v>
         <stp/>
         <stp>SHY</stp>
-        <stp>mtd percent change</stp>
-        <tr r="U12" s="1"/>
+        <stp>description</stp>
+        <tr r="B12" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>SPDR INDEX SHS FDS-DJ INTL RL ETF</v>
+        <stp/>
+        <stp>RWX</stp>
+        <stp>description</stp>
+        <tr r="B6" s="1"/>
       </tp>
       <tp>
-        <v>-0.32911392</v>
+        <v>81.89</v>
         <stp/>
-        <stp>RWX</stp>
-        <stp>mtd percent change</stp>
-        <tr r="U6" s="1"/>
+        <stp>IYR</stp>
+        <stp>last</stp>
+        <tr r="J4" s="1"/>
+        <tr r="C22" s="4"/>
       </tp>
-      <tp>
-        <v>0.70065845000000004</v>
+      <tp t="s">
+        <v>ISHARES TR-20 YR TR BD ETF</v>
         <stp/>
         <stp>TLT</stp>
-        <stp>mtd percent change</stp>
-        <tr r="U5" s="1"/>
+        <stp>description</stp>
+        <tr r="B5" s="1"/>
       </tp>
-      <tp>
-        <v>-1.362954886193962E-4</v>
+      <tp t="s">
+        <v>ARROW ETF TR-ARROW DJ GLB YLD</v>
         <stp/>
-        <stp>ACWI</stp>
-        <stp>change in percent</stp>
-        <tr r="K22" s="1"/>
+        <stp>GYLD</stp>
+        <stp>description</stp>
+        <tr r="L26" s="1"/>
       </tp>
-    </main>
-    <main first="rtdsrv.eb495c69147540fdba794816bbe3e9ee">
-      <tp>
-        <v>-5.1340062652280105E-3</v>
-        <stp/>
-        <stp>GLD</stp>
-        <stp>change in percent</stp>
-        <tr r="L8" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.eb495c69147540fdba794816bbe3e9ee">
-      <tp>
-        <v>0</v>
-        <stp/>
-        <stp>IEF</stp>
-        <stp>change in percent</stp>
-        <tr r="L11" s="1"/>
-      </tp>
-      <tp>
-        <v>6.6056431065402853E-4</v>
-        <stp/>
-        <stp>AGG</stp>
-        <stp>change in percent</stp>
-        <tr r="K23" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.eb495c69147540fdba794816bbe3e9ee">
-      <tp>
-        <v>0</v>
-        <stp/>
-        <stp>DBC</stp>
-        <stp>change in percent</stp>
-        <tr r="L2" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.eb495c69147540fdba794816bbe3e9ee">
-      <tp>
-        <v>-7.6905677448541737E-3</v>
-        <stp/>
-        <stp>EEM</stp>
-        <stp>change in percent</stp>
-        <tr r="L10" s="1"/>
-      </tp>
-      <tp>
-        <v>0</v>
-        <stp/>
-        <stp>EWJ</stp>
-        <stp>change in percent</stp>
-        <tr r="L7" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.eb495c69147540fdba794816bbe3e9ee">
-      <tp>
-        <v>0</v>
-        <stp/>
-        <stp>TLT</stp>
-        <stp>change in percent</stp>
-        <tr r="L5" s="1"/>
-      </tp>
-      <tp>
-        <v>0</v>
-        <stp/>
-        <stp>IEV</stp>
-        <stp>change in percent</stp>
-        <tr r="L9" s="1"/>
-      </tp>
-      <tp>
-        <v>0</v>
+      <tp t="s">
+        <v>ISHARES TR-CORE S&amp;P500 ETF</v>
         <stp/>
         <stp>IVV</stp>
-        <stp>change in percent</stp>
-        <tr r="K24" s="1"/>
-        <tr r="L3" s="1"/>
+        <stp>description</stp>
+        <tr r="B3" s="1"/>
       </tp>
-    </main>
-    <main first="rtdsrv.eb495c69147540fdba794816bbe3e9ee">
-      <tp>
-        <v>0</v>
+      <tp t="s">
+        <v>ISHARES TR-U.S. REAL ES ETF</v>
         <stp/>
         <stp>IYR</stp>
-        <stp>change in percent</stp>
-        <tr r="L4" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.eb495c69147540fdba794816bbe3e9ee">
-      <tp>
-        <v>0</v>
-        <stp/>
-        <stp>RWX</stp>
-        <stp>change in percent</stp>
-        <tr r="L6" s="1"/>
-      </tp>
-      <tp>
-        <v>0</v>
-        <stp/>
-        <stp>SHY</stp>
-        <stp>change in percent</stp>
-        <tr r="L12" s="1"/>
-      </tp>
-      <tp>
-        <v>47.069000000000003</v>
-        <stp/>
-        <stp>QQQE</stp>
-        <stp>last</stp>
-        <tr r="C40" s="4"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.eb495c69147540fdba794816bbe3e9ee">
-      <tp>
-        <v>17.190000000000001</v>
-        <stp/>
-        <stp>DBC</stp>
-        <stp>last</stp>
-        <tr r="J2" s="1"/>
-        <tr r="C20" s="4"/>
+        <stp>description</stp>
+        <tr r="B4" s="1"/>
       </tp>
       <tp t="s">
         <v>ISHARES TR-EUROPE ETF</v>
@@ -1255,55 +1235,211 @@
         <stp>description</stp>
         <tr r="B11" s="1"/>
       </tp>
+      <tp>
+        <v>101.56</v>
+        <stp/>
+        <stp>IEF</stp>
+        <stp>last</stp>
+        <tr r="J11" s="1"/>
+      </tp>
+      <tp>
+        <v>44.33</v>
+        <stp/>
+        <stp>EEM</stp>
+        <stp>last</stp>
+        <tr r="J10" s="1"/>
+      </tp>
+      <tp>
+        <v>45.82</v>
+        <stp/>
+        <stp>IEV</stp>
+        <stp>last</stp>
+        <tr r="J9" s="1"/>
+      </tp>
+      <tp>
+        <v>17.32</v>
+        <stp/>
+        <stp>DBC</stp>
+        <stp>last</stp>
+        <tr r="J2" s="1"/>
+        <tr r="C20" s="4"/>
+      </tp>
+      <tp>
+        <v>38.547199999999997</v>
+        <stp/>
+        <stp>GAL</stp>
+        <stp>last</stp>
+        <tr r="C37" s="4"/>
+      </tp>
+      <tp>
+        <v>114.59</v>
+        <stp/>
+        <stp>GLD</stp>
+        <stp>last</stp>
+        <tr r="J8" s="1"/>
+      </tp>
+      <tp>
+        <v>118.67</v>
+        <stp/>
+        <stp>TLT</stp>
+        <stp>last</stp>
+        <tr r="J5" s="1"/>
+      </tp>
       <tp t="s">
-        <v>ISHARES TR-CORE S&amp;P500 ETF</v>
+        <v>SPDR GOLD TRUST-GOLD SHS</v>
+        <stp/>
+        <stp>GLD</stp>
+        <stp>description</stp>
+        <tr r="B8" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>ISHARES INC-MSCI JPN ETF NEW</v>
+        <stp/>
+        <stp>EWJ</stp>
+        <stp>description</stp>
+        <tr r="B7" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>ISHARES TR-MSCI EMG MKT ETF</v>
+        <stp/>
+        <stp>EEM</stp>
+        <stp>description</stp>
+        <tr r="B10" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>INVESCO DB COMMDY INDX TRCK-UNIT</v>
+        <stp/>
+        <stp>DBC</stp>
+        <stp>description</stp>
+        <tr r="B2" s="1"/>
+      </tp>
+      <tp>
+        <v>83.11</v>
+        <stp/>
+        <stp>SHY</stp>
+        <stp>last</stp>
+        <tr r="J12" s="1"/>
+        <tr r="C23" s="4"/>
+      </tp>
+      <tp>
+        <v>2.2741187789731918E-3</v>
+        <stp/>
+        <stp>GLD</stp>
+        <stp>change in percent</stp>
+        <tr r="L8" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.73fabed4f35948249f716fcc482c8fe5">
+      <tp>
+        <v>-2.0634764665421442E-3</v>
+        <stp/>
+        <stp>IEF</stp>
+        <stp>change in percent</stp>
+        <tr r="L11" s="1"/>
+      </tp>
+      <tp>
+        <v>-1.7917766880423613E-3</v>
+        <stp/>
+        <stp>AGG</stp>
+        <stp>change in percent</stp>
+        <tr r="K23" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.73fabed4f35948249f716fcc482c8fe5">
+      <tp>
+        <v>7.5625363583478183E-3</v>
+        <stp/>
+        <stp>DBC</stp>
+        <stp>change in percent</stp>
+        <tr r="L2" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.73fabed4f35948249f716fcc482c8fe5">
+      <tp>
+        <v>1.0485525416001847E-2</v>
+        <stp/>
+        <stp>EEM</stp>
+        <stp>change in percent</stp>
+        <tr r="L10" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.73fabed4f35948249f716fcc482c8fe5">
+      <tp>
+        <v>8.4293824187165831E-3</v>
+        <stp/>
+        <stp>EWJ</stp>
+        <stp>change in percent</stp>
+        <tr r="L7" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.73fabed4f35948249f716fcc482c8fe5">
+      <tp>
+        <v>-5.1974180568363226E-3</v>
+        <stp/>
+        <stp>TLT</stp>
+        <stp>change in percent</stp>
+        <tr r="L5" s="1"/>
+      </tp>
+      <tp>
+        <v>2.8606314320601782E-3</v>
         <stp/>
         <stp>IVV</stp>
-        <stp>description</stp>
-        <tr r="B3" s="1"/>
+        <stp>change in percent</stp>
+        <tr r="K24" s="1"/>
+        <tr r="L3" s="1"/>
       </tp>
-      <tp t="s">
-        <v>ISHARES TR-U.S. REAL ES ETF</v>
+      <tp>
+        <v>7.9190497140342927E-3</v>
+        <stp/>
+        <stp>IEV</stp>
+        <stp>change in percent</stp>
+        <tr r="L9" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.73fabed4f35948249f716fcc482c8fe5">
+      <tp>
+        <v>-3.2862706913339341E-3</v>
         <stp/>
         <stp>IYR</stp>
-        <stp>description</stp>
-        <tr r="B4" s="1"/>
+        <stp>change in percent</stp>
+        <tr r="L4" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.73fabed4f35948249f716fcc482c8fe5">
+      <tp>
+        <v>3.3020066040132844E-3</v>
+        <stp/>
+        <stp>RWX</stp>
+        <stp>change in percent</stp>
+        <tr r="L6" s="1"/>
       </tp>
       <tp>
-        <v>1.99</v>
+        <v>-3.6083714216984721E-4</v>
         <stp/>
         <stp>SHY</stp>
-        <stp>dividend yield</stp>
-        <tr r="M12" s="1"/>
+        <stp>change in percent</stp>
+        <tr r="L12" s="1"/>
       </tp>
+    </main>
+    <main first="rtdsrv.73fabed4f35948249f716fcc482c8fe5">
       <tp>
-        <v>3.65</v>
+        <v>47.202800000000003</v>
         <stp/>
-        <stp>RWX</stp>
-        <stp>dividend yield</stp>
-        <tr r="M6" s="1"/>
+        <stp>QQQE</stp>
+        <stp>last</stp>
+        <tr r="C40" s="4"/>
       </tp>
+    </main>
+    <main first="rtdsrv.73fabed4f35948249f716fcc482c8fe5">
       <tp>
-        <v>2.68</v>
+        <v>517.9</v>
         <stp/>
-        <stp>TLT</stp>
-        <stp>dividend yield</stp>
-        <tr r="M5" s="1"/>
+        <stp>ISRG</stp>
+        <stp>last</stp>
+        <tr r="C8" s="4"/>
       </tp>
-      <tp>
-        <v>1.79</v>
-        <stp/>
-        <stp>IVV</stp>
-        <stp>dividend yield</stp>
-        <tr r="M3" s="1"/>
-      </tp>
-      <tp>
-        <v>0.49</v>
-        <stp/>
-        <stp>IYR</stp>
-        <stp>dividend yield</stp>
-        <tr r="M4" s="1"/>
-      </tp>
+    </main>
+    <main first="rtdsrv.73fabed4f35948249f716fcc482c8fe5">
       <tp>
         <v>2.36</v>
         <stp/>
@@ -1319,18 +1455,18 @@
         <tr r="M9" s="1"/>
       </tp>
       <tp>
-        <v>1.58</v>
+        <v>1.78</v>
         <stp/>
-        <stp>EWJ</stp>
+        <stp>IVV</stp>
         <stp>dividend yield</stp>
-        <tr r="M7" s="1"/>
+        <tr r="M3" s="1"/>
       </tp>
       <tp>
-        <v>1.32</v>
+        <v>0.49</v>
         <stp/>
-        <stp>EEM</stp>
+        <stp>IYR</stp>
         <stp>dividend yield</stp>
-        <tr r="M10" s="1"/>
+        <tr r="M4" s="1"/>
       </tp>
       <tp t="s">
         <v>--</v>
@@ -1340,53 +1476,42 @@
         <tr r="M2" s="1"/>
       </tp>
       <tp>
-        <v>38.354999999999997</v>
+        <v>1.31</v>
         <stp/>
-        <stp>GAL</stp>
-        <stp>last</stp>
-        <tr r="C37" s="4"/>
+        <stp>EEM</stp>
+        <stp>dividend yield</stp>
+        <tr r="M10" s="1"/>
       </tp>
       <tp>
-        <v>520.79999999999995</v>
+        <v>1.58</v>
         <stp/>
-        <stp>ISRG</stp>
-        <stp>last</stp>
-        <tr r="C8" s="4"/>
+        <stp>EWJ</stp>
+        <stp>dividend yield</stp>
+        <tr r="M7" s="1"/>
+      </tp>
+      <tp>
+        <v>3.64</v>
+        <stp/>
+        <stp>RWX</stp>
+        <stp>dividend yield</stp>
+        <tr r="M6" s="1"/>
+      </tp>
+      <tp>
+        <v>1.99</v>
+        <stp/>
+        <stp>SHY</stp>
+        <stp>dividend yield</stp>
+        <tr r="M12" s="1"/>
+      </tp>
+      <tp>
+        <v>2.68</v>
+        <stp/>
+        <stp>TLT</stp>
+        <stp>dividend yield</stp>
+        <tr r="M5" s="1"/>
       </tp>
     </main>
-    <main first="rtdsrv.eb495c69147540fdba794816bbe3e9ee">
-      <tp t="s">
-        <v>ARROW ETF TR-ARROW DJ GLB YLD</v>
-        <stp/>
-        <stp>GYLD</stp>
-        <stp>description</stp>
-        <tr r="L26" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.eb495c69147540fdba794816bbe3e9ee">
-      <tp>
-        <v>101.77</v>
-        <stp/>
-        <stp>IEF</stp>
-        <stp>last</stp>
-        <tr r="J11" s="1"/>
-      </tp>
-      <tp>
-        <v>43.87</v>
-        <stp/>
-        <stp>EEM</stp>
-        <stp>last</stp>
-        <tr r="J10" s="1"/>
-      </tp>
-      <tp>
-        <v>45.46</v>
-        <stp/>
-        <stp>IEV</stp>
-        <stp>last</stp>
-        <tr r="J9" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.eb495c69147540fdba794816bbe3e9ee">
+    <main first="rtdsrv.73fabed4f35948249f716fcc482c8fe5">
       <tp>
         <v>286.64999999999998</v>
         <stp/>
@@ -1395,9 +1520,9 @@
         <tr r="G3" s="1"/>
       </tp>
     </main>
-    <main first="rtdsrv.eb495c69147540fdba794816bbe3e9ee">
+    <main first="rtdsrv.73fabed4f35948249f716fcc482c8fe5">
       <tp>
-        <v>1847.75</v>
+        <v>1862.48</v>
         <stp/>
         <stp>AMZN</stp>
         <stp>last</stp>
@@ -1410,34 +1535,8 @@
         <stp>close</stp>
         <tr r="G5" s="1"/>
       </tp>
-      <tp>
-        <v>83.14</v>
-        <stp/>
-        <stp>SHY</stp>
-        <stp>last</stp>
-        <tr r="J12" s="1"/>
-        <tr r="C23" s="4"/>
-      </tp>
     </main>
-    <main first="rtdsrv.eb495c69147540fdba794816bbe3e9ee">
-      <tp t="s">
-        <v>INVESCO DB COMMDY INDX TRCK-UNIT</v>
-        <stp/>
-        <stp>DBC</stp>
-        <stp>description</stp>
-        <tr r="B2" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.eb495c69147540fdba794816bbe3e9ee">
-      <tp t="s">
-        <v>ISHARES TR-MSCI EMG MKT ETF</v>
-        <stp/>
-        <stp>EEM</stp>
-        <stp>description</stp>
-        <tr r="B10" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.eb495c69147540fdba794816bbe3e9ee">
+    <main first="rtdsrv.73fabed4f35948249f716fcc482c8fe5">
       <tp>
         <v>82.16</v>
         <stp/>
@@ -1445,135 +1544,26 @@
         <stp>close</stp>
         <tr r="G4" s="1"/>
       </tp>
-      <tp t="s">
-        <v>ISHARES INC-MSCI JPN ETF NEW</v>
-        <stp/>
-        <stp>EWJ</stp>
-        <stp>description</stp>
-        <tr r="B7" s="1"/>
-      </tp>
     </main>
-    <main first="rtdsrv.eb495c69147540fdba794816bbe3e9ee">
+    <main first="rtdsrv.73fabed4f35948249f716fcc482c8fe5">
       <tp>
-        <v>114.33</v>
-        <stp/>
-        <stp>GLD</stp>
-        <stp>last</stp>
-        <tr r="J8" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>SPDR GOLD TRUST-GOLD SHS</v>
-        <stp/>
-        <stp>GLD</stp>
-        <stp>description</stp>
-        <tr r="B8" s="1"/>
-      </tp>
-      <tp>
-        <v>119.29</v>
-        <stp/>
-        <stp>TLT</stp>
-        <stp>last</stp>
-        <tr r="J5" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.eb495c69147540fdba794816bbe3e9ee">
-      <tp>
-        <v>43.3</v>
+        <v>43.58</v>
         <stp/>
         <stp>CSCO</stp>
         <stp>last</stp>
         <tr r="C7" s="4"/>
       </tp>
+    </main>
+    <main first="rtdsrv.73fabed4f35948249f716fcc482c8fe5">
       <tp>
-        <v>181.14</v>
-        <stp/>
-        <stp>QQQ</stp>
-        <stp>last</stp>
-        <tr r="C39" s="4"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.eb495c69147540fdba794816bbe3e9ee">
-      <tp>
-        <v>58.13</v>
-        <stp/>
-        <stp>EWJ</stp>
-        <stp>last</stp>
-        <tr r="J7" s="1"/>
-      </tp>
-      <tp>
-        <v>39.369999999999997</v>
-        <stp/>
-        <stp>RWX</stp>
-        <stp>last</stp>
-        <tr r="J6" s="1"/>
-      </tp>
-      <tp>
-        <v>286.64999999999998</v>
-        <stp/>
-        <stp>IVV</stp>
-        <stp>last</stp>
-        <tr r="J3" s="1"/>
-        <tr r="C21" s="4"/>
-        <tr r="C38" s="4"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.eb495c69147540fdba794816bbe3e9ee">
-      <tp>
-        <v>369.55</v>
+        <v>365.58</v>
         <stp/>
         <stp>ALGN</stp>
         <stp>last</stp>
         <tr r="C5" s="4"/>
       </tp>
     </main>
-    <main first="rtdsrv.eb495c69147540fdba794816bbe3e9ee">
-      <tp>
-        <v>54.23</v>
-        <stp/>
-        <stp>STX</stp>
-        <stp>last</stp>
-        <tr r="C10" s="4"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.eb495c69147540fdba794816bbe3e9ee">
-      <tp>
-        <v>82.16</v>
-        <stp/>
-        <stp>IYR</stp>
-        <stp>last</stp>
-        <tr r="J4" s="1"/>
-        <tr r="C22" s="4"/>
-      </tp>
-      <tp t="s">
-        <v>SPDR INDEX SHS FDS-DJ INTL RL ETF</v>
-        <stp/>
-        <stp>RWX</stp>
-        <stp>description</stp>
-        <tr r="B6" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.eb495c69147540fdba794816bbe3e9ee">
-      <tp>
-        <v>52.67</v>
-        <stp/>
-        <stp>MU</stp>
-        <stp>last</stp>
-        <tr r="C9" s="4"/>
-      </tp>
-      <tp t="s">
-        <v>ISHARES TR-1 3 YR TREAS BD</v>
-        <stp/>
-        <stp>SHY</stp>
-        <stp>description</stp>
-        <tr r="B12" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>ISHARES TR-20 YR TR BD ETF</v>
-        <stp/>
-        <stp>TLT</stp>
-        <stp>description</stp>
-        <tr r="B5" s="1"/>
-      </tp>
+    <main first="rtdsrv.73fabed4f35948249f716fcc482c8fe5">
       <tp>
         <v>17.190000000000001</v>
         <stp/>
@@ -1852,8 +1842,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:V46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="S27" sqref="S27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1972,15 +1962,15 @@
       </c>
       <c r="J2" s="4">
         <f>_xll.RealtimeData(A2,"Last")</f>
-        <v>17.190000000000001</v>
+        <v>17.32</v>
       </c>
       <c r="K2" s="5">
         <f>J2/D2-1</f>
-        <v>-3.5722633889687772E-2</v>
+        <v>-2.8430251248946714E-2</v>
       </c>
       <c r="L2" s="8">
         <f>_xll.RealtimeData(A2,"Change in Percent")</f>
-        <v>0</v>
+        <v>7.5625363583478183E-3</v>
       </c>
       <c r="M2" s="29" t="str">
         <f>_xll.RealtimeData(A2,"Dividend Yield")</f>
@@ -2003,11 +1993,11 @@
       </c>
       <c r="R2">
         <f t="shared" ref="R2:R11" si="2">ROUND(Q2/J2,0)</f>
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="S2">
         <f t="shared" ref="S2:S11" si="3">R2-H2</f>
-        <v>-12</v>
+        <v>-13</v>
       </c>
       <c r="T2" t="str">
         <f t="shared" ref="T2:T12" si="4">A2</f>
@@ -2015,7 +2005,7 @@
       </c>
       <c r="U2">
         <f>_xll.RealtimeData(T2,"MTD Percent Change")</f>
-        <v>1.1176470599999999</v>
+        <v>1.8823529400000001</v>
       </c>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.25">
@@ -2053,19 +2043,19 @@
       </c>
       <c r="J3" s="4">
         <f>_xll.RealtimeData(A3,"Last")</f>
-        <v>286.64999999999998</v>
+        <v>287.47000000000003</v>
       </c>
       <c r="K3" s="5">
         <f>J3/D3-1</f>
-        <v>7.6177121521852742E-2</v>
+        <v>7.9255667622142312E-2</v>
       </c>
       <c r="L3" s="8">
         <f>_xll.RealtimeData(A3,"Change in Percent")</f>
-        <v>0</v>
+        <v>2.8606314320601782E-3</v>
       </c>
       <c r="M3" s="29">
         <f>_xll.RealtimeData(A3,"Dividend Yield")</f>
-        <v>1.79</v>
+        <v>1.78</v>
       </c>
       <c r="N3" s="4" t="str">
         <f t="shared" si="0"/>
@@ -2096,7 +2086,7 @@
       </c>
       <c r="U3">
         <f>_xll.RealtimeData(T3,"MTD Percent Change")</f>
-        <v>1.3327205900000001</v>
+        <v>1.6225961499999999</v>
       </c>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.25">
@@ -2134,15 +2124,15 @@
       </c>
       <c r="J4" s="4">
         <f>_xll.RealtimeData(A4,"Last")</f>
-        <v>82.16</v>
+        <v>81.89</v>
       </c>
       <c r="K4" s="5">
         <f>J4/D4-1</f>
-        <v>4.7558332270814629E-2</v>
+        <v>4.4115772026010358E-2</v>
       </c>
       <c r="L4" s="8">
         <f t="array" ref="L4">_xll.RealtimeData(A4,"Change in Percent")</f>
-        <v>0</v>
+        <v>-3.2862706913339341E-3</v>
       </c>
       <c r="M4" s="29">
         <f>_xll.RealtimeData(A4,"Dividend Yield")</f>
@@ -2177,7 +2167,7 @@
       </c>
       <c r="U4">
         <f>_xll.RealtimeData(T4,"MTD Percent Change")</f>
-        <v>0.78508341999999998</v>
+        <v>0.45387634999999998</v>
       </c>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.25">
@@ -2215,15 +2205,15 @@
       </c>
       <c r="J5" s="31">
         <f>_xll.RealtimeData(A5,"Last")</f>
-        <v>119.29</v>
+        <v>118.67</v>
       </c>
       <c r="K5" s="5">
         <f>J5/D5-1</f>
-        <v>-2.4562160959917811E-2</v>
+        <v>-2.9631919197866119E-2</v>
       </c>
       <c r="L5" s="8">
         <f t="array" ref="L5">_xll.RealtimeData(A5,"Change in Percent")</f>
-        <v>0</v>
+        <v>-5.1974180568363226E-3</v>
       </c>
       <c r="M5" s="29">
         <f>_xll.RealtimeData(A5,"Dividend Yield")</f>
@@ -2258,7 +2248,7 @@
       </c>
       <c r="U5">
         <f>_xll.RealtimeData(T5,"MTD Percent Change")</f>
-        <v>0.70065845000000004</v>
+        <v>0.17727503</v>
       </c>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.25">
@@ -2278,16 +2268,16 @@
       <c r="I6" s="4"/>
       <c r="J6" s="31">
         <f>_xll.RealtimeData(A6,"Last")</f>
-        <v>39.369999999999997</v>
+        <v>39.5</v>
       </c>
       <c r="K6" s="5"/>
       <c r="L6" s="8">
         <f>_xll.RealtimeData(A6,"Change in Percent")</f>
-        <v>0</v>
+        <v>3.3020066040132844E-3</v>
       </c>
       <c r="M6" s="29">
         <f>_xll.RealtimeData(A6,"Dividend Yield")</f>
-        <v>3.65</v>
+        <v>3.64</v>
       </c>
       <c r="N6" s="4" t="str">
         <f t="shared" si="0"/>
@@ -2318,7 +2308,7 @@
       </c>
       <c r="U6">
         <f>_xll.RealtimeData(T6,"MTD Percent Change")</f>
-        <v>-0.32911392</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.25">
@@ -2338,12 +2328,12 @@
       <c r="I7" s="4"/>
       <c r="J7" s="31">
         <f>_xll.RealtimeData(A7,"Last")</f>
-        <v>58.13</v>
+        <v>58.62</v>
       </c>
       <c r="K7" s="5"/>
       <c r="L7" s="8">
         <f>_xll.RealtimeData(A7,"Change in Percent")</f>
-        <v>0</v>
+        <v>8.4293824187165831E-3</v>
       </c>
       <c r="M7" s="29">
         <f>_xll.RealtimeData(A7,"Dividend Yield")</f>
@@ -2378,7 +2368,7 @@
       </c>
       <c r="U7">
         <f>_xll.RealtimeData(T7,"MTD Percent Change")</f>
-        <v>-1.32405364</v>
+        <v>-0.49227634999999997</v>
       </c>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.25">
@@ -2398,12 +2388,12 @@
       <c r="I8" s="4"/>
       <c r="J8" s="31">
         <f>_xll.RealtimeData(A8,"Last")</f>
-        <v>114.33</v>
+        <v>114.59</v>
       </c>
       <c r="K8" s="5"/>
       <c r="L8" s="8">
         <f>_xll.RealtimeData(A8,"Change in Percent")</f>
-        <v>-5.1340062652280105E-3</v>
+        <v>2.2741187789731918E-3</v>
       </c>
       <c r="M8" s="29">
         <v>0</v>
@@ -2437,7 +2427,7 @@
       </c>
       <c r="U8">
         <f>_xll.RealtimeData(T8,"MTD Percent Change")</f>
-        <v>-0.70349139999999999</v>
+        <v>-0.47767935</v>
       </c>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.25">
@@ -2457,12 +2447,12 @@
       <c r="I9" s="4"/>
       <c r="J9" s="31">
         <f>_xll.RealtimeData(A9,"Last")</f>
-        <v>45.46</v>
+        <v>45.82</v>
       </c>
       <c r="K9" s="5"/>
       <c r="L9" s="8">
         <f>_xll.RealtimeData(A9,"Change in Percent")</f>
-        <v>0</v>
+        <v>7.9190497140342927E-3</v>
       </c>
       <c r="M9" s="29">
         <f>_xll.RealtimeData(A9,"Dividend Yield")</f>
@@ -2497,7 +2487,7 @@
       </c>
       <c r="U9">
         <f>_xll.RealtimeData(T9,"MTD Percent Change")</f>
-        <v>-1.17391304</v>
+        <v>-0.39130435000000002</v>
       </c>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.25">
@@ -2511,16 +2501,16 @@
       <c r="G10" s="4"/>
       <c r="J10" s="31">
         <f>_xll.RealtimeData(A10,"Last")</f>
-        <v>43.87</v>
+        <v>44.33</v>
       </c>
       <c r="K10" s="5"/>
       <c r="L10" s="8">
         <f t="array" ref="L10">_xll.RealtimeData(A10,"Change in Percent")</f>
-        <v>-7.6905677448541737E-3</v>
+        <v>1.0485525416001847E-2</v>
       </c>
       <c r="M10" s="29">
         <f>_xll.RealtimeData(A10,"Dividend Yield")</f>
-        <v>1.32</v>
+        <v>1.31</v>
       </c>
       <c r="N10" s="4" t="str">
         <f t="shared" si="0"/>
@@ -2551,7 +2541,7 @@
       </c>
       <c r="U10">
         <f>_xll.RealtimeData(T10,"MTD Percent Change")</f>
-        <v>-1.32703554</v>
+        <v>-0.29239766</v>
       </c>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.25">
@@ -2565,12 +2555,12 @@
       <c r="G11" s="4"/>
       <c r="J11" s="31">
         <f>_xll.RealtimeData(A11,"Last")</f>
-        <v>101.77</v>
+        <v>101.56</v>
       </c>
       <c r="K11" s="5"/>
       <c r="L11" s="8">
         <f t="array" ref="L11">_xll.RealtimeData(A11,"Change in Percent")</f>
-        <v>0</v>
+        <v>-2.0634764665421442E-3</v>
       </c>
       <c r="M11" s="29">
         <f>_xll.RealtimeData(A11,"Dividend Yield")</f>
@@ -2605,7 +2595,7 @@
       </c>
       <c r="U11">
         <f>_xll.RealtimeData(T11,"MTD Percent Change")</f>
-        <v>0.42431418999999998</v>
+        <v>0.21709097999999999</v>
       </c>
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.25">
@@ -2618,11 +2608,11 @@
       </c>
       <c r="J12" s="31">
         <f>_xll.RealtimeData(A12,"Last")</f>
-        <v>83.14</v>
+        <v>83.11</v>
       </c>
       <c r="L12" s="8">
         <f t="array" ref="L12">_xll.RealtimeData(A12,"Change in Percent")</f>
-        <v>0</v>
+        <v>-3.6083714216984721E-4</v>
       </c>
       <c r="M12" s="29">
         <f>_xll.RealtimeData(A12,"Dividend Yield")</f>
@@ -2657,7 +2647,7 @@
       </c>
       <c r="U12">
         <f>_xll.RealtimeData(T12,"MTD Percent Change")</f>
-        <v>9.6315919999999999E-2</v>
+        <v>6.019745E-2</v>
       </c>
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.25">
@@ -2674,11 +2664,11 @@
     <row r="14" spans="1:22" x14ac:dyDescent="0.25">
       <c r="U14" s="29">
         <f t="array" ref="U14">MMULT(TRANSPOSE(O2:O12),U2:U12)</f>
-        <v>0.96455467859999999</v>
+        <v>1.04549726148</v>
       </c>
       <c r="V14" s="8">
         <f>U14*0.01</f>
-        <v>9.6455467860000008E-3</v>
+        <v>1.0454972614800001E-2</v>
       </c>
     </row>
     <row r="19" spans="5:16" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
@@ -2721,18 +2711,18 @@
       </c>
       <c r="K21" s="8">
         <f>SUMPRODUCT(K2:K7,F2:F7)</f>
-        <v>3.1594470756223077E-2</v>
+        <v>3.2153626494236795E-2</v>
       </c>
       <c r="M21" t="s">
         <v>34</v>
       </c>
       <c r="N21" s="8">
         <f t="array" ref="N21">MMULT(TRANSPOSE(F2:F5),L2:L5)</f>
-        <v>0</v>
+        <v>5.1758182579738059E-4</v>
       </c>
       <c r="P21" s="8">
         <f t="array" ref="P21">SUMPRODUCT(L2:L12,O2:O12)</f>
-        <v>0</v>
+        <v>7.9364400825036418E-4</v>
       </c>
     </row>
     <row r="22" spans="5:16" x14ac:dyDescent="0.25">
@@ -2747,7 +2737,7 @@
       </c>
       <c r="K22" s="8">
         <f>_xll.RealtimeData(J22,"Change in Percent")</f>
-        <v>-1.362954886193962E-4</v>
+        <v>4.6346782988004771E-3</v>
       </c>
       <c r="L22" s="12">
         <v>0.6</v>
@@ -2759,7 +2749,7 @@
       </c>
       <c r="K23" s="8">
         <f>_xll.RealtimeData(J23,"Change in Percent")</f>
-        <v>6.6056431065402853E-4</v>
+        <v>-1.7917766880423613E-3</v>
       </c>
       <c r="L23" s="12">
         <v>0.4</v>
@@ -2771,7 +2761,7 @@
       </c>
       <c r="K24" s="8">
         <f>_xll.RealtimeData(J24,"Change in Percent")</f>
-        <v>0</v>
+        <v>2.8606314320601782E-3</v>
       </c>
     </row>
     <row r="25" spans="5:16" x14ac:dyDescent="0.25">
@@ -2780,7 +2770,7 @@
       </c>
       <c r="K25" s="8">
         <f t="array" ref="K25">SUMPRODUCT(K22:K23,L22:L23)</f>
-        <v>1.8244843108997371E-4</v>
+        <v>2.0640963040633414E-3</v>
       </c>
     </row>
     <row r="26" spans="5:16" x14ac:dyDescent="0.25">
@@ -2796,7 +2786,7 @@
       </c>
       <c r="K26" s="8">
         <f>_xll.RealtimeData(J26,"Change in Percent")</f>
-        <v>0</v>
+        <v>1.1325028312570557E-3</v>
       </c>
       <c r="L26" t="str">
         <f>_xll.RealtimeData(J26,"Description")</f>
@@ -2809,7 +2799,7 @@
       </c>
       <c r="K27" s="8">
         <f>AVERAGE(L2:L11)</f>
-        <v>-1.2824574010082183E-3</v>
+        <v>3.2286085507434795E-3</v>
       </c>
     </row>
     <row r="28" spans="5:16" x14ac:dyDescent="0.25">
@@ -2818,14 +2808,14 @@
       </c>
       <c r="K28" s="8">
         <f>SUMPRODUCT(F2:F7,M2:M7)*0.01</f>
-        <v>1.4083090880986098E-2</v>
+        <v>1.4041640205836009E-2</v>
       </c>
       <c r="L28" t="s">
         <v>65</v>
       </c>
       <c r="M28" s="8">
         <f>AVERAGE(M2:M11)*0.01</f>
-        <v>2.0577777777777778E-2</v>
+        <v>2.0544444444444442E-2</v>
       </c>
     </row>
     <row r="29" spans="5:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -2852,7 +2842,7 @@
       </c>
       <c r="I31" s="21">
         <f>$N$21</f>
-        <v>0</v>
+        <v>5.1758182579738059E-4</v>
       </c>
       <c r="J31" s="21">
         <f>LOOKUP(2,1/(Daily!E:E&lt;&gt;""),Daily!E:E)</f>
@@ -2873,7 +2863,7 @@
       </c>
       <c r="I32" s="24">
         <f>$K$25</f>
-        <v>1.8244843108997371E-4</v>
+        <v>2.0640963040633414E-3</v>
       </c>
       <c r="J32" s="24">
         <f>LOOKUP(2,1/(Daily!M:M&lt;&gt;""),Daily!M:M)</f>
@@ -2894,7 +2884,7 @@
       </c>
       <c r="I33" s="24">
         <f>$K$24</f>
-        <v>0</v>
+        <v>2.8606314320601782E-3</v>
       </c>
       <c r="J33" s="24">
         <f>LOOKUP(2,1/(Daily!L:L&lt;&gt;""),Daily!L:L)</f>
@@ -2915,7 +2905,7 @@
       </c>
       <c r="I34" s="26">
         <f>$K$26</f>
-        <v>0</v>
+        <v>1.1325028312570557E-3</v>
       </c>
       <c r="J34" s="26">
         <f>LOOKUP(2,1/(Daily!N:N&lt;&gt;""),Daily!N:N)</f>
@@ -14886,8 +14876,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W40"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="P31" sqref="P31"/>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="N30" sqref="N30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14925,7 +14915,7 @@
       </c>
       <c r="G2" s="74">
         <f>SUM(G5:G10)</f>
-        <v>0.99275147872402636</v>
+        <v>0.99276865615289189</v>
       </c>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.25">
@@ -14977,7 +14967,7 @@
       </c>
       <c r="C5">
         <f>_xll.RealtimeData(A5,"Last")</f>
-        <v>369.55</v>
+        <v>365.58</v>
       </c>
       <c r="D5">
         <f>ROUNDDOWN(($C$2/6)/B5,0)</f>
@@ -14985,19 +14975,19 @@
       </c>
       <c r="E5" s="8">
         <f>C5/B5-1</f>
-        <v>0.11327007079379436</v>
+        <v>0.10131043831902398</v>
       </c>
       <c r="F5">
         <f>C5*D5</f>
-        <v>12934.25</v>
+        <v>12795.3</v>
       </c>
       <c r="G5" s="73">
         <f>F5/$F$13</f>
-        <v>0.17671797318485705</v>
+        <v>0.17440524367501056</v>
       </c>
       <c r="H5" s="8">
         <f>F5/$F$31</f>
-        <v>0.12499613441415114</v>
+        <v>0.12341766016598633</v>
       </c>
       <c r="I5">
         <f>B5*D5</f>
@@ -15014,7 +15004,7 @@
       </c>
       <c r="C6">
         <f>_xll.RealtimeData(A6,"Last")</f>
-        <v>1847.75</v>
+        <v>1862.48</v>
       </c>
       <c r="D6">
         <f t="shared" ref="D6:D10" si="0">ROUNDDOWN(($C$2/6)/B6,0)</f>
@@ -15022,19 +15012,19 @@
       </c>
       <c r="E6" s="8">
         <f t="shared" ref="E6:E10" si="1">C6/B6-1</f>
-        <v>0.13385329095126486</v>
+        <v>0.14289220799941105</v>
       </c>
       <c r="F6">
         <f t="shared" ref="F6:F9" si="2">C6*D6</f>
-        <v>12934.25</v>
+        <v>13037.36</v>
       </c>
       <c r="G6" s="73">
         <f t="shared" ref="G6:G10" si="3">F6/$F$13</f>
-        <v>0.17671797318485705</v>
+        <v>0.17770462182823663</v>
       </c>
       <c r="H6" s="8">
         <f t="shared" ref="H6:H10" si="4">F6/$F$31</f>
-        <v>0.12499613441415114</v>
+        <v>0.12575246113351182</v>
       </c>
       <c r="I6">
         <f t="shared" ref="I6:I10" si="5">B6*D6</f>
@@ -15051,7 +15041,7 @@
       </c>
       <c r="C7">
         <f>_xll.RealtimeData(A7,"Last")</f>
-        <v>43.3</v>
+        <v>43.58</v>
       </c>
       <c r="D7">
         <f t="shared" si="0"/>
@@ -15059,19 +15049,19 @@
       </c>
       <c r="E7" s="8">
         <f t="shared" si="1"/>
-        <v>2.1708352996696378E-2</v>
+        <v>2.8315243039169324E-2</v>
       </c>
       <c r="F7">
         <f t="shared" si="2"/>
-        <v>11907.5</v>
+        <v>11984.5</v>
       </c>
       <c r="G7" s="73">
         <f t="shared" si="3"/>
-        <v>0.16268970104170596</v>
+        <v>0.16335370353357595</v>
       </c>
       <c r="H7" s="8">
         <f t="shared" si="4"/>
-        <v>0.1150736587383501</v>
+        <v>0.11559705112496489</v>
       </c>
       <c r="I7">
         <f t="shared" si="5"/>
@@ -15088,7 +15078,7 @@
       </c>
       <c r="C8">
         <f>_xll.RealtimeData(A8,"Last")</f>
-        <v>520.79999999999995</v>
+        <v>517.9</v>
       </c>
       <c r="D8">
         <f t="shared" si="0"/>
@@ -15096,19 +15086,19 @@
       </c>
       <c r="E8" s="8">
         <f t="shared" si="1"/>
-        <v>0.13298670785563549</v>
+        <v>0.12667783409837474</v>
       </c>
       <c r="F8">
         <f t="shared" si="2"/>
-        <v>13019.999999999998</v>
+        <v>12947.5</v>
       </c>
       <c r="G8" s="73">
         <f t="shared" si="3"/>
-        <v>0.17788955763703643</v>
+        <v>0.17647979277408107</v>
       </c>
       <c r="H8" s="8">
         <f t="shared" si="4"/>
-        <v>0.12582481938050119</v>
+        <v>0.12488571233180215</v>
       </c>
       <c r="I8">
         <f t="shared" si="5"/>
@@ -15125,7 +15115,7 @@
       </c>
       <c r="C9">
         <f>_xll.RealtimeData(A9,"Last")</f>
-        <v>52.67</v>
+        <v>53.03</v>
       </c>
       <c r="D9">
         <f t="shared" si="0"/>
@@ -15133,19 +15123,19 @@
       </c>
       <c r="E9" s="8">
         <f t="shared" si="1"/>
-        <v>-8.5431498524049299E-2</v>
+        <v>-7.9180413266192073E-2</v>
       </c>
       <c r="F9">
         <f t="shared" si="2"/>
-        <v>10639.34</v>
+        <v>10712.06</v>
       </c>
       <c r="G9" s="73">
         <f t="shared" si="3"/>
-        <v>0.14536309417434926</v>
+        <v>0.14600981880544683</v>
       </c>
       <c r="H9" s="8">
         <f t="shared" si="4"/>
-        <v>0.10281820536311381</v>
+        <v>0.10332367203251629</v>
       </c>
       <c r="I9">
         <f t="shared" si="5"/>
@@ -15162,7 +15152,7 @@
       </c>
       <c r="C10">
         <f>_xll.RealtimeData(A10,"Last")</f>
-        <v>54.23</v>
+        <v>54.87</v>
       </c>
       <c r="D10">
         <f t="shared" si="0"/>
@@ -15170,19 +15160,19 @@
       </c>
       <c r="E10" s="8">
         <f t="shared" si="1"/>
-        <v>-3.7622005323868724E-2</v>
+        <v>-2.6264418811002721E-2</v>
       </c>
       <c r="F10">
         <f>C10*D10</f>
-        <v>11225.609999999999</v>
+        <v>11358.09</v>
       </c>
       <c r="G10" s="73">
         <f t="shared" si="3"/>
-        <v>0.15337317950122062</v>
+        <v>0.15481547553654085</v>
       </c>
       <c r="H10" s="8">
         <f t="shared" si="4"/>
-        <v>0.10848389790214655</v>
+        <v>0.10955498438916539</v>
       </c>
       <c r="I10">
         <f t="shared" si="5"/>
@@ -15201,7 +15191,7 @@
       </c>
       <c r="F13" s="75">
         <f>SUM(F5:F10)+I13</f>
-        <v>73191.48</v>
+        <v>73365.34</v>
       </c>
       <c r="H13" t="s">
         <v>26</v>
@@ -15217,7 +15207,7 @@
       </c>
       <c r="F14" s="8">
         <f>F13/C2-1</f>
-        <v>4.5592571428571427E-2</v>
+        <v>4.8076285714285572E-2</v>
       </c>
     </row>
     <row r="15" spans="1:23" x14ac:dyDescent="0.25">
@@ -15228,7 +15218,7 @@
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H17" s="11">
         <f>SUM(H20:H23)</f>
-        <v>0.98829217202034469</v>
+        <v>0.98830133836146794</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
@@ -15270,7 +15260,7 @@
       </c>
       <c r="C20">
         <f>_xll.RealtimeData(A20,"Last")</f>
-        <v>17.190000000000001</v>
+        <v>17.32</v>
       </c>
       <c r="D20">
         <f>ROUNDDOWN(($C$3*E20)/B20,0)</f>
@@ -15281,19 +15271,19 @@
       </c>
       <c r="F20" s="8">
         <f>C20/B20-1</f>
-        <v>1.1176470588235343E-2</v>
+        <v>1.8823529411764683E-2</v>
       </c>
       <c r="G20">
         <f>D20*C20</f>
-        <v>4297.5</v>
+        <v>4330</v>
       </c>
       <c r="H20" s="8">
         <f>G20/$G$27</f>
-        <v>0.1418985581323475</v>
+        <v>0.14285973516510525</v>
       </c>
       <c r="I20" s="8">
         <f>G20/$F$31</f>
-        <v>4.1530887963725345E-2</v>
+        <v>4.176521601828178E-2</v>
       </c>
       <c r="J20">
         <f>B20*D20</f>
@@ -15310,7 +15300,7 @@
       </c>
       <c r="C21">
         <f>_xll.RealtimeData(A21,"Last")</f>
-        <v>286.64999999999998</v>
+        <v>287.47000000000003</v>
       </c>
       <c r="D21">
         <f t="shared" ref="D21:D22" si="6">ROUNDDOWN(($C$3*E21)/B21,0)</f>
@@ -15321,19 +15311,19 @@
       </c>
       <c r="F21" s="8">
         <f t="shared" ref="F21:F23" si="7">C21/B21-1</f>
-        <v>1.3327205882352811E-2</v>
+        <v>1.6225961538461675E-2</v>
       </c>
       <c r="G21">
         <f t="shared" ref="G21:G22" si="8">D21*C21</f>
-        <v>10892.699999999999</v>
+        <v>10923.86</v>
       </c>
       <c r="H21" s="8">
         <f t="shared" ref="H21:H23" si="9">G21/$G$27</f>
-        <v>0.35966455478027259</v>
+        <v>0.36041102692394611</v>
       </c>
       <c r="I21" s="8">
         <f t="shared" ref="I21:I23" si="10">G21/$F$31</f>
-        <v>0.10526666743978383</v>
+        <v>0.10536659876523502</v>
       </c>
       <c r="J21">
         <f t="shared" ref="J21:J23" si="11">B21*D21</f>
@@ -15350,7 +15340,7 @@
       </c>
       <c r="C22">
         <f>_xll.RealtimeData(A22,"Last")</f>
-        <v>82.16</v>
+        <v>81.89</v>
       </c>
       <c r="D22">
         <f t="shared" si="6"/>
@@ -15361,19 +15351,19 @@
       </c>
       <c r="F22" s="8">
         <f t="shared" si="7"/>
-        <v>7.8508341511285273E-3</v>
+        <v>4.5387634936211452E-3</v>
       </c>
       <c r="G22">
         <f t="shared" si="8"/>
-        <v>11831.039999999999</v>
+        <v>11792.16</v>
       </c>
       <c r="H22" s="8">
         <f t="shared" si="9"/>
-        <v>0.39064747346274076</v>
+        <v>0.38905885788095784</v>
       </c>
       <c r="I22" s="8">
         <f t="shared" si="10"/>
-        <v>0.11433475200333985</v>
+        <v>0.11374182672566782</v>
       </c>
       <c r="J22">
         <f t="shared" si="11"/>
@@ -15390,7 +15380,7 @@
       </c>
       <c r="C23">
         <f>_xll.RealtimeData(A23,"Last")</f>
-        <v>83.14</v>
+        <v>83.11</v>
       </c>
       <c r="D23">
         <f>ROUNDDOWN(($C$3*E23)/B23,0)</f>
@@ -15401,19 +15391,19 @@
       </c>
       <c r="F23" s="8">
         <f t="shared" si="7"/>
-        <v>9.6315916205158558E-4</v>
+        <v>6.0197447628218548E-4</v>
       </c>
       <c r="G23">
         <f>D23*C23</f>
-        <v>2909.9</v>
+        <v>2908.85</v>
       </c>
       <c r="H23" s="8">
         <f t="shared" si="9"/>
-        <v>9.6081585644983827E-2</v>
+        <v>9.5971718391458752E-2</v>
       </c>
       <c r="I23" s="8">
         <f t="shared" si="10"/>
-        <v>2.8121170654018472E-2</v>
+        <v>2.8057447717039018E-2</v>
       </c>
       <c r="J23">
         <f t="shared" si="11"/>
@@ -15429,7 +15419,7 @@
       </c>
       <c r="G27">
         <f>SUM(G20:G23)+J28</f>
-        <v>30285.720000000005</v>
+        <v>30309.450000000004</v>
       </c>
       <c r="J27">
         <f>SUM(J20:J23)</f>
@@ -15442,7 +15432,7 @@
       </c>
       <c r="G28" s="8">
         <f>G27/J27-1</f>
-        <v>2.1598614558336671E-2</v>
+        <v>2.2399075472703922E-2</v>
       </c>
       <c r="I28" t="s">
         <v>26</v>
@@ -15456,9 +15446,9 @@
       <c r="E31" t="s">
         <v>101</v>
       </c>
-      <c r="F31">
+      <c r="F31" s="75">
         <f>SUM(F13,G27)</f>
-        <v>103477.2</v>
+        <v>103674.79000000001</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
@@ -15467,7 +15457,11 @@
       </c>
       <c r="F33" s="8">
         <f>F31/B1-1</f>
-        <v>3.4772000000000025E-2</v>
+        <v>3.6747900000000167E-2</v>
+      </c>
+      <c r="H33" s="11">
+        <f>F33-F37</f>
+        <v>-4.6977962897212233E-3</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
@@ -15480,16 +15474,16 @@
       </c>
       <c r="C37">
         <f>_xll.RealtimeData(A37,"Last")</f>
-        <v>38.354999999999997</v>
+        <v>38.547199999999997</v>
       </c>
       <c r="D37" s="8">
         <f>C37/B37-1</f>
-        <v>2.4830109775222375E-3</v>
+        <v>7.5065342394144974E-3</v>
       </c>
       <c r="E37" s="11"/>
       <c r="F37" s="8">
         <f>D37*$B$3+D40*$B$2</f>
-        <v>3.7843337297730997E-2</v>
+        <v>4.144569628972139E-2</v>
       </c>
       <c r="H37" s="8"/>
       <c r="I37" s="8"/>
@@ -15504,11 +15498,11 @@
       </c>
       <c r="C38">
         <f>_xll.RealtimeData(A38,"Last")</f>
-        <v>286.64999999999998</v>
+        <v>287.47000000000003</v>
       </c>
       <c r="D38" s="8">
         <f t="shared" ref="D38:D39" si="12">C38/B38-1</f>
-        <v>5.1039489605103849E-2</v>
+        <v>5.404612620540461E-2</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
@@ -15521,11 +15515,11 @@
       </c>
       <c r="C39">
         <f>_xll.RealtimeData(A39,"Last")</f>
-        <v>181.14</v>
+        <v>181.8</v>
       </c>
       <c r="D39" s="8">
         <f t="shared" si="12"/>
-        <v>6.5090844946198656E-2</v>
+        <v>6.8971599929440908E-2</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
@@ -15538,11 +15532,11 @@
       </c>
       <c r="C40">
         <f>_xll.RealtimeData(A40,"Last")</f>
-        <v>47.069000000000003</v>
+        <v>47.202800000000003</v>
       </c>
       <c r="D40" s="8">
         <f>C40/B40-1</f>
-        <v>5.2997762863534748E-2</v>
+        <v>5.5991051454138629E-2</v>
       </c>
     </row>
   </sheetData>

--- a/Portfolio.xlsx
+++ b/Portfolio.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12135"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12135" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Portfolio" sheetId="1" r:id="rId1"/>
@@ -1031,428 +1031,299 @@
 <file path=xl/volatileDependencies.xml><?xml version="1.0" encoding="utf-8"?>
 <volTypes xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <volType type="realTimeData">
-    <main first="rtdsrv.73fabed4f35948249f716fcc482c8fe5">
+    <main first="rtdsrv.837e2ef194634cc8be84be17451153bb">
       <tp>
-        <v>1.1325028312570557E-3</v>
+        <v>5.656108597285125E-3</v>
         <stp/>
         <stp>GYLD</stp>
         <stp>change in percent</stp>
         <tr r="K26" s="1"/>
       </tp>
     </main>
-    <main first="rtdsrv.73fabed4f35948249f716fcc482c8fe5">
+    <main first="rtdsrv.837e2ef194634cc8be84be17451153bb">
       <tp>
-        <v>4.6346782988004771E-3</v>
+        <v>1</v>
+        <stp/>
+        <stp>DBC</stp>
+        <stp>mtd percent change</stp>
+        <tr r="U2" s="1"/>
+      </tp>
+      <tp>
+        <v>-0.50925140000000002</v>
+        <stp/>
+        <stp>EWJ</stp>
+        <stp>mtd percent change</stp>
+        <tr r="U7" s="1"/>
+      </tp>
+      <tp>
+        <v>-0.38236617000000001</v>
+        <stp/>
+        <stp>EEM</stp>
+        <stp>mtd percent change</stp>
+        <tr r="U10" s="1"/>
+      </tp>
+      <tp>
+        <v>-0.51241966000000005</v>
+        <stp/>
+        <stp>GLD</stp>
+        <stp>mtd percent change</stp>
+        <tr r="U8" s="1"/>
+      </tp>
+      <tp>
+        <v>1.6597143700000001</v>
+        <stp/>
+        <stp>IVV</stp>
+        <stp>mtd percent change</stp>
+        <tr r="U3" s="1"/>
+      </tp>
+      <tp>
+        <v>-8.58685E-2</v>
+        <stp/>
+        <stp>IYR</stp>
+        <stp>mtd percent change</stp>
+        <tr r="U4" s="1"/>
+      </tp>
+      <tp>
+        <v>-0.52173913000000005</v>
+        <stp/>
+        <stp>IEV</stp>
+        <stp>mtd percent change</stp>
+        <tr r="U9" s="1"/>
+      </tp>
+      <tp>
+        <v>0.27629761000000003</v>
+        <stp/>
+        <stp>IEF</stp>
+        <stp>mtd percent change</stp>
+        <tr r="U11" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.837e2ef194634cc8be84be17451153bb">
+      <tp>
+        <v>5.0632910000000003E-2</v>
+        <stp/>
+        <stp>RWX</stp>
+        <stp>mtd percent change</stp>
+        <tr r="U6" s="1"/>
+      </tp>
+      <tp>
+        <v>7.2236939999999999E-2</v>
+        <stp/>
+        <stp>SHY</stp>
+        <stp>mtd percent change</stp>
+        <tr r="U12" s="1"/>
+      </tp>
+      <tp>
+        <v>0.29545838000000002</v>
+        <stp/>
+        <stp>TLT</stp>
+        <stp>mtd percent change</stp>
+        <tr r="U5" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.837e2ef194634cc8be84be17451153bb">
+      <tp>
+        <v>-2.035278154681221E-4</v>
         <stp/>
         <stp>ACWI</stp>
         <stp>change in percent</stp>
         <tr r="K22" s="1"/>
       </tp>
     </main>
-    <main first="rtdsrv.73fabed4f35948249f716fcc482c8fe5">
+    <main first="rtdsrv.837e2ef194634cc8be84be17451153bb">
+      <tp>
+        <v>5.9078377313905375E-4</v>
+        <stp/>
+        <stp>IEF</stp>
+        <stp>change in percent</stp>
+        <tr r="L11" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.837e2ef194634cc8be84be17451153bb">
       <tp>
         <v>0</v>
         <stp/>
-        <stp>RWX</stp>
-        <stp>mtd percent change</stp>
-        <tr r="U6" s="1"/>
+        <stp>AGG</stp>
+        <stp>change in percent</stp>
+        <tr r="K23" s="1"/>
       </tp>
+    </main>
+    <main first="rtdsrv.837e2ef194634cc8be84be17451153bb">
       <tp>
-        <v>6.019745E-2</v>
-        <stp/>
-        <stp>SHY</stp>
-        <stp>mtd percent change</stp>
-        <tr r="U12" s="1"/>
-      </tp>
-      <tp>
-        <v>0.17727503</v>
-        <stp/>
-        <stp>TLT</stp>
-        <stp>mtd percent change</stp>
-        <tr r="U5" s="1"/>
-      </tp>
-      <tp>
-        <v>-0.39130435000000002</v>
-        <stp/>
-        <stp>IEV</stp>
-        <stp>mtd percent change</stp>
-        <tr r="U9" s="1"/>
-      </tp>
-      <tp>
-        <v>0.21709097999999999</v>
-        <stp/>
-        <stp>IEF</stp>
-        <stp>mtd percent change</stp>
-        <tr r="U11" s="1"/>
-      </tp>
-      <tp>
-        <v>1.6225961499999999</v>
-        <stp/>
-        <stp>IVV</stp>
-        <stp>mtd percent change</stp>
-        <tr r="U3" s="1"/>
-      </tp>
-      <tp>
-        <v>0.45387634999999998</v>
-        <stp/>
-        <stp>IYR</stp>
-        <stp>mtd percent change</stp>
-        <tr r="U4" s="1"/>
-      </tp>
-      <tp>
-        <v>1.8823529400000001</v>
-        <stp/>
-        <stp>DBC</stp>
-        <stp>mtd percent change</stp>
-        <tr r="U2" s="1"/>
-      </tp>
-      <tp>
-        <v>-0.29239766</v>
-        <stp/>
-        <stp>EEM</stp>
-        <stp>mtd percent change</stp>
-        <tr r="U10" s="1"/>
-      </tp>
-      <tp>
-        <v>-0.49227634999999997</v>
-        <stp/>
-        <stp>EWJ</stp>
-        <stp>mtd percent change</stp>
-        <tr r="U7" s="1"/>
-      </tp>
-      <tp>
-        <v>-0.47767935</v>
-        <stp/>
-        <stp>GLD</stp>
-        <stp>mtd percent change</stp>
-        <tr r="U8" s="1"/>
-      </tp>
-      <tp>
-        <v>58.62</v>
-        <stp/>
-        <stp>EWJ</stp>
-        <stp>last</stp>
-        <tr r="J7" s="1"/>
-      </tp>
-      <tp>
-        <v>39.5</v>
-        <stp/>
-        <stp>RWX</stp>
-        <stp>last</stp>
-        <tr r="J6" s="1"/>
-      </tp>
-      <tp>
-        <v>287.47000000000003</v>
-        <stp/>
-        <stp>IVV</stp>
-        <stp>last</stp>
-        <tr r="J3" s="1"/>
-        <tr r="C38" s="4"/>
-        <tr r="C21" s="4"/>
-      </tp>
-      <tp>
-        <v>54.87</v>
-        <stp/>
-        <stp>STX</stp>
-        <stp>last</stp>
-        <tr r="C10" s="4"/>
-      </tp>
-      <tp>
-        <v>181.8</v>
-        <stp/>
-        <stp>QQQ</stp>
-        <stp>last</stp>
-        <tr r="C39" s="4"/>
-      </tp>
-      <tp>
-        <v>53.03</v>
-        <stp/>
-        <stp>MU</stp>
-        <stp>last</stp>
-        <tr r="C9" s="4"/>
-      </tp>
-      <tp t="s">
-        <v>ISHARES TR-1 3 YR TREAS BD</v>
-        <stp/>
-        <stp>SHY</stp>
-        <stp>description</stp>
-        <tr r="B12" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>SPDR INDEX SHS FDS-DJ INTL RL ETF</v>
-        <stp/>
-        <stp>RWX</stp>
-        <stp>description</stp>
-        <tr r="B6" s="1"/>
-      </tp>
-      <tp>
-        <v>81.89</v>
-        <stp/>
-        <stp>IYR</stp>
-        <stp>last</stp>
-        <tr r="J4" s="1"/>
-        <tr r="C22" s="4"/>
-      </tp>
-      <tp t="s">
-        <v>ISHARES TR-20 YR TR BD ETF</v>
-        <stp/>
-        <stp>TLT</stp>
-        <stp>description</stp>
-        <tr r="B5" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>ARROW ETF TR-ARROW DJ GLB YLD</v>
-        <stp/>
-        <stp>GYLD</stp>
-        <stp>description</stp>
-        <tr r="L26" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>ISHARES TR-CORE S&amp;P500 ETF</v>
-        <stp/>
-        <stp>IVV</stp>
-        <stp>description</stp>
-        <tr r="B3" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>ISHARES TR-U.S. REAL ES ETF</v>
-        <stp/>
-        <stp>IYR</stp>
-        <stp>description</stp>
-        <tr r="B4" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>ISHARES TR-EUROPE ETF</v>
-        <stp/>
-        <stp>IEV</stp>
-        <stp>description</stp>
-        <tr r="B9" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>ISHARES TR-BARCLAYS 7 10 YR</v>
-        <stp/>
-        <stp>IEF</stp>
-        <stp>description</stp>
-        <tr r="B11" s="1"/>
-      </tp>
-      <tp>
-        <v>101.56</v>
-        <stp/>
-        <stp>IEF</stp>
-        <stp>last</stp>
-        <tr r="J11" s="1"/>
-      </tp>
-      <tp>
-        <v>44.33</v>
-        <stp/>
-        <stp>EEM</stp>
-        <stp>last</stp>
-        <tr r="J10" s="1"/>
-      </tp>
-      <tp>
-        <v>45.82</v>
-        <stp/>
-        <stp>IEV</stp>
-        <stp>last</stp>
-        <tr r="J9" s="1"/>
-      </tp>
-      <tp>
-        <v>17.32</v>
-        <stp/>
-        <stp>DBC</stp>
-        <stp>last</stp>
-        <tr r="J2" s="1"/>
-        <tr r="C20" s="4"/>
-      </tp>
-      <tp>
-        <v>38.547199999999997</v>
-        <stp/>
-        <stp>GAL</stp>
-        <stp>last</stp>
-        <tr r="C37" s="4"/>
-      </tp>
-      <tp>
-        <v>114.59</v>
-        <stp/>
-        <stp>GLD</stp>
-        <stp>last</stp>
-        <tr r="J8" s="1"/>
-      </tp>
-      <tp>
-        <v>118.67</v>
-        <stp/>
-        <stp>TLT</stp>
-        <stp>last</stp>
-        <tr r="J5" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>SPDR GOLD TRUST-GOLD SHS</v>
-        <stp/>
-        <stp>GLD</stp>
-        <stp>description</stp>
-        <tr r="B8" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>ISHARES INC-MSCI JPN ETF NEW</v>
-        <stp/>
-        <stp>EWJ</stp>
-        <stp>description</stp>
-        <tr r="B7" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>ISHARES TR-MSCI EMG MKT ETF</v>
-        <stp/>
-        <stp>EEM</stp>
-        <stp>description</stp>
-        <tr r="B10" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>INVESCO DB COMMDY INDX TRCK-UNIT</v>
-        <stp/>
-        <stp>DBC</stp>
-        <stp>description</stp>
-        <tr r="B2" s="1"/>
-      </tp>
-      <tp>
-        <v>83.11</v>
-        <stp/>
-        <stp>SHY</stp>
-        <stp>last</stp>
-        <tr r="J12" s="1"/>
-        <tr r="C23" s="4"/>
-      </tp>
-      <tp>
-        <v>2.2741187789731918E-3</v>
+        <v>-3.4907059952880967E-4</v>
         <stp/>
         <stp>GLD</stp>
         <stp>change in percent</stp>
         <tr r="L8" s="1"/>
       </tp>
     </main>
-    <main first="rtdsrv.73fabed4f35948249f716fcc482c8fe5">
+    <main first="rtdsrv.837e2ef194634cc8be84be17451153bb">
       <tp>
-        <v>-2.0634764665421442E-3</v>
-        <stp/>
-        <stp>IEF</stp>
-        <stp>change in percent</stp>
-        <tr r="L11" s="1"/>
-      </tp>
-      <tp>
-        <v>-1.7917766880423613E-3</v>
-        <stp/>
-        <stp>AGG</stp>
-        <stp>change in percent</stp>
-        <tr r="K23" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.73fabed4f35948249f716fcc482c8fe5">
-      <tp>
-        <v>7.5625363583478183E-3</v>
+        <v>-8.6605080831408197E-3</v>
         <stp/>
         <stp>DBC</stp>
         <stp>change in percent</stp>
         <tr r="L2" s="1"/>
       </tp>
     </main>
-    <main first="rtdsrv.73fabed4f35948249f716fcc482c8fe5">
+    <main first="rtdsrv.837e2ef194634cc8be84be17451153bb">
       <tp>
-        <v>1.0485525416001847E-2</v>
+        <v>-6.7689530685923057E-4</v>
         <stp/>
         <stp>EEM</stp>
         <stp>change in percent</stp>
         <tr r="L10" s="1"/>
       </tp>
     </main>
-    <main first="rtdsrv.73fabed4f35948249f716fcc482c8fe5">
+    <main first="rtdsrv.837e2ef194634cc8be84be17451153bb">
       <tp>
-        <v>8.4293824187165831E-3</v>
+        <v>-1.7059024223811006E-4</v>
         <stp/>
         <stp>EWJ</stp>
         <stp>change in percent</stp>
         <tr r="L7" s="1"/>
       </tp>
     </main>
-    <main first="rtdsrv.73fabed4f35948249f716fcc482c8fe5">
+    <main first="rtdsrv.837e2ef194634cc8be84be17451153bb">
       <tp>
-        <v>-5.1974180568363226E-3</v>
+        <v>-1.3094718463553536E-3</v>
         <stp/>
-        <stp>TLT</stp>
+        <stp>IEV</stp>
         <stp>change in percent</stp>
-        <tr r="L5" s="1"/>
+        <tr r="L9" s="1"/>
       </tp>
       <tp>
-        <v>2.8606314320601782E-3</v>
+        <v>3.6525550492211707E-4</v>
         <stp/>
         <stp>IVV</stp>
         <stp>change in percent</stp>
         <tr r="K24" s="1"/>
         <tr r="L3" s="1"/>
       </tp>
+    </main>
+    <main first="rtdsrv.837e2ef194634cc8be84be17451153bb">
       <tp>
-        <v>7.9190497140342927E-3</v>
+        <v>1.1797421420746694E-3</v>
         <stp/>
-        <stp>IEV</stp>
+        <stp>TLT</stp>
         <stp>change in percent</stp>
-        <tr r="L9" s="1"/>
+        <tr r="L5" s="1"/>
       </tp>
     </main>
-    <main first="rtdsrv.73fabed4f35948249f716fcc482c8fe5">
+    <main first="rtdsrv.837e2ef194634cc8be84be17451153bb">
       <tp>
-        <v>-3.2862706913339341E-3</v>
+        <v>-5.1300842799560514E-3</v>
         <stp/>
         <stp>IYR</stp>
         <stp>change in percent</stp>
         <tr r="L4" s="1"/>
       </tp>
     </main>
-    <main first="rtdsrv.73fabed4f35948249f716fcc482c8fe5">
+    <main first="rtdsrv.837e2ef194634cc8be84be17451153bb">
       <tp>
-        <v>3.3020066040132844E-3</v>
+        <v>5.0632911392412905E-4</v>
         <stp/>
         <stp>RWX</stp>
         <stp>change in percent</stp>
         <tr r="L6" s="1"/>
       </tp>
+    </main>
+    <main first="rtdsrv.837e2ef194634cc8be84be17451153bb">
       <tp>
-        <v>-3.6083714216984721E-4</v>
+        <v>1.2032246420412827E-4</v>
         <stp/>
         <stp>SHY</stp>
         <stp>change in percent</stp>
         <tr r="L12" s="1"/>
       </tp>
     </main>
-    <main first="rtdsrv.73fabed4f35948249f716fcc482c8fe5">
+    <main first="rtdsrv.837e2ef194634cc8be84be17451153bb">
       <tp>
-        <v>47.202800000000003</v>
+        <v>517.48</v>
+        <stp/>
+        <stp>ISRG</stp>
+        <stp>last</stp>
+        <tr r="C8" s="4"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.837e2ef194634cc8be84be17451153bb">
+      <tp>
+        <v>101.62</v>
+        <stp/>
+        <stp>IEF</stp>
+        <stp>last</stp>
+        <tr r="J11" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.837e2ef194634cc8be84be17451153bb">
+      <tp>
+        <v>44.29</v>
+        <stp/>
+        <stp>EEM</stp>
+        <stp>last</stp>
+        <tr r="J10" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.837e2ef194634cc8be84be17451153bb">
+      <tp>
+        <v>45.76</v>
+        <stp/>
+        <stp>IEV</stp>
+        <stp>last</stp>
+        <tr r="J9" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.837e2ef194634cc8be84be17451153bb">
+      <tp>
+        <v>47.181800000000003</v>
         <stp/>
         <stp>QQQE</stp>
         <stp>last</stp>
         <tr r="C40" s="4"/>
       </tp>
     </main>
-    <main first="rtdsrv.73fabed4f35948249f716fcc482c8fe5">
+    <main first="rtdsrv.837e2ef194634cc8be84be17451153bb">
       <tp>
-        <v>517.9</v>
+        <v>3.64</v>
         <stp/>
-        <stp>ISRG</stp>
-        <stp>last</stp>
-        <tr r="C8" s="4"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.73fabed4f35948249f716fcc482c8fe5">
-      <tp>
-        <v>2.36</v>
-        <stp/>
-        <stp>IEF</stp>
+        <stp>RWX</stp>
         <stp>dividend yield</stp>
-        <tr r="M11" s="1"/>
+        <tr r="M6" s="1"/>
       </tp>
       <tp>
-        <v>4.6500000000000004</v>
+        <v>1.99</v>
         <stp/>
-        <stp>IEV</stp>
+        <stp>SHY</stp>
         <stp>dividend yield</stp>
-        <tr r="M9" s="1"/>
+        <tr r="M12" s="1"/>
+      </tp>
+      <tp>
+        <v>2.7</v>
+        <stp/>
+        <stp>TLT</stp>
+        <stp>dividend yield</stp>
+        <tr r="M5" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>--</v>
+        <stp/>
+        <stp>DBC</stp>
+        <stp>dividend yield</stp>
+        <tr r="M2" s="1"/>
+      </tp>
+      <tp>
+        <v>1.57</v>
+        <stp/>
+        <stp>EWJ</stp>
+        <stp>dividend yield</stp>
+        <tr r="M7" s="1"/>
+      </tp>
+      <tp>
+        <v>1.31</v>
+        <stp/>
+        <stp>EEM</stp>
+        <stp>dividend yield</stp>
+        <tr r="M10" s="1"/>
       </tp>
       <tp>
         <v>1.78</v>
@@ -1468,104 +1339,297 @@
         <stp>dividend yield</stp>
         <tr r="M4" s="1"/>
       </tp>
+      <tp>
+        <v>2.36</v>
+        <stp/>
+        <stp>IEF</stp>
+        <stp>dividend yield</stp>
+        <tr r="M11" s="1"/>
+      </tp>
+      <tp>
+        <v>4.62</v>
+        <stp/>
+        <stp>IEV</stp>
+        <stp>dividend yield</stp>
+        <tr r="M9" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.837e2ef194634cc8be84be17451153bb">
       <tp t="s">
-        <v>--</v>
+        <v>ARROW ETF TR-ARROW DJ GLB YLD</v>
+        <stp/>
+        <stp>GYLD</stp>
+        <stp>description</stp>
+        <tr r="L26" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.837e2ef194634cc8be84be17451153bb">
+      <tp t="s">
+        <v>SPDR GOLD TRUST-GOLD SHS</v>
+        <stp/>
+        <stp>GLD</stp>
+        <stp>description</stp>
+        <tr r="B8" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.837e2ef194634cc8be84be17451153bb">
+      <tp>
+        <v>38.413200000000003</v>
+        <stp/>
+        <stp>GAL</stp>
+        <stp>last</stp>
+        <tr r="C37" s="4"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.837e2ef194634cc8be84be17451153bb">
+      <tp>
+        <v>17.170000000000002</v>
         <stp/>
         <stp>DBC</stp>
-        <stp>dividend yield</stp>
-        <tr r="M2" s="1"/>
+        <stp>last</stp>
+        <tr r="J2" s="1"/>
+        <tr r="C20" s="4"/>
       </tp>
-      <tp>
-        <v>1.31</v>
+    </main>
+    <main first="rtdsrv.837e2ef194634cc8be84be17451153bb">
+      <tp t="s">
+        <v>ISHARES TR-MSCI EMG MKT ETF</v>
         <stp/>
         <stp>EEM</stp>
-        <stp>dividend yield</stp>
-        <tr r="M10" s="1"/>
+        <stp>description</stp>
+        <tr r="B10" s="1"/>
       </tp>
-      <tp>
-        <v>1.58</v>
+    </main>
+    <main first="rtdsrv.837e2ef194634cc8be84be17451153bb">
+      <tp t="s">
+        <v>ISHARES INC-MSCI JPN ETF NEW</v>
         <stp/>
         <stp>EWJ</stp>
-        <stp>dividend yield</stp>
-        <tr r="M7" s="1"/>
+        <stp>description</stp>
+        <tr r="B7" s="1"/>
       </tp>
+    </main>
+    <main first="rtdsrv.837e2ef194634cc8be84be17451153bb">
+      <tp t="s">
+        <v>INVESCO DB COMMDY INDX TRCK-UNIT</v>
+        <stp/>
+        <stp>DBC</stp>
+        <stp>description</stp>
+        <tr r="B2" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.837e2ef194634cc8be84be17451153bb">
       <tp>
-        <v>3.64</v>
+        <v>114.55</v>
         <stp/>
-        <stp>RWX</stp>
-        <stp>dividend yield</stp>
-        <tr r="M6" s="1"/>
+        <stp>GLD</stp>
+        <stp>last</stp>
+        <tr r="J8" s="1"/>
       </tp>
+    </main>
+    <main first="rtdsrv.837e2ef194634cc8be84be17451153bb">
       <tp>
-        <v>1.99</v>
-        <stp/>
-        <stp>SHY</stp>
-        <stp>dividend yield</stp>
-        <tr r="M12" s="1"/>
-      </tp>
-      <tp>
-        <v>2.68</v>
+        <v>118.81</v>
         <stp/>
         <stp>TLT</stp>
-        <stp>dividend yield</stp>
-        <tr r="M5" s="1"/>
+        <stp>last</stp>
+        <tr r="J5" s="1"/>
       </tp>
     </main>
-    <main first="rtdsrv.73fabed4f35948249f716fcc482c8fe5">
+    <main first="rtdsrv.837e2ef194634cc8be84be17451153bb">
       <tp>
-        <v>286.64999999999998</v>
+        <v>1885.1020000000001</v>
+        <stp/>
+        <stp>AMZN</stp>
+        <stp>last</stp>
+        <tr r="C6" s="4"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.837e2ef194634cc8be84be17451153bb">
+      <tp>
+        <v>118.67</v>
+        <stp/>
+        <stp>TLT</stp>
+        <stp>close</stp>
+        <tr r="G5" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.837e2ef194634cc8be84be17451153bb">
+      <tp t="s">
+        <v>ISHARES TR-EUROPE ETF</v>
+        <stp/>
+        <stp>IEV</stp>
+        <stp>description</stp>
+        <tr r="B9" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>ISHARES TR-BARCLAYS 7 10 YR</v>
+        <stp/>
+        <stp>IEF</stp>
+        <stp>description</stp>
+        <tr r="B11" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.837e2ef194634cc8be84be17451153bb">
+      <tp t="s">
+        <v>ISHARES TR-CORE S&amp;P500 ETF</v>
+        <stp/>
+        <stp>IVV</stp>
+        <stp>description</stp>
+        <tr r="B3" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.837e2ef194634cc8be84be17451153bb">
+      <tp t="s">
+        <v>ISHARES TR-U.S. REAL ES ETF</v>
+        <stp/>
+        <stp>IYR</stp>
+        <stp>description</stp>
+        <tr r="B4" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.837e2ef194634cc8be84be17451153bb">
+      <tp>
+        <v>287.47000000000003</v>
         <stp/>
         <stp>IVV</stp>
         <stp>close</stp>
         <tr r="G3" s="1"/>
       </tp>
     </main>
-    <main first="rtdsrv.73fabed4f35948249f716fcc482c8fe5">
+    <main first="rtdsrv.837e2ef194634cc8be84be17451153bb">
       <tp>
-        <v>1862.48</v>
+        <v>83.12</v>
         <stp/>
-        <stp>AMZN</stp>
+        <stp>SHY</stp>
         <stp>last</stp>
-        <tr r="C6" s="4"/>
-      </tp>
-      <tp>
-        <v>119.29</v>
-        <stp/>
-        <stp>TLT</stp>
-        <stp>close</stp>
-        <tr r="G5" s="1"/>
+        <tr r="J12" s="1"/>
+        <tr r="C23" s="4"/>
       </tp>
     </main>
-    <main first="rtdsrv.73fabed4f35948249f716fcc482c8fe5">
+    <main first="rtdsrv.837e2ef194634cc8be84be17451153bb">
       <tp>
-        <v>82.16</v>
+        <v>81.87</v>
         <stp/>
         <stp>IYR</stp>
         <stp>close</stp>
         <tr r="G4" s="1"/>
       </tp>
     </main>
-    <main first="rtdsrv.73fabed4f35948249f716fcc482c8fe5">
+    <main first="rtdsrv.837e2ef194634cc8be84be17451153bb">
       <tp>
-        <v>43.58</v>
+        <v>43.66</v>
         <stp/>
         <stp>CSCO</stp>
         <stp>last</stp>
         <tr r="C7" s="4"/>
       </tp>
     </main>
-    <main first="rtdsrv.73fabed4f35948249f716fcc482c8fe5">
+    <main first="rtdsrv.837e2ef194634cc8be84be17451153bb">
       <tp>
-        <v>365.58</v>
+        <v>52.89</v>
+        <stp/>
+        <stp>MU</stp>
+        <stp>last</stp>
+        <tr r="C9" s="4"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.837e2ef194634cc8be84be17451153bb">
+      <tp t="s">
+        <v>ISHARES TR-1 3 YR TREAS BD</v>
+        <stp/>
+        <stp>SHY</stp>
+        <stp>description</stp>
+        <tr r="B12" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.837e2ef194634cc8be84be17451153bb">
+      <tp>
+        <v>55.276000000000003</v>
+        <stp/>
+        <stp>STX</stp>
+        <stp>last</stp>
+        <tr r="C10" s="4"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.837e2ef194634cc8be84be17451153bb">
+      <tp t="s">
+        <v>SPDR INDEX SHS FDS-DJ INTL RL ETF</v>
+        <stp/>
+        <stp>RWX</stp>
+        <stp>description</stp>
+        <tr r="B6" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.837e2ef194634cc8be84be17451153bb">
+      <tp>
+        <v>287.57499999999999</v>
+        <stp/>
+        <stp>IVV</stp>
+        <stp>last</stp>
+        <tr r="J3" s="1"/>
+        <tr r="C21" s="4"/>
+        <tr r="C38" s="4"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.837e2ef194634cc8be84be17451153bb">
+      <tp>
+        <v>58.61</v>
+        <stp/>
+        <stp>EWJ</stp>
+        <stp>last</stp>
+        <tr r="J7" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.837e2ef194634cc8be84be17451153bb">
+      <tp>
+        <v>39.520000000000003</v>
+        <stp/>
+        <stp>RWX</stp>
+        <stp>last</stp>
+        <tr r="J6" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.837e2ef194634cc8be84be17451153bb">
+      <tp>
+        <v>365.29500000000002</v>
         <stp/>
         <stp>ALGN</stp>
         <stp>last</stp>
         <tr r="C5" s="4"/>
       </tp>
     </main>
-    <main first="rtdsrv.73fabed4f35948249f716fcc482c8fe5">
+    <main first="rtdsrv.837e2ef194634cc8be84be17451153bb">
       <tp>
-        <v>17.190000000000001</v>
+        <v>182.11</v>
+        <stp/>
+        <stp>QQQ</stp>
+        <stp>last</stp>
+        <tr r="C39" s="4"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.837e2ef194634cc8be84be17451153bb">
+      <tp t="s">
+        <v>ISHARES TR-20 YR TR BD ETF</v>
+        <stp/>
+        <stp>TLT</stp>
+        <stp>description</stp>
+        <tr r="B5" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.837e2ef194634cc8be84be17451153bb">
+      <tp>
+        <v>81.45</v>
+        <stp/>
+        <stp>IYR</stp>
+        <stp>last</stp>
+        <tr r="J4" s="1"/>
+        <tr r="C22" s="4"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.837e2ef194634cc8be84be17451153bb">
+      <tp>
+        <v>17.32</v>
         <stp/>
         <stp>DBC</stp>
         <stp>close</stp>
@@ -1842,8 +1906,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:V46"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="S27" sqref="S27"/>
+    <sheetView topLeftCell="A11" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1943,34 +2007,34 @@
       </c>
       <c r="E2" s="5">
         <f>G2/D2-1</f>
-        <v>-3.5722633889687772E-2</v>
+        <v>-2.8430251248946714E-2</v>
       </c>
       <c r="F2" s="5">
         <f>I2/$I$21</f>
-        <v>0.15085864730638052</v>
+        <v>0.15192906733917794</v>
       </c>
       <c r="G2" s="4">
         <f>_xll.RealtimeData(A2,"Close")</f>
-        <v>17.190000000000001</v>
+        <v>17.32</v>
       </c>
       <c r="H2" s="4">
         <v>176</v>
       </c>
       <c r="I2" s="4">
         <f>H2*G2</f>
-        <v>3025.44</v>
+        <v>3048.32</v>
       </c>
       <c r="J2" s="4">
         <f>_xll.RealtimeData(A2,"Last")</f>
-        <v>17.32</v>
+        <v>17.170000000000002</v>
       </c>
       <c r="K2" s="5">
         <f>J2/D2-1</f>
-        <v>-2.8430251248946714E-2</v>
+        <v>-3.6844538911340208E-2</v>
       </c>
       <c r="L2" s="8">
         <f>_xll.RealtimeData(A2,"Change in Percent")</f>
-        <v>7.5625363583478183E-3</v>
+        <v>-8.6605080831408197E-3</v>
       </c>
       <c r="M2" s="29" t="str">
         <f>_xll.RealtimeData(A2,"Dividend Yield")</f>
@@ -1985,7 +2049,7 @@
       </c>
       <c r="P2" s="60">
         <f t="shared" ref="P2:P12" si="1">O2-F2</f>
-        <v>-8.8586473063805293E-3</v>
+        <v>-9.9290673391779494E-3</v>
       </c>
       <c r="Q2" s="31">
         <f>O2*Daily!$D$68</f>
@@ -1993,11 +2057,11 @@
       </c>
       <c r="R2">
         <f t="shared" ref="R2:R11" si="2">ROUND(Q2/J2,0)</f>
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="S2">
         <f t="shared" ref="S2:S11" si="3">R2-H2</f>
-        <v>-13</v>
+        <v>-12</v>
       </c>
       <c r="T2" t="str">
         <f t="shared" ref="T2:T12" si="4">A2</f>
@@ -2005,7 +2069,7 @@
       </c>
       <c r="U2">
         <f>_xll.RealtimeData(T2,"MTD Percent Change")</f>
-        <v>1.8823529400000001</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.25">
@@ -2024,34 +2088,34 @@
       </c>
       <c r="E3" s="5">
         <f>G3/D3-1</f>
-        <v>7.6177121521852742E-2</v>
+        <v>7.9255667622142312E-2</v>
       </c>
       <c r="F3" s="5">
         <f>I3/$I$21</f>
-        <v>0.4145067515008875</v>
+        <v>0.41549982306707006</v>
       </c>
       <c r="G3" s="4">
         <f>_xll.RealtimeData(A3,"Close")</f>
-        <v>286.64999999999998</v>
+        <v>287.47000000000003</v>
       </c>
       <c r="H3" s="4">
         <v>29</v>
       </c>
       <c r="I3" s="4">
         <f>H3*G3</f>
-        <v>8312.8499999999985</v>
+        <v>8336.630000000001</v>
       </c>
       <c r="J3" s="4">
         <f>_xll.RealtimeData(A3,"Last")</f>
-        <v>287.47000000000003</v>
+        <v>287.57499999999999</v>
       </c>
       <c r="K3" s="5">
         <f>J3/D3-1</f>
-        <v>7.9255667622142312E-2</v>
+        <v>7.9649871695959717E-2</v>
       </c>
       <c r="L3" s="8">
         <f>_xll.RealtimeData(A3,"Change in Percent")</f>
-        <v>2.8606314320601782E-3</v>
+        <v>3.6525550492211707E-4</v>
       </c>
       <c r="M3" s="29">
         <f>_xll.RealtimeData(A3,"Dividend Yield")</f>
@@ -2066,7 +2130,7 @@
       </c>
       <c r="P3" s="60">
         <f t="shared" si="1"/>
-        <v>-4.8506751500887513E-2</v>
+        <v>-4.949982306707007E-2</v>
       </c>
       <c r="Q3" s="31">
         <f>O3*Daily!$D$68</f>
@@ -2086,7 +2150,7 @@
       </c>
       <c r="U3">
         <f>_xll.RealtimeData(T3,"MTD Percent Change")</f>
-        <v>1.6225961499999999</v>
+        <v>1.6597143700000001</v>
       </c>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.25">
@@ -2105,34 +2169,34 @@
       </c>
       <c r="E4" s="5">
         <f>G4/D4-1</f>
-        <v>4.7558332270814629E-2</v>
+        <v>4.3860767563432379E-2</v>
       </c>
       <c r="F4" s="5">
         <f>I4/$I$21</f>
-        <v>0.22122584119512534</v>
+        <v>0.22034280132176376</v>
       </c>
       <c r="G4" s="4">
         <f>_xll.RealtimeData(A4,"Close")</f>
-        <v>82.16</v>
+        <v>81.87</v>
       </c>
       <c r="H4" s="4">
         <v>54</v>
       </c>
       <c r="I4" s="4">
         <f>H4*G4</f>
-        <v>4436.6399999999994</v>
+        <v>4420.9800000000005</v>
       </c>
       <c r="J4" s="4">
         <f>_xll.RealtimeData(A4,"Last")</f>
-        <v>81.89</v>
+        <v>81.45</v>
       </c>
       <c r="K4" s="5">
         <f>J4/D4-1</f>
-        <v>4.4115772026010358E-2</v>
+        <v>3.8505673849292377E-2</v>
       </c>
       <c r="L4" s="8">
         <f t="array" ref="L4">_xll.RealtimeData(A4,"Change in Percent")</f>
-        <v>-3.2862706913339341E-3</v>
+        <v>-5.1300842799560514E-3</v>
       </c>
       <c r="M4" s="29">
         <f>_xll.RealtimeData(A4,"Dividend Yield")</f>
@@ -2147,7 +2211,7 @@
       </c>
       <c r="P4" s="60">
         <f t="shared" si="1"/>
-        <v>0.17177415880487468</v>
+        <v>0.17265719867823626</v>
       </c>
       <c r="Q4" s="31">
         <f>O4*Daily!$D$68</f>
@@ -2155,11 +2219,11 @@
       </c>
       <c r="R4">
         <f t="shared" si="2"/>
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="S4">
         <f t="shared" si="3"/>
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="T4" t="str">
         <f t="shared" si="4"/>
@@ -2167,7 +2231,7 @@
       </c>
       <c r="U4">
         <f>_xll.RealtimeData(T4,"MTD Percent Change")</f>
-        <v>0.45387634999999998</v>
+        <v>-8.58685E-2</v>
       </c>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.25">
@@ -2186,38 +2250,38 @@
       </c>
       <c r="E5" s="5">
         <f>G5/D5-1</f>
-        <v>-2.4562160959917811E-2</v>
+        <v>-2.9631919197866119E-2</v>
       </c>
       <c r="F5" s="5">
         <f>I5/$I$21</f>
-        <v>0.20818706743522752</v>
+        <v>0.20700903603949339</v>
       </c>
       <c r="G5" s="4">
         <f>_xll.RealtimeData(A5,"Close")</f>
-        <v>119.29</v>
+        <v>118.67</v>
       </c>
       <c r="H5" s="4">
         <v>35</v>
       </c>
       <c r="I5" s="4">
         <f>H5*G5</f>
-        <v>4175.1500000000005</v>
+        <v>4153.45</v>
       </c>
       <c r="J5" s="31">
         <f>_xll.RealtimeData(A5,"Last")</f>
-        <v>118.67</v>
+        <v>118.81</v>
       </c>
       <c r="K5" s="5">
         <f>J5/D5-1</f>
-        <v>-2.9631919197866119E-2</v>
+        <v>-2.8487135079619752E-2</v>
       </c>
       <c r="L5" s="8">
         <f t="array" ref="L5">_xll.RealtimeData(A5,"Change in Percent")</f>
-        <v>-5.1974180568363226E-3</v>
+        <v>1.1797421420746694E-3</v>
       </c>
       <c r="M5" s="29">
         <f>_xll.RealtimeData(A5,"Dividend Yield")</f>
-        <v>2.68</v>
+        <v>2.7</v>
       </c>
       <c r="N5" s="4" t="str">
         <f t="shared" si="0"/>
@@ -2228,7 +2292,7 @@
       </c>
       <c r="P5" s="60">
         <f t="shared" si="1"/>
-        <v>-0.20818706743522752</v>
+        <v>-0.20700903603949339</v>
       </c>
       <c r="Q5" s="31">
         <f>O5*Daily!$D$68</f>
@@ -2248,7 +2312,7 @@
       </c>
       <c r="U5">
         <f>_xll.RealtimeData(T5,"MTD Percent Change")</f>
-        <v>0.17727503</v>
+        <v>0.29545838000000002</v>
       </c>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.25">
@@ -2268,12 +2332,12 @@
       <c r="I6" s="4"/>
       <c r="J6" s="31">
         <f>_xll.RealtimeData(A6,"Last")</f>
-        <v>39.5</v>
+        <v>39.520000000000003</v>
       </c>
       <c r="K6" s="5"/>
       <c r="L6" s="8">
         <f>_xll.RealtimeData(A6,"Change in Percent")</f>
-        <v>3.3020066040132844E-3</v>
+        <v>5.0632911392412905E-4</v>
       </c>
       <c r="M6" s="29">
         <f>_xll.RealtimeData(A6,"Dividend Yield")</f>
@@ -2308,7 +2372,7 @@
       </c>
       <c r="U6">
         <f>_xll.RealtimeData(T6,"MTD Percent Change")</f>
-        <v>0</v>
+        <v>5.0632910000000003E-2</v>
       </c>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.25">
@@ -2328,16 +2392,16 @@
       <c r="I7" s="4"/>
       <c r="J7" s="31">
         <f>_xll.RealtimeData(A7,"Last")</f>
-        <v>58.62</v>
+        <v>58.61</v>
       </c>
       <c r="K7" s="5"/>
       <c r="L7" s="8">
         <f>_xll.RealtimeData(A7,"Change in Percent")</f>
-        <v>8.4293824187165831E-3</v>
+        <v>-1.7059024223811006E-4</v>
       </c>
       <c r="M7" s="29">
         <f>_xll.RealtimeData(A7,"Dividend Yield")</f>
-        <v>1.58</v>
+        <v>1.57</v>
       </c>
       <c r="N7" s="4" t="str">
         <f t="shared" si="0"/>
@@ -2368,7 +2432,7 @@
       </c>
       <c r="U7">
         <f>_xll.RealtimeData(T7,"MTD Percent Change")</f>
-        <v>-0.49227634999999997</v>
+        <v>-0.50925140000000002</v>
       </c>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.25">
@@ -2388,12 +2452,12 @@
       <c r="I8" s="4"/>
       <c r="J8" s="31">
         <f>_xll.RealtimeData(A8,"Last")</f>
-        <v>114.59</v>
+        <v>114.55</v>
       </c>
       <c r="K8" s="5"/>
       <c r="L8" s="8">
         <f>_xll.RealtimeData(A8,"Change in Percent")</f>
-        <v>2.2741187789731918E-3</v>
+        <v>-3.4907059952880967E-4</v>
       </c>
       <c r="M8" s="29">
         <v>0</v>
@@ -2427,7 +2491,7 @@
       </c>
       <c r="U8">
         <f>_xll.RealtimeData(T8,"MTD Percent Change")</f>
-        <v>-0.47767935</v>
+        <v>-0.51241966000000005</v>
       </c>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.25">
@@ -2447,16 +2511,16 @@
       <c r="I9" s="4"/>
       <c r="J9" s="31">
         <f>_xll.RealtimeData(A9,"Last")</f>
-        <v>45.82</v>
+        <v>45.76</v>
       </c>
       <c r="K9" s="5"/>
       <c r="L9" s="8">
         <f>_xll.RealtimeData(A9,"Change in Percent")</f>
-        <v>7.9190497140342927E-3</v>
+        <v>-1.3094718463553536E-3</v>
       </c>
       <c r="M9" s="29">
         <f>_xll.RealtimeData(A9,"Dividend Yield")</f>
-        <v>4.6500000000000004</v>
+        <v>4.62</v>
       </c>
       <c r="N9" s="4" t="str">
         <f t="shared" si="0"/>
@@ -2487,7 +2551,7 @@
       </c>
       <c r="U9">
         <f>_xll.RealtimeData(T9,"MTD Percent Change")</f>
-        <v>-0.39130435000000002</v>
+        <v>-0.52173913000000005</v>
       </c>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.25">
@@ -2501,12 +2565,12 @@
       <c r="G10" s="4"/>
       <c r="J10" s="31">
         <f>_xll.RealtimeData(A10,"Last")</f>
-        <v>44.33</v>
+        <v>44.29</v>
       </c>
       <c r="K10" s="5"/>
       <c r="L10" s="8">
         <f t="array" ref="L10">_xll.RealtimeData(A10,"Change in Percent")</f>
-        <v>1.0485525416001847E-2</v>
+        <v>-6.7689530685923057E-4</v>
       </c>
       <c r="M10" s="29">
         <f>_xll.RealtimeData(A10,"Dividend Yield")</f>
@@ -2541,7 +2605,7 @@
       </c>
       <c r="U10">
         <f>_xll.RealtimeData(T10,"MTD Percent Change")</f>
-        <v>-0.29239766</v>
+        <v>-0.38236617000000001</v>
       </c>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.25">
@@ -2555,12 +2619,12 @@
       <c r="G11" s="4"/>
       <c r="J11" s="31">
         <f>_xll.RealtimeData(A11,"Last")</f>
-        <v>101.56</v>
+        <v>101.62</v>
       </c>
       <c r="K11" s="5"/>
       <c r="L11" s="8">
         <f t="array" ref="L11">_xll.RealtimeData(A11,"Change in Percent")</f>
-        <v>-2.0634764665421442E-3</v>
+        <v>5.9078377313905375E-4</v>
       </c>
       <c r="M11" s="29">
         <f>_xll.RealtimeData(A11,"Dividend Yield")</f>
@@ -2595,7 +2659,7 @@
       </c>
       <c r="U11">
         <f>_xll.RealtimeData(T11,"MTD Percent Change")</f>
-        <v>0.21709097999999999</v>
+        <v>0.27629761000000003</v>
       </c>
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.25">
@@ -2608,11 +2672,11 @@
       </c>
       <c r="J12" s="31">
         <f>_xll.RealtimeData(A12,"Last")</f>
-        <v>83.11</v>
+        <v>83.12</v>
       </c>
       <c r="L12" s="8">
         <f t="array" ref="L12">_xll.RealtimeData(A12,"Change in Percent")</f>
-        <v>-3.6083714216984721E-4</v>
+        <v>1.2032246420412827E-4</v>
       </c>
       <c r="M12" s="29">
         <f>_xll.RealtimeData(A12,"Dividend Yield")</f>
@@ -2647,7 +2711,7 @@
       </c>
       <c r="U12">
         <f>_xll.RealtimeData(T12,"MTD Percent Change")</f>
-        <v>6.019745E-2</v>
+        <v>7.2236939999999999E-2</v>
       </c>
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.25">
@@ -2664,11 +2728,11 @@
     <row r="14" spans="1:22" x14ac:dyDescent="0.25">
       <c r="U14" s="29">
         <f t="array" ref="U14">MMULT(TRANSPOSE(O2:O12),U2:U12)</f>
-        <v>1.04549726148</v>
+        <v>0.72286059597999996</v>
       </c>
       <c r="V14" s="8">
         <f>U14*0.01</f>
-        <v>1.0454972614800001E-2</v>
+        <v>7.2286059597999998E-3</v>
       </c>
     </row>
     <row r="19" spans="5:16" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
@@ -2678,7 +2742,7 @@
       </c>
       <c r="F20" s="11">
         <f>SUM(F2:F5)</f>
-        <v>0.99477830743762086</v>
+        <v>0.99478072776750515</v>
       </c>
       <c r="H20" s="2" t="s">
         <v>14</v>
@@ -2697,32 +2761,32 @@
       </c>
       <c r="F21" s="11">
         <f>1-F20</f>
-        <v>5.2216925623791433E-3</v>
+        <v>5.2192722324948537E-3</v>
       </c>
       <c r="H21" s="2" t="s">
         <v>16</v>
       </c>
       <c r="I21" s="6">
         <f>SUM(I2:I20)</f>
-        <v>20054.8</v>
+        <v>20064.100000000002</v>
       </c>
       <c r="J21" t="s">
         <v>33</v>
       </c>
       <c r="K21" s="8">
         <f>SUMPRODUCT(K2:K7,F2:F7)</f>
-        <v>3.2153626494236795E-2</v>
+        <v>3.0084104834020471E-2</v>
       </c>
       <c r="M21" t="s">
         <v>34</v>
       </c>
       <c r="N21" s="8">
         <f t="array" ref="N21">MMULT(TRANSPOSE(F2:F5),L2:L5)</f>
-        <v>5.1758182579738059E-4</v>
+        <v>-2.0501791757417988E-3</v>
       </c>
       <c r="P21" s="8">
         <f t="array" ref="P21">SUMPRODUCT(L2:L12,O2:O12)</f>
-        <v>7.9364400825036418E-4</v>
+        <v>-3.1003198310710208E-3</v>
       </c>
     </row>
     <row r="22" spans="5:16" x14ac:dyDescent="0.25">
@@ -2737,7 +2801,7 @@
       </c>
       <c r="K22" s="8">
         <f>_xll.RealtimeData(J22,"Change in Percent")</f>
-        <v>4.6346782988004771E-3</v>
+        <v>-2.035278154681221E-4</v>
       </c>
       <c r="L22" s="12">
         <v>0.6</v>
@@ -2749,7 +2813,7 @@
       </c>
       <c r="K23" s="8">
         <f>_xll.RealtimeData(J23,"Change in Percent")</f>
-        <v>-1.7917766880423613E-3</v>
+        <v>0</v>
       </c>
       <c r="L23" s="12">
         <v>0.4</v>
@@ -2761,7 +2825,7 @@
       </c>
       <c r="K24" s="8">
         <f>_xll.RealtimeData(J24,"Change in Percent")</f>
-        <v>2.8606314320601782E-3</v>
+        <v>3.6525550492211707E-4</v>
       </c>
     </row>
     <row r="25" spans="5:16" x14ac:dyDescent="0.25">
@@ -2770,7 +2834,7 @@
       </c>
       <c r="K25" s="8">
         <f t="array" ref="K25">SUMPRODUCT(K22:K23,L22:L23)</f>
-        <v>2.0640963040633414E-3</v>
+        <v>-1.2211668928087326E-4</v>
       </c>
     </row>
     <row r="26" spans="5:16" x14ac:dyDescent="0.25">
@@ -2779,14 +2843,14 @@
       </c>
       <c r="I26" s="6">
         <f>SUM(I2:I18)</f>
-        <v>19950.079999999998</v>
+        <v>19959.38</v>
       </c>
       <c r="J26" t="s">
         <v>56</v>
       </c>
       <c r="K26" s="8">
         <f>_xll.RealtimeData(J26,"Change in Percent")</f>
-        <v>1.1325028312570557E-3</v>
+        <v>5.656108597285125E-3</v>
       </c>
       <c r="L26" t="str">
         <f>_xll.RealtimeData(J26,"Description")</f>
@@ -2799,7 +2863,7 @@
       </c>
       <c r="K27" s="8">
         <f>AVERAGE(L2:L11)</f>
-        <v>3.2286085507434795E-3</v>
+        <v>-1.3654509824018407E-3</v>
       </c>
     </row>
     <row r="28" spans="5:16" x14ac:dyDescent="0.25">
@@ -2808,20 +2872,20 @@
       </c>
       <c r="K28" s="8">
         <f>SUMPRODUCT(F2:F7,M2:M7)*0.01</f>
-        <v>1.4041640205836009E-2</v>
+        <v>1.4064820550136812E-2</v>
       </c>
       <c r="L28" t="s">
         <v>65</v>
       </c>
       <c r="M28" s="8">
         <f>AVERAGE(M2:M11)*0.01</f>
-        <v>2.0544444444444442E-2</v>
+        <v>2.0522222222222219E-2</v>
       </c>
     </row>
     <row r="29" spans="5:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="30" spans="5:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H30" s="30">
-        <v>43318</v>
+        <v>43319</v>
       </c>
       <c r="I30" s="15" t="s">
         <v>61</v>
@@ -2842,19 +2906,19 @@
       </c>
       <c r="I31" s="21">
         <f>$N$21</f>
-        <v>5.1758182579738059E-4</v>
+        <v>-2.0501791757417988E-3</v>
       </c>
       <c r="J31" s="21">
         <f>LOOKUP(2,1/(Daily!E:E&lt;&gt;""),Daily!E:E)</f>
-        <v>1.845712803489219E-3</v>
+        <v>-3.3668471564133329E-3</v>
       </c>
       <c r="K31" s="22">
         <f>VLOOKUP($H$30,Daily!$A:$AF,7,0)</f>
-        <v>9.9302914699253009E-3</v>
+        <v>6.5300105399139774E-3</v>
       </c>
       <c r="L31" s="23">
         <f>VLOOKUP($H$30,Daily!$A:$AF,8,0)</f>
-        <v>2.2729999999999695E-3</v>
+        <v>-1.1014999999998665E-3</v>
       </c>
     </row>
     <row r="32" spans="5:16" x14ac:dyDescent="0.25">
@@ -2863,19 +2927,19 @@
       </c>
       <c r="I32" s="24">
         <f>$K$25</f>
-        <v>2.0640963040633414E-3</v>
+        <v>-1.2211668928087326E-4</v>
       </c>
       <c r="J32" s="24">
         <f>LOOKUP(2,1/(Daily!M:M&lt;&gt;""),Daily!M:M)</f>
-        <v>1.8244843109000989E-4</v>
+        <v>2.0640963040633674E-3</v>
       </c>
       <c r="K32" s="14">
         <f>VLOOKUP($H$30,Daily!$A:$AF,25,0)</f>
-        <v>1.8667719902173419E-2</v>
+        <v>2.0770348177892251E-2</v>
       </c>
       <c r="L32" s="25">
         <f>VLOOKUP($H$30,Daily!$A:$AF,31,0)</f>
-        <v>1.2819412366243066E-2</v>
+        <v>1.4909969171992055E-2</v>
       </c>
     </row>
     <row r="33" spans="8:18" x14ac:dyDescent="0.25">
@@ -2884,19 +2948,19 @@
       </c>
       <c r="I33" s="24">
         <f>$K$24</f>
-        <v>2.8606314320601782E-3</v>
+        <v>3.6525550492211707E-4</v>
       </c>
       <c r="J33" s="24">
         <f>LOOKUP(2,1/(Daily!L:L&lt;&gt;""),Daily!L:L)</f>
-        <v>3.8522150236384167E-3</v>
+        <v>2.8606314320602788E-3</v>
       </c>
       <c r="K33" s="14">
         <f>VLOOKUP($H$30,Daily!$A:$AF,24,0)</f>
-        <v>4.9807727522431344E-2</v>
+        <v>5.2810840505401746E-2</v>
       </c>
       <c r="L33" s="25">
         <f>VLOOKUP($H$30,Daily!$A:$AF,30,0)</f>
-        <v>7.6474378675509547E-2</v>
+        <v>7.9553775118956116E-2</v>
       </c>
     </row>
     <row r="34" spans="8:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2905,19 +2969,19 @@
       </c>
       <c r="I34" s="26">
         <f>$K$26</f>
-        <v>1.1325028312570557E-3</v>
+        <v>5.656108597285125E-3</v>
       </c>
       <c r="J34" s="26">
         <f>LOOKUP(2,1/(Daily!N:N&lt;&gt;""),Daily!N:N)</f>
-        <v>5.6657223796041656E-4</v>
+        <v>1.1325028312569874E-3</v>
       </c>
       <c r="K34" s="27">
         <f>VLOOKUP($H$30,Daily!$A:$AF,26,0)</f>
-        <v>1.4942528735632399E-2</v>
+        <v>1.6091954022988686E-2</v>
       </c>
       <c r="L34" s="28">
         <f>VLOOKUP($H$30,Daily!$A:$AF,32,0)</f>
-        <v>2.4197833655876577E-2</v>
+        <v>2.5357740602259149E-2</v>
       </c>
     </row>
     <row r="35" spans="8:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -2952,7 +3016,7 @@
       </c>
       <c r="I37" s="46">
         <f>AVERAGE(Daily!E$3:E380)</f>
-        <v>4.6104439275422655E-5</v>
+        <v>-3.3586273287622106E-6</v>
       </c>
       <c r="J37" s="44"/>
       <c r="K37" s="22"/>
@@ -2960,23 +3024,23 @@
       <c r="M37" s="50"/>
       <c r="N37" s="38">
         <f>AVERAGE(Daily!J$3:J380)</f>
-        <v>2.9593862279143749E-4</v>
+        <v>3.5881890795098892E-4</v>
       </c>
       <c r="O37" s="22">
         <f>AVERAGE(Daily!K$3:K380)</f>
-        <v>4.0477261169796373E-5</v>
+        <v>1.3922856108751321E-5</v>
       </c>
       <c r="P37" s="22">
         <f>AVERAGE(Daily!L$3:L380)</f>
-        <v>1.1014602063257931E-3</v>
+        <v>1.1269554414813654E-3</v>
       </c>
       <c r="Q37" s="22">
         <f>AVERAGE(Daily!M$3:M380)</f>
-        <v>1.9375407814278101E-4</v>
+        <v>2.2086048721409385E-4</v>
       </c>
       <c r="R37" s="23">
         <f>AVERAGE(Daily!N$3:N380)</f>
-        <v>3.8456714387593237E-4</v>
+        <v>3.954067915191361E-4</v>
       </c>
     </row>
     <row r="38" spans="8:18" x14ac:dyDescent="0.25">
@@ -2985,7 +3049,7 @@
       </c>
       <c r="I38" s="47">
         <f>STDEV(Daily!E$3:E380)</f>
-        <v>5.0784651131284891E-3</v>
+        <v>5.0577016885652182E-3</v>
       </c>
       <c r="J38" s="45"/>
       <c r="K38" s="14"/>
@@ -2993,23 +3057,23 @@
       <c r="M38" s="51"/>
       <c r="N38" s="40">
         <f>STDEV(Daily!J$3:J380)</f>
-        <v>6.1444039376701348E-3</v>
+        <v>6.1213821536002747E-3</v>
       </c>
       <c r="O38" s="14">
         <f>STDEV(Daily!K$3:K380)</f>
-        <v>1.7910353950692974E-3</v>
+        <v>1.7914487310597524E-3</v>
       </c>
       <c r="P38" s="14">
         <f>STDEV(Daily!L$3:L380)</f>
-        <v>5.9036809448474907E-3</v>
+        <v>5.8639362604379613E-3</v>
       </c>
       <c r="Q38" s="14">
         <f>STDEV(Daily!M$3:M380)</f>
-        <v>3.6070095204496669E-3</v>
+        <v>3.5874621670105053E-3</v>
       </c>
       <c r="R38" s="25">
         <f>STDEV(Daily!N$3:N380)</f>
-        <v>8.1716173553021201E-3</v>
+        <v>8.1118091330334013E-3</v>
       </c>
     </row>
     <row r="39" spans="8:18" x14ac:dyDescent="0.25">
@@ -3026,7 +3090,7 @@
       <c r="M39" s="51"/>
       <c r="N39" s="41">
         <f>COUNTIF(Daily!J$3:J380,"&gt;0")</f>
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="O39" s="33">
         <f>COUNTIF(Daily!K$3:K380,"&gt;0")</f>
@@ -3034,15 +3098,15 @@
       </c>
       <c r="P39" s="33">
         <f>COUNTIF(Daily!L$3:L380,"&gt;0")</f>
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="Q39" s="33">
         <f>COUNTIF(Daily!M$3:M380,"&gt;0")</f>
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="R39" s="35">
         <f>COUNTIF(Daily!N$3:N380,"&gt;0")</f>
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="40" spans="8:18" x14ac:dyDescent="0.25">
@@ -3059,7 +3123,7 @@
       <c r="M40" s="51"/>
       <c r="N40" s="40">
         <f>SUMIF(Daily!J$3:J380,"&gt;0")</f>
-        <v>0.17079524240228272</v>
+        <v>0.17542992070108321</v>
       </c>
       <c r="O40" s="14">
         <f>SUMIF(Daily!K$3:K380,"&gt;0")</f>
@@ -3067,15 +3131,15 @@
       </c>
       <c r="P40" s="14">
         <f>SUMIF(Daily!L$3:L380,"&gt;0")</f>
-        <v>0.1988011564821987</v>
+        <v>0.20166178791425898</v>
       </c>
       <c r="Q40" s="14">
         <f>SUMIF(Daily!M$3:M380,"&gt;0")</f>
-        <v>0.10108199355150395</v>
+        <v>0.10314608985556732</v>
       </c>
       <c r="R40" s="25">
         <f>SUMIF(Daily!N$3:N380,"&gt;0")</f>
-        <v>0.22941116970789102</v>
+        <v>0.23054367253914801</v>
       </c>
     </row>
     <row r="41" spans="8:18" x14ac:dyDescent="0.25">
@@ -3084,7 +3148,7 @@
       </c>
       <c r="I41" s="47">
         <f>SUMIF(Daily!E$3:E380,"&lt;0")</f>
-        <v>-0.12543595210930192</v>
+        <v>-0.12880279926571525</v>
       </c>
       <c r="J41" s="45"/>
       <c r="K41" s="14"/>
@@ -3096,7 +3160,7 @@
       </c>
       <c r="O41" s="14">
         <f>SUMIF(Daily!K$3:K380,"&lt;0")</f>
-        <v>-4.5155044313202816E-2</v>
+        <v>-4.6946821001245129E-2</v>
       </c>
       <c r="P41" s="14">
         <f>SUMIF(Daily!L$3:L380,"&lt;0")</f>
@@ -3117,7 +3181,7 @@
       </c>
       <c r="I42" s="48">
         <f>COUNT(Daily!E$3:E380)</f>
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="J42" s="45"/>
       <c r="K42" s="14"/>
@@ -3125,23 +3189,23 @@
       <c r="M42" s="51"/>
       <c r="N42" s="41">
         <f>COUNT(Daily!J$3:J380)</f>
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="O42" s="33">
         <f>COUNT(Daily!K$3:K380)</f>
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="P42" s="33">
         <f>COUNT(Daily!L$3:L380)</f>
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="Q42" s="33">
         <f>COUNT(Daily!M$3:M380)</f>
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="R42" s="35">
         <f>COUNT(Daily!N$3:N380)</f>
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="43" spans="8:18" x14ac:dyDescent="0.25">
@@ -3150,7 +3214,7 @@
       </c>
       <c r="I43" s="48">
         <f>I42-I39</f>
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="J43" s="45"/>
       <c r="K43" s="14"/>
@@ -3162,7 +3226,7 @@
       </c>
       <c r="O43" s="33">
         <f>O42-O39</f>
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="P43" s="33">
         <f>P42-P39</f>
@@ -3183,7 +3247,7 @@
       </c>
       <c r="I44" s="49">
         <f>(I40/I41)*(I39/I43)*-1</f>
-        <v>1.3784397317714392</v>
+        <v>1.2976610068018128</v>
       </c>
       <c r="J44" s="45"/>
       <c r="K44" s="14"/>
@@ -3191,23 +3255,23 @@
       <c r="M44" s="51"/>
       <c r="N44" s="42">
         <f>(N40/N41)*(N39/N43)*-1</f>
-        <v>1.1335610089627781</v>
+        <v>1.1985659190209796</v>
       </c>
       <c r="O44" s="34">
         <f>(O40/O41)*(O39/O43)*-1</f>
-        <v>1.1252559614823405</v>
+        <v>1.0504767113497246</v>
       </c>
       <c r="P44" s="34">
         <f>(P40/P41)*(P39/P43)*-1</f>
-        <v>2.2921499846489177</v>
+        <v>2.383260988303987</v>
       </c>
       <c r="Q44" s="34">
         <f>(Q40/Q41)*(Q39/Q43)*-1</f>
-        <v>1.2936126795798795</v>
+        <v>1.3566957281498768</v>
       </c>
       <c r="R44" s="36">
         <f>(R40/R41)*(R39/R43)*-1</f>
-        <v>1.5178468608802465</v>
+        <v>1.5644510855934295</v>
       </c>
     </row>
     <row r="45" spans="8:18" x14ac:dyDescent="0.25">
@@ -3216,7 +3280,7 @@
       </c>
       <c r="I45" s="62">
         <f>I39/I42</f>
-        <v>0.57352941176470584</v>
+        <v>0.56521739130434778</v>
       </c>
       <c r="J45" s="63"/>
       <c r="K45" s="64"/>
@@ -3224,23 +3288,23 @@
       <c r="M45" s="66"/>
       <c r="N45" s="67">
         <f>N39/N42</f>
-        <v>0.5</v>
+        <v>0.50724637681159424</v>
       </c>
       <c r="O45" s="64">
         <f>O39/O42</f>
-        <v>0.51470588235294112</v>
+        <v>0.50724637681159424</v>
       </c>
       <c r="P45" s="64">
         <f>P39/P42</f>
-        <v>0.58823529411764708</v>
+        <v>0.59420289855072461</v>
       </c>
       <c r="Q45" s="64">
         <f>Q39/Q42</f>
-        <v>0.52941176470588236</v>
+        <v>0.53623188405797106</v>
       </c>
       <c r="R45" s="68">
         <f>R39/R42</f>
-        <v>0.57352941176470584</v>
+        <v>0.57971014492753625</v>
       </c>
     </row>
     <row r="46" spans="8:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3294,7 +3358,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B49" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D84" sqref="D84"/>
+      <selection pane="bottomRight" activeCell="E85" sqref="E85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9310,7 +9374,7 @@
         <v>43291</v>
       </c>
       <c r="B51" s="4">
-        <f t="shared" ref="B51:B70" si="812">D51-C51</f>
+        <f t="shared" ref="B51:B71" si="812">D51-C51</f>
         <v>19902.79</v>
       </c>
       <c r="C51" s="4">
@@ -12026,7 +12090,140 @@
       </c>
     </row>
     <row r="71" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="B71" s="4"/>
+      <c r="A71" s="9">
+        <v>43319</v>
+      </c>
+      <c r="B71" s="4">
+        <f t="shared" si="812"/>
+        <v>19873.25</v>
+      </c>
+      <c r="C71" s="4">
+        <v>104.72</v>
+      </c>
+      <c r="D71" s="4">
+        <f>20064.97-87</f>
+        <v>19977.97</v>
+      </c>
+      <c r="E71" s="5">
+        <f t="shared" ref="E71" si="1232">D71/D70-1</f>
+        <v>-3.3668471564133329E-3</v>
+      </c>
+      <c r="F71" s="10">
+        <f t="shared" ref="F71" si="1233">F70*(1+E71)</f>
+        <v>99.88985000000001</v>
+      </c>
+      <c r="G71" s="5">
+        <f t="shared" ref="G71" si="1234">F71/F$45-1</f>
+        <v>6.5300105399139774E-3</v>
+      </c>
+      <c r="H71" s="8">
+        <f t="shared" ref="H71" si="1235">F71/$F$2-1</f>
+        <v>-1.1014999999998665E-3</v>
+      </c>
+      <c r="J71" s="11">
+        <f>VLOOKUP($A71,Prices!$A:$J,MATCH(J$1,Prices!$1:$1,0),0)</f>
+        <v>4.6346782988004875E-3</v>
+      </c>
+      <c r="K71" s="11">
+        <f>VLOOKUP($A71,Prices!$A:$J,MATCH(K$1,Prices!$1:$1,0),0)</f>
+        <v>-1.7917766880423125E-3</v>
+      </c>
+      <c r="L71" s="11">
+        <f>VLOOKUP($A71,Prices!$A:$J,MATCH(L$1,Prices!$1:$1,0),0)</f>
+        <v>2.8606314320602788E-3</v>
+      </c>
+      <c r="M71" s="11">
+        <f t="shared" ref="M71" si="1236">0.6*J71 + 0.4*K71</f>
+        <v>2.0640963040633674E-3</v>
+      </c>
+      <c r="N71" s="11">
+        <f>VLOOKUP($A71,Prices!$A:$J,MATCH(N$1,Prices!$1:$1,0),0)</f>
+        <v>1.1325028312569874E-3</v>
+      </c>
+      <c r="P71" s="10">
+        <f t="shared" ref="P71" si="1237">P70*(1+J71)</f>
+        <v>102.37565303056846</v>
+      </c>
+      <c r="Q71" s="10">
+        <f t="shared" ref="Q71" si="1238">Q70*(1+K71)</f>
+        <v>100.08519683921634</v>
+      </c>
+      <c r="R71" s="10">
+        <f t="shared" ref="R71" si="1239">R70*(1+L71)</f>
+        <v>107.95537751189562</v>
+      </c>
+      <c r="S71" s="10">
+        <f t="shared" ref="S71" si="1240">S70*(1+M71)</f>
+        <v>101.4909969171992</v>
+      </c>
+      <c r="T71" s="10">
+        <f t="shared" ref="T71" si="1241">T70*(1+N71)</f>
+        <v>102.5357740602259</v>
+      </c>
+      <c r="V71" s="5">
+        <f t="shared" ref="V71" si="1242">P71/P$45-1</f>
+        <v>3.6276715410573646E-2</v>
+      </c>
+      <c r="W71" s="5">
+        <f t="shared" ref="W71" si="1243">Q71/Q$45-1</f>
+        <v>-2.2697538335092471E-3</v>
+      </c>
+      <c r="X71" s="5">
+        <f t="shared" ref="X71" si="1244">R71/R$45-1</f>
+        <v>5.2810840505401746E-2</v>
+      </c>
+      <c r="Y71" s="5">
+        <f t="shared" ref="Y71" si="1245">S71/S$45-1</f>
+        <v>2.0770348177892251E-2</v>
+      </c>
+      <c r="Z71" s="5">
+        <f t="shared" ref="Z71" si="1246">T71/T$45-1</f>
+        <v>1.6091954022988686E-2</v>
+      </c>
+      <c r="AB71" s="8">
+        <f t="shared" ref="AB71" si="1247">P71/$P$2-1</f>
+        <v>2.3756530305684587E-2</v>
+      </c>
+      <c r="AC71" s="8">
+        <f t="shared" ref="AC71" si="1248">Q71/$P$2-1</f>
+        <v>8.5196839216328257E-4</v>
+      </c>
+      <c r="AD71" s="8">
+        <f t="shared" ref="AD71" si="1249">R71/$P$2-1</f>
+        <v>7.9553775118956116E-2</v>
+      </c>
+      <c r="AE71" s="8">
+        <f t="shared" ref="AE71" si="1250">S71/$P$2-1</f>
+        <v>1.4909969171992055E-2</v>
+      </c>
+      <c r="AF71" s="8">
+        <f t="shared" ref="AF71" si="1251">T71/$T$2-1</f>
+        <v>2.5357740602259149E-2</v>
+      </c>
+      <c r="AI71" s="8">
+        <f t="shared" ref="AI71" si="1252">MIN(0,(F71-MAX(F42:F71))/MAX(F42:F71))</f>
+        <v>-3.3668471564133706E-3</v>
+      </c>
+      <c r="AJ71" s="8">
+        <f t="shared" ref="AJ71" si="1253">MIN(0,(P71-MAX(P42:P71))/MAX(P42:P71))</f>
+        <v>-2.436383324309599E-3</v>
+      </c>
+      <c r="AK71" s="8">
+        <f t="shared" ref="AK71" si="1254">MIN(0,(Q71-MAX(Q42:Q71))/MAX(Q42:Q71))</f>
+        <v>-6.1966012580979037E-3</v>
+      </c>
+      <c r="AL71" s="8">
+        <f t="shared" ref="AL71" si="1255">MIN(0,(R71-MAX(R42:R71))/MAX(R42:R71))</f>
+        <v>0</v>
+      </c>
+      <c r="AM71" s="8">
+        <f t="shared" ref="AM71" si="1256">MIN(0,(S71-MAX(S42:S71))/MAX(S42:S71))</f>
+        <v>-2.2440660195943954E-3</v>
+      </c>
+      <c r="AN71" s="8">
+        <f t="shared" ref="AN71" si="1257">MIN(0,(T71-MAX(T42:T71))/MAX(T42:T71))</f>
+        <v>-1.1738401341531765E-2</v>
+      </c>
     </row>
     <row r="72" spans="1:40" x14ac:dyDescent="0.25">
       <c r="B72" s="4"/>
@@ -12042,7 +12239,7 @@
   <dimension ref="A1:J78"/>
   <sheetViews>
     <sheetView topLeftCell="A51" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="N78" sqref="N78"/>
+      <selection activeCell="K83" sqref="K83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14630,37 +14827,40 @@
       </c>
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B72" t="str">
+      <c r="A72" s="13">
+        <v>43319</v>
+      </c>
+      <c r="B72">
         <f t="array" ref="B72">_xll.HistoricalData(B$1,"Adj. Close",$A72,$A72,"Daily","RemoveHeaders = True","ReverseOrder =True","RemoveDates =""True")</f>
-        <v>--</v>
-      </c>
-      <c r="C72" t="str">
+        <v>73.7</v>
+      </c>
+      <c r="C72">
         <f t="array" ref="C72">_xll.HistoricalData(C$1,"Adj. Close",$A72,$A72,"Daily","RemoveHeaders = True","ReverseOrder =True","RemoveDates =""True")</f>
-        <v>--</v>
-      </c>
-      <c r="D72" t="str">
+        <v>105.85</v>
+      </c>
+      <c r="D72">
         <f t="array" ref="D72">_xll.HistoricalData(D$1,"Adj. Close",$A72,$A72,"Daily","RemoveHeaders = True","ReverseOrder =True","RemoveDates =""True")</f>
-        <v>--</v>
-      </c>
-      <c r="E72" t="str">
+        <v>287.47000000000003</v>
+      </c>
+      <c r="E72">
         <f t="array" ref="E72">_xll.HistoricalData(E$1,"Adj. Close",$A72,$A72,"Daily","RemoveHeaders = True","ReverseOrder =True","RemoveDates =""True")</f>
-        <v>--</v>
-      </c>
-      <c r="G72" s="5" t="e">
+        <v>17.68</v>
+      </c>
+      <c r="G72" s="5">
         <f t="shared" si="216"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="H72" s="5" t="e">
+        <v>4.6346782988004875E-3</v>
+      </c>
+      <c r="H72" s="5">
         <f t="shared" si="217"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I72" s="5" t="e">
+        <v>-1.7917766880423125E-3</v>
+      </c>
+      <c r="I72" s="5">
         <f t="shared" si="218"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="J72" s="5" t="e">
+        <v>2.8606314320602788E-3</v>
+      </c>
+      <c r="J72" s="5">
         <f t="shared" si="219"/>
-        <v>#VALUE!</v>
+        <v>1.1325028312569874E-3</v>
       </c>
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.25">
@@ -14876,8 +15076,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W40"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="N30" sqref="N30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q33" sqref="Q33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14915,7 +15115,7 @@
       </c>
       <c r="G2" s="74">
         <f>SUM(G5:G10)</f>
-        <v>0.99276865615289189</v>
+        <v>0.99278984877899346</v>
       </c>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.25">
@@ -14967,7 +15167,7 @@
       </c>
       <c r="C5">
         <f>_xll.RealtimeData(A5,"Last")</f>
-        <v>365.58</v>
+        <v>365.29500000000002</v>
       </c>
       <c r="D5">
         <f>ROUNDDOWN(($C$2/6)/B5,0)</f>
@@ -14975,19 +15175,19 @@
       </c>
       <c r="E5" s="8">
         <f>C5/B5-1</f>
-        <v>0.10131043831902398</v>
+        <v>0.10045187528242217</v>
       </c>
       <c r="F5">
         <f>C5*D5</f>
-        <v>12795.3</v>
+        <v>12785.325000000001</v>
       </c>
       <c r="G5" s="73">
         <f>F5/$F$13</f>
-        <v>0.17440524367501056</v>
+        <v>0.17375855589639394</v>
       </c>
       <c r="H5" s="8">
         <f>F5/$F$31</f>
-        <v>0.12341766016598633</v>
+        <v>0.12317991370418636</v>
       </c>
       <c r="I5">
         <f>B5*D5</f>
@@ -15004,7 +15204,7 @@
       </c>
       <c r="C6">
         <f>_xll.RealtimeData(A6,"Last")</f>
-        <v>1862.48</v>
+        <v>1885.1020000000001</v>
       </c>
       <c r="D6">
         <f t="shared" ref="D6:D10" si="0">ROUNDDOWN(($C$2/6)/B6,0)</f>
@@ -15012,19 +15212,19 @@
       </c>
       <c r="E6" s="8">
         <f t="shared" ref="E6:E10" si="1">C6/B6-1</f>
-        <v>0.14289220799941105</v>
+        <v>0.15677397184619735</v>
       </c>
       <c r="F6">
         <f t="shared" ref="F6:F9" si="2">C6*D6</f>
-        <v>13037.36</v>
+        <v>13195.714</v>
       </c>
       <c r="G6" s="73">
         <f t="shared" ref="G6:G10" si="3">F6/$F$13</f>
-        <v>0.17770462182823663</v>
+        <v>0.17933593464865602</v>
       </c>
       <c r="H6" s="8">
         <f t="shared" ref="H6:H10" si="4">F6/$F$31</f>
-        <v>0.12575246113351182</v>
+        <v>0.12713379689488721</v>
       </c>
       <c r="I6">
         <f t="shared" ref="I6:I10" si="5">B6*D6</f>
@@ -15041,7 +15241,7 @@
       </c>
       <c r="C7">
         <f>_xll.RealtimeData(A7,"Last")</f>
-        <v>43.58</v>
+        <v>43.66</v>
       </c>
       <c r="D7">
         <f t="shared" si="0"/>
@@ -15049,19 +15249,19 @@
       </c>
       <c r="E7" s="8">
         <f t="shared" si="1"/>
-        <v>2.8315243039169324E-2</v>
+        <v>3.0202925908447309E-2</v>
       </c>
       <c r="F7">
         <f t="shared" si="2"/>
-        <v>11984.5</v>
+        <v>12006.499999999998</v>
       </c>
       <c r="G7" s="73">
         <f t="shared" si="3"/>
-        <v>0.16335370353357595</v>
+        <v>0.16317395931429615</v>
       </c>
       <c r="H7" s="8">
         <f t="shared" si="4"/>
-        <v>0.11559705112496489</v>
+        <v>0.11567634251685532</v>
       </c>
       <c r="I7">
         <f t="shared" si="5"/>
@@ -15078,7 +15278,7 @@
       </c>
       <c r="C8">
         <f>_xll.RealtimeData(A8,"Last")</f>
-        <v>517.9</v>
+        <v>517.48</v>
       </c>
       <c r="D8">
         <f t="shared" si="0"/>
@@ -15086,19 +15286,19 @@
       </c>
       <c r="E8" s="8">
         <f t="shared" si="1"/>
-        <v>0.12667783409837474</v>
+        <v>0.12576413514042684</v>
       </c>
       <c r="F8">
         <f t="shared" si="2"/>
-        <v>12947.5</v>
+        <v>12937</v>
       </c>
       <c r="G8" s="73">
         <f t="shared" si="3"/>
-        <v>0.17647979277408107</v>
+        <v>0.17581989019689748</v>
       </c>
       <c r="H8" s="8">
         <f t="shared" si="4"/>
-        <v>0.12488571233180215</v>
+        <v>0.12464122293262463</v>
       </c>
       <c r="I8">
         <f t="shared" si="5"/>
@@ -15115,7 +15315,7 @@
       </c>
       <c r="C9">
         <f>_xll.RealtimeData(A9,"Last")</f>
-        <v>53.03</v>
+        <v>52.89</v>
       </c>
       <c r="D9">
         <f t="shared" si="0"/>
@@ -15123,19 +15323,19 @@
       </c>
       <c r="E9" s="8">
         <f t="shared" si="1"/>
-        <v>-7.9180413266192073E-2</v>
+        <v>-8.1611390866469957E-2</v>
       </c>
       <c r="F9">
         <f t="shared" si="2"/>
-        <v>10712.06</v>
+        <v>10683.78</v>
       </c>
       <c r="G9" s="73">
         <f t="shared" si="3"/>
-        <v>0.14600981880544683</v>
+        <v>0.14519757490050317</v>
       </c>
       <c r="H9" s="8">
         <f t="shared" si="4"/>
-        <v>0.10332367203251629</v>
+        <v>0.10293262771454868</v>
       </c>
       <c r="I9">
         <f t="shared" si="5"/>
@@ -15152,7 +15352,7 @@
       </c>
       <c r="C10">
         <f>_xll.RealtimeData(A10,"Last")</f>
-        <v>54.87</v>
+        <v>55.276000000000003</v>
       </c>
       <c r="D10">
         <f t="shared" si="0"/>
@@ -15160,19 +15360,19 @@
       </c>
       <c r="E10" s="8">
         <f t="shared" si="1"/>
-        <v>-2.6264418811002721E-2</v>
+        <v>-1.9059449866903222E-2</v>
       </c>
       <c r="F10">
         <f>C10*D10</f>
-        <v>11358.09</v>
+        <v>11442.132000000001</v>
       </c>
       <c r="G10" s="73">
         <f t="shared" si="3"/>
-        <v>0.15481547553654085</v>
+        <v>0.15550393382224684</v>
       </c>
       <c r="H10" s="8">
         <f t="shared" si="4"/>
-        <v>0.10955498438916539</v>
+        <v>0.11023895226377972</v>
       </c>
       <c r="I10">
         <f t="shared" si="5"/>
@@ -15191,7 +15391,7 @@
       </c>
       <c r="F13" s="75">
         <f>SUM(F5:F10)+I13</f>
-        <v>73365.34</v>
+        <v>73580.981</v>
       </c>
       <c r="H13" t="s">
         <v>26</v>
@@ -15207,7 +15407,7 @@
       </c>
       <c r="F14" s="8">
         <f>F13/C2-1</f>
-        <v>4.8076285714285572E-2</v>
+        <v>5.1156871428571504E-2</v>
       </c>
     </row>
     <row r="15" spans="1:23" x14ac:dyDescent="0.25">
@@ -15218,7 +15418,7 @@
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H17" s="11">
         <f>SUM(H20:H23)</f>
-        <v>0.98830133836146794</v>
+        <v>0.98826396513016102</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
@@ -15260,7 +15460,7 @@
       </c>
       <c r="C20">
         <f>_xll.RealtimeData(A20,"Last")</f>
-        <v>17.32</v>
+        <v>17.170000000000002</v>
       </c>
       <c r="D20">
         <f>ROUNDDOWN(($C$3*E20)/B20,0)</f>
@@ -15271,19 +15471,19 @@
       </c>
       <c r="F20" s="8">
         <f>C20/B20-1</f>
-        <v>1.8823529411764683E-2</v>
+        <v>1.0000000000000009E-2</v>
       </c>
       <c r="G20">
         <f>D20*C20</f>
-        <v>4330</v>
+        <v>4292.5</v>
       </c>
       <c r="H20" s="8">
         <f>G20/$G$27</f>
-        <v>0.14285973516510525</v>
+        <v>0.14207493281849853</v>
       </c>
       <c r="I20" s="8">
         <f>G20/$F$31</f>
-        <v>4.176521601828178E-2</v>
+        <v>4.1355990526265068E-2</v>
       </c>
       <c r="J20">
         <f>B20*D20</f>
@@ -15300,7 +15500,7 @@
       </c>
       <c r="C21">
         <f>_xll.RealtimeData(A21,"Last")</f>
-        <v>287.47000000000003</v>
+        <v>287.57499999999999</v>
       </c>
       <c r="D21">
         <f t="shared" ref="D21:D22" si="6">ROUNDDOWN(($C$3*E21)/B21,0)</f>
@@ -15311,19 +15511,19 @@
       </c>
       <c r="F21" s="8">
         <f t="shared" ref="F21:F23" si="7">C21/B21-1</f>
-        <v>1.6225961538461675E-2</v>
+        <v>1.6597143665158409E-2</v>
       </c>
       <c r="G21">
         <f t="shared" ref="G21:G22" si="8">D21*C21</f>
-        <v>10923.86</v>
+        <v>10927.85</v>
       </c>
       <c r="H21" s="8">
         <f t="shared" ref="H21:H23" si="9">G21/$G$27</f>
-        <v>0.36041102692394611</v>
+        <v>0.36169447981377501</v>
       </c>
       <c r="I21" s="8">
         <f t="shared" ref="I21:I23" si="10">G21/$F$31</f>
-        <v>0.10536659876523502</v>
+        <v>0.10528411440243349</v>
       </c>
       <c r="J21">
         <f t="shared" ref="J21:J23" si="11">B21*D21</f>
@@ -15340,7 +15540,7 @@
       </c>
       <c r="C22">
         <f>_xll.RealtimeData(A22,"Last")</f>
-        <v>81.89</v>
+        <v>81.45</v>
       </c>
       <c r="D22">
         <f t="shared" si="6"/>
@@ -15351,19 +15551,19 @@
       </c>
       <c r="F22" s="8">
         <f t="shared" si="7"/>
-        <v>4.5387634936211452E-3</v>
+        <v>-8.5868498527963411E-4</v>
       </c>
       <c r="G22">
         <f t="shared" si="8"/>
-        <v>11792.16</v>
+        <v>11728.800000000001</v>
       </c>
       <c r="H22" s="8">
         <f t="shared" si="9"/>
-        <v>0.38905885788095784</v>
+        <v>0.3882046527761458</v>
       </c>
       <c r="I22" s="8">
         <f t="shared" si="10"/>
-        <v>0.11374182672566782</v>
+        <v>0.11300084838310025</v>
       </c>
       <c r="J22">
         <f t="shared" si="11"/>
@@ -15380,7 +15580,7 @@
       </c>
       <c r="C23">
         <f>_xll.RealtimeData(A23,"Last")</f>
-        <v>83.11</v>
+        <v>83.12</v>
       </c>
       <c r="D23">
         <f>ROUNDDOWN(($C$3*E23)/B23,0)</f>
@@ -15391,19 +15591,19 @@
       </c>
       <c r="F23" s="8">
         <f t="shared" si="7"/>
-        <v>6.0197447628218548E-4</v>
+        <v>7.2236937153857816E-4</v>
       </c>
       <c r="G23">
         <f>D23*C23</f>
-        <v>2908.85</v>
+        <v>2909.2000000000003</v>
       </c>
       <c r="H23" s="8">
         <f t="shared" si="9"/>
-        <v>9.5971718391458752E-2</v>
+        <v>9.6289899721741637E-2</v>
       </c>
       <c r="I23" s="8">
         <f t="shared" si="10"/>
-        <v>2.8057447717039018E-2</v>
+        <v>2.8028619135471253E-2</v>
       </c>
       <c r="J23">
         <f t="shared" si="11"/>
@@ -15419,7 +15619,7 @@
       </c>
       <c r="G27">
         <f>SUM(G20:G23)+J28</f>
-        <v>30309.450000000004</v>
+        <v>30212.930000000008</v>
       </c>
       <c r="J27">
         <f>SUM(J20:J23)</f>
@@ -15432,7 +15632,7 @@
       </c>
       <c r="G28" s="8">
         <f>G27/J27-1</f>
-        <v>2.2399075472703922E-2</v>
+        <v>1.9143260577856758E-2</v>
       </c>
       <c r="I28" t="s">
         <v>26</v>
@@ -15448,7 +15648,7 @@
       </c>
       <c r="F31" s="75">
         <f>SUM(F13,G27)</f>
-        <v>103674.79000000001</v>
+        <v>103793.91100000001</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
@@ -15457,11 +15657,11 @@
       </c>
       <c r="F33" s="8">
         <f>F31/B1-1</f>
-        <v>3.6747900000000167E-2</v>
+        <v>3.7939110000000165E-2</v>
       </c>
       <c r="H33" s="11">
         <f>F33-F37</f>
-        <v>-4.6977962897212233E-3</v>
+        <v>-2.1270215314619159E-3</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
@@ -15474,16 +15674,16 @@
       </c>
       <c r="C37">
         <f>_xll.RealtimeData(A37,"Last")</f>
-        <v>38.547199999999997</v>
+        <v>38.413200000000003</v>
       </c>
       <c r="D37" s="8">
         <f>C37/B37-1</f>
-        <v>7.5065342394144974E-3</v>
+        <v>4.0041819132254908E-3</v>
       </c>
       <c r="E37" s="11"/>
       <c r="F37" s="8">
         <f>D37*$B$3+D40*$B$2</f>
-        <v>4.144569628972139E-2</v>
+        <v>4.0066131531462081E-2</v>
       </c>
       <c r="H37" s="8"/>
       <c r="I37" s="8"/>
@@ -15498,11 +15698,11 @@
       </c>
       <c r="C38">
         <f>_xll.RealtimeData(A38,"Last")</f>
-        <v>287.47000000000003</v>
+        <v>287.57499999999999</v>
       </c>
       <c r="D38" s="8">
         <f t="shared" ref="D38:D39" si="12">C38/B38-1</f>
-        <v>5.404612620540461E-2</v>
+        <v>5.4431122355443007E-2</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
@@ -15515,11 +15715,11 @@
       </c>
       <c r="C39">
         <f>_xll.RealtimeData(A39,"Last")</f>
-        <v>181.8</v>
+        <v>182.11</v>
       </c>
       <c r="D39" s="8">
         <f t="shared" si="12"/>
-        <v>6.8971599929440908E-2</v>
+        <v>7.0794378785206113E-2</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
@@ -15532,11 +15732,11 @@
       </c>
       <c r="C40">
         <f>_xll.RealtimeData(A40,"Last")</f>
-        <v>47.202800000000003</v>
+        <v>47.181800000000003</v>
       </c>
       <c r="D40" s="8">
         <f>C40/B40-1</f>
-        <v>5.5991051454138629E-2</v>
+        <v>5.5521252796420617E-2</v>
       </c>
     </row>
   </sheetData>

--- a/Portfolio.xlsx
+++ b/Portfolio.xlsx
@@ -1031,299 +1031,533 @@
 <file path=xl/volatileDependencies.xml><?xml version="1.0" encoding="utf-8"?>
 <volTypes xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <volType type="realTimeData">
-    <main first="rtdsrv.837e2ef194634cc8be84be17451153bb">
+    <main first="rtdsrv.c8521ef4ac614fa1809b0488ffe291a7">
       <tp>
-        <v>5.656108597285125E-3</v>
+        <v>1.8432047186041534E-3</v>
+        <stp/>
+        <stp>IYR</stp>
+        <stp>change in percent</stp>
+        <tr r="L4" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.c8521ef4ac614fa1809b0488ffe291a7">
+      <tp>
+        <v>3.6408788618569744E-3</v>
+        <stp/>
+        <stp>TLT</stp>
+        <stp>change in percent</stp>
+        <tr r="L5" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.c8521ef4ac614fa1809b0488ffe291a7">
+      <tp>
+        <v>2.0183039287329364E-3</v>
+        <stp/>
+        <stp>IVV</stp>
+        <stp>change in percent</stp>
+        <tr r="K24" s="1"/>
+        <tr r="L3" s="1"/>
+      </tp>
+      <tp>
+        <v>6.5588106689989283E-4</v>
+        <stp/>
+        <stp>IEV</stp>
+        <stp>change in percent</stp>
+        <tr r="L9" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.c8521ef4ac614fa1809b0488ffe291a7">
+      <tp>
+        <v>-1.266784899923922E-3</v>
+        <stp/>
+        <stp>RWX</stp>
+        <stp>change in percent</stp>
+        <tr r="L6" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.c8521ef4ac614fa1809b0488ffe291a7">
+      <tp>
+        <v>3.6092396535131253E-4</v>
+        <stp/>
+        <stp>SHY</stp>
+        <stp>change in percent</stp>
+        <tr r="L12" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.c8521ef4ac614fa1809b0488ffe291a7">
+      <tp>
+        <v>1.3688780355448379E-3</v>
+        <stp/>
+        <stp>ACWI</stp>
+        <stp>change in percent</stp>
+        <tr r="K22" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.c8521ef4ac614fa1809b0488ffe291a7">
+      <tp>
+        <v>2.922267679719503E-3</v>
+        <stp/>
+        <stp>DBC</stp>
+        <stp>change in percent</stp>
+        <tr r="L2" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.c8521ef4ac614fa1809b0488ffe291a7">
+      <tp>
+        <v>4.3512313984855281E-4</v>
+        <stp/>
+        <stp>GLD</stp>
+        <stp>change in percent</stp>
+        <tr r="L8" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.c8521ef4ac614fa1809b0488ffe291a7">
+      <tp>
+        <v>1.5740285292670634E-3</v>
+        <stp/>
+        <stp>IEF</stp>
+        <stp>change in percent</stp>
+        <tr r="L11" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.c8521ef4ac614fa1809b0488ffe291a7">
+      <tp>
+        <v>1.0080302314596505E-3</v>
+        <stp/>
+        <stp>AGG</stp>
+        <stp>change in percent</stp>
+        <tr r="K23" s="1"/>
+      </tp>
+      <tp>
+        <v>0.64367719000000001</v>
+        <stp/>
+        <stp>TLT</stp>
+        <stp>mtd percent change</stp>
+        <tr r="U5" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.c8521ef4ac614fa1809b0488ffe291a7">
+      <tp>
+        <v>0.10835541</v>
+        <stp/>
+        <stp>SHY</stp>
+        <stp>mtd percent change</stp>
+        <tr r="U12" s="1"/>
+      </tp>
+      <tp>
+        <v>-0.20253165000000001</v>
+        <stp/>
+        <stp>RWX</stp>
+        <stp>mtd percent change</stp>
+        <tr r="U6" s="1"/>
+      </tp>
+      <tp>
+        <v>0.46378528000000002</v>
+        <stp/>
+        <stp>IEF</stp>
+        <stp>mtd percent change</stp>
+        <tr r="U11" s="1"/>
+      </tp>
+      <tp>
+        <v>-0.5</v>
+        <stp/>
+        <stp>IEV</stp>
+        <stp>mtd percent change</stp>
+        <tr r="U9" s="1"/>
+      </tp>
+      <tp>
+        <v>1.7922794099999999</v>
+        <stp/>
+        <stp>IVV</stp>
+        <stp>mtd percent change</stp>
+        <tr r="U3" s="1"/>
+      </tp>
+      <tp>
+        <v>1.2266930000000001E-2</v>
+        <stp/>
+        <stp>IYR</stp>
+        <stp>mtd percent change</stp>
+        <tr r="U4" s="1"/>
+      </tp>
+      <tp>
+        <v>-0.15633142</v>
+        <stp/>
+        <stp>GLD</stp>
+        <stp>mtd percent change</stp>
+        <tr r="U8" s="1"/>
+      </tp>
+      <tp>
+        <v>-0.15744489</v>
+        <stp/>
+        <stp>EEM</stp>
+        <stp>mtd percent change</stp>
+        <tr r="U10" s="1"/>
+      </tp>
+      <tp>
+        <v>-0.61110167999999998</v>
+        <stp/>
+        <stp>EWJ</stp>
+        <stp>mtd percent change</stp>
+        <tr r="U7" s="1"/>
+      </tp>
+      <tp>
+        <v>0.94117647000000004</v>
+        <stp/>
+        <stp>DBC</stp>
+        <stp>mtd percent change</stp>
+        <tr r="U2" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.c8521ef4ac614fa1809b0488ffe291a7">
+      <tp>
+        <v>-1.7076502732249146E-4</v>
+        <stp/>
+        <stp>EWJ</stp>
+        <stp>change in percent</stp>
+        <tr r="L7" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.c8521ef4ac614fa1809b0488ffe291a7">
+      <tp>
+        <v>2.9371893357434029E-3</v>
+        <stp/>
+        <stp>EEM</stp>
+        <stp>change in percent</stp>
+        <tr r="L10" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.c8521ef4ac614fa1809b0488ffe291a7">
+      <tp>
+        <v>-5.0761421319796898E-3</v>
         <stp/>
         <stp>GYLD</stp>
         <stp>change in percent</stp>
         <tr r="K26" s="1"/>
       </tp>
     </main>
-    <main first="rtdsrv.837e2ef194634cc8be84be17451153bb">
+    <main first="rtdsrv.c8521ef4ac614fa1809b0488ffe291a7">
       <tp>
-        <v>1</v>
+        <v>368.35</v>
+        <stp/>
+        <stp>ALGN</stp>
+        <stp>last</stp>
+        <tr r="C5" s="4"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.c8521ef4ac614fa1809b0488ffe291a7">
+      <tp>
+        <v>182.41</v>
+        <stp/>
+        <stp>QQQ</stp>
+        <stp>last</stp>
+        <tr r="C39" s="4"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.c8521ef4ac614fa1809b0488ffe291a7">
+      <tp>
+        <v>287.95</v>
+        <stp/>
+        <stp>IVV</stp>
+        <stp>last</stp>
+        <tr r="J3" s="1"/>
+        <tr r="C21" s="4"/>
+        <tr r="C38" s="4"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.c8521ef4ac614fa1809b0488ffe291a7">
+      <tp>
+        <v>39.42</v>
+        <stp/>
+        <stp>RWX</stp>
+        <stp>last</stp>
+        <tr r="J6" s="1"/>
+      </tp>
+      <tp>
+        <v>58.55</v>
+        <stp/>
+        <stp>EWJ</stp>
+        <stp>last</stp>
+        <tr r="J7" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.c8521ef4ac614fa1809b0488ffe291a7">
+      <tp>
+        <v>50.83</v>
+        <stp/>
+        <stp>STX</stp>
+        <stp>last</stp>
+        <tr r="C10" s="4"/>
+      </tp>
+      <tp>
+        <v>43.93</v>
+        <stp/>
+        <stp>CSCO</stp>
+        <stp>last</stp>
+        <tr r="C7" s="4"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.c8521ef4ac614fa1809b0488ffe291a7">
+      <tp t="s">
+        <v>ISHARES TR-20 YR TR BD ETF</v>
+        <stp/>
+        <stp>TLT</stp>
+        <stp>description</stp>
+        <tr r="B5" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.c8521ef4ac614fa1809b0488ffe291a7">
+      <tp>
+        <v>17.11</v>
         <stp/>
         <stp>DBC</stp>
-        <stp>mtd percent change</stp>
-        <tr r="U2" s="1"/>
+        <stp>close</stp>
+        <tr r="G2" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.c8521ef4ac614fa1809b0488ffe291a7">
+      <tp>
+        <v>81.53</v>
+        <stp/>
+        <stp>IYR</stp>
+        <stp>last</stp>
+        <tr r="J4" s="1"/>
+        <tr r="C22" s="4"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.c8521ef4ac614fa1809b0488ffe291a7">
+      <tp t="s">
+        <v>SPDR INDEX SHS FDS-DJ INTL RL ETF</v>
+        <stp/>
+        <stp>RWX</stp>
+        <stp>description</stp>
+        <tr r="B6" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.c8521ef4ac614fa1809b0488ffe291a7">
+      <tp>
+        <v>52.15</v>
+        <stp/>
+        <stp>MU</stp>
+        <stp>last</stp>
+        <tr r="C9" s="4"/>
+      </tp>
+      <tp t="s">
+        <v>ISHARES TR-1 3 YR TREAS BD</v>
+        <stp/>
+        <stp>SHY</stp>
+        <stp>description</stp>
+        <tr r="B12" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.c8521ef4ac614fa1809b0488ffe291a7">
+      <tp>
+        <v>17.16</v>
+        <stp/>
+        <stp>DBC</stp>
+        <stp>last</stp>
+        <tr r="J2" s="1"/>
+        <tr r="C20" s="4"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.c8521ef4ac614fa1809b0488ffe291a7">
+      <tp>
+        <v>38.529200000000003</v>
+        <stp/>
+        <stp>GAL</stp>
+        <stp>last</stp>
+        <tr r="C37" s="4"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.c8521ef4ac614fa1809b0488ffe291a7">
+      <tp>
+        <v>47.072000000000003</v>
+        <stp/>
+        <stp>QQQE</stp>
+        <stp>last</stp>
+        <tr r="C40" s="4"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.c8521ef4ac614fa1809b0488ffe291a7">
+      <tp t="s">
+        <v>ISHARES TR-CORE S&amp;P500 ETF</v>
+        <stp/>
+        <stp>IVV</stp>
+        <stp>description</stp>
+        <tr r="B3" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>ISHARES TR-U.S. REAL ES ETF</v>
+        <stp/>
+        <stp>IYR</stp>
+        <stp>description</stp>
+        <tr r="B4" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>ARROW ETF TR-ARROW DJ GLB YLD</v>
+        <stp/>
+        <stp>GYLD</stp>
+        <stp>description</stp>
+        <tr r="L26" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>ISHARES TR-BARCLAYS 7 10 YR</v>
+        <stp/>
+        <stp>IEF</stp>
+        <stp>description</stp>
+        <tr r="B11" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>ISHARES TR-EUROPE ETF</v>
+        <stp/>
+        <stp>IEV</stp>
+        <stp>description</stp>
+        <tr r="B9" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.c8521ef4ac614fa1809b0488ffe291a7">
+      <tp>
+        <v>45.77</v>
+        <stp/>
+        <stp>IEV</stp>
+        <stp>last</stp>
+        <tr r="J9" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.c8521ef4ac614fa1809b0488ffe291a7">
+      <tp>
+        <v>101.81</v>
+        <stp/>
+        <stp>IEF</stp>
+        <stp>last</stp>
+        <tr r="J11" s="1"/>
       </tp>
       <tp>
-        <v>-0.50925140000000002</v>
+        <v>44.39</v>
         <stp/>
-        <stp>EWJ</stp>
-        <stp>mtd percent change</stp>
-        <tr r="U7" s="1"/>
+        <stp>EEM</stp>
+        <stp>last</stp>
+        <tr r="J10" s="1"/>
       </tp>
       <tp>
-        <v>-0.38236617000000001</v>
-        <stp/>
-        <stp>EEM</stp>
-        <stp>mtd percent change</stp>
-        <tr r="U10" s="1"/>
-      </tp>
-      <tp>
-        <v>-0.51241966000000005</v>
-        <stp/>
-        <stp>GLD</stp>
-        <stp>mtd percent change</stp>
-        <tr r="U8" s="1"/>
-      </tp>
-      <tp>
-        <v>1.6597143700000001</v>
-        <stp/>
-        <stp>IVV</stp>
-        <stp>mtd percent change</stp>
-        <tr r="U3" s="1"/>
-      </tp>
-      <tp>
-        <v>-8.58685E-2</v>
-        <stp/>
-        <stp>IYR</stp>
-        <stp>mtd percent change</stp>
-        <tr r="U4" s="1"/>
-      </tp>
-      <tp>
-        <v>-0.52173913000000005</v>
-        <stp/>
-        <stp>IEV</stp>
-        <stp>mtd percent change</stp>
-        <tr r="U9" s="1"/>
-      </tp>
-      <tp>
-        <v>0.27629761000000003</v>
-        <stp/>
-        <stp>IEF</stp>
-        <stp>mtd percent change</stp>
-        <tr r="U11" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.837e2ef194634cc8be84be17451153bb">
-      <tp>
-        <v>5.0632910000000003E-2</v>
-        <stp/>
-        <stp>RWX</stp>
-        <stp>mtd percent change</stp>
-        <tr r="U6" s="1"/>
-      </tp>
-      <tp>
-        <v>7.2236939999999999E-2</v>
-        <stp/>
-        <stp>SHY</stp>
-        <stp>mtd percent change</stp>
-        <tr r="U12" s="1"/>
-      </tp>
-      <tp>
-        <v>0.29545838000000002</v>
-        <stp/>
-        <stp>TLT</stp>
-        <stp>mtd percent change</stp>
-        <tr r="U5" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.837e2ef194634cc8be84be17451153bb">
-      <tp>
-        <v>-2.035278154681221E-4</v>
-        <stp/>
-        <stp>ACWI</stp>
-        <stp>change in percent</stp>
-        <tr r="K22" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.837e2ef194634cc8be84be17451153bb">
-      <tp>
-        <v>5.9078377313905375E-4</v>
-        <stp/>
-        <stp>IEF</stp>
-        <stp>change in percent</stp>
-        <tr r="L11" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.837e2ef194634cc8be84be17451153bb">
-      <tp>
-        <v>0</v>
-        <stp/>
-        <stp>AGG</stp>
-        <stp>change in percent</stp>
-        <tr r="K23" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.837e2ef194634cc8be84be17451153bb">
-      <tp>
-        <v>-3.4907059952880967E-4</v>
-        <stp/>
-        <stp>GLD</stp>
-        <stp>change in percent</stp>
-        <tr r="L8" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.837e2ef194634cc8be84be17451153bb">
-      <tp>
-        <v>-8.6605080831408197E-3</v>
-        <stp/>
-        <stp>DBC</stp>
-        <stp>change in percent</stp>
-        <tr r="L2" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.837e2ef194634cc8be84be17451153bb">
-      <tp>
-        <v>-6.7689530685923057E-4</v>
-        <stp/>
-        <stp>EEM</stp>
-        <stp>change in percent</stp>
-        <tr r="L10" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.837e2ef194634cc8be84be17451153bb">
-      <tp>
-        <v>-1.7059024223811006E-4</v>
-        <stp/>
-        <stp>EWJ</stp>
-        <stp>change in percent</stp>
-        <tr r="L7" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.837e2ef194634cc8be84be17451153bb">
-      <tp>
-        <v>-1.3094718463553536E-3</v>
-        <stp/>
-        <stp>IEV</stp>
-        <stp>change in percent</stp>
-        <tr r="L9" s="1"/>
-      </tp>
-      <tp>
-        <v>3.6525550492211707E-4</v>
-        <stp/>
-        <stp>IVV</stp>
-        <stp>change in percent</stp>
-        <tr r="K24" s="1"/>
-        <tr r="L3" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.837e2ef194634cc8be84be17451153bb">
-      <tp>
-        <v>1.1797421420746694E-3</v>
-        <stp/>
-        <stp>TLT</stp>
-        <stp>change in percent</stp>
-        <tr r="L5" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.837e2ef194634cc8be84be17451153bb">
-      <tp>
-        <v>-5.1300842799560514E-3</v>
-        <stp/>
-        <stp>IYR</stp>
-        <stp>change in percent</stp>
-        <tr r="L4" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.837e2ef194634cc8be84be17451153bb">
-      <tp>
-        <v>5.0632911392412905E-4</v>
-        <stp/>
-        <stp>RWX</stp>
-        <stp>change in percent</stp>
-        <tr r="L6" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.837e2ef194634cc8be84be17451153bb">
-      <tp>
-        <v>1.2032246420412827E-4</v>
-        <stp/>
-        <stp>SHY</stp>
-        <stp>change in percent</stp>
-        <tr r="L12" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.837e2ef194634cc8be84be17451153bb">
-      <tp>
-        <v>517.48</v>
+        <v>526.24130000000002</v>
         <stp/>
         <stp>ISRG</stp>
         <stp>last</stp>
         <tr r="C8" s="4"/>
       </tp>
     </main>
-    <main first="rtdsrv.837e2ef194634cc8be84be17451153bb">
+    <main first="rtdsrv.c8521ef4ac614fa1809b0488ffe291a7">
+      <tp t="s">
+        <v>INVESCO DB COMMDY INDX TRCK-UNIT</v>
+        <stp/>
+        <stp>DBC</stp>
+        <stp>description</stp>
+        <tr r="B2" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.c8521ef4ac614fa1809b0488ffe291a7">
+      <tp t="s">
+        <v>ISHARES INC-MSCI JPN ETF NEW</v>
+        <stp/>
+        <stp>EWJ</stp>
+        <stp>description</stp>
+        <tr r="B7" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.c8521ef4ac614fa1809b0488ffe291a7">
+      <tp t="s">
+        <v>ISHARES TR-MSCI EMG MKT ETF</v>
+        <stp/>
+        <stp>EEM</stp>
+        <stp>description</stp>
+        <tr r="B10" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.c8521ef4ac614fa1809b0488ffe291a7">
       <tp>
-        <v>101.62</v>
+        <v>81.38</v>
+        <stp/>
+        <stp>IYR</stp>
+        <stp>close</stp>
+        <tr r="G4" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.c8521ef4ac614fa1809b0488ffe291a7">
+      <tp>
+        <v>83.15</v>
+        <stp/>
+        <stp>SHY</stp>
+        <stp>last</stp>
+        <tr r="J12" s="1"/>
+        <tr r="C23" s="4"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.c8521ef4ac614fa1809b0488ffe291a7">
+      <tp t="s">
+        <v>SPDR GOLD TRUST-GOLD SHS</v>
+        <stp/>
+        <stp>GLD</stp>
+        <stp>description</stp>
+        <tr r="B8" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.c8521ef4ac614fa1809b0488ffe291a7">
+      <tp>
+        <v>287.37</v>
+        <stp/>
+        <stp>IVV</stp>
+        <stp>close</stp>
+        <tr r="G3" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.c8521ef4ac614fa1809b0488ffe291a7">
+      <tp>
+        <v>119.2225</v>
+        <stp/>
+        <stp>TLT</stp>
+        <stp>last</stp>
+        <tr r="J5" s="1"/>
+      </tp>
+      <tp>
+        <v>114.96</v>
+        <stp/>
+        <stp>GLD</stp>
+        <stp>last</stp>
+        <tr r="J8" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.c8521ef4ac614fa1809b0488ffe291a7">
+      <tp>
+        <v>1899.1</v>
+        <stp/>
+        <stp>AMZN</stp>
+        <stp>last</stp>
+        <tr r="C6" s="4"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.c8521ef4ac614fa1809b0488ffe291a7">
+      <tp>
+        <v>118.79</v>
+        <stp/>
+        <stp>TLT</stp>
+        <stp>close</stp>
+        <tr r="G5" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.c8521ef4ac614fa1809b0488ffe291a7">
+      <tp>
+        <v>4.62</v>
+        <stp/>
+        <stp>IEV</stp>
+        <stp>dividend yield</stp>
+        <tr r="M9" s="1"/>
+      </tp>
+      <tp>
+        <v>2.36</v>
         <stp/>
         <stp>IEF</stp>
-        <stp>last</stp>
-        <tr r="J11" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.837e2ef194634cc8be84be17451153bb">
-      <tp>
-        <v>44.29</v>
-        <stp/>
-        <stp>EEM</stp>
-        <stp>last</stp>
-        <tr r="J10" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.837e2ef194634cc8be84be17451153bb">
-      <tp>
-        <v>45.76</v>
-        <stp/>
-        <stp>IEV</stp>
-        <stp>last</stp>
-        <tr r="J9" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.837e2ef194634cc8be84be17451153bb">
-      <tp>
-        <v>47.181800000000003</v>
-        <stp/>
-        <stp>QQQE</stp>
-        <stp>last</stp>
-        <tr r="C40" s="4"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.837e2ef194634cc8be84be17451153bb">
-      <tp>
-        <v>3.64</v>
-        <stp/>
-        <stp>RWX</stp>
         <stp>dividend yield</stp>
-        <tr r="M6" s="1"/>
-      </tp>
-      <tp>
-        <v>1.99</v>
-        <stp/>
-        <stp>SHY</stp>
-        <stp>dividend yield</stp>
-        <tr r="M12" s="1"/>
-      </tp>
-      <tp>
-        <v>2.7</v>
-        <stp/>
-        <stp>TLT</stp>
-        <stp>dividend yield</stp>
-        <tr r="M5" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>--</v>
-        <stp/>
-        <stp>DBC</stp>
-        <stp>dividend yield</stp>
-        <tr r="M2" s="1"/>
-      </tp>
-      <tp>
-        <v>1.57</v>
-        <stp/>
-        <stp>EWJ</stp>
-        <stp>dividend yield</stp>
-        <tr r="M7" s="1"/>
-      </tp>
-      <tp>
-        <v>1.31</v>
-        <stp/>
-        <stp>EEM</stp>
-        <stp>dividend yield</stp>
-        <tr r="M10" s="1"/>
+        <tr r="M11" s="1"/>
       </tp>
       <tp>
         <v>1.78</v>
@@ -1340,300 +1574,48 @@
         <tr r="M4" s="1"/>
       </tp>
       <tp>
-        <v>2.36</v>
+        <v>1.31</v>
         <stp/>
-        <stp>IEF</stp>
+        <stp>EEM</stp>
         <stp>dividend yield</stp>
-        <tr r="M11" s="1"/>
+        <tr r="M10" s="1"/>
       </tp>
       <tp>
-        <v>4.62</v>
+        <v>1.57</v>
         <stp/>
-        <stp>IEV</stp>
+        <stp>EWJ</stp>
         <stp>dividend yield</stp>
-        <tr r="M9" s="1"/>
+        <tr r="M7" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>--</v>
+        <stp/>
+        <stp>DBC</stp>
+        <stp>dividend yield</stp>
+        <tr r="M2" s="1"/>
       </tp>
     </main>
-    <main first="rtdsrv.837e2ef194634cc8be84be17451153bb">
-      <tp t="s">
-        <v>ARROW ETF TR-ARROW DJ GLB YLD</v>
-        <stp/>
-        <stp>GYLD</stp>
-        <stp>description</stp>
-        <tr r="L26" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.837e2ef194634cc8be84be17451153bb">
-      <tp t="s">
-        <v>SPDR GOLD TRUST-GOLD SHS</v>
-        <stp/>
-        <stp>GLD</stp>
-        <stp>description</stp>
-        <tr r="B8" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.837e2ef194634cc8be84be17451153bb">
+    <main first="rtdsrv.c8521ef4ac614fa1809b0488ffe291a7">
       <tp>
-        <v>38.413200000000003</v>
-        <stp/>
-        <stp>GAL</stp>
-        <stp>last</stp>
-        <tr r="C37" s="4"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.837e2ef194634cc8be84be17451153bb">
-      <tp>
-        <v>17.170000000000002</v>
-        <stp/>
-        <stp>DBC</stp>
-        <stp>last</stp>
-        <tr r="J2" s="1"/>
-        <tr r="C20" s="4"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.837e2ef194634cc8be84be17451153bb">
-      <tp t="s">
-        <v>ISHARES TR-MSCI EMG MKT ETF</v>
-        <stp/>
-        <stp>EEM</stp>
-        <stp>description</stp>
-        <tr r="B10" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.837e2ef194634cc8be84be17451153bb">
-      <tp t="s">
-        <v>ISHARES INC-MSCI JPN ETF NEW</v>
-        <stp/>
-        <stp>EWJ</stp>
-        <stp>description</stp>
-        <tr r="B7" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.837e2ef194634cc8be84be17451153bb">
-      <tp t="s">
-        <v>INVESCO DB COMMDY INDX TRCK-UNIT</v>
-        <stp/>
-        <stp>DBC</stp>
-        <stp>description</stp>
-        <tr r="B2" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.837e2ef194634cc8be84be17451153bb">
-      <tp>
-        <v>114.55</v>
-        <stp/>
-        <stp>GLD</stp>
-        <stp>last</stp>
-        <tr r="J8" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.837e2ef194634cc8be84be17451153bb">
-      <tp>
-        <v>118.81</v>
+        <v>2.7</v>
         <stp/>
         <stp>TLT</stp>
-        <stp>last</stp>
-        <tr r="J5" s="1"/>
+        <stp>dividend yield</stp>
+        <tr r="M5" s="1"/>
       </tp>
-    </main>
-    <main first="rtdsrv.837e2ef194634cc8be84be17451153bb">
       <tp>
-        <v>1885.1020000000001</v>
-        <stp/>
-        <stp>AMZN</stp>
-        <stp>last</stp>
-        <tr r="C6" s="4"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.837e2ef194634cc8be84be17451153bb">
-      <tp>
-        <v>118.67</v>
-        <stp/>
-        <stp>TLT</stp>
-        <stp>close</stp>
-        <tr r="G5" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.837e2ef194634cc8be84be17451153bb">
-      <tp t="s">
-        <v>ISHARES TR-EUROPE ETF</v>
-        <stp/>
-        <stp>IEV</stp>
-        <stp>description</stp>
-        <tr r="B9" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>ISHARES TR-BARCLAYS 7 10 YR</v>
-        <stp/>
-        <stp>IEF</stp>
-        <stp>description</stp>
-        <tr r="B11" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.837e2ef194634cc8be84be17451153bb">
-      <tp t="s">
-        <v>ISHARES TR-CORE S&amp;P500 ETF</v>
-        <stp/>
-        <stp>IVV</stp>
-        <stp>description</stp>
-        <tr r="B3" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.837e2ef194634cc8be84be17451153bb">
-      <tp t="s">
-        <v>ISHARES TR-U.S. REAL ES ETF</v>
-        <stp/>
-        <stp>IYR</stp>
-        <stp>description</stp>
-        <tr r="B4" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.837e2ef194634cc8be84be17451153bb">
-      <tp>
-        <v>287.47000000000003</v>
-        <stp/>
-        <stp>IVV</stp>
-        <stp>close</stp>
-        <tr r="G3" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.837e2ef194634cc8be84be17451153bb">
-      <tp>
-        <v>83.12</v>
+        <v>1.99</v>
         <stp/>
         <stp>SHY</stp>
-        <stp>last</stp>
-        <tr r="J12" s="1"/>
-        <tr r="C23" s="4"/>
+        <stp>dividend yield</stp>
+        <tr r="M12" s="1"/>
       </tp>
-    </main>
-    <main first="rtdsrv.837e2ef194634cc8be84be17451153bb">
       <tp>
-        <v>81.87</v>
-        <stp/>
-        <stp>IYR</stp>
-        <stp>close</stp>
-        <tr r="G4" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.837e2ef194634cc8be84be17451153bb">
-      <tp>
-        <v>43.66</v>
-        <stp/>
-        <stp>CSCO</stp>
-        <stp>last</stp>
-        <tr r="C7" s="4"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.837e2ef194634cc8be84be17451153bb">
-      <tp>
-        <v>52.89</v>
-        <stp/>
-        <stp>MU</stp>
-        <stp>last</stp>
-        <tr r="C9" s="4"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.837e2ef194634cc8be84be17451153bb">
-      <tp t="s">
-        <v>ISHARES TR-1 3 YR TREAS BD</v>
-        <stp/>
-        <stp>SHY</stp>
-        <stp>description</stp>
-        <tr r="B12" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.837e2ef194634cc8be84be17451153bb">
-      <tp>
-        <v>55.276000000000003</v>
-        <stp/>
-        <stp>STX</stp>
-        <stp>last</stp>
-        <tr r="C10" s="4"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.837e2ef194634cc8be84be17451153bb">
-      <tp t="s">
-        <v>SPDR INDEX SHS FDS-DJ INTL RL ETF</v>
+        <v>3.64</v>
         <stp/>
         <stp>RWX</stp>
-        <stp>description</stp>
-        <tr r="B6" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.837e2ef194634cc8be84be17451153bb">
-      <tp>
-        <v>287.57499999999999</v>
-        <stp/>
-        <stp>IVV</stp>
-        <stp>last</stp>
-        <tr r="J3" s="1"/>
-        <tr r="C21" s="4"/>
-        <tr r="C38" s="4"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.837e2ef194634cc8be84be17451153bb">
-      <tp>
-        <v>58.61</v>
-        <stp/>
-        <stp>EWJ</stp>
-        <stp>last</stp>
-        <tr r="J7" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.837e2ef194634cc8be84be17451153bb">
-      <tp>
-        <v>39.520000000000003</v>
-        <stp/>
-        <stp>RWX</stp>
-        <stp>last</stp>
-        <tr r="J6" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.837e2ef194634cc8be84be17451153bb">
-      <tp>
-        <v>365.29500000000002</v>
-        <stp/>
-        <stp>ALGN</stp>
-        <stp>last</stp>
-        <tr r="C5" s="4"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.837e2ef194634cc8be84be17451153bb">
-      <tp>
-        <v>182.11</v>
-        <stp/>
-        <stp>QQQ</stp>
-        <stp>last</stp>
-        <tr r="C39" s="4"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.837e2ef194634cc8be84be17451153bb">
-      <tp t="s">
-        <v>ISHARES TR-20 YR TR BD ETF</v>
-        <stp/>
-        <stp>TLT</stp>
-        <stp>description</stp>
-        <tr r="B5" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.837e2ef194634cc8be84be17451153bb">
-      <tp>
-        <v>81.45</v>
-        <stp/>
-        <stp>IYR</stp>
-        <stp>last</stp>
-        <tr r="J4" s="1"/>
-        <tr r="C22" s="4"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.837e2ef194634cc8be84be17451153bb">
-      <tp>
-        <v>17.32</v>
-        <stp/>
-        <stp>DBC</stp>
-        <stp>close</stp>
-        <tr r="G2" s="1"/>
+        <stp>dividend yield</stp>
+        <tr r="M6" s="1"/>
       </tp>
     </main>
   </volType>
@@ -1907,7 +1889,7 @@
   <dimension ref="A1:V46"/>
   <sheetViews>
     <sheetView topLeftCell="A11" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D35" sqref="D35"/>
+      <selection activeCell="R25" sqref="R25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2007,34 +1989,34 @@
       </c>
       <c r="E2" s="5">
         <f>G2/D2-1</f>
-        <v>-2.8430251248946714E-2</v>
+        <v>-4.0210253976297849E-2</v>
       </c>
       <c r="F2" s="5">
         <f>I2/$I$21</f>
-        <v>0.15192906733917794</v>
+        <v>0.15055309524357086</v>
       </c>
       <c r="G2" s="4">
         <f>_xll.RealtimeData(A2,"Close")</f>
-        <v>17.32</v>
+        <v>17.11</v>
       </c>
       <c r="H2" s="4">
         <v>176</v>
       </c>
       <c r="I2" s="4">
         <f>H2*G2</f>
-        <v>3048.32</v>
+        <v>3011.3599999999997</v>
       </c>
       <c r="J2" s="4">
         <f>_xll.RealtimeData(A2,"Last")</f>
-        <v>17.170000000000002</v>
+        <v>17.16</v>
       </c>
       <c r="K2" s="5">
         <f>J2/D2-1</f>
-        <v>-3.6844538911340208E-2</v>
+        <v>-3.7405491422166537E-2</v>
       </c>
       <c r="L2" s="8">
         <f>_xll.RealtimeData(A2,"Change in Percent")</f>
-        <v>-8.6605080831408197E-3</v>
+        <v>2.922267679719503E-3</v>
       </c>
       <c r="M2" s="29" t="str">
         <f>_xll.RealtimeData(A2,"Dividend Yield")</f>
@@ -2049,7 +2031,7 @@
       </c>
       <c r="P2" s="60">
         <f t="shared" ref="P2:P12" si="1">O2-F2</f>
-        <v>-9.9290673391779494E-3</v>
+        <v>-8.5530952435708685E-3</v>
       </c>
       <c r="Q2" s="31">
         <f>O2*Daily!$D$68</f>
@@ -2057,11 +2039,11 @@
       </c>
       <c r="R2">
         <f t="shared" ref="R2:R11" si="2">ROUND(Q2/J2,0)</f>
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="S2">
         <f t="shared" ref="S2:S11" si="3">R2-H2</f>
-        <v>-12</v>
+        <v>-11</v>
       </c>
       <c r="T2" t="str">
         <f t="shared" ref="T2:T12" si="4">A2</f>
@@ -2069,7 +2051,7 @@
       </c>
       <c r="U2">
         <f>_xll.RealtimeData(T2,"MTD Percent Change")</f>
-        <v>1</v>
+        <v>0.94117647000000004</v>
       </c>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.25">
@@ -2088,34 +2070,34 @@
       </c>
       <c r="E3" s="5">
         <f>G3/D3-1</f>
-        <v>7.9255667622142312E-2</v>
+        <v>7.888023517088727E-2</v>
       </c>
       <c r="F3" s="5">
         <f>I3/$I$21</f>
-        <v>0.41549982306707006</v>
+        <v>0.41664525212004005</v>
       </c>
       <c r="G3" s="4">
         <f>_xll.RealtimeData(A3,"Close")</f>
-        <v>287.47000000000003</v>
+        <v>287.37</v>
       </c>
       <c r="H3" s="4">
         <v>29</v>
       </c>
       <c r="I3" s="4">
         <f>H3*G3</f>
-        <v>8336.630000000001</v>
+        <v>8333.73</v>
       </c>
       <c r="J3" s="4">
         <f>_xll.RealtimeData(A3,"Last")</f>
-        <v>287.57499999999999</v>
+        <v>287.95</v>
       </c>
       <c r="K3" s="5">
         <f>J3/D3-1</f>
-        <v>7.9649871695959717E-2</v>
+        <v>8.1057743388165182E-2</v>
       </c>
       <c r="L3" s="8">
         <f>_xll.RealtimeData(A3,"Change in Percent")</f>
-        <v>3.6525550492211707E-4</v>
+        <v>2.0183039287329364E-3</v>
       </c>
       <c r="M3" s="29">
         <f>_xll.RealtimeData(A3,"Dividend Yield")</f>
@@ -2130,7 +2112,7 @@
       </c>
       <c r="P3" s="60">
         <f t="shared" si="1"/>
-        <v>-4.949982306707007E-2</v>
+        <v>-5.0645252120040063E-2</v>
       </c>
       <c r="Q3" s="31">
         <f>O3*Daily!$D$68</f>
@@ -2150,7 +2132,7 @@
       </c>
       <c r="U3">
         <f>_xll.RealtimeData(T3,"MTD Percent Change")</f>
-        <v>1.6597143700000001</v>
+        <v>1.7922794099999999</v>
       </c>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.25">
@@ -2169,34 +2151,34 @@
       </c>
       <c r="E4" s="5">
         <f>G4/D4-1</f>
-        <v>4.3860767563432379E-2</v>
+        <v>3.7613158230268784E-2</v>
       </c>
       <c r="F4" s="5">
         <f>I4/$I$21</f>
-        <v>0.22034280132176376</v>
+        <v>0.21970424927932128</v>
       </c>
       <c r="G4" s="4">
         <f>_xll.RealtimeData(A4,"Close")</f>
-        <v>81.87</v>
+        <v>81.38</v>
       </c>
       <c r="H4" s="4">
         <v>54</v>
       </c>
       <c r="I4" s="4">
         <f>H4*G4</f>
-        <v>4420.9800000000005</v>
+        <v>4394.5199999999995</v>
       </c>
       <c r="J4" s="4">
         <f>_xll.RealtimeData(A4,"Last")</f>
-        <v>81.45</v>
+        <v>81.53</v>
       </c>
       <c r="K4" s="5">
         <f>J4/D4-1</f>
-        <v>3.8505673849292377E-2</v>
+        <v>3.9525691699604737E-2</v>
       </c>
       <c r="L4" s="8">
         <f t="array" ref="L4">_xll.RealtimeData(A4,"Change in Percent")</f>
-        <v>-5.1300842799560514E-3</v>
+        <v>1.8432047186041534E-3</v>
       </c>
       <c r="M4" s="29">
         <f>_xll.RealtimeData(A4,"Dividend Yield")</f>
@@ -2211,7 +2193,7 @@
       </c>
       <c r="P4" s="60">
         <f t="shared" si="1"/>
-        <v>0.17265719867823626</v>
+        <v>0.17329575072067874</v>
       </c>
       <c r="Q4" s="31">
         <f>O4*Daily!$D$68</f>
@@ -2231,7 +2213,7 @@
       </c>
       <c r="U4">
         <f>_xll.RealtimeData(T4,"MTD Percent Change")</f>
-        <v>-8.58685E-2</v>
+        <v>1.2266930000000001E-2</v>
       </c>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.25">
@@ -2250,34 +2232,34 @@
       </c>
       <c r="E5" s="5">
         <f>G5/D5-1</f>
-        <v>-2.9631919197866119E-2</v>
+        <v>-2.8650675667940662E-2</v>
       </c>
       <c r="F5" s="5">
         <f>I5/$I$21</f>
-        <v>0.20700903603949339</v>
+        <v>0.2078619216697547</v>
       </c>
       <c r="G5" s="4">
         <f>_xll.RealtimeData(A5,"Close")</f>
-        <v>118.67</v>
+        <v>118.79</v>
       </c>
       <c r="H5" s="4">
         <v>35</v>
       </c>
       <c r="I5" s="4">
         <f>H5*G5</f>
-        <v>4153.45</v>
+        <v>4157.6500000000005</v>
       </c>
       <c r="J5" s="31">
         <f>_xll.RealtimeData(A5,"Last")</f>
-        <v>118.81</v>
+        <v>119.2225</v>
       </c>
       <c r="K5" s="5">
         <f>J5/D5-1</f>
-        <v>-2.8487135079619752E-2</v>
+        <v>-2.5114110445500937E-2</v>
       </c>
       <c r="L5" s="8">
         <f t="array" ref="L5">_xll.RealtimeData(A5,"Change in Percent")</f>
-        <v>1.1797421420746694E-3</v>
+        <v>3.6408788618569744E-3</v>
       </c>
       <c r="M5" s="29">
         <f>_xll.RealtimeData(A5,"Dividend Yield")</f>
@@ -2292,7 +2274,7 @@
       </c>
       <c r="P5" s="60">
         <f t="shared" si="1"/>
-        <v>-0.20700903603949339</v>
+        <v>-0.2078619216697547</v>
       </c>
       <c r="Q5" s="31">
         <f>O5*Daily!$D$68</f>
@@ -2312,7 +2294,7 @@
       </c>
       <c r="U5">
         <f>_xll.RealtimeData(T5,"MTD Percent Change")</f>
-        <v>0.29545838000000002</v>
+        <v>0.64367719000000001</v>
       </c>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.25">
@@ -2332,12 +2314,12 @@
       <c r="I6" s="4"/>
       <c r="J6" s="31">
         <f>_xll.RealtimeData(A6,"Last")</f>
-        <v>39.520000000000003</v>
+        <v>39.42</v>
       </c>
       <c r="K6" s="5"/>
       <c r="L6" s="8">
         <f>_xll.RealtimeData(A6,"Change in Percent")</f>
-        <v>5.0632911392412905E-4</v>
+        <v>-1.266784899923922E-3</v>
       </c>
       <c r="M6" s="29">
         <f>_xll.RealtimeData(A6,"Dividend Yield")</f>
@@ -2372,7 +2354,7 @@
       </c>
       <c r="U6">
         <f>_xll.RealtimeData(T6,"MTD Percent Change")</f>
-        <v>5.0632910000000003E-2</v>
+        <v>-0.20253165000000001</v>
       </c>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.25">
@@ -2392,12 +2374,12 @@
       <c r="I7" s="4"/>
       <c r="J7" s="31">
         <f>_xll.RealtimeData(A7,"Last")</f>
-        <v>58.61</v>
+        <v>58.55</v>
       </c>
       <c r="K7" s="5"/>
       <c r="L7" s="8">
         <f>_xll.RealtimeData(A7,"Change in Percent")</f>
-        <v>-1.7059024223811006E-4</v>
+        <v>-1.7076502732249146E-4</v>
       </c>
       <c r="M7" s="29">
         <f>_xll.RealtimeData(A7,"Dividend Yield")</f>
@@ -2432,7 +2414,7 @@
       </c>
       <c r="U7">
         <f>_xll.RealtimeData(T7,"MTD Percent Change")</f>
-        <v>-0.50925140000000002</v>
+        <v>-0.61110167999999998</v>
       </c>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.25">
@@ -2452,12 +2434,12 @@
       <c r="I8" s="4"/>
       <c r="J8" s="31">
         <f>_xll.RealtimeData(A8,"Last")</f>
-        <v>114.55</v>
+        <v>114.96</v>
       </c>
       <c r="K8" s="5"/>
       <c r="L8" s="8">
         <f>_xll.RealtimeData(A8,"Change in Percent")</f>
-        <v>-3.4907059952880967E-4</v>
+        <v>4.3512313984855281E-4</v>
       </c>
       <c r="M8" s="29">
         <v>0</v>
@@ -2491,7 +2473,7 @@
       </c>
       <c r="U8">
         <f>_xll.RealtimeData(T8,"MTD Percent Change")</f>
-        <v>-0.51241966000000005</v>
+        <v>-0.15633142</v>
       </c>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.25">
@@ -2511,12 +2493,12 @@
       <c r="I9" s="4"/>
       <c r="J9" s="31">
         <f>_xll.RealtimeData(A9,"Last")</f>
-        <v>45.76</v>
+        <v>45.77</v>
       </c>
       <c r="K9" s="5"/>
       <c r="L9" s="8">
         <f>_xll.RealtimeData(A9,"Change in Percent")</f>
-        <v>-1.3094718463553536E-3</v>
+        <v>6.5588106689989283E-4</v>
       </c>
       <c r="M9" s="29">
         <f>_xll.RealtimeData(A9,"Dividend Yield")</f>
@@ -2551,7 +2533,7 @@
       </c>
       <c r="U9">
         <f>_xll.RealtimeData(T9,"MTD Percent Change")</f>
-        <v>-0.52173913000000005</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.25">
@@ -2565,12 +2547,12 @@
       <c r="G10" s="4"/>
       <c r="J10" s="31">
         <f>_xll.RealtimeData(A10,"Last")</f>
-        <v>44.29</v>
+        <v>44.39</v>
       </c>
       <c r="K10" s="5"/>
       <c r="L10" s="8">
         <f t="array" ref="L10">_xll.RealtimeData(A10,"Change in Percent")</f>
-        <v>-6.7689530685923057E-4</v>
+        <v>2.9371893357434029E-3</v>
       </c>
       <c r="M10" s="29">
         <f>_xll.RealtimeData(A10,"Dividend Yield")</f>
@@ -2605,7 +2587,7 @@
       </c>
       <c r="U10">
         <f>_xll.RealtimeData(T10,"MTD Percent Change")</f>
-        <v>-0.38236617000000001</v>
+        <v>-0.15744489</v>
       </c>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.25">
@@ -2619,12 +2601,12 @@
       <c r="G11" s="4"/>
       <c r="J11" s="31">
         <f>_xll.RealtimeData(A11,"Last")</f>
-        <v>101.62</v>
+        <v>101.81</v>
       </c>
       <c r="K11" s="5"/>
       <c r="L11" s="8">
         <f t="array" ref="L11">_xll.RealtimeData(A11,"Change in Percent")</f>
-        <v>5.9078377313905375E-4</v>
+        <v>1.5740285292670634E-3</v>
       </c>
       <c r="M11" s="29">
         <f>_xll.RealtimeData(A11,"Dividend Yield")</f>
@@ -2659,7 +2641,7 @@
       </c>
       <c r="U11">
         <f>_xll.RealtimeData(T11,"MTD Percent Change")</f>
-        <v>0.27629761000000003</v>
+        <v>0.46378528000000002</v>
       </c>
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.25">
@@ -2672,11 +2654,11 @@
       </c>
       <c r="J12" s="31">
         <f>_xll.RealtimeData(A12,"Last")</f>
-        <v>83.12</v>
+        <v>83.15</v>
       </c>
       <c r="L12" s="8">
         <f t="array" ref="L12">_xll.RealtimeData(A12,"Change in Percent")</f>
-        <v>1.2032246420412827E-4</v>
+        <v>3.6092396535131253E-4</v>
       </c>
       <c r="M12" s="29">
         <f>_xll.RealtimeData(A12,"Dividend Yield")</f>
@@ -2711,7 +2693,7 @@
       </c>
       <c r="U12">
         <f>_xll.RealtimeData(T12,"MTD Percent Change")</f>
-        <v>7.2236939999999999E-2</v>
+        <v>0.10835541</v>
       </c>
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.25">
@@ -2728,11 +2710,11 @@
     <row r="14" spans="1:22" x14ac:dyDescent="0.25">
       <c r="U14" s="29">
         <f t="array" ref="U14">MMULT(TRANSPOSE(O2:O12),U2:U12)</f>
-        <v>0.72286059597999996</v>
+        <v>0.80516941187999991</v>
       </c>
       <c r="V14" s="8">
         <f>U14*0.01</f>
-        <v>7.2286059597999998E-3</v>
+        <v>8.0516941187999992E-3</v>
       </c>
     </row>
     <row r="19" spans="5:16" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
@@ -2742,7 +2724,7 @@
       </c>
       <c r="F20" s="11">
         <f>SUM(F2:F5)</f>
-        <v>0.99478072776750515</v>
+        <v>0.99476451831268686</v>
       </c>
       <c r="H20" s="2" t="s">
         <v>14</v>
@@ -2761,32 +2743,32 @@
       </c>
       <c r="F21" s="11">
         <f>1-F20</f>
-        <v>5.2192722324948537E-3</v>
+        <v>5.2354816873131371E-3</v>
       </c>
       <c r="H21" s="2" t="s">
         <v>16</v>
       </c>
       <c r="I21" s="6">
         <f>SUM(I2:I20)</f>
-        <v>20064.100000000002</v>
+        <v>20001.980000000003</v>
       </c>
       <c r="J21" t="s">
         <v>33</v>
       </c>
       <c r="K21" s="8">
         <f>SUMPRODUCT(K2:K7,F2:F7)</f>
-        <v>3.0084104834020471E-2</v>
+        <v>3.1604506581408849E-2</v>
       </c>
       <c r="M21" t="s">
         <v>34</v>
       </c>
       <c r="N21" s="8">
         <f t="array" ref="N21">MMULT(TRANSPOSE(F2:F5),L2:L5)</f>
-        <v>-2.0501791757417988E-3</v>
+        <v>2.4426331793152289E-3</v>
       </c>
       <c r="P21" s="8">
         <f t="array" ref="P21">SUMPRODUCT(L2:L12,O2:O12)</f>
-        <v>-3.1003198310710208E-3</v>
+        <v>1.9137721754176364E-3</v>
       </c>
     </row>
     <row r="22" spans="5:16" x14ac:dyDescent="0.25">
@@ -2801,7 +2783,7 @@
       </c>
       <c r="K22" s="8">
         <f>_xll.RealtimeData(J22,"Change in Percent")</f>
-        <v>-2.035278154681221E-4</v>
+        <v>1.3688780355448379E-3</v>
       </c>
       <c r="L22" s="12">
         <v>0.6</v>
@@ -2813,7 +2795,7 @@
       </c>
       <c r="K23" s="8">
         <f>_xll.RealtimeData(J23,"Change in Percent")</f>
-        <v>0</v>
+        <v>1.0080302314596505E-3</v>
       </c>
       <c r="L23" s="12">
         <v>0.4</v>
@@ -2825,7 +2807,7 @@
       </c>
       <c r="K24" s="8">
         <f>_xll.RealtimeData(J24,"Change in Percent")</f>
-        <v>3.6525550492211707E-4</v>
+        <v>2.0183039287329364E-3</v>
       </c>
     </row>
     <row r="25" spans="5:16" x14ac:dyDescent="0.25">
@@ -2834,7 +2816,7 @@
       </c>
       <c r="K25" s="8">
         <f t="array" ref="K25">SUMPRODUCT(K22:K23,L22:L23)</f>
-        <v>-1.2211668928087326E-4</v>
+        <v>1.2245389139107629E-3</v>
       </c>
     </row>
     <row r="26" spans="5:16" x14ac:dyDescent="0.25">
@@ -2843,14 +2825,14 @@
       </c>
       <c r="I26" s="6">
         <f>SUM(I2:I18)</f>
-        <v>19959.38</v>
+        <v>19897.260000000002</v>
       </c>
       <c r="J26" t="s">
         <v>56</v>
       </c>
       <c r="K26" s="8">
         <f>_xll.RealtimeData(J26,"Change in Percent")</f>
-        <v>5.656108597285125E-3</v>
+        <v>-5.0761421319796898E-3</v>
       </c>
       <c r="L26" t="str">
         <f>_xll.RealtimeData(J26,"Description")</f>
@@ -2863,7 +2845,7 @@
       </c>
       <c r="K27" s="8">
         <f>AVERAGE(L2:L11)</f>
-        <v>-1.3654509824018407E-3</v>
+        <v>1.4589327333426067E-3</v>
       </c>
     </row>
     <row r="28" spans="5:16" x14ac:dyDescent="0.25">
@@ -2872,7 +2854,7 @@
       </c>
       <c r="K28" s="8">
         <f>SUMPRODUCT(F2:F7,M2:M7)*0.01</f>
-        <v>1.4064820550136812E-2</v>
+        <v>1.4105108194288766E-2</v>
       </c>
       <c r="L28" t="s">
         <v>65</v>
@@ -2885,7 +2867,7 @@
     <row r="29" spans="5:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="30" spans="5:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H30" s="30">
-        <v>43319</v>
+        <v>43320</v>
       </c>
       <c r="I30" s="15" t="s">
         <v>61</v>
@@ -2906,19 +2888,19 @@
       </c>
       <c r="I31" s="21">
         <f>$N$21</f>
-        <v>-2.0501791757417988E-3</v>
+        <v>2.4426331793152289E-3</v>
       </c>
       <c r="J31" s="21">
         <f>LOOKUP(2,1/(Daily!E:E&lt;&gt;""),Daily!E:E)</f>
-        <v>-3.3668471564133329E-3</v>
+        <v>1.2018238089255284E-3</v>
       </c>
       <c r="K31" s="22">
         <f>VLOOKUP($H$30,Daily!$A:$AF,7,0)</f>
-        <v>6.5300105399139774E-3</v>
+        <v>7.739682270978987E-3</v>
       </c>
       <c r="L31" s="23">
         <f>VLOOKUP($H$30,Daily!$A:$AF,8,0)</f>
-        <v>-1.1014999999998665E-3</v>
+        <v>9.9000000000071253E-5</v>
       </c>
     </row>
     <row r="32" spans="5:16" x14ac:dyDescent="0.25">
@@ -2927,19 +2909,19 @@
       </c>
       <c r="I32" s="24">
         <f>$K$25</f>
-        <v>-1.2211668928087326E-4</v>
+        <v>1.2245389139107629E-3</v>
       </c>
       <c r="J32" s="24">
         <f>LOOKUP(2,1/(Daily!M:M&lt;&gt;""),Daily!M:M)</f>
-        <v>2.0640963040633674E-3</v>
+        <v>8.141112618722523E-5</v>
       </c>
       <c r="K32" s="14">
         <f>VLOOKUP($H$30,Daily!$A:$AF,25,0)</f>
-        <v>2.0770348177892251E-2</v>
+        <v>2.0853450241516081E-2</v>
       </c>
       <c r="L32" s="25">
         <f>VLOOKUP($H$30,Daily!$A:$AF,31,0)</f>
-        <v>1.4909969171992055E-2</v>
+        <v>1.4992594135561088E-2</v>
       </c>
     </row>
     <row r="33" spans="8:18" x14ac:dyDescent="0.25">
@@ -2948,19 +2930,19 @@
       </c>
       <c r="I33" s="24">
         <f>$K$24</f>
-        <v>3.6525550492211707E-4</v>
+        <v>2.0183039287329364E-3</v>
       </c>
       <c r="J33" s="24">
         <f>LOOKUP(2,1/(Daily!L:L&lt;&gt;""),Daily!L:L)</f>
-        <v>2.8606314320602788E-3</v>
+        <v>-3.4786238564032956E-4</v>
       </c>
       <c r="K33" s="14">
         <f>VLOOKUP($H$30,Daily!$A:$AF,24,0)</f>
-        <v>5.2810840505401746E-2</v>
+        <v>5.2444607214795713E-2</v>
       </c>
       <c r="L33" s="25">
         <f>VLOOKUP($H$30,Daily!$A:$AF,30,0)</f>
-        <v>7.9553775118956116E-2</v>
+        <v>7.917823896731635E-2</v>
       </c>
     </row>
     <row r="34" spans="8:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2969,19 +2951,19 @@
       </c>
       <c r="I34" s="26">
         <f>$K$26</f>
-        <v>5.656108597285125E-3</v>
+        <v>-5.0761421319796898E-3</v>
       </c>
       <c r="J34" s="26">
         <f>LOOKUP(2,1/(Daily!N:N&lt;&gt;""),Daily!N:N)</f>
-        <v>1.1325028312569874E-3</v>
+        <v>2.8280542986425239E-3</v>
       </c>
       <c r="K34" s="27">
         <f>VLOOKUP($H$30,Daily!$A:$AF,26,0)</f>
-        <v>1.6091954022988686E-2</v>
+        <v>1.8965517241379404E-2</v>
       </c>
       <c r="L34" s="28">
         <f>VLOOKUP($H$30,Daily!$A:$AF,32,0)</f>
-        <v>2.5357740602259149E-2</v>
+        <v>2.8257507968215689E-2</v>
       </c>
     </row>
     <row r="35" spans="8:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -3016,7 +2998,7 @@
       </c>
       <c r="I37" s="46">
         <f>AVERAGE(Daily!E$3:E380)</f>
-        <v>-3.3586273287622106E-6</v>
+        <v>1.3858264617727656E-5</v>
       </c>
       <c r="J37" s="44"/>
       <c r="K37" s="22"/>
@@ -3024,23 +3006,23 @@
       <c r="M37" s="50"/>
       <c r="N37" s="38">
         <f>AVERAGE(Daily!J$3:J380)</f>
-        <v>3.5881890795098892E-4</v>
+        <v>3.5563128369900398E-4</v>
       </c>
       <c r="O37" s="22">
         <f>AVERAGE(Daily!K$3:K380)</f>
-        <v>1.3922856108751321E-5</v>
+        <v>1.3723958164340587E-5</v>
       </c>
       <c r="P37" s="22">
         <f>AVERAGE(Daily!L$3:L380)</f>
-        <v>1.1269554414813654E-3</v>
+        <v>1.1058866153796267E-3</v>
       </c>
       <c r="Q37" s="22">
         <f>AVERAGE(Daily!M$3:M380)</f>
-        <v>2.2086048721409385E-4</v>
+        <v>2.1886835348513859E-4</v>
       </c>
       <c r="R37" s="23">
         <f>AVERAGE(Daily!N$3:N380)</f>
-        <v>3.954067915191361E-4</v>
+        <v>4.3015889876375589E-4</v>
       </c>
     </row>
     <row r="38" spans="8:18" x14ac:dyDescent="0.25">
@@ -3049,7 +3031,7 @@
       </c>
       <c r="I38" s="47">
         <f>STDEV(Daily!E$3:E380)</f>
-        <v>5.0577016885652182E-3</v>
+        <v>5.0229837953902016E-3</v>
       </c>
       <c r="J38" s="45"/>
       <c r="K38" s="14"/>
@@ -3057,23 +3039,23 @@
       <c r="M38" s="51"/>
       <c r="N38" s="40">
         <f>STDEV(Daily!J$3:J380)</f>
-        <v>6.1213821536002747E-3</v>
+        <v>6.0769209420381181E-3</v>
       </c>
       <c r="O38" s="14">
         <f>STDEV(Daily!K$3:K380)</f>
-        <v>1.7914487310597524E-3</v>
+        <v>1.7784206186656198E-3</v>
       </c>
       <c r="P38" s="14">
         <f>STDEV(Daily!L$3:L380)</f>
-        <v>5.8639362604379613E-3</v>
+        <v>5.8239571569626879E-3</v>
       </c>
       <c r="Q38" s="14">
         <f>STDEV(Daily!M$3:M380)</f>
-        <v>3.5874621670105053E-3</v>
+        <v>3.5614101886676805E-3</v>
       </c>
       <c r="R38" s="25">
         <f>STDEV(Daily!N$3:N380)</f>
-        <v>8.1118091330334013E-3</v>
+        <v>8.0580607389400243E-3</v>
       </c>
     </row>
     <row r="39" spans="8:18" x14ac:dyDescent="0.25">
@@ -3082,7 +3064,7 @@
       </c>
       <c r="I39" s="48">
         <f>COUNTIF(Daily!E$3:E380,"&gt;0")</f>
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J39" s="45"/>
       <c r="K39" s="14"/>
@@ -3090,7 +3072,7 @@
       <c r="M39" s="51"/>
       <c r="N39" s="41">
         <f>COUNTIF(Daily!J$3:J380,"&gt;0")</f>
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="O39" s="33">
         <f>COUNTIF(Daily!K$3:K380,"&gt;0")</f>
@@ -3102,11 +3084,11 @@
       </c>
       <c r="Q39" s="33">
         <f>COUNTIF(Daily!M$3:M380,"&gt;0")</f>
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="R39" s="35">
         <f>COUNTIF(Daily!N$3:N380,"&gt;0")</f>
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="40" spans="8:18" x14ac:dyDescent="0.25">
@@ -3115,7 +3097,7 @@
       </c>
       <c r="I40" s="47">
         <f>SUMIF(Daily!E$3:E380,"&gt;0")</f>
-        <v>0.12857105398003066</v>
+        <v>0.12977287778895619</v>
       </c>
       <c r="J40" s="45"/>
       <c r="K40" s="14"/>
@@ -3123,7 +3105,7 @@
       <c r="M40" s="51"/>
       <c r="N40" s="40">
         <f>SUMIF(Daily!J$3:J380,"&gt;0")</f>
-        <v>0.17542992070108321</v>
+        <v>0.17556560591139525</v>
       </c>
       <c r="O40" s="14">
         <f>SUMIF(Daily!K$3:K380,"&gt;0")</f>
@@ -3135,11 +3117,11 @@
       </c>
       <c r="Q40" s="14">
         <f>SUMIF(Daily!M$3:M380,"&gt;0")</f>
-        <v>0.10314608985556732</v>
+        <v>0.10322750098175455</v>
       </c>
       <c r="R40" s="25">
         <f>SUMIF(Daily!N$3:N380,"&gt;0")</f>
-        <v>0.23054367253914801</v>
+        <v>0.23337172683779053</v>
       </c>
     </row>
     <row r="41" spans="8:18" x14ac:dyDescent="0.25">
@@ -3164,7 +3146,7 @@
       </c>
       <c r="P41" s="14">
         <f>SUMIF(Daily!L$3:L380,"&lt;0")</f>
-        <v>-0.12390186245204478</v>
+        <v>-0.12424972483768511</v>
       </c>
       <c r="Q41" s="14">
         <f>SUMIF(Daily!M$3:M380,"&lt;0")</f>
@@ -3181,7 +3163,7 @@
       </c>
       <c r="I42" s="48">
         <f>COUNT(Daily!E$3:E380)</f>
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="J42" s="45"/>
       <c r="K42" s="14"/>
@@ -3189,23 +3171,23 @@
       <c r="M42" s="51"/>
       <c r="N42" s="41">
         <f>COUNT(Daily!J$3:J380)</f>
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="O42" s="33">
         <f>COUNT(Daily!K$3:K380)</f>
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="P42" s="33">
         <f>COUNT(Daily!L$3:L380)</f>
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="Q42" s="33">
         <f>COUNT(Daily!M$3:M380)</f>
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="R42" s="35">
         <f>COUNT(Daily!N$3:N380)</f>
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="43" spans="8:18" x14ac:dyDescent="0.25">
@@ -3226,11 +3208,11 @@
       </c>
       <c r="O43" s="33">
         <f>O42-O39</f>
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="P43" s="33">
         <f>P42-P39</f>
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="Q43" s="33">
         <f>Q42-Q39</f>
@@ -3247,7 +3229,7 @@
       </c>
       <c r="I44" s="49">
         <f>(I40/I41)*(I39/I43)*-1</f>
-        <v>1.2976610068018128</v>
+        <v>1.3433753358236642</v>
       </c>
       <c r="J44" s="45"/>
       <c r="K44" s="14"/>
@@ -3255,23 +3237,23 @@
       <c r="M44" s="51"/>
       <c r="N44" s="42">
         <f>(N40/N41)*(N39/N43)*-1</f>
-        <v>1.1985659190209796</v>
+        <v>1.2337641695070358</v>
       </c>
       <c r="O44" s="34">
         <f>(O40/O41)*(O39/O43)*-1</f>
-        <v>1.0504767113497246</v>
+        <v>1.0204630910254469</v>
       </c>
       <c r="P44" s="34">
         <f>(P40/P41)*(P39/P43)*-1</f>
-        <v>2.383260988303987</v>
+        <v>2.2946372344460482</v>
       </c>
       <c r="Q44" s="34">
         <f>(Q40/Q41)*(Q39/Q43)*-1</f>
-        <v>1.3566957281498768</v>
+        <v>1.3944629336879948</v>
       </c>
       <c r="R44" s="36">
         <f>(R40/R41)*(R39/R43)*-1</f>
-        <v>1.5644510855934295</v>
+        <v>1.6232330888179249</v>
       </c>
     </row>
     <row r="45" spans="8:18" x14ac:dyDescent="0.25">
@@ -3280,7 +3262,7 @@
       </c>
       <c r="I45" s="62">
         <f>I39/I42</f>
-        <v>0.56521739130434778</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="J45" s="63"/>
       <c r="K45" s="64"/>
@@ -3288,23 +3270,23 @@
       <c r="M45" s="66"/>
       <c r="N45" s="67">
         <f>N39/N42</f>
-        <v>0.50724637681159424</v>
+        <v>0.51428571428571423</v>
       </c>
       <c r="O45" s="64">
         <f>O39/O42</f>
-        <v>0.50724637681159424</v>
+        <v>0.5</v>
       </c>
       <c r="P45" s="64">
         <f>P39/P42</f>
-        <v>0.59420289855072461</v>
+        <v>0.58571428571428574</v>
       </c>
       <c r="Q45" s="64">
         <f>Q39/Q42</f>
-        <v>0.53623188405797106</v>
+        <v>0.54285714285714282</v>
       </c>
       <c r="R45" s="68">
         <f>R39/R42</f>
-        <v>0.57971014492753625</v>
+        <v>0.58571428571428574</v>
       </c>
     </row>
     <row r="46" spans="8:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3355,10 +3337,10 @@
   <dimension ref="A1:AN72"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B49" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="L49" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E85" sqref="E85"/>
+      <selection pane="bottomRight" activeCell="V83" sqref="V83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9374,7 +9356,7 @@
         <v>43291</v>
       </c>
       <c r="B51" s="4">
-        <f t="shared" ref="B51:B71" si="812">D51-C51</f>
+        <f t="shared" ref="B51:B72" si="812">D51-C51</f>
         <v>19902.79</v>
       </c>
       <c r="C51" s="4">
@@ -12226,7 +12208,140 @@
       </c>
     </row>
     <row r="72" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="B72" s="4"/>
+      <c r="A72" s="9">
+        <v>43320</v>
+      </c>
+      <c r="B72" s="4">
+        <f t="shared" si="812"/>
+        <v>19897.259999999998</v>
+      </c>
+      <c r="C72" s="4">
+        <v>104.72</v>
+      </c>
+      <c r="D72" s="4">
+        <f>20007.38-5.4</f>
+        <v>20001.98</v>
+      </c>
+      <c r="E72" s="5">
+        <f t="shared" ref="E72" si="1258">D72/D71-1</f>
+        <v>1.2018238089255284E-3</v>
+      </c>
+      <c r="F72" s="10">
+        <f t="shared" ref="F72" si="1259">F71*(1+E72)</f>
+        <v>100.00990000000002</v>
+      </c>
+      <c r="G72" s="5">
+        <f t="shared" ref="G72" si="1260">F72/F$45-1</f>
+        <v>7.739682270978987E-3</v>
+      </c>
+      <c r="H72" s="8">
+        <f t="shared" ref="H72" si="1261">F72/$F$2-1</f>
+        <v>9.9000000000071253E-5</v>
+      </c>
+      <c r="J72" s="11">
+        <f>VLOOKUP($A72,Prices!$A:$J,MATCH(J$1,Prices!$1:$1,0),0)</f>
+        <v>1.3568521031204206E-4</v>
+      </c>
+      <c r="K72" s="11">
+        <f>VLOOKUP($A72,Prices!$A:$J,MATCH(K$1,Prices!$1:$1,0),0)</f>
+        <v>0</v>
+      </c>
+      <c r="L72" s="11">
+        <f>VLOOKUP($A72,Prices!$A:$J,MATCH(L$1,Prices!$1:$1,0),0)</f>
+        <v>-3.4786238564032956E-4</v>
+      </c>
+      <c r="M72" s="11">
+        <f t="shared" ref="M72" si="1262">0.6*J72 + 0.4*K72</f>
+        <v>8.141112618722523E-5</v>
+      </c>
+      <c r="N72" s="11">
+        <f>VLOOKUP($A72,Prices!$A:$J,MATCH(N$1,Prices!$1:$1,0),0)</f>
+        <v>2.8280542986425239E-3</v>
+      </c>
+      <c r="P72" s="10">
+        <f t="shared" ref="P72" si="1263">P71*(1+J72)</f>
+        <v>102.38954389258075</v>
+      </c>
+      <c r="Q72" s="10">
+        <f t="shared" ref="Q72" si="1264">Q71*(1+K72)</f>
+        <v>100.08519683921634</v>
+      </c>
+      <c r="R72" s="10">
+        <f t="shared" ref="R72" si="1265">R71*(1+L72)</f>
+        <v>107.91782389673163</v>
+      </c>
+      <c r="S72" s="10">
+        <f t="shared" ref="S72" si="1266">S71*(1+M72)</f>
+        <v>101.4992594135561</v>
+      </c>
+      <c r="T72" s="10">
+        <f t="shared" ref="T72" si="1267">T71*(1+N72)</f>
+        <v>102.82575079682157</v>
+      </c>
+      <c r="V72" s="5">
+        <f t="shared" ref="V72" si="1268">P72/P$45-1</f>
+        <v>3.6417322834645605E-2</v>
+      </c>
+      <c r="W72" s="5">
+        <f t="shared" ref="W72" si="1269">Q72/Q$45-1</f>
+        <v>-2.2697538335092471E-3</v>
+      </c>
+      <c r="X72" s="5">
+        <f t="shared" ref="X72" si="1270">R72/R$45-1</f>
+        <v>5.2444607214795713E-2</v>
+      </c>
+      <c r="Y72" s="5">
+        <f t="shared" ref="Y72" si="1271">S72/S$45-1</f>
+        <v>2.0853450241516081E-2</v>
+      </c>
+      <c r="Z72" s="5">
+        <f t="shared" ref="Z72" si="1272">T72/T$45-1</f>
+        <v>1.8965517241379404E-2</v>
+      </c>
+      <c r="AB72" s="8">
+        <f t="shared" ref="AB72" si="1273">P72/$P$2-1</f>
+        <v>2.3895438925807477E-2</v>
+      </c>
+      <c r="AC72" s="8">
+        <f t="shared" ref="AC72" si="1274">Q72/$P$2-1</f>
+        <v>8.5196839216328257E-4</v>
+      </c>
+      <c r="AD72" s="8">
+        <f t="shared" ref="AD72" si="1275">R72/$P$2-1</f>
+        <v>7.917823896731635E-2</v>
+      </c>
+      <c r="AE72" s="8">
+        <f t="shared" ref="AE72" si="1276">S72/$P$2-1</f>
+        <v>1.4992594135561088E-2</v>
+      </c>
+      <c r="AF72" s="8">
+        <f t="shared" ref="AF72" si="1277">T72/$T$2-1</f>
+        <v>2.8257507968215689E-2</v>
+      </c>
+      <c r="AI72" s="8">
+        <f t="shared" ref="AI72" si="1278">MIN(0,(F72-MAX(F43:F72))/MAX(F43:F72))</f>
+        <v>-2.169069704561368E-3</v>
+      </c>
+      <c r="AJ72" s="8">
+        <f t="shared" ref="AJ72" si="1279">MIN(0,(P72-MAX(P43:P72))/MAX(P43:P72))</f>
+        <v>-2.3010286951812803E-3</v>
+      </c>
+      <c r="AK72" s="8">
+        <f t="shared" ref="AK72" si="1280">MIN(0,(Q72-MAX(Q43:Q72))/MAX(Q43:Q72))</f>
+        <v>-6.1966012580979037E-3</v>
+      </c>
+      <c r="AL72" s="8">
+        <f t="shared" ref="AL72" si="1281">MIN(0,(R72-MAX(R43:R72))/MAX(R43:R72))</f>
+        <v>-3.4786238564029221E-4</v>
+      </c>
+      <c r="AM72" s="8">
+        <f t="shared" ref="AM72" si="1282">MIN(0,(S72-MAX(S43:S72))/MAX(S43:S72))</f>
+        <v>-2.1628375853489398E-3</v>
+      </c>
+      <c r="AN72" s="8">
+        <f t="shared" ref="AN72" si="1283">MIN(0,(T72-MAX(T43:T72))/MAX(T43:T72))</f>
+        <v>-8.9435438792623365E-3</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -12239,7 +12354,7 @@
   <dimension ref="A1:J78"/>
   <sheetViews>
     <sheetView topLeftCell="A51" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="K83" sqref="K83"/>
+      <selection activeCell="H85" sqref="H85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14864,37 +14979,40 @@
       </c>
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B73" t="str">
+      <c r="A73" s="13">
+        <v>43320</v>
+      </c>
+      <c r="B73">
         <f t="array" ref="B73">_xll.HistoricalData(B$1,"Adj. Close",$A73,$A73,"Daily","RemoveHeaders = True","ReverseOrder =True","RemoveDates =""True")</f>
-        <v>--</v>
-      </c>
-      <c r="C73" t="str">
+        <v>73.709999999999994</v>
+      </c>
+      <c r="C73">
         <f t="array" ref="C73">_xll.HistoricalData(C$1,"Adj. Close",$A73,$A73,"Daily","RemoveHeaders = True","ReverseOrder =True","RemoveDates =""True")</f>
-        <v>--</v>
-      </c>
-      <c r="D73" t="str">
+        <v>105.85</v>
+      </c>
+      <c r="D73">
         <f t="array" ref="D73">_xll.HistoricalData(D$1,"Adj. Close",$A73,$A73,"Daily","RemoveHeaders = True","ReverseOrder =True","RemoveDates =""True")</f>
-        <v>--</v>
-      </c>
-      <c r="E73" t="str">
+        <v>287.37</v>
+      </c>
+      <c r="E73">
         <f t="array" ref="E73">_xll.HistoricalData(E$1,"Adj. Close",$A73,$A73,"Daily","RemoveHeaders = True","ReverseOrder =True","RemoveDates =""True")</f>
-        <v>--</v>
-      </c>
-      <c r="G73" s="5" t="e">
+        <v>17.73</v>
+      </c>
+      <c r="G73" s="5">
         <f t="shared" ref="G73:G78" si="220">B73/B72-1</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="H73" s="5" t="e">
+        <v>1.3568521031204206E-4</v>
+      </c>
+      <c r="H73" s="5">
         <f t="shared" ref="H73:H78" si="221">C73/C72-1</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I73" s="5" t="e">
+        <v>0</v>
+      </c>
+      <c r="I73" s="5">
         <f t="shared" ref="I73:I78" si="222">D73/D72-1</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="J73" s="5" t="e">
+        <v>-3.4786238564032956E-4</v>
+      </c>
+      <c r="J73" s="5">
         <f t="shared" ref="J73:J78" si="223">E73/E72-1</f>
-        <v>#VALUE!</v>
+        <v>2.8280542986425239E-3</v>
       </c>
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.25">
@@ -15076,8 +15194,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q33" sqref="Q33"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="S31" sqref="S31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15115,7 +15233,7 @@
       </c>
       <c r="G2" s="74">
         <f>SUM(G5:G10)</f>
-        <v>0.99278984877899346</v>
+        <v>0.99273339871534994</v>
       </c>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.25">
@@ -15167,7 +15285,7 @@
       </c>
       <c r="C5">
         <f>_xll.RealtimeData(A5,"Last")</f>
-        <v>365.29500000000002</v>
+        <v>368.35</v>
       </c>
       <c r="D5">
         <f>ROUNDDOWN(($C$2/6)/B5,0)</f>
@@ -15175,19 +15293,19 @@
       </c>
       <c r="E5" s="8">
         <f>C5/B5-1</f>
-        <v>0.10045187528242217</v>
+        <v>0.10965506853441798</v>
       </c>
       <c r="F5">
         <f>C5*D5</f>
-        <v>12785.325000000001</v>
+        <v>12892.25</v>
       </c>
       <c r="G5" s="73">
         <f>F5/$F$13</f>
-        <v>0.17375855589639394</v>
+        <v>0.1765834927563581</v>
       </c>
       <c r="H5" s="8">
         <f>F5/$F$31</f>
-        <v>0.12317991370418636</v>
+        <v>0.12486849146082236</v>
       </c>
       <c r="I5">
         <f>B5*D5</f>
@@ -15204,7 +15322,7 @@
       </c>
       <c r="C6">
         <f>_xll.RealtimeData(A6,"Last")</f>
-        <v>1885.1020000000001</v>
+        <v>1899.1</v>
       </c>
       <c r="D6">
         <f t="shared" ref="D6:D10" si="0">ROUNDDOWN(($C$2/6)/B6,0)</f>
@@ -15212,19 +15330,19 @@
       </c>
       <c r="E6" s="8">
         <f t="shared" ref="E6:E10" si="1">C6/B6-1</f>
-        <v>0.15677397184619735</v>
+        <v>0.16536370442188986</v>
       </c>
       <c r="F6">
         <f t="shared" ref="F6:F9" si="2">C6*D6</f>
-        <v>13195.714</v>
+        <v>13293.699999999999</v>
       </c>
       <c r="G6" s="73">
         <f t="shared" ref="G6:G10" si="3">F6/$F$13</f>
-        <v>0.17933593464865602</v>
+        <v>0.18208210185616922</v>
       </c>
       <c r="H6" s="8">
         <f t="shared" ref="H6:H10" si="4">F6/$F$31</f>
-        <v>0.12713379689488721</v>
+        <v>0.12875675424636771</v>
       </c>
       <c r="I6">
         <f t="shared" ref="I6:I10" si="5">B6*D6</f>
@@ -15241,7 +15359,7 @@
       </c>
       <c r="C7">
         <f>_xll.RealtimeData(A7,"Last")</f>
-        <v>43.66</v>
+        <v>43.93</v>
       </c>
       <c r="D7">
         <f t="shared" si="0"/>
@@ -15249,19 +15367,19 @@
       </c>
       <c r="E7" s="8">
         <f t="shared" si="1"/>
-        <v>3.0202925908447309E-2</v>
+        <v>3.657385559226034E-2</v>
       </c>
       <c r="F7">
         <f t="shared" si="2"/>
-        <v>12006.499999999998</v>
+        <v>12080.75</v>
       </c>
       <c r="G7" s="73">
         <f t="shared" si="3"/>
-        <v>0.16317395931429615</v>
+        <v>0.16546848146106174</v>
       </c>
       <c r="H7" s="8">
         <f t="shared" si="4"/>
-        <v>0.11567634251685532</v>
+        <v>0.11700867018676568</v>
       </c>
       <c r="I7">
         <f t="shared" si="5"/>
@@ -15278,7 +15396,7 @@
       </c>
       <c r="C8">
         <f>_xll.RealtimeData(A8,"Last")</f>
-        <v>517.48</v>
+        <v>526.24130000000002</v>
       </c>
       <c r="D8">
         <f t="shared" si="0"/>
@@ -15286,19 +15404,19 @@
       </c>
       <c r="E8" s="8">
         <f t="shared" si="1"/>
-        <v>0.12576413514042684</v>
+        <v>0.14482411295059494</v>
       </c>
       <c r="F8">
         <f t="shared" si="2"/>
-        <v>12937</v>
+        <v>13156.032500000001</v>
       </c>
       <c r="G8" s="73">
         <f t="shared" si="3"/>
-        <v>0.17581989019689748</v>
+        <v>0.18019648778655098</v>
       </c>
       <c r="H8" s="8">
         <f t="shared" si="4"/>
-        <v>0.12464122293262463</v>
+        <v>0.12742336922449934</v>
       </c>
       <c r="I8">
         <f t="shared" si="5"/>
@@ -15315,7 +15433,7 @@
       </c>
       <c r="C9">
         <f>_xll.RealtimeData(A9,"Last")</f>
-        <v>52.89</v>
+        <v>52.15</v>
       </c>
       <c r="D9">
         <f t="shared" si="0"/>
@@ -15323,19 +15441,19 @@
       </c>
       <c r="E9" s="8">
         <f t="shared" si="1"/>
-        <v>-8.1611390866469957E-2</v>
+        <v>-9.4460843896509883E-2</v>
       </c>
       <c r="F9">
         <f t="shared" si="2"/>
-        <v>10683.78</v>
+        <v>10534.3</v>
       </c>
       <c r="G9" s="73">
         <f t="shared" si="3"/>
-        <v>0.14519757490050317</v>
+        <v>0.14428695439068456</v>
       </c>
       <c r="H9" s="8">
         <f t="shared" si="4"/>
-        <v>0.10293262771454868</v>
+        <v>0.10203045625051801</v>
       </c>
       <c r="I9">
         <f t="shared" si="5"/>
@@ -15352,7 +15470,7 @@
       </c>
       <c r="C10">
         <f>_xll.RealtimeData(A10,"Last")</f>
-        <v>55.276000000000003</v>
+        <v>50.83</v>
       </c>
       <c r="D10">
         <f t="shared" si="0"/>
@@ -15360,19 +15478,19 @@
       </c>
       <c r="E10" s="8">
         <f t="shared" si="1"/>
-        <v>-1.9059449866903222E-2</v>
+        <v>-9.7959183673469452E-2</v>
       </c>
       <c r="F10">
         <f>C10*D10</f>
-        <v>11442.132000000001</v>
+        <v>10521.81</v>
       </c>
       <c r="G10" s="73">
         <f t="shared" si="3"/>
-        <v>0.15550393382224684</v>
+        <v>0.14411588046452528</v>
       </c>
       <c r="H10" s="8">
         <f t="shared" si="4"/>
-        <v>0.11023895226377972</v>
+        <v>0.10190948377028024</v>
       </c>
       <c r="I10">
         <f t="shared" si="5"/>
@@ -15391,7 +15509,7 @@
       </c>
       <c r="F13" s="75">
         <f>SUM(F5:F10)+I13</f>
-        <v>73580.981</v>
+        <v>73009.372499999998</v>
       </c>
       <c r="H13" t="s">
         <v>26</v>
@@ -15407,7 +15525,7 @@
       </c>
       <c r="F14" s="8">
         <f>F13/C2-1</f>
-        <v>5.1156871428571504E-2</v>
+        <v>4.2991035714285752E-2</v>
       </c>
     </row>
     <row r="15" spans="1:23" x14ac:dyDescent="0.25">
@@ -15418,7 +15536,7 @@
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H17" s="11">
         <f>SUM(H20:H23)</f>
-        <v>0.98826396513016102</v>
+        <v>0.98827340449280265</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
@@ -15460,7 +15578,7 @@
       </c>
       <c r="C20">
         <f>_xll.RealtimeData(A20,"Last")</f>
-        <v>17.170000000000002</v>
+        <v>17.16</v>
       </c>
       <c r="D20">
         <f>ROUNDDOWN(($C$3*E20)/B20,0)</f>
@@ -15471,19 +15589,19 @@
       </c>
       <c r="F20" s="8">
         <f>C20/B20-1</f>
-        <v>1.0000000000000009E-2</v>
+        <v>9.4117647058824527E-3</v>
       </c>
       <c r="G20">
         <f>D20*C20</f>
-        <v>4292.5</v>
+        <v>4290</v>
       </c>
       <c r="H20" s="8">
         <f>G20/$G$27</f>
-        <v>0.14207493281849853</v>
+        <v>0.14187798162862031</v>
       </c>
       <c r="I20" s="8">
         <f>G20/$F$31</f>
-        <v>4.1355990526265068E-2</v>
+        <v>4.1550996014421686E-2</v>
       </c>
       <c r="J20">
         <f>B20*D20</f>
@@ -15500,7 +15618,7 @@
       </c>
       <c r="C21">
         <f>_xll.RealtimeData(A21,"Last")</f>
-        <v>287.57499999999999</v>
+        <v>287.95</v>
       </c>
       <c r="D21">
         <f t="shared" ref="D21:D22" si="6">ROUNDDOWN(($C$3*E21)/B21,0)</f>
@@ -15511,19 +15629,19 @@
       </c>
       <c r="F21" s="8">
         <f t="shared" ref="F21:F23" si="7">C21/B21-1</f>
-        <v>1.6597143665158409E-2</v>
+        <v>1.7922794117646967E-2</v>
       </c>
       <c r="G21">
         <f t="shared" ref="G21:G22" si="8">D21*C21</f>
-        <v>10927.85</v>
+        <v>10942.1</v>
       </c>
       <c r="H21" s="8">
         <f t="shared" ref="H21:H23" si="9">G21/$G$27</f>
-        <v>0.36169447981377501</v>
+        <v>0.36187483980851431</v>
       </c>
       <c r="I21" s="8">
         <f t="shared" ref="I21:I23" si="10">G21/$F$31</f>
-        <v>0.10528411440243349</v>
+        <v>0.10598022225860222</v>
       </c>
       <c r="J21">
         <f t="shared" ref="J21:J23" si="11">B21*D21</f>
@@ -15540,7 +15658,7 @@
       </c>
       <c r="C22">
         <f>_xll.RealtimeData(A22,"Last")</f>
-        <v>81.45</v>
+        <v>81.53</v>
       </c>
       <c r="D22">
         <f t="shared" si="6"/>
@@ -15551,19 +15669,19 @@
       </c>
       <c r="F22" s="8">
         <f t="shared" si="7"/>
-        <v>-8.5868498527963411E-4</v>
+        <v>1.226692836113763E-4</v>
       </c>
       <c r="G22">
         <f t="shared" si="8"/>
-        <v>11728.800000000001</v>
+        <v>11740.32</v>
       </c>
       <c r="H22" s="8">
         <f t="shared" si="9"/>
-        <v>0.3882046527761458</v>
+        <v>0.38827340449280268</v>
       </c>
       <c r="I22" s="8">
         <f t="shared" si="10"/>
-        <v>0.11300084838310025</v>
+        <v>0.11371141947040447</v>
       </c>
       <c r="J22">
         <f t="shared" si="11"/>
@@ -15580,7 +15698,7 @@
       </c>
       <c r="C23">
         <f>_xll.RealtimeData(A23,"Last")</f>
-        <v>83.12</v>
+        <v>83.15</v>
       </c>
       <c r="D23">
         <f>ROUNDDOWN(($C$3*E23)/B23,0)</f>
@@ -15591,19 +15709,19 @@
       </c>
       <c r="F23" s="8">
         <f t="shared" si="7"/>
-        <v>7.2236937153857816E-4</v>
+        <v>1.0835540573079783E-3</v>
       </c>
       <c r="G23">
         <f>D23*C23</f>
-        <v>2909.2000000000003</v>
+        <v>2910.25</v>
       </c>
       <c r="H23" s="8">
         <f t="shared" si="9"/>
-        <v>9.6289899721741637E-2</v>
+        <v>9.6247178562865326E-2</v>
       </c>
       <c r="I23" s="8">
         <f t="shared" si="10"/>
-        <v>2.8028619135471253E-2</v>
+        <v>2.8187362739154009E-2</v>
       </c>
       <c r="J23">
         <f t="shared" si="11"/>
@@ -15619,7 +15737,7 @@
       </c>
       <c r="G27">
         <f>SUM(G20:G23)+J28</f>
-        <v>30212.930000000008</v>
+        <v>30237.250000000004</v>
       </c>
       <c r="J27">
         <f>SUM(J20:J23)</f>
@@ -15632,7 +15750,7 @@
       </c>
       <c r="G28" s="8">
         <f>G27/J27-1</f>
-        <v>1.9143260577856758E-2</v>
+        <v>1.9963623386007212E-2</v>
       </c>
       <c r="I28" t="s">
         <v>26</v>
@@ -15648,7 +15766,7 @@
       </c>
       <c r="F31" s="75">
         <f>SUM(F13,G27)</f>
-        <v>103793.91100000001</v>
+        <v>103246.6225</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
@@ -15657,11 +15775,11 @@
       </c>
       <c r="F33" s="8">
         <f>F31/B1-1</f>
-        <v>3.7939110000000165E-2</v>
+        <v>3.2466225000000071E-2</v>
       </c>
       <c r="H33" s="11">
         <f>F33-F37</f>
-        <v>-2.1270215314619159E-3</v>
+        <v>-6.7900095707164945E-3</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
@@ -15674,16 +15792,16 @@
       </c>
       <c r="C37">
         <f>_xll.RealtimeData(A37,"Last")</f>
-        <v>38.413200000000003</v>
+        <v>38.529200000000003</v>
       </c>
       <c r="D37" s="8">
         <f>C37/B37-1</f>
-        <v>4.0041819132254908E-3</v>
+        <v>7.0360690015682792E-3</v>
       </c>
       <c r="E37" s="11"/>
       <c r="F37" s="8">
         <f>D37*$B$3+D40*$B$2</f>
-        <v>4.0066131531462081E-2</v>
+        <v>3.9256234570716565E-2</v>
       </c>
       <c r="H37" s="8"/>
       <c r="I37" s="8"/>
@@ -15698,11 +15816,11 @@
       </c>
       <c r="C38">
         <f>_xll.RealtimeData(A38,"Last")</f>
-        <v>287.57499999999999</v>
+        <v>287.95</v>
       </c>
       <c r="D38" s="8">
         <f t="shared" ref="D38:D39" si="12">C38/B38-1</f>
-        <v>5.4431122355443007E-2</v>
+        <v>5.5806108605580551E-2</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
@@ -15715,11 +15833,11 @@
       </c>
       <c r="C39">
         <f>_xll.RealtimeData(A39,"Last")</f>
-        <v>182.11</v>
+        <v>182.41</v>
       </c>
       <c r="D39" s="8">
         <f t="shared" si="12"/>
-        <v>7.0794378785206113E-2</v>
+        <v>7.2558358323043581E-2</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
@@ -15732,11 +15850,11 @@
       </c>
       <c r="C40">
         <f>_xll.RealtimeData(A40,"Last")</f>
-        <v>47.181800000000003</v>
+        <v>47.072000000000003</v>
       </c>
       <c r="D40" s="8">
         <f>C40/B40-1</f>
-        <v>5.5521252796420617E-2</v>
+        <v>5.30648769574944E-2</v>
       </c>
     </row>
   </sheetData>

--- a/Portfolio.xlsx
+++ b/Portfolio.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12135" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12135"/>
   </bookViews>
   <sheets>
     <sheet name="Portfolio" sheetId="1" r:id="rId1"/>
@@ -1031,272 +1031,121 @@
 <file path=xl/volatileDependencies.xml><?xml version="1.0" encoding="utf-8"?>
 <volTypes xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <volType type="realTimeData">
-    <main first="rtdsrv.c8521ef4ac614fa1809b0488ffe291a7">
+    <main first="rtdsrv.8f0d5fab636644cdbc13eada27ce3821">
       <tp>
-        <v>1.8432047186041534E-3</v>
-        <stp/>
-        <stp>IYR</stp>
-        <stp>change in percent</stp>
-        <tr r="L4" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.c8521ef4ac614fa1809b0488ffe291a7">
-      <tp>
-        <v>3.6408788618569744E-3</v>
-        <stp/>
-        <stp>TLT</stp>
-        <stp>change in percent</stp>
-        <tr r="L5" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.c8521ef4ac614fa1809b0488ffe291a7">
-      <tp>
-        <v>2.0183039287329364E-3</v>
-        <stp/>
-        <stp>IVV</stp>
-        <stp>change in percent</stp>
-        <tr r="K24" s="1"/>
-        <tr r="L3" s="1"/>
-      </tp>
-      <tp>
-        <v>6.5588106689989283E-4</v>
-        <stp/>
-        <stp>IEV</stp>
-        <stp>change in percent</stp>
-        <tr r="L9" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.c8521ef4ac614fa1809b0488ffe291a7">
-      <tp>
-        <v>-1.266784899923922E-3</v>
-        <stp/>
-        <stp>RWX</stp>
-        <stp>change in percent</stp>
-        <tr r="L6" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.c8521ef4ac614fa1809b0488ffe291a7">
-      <tp>
-        <v>3.6092396535131253E-4</v>
-        <stp/>
-        <stp>SHY</stp>
-        <stp>change in percent</stp>
-        <tr r="L12" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.c8521ef4ac614fa1809b0488ffe291a7">
-      <tp>
-        <v>1.3688780355448379E-3</v>
+        <v>0</v>
         <stp/>
         <stp>ACWI</stp>
         <stp>change in percent</stp>
         <tr r="K22" s="1"/>
       </tp>
     </main>
-    <main first="rtdsrv.c8521ef4ac614fa1809b0488ffe291a7">
+    <main first="rtdsrv.8f0d5fab636644cdbc13eada27ce3821">
       <tp>
-        <v>2.922267679719503E-3</v>
-        <stp/>
-        <stp>DBC</stp>
-        <stp>change in percent</stp>
-        <tr r="L2" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.c8521ef4ac614fa1809b0488ffe291a7">
-      <tp>
-        <v>4.3512313984855281E-4</v>
-        <stp/>
-        <stp>GLD</stp>
-        <stp>change in percent</stp>
-        <tr r="L8" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.c8521ef4ac614fa1809b0488ffe291a7">
-      <tp>
-        <v>1.5740285292670634E-3</v>
-        <stp/>
-        <stp>IEF</stp>
-        <stp>change in percent</stp>
-        <tr r="L11" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.c8521ef4ac614fa1809b0488ffe291a7">
-      <tp>
-        <v>1.0080302314596505E-3</v>
-        <stp/>
-        <stp>AGG</stp>
-        <stp>change in percent</stp>
-        <tr r="K23" s="1"/>
-      </tp>
-      <tp>
-        <v>0.64367719000000001</v>
+        <v>1.1227418499999999</v>
         <stp/>
         <stp>TLT</stp>
         <stp>mtd percent change</stp>
         <tr r="U5" s="1"/>
       </tp>
-    </main>
-    <main first="rtdsrv.c8521ef4ac614fa1809b0488ffe291a7">
       <tp>
-        <v>0.10835541</v>
+        <v>-0.43037975000000001</v>
+        <stp/>
+        <stp>RWX</stp>
+        <stp>mtd percent change</stp>
+        <tr r="U6" s="1"/>
+      </tp>
+      <tp>
+        <v>0.13243437999999999</v>
         <stp/>
         <stp>SHY</stp>
         <stp>mtd percent change</stp>
         <tr r="U12" s="1"/>
       </tp>
       <tp>
-        <v>-0.20253165000000001</v>
+        <v>-0.91304348000000002</v>
         <stp/>
-        <stp>RWX</stp>
+        <stp>IEV</stp>
         <stp>mtd percent change</stp>
-        <tr r="U6" s="1"/>
+        <tr r="U9" s="1"/>
       </tp>
       <tp>
-        <v>0.46378528000000002</v>
+        <v>0.58219854000000004</v>
         <stp/>
         <stp>IEF</stp>
         <stp>mtd percent change</stp>
         <tr r="U11" s="1"/>
       </tp>
       <tp>
-        <v>-0.5</v>
+        <v>-4.906771E-2</v>
         <stp/>
-        <stp>IEV</stp>
+        <stp>IYR</stp>
         <stp>mtd percent change</stp>
-        <tr r="U9" s="1"/>
+        <tr r="U4" s="1"/>
       </tp>
       <tp>
-        <v>1.7922794099999999</v>
+        <v>1.4953337099999999</v>
         <stp/>
         <stp>IVV</stp>
         <stp>mtd percent change</stp>
         <tr r="U3" s="1"/>
       </tp>
       <tp>
-        <v>1.2266930000000001E-2</v>
-        <stp/>
-        <stp>IYR</stp>
-        <stp>mtd percent change</stp>
-        <tr r="U4" s="1"/>
-      </tp>
-      <tp>
-        <v>-0.15633142</v>
+        <v>-0.34740315999999999</v>
         <stp/>
         <stp>GLD</stp>
         <stp>mtd percent change</stp>
         <tr r="U8" s="1"/>
       </tp>
       <tp>
-        <v>-0.15744489</v>
+        <v>0.23529412</v>
+        <stp/>
+        <stp>DBC</stp>
+        <stp>mtd percent change</stp>
+        <tr r="U2" s="1"/>
+      </tp>
+      <tp>
+        <v>-0.74224022000000001</v>
         <stp/>
         <stp>EEM</stp>
         <stp>mtd percent change</stp>
         <tr r="U10" s="1"/>
       </tp>
       <tp>
-        <v>-0.61110167999999998</v>
+        <v>-0.96757766000000001</v>
         <stp/>
         <stp>EWJ</stp>
         <stp>mtd percent change</stp>
         <tr r="U7" s="1"/>
       </tp>
+    </main>
+    <main first="rtdsrv.8f0d5fab636644cdbc13eada27ce3821">
       <tp>
-        <v>0.94117647000000004</v>
-        <stp/>
-        <stp>DBC</stp>
-        <stp>mtd percent change</stp>
-        <tr r="U2" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.c8521ef4ac614fa1809b0488ffe291a7">
-      <tp>
-        <v>-1.7076502732249146E-4</v>
-        <stp/>
-        <stp>EWJ</stp>
-        <stp>change in percent</stp>
-        <tr r="L7" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.c8521ef4ac614fa1809b0488ffe291a7">
-      <tp>
-        <v>2.9371893357434029E-3</v>
-        <stp/>
-        <stp>EEM</stp>
-        <stp>change in percent</stp>
-        <tr r="L10" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.c8521ef4ac614fa1809b0488ffe291a7">
-      <tp>
-        <v>-5.0761421319796898E-3</v>
+        <v>0</v>
         <stp/>
         <stp>GYLD</stp>
         <stp>change in percent</stp>
         <tr r="K26" s="1"/>
       </tp>
     </main>
-    <main first="rtdsrv.c8521ef4ac614fa1809b0488ffe291a7">
+    <main first="rtdsrv.8f0d5fab636644cdbc13eada27ce3821">
       <tp>
-        <v>368.35</v>
+        <v>81.48</v>
         <stp/>
-        <stp>ALGN</stp>
+        <stp>IYR</stp>
         <stp>last</stp>
-        <tr r="C5" s="4"/>
+        <tr r="J4" s="1"/>
+        <tr r="C22" s="4"/>
       </tp>
     </main>
-    <main first="rtdsrv.c8521ef4ac614fa1809b0488ffe291a7">
+    <main first="rtdsrv.8f0d5fab636644cdbc13eada27ce3821">
       <tp>
-        <v>182.41</v>
+        <v>181.91</v>
         <stp/>
         <stp>QQQ</stp>
         <stp>last</stp>
         <tr r="C39" s="4"/>
       </tp>
-    </main>
-    <main first="rtdsrv.c8521ef4ac614fa1809b0488ffe291a7">
-      <tp>
-        <v>287.95</v>
-        <stp/>
-        <stp>IVV</stp>
-        <stp>last</stp>
-        <tr r="J3" s="1"/>
-        <tr r="C21" s="4"/>
-        <tr r="C38" s="4"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.c8521ef4ac614fa1809b0488ffe291a7">
-      <tp>
-        <v>39.42</v>
-        <stp/>
-        <stp>RWX</stp>
-        <stp>last</stp>
-        <tr r="J6" s="1"/>
-      </tp>
-      <tp>
-        <v>58.55</v>
-        <stp/>
-        <stp>EWJ</stp>
-        <stp>last</stp>
-        <tr r="J7" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.c8521ef4ac614fa1809b0488ffe291a7">
-      <tp>
-        <v>50.83</v>
-        <stp/>
-        <stp>STX</stp>
-        <stp>last</stp>
-        <tr r="C10" s="4"/>
-      </tp>
-      <tp>
-        <v>43.93</v>
-        <stp/>
-        <stp>CSCO</stp>
-        <stp>last</stp>
-        <tr r="C7" s="4"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.c8521ef4ac614fa1809b0488ffe291a7">
       <tp t="s">
         <v>ISHARES TR-20 YR TR BD ETF</v>
         <stp/>
@@ -1305,26 +1154,44 @@
         <tr r="B5" s="1"/>
       </tp>
     </main>
-    <main first="rtdsrv.c8521ef4ac614fa1809b0488ffe291a7">
+    <main first="rtdsrv.8f0d5fab636644cdbc13eada27ce3821">
       <tp>
-        <v>17.11</v>
+        <v>51.02</v>
         <stp/>
-        <stp>DBC</stp>
-        <stp>close</stp>
-        <tr r="G2" s="1"/>
+        <stp>STX</stp>
+        <stp>last</stp>
+        <tr r="C10" s="4"/>
       </tp>
     </main>
-    <main first="rtdsrv.c8521ef4ac614fa1809b0488ffe291a7">
+    <main first="rtdsrv.8f0d5fab636644cdbc13eada27ce3821">
+      <tp t="s">
+        <v>ISHARES TR-1 3 YR TREAS BD</v>
+        <stp/>
+        <stp>SHY</stp>
+        <stp>description</stp>
+        <tr r="B12" s="1"/>
+      </tp>
       <tp>
-        <v>81.53</v>
+        <v>52.26</v>
         <stp/>
-        <stp>IYR</stp>
+        <stp>MU</stp>
         <stp>last</stp>
-        <tr r="J4" s="1"/>
-        <tr r="C22" s="4"/>
+        <tr r="C9" s="4"/>
       </tp>
-    </main>
-    <main first="rtdsrv.c8521ef4ac614fa1809b0488ffe291a7">
+      <tp>
+        <v>58.34</v>
+        <stp/>
+        <stp>EWJ</stp>
+        <stp>last</stp>
+        <tr r="J7" s="1"/>
+      </tp>
+      <tp>
+        <v>39.33</v>
+        <stp/>
+        <stp>RWX</stp>
+        <stp>last</stp>
+        <tr r="J6" s="1"/>
+      </tp>
       <tp t="s">
         <v>SPDR INDEX SHS FDS-DJ INTL RL ETF</v>
         <stp/>
@@ -1333,58 +1200,28 @@
         <tr r="B6" s="1"/>
       </tp>
     </main>
-    <main first="rtdsrv.c8521ef4ac614fa1809b0488ffe291a7">
+    <main first="rtdsrv.8f0d5fab636644cdbc13eada27ce3821">
       <tp>
-        <v>52.15</v>
+        <v>287.11</v>
         <stp/>
-        <stp>MU</stp>
+        <stp>IVV</stp>
         <stp>last</stp>
-        <tr r="C9" s="4"/>
+        <tr r="J3" s="1"/>
+        <tr r="C38" s="4"/>
+        <tr r="C21" s="4"/>
       </tp>
-      <tp t="s">
-        <v>ISHARES TR-1 3 YR TREAS BD</v>
+    </main>
+    <main first="rtdsrv.8f0d5fab636644cdbc13eada27ce3821">
+      <tp>
+        <v>83.17</v>
         <stp/>
         <stp>SHY</stp>
-        <stp>description</stp>
-        <tr r="B12" s="1"/>
+        <stp>last</stp>
+        <tr r="J12" s="1"/>
+        <tr r="C23" s="4"/>
       </tp>
     </main>
-    <main first="rtdsrv.c8521ef4ac614fa1809b0488ffe291a7">
-      <tp>
-        <v>17.16</v>
-        <stp/>
-        <stp>DBC</stp>
-        <stp>last</stp>
-        <tr r="J2" s="1"/>
-        <tr r="C20" s="4"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.c8521ef4ac614fa1809b0488ffe291a7">
-      <tp>
-        <v>38.529200000000003</v>
-        <stp/>
-        <stp>GAL</stp>
-        <stp>last</stp>
-        <tr r="C37" s="4"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.c8521ef4ac614fa1809b0488ffe291a7">
-      <tp>
-        <v>47.072000000000003</v>
-        <stp/>
-        <stp>QQQE</stp>
-        <stp>last</stp>
-        <tr r="C40" s="4"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.c8521ef4ac614fa1809b0488ffe291a7">
-      <tp t="s">
-        <v>ISHARES TR-CORE S&amp;P500 ETF</v>
-        <stp/>
-        <stp>IVV</stp>
-        <stp>description</stp>
-        <tr r="B3" s="1"/>
-      </tp>
+    <main first="rtdsrv.8f0d5fab636644cdbc13eada27ce3821">
       <tp t="s">
         <v>ISHARES TR-U.S. REAL ES ETF</v>
         <stp/>
@@ -1393,11 +1230,20 @@
         <tr r="B4" s="1"/>
       </tp>
       <tp t="s">
-        <v>ARROW ETF TR-ARROW DJ GLB YLD</v>
+        <v>ISHARES TR-CORE S&amp;P500 ETF</v>
         <stp/>
-        <stp>GYLD</stp>
+        <stp>IVV</stp>
         <stp>description</stp>
-        <tr r="L26" s="1"/>
+        <tr r="B3" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.8f0d5fab636644cdbc13eada27ce3821">
+      <tp t="s">
+        <v>ISHARES TR-EUROPE ETF</v>
+        <stp/>
+        <stp>IEV</stp>
+        <stp>description</stp>
+        <tr r="B9" s="1"/>
       </tp>
       <tp t="s">
         <v>ISHARES TR-BARCLAYS 7 10 YR</v>
@@ -1406,47 +1252,49 @@
         <stp>description</stp>
         <tr r="B11" s="1"/>
       </tp>
-      <tp t="s">
-        <v>ISHARES TR-EUROPE ETF</v>
+    </main>
+    <main first="rtdsrv.8f0d5fab636644cdbc13eada27ce3821">
+      <tp>
+        <v>114.74</v>
         <stp/>
-        <stp>IEV</stp>
-        <stp>description</stp>
-        <tr r="B9" s="1"/>
+        <stp>GLD</stp>
+        <stp>last</stp>
+        <tr r="J8" s="1"/>
+      </tp>
+      <tp>
+        <v>119.79</v>
+        <stp/>
+        <stp>TLT</stp>
+        <stp>last</stp>
+        <tr r="J5" s="1"/>
       </tp>
     </main>
-    <main first="rtdsrv.c8521ef4ac614fa1809b0488ffe291a7">
-      <tp>
-        <v>45.77</v>
+    <main first="rtdsrv.8f0d5fab636644cdbc13eada27ce3821">
+      <tp t="s">
+        <v>ISHARES INC-MSCI JPN ETF NEW</v>
         <stp/>
-        <stp>IEV</stp>
-        <stp>last</stp>
-        <tr r="J9" s="1"/>
+        <stp>EWJ</stp>
+        <stp>description</stp>
+        <tr r="B7" s="1"/>
       </tp>
     </main>
-    <main first="rtdsrv.c8521ef4ac614fa1809b0488ffe291a7">
-      <tp>
-        <v>101.81</v>
+    <main first="rtdsrv.8f0d5fab636644cdbc13eada27ce3821">
+      <tp t="s">
+        <v>ISHARES TR-MSCI EMG MKT ETF</v>
         <stp/>
-        <stp>IEF</stp>
-        <stp>last</stp>
-        <tr r="J11" s="1"/>
+        <stp>EEM</stp>
+        <stp>description</stp>
+        <tr r="B10" s="1"/>
       </tp>
       <tp>
-        <v>44.39</v>
+        <v>38.46</v>
         <stp/>
-        <stp>EEM</stp>
+        <stp>GAL</stp>
         <stp>last</stp>
-        <tr r="J10" s="1"/>
-      </tp>
-      <tp>
-        <v>526.24130000000002</v>
-        <stp/>
-        <stp>ISRG</stp>
-        <stp>last</stp>
-        <tr r="C8" s="4"/>
+        <tr r="C37" s="4"/>
       </tp>
     </main>
-    <main first="rtdsrv.c8521ef4ac614fa1809b0488ffe291a7">
+    <main first="rtdsrv.8f0d5fab636644cdbc13eada27ce3821">
       <tp t="s">
         <v>INVESCO DB COMMDY INDX TRCK-UNIT</v>
         <stp/>
@@ -1455,44 +1303,7 @@
         <tr r="B2" s="1"/>
       </tp>
     </main>
-    <main first="rtdsrv.c8521ef4ac614fa1809b0488ffe291a7">
-      <tp t="s">
-        <v>ISHARES INC-MSCI JPN ETF NEW</v>
-        <stp/>
-        <stp>EWJ</stp>
-        <stp>description</stp>
-        <tr r="B7" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.c8521ef4ac614fa1809b0488ffe291a7">
-      <tp t="s">
-        <v>ISHARES TR-MSCI EMG MKT ETF</v>
-        <stp/>
-        <stp>EEM</stp>
-        <stp>description</stp>
-        <tr r="B10" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.c8521ef4ac614fa1809b0488ffe291a7">
-      <tp>
-        <v>81.38</v>
-        <stp/>
-        <stp>IYR</stp>
-        <stp>close</stp>
-        <tr r="G4" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.c8521ef4ac614fa1809b0488ffe291a7">
-      <tp>
-        <v>83.15</v>
-        <stp/>
-        <stp>SHY</stp>
-        <stp>last</stp>
-        <tr r="J12" s="1"/>
-        <tr r="C23" s="4"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.c8521ef4ac614fa1809b0488ffe291a7">
+    <main first="rtdsrv.8f0d5fab636644cdbc13eada27ce3821">
       <tp t="s">
         <v>SPDR GOLD TRUST-GOLD SHS</v>
         <stp/>
@@ -1501,41 +1312,153 @@
         <tr r="B8" s="1"/>
       </tp>
     </main>
-    <main first="rtdsrv.c8521ef4ac614fa1809b0488ffe291a7">
+    <main first="rtdsrv.8f0d5fab636644cdbc13eada27ce3821">
       <tp>
-        <v>287.37</v>
+        <v>17.04</v>
+        <stp/>
+        <stp>DBC</stp>
+        <stp>last</stp>
+        <tr r="J2" s="1"/>
+        <tr r="C20" s="4"/>
+      </tp>
+      <tp>
+        <v>44.13</v>
+        <stp/>
+        <stp>EEM</stp>
+        <stp>last</stp>
+        <tr r="J10" s="1"/>
+      </tp>
+      <tp>
+        <v>101.93</v>
+        <stp/>
+        <stp>IEF</stp>
+        <stp>last</stp>
+        <tr r="J11" s="1"/>
+      </tp>
+      <tp>
+        <v>45.58</v>
+        <stp/>
+        <stp>IEV</stp>
+        <stp>last</stp>
+        <tr r="J9" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.8f0d5fab636644cdbc13eada27ce3821">
+      <tp t="s">
+        <v>ARROW ETF TR-ARROW DJ GLB YLD</v>
+        <stp/>
+        <stp>GYLD</stp>
+        <stp>description</stp>
+        <tr r="L26" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.8f0d5fab636644cdbc13eada27ce3821">
+      <tp>
+        <v>0</v>
+        <stp/>
+        <stp>EWJ</stp>
+        <stp>change in percent</stp>
+        <tr r="L7" s="1"/>
+      </tp>
+      <tp>
+        <v>-2.9371893357432221E-3</v>
+        <stp/>
+        <stp>EEM</stp>
+        <stp>change in percent</stp>
+        <tr r="L10" s="1"/>
+      </tp>
+      <tp>
+        <v>0</v>
+        <stp/>
+        <stp>DBC</stp>
+        <stp>change in percent</stp>
+        <tr r="L2" s="1"/>
+      </tp>
+      <tp>
+        <v>-1.4794186754851799E-3</v>
+        <stp/>
+        <stp>GLD</stp>
+        <stp>change in percent</stp>
+        <tr r="L8" s="1"/>
+      </tp>
+      <tp>
+        <v>0</v>
+        <stp/>
+        <stp>AGG</stp>
+        <stp>change in percent</stp>
+        <tr r="K23" s="1"/>
+      </tp>
+      <tp>
+        <v>0</v>
+        <stp/>
+        <stp>IEF</stp>
+        <stp>change in percent</stp>
+        <tr r="L11" s="1"/>
+      </tp>
+      <tp>
+        <v>0</v>
+        <stp/>
+        <stp>SHY</stp>
+        <stp>change in percent</stp>
+        <tr r="L12" s="1"/>
+      </tp>
+      <tp>
+        <v>0</v>
+        <stp/>
+        <stp>RWX</stp>
+        <stp>change in percent</stp>
+        <tr r="L6" s="1"/>
+      </tp>
+      <tp>
+        <v>0</v>
+        <stp/>
+        <stp>IYR</stp>
+        <stp>change in percent</stp>
+        <tr r="L4" s="1"/>
+      </tp>
+      <tp>
+        <v>8.4182170216348176E-3</v>
+        <stp/>
+        <stp>TLT</stp>
+        <stp>change in percent</stp>
+        <tr r="L5" s="1"/>
+      </tp>
+      <tp>
+        <v>0</v>
+        <stp/>
+        <stp>IVV</stp>
+        <stp>change in percent</stp>
+        <tr r="K24" s="1"/>
+        <tr r="L3" s="1"/>
+      </tp>
+      <tp>
+        <v>0</v>
+        <stp/>
+        <stp>IEV</stp>
+        <stp>change in percent</stp>
+        <tr r="L9" s="1"/>
+      </tp>
+      <tp>
+        <v>81.48</v>
+        <stp/>
+        <stp>IYR</stp>
+        <stp>close</stp>
+        <tr r="G4" s="1"/>
+      </tp>
+      <tp>
+        <v>287.11</v>
         <stp/>
         <stp>IVV</stp>
         <stp>close</stp>
         <tr r="G3" s="1"/>
       </tp>
-    </main>
-    <main first="rtdsrv.c8521ef4ac614fa1809b0488ffe291a7">
       <tp>
-        <v>119.2225</v>
-        <stp/>
-        <stp>TLT</stp>
-        <stp>last</stp>
-        <tr r="J5" s="1"/>
-      </tp>
-      <tp>
-        <v>114.96</v>
-        <stp/>
-        <stp>GLD</stp>
-        <stp>last</stp>
-        <tr r="J8" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.c8521ef4ac614fa1809b0488ffe291a7">
-      <tp>
-        <v>1899.1</v>
+        <v>1898.52</v>
         <stp/>
         <stp>AMZN</stp>
         <stp>last</stp>
         <tr r="C6" s="4"/>
       </tp>
-    </main>
-    <main first="rtdsrv.c8521ef4ac614fa1809b0488ffe291a7">
       <tp>
         <v>118.79</v>
         <stp/>
@@ -1543,28 +1466,35 @@
         <stp>close</stp>
         <tr r="G5" s="1"/>
       </tp>
+      <tp>
+        <v>46.99</v>
+        <stp/>
+        <stp>QQQE</stp>
+        <stp>last</stp>
+        <tr r="C40" s="4"/>
+      </tp>
     </main>
-    <main first="rtdsrv.c8521ef4ac614fa1809b0488ffe291a7">
+    <main first="rtdsrv.8f0d5fab636644cdbc13eada27ce3821">
       <tp>
-        <v>4.62</v>
+        <v>522.69000000000005</v>
         <stp/>
-        <stp>IEV</stp>
-        <stp>dividend yield</stp>
-        <tr r="M9" s="1"/>
+        <stp>ISRG</stp>
+        <stp>last</stp>
+        <tr r="C8" s="4"/>
       </tp>
       <tp>
-        <v>2.36</v>
+        <v>2.35</v>
         <stp/>
         <stp>IEF</stp>
         <stp>dividend yield</stp>
         <tr r="M11" s="1"/>
       </tp>
       <tp>
-        <v>1.78</v>
+        <v>4.6399999999999997</v>
         <stp/>
-        <stp>IVV</stp>
+        <stp>IEV</stp>
         <stp>dividend yield</stp>
-        <tr r="M3" s="1"/>
+        <tr r="M9" s="1"/>
       </tp>
       <tp>
         <v>0.49</v>
@@ -1574,18 +1504,11 @@
         <tr r="M4" s="1"/>
       </tp>
       <tp>
-        <v>1.31</v>
+        <v>1.78</v>
         <stp/>
-        <stp>EEM</stp>
+        <stp>IVV</stp>
         <stp>dividend yield</stp>
-        <tr r="M10" s="1"/>
-      </tp>
-      <tp>
-        <v>1.57</v>
-        <stp/>
-        <stp>EWJ</stp>
-        <stp>dividend yield</stp>
-        <tr r="M7" s="1"/>
+        <tr r="M3" s="1"/>
       </tp>
       <tp t="s">
         <v>--</v>
@@ -1594,14 +1517,33 @@
         <stp>dividend yield</stp>
         <tr r="M2" s="1"/>
       </tp>
-    </main>
-    <main first="rtdsrv.c8521ef4ac614fa1809b0488ffe291a7">
       <tp>
-        <v>2.7</v>
+        <v>1.31</v>
+        <stp/>
+        <stp>EEM</stp>
+        <stp>dividend yield</stp>
+        <tr r="M10" s="1"/>
+      </tp>
+      <tp>
+        <v>1.58</v>
+        <stp/>
+        <stp>EWJ</stp>
+        <stp>dividend yield</stp>
+        <tr r="M7" s="1"/>
+      </tp>
+      <tp>
+        <v>2.67</v>
         <stp/>
         <stp>TLT</stp>
         <stp>dividend yield</stp>
         <tr r="M5" s="1"/>
+      </tp>
+      <tp>
+        <v>3.65</v>
+        <stp/>
+        <stp>RWX</stp>
+        <stp>dividend yield</stp>
+        <tr r="M6" s="1"/>
       </tp>
       <tp>
         <v>1.99</v>
@@ -1611,11 +1553,25 @@
         <tr r="M12" s="1"/>
       </tp>
       <tp>
-        <v>3.64</v>
+        <v>17.04</v>
         <stp/>
-        <stp>RWX</stp>
-        <stp>dividend yield</stp>
-        <tr r="M6" s="1"/>
+        <stp>DBC</stp>
+        <stp>close</stp>
+        <tr r="G2" s="1"/>
+      </tp>
+      <tp>
+        <v>366.87</v>
+        <stp/>
+        <stp>ALGN</stp>
+        <stp>last</stp>
+        <tr r="C5" s="4"/>
+      </tp>
+      <tp>
+        <v>43.78</v>
+        <stp/>
+        <stp>CSCO</stp>
+        <stp>last</stp>
+        <tr r="C7" s="4"/>
       </tp>
     </main>
   </volType>
@@ -1888,8 +1844,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:V46"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="R25" sqref="R25"/>
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1989,34 +1945,34 @@
       </c>
       <c r="E2" s="5">
         <f>G2/D2-1</f>
-        <v>-4.0210253976297849E-2</v>
+        <v>-4.4136921552081487E-2</v>
       </c>
       <c r="F2" s="5">
         <f>I2/$I$21</f>
-        <v>0.15055309524357086</v>
+        <v>0.15004562847216663</v>
       </c>
       <c r="G2" s="4">
         <f>_xll.RealtimeData(A2,"Close")</f>
-        <v>17.11</v>
+        <v>17.04</v>
       </c>
       <c r="H2" s="4">
         <v>176</v>
       </c>
       <c r="I2" s="4">
         <f>H2*G2</f>
-        <v>3011.3599999999997</v>
+        <v>2999.04</v>
       </c>
       <c r="J2" s="4">
         <f>_xll.RealtimeData(A2,"Last")</f>
-        <v>17.16</v>
+        <v>17.04</v>
       </c>
       <c r="K2" s="5">
         <f>J2/D2-1</f>
-        <v>-3.7405491422166537E-2</v>
+        <v>-4.4136921552081487E-2</v>
       </c>
       <c r="L2" s="8">
         <f>_xll.RealtimeData(A2,"Change in Percent")</f>
-        <v>2.922267679719503E-3</v>
+        <v>0</v>
       </c>
       <c r="M2" s="29" t="str">
         <f>_xll.RealtimeData(A2,"Dividend Yield")</f>
@@ -2031,7 +1987,7 @@
       </c>
       <c r="P2" s="60">
         <f t="shared" ref="P2:P12" si="1">O2-F2</f>
-        <v>-8.5530952435708685E-3</v>
+        <v>-8.0456284721666382E-3</v>
       </c>
       <c r="Q2" s="31">
         <f>O2*Daily!$D$68</f>
@@ -2039,11 +1995,11 @@
       </c>
       <c r="R2">
         <f t="shared" ref="R2:R11" si="2">ROUND(Q2/J2,0)</f>
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="S2">
         <f t="shared" ref="S2:S11" si="3">R2-H2</f>
-        <v>-11</v>
+        <v>-10</v>
       </c>
       <c r="T2" t="str">
         <f t="shared" ref="T2:T12" si="4">A2</f>
@@ -2051,7 +2007,7 @@
       </c>
       <c r="U2">
         <f>_xll.RealtimeData(T2,"MTD Percent Change")</f>
-        <v>0.94117647000000004</v>
+        <v>0.23529412</v>
       </c>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.25">
@@ -2070,34 +2026,34 @@
       </c>
       <c r="E3" s="5">
         <f>G3/D3-1</f>
-        <v>7.888023517088727E-2</v>
+        <v>7.7904110797625048E-2</v>
       </c>
       <c r="F3" s="5">
         <f>I3/$I$21</f>
-        <v>0.41664525212004005</v>
+        <v>0.41656943933014201</v>
       </c>
       <c r="G3" s="4">
         <f>_xll.RealtimeData(A3,"Close")</f>
-        <v>287.37</v>
+        <v>287.11</v>
       </c>
       <c r="H3" s="4">
         <v>29</v>
       </c>
       <c r="I3" s="4">
         <f>H3*G3</f>
-        <v>8333.73</v>
+        <v>8326.19</v>
       </c>
       <c r="J3" s="4">
         <f>_xll.RealtimeData(A3,"Last")</f>
-        <v>287.95</v>
+        <v>287.11</v>
       </c>
       <c r="K3" s="5">
         <f>J3/D3-1</f>
-        <v>8.1057743388165182E-2</v>
+        <v>7.7904110797625048E-2</v>
       </c>
       <c r="L3" s="8">
         <f>_xll.RealtimeData(A3,"Change in Percent")</f>
-        <v>2.0183039287329364E-3</v>
+        <v>0</v>
       </c>
       <c r="M3" s="29">
         <f>_xll.RealtimeData(A3,"Dividend Yield")</f>
@@ -2112,7 +2068,7 @@
       </c>
       <c r="P3" s="60">
         <f t="shared" si="1"/>
-        <v>-5.0645252120040063E-2</v>
+        <v>-5.0569439330142019E-2</v>
       </c>
       <c r="Q3" s="31">
         <f>O3*Daily!$D$68</f>
@@ -2132,7 +2088,7 @@
       </c>
       <c r="U3">
         <f>_xll.RealtimeData(T3,"MTD Percent Change")</f>
-        <v>1.7922794099999999</v>
+        <v>1.4953337099999999</v>
       </c>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.25">
@@ -2151,34 +2107,34 @@
       </c>
       <c r="E4" s="5">
         <f>G4/D4-1</f>
-        <v>3.7613158230268784E-2</v>
+        <v>3.8888180543159567E-2</v>
       </c>
       <c r="F4" s="5">
         <f>I4/$I$21</f>
-        <v>0.21970424927932128</v>
+        <v>0.22013336321864843</v>
       </c>
       <c r="G4" s="4">
         <f>_xll.RealtimeData(A4,"Close")</f>
-        <v>81.38</v>
+        <v>81.48</v>
       </c>
       <c r="H4" s="4">
         <v>54</v>
       </c>
       <c r="I4" s="4">
         <f>H4*G4</f>
-        <v>4394.5199999999995</v>
+        <v>4399.92</v>
       </c>
       <c r="J4" s="4">
         <f>_xll.RealtimeData(A4,"Last")</f>
-        <v>81.53</v>
+        <v>81.48</v>
       </c>
       <c r="K4" s="5">
         <f>J4/D4-1</f>
-        <v>3.9525691699604737E-2</v>
+        <v>3.8888180543159567E-2</v>
       </c>
       <c r="L4" s="8">
         <f t="array" ref="L4">_xll.RealtimeData(A4,"Change in Percent")</f>
-        <v>1.8432047186041534E-3</v>
+        <v>0</v>
       </c>
       <c r="M4" s="29">
         <f>_xll.RealtimeData(A4,"Dividend Yield")</f>
@@ -2193,7 +2149,7 @@
       </c>
       <c r="P4" s="60">
         <f t="shared" si="1"/>
-        <v>0.17329575072067874</v>
+        <v>0.17286663678135158</v>
       </c>
       <c r="Q4" s="31">
         <f>O4*Daily!$D$68</f>
@@ -2213,7 +2169,7 @@
       </c>
       <c r="U4">
         <f>_xll.RealtimeData(T4,"MTD Percent Change")</f>
-        <v>1.2266930000000001E-2</v>
+        <v>-4.906771E-2</v>
       </c>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.25">
@@ -2236,7 +2192,7 @@
       </c>
       <c r="F5" s="5">
         <f>I5/$I$21</f>
-        <v>0.2078619216697547</v>
+        <v>0.20801229967499721</v>
       </c>
       <c r="G5" s="4">
         <f>_xll.RealtimeData(A5,"Close")</f>
@@ -2251,19 +2207,19 @@
       </c>
       <c r="J5" s="31">
         <f>_xll.RealtimeData(A5,"Last")</f>
-        <v>119.2225</v>
+        <v>119.79</v>
       </c>
       <c r="K5" s="5">
         <f>J5/D5-1</f>
-        <v>-2.5114110445500937E-2</v>
+        <v>-2.0473646251894961E-2</v>
       </c>
       <c r="L5" s="8">
         <f t="array" ref="L5">_xll.RealtimeData(A5,"Change in Percent")</f>
-        <v>3.6408788618569744E-3</v>
+        <v>8.4182170216348176E-3</v>
       </c>
       <c r="M5" s="29">
         <f>_xll.RealtimeData(A5,"Dividend Yield")</f>
-        <v>2.7</v>
+        <v>2.67</v>
       </c>
       <c r="N5" s="4" t="str">
         <f t="shared" si="0"/>
@@ -2274,7 +2230,7 @@
       </c>
       <c r="P5" s="60">
         <f t="shared" si="1"/>
-        <v>-0.2078619216697547</v>
+        <v>-0.20801229967499721</v>
       </c>
       <c r="Q5" s="31">
         <f>O5*Daily!$D$68</f>
@@ -2294,7 +2250,7 @@
       </c>
       <c r="U5">
         <f>_xll.RealtimeData(T5,"MTD Percent Change")</f>
-        <v>0.64367719000000001</v>
+        <v>1.1227418499999999</v>
       </c>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.25">
@@ -2314,16 +2270,16 @@
       <c r="I6" s="4"/>
       <c r="J6" s="31">
         <f>_xll.RealtimeData(A6,"Last")</f>
-        <v>39.42</v>
+        <v>39.33</v>
       </c>
       <c r="K6" s="5"/>
       <c r="L6" s="8">
         <f>_xll.RealtimeData(A6,"Change in Percent")</f>
-        <v>-1.266784899923922E-3</v>
+        <v>0</v>
       </c>
       <c r="M6" s="29">
         <f>_xll.RealtimeData(A6,"Dividend Yield")</f>
-        <v>3.64</v>
+        <v>3.65</v>
       </c>
       <c r="N6" s="4" t="str">
         <f t="shared" si="0"/>
@@ -2354,7 +2310,7 @@
       </c>
       <c r="U6">
         <f>_xll.RealtimeData(T6,"MTD Percent Change")</f>
-        <v>-0.20253165000000001</v>
+        <v>-0.43037975000000001</v>
       </c>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.25">
@@ -2374,16 +2330,16 @@
       <c r="I7" s="4"/>
       <c r="J7" s="31">
         <f>_xll.RealtimeData(A7,"Last")</f>
-        <v>58.55</v>
+        <v>58.34</v>
       </c>
       <c r="K7" s="5"/>
       <c r="L7" s="8">
         <f>_xll.RealtimeData(A7,"Change in Percent")</f>
-        <v>-1.7076502732249146E-4</v>
+        <v>0</v>
       </c>
       <c r="M7" s="29">
         <f>_xll.RealtimeData(A7,"Dividend Yield")</f>
-        <v>1.57</v>
+        <v>1.58</v>
       </c>
       <c r="N7" s="4" t="str">
         <f t="shared" si="0"/>
@@ -2414,7 +2370,7 @@
       </c>
       <c r="U7">
         <f>_xll.RealtimeData(T7,"MTD Percent Change")</f>
-        <v>-0.61110167999999998</v>
+        <v>-0.96757766000000001</v>
       </c>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.25">
@@ -2434,12 +2390,12 @@
       <c r="I8" s="4"/>
       <c r="J8" s="31">
         <f>_xll.RealtimeData(A8,"Last")</f>
-        <v>114.96</v>
+        <v>114.74</v>
       </c>
       <c r="K8" s="5"/>
       <c r="L8" s="8">
         <f>_xll.RealtimeData(A8,"Change in Percent")</f>
-        <v>4.3512313984855281E-4</v>
+        <v>-1.4794186754851799E-3</v>
       </c>
       <c r="M8" s="29">
         <v>0</v>
@@ -2473,7 +2429,7 @@
       </c>
       <c r="U8">
         <f>_xll.RealtimeData(T8,"MTD Percent Change")</f>
-        <v>-0.15633142</v>
+        <v>-0.34740315999999999</v>
       </c>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.25">
@@ -2493,16 +2449,16 @@
       <c r="I9" s="4"/>
       <c r="J9" s="31">
         <f>_xll.RealtimeData(A9,"Last")</f>
-        <v>45.77</v>
+        <v>45.58</v>
       </c>
       <c r="K9" s="5"/>
       <c r="L9" s="8">
         <f>_xll.RealtimeData(A9,"Change in Percent")</f>
-        <v>6.5588106689989283E-4</v>
+        <v>0</v>
       </c>
       <c r="M9" s="29">
         <f>_xll.RealtimeData(A9,"Dividend Yield")</f>
-        <v>4.62</v>
+        <v>4.6399999999999997</v>
       </c>
       <c r="N9" s="4" t="str">
         <f t="shared" si="0"/>
@@ -2533,7 +2489,7 @@
       </c>
       <c r="U9">
         <f>_xll.RealtimeData(T9,"MTD Percent Change")</f>
-        <v>-0.5</v>
+        <v>-0.91304348000000002</v>
       </c>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.25">
@@ -2547,12 +2503,12 @@
       <c r="G10" s="4"/>
       <c r="J10" s="31">
         <f>_xll.RealtimeData(A10,"Last")</f>
-        <v>44.39</v>
+        <v>44.13</v>
       </c>
       <c r="K10" s="5"/>
       <c r="L10" s="8">
         <f t="array" ref="L10">_xll.RealtimeData(A10,"Change in Percent")</f>
-        <v>2.9371893357434029E-3</v>
+        <v>-2.9371893357432221E-3</v>
       </c>
       <c r="M10" s="29">
         <f>_xll.RealtimeData(A10,"Dividend Yield")</f>
@@ -2587,7 +2543,7 @@
       </c>
       <c r="U10">
         <f>_xll.RealtimeData(T10,"MTD Percent Change")</f>
-        <v>-0.15744489</v>
+        <v>-0.74224022000000001</v>
       </c>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.25">
@@ -2601,16 +2557,16 @@
       <c r="G11" s="4"/>
       <c r="J11" s="31">
         <f>_xll.RealtimeData(A11,"Last")</f>
-        <v>101.81</v>
+        <v>101.93</v>
       </c>
       <c r="K11" s="5"/>
       <c r="L11" s="8">
         <f t="array" ref="L11">_xll.RealtimeData(A11,"Change in Percent")</f>
-        <v>1.5740285292670634E-3</v>
+        <v>0</v>
       </c>
       <c r="M11" s="29">
         <f>_xll.RealtimeData(A11,"Dividend Yield")</f>
-        <v>2.36</v>
+        <v>2.35</v>
       </c>
       <c r="N11" s="4" t="str">
         <f t="shared" si="0"/>
@@ -2641,7 +2597,7 @@
       </c>
       <c r="U11">
         <f>_xll.RealtimeData(T11,"MTD Percent Change")</f>
-        <v>0.46378528000000002</v>
+        <v>0.58219854000000004</v>
       </c>
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.25">
@@ -2654,11 +2610,11 @@
       </c>
       <c r="J12" s="31">
         <f>_xll.RealtimeData(A12,"Last")</f>
-        <v>83.15</v>
+        <v>83.17</v>
       </c>
       <c r="L12" s="8">
         <f t="array" ref="L12">_xll.RealtimeData(A12,"Change in Percent")</f>
-        <v>3.6092396535131253E-4</v>
+        <v>0</v>
       </c>
       <c r="M12" s="29">
         <f>_xll.RealtimeData(A12,"Dividend Yield")</f>
@@ -2693,7 +2649,7 @@
       </c>
       <c r="U12">
         <f>_xll.RealtimeData(T12,"MTD Percent Change")</f>
-        <v>0.10835541</v>
+        <v>0.13243437999999999</v>
       </c>
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.25">
@@ -2710,11 +2666,11 @@
     <row r="14" spans="1:22" x14ac:dyDescent="0.25">
       <c r="U14" s="29">
         <f t="array" ref="U14">MMULT(TRANSPOSE(O2:O12),U2:U12)</f>
-        <v>0.80516941187999991</v>
+        <v>0.5745312964899999</v>
       </c>
       <c r="V14" s="8">
         <f>U14*0.01</f>
-        <v>8.0516941187999992E-3</v>
+        <v>5.7453129648999991E-3</v>
       </c>
     </row>
     <row r="19" spans="5:16" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
@@ -2724,7 +2680,7 @@
       </c>
       <c r="F20" s="11">
         <f>SUM(F2:F5)</f>
-        <v>0.99476451831268686</v>
+        <v>0.99476073069595428</v>
       </c>
       <c r="H20" s="2" t="s">
         <v>14</v>
@@ -2743,32 +2699,32 @@
       </c>
       <c r="F21" s="11">
         <f>1-F20</f>
-        <v>5.2354816873131371E-3</v>
+        <v>5.2392693040457239E-3</v>
       </c>
       <c r="H21" s="2" t="s">
         <v>16</v>
       </c>
       <c r="I21" s="6">
         <f>SUM(I2:I20)</f>
-        <v>20001.980000000003</v>
+        <v>19987.52</v>
       </c>
       <c r="J21" t="s">
         <v>33</v>
       </c>
       <c r="K21" s="8">
         <f>SUMPRODUCT(K2:K7,F2:F7)</f>
-        <v>3.1604506581408849E-2</v>
+        <v>3.0131735356201811E-2</v>
       </c>
       <c r="M21" t="s">
         <v>34</v>
       </c>
       <c r="N21" s="8">
         <f t="array" ref="N21">MMULT(TRANSPOSE(F2:F5),L2:L5)</f>
-        <v>2.4426331793152289E-3</v>
+        <v>1.7510926818334641E-3</v>
       </c>
       <c r="P21" s="8">
         <f t="array" ref="P21">SUMPRODUCT(L2:L12,O2:O12)</f>
-        <v>1.9137721754176364E-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="5:16" x14ac:dyDescent="0.25">
@@ -2783,7 +2739,7 @@
       </c>
       <c r="K22" s="8">
         <f>_xll.RealtimeData(J22,"Change in Percent")</f>
-        <v>1.3688780355448379E-3</v>
+        <v>0</v>
       </c>
       <c r="L22" s="12">
         <v>0.6</v>
@@ -2795,7 +2751,7 @@
       </c>
       <c r="K23" s="8">
         <f>_xll.RealtimeData(J23,"Change in Percent")</f>
-        <v>1.0080302314596505E-3</v>
+        <v>0</v>
       </c>
       <c r="L23" s="12">
         <v>0.4</v>
@@ -2807,7 +2763,7 @@
       </c>
       <c r="K24" s="8">
         <f>_xll.RealtimeData(J24,"Change in Percent")</f>
-        <v>2.0183039287329364E-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="5:16" x14ac:dyDescent="0.25">
@@ -2816,7 +2772,7 @@
       </c>
       <c r="K25" s="8">
         <f t="array" ref="K25">SUMPRODUCT(K22:K23,L22:L23)</f>
-        <v>1.2245389139107629E-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="5:16" x14ac:dyDescent="0.25">
@@ -2825,14 +2781,14 @@
       </c>
       <c r="I26" s="6">
         <f>SUM(I2:I18)</f>
-        <v>19897.260000000002</v>
+        <v>19882.8</v>
       </c>
       <c r="J26" t="s">
         <v>56</v>
       </c>
       <c r="K26" s="8">
         <f>_xll.RealtimeData(J26,"Change in Percent")</f>
-        <v>-5.0761421319796898E-3</v>
+        <v>0</v>
       </c>
       <c r="L26" t="str">
         <f>_xll.RealtimeData(J26,"Description")</f>
@@ -2845,7 +2801,7 @@
       </c>
       <c r="K27" s="8">
         <f>AVERAGE(L2:L11)</f>
-        <v>1.4589327333426067E-3</v>
+        <v>4.0016090104064161E-4</v>
       </c>
     </row>
     <row r="28" spans="5:16" x14ac:dyDescent="0.25">
@@ -2854,7 +2810,7 @@
       </c>
       <c r="K28" s="8">
         <f>SUMPRODUCT(F2:F7,M2:M7)*0.01</f>
-        <v>1.4105108194288766E-2</v>
+        <v>1.4047517901170332E-2</v>
       </c>
       <c r="L28" t="s">
         <v>65</v>
@@ -2867,7 +2823,7 @@
     <row r="29" spans="5:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="30" spans="5:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H30" s="30">
-        <v>43320</v>
+        <v>43321</v>
       </c>
       <c r="I30" s="15" t="s">
         <v>61</v>
@@ -2888,19 +2844,19 @@
       </c>
       <c r="I31" s="21">
         <f>$N$21</f>
-        <v>2.4426331793152289E-3</v>
+        <v>1.7510926818334641E-3</v>
       </c>
       <c r="J31" s="21">
         <f>LOOKUP(2,1/(Daily!E:E&lt;&gt;""),Daily!E:E)</f>
-        <v>1.2018238089255284E-3</v>
+        <v>1.0268983370647078E-3</v>
       </c>
       <c r="K31" s="22">
         <f>VLOOKUP($H$30,Daily!$A:$AF,7,0)</f>
-        <v>7.739682270978987E-3</v>
+        <v>8.7745284748972363E-3</v>
       </c>
       <c r="L31" s="23">
         <f>VLOOKUP($H$30,Daily!$A:$AF,8,0)</f>
-        <v>9.9000000000071253E-5</v>
+        <v>1.1260000000001824E-3</v>
       </c>
     </row>
     <row r="32" spans="5:16" x14ac:dyDescent="0.25">
@@ -2909,19 +2865,19 @@
       </c>
       <c r="I32" s="24">
         <f>$K$25</f>
-        <v>1.2245389139107629E-3</v>
+        <v>0</v>
       </c>
       <c r="J32" s="24">
         <f>LOOKUP(2,1/(Daily!M:M&lt;&gt;""),Daily!M:M)</f>
-        <v>8.141112618722523E-5</v>
+        <v>-9.7976167886415499E-4</v>
       </c>
       <c r="K32" s="14">
         <f>VLOOKUP($H$30,Daily!$A:$AF,25,0)</f>
-        <v>2.0853450241516081E-2</v>
+        <v>1.9853257151233095E-2</v>
       </c>
       <c r="L32" s="25">
         <f>VLOOKUP($H$30,Daily!$A:$AF,31,0)</f>
-        <v>1.4992594135561088E-2</v>
+        <v>1.3998143287496045E-2</v>
       </c>
     </row>
     <row r="33" spans="8:18" x14ac:dyDescent="0.25">
@@ -2930,19 +2886,19 @@
       </c>
       <c r="I33" s="24">
         <f>$K$24</f>
-        <v>2.0183039287329364E-3</v>
+        <v>0</v>
       </c>
       <c r="J33" s="24">
         <f>LOOKUP(2,1/(Daily!L:L&lt;&gt;""),Daily!L:L)</f>
-        <v>-3.4786238564032956E-4</v>
+        <v>-9.0475693356995013E-4</v>
       </c>
       <c r="K33" s="14">
         <f>VLOOKUP($H$30,Daily!$A:$AF,24,0)</f>
-        <v>5.2444607214795713E-2</v>
+        <v>5.1492400659219895E-2</v>
       </c>
       <c r="L33" s="25">
         <f>VLOOKUP($H$30,Daily!$A:$AF,30,0)</f>
-        <v>7.917823896731635E-2</v>
+        <v>7.8201844973052825E-2</v>
       </c>
     </row>
     <row r="34" spans="8:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2951,19 +2907,19 @@
       </c>
       <c r="I34" s="26">
         <f>$K$26</f>
-        <v>-5.0761421319796898E-3</v>
+        <v>0</v>
       </c>
       <c r="J34" s="26">
         <f>LOOKUP(2,1/(Daily!N:N&lt;&gt;""),Daily!N:N)</f>
-        <v>2.8280542986425239E-3</v>
+        <v>-6.2041737168639921E-3</v>
       </c>
       <c r="K34" s="27">
         <f>VLOOKUP($H$30,Daily!$A:$AF,26,0)</f>
-        <v>1.8965517241379404E-2</v>
+        <v>1.2643678160919825E-2</v>
       </c>
       <c r="L34" s="28">
         <f>VLOOKUP($H$30,Daily!$A:$AF,32,0)</f>
-        <v>2.8257507968215689E-2</v>
+        <v>2.1878019763111212E-2</v>
       </c>
     </row>
     <row r="35" spans="8:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -2998,7 +2954,7 @@
       </c>
       <c r="I37" s="46">
         <f>AVERAGE(Daily!E$3:E380)</f>
-        <v>1.3858264617727656E-5</v>
+        <v>2.8126434652192166E-5</v>
       </c>
       <c r="J37" s="44"/>
       <c r="K37" s="22"/>
@@ -3006,23 +2962,23 @@
       <c r="M37" s="50"/>
       <c r="N37" s="38">
         <f>AVERAGE(Daily!J$3:J380)</f>
-        <v>3.5563128369900398E-4</v>
+        <v>3.1431719175485054E-4</v>
       </c>
       <c r="O37" s="22">
         <f>AVERAGE(Daily!K$3:K380)</f>
-        <v>1.3723958164340587E-5</v>
+        <v>3.3489813251370249E-5</v>
       </c>
       <c r="P37" s="22">
         <f>AVERAGE(Daily!L$3:L380)</f>
-        <v>1.1058866153796267E-3</v>
+        <v>1.0775676921549848E-3</v>
       </c>
       <c r="Q37" s="22">
         <f>AVERAGE(Daily!M$3:M380)</f>
-        <v>2.1886835348513859E-4</v>
+        <v>2.0198624035345841E-4</v>
       </c>
       <c r="R37" s="23">
         <f>AVERAGE(Daily!N$3:N380)</f>
-        <v>4.3015889876375589E-4</v>
+        <v>3.3671759431829466E-4</v>
       </c>
     </row>
     <row r="38" spans="8:18" x14ac:dyDescent="0.25">
@@ -3031,7 +2987,7 @@
       </c>
       <c r="I38" s="47">
         <f>STDEV(Daily!E$3:E380)</f>
-        <v>5.0229837953902016E-3</v>
+        <v>4.9884252659307005E-3</v>
       </c>
       <c r="J38" s="45"/>
       <c r="K38" s="14"/>
@@ -3039,23 +2995,23 @@
       <c r="M38" s="51"/>
       <c r="N38" s="40">
         <f>STDEV(Daily!J$3:J380)</f>
-        <v>6.0769209420381181E-3</v>
+        <v>6.0433929291286766E-3</v>
       </c>
       <c r="O38" s="14">
         <f>STDEV(Daily!K$3:K380)</f>
-        <v>1.7784206186656198E-3</v>
+        <v>1.7735095849414476E-3</v>
       </c>
       <c r="P38" s="14">
         <f>STDEV(Daily!L$3:L380)</f>
-        <v>5.8239571569626879E-3</v>
+        <v>5.7871293881757062E-3</v>
       </c>
       <c r="Q38" s="14">
         <f>STDEV(Daily!M$3:M380)</f>
-        <v>3.5614101886676805E-3</v>
+        <v>3.5387403191590085E-3</v>
       </c>
       <c r="R38" s="25">
         <f>STDEV(Daily!N$3:N380)</f>
-        <v>8.0580607389400243E-3</v>
+        <v>8.0389463655380945E-3</v>
       </c>
     </row>
     <row r="39" spans="8:18" x14ac:dyDescent="0.25">
@@ -3064,7 +3020,7 @@
       </c>
       <c r="I39" s="48">
         <f>COUNTIF(Daily!E$3:E380,"&gt;0")</f>
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J39" s="45"/>
       <c r="K39" s="14"/>
@@ -3076,7 +3032,7 @@
       </c>
       <c r="O39" s="33">
         <f>COUNTIF(Daily!K$3:K380,"&gt;0")</f>
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="P39" s="33">
         <f>COUNTIF(Daily!L$3:L380,"&gt;0")</f>
@@ -3097,7 +3053,7 @@
       </c>
       <c r="I40" s="47">
         <f>SUMIF(Daily!E$3:E380,"&gt;0")</f>
-        <v>0.12977287778895619</v>
+        <v>0.13079977612602089</v>
       </c>
       <c r="J40" s="45"/>
       <c r="K40" s="14"/>
@@ -3109,7 +3065,7 @@
       </c>
       <c r="O40" s="14">
         <f>SUMIF(Daily!K$3:K380,"&gt;0")</f>
-        <v>4.7907498072748966E-2</v>
+        <v>4.9324597742092413E-2</v>
       </c>
       <c r="P40" s="14">
         <f>SUMIF(Daily!L$3:L380,"&gt;0")</f>
@@ -3138,7 +3094,7 @@
       <c r="M41" s="51"/>
       <c r="N41" s="40">
         <f>SUMIF(Daily!J$3:J380,"&lt;0")</f>
-        <v>-0.15067141605246498</v>
+        <v>-0.15324908529680087</v>
       </c>
       <c r="O41" s="14">
         <f>SUMIF(Daily!K$3:K380,"&lt;0")</f>
@@ -3146,15 +3102,15 @@
       </c>
       <c r="P41" s="14">
         <f>SUMIF(Daily!L$3:L380,"&lt;0")</f>
-        <v>-0.12424972483768511</v>
+        <v>-0.12515448177125504</v>
       </c>
       <c r="Q41" s="14">
         <f>SUMIF(Daily!M$3:M380,"&lt;0")</f>
-        <v>-8.7906716237794877E-2</v>
+        <v>-8.8886477916659032E-2</v>
       </c>
       <c r="R41" s="25">
         <f>SUMIF(Daily!N$3:N380,"&lt;0")</f>
-        <v>-0.2032606039243276</v>
+        <v>-0.20946477764119159</v>
       </c>
     </row>
     <row r="42" spans="8:18" x14ac:dyDescent="0.25">
@@ -3163,7 +3119,7 @@
       </c>
       <c r="I42" s="48">
         <f>COUNT(Daily!E$3:E380)</f>
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="J42" s="45"/>
       <c r="K42" s="14"/>
@@ -3171,23 +3127,23 @@
       <c r="M42" s="51"/>
       <c r="N42" s="41">
         <f>COUNT(Daily!J$3:J380)</f>
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="O42" s="33">
         <f>COUNT(Daily!K$3:K380)</f>
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="P42" s="33">
         <f>COUNT(Daily!L$3:L380)</f>
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Q42" s="33">
         <f>COUNT(Daily!M$3:M380)</f>
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="R42" s="35">
         <f>COUNT(Daily!N$3:N380)</f>
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="43" spans="8:18" x14ac:dyDescent="0.25">
@@ -3204,7 +3160,7 @@
       <c r="M43" s="51"/>
       <c r="N43" s="41">
         <f>N42-N39</f>
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="O43" s="33">
         <f>O42-O39</f>
@@ -3212,15 +3168,15 @@
       </c>
       <c r="P43" s="33">
         <f>P42-P39</f>
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="Q43" s="33">
         <f>Q42-Q39</f>
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="R43" s="35">
         <f>R42-R39</f>
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="44" spans="8:18" x14ac:dyDescent="0.25">
@@ -3229,7 +3185,7 @@
       </c>
       <c r="I44" s="49">
         <f>(I40/I41)*(I39/I43)*-1</f>
-        <v>1.3433753358236642</v>
+        <v>1.387855660420243</v>
       </c>
       <c r="J44" s="45"/>
       <c r="K44" s="14"/>
@@ -3237,23 +3193,23 @@
       <c r="M44" s="51"/>
       <c r="N44" s="42">
         <f>(N40/N41)*(N39/N43)*-1</f>
-        <v>1.2337641695070358</v>
+        <v>1.1783546096249486</v>
       </c>
       <c r="O44" s="34">
         <f>(O40/O41)*(O39/O43)*-1</f>
-        <v>1.0204630910254469</v>
+        <v>1.080666824319148</v>
       </c>
       <c r="P44" s="34">
         <f>(P40/P41)*(P39/P43)*-1</f>
-        <v>2.2946372344460482</v>
+        <v>2.2021140560235235</v>
       </c>
       <c r="Q44" s="34">
         <f>(Q40/Q41)*(Q39/Q43)*-1</f>
-        <v>1.3944629336879948</v>
+        <v>1.337301625844457</v>
       </c>
       <c r="R44" s="36">
         <f>(R40/R41)*(R39/R43)*-1</f>
-        <v>1.6232330888179249</v>
+        <v>1.5226491231761474</v>
       </c>
     </row>
     <row r="45" spans="8:18" x14ac:dyDescent="0.25">
@@ -3262,7 +3218,7 @@
       </c>
       <c r="I45" s="62">
         <f>I39/I42</f>
-        <v>0.5714285714285714</v>
+        <v>0.57746478873239437</v>
       </c>
       <c r="J45" s="63"/>
       <c r="K45" s="64"/>
@@ -3270,23 +3226,23 @@
       <c r="M45" s="66"/>
       <c r="N45" s="67">
         <f>N39/N42</f>
-        <v>0.51428571428571423</v>
+        <v>0.50704225352112675</v>
       </c>
       <c r="O45" s="64">
         <f>O39/O42</f>
-        <v>0.5</v>
+        <v>0.50704225352112675</v>
       </c>
       <c r="P45" s="64">
         <f>P39/P42</f>
-        <v>0.58571428571428574</v>
+        <v>0.57746478873239437</v>
       </c>
       <c r="Q45" s="64">
         <f>Q39/Q42</f>
-        <v>0.54285714285714282</v>
+        <v>0.53521126760563376</v>
       </c>
       <c r="R45" s="68">
         <f>R39/R42</f>
-        <v>0.58571428571428574</v>
+        <v>0.57746478873239437</v>
       </c>
     </row>
     <row r="46" spans="8:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3334,13 +3290,13 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:AN72"/>
+  <dimension ref="A1:AN73"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="L49" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B49" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="V83" sqref="V83"/>
+      <selection pane="bottomRight" activeCell="E82" sqref="E82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9356,7 +9312,7 @@
         <v>43291</v>
       </c>
       <c r="B51" s="4">
-        <f t="shared" ref="B51:B72" si="812">D51-C51</f>
+        <f t="shared" ref="B51:B73" si="812">D51-C51</f>
         <v>19902.79</v>
       </c>
       <c r="C51" s="4">
@@ -12341,6 +12297,142 @@
       <c r="AN72" s="8">
         <f t="shared" ref="AN72" si="1283">MIN(0,(T72-MAX(T43:T72))/MAX(T43:T72))</f>
         <v>-8.9435438792623365E-3</v>
+      </c>
+    </row>
+    <row r="73" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A73" s="9">
+        <v>43321</v>
+      </c>
+      <c r="B73" s="4">
+        <f t="shared" si="812"/>
+        <v>19917.810000000001</v>
+      </c>
+      <c r="C73" s="4">
+        <v>104.71</v>
+      </c>
+      <c r="D73" s="4">
+        <f>19988.44+34.08</f>
+        <v>20022.52</v>
+      </c>
+      <c r="E73" s="5">
+        <f t="shared" ref="E73" si="1284">D73/D72-1</f>
+        <v>1.0268983370647078E-3</v>
+      </c>
+      <c r="F73" s="10">
+        <f t="shared" ref="F73" si="1285">F72*(1+E73)</f>
+        <v>100.11260000000003</v>
+      </c>
+      <c r="G73" s="5">
+        <f t="shared" ref="G73" si="1286">F73/F$45-1</f>
+        <v>8.7745284748972363E-3</v>
+      </c>
+      <c r="H73" s="8">
+        <f t="shared" ref="H73" si="1287">F73/$F$2-1</f>
+        <v>1.1260000000001824E-3</v>
+      </c>
+      <c r="J73" s="11">
+        <f>VLOOKUP($A73,Prices!$A:$J,MATCH(J$1,Prices!$1:$1,0),0)</f>
+        <v>-2.5776692443358895E-3</v>
+      </c>
+      <c r="K73" s="11">
+        <f>VLOOKUP($A73,Prices!$A:$J,MATCH(K$1,Prices!$1:$1,0),0)</f>
+        <v>1.4170996693434468E-3</v>
+      </c>
+      <c r="L73" s="11">
+        <f>VLOOKUP($A73,Prices!$A:$J,MATCH(L$1,Prices!$1:$1,0),0)</f>
+        <v>-9.0475693356995013E-4</v>
+      </c>
+      <c r="M73" s="11">
+        <f t="shared" ref="M73" si="1288">0.6*J73 + 0.4*K73</f>
+        <v>-9.7976167886415499E-4</v>
+      </c>
+      <c r="N73" s="11">
+        <f>VLOOKUP($A73,Prices!$A:$J,MATCH(N$1,Prices!$1:$1,0),0)</f>
+        <v>-6.2041737168639921E-3</v>
+      </c>
+      <c r="P73" s="10">
+        <f t="shared" ref="P73" si="1289">P72*(1+J73)</f>
+        <v>102.12561751434727</v>
+      </c>
+      <c r="Q73" s="10">
+        <f t="shared" ref="Q73" si="1290">Q72*(1+K73)</f>
+        <v>100.22702753856336</v>
+      </c>
+      <c r="R73" s="10">
+        <f t="shared" ref="R73" si="1291">R72*(1+L73)</f>
+        <v>107.82018449730529</v>
+      </c>
+      <c r="S73" s="10">
+        <f t="shared" ref="S73" si="1292">S72*(1+M73)</f>
+        <v>101.39981432874961</v>
+      </c>
+      <c r="T73" s="10">
+        <f t="shared" ref="T73" si="1293">T72*(1+N73)</f>
+        <v>102.18780197631112</v>
+      </c>
+      <c r="V73" s="5">
+        <f t="shared" ref="V73" si="1294">P73/P$45-1</f>
+        <v>3.3745781777277939E-2</v>
+      </c>
+      <c r="W73" s="5">
+        <f t="shared" ref="W73" si="1295">Q73/Q$45-1</f>
+        <v>-8.5587063157277488E-4</v>
+      </c>
+      <c r="X73" s="5">
+        <f t="shared" ref="X73" si="1296">R73/R$45-1</f>
+        <v>5.1492400659219895E-2</v>
+      </c>
+      <c r="Y73" s="5">
+        <f t="shared" ref="Y73" si="1297">S73/S$45-1</f>
+        <v>1.9853257151233095E-2</v>
+      </c>
+      <c r="Z73" s="5">
+        <f t="shared" ref="Z73" si="1298">T73/T$45-1</f>
+        <v>1.2643678160919825E-2</v>
+      </c>
+      <c r="AB73" s="8">
+        <f t="shared" ref="AB73" si="1299">P73/$P$2-1</f>
+        <v>2.1256175143472777E-2</v>
+      </c>
+      <c r="AC73" s="8">
+        <f t="shared" ref="AC73" si="1300">Q73/$P$2-1</f>
+        <v>2.2702753856336244E-3</v>
+      </c>
+      <c r="AD73" s="8">
+        <f t="shared" ref="AD73" si="1301">R73/$P$2-1</f>
+        <v>7.8201844973052825E-2</v>
+      </c>
+      <c r="AE73" s="8">
+        <f t="shared" ref="AE73" si="1302">S73/$P$2-1</f>
+        <v>1.3998143287496045E-2</v>
+      </c>
+      <c r="AF73" s="8">
+        <f t="shared" ref="AF73" si="1303">T73/$T$2-1</f>
+        <v>2.1878019763111212E-2</v>
+      </c>
+      <c r="AI73" s="8">
+        <f t="shared" ref="AI73" si="1304">MIN(0,(F73-MAX(F44:F73))/MAX(F44:F73))</f>
+        <v>-1.1443987815692004E-3</v>
+      </c>
+      <c r="AJ73" s="8">
+        <f t="shared" ref="AJ73" si="1305">MIN(0,(P73-MAX(P44:P73))/MAX(P44:P73))</f>
+        <v>-4.872766648619198E-3</v>
+      </c>
+      <c r="AK73" s="8">
+        <f t="shared" ref="AK73" si="1306">MIN(0,(Q73-MAX(Q44:Q73))/MAX(Q44:Q73))</f>
+        <v>-4.7882827903483801E-3</v>
+      </c>
+      <c r="AL73" s="8">
+        <f t="shared" ref="AL73" si="1307">MIN(0,(R73-MAX(R44:R73))/MAX(R44:R73))</f>
+        <v>-1.2523045883048413E-3</v>
+      </c>
+      <c r="AM73" s="8">
+        <f t="shared" ref="AM73" si="1308">MIN(0,(S73-MAX(S44:S73))/MAX(S44:S73))</f>
+        <v>-3.140480198829323E-3</v>
+      </c>
+      <c r="AN73" s="8">
+        <f t="shared" ref="AN73" si="1309">MIN(0,(T73-MAX(T44:T73))/MAX(T44:T73))</f>
+        <v>-1.5092230296254972E-2</v>
       </c>
     </row>
   </sheetData>
@@ -12354,7 +12446,7 @@
   <dimension ref="A1:J78"/>
   <sheetViews>
     <sheetView topLeftCell="A51" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="H85" sqref="H85"/>
+      <selection activeCell="F88" sqref="F88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15016,37 +15108,40 @@
       </c>
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B74" t="str">
+      <c r="A74" s="13">
+        <v>43321</v>
+      </c>
+      <c r="B74">
         <f t="array" ref="B74">_xll.HistoricalData(B$1,"Adj. Close",$A74,$A74,"Daily","RemoveHeaders = True","ReverseOrder =True","RemoveDates =""True")</f>
-        <v>--</v>
-      </c>
-      <c r="C74" t="str">
+        <v>73.52</v>
+      </c>
+      <c r="C74">
         <f t="array" ref="C74">_xll.HistoricalData(C$1,"Adj. Close",$A74,$A74,"Daily","RemoveHeaders = True","ReverseOrder =True","RemoveDates =""True")</f>
-        <v>--</v>
-      </c>
-      <c r="D74" t="str">
+        <v>106</v>
+      </c>
+      <c r="D74">
         <f t="array" ref="D74">_xll.HistoricalData(D$1,"Adj. Close",$A74,$A74,"Daily","RemoveHeaders = True","ReverseOrder =True","RemoveDates =""True")</f>
-        <v>--</v>
-      </c>
-      <c r="E74" t="str">
+        <v>287.11</v>
+      </c>
+      <c r="E74">
         <f t="array" ref="E74">_xll.HistoricalData(E$1,"Adj. Close",$A74,$A74,"Daily","RemoveHeaders = True","ReverseOrder =True","RemoveDates =""True")</f>
-        <v>--</v>
-      </c>
-      <c r="G74" s="5" t="e">
+        <v>17.62</v>
+      </c>
+      <c r="G74" s="5">
         <f t="shared" si="220"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="H74" s="5" t="e">
+        <v>-2.5776692443358895E-3</v>
+      </c>
+      <c r="H74" s="5">
         <f t="shared" si="221"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I74" s="5" t="e">
+        <v>1.4170996693434468E-3</v>
+      </c>
+      <c r="I74" s="5">
         <f t="shared" si="222"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="J74" s="5" t="e">
+        <v>-9.0475693356995013E-4</v>
+      </c>
+      <c r="J74" s="5">
         <f t="shared" si="223"/>
-        <v>#VALUE!</v>
+        <v>-6.2041737168639921E-3</v>
       </c>
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.25">
@@ -15194,7 +15289,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+    <sheetView topLeftCell="A6" workbookViewId="0">
       <selection activeCell="S31" sqref="S31"/>
     </sheetView>
   </sheetViews>
@@ -15233,7 +15328,7 @@
       </c>
       <c r="G2" s="74">
         <f>SUM(G5:G10)</f>
-        <v>0.99273339871534994</v>
+        <v>0.99272100182986822</v>
       </c>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.25">
@@ -15285,7 +15380,7 @@
       </c>
       <c r="C5">
         <f>_xll.RealtimeData(A5,"Last")</f>
-        <v>368.35</v>
+        <v>366.87</v>
       </c>
       <c r="D5">
         <f>ROUNDDOWN(($C$2/6)/B5,0)</f>
@@ -15293,19 +15388,19 @@
       </c>
       <c r="E5" s="8">
         <f>C5/B5-1</f>
-        <v>0.10965506853441798</v>
+        <v>0.10519656574785374</v>
       </c>
       <c r="F5">
         <f>C5*D5</f>
-        <v>12892.25</v>
+        <v>12840.45</v>
       </c>
       <c r="G5" s="73">
         <f>F5/$F$13</f>
-        <v>0.1765834927563581</v>
+        <v>0.17617403738463167</v>
       </c>
       <c r="H5" s="8">
         <f>F5/$F$31</f>
-        <v>0.12486849146082236</v>
+        <v>0.12459940850347574</v>
       </c>
       <c r="I5">
         <f>B5*D5</f>
@@ -15322,7 +15417,7 @@
       </c>
       <c r="C6">
         <f>_xll.RealtimeData(A6,"Last")</f>
-        <v>1899.1</v>
+        <v>1898.52</v>
       </c>
       <c r="D6">
         <f t="shared" ref="D6:D10" si="0">ROUNDDOWN(($C$2/6)/B6,0)</f>
@@ -15330,19 +15425,19 @@
       </c>
       <c r="E6" s="8">
         <f t="shared" ref="E6:E10" si="1">C6/B6-1</f>
-        <v>0.16536370442188986</v>
+        <v>0.16500779322786907</v>
       </c>
       <c r="F6">
         <f t="shared" ref="F6:F9" si="2">C6*D6</f>
-        <v>13293.699999999999</v>
+        <v>13289.64</v>
       </c>
       <c r="G6" s="73">
         <f t="shared" ref="G6:G10" si="3">F6/$F$13</f>
-        <v>0.18208210185616922</v>
+        <v>0.1823370313492359</v>
       </c>
       <c r="H6" s="8">
         <f t="shared" ref="H6:H10" si="4">F6/$F$31</f>
-        <v>0.12875675424636771</v>
+        <v>0.12895819719901805</v>
       </c>
       <c r="I6">
         <f t="shared" ref="I6:I10" si="5">B6*D6</f>
@@ -15359,7 +15454,7 @@
       </c>
       <c r="C7">
         <f>_xll.RealtimeData(A7,"Last")</f>
-        <v>43.93</v>
+        <v>43.78</v>
       </c>
       <c r="D7">
         <f t="shared" si="0"/>
@@ -15367,19 +15462,19 @@
       </c>
       <c r="E7" s="8">
         <f t="shared" si="1"/>
-        <v>3.657385559226034E-2</v>
+        <v>3.3034450212364286E-2</v>
       </c>
       <c r="F7">
         <f t="shared" si="2"/>
-        <v>12080.75</v>
+        <v>12039.5</v>
       </c>
       <c r="G7" s="73">
         <f t="shared" si="3"/>
-        <v>0.16546848146106174</v>
+        <v>0.1651848122995902</v>
       </c>
       <c r="H7" s="8">
         <f t="shared" si="4"/>
-        <v>0.11700867018676568</v>
+        <v>0.11682725906627853</v>
       </c>
       <c r="I7">
         <f t="shared" si="5"/>
@@ -15396,7 +15491,7 @@
       </c>
       <c r="C8">
         <f>_xll.RealtimeData(A8,"Last")</f>
-        <v>526.24130000000002</v>
+        <v>522.69000000000005</v>
       </c>
       <c r="D8">
         <f t="shared" si="0"/>
@@ -15404,19 +15499,19 @@
       </c>
       <c r="E8" s="8">
         <f t="shared" si="1"/>
-        <v>0.14482411295059494</v>
+        <v>0.13709835316640206</v>
       </c>
       <c r="F8">
         <f t="shared" si="2"/>
-        <v>13156.032500000001</v>
+        <v>13067.250000000002</v>
       </c>
       <c r="G8" s="73">
         <f t="shared" si="3"/>
-        <v>0.18019648778655098</v>
+        <v>0.17928578749298726</v>
       </c>
       <c r="H8" s="8">
         <f t="shared" si="4"/>
-        <v>0.12742336922449934</v>
+        <v>0.12680019942969628</v>
       </c>
       <c r="I8">
         <f t="shared" si="5"/>
@@ -15433,7 +15528,7 @@
       </c>
       <c r="C9">
         <f>_xll.RealtimeData(A9,"Last")</f>
-        <v>52.15</v>
+        <v>52.26</v>
       </c>
       <c r="D9">
         <f t="shared" si="0"/>
@@ -15441,19 +15536,19 @@
       </c>
       <c r="E9" s="8">
         <f t="shared" si="1"/>
-        <v>-9.4460843896509883E-2</v>
+        <v>-9.2550790067720157E-2</v>
       </c>
       <c r="F9">
         <f t="shared" si="2"/>
-        <v>10534.3</v>
+        <v>10556.52</v>
       </c>
       <c r="G9" s="73">
         <f t="shared" si="3"/>
-        <v>0.14428695439068456</v>
+        <v>0.14483797290060799</v>
       </c>
       <c r="H9" s="8">
         <f t="shared" si="4"/>
-        <v>0.10203045625051801</v>
+        <v>0.10243691987859552</v>
       </c>
       <c r="I9">
         <f t="shared" si="5"/>
@@ -15470,7 +15565,7 @@
       </c>
       <c r="C10">
         <f>_xll.RealtimeData(A10,"Last")</f>
-        <v>50.83</v>
+        <v>51.02</v>
       </c>
       <c r="D10">
         <f t="shared" si="0"/>
@@ -15478,19 +15573,19 @@
       </c>
       <c r="E10" s="8">
         <f t="shared" si="1"/>
-        <v>-9.7959183673469452E-2</v>
+        <v>-9.4587400177462255E-2</v>
       </c>
       <c r="F10">
         <f>C10*D10</f>
-        <v>10521.81</v>
+        <v>10561.140000000001</v>
       </c>
       <c r="G10" s="73">
         <f t="shared" si="3"/>
-        <v>0.14411588046452528</v>
+        <v>0.14490136040281526</v>
       </c>
       <c r="H10" s="8">
         <f t="shared" si="4"/>
-        <v>0.10190948377028024</v>
+        <v>0.10248175080487039</v>
       </c>
       <c r="I10">
         <f t="shared" si="5"/>
@@ -15509,7 +15604,7 @@
       </c>
       <c r="F13" s="75">
         <f>SUM(F5:F10)+I13</f>
-        <v>73009.372499999998</v>
+        <v>72885.03</v>
       </c>
       <c r="H13" t="s">
         <v>26</v>
@@ -15525,7 +15620,7 @@
       </c>
       <c r="F14" s="8">
         <f>F13/C2-1</f>
-        <v>4.2991035714285752E-2</v>
+        <v>4.1214714285714216E-2</v>
       </c>
     </row>
     <row r="15" spans="1:23" x14ac:dyDescent="0.25">
@@ -15536,7 +15631,7 @@
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H17" s="11">
         <f>SUM(H20:H23)</f>
-        <v>0.98827340449280265</v>
+        <v>0.98824680970392254</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
@@ -15578,7 +15673,7 @@
       </c>
       <c r="C20">
         <f>_xll.RealtimeData(A20,"Last")</f>
-        <v>17.16</v>
+        <v>17.04</v>
       </c>
       <c r="D20">
         <f>ROUNDDOWN(($C$3*E20)/B20,0)</f>
@@ -15589,19 +15684,19 @@
       </c>
       <c r="F20" s="8">
         <f>C20/B20-1</f>
-        <v>9.4117647058824527E-3</v>
+        <v>2.3529411764704466E-3</v>
       </c>
       <c r="G20">
         <f>D20*C20</f>
-        <v>4290</v>
+        <v>4260</v>
       </c>
       <c r="H20" s="8">
         <f>G20/$G$27</f>
-        <v>0.14187798162862031</v>
+        <v>0.14120534339581611</v>
       </c>
       <c r="I20" s="8">
         <f>G20/$F$31</f>
-        <v>4.1550996014421686E-2</v>
+        <v>4.1337607344353711E-2</v>
       </c>
       <c r="J20">
         <f>B20*D20</f>
@@ -15618,7 +15713,7 @@
       </c>
       <c r="C21">
         <f>_xll.RealtimeData(A21,"Last")</f>
-        <v>287.95</v>
+        <v>287.11</v>
       </c>
       <c r="D21">
         <f t="shared" ref="D21:D22" si="6">ROUNDDOWN(($C$3*E21)/B21,0)</f>
@@ -15629,19 +15724,19 @@
       </c>
       <c r="F21" s="8">
         <f t="shared" ref="F21:F23" si="7">C21/B21-1</f>
-        <v>1.7922794117646967E-2</v>
+        <v>1.4953337104072428E-2</v>
       </c>
       <c r="G21">
         <f t="shared" ref="G21:G22" si="8">D21*C21</f>
-        <v>10942.1</v>
+        <v>10910.18</v>
       </c>
       <c r="H21" s="8">
         <f t="shared" ref="H21:H23" si="9">G21/$G$27</f>
-        <v>0.36187483980851431</v>
+        <v>0.36163749141083684</v>
       </c>
       <c r="I21" s="8">
         <f t="shared" ref="I21:I23" si="10">G21/$F$31</f>
-        <v>0.10598022225860222</v>
+        <v>0.10586871758127253</v>
       </c>
       <c r="J21">
         <f t="shared" ref="J21:J23" si="11">B21*D21</f>
@@ -15658,7 +15753,7 @@
       </c>
       <c r="C22">
         <f>_xll.RealtimeData(A22,"Last")</f>
-        <v>81.53</v>
+        <v>81.48</v>
       </c>
       <c r="D22">
         <f t="shared" si="6"/>
@@ -15669,19 +15764,19 @@
       </c>
       <c r="F22" s="8">
         <f t="shared" si="7"/>
-        <v>1.226692836113763E-4</v>
+        <v>-4.9067713444539418E-4</v>
       </c>
       <c r="G22">
         <f t="shared" si="8"/>
-        <v>11740.32</v>
+        <v>11733.12</v>
       </c>
       <c r="H22" s="8">
         <f t="shared" si="9"/>
-        <v>0.38827340449280268</v>
+        <v>0.38891531424983988</v>
       </c>
       <c r="I22" s="8">
         <f t="shared" si="10"/>
-        <v>0.11371141947040447</v>
+        <v>0.11385425058314166</v>
       </c>
       <c r="J22">
         <f t="shared" si="11"/>
@@ -15698,7 +15793,7 @@
       </c>
       <c r="C23">
         <f>_xll.RealtimeData(A23,"Last")</f>
-        <v>83.15</v>
+        <v>83.17</v>
       </c>
       <c r="D23">
         <f>ROUNDDOWN(($C$3*E23)/B23,0)</f>
@@ -15709,19 +15804,19 @@
       </c>
       <c r="F23" s="8">
         <f t="shared" si="7"/>
-        <v>1.0835540573079783E-3</v>
+        <v>1.3243438478207636E-3</v>
       </c>
       <c r="G23">
         <f>D23*C23</f>
-        <v>2910.25</v>
+        <v>2910.9500000000003</v>
       </c>
       <c r="H23" s="8">
         <f t="shared" si="9"/>
-        <v>9.6247178562865326E-2</v>
+        <v>9.6488660647429794E-2</v>
       </c>
       <c r="I23" s="8">
         <f t="shared" si="10"/>
-        <v>2.8187362739154009E-2</v>
+        <v>2.8246879835456914E-2</v>
       </c>
       <c r="J23">
         <f t="shared" si="11"/>
@@ -15737,7 +15832,7 @@
       </c>
       <c r="G27">
         <f>SUM(G20:G23)+J28</f>
-        <v>30237.250000000004</v>
+        <v>30168.830000000009</v>
       </c>
       <c r="J27">
         <f>SUM(J20:J23)</f>
@@ -15750,7 +15845,7 @@
       </c>
       <c r="G28" s="8">
         <f>G27/J27-1</f>
-        <v>1.9963623386007212E-2</v>
+        <v>1.7655678347616943E-2</v>
       </c>
       <c r="I28" t="s">
         <v>26</v>
@@ -15766,7 +15861,7 @@
       </c>
       <c r="F31" s="75">
         <f>SUM(F13,G27)</f>
-        <v>103246.6225</v>
+        <v>103053.86000000002</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
@@ -15775,11 +15870,11 @@
       </c>
       <c r="F33" s="8">
         <f>F31/B1-1</f>
-        <v>3.2466225000000071E-2</v>
+        <v>3.0538600000000082E-2</v>
       </c>
       <c r="H33" s="11">
         <f>F33-F37</f>
-        <v>-6.7900095707164945E-3</v>
+        <v>-6.8909149986375179E-3</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
@@ -15792,16 +15887,16 @@
       </c>
       <c r="C37">
         <f>_xll.RealtimeData(A37,"Last")</f>
-        <v>38.529200000000003</v>
+        <v>38.46</v>
       </c>
       <c r="D37" s="8">
         <f>C37/B37-1</f>
-        <v>7.0360690015682792E-3</v>
+        <v>5.2273915316258801E-3</v>
       </c>
       <c r="E37" s="11"/>
       <c r="F37" s="8">
         <f>D37*$B$3+D40*$B$2</f>
-        <v>3.9256234570716565E-2</v>
+        <v>3.74295149986376E-2</v>
       </c>
       <c r="H37" s="8"/>
       <c r="I37" s="8"/>
@@ -15816,11 +15911,11 @@
       </c>
       <c r="C38">
         <f>_xll.RealtimeData(A38,"Last")</f>
-        <v>287.95</v>
+        <v>287.11</v>
       </c>
       <c r="D38" s="8">
         <f t="shared" ref="D38:D39" si="12">C38/B38-1</f>
-        <v>5.5806108605580551E-2</v>
+        <v>5.2726139405272487E-2</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
@@ -15833,11 +15928,11 @@
       </c>
       <c r="C39">
         <f>_xll.RealtimeData(A39,"Last")</f>
-        <v>182.41</v>
+        <v>181.91</v>
       </c>
       <c r="D39" s="8">
         <f t="shared" si="12"/>
-        <v>7.2558358323043581E-2</v>
+        <v>6.9618392426647802E-2</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
@@ -15850,11 +15945,11 @@
       </c>
       <c r="C40">
         <f>_xll.RealtimeData(A40,"Last")</f>
-        <v>47.072000000000003</v>
+        <v>46.99</v>
       </c>
       <c r="D40" s="8">
         <f>C40/B40-1</f>
-        <v>5.30648769574944E-2</v>
+        <v>5.1230425055928341E-2</v>
       </c>
     </row>
   </sheetData>

--- a/Portfolio.xlsx
+++ b/Portfolio.xlsx
@@ -1031,377 +1031,7 @@
 <file path=xl/volatileDependencies.xml><?xml version="1.0" encoding="utf-8"?>
 <volTypes xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <volType type="realTimeData">
-    <main first="rtdsrv.8f0d5fab636644cdbc13eada27ce3821">
-      <tp>
-        <v>0</v>
-        <stp/>
-        <stp>ACWI</stp>
-        <stp>change in percent</stp>
-        <tr r="K22" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.8f0d5fab636644cdbc13eada27ce3821">
-      <tp>
-        <v>1.1227418499999999</v>
-        <stp/>
-        <stp>TLT</stp>
-        <stp>mtd percent change</stp>
-        <tr r="U5" s="1"/>
-      </tp>
-      <tp>
-        <v>-0.43037975000000001</v>
-        <stp/>
-        <stp>RWX</stp>
-        <stp>mtd percent change</stp>
-        <tr r="U6" s="1"/>
-      </tp>
-      <tp>
-        <v>0.13243437999999999</v>
-        <stp/>
-        <stp>SHY</stp>
-        <stp>mtd percent change</stp>
-        <tr r="U12" s="1"/>
-      </tp>
-      <tp>
-        <v>-0.91304348000000002</v>
-        <stp/>
-        <stp>IEV</stp>
-        <stp>mtd percent change</stp>
-        <tr r="U9" s="1"/>
-      </tp>
-      <tp>
-        <v>0.58219854000000004</v>
-        <stp/>
-        <stp>IEF</stp>
-        <stp>mtd percent change</stp>
-        <tr r="U11" s="1"/>
-      </tp>
-      <tp>
-        <v>-4.906771E-2</v>
-        <stp/>
-        <stp>IYR</stp>
-        <stp>mtd percent change</stp>
-        <tr r="U4" s="1"/>
-      </tp>
-      <tp>
-        <v>1.4953337099999999</v>
-        <stp/>
-        <stp>IVV</stp>
-        <stp>mtd percent change</stp>
-        <tr r="U3" s="1"/>
-      </tp>
-      <tp>
-        <v>-0.34740315999999999</v>
-        <stp/>
-        <stp>GLD</stp>
-        <stp>mtd percent change</stp>
-        <tr r="U8" s="1"/>
-      </tp>
-      <tp>
-        <v>0.23529412</v>
-        <stp/>
-        <stp>DBC</stp>
-        <stp>mtd percent change</stp>
-        <tr r="U2" s="1"/>
-      </tp>
-      <tp>
-        <v>-0.74224022000000001</v>
-        <stp/>
-        <stp>EEM</stp>
-        <stp>mtd percent change</stp>
-        <tr r="U10" s="1"/>
-      </tp>
-      <tp>
-        <v>-0.96757766000000001</v>
-        <stp/>
-        <stp>EWJ</stp>
-        <stp>mtd percent change</stp>
-        <tr r="U7" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.8f0d5fab636644cdbc13eada27ce3821">
-      <tp>
-        <v>0</v>
-        <stp/>
-        <stp>GYLD</stp>
-        <stp>change in percent</stp>
-        <tr r="K26" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.8f0d5fab636644cdbc13eada27ce3821">
-      <tp>
-        <v>81.48</v>
-        <stp/>
-        <stp>IYR</stp>
-        <stp>last</stp>
-        <tr r="J4" s="1"/>
-        <tr r="C22" s="4"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.8f0d5fab636644cdbc13eada27ce3821">
-      <tp>
-        <v>181.91</v>
-        <stp/>
-        <stp>QQQ</stp>
-        <stp>last</stp>
-        <tr r="C39" s="4"/>
-      </tp>
-      <tp t="s">
-        <v>ISHARES TR-20 YR TR BD ETF</v>
-        <stp/>
-        <stp>TLT</stp>
-        <stp>description</stp>
-        <tr r="B5" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.8f0d5fab636644cdbc13eada27ce3821">
-      <tp>
-        <v>51.02</v>
-        <stp/>
-        <stp>STX</stp>
-        <stp>last</stp>
-        <tr r="C10" s="4"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.8f0d5fab636644cdbc13eada27ce3821">
-      <tp t="s">
-        <v>ISHARES TR-1 3 YR TREAS BD</v>
-        <stp/>
-        <stp>SHY</stp>
-        <stp>description</stp>
-        <tr r="B12" s="1"/>
-      </tp>
-      <tp>
-        <v>52.26</v>
-        <stp/>
-        <stp>MU</stp>
-        <stp>last</stp>
-        <tr r="C9" s="4"/>
-      </tp>
-      <tp>
-        <v>58.34</v>
-        <stp/>
-        <stp>EWJ</stp>
-        <stp>last</stp>
-        <tr r="J7" s="1"/>
-      </tp>
-      <tp>
-        <v>39.33</v>
-        <stp/>
-        <stp>RWX</stp>
-        <stp>last</stp>
-        <tr r="J6" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>SPDR INDEX SHS FDS-DJ INTL RL ETF</v>
-        <stp/>
-        <stp>RWX</stp>
-        <stp>description</stp>
-        <tr r="B6" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.8f0d5fab636644cdbc13eada27ce3821">
-      <tp>
-        <v>287.11</v>
-        <stp/>
-        <stp>IVV</stp>
-        <stp>last</stp>
-        <tr r="J3" s="1"/>
-        <tr r="C38" s="4"/>
-        <tr r="C21" s="4"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.8f0d5fab636644cdbc13eada27ce3821">
-      <tp>
-        <v>83.17</v>
-        <stp/>
-        <stp>SHY</stp>
-        <stp>last</stp>
-        <tr r="J12" s="1"/>
-        <tr r="C23" s="4"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.8f0d5fab636644cdbc13eada27ce3821">
-      <tp t="s">
-        <v>ISHARES TR-U.S. REAL ES ETF</v>
-        <stp/>
-        <stp>IYR</stp>
-        <stp>description</stp>
-        <tr r="B4" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>ISHARES TR-CORE S&amp;P500 ETF</v>
-        <stp/>
-        <stp>IVV</stp>
-        <stp>description</stp>
-        <tr r="B3" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.8f0d5fab636644cdbc13eada27ce3821">
-      <tp t="s">
-        <v>ISHARES TR-EUROPE ETF</v>
-        <stp/>
-        <stp>IEV</stp>
-        <stp>description</stp>
-        <tr r="B9" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>ISHARES TR-BARCLAYS 7 10 YR</v>
-        <stp/>
-        <stp>IEF</stp>
-        <stp>description</stp>
-        <tr r="B11" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.8f0d5fab636644cdbc13eada27ce3821">
-      <tp>
-        <v>114.74</v>
-        <stp/>
-        <stp>GLD</stp>
-        <stp>last</stp>
-        <tr r="J8" s="1"/>
-      </tp>
-      <tp>
-        <v>119.79</v>
-        <stp/>
-        <stp>TLT</stp>
-        <stp>last</stp>
-        <tr r="J5" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.8f0d5fab636644cdbc13eada27ce3821">
-      <tp t="s">
-        <v>ISHARES INC-MSCI JPN ETF NEW</v>
-        <stp/>
-        <stp>EWJ</stp>
-        <stp>description</stp>
-        <tr r="B7" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.8f0d5fab636644cdbc13eada27ce3821">
-      <tp t="s">
-        <v>ISHARES TR-MSCI EMG MKT ETF</v>
-        <stp/>
-        <stp>EEM</stp>
-        <stp>description</stp>
-        <tr r="B10" s="1"/>
-      </tp>
-      <tp>
-        <v>38.46</v>
-        <stp/>
-        <stp>GAL</stp>
-        <stp>last</stp>
-        <tr r="C37" s="4"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.8f0d5fab636644cdbc13eada27ce3821">
-      <tp t="s">
-        <v>INVESCO DB COMMDY INDX TRCK-UNIT</v>
-        <stp/>
-        <stp>DBC</stp>
-        <stp>description</stp>
-        <tr r="B2" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.8f0d5fab636644cdbc13eada27ce3821">
-      <tp t="s">
-        <v>SPDR GOLD TRUST-GOLD SHS</v>
-        <stp/>
-        <stp>GLD</stp>
-        <stp>description</stp>
-        <tr r="B8" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.8f0d5fab636644cdbc13eada27ce3821">
-      <tp>
-        <v>17.04</v>
-        <stp/>
-        <stp>DBC</stp>
-        <stp>last</stp>
-        <tr r="J2" s="1"/>
-        <tr r="C20" s="4"/>
-      </tp>
-      <tp>
-        <v>44.13</v>
-        <stp/>
-        <stp>EEM</stp>
-        <stp>last</stp>
-        <tr r="J10" s="1"/>
-      </tp>
-      <tp>
-        <v>101.93</v>
-        <stp/>
-        <stp>IEF</stp>
-        <stp>last</stp>
-        <tr r="J11" s="1"/>
-      </tp>
-      <tp>
-        <v>45.58</v>
-        <stp/>
-        <stp>IEV</stp>
-        <stp>last</stp>
-        <tr r="J9" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.8f0d5fab636644cdbc13eada27ce3821">
-      <tp t="s">
-        <v>ARROW ETF TR-ARROW DJ GLB YLD</v>
-        <stp/>
-        <stp>GYLD</stp>
-        <stp>description</stp>
-        <tr r="L26" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.8f0d5fab636644cdbc13eada27ce3821">
-      <tp>
-        <v>0</v>
-        <stp/>
-        <stp>EWJ</stp>
-        <stp>change in percent</stp>
-        <tr r="L7" s="1"/>
-      </tp>
-      <tp>
-        <v>-2.9371893357432221E-3</v>
-        <stp/>
-        <stp>EEM</stp>
-        <stp>change in percent</stp>
-        <tr r="L10" s="1"/>
-      </tp>
-      <tp>
-        <v>0</v>
-        <stp/>
-        <stp>DBC</stp>
-        <stp>change in percent</stp>
-        <tr r="L2" s="1"/>
-      </tp>
-      <tp>
-        <v>-1.4794186754851799E-3</v>
-        <stp/>
-        <stp>GLD</stp>
-        <stp>change in percent</stp>
-        <tr r="L8" s="1"/>
-      </tp>
-      <tp>
-        <v>0</v>
-        <stp/>
-        <stp>AGG</stp>
-        <stp>change in percent</stp>
-        <tr r="K23" s="1"/>
-      </tp>
-      <tp>
-        <v>0</v>
-        <stp/>
-        <stp>IEF</stp>
-        <stp>change in percent</stp>
-        <tr r="L11" s="1"/>
-      </tp>
-      <tp>
-        <v>0</v>
-        <stp/>
-        <stp>SHY</stp>
-        <stp>change in percent</stp>
-        <tr r="L12" s="1"/>
-      </tp>
+    <main first="rtdsrv.1e8b5c15f2294324a5d5b7536d309a9b">
       <tp>
         <v>0</v>
         <stp/>
@@ -1412,16 +1042,27 @@
       <tp>
         <v>0</v>
         <stp/>
+        <stp>SHY</stp>
+        <stp>change in percent</stp>
+        <tr r="L12" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.1e8b5c15f2294324a5d5b7536d309a9b">
+      <tp>
+        <v>0</v>
+        <stp/>
         <stp>IYR</stp>
         <stp>change in percent</stp>
         <tr r="L4" s="1"/>
       </tp>
+    </main>
+    <main first="rtdsrv.1e8b5c15f2294324a5d5b7536d309a9b">
       <tp>
-        <v>8.4182170216348176E-3</v>
+        <v>0</v>
         <stp/>
-        <stp>TLT</stp>
+        <stp>IEV</stp>
         <stp>change in percent</stp>
-        <tr r="L5" s="1"/>
+        <tr r="L9" s="1"/>
       </tp>
       <tp>
         <v>0</v>
@@ -1434,81 +1075,317 @@
       <tp>
         <v>0</v>
         <stp/>
-        <stp>IEV</stp>
+        <stp>TLT</stp>
         <stp>change in percent</stp>
-        <tr r="L9" s="1"/>
+        <tr r="L5" s="1"/>
       </tp>
       <tp>
-        <v>81.48</v>
+        <v>0</v>
+        <stp/>
+        <stp>EWJ</stp>
+        <stp>change in percent</stp>
+        <tr r="L7" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.1e8b5c15f2294324a5d5b7536d309a9b">
+      <tp>
+        <v>0</v>
+        <stp/>
+        <stp>GYLD</stp>
+        <stp>change in percent</stp>
+        <tr r="K26" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.1e8b5c15f2294324a5d5b7536d309a9b">
+      <tp>
+        <v>0</v>
+        <stp/>
+        <stp>EEM</stp>
+        <stp>change in percent</stp>
+        <tr r="L10" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.1e8b5c15f2294324a5d5b7536d309a9b">
+      <tp>
+        <v>0</v>
+        <stp/>
+        <stp>ACWI</stp>
+        <stp>change in percent</stp>
+        <tr r="K22" s="1"/>
+      </tp>
+      <tp>
+        <v>0</v>
+        <stp/>
+        <stp>DBC</stp>
+        <stp>change in percent</stp>
+        <tr r="L2" s="1"/>
+      </tp>
+      <tp>
+        <v>0</v>
+        <stp/>
+        <stp>IEF</stp>
+        <stp>change in percent</stp>
+        <tr r="L11" s="1"/>
+      </tp>
+      <tp>
+        <v>0.77417986000000005</v>
+        <stp/>
+        <stp>IVV</stp>
+        <stp>mtd percent change</stp>
+        <tr r="U3" s="1"/>
+      </tp>
+      <tp>
+        <v>-0.94455347999999995</v>
+        <stp/>
+        <stp>IYR</stp>
+        <stp>mtd percent change</stp>
+        <tr r="U4" s="1"/>
+      </tp>
+      <tp>
+        <v>1.0163804999999999</v>
+        <stp/>
+        <stp>IEF</stp>
+        <stp>mtd percent change</stp>
+        <tr r="U11" s="1"/>
+      </tp>
+      <tp>
+        <v>-3.1304347799999999</v>
+        <stp/>
+        <stp>IEV</stp>
+        <stp>mtd percent change</stp>
+        <tr r="U9" s="1"/>
+      </tp>
+      <tp>
+        <v>0.23529412</v>
+        <stp/>
+        <stp>DBC</stp>
+        <stp>mtd percent change</stp>
+        <tr r="U2" s="1"/>
+      </tp>
+      <tp>
+        <v>-2.39348158</v>
+        <stp/>
+        <stp>EWJ</stp>
+        <stp>mtd percent change</stp>
+        <tr r="U7" s="1"/>
+      </tp>
+      <tp>
+        <v>-2.85650022</v>
+        <stp/>
+        <stp>EEM</stp>
+        <stp>mtd percent change</stp>
+        <tr r="U10" s="1"/>
+      </tp>
+      <tp>
+        <v>-0.39082855999999999</v>
+        <stp/>
+        <stp>GLD</stp>
+        <stp>mtd percent change</stp>
+        <tr r="U8" s="1"/>
+      </tp>
+      <tp>
+        <v>1.8571669799999999</v>
+        <stp/>
+        <stp>TLT</stp>
+        <stp>mtd percent change</stp>
+        <tr r="U5" s="1"/>
+      </tp>
+      <tp>
+        <v>-1.8481012699999999</v>
+        <stp/>
+        <stp>RWX</stp>
+        <stp>mtd percent change</stp>
+        <tr r="U6" s="1"/>
+      </tp>
+      <tp>
+        <v>0.22875029999999999</v>
+        <stp/>
+        <stp>SHY</stp>
+        <stp>mtd percent change</stp>
+        <tr r="U12" s="1"/>
+      </tp>
+      <tp>
+        <v>0</v>
+        <stp/>
+        <stp>AGG</stp>
+        <stp>change in percent</stp>
+        <tr r="K23" s="1"/>
+      </tp>
+      <tp>
+        <v>0</v>
+        <stp/>
+        <stp>GLD</stp>
+        <stp>change in percent</stp>
+        <tr r="L8" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.1e8b5c15f2294324a5d5b7536d309a9b">
+      <tp>
+        <v>17.04</v>
+        <stp/>
+        <stp>DBC</stp>
+        <stp>close</stp>
+        <tr r="G2" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.1e8b5c15f2294324a5d5b7536d309a9b">
+      <tp>
+        <v>364.53</v>
+        <stp/>
+        <stp>ALGN</stp>
+        <stp>last</stp>
+        <tr r="C5" s="4"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.1e8b5c15f2294324a5d5b7536d309a9b">
+      <tp>
+        <v>43.78</v>
+        <stp/>
+        <stp>CSCO</stp>
+        <stp>last</stp>
+        <tr r="C7" s="4"/>
+      </tp>
+      <tp>
+        <v>80.75</v>
         <stp/>
         <stp>IYR</stp>
         <stp>close</stp>
         <tr r="G4" s="1"/>
       </tp>
+    </main>
+    <main first="rtdsrv.1e8b5c15f2294324a5d5b7536d309a9b">
       <tp>
-        <v>287.11</v>
+        <v>1886.3</v>
+        <stp/>
+        <stp>AMZN</stp>
+        <stp>last</stp>
+        <tr r="C6" s="4"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.1e8b5c15f2294324a5d5b7536d309a9b">
+      <tp>
+        <v>120.66</v>
+        <stp/>
+        <stp>TLT</stp>
+        <stp>close</stp>
+        <tr r="G5" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.1e8b5c15f2294324a5d5b7536d309a9b">
+      <tp>
+        <v>285.07</v>
         <stp/>
         <stp>IVV</stp>
         <stp>close</stp>
         <tr r="G3" s="1"/>
       </tp>
+    </main>
+    <main first="rtdsrv.1e8b5c15f2294324a5d5b7536d309a9b">
       <tp>
-        <v>1898.52</v>
+        <v>521.02</v>
         <stp/>
-        <stp>AMZN</stp>
+        <stp>ISRG</stp>
         <stp>last</stp>
-        <tr r="C6" s="4"/>
+        <tr r="C8" s="4"/>
       </tp>
+    </main>
+    <main first="rtdsrv.1e8b5c15f2294324a5d5b7536d309a9b">
       <tp>
-        <v>118.79</v>
-        <stp/>
-        <stp>TLT</stp>
-        <stp>close</stp>
-        <tr r="G5" s="1"/>
-      </tp>
-      <tp>
-        <v>46.99</v>
+        <v>46.55</v>
         <stp/>
         <stp>QQQE</stp>
         <stp>last</stp>
         <tr r="C40" s="4"/>
       </tp>
     </main>
-    <main first="rtdsrv.8f0d5fab636644cdbc13eada27ce3821">
+    <main first="rtdsrv.1e8b5c15f2294324a5d5b7536d309a9b">
       <tp>
-        <v>522.69000000000005</v>
+        <v>44.56</v>
         <stp/>
-        <stp>ISRG</stp>
+        <stp>IEV</stp>
         <stp>last</stp>
-        <tr r="C8" s="4"/>
+        <tr r="J9" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.1e8b5c15f2294324a5d5b7536d309a9b">
+      <tp>
+        <v>43.19</v>
+        <stp/>
+        <stp>EEM</stp>
+        <stp>last</stp>
+        <tr r="J10" s="1"/>
       </tp>
       <tp>
-        <v>2.35</v>
+        <v>102.37</v>
         <stp/>
         <stp>IEF</stp>
-        <stp>dividend yield</stp>
-        <tr r="M11" s="1"/>
+        <stp>last</stp>
+        <tr r="J11" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>ARROW ETF TR-ARROW DJ GLB YLD</v>
+        <stp/>
+        <stp>GYLD</stp>
+        <stp>description</stp>
+        <tr r="L26" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.1e8b5c15f2294324a5d5b7536d309a9b">
+      <tp>
+        <v>38.07</v>
+        <stp/>
+        <stp>GAL</stp>
+        <stp>last</stp>
+        <tr r="C37" s="4"/>
       </tp>
       <tp>
-        <v>4.6399999999999997</v>
+        <v>2.73</v>
+        <stp/>
+        <stp>TLT</stp>
+        <stp>dividend yield</stp>
+        <tr r="M5" s="1"/>
+      </tp>
+      <tp>
+        <v>3.71</v>
+        <stp/>
+        <stp>RWX</stp>
+        <stp>dividend yield</stp>
+        <tr r="M6" s="1"/>
+      </tp>
+      <tp>
+        <v>1.87</v>
+        <stp/>
+        <stp>SHY</stp>
+        <stp>dividend yield</stp>
+        <tr r="M12" s="1"/>
+      </tp>
+      <tp>
+        <v>1.8</v>
+        <stp/>
+        <stp>IVV</stp>
+        <stp>dividend yield</stp>
+        <tr r="M3" s="1"/>
+      </tp>
+      <tp>
+        <v>0.5</v>
+        <stp/>
+        <stp>IYR</stp>
+        <stp>dividend yield</stp>
+        <tr r="M4" s="1"/>
+      </tp>
+      <tp>
+        <v>4.75</v>
         <stp/>
         <stp>IEV</stp>
         <stp>dividend yield</stp>
         <tr r="M9" s="1"/>
       </tp>
       <tp>
-        <v>0.49</v>
+        <v>2.2200000000000002</v>
         <stp/>
-        <stp>IYR</stp>
+        <stp>IEF</stp>
         <stp>dividend yield</stp>
-        <tr r="M4" s="1"/>
-      </tp>
-      <tp>
-        <v>1.78</v>
-        <stp/>
-        <stp>IVV</stp>
-        <stp>dividend yield</stp>
-        <tr r="M3" s="1"/>
+        <tr r="M11" s="1"/>
       </tp>
       <tp t="s">
         <v>--</v>
@@ -1518,60 +1395,191 @@
         <tr r="M2" s="1"/>
       </tp>
       <tp>
-        <v>1.31</v>
-        <stp/>
-        <stp>EEM</stp>
-        <stp>dividend yield</stp>
-        <tr r="M10" s="1"/>
-      </tp>
-      <tp>
-        <v>1.58</v>
+        <v>1.6</v>
         <stp/>
         <stp>EWJ</stp>
         <stp>dividend yield</stp>
         <tr r="M7" s="1"/>
       </tp>
       <tp>
-        <v>2.67</v>
+        <v>1.34</v>
         <stp/>
-        <stp>TLT</stp>
+        <stp>EEM</stp>
         <stp>dividend yield</stp>
-        <tr r="M5" s="1"/>
+        <tr r="M10" s="1"/>
       </tp>
-      <tp>
-        <v>3.65</v>
+      <tp t="s">
+        <v>ISHARES TR-BARCLAYS 7 10 YR</v>
         <stp/>
-        <stp>RWX</stp>
-        <stp>dividend yield</stp>
-        <tr r="M6" s="1"/>
+        <stp>IEF</stp>
+        <stp>description</stp>
+        <tr r="B11" s="1"/>
       </tp>
-      <tp>
-        <v>1.99</v>
+      <tp t="s">
+        <v>ISHARES TR-EUROPE ETF</v>
         <stp/>
-        <stp>SHY</stp>
-        <stp>dividend yield</stp>
-        <tr r="M12" s="1"/>
+        <stp>IEV</stp>
+        <stp>description</stp>
+        <tr r="B9" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>ISHARES TR-CORE S&amp;P500 ETF</v>
+        <stp/>
+        <stp>IVV</stp>
+        <stp>description</stp>
+        <tr r="B3" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>ISHARES TR-U.S. REAL ES ETF</v>
+        <stp/>
+        <stp>IYR</stp>
+        <stp>description</stp>
+        <tr r="B4" s="1"/>
       </tp>
       <tp>
         <v>17.04</v>
         <stp/>
         <stp>DBC</stp>
-        <stp>close</stp>
-        <tr r="G2" s="1"/>
+        <stp>last</stp>
+        <tr r="J2" s="1"/>
+        <tr r="C20" s="4"/>
+      </tp>
+      <tp t="s">
+        <v>SPDR GOLD TRUST-GOLD SHS</v>
+        <stp/>
+        <stp>GLD</stp>
+        <stp>description</stp>
+        <tr r="B8" s="1"/>
       </tp>
       <tp>
-        <v>366.87</v>
+        <v>120.66</v>
         <stp/>
-        <stp>ALGN</stp>
+        <stp>TLT</stp>
         <stp>last</stp>
-        <tr r="C5" s="4"/>
+        <tr r="J5" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.1e8b5c15f2294324a5d5b7536d309a9b">
+      <tp>
+        <v>114.69</v>
+        <stp/>
+        <stp>GLD</stp>
+        <stp>last</stp>
+        <tr r="J8" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.1e8b5c15f2294324a5d5b7536d309a9b">
+      <tp t="s">
+        <v>ISHARES TR-MSCI EMG MKT ETF</v>
+        <stp/>
+        <stp>EEM</stp>
+        <stp>description</stp>
+        <tr r="B10" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>ISHARES INC-MSCI JPN ETF NEW</v>
+        <stp/>
+        <stp>EWJ</stp>
+        <stp>description</stp>
+        <tr r="B7" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>INVESCO DB COMMDY INDX TRCK-UNIT</v>
+        <stp/>
+        <stp>DBC</stp>
+        <stp>description</stp>
+        <tr r="B2" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.1e8b5c15f2294324a5d5b7536d309a9b">
+      <tp>
+        <v>83.25</v>
+        <stp/>
+        <stp>SHY</stp>
+        <stp>last</stp>
+        <tr r="J12" s="1"/>
+        <tr r="C23" s="4"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.1e8b5c15f2294324a5d5b7536d309a9b">
+      <tp>
+        <v>50.88</v>
+        <stp/>
+        <stp>STX</stp>
+        <stp>last</stp>
+        <tr r="C10" s="4"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.1e8b5c15f2294324a5d5b7536d309a9b">
+      <tp>
+        <v>38.770000000000003</v>
+        <stp/>
+        <stp>RWX</stp>
+        <stp>last</stp>
+        <tr r="J6" s="1"/>
       </tp>
       <tp>
-        <v>43.78</v>
+        <v>57.5</v>
         <stp/>
-        <stp>CSCO</stp>
+        <stp>EWJ</stp>
         <stp>last</stp>
-        <tr r="C7" s="4"/>
+        <tr r="J7" s="1"/>
+      </tp>
+      <tp>
+        <v>285.07</v>
+        <stp/>
+        <stp>IVV</stp>
+        <stp>last</stp>
+        <tr r="J3" s="1"/>
+        <tr r="C38" s="4"/>
+        <tr r="C21" s="4"/>
+      </tp>
+      <tp>
+        <v>180.52</v>
+        <stp/>
+        <stp>QQQ</stp>
+        <stp>last</stp>
+        <tr r="C39" s="4"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.1e8b5c15f2294324a5d5b7536d309a9b">
+      <tp t="s">
+        <v>ISHARES TR-20 YR TR BD ETF</v>
+        <stp/>
+        <stp>TLT</stp>
+        <stp>description</stp>
+        <tr r="B5" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.1e8b5c15f2294324a5d5b7536d309a9b">
+      <tp>
+        <v>80.75</v>
+        <stp/>
+        <stp>IYR</stp>
+        <stp>last</stp>
+        <tr r="J4" s="1"/>
+        <tr r="C22" s="4"/>
+      </tp>
+      <tp>
+        <v>51.37</v>
+        <stp/>
+        <stp>MU</stp>
+        <stp>last</stp>
+        <tr r="C9" s="4"/>
+      </tp>
+      <tp t="s">
+        <v>ISHARES TR-1 3 YR TREAS BD</v>
+        <stp/>
+        <stp>SHY</stp>
+        <stp>description</stp>
+        <tr r="B12" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>SPDR INDEX SHS FDS-DJ INTL RL ETF</v>
+        <stp/>
+        <stp>RWX</stp>
+        <stp>description</stp>
+        <tr r="B6" s="1"/>
       </tp>
     </main>
   </volType>
@@ -1844,8 +1852,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:V46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="F31" sqref="F31"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1949,7 +1957,7 @@
       </c>
       <c r="F2" s="5">
         <f>I2/$I$21</f>
-        <v>0.15004562847216663</v>
+        <v>0.15029474717092328</v>
       </c>
       <c r="G2" s="4">
         <f>_xll.RealtimeData(A2,"Close")</f>
@@ -1987,7 +1995,7 @@
       </c>
       <c r="P2" s="60">
         <f t="shared" ref="P2:P12" si="1">O2-F2</f>
-        <v>-8.0456284721666382E-3</v>
+        <v>-8.2947471709232945E-3</v>
       </c>
       <c r="Q2" s="31">
         <f>O2*Daily!$D$68</f>
@@ -2026,30 +2034,30 @@
       </c>
       <c r="E3" s="5">
         <f>G3/D3-1</f>
-        <v>7.7904110797625048E-2</v>
+        <v>7.0245288792027294E-2</v>
       </c>
       <c r="F3" s="5">
         <f>I3/$I$21</f>
-        <v>0.41656943933014201</v>
+        <v>0.41429630271834922</v>
       </c>
       <c r="G3" s="4">
         <f>_xll.RealtimeData(A3,"Close")</f>
-        <v>287.11</v>
+        <v>285.07</v>
       </c>
       <c r="H3" s="4">
         <v>29</v>
       </c>
       <c r="I3" s="4">
         <f>H3*G3</f>
-        <v>8326.19</v>
+        <v>8267.0300000000007</v>
       </c>
       <c r="J3" s="4">
         <f>_xll.RealtimeData(A3,"Last")</f>
-        <v>287.11</v>
+        <v>285.07</v>
       </c>
       <c r="K3" s="5">
         <f>J3/D3-1</f>
-        <v>7.7904110797625048E-2</v>
+        <v>7.0245288792027294E-2</v>
       </c>
       <c r="L3" s="8">
         <f>_xll.RealtimeData(A3,"Change in Percent")</f>
@@ -2057,7 +2065,7 @@
       </c>
       <c r="M3" s="29">
         <f>_xll.RealtimeData(A3,"Dividend Yield")</f>
-        <v>1.78</v>
+        <v>1.8</v>
       </c>
       <c r="N3" s="4" t="str">
         <f t="shared" si="0"/>
@@ -2068,7 +2076,7 @@
       </c>
       <c r="P3" s="60">
         <f t="shared" si="1"/>
-        <v>-5.0569439330142019E-2</v>
+        <v>-4.8296302718349227E-2</v>
       </c>
       <c r="Q3" s="31">
         <f>O3*Daily!$D$68</f>
@@ -2076,11 +2084,11 @@
       </c>
       <c r="R3">
         <f t="shared" si="2"/>
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="S3">
         <f t="shared" si="3"/>
-        <v>-4</v>
+        <v>-3</v>
       </c>
       <c r="T3" t="str">
         <f t="shared" si="4"/>
@@ -2088,7 +2096,7 @@
       </c>
       <c r="U3">
         <f>_xll.RealtimeData(T3,"MTD Percent Change")</f>
-        <v>1.4953337099999999</v>
+        <v>0.77417986000000005</v>
       </c>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.25">
@@ -2107,30 +2115,30 @@
       </c>
       <c r="E4" s="5">
         <f>G4/D4-1</f>
-        <v>3.8888180543159567E-2</v>
+        <v>2.9580517659058891E-2</v>
       </c>
       <c r="F4" s="5">
         <f>I4/$I$21</f>
-        <v>0.22013336321864843</v>
+        <v>0.21852334248253141</v>
       </c>
       <c r="G4" s="4">
         <f>_xll.RealtimeData(A4,"Close")</f>
-        <v>81.48</v>
+        <v>80.75</v>
       </c>
       <c r="H4" s="4">
         <v>54</v>
       </c>
       <c r="I4" s="4">
         <f>H4*G4</f>
-        <v>4399.92</v>
+        <v>4360.5</v>
       </c>
       <c r="J4" s="4">
         <f>_xll.RealtimeData(A4,"Last")</f>
-        <v>81.48</v>
+        <v>80.75</v>
       </c>
       <c r="K4" s="5">
         <f>J4/D4-1</f>
-        <v>3.8888180543159567E-2</v>
+        <v>2.9580517659058891E-2</v>
       </c>
       <c r="L4" s="8">
         <f t="array" ref="L4">_xll.RealtimeData(A4,"Change in Percent")</f>
@@ -2138,7 +2146,7 @@
       </c>
       <c r="M4" s="29">
         <f>_xll.RealtimeData(A4,"Dividend Yield")</f>
-        <v>0.49</v>
+        <v>0.5</v>
       </c>
       <c r="N4" s="4" t="str">
         <f t="shared" si="0"/>
@@ -2149,7 +2157,7 @@
       </c>
       <c r="P4" s="60">
         <f t="shared" si="1"/>
-        <v>0.17286663678135158</v>
+        <v>0.1744766575174686</v>
       </c>
       <c r="Q4" s="31">
         <f>O4*Daily!$D$68</f>
@@ -2157,11 +2165,11 @@
       </c>
       <c r="R4">
         <f t="shared" si="2"/>
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="S4">
         <f t="shared" si="3"/>
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="T4" t="str">
         <f t="shared" si="4"/>
@@ -2169,7 +2177,7 @@
       </c>
       <c r="U4">
         <f>_xll.RealtimeData(T4,"MTD Percent Change")</f>
-        <v>-4.906771E-2</v>
+        <v>-0.94455347999999995</v>
       </c>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.25">
@@ -2188,38 +2196,38 @@
       </c>
       <c r="E5" s="5">
         <f>G5/D5-1</f>
-        <v>-2.8650675667940662E-2</v>
+        <v>-1.3359630659935395E-2</v>
       </c>
       <c r="F5" s="5">
         <f>I5/$I$21</f>
-        <v>0.20801229967499721</v>
+        <v>0.21163763963719259</v>
       </c>
       <c r="G5" s="4">
         <f>_xll.RealtimeData(A5,"Close")</f>
-        <v>118.79</v>
+        <v>120.66</v>
       </c>
       <c r="H5" s="4">
         <v>35</v>
       </c>
       <c r="I5" s="4">
         <f>H5*G5</f>
-        <v>4157.6500000000005</v>
+        <v>4223.0999999999995</v>
       </c>
       <c r="J5" s="31">
         <f>_xll.RealtimeData(A5,"Last")</f>
-        <v>119.79</v>
+        <v>120.66</v>
       </c>
       <c r="K5" s="5">
         <f>J5/D5-1</f>
-        <v>-2.0473646251894961E-2</v>
+        <v>-1.3359630659935395E-2</v>
       </c>
       <c r="L5" s="8">
         <f t="array" ref="L5">_xll.RealtimeData(A5,"Change in Percent")</f>
-        <v>8.4182170216348176E-3</v>
+        <v>0</v>
       </c>
       <c r="M5" s="29">
         <f>_xll.RealtimeData(A5,"Dividend Yield")</f>
-        <v>2.67</v>
+        <v>2.73</v>
       </c>
       <c r="N5" s="4" t="str">
         <f t="shared" si="0"/>
@@ -2230,7 +2238,7 @@
       </c>
       <c r="P5" s="60">
         <f t="shared" si="1"/>
-        <v>-0.20801229967499721</v>
+        <v>-0.21163763963719259</v>
       </c>
       <c r="Q5" s="31">
         <f>O5*Daily!$D$68</f>
@@ -2250,7 +2258,7 @@
       </c>
       <c r="U5">
         <f>_xll.RealtimeData(T5,"MTD Percent Change")</f>
-        <v>1.1227418499999999</v>
+        <v>1.8571669799999999</v>
       </c>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.25">
@@ -2270,7 +2278,7 @@
       <c r="I6" s="4"/>
       <c r="J6" s="31">
         <f>_xll.RealtimeData(A6,"Last")</f>
-        <v>39.33</v>
+        <v>38.770000000000003</v>
       </c>
       <c r="K6" s="5"/>
       <c r="L6" s="8">
@@ -2279,7 +2287,7 @@
       </c>
       <c r="M6" s="29">
         <f>_xll.RealtimeData(A6,"Dividend Yield")</f>
-        <v>3.65</v>
+        <v>3.71</v>
       </c>
       <c r="N6" s="4" t="str">
         <f t="shared" si="0"/>
@@ -2310,7 +2318,7 @@
       </c>
       <c r="U6">
         <f>_xll.RealtimeData(T6,"MTD Percent Change")</f>
-        <v>-0.43037975000000001</v>
+        <v>-1.8481012699999999</v>
       </c>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.25">
@@ -2330,7 +2338,7 @@
       <c r="I7" s="4"/>
       <c r="J7" s="31">
         <f>_xll.RealtimeData(A7,"Last")</f>
-        <v>58.34</v>
+        <v>57.5</v>
       </c>
       <c r="K7" s="5"/>
       <c r="L7" s="8">
@@ -2339,7 +2347,7 @@
       </c>
       <c r="M7" s="29">
         <f>_xll.RealtimeData(A7,"Dividend Yield")</f>
-        <v>1.58</v>
+        <v>1.6</v>
       </c>
       <c r="N7" s="4" t="str">
         <f t="shared" si="0"/>
@@ -2370,7 +2378,7 @@
       </c>
       <c r="U7">
         <f>_xll.RealtimeData(T7,"MTD Percent Change")</f>
-        <v>-0.96757766000000001</v>
+        <v>-2.39348158</v>
       </c>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.25">
@@ -2390,12 +2398,12 @@
       <c r="I8" s="4"/>
       <c r="J8" s="31">
         <f>_xll.RealtimeData(A8,"Last")</f>
-        <v>114.74</v>
+        <v>114.69</v>
       </c>
       <c r="K8" s="5"/>
       <c r="L8" s="8">
         <f>_xll.RealtimeData(A8,"Change in Percent")</f>
-        <v>-1.4794186754851799E-3</v>
+        <v>0</v>
       </c>
       <c r="M8" s="29">
         <v>0</v>
@@ -2429,7 +2437,7 @@
       </c>
       <c r="U8">
         <f>_xll.RealtimeData(T8,"MTD Percent Change")</f>
-        <v>-0.34740315999999999</v>
+        <v>-0.39082855999999999</v>
       </c>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.25">
@@ -2449,7 +2457,7 @@
       <c r="I9" s="4"/>
       <c r="J9" s="31">
         <f>_xll.RealtimeData(A9,"Last")</f>
-        <v>45.58</v>
+        <v>44.56</v>
       </c>
       <c r="K9" s="5"/>
       <c r="L9" s="8">
@@ -2458,7 +2466,7 @@
       </c>
       <c r="M9" s="29">
         <f>_xll.RealtimeData(A9,"Dividend Yield")</f>
-        <v>4.6399999999999997</v>
+        <v>4.75</v>
       </c>
       <c r="N9" s="4" t="str">
         <f t="shared" si="0"/>
@@ -2489,7 +2497,7 @@
       </c>
       <c r="U9">
         <f>_xll.RealtimeData(T9,"MTD Percent Change")</f>
-        <v>-0.91304348000000002</v>
+        <v>-3.1304347799999999</v>
       </c>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.25">
@@ -2503,16 +2511,16 @@
       <c r="G10" s="4"/>
       <c r="J10" s="31">
         <f>_xll.RealtimeData(A10,"Last")</f>
-        <v>44.13</v>
+        <v>43.19</v>
       </c>
       <c r="K10" s="5"/>
       <c r="L10" s="8">
         <f t="array" ref="L10">_xll.RealtimeData(A10,"Change in Percent")</f>
-        <v>-2.9371893357432221E-3</v>
+        <v>0</v>
       </c>
       <c r="M10" s="29">
         <f>_xll.RealtimeData(A10,"Dividend Yield")</f>
-        <v>1.31</v>
+        <v>1.34</v>
       </c>
       <c r="N10" s="4" t="str">
         <f t="shared" si="0"/>
@@ -2543,7 +2551,7 @@
       </c>
       <c r="U10">
         <f>_xll.RealtimeData(T10,"MTD Percent Change")</f>
-        <v>-0.74224022000000001</v>
+        <v>-2.85650022</v>
       </c>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.25">
@@ -2557,7 +2565,7 @@
       <c r="G11" s="4"/>
       <c r="J11" s="31">
         <f>_xll.RealtimeData(A11,"Last")</f>
-        <v>101.93</v>
+        <v>102.37</v>
       </c>
       <c r="K11" s="5"/>
       <c r="L11" s="8">
@@ -2566,7 +2574,7 @@
       </c>
       <c r="M11" s="29">
         <f>_xll.RealtimeData(A11,"Dividend Yield")</f>
-        <v>2.35</v>
+        <v>2.2200000000000002</v>
       </c>
       <c r="N11" s="4" t="str">
         <f t="shared" si="0"/>
@@ -2597,7 +2605,7 @@
       </c>
       <c r="U11">
         <f>_xll.RealtimeData(T11,"MTD Percent Change")</f>
-        <v>0.58219854000000004</v>
+        <v>1.0163804999999999</v>
       </c>
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.25">
@@ -2610,7 +2618,7 @@
       </c>
       <c r="J12" s="31">
         <f>_xll.RealtimeData(A12,"Last")</f>
-        <v>83.17</v>
+        <v>83.25</v>
       </c>
       <c r="L12" s="8">
         <f t="array" ref="L12">_xll.RealtimeData(A12,"Change in Percent")</f>
@@ -2618,7 +2626,7 @@
       </c>
       <c r="M12" s="29">
         <f>_xll.RealtimeData(A12,"Dividend Yield")</f>
-        <v>1.99</v>
+        <v>1.87</v>
       </c>
       <c r="N12" s="4" t="str">
         <f t="shared" si="0"/>
@@ -2649,7 +2657,7 @@
       </c>
       <c r="U12">
         <f>_xll.RealtimeData(T12,"MTD Percent Change")</f>
-        <v>0.13243437999999999</v>
+        <v>0.22875029999999999</v>
       </c>
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.25">
@@ -2666,11 +2674,11 @@
     <row r="14" spans="1:22" x14ac:dyDescent="0.25">
       <c r="U14" s="29">
         <f t="array" ref="U14">MMULT(TRANSPOSE(O2:O12),U2:U12)</f>
-        <v>0.5745312964899999</v>
+        <v>-3.1801644139999967E-2</v>
       </c>
       <c r="V14" s="8">
         <f>U14*0.01</f>
-        <v>5.7453129648999991E-3</v>
+        <v>-3.1801644139999968E-4</v>
       </c>
     </row>
     <row r="19" spans="5:16" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
@@ -2680,7 +2688,7 @@
       </c>
       <c r="F20" s="11">
         <f>SUM(F2:F5)</f>
-        <v>0.99476073069595428</v>
+        <v>0.99475203200899665</v>
       </c>
       <c r="H20" s="2" t="s">
         <v>14</v>
@@ -2699,28 +2707,28 @@
       </c>
       <c r="F21" s="11">
         <f>1-F20</f>
-        <v>5.2392693040457239E-3</v>
+        <v>5.247967991003355E-3</v>
       </c>
       <c r="H21" s="2" t="s">
         <v>16</v>
       </c>
       <c r="I21" s="6">
         <f>SUM(I2:I20)</f>
-        <v>19987.52</v>
+        <v>19954.39</v>
       </c>
       <c r="J21" t="s">
         <v>33</v>
       </c>
       <c r="K21" s="8">
         <f>SUMPRODUCT(K2:K7,F2:F7)</f>
-        <v>3.0131735356201811E-2</v>
+        <v>2.6105448856274339E-2</v>
       </c>
       <c r="M21" t="s">
         <v>34</v>
       </c>
       <c r="N21" s="8">
         <f t="array" ref="N21">MMULT(TRANSPOSE(F2:F5),L2:L5)</f>
-        <v>1.7510926818334641E-3</v>
+        <v>0</v>
       </c>
       <c r="P21" s="8">
         <f t="array" ref="P21">SUMPRODUCT(L2:L12,O2:O12)</f>
@@ -2781,7 +2789,7 @@
       </c>
       <c r="I26" s="6">
         <f>SUM(I2:I18)</f>
-        <v>19882.8</v>
+        <v>19849.669999999998</v>
       </c>
       <c r="J26" t="s">
         <v>56</v>
@@ -2801,7 +2809,7 @@
       </c>
       <c r="K27" s="8">
         <f>AVERAGE(L2:L11)</f>
-        <v>4.0016090104064161E-4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="5:16" x14ac:dyDescent="0.25">
@@ -2810,20 +2818,20 @@
       </c>
       <c r="K28" s="8">
         <f>SUMPRODUCT(F2:F7,M2:M7)*0.01</f>
-        <v>1.4047517901170332E-2</v>
+        <v>1.4327657723438301E-2</v>
       </c>
       <c r="L28" t="s">
         <v>65</v>
       </c>
       <c r="M28" s="8">
         <f>AVERAGE(M2:M11)*0.01</f>
-        <v>2.0522222222222219E-2</v>
+        <v>2.0722222222222222E-2</v>
       </c>
     </row>
     <row r="29" spans="5:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="30" spans="5:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H30" s="30">
-        <v>43321</v>
+        <v>43322</v>
       </c>
       <c r="I30" s="15" t="s">
         <v>61</v>
@@ -2844,19 +2852,19 @@
       </c>
       <c r="I31" s="21">
         <f>$N$21</f>
-        <v>1.7510926818334641E-3</v>
+        <v>0</v>
       </c>
       <c r="J31" s="21">
         <f>LOOKUP(2,1/(Daily!E:E&lt;&gt;""),Daily!E:E)</f>
-        <v>1.0268983370647078E-3</v>
+        <v>-3.4021691575285562E-3</v>
       </c>
       <c r="K31" s="22">
         <f>VLOOKUP($H$30,Daily!$A:$AF,7,0)</f>
-        <v>8.7745284748972363E-3</v>
+        <v>5.3425068872194892E-3</v>
       </c>
       <c r="L31" s="23">
         <f>VLOOKUP($H$30,Daily!$A:$AF,8,0)</f>
-        <v>1.1260000000001824E-3</v>
+        <v>-2.2799999999996157E-3</v>
       </c>
     </row>
     <row r="32" spans="5:16" x14ac:dyDescent="0.25">
@@ -2869,15 +2877,15 @@
       </c>
       <c r="J32" s="24">
         <f>LOOKUP(2,1/(Daily!M:M&lt;&gt;""),Daily!M:M)</f>
-        <v>-9.7976167886415499E-4</v>
+        <v>-6.2321842856262188E-3</v>
       </c>
       <c r="K32" s="14">
         <f>VLOOKUP($H$30,Daily!$A:$AF,25,0)</f>
-        <v>1.9853257151233095E-2</v>
+        <v>1.3497343708370524E-2</v>
       </c>
       <c r="L32" s="25">
         <f>VLOOKUP($H$30,Daily!$A:$AF,31,0)</f>
-        <v>1.3998143287496045E-2</v>
+        <v>7.6787199932457639E-3</v>
       </c>
     </row>
     <row r="33" spans="8:18" x14ac:dyDescent="0.25">
@@ -2890,15 +2898,15 @@
       </c>
       <c r="J33" s="24">
         <f>LOOKUP(2,1/(Daily!L:L&lt;&gt;""),Daily!L:L)</f>
-        <v>-9.0475693356995013E-4</v>
+        <v>-7.1052906551496431E-3</v>
       </c>
       <c r="K33" s="14">
         <f>VLOOKUP($H$30,Daily!$A:$AF,24,0)</f>
-        <v>5.1492400659219895E-2</v>
+        <v>4.402124153085496E-2</v>
       </c>
       <c r="L33" s="25">
         <f>VLOOKUP($H$30,Daily!$A:$AF,30,0)</f>
-        <v>7.8201844973052825E-2</v>
+        <v>7.0540907479600845E-2</v>
       </c>
     </row>
     <row r="34" spans="8:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2911,15 +2919,15 @@
       </c>
       <c r="J34" s="26">
         <f>LOOKUP(2,1/(Daily!N:N&lt;&gt;""),Daily!N:N)</f>
-        <v>-6.2041737168639921E-3</v>
+        <v>-3.9727582292848895E-3</v>
       </c>
       <c r="K34" s="27">
         <f>VLOOKUP($H$30,Daily!$A:$AF,26,0)</f>
-        <v>1.2643678160919825E-2</v>
+        <v>8.6206896551728196E-3</v>
       </c>
       <c r="L34" s="28">
         <f>VLOOKUP($H$30,Daily!$A:$AF,32,0)</f>
-        <v>2.1878019763111212E-2</v>
+        <v>1.78183454507721E-2</v>
       </c>
     </row>
     <row r="35" spans="8:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -2954,7 +2962,7 @@
       </c>
       <c r="I37" s="46">
         <f>AVERAGE(Daily!E$3:E380)</f>
-        <v>2.8126434652192166E-5</v>
+        <v>-1.9516559683651564E-5</v>
       </c>
       <c r="J37" s="44"/>
       <c r="K37" s="22"/>
@@ -2962,23 +2970,23 @@
       <c r="M37" s="50"/>
       <c r="N37" s="38">
         <f>AVERAGE(Daily!J$3:J380)</f>
-        <v>3.1431719175485054E-4</v>
+        <v>1.455973045099201E-4</v>
       </c>
       <c r="O37" s="22">
         <f>AVERAGE(Daily!K$3:K380)</f>
-        <v>3.3489813251370249E-5</v>
+        <v>6.3160945300027151E-5</v>
       </c>
       <c r="P37" s="22">
         <f>AVERAGE(Daily!L$3:L380)</f>
-        <v>1.0775676921549848E-3</v>
+        <v>9.6391688177575397E-4</v>
       </c>
       <c r="Q37" s="22">
         <f>AVERAGE(Daily!M$3:M380)</f>
-        <v>2.0198624035345841E-4</v>
+        <v>1.1262276082596288E-4</v>
       </c>
       <c r="R37" s="23">
         <f>AVERAGE(Daily!N$3:N380)</f>
-        <v>3.3671759431829466E-4</v>
+        <v>2.7686376343491709E-4</v>
       </c>
     </row>
     <row r="38" spans="8:18" x14ac:dyDescent="0.25">
@@ -2987,7 +2995,7 @@
       </c>
       <c r="I38" s="47">
         <f>STDEV(Daily!E$3:E380)</f>
-        <v>4.9884252659307005E-3</v>
+        <v>4.9696410200796943E-3</v>
       </c>
       <c r="J38" s="45"/>
       <c r="K38" s="14"/>
@@ -2995,23 +3003,23 @@
       <c r="M38" s="51"/>
       <c r="N38" s="40">
         <f>STDEV(Daily!J$3:J380)</f>
-        <v>6.0433929291286766E-3</v>
+        <v>6.1690984860917905E-3</v>
       </c>
       <c r="O38" s="14">
         <f>STDEV(Daily!K$3:K380)</f>
-        <v>1.7735095849414476E-3</v>
+        <v>1.7788824623603417E-3</v>
       </c>
       <c r="P38" s="14">
         <f>STDEV(Daily!L$3:L380)</f>
-        <v>5.7871293881757062E-3</v>
+        <v>5.8265901427871705E-3</v>
       </c>
       <c r="Q38" s="14">
         <f>STDEV(Daily!M$3:M380)</f>
-        <v>3.5387403191590085E-3</v>
+        <v>3.594619186361872E-3</v>
       </c>
       <c r="R38" s="25">
         <f>STDEV(Daily!N$3:N380)</f>
-        <v>8.0389463655380945E-3</v>
+        <v>7.998274241674104E-3</v>
       </c>
     </row>
     <row r="39" spans="8:18" x14ac:dyDescent="0.25">
@@ -3032,7 +3040,7 @@
       </c>
       <c r="O39" s="33">
         <f>COUNTIF(Daily!K$3:K380,"&gt;0")</f>
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="P39" s="33">
         <f>COUNTIF(Daily!L$3:L380,"&gt;0")</f>
@@ -3065,7 +3073,7 @@
       </c>
       <c r="O40" s="14">
         <f>SUMIF(Daily!K$3:K380,"&gt;0")</f>
-        <v>4.9324597742092413E-2</v>
+        <v>5.149440906284708E-2</v>
       </c>
       <c r="P40" s="14">
         <f>SUMIF(Daily!L$3:L380,"&gt;0")</f>
@@ -3086,7 +3094,7 @@
       </c>
       <c r="I41" s="47">
         <f>SUMIF(Daily!E$3:E380,"&lt;0")</f>
-        <v>-0.12880279926571525</v>
+        <v>-0.13220496842324381</v>
       </c>
       <c r="J41" s="45"/>
       <c r="K41" s="14"/>
@@ -3094,7 +3102,7 @@
       <c r="M41" s="51"/>
       <c r="N41" s="40">
         <f>SUMIF(Daily!J$3:J380,"&lt;0")</f>
-        <v>-0.15324908529680087</v>
+        <v>-0.16508259998668101</v>
       </c>
       <c r="O41" s="14">
         <f>SUMIF(Daily!K$3:K380,"&lt;0")</f>
@@ -3102,15 +3110,15 @@
       </c>
       <c r="P41" s="14">
         <f>SUMIF(Daily!L$3:L380,"&lt;0")</f>
-        <v>-0.12515448177125504</v>
+        <v>-0.13225977242640469</v>
       </c>
       <c r="Q41" s="14">
         <f>SUMIF(Daily!M$3:M380,"&lt;0")</f>
-        <v>-8.8886477916659032E-2</v>
+        <v>-9.5118662202285251E-2</v>
       </c>
       <c r="R41" s="25">
         <f>SUMIF(Daily!N$3:N380,"&lt;0")</f>
-        <v>-0.20946477764119159</v>
+        <v>-0.21343753587047648</v>
       </c>
     </row>
     <row r="42" spans="8:18" x14ac:dyDescent="0.25">
@@ -3119,7 +3127,7 @@
       </c>
       <c r="I42" s="48">
         <f>COUNT(Daily!E$3:E380)</f>
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="J42" s="45"/>
       <c r="K42" s="14"/>
@@ -3127,23 +3135,23 @@
       <c r="M42" s="51"/>
       <c r="N42" s="41">
         <f>COUNT(Daily!J$3:J380)</f>
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="O42" s="33">
         <f>COUNT(Daily!K$3:K380)</f>
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="P42" s="33">
         <f>COUNT(Daily!L$3:L380)</f>
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Q42" s="33">
         <f>COUNT(Daily!M$3:M380)</f>
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="R42" s="35">
         <f>COUNT(Daily!N$3:N380)</f>
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="43" spans="8:18" x14ac:dyDescent="0.25">
@@ -3152,7 +3160,7 @@
       </c>
       <c r="I43" s="48">
         <f>I42-I39</f>
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="J43" s="45"/>
       <c r="K43" s="14"/>
@@ -3160,7 +3168,7 @@
       <c r="M43" s="51"/>
       <c r="N43" s="41">
         <f>N42-N39</f>
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="O43" s="33">
         <f>O42-O39</f>
@@ -3168,15 +3176,15 @@
       </c>
       <c r="P43" s="33">
         <f>P42-P39</f>
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="Q43" s="33">
         <f>Q42-Q39</f>
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="R43" s="35">
         <f>R42-R39</f>
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="44" spans="8:18" x14ac:dyDescent="0.25">
@@ -3185,7 +3193,7 @@
       </c>
       <c r="I44" s="49">
         <f>(I40/I41)*(I39/I43)*-1</f>
-        <v>1.387855660420243</v>
+        <v>1.3085230786628288</v>
       </c>
       <c r="J44" s="45"/>
       <c r="K44" s="14"/>
@@ -3193,23 +3201,23 @@
       <c r="M44" s="51"/>
       <c r="N44" s="42">
         <f>(N40/N41)*(N39/N43)*-1</f>
-        <v>1.1783546096249486</v>
+        <v>1.0635015799700271</v>
       </c>
       <c r="O44" s="34">
         <f>(O40/O41)*(O39/O43)*-1</f>
-        <v>1.080666824319148</v>
+        <v>1.1595448970258799</v>
       </c>
       <c r="P44" s="34">
         <f>(P40/P41)*(P39/P43)*-1</f>
-        <v>2.2021140560235235</v>
+        <v>2.0165918379485466</v>
       </c>
       <c r="Q44" s="34">
         <f>(Q40/Q41)*(Q39/Q43)*-1</f>
-        <v>1.337301625844457</v>
+        <v>1.2129261513014544</v>
       </c>
       <c r="R44" s="36">
         <f>(R40/R41)*(R39/R43)*-1</f>
-        <v>1.5226491231761474</v>
+        <v>1.4461042561456197</v>
       </c>
     </row>
     <row r="45" spans="8:18" x14ac:dyDescent="0.25">
@@ -3218,7 +3226,7 @@
       </c>
       <c r="I45" s="62">
         <f>I39/I42</f>
-        <v>0.57746478873239437</v>
+        <v>0.56944444444444442</v>
       </c>
       <c r="J45" s="63"/>
       <c r="K45" s="64"/>
@@ -3226,23 +3234,23 @@
       <c r="M45" s="66"/>
       <c r="N45" s="67">
         <f>N39/N42</f>
-        <v>0.50704225352112675</v>
+        <v>0.5</v>
       </c>
       <c r="O45" s="64">
         <f>O39/O42</f>
-        <v>0.50704225352112675</v>
+        <v>0.51388888888888884</v>
       </c>
       <c r="P45" s="64">
         <f>P39/P42</f>
-        <v>0.57746478873239437</v>
+        <v>0.56944444444444442</v>
       </c>
       <c r="Q45" s="64">
         <f>Q39/Q42</f>
-        <v>0.53521126760563376</v>
+        <v>0.52777777777777779</v>
       </c>
       <c r="R45" s="68">
         <f>R39/R42</f>
-        <v>0.57746478873239437</v>
+        <v>0.56944444444444442</v>
       </c>
     </row>
     <row r="46" spans="8:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3290,13 +3298,13 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:AN73"/>
+  <dimension ref="A1:AN74"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B49" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E82" sqref="E82"/>
+      <selection pane="bottomRight" activeCell="D83" sqref="D83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9312,7 +9320,7 @@
         <v>43291</v>
       </c>
       <c r="B51" s="4">
-        <f t="shared" ref="B51:B73" si="812">D51-C51</f>
+        <f t="shared" ref="B51:B74" si="812">D51-C51</f>
         <v>19902.79</v>
       </c>
       <c r="C51" s="4">
@@ -12433,6 +12441,142 @@
       <c r="AN73" s="8">
         <f t="shared" ref="AN73" si="1309">MIN(0,(T73-MAX(T44:T73))/MAX(T44:T73))</f>
         <v>-1.5092230296254972E-2</v>
+      </c>
+    </row>
+    <row r="74" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A74" s="9">
+        <v>43322</v>
+      </c>
+      <c r="B74" s="4">
+        <f t="shared" si="812"/>
+        <v>19849.68</v>
+      </c>
+      <c r="C74" s="4">
+        <v>104.72</v>
+      </c>
+      <c r="D74" s="4">
+        <f>19950.61+3.79</f>
+        <v>19954.400000000001</v>
+      </c>
+      <c r="E74" s="5">
+        <f t="shared" ref="E74" si="1310">D74/D73-1</f>
+        <v>-3.4021691575285562E-3</v>
+      </c>
+      <c r="F74" s="10">
+        <f t="shared" ref="F74" si="1311">F73*(1+E74)</f>
+        <v>99.772000000000034</v>
+      </c>
+      <c r="G74" s="5">
+        <f t="shared" ref="G74" si="1312">F74/F$45-1</f>
+        <v>5.3425068872194892E-3</v>
+      </c>
+      <c r="H74" s="8">
+        <f t="shared" ref="H74" si="1313">F74/$F$2-1</f>
+        <v>-2.2799999999996157E-3</v>
+      </c>
+      <c r="J74" s="11">
+        <f>VLOOKUP($A74,Prices!$A:$J,MATCH(J$1,Prices!$1:$1,0),0)</f>
+        <v>-1.1833514689880142E-2</v>
+      </c>
+      <c r="K74" s="11">
+        <f>VLOOKUP($A74,Prices!$A:$J,MATCH(K$1,Prices!$1:$1,0),0)</f>
+        <v>2.1698113207546665E-3</v>
+      </c>
+      <c r="L74" s="11">
+        <f>VLOOKUP($A74,Prices!$A:$J,MATCH(L$1,Prices!$1:$1,0),0)</f>
+        <v>-7.1052906551496431E-3</v>
+      </c>
+      <c r="M74" s="11">
+        <f t="shared" ref="M74" si="1314">0.6*J74 + 0.4*K74</f>
+        <v>-6.2321842856262188E-3</v>
+      </c>
+      <c r="N74" s="11">
+        <f>VLOOKUP($A74,Prices!$A:$J,MATCH(N$1,Prices!$1:$1,0),0)</f>
+        <v>-3.9727582292848895E-3</v>
+      </c>
+      <c r="P74" s="10">
+        <f t="shared" ref="P74" si="1315">P73*(1+J74)</f>
+        <v>100.91711251927816</v>
+      </c>
+      <c r="Q74" s="10">
+        <f t="shared" ref="Q74" si="1316">Q73*(1+K74)</f>
+        <v>100.44450127756213</v>
+      </c>
+      <c r="R74" s="10">
+        <f t="shared" ref="R74" si="1317">R73*(1+L74)</f>
+        <v>107.05409074796007</v>
+      </c>
+      <c r="S74" s="10">
+        <f t="shared" ref="S74" si="1318">S73*(1+M74)</f>
+        <v>100.76787199932457</v>
+      </c>
+      <c r="T74" s="10">
+        <f t="shared" ref="T74" si="1319">T73*(1+N74)</f>
+        <v>101.7818345450772</v>
+      </c>
+      <c r="V74" s="5">
+        <f t="shared" ref="V74" si="1320">P74/P$45-1</f>
+        <v>2.1512935883014839E-2</v>
+      </c>
+      <c r="W74" s="5">
+        <f t="shared" ref="W74" si="1321">Q74/Q$45-1</f>
+        <v>1.3120836113964529E-3</v>
+      </c>
+      <c r="X74" s="5">
+        <f t="shared" ref="X74" si="1322">R74/R$45-1</f>
+        <v>4.402124153085496E-2</v>
+      </c>
+      <c r="Y74" s="5">
+        <f t="shared" ref="Y74" si="1323">S74/S$45-1</f>
+        <v>1.3497343708370524E-2</v>
+      </c>
+      <c r="Z74" s="5">
+        <f t="shared" ref="Z74" si="1324">T74/T$45-1</f>
+        <v>8.6206896551728196E-3</v>
+      </c>
+      <c r="AB74" s="8">
+        <f t="shared" ref="AB74" si="1325">P74/$P$2-1</f>
+        <v>9.1711251927817372E-3</v>
+      </c>
+      <c r="AC74" s="8">
+        <f t="shared" ref="AC74" si="1326">Q74/$P$2-1</f>
+        <v>4.4450127756212598E-3</v>
+      </c>
+      <c r="AD74" s="8">
+        <f t="shared" ref="AD74" si="1327">R74/$P$2-1</f>
+        <v>7.0540907479600845E-2</v>
+      </c>
+      <c r="AE74" s="8">
+        <f t="shared" ref="AE74" si="1328">S74/$P$2-1</f>
+        <v>7.6787199932457639E-3</v>
+      </c>
+      <c r="AF74" s="8">
+        <f t="shared" ref="AF74" si="1329">T74/$T$2-1</f>
+        <v>1.78183454507721E-2</v>
+      </c>
+      <c r="AI74" s="8">
+        <f t="shared" ref="AI74" si="1330">MIN(0,(F74-MAX(F45:F74))/MAX(F45:F74))</f>
+        <v>-4.5426745008592031E-3</v>
+      </c>
+      <c r="AJ74" s="8">
+        <f t="shared" ref="AJ74" si="1331">MIN(0,(P74-MAX(P45:P74))/MAX(P45:P74))</f>
+        <v>-1.6648619382782514E-2</v>
+      </c>
+      <c r="AK74" s="8">
+        <f t="shared" ref="AK74" si="1332">MIN(0,(Q74-MAX(Q45:Q74))/MAX(Q45:Q74))</f>
+        <v>-2.6288611397992049E-3</v>
+      </c>
+      <c r="AL74" s="8">
+        <f t="shared" ref="AL74" si="1333">MIN(0,(R74-MAX(R45:R74))/MAX(R45:R74))</f>
+        <v>-8.3486972553658279E-3</v>
+      </c>
+      <c r="AM74" s="8">
+        <f t="shared" ref="AM74" si="1334">MIN(0,(S74-MAX(S45:S74))/MAX(S45:S74))</f>
+        <v>-9.3530924331110231E-3</v>
+      </c>
+      <c r="AN74" s="8">
+        <f t="shared" ref="AN74" si="1335">MIN(0,(T74-MAX(T45:T74))/MAX(T45:T74))</f>
+        <v>-1.9005030743432089E-2</v>
       </c>
     </row>
   </sheetData>
@@ -12446,7 +12590,7 @@
   <dimension ref="A1:J78"/>
   <sheetViews>
     <sheetView topLeftCell="A51" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="F88" sqref="F88"/>
+      <selection activeCell="A77" sqref="A77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15145,37 +15289,40 @@
       </c>
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B75" t="str">
+      <c r="A75" s="13">
+        <v>43322</v>
+      </c>
+      <c r="B75">
         <f t="array" ref="B75">_xll.HistoricalData(B$1,"Adj. Close",$A75,$A75,"Daily","RemoveHeaders = True","ReverseOrder =True","RemoveDates =""True")</f>
-        <v>--</v>
-      </c>
-      <c r="C75" t="str">
+        <v>72.650000000000006</v>
+      </c>
+      <c r="C75">
         <f t="array" ref="C75">_xll.HistoricalData(C$1,"Adj. Close",$A75,$A75,"Daily","RemoveHeaders = True","ReverseOrder =True","RemoveDates =""True")</f>
-        <v>--</v>
-      </c>
-      <c r="D75" t="str">
+        <v>106.23</v>
+      </c>
+      <c r="D75">
         <f t="array" ref="D75">_xll.HistoricalData(D$1,"Adj. Close",$A75,$A75,"Daily","RemoveHeaders = True","ReverseOrder =True","RemoveDates =""True")</f>
-        <v>--</v>
-      </c>
-      <c r="E75" t="str">
+        <v>285.07</v>
+      </c>
+      <c r="E75">
         <f t="array" ref="E75">_xll.HistoricalData(E$1,"Adj. Close",$A75,$A75,"Daily","RemoveHeaders = True","ReverseOrder =True","RemoveDates =""True")</f>
-        <v>--</v>
-      </c>
-      <c r="G75" s="5" t="e">
+        <v>17.55</v>
+      </c>
+      <c r="G75" s="5">
         <f t="shared" si="220"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="H75" s="5" t="e">
+        <v>-1.1833514689880142E-2</v>
+      </c>
+      <c r="H75" s="5">
         <f t="shared" si="221"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I75" s="5" t="e">
+        <v>2.1698113207546665E-3</v>
+      </c>
+      <c r="I75" s="5">
         <f t="shared" si="222"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="J75" s="5" t="e">
+        <v>-7.1052906551496431E-3</v>
+      </c>
+      <c r="J75" s="5">
         <f t="shared" si="223"/>
-        <v>#VALUE!</v>
+        <v>-3.9727582292848895E-3</v>
       </c>
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.25">
@@ -15289,8 +15436,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W40"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="S31" sqref="S31"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O17" sqref="O17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15328,7 +15475,7 @@
       </c>
       <c r="G2" s="74">
         <f>SUM(G5:G10)</f>
-        <v>0.99272100182986822</v>
+        <v>0.99267902059804258</v>
       </c>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.25">
@@ -15336,12 +15483,11 @@
         <v>94</v>
       </c>
       <c r="B3" s="71">
-        <f>1-B2</f>
-        <v>0.30000000000000004</v>
+        <v>0.3</v>
       </c>
       <c r="C3">
         <f>B3*B1</f>
-        <v>30000.000000000004</v>
+        <v>30000</v>
       </c>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.25">
@@ -15380,7 +15526,7 @@
       </c>
       <c r="C5">
         <f>_xll.RealtimeData(A5,"Last")</f>
-        <v>366.87</v>
+        <v>364.53</v>
       </c>
       <c r="D5">
         <f>ROUNDDOWN(($C$2/6)/B5,0)</f>
@@ -15388,19 +15534,19 @@
       </c>
       <c r="E5" s="8">
         <f>C5/B5-1</f>
-        <v>0.10519656574785374</v>
+        <v>9.8147311342069443E-2</v>
       </c>
       <c r="F5">
         <f>C5*D5</f>
-        <v>12840.45</v>
+        <v>12758.55</v>
       </c>
       <c r="G5" s="73">
         <f>F5/$F$13</f>
-        <v>0.17617403738463167</v>
+        <v>0.17605994335634884</v>
       </c>
       <c r="H5" s="8">
         <f>F5/$F$31</f>
-        <v>0.12459940850347574</v>
+        <v>0.1245270289988675</v>
       </c>
       <c r="I5">
         <f>B5*D5</f>
@@ -15417,7 +15563,7 @@
       </c>
       <c r="C6">
         <f>_xll.RealtimeData(A6,"Last")</f>
-        <v>1898.52</v>
+        <v>1886.3</v>
       </c>
       <c r="D6">
         <f t="shared" ref="D6:D10" si="0">ROUNDDOWN(($C$2/6)/B6,0)</f>
@@ -15425,19 +15571,19 @@
       </c>
       <c r="E6" s="8">
         <f t="shared" ref="E6:E10" si="1">C6/B6-1</f>
-        <v>0.16500779322786907</v>
+        <v>0.15750911255384703</v>
       </c>
       <c r="F6">
         <f t="shared" ref="F6:F9" si="2">C6*D6</f>
-        <v>13289.64</v>
+        <v>13204.1</v>
       </c>
       <c r="G6" s="73">
         <f t="shared" ref="G6:G10" si="3">F6/$F$13</f>
-        <v>0.1823370313492359</v>
+        <v>0.1822082523540344</v>
       </c>
       <c r="H6" s="8">
         <f t="shared" ref="H6:H10" si="4">F6/$F$31</f>
-        <v>0.12895819719901805</v>
+        <v>0.12887572205336395</v>
       </c>
       <c r="I6">
         <f t="shared" ref="I6:I10" si="5">B6*D6</f>
@@ -15470,11 +15616,11 @@
       </c>
       <c r="G7" s="73">
         <f t="shared" si="3"/>
-        <v>0.1651848122995902</v>
+        <v>0.16613750685138687</v>
       </c>
       <c r="H7" s="8">
         <f t="shared" si="4"/>
-        <v>0.11682725906627853</v>
+        <v>0.11750889917991193</v>
       </c>
       <c r="I7">
         <f t="shared" si="5"/>
@@ -15491,7 +15637,7 @@
       </c>
       <c r="C8">
         <f>_xll.RealtimeData(A8,"Last")</f>
-        <v>522.69000000000005</v>
+        <v>521.02</v>
       </c>
       <c r="D8">
         <f t="shared" si="0"/>
@@ -15499,19 +15645,19 @@
       </c>
       <c r="E8" s="8">
         <f t="shared" si="1"/>
-        <v>0.13709835316640206</v>
+        <v>0.13346531207170353</v>
       </c>
       <c r="F8">
         <f t="shared" si="2"/>
-        <v>13067.250000000002</v>
+        <v>13025.5</v>
       </c>
       <c r="G8" s="73">
         <f t="shared" si="3"/>
-        <v>0.17928578749298726</v>
+        <v>0.17974368499462101</v>
       </c>
       <c r="H8" s="8">
         <f t="shared" si="4"/>
-        <v>0.12680019942969628</v>
+        <v>0.12713253592490908</v>
       </c>
       <c r="I8">
         <f t="shared" si="5"/>
@@ -15528,7 +15674,7 @@
       </c>
       <c r="C9">
         <f>_xll.RealtimeData(A9,"Last")</f>
-        <v>52.26</v>
+        <v>51.37</v>
       </c>
       <c r="D9">
         <f t="shared" si="0"/>
@@ -15536,19 +15682,19 @@
       </c>
       <c r="E9" s="8">
         <f t="shared" si="1"/>
-        <v>-9.2550790067720157E-2</v>
+        <v>-0.10800486195520065</v>
       </c>
       <c r="F9">
         <f t="shared" si="2"/>
-        <v>10556.52</v>
+        <v>10376.74</v>
       </c>
       <c r="G9" s="73">
         <f t="shared" si="3"/>
-        <v>0.14483797290060799</v>
+        <v>0.14319246753146395</v>
       </c>
       <c r="H9" s="8">
         <f t="shared" si="4"/>
-        <v>0.10243691987859552</v>
+        <v>0.10127989488568125</v>
       </c>
       <c r="I9">
         <f t="shared" si="5"/>
@@ -15565,7 +15711,7 @@
       </c>
       <c r="C10">
         <f>_xll.RealtimeData(A10,"Last")</f>
-        <v>51.02</v>
+        <v>50.88</v>
       </c>
       <c r="D10">
         <f t="shared" si="0"/>
@@ -15573,19 +15719,19 @@
       </c>
       <c r="E10" s="8">
         <f t="shared" si="1"/>
-        <v>-9.4587400177462255E-2</v>
+        <v>-9.7071872227151745E-2</v>
       </c>
       <c r="F10">
         <f>C10*D10</f>
-        <v>10561.140000000001</v>
+        <v>10532.16</v>
       </c>
       <c r="G10" s="73">
         <f t="shared" si="3"/>
-        <v>0.14490136040281526</v>
+        <v>0.14533716551018752</v>
       </c>
       <c r="H10" s="8">
         <f t="shared" si="4"/>
-        <v>0.10248175080487039</v>
+        <v>0.10279683770810259</v>
       </c>
       <c r="I10">
         <f t="shared" si="5"/>
@@ -15604,7 +15750,7 @@
       </c>
       <c r="F13" s="75">
         <f>SUM(F5:F10)+I13</f>
-        <v>72885.03</v>
+        <v>72467.08</v>
       </c>
       <c r="H13" t="s">
         <v>26</v>
@@ -15620,7 +15766,7 @@
       </c>
       <c r="F14" s="8">
         <f>F13/C2-1</f>
-        <v>4.1214714285714216E-2</v>
+        <v>3.5244000000000053E-2</v>
       </c>
     </row>
     <row r="15" spans="1:23" x14ac:dyDescent="0.25">
@@ -15631,7 +15777,7 @@
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H17" s="11">
         <f>SUM(H20:H23)</f>
-        <v>0.98824680970392254</v>
+        <v>0.98817632737881467</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
@@ -15692,11 +15838,11 @@
       </c>
       <c r="H20" s="8">
         <f>G20/$G$27</f>
-        <v>0.14120534339581611</v>
+        <v>0.14205213313285975</v>
       </c>
       <c r="I20" s="8">
         <f>G20/$F$31</f>
-        <v>4.1337607344353711E-2</v>
+        <v>4.1578795673111409E-2</v>
       </c>
       <c r="J20">
         <f>B20*D20</f>
@@ -15713,7 +15859,7 @@
       </c>
       <c r="C21">
         <f>_xll.RealtimeData(A21,"Last")</f>
-        <v>287.11</v>
+        <v>285.07</v>
       </c>
       <c r="D21">
         <f t="shared" ref="D21:D22" si="6">ROUNDDOWN(($C$3*E21)/B21,0)</f>
@@ -15724,19 +15870,19 @@
       </c>
       <c r="F21" s="8">
         <f t="shared" ref="F21:F23" si="7">C21/B21-1</f>
-        <v>1.4953337104072428E-2</v>
+        <v>7.7417986425338814E-3</v>
       </c>
       <c r="G21">
         <f t="shared" ref="G21:G22" si="8">D21*C21</f>
-        <v>10910.18</v>
+        <v>10832.66</v>
       </c>
       <c r="H21" s="8">
         <f t="shared" ref="H21:H23" si="9">G21/$G$27</f>
-        <v>0.36163749141083684</v>
+        <v>0.36122123485986019</v>
       </c>
       <c r="I21" s="8">
         <f t="shared" ref="I21:I23" si="10">G21/$F$31</f>
-        <v>0.10586871758127253</v>
+        <v>0.10572980205077161</v>
       </c>
       <c r="J21">
         <f t="shared" ref="J21:J23" si="11">B21*D21</f>
@@ -15753,7 +15899,7 @@
       </c>
       <c r="C22">
         <f>_xll.RealtimeData(A22,"Last")</f>
-        <v>81.48</v>
+        <v>80.75</v>
       </c>
       <c r="D22">
         <f t="shared" si="6"/>
@@ -15764,19 +15910,19 @@
       </c>
       <c r="F22" s="8">
         <f t="shared" si="7"/>
-        <v>-4.9067713444539418E-4</v>
+        <v>-9.4455348380765303E-3</v>
       </c>
       <c r="G22">
         <f t="shared" si="8"/>
-        <v>11733.12</v>
+        <v>11628</v>
       </c>
       <c r="H22" s="8">
         <f t="shared" si="9"/>
-        <v>0.38891531424983988</v>
+        <v>0.38774230142462279</v>
       </c>
       <c r="I22" s="8">
         <f t="shared" si="10"/>
-        <v>0.11385425058314166</v>
+        <v>0.11349254368238015</v>
       </c>
       <c r="J22">
         <f t="shared" si="11"/>
@@ -15793,7 +15939,7 @@
       </c>
       <c r="C23">
         <f>_xll.RealtimeData(A23,"Last")</f>
-        <v>83.17</v>
+        <v>83.25</v>
       </c>
       <c r="D23">
         <f>ROUNDDOWN(($C$3*E23)/B23,0)</f>
@@ -15804,19 +15950,19 @@
       </c>
       <c r="F23" s="8">
         <f t="shared" si="7"/>
-        <v>1.3243438478207636E-3</v>
+        <v>2.2875030098723492E-3</v>
       </c>
       <c r="G23">
         <f>D23*C23</f>
-        <v>2910.9500000000003</v>
+        <v>2913.75</v>
       </c>
       <c r="H23" s="8">
         <f t="shared" si="9"/>
-        <v>9.6488660647429794E-2</v>
+        <v>9.7160657961471858E-2</v>
       </c>
       <c r="I23" s="8">
         <f t="shared" si="10"/>
-        <v>2.8246879835456914E-2</v>
+        <v>2.8439017815147506E-2</v>
       </c>
       <c r="J23">
         <f t="shared" si="11"/>
@@ -15832,7 +15978,7 @@
       </c>
       <c r="G27">
         <f>SUM(G20:G23)+J28</f>
-        <v>30168.830000000009</v>
+        <v>29988.99</v>
       </c>
       <c r="J27">
         <f>SUM(J20:J23)</f>
@@ -15845,14 +15991,14 @@
       </c>
       <c r="G28" s="8">
         <f>G27/J27-1</f>
-        <v>1.7655678347616943E-2</v>
+        <v>1.1589311266293478E-2</v>
       </c>
       <c r="I28" t="s">
         <v>26</v>
       </c>
       <c r="J28">
         <f>C3-J27</f>
-        <v>354.58000000000538</v>
+        <v>354.58000000000175</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
@@ -15861,7 +16007,7 @@
       </c>
       <c r="F31" s="75">
         <f>SUM(F13,G27)</f>
-        <v>103053.86000000002</v>
+        <v>102456.07</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
@@ -15870,11 +16016,11 @@
       </c>
       <c r="F33" s="8">
         <f>F31/B1-1</f>
-        <v>3.0538600000000082E-2</v>
+        <v>2.4560700000000102E-2</v>
       </c>
       <c r="H33" s="11">
         <f>F33-F37</f>
-        <v>-6.8909149986375179E-3</v>
+        <v>-2.9204106394373416E-3</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
@@ -15887,16 +16033,16 @@
       </c>
       <c r="C37">
         <f>_xll.RealtimeData(A37,"Last")</f>
-        <v>38.46</v>
+        <v>38.07</v>
       </c>
       <c r="D37" s="8">
         <f>C37/B37-1</f>
-        <v>5.2273915316258801E-3</v>
+        <v>-4.9660219550443641E-3</v>
       </c>
       <c r="E37" s="11"/>
       <c r="F37" s="8">
         <f>D37*$B$3+D40*$B$2</f>
-        <v>3.74295149986376E-2</v>
+        <v>2.7481110639437444E-2</v>
       </c>
       <c r="H37" s="8"/>
       <c r="I37" s="8"/>
@@ -15911,11 +16057,11 @@
       </c>
       <c r="C38">
         <f>_xll.RealtimeData(A38,"Last")</f>
-        <v>287.11</v>
+        <v>285.07</v>
       </c>
       <c r="D38" s="8">
         <f t="shared" ref="D38:D39" si="12">C38/B38-1</f>
-        <v>5.2726139405272487E-2</v>
+        <v>4.524621420452446E-2</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
@@ -15928,11 +16074,11 @@
       </c>
       <c r="C39">
         <f>_xll.RealtimeData(A39,"Last")</f>
-        <v>181.91</v>
+        <v>180.52</v>
       </c>
       <c r="D39" s="8">
         <f t="shared" si="12"/>
-        <v>6.9618392426647802E-2</v>
+        <v>6.1445287234668244E-2</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
@@ -15945,11 +16091,11 @@
       </c>
       <c r="C40">
         <f>_xll.RealtimeData(A40,"Last")</f>
-        <v>46.99</v>
+        <v>46.55</v>
       </c>
       <c r="D40" s="8">
         <f>C40/B40-1</f>
-        <v>5.1230425055928341E-2</v>
+        <v>4.1387024608501077E-2</v>
       </c>
     </row>
   </sheetData>

--- a/Portfolio.xlsx
+++ b/Portfolio.xlsx
@@ -1031,32 +1031,271 @@
 <file path=xl/volatileDependencies.xml><?xml version="1.0" encoding="utf-8"?>
 <volTypes xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <volType type="realTimeData">
-    <main first="rtdsrv.1e8b5c15f2294324a5d5b7536d309a9b">
+    <main first="rtdsrv.f18c4462a8954ccfbb31e4c8628f383c">
       <tp>
         <v>0</v>
         <stp/>
-        <stp>RWX</stp>
+        <stp>GYLD</stp>
         <stp>change in percent</stp>
-        <tr r="L6" s="1"/>
+        <tr r="K26" s="1"/>
       </tp>
+    </main>
+    <main first="rtdsrv.f18c4462a8954ccfbb31e4c8628f383c">
       <tp>
         <v>0</v>
         <stp/>
-        <stp>SHY</stp>
+        <stp>ACWI</stp>
         <stp>change in percent</stp>
-        <tr r="L12" s="1"/>
+        <tr r="K22" s="1"/>
       </tp>
     </main>
-    <main first="rtdsrv.1e8b5c15f2294324a5d5b7536d309a9b">
+    <main first="rtdsrv.f18c4462a8954ccfbb31e4c8628f383c">
+      <tp>
+        <v>0.20467131999999999</v>
+        <stp/>
+        <stp>SHY</stp>
+        <stp>mtd percent change</stp>
+        <tr r="U12" s="1"/>
+      </tp>
+      <tp>
+        <v>-2.3037974700000001</v>
+        <stp/>
+        <stp>RWX</stp>
+        <stp>mtd percent change</stp>
+        <tr r="U6" s="1"/>
+      </tp>
+      <tp>
+        <v>1.64612527</v>
+        <stp/>
+        <stp>TLT</stp>
+        <stp>mtd percent change</stp>
+        <tr r="U5" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.f18c4462a8954ccfbb31e4c8628f383c">
+      <tp>
+        <v>-2.9706331700000002</v>
+        <stp/>
+        <stp>EWJ</stp>
+        <stp>mtd percent change</stp>
+        <tr r="U7" s="1"/>
+      </tp>
+      <tp>
+        <v>-4.4534412999999997</v>
+        <stp/>
+        <stp>EEM</stp>
+        <stp>mtd percent change</stp>
+        <tr r="U10" s="1"/>
+      </tp>
+      <tp>
+        <v>-0.29411765000000001</v>
+        <stp/>
+        <stp>DBC</stp>
+        <stp>mtd percent change</stp>
+        <tr r="U2" s="1"/>
+      </tp>
+      <tp>
+        <v>-1.89334723</v>
+        <stp/>
+        <stp>GLD</stp>
+        <stp>mtd percent change</stp>
+        <tr r="U8" s="1"/>
+      </tp>
+      <tp>
+        <v>0.43481334999999999</v>
+        <stp/>
+        <stp>IVV</stp>
+        <stp>mtd percent change</stp>
+        <tr r="U3" s="1"/>
+      </tp>
+      <tp>
+        <v>-0.99362119999999998</v>
+        <stp/>
+        <stp>IYR</stp>
+        <stp>mtd percent change</stp>
+        <tr r="U4" s="1"/>
+      </tp>
+      <tp>
+        <v>-3.39130435</v>
+        <stp/>
+        <stp>IEV</stp>
+        <stp>mtd percent change</stp>
+        <tr r="U9" s="1"/>
+      </tp>
+      <tp>
+        <v>0.98677718999999997</v>
+        <stp/>
+        <stp>IEF</stp>
+        <stp>mtd percent change</stp>
+        <tr r="U11" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.f18c4462a8954ccfbb31e4c8628f383c">
+      <tp t="s">
+        <v>SPDR INDEX SHS FDS-DJ INTL RL ETF</v>
+        <stp/>
+        <stp>RWX</stp>
+        <stp>description</stp>
+        <tr r="B6" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.f18c4462a8954ccfbb31e4c8628f383c">
+      <tp>
+        <v>51.34</v>
+        <stp/>
+        <stp>MU</stp>
+        <stp>last</stp>
+        <tr r="C9" s="4"/>
+      </tp>
+      <tp t="s">
+        <v>ISHARES TR-1 3 YR TREAS BD</v>
+        <stp/>
+        <stp>SHY</stp>
+        <stp>description</stp>
+        <tr r="B12" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.f18c4462a8954ccfbb31e4c8628f383c">
+      <tp t="s">
+        <v>ISHARES TR-20 YR TR BD ETF</v>
+        <stp/>
+        <stp>TLT</stp>
+        <stp>description</stp>
+        <tr r="B5" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.f18c4462a8954ccfbb31e4c8628f383c">
+      <tp t="s">
+        <v>SPDR GOLD TRUST-GOLD SHS</v>
+        <stp/>
+        <stp>GLD</stp>
+        <stp>description</stp>
+        <tr r="B8" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.f18c4462a8954ccfbb31e4c8628f383c">
+      <tp t="s">
+        <v>INVESCO DB COMMDY INDX TRCK-UNIT</v>
+        <stp/>
+        <stp>DBC</stp>
+        <stp>description</stp>
+        <tr r="B2" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.f18c4462a8954ccfbb31e4c8628f383c">
+      <tp t="s">
+        <v>ISHARES TR-MSCI EMG MKT ETF</v>
+        <stp/>
+        <stp>EEM</stp>
+        <stp>description</stp>
+        <tr r="B10" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.f18c4462a8954ccfbb31e4c8628f383c">
+      <tp t="s">
+        <v>ISHARES INC-MSCI JPN ETF NEW</v>
+        <stp/>
+        <stp>EWJ</stp>
+        <stp>description</stp>
+        <tr r="B7" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.f18c4462a8954ccfbb31e4c8628f383c">
+      <tp t="s">
+        <v>ISHARES TR-EUROPE ETF</v>
+        <stp/>
+        <stp>IEV</stp>
+        <stp>description</stp>
+        <tr r="B9" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>ISHARES TR-BARCLAYS 7 10 YR</v>
+        <stp/>
+        <stp>IEF</stp>
+        <stp>description</stp>
+        <tr r="B11" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.f18c4462a8954ccfbb31e4c8628f383c">
+      <tp t="s">
+        <v>ISHARES TR-CORE S&amp;P500 ETF</v>
+        <stp/>
+        <stp>IVV</stp>
+        <stp>description</stp>
+        <tr r="B3" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>ISHARES TR-U.S. REAL ES ETF</v>
+        <stp/>
+        <stp>IYR</stp>
+        <stp>description</stp>
+        <tr r="B4" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.f18c4462a8954ccfbb31e4c8628f383c">
       <tp>
         <v>0</v>
         <stp/>
-        <stp>IYR</stp>
+        <stp>GLD</stp>
         <stp>change in percent</stp>
-        <tr r="L4" s="1"/>
+        <tr r="L8" s="1"/>
       </tp>
     </main>
-    <main first="rtdsrv.1e8b5c15f2294324a5d5b7536d309a9b">
+    <main first="rtdsrv.f18c4462a8954ccfbb31e4c8628f383c">
+      <tp>
+        <v>0</v>
+        <stp/>
+        <stp>AGG</stp>
+        <stp>change in percent</stp>
+        <tr r="K23" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.f18c4462a8954ccfbb31e4c8628f383c">
+      <tp>
+        <v>0</v>
+        <stp/>
+        <stp>IEF</stp>
+        <stp>change in percent</stp>
+        <tr r="L11" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.f18c4462a8954ccfbb31e4c8628f383c">
+      <tp>
+        <v>0</v>
+        <stp/>
+        <stp>DBC</stp>
+        <stp>change in percent</stp>
+        <tr r="L2" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.f18c4462a8954ccfbb31e4c8628f383c">
+      <tp>
+        <v>0</v>
+        <stp/>
+        <stp>EEM</stp>
+        <stp>change in percent</stp>
+        <tr r="L10" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.f18c4462a8954ccfbb31e4c8628f383c">
+      <tp>
+        <v>0</v>
+        <stp/>
+        <stp>EWJ</stp>
+        <stp>change in percent</stp>
+        <tr r="L7" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.f18c4462a8954ccfbb31e4c8628f383c">
+      <tp>
+        <v>0</v>
+        <stp/>
+        <stp>TLT</stp>
+        <stp>change in percent</stp>
+        <tr r="L5" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.f18c4462a8954ccfbb31e4c8628f383c">
       <tp>
         <v>0</v>
         <stp/>
@@ -1072,256 +1311,78 @@
         <tr r="K24" s="1"/>
         <tr r="L3" s="1"/>
       </tp>
+    </main>
+    <main first="rtdsrv.f18c4462a8954ccfbb31e4c8628f383c">
       <tp>
         <v>0</v>
         <stp/>
-        <stp>TLT</stp>
+        <stp>IYR</stp>
         <stp>change in percent</stp>
-        <tr r="L5" s="1"/>
+        <tr r="L4" s="1"/>
       </tp>
+    </main>
+    <main first="rtdsrv.f18c4462a8954ccfbb31e4c8628f383c">
       <tp>
         <v>0</v>
         <stp/>
-        <stp>EWJ</stp>
+        <stp>SHY</stp>
         <stp>change in percent</stp>
-        <tr r="L7" s="1"/>
+        <tr r="L12" s="1"/>
       </tp>
     </main>
-    <main first="rtdsrv.1e8b5c15f2294324a5d5b7536d309a9b">
+    <main first="rtdsrv.f18c4462a8954ccfbb31e4c8628f383c">
       <tp>
         <v>0</v>
         <stp/>
-        <stp>GYLD</stp>
+        <stp>RWX</stp>
         <stp>change in percent</stp>
-        <tr r="K26" s="1"/>
+        <tr r="L6" s="1"/>
       </tp>
     </main>
-    <main first="rtdsrv.1e8b5c15f2294324a5d5b7536d309a9b">
+    <main first="rtdsrv.f18c4462a8954ccfbb31e4c8628f383c">
       <tp>
-        <v>0</v>
+        <v>102.34</v>
+        <stp/>
+        <stp>IEF</stp>
+        <stp>last</stp>
+        <tr r="J11" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.f18c4462a8954ccfbb31e4c8628f383c">
+      <tp>
+        <v>42.48</v>
         <stp/>
         <stp>EEM</stp>
-        <stp>change in percent</stp>
-        <tr r="L10" s="1"/>
+        <stp>last</stp>
+        <tr r="J10" s="1"/>
+      </tp>
+      <tp>
+        <v>44.44</v>
+        <stp/>
+        <stp>IEV</stp>
+        <stp>last</stp>
+        <tr r="J9" s="1"/>
       </tp>
     </main>
-    <main first="rtdsrv.1e8b5c15f2294324a5d5b7536d309a9b">
+    <main first="rtdsrv.f18c4462a8954ccfbb31e4c8628f383c">
       <tp>
-        <v>0</v>
+        <v>46.51</v>
         <stp/>
-        <stp>ACWI</stp>
-        <stp>change in percent</stp>
-        <tr r="K22" s="1"/>
-      </tp>
-      <tp>
-        <v>0</v>
-        <stp/>
-        <stp>DBC</stp>
-        <stp>change in percent</stp>
-        <tr r="L2" s="1"/>
-      </tp>
-      <tp>
-        <v>0</v>
-        <stp/>
-        <stp>IEF</stp>
-        <stp>change in percent</stp>
-        <tr r="L11" s="1"/>
-      </tp>
-      <tp>
-        <v>0.77417986000000005</v>
-        <stp/>
-        <stp>IVV</stp>
-        <stp>mtd percent change</stp>
-        <tr r="U3" s="1"/>
-      </tp>
-      <tp>
-        <v>-0.94455347999999995</v>
-        <stp/>
-        <stp>IYR</stp>
-        <stp>mtd percent change</stp>
-        <tr r="U4" s="1"/>
-      </tp>
-      <tp>
-        <v>1.0163804999999999</v>
-        <stp/>
-        <stp>IEF</stp>
-        <stp>mtd percent change</stp>
-        <tr r="U11" s="1"/>
-      </tp>
-      <tp>
-        <v>-3.1304347799999999</v>
-        <stp/>
-        <stp>IEV</stp>
-        <stp>mtd percent change</stp>
-        <tr r="U9" s="1"/>
-      </tp>
-      <tp>
-        <v>0.23529412</v>
-        <stp/>
-        <stp>DBC</stp>
-        <stp>mtd percent change</stp>
-        <tr r="U2" s="1"/>
-      </tp>
-      <tp>
-        <v>-2.39348158</v>
-        <stp/>
-        <stp>EWJ</stp>
-        <stp>mtd percent change</stp>
-        <tr r="U7" s="1"/>
-      </tp>
-      <tp>
-        <v>-2.85650022</v>
-        <stp/>
-        <stp>EEM</stp>
-        <stp>mtd percent change</stp>
-        <tr r="U10" s="1"/>
-      </tp>
-      <tp>
-        <v>-0.39082855999999999</v>
-        <stp/>
-        <stp>GLD</stp>
-        <stp>mtd percent change</stp>
-        <tr r="U8" s="1"/>
-      </tp>
-      <tp>
-        <v>1.8571669799999999</v>
-        <stp/>
-        <stp>TLT</stp>
-        <stp>mtd percent change</stp>
-        <tr r="U5" s="1"/>
-      </tp>
-      <tp>
-        <v>-1.8481012699999999</v>
-        <stp/>
-        <stp>RWX</stp>
-        <stp>mtd percent change</stp>
-        <tr r="U6" s="1"/>
-      </tp>
-      <tp>
-        <v>0.22875029999999999</v>
-        <stp/>
-        <stp>SHY</stp>
-        <stp>mtd percent change</stp>
-        <tr r="U12" s="1"/>
-      </tp>
-      <tp>
-        <v>0</v>
-        <stp/>
-        <stp>AGG</stp>
-        <stp>change in percent</stp>
-        <tr r="K23" s="1"/>
-      </tp>
-      <tp>
-        <v>0</v>
-        <stp/>
-        <stp>GLD</stp>
-        <stp>change in percent</stp>
-        <tr r="L8" s="1"/>
+        <stp>QQQE</stp>
+        <stp>last</stp>
+        <tr r="C40" s="4"/>
       </tp>
     </main>
-    <main first="rtdsrv.1e8b5c15f2294324a5d5b7536d309a9b">
+    <main first="rtdsrv.f18c4462a8954ccfbb31e4c8628f383c">
       <tp>
-        <v>17.04</v>
-        <stp/>
-        <stp>DBC</stp>
-        <stp>close</stp>
-        <tr r="G2" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.1e8b5c15f2294324a5d5b7536d309a9b">
-      <tp>
-        <v>364.53</v>
-        <stp/>
-        <stp>ALGN</stp>
-        <stp>last</stp>
-        <tr r="C5" s="4"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.1e8b5c15f2294324a5d5b7536d309a9b">
-      <tp>
-        <v>43.78</v>
-        <stp/>
-        <stp>CSCO</stp>
-        <stp>last</stp>
-        <tr r="C7" s="4"/>
-      </tp>
-      <tp>
-        <v>80.75</v>
-        <stp/>
-        <stp>IYR</stp>
-        <stp>close</stp>
-        <tr r="G4" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.1e8b5c15f2294324a5d5b7536d309a9b">
-      <tp>
-        <v>1886.3</v>
-        <stp/>
-        <stp>AMZN</stp>
-        <stp>last</stp>
-        <tr r="C6" s="4"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.1e8b5c15f2294324a5d5b7536d309a9b">
-      <tp>
-        <v>120.66</v>
-        <stp/>
-        <stp>TLT</stp>
-        <stp>close</stp>
-        <tr r="G5" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.1e8b5c15f2294324a5d5b7536d309a9b">
-      <tp>
-        <v>285.07</v>
-        <stp/>
-        <stp>IVV</stp>
-        <stp>close</stp>
-        <tr r="G3" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.1e8b5c15f2294324a5d5b7536d309a9b">
-      <tp>
-        <v>521.02</v>
+        <v>520.36</v>
         <stp/>
         <stp>ISRG</stp>
         <stp>last</stp>
         <tr r="C8" s="4"/>
       </tp>
     </main>
-    <main first="rtdsrv.1e8b5c15f2294324a5d5b7536d309a9b">
-      <tp>
-        <v>46.55</v>
-        <stp/>
-        <stp>QQQE</stp>
-        <stp>last</stp>
-        <tr r="C40" s="4"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.1e8b5c15f2294324a5d5b7536d309a9b">
-      <tp>
-        <v>44.56</v>
-        <stp/>
-        <stp>IEV</stp>
-        <stp>last</stp>
-        <tr r="J9" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.1e8b5c15f2294324a5d5b7536d309a9b">
-      <tp>
-        <v>43.19</v>
-        <stp/>
-        <stp>EEM</stp>
-        <stp>last</stp>
-        <tr r="J10" s="1"/>
-      </tp>
-      <tp>
-        <v>102.37</v>
-        <stp/>
-        <stp>IEF</stp>
-        <stp>last</stp>
-        <tr r="J11" s="1"/>
-      </tp>
+    <main first="rtdsrv.f18c4462a8954ccfbb31e4c8628f383c">
       <tp t="s">
         <v>ARROW ETF TR-ARROW DJ GLB YLD</v>
         <stp/>
@@ -1330,34 +1391,36 @@
         <tr r="L26" s="1"/>
       </tp>
     </main>
-    <main first="rtdsrv.1e8b5c15f2294324a5d5b7536d309a9b">
+    <main first="rtdsrv.f18c4462a8954ccfbb31e4c8628f383c">
       <tp>
-        <v>38.07</v>
+        <v>37.968000000000004</v>
         <stp/>
         <stp>GAL</stp>
         <stp>last</stp>
         <tr r="C37" s="4"/>
       </tp>
+    </main>
+    <main first="rtdsrv.f18c4462a8954ccfbb31e4c8628f383c">
       <tp>
-        <v>2.73</v>
+        <v>1.61</v>
         <stp/>
-        <stp>TLT</stp>
+        <stp>EWJ</stp>
         <stp>dividend yield</stp>
-        <tr r="M5" s="1"/>
+        <tr r="M7" s="1"/>
       </tp>
       <tp>
-        <v>3.71</v>
+        <v>1.36</v>
         <stp/>
-        <stp>RWX</stp>
+        <stp>EEM</stp>
         <stp>dividend yield</stp>
-        <tr r="M6" s="1"/>
+        <tr r="M10" s="1"/>
       </tp>
-      <tp>
-        <v>1.87</v>
+      <tp t="s">
+        <v>--</v>
         <stp/>
-        <stp>SHY</stp>
+        <stp>DBC</stp>
         <stp>dividend yield</stp>
-        <tr r="M12" s="1"/>
+        <tr r="M2" s="1"/>
       </tp>
       <tp>
         <v>1.8</v>
@@ -1374,126 +1437,108 @@
         <tr r="M4" s="1"/>
       </tp>
       <tp>
-        <v>4.75</v>
+        <v>2.2200000000000002</v>
+        <stp/>
+        <stp>IEF</stp>
+        <stp>dividend yield</stp>
+        <tr r="M11" s="1"/>
+      </tp>
+      <tp>
+        <v>4.76</v>
         <stp/>
         <stp>IEV</stp>
         <stp>dividend yield</stp>
         <tr r="M9" s="1"/>
       </tp>
       <tp>
-        <v>2.2200000000000002</v>
+        <v>1.87</v>
         <stp/>
-        <stp>IEF</stp>
+        <stp>SHY</stp>
         <stp>dividend yield</stp>
-        <tr r="M11" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>--</v>
-        <stp/>
-        <stp>DBC</stp>
-        <stp>dividend yield</stp>
-        <tr r="M2" s="1"/>
+        <tr r="M12" s="1"/>
       </tp>
       <tp>
-        <v>1.6</v>
+        <v>3.72</v>
         <stp/>
-        <stp>EWJ</stp>
+        <stp>RWX</stp>
         <stp>dividend yield</stp>
-        <tr r="M7" s="1"/>
+        <tr r="M6" s="1"/>
       </tp>
       <tp>
-        <v>1.34</v>
+        <v>2.74</v>
         <stp/>
-        <stp>EEM</stp>
+        <stp>TLT</stp>
         <stp>dividend yield</stp>
-        <tr r="M10" s="1"/>
+        <tr r="M5" s="1"/>
       </tp>
-      <tp t="s">
-        <v>ISHARES TR-BARCLAYS 7 10 YR</v>
-        <stp/>
-        <stp>IEF</stp>
-        <stp>description</stp>
-        <tr r="B11" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>ISHARES TR-EUROPE ETF</v>
-        <stp/>
-        <stp>IEV</stp>
-        <stp>description</stp>
-        <tr r="B9" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>ISHARES TR-CORE S&amp;P500 ETF</v>
-        <stp/>
-        <stp>IVV</stp>
-        <stp>description</stp>
-        <tr r="B3" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>ISHARES TR-U.S. REAL ES ETF</v>
-        <stp/>
-        <stp>IYR</stp>
-        <stp>description</stp>
-        <tr r="B4" s="1"/>
-      </tp>
+    </main>
+    <main first="rtdsrv.f18c4462a8954ccfbb31e4c8628f383c">
       <tp>
-        <v>17.04</v>
+        <v>16.95</v>
         <stp/>
         <stp>DBC</stp>
         <stp>last</stp>
         <tr r="J2" s="1"/>
         <tr r="C20" s="4"/>
       </tp>
-      <tp t="s">
-        <v>SPDR GOLD TRUST-GOLD SHS</v>
+    </main>
+    <main first="rtdsrv.f18c4462a8954ccfbb31e4c8628f383c">
+      <tp>
+        <v>284.11</v>
+        <stp/>
+        <stp>IVV</stp>
+        <stp>close</stp>
+        <tr r="G3" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.f18c4462a8954ccfbb31e4c8628f383c">
+      <tp>
+        <v>112.96</v>
         <stp/>
         <stp>GLD</stp>
-        <stp>description</stp>
-        <tr r="B8" s="1"/>
+        <stp>last</stp>
+        <tr r="J8" s="1"/>
       </tp>
+    </main>
+    <main first="rtdsrv.f18c4462a8954ccfbb31e4c8628f383c">
       <tp>
-        <v>120.66</v>
+        <v>120.41</v>
         <stp/>
         <stp>TLT</stp>
         <stp>last</stp>
         <tr r="J5" s="1"/>
       </tp>
     </main>
-    <main first="rtdsrv.1e8b5c15f2294324a5d5b7536d309a9b">
+    <main first="rtdsrv.f18c4462a8954ccfbb31e4c8628f383c">
       <tp>
-        <v>114.69</v>
+        <v>1896.2</v>
         <stp/>
-        <stp>GLD</stp>
+        <stp>AMZN</stp>
         <stp>last</stp>
-        <tr r="J8" s="1"/>
+        <tr r="C6" s="4"/>
       </tp>
     </main>
-    <main first="rtdsrv.1e8b5c15f2294324a5d5b7536d309a9b">
-      <tp t="s">
-        <v>ISHARES TR-MSCI EMG MKT ETF</v>
+    <main first="rtdsrv.f18c4462a8954ccfbb31e4c8628f383c">
+      <tp>
+        <v>120.41</v>
         <stp/>
-        <stp>EEM</stp>
-        <stp>description</stp>
-        <tr r="B10" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>ISHARES INC-MSCI JPN ETF NEW</v>
-        <stp/>
-        <stp>EWJ</stp>
-        <stp>description</stp>
-        <tr r="B7" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>INVESCO DB COMMDY INDX TRCK-UNIT</v>
-        <stp/>
-        <stp>DBC</stp>
-        <stp>description</stp>
-        <tr r="B2" s="1"/>
+        <stp>TLT</stp>
+        <stp>close</stp>
+        <tr r="G5" s="1"/>
       </tp>
     </main>
-    <main first="rtdsrv.1e8b5c15f2294324a5d5b7536d309a9b">
+    <main first="rtdsrv.f18c4462a8954ccfbb31e4c8628f383c">
       <tp>
-        <v>83.25</v>
+        <v>80.709999999999994</v>
+        <stp/>
+        <stp>IYR</stp>
+        <stp>close</stp>
+        <tr r="G4" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.f18c4462a8954ccfbb31e4c8628f383c">
+      <tp>
+        <v>83.23</v>
         <stp/>
         <stp>SHY</stp>
         <stp>last</stp>
@@ -1501,85 +1546,86 @@
         <tr r="C23" s="4"/>
       </tp>
     </main>
-    <main first="rtdsrv.1e8b5c15f2294324a5d5b7536d309a9b">
+    <main first="rtdsrv.f18c4462a8954ccfbb31e4c8628f383c">
       <tp>
-        <v>50.88</v>
+        <v>51.01</v>
         <stp/>
         <stp>STX</stp>
         <stp>last</stp>
         <tr r="C10" s="4"/>
       </tp>
     </main>
-    <main first="rtdsrv.1e8b5c15f2294324a5d5b7536d309a9b">
+    <main first="rtdsrv.f18c4462a8954ccfbb31e4c8628f383c">
       <tp>
-        <v>38.770000000000003</v>
-        <stp/>
-        <stp>RWX</stp>
-        <stp>last</stp>
-        <tr r="J6" s="1"/>
-      </tp>
-      <tp>
-        <v>57.5</v>
+        <v>57.16</v>
         <stp/>
         <stp>EWJ</stp>
         <stp>last</stp>
         <tr r="J7" s="1"/>
       </tp>
       <tp>
-        <v>285.07</v>
+        <v>38.590000000000003</v>
+        <stp/>
+        <stp>RWX</stp>
+        <stp>last</stp>
+        <tr r="J6" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.f18c4462a8954ccfbb31e4c8628f383c">
+      <tp>
+        <v>43.75</v>
+        <stp/>
+        <stp>CSCO</stp>
+        <stp>last</stp>
+        <tr r="C7" s="4"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.f18c4462a8954ccfbb31e4c8628f383c">
+      <tp>
+        <v>284.11</v>
         <stp/>
         <stp>IVV</stp>
         <stp>last</stp>
         <tr r="J3" s="1"/>
+        <tr r="C21" s="4"/>
         <tr r="C38" s="4"/>
-        <tr r="C21" s="4"/>
       </tp>
+    </main>
+    <main first="rtdsrv.f18c4462a8954ccfbb31e4c8628f383c">
       <tp>
-        <v>180.52</v>
+        <v>180.32</v>
         <stp/>
         <stp>QQQ</stp>
         <stp>last</stp>
         <tr r="C39" s="4"/>
       </tp>
     </main>
-    <main first="rtdsrv.1e8b5c15f2294324a5d5b7536d309a9b">
-      <tp t="s">
-        <v>ISHARES TR-20 YR TR BD ETF</v>
+    <main first="rtdsrv.f18c4462a8954ccfbb31e4c8628f383c">
+      <tp>
+        <v>362.28</v>
         <stp/>
-        <stp>TLT</stp>
-        <stp>description</stp>
-        <tr r="B5" s="1"/>
+        <stp>ALGN</stp>
+        <stp>last</stp>
+        <tr r="C5" s="4"/>
       </tp>
     </main>
-    <main first="rtdsrv.1e8b5c15f2294324a5d5b7536d309a9b">
+    <main first="rtdsrv.f18c4462a8954ccfbb31e4c8628f383c">
       <tp>
-        <v>80.75</v>
+        <v>80.709999999999994</v>
         <stp/>
         <stp>IYR</stp>
         <stp>last</stp>
         <tr r="J4" s="1"/>
         <tr r="C22" s="4"/>
       </tp>
+    </main>
+    <main first="rtdsrv.f18c4462a8954ccfbb31e4c8628f383c">
       <tp>
-        <v>51.37</v>
+        <v>16.95</v>
         <stp/>
-        <stp>MU</stp>
-        <stp>last</stp>
-        <tr r="C9" s="4"/>
-      </tp>
-      <tp t="s">
-        <v>ISHARES TR-1 3 YR TREAS BD</v>
-        <stp/>
-        <stp>SHY</stp>
-        <stp>description</stp>
-        <tr r="B12" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>SPDR INDEX SHS FDS-DJ INTL RL ETF</v>
-        <stp/>
-        <stp>RWX</stp>
-        <stp>description</stp>
-        <tr r="B6" s="1"/>
+        <stp>DBC</stp>
+        <stp>close</stp>
+        <tr r="G2" s="1"/>
       </tp>
     </main>
   </volType>
@@ -1852,8 +1898,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:V46"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="S28" sqref="S28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1953,30 +1999,30 @@
       </c>
       <c r="E2" s="5">
         <f>G2/D2-1</f>
-        <v>-4.4136921552081487E-2</v>
+        <v>-4.9185494149517672E-2</v>
       </c>
       <c r="F2" s="5">
         <f>I2/$I$21</f>
-        <v>0.15029474717092328</v>
+        <v>0.14991105438245611</v>
       </c>
       <c r="G2" s="4">
         <f>_xll.RealtimeData(A2,"Close")</f>
-        <v>17.04</v>
+        <v>16.95</v>
       </c>
       <c r="H2" s="4">
         <v>176</v>
       </c>
       <c r="I2" s="4">
         <f>H2*G2</f>
-        <v>2999.04</v>
+        <v>2983.2</v>
       </c>
       <c r="J2" s="4">
         <f>_xll.RealtimeData(A2,"Last")</f>
-        <v>17.04</v>
+        <v>16.95</v>
       </c>
       <c r="K2" s="5">
         <f>J2/D2-1</f>
-        <v>-4.4136921552081487E-2</v>
+        <v>-4.9185494149517672E-2</v>
       </c>
       <c r="L2" s="8">
         <f>_xll.RealtimeData(A2,"Change in Percent")</f>
@@ -1995,7 +2041,7 @@
       </c>
       <c r="P2" s="60">
         <f t="shared" ref="P2:P12" si="1">O2-F2</f>
-        <v>-8.2947471709232945E-3</v>
+        <v>-7.911054382456123E-3</v>
       </c>
       <c r="Q2" s="31">
         <f>O2*Daily!$D$68</f>
@@ -2003,11 +2049,11 @@
       </c>
       <c r="R2">
         <f t="shared" ref="R2:R11" si="2">ROUND(Q2/J2,0)</f>
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="S2">
         <f t="shared" ref="S2:S11" si="3">R2-H2</f>
-        <v>-10</v>
+        <v>-9</v>
       </c>
       <c r="T2" t="str">
         <f t="shared" ref="T2:T12" si="4">A2</f>
@@ -2015,7 +2061,7 @@
       </c>
       <c r="U2">
         <f>_xll.RealtimeData(T2,"MTD Percent Change")</f>
-        <v>0.23529412</v>
+        <v>-0.29411765000000001</v>
       </c>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.25">
@@ -2034,30 +2080,30 @@
       </c>
       <c r="E3" s="5">
         <f>G3/D3-1</f>
-        <v>7.0245288792027294E-2</v>
+        <v>6.6641137259981331E-2</v>
       </c>
       <c r="F3" s="5">
         <f>I3/$I$21</f>
-        <v>0.41429630271834922</v>
+        <v>0.41403380938501899</v>
       </c>
       <c r="G3" s="4">
         <f>_xll.RealtimeData(A3,"Close")</f>
-        <v>285.07</v>
+        <v>284.11</v>
       </c>
       <c r="H3" s="4">
         <v>29</v>
       </c>
       <c r="I3" s="4">
         <f>H3*G3</f>
-        <v>8267.0300000000007</v>
+        <v>8239.19</v>
       </c>
       <c r="J3" s="4">
         <f>_xll.RealtimeData(A3,"Last")</f>
-        <v>285.07</v>
+        <v>284.11</v>
       </c>
       <c r="K3" s="5">
         <f>J3/D3-1</f>
-        <v>7.0245288792027294E-2</v>
+        <v>6.6641137259981331E-2</v>
       </c>
       <c r="L3" s="8">
         <f>_xll.RealtimeData(A3,"Change in Percent")</f>
@@ -2076,7 +2122,7 @@
       </c>
       <c r="P3" s="60">
         <f t="shared" si="1"/>
-        <v>-4.8296302718349227E-2</v>
+        <v>-4.8033809385019E-2</v>
       </c>
       <c r="Q3" s="31">
         <f>O3*Daily!$D$68</f>
@@ -2096,7 +2142,7 @@
       </c>
       <c r="U3">
         <f>_xll.RealtimeData(T3,"MTD Percent Change")</f>
-        <v>0.77417986000000005</v>
+        <v>0.43481334999999999</v>
       </c>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.25">
@@ -2115,30 +2161,30 @@
       </c>
       <c r="E4" s="5">
         <f>G4/D4-1</f>
-        <v>2.9580517659058891E-2</v>
+        <v>2.9070508733902711E-2</v>
       </c>
       <c r="F4" s="5">
         <f>I4/$I$21</f>
-        <v>0.21852334248253141</v>
+        <v>0.2190142614498638</v>
       </c>
       <c r="G4" s="4">
         <f>_xll.RealtimeData(A4,"Close")</f>
-        <v>80.75</v>
+        <v>80.709999999999994</v>
       </c>
       <c r="H4" s="4">
         <v>54</v>
       </c>
       <c r="I4" s="4">
         <f>H4*G4</f>
-        <v>4360.5</v>
+        <v>4358.3399999999992</v>
       </c>
       <c r="J4" s="4">
         <f>_xll.RealtimeData(A4,"Last")</f>
-        <v>80.75</v>
+        <v>80.709999999999994</v>
       </c>
       <c r="K4" s="5">
         <f>J4/D4-1</f>
-        <v>2.9580517659058891E-2</v>
+        <v>2.9070508733902711E-2</v>
       </c>
       <c r="L4" s="8">
         <f t="array" ref="L4">_xll.RealtimeData(A4,"Change in Percent")</f>
@@ -2157,7 +2203,7 @@
       </c>
       <c r="P4" s="60">
         <f t="shared" si="1"/>
-        <v>0.1744766575174686</v>
+        <v>0.17398573855013622</v>
       </c>
       <c r="Q4" s="31">
         <f>O4*Daily!$D$68</f>
@@ -2177,7 +2223,7 @@
       </c>
       <c r="U4">
         <f>_xll.RealtimeData(T4,"MTD Percent Change")</f>
-        <v>-0.94455347999999995</v>
+        <v>-0.99362119999999998</v>
       </c>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.25">
@@ -2196,30 +2242,30 @@
       </c>
       <c r="E5" s="5">
         <f>G5/D5-1</f>
-        <v>-1.3359630659935395E-2</v>
+        <v>-1.5403888013946765E-2</v>
       </c>
       <c r="F5" s="5">
         <f>I5/$I$21</f>
-        <v>0.21163763963719259</v>
+        <v>0.2117785103367873</v>
       </c>
       <c r="G5" s="4">
         <f>_xll.RealtimeData(A5,"Close")</f>
-        <v>120.66</v>
+        <v>120.41</v>
       </c>
       <c r="H5" s="4">
         <v>35</v>
       </c>
       <c r="I5" s="4">
         <f>H5*G5</f>
-        <v>4223.0999999999995</v>
+        <v>4214.3499999999995</v>
       </c>
       <c r="J5" s="31">
         <f>_xll.RealtimeData(A5,"Last")</f>
-        <v>120.66</v>
+        <v>120.41</v>
       </c>
       <c r="K5" s="5">
         <f>J5/D5-1</f>
-        <v>-1.3359630659935395E-2</v>
+        <v>-1.5403888013946765E-2</v>
       </c>
       <c r="L5" s="8">
         <f t="array" ref="L5">_xll.RealtimeData(A5,"Change in Percent")</f>
@@ -2227,7 +2273,7 @@
       </c>
       <c r="M5" s="29">
         <f>_xll.RealtimeData(A5,"Dividend Yield")</f>
-        <v>2.73</v>
+        <v>2.74</v>
       </c>
       <c r="N5" s="4" t="str">
         <f t="shared" si="0"/>
@@ -2238,7 +2284,7 @@
       </c>
       <c r="P5" s="60">
         <f t="shared" si="1"/>
-        <v>-0.21163763963719259</v>
+        <v>-0.2117785103367873</v>
       </c>
       <c r="Q5" s="31">
         <f>O5*Daily!$D$68</f>
@@ -2258,7 +2304,7 @@
       </c>
       <c r="U5">
         <f>_xll.RealtimeData(T5,"MTD Percent Change")</f>
-        <v>1.8571669799999999</v>
+        <v>1.64612527</v>
       </c>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.25">
@@ -2278,7 +2324,7 @@
       <c r="I6" s="4"/>
       <c r="J6" s="31">
         <f>_xll.RealtimeData(A6,"Last")</f>
-        <v>38.770000000000003</v>
+        <v>38.590000000000003</v>
       </c>
       <c r="K6" s="5"/>
       <c r="L6" s="8">
@@ -2287,7 +2333,7 @@
       </c>
       <c r="M6" s="29">
         <f>_xll.RealtimeData(A6,"Dividend Yield")</f>
-        <v>3.71</v>
+        <v>3.72</v>
       </c>
       <c r="N6" s="4" t="str">
         <f t="shared" si="0"/>
@@ -2318,7 +2364,7 @@
       </c>
       <c r="U6">
         <f>_xll.RealtimeData(T6,"MTD Percent Change")</f>
-        <v>-1.8481012699999999</v>
+        <v>-2.3037974700000001</v>
       </c>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.25">
@@ -2338,7 +2384,7 @@
       <c r="I7" s="4"/>
       <c r="J7" s="31">
         <f>_xll.RealtimeData(A7,"Last")</f>
-        <v>57.5</v>
+        <v>57.16</v>
       </c>
       <c r="K7" s="5"/>
       <c r="L7" s="8">
@@ -2347,7 +2393,7 @@
       </c>
       <c r="M7" s="29">
         <f>_xll.RealtimeData(A7,"Dividend Yield")</f>
-        <v>1.6</v>
+        <v>1.61</v>
       </c>
       <c r="N7" s="4" t="str">
         <f t="shared" si="0"/>
@@ -2378,7 +2424,7 @@
       </c>
       <c r="U7">
         <f>_xll.RealtimeData(T7,"MTD Percent Change")</f>
-        <v>-2.39348158</v>
+        <v>-2.9706331700000002</v>
       </c>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.25">
@@ -2398,7 +2444,7 @@
       <c r="I8" s="4"/>
       <c r="J8" s="31">
         <f>_xll.RealtimeData(A8,"Last")</f>
-        <v>114.69</v>
+        <v>112.96</v>
       </c>
       <c r="K8" s="5"/>
       <c r="L8" s="8">
@@ -2437,7 +2483,7 @@
       </c>
       <c r="U8">
         <f>_xll.RealtimeData(T8,"MTD Percent Change")</f>
-        <v>-0.39082855999999999</v>
+        <v>-1.89334723</v>
       </c>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.25">
@@ -2457,7 +2503,7 @@
       <c r="I9" s="4"/>
       <c r="J9" s="31">
         <f>_xll.RealtimeData(A9,"Last")</f>
-        <v>44.56</v>
+        <v>44.44</v>
       </c>
       <c r="K9" s="5"/>
       <c r="L9" s="8">
@@ -2466,7 +2512,7 @@
       </c>
       <c r="M9" s="29">
         <f>_xll.RealtimeData(A9,"Dividend Yield")</f>
-        <v>4.75</v>
+        <v>4.76</v>
       </c>
       <c r="N9" s="4" t="str">
         <f t="shared" si="0"/>
@@ -2497,7 +2543,7 @@
       </c>
       <c r="U9">
         <f>_xll.RealtimeData(T9,"MTD Percent Change")</f>
-        <v>-3.1304347799999999</v>
+        <v>-3.39130435</v>
       </c>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.25">
@@ -2511,7 +2557,7 @@
       <c r="G10" s="4"/>
       <c r="J10" s="31">
         <f>_xll.RealtimeData(A10,"Last")</f>
-        <v>43.19</v>
+        <v>42.48</v>
       </c>
       <c r="K10" s="5"/>
       <c r="L10" s="8">
@@ -2520,7 +2566,7 @@
       </c>
       <c r="M10" s="29">
         <f>_xll.RealtimeData(A10,"Dividend Yield")</f>
-        <v>1.34</v>
+        <v>1.36</v>
       </c>
       <c r="N10" s="4" t="str">
         <f t="shared" si="0"/>
@@ -2551,7 +2597,7 @@
       </c>
       <c r="U10">
         <f>_xll.RealtimeData(T10,"MTD Percent Change")</f>
-        <v>-2.85650022</v>
+        <v>-4.4534412999999997</v>
       </c>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.25">
@@ -2565,7 +2611,7 @@
       <c r="G11" s="4"/>
       <c r="J11" s="31">
         <f>_xll.RealtimeData(A11,"Last")</f>
-        <v>102.37</v>
+        <v>102.34</v>
       </c>
       <c r="K11" s="5"/>
       <c r="L11" s="8">
@@ -2605,7 +2651,7 @@
       </c>
       <c r="U11">
         <f>_xll.RealtimeData(T11,"MTD Percent Change")</f>
-        <v>1.0163804999999999</v>
+        <v>0.98677718999999997</v>
       </c>
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.25">
@@ -2618,7 +2664,7 @@
       </c>
       <c r="J12" s="31">
         <f>_xll.RealtimeData(A12,"Last")</f>
-        <v>83.25</v>
+        <v>83.23</v>
       </c>
       <c r="L12" s="8">
         <f t="array" ref="L12">_xll.RealtimeData(A12,"Change in Percent")</f>
@@ -2657,7 +2703,7 @@
       </c>
       <c r="U12">
         <f>_xll.RealtimeData(T12,"MTD Percent Change")</f>
-        <v>0.22875029999999999</v>
+        <v>0.20467131999999999</v>
       </c>
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.25">
@@ -2674,11 +2720,11 @@
     <row r="14" spans="1:22" x14ac:dyDescent="0.25">
       <c r="U14" s="29">
         <f t="array" ref="U14">MMULT(TRANSPOSE(O2:O12),U2:U12)</f>
-        <v>-3.1801644139999967E-2</v>
+        <v>-0.25285369112</v>
       </c>
       <c r="V14" s="8">
         <f>U14*0.01</f>
-        <v>-3.1801644139999968E-4</v>
+        <v>-2.5285369112000001E-3</v>
       </c>
     </row>
     <row r="19" spans="5:16" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
@@ -2688,7 +2734,7 @@
       </c>
       <c r="F20" s="11">
         <f>SUM(F2:F5)</f>
-        <v>0.99475203200899665</v>
+        <v>0.9947376355541262</v>
       </c>
       <c r="H20" s="2" t="s">
         <v>14</v>
@@ -2707,21 +2753,21 @@
       </c>
       <c r="F21" s="11">
         <f>1-F20</f>
-        <v>5.247967991003355E-3</v>
+        <v>5.2623644458738017E-3</v>
       </c>
       <c r="H21" s="2" t="s">
         <v>16</v>
       </c>
       <c r="I21" s="6">
         <f>SUM(I2:I20)</f>
-        <v>19954.39</v>
+        <v>19899.8</v>
       </c>
       <c r="J21" t="s">
         <v>33</v>
       </c>
       <c r="K21" s="8">
         <f>SUMPRODUCT(K2:K7,F2:F7)</f>
-        <v>2.6105448856274339E-2</v>
+        <v>2.3322878176562853E-2</v>
       </c>
       <c r="M21" t="s">
         <v>34</v>
@@ -2789,7 +2835,7 @@
       </c>
       <c r="I26" s="6">
         <f>SUM(I2:I18)</f>
-        <v>19849.669999999998</v>
+        <v>19795.079999999998</v>
       </c>
       <c r="J26" t="s">
         <v>56</v>
@@ -2818,20 +2864,20 @@
       </c>
       <c r="K28" s="8">
         <f>SUMPRODUCT(F2:F7,M2:M7)*0.01</f>
-        <v>1.4327657723438301E-2</v>
+        <v>1.4350411059407634E-2</v>
       </c>
       <c r="L28" t="s">
         <v>65</v>
       </c>
       <c r="M28" s="8">
         <f>AVERAGE(M2:M11)*0.01</f>
-        <v>2.0722222222222222E-2</v>
+        <v>2.0788888888888888E-2</v>
       </c>
     </row>
     <row r="29" spans="5:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="30" spans="5:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H30" s="30">
-        <v>43322</v>
+        <v>43325</v>
       </c>
       <c r="I30" s="15" t="s">
         <v>61</v>
@@ -2856,15 +2902,15 @@
       </c>
       <c r="J31" s="21">
         <f>LOOKUP(2,1/(Daily!E:E&lt;&gt;""),Daily!E:E)</f>
-        <v>-3.4021691575285562E-3</v>
+        <v>-2.7357374814577229E-3</v>
       </c>
       <c r="K31" s="22">
         <f>VLOOKUP($H$30,Daily!$A:$AF,7,0)</f>
-        <v>5.3425068872194892E-3</v>
+        <v>2.5921537094255598E-3</v>
       </c>
       <c r="L31" s="23">
         <f>VLOOKUP($H$30,Daily!$A:$AF,8,0)</f>
-        <v>-2.2799999999996157E-3</v>
+        <v>-5.009499999999556E-3</v>
       </c>
     </row>
     <row r="32" spans="5:16" x14ac:dyDescent="0.25">
@@ -2877,15 +2923,15 @@
       </c>
       <c r="J32" s="24">
         <f>LOOKUP(2,1/(Daily!M:M&lt;&gt;""),Daily!M:M)</f>
-        <v>-6.2321842856262188E-3</v>
+        <v>-3.3253483478271838E-3</v>
       </c>
       <c r="K32" s="14">
         <f>VLOOKUP($H$30,Daily!$A:$AF,25,0)</f>
-        <v>1.3497343708370524E-2</v>
+        <v>1.0127111990942739E-2</v>
       </c>
       <c r="L32" s="25">
         <f>VLOOKUP($H$30,Daily!$A:$AF,31,0)</f>
-        <v>7.6787199932457639E-3</v>
+        <v>4.3278372265755927E-3</v>
       </c>
     </row>
     <row r="33" spans="8:18" x14ac:dyDescent="0.25">
@@ -2898,15 +2944,15 @@
       </c>
       <c r="J33" s="24">
         <f>LOOKUP(2,1/(Daily!L:L&lt;&gt;""),Daily!L:L)</f>
-        <v>-7.1052906551496431E-3</v>
+        <v>-3.3675939242991948E-3</v>
       </c>
       <c r="K33" s="14">
         <f>VLOOKUP($H$30,Daily!$A:$AF,24,0)</f>
-        <v>4.402124153085496E-2</v>
+        <v>4.0505401941036467E-2</v>
       </c>
       <c r="L33" s="25">
         <f>VLOOKUP($H$30,Daily!$A:$AF,30,0)</f>
-        <v>7.0540907479600845E-2</v>
+        <v>6.6935760423858737E-2</v>
       </c>
     </row>
     <row r="34" spans="8:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2919,15 +2965,15 @@
       </c>
       <c r="J34" s="26">
         <f>LOOKUP(2,1/(Daily!N:N&lt;&gt;""),Daily!N:N)</f>
-        <v>-3.9727582292848895E-3</v>
+        <v>-9.1168091168091214E-3</v>
       </c>
       <c r="K34" s="27">
         <f>VLOOKUP($H$30,Daily!$A:$AF,26,0)</f>
-        <v>8.6206896551728196E-3</v>
+        <v>-5.7471264367792152E-4</v>
       </c>
       <c r="L34" s="28">
         <f>VLOOKUP($H$30,Daily!$A:$AF,32,0)</f>
-        <v>1.78183454507721E-2</v>
+        <v>8.5390898797108594E-3</v>
       </c>
     </row>
     <row r="35" spans="8:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -2962,7 +3008,7 @@
       </c>
       <c r="I37" s="46">
         <f>AVERAGE(Daily!E$3:E380)</f>
-        <v>-1.9516559683651564E-5</v>
+        <v>-5.672506546137857E-5</v>
       </c>
       <c r="J37" s="44"/>
       <c r="K37" s="22"/>
@@ -2970,23 +3016,23 @@
       <c r="M37" s="50"/>
       <c r="N37" s="38">
         <f>AVERAGE(Daily!J$3:J380)</f>
-        <v>1.455973045099201E-4</v>
+        <v>6.2523523448035416E-5</v>
       </c>
       <c r="O37" s="22">
         <f>AVERAGE(Daily!K$3:K380)</f>
-        <v>6.3160945300027151E-5</v>
+        <v>7.0032880295143647E-5</v>
       </c>
       <c r="P37" s="22">
         <f>AVERAGE(Daily!L$3:L380)</f>
-        <v>9.6391688177575397E-4</v>
+        <v>9.0458111730897385E-4</v>
       </c>
       <c r="Q37" s="22">
         <f>AVERAGE(Daily!M$3:M380)</f>
-        <v>1.1262276082596288E-4</v>
+        <v>6.5527266186878676E-5</v>
       </c>
       <c r="R37" s="23">
         <f>AVERAGE(Daily!N$3:N380)</f>
-        <v>2.7686376343491709E-4</v>
+        <v>1.4818331302061521E-4</v>
       </c>
     </row>
     <row r="38" spans="8:18" x14ac:dyDescent="0.25">
@@ -2995,7 +3041,7 @@
       </c>
       <c r="I38" s="47">
         <f>STDEV(Daily!E$3:E380)</f>
-        <v>4.9696410200796943E-3</v>
+        <v>4.9452381026748472E-3</v>
       </c>
       <c r="J38" s="45"/>
       <c r="K38" s="14"/>
@@ -3003,23 +3049,23 @@
       <c r="M38" s="51"/>
       <c r="N38" s="40">
         <f>STDEV(Daily!J$3:J380)</f>
-        <v>6.1690984860917905E-3</v>
+        <v>6.1670890526528792E-3</v>
       </c>
       <c r="O38" s="14">
         <f>STDEV(Daily!K$3:K380)</f>
-        <v>1.7788824623603417E-3</v>
+        <v>1.7674614034914043E-3</v>
       </c>
       <c r="P38" s="14">
         <f>STDEV(Daily!L$3:L380)</f>
-        <v>5.8265901427871705E-3</v>
+        <v>5.8081537675398831E-3</v>
       </c>
       <c r="Q38" s="14">
         <f>STDEV(Daily!M$3:M380)</f>
-        <v>3.594619186361872E-3</v>
+        <v>3.5921772957517614E-3</v>
       </c>
       <c r="R38" s="25">
         <f>STDEV(Daily!N$3:N380)</f>
-        <v>7.998274241674104E-3</v>
+        <v>8.0182708531140751E-3</v>
       </c>
     </row>
     <row r="39" spans="8:18" x14ac:dyDescent="0.25">
@@ -3040,7 +3086,7 @@
       </c>
       <c r="O39" s="33">
         <f>COUNTIF(Daily!K$3:K380,"&gt;0")</f>
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="P39" s="33">
         <f>COUNTIF(Daily!L$3:L380,"&gt;0")</f>
@@ -3073,7 +3119,7 @@
       </c>
       <c r="O40" s="14">
         <f>SUMIF(Daily!K$3:K380,"&gt;0")</f>
-        <v>5.149440906284708E-2</v>
+        <v>5.2059221262790611E-2</v>
       </c>
       <c r="P40" s="14">
         <f>SUMIF(Daily!L$3:L380,"&gt;0")</f>
@@ -3094,7 +3140,7 @@
       </c>
       <c r="I41" s="47">
         <f>SUMIF(Daily!E$3:E380,"&lt;0")</f>
-        <v>-0.13220496842324381</v>
+        <v>-0.13494070590470153</v>
       </c>
       <c r="J41" s="45"/>
       <c r="K41" s="14"/>
@@ -3102,7 +3148,7 @@
       <c r="M41" s="51"/>
       <c r="N41" s="40">
         <f>SUMIF(Daily!J$3:J380,"&lt;0")</f>
-        <v>-0.16508259998668101</v>
+        <v>-0.17100138869968867</v>
       </c>
       <c r="O41" s="14">
         <f>SUMIF(Daily!K$3:K380,"&lt;0")</f>
@@ -3110,15 +3156,15 @@
       </c>
       <c r="P41" s="14">
         <f>SUMIF(Daily!L$3:L380,"&lt;0")</f>
-        <v>-0.13225977242640469</v>
+        <v>-0.13562736635070388</v>
       </c>
       <c r="Q41" s="14">
         <f>SUMIF(Daily!M$3:M380,"&lt;0")</f>
-        <v>-9.5118662202285251E-2</v>
+        <v>-9.844401055011244E-2</v>
       </c>
       <c r="R41" s="25">
         <f>SUMIF(Daily!N$3:N380,"&lt;0")</f>
-        <v>-0.21343753587047648</v>
+        <v>-0.2225543449872856</v>
       </c>
     </row>
     <row r="42" spans="8:18" x14ac:dyDescent="0.25">
@@ -3127,7 +3173,7 @@
       </c>
       <c r="I42" s="48">
         <f>COUNT(Daily!E$3:E380)</f>
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="J42" s="45"/>
       <c r="K42" s="14"/>
@@ -3135,23 +3181,23 @@
       <c r="M42" s="51"/>
       <c r="N42" s="41">
         <f>COUNT(Daily!J$3:J380)</f>
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="O42" s="33">
         <f>COUNT(Daily!K$3:K380)</f>
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="P42" s="33">
         <f>COUNT(Daily!L$3:L380)</f>
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Q42" s="33">
         <f>COUNT(Daily!M$3:M380)</f>
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="R42" s="35">
         <f>COUNT(Daily!N$3:N380)</f>
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="43" spans="8:18" x14ac:dyDescent="0.25">
@@ -3160,7 +3206,7 @@
       </c>
       <c r="I43" s="48">
         <f>I42-I39</f>
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J43" s="45"/>
       <c r="K43" s="14"/>
@@ -3168,7 +3214,7 @@
       <c r="M43" s="51"/>
       <c r="N43" s="41">
         <f>N42-N39</f>
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="O43" s="33">
         <f>O42-O39</f>
@@ -3176,15 +3222,15 @@
       </c>
       <c r="P43" s="33">
         <f>P42-P39</f>
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="Q43" s="33">
         <f>Q42-Q39</f>
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="R43" s="35">
         <f>R42-R39</f>
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="44" spans="8:18" x14ac:dyDescent="0.25">
@@ -3193,7 +3239,7 @@
       </c>
       <c r="I44" s="49">
         <f>(I40/I41)*(I39/I43)*-1</f>
-        <v>1.3085230786628288</v>
+        <v>1.2419322400745296</v>
       </c>
       <c r="J44" s="45"/>
       <c r="K44" s="14"/>
@@ -3201,23 +3247,23 @@
       <c r="M44" s="51"/>
       <c r="N44" s="42">
         <f>(N40/N41)*(N39/N43)*-1</f>
-        <v>1.0635015799700271</v>
+        <v>0.99894270353210646</v>
       </c>
       <c r="O44" s="34">
         <f>(O40/O41)*(O39/O43)*-1</f>
-        <v>1.1595448970258799</v>
+        <v>1.2039460611544621</v>
       </c>
       <c r="P44" s="34">
         <f>(P40/P41)*(P39/P43)*-1</f>
-        <v>2.0165918379485466</v>
+        <v>1.9050666006226948</v>
       </c>
       <c r="Q44" s="34">
         <f>(Q40/Q41)*(Q39/Q43)*-1</f>
-        <v>1.2129261513014544</v>
+        <v>1.1384702011650047</v>
       </c>
       <c r="R44" s="36">
         <f>(R40/R41)*(R39/R43)*-1</f>
-        <v>1.4461042561456197</v>
+        <v>1.3435258926443392</v>
       </c>
     </row>
     <row r="45" spans="8:18" x14ac:dyDescent="0.25">
@@ -3226,7 +3272,7 @@
       </c>
       <c r="I45" s="62">
         <f>I39/I42</f>
-        <v>0.56944444444444442</v>
+        <v>0.56164383561643838</v>
       </c>
       <c r="J45" s="63"/>
       <c r="K45" s="64"/>
@@ -3234,23 +3280,23 @@
       <c r="M45" s="66"/>
       <c r="N45" s="67">
         <f>N39/N42</f>
-        <v>0.5</v>
+        <v>0.49315068493150682</v>
       </c>
       <c r="O45" s="64">
         <f>O39/O42</f>
-        <v>0.51388888888888884</v>
+        <v>0.52054794520547942</v>
       </c>
       <c r="P45" s="64">
         <f>P39/P42</f>
-        <v>0.56944444444444442</v>
+        <v>0.56164383561643838</v>
       </c>
       <c r="Q45" s="64">
         <f>Q39/Q42</f>
-        <v>0.52777777777777779</v>
+        <v>0.52054794520547942</v>
       </c>
       <c r="R45" s="68">
         <f>R39/R42</f>
-        <v>0.56944444444444442</v>
+        <v>0.56164383561643838</v>
       </c>
     </row>
     <row r="46" spans="8:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3298,13 +3344,13 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:AN74"/>
+  <dimension ref="A1:AN75"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B49" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="L49" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D83" sqref="D83"/>
+      <selection pane="bottomRight" activeCell="Z84" sqref="Z84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9320,7 +9366,7 @@
         <v>43291</v>
       </c>
       <c r="B51" s="4">
-        <f t="shared" ref="B51:B74" si="812">D51-C51</f>
+        <f t="shared" ref="B51:B75" si="812">D51-C51</f>
         <v>19902.79</v>
       </c>
       <c r="C51" s="4">
@@ -12577,6 +12623,142 @@
       <c r="AN74" s="8">
         <f t="shared" ref="AN74" si="1335">MIN(0,(T74-MAX(T45:T74))/MAX(T45:T74))</f>
         <v>-1.9005030743432089E-2</v>
+      </c>
+    </row>
+    <row r="75" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A75" s="9">
+        <v>43325</v>
+      </c>
+      <c r="B75" s="4">
+        <f t="shared" si="812"/>
+        <v>19795.09</v>
+      </c>
+      <c r="C75" s="4">
+        <v>104.72</v>
+      </c>
+      <c r="D75" s="4">
+        <f>19924.66-24.85</f>
+        <v>19899.810000000001</v>
+      </c>
+      <c r="E75" s="5">
+        <f t="shared" ref="E75" si="1336">D75/D74-1</f>
+        <v>-2.7357374814577229E-3</v>
+      </c>
+      <c r="F75" s="10">
+        <f t="shared" ref="F75" si="1337">F74*(1+E75)</f>
+        <v>99.49905000000004</v>
+      </c>
+      <c r="G75" s="5">
+        <f t="shared" ref="G75" si="1338">F75/F$45-1</f>
+        <v>2.5921537094255598E-3</v>
+      </c>
+      <c r="H75" s="8">
+        <f t="shared" ref="H75" si="1339">F75/$F$2-1</f>
+        <v>-5.009499999999556E-3</v>
+      </c>
+      <c r="J75" s="11">
+        <f>VLOOKUP($A75,Prices!$A:$J,MATCH(J$1,Prices!$1:$1,0),0)</f>
+        <v>-5.9187887130076611E-3</v>
+      </c>
+      <c r="K75" s="11">
+        <f>VLOOKUP($A75,Prices!$A:$J,MATCH(K$1,Prices!$1:$1,0),0)</f>
+        <v>5.6481219994353182E-4</v>
+      </c>
+      <c r="L75" s="11">
+        <f>VLOOKUP($A75,Prices!$A:$J,MATCH(L$1,Prices!$1:$1,0),0)</f>
+        <v>-3.3675939242991948E-3</v>
+      </c>
+      <c r="M75" s="11">
+        <f t="shared" ref="M75" si="1340">0.6*J75 + 0.4*K75</f>
+        <v>-3.3253483478271838E-3</v>
+      </c>
+      <c r="N75" s="11">
+        <f>VLOOKUP($A75,Prices!$A:$J,MATCH(N$1,Prices!$1:$1,0),0)</f>
+        <v>-9.1168091168091214E-3</v>
+      </c>
+      <c r="P75" s="10">
+        <f t="shared" ref="P75" si="1341">P74*(1+J75)</f>
+        <v>100.31980545274973</v>
+      </c>
+      <c r="Q75" s="10">
+        <f t="shared" ref="Q75" si="1342">Q74*(1+K75)</f>
+        <v>100.50123355730094</v>
+      </c>
+      <c r="R75" s="10">
+        <f t="shared" ref="R75" si="1343">R74*(1+L75)</f>
+        <v>106.69357604238587</v>
+      </c>
+      <c r="S75" s="10">
+        <f t="shared" ref="S75" si="1344">S74*(1+M75)</f>
+        <v>100.43278372265756</v>
+      </c>
+      <c r="T75" s="10">
+        <f t="shared" ref="T75" si="1345">T74*(1+N75)</f>
+        <v>100.85390898797108</v>
+      </c>
+      <c r="V75" s="5">
+        <f t="shared" ref="V75" si="1346">P75/P$45-1</f>
+        <v>1.5466816647919268E-2</v>
+      </c>
+      <c r="W75" s="5">
+        <f t="shared" ref="W75" si="1347">Q75/Q$45-1</f>
+        <v>1.8776368921709086E-3</v>
+      </c>
+      <c r="X75" s="5">
+        <f t="shared" ref="X75" si="1348">R75/R$45-1</f>
+        <v>4.0505401941036467E-2</v>
+      </c>
+      <c r="Y75" s="5">
+        <f t="shared" ref="Y75" si="1349">S75/S$45-1</f>
+        <v>1.0127111990942739E-2</v>
+      </c>
+      <c r="Z75" s="5">
+        <f t="shared" ref="Z75" si="1350">T75/T$45-1</f>
+        <v>-5.7471264367792152E-4</v>
+      </c>
+      <c r="AB75" s="8">
+        <f t="shared" ref="AB75" si="1351">P75/$P$2-1</f>
+        <v>3.1980545274974403E-3</v>
+      </c>
+      <c r="AC75" s="8">
+        <f t="shared" ref="AC75" si="1352">Q75/$P$2-1</f>
+        <v>5.0123355730093966E-3</v>
+      </c>
+      <c r="AD75" s="8">
+        <f t="shared" ref="AD75" si="1353">R75/$P$2-1</f>
+        <v>6.6935760423858737E-2</v>
+      </c>
+      <c r="AE75" s="8">
+        <f t="shared" ref="AE75" si="1354">S75/$P$2-1</f>
+        <v>4.3278372265755927E-3</v>
+      </c>
+      <c r="AF75" s="8">
+        <f t="shared" ref="AF75" si="1355">T75/$T$2-1</f>
+        <v>8.5390898797108594E-3</v>
+      </c>
+      <c r="AI75" s="8">
+        <f t="shared" ref="AI75" si="1356">MIN(0,(F75-MAX(F46:F75))/MAX(F46:F75))</f>
+        <v>-7.2659844174188084E-3</v>
+      </c>
+      <c r="AJ75" s="8">
+        <f t="shared" ref="AJ75" si="1357">MIN(0,(P75-MAX(P46:P75))/MAX(P46:P75))</f>
+        <v>-2.2468868435300222E-2</v>
+      </c>
+      <c r="AK75" s="8">
+        <f t="shared" ref="AK75" si="1358">MIN(0,(Q75-MAX(Q46:Q75))/MAX(Q46:Q75))</f>
+        <v>-2.0655337526993955E-3</v>
+      </c>
+      <c r="AL75" s="8">
+        <f t="shared" ref="AL75" si="1359">MIN(0,(R75-MAX(R46:R75))/MAX(R46:R75))</f>
+        <v>-1.1688176157512029E-2</v>
+      </c>
+      <c r="AM75" s="8">
+        <f t="shared" ref="AM75" si="1360">MIN(0,(S75-MAX(S46:S75))/MAX(S46:S75))</f>
+        <v>-1.264733849046862E-2</v>
+      </c>
+      <c r="AN75" s="8">
+        <f t="shared" ref="AN75" si="1361">MIN(0,(T75-MAX(T46:T75))/MAX(T46:T75))</f>
+        <v>-2.7948574622694289E-2</v>
       </c>
     </row>
   </sheetData>
@@ -12590,7 +12772,7 @@
   <dimension ref="A1:J78"/>
   <sheetViews>
     <sheetView topLeftCell="A51" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A77" sqref="A77"/>
+      <selection activeCell="E85" sqref="E85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15326,37 +15508,40 @@
       </c>
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B76" t="str">
+      <c r="A76" s="13">
+        <v>43325</v>
+      </c>
+      <c r="B76">
         <f t="array" ref="B76">_xll.HistoricalData(B$1,"Adj. Close",$A76,$A76,"Daily","RemoveHeaders = True","ReverseOrder =True","RemoveDates =""True")</f>
-        <v>--</v>
-      </c>
-      <c r="C76" t="str">
+        <v>72.22</v>
+      </c>
+      <c r="C76">
         <f t="array" ref="C76">_xll.HistoricalData(C$1,"Adj. Close",$A76,$A76,"Daily","RemoveHeaders = True","ReverseOrder =True","RemoveDates =""True")</f>
-        <v>--</v>
-      </c>
-      <c r="D76" t="str">
+        <v>106.29</v>
+      </c>
+      <c r="D76">
         <f t="array" ref="D76">_xll.HistoricalData(D$1,"Adj. Close",$A76,$A76,"Daily","RemoveHeaders = True","ReverseOrder =True","RemoveDates =""True")</f>
-        <v>--</v>
-      </c>
-      <c r="E76" t="str">
+        <v>284.11</v>
+      </c>
+      <c r="E76">
         <f t="array" ref="E76">_xll.HistoricalData(E$1,"Adj. Close",$A76,$A76,"Daily","RemoveHeaders = True","ReverseOrder =True","RemoveDates =""True")</f>
-        <v>--</v>
-      </c>
-      <c r="G76" s="5" t="e">
+        <v>17.39</v>
+      </c>
+      <c r="G76" s="5">
         <f t="shared" si="220"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="H76" s="5" t="e">
+        <v>-5.9187887130076611E-3</v>
+      </c>
+      <c r="H76" s="5">
         <f t="shared" si="221"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I76" s="5" t="e">
+        <v>5.6481219994353182E-4</v>
+      </c>
+      <c r="I76" s="5">
         <f t="shared" si="222"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="J76" s="5" t="e">
+        <v>-3.3675939242991948E-3</v>
+      </c>
+      <c r="J76" s="5">
         <f t="shared" si="223"/>
-        <v>#VALUE!</v>
+        <v>-9.1168091168091214E-3</v>
       </c>
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.25">
@@ -15475,7 +15660,7 @@
       </c>
       <c r="G2" s="74">
         <f>SUM(G5:G10)</f>
-        <v>0.99267902059804258</v>
+        <v>0.99267767166714549</v>
       </c>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.25">
@@ -15526,7 +15711,7 @@
       </c>
       <c r="C5">
         <f>_xll.RealtimeData(A5,"Last")</f>
-        <v>364.53</v>
+        <v>362.28</v>
       </c>
       <c r="D5">
         <f>ROUNDDOWN(($C$2/6)/B5,0)</f>
@@ -15534,19 +15719,19 @@
       </c>
       <c r="E5" s="8">
         <f>C5/B5-1</f>
-        <v>9.8147311342069443E-2</v>
+        <v>9.1369182105738744E-2</v>
       </c>
       <c r="F5">
         <f>C5*D5</f>
-        <v>12758.55</v>
+        <v>12679.8</v>
       </c>
       <c r="G5" s="73">
         <f>F5/$F$13</f>
-        <v>0.17605994335634884</v>
+        <v>0.17500548280951167</v>
       </c>
       <c r="H5" s="8">
         <f>F5/$F$31</f>
-        <v>0.1245270289988675</v>
+        <v>0.1238536519040162</v>
       </c>
       <c r="I5">
         <f>B5*D5</f>
@@ -15563,7 +15748,7 @@
       </c>
       <c r="C6">
         <f>_xll.RealtimeData(A6,"Last")</f>
-        <v>1886.3</v>
+        <v>1896.2</v>
       </c>
       <c r="D6">
         <f t="shared" ref="D6:D10" si="0">ROUNDDOWN(($C$2/6)/B6,0)</f>
@@ -15571,19 +15756,19 @@
       </c>
       <c r="E6" s="8">
         <f t="shared" ref="E6:E10" si="1">C6/B6-1</f>
-        <v>0.15750911255384703</v>
+        <v>0.16358414845178637</v>
       </c>
       <c r="F6">
         <f t="shared" ref="F6:F9" si="2">C6*D6</f>
-        <v>13204.1</v>
+        <v>13273.4</v>
       </c>
       <c r="G6" s="73">
         <f t="shared" ref="G6:G10" si="3">F6/$F$13</f>
-        <v>0.1822082523540344</v>
+        <v>0.18319829772739099</v>
       </c>
       <c r="H6" s="8">
         <f t="shared" ref="H6:H10" si="4">F6/$F$31</f>
-        <v>0.12887572205336395</v>
+        <v>0.12965181337109172</v>
       </c>
       <c r="I6">
         <f t="shared" ref="I6:I10" si="5">B6*D6</f>
@@ -15600,7 +15785,7 @@
       </c>
       <c r="C7">
         <f>_xll.RealtimeData(A7,"Last")</f>
-        <v>43.78</v>
+        <v>43.75</v>
       </c>
       <c r="D7">
         <f t="shared" si="0"/>
@@ -15608,19 +15793,19 @@
       </c>
       <c r="E7" s="8">
         <f t="shared" si="1"/>
-        <v>3.3034450212364286E-2</v>
+        <v>3.2326569136384986E-2</v>
       </c>
       <c r="F7">
         <f t="shared" si="2"/>
-        <v>12039.5</v>
+        <v>12031.25</v>
       </c>
       <c r="G7" s="73">
         <f t="shared" si="3"/>
-        <v>0.16613750685138687</v>
+        <v>0.16605425283142775</v>
       </c>
       <c r="H7" s="8">
         <f t="shared" si="4"/>
-        <v>0.11750889917991193</v>
+        <v>0.11751875025396261</v>
       </c>
       <c r="I7">
         <f t="shared" si="5"/>
@@ -15637,7 +15822,7 @@
       </c>
       <c r="C8">
         <f>_xll.RealtimeData(A8,"Last")</f>
-        <v>521.02</v>
+        <v>520.36</v>
       </c>
       <c r="D8">
         <f t="shared" si="0"/>
@@ -15645,19 +15830,19 @@
       </c>
       <c r="E8" s="8">
         <f t="shared" si="1"/>
-        <v>0.13346531207170353</v>
+        <v>0.1320294994234994</v>
       </c>
       <c r="F8">
         <f t="shared" si="2"/>
-        <v>13025.5</v>
+        <v>13009</v>
       </c>
       <c r="G8" s="73">
         <f t="shared" si="3"/>
-        <v>0.17974368499462101</v>
+        <v>0.17954907221477764</v>
       </c>
       <c r="H8" s="8">
         <f t="shared" si="4"/>
-        <v>0.12713253592490908</v>
+        <v>0.12706920910577035</v>
       </c>
       <c r="I8">
         <f t="shared" si="5"/>
@@ -15674,7 +15859,7 @@
       </c>
       <c r="C9">
         <f>_xll.RealtimeData(A9,"Last")</f>
-        <v>51.37</v>
+        <v>51.34</v>
       </c>
       <c r="D9">
         <f t="shared" si="0"/>
@@ -15682,19 +15867,19 @@
       </c>
       <c r="E9" s="8">
         <f t="shared" si="1"/>
-        <v>-0.10800486195520065</v>
+        <v>-0.10852578572668869</v>
       </c>
       <c r="F9">
         <f t="shared" si="2"/>
-        <v>10376.74</v>
+        <v>10370.68</v>
       </c>
       <c r="G9" s="73">
         <f t="shared" si="3"/>
-        <v>0.14319246753146395</v>
+        <v>0.14313521194837037</v>
       </c>
       <c r="H9" s="8">
         <f t="shared" si="4"/>
-        <v>0.10127989488568125</v>
+        <v>0.10129864751241682</v>
       </c>
       <c r="I9">
         <f t="shared" si="5"/>
@@ -15711,7 +15896,7 @@
       </c>
       <c r="C10">
         <f>_xll.RealtimeData(A10,"Last")</f>
-        <v>50.88</v>
+        <v>51.01</v>
       </c>
       <c r="D10">
         <f t="shared" si="0"/>
@@ -15719,19 +15904,19 @@
       </c>
       <c r="E10" s="8">
         <f t="shared" si="1"/>
-        <v>-9.7071872227151745E-2</v>
+        <v>-9.4764862466725885E-2</v>
       </c>
       <c r="F10">
         <f>C10*D10</f>
-        <v>10532.16</v>
+        <v>10559.07</v>
       </c>
       <c r="G10" s="73">
         <f t="shared" si="3"/>
-        <v>0.14533716551018752</v>
+        <v>0.14573535413566699</v>
       </c>
       <c r="H10" s="8">
         <f t="shared" si="4"/>
-        <v>0.10279683770810259</v>
+        <v>0.10313880189041943</v>
       </c>
       <c r="I10">
         <f t="shared" si="5"/>
@@ -15750,7 +15935,7 @@
       </c>
       <c r="F13" s="75">
         <f>SUM(F5:F10)+I13</f>
-        <v>72467.08</v>
+        <v>72453.73</v>
       </c>
       <c r="H13" t="s">
         <v>26</v>
@@ -15766,7 +15951,7 @@
       </c>
       <c r="F14" s="8">
         <f>F13/C2-1</f>
-        <v>3.5244000000000053E-2</v>
+        <v>3.5053285714285565E-2</v>
       </c>
     </row>
     <row r="15" spans="1:23" x14ac:dyDescent="0.25">
@@ -15777,7 +15962,7 @@
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H17" s="11">
         <f>SUM(H20:H23)</f>
-        <v>0.98817632737881467</v>
+        <v>0.98815047011467572</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
@@ -15819,7 +16004,7 @@
       </c>
       <c r="C20">
         <f>_xll.RealtimeData(A20,"Last")</f>
-        <v>17.04</v>
+        <v>16.95</v>
       </c>
       <c r="D20">
         <f>ROUNDDOWN(($C$3*E20)/B20,0)</f>
@@ -15830,19 +16015,19 @@
       </c>
       <c r="F20" s="8">
         <f>C20/B20-1</f>
-        <v>2.3529411764704466E-3</v>
+        <v>-2.9411764705882248E-3</v>
       </c>
       <c r="G20">
         <f>D20*C20</f>
-        <v>4260</v>
+        <v>4237.5</v>
       </c>
       <c r="H20" s="8">
         <f>G20/$G$27</f>
-        <v>0.14205213313285975</v>
+        <v>0.14161087170472755</v>
       </c>
       <c r="I20" s="8">
         <f>G20/$F$31</f>
-        <v>4.1578795673111409E-2</v>
+        <v>4.1391019569967089E-2</v>
       </c>
       <c r="J20">
         <f>B20*D20</f>
@@ -15859,7 +16044,7 @@
       </c>
       <c r="C21">
         <f>_xll.RealtimeData(A21,"Last")</f>
-        <v>285.07</v>
+        <v>284.11</v>
       </c>
       <c r="D21">
         <f t="shared" ref="D21:D22" si="6">ROUNDDOWN(($C$3*E21)/B21,0)</f>
@@ -15870,19 +16055,19 @@
       </c>
       <c r="F21" s="8">
         <f t="shared" ref="F21:F23" si="7">C21/B21-1</f>
-        <v>7.7417986425338814E-3</v>
+        <v>4.3481334841628527E-3</v>
       </c>
       <c r="G21">
         <f t="shared" ref="G21:G22" si="8">D21*C21</f>
-        <v>10832.66</v>
+        <v>10796.18</v>
       </c>
       <c r="H21" s="8">
         <f t="shared" ref="H21:H23" si="9">G21/$G$27</f>
-        <v>0.36122123485986019</v>
+        <v>0.36079208516369216</v>
       </c>
       <c r="I21" s="8">
         <f t="shared" ref="I21:I23" si="10">G21/$F$31</f>
-        <v>0.10572980205077161</v>
+        <v>0.1054548431058141</v>
       </c>
       <c r="J21">
         <f t="shared" ref="J21:J23" si="11">B21*D21</f>
@@ -15899,7 +16084,7 @@
       </c>
       <c r="C22">
         <f>_xll.RealtimeData(A22,"Last")</f>
-        <v>80.75</v>
+        <v>80.709999999999994</v>
       </c>
       <c r="D22">
         <f t="shared" si="6"/>
@@ -15910,19 +16095,19 @@
       </c>
       <c r="F22" s="8">
         <f t="shared" si="7"/>
-        <v>-9.4455348380765303E-3</v>
+        <v>-9.9362119725221465E-3</v>
       </c>
       <c r="G22">
         <f t="shared" si="8"/>
-        <v>11628</v>
+        <v>11622.24</v>
       </c>
       <c r="H22" s="8">
         <f t="shared" si="9"/>
-        <v>0.38774230142462279</v>
+        <v>0.38839776697617762</v>
       </c>
       <c r="I22" s="8">
         <f t="shared" si="10"/>
-        <v>0.11349254368238015</v>
+        <v>0.11352362555441989</v>
       </c>
       <c r="J22">
         <f t="shared" si="11"/>
@@ -15939,7 +16124,7 @@
       </c>
       <c r="C23">
         <f>_xll.RealtimeData(A23,"Last")</f>
-        <v>83.25</v>
+        <v>83.23</v>
       </c>
       <c r="D23">
         <f>ROUNDDOWN(($C$3*E23)/B23,0)</f>
@@ -15950,19 +16135,19 @@
       </c>
       <c r="F23" s="8">
         <f t="shared" si="7"/>
-        <v>2.2875030098723492E-3</v>
+        <v>2.0467132193595639E-3</v>
       </c>
       <c r="G23">
         <f>D23*C23</f>
-        <v>2913.75</v>
+        <v>2913.05</v>
       </c>
       <c r="H23" s="8">
         <f t="shared" si="9"/>
-        <v>9.7160657961471858E-2</v>
+        <v>9.7349746270078252E-2</v>
       </c>
       <c r="I23" s="8">
         <f t="shared" si="10"/>
-        <v>2.8439017815147506E-2</v>
+        <v>2.845406715239944E-2</v>
       </c>
       <c r="J23">
         <f t="shared" si="11"/>
@@ -15978,7 +16163,7 @@
       </c>
       <c r="G27">
         <f>SUM(G20:G23)+J28</f>
-        <v>29988.99</v>
+        <v>29923.55</v>
       </c>
       <c r="J27">
         <f>SUM(J20:J23)</f>
@@ -15991,7 +16176,7 @@
       </c>
       <c r="G28" s="8">
         <f>G27/J27-1</f>
-        <v>1.1589311266293478E-2</v>
+        <v>9.3818876575202381E-3</v>
       </c>
       <c r="I28" t="s">
         <v>26</v>
@@ -16007,7 +16192,7 @@
       </c>
       <c r="F31" s="75">
         <f>SUM(F13,G27)</f>
-        <v>102456.07</v>
+        <v>102377.28</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
@@ -16016,11 +16201,11 @@
       </c>
       <c r="F33" s="8">
         <f>F31/B1-1</f>
-        <v>2.4560700000000102E-2</v>
+        <v>2.3772799999999927E-2</v>
       </c>
       <c r="H33" s="11">
         <f>F33-F37</f>
-        <v>-2.9204106394373416E-3</v>
+        <v>-2.2821215248079209E-3</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
@@ -16033,16 +16218,16 @@
       </c>
       <c r="C37">
         <f>_xll.RealtimeData(A37,"Last")</f>
-        <v>38.07</v>
+        <v>37.968000000000004</v>
       </c>
       <c r="D37" s="8">
         <f>C37/B37-1</f>
-        <v>-4.9660219550443641E-3</v>
+        <v>-7.6319916361734519E-3</v>
       </c>
       <c r="E37" s="11"/>
       <c r="F37" s="8">
         <f>D37*$B$3+D40*$B$2</f>
-        <v>2.7481110639437444E-2</v>
+        <v>2.6054921524807848E-2</v>
       </c>
       <c r="H37" s="8"/>
       <c r="I37" s="8"/>
@@ -16057,11 +16242,11 @@
       </c>
       <c r="C38">
         <f>_xll.RealtimeData(A38,"Last")</f>
-        <v>285.07</v>
+        <v>284.11</v>
       </c>
       <c r="D38" s="8">
         <f t="shared" ref="D38:D39" si="12">C38/B38-1</f>
-        <v>4.524621420452446E-2</v>
+        <v>4.1726249404172577E-2</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
@@ -16074,11 +16259,11 @@
       </c>
       <c r="C39">
         <f>_xll.RealtimeData(A39,"Last")</f>
-        <v>180.52</v>
+        <v>180.32</v>
       </c>
       <c r="D39" s="8">
         <f t="shared" si="12"/>
-        <v>6.1445287234668244E-2</v>
+        <v>6.0269300876109932E-2</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
@@ -16091,11 +16276,11 @@
       </c>
       <c r="C40">
         <f>_xll.RealtimeData(A40,"Last")</f>
-        <v>46.55</v>
+        <v>46.51</v>
       </c>
       <c r="D40" s="8">
         <f>C40/B40-1</f>
-        <v>4.1387024608501077E-2</v>
+        <v>4.0492170022371266E-2</v>
       </c>
     </row>
   </sheetData>

--- a/Portfolio.xlsx
+++ b/Portfolio.xlsx
@@ -1031,7 +1031,7 @@
 <file path=xl/volatileDependencies.xml><?xml version="1.0" encoding="utf-8"?>
 <volTypes xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <volType type="realTimeData">
-    <main first="rtdsrv.f18c4462a8954ccfbb31e4c8628f383c">
+    <main first="rtdsrv.243cb464522849aa99908e637eb2d0e9">
       <tp>
         <v>0</v>
         <stp/>
@@ -1040,7 +1040,7 @@
         <tr r="K26" s="1"/>
       </tp>
     </main>
-    <main first="rtdsrv.f18c4462a8954ccfbb31e4c8628f383c">
+    <main first="rtdsrv.243cb464522849aa99908e637eb2d0e9">
       <tp>
         <v>0</v>
         <stp/>
@@ -1049,7 +1049,72 @@
         <tr r="K22" s="1"/>
       </tp>
     </main>
-    <main first="rtdsrv.f18c4462a8954ccfbb31e4c8628f383c">
+    <main first="rtdsrv.243cb464522849aa99908e637eb2d0e9">
+      <tp>
+        <v>-0.11764706</v>
+        <stp/>
+        <stp>DBC</stp>
+        <stp>mtd percent change</stp>
+        <tr r="U2" s="1"/>
+      </tp>
+      <tp>
+        <v>-2.5802071</v>
+        <stp/>
+        <stp>EWJ</stp>
+        <stp>mtd percent change</stp>
+        <tr r="U7" s="1"/>
+      </tp>
+      <tp>
+        <v>-3.8686459700000002</v>
+        <stp/>
+        <stp>EEM</stp>
+        <stp>mtd percent change</stp>
+        <tr r="U10" s="1"/>
+      </tp>
+      <tp>
+        <v>-1.7978113600000001</v>
+        <stp/>
+        <stp>GLD</stp>
+        <stp>mtd percent change</stp>
+        <tr r="U8" s="1"/>
+      </tp>
+      <tp>
+        <v>-0.45387634999999998</v>
+        <stp/>
+        <stp>IYR</stp>
+        <stp>mtd percent change</stp>
+        <tr r="U4" s="1"/>
+      </tp>
+      <tp>
+        <v>1.0781957</v>
+        <stp/>
+        <stp>IVV</stp>
+        <stp>mtd percent change</stp>
+        <tr r="U3" s="1"/>
+      </tp>
+      <tp>
+        <v>-3.5652173899999999</v>
+        <stp/>
+        <stp>IEV</stp>
+        <stp>mtd percent change</stp>
+        <tr r="U9" s="1"/>
+      </tp>
+      <tp>
+        <v>0.88809947</v>
+        <stp/>
+        <stp>IEF</stp>
+        <stp>mtd percent change</stp>
+        <tr r="U11" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.243cb464522849aa99908e637eb2d0e9">
+      <tp>
+        <v>-2.5569620300000002</v>
+        <stp/>
+        <stp>RWX</stp>
+        <stp>mtd percent change</stp>
+        <tr r="U6" s="1"/>
+      </tp>
       <tp>
         <v>0.20467131999999999</v>
         <stp/>
@@ -1058,181 +1123,39 @@
         <tr r="U12" s="1"/>
       </tp>
       <tp>
-        <v>-2.3037974700000001</v>
-        <stp/>
-        <stp>RWX</stp>
-        <stp>mtd percent change</stp>
-        <tr r="U6" s="1"/>
-      </tp>
-      <tp>
-        <v>1.64612527</v>
+        <v>1.41820024</v>
         <stp/>
         <stp>TLT</stp>
         <stp>mtd percent change</stp>
         <tr r="U5" s="1"/>
       </tp>
     </main>
-    <main first="rtdsrv.f18c4462a8954ccfbb31e4c8628f383c">
+    <main first="rtdsrv.243cb464522849aa99908e637eb2d0e9">
       <tp>
-        <v>-2.9706331700000002</v>
+        <v>0</v>
         <stp/>
-        <stp>EWJ</stp>
-        <stp>mtd percent change</stp>
-        <tr r="U7" s="1"/>
+        <stp>DBC</stp>
+        <stp>change in percent</stp>
+        <tr r="L2" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.243cb464522849aa99908e637eb2d0e9">
+      <tp>
+        <v>0</v>
+        <stp/>
+        <stp>AGG</stp>
+        <stp>change in percent</stp>
+        <tr r="K23" s="1"/>
       </tp>
       <tp>
-        <v>-4.4534412999999997</v>
-        <stp/>
-        <stp>EEM</stp>
-        <stp>mtd percent change</stp>
-        <tr r="U10" s="1"/>
-      </tp>
-      <tp>
-        <v>-0.29411765000000001</v>
-        <stp/>
-        <stp>DBC</stp>
-        <stp>mtd percent change</stp>
-        <tr r="U2" s="1"/>
-      </tp>
-      <tp>
-        <v>-1.89334723</v>
-        <stp/>
-        <stp>GLD</stp>
-        <stp>mtd percent change</stp>
-        <tr r="U8" s="1"/>
-      </tp>
-      <tp>
-        <v>0.43481334999999999</v>
-        <stp/>
-        <stp>IVV</stp>
-        <stp>mtd percent change</stp>
-        <tr r="U3" s="1"/>
-      </tp>
-      <tp>
-        <v>-0.99362119999999998</v>
-        <stp/>
-        <stp>IYR</stp>
-        <stp>mtd percent change</stp>
-        <tr r="U4" s="1"/>
-      </tp>
-      <tp>
-        <v>-3.39130435</v>
-        <stp/>
-        <stp>IEV</stp>
-        <stp>mtd percent change</stp>
-        <tr r="U9" s="1"/>
-      </tp>
-      <tp>
-        <v>0.98677718999999997</v>
+        <v>0</v>
         <stp/>
         <stp>IEF</stp>
-        <stp>mtd percent change</stp>
-        <tr r="U11" s="1"/>
+        <stp>change in percent</stp>
+        <tr r="L11" s="1"/>
       </tp>
     </main>
-    <main first="rtdsrv.f18c4462a8954ccfbb31e4c8628f383c">
-      <tp t="s">
-        <v>SPDR INDEX SHS FDS-DJ INTL RL ETF</v>
-        <stp/>
-        <stp>RWX</stp>
-        <stp>description</stp>
-        <tr r="B6" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.f18c4462a8954ccfbb31e4c8628f383c">
-      <tp>
-        <v>51.34</v>
-        <stp/>
-        <stp>MU</stp>
-        <stp>last</stp>
-        <tr r="C9" s="4"/>
-      </tp>
-      <tp t="s">
-        <v>ISHARES TR-1 3 YR TREAS BD</v>
-        <stp/>
-        <stp>SHY</stp>
-        <stp>description</stp>
-        <tr r="B12" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.f18c4462a8954ccfbb31e4c8628f383c">
-      <tp t="s">
-        <v>ISHARES TR-20 YR TR BD ETF</v>
-        <stp/>
-        <stp>TLT</stp>
-        <stp>description</stp>
-        <tr r="B5" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.f18c4462a8954ccfbb31e4c8628f383c">
-      <tp t="s">
-        <v>SPDR GOLD TRUST-GOLD SHS</v>
-        <stp/>
-        <stp>GLD</stp>
-        <stp>description</stp>
-        <tr r="B8" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.f18c4462a8954ccfbb31e4c8628f383c">
-      <tp t="s">
-        <v>INVESCO DB COMMDY INDX TRCK-UNIT</v>
-        <stp/>
-        <stp>DBC</stp>
-        <stp>description</stp>
-        <tr r="B2" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.f18c4462a8954ccfbb31e4c8628f383c">
-      <tp t="s">
-        <v>ISHARES TR-MSCI EMG MKT ETF</v>
-        <stp/>
-        <stp>EEM</stp>
-        <stp>description</stp>
-        <tr r="B10" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.f18c4462a8954ccfbb31e4c8628f383c">
-      <tp t="s">
-        <v>ISHARES INC-MSCI JPN ETF NEW</v>
-        <stp/>
-        <stp>EWJ</stp>
-        <stp>description</stp>
-        <tr r="B7" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.f18c4462a8954ccfbb31e4c8628f383c">
-      <tp t="s">
-        <v>ISHARES TR-EUROPE ETF</v>
-        <stp/>
-        <stp>IEV</stp>
-        <stp>description</stp>
-        <tr r="B9" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>ISHARES TR-BARCLAYS 7 10 YR</v>
-        <stp/>
-        <stp>IEF</stp>
-        <stp>description</stp>
-        <tr r="B11" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.f18c4462a8954ccfbb31e4c8628f383c">
-      <tp t="s">
-        <v>ISHARES TR-CORE S&amp;P500 ETF</v>
-        <stp/>
-        <stp>IVV</stp>
-        <stp>description</stp>
-        <tr r="B3" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>ISHARES TR-U.S. REAL ES ETF</v>
-        <stp/>
-        <stp>IYR</stp>
-        <stp>description</stp>
-        <tr r="B4" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.f18c4462a8954ccfbb31e4c8628f383c">
+    <main first="rtdsrv.243cb464522849aa99908e637eb2d0e9">
       <tp>
         <v>0</v>
         <stp/>
@@ -1241,34 +1164,14 @@
         <tr r="L8" s="1"/>
       </tp>
     </main>
-    <main first="rtdsrv.f18c4462a8954ccfbb31e4c8628f383c">
+    <main first="rtdsrv.243cb464522849aa99908e637eb2d0e9">
       <tp>
         <v>0</v>
         <stp/>
-        <stp>AGG</stp>
+        <stp>EWJ</stp>
         <stp>change in percent</stp>
-        <tr r="K23" s="1"/>
+        <tr r="L7" s="1"/>
       </tp>
-    </main>
-    <main first="rtdsrv.f18c4462a8954ccfbb31e4c8628f383c">
-      <tp>
-        <v>0</v>
-        <stp/>
-        <stp>IEF</stp>
-        <stp>change in percent</stp>
-        <tr r="L11" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.f18c4462a8954ccfbb31e4c8628f383c">
-      <tp>
-        <v>0</v>
-        <stp/>
-        <stp>DBC</stp>
-        <stp>change in percent</stp>
-        <tr r="L2" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.f18c4462a8954ccfbb31e4c8628f383c">
       <tp>
         <v>0</v>
         <stp/>
@@ -1277,25 +1180,16 @@
         <tr r="L10" s="1"/>
       </tp>
     </main>
-    <main first="rtdsrv.f18c4462a8954ccfbb31e4c8628f383c">
+    <main first="rtdsrv.243cb464522849aa99908e637eb2d0e9">
       <tp>
         <v>0</v>
         <stp/>
-        <stp>EWJ</stp>
+        <stp>IYR</stp>
         <stp>change in percent</stp>
-        <tr r="L7" s="1"/>
+        <tr r="L4" s="1"/>
       </tp>
     </main>
-    <main first="rtdsrv.f18c4462a8954ccfbb31e4c8628f383c">
-      <tp>
-        <v>0</v>
-        <stp/>
-        <stp>TLT</stp>
-        <stp>change in percent</stp>
-        <tr r="L5" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.f18c4462a8954ccfbb31e4c8628f383c">
+    <main first="rtdsrv.243cb464522849aa99908e637eb2d0e9">
       <tp>
         <v>0</v>
         <stp/>
@@ -1312,16 +1206,14 @@
         <tr r="L3" s="1"/>
       </tp>
     </main>
-    <main first="rtdsrv.f18c4462a8954ccfbb31e4c8628f383c">
+    <main first="rtdsrv.243cb464522849aa99908e637eb2d0e9">
       <tp>
         <v>0</v>
         <stp/>
-        <stp>IYR</stp>
+        <stp>TLT</stp>
         <stp>change in percent</stp>
-        <tr r="L4" s="1"/>
+        <tr r="L5" s="1"/>
       </tp>
-    </main>
-    <main first="rtdsrv.f18c4462a8954ccfbb31e4c8628f383c">
       <tp>
         <v>0</v>
         <stp/>
@@ -1329,8 +1221,6 @@
         <stp>change in percent</stp>
         <tr r="L12" s="1"/>
       </tp>
-    </main>
-    <main first="rtdsrv.f18c4462a8954ccfbb31e4c8628f383c">
       <tp>
         <v>0</v>
         <stp/>
@@ -1339,70 +1229,106 @@
         <tr r="L6" s="1"/>
       </tp>
     </main>
-    <main first="rtdsrv.f18c4462a8954ccfbb31e4c8628f383c">
+    <main first="rtdsrv.243cb464522849aa99908e637eb2d0e9">
       <tp>
-        <v>102.34</v>
+        <v>113.07</v>
         <stp/>
-        <stp>IEF</stp>
+        <stp>GLD</stp>
         <stp>last</stp>
-        <tr r="J11" s="1"/>
+        <tr r="J8" s="1"/>
+      </tp>
+      <tp>
+        <v>120.14</v>
+        <stp/>
+        <stp>TLT</stp>
+        <stp>last</stp>
+        <tr r="J5" s="1"/>
       </tp>
     </main>
-    <main first="rtdsrv.f18c4462a8954ccfbb31e4c8628f383c">
+    <main first="rtdsrv.243cb464522849aa99908e637eb2d0e9">
       <tp>
-        <v>42.48</v>
+        <v>529</v>
+        <stp/>
+        <stp>ISRG</stp>
+        <stp>last</stp>
+        <tr r="C8" s="4"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.243cb464522849aa99908e637eb2d0e9">
+      <tp t="s">
+        <v>SPDR GOLD TRUST-GOLD SHS</v>
+        <stp/>
+        <stp>GLD</stp>
+        <stp>description</stp>
+        <tr r="B8" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.243cb464522849aa99908e637eb2d0e9">
+      <tp>
+        <v>83.23</v>
+        <stp/>
+        <stp>SHY</stp>
+        <stp>last</stp>
+        <tr r="J12" s="1"/>
+        <tr r="C23" s="4"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.243cb464522849aa99908e637eb2d0e9">
+      <tp t="s">
+        <v>ISHARES TR-MSCI EMG MKT ETF</v>
         <stp/>
         <stp>EEM</stp>
-        <stp>last</stp>
-        <tr r="J10" s="1"/>
+        <stp>description</stp>
+        <tr r="B10" s="1"/>
       </tp>
-      <tp>
-        <v>44.44</v>
+      <tp t="s">
+        <v>ISHARES INC-MSCI JPN ETF NEW</v>
         <stp/>
-        <stp>IEV</stp>
-        <stp>last</stp>
-        <tr r="J9" s="1"/>
+        <stp>EWJ</stp>
+        <stp>description</stp>
+        <tr r="B7" s="1"/>
       </tp>
     </main>
-    <main first="rtdsrv.f18c4462a8954ccfbb31e4c8628f383c">
+    <main first="rtdsrv.243cb464522849aa99908e637eb2d0e9">
       <tp>
-        <v>46.51</v>
+        <v>46.64</v>
         <stp/>
         <stp>QQQE</stp>
         <stp>last</stp>
         <tr r="C40" s="4"/>
       </tp>
     </main>
-    <main first="rtdsrv.f18c4462a8954ccfbb31e4c8628f383c">
+    <main first="rtdsrv.243cb464522849aa99908e637eb2d0e9">
       <tp>
-        <v>520.36</v>
+        <v>3.73</v>
         <stp/>
-        <stp>ISRG</stp>
-        <stp>last</stp>
-        <tr r="C8" s="4"/>
+        <stp>RWX</stp>
+        <stp>dividend yield</stp>
+        <tr r="M6" s="1"/>
       </tp>
-    </main>
-    <main first="rtdsrv.f18c4462a8954ccfbb31e4c8628f383c">
+      <tp>
+        <v>1.87</v>
+        <stp/>
+        <stp>SHY</stp>
+        <stp>dividend yield</stp>
+        <tr r="M12" s="1"/>
+      </tp>
+      <tp>
+        <v>2.75</v>
+        <stp/>
+        <stp>TLT</stp>
+        <stp>dividend yield</stp>
+        <tr r="M5" s="1"/>
+      </tp>
       <tp t="s">
-        <v>ARROW ETF TR-ARROW DJ GLB YLD</v>
+        <v>--</v>
         <stp/>
-        <stp>GYLD</stp>
-        <stp>description</stp>
-        <tr r="L26" s="1"/>
+        <stp>DBC</stp>
+        <stp>dividend yield</stp>
+        <tr r="M2" s="1"/>
       </tp>
-    </main>
-    <main first="rtdsrv.f18c4462a8954ccfbb31e4c8628f383c">
       <tp>
-        <v>37.968000000000004</v>
-        <stp/>
-        <stp>GAL</stp>
-        <stp>last</stp>
-        <tr r="C37" s="4"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.f18c4462a8954ccfbb31e4c8628f383c">
-      <tp>
-        <v>1.61</v>
+        <v>1.6</v>
         <stp/>
         <stp>EWJ</stp>
         <stp>dividend yield</stp>
@@ -1415,66 +1341,150 @@
         <stp>dividend yield</stp>
         <tr r="M10" s="1"/>
       </tp>
-      <tp t="s">
-        <v>--</v>
+      <tp>
+        <v>0.49</v>
         <stp/>
-        <stp>DBC</stp>
+        <stp>IYR</stp>
         <stp>dividend yield</stp>
-        <tr r="M2" s="1"/>
+        <tr r="M4" s="1"/>
       </tp>
       <tp>
-        <v>1.8</v>
+        <v>1.79</v>
         <stp/>
         <stp>IVV</stp>
         <stp>dividend yield</stp>
         <tr r="M3" s="1"/>
       </tp>
       <tp>
-        <v>0.5</v>
-        <stp/>
-        <stp>IYR</stp>
-        <stp>dividend yield</stp>
-        <tr r="M4" s="1"/>
-      </tp>
-      <tp>
-        <v>2.2200000000000002</v>
+        <v>2.23</v>
         <stp/>
         <stp>IEF</stp>
         <stp>dividend yield</stp>
         <tr r="M11" s="1"/>
       </tp>
       <tp>
-        <v>4.76</v>
+        <v>4.7699999999999996</v>
         <stp/>
         <stp>IEV</stp>
         <stp>dividend yield</stp>
         <tr r="M9" s="1"/>
       </tp>
+    </main>
+    <main first="rtdsrv.243cb464522849aa99908e637eb2d0e9">
+      <tp t="s">
+        <v>INVESCO DB COMMDY INDX TRCK-UNIT</v>
+        <stp/>
+        <stp>DBC</stp>
+        <stp>description</stp>
+        <tr r="B2" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.243cb464522849aa99908e637eb2d0e9">
       <tp>
-        <v>1.87</v>
+        <v>102.24</v>
         <stp/>
-        <stp>SHY</stp>
-        <stp>dividend yield</stp>
-        <tr r="M12" s="1"/>
+        <stp>IEF</stp>
+        <stp>last</stp>
+        <tr r="J11" s="1"/>
       </tp>
       <tp>
-        <v>3.72</v>
+        <v>42.74</v>
         <stp/>
-        <stp>RWX</stp>
-        <stp>dividend yield</stp>
-        <tr r="M6" s="1"/>
+        <stp>EEM</stp>
+        <stp>last</stp>
+        <tr r="J10" s="1"/>
       </tp>
       <tp>
-        <v>2.74</v>
+        <v>44.36</v>
+        <stp/>
+        <stp>IEV</stp>
+        <stp>last</stp>
+        <tr r="J9" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.243cb464522849aa99908e637eb2d0e9">
+      <tp t="s">
+        <v>ISHARES TR-EUROPE ETF</v>
+        <stp/>
+        <stp>IEV</stp>
+        <stp>description</stp>
+        <tr r="B9" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>ISHARES TR-BARCLAYS 7 10 YR</v>
+        <stp/>
+        <stp>IEF</stp>
+        <stp>description</stp>
+        <tr r="B11" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.243cb464522849aa99908e637eb2d0e9">
+      <tp t="s">
+        <v>ISHARES TR-U.S. REAL ES ETF</v>
+        <stp/>
+        <stp>IYR</stp>
+        <stp>description</stp>
+        <tr r="B4" s="1"/>
+      </tp>
+      <tp>
+        <v>81.150000000000006</v>
+        <stp/>
+        <stp>IYR</stp>
+        <stp>close</stp>
+        <tr r="G4" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.243cb464522849aa99908e637eb2d0e9">
+      <tp t="s">
+        <v>ARROW ETF TR-ARROW DJ GLB YLD</v>
+        <stp/>
+        <stp>GYLD</stp>
+        <stp>description</stp>
+        <tr r="L26" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>ISHARES TR-CORE S&amp;P500 ETF</v>
+        <stp/>
+        <stp>IVV</stp>
+        <stp>description</stp>
+        <tr r="B3" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.243cb464522849aa99908e637eb2d0e9">
+      <tp>
+        <v>1919.65</v>
+        <stp/>
+        <stp>AMZN</stp>
+        <stp>last</stp>
+        <tr r="C6" s="4"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.243cb464522849aa99908e637eb2d0e9">
+      <tp>
+        <v>38.14</v>
+        <stp/>
+        <stp>GAL</stp>
+        <stp>last</stp>
+        <tr r="C37" s="4"/>
+      </tp>
+      <tp>
+        <v>120.14</v>
         <stp/>
         <stp>TLT</stp>
-        <stp>dividend yield</stp>
-        <tr r="M5" s="1"/>
+        <stp>close</stp>
+        <tr r="G5" s="1"/>
       </tp>
     </main>
-    <main first="rtdsrv.f18c4462a8954ccfbb31e4c8628f383c">
+    <main first="rtdsrv.243cb464522849aa99908e637eb2d0e9">
       <tp>
-        <v>16.95</v>
+        <v>285.93</v>
+        <stp/>
+        <stp>IVV</stp>
+        <stp>close</stp>
+        <tr r="G3" s="1"/>
+      </tp>
+      <tp>
+        <v>16.98</v>
         <stp/>
         <stp>DBC</stp>
         <stp>last</stp>
@@ -1482,107 +1492,88 @@
         <tr r="C20" s="4"/>
       </tp>
     </main>
-    <main first="rtdsrv.f18c4462a8954ccfbb31e4c8628f383c">
+    <main first="rtdsrv.243cb464522849aa99908e637eb2d0e9">
+      <tp t="s">
+        <v>ISHARES TR-1 3 YR TREAS BD</v>
+        <stp/>
+        <stp>SHY</stp>
+        <stp>description</stp>
+        <tr r="B12" s="1"/>
+      </tp>
       <tp>
-        <v>284.11</v>
+        <v>50.62</v>
         <stp/>
-        <stp>IVV</stp>
-        <stp>close</stp>
-        <tr r="G3" s="1"/>
+        <stp>MU</stp>
+        <stp>last</stp>
+        <tr r="C9" s="4"/>
+      </tp>
+      <tp>
+        <v>368.66</v>
+        <stp/>
+        <stp>ALGN</stp>
+        <stp>last</stp>
+        <tr r="C5" s="4"/>
+      </tp>
+      <tp t="s">
+        <v>SPDR INDEX SHS FDS-DJ INTL RL ETF</v>
+        <stp/>
+        <stp>RWX</stp>
+        <stp>description</stp>
+        <tr r="B6" s="1"/>
       </tp>
     </main>
-    <main first="rtdsrv.f18c4462a8954ccfbb31e4c8628f383c">
+    <main first="rtdsrv.243cb464522849aa99908e637eb2d0e9">
       <tp>
-        <v>112.96</v>
+        <v>81.150000000000006</v>
         <stp/>
-        <stp>GLD</stp>
+        <stp>IYR</stp>
         <stp>last</stp>
-        <tr r="J8" s="1"/>
+        <tr r="J4" s="1"/>
+        <tr r="C22" s="4"/>
+      </tp>
+      <tp>
+        <v>44</v>
+        <stp/>
+        <stp>CSCO</stp>
+        <stp>last</stp>
+        <tr r="C7" s="4"/>
       </tp>
     </main>
-    <main first="rtdsrv.f18c4462a8954ccfbb31e4c8628f383c">
-      <tp>
-        <v>120.41</v>
+    <main first="rtdsrv.243cb464522849aa99908e637eb2d0e9">
+      <tp t="s">
+        <v>ISHARES TR-20 YR TR BD ETF</v>
         <stp/>
         <stp>TLT</stp>
-        <stp>last</stp>
-        <tr r="J5" s="1"/>
+        <stp>description</stp>
+        <tr r="B5" s="1"/>
       </tp>
     </main>
-    <main first="rtdsrv.f18c4462a8954ccfbb31e4c8628f383c">
+    <main first="rtdsrv.243cb464522849aa99908e637eb2d0e9">
       <tp>
-        <v>1896.2</v>
-        <stp/>
-        <stp>AMZN</stp>
-        <stp>last</stp>
-        <tr r="C6" s="4"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.f18c4462a8954ccfbb31e4c8628f383c">
-      <tp>
-        <v>120.41</v>
-        <stp/>
-        <stp>TLT</stp>
-        <stp>close</stp>
-        <tr r="G5" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.f18c4462a8954ccfbb31e4c8628f383c">
-      <tp>
-        <v>80.709999999999994</v>
-        <stp/>
-        <stp>IYR</stp>
-        <stp>close</stp>
-        <tr r="G4" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.f18c4462a8954ccfbb31e4c8628f383c">
-      <tp>
-        <v>83.23</v>
-        <stp/>
-        <stp>SHY</stp>
-        <stp>last</stp>
-        <tr r="J12" s="1"/>
-        <tr r="C23" s="4"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.f18c4462a8954ccfbb31e4c8628f383c">
-      <tp>
-        <v>51.01</v>
+        <v>53.23</v>
         <stp/>
         <stp>STX</stp>
         <stp>last</stp>
         <tr r="C10" s="4"/>
       </tp>
     </main>
-    <main first="rtdsrv.f18c4462a8954ccfbb31e4c8628f383c">
+    <main first="rtdsrv.243cb464522849aa99908e637eb2d0e9">
       <tp>
-        <v>57.16</v>
+        <v>57.39</v>
         <stp/>
         <stp>EWJ</stp>
         <stp>last</stp>
         <tr r="J7" s="1"/>
       </tp>
       <tp>
-        <v>38.590000000000003</v>
+        <v>38.49</v>
         <stp/>
         <stp>RWX</stp>
         <stp>last</stp>
         <tr r="J6" s="1"/>
       </tp>
-    </main>
-    <main first="rtdsrv.f18c4462a8954ccfbb31e4c8628f383c">
       <tp>
-        <v>43.75</v>
-        <stp/>
-        <stp>CSCO</stp>
-        <stp>last</stp>
-        <tr r="C7" s="4"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.f18c4462a8954ccfbb31e4c8628f383c">
-      <tp>
-        <v>284.11</v>
+        <v>285.93</v>
         <stp/>
         <stp>IVV</stp>
         <stp>last</stp>
@@ -1590,42 +1581,21 @@
         <tr r="C21" s="4"/>
         <tr r="C38" s="4"/>
       </tp>
+      <tp>
+        <v>16.98</v>
+        <stp/>
+        <stp>DBC</stp>
+        <stp>close</stp>
+        <tr r="G2" s="1"/>
+      </tp>
     </main>
-    <main first="rtdsrv.f18c4462a8954ccfbb31e4c8628f383c">
+    <main first="rtdsrv.243cb464522849aa99908e637eb2d0e9">
       <tp>
-        <v>180.32</v>
+        <v>181.45</v>
         <stp/>
         <stp>QQQ</stp>
         <stp>last</stp>
         <tr r="C39" s="4"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.f18c4462a8954ccfbb31e4c8628f383c">
-      <tp>
-        <v>362.28</v>
-        <stp/>
-        <stp>ALGN</stp>
-        <stp>last</stp>
-        <tr r="C5" s="4"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.f18c4462a8954ccfbb31e4c8628f383c">
-      <tp>
-        <v>80.709999999999994</v>
-        <stp/>
-        <stp>IYR</stp>
-        <stp>last</stp>
-        <tr r="J4" s="1"/>
-        <tr r="C22" s="4"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.f18c4462a8954ccfbb31e4c8628f383c">
-      <tp>
-        <v>16.95</v>
-        <stp/>
-        <stp>DBC</stp>
-        <stp>close</stp>
-        <tr r="G2" s="1"/>
       </tp>
     </main>
   </volType>
@@ -1898,8 +1868,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:V46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="S28" sqref="S28"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1999,30 +1969,30 @@
       </c>
       <c r="E2" s="5">
         <f>G2/D2-1</f>
-        <v>-4.9185494149517672E-2</v>
+        <v>-4.7502636617038907E-2</v>
       </c>
       <c r="F2" s="5">
         <f>I2/$I$21</f>
-        <v>0.14991105438245611</v>
+        <v>0.14963221322470219</v>
       </c>
       <c r="G2" s="4">
         <f>_xll.RealtimeData(A2,"Close")</f>
-        <v>16.95</v>
+        <v>16.98</v>
       </c>
       <c r="H2" s="4">
         <v>176</v>
       </c>
       <c r="I2" s="4">
         <f>H2*G2</f>
-        <v>2983.2</v>
+        <v>2988.48</v>
       </c>
       <c r="J2" s="4">
         <f>_xll.RealtimeData(A2,"Last")</f>
-        <v>16.95</v>
+        <v>16.98</v>
       </c>
       <c r="K2" s="5">
         <f>J2/D2-1</f>
-        <v>-4.9185494149517672E-2</v>
+        <v>-4.7502636617038907E-2</v>
       </c>
       <c r="L2" s="8">
         <f>_xll.RealtimeData(A2,"Change in Percent")</f>
@@ -2041,7 +2011,7 @@
       </c>
       <c r="P2" s="60">
         <f t="shared" ref="P2:P12" si="1">O2-F2</f>
-        <v>-7.911054382456123E-3</v>
+        <v>-7.6322132247022001E-3</v>
       </c>
       <c r="Q2" s="31">
         <f>O2*Daily!$D$68</f>
@@ -2049,11 +2019,11 @@
       </c>
       <c r="R2">
         <f t="shared" ref="R2:R11" si="2">ROUND(Q2/J2,0)</f>
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="S2">
         <f t="shared" ref="S2:S11" si="3">R2-H2</f>
-        <v>-9</v>
+        <v>-10</v>
       </c>
       <c r="T2" t="str">
         <f t="shared" ref="T2:T12" si="4">A2</f>
@@ -2061,7 +2031,7 @@
       </c>
       <c r="U2">
         <f>_xll.RealtimeData(T2,"MTD Percent Change")</f>
-        <v>-0.29411765000000001</v>
+        <v>-0.11764706</v>
       </c>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.25">
@@ -2080,30 +2050,30 @@
       </c>
       <c r="E3" s="5">
         <f>G3/D3-1</f>
-        <v>6.6641137259981331E-2</v>
+        <v>7.3474007872818436E-2</v>
       </c>
       <c r="F3" s="5">
         <f>I3/$I$21</f>
-        <v>0.41403380938501899</v>
+        <v>0.41517621770693919</v>
       </c>
       <c r="G3" s="4">
         <f>_xll.RealtimeData(A3,"Close")</f>
-        <v>284.11</v>
+        <v>285.93</v>
       </c>
       <c r="H3" s="4">
         <v>29</v>
       </c>
       <c r="I3" s="4">
         <f>H3*G3</f>
-        <v>8239.19</v>
+        <v>8291.9699999999993</v>
       </c>
       <c r="J3" s="4">
         <f>_xll.RealtimeData(A3,"Last")</f>
-        <v>284.11</v>
+        <v>285.93</v>
       </c>
       <c r="K3" s="5">
         <f>J3/D3-1</f>
-        <v>6.6641137259981331E-2</v>
+        <v>7.3474007872818436E-2</v>
       </c>
       <c r="L3" s="8">
         <f>_xll.RealtimeData(A3,"Change in Percent")</f>
@@ -2111,7 +2081,7 @@
       </c>
       <c r="M3" s="29">
         <f>_xll.RealtimeData(A3,"Dividend Yield")</f>
-        <v>1.8</v>
+        <v>1.79</v>
       </c>
       <c r="N3" s="4" t="str">
         <f t="shared" si="0"/>
@@ -2122,7 +2092,7 @@
       </c>
       <c r="P3" s="60">
         <f t="shared" si="1"/>
-        <v>-4.8033809385019E-2</v>
+        <v>-4.9176217706939196E-2</v>
       </c>
       <c r="Q3" s="31">
         <f>O3*Daily!$D$68</f>
@@ -2130,11 +2100,11 @@
       </c>
       <c r="R3">
         <f t="shared" si="2"/>
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="S3">
         <f t="shared" si="3"/>
-        <v>-3</v>
+        <v>-4</v>
       </c>
       <c r="T3" t="str">
         <f t="shared" si="4"/>
@@ -2142,7 +2112,7 @@
       </c>
       <c r="U3">
         <f>_xll.RealtimeData(T3,"MTD Percent Change")</f>
-        <v>0.43481334999999999</v>
+        <v>1.0781957</v>
       </c>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.25">
@@ -2161,30 +2131,30 @@
       </c>
       <c r="E4" s="5">
         <f>G4/D4-1</f>
-        <v>2.9070508733902711E-2</v>
+        <v>3.4680606910620915E-2</v>
       </c>
       <c r="F4" s="5">
         <f>I4/$I$21</f>
-        <v>0.2190142614498638</v>
+        <v>0.21941030944559359</v>
       </c>
       <c r="G4" s="4">
         <f>_xll.RealtimeData(A4,"Close")</f>
-        <v>80.709999999999994</v>
+        <v>81.150000000000006</v>
       </c>
       <c r="H4" s="4">
         <v>54</v>
       </c>
       <c r="I4" s="4">
         <f>H4*G4</f>
-        <v>4358.3399999999992</v>
+        <v>4382.1000000000004</v>
       </c>
       <c r="J4" s="4">
         <f>_xll.RealtimeData(A4,"Last")</f>
-        <v>80.709999999999994</v>
+        <v>81.150000000000006</v>
       </c>
       <c r="K4" s="5">
         <f>J4/D4-1</f>
-        <v>2.9070508733902711E-2</v>
+        <v>3.4680606910620915E-2</v>
       </c>
       <c r="L4" s="8">
         <f t="array" ref="L4">_xll.RealtimeData(A4,"Change in Percent")</f>
@@ -2192,7 +2162,7 @@
       </c>
       <c r="M4" s="29">
         <f>_xll.RealtimeData(A4,"Dividend Yield")</f>
-        <v>0.5</v>
+        <v>0.49</v>
       </c>
       <c r="N4" s="4" t="str">
         <f t="shared" si="0"/>
@@ -2203,7 +2173,7 @@
       </c>
       <c r="P4" s="60">
         <f t="shared" si="1"/>
-        <v>0.17398573855013622</v>
+        <v>0.17358969055440643</v>
       </c>
       <c r="Q4" s="31">
         <f>O4*Daily!$D$68</f>
@@ -2211,11 +2181,11 @@
       </c>
       <c r="R4">
         <f t="shared" si="2"/>
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="S4">
         <f t="shared" si="3"/>
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="T4" t="str">
         <f t="shared" si="4"/>
@@ -2223,7 +2193,7 @@
       </c>
       <c r="U4">
         <f>_xll.RealtimeData(T4,"MTD Percent Change")</f>
-        <v>-0.99362119999999998</v>
+        <v>-0.45387634999999998</v>
       </c>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.25">
@@ -2242,30 +2212,30 @@
       </c>
       <c r="E5" s="5">
         <f>G5/D5-1</f>
-        <v>-1.5403888013946765E-2</v>
+        <v>-1.7611685956279044E-2</v>
       </c>
       <c r="F5" s="5">
         <f>I5/$I$21</f>
-        <v>0.2117785103367873</v>
+        <v>0.21053796357631643</v>
       </c>
       <c r="G5" s="4">
         <f>_xll.RealtimeData(A5,"Close")</f>
-        <v>120.41</v>
+        <v>120.14</v>
       </c>
       <c r="H5" s="4">
         <v>35</v>
       </c>
       <c r="I5" s="4">
         <f>H5*G5</f>
-        <v>4214.3499999999995</v>
+        <v>4204.8999999999996</v>
       </c>
       <c r="J5" s="31">
         <f>_xll.RealtimeData(A5,"Last")</f>
-        <v>120.41</v>
+        <v>120.14</v>
       </c>
       <c r="K5" s="5">
         <f>J5/D5-1</f>
-        <v>-1.5403888013946765E-2</v>
+        <v>-1.7611685956279044E-2</v>
       </c>
       <c r="L5" s="8">
         <f t="array" ref="L5">_xll.RealtimeData(A5,"Change in Percent")</f>
@@ -2273,7 +2243,7 @@
       </c>
       <c r="M5" s="29">
         <f>_xll.RealtimeData(A5,"Dividend Yield")</f>
-        <v>2.74</v>
+        <v>2.75</v>
       </c>
       <c r="N5" s="4" t="str">
         <f t="shared" si="0"/>
@@ -2284,7 +2254,7 @@
       </c>
       <c r="P5" s="60">
         <f t="shared" si="1"/>
-        <v>-0.2117785103367873</v>
+        <v>-0.21053796357631643</v>
       </c>
       <c r="Q5" s="31">
         <f>O5*Daily!$D$68</f>
@@ -2304,7 +2274,7 @@
       </c>
       <c r="U5">
         <f>_xll.RealtimeData(T5,"MTD Percent Change")</f>
-        <v>1.64612527</v>
+        <v>1.41820024</v>
       </c>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.25">
@@ -2324,7 +2294,7 @@
       <c r="I6" s="4"/>
       <c r="J6" s="31">
         <f>_xll.RealtimeData(A6,"Last")</f>
-        <v>38.590000000000003</v>
+        <v>38.49</v>
       </c>
       <c r="K6" s="5"/>
       <c r="L6" s="8">
@@ -2333,7 +2303,7 @@
       </c>
       <c r="M6" s="29">
         <f>_xll.RealtimeData(A6,"Dividend Yield")</f>
-        <v>3.72</v>
+        <v>3.73</v>
       </c>
       <c r="N6" s="4" t="str">
         <f t="shared" si="0"/>
@@ -2364,7 +2334,7 @@
       </c>
       <c r="U6">
         <f>_xll.RealtimeData(T6,"MTD Percent Change")</f>
-        <v>-2.3037974700000001</v>
+        <v>-2.5569620300000002</v>
       </c>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.25">
@@ -2384,7 +2354,7 @@
       <c r="I7" s="4"/>
       <c r="J7" s="31">
         <f>_xll.RealtimeData(A7,"Last")</f>
-        <v>57.16</v>
+        <v>57.39</v>
       </c>
       <c r="K7" s="5"/>
       <c r="L7" s="8">
@@ -2393,7 +2363,7 @@
       </c>
       <c r="M7" s="29">
         <f>_xll.RealtimeData(A7,"Dividend Yield")</f>
-        <v>1.61</v>
+        <v>1.6</v>
       </c>
       <c r="N7" s="4" t="str">
         <f t="shared" si="0"/>
@@ -2424,7 +2394,7 @@
       </c>
       <c r="U7">
         <f>_xll.RealtimeData(T7,"MTD Percent Change")</f>
-        <v>-2.9706331700000002</v>
+        <v>-2.5802071</v>
       </c>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.25">
@@ -2444,7 +2414,7 @@
       <c r="I8" s="4"/>
       <c r="J8" s="31">
         <f>_xll.RealtimeData(A8,"Last")</f>
-        <v>112.96</v>
+        <v>113.07</v>
       </c>
       <c r="K8" s="5"/>
       <c r="L8" s="8">
@@ -2483,7 +2453,7 @@
       </c>
       <c r="U8">
         <f>_xll.RealtimeData(T8,"MTD Percent Change")</f>
-        <v>-1.89334723</v>
+        <v>-1.7978113600000001</v>
       </c>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.25">
@@ -2503,7 +2473,7 @@
       <c r="I9" s="4"/>
       <c r="J9" s="31">
         <f>_xll.RealtimeData(A9,"Last")</f>
-        <v>44.44</v>
+        <v>44.36</v>
       </c>
       <c r="K9" s="5"/>
       <c r="L9" s="8">
@@ -2512,7 +2482,7 @@
       </c>
       <c r="M9" s="29">
         <f>_xll.RealtimeData(A9,"Dividend Yield")</f>
-        <v>4.76</v>
+        <v>4.7699999999999996</v>
       </c>
       <c r="N9" s="4" t="str">
         <f t="shared" si="0"/>
@@ -2543,7 +2513,7 @@
       </c>
       <c r="U9">
         <f>_xll.RealtimeData(T9,"MTD Percent Change")</f>
-        <v>-3.39130435</v>
+        <v>-3.5652173899999999</v>
       </c>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.25">
@@ -2557,7 +2527,7 @@
       <c r="G10" s="4"/>
       <c r="J10" s="31">
         <f>_xll.RealtimeData(A10,"Last")</f>
-        <v>42.48</v>
+        <v>42.74</v>
       </c>
       <c r="K10" s="5"/>
       <c r="L10" s="8">
@@ -2597,7 +2567,7 @@
       </c>
       <c r="U10">
         <f>_xll.RealtimeData(T10,"MTD Percent Change")</f>
-        <v>-4.4534412999999997</v>
+        <v>-3.8686459700000002</v>
       </c>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.25">
@@ -2611,7 +2581,7 @@
       <c r="G11" s="4"/>
       <c r="J11" s="31">
         <f>_xll.RealtimeData(A11,"Last")</f>
-        <v>102.34</v>
+        <v>102.24</v>
       </c>
       <c r="K11" s="5"/>
       <c r="L11" s="8">
@@ -2620,7 +2590,7 @@
       </c>
       <c r="M11" s="29">
         <f>_xll.RealtimeData(A11,"Dividend Yield")</f>
-        <v>2.2200000000000002</v>
+        <v>2.23</v>
       </c>
       <c r="N11" s="4" t="str">
         <f t="shared" si="0"/>
@@ -2651,7 +2621,7 @@
       </c>
       <c r="U11">
         <f>_xll.RealtimeData(T11,"MTD Percent Change")</f>
-        <v>0.98677718999999997</v>
+        <v>0.88809947</v>
       </c>
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.25">
@@ -2720,11 +2690,11 @@
     <row r="14" spans="1:22" x14ac:dyDescent="0.25">
       <c r="U14" s="29">
         <f t="array" ref="U14">MMULT(TRANSPOSE(O2:O12),U2:U12)</f>
-        <v>-0.25285369112</v>
+        <v>0.21980279880999998</v>
       </c>
       <c r="V14" s="8">
         <f>U14*0.01</f>
-        <v>-2.5285369112000001E-3</v>
+        <v>2.1980279880999998E-3</v>
       </c>
     </row>
     <row r="19" spans="5:16" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
@@ -2734,7 +2704,7 @@
       </c>
       <c r="F20" s="11">
         <f>SUM(F2:F5)</f>
-        <v>0.9947376355541262</v>
+        <v>0.99475670395355142</v>
       </c>
       <c r="H20" s="2" t="s">
         <v>14</v>
@@ -2753,21 +2723,21 @@
       </c>
       <c r="F21" s="11">
         <f>1-F20</f>
-        <v>5.2623644458738017E-3</v>
+        <v>5.2432960464485756E-3</v>
       </c>
       <c r="H21" s="2" t="s">
         <v>16</v>
       </c>
       <c r="I21" s="6">
         <f>SUM(I2:I20)</f>
-        <v>19899.8</v>
+        <v>19972.169999999998</v>
       </c>
       <c r="J21" t="s">
         <v>33</v>
       </c>
       <c r="K21" s="8">
         <f>SUMPRODUCT(K2:K7,F2:F7)</f>
-        <v>2.3322878176562853E-2</v>
+        <v>2.7298090235030041E-2</v>
       </c>
       <c r="M21" t="s">
         <v>34</v>
@@ -2835,7 +2805,7 @@
       </c>
       <c r="I26" s="6">
         <f>SUM(I2:I18)</f>
-        <v>19795.079999999998</v>
+        <v>19867.449999999997</v>
       </c>
       <c r="J26" t="s">
         <v>56</v>
@@ -2864,20 +2834,20 @@
       </c>
       <c r="K28" s="8">
         <f>SUMPRODUCT(F2:F7,M2:M7)*0.01</f>
-        <v>1.4350411059407634E-2</v>
+        <v>1.4296558811586322E-2</v>
       </c>
       <c r="L28" t="s">
         <v>65</v>
       </c>
       <c r="M28" s="8">
         <f>AVERAGE(M2:M11)*0.01</f>
-        <v>2.0788888888888888E-2</v>
+        <v>2.0800000000000003E-2</v>
       </c>
     </row>
     <row r="29" spans="5:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="30" spans="5:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H30" s="30">
-        <v>43325</v>
+        <v>43326</v>
       </c>
       <c r="I30" s="15" t="s">
         <v>61</v>
@@ -2902,15 +2872,15 @@
       </c>
       <c r="J31" s="21">
         <f>LOOKUP(2,1/(Daily!E:E&lt;&gt;""),Daily!E:E)</f>
-        <v>-2.7357374814577229E-3</v>
+        <v>3.6367181395198234E-3</v>
       </c>
       <c r="K31" s="22">
         <f>VLOOKUP($H$30,Daily!$A:$AF,7,0)</f>
-        <v>2.5921537094255598E-3</v>
+        <v>6.2382987813609514E-3</v>
       </c>
       <c r="L31" s="23">
         <f>VLOOKUP($H$30,Daily!$A:$AF,8,0)</f>
-        <v>-5.009499999999556E-3</v>
+        <v>-1.390999999999698E-3</v>
       </c>
     </row>
     <row r="32" spans="5:16" x14ac:dyDescent="0.25">
@@ -2923,15 +2893,15 @@
       </c>
       <c r="J32" s="24">
         <f>LOOKUP(2,1/(Daily!M:M&lt;&gt;""),Daily!M:M)</f>
-        <v>-3.3253483478271838E-3</v>
+        <v>2.3652939076950208E-3</v>
       </c>
       <c r="K32" s="14">
         <f>VLOOKUP($H$30,Daily!$A:$AF,25,0)</f>
-        <v>1.0127111990942739E-2</v>
+        <v>1.2516359494932461E-2</v>
       </c>
       <c r="L32" s="25">
         <f>VLOOKUP($H$30,Daily!$A:$AF,31,0)</f>
-        <v>4.3278372265755927E-3</v>
+        <v>6.7033677412959847E-3</v>
       </c>
     </row>
     <row r="33" spans="8:18" x14ac:dyDescent="0.25">
@@ -2944,15 +2914,15 @@
       </c>
       <c r="J33" s="24">
         <f>LOOKUP(2,1/(Daily!L:L&lt;&gt;""),Daily!L:L)</f>
-        <v>-3.3675939242991948E-3</v>
+        <v>6.405969518848309E-3</v>
       </c>
       <c r="K33" s="14">
         <f>VLOOKUP($H$30,Daily!$A:$AF,24,0)</f>
-        <v>4.0505401941036467E-2</v>
+        <v>4.7170847830067641E-2</v>
       </c>
       <c r="L33" s="25">
         <f>VLOOKUP($H$30,Daily!$A:$AF,30,0)</f>
-        <v>6.6935760423858737E-2</v>
+        <v>7.3770518383703187E-2</v>
       </c>
     </row>
     <row r="34" spans="8:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2965,15 +2935,15 @@
       </c>
       <c r="J34" s="26">
         <f>LOOKUP(2,1/(Daily!N:N&lt;&gt;""),Daily!N:N)</f>
-        <v>-9.1168091168091214E-3</v>
+        <v>4.025301897642386E-3</v>
       </c>
       <c r="K34" s="27">
         <f>VLOOKUP($H$30,Daily!$A:$AF,26,0)</f>
-        <v>-5.7471264367792152E-4</v>
+        <v>3.4482758620693055E-3</v>
       </c>
       <c r="L34" s="28">
         <f>VLOOKUP($H$30,Daily!$A:$AF,32,0)</f>
-        <v>8.5390898797108594E-3</v>
+        <v>1.2598764192050194E-2</v>
       </c>
     </row>
     <row r="35" spans="8:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -3008,7 +2978,7 @@
       </c>
       <c r="I37" s="46">
         <f>AVERAGE(Daily!E$3:E380)</f>
-        <v>-5.672506546137857E-5</v>
+        <v>-6.8136707994704329E-6</v>
       </c>
       <c r="J37" s="44"/>
       <c r="K37" s="22"/>
@@ -3016,23 +2986,23 @@
       <c r="M37" s="50"/>
       <c r="N37" s="38">
         <f>AVERAGE(Daily!J$3:J380)</f>
-        <v>6.2523523448035416E-5</v>
+        <v>1.2342687266188359E-4</v>
       </c>
       <c r="O37" s="22">
         <f>AVERAGE(Daily!K$3:K380)</f>
-        <v>7.0032880295143647E-5</v>
+        <v>5.637267544424104E-5</v>
       </c>
       <c r="P37" s="22">
         <f>AVERAGE(Daily!L$3:L380)</f>
-        <v>9.0458111730897385E-4</v>
+        <v>9.789242038162622E-4</v>
       </c>
       <c r="Q37" s="22">
         <f>AVERAGE(Daily!M$3:M380)</f>
-        <v>6.5527266186878676E-5</v>
+        <v>9.6605193774826548E-5</v>
       </c>
       <c r="R37" s="23">
         <f>AVERAGE(Daily!N$3:N380)</f>
-        <v>1.4818331302061521E-4</v>
+        <v>2.005768074073959E-4</v>
       </c>
     </row>
     <row r="38" spans="8:18" x14ac:dyDescent="0.25">
@@ -3041,7 +3011,7 @@
       </c>
       <c r="I38" s="47">
         <f>STDEV(Daily!E$3:E380)</f>
-        <v>4.9452381026748472E-3</v>
+        <v>4.9299817027662757E-3</v>
       </c>
       <c r="J38" s="45"/>
       <c r="K38" s="14"/>
@@ -3049,23 +3019,23 @@
       <c r="M38" s="51"/>
       <c r="N38" s="40">
         <f>STDEV(Daily!J$3:J380)</f>
-        <v>6.1670890526528792E-3</v>
+        <v>6.1470700080726364E-3</v>
       </c>
       <c r="O38" s="14">
         <f>STDEV(Daily!K$3:K380)</f>
-        <v>1.7674614034914043E-3</v>
+        <v>1.7592427005061857E-3</v>
       </c>
       <c r="P38" s="14">
         <f>STDEV(Daily!L$3:L380)</f>
-        <v>5.8081537675398831E-3</v>
+        <v>5.8035783690337057E-3</v>
       </c>
       <c r="Q38" s="14">
         <f>STDEV(Daily!M$3:M380)</f>
-        <v>3.5921772957517614E-3</v>
+        <v>3.5774916037359314E-3</v>
       </c>
       <c r="R38" s="25">
         <f>STDEV(Daily!N$3:N380)</f>
-        <v>8.0182708531140751E-3</v>
+        <v>7.9759063304714016E-3</v>
       </c>
     </row>
     <row r="39" spans="8:18" x14ac:dyDescent="0.25">
@@ -3074,7 +3044,7 @@
       </c>
       <c r="I39" s="48">
         <f>COUNTIF(Daily!E$3:E380,"&gt;0")</f>
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J39" s="45"/>
       <c r="K39" s="14"/>
@@ -3082,7 +3052,7 @@
       <c r="M39" s="51"/>
       <c r="N39" s="41">
         <f>COUNTIF(Daily!J$3:J380,"&gt;0")</f>
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="O39" s="33">
         <f>COUNTIF(Daily!K$3:K380,"&gt;0")</f>
@@ -3090,15 +3060,15 @@
       </c>
       <c r="P39" s="33">
         <f>COUNTIF(Daily!L$3:L380,"&gt;0")</f>
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="Q39" s="33">
         <f>COUNTIF(Daily!M$3:M380,"&gt;0")</f>
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="R39" s="35">
         <f>COUNTIF(Daily!N$3:N380,"&gt;0")</f>
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="40" spans="8:18" x14ac:dyDescent="0.25">
@@ -3107,7 +3077,7 @@
       </c>
       <c r="I40" s="47">
         <f>SUMIF(Daily!E$3:E380,"&gt;0")</f>
-        <v>0.13079977612602089</v>
+        <v>0.13443649426554072</v>
       </c>
       <c r="J40" s="45"/>
       <c r="K40" s="14"/>
@@ -3115,7 +3085,7 @@
       <c r="M40" s="51"/>
       <c r="N40" s="40">
         <f>SUMIF(Daily!J$3:J380,"&gt;0")</f>
-        <v>0.17556560591139525</v>
+        <v>0.18013497727666805</v>
       </c>
       <c r="O40" s="14">
         <f>SUMIF(Daily!K$3:K380,"&gt;0")</f>
@@ -3123,15 +3093,15 @@
       </c>
       <c r="P40" s="14">
         <f>SUMIF(Daily!L$3:L380,"&gt;0")</f>
-        <v>0.20166178791425898</v>
+        <v>0.20806775743310729</v>
       </c>
       <c r="Q40" s="14">
         <f>SUMIF(Daily!M$3:M380,"&gt;0")</f>
-        <v>0.10322750098175455</v>
+        <v>0.10559279488944957</v>
       </c>
       <c r="R40" s="25">
         <f>SUMIF(Daily!N$3:N380,"&gt;0")</f>
-        <v>0.23337172683779053</v>
+        <v>0.23739702873543292</v>
       </c>
     </row>
     <row r="41" spans="8:18" x14ac:dyDescent="0.25">
@@ -3152,7 +3122,7 @@
       </c>
       <c r="O41" s="14">
         <f>SUMIF(Daily!K$3:K380,"&lt;0")</f>
-        <v>-4.6946821001245129E-2</v>
+        <v>-4.7887643279916778E-2</v>
       </c>
       <c r="P41" s="14">
         <f>SUMIF(Daily!L$3:L380,"&lt;0")</f>
@@ -3173,7 +3143,7 @@
       </c>
       <c r="I42" s="48">
         <f>COUNT(Daily!E$3:E380)</f>
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="J42" s="45"/>
       <c r="K42" s="14"/>
@@ -3181,23 +3151,23 @@
       <c r="M42" s="51"/>
       <c r="N42" s="41">
         <f>COUNT(Daily!J$3:J380)</f>
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="O42" s="33">
         <f>COUNT(Daily!K$3:K380)</f>
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="P42" s="33">
         <f>COUNT(Daily!L$3:L380)</f>
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Q42" s="33">
         <f>COUNT(Daily!M$3:M380)</f>
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="R42" s="35">
         <f>COUNT(Daily!N$3:N380)</f>
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="43" spans="8:18" x14ac:dyDescent="0.25">
@@ -3218,7 +3188,7 @@
       </c>
       <c r="O43" s="33">
         <f>O42-O39</f>
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="P43" s="33">
         <f>P42-P39</f>
@@ -3239,7 +3209,7 @@
       </c>
       <c r="I44" s="49">
         <f>(I40/I41)*(I39/I43)*-1</f>
-        <v>1.2419322400745296</v>
+        <v>1.3075957883911922</v>
       </c>
       <c r="J44" s="45"/>
       <c r="K44" s="14"/>
@@ -3247,23 +3217,23 @@
       <c r="M44" s="51"/>
       <c r="N44" s="42">
         <f>(N40/N41)*(N39/N43)*-1</f>
-        <v>0.99894270353210646</v>
+        <v>1.0534123649312563</v>
       </c>
       <c r="O44" s="34">
         <f>(O40/O41)*(O39/O43)*-1</f>
-        <v>1.2039460611544621</v>
+        <v>1.1475068819032941</v>
       </c>
       <c r="P44" s="34">
         <f>(P40/P41)*(P39/P43)*-1</f>
-        <v>1.9050666006226948</v>
+        <v>2.0135238114467451</v>
       </c>
       <c r="Q44" s="34">
         <f>(Q40/Q41)*(Q39/Q43)*-1</f>
-        <v>1.1384702011650047</v>
+        <v>1.1952026560002929</v>
       </c>
       <c r="R44" s="36">
         <f>(R40/R41)*(R39/R43)*-1</f>
-        <v>1.3435258926443392</v>
+        <v>1.4000337770671534</v>
       </c>
     </row>
     <row r="45" spans="8:18" x14ac:dyDescent="0.25">
@@ -3272,7 +3242,7 @@
       </c>
       <c r="I45" s="62">
         <f>I39/I42</f>
-        <v>0.56164383561643838</v>
+        <v>0.56756756756756754</v>
       </c>
       <c r="J45" s="63"/>
       <c r="K45" s="64"/>
@@ -3280,23 +3250,23 @@
       <c r="M45" s="66"/>
       <c r="N45" s="67">
         <f>N39/N42</f>
-        <v>0.49315068493150682</v>
+        <v>0.5</v>
       </c>
       <c r="O45" s="64">
         <f>O39/O42</f>
-        <v>0.52054794520547942</v>
+        <v>0.51351351351351349</v>
       </c>
       <c r="P45" s="64">
         <f>P39/P42</f>
-        <v>0.56164383561643838</v>
+        <v>0.56756756756756754</v>
       </c>
       <c r="Q45" s="64">
         <f>Q39/Q42</f>
-        <v>0.52054794520547942</v>
+        <v>0.52702702702702697</v>
       </c>
       <c r="R45" s="68">
         <f>R39/R42</f>
-        <v>0.56164383561643838</v>
+        <v>0.56756756756756754</v>
       </c>
     </row>
     <row r="46" spans="8:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3344,13 +3314,13 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:AN75"/>
+  <dimension ref="A1:AN76"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="L49" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="Z84" sqref="Z84"/>
+      <selection pane="bottomRight" activeCell="AJ82" sqref="AJ82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9366,7 +9336,7 @@
         <v>43291</v>
       </c>
       <c r="B51" s="4">
-        <f t="shared" ref="B51:B75" si="812">D51-C51</f>
+        <f t="shared" ref="B51:B76" si="812">D51-C51</f>
         <v>19902.79</v>
       </c>
       <c r="C51" s="4">
@@ -12759,6 +12729,142 @@
       <c r="AN75" s="8">
         <f t="shared" ref="AN75" si="1361">MIN(0,(T75-MAX(T46:T75))/MAX(T46:T75))</f>
         <v>-2.7948574622694289E-2</v>
+      </c>
+    </row>
+    <row r="76" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A76" s="9">
+        <v>43326</v>
+      </c>
+      <c r="B76" s="4">
+        <f t="shared" si="812"/>
+        <v>19867.46</v>
+      </c>
+      <c r="C76" s="4">
+        <v>104.72</v>
+      </c>
+      <c r="D76" s="4">
+        <f>19930.15+42.03</f>
+        <v>19972.18</v>
+      </c>
+      <c r="E76" s="5">
+        <f t="shared" ref="E76" si="1362">D76/D75-1</f>
+        <v>3.6367181395198234E-3</v>
+      </c>
+      <c r="F76" s="10">
+        <f t="shared" ref="F76" si="1363">F75*(1+E76)</f>
+        <v>99.860900000000029</v>
+      </c>
+      <c r="G76" s="5">
+        <f t="shared" ref="G76" si="1364">F76/F$45-1</f>
+        <v>6.2382987813609514E-3</v>
+      </c>
+      <c r="H76" s="8">
+        <f t="shared" ref="H76" si="1365">F76/$F$2-1</f>
+        <v>-1.390999999999698E-3</v>
+      </c>
+      <c r="J76" s="11">
+        <f>VLOOKUP($A76,Prices!$A:$J,MATCH(J$1,Prices!$1:$1,0),0)</f>
+        <v>4.5693713652728007E-3</v>
+      </c>
+      <c r="K76" s="11">
+        <f>VLOOKUP($A76,Prices!$A:$J,MATCH(K$1,Prices!$1:$1,0),0)</f>
+        <v>-9.4082227867164914E-4</v>
+      </c>
+      <c r="L76" s="11">
+        <f>VLOOKUP($A76,Prices!$A:$J,MATCH(L$1,Prices!$1:$1,0),0)</f>
+        <v>6.405969518848309E-3</v>
+      </c>
+      <c r="M76" s="11">
+        <f t="shared" ref="M76" si="1366">0.6*J76 + 0.4*K76</f>
+        <v>2.3652939076950208E-3</v>
+      </c>
+      <c r="N76" s="11">
+        <f>VLOOKUP($A76,Prices!$A:$J,MATCH(N$1,Prices!$1:$1,0),0)</f>
+        <v>4.025301897642386E-3</v>
+      </c>
+      <c r="P76" s="10">
+        <f t="shared" ref="P76" si="1367">P75*(1+J76)</f>
+        <v>100.77820389915527</v>
+      </c>
+      <c r="Q76" s="10">
+        <f t="shared" ref="Q76" si="1368">Q75*(1+K76)</f>
+        <v>100.40667975773624</v>
+      </c>
+      <c r="R76" s="10">
+        <f t="shared" ref="R76" si="1369">R75*(1+L76)</f>
+        <v>107.37705183837032</v>
+      </c>
+      <c r="S76" s="10">
+        <f t="shared" ref="S76" si="1370">S75*(1+M76)</f>
+        <v>100.67033677412961</v>
+      </c>
+      <c r="T76" s="10">
+        <f t="shared" ref="T76" si="1371">T75*(1+N76)</f>
+        <v>101.25987641920501</v>
+      </c>
+      <c r="V76" s="5">
+        <f t="shared" ref="V76" si="1372">P76/P$45-1</f>
+        <v>2.0106861642295026E-2</v>
+      </c>
+      <c r="W76" s="5">
+        <f t="shared" ref="W76" si="1373">Q76/Q$45-1</f>
+        <v>9.3504809087985308E-4</v>
+      </c>
+      <c r="X76" s="5">
+        <f t="shared" ref="X76" si="1374">R76/R$45-1</f>
+        <v>4.7170847830067641E-2</v>
+      </c>
+      <c r="Y76" s="5">
+        <f t="shared" ref="Y76" si="1375">S76/S$45-1</f>
+        <v>1.2516359494932461E-2</v>
+      </c>
+      <c r="Z76" s="5">
+        <f t="shared" ref="Z76" si="1376">T76/T$45-1</f>
+        <v>3.4482758620693055E-3</v>
+      </c>
+      <c r="AB76" s="8">
+        <f t="shared" ref="AB76" si="1377">P76/$P$2-1</f>
+        <v>7.782038991552831E-3</v>
+      </c>
+      <c r="AC76" s="8">
+        <f t="shared" ref="AC76" si="1378">Q76/$P$2-1</f>
+        <v>4.066797577362502E-3</v>
+      </c>
+      <c r="AD76" s="8">
+        <f t="shared" ref="AD76" si="1379">R76/$P$2-1</f>
+        <v>7.3770518383703187E-2</v>
+      </c>
+      <c r="AE76" s="8">
+        <f t="shared" ref="AE76" si="1380">S76/$P$2-1</f>
+        <v>6.7033677412959847E-3</v>
+      </c>
+      <c r="AF76" s="8">
+        <f t="shared" ref="AF76" si="1381">T76/$T$2-1</f>
+        <v>1.2598764192050194E-2</v>
+      </c>
+      <c r="AI76" s="8">
+        <f t="shared" ref="AI76" si="1382">MIN(0,(F76-MAX(F47:F76))/MAX(F47:F76))</f>
+        <v>-3.6556906152312822E-3</v>
+      </c>
+      <c r="AJ76" s="8">
+        <f t="shared" ref="AJ76" si="1383">MIN(0,(P76-MAX(P47:P76))/MAX(P47:P76))</f>
+        <v>-1.8002165674065703E-2</v>
+      </c>
+      <c r="AK76" s="8">
+        <f t="shared" ref="AK76" si="1384">MIN(0,(Q76-MAX(Q47:Q76))/MAX(Q47:Q76))</f>
+        <v>-3.0044127311991721E-3</v>
+      </c>
+      <c r="AL76" s="8">
+        <f t="shared" ref="AL76" si="1385">MIN(0,(R76-MAX(R47:R76))/MAX(R47:R76))</f>
+        <v>-5.3570807388596577E-3</v>
+      </c>
+      <c r="AM76" s="8">
+        <f t="shared" ref="AM76" si="1386">MIN(0,(S76-MAX(S47:S76))/MAX(S47:S76))</f>
+        <v>-1.0311959255453714E-2</v>
+      </c>
+      <c r="AN76" s="8">
+        <f t="shared" ref="AN76" si="1387">MIN(0,(T76-MAX(T47:T76))/MAX(T47:T76))</f>
+        <v>-2.4035774175517034E-2</v>
       </c>
     </row>
   </sheetData>
@@ -12772,7 +12878,7 @@
   <dimension ref="A1:J78"/>
   <sheetViews>
     <sheetView topLeftCell="A51" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E85" sqref="E85"/>
+      <selection activeCell="C85" sqref="C85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15545,37 +15651,40 @@
       </c>
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B77" t="str">
+      <c r="A77" s="13">
+        <v>43326</v>
+      </c>
+      <c r="B77">
         <f t="array" ref="B77">_xll.HistoricalData(B$1,"Adj. Close",$A77,$A77,"Daily","RemoveHeaders = True","ReverseOrder =True","RemoveDates =""True")</f>
-        <v>--</v>
-      </c>
-      <c r="C77" t="str">
+        <v>72.55</v>
+      </c>
+      <c r="C77">
         <f t="array" ref="C77">_xll.HistoricalData(C$1,"Adj. Close",$A77,$A77,"Daily","RemoveHeaders = True","ReverseOrder =True","RemoveDates =""True")</f>
-        <v>--</v>
-      </c>
-      <c r="D77" t="str">
+        <v>106.19</v>
+      </c>
+      <c r="D77">
         <f t="array" ref="D77">_xll.HistoricalData(D$1,"Adj. Close",$A77,$A77,"Daily","RemoveHeaders = True","ReverseOrder =True","RemoveDates =""True")</f>
-        <v>--</v>
-      </c>
-      <c r="E77" t="str">
+        <v>285.93</v>
+      </c>
+      <c r="E77">
         <f t="array" ref="E77">_xll.HistoricalData(E$1,"Adj. Close",$A77,$A77,"Daily","RemoveHeaders = True","ReverseOrder =True","RemoveDates =""True")</f>
-        <v>--</v>
-      </c>
-      <c r="G77" s="5" t="e">
+        <v>17.46</v>
+      </c>
+      <c r="G77" s="5">
         <f t="shared" si="220"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="H77" s="5" t="e">
+        <v>4.5693713652728007E-3</v>
+      </c>
+      <c r="H77" s="5">
         <f t="shared" si="221"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I77" s="5" t="e">
+        <v>-9.4082227867164914E-4</v>
+      </c>
+      <c r="I77" s="5">
         <f t="shared" si="222"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="J77" s="5" t="e">
+        <v>6.405969518848309E-3</v>
+      </c>
+      <c r="J77" s="5">
         <f t="shared" si="223"/>
-        <v>#VALUE!</v>
+        <v>4.025301897642386E-3</v>
       </c>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.25">
@@ -15660,7 +15769,7 @@
       </c>
       <c r="G2" s="74">
         <f>SUM(G5:G10)</f>
-        <v>0.99267767166714549</v>
+        <v>0.99277601057624842</v>
       </c>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.25">
@@ -15711,7 +15820,7 @@
       </c>
       <c r="C5">
         <f>_xll.RealtimeData(A5,"Last")</f>
-        <v>362.28</v>
+        <v>368.66</v>
       </c>
       <c r="D5">
         <f>ROUNDDOWN(($C$2/6)/B5,0)</f>
@@ -15719,19 +15828,19 @@
       </c>
       <c r="E5" s="8">
         <f>C5/B5-1</f>
-        <v>9.1369182105738744E-2</v>
+        <v>0.11058894411809028</v>
       </c>
       <c r="F5">
         <f>C5*D5</f>
-        <v>12679.8</v>
+        <v>12903.1</v>
       </c>
       <c r="G5" s="73">
         <f>F5/$F$13</f>
-        <v>0.17500548280951167</v>
+        <v>0.17569573432908456</v>
       </c>
       <c r="H5" s="8">
         <f>F5/$F$31</f>
-        <v>0.1238536519040162</v>
+        <v>0.12466329673557248</v>
       </c>
       <c r="I5">
         <f>B5*D5</f>
@@ -15748,7 +15857,7 @@
       </c>
       <c r="C6">
         <f>_xll.RealtimeData(A6,"Last")</f>
-        <v>1896.2</v>
+        <v>1919.65</v>
       </c>
       <c r="D6">
         <f t="shared" ref="D6:D10" si="0">ROUNDDOWN(($C$2/6)/B6,0)</f>
@@ -15756,19 +15865,19 @@
       </c>
       <c r="E6" s="8">
         <f t="shared" ref="E6:E10" si="1">C6/B6-1</f>
-        <v>0.16358414845178637</v>
+        <v>0.17797400621003678</v>
       </c>
       <c r="F6">
         <f t="shared" ref="F6:F9" si="2">C6*D6</f>
-        <v>13273.4</v>
+        <v>13437.550000000001</v>
       </c>
       <c r="G6" s="73">
         <f t="shared" ref="G6:G10" si="3">F6/$F$13</f>
-        <v>0.18319829772739099</v>
+        <v>0.18297310063734998</v>
       </c>
       <c r="H6" s="8">
         <f t="shared" ref="H6:H10" si="4">F6/$F$31</f>
-        <v>0.12965181337109172</v>
+        <v>0.1298268852484358</v>
       </c>
       <c r="I6">
         <f t="shared" ref="I6:I10" si="5">B6*D6</f>
@@ -15785,7 +15894,7 @@
       </c>
       <c r="C7">
         <f>_xll.RealtimeData(A7,"Last")</f>
-        <v>43.75</v>
+        <v>44</v>
       </c>
       <c r="D7">
         <f t="shared" si="0"/>
@@ -15793,19 +15902,19 @@
       </c>
       <c r="E7" s="8">
         <f t="shared" si="1"/>
-        <v>3.2326569136384986E-2</v>
+        <v>3.8225578102878632E-2</v>
       </c>
       <c r="F7">
         <f t="shared" si="2"/>
-        <v>12031.25</v>
+        <v>12100</v>
       </c>
       <c r="G7" s="73">
         <f t="shared" si="3"/>
-        <v>0.16605425283142775</v>
+        <v>0.16476028127984152</v>
       </c>
       <c r="H7" s="8">
         <f t="shared" si="4"/>
-        <v>0.11751875025396261</v>
+        <v>0.1169041463292098</v>
       </c>
       <c r="I7">
         <f t="shared" si="5"/>
@@ -15822,7 +15931,7 @@
       </c>
       <c r="C8">
         <f>_xll.RealtimeData(A8,"Last")</f>
-        <v>520.36</v>
+        <v>529</v>
       </c>
       <c r="D8">
         <f t="shared" si="0"/>
@@ -15830,19 +15939,19 @@
       </c>
       <c r="E8" s="8">
         <f t="shared" si="1"/>
-        <v>0.1320294994234994</v>
+        <v>0.1508255922727173</v>
       </c>
       <c r="F8">
         <f t="shared" si="2"/>
-        <v>13009</v>
+        <v>13225</v>
       </c>
       <c r="G8" s="73">
         <f t="shared" si="3"/>
-        <v>0.17954907221477764</v>
+        <v>0.18007890247321523</v>
       </c>
       <c r="H8" s="8">
         <f t="shared" si="4"/>
-        <v>0.12706920910577035</v>
+        <v>0.12777333348791733</v>
       </c>
       <c r="I8">
         <f t="shared" si="5"/>
@@ -15859,7 +15968,7 @@
       </c>
       <c r="C9">
         <f>_xll.RealtimeData(A9,"Last")</f>
-        <v>51.34</v>
+        <v>50.62</v>
       </c>
       <c r="D9">
         <f t="shared" si="0"/>
@@ -15867,19 +15976,19 @@
       </c>
       <c r="E9" s="8">
         <f t="shared" si="1"/>
-        <v>-0.10852578572668869</v>
+        <v>-0.12102795624240326</v>
       </c>
       <c r="F9">
         <f t="shared" si="2"/>
-        <v>10370.68</v>
+        <v>10225.24</v>
       </c>
       <c r="G9" s="73">
         <f t="shared" si="3"/>
-        <v>0.14313521194837037</v>
+        <v>0.1392325139300733</v>
       </c>
       <c r="H9" s="8">
         <f t="shared" si="4"/>
-        <v>0.10129864751241682</v>
+        <v>9.8791153157957778E-2</v>
       </c>
       <c r="I9">
         <f t="shared" si="5"/>
@@ -15896,7 +16005,7 @@
       </c>
       <c r="C10">
         <f>_xll.RealtimeData(A10,"Last")</f>
-        <v>51.01</v>
+        <v>53.23</v>
       </c>
       <c r="D10">
         <f t="shared" si="0"/>
@@ -15904,19 +16013,19 @@
       </c>
       <c r="E10" s="8">
         <f t="shared" si="1"/>
-        <v>-9.4764862466725885E-2</v>
+        <v>-5.5368234250221859E-2</v>
       </c>
       <c r="F10">
         <f>C10*D10</f>
-        <v>10559.07</v>
+        <v>11018.609999999999</v>
       </c>
       <c r="G10" s="73">
         <f t="shared" si="3"/>
-        <v>0.14573535413566699</v>
+        <v>0.15003547792668384</v>
       </c>
       <c r="H10" s="8">
         <f t="shared" si="4"/>
-        <v>0.10313880189041943</v>
+        <v>0.10645629717227226</v>
       </c>
       <c r="I10">
         <f t="shared" si="5"/>
@@ -15935,7 +16044,7 @@
       </c>
       <c r="F13" s="75">
         <f>SUM(F5:F10)+I13</f>
-        <v>72453.73</v>
+        <v>73440.03</v>
       </c>
       <c r="H13" t="s">
         <v>26</v>
@@ -15951,7 +16060,7 @@
       </c>
       <c r="F14" s="8">
         <f>F13/C2-1</f>
-        <v>3.5053285714285565E-2</v>
+        <v>4.9143285714285723E-2</v>
       </c>
     </row>
     <row r="15" spans="1:23" x14ac:dyDescent="0.25">
@@ -15962,7 +16071,7 @@
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H17" s="11">
         <f>SUM(H20:H23)</f>
-        <v>0.98815047011467572</v>
+        <v>0.98820565887550937</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
@@ -16004,7 +16113,7 @@
       </c>
       <c r="C20">
         <f>_xll.RealtimeData(A20,"Last")</f>
-        <v>16.95</v>
+        <v>16.98</v>
       </c>
       <c r="D20">
         <f>ROUNDDOWN(($C$3*E20)/B20,0)</f>
@@ -16015,19 +16124,19 @@
       </c>
       <c r="F20" s="8">
         <f>C20/B20-1</f>
-        <v>-2.9411764705882248E-3</v>
+        <v>-1.1764705882352233E-3</v>
       </c>
       <c r="G20">
         <f>D20*C20</f>
-        <v>4237.5</v>
+        <v>4245</v>
       </c>
       <c r="H20" s="8">
         <f>G20/$G$27</f>
-        <v>0.14161087170472755</v>
+        <v>0.14120079551430517</v>
       </c>
       <c r="I20" s="8">
         <f>G20/$F$31</f>
-        <v>4.1391019569967089E-2</v>
+        <v>4.1013066212189718E-2</v>
       </c>
       <c r="J20">
         <f>B20*D20</f>
@@ -16044,7 +16153,7 @@
       </c>
       <c r="C21">
         <f>_xll.RealtimeData(A21,"Last")</f>
-        <v>284.11</v>
+        <v>285.93</v>
       </c>
       <c r="D21">
         <f t="shared" ref="D21:D22" si="6">ROUNDDOWN(($C$3*E21)/B21,0)</f>
@@ -16055,19 +16164,19 @@
       </c>
       <c r="F21" s="8">
         <f t="shared" ref="F21:F23" si="7">C21/B21-1</f>
-        <v>4.3481334841628527E-3</v>
+        <v>1.0781957013574761E-2</v>
       </c>
       <c r="G21">
         <f t="shared" ref="G21:G22" si="8">D21*C21</f>
-        <v>10796.18</v>
+        <v>10865.34</v>
       </c>
       <c r="H21" s="8">
         <f t="shared" ref="H21:H23" si="9">G21/$G$27</f>
-        <v>0.36079208516369216</v>
+        <v>0.36141216761681993</v>
       </c>
       <c r="I21" s="8">
         <f t="shared" ref="I21:I23" si="10">G21/$F$31</f>
-        <v>0.1054548431058141</v>
+        <v>0.10497547911376995</v>
       </c>
       <c r="J21">
         <f t="shared" ref="J21:J23" si="11">B21*D21</f>
@@ -16084,7 +16193,7 @@
       </c>
       <c r="C22">
         <f>_xll.RealtimeData(A22,"Last")</f>
-        <v>80.709999999999994</v>
+        <v>81.150000000000006</v>
       </c>
       <c r="D22">
         <f t="shared" si="6"/>
@@ -16095,19 +16204,19 @@
       </c>
       <c r="F22" s="8">
         <f t="shared" si="7"/>
-        <v>-9.9362119725221465E-3</v>
+        <v>-4.5387634936210342E-3</v>
       </c>
       <c r="G22">
         <f t="shared" si="8"/>
-        <v>11622.24</v>
+        <v>11685.6</v>
       </c>
       <c r="H22" s="8">
         <f t="shared" si="9"/>
-        <v>0.38839776697617762</v>
+        <v>0.38869635242920247</v>
       </c>
       <c r="I22" s="8">
         <f t="shared" si="10"/>
-        <v>0.11352362555441989</v>
+        <v>0.11290042085492678</v>
       </c>
       <c r="J22">
         <f t="shared" si="11"/>
@@ -16143,11 +16252,11 @@
       </c>
       <c r="H23" s="8">
         <f t="shared" si="9"/>
-        <v>9.7349746270078252E-2</v>
+        <v>9.6896343315181793E-2</v>
       </c>
       <c r="I23" s="8">
         <f t="shared" si="10"/>
-        <v>2.845406715239944E-2</v>
+        <v>2.8144431691264845E-2</v>
       </c>
       <c r="J23">
         <f t="shared" si="11"/>
@@ -16163,7 +16272,7 @@
       </c>
       <c r="G27">
         <f>SUM(G20:G23)+J28</f>
-        <v>29923.55</v>
+        <v>30063.570000000003</v>
       </c>
       <c r="J27">
         <f>SUM(J20:J23)</f>
@@ -16176,7 +16285,7 @@
       </c>
       <c r="G28" s="8">
         <f>G27/J27-1</f>
-        <v>9.3818876575202381E-3</v>
+        <v>1.4105045568590491E-2</v>
       </c>
       <c r="I28" t="s">
         <v>26</v>
@@ -16192,7 +16301,7 @@
       </c>
       <c r="F31" s="75">
         <f>SUM(F13,G27)</f>
-        <v>102377.28</v>
+        <v>103503.6</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
@@ -16201,11 +16310,11 @@
       </c>
       <c r="F33" s="8">
         <f>F31/B1-1</f>
-        <v>2.3772799999999927E-2</v>
+        <v>3.5036000000000067E-2</v>
       </c>
       <c r="H33" s="11">
         <f>F33-F37</f>
-        <v>-2.2821215248079209E-3</v>
+        <v>5.5966172765875254E-3</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
@@ -16218,16 +16327,16 @@
       </c>
       <c r="C37">
         <f>_xll.RealtimeData(A37,"Last")</f>
-        <v>37.968000000000004</v>
+        <v>38.14</v>
       </c>
       <c r="D37" s="8">
         <f>C37/B37-1</f>
-        <v>-7.6319916361734519E-3</v>
+        <v>-3.136434918975417E-3</v>
       </c>
       <c r="E37" s="11"/>
       <c r="F37" s="8">
         <f>D37*$B$3+D40*$B$2</f>
-        <v>2.6054921524807848E-2</v>
+        <v>2.9439382723412542E-2</v>
       </c>
       <c r="H37" s="8"/>
       <c r="I37" s="8"/>
@@ -16242,11 +16351,11 @@
       </c>
       <c r="C38">
         <f>_xll.RealtimeData(A38,"Last")</f>
-        <v>284.11</v>
+        <v>285.93</v>
       </c>
       <c r="D38" s="8">
         <f t="shared" ref="D38:D39" si="12">C38/B38-1</f>
-        <v>4.1726249404172577E-2</v>
+        <v>4.8399516004839827E-2</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
@@ -16259,11 +16368,11 @@
       </c>
       <c r="C39">
         <f>_xll.RealtimeData(A39,"Last")</f>
-        <v>180.32</v>
+        <v>181.45</v>
       </c>
       <c r="D39" s="8">
         <f t="shared" si="12"/>
-        <v>6.0269300876109932E-2</v>
+        <v>6.6913623801963862E-2</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
@@ -16276,11 +16385,11 @@
       </c>
       <c r="C40">
         <f>_xll.RealtimeData(A40,"Last")</f>
-        <v>46.51</v>
+        <v>46.64</v>
       </c>
       <c r="D40" s="8">
         <f>C40/B40-1</f>
-        <v>4.0492170022371266E-2</v>
+        <v>4.3400447427293098E-2</v>
       </c>
     </row>
   </sheetData>

--- a/Portfolio.xlsx
+++ b/Portfolio.xlsx
@@ -1031,7 +1031,95 @@
 <file path=xl/volatileDependencies.xml><?xml version="1.0" encoding="utf-8"?>
 <volTypes xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <volType type="realTimeData">
-    <main first="rtdsrv.243cb464522849aa99908e637eb2d0e9">
+    <main first="rtdsrv.e2833b3c48004c488c9731ae0bf5c0ec">
+      <tp>
+        <v>0</v>
+        <stp/>
+        <stp>ACWI</stp>
+        <stp>change in percent</stp>
+        <tr r="K22" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.e2833b3c48004c488c9731ae0bf5c0ec">
+      <tp>
+        <v>-5.2173913000000001</v>
+        <stp/>
+        <stp>IEV</stp>
+        <stp>mtd percent change</stp>
+        <tr r="U9" s="1"/>
+      </tp>
+      <tp>
+        <v>1.13479376</v>
+        <stp/>
+        <stp>IEF</stp>
+        <stp>mtd percent change</stp>
+        <tr r="U11" s="1"/>
+      </tp>
+      <tp>
+        <v>0.27220022999999999</v>
+        <stp/>
+        <stp>IVV</stp>
+        <stp>mtd percent change</stp>
+        <tr r="U3" s="1"/>
+      </tp>
+      <tp>
+        <v>0.29440628000000002</v>
+        <stp/>
+        <stp>IYR</stp>
+        <stp>mtd percent change</stp>
+        <tr r="U4" s="1"/>
+      </tp>
+      <tp>
+        <v>-3.43060622</v>
+        <stp/>
+        <stp>GLD</stp>
+        <stp>mtd percent change</stp>
+        <tr r="U8" s="1"/>
+      </tp>
+      <tp>
+        <v>-2.29411765</v>
+        <stp/>
+        <stp>DBC</stp>
+        <stp>mtd percent change</stp>
+        <tr r="U2" s="1"/>
+      </tp>
+      <tp>
+        <v>-6.6351776899999999</v>
+        <stp/>
+        <stp>EEM</stp>
+        <stp>mtd percent change</stp>
+        <tr r="U10" s="1"/>
+      </tp>
+      <tp>
+        <v>-3.7684603600000002</v>
+        <stp/>
+        <stp>EWJ</stp>
+        <stp>mtd percent change</stp>
+        <tr r="U7" s="1"/>
+      </tp>
+      <tp>
+        <v>-3.0886075900000001</v>
+        <stp/>
+        <stp>RWX</stp>
+        <stp>mtd percent change</stp>
+        <tr r="U6" s="1"/>
+      </tp>
+      <tp>
+        <v>0.25282927999999999</v>
+        <stp/>
+        <stp>SHY</stp>
+        <stp>mtd percent change</stp>
+        <tr r="U12" s="1"/>
+      </tp>
+      <tp>
+        <v>2.0091169999999998</v>
+        <stp/>
+        <stp>TLT</stp>
+        <stp>mtd percent change</stp>
+        <tr r="U5" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.e2833b3c48004c488c9731ae0bf5c0ec">
       <tp>
         <v>0</v>
         <stp/>
@@ -1040,97 +1128,158 @@
         <tr r="K26" s="1"/>
       </tp>
     </main>
-    <main first="rtdsrv.243cb464522849aa99908e637eb2d0e9">
+    <main first="rtdsrv.e2833b3c48004c488c9731ae0bf5c0ec">
+      <tp>
+        <v>56.69</v>
+        <stp/>
+        <stp>EWJ</stp>
+        <stp>last</stp>
+        <tr r="J7" s="1"/>
+      </tp>
+      <tp>
+        <v>38.28</v>
+        <stp/>
+        <stp>RWX</stp>
+        <stp>last</stp>
+        <tr r="J6" s="1"/>
+      </tp>
+      <tp>
+        <v>283.64999999999998</v>
+        <stp/>
+        <stp>IVV</stp>
+        <stp>last</stp>
+        <tr r="J3" s="1"/>
+        <tr r="C21" s="4"/>
+        <tr r="C38" s="4"/>
+      </tp>
+      <tp>
+        <v>52.89</v>
+        <stp/>
+        <stp>STX</stp>
+        <stp>last</stp>
+        <tr r="C10" s="4"/>
+      </tp>
+      <tp>
+        <v>179.23</v>
+        <stp/>
+        <stp>QQQ</stp>
+        <stp>last</stp>
+        <tr r="C39" s="4"/>
+      </tp>
+      <tp>
+        <v>81.760000000000005</v>
+        <stp/>
+        <stp>IYR</stp>
+        <stp>last</stp>
+        <tr r="J4" s="1"/>
+        <tr r="C22" s="4"/>
+      </tp>
+      <tp t="s">
+        <v>ARROW ETF TR-ARROW DJ GLB YLD</v>
+        <stp/>
+        <stp>GYLD</stp>
+        <stp>description</stp>
+        <tr r="L26" s="1"/>
+      </tp>
+      <tp>
+        <v>41.51</v>
+        <stp/>
+        <stp>EEM</stp>
+        <stp>last</stp>
+        <tr r="J10" s="1"/>
+      </tp>
+      <tp>
+        <v>102.49</v>
+        <stp/>
+        <stp>IEF</stp>
+        <stp>last</stp>
+        <tr r="J11" s="1"/>
+      </tp>
+      <tp>
+        <v>43.6</v>
+        <stp/>
+        <stp>IEV</stp>
+        <stp>last</stp>
+        <tr r="J9" s="1"/>
+      </tp>
+      <tp>
+        <v>16.61</v>
+        <stp/>
+        <stp>DBC</stp>
+        <stp>last</stp>
+        <tr r="J2" s="1"/>
+        <tr r="C20" s="4"/>
+      </tp>
+      <tp>
+        <v>37.71</v>
+        <stp/>
+        <stp>GAL</stp>
+        <stp>last</stp>
+        <tr r="C37" s="4"/>
+      </tp>
+      <tp>
+        <v>111.19</v>
+        <stp/>
+        <stp>GLD</stp>
+        <stp>last</stp>
+        <tr r="J8" s="1"/>
+      </tp>
+      <tp>
+        <v>120.84</v>
+        <stp/>
+        <stp>TLT</stp>
+        <stp>last</stp>
+        <tr r="J5" s="1"/>
+      </tp>
+      <tp>
+        <v>83.27</v>
+        <stp/>
+        <stp>SHY</stp>
+        <stp>last</stp>
+        <tr r="J12" s="1"/>
+        <tr r="C23" s="4"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.e2833b3c48004c488c9731ae0bf5c0ec">
       <tp>
         <v>0</v>
         <stp/>
-        <stp>ACWI</stp>
+        <stp>EEM</stp>
         <stp>change in percent</stp>
-        <tr r="K22" s="1"/>
+        <tr r="L10" s="1"/>
+      </tp>
+      <tp>
+        <v>0</v>
+        <stp/>
+        <stp>EWJ</stp>
+        <stp>change in percent</stp>
+        <tr r="L7" s="1"/>
       </tp>
     </main>
-    <main first="rtdsrv.243cb464522849aa99908e637eb2d0e9">
+    <main first="rtdsrv.e2833b3c48004c488c9731ae0bf5c0ec">
       <tp>
-        <v>-0.11764706</v>
+        <v>0</v>
         <stp/>
-        <stp>DBC</stp>
-        <stp>mtd percent change</stp>
-        <tr r="U2" s="1"/>
+        <stp>IEF</stp>
+        <stp>change in percent</stp>
+        <tr r="L11" s="1"/>
       </tp>
       <tp>
-        <v>-2.5802071</v>
+        <v>0</v>
         <stp/>
-        <stp>EWJ</stp>
-        <stp>mtd percent change</stp>
-        <tr r="U7" s="1"/>
+        <stp>AGG</stp>
+        <stp>change in percent</stp>
+        <tr r="K23" s="1"/>
       </tp>
+    </main>
+    <main first="rtdsrv.e2833b3c48004c488c9731ae0bf5c0ec">
       <tp>
-        <v>-3.8686459700000002</v>
-        <stp/>
-        <stp>EEM</stp>
-        <stp>mtd percent change</stp>
-        <tr r="U10" s="1"/>
-      </tp>
-      <tp>
-        <v>-1.7978113600000001</v>
+        <v>0</v>
         <stp/>
         <stp>GLD</stp>
-        <stp>mtd percent change</stp>
-        <tr r="U8" s="1"/>
+        <stp>change in percent</stp>
+        <tr r="L8" s="1"/>
       </tp>
-      <tp>
-        <v>-0.45387634999999998</v>
-        <stp/>
-        <stp>IYR</stp>
-        <stp>mtd percent change</stp>
-        <tr r="U4" s="1"/>
-      </tp>
-      <tp>
-        <v>1.0781957</v>
-        <stp/>
-        <stp>IVV</stp>
-        <stp>mtd percent change</stp>
-        <tr r="U3" s="1"/>
-      </tp>
-      <tp>
-        <v>-3.5652173899999999</v>
-        <stp/>
-        <stp>IEV</stp>
-        <stp>mtd percent change</stp>
-        <tr r="U9" s="1"/>
-      </tp>
-      <tp>
-        <v>0.88809947</v>
-        <stp/>
-        <stp>IEF</stp>
-        <stp>mtd percent change</stp>
-        <tr r="U11" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.243cb464522849aa99908e637eb2d0e9">
-      <tp>
-        <v>-2.5569620300000002</v>
-        <stp/>
-        <stp>RWX</stp>
-        <stp>mtd percent change</stp>
-        <tr r="U6" s="1"/>
-      </tp>
-      <tp>
-        <v>0.20467131999999999</v>
-        <stp/>
-        <stp>SHY</stp>
-        <stp>mtd percent change</stp>
-        <tr r="U12" s="1"/>
-      </tp>
-      <tp>
-        <v>1.41820024</v>
-        <stp/>
-        <stp>TLT</stp>
-        <stp>mtd percent change</stp>
-        <tr r="U5" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.243cb464522849aa99908e637eb2d0e9">
       <tp>
         <v>0</v>
         <stp/>
@@ -1139,57 +1288,31 @@
         <tr r="L2" s="1"/>
       </tp>
     </main>
-    <main first="rtdsrv.243cb464522849aa99908e637eb2d0e9">
+    <main first="rtdsrv.e2833b3c48004c488c9731ae0bf5c0ec">
       <tp>
         <v>0</v>
         <stp/>
-        <stp>AGG</stp>
+        <stp>RWX</stp>
         <stp>change in percent</stp>
-        <tr r="K23" s="1"/>
+        <tr r="L6" s="1"/>
       </tp>
       <tp>
         <v>0</v>
         <stp/>
-        <stp>IEF</stp>
+        <stp>SHY</stp>
         <stp>change in percent</stp>
-        <tr r="L11" s="1"/>
+        <tr r="L12" s="1"/>
       </tp>
     </main>
-    <main first="rtdsrv.243cb464522849aa99908e637eb2d0e9">
+    <main first="rtdsrv.e2833b3c48004c488c9731ae0bf5c0ec">
       <tp>
         <v>0</v>
         <stp/>
-        <stp>GLD</stp>
+        <stp>IVV</stp>
         <stp>change in percent</stp>
-        <tr r="L8" s="1"/>
+        <tr r="K24" s="1"/>
+        <tr r="L3" s="1"/>
       </tp>
-    </main>
-    <main first="rtdsrv.243cb464522849aa99908e637eb2d0e9">
-      <tp>
-        <v>0</v>
-        <stp/>
-        <stp>EWJ</stp>
-        <stp>change in percent</stp>
-        <tr r="L7" s="1"/>
-      </tp>
-      <tp>
-        <v>0</v>
-        <stp/>
-        <stp>EEM</stp>
-        <stp>change in percent</stp>
-        <tr r="L10" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.243cb464522849aa99908e637eb2d0e9">
-      <tp>
-        <v>0</v>
-        <stp/>
-        <stp>IYR</stp>
-        <stp>change in percent</stp>
-        <tr r="L4" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.243cb464522849aa99908e637eb2d0e9">
       <tp>
         <v>0</v>
         <stp/>
@@ -1200,209 +1323,35 @@
       <tp>
         <v>0</v>
         <stp/>
-        <stp>IVV</stp>
-        <stp>change in percent</stp>
-        <tr r="K24" s="1"/>
-        <tr r="L3" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.243cb464522849aa99908e637eb2d0e9">
-      <tp>
-        <v>0</v>
-        <stp/>
         <stp>TLT</stp>
         <stp>change in percent</stp>
         <tr r="L5" s="1"/>
       </tp>
+    </main>
+    <main first="rtdsrv.e2833b3c48004c488c9731ae0bf5c0ec">
       <tp>
         <v>0</v>
         <stp/>
-        <stp>SHY</stp>
+        <stp>IYR</stp>
         <stp>change in percent</stp>
-        <tr r="L12" s="1"/>
-      </tp>
-      <tp>
-        <v>0</v>
-        <stp/>
-        <stp>RWX</stp>
-        <stp>change in percent</stp>
-        <tr r="L6" s="1"/>
+        <tr r="L4" s="1"/>
       </tp>
     </main>
-    <main first="rtdsrv.243cb464522849aa99908e637eb2d0e9">
-      <tp>
-        <v>113.07</v>
+    <main first="rtdsrv.e2833b3c48004c488c9731ae0bf5c0ec">
+      <tp t="s">
+        <v>ISHARES TR-CORE S&amp;P500 ETF</v>
         <stp/>
-        <stp>GLD</stp>
-        <stp>last</stp>
-        <tr r="J8" s="1"/>
-      </tp>
-      <tp>
-        <v>120.14</v>
-        <stp/>
-        <stp>TLT</stp>
-        <stp>last</stp>
-        <tr r="J5" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.243cb464522849aa99908e637eb2d0e9">
-      <tp>
-        <v>529</v>
-        <stp/>
-        <stp>ISRG</stp>
-        <stp>last</stp>
-        <tr r="C8" s="4"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.243cb464522849aa99908e637eb2d0e9">
-      <tp t="s">
-        <v>SPDR GOLD TRUST-GOLD SHS</v>
-        <stp/>
-        <stp>GLD</stp>
+        <stp>IVV</stp>
         <stp>description</stp>
-        <tr r="B8" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.243cb464522849aa99908e637eb2d0e9">
-      <tp>
-        <v>83.23</v>
-        <stp/>
-        <stp>SHY</stp>
-        <stp>last</stp>
-        <tr r="J12" s="1"/>
-        <tr r="C23" s="4"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.243cb464522849aa99908e637eb2d0e9">
-      <tp t="s">
-        <v>ISHARES TR-MSCI EMG MKT ETF</v>
-        <stp/>
-        <stp>EEM</stp>
-        <stp>description</stp>
-        <tr r="B10" s="1"/>
+        <tr r="B3" s="1"/>
       </tp>
       <tp t="s">
-        <v>ISHARES INC-MSCI JPN ETF NEW</v>
-        <stp/>
-        <stp>EWJ</stp>
-        <stp>description</stp>
-        <tr r="B7" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.243cb464522849aa99908e637eb2d0e9">
-      <tp>
-        <v>46.64</v>
-        <stp/>
-        <stp>QQQE</stp>
-        <stp>last</stp>
-        <tr r="C40" s="4"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.243cb464522849aa99908e637eb2d0e9">
-      <tp>
-        <v>3.73</v>
-        <stp/>
-        <stp>RWX</stp>
-        <stp>dividend yield</stp>
-        <tr r="M6" s="1"/>
-      </tp>
-      <tp>
-        <v>1.87</v>
-        <stp/>
-        <stp>SHY</stp>
-        <stp>dividend yield</stp>
-        <tr r="M12" s="1"/>
-      </tp>
-      <tp>
-        <v>2.75</v>
-        <stp/>
-        <stp>TLT</stp>
-        <stp>dividend yield</stp>
-        <tr r="M5" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>--</v>
-        <stp/>
-        <stp>DBC</stp>
-        <stp>dividend yield</stp>
-        <tr r="M2" s="1"/>
-      </tp>
-      <tp>
-        <v>1.6</v>
-        <stp/>
-        <stp>EWJ</stp>
-        <stp>dividend yield</stp>
-        <tr r="M7" s="1"/>
-      </tp>
-      <tp>
-        <v>1.36</v>
-        <stp/>
-        <stp>EEM</stp>
-        <stp>dividend yield</stp>
-        <tr r="M10" s="1"/>
-      </tp>
-      <tp>
-        <v>0.49</v>
+        <v>ISHARES TR-U.S. REAL ES ETF</v>
         <stp/>
         <stp>IYR</stp>
-        <stp>dividend yield</stp>
-        <tr r="M4" s="1"/>
+        <stp>description</stp>
+        <tr r="B4" s="1"/>
       </tp>
-      <tp>
-        <v>1.79</v>
-        <stp/>
-        <stp>IVV</stp>
-        <stp>dividend yield</stp>
-        <tr r="M3" s="1"/>
-      </tp>
-      <tp>
-        <v>2.23</v>
-        <stp/>
-        <stp>IEF</stp>
-        <stp>dividend yield</stp>
-        <tr r="M11" s="1"/>
-      </tp>
-      <tp>
-        <v>4.7699999999999996</v>
-        <stp/>
-        <stp>IEV</stp>
-        <stp>dividend yield</stp>
-        <tr r="M9" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.243cb464522849aa99908e637eb2d0e9">
-      <tp t="s">
-        <v>INVESCO DB COMMDY INDX TRCK-UNIT</v>
-        <stp/>
-        <stp>DBC</stp>
-        <stp>description</stp>
-        <tr r="B2" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.243cb464522849aa99908e637eb2d0e9">
-      <tp>
-        <v>102.24</v>
-        <stp/>
-        <stp>IEF</stp>
-        <stp>last</stp>
-        <tr r="J11" s="1"/>
-      </tp>
-      <tp>
-        <v>42.74</v>
-        <stp/>
-        <stp>EEM</stp>
-        <stp>last</stp>
-        <tr r="J10" s="1"/>
-      </tp>
-      <tp>
-        <v>44.36</v>
-        <stp/>
-        <stp>IEV</stp>
-        <stp>last</stp>
-        <tr r="J9" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.243cb464522849aa99908e637eb2d0e9">
       <tp t="s">
         <v>ISHARES TR-EUROPE ETF</v>
         <stp/>
@@ -1418,81 +1367,198 @@
         <tr r="B11" s="1"/>
       </tp>
     </main>
-    <main first="rtdsrv.243cb464522849aa99908e637eb2d0e9">
-      <tp t="s">
-        <v>ISHARES TR-U.S. REAL ES ETF</v>
+    <main first="rtdsrv.e2833b3c48004c488c9731ae0bf5c0ec">
+      <tp>
+        <v>1882.62</v>
         <stp/>
-        <stp>IYR</stp>
-        <stp>description</stp>
-        <tr r="B4" s="1"/>
+        <stp>AMZN</stp>
+        <stp>last</stp>
+        <tr r="C6" s="4"/>
       </tp>
+    </main>
+    <main first="rtdsrv.e2833b3c48004c488c9731ae0bf5c0ec">
       <tp>
-        <v>81.150000000000006</v>
+        <v>120.84</v>
+        <stp/>
+        <stp>TLT</stp>
+        <stp>close</stp>
+        <tr r="G5" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.e2833b3c48004c488c9731ae0bf5c0ec">
+      <tp>
+        <v>283.64999999999998</v>
+        <stp/>
+        <stp>IVV</stp>
+        <stp>close</stp>
+        <tr r="G3" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.e2833b3c48004c488c9731ae0bf5c0ec">
+      <tp>
+        <v>81.760000000000005</v>
         <stp/>
         <stp>IYR</stp>
         <stp>close</stp>
         <tr r="G4" s="1"/>
       </tp>
     </main>
-    <main first="rtdsrv.243cb464522849aa99908e637eb2d0e9">
+    <main first="rtdsrv.e2833b3c48004c488c9731ae0bf5c0ec">
+      <tp>
+        <v>522.77</v>
+        <stp/>
+        <stp>ISRG</stp>
+        <stp>last</stp>
+        <tr r="C8" s="4"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.e2833b3c48004c488c9731ae0bf5c0ec">
+      <tp>
+        <v>46.02</v>
+        <stp/>
+        <stp>QQQE</stp>
+        <stp>last</stp>
+        <tr r="C40" s="4"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.e2833b3c48004c488c9731ae0bf5c0ec">
       <tp t="s">
-        <v>ARROW ETF TR-ARROW DJ GLB YLD</v>
+        <v>ISHARES INC-MSCI JPN ETF NEW</v>
         <stp/>
-        <stp>GYLD</stp>
+        <stp>EWJ</stp>
         <stp>description</stp>
-        <tr r="L26" s="1"/>
+        <tr r="B7" s="1"/>
       </tp>
       <tp t="s">
-        <v>ISHARES TR-CORE S&amp;P500 ETF</v>
+        <v>ISHARES TR-MSCI EMG MKT ETF</v>
+        <stp/>
+        <stp>EEM</stp>
+        <stp>description</stp>
+        <tr r="B10" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.e2833b3c48004c488c9731ae0bf5c0ec">
+      <tp t="s">
+        <v>INVESCO DB COMMDY INDX TRCK-UNIT</v>
+        <stp/>
+        <stp>DBC</stp>
+        <stp>description</stp>
+        <tr r="B2" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.e2833b3c48004c488c9731ae0bf5c0ec">
+      <tp t="s">
+        <v>SPDR GOLD TRUST-GOLD SHS</v>
+        <stp/>
+        <stp>GLD</stp>
+        <stp>description</stp>
+        <tr r="B8" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.e2833b3c48004c488c9731ae0bf5c0ec">
+      <tp>
+        <v>3.75</v>
+        <stp/>
+        <stp>RWX</stp>
+        <stp>dividend yield</stp>
+        <tr r="M6" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.e2833b3c48004c488c9731ae0bf5c0ec">
+      <tp>
+        <v>1.87</v>
+        <stp/>
+        <stp>SHY</stp>
+        <stp>dividend yield</stp>
+        <tr r="M12" s="1"/>
+      </tp>
+      <tp>
+        <v>2.73</v>
+        <stp/>
+        <stp>TLT</stp>
+        <stp>dividend yield</stp>
+        <tr r="M5" s="1"/>
+      </tp>
+      <tp>
+        <v>2.2200000000000002</v>
+        <stp/>
+        <stp>IEF</stp>
+        <stp>dividend yield</stp>
+        <tr r="M11" s="1"/>
+      </tp>
+      <tp>
+        <v>4.8499999999999996</v>
+        <stp/>
+        <stp>IEV</stp>
+        <stp>dividend yield</stp>
+        <tr r="M9" s="1"/>
+      </tp>
+      <tp>
+        <v>1.81</v>
         <stp/>
         <stp>IVV</stp>
-        <stp>description</stp>
-        <tr r="B3" s="1"/>
+        <stp>dividend yield</stp>
+        <tr r="M3" s="1"/>
+      </tp>
+      <tp>
+        <v>0.49</v>
+        <stp/>
+        <stp>IYR</stp>
+        <stp>dividend yield</stp>
+        <tr r="M4" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>--</v>
+        <stp/>
+        <stp>DBC</stp>
+        <stp>dividend yield</stp>
+        <tr r="M2" s="1"/>
       </tp>
     </main>
-    <main first="rtdsrv.243cb464522849aa99908e637eb2d0e9">
+    <main first="rtdsrv.e2833b3c48004c488c9731ae0bf5c0ec">
       <tp>
-        <v>1919.65</v>
+        <v>1.4</v>
         <stp/>
-        <stp>AMZN</stp>
-        <stp>last</stp>
-        <tr r="C6" s="4"/>
+        <stp>EEM</stp>
+        <stp>dividend yield</stp>
+        <tr r="M10" s="1"/>
+      </tp>
+      <tp>
+        <v>1.62</v>
+        <stp/>
+        <stp>EWJ</stp>
+        <stp>dividend yield</stp>
+        <tr r="M7" s="1"/>
       </tp>
     </main>
-    <main first="rtdsrv.243cb464522849aa99908e637eb2d0e9">
+    <main first="rtdsrv.e2833b3c48004c488c9731ae0bf5c0ec">
       <tp>
-        <v>38.14</v>
+        <v>16.61</v>
         <stp/>
-        <stp>GAL</stp>
-        <stp>last</stp>
-        <tr r="C37" s="4"/>
-      </tp>
-      <tp>
-        <v>120.14</v>
-        <stp/>
-        <stp>TLT</stp>
+        <stp>DBC</stp>
         <stp>close</stp>
-        <tr r="G5" s="1"/>
+        <tr r="G2" s="1"/>
       </tp>
     </main>
-    <main first="rtdsrv.243cb464522849aa99908e637eb2d0e9">
+    <main first="rtdsrv.e2833b3c48004c488c9731ae0bf5c0ec">
       <tp>
-        <v>285.93</v>
+        <v>43.86</v>
         <stp/>
-        <stp>IVV</stp>
-        <stp>close</stp>
-        <tr r="G3" s="1"/>
-      </tp>
-      <tp>
-        <v>16.98</v>
-        <stp/>
-        <stp>DBC</stp>
+        <stp>CSCO</stp>
         <stp>last</stp>
-        <tr r="J2" s="1"/>
-        <tr r="C20" s="4"/>
+        <tr r="C7" s="4"/>
       </tp>
     </main>
-    <main first="rtdsrv.243cb464522849aa99908e637eb2d0e9">
+    <main first="rtdsrv.e2833b3c48004c488c9731ae0bf5c0ec">
+      <tp>
+        <v>47.49</v>
+        <stp/>
+        <stp>MU</stp>
+        <stp>last</stp>
+        <tr r="C9" s="4"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.e2833b3c48004c488c9731ae0bf5c0ec">
       <tp t="s">
         <v>ISHARES TR-1 3 YR TREAS BD</v>
         <stp/>
@@ -1500,20 +1566,8 @@
         <stp>description</stp>
         <tr r="B12" s="1"/>
       </tp>
-      <tp>
-        <v>50.62</v>
-        <stp/>
-        <stp>MU</stp>
-        <stp>last</stp>
-        <tr r="C9" s="4"/>
-      </tp>
-      <tp>
-        <v>368.66</v>
-        <stp/>
-        <stp>ALGN</stp>
-        <stp>last</stp>
-        <tr r="C5" s="4"/>
-      </tp>
+    </main>
+    <main first="rtdsrv.e2833b3c48004c488c9731ae0bf5c0ec">
       <tp t="s">
         <v>SPDR INDEX SHS FDS-DJ INTL RL ETF</v>
         <stp/>
@@ -1522,80 +1576,22 @@
         <tr r="B6" s="1"/>
       </tp>
     </main>
-    <main first="rtdsrv.243cb464522849aa99908e637eb2d0e9">
+    <main first="rtdsrv.e2833b3c48004c488c9731ae0bf5c0ec">
       <tp>
-        <v>81.150000000000006</v>
+        <v>350.45</v>
         <stp/>
-        <stp>IYR</stp>
+        <stp>ALGN</stp>
         <stp>last</stp>
-        <tr r="J4" s="1"/>
-        <tr r="C22" s="4"/>
-      </tp>
-      <tp>
-        <v>44</v>
-        <stp/>
-        <stp>CSCO</stp>
-        <stp>last</stp>
-        <tr r="C7" s="4"/>
+        <tr r="C5" s="4"/>
       </tp>
     </main>
-    <main first="rtdsrv.243cb464522849aa99908e637eb2d0e9">
+    <main first="rtdsrv.e2833b3c48004c488c9731ae0bf5c0ec">
       <tp t="s">
         <v>ISHARES TR-20 YR TR BD ETF</v>
         <stp/>
         <stp>TLT</stp>
         <stp>description</stp>
         <tr r="B5" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.243cb464522849aa99908e637eb2d0e9">
-      <tp>
-        <v>53.23</v>
-        <stp/>
-        <stp>STX</stp>
-        <stp>last</stp>
-        <tr r="C10" s="4"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.243cb464522849aa99908e637eb2d0e9">
-      <tp>
-        <v>57.39</v>
-        <stp/>
-        <stp>EWJ</stp>
-        <stp>last</stp>
-        <tr r="J7" s="1"/>
-      </tp>
-      <tp>
-        <v>38.49</v>
-        <stp/>
-        <stp>RWX</stp>
-        <stp>last</stp>
-        <tr r="J6" s="1"/>
-      </tp>
-      <tp>
-        <v>285.93</v>
-        <stp/>
-        <stp>IVV</stp>
-        <stp>last</stp>
-        <tr r="J3" s="1"/>
-        <tr r="C21" s="4"/>
-        <tr r="C38" s="4"/>
-      </tp>
-      <tp>
-        <v>16.98</v>
-        <stp/>
-        <stp>DBC</stp>
-        <stp>close</stp>
-        <tr r="G2" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.243cb464522849aa99908e637eb2d0e9">
-      <tp>
-        <v>181.45</v>
-        <stp/>
-        <stp>QQQ</stp>
-        <stp>last</stp>
-        <tr r="C39" s="4"/>
       </tp>
     </main>
   </volType>
@@ -1868,8 +1864,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:V46"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D37" sqref="D37"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="R28" sqref="R28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1969,30 +1965,30 @@
       </c>
       <c r="E2" s="5">
         <f>G2/D2-1</f>
-        <v>-4.7502636617038907E-2</v>
+        <v>-6.8257879517609976E-2</v>
       </c>
       <c r="F2" s="5">
         <f>I2/$I$21</f>
-        <v>0.14963221322470219</v>
+        <v>0.14691454626685499</v>
       </c>
       <c r="G2" s="4">
         <f>_xll.RealtimeData(A2,"Close")</f>
-        <v>16.98</v>
+        <v>16.61</v>
       </c>
       <c r="H2" s="4">
         <v>176</v>
       </c>
       <c r="I2" s="4">
         <f>H2*G2</f>
-        <v>2988.48</v>
+        <v>2923.3599999999997</v>
       </c>
       <c r="J2" s="4">
         <f>_xll.RealtimeData(A2,"Last")</f>
-        <v>16.98</v>
+        <v>16.61</v>
       </c>
       <c r="K2" s="5">
         <f>J2/D2-1</f>
-        <v>-4.7502636617038907E-2</v>
+        <v>-6.8257879517609976E-2</v>
       </c>
       <c r="L2" s="8">
         <f>_xll.RealtimeData(A2,"Change in Percent")</f>
@@ -2011,7 +2007,7 @@
       </c>
       <c r="P2" s="60">
         <f t="shared" ref="P2:P12" si="1">O2-F2</f>
-        <v>-7.6322132247022001E-3</v>
+        <v>-4.9145462668550022E-3</v>
       </c>
       <c r="Q2" s="31">
         <f>O2*Daily!$D$68</f>
@@ -2019,11 +2015,11 @@
       </c>
       <c r="R2">
         <f t="shared" ref="R2:R11" si="2">ROUND(Q2/J2,0)</f>
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="S2">
         <f t="shared" ref="S2:S11" si="3">R2-H2</f>
-        <v>-10</v>
+        <v>-6</v>
       </c>
       <c r="T2" t="str">
         <f t="shared" ref="T2:T12" si="4">A2</f>
@@ -2031,7 +2027,7 @@
       </c>
       <c r="U2">
         <f>_xll.RealtimeData(T2,"MTD Percent Change")</f>
-        <v>-0.11764706</v>
+        <v>-2.29411765</v>
       </c>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.25">
@@ -2050,30 +2046,30 @@
       </c>
       <c r="E3" s="5">
         <f>G3/D3-1</f>
-        <v>7.3474007872818436E-2</v>
+        <v>6.4914147984209025E-2</v>
       </c>
       <c r="F3" s="5">
         <f>I3/$I$21</f>
-        <v>0.41517621770693919</v>
+        <v>0.41339315732896703</v>
       </c>
       <c r="G3" s="4">
         <f>_xll.RealtimeData(A3,"Close")</f>
-        <v>285.93</v>
+        <v>283.64999999999998</v>
       </c>
       <c r="H3" s="4">
         <v>29</v>
       </c>
       <c r="I3" s="4">
         <f>H3*G3</f>
-        <v>8291.9699999999993</v>
+        <v>8225.8499999999985</v>
       </c>
       <c r="J3" s="4">
         <f>_xll.RealtimeData(A3,"Last")</f>
-        <v>285.93</v>
+        <v>283.64999999999998</v>
       </c>
       <c r="K3" s="5">
         <f>J3/D3-1</f>
-        <v>7.3474007872818436E-2</v>
+        <v>6.4914147984209025E-2</v>
       </c>
       <c r="L3" s="8">
         <f>_xll.RealtimeData(A3,"Change in Percent")</f>
@@ -2081,7 +2077,7 @@
       </c>
       <c r="M3" s="29">
         <f>_xll.RealtimeData(A3,"Dividend Yield")</f>
-        <v>1.79</v>
+        <v>1.81</v>
       </c>
       <c r="N3" s="4" t="str">
         <f t="shared" si="0"/>
@@ -2092,7 +2088,7 @@
       </c>
       <c r="P3" s="60">
         <f t="shared" si="1"/>
-        <v>-4.9176217706939196E-2</v>
+        <v>-4.7393157328967039E-2</v>
       </c>
       <c r="Q3" s="31">
         <f>O3*Daily!$D$68</f>
@@ -2100,11 +2096,11 @@
       </c>
       <c r="R3">
         <f t="shared" si="2"/>
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="S3">
         <f t="shared" si="3"/>
-        <v>-4</v>
+        <v>-3</v>
       </c>
       <c r="T3" t="str">
         <f t="shared" si="4"/>
@@ -2112,7 +2108,7 @@
       </c>
       <c r="U3">
         <f>_xll.RealtimeData(T3,"MTD Percent Change")</f>
-        <v>1.0781957</v>
+        <v>0.27220022999999999</v>
       </c>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.25">
@@ -2131,30 +2127,30 @@
       </c>
       <c r="E4" s="5">
         <f>G4/D4-1</f>
-        <v>3.4680606910620915E-2</v>
+        <v>4.2458243019252828E-2</v>
       </c>
       <c r="F4" s="5">
         <f>I4/$I$21</f>
-        <v>0.21941030944559359</v>
+        <v>0.22187948058057014</v>
       </c>
       <c r="G4" s="4">
         <f>_xll.RealtimeData(A4,"Close")</f>
-        <v>81.150000000000006</v>
+        <v>81.760000000000005</v>
       </c>
       <c r="H4" s="4">
         <v>54</v>
       </c>
       <c r="I4" s="4">
         <f>H4*G4</f>
-        <v>4382.1000000000004</v>
+        <v>4415.04</v>
       </c>
       <c r="J4" s="4">
         <f>_xll.RealtimeData(A4,"Last")</f>
-        <v>81.150000000000006</v>
+        <v>81.760000000000005</v>
       </c>
       <c r="K4" s="5">
         <f>J4/D4-1</f>
-        <v>3.4680606910620915E-2</v>
+        <v>4.2458243019252828E-2</v>
       </c>
       <c r="L4" s="8">
         <f t="array" ref="L4">_xll.RealtimeData(A4,"Change in Percent")</f>
@@ -2173,7 +2169,7 @@
       </c>
       <c r="P4" s="60">
         <f t="shared" si="1"/>
-        <v>0.17358969055440643</v>
+        <v>0.17112051941942988</v>
       </c>
       <c r="Q4" s="31">
         <f>O4*Daily!$D$68</f>
@@ -2193,7 +2189,7 @@
       </c>
       <c r="U4">
         <f>_xll.RealtimeData(T4,"MTD Percent Change")</f>
-        <v>-0.45387634999999998</v>
+        <v>0.29440628000000002</v>
       </c>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.25">
@@ -2212,30 +2208,30 @@
       </c>
       <c r="E5" s="5">
         <f>G5/D5-1</f>
-        <v>-1.7611685956279044E-2</v>
+        <v>-1.1887765365047098E-2</v>
       </c>
       <c r="F5" s="5">
         <f>I5/$I$21</f>
-        <v>0.21053796357631643</v>
+        <v>0.2125500731969503</v>
       </c>
       <c r="G5" s="4">
         <f>_xll.RealtimeData(A5,"Close")</f>
-        <v>120.14</v>
+        <v>120.84</v>
       </c>
       <c r="H5" s="4">
         <v>35</v>
       </c>
       <c r="I5" s="4">
         <f>H5*G5</f>
-        <v>4204.8999999999996</v>
+        <v>4229.4000000000005</v>
       </c>
       <c r="J5" s="31">
         <f>_xll.RealtimeData(A5,"Last")</f>
-        <v>120.14</v>
+        <v>120.84</v>
       </c>
       <c r="K5" s="5">
         <f>J5/D5-1</f>
-        <v>-1.7611685956279044E-2</v>
+        <v>-1.1887765365047098E-2</v>
       </c>
       <c r="L5" s="8">
         <f t="array" ref="L5">_xll.RealtimeData(A5,"Change in Percent")</f>
@@ -2243,7 +2239,7 @@
       </c>
       <c r="M5" s="29">
         <f>_xll.RealtimeData(A5,"Dividend Yield")</f>
-        <v>2.75</v>
+        <v>2.73</v>
       </c>
       <c r="N5" s="4" t="str">
         <f t="shared" si="0"/>
@@ -2254,7 +2250,7 @@
       </c>
       <c r="P5" s="60">
         <f t="shared" si="1"/>
-        <v>-0.21053796357631643</v>
+        <v>-0.2125500731969503</v>
       </c>
       <c r="Q5" s="31">
         <f>O5*Daily!$D$68</f>
@@ -2274,7 +2270,7 @@
       </c>
       <c r="U5">
         <f>_xll.RealtimeData(T5,"MTD Percent Change")</f>
-        <v>1.41820024</v>
+        <v>2.0091169999999998</v>
       </c>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.25">
@@ -2294,7 +2290,7 @@
       <c r="I6" s="4"/>
       <c r="J6" s="31">
         <f>_xll.RealtimeData(A6,"Last")</f>
-        <v>38.49</v>
+        <v>38.28</v>
       </c>
       <c r="K6" s="5"/>
       <c r="L6" s="8">
@@ -2303,7 +2299,7 @@
       </c>
       <c r="M6" s="29">
         <f>_xll.RealtimeData(A6,"Dividend Yield")</f>
-        <v>3.73</v>
+        <v>3.75</v>
       </c>
       <c r="N6" s="4" t="str">
         <f t="shared" si="0"/>
@@ -2334,7 +2330,7 @@
       </c>
       <c r="U6">
         <f>_xll.RealtimeData(T6,"MTD Percent Change")</f>
-        <v>-2.5569620300000002</v>
+        <v>-3.0886075900000001</v>
       </c>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.25">
@@ -2354,7 +2350,7 @@
       <c r="I7" s="4"/>
       <c r="J7" s="31">
         <f>_xll.RealtimeData(A7,"Last")</f>
-        <v>57.39</v>
+        <v>56.69</v>
       </c>
       <c r="K7" s="5"/>
       <c r="L7" s="8">
@@ -2363,7 +2359,7 @@
       </c>
       <c r="M7" s="29">
         <f>_xll.RealtimeData(A7,"Dividend Yield")</f>
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="N7" s="4" t="str">
         <f t="shared" si="0"/>
@@ -2394,7 +2390,7 @@
       </c>
       <c r="U7">
         <f>_xll.RealtimeData(T7,"MTD Percent Change")</f>
-        <v>-2.5802071</v>
+        <v>-3.7684603600000002</v>
       </c>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.25">
@@ -2414,7 +2410,7 @@
       <c r="I8" s="4"/>
       <c r="J8" s="31">
         <f>_xll.RealtimeData(A8,"Last")</f>
-        <v>113.07</v>
+        <v>111.19</v>
       </c>
       <c r="K8" s="5"/>
       <c r="L8" s="8">
@@ -2453,7 +2449,7 @@
       </c>
       <c r="U8">
         <f>_xll.RealtimeData(T8,"MTD Percent Change")</f>
-        <v>-1.7978113600000001</v>
+        <v>-3.43060622</v>
       </c>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.25">
@@ -2473,7 +2469,7 @@
       <c r="I9" s="4"/>
       <c r="J9" s="31">
         <f>_xll.RealtimeData(A9,"Last")</f>
-        <v>44.36</v>
+        <v>43.6</v>
       </c>
       <c r="K9" s="5"/>
       <c r="L9" s="8">
@@ -2482,7 +2478,7 @@
       </c>
       <c r="M9" s="29">
         <f>_xll.RealtimeData(A9,"Dividend Yield")</f>
-        <v>4.7699999999999996</v>
+        <v>4.8499999999999996</v>
       </c>
       <c r="N9" s="4" t="str">
         <f t="shared" si="0"/>
@@ -2513,7 +2509,7 @@
       </c>
       <c r="U9">
         <f>_xll.RealtimeData(T9,"MTD Percent Change")</f>
-        <v>-3.5652173899999999</v>
+        <v>-5.2173913000000001</v>
       </c>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.25">
@@ -2527,7 +2523,7 @@
       <c r="G10" s="4"/>
       <c r="J10" s="31">
         <f>_xll.RealtimeData(A10,"Last")</f>
-        <v>42.74</v>
+        <v>41.51</v>
       </c>
       <c r="K10" s="5"/>
       <c r="L10" s="8">
@@ -2536,7 +2532,7 @@
       </c>
       <c r="M10" s="29">
         <f>_xll.RealtimeData(A10,"Dividend Yield")</f>
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="N10" s="4" t="str">
         <f t="shared" si="0"/>
@@ -2567,7 +2563,7 @@
       </c>
       <c r="U10">
         <f>_xll.RealtimeData(T10,"MTD Percent Change")</f>
-        <v>-3.8686459700000002</v>
+        <v>-6.6351776899999999</v>
       </c>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.25">
@@ -2581,7 +2577,7 @@
       <c r="G11" s="4"/>
       <c r="J11" s="31">
         <f>_xll.RealtimeData(A11,"Last")</f>
-        <v>102.24</v>
+        <v>102.49</v>
       </c>
       <c r="K11" s="5"/>
       <c r="L11" s="8">
@@ -2590,7 +2586,7 @@
       </c>
       <c r="M11" s="29">
         <f>_xll.RealtimeData(A11,"Dividend Yield")</f>
-        <v>2.23</v>
+        <v>2.2200000000000002</v>
       </c>
       <c r="N11" s="4" t="str">
         <f t="shared" si="0"/>
@@ -2621,7 +2617,7 @@
       </c>
       <c r="U11">
         <f>_xll.RealtimeData(T11,"MTD Percent Change")</f>
-        <v>0.88809947</v>
+        <v>1.13479376</v>
       </c>
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.25">
@@ -2634,7 +2630,7 @@
       </c>
       <c r="J12" s="31">
         <f>_xll.RealtimeData(A12,"Last")</f>
-        <v>83.23</v>
+        <v>83.27</v>
       </c>
       <c r="L12" s="8">
         <f t="array" ref="L12">_xll.RealtimeData(A12,"Change in Percent")</f>
@@ -2673,7 +2669,7 @@
       </c>
       <c r="U12">
         <f>_xll.RealtimeData(T12,"MTD Percent Change")</f>
-        <v>0.20467131999999999</v>
+        <v>0.25282927999999999</v>
       </c>
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.25">
@@ -2690,11 +2686,11 @@
     <row r="14" spans="1:22" x14ac:dyDescent="0.25">
       <c r="U14" s="29">
         <f t="array" ref="U14">MMULT(TRANSPOSE(O2:O12),U2:U12)</f>
-        <v>0.21980279880999998</v>
+        <v>-8.5407655359999973E-2</v>
       </c>
       <c r="V14" s="8">
         <f>U14*0.01</f>
-        <v>2.1980279880999998E-3</v>
+        <v>-8.5407655359999977E-4</v>
       </c>
     </row>
     <row r="19" spans="5:16" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
@@ -2704,7 +2700,7 @@
       </c>
       <c r="F20" s="11">
         <f>SUM(F2:F5)</f>
-        <v>0.99475670395355142</v>
+        <v>0.99473725737334251</v>
       </c>
       <c r="H20" s="2" t="s">
         <v>14</v>
@@ -2723,21 +2719,21 @@
       </c>
       <c r="F21" s="11">
         <f>1-F20</f>
-        <v>5.2432960464485756E-3</v>
+        <v>5.2627426266574906E-3</v>
       </c>
       <c r="H21" s="2" t="s">
         <v>16</v>
       </c>
       <c r="I21" s="6">
         <f>SUM(I2:I20)</f>
-        <v>19972.169999999998</v>
+        <v>19898.370000000003</v>
       </c>
       <c r="J21" t="s">
         <v>33</v>
       </c>
       <c r="K21" s="8">
         <f>SUMPRODUCT(K2:K7,F2:F7)</f>
-        <v>2.7298090235030041E-2</v>
+        <v>2.3700856701031149E-2</v>
       </c>
       <c r="M21" t="s">
         <v>34</v>
@@ -2747,7 +2743,7 @@
         <v>0</v>
       </c>
       <c r="P21" s="8">
-        <f t="array" ref="P21">SUMPRODUCT(L2:L12,O2:O12)</f>
+        <f>SUMPRODUCT(L2:L12,O2:O12)</f>
         <v>0</v>
       </c>
     </row>
@@ -2805,7 +2801,7 @@
       </c>
       <c r="I26" s="6">
         <f>SUM(I2:I18)</f>
-        <v>19867.449999999997</v>
+        <v>19793.650000000001</v>
       </c>
       <c r="J26" t="s">
         <v>56</v>
@@ -2834,20 +2830,20 @@
       </c>
       <c r="K28" s="8">
         <f>SUMPRODUCT(F2:F7,M2:M7)*0.01</f>
-        <v>1.4296558811586322E-2</v>
+        <v>1.4372242600775839E-2</v>
       </c>
       <c r="L28" t="s">
         <v>65</v>
       </c>
       <c r="M28" s="8">
         <f>AVERAGE(M2:M11)*0.01</f>
-        <v>2.0800000000000003E-2</v>
+        <v>2.0966666666666661E-2</v>
       </c>
     </row>
     <row r="29" spans="5:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="30" spans="5:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H30" s="30">
-        <v>43326</v>
+        <v>43327</v>
       </c>
       <c r="I30" s="15" t="s">
         <v>61</v>
@@ -2872,15 +2868,15 @@
       </c>
       <c r="J31" s="21">
         <f>LOOKUP(2,1/(Daily!E:E&lt;&gt;""),Daily!E:E)</f>
-        <v>3.6367181395198234E-3</v>
+        <v>-3.6951399396559781E-3</v>
       </c>
       <c r="K31" s="22">
         <f>VLOOKUP($H$30,Daily!$A:$AF,7,0)</f>
-        <v>6.2382987813609514E-3</v>
+        <v>2.5201074547225311E-3</v>
       </c>
       <c r="L31" s="23">
         <f>VLOOKUP($H$30,Daily!$A:$AF,8,0)</f>
-        <v>-1.390999999999698E-3</v>
+        <v>-5.0809999999995581E-3</v>
       </c>
     </row>
     <row r="32" spans="5:16" x14ac:dyDescent="0.25">
@@ -2893,15 +2889,15 @@
       </c>
       <c r="J32" s="24">
         <f>LOOKUP(2,1/(Daily!M:M&lt;&gt;""),Daily!M:M)</f>
-        <v>2.3652939076950208E-3</v>
+        <v>-6.5473113645105659E-3</v>
       </c>
       <c r="K32" s="14">
         <f>VLOOKUP($H$30,Daily!$A:$AF,25,0)</f>
-        <v>1.2516359494932461E-2</v>
+        <v>5.887099627658321E-3</v>
       </c>
       <c r="L32" s="25">
         <f>VLOOKUP($H$30,Daily!$A:$AF,31,0)</f>
-        <v>6.7033677412959847E-3</v>
+        <v>1.1216734099228631E-4</v>
       </c>
     </row>
     <row r="33" spans="8:18" x14ac:dyDescent="0.25">
@@ -2914,15 +2910,15 @@
       </c>
       <c r="J33" s="24">
         <f>LOOKUP(2,1/(Daily!L:L&lt;&gt;""),Daily!L:L)</f>
-        <v>6.405969518848309E-3</v>
+        <v>-7.9739796453678347E-3</v>
       </c>
       <c r="K33" s="14">
         <f>VLOOKUP($H$30,Daily!$A:$AF,24,0)</f>
-        <v>4.7170847830067641E-2</v>
+        <v>3.8820728804248139E-2</v>
       </c>
       <c r="L33" s="25">
         <f>VLOOKUP($H$30,Daily!$A:$AF,30,0)</f>
-        <v>7.3770518383703187E-2</v>
+        <v>6.5208294126315458E-2</v>
       </c>
     </row>
     <row r="34" spans="8:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2935,15 +2931,15 @@
       </c>
       <c r="J34" s="26">
         <f>LOOKUP(2,1/(Daily!N:N&lt;&gt;""),Daily!N:N)</f>
-        <v>4.025301897642386E-3</v>
+        <v>-8.1443298969073874E-3</v>
       </c>
       <c r="K34" s="27">
         <f>VLOOKUP($H$30,Daily!$A:$AF,26,0)</f>
-        <v>3.4482758620693055E-3</v>
+        <v>-4.7241379310343223E-3</v>
       </c>
       <c r="L34" s="28">
         <f>VLOOKUP($H$30,Daily!$A:$AF,32,0)</f>
-        <v>1.2598764192050194E-2</v>
+        <v>4.3518258032693158E-3</v>
       </c>
     </row>
     <row r="35" spans="8:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -2978,7 +2974,7 @@
       </c>
       <c r="I37" s="46">
         <f>AVERAGE(Daily!E$3:E380)</f>
-        <v>-6.8136707994704329E-6</v>
+        <v>-5.599135438422387E-5</v>
       </c>
       <c r="J37" s="44"/>
       <c r="K37" s="22"/>
@@ -2986,23 +2982,23 @@
       <c r="M37" s="50"/>
       <c r="N37" s="38">
         <f>AVERAGE(Daily!J$3:J380)</f>
-        <v>1.2342687266188359E-4</v>
+        <v>-3.6270737190929418E-5</v>
       </c>
       <c r="O37" s="22">
         <f>AVERAGE(Daily!K$3:K380)</f>
-        <v>5.637267544424104E-5</v>
+        <v>7.4455204947280803E-5</v>
       </c>
       <c r="P37" s="22">
         <f>AVERAGE(Daily!L$3:L380)</f>
-        <v>9.789242038162622E-4</v>
+        <v>8.5955215249380748E-4</v>
       </c>
       <c r="Q37" s="22">
         <f>AVERAGE(Daily!M$3:M380)</f>
-        <v>9.6605193774826548E-5</v>
+        <v>8.0196396643546444E-6</v>
       </c>
       <c r="R37" s="23">
         <f>AVERAGE(Daily!N$3:N380)</f>
-        <v>2.005768074073959E-4</v>
+        <v>8.9311384683198787E-5</v>
       </c>
     </row>
     <row r="38" spans="8:18" x14ac:dyDescent="0.25">
@@ -3011,7 +3007,7 @@
       </c>
       <c r="I38" s="47">
         <f>STDEV(Daily!E$3:E380)</f>
-        <v>4.9299817027662757E-3</v>
+        <v>4.9150443309497289E-3</v>
       </c>
       <c r="J38" s="45"/>
       <c r="K38" s="14"/>
@@ -3019,23 +3015,23 @@
       <c r="M38" s="51"/>
       <c r="N38" s="40">
         <f>STDEV(Daily!J$3:J380)</f>
-        <v>6.1470700080726364E-3</v>
+        <v>6.2600791696187071E-3</v>
       </c>
       <c r="O38" s="14">
         <f>STDEV(Daily!K$3:K380)</f>
-        <v>1.7592427005061857E-3</v>
+        <v>1.7543188921805997E-3</v>
       </c>
       <c r="P38" s="14">
         <f>STDEV(Daily!L$3:L380)</f>
-        <v>5.8035783690337057E-3</v>
+        <v>5.8562012159872135E-3</v>
       </c>
       <c r="Q38" s="14">
         <f>STDEV(Daily!M$3:M380)</f>
-        <v>3.5774916037359314E-3</v>
+        <v>3.6351133722685169E-3</v>
       </c>
       <c r="R38" s="25">
         <f>STDEV(Daily!N$3:N380)</f>
-        <v>7.9759063304714016E-3</v>
+        <v>7.9802204291008014E-3</v>
       </c>
     </row>
     <row r="39" spans="8:18" x14ac:dyDescent="0.25">
@@ -3056,7 +3052,7 @@
       </c>
       <c r="O39" s="33">
         <f>COUNTIF(Daily!K$3:K380,"&gt;0")</f>
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="P39" s="33">
         <f>COUNTIF(Daily!L$3:L380,"&gt;0")</f>
@@ -3089,7 +3085,7 @@
       </c>
       <c r="O40" s="14">
         <f>SUMIF(Daily!K$3:K380,"&gt;0")</f>
-        <v>5.2059221262790611E-2</v>
+        <v>5.3471783650962834E-2</v>
       </c>
       <c r="P40" s="14">
         <f>SUMIF(Daily!L$3:L380,"&gt;0")</f>
@@ -3110,7 +3106,7 @@
       </c>
       <c r="I41" s="47">
         <f>SUMIF(Daily!E$3:E380,"&lt;0")</f>
-        <v>-0.13494070590470153</v>
+        <v>-0.13863584584435751</v>
       </c>
       <c r="J41" s="45"/>
       <c r="K41" s="14"/>
@@ -3118,7 +3114,7 @@
       <c r="M41" s="51"/>
       <c r="N41" s="40">
         <f>SUMIF(Daily!J$3:J380,"&lt;0")</f>
-        <v>-0.17100138869968867</v>
+        <v>-0.18285528256598776</v>
       </c>
       <c r="O41" s="14">
         <f>SUMIF(Daily!K$3:K380,"&lt;0")</f>
@@ -3126,15 +3122,15 @@
       </c>
       <c r="P41" s="14">
         <f>SUMIF(Daily!L$3:L380,"&lt;0")</f>
-        <v>-0.13562736635070388</v>
+        <v>-0.14360134599607172</v>
       </c>
       <c r="Q41" s="14">
         <f>SUMIF(Daily!M$3:M380,"&lt;0")</f>
-        <v>-9.844401055011244E-2</v>
+        <v>-0.104991321914623</v>
       </c>
       <c r="R41" s="25">
         <f>SUMIF(Daily!N$3:N380,"&lt;0")</f>
-        <v>-0.2225543449872856</v>
+        <v>-0.23069867488419299</v>
       </c>
     </row>
     <row r="42" spans="8:18" x14ac:dyDescent="0.25">
@@ -3143,7 +3139,7 @@
       </c>
       <c r="I42" s="48">
         <f>COUNT(Daily!E$3:E380)</f>
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="J42" s="45"/>
       <c r="K42" s="14"/>
@@ -3151,23 +3147,23 @@
       <c r="M42" s="51"/>
       <c r="N42" s="41">
         <f>COUNT(Daily!J$3:J380)</f>
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="O42" s="33">
         <f>COUNT(Daily!K$3:K380)</f>
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="P42" s="33">
         <f>COUNT(Daily!L$3:L380)</f>
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Q42" s="33">
         <f>COUNT(Daily!M$3:M380)</f>
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="R42" s="35">
         <f>COUNT(Daily!N$3:N380)</f>
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="43" spans="8:18" x14ac:dyDescent="0.25">
@@ -3176,7 +3172,7 @@
       </c>
       <c r="I43" s="48">
         <f>I42-I39</f>
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="J43" s="45"/>
       <c r="K43" s="14"/>
@@ -3184,7 +3180,7 @@
       <c r="M43" s="51"/>
       <c r="N43" s="41">
         <f>N42-N39</f>
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="O43" s="33">
         <f>O42-O39</f>
@@ -3192,15 +3188,15 @@
       </c>
       <c r="P43" s="33">
         <f>P42-P39</f>
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="Q43" s="33">
         <f>Q42-Q39</f>
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="R43" s="35">
         <f>R42-R39</f>
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="44" spans="8:18" x14ac:dyDescent="0.25">
@@ -3209,7 +3205,7 @@
       </c>
       <c r="I44" s="49">
         <f>(I40/I41)*(I39/I43)*-1</f>
-        <v>1.3075957883911922</v>
+        <v>1.2341757044111625</v>
       </c>
       <c r="J44" s="45"/>
       <c r="K44" s="14"/>
@@ -3217,23 +3213,23 @@
       <c r="M44" s="51"/>
       <c r="N44" s="42">
         <f>(N40/N41)*(N39/N43)*-1</f>
-        <v>1.0534123649312563</v>
+        <v>0.95919888491333571</v>
       </c>
       <c r="O44" s="34">
         <f>(O40/O41)*(O39/O43)*-1</f>
-        <v>1.1475068819032941</v>
+        <v>1.2096599802014116</v>
       </c>
       <c r="P44" s="34">
         <f>(P40/P41)*(P39/P43)*-1</f>
-        <v>2.0135238114467451</v>
+        <v>1.8440879340195213</v>
       </c>
       <c r="Q44" s="34">
         <f>(Q40/Q41)*(Q39/Q43)*-1</f>
-        <v>1.1952026560002929</v>
+        <v>1.0895395198147135</v>
       </c>
       <c r="R44" s="36">
         <f>(R40/R41)*(R39/R43)*-1</f>
-        <v>1.4000337770671534</v>
+        <v>1.3096810074339427</v>
       </c>
     </row>
     <row r="45" spans="8:18" x14ac:dyDescent="0.25">
@@ -3242,7 +3238,7 @@
       </c>
       <c r="I45" s="62">
         <f>I39/I42</f>
-        <v>0.56756756756756754</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="J45" s="63"/>
       <c r="K45" s="64"/>
@@ -3250,23 +3246,23 @@
       <c r="M45" s="66"/>
       <c r="N45" s="67">
         <f>N39/N42</f>
-        <v>0.5</v>
+        <v>0.49333333333333335</v>
       </c>
       <c r="O45" s="64">
         <f>O39/O42</f>
-        <v>0.51351351351351349</v>
+        <v>0.52</v>
       </c>
       <c r="P45" s="64">
         <f>P39/P42</f>
-        <v>0.56756756756756754</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="Q45" s="64">
         <f>Q39/Q42</f>
-        <v>0.52702702702702697</v>
+        <v>0.52</v>
       </c>
       <c r="R45" s="68">
         <f>R39/R42</f>
-        <v>0.56756756756756754</v>
+        <v>0.56000000000000005</v>
       </c>
     </row>
     <row r="46" spans="8:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3299,7 +3295,7 @@
       </c>
       <c r="R46" s="28">
         <f>MIN(Daily!AN:AN)</f>
-        <v>-2.8089887640449493E-2</v>
+        <v>-3.1984348798211416E-2</v>
       </c>
     </row>
   </sheetData>
@@ -3314,13 +3310,13 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:AN76"/>
+  <dimension ref="A1:AN77"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="L49" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B14" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AJ82" sqref="AJ82"/>
+      <selection pane="bottomRight" activeCell="I84" sqref="I84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9336,7 +9332,7 @@
         <v>43291</v>
       </c>
       <c r="B51" s="4">
-        <f t="shared" ref="B51:B76" si="812">D51-C51</f>
+        <f t="shared" ref="B51:B77" si="812">D51-C51</f>
         <v>19902.79</v>
       </c>
       <c r="C51" s="4">
@@ -12736,7 +12732,7 @@
         <v>43326</v>
       </c>
       <c r="B76" s="4">
-        <f t="shared" si="812"/>
+        <f>D76-C76</f>
         <v>19867.46</v>
       </c>
       <c r="C76" s="4">
@@ -12865,6 +12861,142 @@
       <c r="AN76" s="8">
         <f t="shared" ref="AN76" si="1387">MIN(0,(T76-MAX(T47:T76))/MAX(T47:T76))</f>
         <v>-2.4035774175517034E-2</v>
+      </c>
+    </row>
+    <row r="77" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A77" s="9">
+        <v>43327</v>
+      </c>
+      <c r="B77" s="4">
+        <f t="shared" si="812"/>
+        <v>19793.66</v>
+      </c>
+      <c r="C77" s="4">
+        <v>104.72</v>
+      </c>
+      <c r="D77" s="4">
+        <f>19938.52-40.14</f>
+        <v>19898.38</v>
+      </c>
+      <c r="E77" s="5">
+        <f t="shared" ref="E77" si="1388">D77/D76-1</f>
+        <v>-3.6951399396559781E-3</v>
+      </c>
+      <c r="F77" s="10">
+        <f t="shared" ref="F77" si="1389">F76*(1+E77)</f>
+        <v>99.491900000000044</v>
+      </c>
+      <c r="G77" s="5">
+        <f t="shared" ref="G77" si="1390">F77/F$45-1</f>
+        <v>2.5201074547225311E-3</v>
+      </c>
+      <c r="H77" s="8">
+        <f t="shared" ref="H77" si="1391">F77/$F$2-1</f>
+        <v>-5.0809999999995581E-3</v>
+      </c>
+      <c r="J77" s="11">
+        <f>VLOOKUP($A77,Prices!$A:$J,MATCH(J$1,Prices!$1:$1,0),0)</f>
+        <v>-1.1853893866299092E-2</v>
+      </c>
+      <c r="K77" s="11">
+        <f>VLOOKUP($A77,Prices!$A:$J,MATCH(K$1,Prices!$1:$1,0),0)</f>
+        <v>1.4125623881722227E-3</v>
+      </c>
+      <c r="L77" s="11">
+        <f>VLOOKUP($A77,Prices!$A:$J,MATCH(L$1,Prices!$1:$1,0),0)</f>
+        <v>-7.9739796453678347E-3</v>
+      </c>
+      <c r="M77" s="11">
+        <f t="shared" ref="M77" si="1392">0.6*J77 + 0.4*K77</f>
+        <v>-6.5473113645105659E-3</v>
+      </c>
+      <c r="N77" s="11">
+        <f>VLOOKUP($A77,Prices!$A:$J,MATCH(N$1,Prices!$1:$1,0),0)</f>
+        <v>-8.1443298969073874E-3</v>
+      </c>
+      <c r="P77" s="10">
+        <f t="shared" ref="P77" si="1393">P76*(1+J77)</f>
+        <v>99.583589766098441</v>
+      </c>
+      <c r="Q77" s="10">
+        <f t="shared" ref="Q77" si="1394">Q76*(1+K77)</f>
+        <v>100.54851045708327</v>
+      </c>
+      <c r="R77" s="10">
+        <f t="shared" ref="R77" si="1395">R76*(1+L77)</f>
+        <v>106.52082941263154</v>
+      </c>
+      <c r="S77" s="10">
+        <f t="shared" ref="S77" si="1396">S76*(1+M77)</f>
+        <v>100.01121673409924</v>
+      </c>
+      <c r="T77" s="10">
+        <f t="shared" ref="T77" si="1397">T76*(1+N77)</f>
+        <v>100.43518258032694</v>
+      </c>
+      <c r="V77" s="5">
+        <f t="shared" ref="V77" si="1398">P77/P$45-1</f>
+        <v>8.0146231721038852E-3</v>
+      </c>
+      <c r="W77" s="5">
+        <f t="shared" ref="W77" si="1399">Q77/Q$45-1</f>
+        <v>2.3489312928164363E-3</v>
+      </c>
+      <c r="X77" s="5">
+        <f t="shared" ref="X77" si="1400">R77/R$45-1</f>
+        <v>3.8820728804248139E-2</v>
+      </c>
+      <c r="Y77" s="5">
+        <f t="shared" ref="Y77" si="1401">S77/S$45-1</f>
+        <v>5.887099627658321E-3</v>
+      </c>
+      <c r="Z77" s="5">
+        <f t="shared" ref="Z77" si="1402">T77/T$45-1</f>
+        <v>-4.7241379310343223E-3</v>
+      </c>
+      <c r="AB77" s="8">
+        <f t="shared" ref="AB77" si="1403">P77/$P$2-1</f>
+        <v>-4.1641023390155407E-3</v>
+      </c>
+      <c r="AC77" s="8">
+        <f t="shared" ref="AC77" si="1404">Q77/$P$2-1</f>
+        <v>5.4851045708326218E-3</v>
+      </c>
+      <c r="AD77" s="8">
+        <f t="shared" ref="AD77" si="1405">R77/$P$2-1</f>
+        <v>6.5208294126315458E-2</v>
+      </c>
+      <c r="AE77" s="8">
+        <f t="shared" ref="AE77" si="1406">S77/$P$2-1</f>
+        <v>1.1216734099228631E-4</v>
+      </c>
+      <c r="AF77" s="8">
+        <f t="shared" ref="AF77" si="1407">T77/$T$2-1</f>
+        <v>4.3518258032693158E-3</v>
+      </c>
+      <c r="AI77" s="8">
+        <f t="shared" ref="AI77" si="1408">MIN(0,(F77-MAX(F48:F77))/MAX(F48:F77))</f>
+        <v>-7.3373222664878321E-3</v>
+      </c>
+      <c r="AJ77" s="8">
+        <f t="shared" ref="AJ77" si="1409">MIN(0,(P77-MAX(P48:P77))/MAX(P48:P77))</f>
+        <v>-2.9642663779100839E-2</v>
+      </c>
+      <c r="AK77" s="8">
+        <f t="shared" ref="AK77" si="1410">MIN(0,(Q77-MAX(Q48:Q77))/MAX(Q48:Q77))</f>
+        <v>-1.5960942634496483E-3</v>
+      </c>
+      <c r="AL77" s="8">
+        <f t="shared" ref="AL77" si="1411">MIN(0,(R77-MAX(R48:R77))/MAX(R48:R77))</f>
+        <v>-1.3288343131457294E-2</v>
+      </c>
+      <c r="AM77" s="8">
+        <f t="shared" ref="AM77" si="1412">MIN(0,(S77-MAX(S48:S77))/MAX(S48:S77))</f>
+        <v>-1.6791755011940763E-2</v>
+      </c>
+      <c r="AN77" s="8">
+        <f t="shared" ref="AN77" si="1413">MIN(0,(T77-MAX(T48:T77))/MAX(T48:T77))</f>
+        <v>-3.1984348798211416E-2</v>
       </c>
     </row>
   </sheetData>
@@ -12875,10 +13007,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:J78"/>
+  <dimension ref="A1:J87"/>
   <sheetViews>
     <sheetView topLeftCell="A51" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C85" sqref="C85"/>
+      <selection activeCell="G89" sqref="G89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15688,36 +15820,345 @@
       </c>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B78" t="str">
+      <c r="A78" s="13">
+        <v>43327</v>
+      </c>
+      <c r="B78">
         <f t="array" ref="B78">_xll.HistoricalData(B$1,"Adj. Close",$A78,$A78,"Daily","RemoveHeaders = True","ReverseOrder =True","RemoveDates =""True")</f>
+        <v>71.69</v>
+      </c>
+      <c r="C78">
+        <f t="array" ref="C78">_xll.HistoricalData(C$1,"Adj. Close",$A78,$A78,"Daily","RemoveHeaders = True","ReverseOrder =True","RemoveDates =""True")</f>
+        <v>106.34</v>
+      </c>
+      <c r="D78">
+        <f t="array" ref="D78">_xll.HistoricalData(D$1,"Adj. Close",$A78,$A78,"Daily","RemoveHeaders = True","ReverseOrder =True","RemoveDates =""True")</f>
+        <v>283.64999999999998</v>
+      </c>
+      <c r="E78">
+        <f t="array" ref="E78">_xll.HistoricalData(E$1,"Adj. Close",$A78,$A78,"Daily","RemoveHeaders = True","ReverseOrder =True","RemoveDates =""True")</f>
+        <v>17.317799999999998</v>
+      </c>
+      <c r="G78" s="5">
+        <f t="shared" si="220"/>
+        <v>-1.1853893866299092E-2</v>
+      </c>
+      <c r="H78" s="5">
+        <f t="shared" si="221"/>
+        <v>1.4125623881722227E-3</v>
+      </c>
+      <c r="I78" s="5">
+        <f t="shared" si="222"/>
+        <v>-7.9739796453678347E-3</v>
+      </c>
+      <c r="J78" s="5">
+        <f t="shared" si="223"/>
+        <v>-8.1443298969073874E-3</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B79" t="str">
+        <f t="array" ref="B79">_xll.HistoricalData(B$1,"Adj. Close",$A79,$A79,"Daily","RemoveHeaders = True","ReverseOrder =True","RemoveDates =""True")</f>
         <v>--</v>
       </c>
-      <c r="C78" t="str">
-        <f t="array" ref="C78">_xll.HistoricalData(C$1,"Adj. Close",$A78,$A78,"Daily","RemoveHeaders = True","ReverseOrder =True","RemoveDates =""True")</f>
+      <c r="C79" t="str">
+        <f t="array" ref="C79">_xll.HistoricalData(C$1,"Adj. Close",$A79,$A79,"Daily","RemoveHeaders = True","ReverseOrder =True","RemoveDates =""True")</f>
         <v>--</v>
       </c>
-      <c r="D78" t="str">
-        <f t="array" ref="D78">_xll.HistoricalData(D$1,"Adj. Close",$A78,$A78,"Daily","RemoveHeaders = True","ReverseOrder =True","RemoveDates =""True")</f>
+      <c r="D79" t="str">
+        <f t="array" ref="D79">_xll.HistoricalData(D$1,"Adj. Close",$A79,$A79,"Daily","RemoveHeaders = True","ReverseOrder =True","RemoveDates =""True")</f>
         <v>--</v>
       </c>
-      <c r="E78" t="str">
-        <f t="array" ref="E78">_xll.HistoricalData(E$1,"Adj. Close",$A78,$A78,"Daily","RemoveHeaders = True","ReverseOrder =True","RemoveDates =""True")</f>
+      <c r="E79" t="str">
+        <f t="array" ref="E79">_xll.HistoricalData(E$1,"Adj. Close",$A79,$A79,"Daily","RemoveHeaders = True","ReverseOrder =True","RemoveDates =""True")</f>
         <v>--</v>
       </c>
-      <c r="G78" s="5" t="e">
-        <f t="shared" si="220"/>
+      <c r="G79" s="5" t="e">
+        <f t="shared" ref="G79:G87" si="224">B79/B78-1</f>
         <v>#VALUE!</v>
       </c>
-      <c r="H78" s="5" t="e">
-        <f t="shared" si="221"/>
+      <c r="H79" s="5" t="e">
+        <f t="shared" ref="H79:H87" si="225">C79/C78-1</f>
         <v>#VALUE!</v>
       </c>
-      <c r="I78" s="5" t="e">
-        <f t="shared" si="222"/>
+      <c r="I79" s="5" t="e">
+        <f t="shared" ref="I79:I87" si="226">D79/D78-1</f>
         <v>#VALUE!</v>
       </c>
-      <c r="J78" s="5" t="e">
-        <f t="shared" si="223"/>
+      <c r="J79" s="5" t="e">
+        <f t="shared" ref="J79:J87" si="227">E79/E78-1</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B80" t="str">
+        <f t="array" ref="B80">_xll.HistoricalData(B$1,"Adj. Close",$A80,$A80,"Daily","RemoveHeaders = True","ReverseOrder =True","RemoveDates =""True")</f>
+        <v>--</v>
+      </c>
+      <c r="C80" t="str">
+        <f t="array" ref="C80">_xll.HistoricalData(C$1,"Adj. Close",$A80,$A80,"Daily","RemoveHeaders = True","ReverseOrder =True","RemoveDates =""True")</f>
+        <v>--</v>
+      </c>
+      <c r="D80" t="str">
+        <f t="array" ref="D80">_xll.HistoricalData(D$1,"Adj. Close",$A80,$A80,"Daily","RemoveHeaders = True","ReverseOrder =True","RemoveDates =""True")</f>
+        <v>--</v>
+      </c>
+      <c r="E80" t="str">
+        <f t="array" ref="E80">_xll.HistoricalData(E$1,"Adj. Close",$A80,$A80,"Daily","RemoveHeaders = True","ReverseOrder =True","RemoveDates =""True")</f>
+        <v>--</v>
+      </c>
+      <c r="G80" s="5" t="e">
+        <f t="shared" si="224"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H80" s="5" t="e">
+        <f t="shared" si="225"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I80" s="5" t="e">
+        <f t="shared" si="226"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="J80" s="5" t="e">
+        <f t="shared" si="227"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="81" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B81" t="str">
+        <f t="array" ref="B81">_xll.HistoricalData(B$1,"Adj. Close",$A81,$A81,"Daily","RemoveHeaders = True","ReverseOrder =True","RemoveDates =""True")</f>
+        <v>--</v>
+      </c>
+      <c r="C81" t="str">
+        <f t="array" ref="C81">_xll.HistoricalData(C$1,"Adj. Close",$A81,$A81,"Daily","RemoveHeaders = True","ReverseOrder =True","RemoveDates =""True")</f>
+        <v>--</v>
+      </c>
+      <c r="D81" t="str">
+        <f t="array" ref="D81">_xll.HistoricalData(D$1,"Adj. Close",$A81,$A81,"Daily","RemoveHeaders = True","ReverseOrder =True","RemoveDates =""True")</f>
+        <v>--</v>
+      </c>
+      <c r="E81" t="str">
+        <f t="array" ref="E81">_xll.HistoricalData(E$1,"Adj. Close",$A81,$A81,"Daily","RemoveHeaders = True","ReverseOrder =True","RemoveDates =""True")</f>
+        <v>--</v>
+      </c>
+      <c r="G81" s="5" t="e">
+        <f t="shared" si="224"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H81" s="5" t="e">
+        <f t="shared" si="225"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I81" s="5" t="e">
+        <f t="shared" si="226"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="J81" s="5" t="e">
+        <f t="shared" si="227"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="82" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B82" t="str">
+        <f t="array" ref="B82">_xll.HistoricalData(B$1,"Adj. Close",$A82,$A82,"Daily","RemoveHeaders = True","ReverseOrder =True","RemoveDates =""True")</f>
+        <v>--</v>
+      </c>
+      <c r="C82" t="str">
+        <f t="array" ref="C82">_xll.HistoricalData(C$1,"Adj. Close",$A82,$A82,"Daily","RemoveHeaders = True","ReverseOrder =True","RemoveDates =""True")</f>
+        <v>--</v>
+      </c>
+      <c r="D82" t="str">
+        <f t="array" ref="D82">_xll.HistoricalData(D$1,"Adj. Close",$A82,$A82,"Daily","RemoveHeaders = True","ReverseOrder =True","RemoveDates =""True")</f>
+        <v>--</v>
+      </c>
+      <c r="E82" t="str">
+        <f t="array" ref="E82">_xll.HistoricalData(E$1,"Adj. Close",$A82,$A82,"Daily","RemoveHeaders = True","ReverseOrder =True","RemoveDates =""True")</f>
+        <v>--</v>
+      </c>
+      <c r="G82" s="5" t="e">
+        <f t="shared" si="224"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H82" s="5" t="e">
+        <f t="shared" si="225"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I82" s="5" t="e">
+        <f t="shared" si="226"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="J82" s="5" t="e">
+        <f t="shared" si="227"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="83" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B83" t="str">
+        <f t="array" ref="B83">_xll.HistoricalData(B$1,"Adj. Close",$A83,$A83,"Daily","RemoveHeaders = True","ReverseOrder =True","RemoveDates =""True")</f>
+        <v>--</v>
+      </c>
+      <c r="C83" t="str">
+        <f t="array" ref="C83">_xll.HistoricalData(C$1,"Adj. Close",$A83,$A83,"Daily","RemoveHeaders = True","ReverseOrder =True","RemoveDates =""True")</f>
+        <v>--</v>
+      </c>
+      <c r="D83" t="str">
+        <f t="array" ref="D83">_xll.HistoricalData(D$1,"Adj. Close",$A83,$A83,"Daily","RemoveHeaders = True","ReverseOrder =True","RemoveDates =""True")</f>
+        <v>--</v>
+      </c>
+      <c r="E83" t="str">
+        <f t="array" ref="E83">_xll.HistoricalData(E$1,"Adj. Close",$A83,$A83,"Daily","RemoveHeaders = True","ReverseOrder =True","RemoveDates =""True")</f>
+        <v>--</v>
+      </c>
+      <c r="G83" s="5" t="e">
+        <f t="shared" si="224"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H83" s="5" t="e">
+        <f t="shared" si="225"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I83" s="5" t="e">
+        <f t="shared" si="226"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="J83" s="5" t="e">
+        <f t="shared" si="227"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="84" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B84" t="str">
+        <f t="array" ref="B84">_xll.HistoricalData(B$1,"Adj. Close",$A84,$A84,"Daily","RemoveHeaders = True","ReverseOrder =True","RemoveDates =""True")</f>
+        <v>--</v>
+      </c>
+      <c r="C84" t="str">
+        <f t="array" ref="C84">_xll.HistoricalData(C$1,"Adj. Close",$A84,$A84,"Daily","RemoveHeaders = True","ReverseOrder =True","RemoveDates =""True")</f>
+        <v>--</v>
+      </c>
+      <c r="D84" t="str">
+        <f t="array" ref="D84">_xll.HistoricalData(D$1,"Adj. Close",$A84,$A84,"Daily","RemoveHeaders = True","ReverseOrder =True","RemoveDates =""True")</f>
+        <v>--</v>
+      </c>
+      <c r="E84" t="str">
+        <f t="array" ref="E84">_xll.HistoricalData(E$1,"Adj. Close",$A84,$A84,"Daily","RemoveHeaders = True","ReverseOrder =True","RemoveDates =""True")</f>
+        <v>--</v>
+      </c>
+      <c r="G84" s="5" t="e">
+        <f t="shared" si="224"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H84" s="5" t="e">
+        <f t="shared" si="225"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I84" s="5" t="e">
+        <f t="shared" si="226"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="J84" s="5" t="e">
+        <f t="shared" si="227"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="85" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B85" t="str">
+        <f t="array" ref="B85">_xll.HistoricalData(B$1,"Adj. Close",$A85,$A85,"Daily","RemoveHeaders = True","ReverseOrder =True","RemoveDates =""True")</f>
+        <v>--</v>
+      </c>
+      <c r="C85" t="str">
+        <f t="array" ref="C85">_xll.HistoricalData(C$1,"Adj. Close",$A85,$A85,"Daily","RemoveHeaders = True","ReverseOrder =True","RemoveDates =""True")</f>
+        <v>--</v>
+      </c>
+      <c r="D85" t="str">
+        <f t="array" ref="D85">_xll.HistoricalData(D$1,"Adj. Close",$A85,$A85,"Daily","RemoveHeaders = True","ReverseOrder =True","RemoveDates =""True")</f>
+        <v>--</v>
+      </c>
+      <c r="E85" t="str">
+        <f t="array" ref="E85">_xll.HistoricalData(E$1,"Adj. Close",$A85,$A85,"Daily","RemoveHeaders = True","ReverseOrder =True","RemoveDates =""True")</f>
+        <v>--</v>
+      </c>
+      <c r="G85" s="5" t="e">
+        <f t="shared" si="224"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H85" s="5" t="e">
+        <f t="shared" si="225"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I85" s="5" t="e">
+        <f t="shared" si="226"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="J85" s="5" t="e">
+        <f t="shared" si="227"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="86" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B86" t="str">
+        <f t="array" ref="B86">_xll.HistoricalData(B$1,"Adj. Close",$A86,$A86,"Daily","RemoveHeaders = True","ReverseOrder =True","RemoveDates =""True")</f>
+        <v>--</v>
+      </c>
+      <c r="C86" t="str">
+        <f t="array" ref="C86">_xll.HistoricalData(C$1,"Adj. Close",$A86,$A86,"Daily","RemoveHeaders = True","ReverseOrder =True","RemoveDates =""True")</f>
+        <v>--</v>
+      </c>
+      <c r="D86" t="str">
+        <f t="array" ref="D86">_xll.HistoricalData(D$1,"Adj. Close",$A86,$A86,"Daily","RemoveHeaders = True","ReverseOrder =True","RemoveDates =""True")</f>
+        <v>--</v>
+      </c>
+      <c r="E86" t="str">
+        <f t="array" ref="E86">_xll.HistoricalData(E$1,"Adj. Close",$A86,$A86,"Daily","RemoveHeaders = True","ReverseOrder =True","RemoveDates =""True")</f>
+        <v>--</v>
+      </c>
+      <c r="G86" s="5" t="e">
+        <f t="shared" si="224"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H86" s="5" t="e">
+        <f t="shared" si="225"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I86" s="5" t="e">
+        <f t="shared" si="226"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="J86" s="5" t="e">
+        <f t="shared" si="227"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="87" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B87" t="str">
+        <f t="array" ref="B87">_xll.HistoricalData(B$1,"Adj. Close",$A87,$A87,"Daily","RemoveHeaders = True","ReverseOrder =True","RemoveDates =""True")</f>
+        <v>--</v>
+      </c>
+      <c r="C87" t="str">
+        <f t="array" ref="C87">_xll.HistoricalData(C$1,"Adj. Close",$A87,$A87,"Daily","RemoveHeaders = True","ReverseOrder =True","RemoveDates =""True")</f>
+        <v>--</v>
+      </c>
+      <c r="D87" t="str">
+        <f t="array" ref="D87">_xll.HistoricalData(D$1,"Adj. Close",$A87,$A87,"Daily","RemoveHeaders = True","ReverseOrder =True","RemoveDates =""True")</f>
+        <v>--</v>
+      </c>
+      <c r="E87" t="str">
+        <f t="array" ref="E87">_xll.HistoricalData(E$1,"Adj. Close",$A87,$A87,"Daily","RemoveHeaders = True","ReverseOrder =True","RemoveDates =""True")</f>
+        <v>--</v>
+      </c>
+      <c r="G87" s="5" t="e">
+        <f t="shared" si="224"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H87" s="5" t="e">
+        <f t="shared" si="225"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I87" s="5" t="e">
+        <f t="shared" si="226"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="J87" s="5" t="e">
+        <f t="shared" si="227"/>
         <v>#VALUE!</v>
       </c>
     </row>
@@ -15769,7 +16210,7 @@
       </c>
       <c r="G2" s="74">
         <f>SUM(G5:G10)</f>
-        <v>0.99277601057624842</v>
+        <v>0.99259518039800376</v>
       </c>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.25">
@@ -15820,7 +16261,7 @@
       </c>
       <c r="C5">
         <f>_xll.RealtimeData(A5,"Last")</f>
-        <v>368.66</v>
+        <v>350.45</v>
       </c>
       <c r="D5">
         <f>ROUNDDOWN(($C$2/6)/B5,0)</f>
@@ -15828,19 +16269,19 @@
       </c>
       <c r="E5" s="8">
         <f>C5/B5-1</f>
-        <v>0.11058894411809028</v>
+        <v>5.573128483205303E-2</v>
       </c>
       <c r="F5">
         <f>C5*D5</f>
-        <v>12903.1</v>
+        <v>12265.75</v>
       </c>
       <c r="G5" s="73">
         <f>F5/$F$13</f>
-        <v>0.17569573432908456</v>
+        <v>0.17119798321148061</v>
       </c>
       <c r="H5" s="8">
         <f>F5/$F$31</f>
-        <v>0.12466329673557248</v>
+        <v>0.12070182862175602</v>
       </c>
       <c r="I5">
         <f>B5*D5</f>
@@ -15857,7 +16298,7 @@
       </c>
       <c r="C6">
         <f>_xll.RealtimeData(A6,"Last")</f>
-        <v>1919.65</v>
+        <v>1882.62</v>
       </c>
       <c r="D6">
         <f t="shared" ref="D6:D10" si="0">ROUNDDOWN(($C$2/6)/B6,0)</f>
@@ -15865,19 +16306,19 @@
       </c>
       <c r="E6" s="8">
         <f t="shared" ref="E6:E10" si="1">C6/B6-1</f>
-        <v>0.17797400621003678</v>
+        <v>0.15525091739178465</v>
       </c>
       <c r="F6">
         <f t="shared" ref="F6:F9" si="2">C6*D6</f>
-        <v>13437.550000000001</v>
+        <v>13178.34</v>
       </c>
       <c r="G6" s="73">
         <f t="shared" ref="G6:G10" si="3">F6/$F$13</f>
-        <v>0.18297310063734998</v>
+        <v>0.18393536718710093</v>
       </c>
       <c r="H6" s="8">
         <f t="shared" ref="H6:H10" si="4">F6/$F$31</f>
-        <v>0.1298268852484358</v>
+        <v>0.12968222376937669</v>
       </c>
       <c r="I6">
         <f t="shared" ref="I6:I10" si="5">B6*D6</f>
@@ -15894,7 +16335,7 @@
       </c>
       <c r="C7">
         <f>_xll.RealtimeData(A7,"Last")</f>
-        <v>44</v>
+        <v>43.86</v>
       </c>
       <c r="D7">
         <f t="shared" si="0"/>
@@ -15902,19 +16343,19 @@
       </c>
       <c r="E7" s="8">
         <f t="shared" si="1"/>
-        <v>3.8225578102878632E-2</v>
+        <v>3.492213308164227E-2</v>
       </c>
       <c r="F7">
         <f t="shared" si="2"/>
-        <v>12100</v>
+        <v>12061.5</v>
       </c>
       <c r="G7" s="73">
         <f t="shared" si="3"/>
-        <v>0.16476028127984152</v>
+        <v>0.16834718419218339</v>
       </c>
       <c r="H7" s="8">
         <f t="shared" si="4"/>
-        <v>0.1169041463292098</v>
+        <v>0.11869189457809838</v>
       </c>
       <c r="I7">
         <f t="shared" si="5"/>
@@ -15931,7 +16372,7 @@
       </c>
       <c r="C8">
         <f>_xll.RealtimeData(A8,"Last")</f>
-        <v>529</v>
+        <v>522.77</v>
       </c>
       <c r="D8">
         <f t="shared" si="0"/>
@@ -15939,19 +16380,19 @@
       </c>
       <c r="E8" s="8">
         <f t="shared" si="1"/>
-        <v>0.1508255922727173</v>
+        <v>0.13727239106315392</v>
       </c>
       <c r="F8">
         <f t="shared" si="2"/>
-        <v>13225</v>
+        <v>13069.25</v>
       </c>
       <c r="G8" s="73">
         <f t="shared" si="3"/>
-        <v>0.18007890247321523</v>
+        <v>0.18241275438408927</v>
       </c>
       <c r="H8" s="8">
         <f t="shared" si="4"/>
-        <v>0.12777333348791733</v>
+        <v>0.12860871725861728</v>
       </c>
       <c r="I8">
         <f t="shared" si="5"/>
@@ -15968,7 +16409,7 @@
       </c>
       <c r="C9">
         <f>_xll.RealtimeData(A9,"Last")</f>
-        <v>50.62</v>
+        <v>47.49</v>
       </c>
       <c r="D9">
         <f t="shared" si="0"/>
@@ -15976,19 +16417,19 @@
       </c>
       <c r="E9" s="8">
         <f t="shared" si="1"/>
-        <v>-0.12102795624240326</v>
+        <v>-0.17537766973432889</v>
       </c>
       <c r="F9">
         <f t="shared" si="2"/>
-        <v>10225.24</v>
+        <v>9592.98</v>
       </c>
       <c r="G9" s="73">
         <f t="shared" si="3"/>
-        <v>0.1392325139300733</v>
+        <v>0.13389306230667258</v>
       </c>
       <c r="H9" s="8">
         <f t="shared" si="4"/>
-        <v>9.8791153157957778E-2</v>
+        <v>9.4400279471857237E-2</v>
       </c>
       <c r="I9">
         <f t="shared" si="5"/>
@@ -16005,7 +16446,7 @@
       </c>
       <c r="C10">
         <f>_xll.RealtimeData(A10,"Last")</f>
-        <v>53.23</v>
+        <v>52.89</v>
       </c>
       <c r="D10">
         <f t="shared" si="0"/>
@@ -16013,19 +16454,19 @@
       </c>
       <c r="E10" s="8">
         <f t="shared" si="1"/>
-        <v>-5.5368234250221859E-2</v>
+        <v>-6.1401952085181954E-2</v>
       </c>
       <c r="F10">
         <f>C10*D10</f>
-        <v>11018.609999999999</v>
+        <v>10948.23</v>
       </c>
       <c r="G10" s="73">
         <f t="shared" si="3"/>
-        <v>0.15003547792668384</v>
+        <v>0.15280882911647703</v>
       </c>
       <c r="H10" s="8">
         <f t="shared" si="4"/>
-        <v>0.10645629717227226</v>
+        <v>0.10773669618014127</v>
       </c>
       <c r="I10">
         <f t="shared" si="5"/>
@@ -16044,7 +16485,7 @@
       </c>
       <c r="F13" s="75">
         <f>SUM(F5:F10)+I13</f>
-        <v>73440.03</v>
+        <v>71646.579999999987</v>
       </c>
       <c r="H13" t="s">
         <v>26</v>
@@ -16060,7 +16501,7 @@
       </c>
       <c r="F14" s="8">
         <f>F13/C2-1</f>
-        <v>4.9143285714285723E-2</v>
+        <v>2.3522571428571171E-2</v>
       </c>
     </row>
     <row r="15" spans="1:23" x14ac:dyDescent="0.25">
@@ -16071,7 +16512,7 @@
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H17" s="11">
         <f>SUM(H20:H23)</f>
-        <v>0.98820565887550937</v>
+        <v>0.98817028411936192</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
@@ -16113,7 +16554,7 @@
       </c>
       <c r="C20">
         <f>_xll.RealtimeData(A20,"Last")</f>
-        <v>16.98</v>
+        <v>16.61</v>
       </c>
       <c r="D20">
         <f>ROUNDDOWN(($C$3*E20)/B20,0)</f>
@@ -16124,19 +16565,19 @@
       </c>
       <c r="F20" s="8">
         <f>C20/B20-1</f>
-        <v>-1.1764705882352233E-3</v>
+        <v>-2.2941176470588243E-2</v>
       </c>
       <c r="G20">
         <f>D20*C20</f>
-        <v>4245</v>
+        <v>4152.5</v>
       </c>
       <c r="H20" s="8">
         <f>G20/$G$27</f>
-        <v>0.14120079551430517</v>
+        <v>0.13853825707696121</v>
       </c>
       <c r="I20" s="8">
         <f>G20/$F$31</f>
-        <v>4.1013066212189718E-2</v>
+        <v>4.0862918561999216E-2</v>
       </c>
       <c r="J20">
         <f>B20*D20</f>
@@ -16153,7 +16594,7 @@
       </c>
       <c r="C21">
         <f>_xll.RealtimeData(A21,"Last")</f>
-        <v>285.93</v>
+        <v>283.64999999999998</v>
       </c>
       <c r="D21">
         <f t="shared" ref="D21:D22" si="6">ROUNDDOWN(($C$3*E21)/B21,0)</f>
@@ -16164,19 +16605,19 @@
       </c>
       <c r="F21" s="8">
         <f t="shared" ref="F21:F23" si="7">C21/B21-1</f>
-        <v>1.0781957013574761E-2</v>
+        <v>2.722002262443457E-3</v>
       </c>
       <c r="G21">
         <f t="shared" ref="G21:G22" si="8">D21*C21</f>
-        <v>10865.34</v>
+        <v>10778.699999999999</v>
       </c>
       <c r="H21" s="8">
         <f t="shared" ref="H21:H23" si="9">G21/$G$27</f>
-        <v>0.36141216761681993</v>
+        <v>0.35960561386043144</v>
       </c>
       <c r="I21" s="8">
         <f t="shared" ref="I21:I23" si="10">G21/$F$31</f>
-        <v>0.10497547911376995</v>
+        <v>0.10606842632250954</v>
       </c>
       <c r="J21">
         <f t="shared" ref="J21:J23" si="11">B21*D21</f>
@@ -16193,7 +16634,7 @@
       </c>
       <c r="C22">
         <f>_xll.RealtimeData(A22,"Last")</f>
-        <v>81.150000000000006</v>
+        <v>81.760000000000005</v>
       </c>
       <c r="D22">
         <f t="shared" si="6"/>
@@ -16204,19 +16645,19 @@
       </c>
       <c r="F22" s="8">
         <f t="shared" si="7"/>
-        <v>-4.5387634936210342E-3</v>
+        <v>2.9440628066732533E-3</v>
       </c>
       <c r="G22">
         <f t="shared" si="8"/>
-        <v>11685.6</v>
+        <v>11773.44</v>
       </c>
       <c r="H22" s="8">
         <f t="shared" si="9"/>
-        <v>0.38869635242920247</v>
+        <v>0.39279274109576839</v>
       </c>
       <c r="I22" s="8">
         <f t="shared" si="10"/>
-        <v>0.11290042085492678</v>
+        <v>0.11585722333885227</v>
       </c>
       <c r="J22">
         <f t="shared" si="11"/>
@@ -16233,7 +16674,7 @@
       </c>
       <c r="C23">
         <f>_xll.RealtimeData(A23,"Last")</f>
-        <v>83.23</v>
+        <v>83.27</v>
       </c>
       <c r="D23">
         <f>ROUNDDOWN(($C$3*E23)/B23,0)</f>
@@ -16244,19 +16685,19 @@
       </c>
       <c r="F23" s="8">
         <f t="shared" si="7"/>
-        <v>2.0467132193595639E-3</v>
+        <v>2.5282928003851346E-3</v>
       </c>
       <c r="G23">
         <f>D23*C23</f>
-        <v>2913.05</v>
+        <v>2914.45</v>
       </c>
       <c r="H23" s="8">
         <f t="shared" si="9"/>
-        <v>9.6896343315181793E-2</v>
+        <v>9.723367208620097E-2</v>
       </c>
       <c r="I23" s="8">
         <f t="shared" si="10"/>
-        <v>2.8144431691264845E-2</v>
+        <v>2.867981529271971E-2</v>
       </c>
       <c r="J23">
         <f t="shared" si="11"/>
@@ -16272,7 +16713,7 @@
       </c>
       <c r="G27">
         <f>SUM(G20:G23)+J28</f>
-        <v>30063.570000000003</v>
+        <v>29973.670000000002</v>
       </c>
       <c r="J27">
         <f>SUM(J20:J23)</f>
@@ -16285,7 +16726,7 @@
       </c>
       <c r="G28" s="8">
         <f>G27/J27-1</f>
-        <v>1.4105045568590491E-2</v>
+        <v>1.1072536668396138E-2</v>
       </c>
       <c r="I28" t="s">
         <v>26</v>
@@ -16301,7 +16742,7 @@
       </c>
       <c r="F31" s="75">
         <f>SUM(F13,G27)</f>
-        <v>103503.6</v>
+        <v>101620.24999999999</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
@@ -16310,11 +16751,11 @@
       </c>
       <c r="F33" s="8">
         <f>F31/B1-1</f>
-        <v>3.5036000000000067E-2</v>
+        <v>1.6202499999999898E-2</v>
       </c>
       <c r="H33" s="11">
         <f>F33-F37</f>
-        <v>5.5966172765875254E-3</v>
+        <v>-1.5604292600616965E-4</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
@@ -16327,16 +16768,16 @@
       </c>
       <c r="C37">
         <f>_xll.RealtimeData(A37,"Last")</f>
-        <v>38.14</v>
+        <v>37.71</v>
       </c>
       <c r="D37" s="8">
         <f>C37/B37-1</f>
-        <v>-3.136434918975417E-3</v>
+        <v>-1.4375326711970615E-2</v>
       </c>
       <c r="E37" s="11"/>
       <c r="F37" s="8">
         <f>D37*$B$3+D40*$B$2</f>
-        <v>2.9439382723412542E-2</v>
+        <v>1.6358542926006067E-2</v>
       </c>
       <c r="H37" s="8"/>
       <c r="I37" s="8"/>
@@ -16351,11 +16792,11 @@
       </c>
       <c r="C38">
         <f>_xll.RealtimeData(A38,"Last")</f>
-        <v>285.93</v>
+        <v>283.64999999999998</v>
       </c>
       <c r="D38" s="8">
         <f t="shared" ref="D38:D39" si="12">C38/B38-1</f>
-        <v>4.8399516004839827E-2</v>
+        <v>4.0039599604003717E-2</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
@@ -16368,11 +16809,11 @@
       </c>
       <c r="C39">
         <f>_xll.RealtimeData(A39,"Last")</f>
-        <v>181.45</v>
+        <v>179.23</v>
       </c>
       <c r="D39" s="8">
         <f t="shared" si="12"/>
-        <v>6.6913623801963862E-2</v>
+        <v>5.3860175221967399E-2</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
@@ -16385,11 +16826,11 @@
       </c>
       <c r="C40">
         <f>_xll.RealtimeData(A40,"Last")</f>
-        <v>46.64</v>
+        <v>46.02</v>
       </c>
       <c r="D40" s="8">
         <f>C40/B40-1</f>
-        <v>4.3400447427293098E-2</v>
+        <v>2.9530201342281792E-2</v>
       </c>
     </row>
   </sheetData>

--- a/Portfolio.xlsx
+++ b/Portfolio.xlsx
@@ -844,7 +844,7 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="76">
+  <cellXfs count="77">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1009,6 +1009,7 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="10" fontId="0" fillId="3" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -1031,149 +1032,342 @@
 <file path=xl/volatileDependencies.xml><?xml version="1.0" encoding="utf-8"?>
 <volTypes xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <volType type="realTimeData">
-    <main first="rtdsrv.e2833b3c48004c488c9731ae0bf5c0ec">
+    <main first="rtdsrv.e8774570e22448968e819133d388f0d6">
       <tp>
-        <v>0</v>
+        <v>3.71</v>
+        <stp/>
+        <stp>RWX</stp>
+        <stp>dividend yield</stp>
+        <tr r="M6" s="1"/>
+      </tp>
+      <tp>
+        <v>1.87</v>
+        <stp/>
+        <stp>SHY</stp>
+        <stp>dividend yield</stp>
+        <tr r="M12" s="1"/>
+      </tp>
+      <tp>
+        <v>2.73</v>
+        <stp/>
+        <stp>TLT</stp>
+        <stp>dividend yield</stp>
+        <tr r="M5" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.e8774570e22448968e819133d388f0d6">
+      <tp t="s">
+        <v>--</v>
+        <stp/>
+        <stp>DBC</stp>
+        <stp>dividend yield</stp>
+        <tr r="M2" s="1"/>
+      </tp>
+      <tp>
+        <v>1.62</v>
+        <stp/>
+        <stp>EWJ</stp>
+        <stp>dividend yield</stp>
+        <tr r="M7" s="1"/>
+      </tp>
+      <tp>
+        <v>1.39</v>
+        <stp/>
+        <stp>EEM</stp>
+        <stp>dividend yield</stp>
+        <tr r="M10" s="1"/>
+      </tp>
+      <tp>
+        <v>1.79</v>
+        <stp/>
+        <stp>IVV</stp>
+        <stp>dividend yield</stp>
+        <tr r="M3" s="1"/>
+      </tp>
+      <tp>
+        <v>0.49</v>
+        <stp/>
+        <stp>IYR</stp>
+        <stp>dividend yield</stp>
+        <tr r="M4" s="1"/>
+      </tp>
+      <tp>
+        <v>2.2200000000000002</v>
+        <stp/>
+        <stp>IEF</stp>
+        <stp>dividend yield</stp>
+        <tr r="M11" s="1"/>
+      </tp>
+      <tp>
+        <v>4.82</v>
+        <stp/>
+        <stp>IEV</stp>
+        <stp>dividend yield</stp>
+        <tr r="M9" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.e8774570e22448968e819133d388f0d6">
+      <tp>
+        <v>1.7921146953405675E-3</v>
+        <stp/>
+        <stp>DBC</stp>
+        <stp>change in percent</stp>
+        <tr r="L2" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.e8774570e22448968e819133d388f0d6">
+      <tp>
+        <v>1.2361838278068586E-2</v>
+        <stp/>
+        <stp>GYLD</stp>
+        <stp>change in percent</stp>
+        <tr r="K26" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.e8774570e22448968e819133d388f0d6">
+      <tp>
+        <v>7.5187969924810419E-4</v>
+        <stp/>
+        <stp>AGG</stp>
+        <stp>change in percent</stp>
+        <tr r="K23" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.e8774570e22448968e819133d388f0d6">
+      <tp>
+        <v>9.7599063049003522E-4</v>
+        <stp/>
+        <stp>IEF</stp>
+        <stp>change in percent</stp>
+        <tr r="L11" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.e8774570e22448968e819133d388f0d6">
+      <tp>
+        <v>4.5904590459046359E-3</v>
+        <stp/>
+        <stp>GLD</stp>
+        <stp>change in percent</stp>
+        <tr r="L8" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.e8774570e22448968e819133d388f0d6">
+      <tp>
+        <v>2.6304859476671467E-3</v>
         <stp/>
         <stp>ACWI</stp>
         <stp>change in percent</stp>
         <tr r="K22" s="1"/>
       </tp>
     </main>
-    <main first="rtdsrv.e2833b3c48004c488c9731ae0bf5c0ec">
+    <main first="rtdsrv.e8774570e22448968e819133d388f0d6">
       <tp>
-        <v>-5.2173913000000001</v>
+        <v>3.1578947368421052E-3</v>
+        <stp/>
+        <stp>EWJ</stp>
+        <stp>change in percent</stp>
+        <tr r="L7" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.e8774570e22448968e819133d388f0d6">
+      <tp>
+        <v>-3.0658329000000002</v>
+        <stp/>
+        <stp>GLD</stp>
+        <stp>mtd percent change</stp>
+        <tr r="U8" s="1"/>
+      </tp>
+      <tp>
+        <v>-1.35294118</v>
+        <stp/>
+        <stp>DBC</stp>
+        <stp>mtd percent change</stp>
+        <tr r="U2" s="1"/>
+      </tp>
+      <tp>
+        <v>-2.9451706</v>
+        <stp/>
+        <stp>EWJ</stp>
+        <stp>mtd percent change</stp>
+        <tr r="U7" s="1"/>
+      </tp>
+      <tp>
+        <v>-5.8816914100000002</v>
+        <stp/>
+        <stp>EEM</stp>
+        <stp>mtd percent change</stp>
+        <tr r="U10" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.e8774570e22448968e819133d388f0d6">
+      <tp>
+        <v>1.27262443</v>
+        <stp/>
+        <stp>IVV</stp>
+        <stp>mtd percent change</stp>
+        <tr r="U3" s="1"/>
+      </tp>
+      <tp>
+        <v>1.6315014699999999</v>
+        <stp/>
+        <stp>IYR</stp>
+        <stp>mtd percent change</stp>
+        <tr r="U4" s="1"/>
+      </tp>
+      <tp>
+        <v>-4.0217391300000003</v>
         <stp/>
         <stp>IEV</stp>
         <stp>mtd percent change</stp>
         <tr r="U9" s="1"/>
       </tp>
       <tp>
-        <v>1.13479376</v>
+        <v>1.20386817</v>
         <stp/>
         <stp>IEF</stp>
         <stp>mtd percent change</stp>
         <tr r="U11" s="1"/>
       </tp>
       <tp>
-        <v>0.27220022999999999</v>
-        <stp/>
-        <stp>IVV</stp>
-        <stp>mtd percent change</stp>
-        <tr r="U3" s="1"/>
-      </tp>
-      <tp>
-        <v>0.29440628000000002</v>
-        <stp/>
-        <stp>IYR</stp>
-        <stp>mtd percent change</stp>
-        <tr r="U4" s="1"/>
-      </tp>
-      <tp>
-        <v>-3.43060622</v>
-        <stp/>
-        <stp>GLD</stp>
-        <stp>mtd percent change</stp>
-        <tr r="U8" s="1"/>
-      </tp>
-      <tp>
-        <v>-2.29411765</v>
-        <stp/>
-        <stp>DBC</stp>
-        <stp>mtd percent change</stp>
-        <tr r="U2" s="1"/>
-      </tp>
-      <tp>
-        <v>-6.6351776899999999</v>
-        <stp/>
-        <stp>EEM</stp>
-        <stp>mtd percent change</stp>
-        <tr r="U10" s="1"/>
-      </tp>
-      <tp>
-        <v>-3.7684603600000002</v>
-        <stp/>
-        <stp>EWJ</stp>
-        <stp>mtd percent change</stp>
-        <tr r="U7" s="1"/>
-      </tp>
-      <tp>
-        <v>-3.0886075900000001</v>
+        <v>-1.9582278500000001</v>
         <stp/>
         <stp>RWX</stp>
         <stp>mtd percent change</stp>
         <tr r="U6" s="1"/>
       </tp>
       <tp>
-        <v>0.25282927999999999</v>
+        <v>0.26486876999999998</v>
         <stp/>
         <stp>SHY</stp>
         <stp>mtd percent change</stp>
         <tr r="U12" s="1"/>
       </tp>
       <tp>
-        <v>2.0091169999999998</v>
+        <v>2.23704204</v>
         <stp/>
         <stp>TLT</stp>
         <stp>mtd percent change</stp>
         <tr r="U5" s="1"/>
       </tp>
     </main>
-    <main first="rtdsrv.e2833b3c48004c488c9731ae0bf5c0ec">
+    <main first="rtdsrv.e8774570e22448968e819133d388f0d6">
       <tp>
-        <v>0</v>
+        <v>1.795547043332432E-3</v>
         <stp/>
-        <stp>GYLD</stp>
+        <stp>EEM</stp>
         <stp>change in percent</stp>
-        <tr r="K26" s="1"/>
+        <tr r="L10" s="1"/>
       </tp>
     </main>
-    <main first="rtdsrv.e2833b3c48004c488c9731ae0bf5c0ec">
+    <main first="rtdsrv.e8774570e22448968e819133d388f0d6">
       <tp>
-        <v>56.69</v>
+        <v>5.2717786944916278E-3</v>
+        <stp/>
+        <stp>IYR</stp>
+        <stp>change in percent</stp>
+        <tr r="L4" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.e8774570e22448968e819133d388f0d6">
+      <tp>
+        <v>5.4657253473013442E-3</v>
+        <stp/>
+        <stp>IEV</stp>
+        <stp>change in percent</stp>
+        <tr r="L9" s="1"/>
+      </tp>
+      <tp>
+        <v>1.3282069206570954E-3</v>
+        <stp/>
+        <stp>IVV</stp>
+        <stp>change in percent</stp>
+        <tr r="K24" s="1"/>
+        <tr r="L3" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.e8774570e22448968e819133d388f0d6">
+      <tp>
+        <v>2.3173053049739389E-3</v>
+        <stp/>
+        <stp>TLT</stp>
+        <stp>change in percent</stp>
+        <tr r="L5" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.e8774570e22448968e819133d388f0d6">
+      <tp>
+        <v>3.6036036036037354E-4</v>
+        <stp/>
+        <stp>SHY</stp>
+        <stp>change in percent</stp>
+        <tr r="L12" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.e8774570e22448968e819133d388f0d6">
+      <tp>
+        <v>4.5784695201038653E-3</v>
+        <stp/>
+        <stp>RWX</stp>
+        <stp>change in percent</stp>
+        <tr r="L6" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.e8774570e22448968e819133d388f0d6">
+      <tp>
+        <v>16.77</v>
+        <stp/>
+        <stp>DBC</stp>
+        <stp>last</stp>
+        <tr r="J2" s="1"/>
+        <tr r="C20" s="4"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.e8774570e22448968e819133d388f0d6">
+      <tp>
+        <v>38.061999999999998</v>
+        <stp/>
+        <stp>GAL</stp>
+        <stp>last</stp>
+        <tr r="C37" s="4"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.e8774570e22448968e819133d388f0d6">
+      <tp>
+        <v>521.35</v>
+        <stp/>
+        <stp>ISRG</stp>
+        <stp>last</stp>
+        <tr r="C8" s="4"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.e8774570e22448968e819133d388f0d6">
+      <tp t="s">
+        <v>ISHARES TR-MSCI EMG MKT ETF</v>
+        <stp/>
+        <stp>EEM</stp>
+        <stp>description</stp>
+        <tr r="B10" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.e8774570e22448968e819133d388f0d6">
+      <tp t="s">
+        <v>ISHARES INC-MSCI JPN ETF NEW</v>
         <stp/>
         <stp>EWJ</stp>
-        <stp>last</stp>
-        <tr r="J7" s="1"/>
+        <stp>description</stp>
+        <tr r="B7" s="1"/>
       </tp>
-      <tp>
-        <v>38.28</v>
+    </main>
+    <main first="rtdsrv.e8774570e22448968e819133d388f0d6">
+      <tp t="s">
+        <v>INVESCO DB COMMDY INDX TRCK-UNIT</v>
         <stp/>
-        <stp>RWX</stp>
-        <stp>last</stp>
-        <tr r="J6" s="1"/>
+        <stp>DBC</stp>
+        <stp>description</stp>
+        <tr r="B2" s="1"/>
       </tp>
-      <tp>
-        <v>283.64999999999998</v>
-        <stp/>
-        <stp>IVV</stp>
-        <stp>last</stp>
-        <tr r="J3" s="1"/>
-        <tr r="C21" s="4"/>
-        <tr r="C38" s="4"/>
-      </tp>
-      <tp>
-        <v>52.89</v>
-        <stp/>
-        <stp>STX</stp>
-        <stp>last</stp>
-        <tr r="C10" s="4"/>
-      </tp>
-      <tp>
-        <v>179.23</v>
-        <stp/>
-        <stp>QQQ</stp>
-        <stp>last</stp>
-        <tr r="C39" s="4"/>
-      </tp>
-      <tp>
-        <v>81.760000000000005</v>
-        <stp/>
-        <stp>IYR</stp>
-        <stp>last</stp>
-        <tr r="J4" s="1"/>
-        <tr r="C22" s="4"/>
-      </tp>
+    </main>
+    <main first="rtdsrv.e8774570e22448968e819133d388f0d6">
       <tp t="s">
         <v>ARROW ETF TR-ARROW DJ GLB YLD</v>
         <stp/>
@@ -1181,177 +1375,47 @@
         <stp>description</stp>
         <tr r="L26" s="1"/>
       </tp>
+    </main>
+    <main first="rtdsrv.e8774570e22448968e819133d388f0d6">
+      <tp t="s">
+        <v>SPDR GOLD TRUST-GOLD SHS</v>
+        <stp/>
+        <stp>GLD</stp>
+        <stp>description</stp>
+        <tr r="B8" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.e8774570e22448968e819133d388f0d6">
       <tp>
-        <v>41.51</v>
+        <v>102.56</v>
+        <stp/>
+        <stp>IEF</stp>
+        <stp>last</stp>
+        <tr r="J11" s="1"/>
+      </tp>
+      <tp>
+        <v>46.172199999999997</v>
+        <stp/>
+        <stp>QQQE</stp>
+        <stp>last</stp>
+        <tr r="C40" s="4"/>
+      </tp>
+      <tp>
+        <v>41.844999999999999</v>
         <stp/>
         <stp>EEM</stp>
         <stp>last</stp>
         <tr r="J10" s="1"/>
       </tp>
       <tp>
-        <v>102.49</v>
-        <stp/>
-        <stp>IEF</stp>
-        <stp>last</stp>
-        <tr r="J11" s="1"/>
-      </tp>
-      <tp>
-        <v>43.6</v>
+        <v>44.15</v>
         <stp/>
         <stp>IEV</stp>
         <stp>last</stp>
         <tr r="J9" s="1"/>
       </tp>
-      <tp>
-        <v>16.61</v>
-        <stp/>
-        <stp>DBC</stp>
-        <stp>last</stp>
-        <tr r="J2" s="1"/>
-        <tr r="C20" s="4"/>
-      </tp>
-      <tp>
-        <v>37.71</v>
-        <stp/>
-        <stp>GAL</stp>
-        <stp>last</stp>
-        <tr r="C37" s="4"/>
-      </tp>
-      <tp>
-        <v>111.19</v>
-        <stp/>
-        <stp>GLD</stp>
-        <stp>last</stp>
-        <tr r="J8" s="1"/>
-      </tp>
-      <tp>
-        <v>120.84</v>
-        <stp/>
-        <stp>TLT</stp>
-        <stp>last</stp>
-        <tr r="J5" s="1"/>
-      </tp>
-      <tp>
-        <v>83.27</v>
-        <stp/>
-        <stp>SHY</stp>
-        <stp>last</stp>
-        <tr r="J12" s="1"/>
-        <tr r="C23" s="4"/>
-      </tp>
     </main>
-    <main first="rtdsrv.e2833b3c48004c488c9731ae0bf5c0ec">
-      <tp>
-        <v>0</v>
-        <stp/>
-        <stp>EEM</stp>
-        <stp>change in percent</stp>
-        <tr r="L10" s="1"/>
-      </tp>
-      <tp>
-        <v>0</v>
-        <stp/>
-        <stp>EWJ</stp>
-        <stp>change in percent</stp>
-        <tr r="L7" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.e2833b3c48004c488c9731ae0bf5c0ec">
-      <tp>
-        <v>0</v>
-        <stp/>
-        <stp>IEF</stp>
-        <stp>change in percent</stp>
-        <tr r="L11" s="1"/>
-      </tp>
-      <tp>
-        <v>0</v>
-        <stp/>
-        <stp>AGG</stp>
-        <stp>change in percent</stp>
-        <tr r="K23" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.e2833b3c48004c488c9731ae0bf5c0ec">
-      <tp>
-        <v>0</v>
-        <stp/>
-        <stp>GLD</stp>
-        <stp>change in percent</stp>
-        <tr r="L8" s="1"/>
-      </tp>
-      <tp>
-        <v>0</v>
-        <stp/>
-        <stp>DBC</stp>
-        <stp>change in percent</stp>
-        <tr r="L2" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.e2833b3c48004c488c9731ae0bf5c0ec">
-      <tp>
-        <v>0</v>
-        <stp/>
-        <stp>RWX</stp>
-        <stp>change in percent</stp>
-        <tr r="L6" s="1"/>
-      </tp>
-      <tp>
-        <v>0</v>
-        <stp/>
-        <stp>SHY</stp>
-        <stp>change in percent</stp>
-        <tr r="L12" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.e2833b3c48004c488c9731ae0bf5c0ec">
-      <tp>
-        <v>0</v>
-        <stp/>
-        <stp>IVV</stp>
-        <stp>change in percent</stp>
-        <tr r="K24" s="1"/>
-        <tr r="L3" s="1"/>
-      </tp>
-      <tp>
-        <v>0</v>
-        <stp/>
-        <stp>IEV</stp>
-        <stp>change in percent</stp>
-        <tr r="L9" s="1"/>
-      </tp>
-      <tp>
-        <v>0</v>
-        <stp/>
-        <stp>TLT</stp>
-        <stp>change in percent</stp>
-        <tr r="L5" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.e2833b3c48004c488c9731ae0bf5c0ec">
-      <tp>
-        <v>0</v>
-        <stp/>
-        <stp>IYR</stp>
-        <stp>change in percent</stp>
-        <tr r="L4" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.e2833b3c48004c488c9731ae0bf5c0ec">
-      <tp t="s">
-        <v>ISHARES TR-CORE S&amp;P500 ETF</v>
-        <stp/>
-        <stp>IVV</stp>
-        <stp>description</stp>
-        <tr r="B3" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>ISHARES TR-U.S. REAL ES ETF</v>
-        <stp/>
-        <stp>IYR</stp>
-        <stp>description</stp>
-        <tr r="B4" s="1"/>
-      </tp>
+    <main first="rtdsrv.e8774570e22448968e819133d388f0d6">
       <tp t="s">
         <v>ISHARES TR-EUROPE ETF</v>
         <stp/>
@@ -1367,198 +1431,103 @@
         <tr r="B11" s="1"/>
       </tp>
     </main>
-    <main first="rtdsrv.e2833b3c48004c488c9731ae0bf5c0ec">
+    <main first="rtdsrv.e8774570e22448968e819133d388f0d6">
+      <tp t="s">
+        <v>ISHARES TR-CORE S&amp;P500 ETF</v>
+        <stp/>
+        <stp>IVV</stp>
+        <stp>description</stp>
+        <tr r="B3" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>ISHARES TR-U.S. REAL ES ETF</v>
+        <stp/>
+        <stp>IYR</stp>
+        <stp>description</stp>
+        <tr r="B4" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.e8774570e22448968e819133d388f0d6">
       <tp>
-        <v>1882.62</v>
+        <v>82.42</v>
+        <stp/>
+        <stp>IYR</stp>
+        <stp>close</stp>
+        <tr r="G4" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.e8774570e22448968e819133d388f0d6">
+      <tp>
+        <v>83.28</v>
+        <stp/>
+        <stp>SHY</stp>
+        <stp>last</stp>
+        <tr r="J12" s="1"/>
+        <tr r="C23" s="4"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.e8774570e22448968e819133d388f0d6">
+      <tp>
+        <v>120.83</v>
+        <stp/>
+        <stp>TLT</stp>
+        <stp>close</stp>
+        <tr r="G5" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.e8774570e22448968e819133d388f0d6">
+      <tp>
+        <v>1875.4999</v>
         <stp/>
         <stp>AMZN</stp>
         <stp>last</stp>
         <tr r="C6" s="4"/>
       </tp>
     </main>
-    <main first="rtdsrv.e2833b3c48004c488c9731ae0bf5c0ec">
+    <main first="rtdsrv.e8774570e22448968e819133d388f0d6">
       <tp>
-        <v>120.84</v>
-        <stp/>
-        <stp>TLT</stp>
-        <stp>close</stp>
-        <tr r="G5" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.e2833b3c48004c488c9731ae0bf5c0ec">
-      <tp>
-        <v>283.64999999999998</v>
+        <v>286.10000000000002</v>
         <stp/>
         <stp>IVV</stp>
         <stp>close</stp>
         <tr r="G3" s="1"/>
       </tp>
     </main>
-    <main first="rtdsrv.e2833b3c48004c488c9731ae0bf5c0ec">
+    <main first="rtdsrv.e8774570e22448968e819133d388f0d6">
       <tp>
-        <v>81.760000000000005</v>
+        <v>111.61</v>
         <stp/>
-        <stp>IYR</stp>
-        <stp>close</stp>
-        <tr r="G4" s="1"/>
+        <stp>GLD</stp>
+        <stp>last</stp>
+        <tr r="J8" s="1"/>
       </tp>
     </main>
-    <main first="rtdsrv.e2833b3c48004c488c9731ae0bf5c0ec">
+    <main first="rtdsrv.e8774570e22448968e819133d388f0d6">
       <tp>
-        <v>522.77</v>
+        <v>121.11</v>
         <stp/>
-        <stp>ISRG</stp>
+        <stp>TLT</stp>
         <stp>last</stp>
-        <tr r="C8" s="4"/>
+        <tr r="J5" s="1"/>
       </tp>
     </main>
-    <main first="rtdsrv.e2833b3c48004c488c9731ae0bf5c0ec">
+    <main first="rtdsrv.e8774570e22448968e819133d388f0d6">
       <tp>
-        <v>46.02</v>
+        <v>349.02</v>
         <stp/>
-        <stp>QQQE</stp>
+        <stp>ALGN</stp>
         <stp>last</stp>
-        <tr r="C40" s="4"/>
+        <tr r="C5" s="4"/>
       </tp>
     </main>
-    <main first="rtdsrv.e2833b3c48004c488c9731ae0bf5c0ec">
-      <tp t="s">
-        <v>ISHARES INC-MSCI JPN ETF NEW</v>
-        <stp/>
-        <stp>EWJ</stp>
-        <stp>description</stp>
-        <tr r="B7" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>ISHARES TR-MSCI EMG MKT ETF</v>
-        <stp/>
-        <stp>EEM</stp>
-        <stp>description</stp>
-        <tr r="B10" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.e2833b3c48004c488c9731ae0bf5c0ec">
-      <tp t="s">
-        <v>INVESCO DB COMMDY INDX TRCK-UNIT</v>
-        <stp/>
-        <stp>DBC</stp>
-        <stp>description</stp>
-        <tr r="B2" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.e2833b3c48004c488c9731ae0bf5c0ec">
-      <tp t="s">
-        <v>SPDR GOLD TRUST-GOLD SHS</v>
-        <stp/>
-        <stp>GLD</stp>
-        <stp>description</stp>
-        <tr r="B8" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.e2833b3c48004c488c9731ae0bf5c0ec">
+    <main first="rtdsrv.e8774570e22448968e819133d388f0d6">
       <tp>
-        <v>3.75</v>
-        <stp/>
-        <stp>RWX</stp>
-        <stp>dividend yield</stp>
-        <tr r="M6" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.e2833b3c48004c488c9731ae0bf5c0ec">
-      <tp>
-        <v>1.87</v>
-        <stp/>
-        <stp>SHY</stp>
-        <stp>dividend yield</stp>
-        <tr r="M12" s="1"/>
-      </tp>
-      <tp>
-        <v>2.73</v>
-        <stp/>
-        <stp>TLT</stp>
-        <stp>dividend yield</stp>
-        <tr r="M5" s="1"/>
-      </tp>
-      <tp>
-        <v>2.2200000000000002</v>
-        <stp/>
-        <stp>IEF</stp>
-        <stp>dividend yield</stp>
-        <tr r="M11" s="1"/>
-      </tp>
-      <tp>
-        <v>4.8499999999999996</v>
-        <stp/>
-        <stp>IEV</stp>
-        <stp>dividend yield</stp>
-        <tr r="M9" s="1"/>
-      </tp>
-      <tp>
-        <v>1.81</v>
-        <stp/>
-        <stp>IVV</stp>
-        <stp>dividend yield</stp>
-        <tr r="M3" s="1"/>
-      </tp>
-      <tp>
-        <v>0.49</v>
-        <stp/>
-        <stp>IYR</stp>
-        <stp>dividend yield</stp>
-        <tr r="M4" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>--</v>
-        <stp/>
-        <stp>DBC</stp>
-        <stp>dividend yield</stp>
-        <tr r="M2" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.e2833b3c48004c488c9731ae0bf5c0ec">
-      <tp>
-        <v>1.4</v>
-        <stp/>
-        <stp>EEM</stp>
-        <stp>dividend yield</stp>
-        <tr r="M10" s="1"/>
-      </tp>
-      <tp>
-        <v>1.62</v>
-        <stp/>
-        <stp>EWJ</stp>
-        <stp>dividend yield</stp>
-        <tr r="M7" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.e2833b3c48004c488c9731ae0bf5c0ec">
-      <tp>
-        <v>16.61</v>
-        <stp/>
-        <stp>DBC</stp>
-        <stp>close</stp>
-        <tr r="G2" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.e2833b3c48004c488c9731ae0bf5c0ec">
-      <tp>
-        <v>43.86</v>
-        <stp/>
-        <stp>CSCO</stp>
-        <stp>last</stp>
-        <tr r="C7" s="4"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.e2833b3c48004c488c9731ae0bf5c0ec">
-      <tp>
-        <v>47.49</v>
+        <v>47.189900000000002</v>
         <stp/>
         <stp>MU</stp>
         <stp>last</stp>
         <tr r="C9" s="4"/>
       </tp>
-    </main>
-    <main first="rtdsrv.e2833b3c48004c488c9731ae0bf5c0ec">
       <tp t="s">
         <v>ISHARES TR-1 3 YR TREAS BD</v>
         <stp/>
@@ -1567,7 +1536,16 @@
         <tr r="B12" s="1"/>
       </tp>
     </main>
-    <main first="rtdsrv.e2833b3c48004c488c9731ae0bf5c0ec">
+    <main first="rtdsrv.e8774570e22448968e819133d388f0d6">
+      <tp>
+        <v>179.33</v>
+        <stp/>
+        <stp>QQQ</stp>
+        <stp>last</stp>
+        <tr r="C39" s="4"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.e8774570e22448968e819133d388f0d6">
       <tp t="s">
         <v>SPDR INDEX SHS FDS-DJ INTL RL ETF</v>
         <stp/>
@@ -1576,22 +1554,75 @@
         <tr r="B6" s="1"/>
       </tp>
     </main>
-    <main first="rtdsrv.e2833b3c48004c488c9731ae0bf5c0ec">
+    <main first="rtdsrv.e8774570e22448968e819133d388f0d6">
       <tp>
-        <v>350.45</v>
+        <v>286.48</v>
         <stp/>
-        <stp>ALGN</stp>
+        <stp>IVV</stp>
         <stp>last</stp>
-        <tr r="C5" s="4"/>
+        <tr r="J3" s="1"/>
+        <tr r="C21" s="4"/>
+        <tr r="C38" s="4"/>
       </tp>
     </main>
-    <main first="rtdsrv.e2833b3c48004c488c9731ae0bf5c0ec">
+    <main first="rtdsrv.e8774570e22448968e819133d388f0d6">
+      <tp>
+        <v>45.720999999999997</v>
+        <stp/>
+        <stp>CSCO</stp>
+        <stp>last</stp>
+        <tr r="C7" s="4"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.e8774570e22448968e819133d388f0d6">
       <tp t="s">
         <v>ISHARES TR-20 YR TR BD ETF</v>
         <stp/>
         <stp>TLT</stp>
         <stp>description</stp>
         <tr r="B5" s="1"/>
+      </tp>
+      <tp>
+        <v>57.18</v>
+        <stp/>
+        <stp>EWJ</stp>
+        <stp>last</stp>
+        <tr r="J7" s="1"/>
+      </tp>
+      <tp>
+        <v>38.726500000000001</v>
+        <stp/>
+        <stp>RWX</stp>
+        <stp>last</stp>
+        <tr r="J6" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.e8774570e22448968e819133d388f0d6">
+      <tp>
+        <v>53.81</v>
+        <stp/>
+        <stp>STX</stp>
+        <stp>last</stp>
+        <tr r="C10" s="4"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.e8774570e22448968e819133d388f0d6">
+      <tp>
+        <v>16.739999999999998</v>
+        <stp/>
+        <stp>DBC</stp>
+        <stp>close</stp>
+        <tr r="G2" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.e8774570e22448968e819133d388f0d6">
+      <tp>
+        <v>82.854500000000002</v>
+        <stp/>
+        <stp>IYR</stp>
+        <stp>last</stp>
+        <tr r="J4" s="1"/>
+        <tr r="C22" s="4"/>
       </tp>
     </main>
   </volType>
@@ -1865,7 +1896,7 @@
   <dimension ref="A1:V46"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="R28" sqref="R28"/>
+      <selection activeCell="P25" sqref="P25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1965,34 +1996,34 @@
       </c>
       <c r="E2" s="5">
         <f>G2/D2-1</f>
-        <v>-6.8257879517609976E-2</v>
+        <v>-6.0965496876868919E-2</v>
       </c>
       <c r="F2" s="5">
         <f>I2/$I$21</f>
-        <v>0.14691454626685499</v>
+        <v>0.14710906304752591</v>
       </c>
       <c r="G2" s="4">
         <f>_xll.RealtimeData(A2,"Close")</f>
-        <v>16.61</v>
+        <v>16.739999999999998</v>
       </c>
       <c r="H2" s="4">
         <v>176</v>
       </c>
       <c r="I2" s="4">
         <f>H2*G2</f>
-        <v>2923.3599999999997</v>
+        <v>2946.24</v>
       </c>
       <c r="J2" s="4">
         <f>_xll.RealtimeData(A2,"Last")</f>
-        <v>16.61</v>
+        <v>16.77</v>
       </c>
       <c r="K2" s="5">
         <f>J2/D2-1</f>
-        <v>-6.8257879517609976E-2</v>
+        <v>-5.9282639344390042E-2</v>
       </c>
       <c r="L2" s="8">
         <f>_xll.RealtimeData(A2,"Change in Percent")</f>
-        <v>0</v>
+        <v>1.7921146953405675E-3</v>
       </c>
       <c r="M2" s="29" t="str">
         <f>_xll.RealtimeData(A2,"Dividend Yield")</f>
@@ -2007,7 +2038,7 @@
       </c>
       <c r="P2" s="60">
         <f t="shared" ref="P2:P12" si="1">O2-F2</f>
-        <v>-4.9145462668550022E-3</v>
+        <v>-5.1090630475259247E-3</v>
       </c>
       <c r="Q2" s="31">
         <f>O2*Daily!$D$68</f>
@@ -2015,11 +2046,11 @@
       </c>
       <c r="R2">
         <f t="shared" ref="R2:R11" si="2">ROUND(Q2/J2,0)</f>
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="S2">
         <f t="shared" ref="S2:S11" si="3">R2-H2</f>
-        <v>-6</v>
+        <v>-8</v>
       </c>
       <c r="T2" t="str">
         <f t="shared" ref="T2:T12" si="4">A2</f>
@@ -2027,7 +2058,7 @@
       </c>
       <c r="U2">
         <f>_xll.RealtimeData(T2,"MTD Percent Change")</f>
-        <v>-2.29411765</v>
+        <v>-1.35294118</v>
       </c>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.25">
@@ -2046,38 +2077,38 @@
       </c>
       <c r="E3" s="5">
         <f>G3/D3-1</f>
-        <v>6.4914147984209025E-2</v>
+        <v>7.4112243039951675E-2</v>
       </c>
       <c r="F3" s="5">
         <f>I3/$I$21</f>
-        <v>0.41339315732896703</v>
+        <v>0.41427350969337801</v>
       </c>
       <c r="G3" s="4">
         <f>_xll.RealtimeData(A3,"Close")</f>
-        <v>283.64999999999998</v>
+        <v>286.10000000000002</v>
       </c>
       <c r="H3" s="4">
         <v>29</v>
       </c>
       <c r="I3" s="4">
         <f>H3*G3</f>
-        <v>8225.8499999999985</v>
+        <v>8296.9000000000015</v>
       </c>
       <c r="J3" s="4">
         <f>_xll.RealtimeData(A3,"Last")</f>
-        <v>283.64999999999998</v>
+        <v>286.48</v>
       </c>
       <c r="K3" s="5">
         <f>J3/D3-1</f>
-        <v>6.4914147984209025E-2</v>
+        <v>7.5538886354719725E-2</v>
       </c>
       <c r="L3" s="8">
         <f>_xll.RealtimeData(A3,"Change in Percent")</f>
-        <v>0</v>
+        <v>1.3282069206570954E-3</v>
       </c>
       <c r="M3" s="29">
         <f>_xll.RealtimeData(A3,"Dividend Yield")</f>
-        <v>1.81</v>
+        <v>1.79</v>
       </c>
       <c r="N3" s="4" t="str">
         <f t="shared" si="0"/>
@@ -2088,7 +2119,7 @@
       </c>
       <c r="P3" s="60">
         <f t="shared" si="1"/>
-        <v>-4.7393157328967039E-2</v>
+        <v>-4.8273509693378014E-2</v>
       </c>
       <c r="Q3" s="31">
         <f>O3*Daily!$D$68</f>
@@ -2096,11 +2127,11 @@
       </c>
       <c r="R3">
         <f t="shared" si="2"/>
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="S3">
         <f t="shared" si="3"/>
-        <v>-3</v>
+        <v>-4</v>
       </c>
       <c r="T3" t="str">
         <f t="shared" si="4"/>
@@ -2108,7 +2139,7 @@
       </c>
       <c r="U3">
         <f>_xll.RealtimeData(T3,"MTD Percent Change")</f>
-        <v>0.27220022999999999</v>
+        <v>1.27262443</v>
       </c>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.25">
@@ -2127,34 +2158,34 @@
       </c>
       <c r="E4" s="5">
         <f>G4/D4-1</f>
-        <v>4.2458243019252828E-2</v>
+        <v>5.0873390284329911E-2</v>
       </c>
       <c r="F4" s="5">
         <f>I4/$I$21</f>
-        <v>0.22187948058057014</v>
+        <v>0.22222743725031316</v>
       </c>
       <c r="G4" s="4">
         <f>_xll.RealtimeData(A4,"Close")</f>
-        <v>81.760000000000005</v>
+        <v>82.42</v>
       </c>
       <c r="H4" s="4">
         <v>54</v>
       </c>
       <c r="I4" s="4">
         <f>H4*G4</f>
-        <v>4415.04</v>
+        <v>4450.68</v>
       </c>
       <c r="J4" s="4">
         <f>_xll.RealtimeData(A4,"Last")</f>
-        <v>81.760000000000005</v>
+        <v>82.854500000000002</v>
       </c>
       <c r="K4" s="5">
         <f>J4/D4-1</f>
-        <v>4.2458243019252828E-2</v>
+        <v>5.6413362233838971E-2</v>
       </c>
       <c r="L4" s="8">
         <f t="array" ref="L4">_xll.RealtimeData(A4,"Change in Percent")</f>
-        <v>0</v>
+        <v>5.2717786944916278E-3</v>
       </c>
       <c r="M4" s="29">
         <f>_xll.RealtimeData(A4,"Dividend Yield")</f>
@@ -2169,7 +2200,7 @@
       </c>
       <c r="P4" s="60">
         <f t="shared" si="1"/>
-        <v>0.17112051941942988</v>
+        <v>0.17077256274968686</v>
       </c>
       <c r="Q4" s="31">
         <f>O4*Daily!$D$68</f>
@@ -2177,11 +2208,11 @@
       </c>
       <c r="R4">
         <f t="shared" si="2"/>
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="S4">
         <f t="shared" si="3"/>
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="T4" t="str">
         <f t="shared" si="4"/>
@@ -2189,7 +2220,7 @@
       </c>
       <c r="U4">
         <f>_xll.RealtimeData(T4,"MTD Percent Change")</f>
-        <v>0.29440628000000002</v>
+        <v>1.6315014699999999</v>
       </c>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.25">
@@ -2208,34 +2239,34 @@
       </c>
       <c r="E5" s="5">
         <f>G5/D5-1</f>
-        <v>-1.1887765365047098E-2</v>
+        <v>-1.1969535659207664E-2</v>
       </c>
       <c r="F5" s="5">
         <f>I5/$I$21</f>
-        <v>0.2125500731969503</v>
+        <v>0.21116120312029552</v>
       </c>
       <c r="G5" s="4">
         <f>_xll.RealtimeData(A5,"Close")</f>
-        <v>120.84</v>
+        <v>120.83</v>
       </c>
       <c r="H5" s="4">
         <v>35</v>
       </c>
       <c r="I5" s="4">
         <f>H5*G5</f>
-        <v>4229.4000000000005</v>
+        <v>4229.05</v>
       </c>
       <c r="J5" s="31">
         <f>_xll.RealtimeData(A5,"Last")</f>
-        <v>120.84</v>
+        <v>121.11</v>
       </c>
       <c r="K5" s="5">
         <f>J5/D5-1</f>
-        <v>-1.1887765365047098E-2</v>
+        <v>-9.6799674227148191E-3</v>
       </c>
       <c r="L5" s="8">
         <f t="array" ref="L5">_xll.RealtimeData(A5,"Change in Percent")</f>
-        <v>0</v>
+        <v>2.3173053049739389E-3</v>
       </c>
       <c r="M5" s="29">
         <f>_xll.RealtimeData(A5,"Dividend Yield")</f>
@@ -2250,7 +2281,7 @@
       </c>
       <c r="P5" s="60">
         <f t="shared" si="1"/>
-        <v>-0.2125500731969503</v>
+        <v>-0.21116120312029552</v>
       </c>
       <c r="Q5" s="31">
         <f>O5*Daily!$D$68</f>
@@ -2270,7 +2301,7 @@
       </c>
       <c r="U5">
         <f>_xll.RealtimeData(T5,"MTD Percent Change")</f>
-        <v>2.0091169999999998</v>
+        <v>2.23704204</v>
       </c>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.25">
@@ -2290,16 +2321,16 @@
       <c r="I6" s="4"/>
       <c r="J6" s="31">
         <f>_xll.RealtimeData(A6,"Last")</f>
-        <v>38.28</v>
+        <v>38.726500000000001</v>
       </c>
       <c r="K6" s="5"/>
       <c r="L6" s="8">
         <f>_xll.RealtimeData(A6,"Change in Percent")</f>
-        <v>0</v>
+        <v>4.5784695201038653E-3</v>
       </c>
       <c r="M6" s="29">
         <f>_xll.RealtimeData(A6,"Dividend Yield")</f>
-        <v>3.75</v>
+        <v>3.71</v>
       </c>
       <c r="N6" s="4" t="str">
         <f t="shared" si="0"/>
@@ -2330,7 +2361,7 @@
       </c>
       <c r="U6">
         <f>_xll.RealtimeData(T6,"MTD Percent Change")</f>
-        <v>-3.0886075900000001</v>
+        <v>-1.9582278500000001</v>
       </c>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.25">
@@ -2350,12 +2381,12 @@
       <c r="I7" s="4"/>
       <c r="J7" s="31">
         <f>_xll.RealtimeData(A7,"Last")</f>
-        <v>56.69</v>
+        <v>57.18</v>
       </c>
       <c r="K7" s="5"/>
       <c r="L7" s="8">
         <f>_xll.RealtimeData(A7,"Change in Percent")</f>
-        <v>0</v>
+        <v>3.1578947368421052E-3</v>
       </c>
       <c r="M7" s="29">
         <f>_xll.RealtimeData(A7,"Dividend Yield")</f>
@@ -2390,7 +2421,7 @@
       </c>
       <c r="U7">
         <f>_xll.RealtimeData(T7,"MTD Percent Change")</f>
-        <v>-3.7684603600000002</v>
+        <v>-2.9451706</v>
       </c>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.25">
@@ -2410,12 +2441,12 @@
       <c r="I8" s="4"/>
       <c r="J8" s="31">
         <f>_xll.RealtimeData(A8,"Last")</f>
-        <v>111.19</v>
+        <v>111.61</v>
       </c>
       <c r="K8" s="5"/>
       <c r="L8" s="8">
         <f>_xll.RealtimeData(A8,"Change in Percent")</f>
-        <v>0</v>
+        <v>4.5904590459046359E-3</v>
       </c>
       <c r="M8" s="29">
         <v>0</v>
@@ -2449,7 +2480,7 @@
       </c>
       <c r="U8">
         <f>_xll.RealtimeData(T8,"MTD Percent Change")</f>
-        <v>-3.43060622</v>
+        <v>-3.0658329000000002</v>
       </c>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.25">
@@ -2469,16 +2500,16 @@
       <c r="I9" s="4"/>
       <c r="J9" s="31">
         <f>_xll.RealtimeData(A9,"Last")</f>
-        <v>43.6</v>
+        <v>44.15</v>
       </c>
       <c r="K9" s="5"/>
       <c r="L9" s="8">
         <f>_xll.RealtimeData(A9,"Change in Percent")</f>
-        <v>0</v>
+        <v>5.4657253473013442E-3</v>
       </c>
       <c r="M9" s="29">
         <f>_xll.RealtimeData(A9,"Dividend Yield")</f>
-        <v>4.8499999999999996</v>
+        <v>4.82</v>
       </c>
       <c r="N9" s="4" t="str">
         <f t="shared" si="0"/>
@@ -2509,7 +2540,7 @@
       </c>
       <c r="U9">
         <f>_xll.RealtimeData(T9,"MTD Percent Change")</f>
-        <v>-5.2173913000000001</v>
+        <v>-4.0217391300000003</v>
       </c>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.25">
@@ -2523,16 +2554,16 @@
       <c r="G10" s="4"/>
       <c r="J10" s="31">
         <f>_xll.RealtimeData(A10,"Last")</f>
-        <v>41.51</v>
+        <v>41.844999999999999</v>
       </c>
       <c r="K10" s="5"/>
       <c r="L10" s="8">
         <f t="array" ref="L10">_xll.RealtimeData(A10,"Change in Percent")</f>
-        <v>0</v>
+        <v>1.795547043332432E-3</v>
       </c>
       <c r="M10" s="29">
         <f>_xll.RealtimeData(A10,"Dividend Yield")</f>
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="N10" s="4" t="str">
         <f t="shared" si="0"/>
@@ -2563,7 +2594,7 @@
       </c>
       <c r="U10">
         <f>_xll.RealtimeData(T10,"MTD Percent Change")</f>
-        <v>-6.6351776899999999</v>
+        <v>-5.8816914100000002</v>
       </c>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.25">
@@ -2577,12 +2608,12 @@
       <c r="G11" s="4"/>
       <c r="J11" s="31">
         <f>_xll.RealtimeData(A11,"Last")</f>
-        <v>102.49</v>
+        <v>102.56</v>
       </c>
       <c r="K11" s="5"/>
       <c r="L11" s="8">
         <f t="array" ref="L11">_xll.RealtimeData(A11,"Change in Percent")</f>
-        <v>0</v>
+        <v>9.7599063049003522E-4</v>
       </c>
       <c r="M11" s="29">
         <f>_xll.RealtimeData(A11,"Dividend Yield")</f>
@@ -2617,7 +2648,7 @@
       </c>
       <c r="U11">
         <f>_xll.RealtimeData(T11,"MTD Percent Change")</f>
-        <v>1.13479376</v>
+        <v>1.20386817</v>
       </c>
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.25">
@@ -2630,11 +2661,11 @@
       </c>
       <c r="J12" s="31">
         <f>_xll.RealtimeData(A12,"Last")</f>
-        <v>83.27</v>
+        <v>83.28</v>
       </c>
       <c r="L12" s="8">
         <f t="array" ref="L12">_xll.RealtimeData(A12,"Change in Percent")</f>
-        <v>0</v>
+        <v>3.6036036036037354E-4</v>
       </c>
       <c r="M12" s="29">
         <f>_xll.RealtimeData(A12,"Dividend Yield")</f>
@@ -2669,7 +2700,7 @@
       </c>
       <c r="U12">
         <f>_xll.RealtimeData(T12,"MTD Percent Change")</f>
-        <v>0.25282927999999999</v>
+        <v>0.26486876999999998</v>
       </c>
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.25">
@@ -2686,11 +2717,11 @@
     <row r="14" spans="1:22" x14ac:dyDescent="0.25">
       <c r="U14" s="29">
         <f t="array" ref="U14">MMULT(TRANSPOSE(O2:O12),U2:U12)</f>
-        <v>-8.5407655359999973E-2</v>
+        <v>0.94106497976000003</v>
       </c>
       <c r="V14" s="8">
         <f>U14*0.01</f>
-        <v>-8.5407655359999977E-4</v>
+        <v>9.4106497976E-3</v>
       </c>
     </row>
     <row r="19" spans="5:16" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
@@ -2700,7 +2731,7 @@
       </c>
       <c r="F20" s="11">
         <f>SUM(F2:F5)</f>
-        <v>0.99473725737334251</v>
+        <v>0.99477121311151251</v>
       </c>
       <c r="H20" s="2" t="s">
         <v>14</v>
@@ -2719,32 +2750,32 @@
       </c>
       <c r="F21" s="11">
         <f>1-F20</f>
-        <v>5.2627426266574906E-3</v>
+        <v>5.2287868884874911E-3</v>
       </c>
       <c r="H21" s="2" t="s">
         <v>16</v>
       </c>
       <c r="I21" s="6">
         <f>SUM(I2:I20)</f>
-        <v>19898.370000000003</v>
+        <v>20027.590000000004</v>
       </c>
       <c r="J21" t="s">
         <v>33</v>
       </c>
       <c r="K21" s="8">
         <f>SUMPRODUCT(K2:K7,F2:F7)</f>
-        <v>2.3700856701031149E-2</v>
+        <v>3.3065309388315256E-2</v>
       </c>
       <c r="M21" t="s">
         <v>34</v>
       </c>
-      <c r="N21" s="8">
+      <c r="N21" s="76">
         <f t="array" ref="N21">MMULT(TRANSPOSE(F2:F5),L2:L5)</f>
-        <v>0</v>
+        <v>2.4747361015479185E-3</v>
       </c>
       <c r="P21" s="8">
         <f>SUMPRODUCT(L2:L12,O2:O12)</f>
-        <v>0</v>
+        <v>2.8480887223097441E-3</v>
       </c>
     </row>
     <row r="22" spans="5:16" x14ac:dyDescent="0.25">
@@ -2759,7 +2790,7 @@
       </c>
       <c r="K22" s="8">
         <f>_xll.RealtimeData(J22,"Change in Percent")</f>
-        <v>0</v>
+        <v>2.6304859476671467E-3</v>
       </c>
       <c r="L22" s="12">
         <v>0.6</v>
@@ -2771,7 +2802,7 @@
       </c>
       <c r="K23" s="8">
         <f>_xll.RealtimeData(J23,"Change in Percent")</f>
-        <v>0</v>
+        <v>7.5187969924810419E-4</v>
       </c>
       <c r="L23" s="12">
         <v>0.4</v>
@@ -2783,7 +2814,7 @@
       </c>
       <c r="K24" s="8">
         <f>_xll.RealtimeData(J24,"Change in Percent")</f>
-        <v>0</v>
+        <v>1.3282069206570954E-3</v>
       </c>
     </row>
     <row r="25" spans="5:16" x14ac:dyDescent="0.25">
@@ -2792,7 +2823,7 @@
       </c>
       <c r="K25" s="8">
         <f t="array" ref="K25">SUMPRODUCT(K22:K23,L22:L23)</f>
-        <v>0</v>
+        <v>1.8790434482995298E-3</v>
       </c>
     </row>
     <row r="26" spans="5:16" x14ac:dyDescent="0.25">
@@ -2801,14 +2832,14 @@
       </c>
       <c r="I26" s="6">
         <f>SUM(I2:I18)</f>
-        <v>19793.650000000001</v>
+        <v>19922.870000000003</v>
       </c>
       <c r="J26" t="s">
         <v>56</v>
       </c>
       <c r="K26" s="8">
         <f>_xll.RealtimeData(J26,"Change in Percent")</f>
-        <v>0</v>
+        <v>1.2361838278068586E-2</v>
       </c>
       <c r="L26" t="str">
         <f>_xll.RealtimeData(J26,"Description")</f>
@@ -2821,7 +2852,7 @@
       </c>
       <c r="K27" s="8">
         <f>AVERAGE(L2:L11)</f>
-        <v>0</v>
+        <v>3.1273491939437653E-3</v>
       </c>
     </row>
     <row r="28" spans="5:16" x14ac:dyDescent="0.25">
@@ -2830,20 +2861,20 @@
       </c>
       <c r="K28" s="8">
         <f>SUMPRODUCT(F2:F7,M2:M7)*0.01</f>
-        <v>1.4372242600775839E-2</v>
+        <v>1.4269111111222069E-2</v>
       </c>
       <c r="L28" t="s">
         <v>65</v>
       </c>
       <c r="M28" s="8">
         <f>AVERAGE(M2:M11)*0.01</f>
-        <v>2.0966666666666661E-2</v>
+        <v>2.0855555555555558E-2</v>
       </c>
     </row>
     <row r="29" spans="5:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="30" spans="5:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H30" s="30">
-        <v>43327</v>
+        <v>43328</v>
       </c>
       <c r="I30" s="15" t="s">
         <v>61</v>
@@ -2864,19 +2895,19 @@
       </c>
       <c r="I31" s="21">
         <f>$N$21</f>
-        <v>0</v>
+        <v>2.4747361015479185E-3</v>
       </c>
       <c r="J31" s="21">
         <f>LOOKUP(2,1/(Daily!E:E&lt;&gt;""),Daily!E:E)</f>
-        <v>-3.6951399396559781E-3</v>
+        <v>6.493995993643642E-3</v>
       </c>
       <c r="K31" s="22">
         <f>VLOOKUP($H$30,Daily!$A:$AF,7,0)</f>
-        <v>2.5201074547225311E-3</v>
+        <v>9.0304690160805112E-3</v>
       </c>
       <c r="L31" s="23">
         <f>VLOOKUP($H$30,Daily!$A:$AF,8,0)</f>
-        <v>-5.0809999999995581E-3</v>
+        <v>1.3800000000003809E-3</v>
       </c>
     </row>
     <row r="32" spans="5:16" x14ac:dyDescent="0.25">
@@ -2885,19 +2916,19 @@
       </c>
       <c r="I32" s="24">
         <f>$K$25</f>
-        <v>0</v>
+        <v>1.8790434482995298E-3</v>
       </c>
       <c r="J32" s="24">
         <f>LOOKUP(2,1/(Daily!M:M&lt;&gt;""),Daily!M:M)</f>
-        <v>-6.5473113645105659E-3</v>
+        <v>4.7451499600985603E-3</v>
       </c>
       <c r="K32" s="14">
         <f>VLOOKUP($H$30,Daily!$A:$AF,25,0)</f>
-        <v>5.887099627658321E-3</v>
+        <v>1.0660184758320312E-2</v>
       </c>
       <c r="L32" s="25">
         <f>VLOOKUP($H$30,Daily!$A:$AF,31,0)</f>
-        <v>1.1216734099228631E-4</v>
+        <v>4.8578495519446818E-3</v>
       </c>
     </row>
     <row r="33" spans="8:18" x14ac:dyDescent="0.25">
@@ -2906,19 +2937,19 @@
       </c>
       <c r="I33" s="24">
         <f>$K$24</f>
-        <v>0</v>
+        <v>1.3282069206570954E-3</v>
       </c>
       <c r="J33" s="24">
         <f>LOOKUP(2,1/(Daily!L:L&lt;&gt;""),Daily!L:L)</f>
-        <v>-7.9739796453678347E-3</v>
+        <v>8.6374052529527567E-3</v>
       </c>
       <c r="K33" s="14">
         <f>VLOOKUP($H$30,Daily!$A:$AF,24,0)</f>
-        <v>3.8820728804248139E-2</v>
+        <v>4.7793444424098164E-2</v>
       </c>
       <c r="L33" s="25">
         <f>VLOOKUP($H$30,Daily!$A:$AF,30,0)</f>
-        <v>6.5208294126315458E-2</v>
+        <v>7.4408929841490945E-2</v>
       </c>
     </row>
     <row r="34" spans="8:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2927,19 +2958,19 @@
       </c>
       <c r="I34" s="26">
         <f>$K$26</f>
-        <v>0</v>
+        <v>1.2361838278068586E-2</v>
       </c>
       <c r="J34" s="26">
         <f>LOOKUP(2,1/(Daily!N:N&lt;&gt;""),Daily!N:N)</f>
-        <v>-8.1443298969073874E-3</v>
+        <v>-7.3796902608874726E-3</v>
       </c>
       <c r="K34" s="27">
         <f>VLOOKUP($H$30,Daily!$A:$AF,26,0)</f>
-        <v>-4.7241379310343223E-3</v>
+        <v>-1.2068965517241015E-2</v>
       </c>
       <c r="L34" s="28">
         <f>VLOOKUP($H$30,Daily!$A:$AF,32,0)</f>
-        <v>4.3518258032693158E-3</v>
+        <v>-3.0599795841155242E-3</v>
       </c>
     </row>
     <row r="35" spans="8:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -2974,7 +3005,7 @@
       </c>
       <c r="I37" s="46">
         <f>AVERAGE(Daily!E$3:E380)</f>
-        <v>-5.599135438422387E-5</v>
+        <v>3.0192689668774369E-5</v>
       </c>
       <c r="J37" s="44"/>
       <c r="K37" s="22"/>
@@ -2982,23 +3013,23 @@
       <c r="M37" s="50"/>
       <c r="N37" s="38">
         <f>AVERAGE(Daily!J$3:J380)</f>
-        <v>-3.6270737190929418E-5</v>
+        <v>6.3317447527857563E-5</v>
       </c>
       <c r="O37" s="22">
         <f>AVERAGE(Daily!K$3:K380)</f>
-        <v>7.4455204947280803E-5</v>
+        <v>8.0899583146541295E-5</v>
       </c>
       <c r="P37" s="22">
         <f>AVERAGE(Daily!L$3:L380)</f>
-        <v>8.5955215249380748E-4</v>
+        <v>9.6189232486826738E-4</v>
       </c>
       <c r="Q37" s="22">
         <f>AVERAGE(Daily!M$3:M380)</f>
-        <v>8.0196396643546444E-6</v>
+        <v>7.0350301775331031E-5</v>
       </c>
       <c r="R37" s="23">
         <f>AVERAGE(Daily!N$3:N380)</f>
-        <v>8.9311384683198787E-5</v>
+        <v>-8.9649527585205726E-6</v>
       </c>
     </row>
     <row r="38" spans="8:18" x14ac:dyDescent="0.25">
@@ -3007,7 +3038,7 @@
       </c>
       <c r="I38" s="47">
         <f>STDEV(Daily!E$3:E380)</f>
-        <v>4.9150443309497289E-3</v>
+        <v>4.9396419940802121E-3</v>
       </c>
       <c r="J38" s="45"/>
       <c r="K38" s="14"/>
@@ -3015,23 +3046,23 @@
       <c r="M38" s="51"/>
       <c r="N38" s="40">
         <f>STDEV(Daily!J$3:J380)</f>
-        <v>6.2600791696187071E-3</v>
+        <v>6.2785213193181973E-3</v>
       </c>
       <c r="O38" s="14">
         <f>STDEV(Daily!K$3:K380)</f>
-        <v>1.7543188921805997E-3</v>
+        <v>1.7434895829659507E-3</v>
       </c>
       <c r="P38" s="14">
         <f>STDEV(Daily!L$3:L380)</f>
-        <v>5.8562012159872135E-3</v>
+        <v>5.8850498389313504E-3</v>
       </c>
       <c r="Q38" s="14">
         <f>STDEV(Daily!M$3:M380)</f>
-        <v>3.6351133722685169E-3</v>
+        <v>3.6514559254586972E-3</v>
       </c>
       <c r="R38" s="25">
         <f>STDEV(Daily!N$3:N380)</f>
-        <v>7.9802204291008014E-3</v>
+        <v>7.9730060400798729E-3</v>
       </c>
     </row>
     <row r="39" spans="8:18" x14ac:dyDescent="0.25">
@@ -3040,7 +3071,7 @@
       </c>
       <c r="I39" s="48">
         <f>COUNTIF(Daily!E$3:E380,"&gt;0")</f>
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J39" s="45"/>
       <c r="K39" s="14"/>
@@ -3048,19 +3079,19 @@
       <c r="M39" s="51"/>
       <c r="N39" s="41">
         <f>COUNTIF(Daily!J$3:J380,"&gt;0")</f>
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="O39" s="33">
         <f>COUNTIF(Daily!K$3:K380,"&gt;0")</f>
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="P39" s="33">
         <f>COUNTIF(Daily!L$3:L380,"&gt;0")</f>
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="Q39" s="33">
         <f>COUNTIF(Daily!M$3:M380,"&gt;0")</f>
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="R39" s="35">
         <f>COUNTIF(Daily!N$3:N380,"&gt;0")</f>
@@ -3073,7 +3104,7 @@
       </c>
       <c r="I40" s="47">
         <f>SUMIF(Daily!E$3:E380,"&gt;0")</f>
-        <v>0.13443649426554072</v>
+        <v>0.14093049025918436</v>
       </c>
       <c r="J40" s="45"/>
       <c r="K40" s="14"/>
@@ -3081,19 +3112,19 @@
       <c r="M40" s="51"/>
       <c r="N40" s="40">
         <f>SUMIF(Daily!J$3:J380,"&gt;0")</f>
-        <v>0.18013497727666805</v>
+        <v>0.18766740857810493</v>
       </c>
       <c r="O40" s="14">
         <f>SUMIF(Daily!K$3:K380,"&gt;0")</f>
-        <v>5.3471783650962834E-2</v>
+        <v>5.4036011599053912E-2</v>
       </c>
       <c r="P40" s="14">
         <f>SUMIF(Daily!L$3:L380,"&gt;0")</f>
-        <v>0.20806775743310729</v>
+        <v>0.21670516268606005</v>
       </c>
       <c r="Q40" s="14">
         <f>SUMIF(Daily!M$3:M380,"&gt;0")</f>
-        <v>0.10559279488944957</v>
+        <v>0.11033794484954813</v>
       </c>
       <c r="R40" s="25">
         <f>SUMIF(Daily!N$3:N380,"&gt;0")</f>
@@ -3130,7 +3161,7 @@
       </c>
       <c r="R41" s="25">
         <f>SUMIF(Daily!N$3:N380,"&lt;0")</f>
-        <v>-0.23069867488419299</v>
+        <v>-0.23807836514508046</v>
       </c>
     </row>
     <row r="42" spans="8:18" x14ac:dyDescent="0.25">
@@ -3139,7 +3170,7 @@
       </c>
       <c r="I42" s="48">
         <f>COUNT(Daily!E$3:E380)</f>
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="J42" s="45"/>
       <c r="K42" s="14"/>
@@ -3147,23 +3178,23 @@
       <c r="M42" s="51"/>
       <c r="N42" s="41">
         <f>COUNT(Daily!J$3:J380)</f>
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="O42" s="33">
         <f>COUNT(Daily!K$3:K380)</f>
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="P42" s="33">
         <f>COUNT(Daily!L$3:L380)</f>
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Q42" s="33">
         <f>COUNT(Daily!M$3:M380)</f>
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="R42" s="35">
         <f>COUNT(Daily!N$3:N380)</f>
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="43" spans="8:18" x14ac:dyDescent="0.25">
@@ -3196,7 +3227,7 @@
       </c>
       <c r="R43" s="35">
         <f>R42-R39</f>
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="44" spans="8:18" x14ac:dyDescent="0.25">
@@ -3205,7 +3236,7 @@
       </c>
       <c r="I44" s="49">
         <f>(I40/I41)*(I39/I43)*-1</f>
-        <v>1.2341757044111625</v>
+        <v>1.3245975332728726</v>
       </c>
       <c r="J44" s="45"/>
       <c r="K44" s="14"/>
@@ -3213,23 +3244,23 @@
       <c r="M44" s="51"/>
       <c r="N44" s="42">
         <f>(N40/N41)*(N39/N43)*-1</f>
-        <v>0.95919888491333571</v>
+        <v>1.0263165818596496</v>
       </c>
       <c r="O44" s="34">
         <f>(O40/O41)*(O39/O43)*-1</f>
-        <v>1.2096599802014116</v>
+        <v>1.2537683789717291</v>
       </c>
       <c r="P44" s="34">
         <f>(P40/P41)*(P39/P43)*-1</f>
-        <v>1.8440879340195213</v>
+        <v>1.9663701049903277</v>
       </c>
       <c r="Q44" s="34">
         <f>(Q40/Q41)*(Q39/Q43)*-1</f>
-        <v>1.0895395198147135</v>
+        <v>1.1676938080576995</v>
       </c>
       <c r="R44" s="36">
         <f>(R40/R41)*(R39/R43)*-1</f>
-        <v>1.3096810074339427</v>
+        <v>1.2317589335136183</v>
       </c>
     </row>
     <row r="45" spans="8:18" x14ac:dyDescent="0.25">
@@ -3238,7 +3269,7 @@
       </c>
       <c r="I45" s="62">
         <f>I39/I42</f>
-        <v>0.56000000000000005</v>
+        <v>0.56578947368421051</v>
       </c>
       <c r="J45" s="63"/>
       <c r="K45" s="64"/>
@@ -3246,23 +3277,23 @@
       <c r="M45" s="66"/>
       <c r="N45" s="67">
         <f>N39/N42</f>
-        <v>0.49333333333333335</v>
+        <v>0.5</v>
       </c>
       <c r="O45" s="64">
         <f>O39/O42</f>
-        <v>0.52</v>
+        <v>0.52631578947368418</v>
       </c>
       <c r="P45" s="64">
         <f>P39/P42</f>
-        <v>0.56000000000000005</v>
+        <v>0.56578947368421051</v>
       </c>
       <c r="Q45" s="64">
         <f>Q39/Q42</f>
-        <v>0.52</v>
+        <v>0.52631578947368418</v>
       </c>
       <c r="R45" s="68">
         <f>R39/R42</f>
-        <v>0.56000000000000005</v>
+        <v>0.55263157894736847</v>
       </c>
     </row>
     <row r="46" spans="8:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3295,7 +3326,7 @@
       </c>
       <c r="R46" s="28">
         <f>MIN(Daily!AN:AN)</f>
-        <v>-3.1984348798211416E-2</v>
+        <v>-3.9128004471771866E-2</v>
       </c>
     </row>
   </sheetData>
@@ -3310,13 +3341,13 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:AN77"/>
+  <dimension ref="A1:AN79"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B14" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I84" sqref="I84"/>
+      <selection pane="bottomRight" activeCell="J31" sqref="J31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9332,7 +9363,7 @@
         <v>43291</v>
       </c>
       <c r="B51" s="4">
-        <f t="shared" ref="B51:B77" si="812">D51-C51</f>
+        <f t="shared" ref="B51:B78" si="812">D51-C51</f>
         <v>19902.79</v>
       </c>
       <c r="C51" s="4">
@@ -12998,6 +13029,145 @@
         <f t="shared" ref="AN77" si="1413">MIN(0,(T77-MAX(T48:T77))/MAX(T48:T77))</f>
         <v>-3.1984348798211416E-2</v>
       </c>
+    </row>
+    <row r="78" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A78" s="9">
+        <v>43328</v>
+      </c>
+      <c r="B78" s="4">
+        <f t="shared" si="812"/>
+        <v>19922.879999999997</v>
+      </c>
+      <c r="C78" s="4">
+        <v>104.72</v>
+      </c>
+      <c r="D78" s="4">
+        <f>20034.32-6.72</f>
+        <v>20027.599999999999</v>
+      </c>
+      <c r="E78" s="5">
+        <f t="shared" ref="E78" si="1414">D78/D77-1</f>
+        <v>6.493995993643642E-3</v>
+      </c>
+      <c r="F78" s="10">
+        <f t="shared" ref="F78" si="1415">F77*(1+E78)</f>
+        <v>100.13800000000003</v>
+      </c>
+      <c r="G78" s="5">
+        <f t="shared" ref="G78" si="1416">F78/F$45-1</f>
+        <v>9.0304690160805112E-3</v>
+      </c>
+      <c r="H78" s="8">
+        <f t="shared" ref="H78" si="1417">F78/$F$2-1</f>
+        <v>1.3800000000003809E-3</v>
+      </c>
+      <c r="J78" s="11">
+        <f>VLOOKUP($A78,Prices!$A:$J,MATCH(J$1,Prices!$1:$1,0),0)</f>
+        <v>7.5324313014368816E-3</v>
+      </c>
+      <c r="K78" s="11">
+        <f>VLOOKUP($A78,Prices!$A:$J,MATCH(K$1,Prices!$1:$1,0),0)</f>
+        <v>5.6422794809107835E-4</v>
+      </c>
+      <c r="L78" s="11">
+        <f>VLOOKUP($A78,Prices!$A:$J,MATCH(L$1,Prices!$1:$1,0),0)</f>
+        <v>8.6374052529527567E-3</v>
+      </c>
+      <c r="M78" s="11">
+        <f t="shared" ref="M78" si="1418">0.6*J78 + 0.4*K78</f>
+        <v>4.7451499600985603E-3</v>
+      </c>
+      <c r="N78" s="11">
+        <f>VLOOKUP($A78,Prices!$A:$J,MATCH(N$1,Prices!$1:$1,0),0)</f>
+        <v>-7.3796902608874726E-3</v>
+      </c>
+      <c r="P78" s="10">
+        <f t="shared" ref="P78" si="1419">P77*(1+J78)</f>
+        <v>100.33369631476205</v>
+      </c>
+      <c r="Q78" s="10">
+        <f t="shared" ref="Q78" si="1420">Q77*(1+K78)</f>
+        <v>100.60524273682208</v>
+      </c>
+      <c r="R78" s="10">
+        <f t="shared" ref="R78" si="1421">R77*(1+L78)</f>
+        <v>107.44089298414909</v>
+      </c>
+      <c r="S78" s="10">
+        <f t="shared" ref="S78" si="1422">S77*(1+M78)</f>
+        <v>100.48578495519446</v>
+      </c>
+      <c r="T78" s="10">
+        <f t="shared" ref="T78" si="1423">T77*(1+N78)</f>
+        <v>99.694002041588448</v>
+      </c>
+      <c r="V78" s="5">
+        <f t="shared" ref="V78" si="1424">P78/P$45-1</f>
+        <v>1.5607424071991449E-2</v>
+      </c>
+      <c r="W78" s="5">
+        <f t="shared" ref="W78" si="1425">Q78/Q$45-1</f>
+        <v>2.914484573590892E-3</v>
+      </c>
+      <c r="X78" s="5">
+        <f t="shared" ref="X78" si="1426">R78/R$45-1</f>
+        <v>4.7793444424098164E-2</v>
+      </c>
+      <c r="Y78" s="5">
+        <f t="shared" ref="Y78" si="1427">S78/S$45-1</f>
+        <v>1.0660184758320312E-2</v>
+      </c>
+      <c r="Z78" s="5">
+        <f t="shared" ref="Z78" si="1428">T78/T$45-1</f>
+        <v>-1.2068965517241015E-2</v>
+      </c>
+      <c r="AB78" s="8">
+        <f t="shared" ref="AB78" si="1429">P78/$P$2-1</f>
+        <v>3.336963147620553E-3</v>
+      </c>
+      <c r="AC78" s="8">
+        <f t="shared" ref="AC78" si="1430">Q78/$P$2-1</f>
+        <v>6.0524273682207586E-3</v>
+      </c>
+      <c r="AD78" s="8">
+        <f t="shared" ref="AD78" si="1431">R78/$P$2-1</f>
+        <v>7.4408929841490945E-2</v>
+      </c>
+      <c r="AE78" s="8">
+        <f t="shared" ref="AE78" si="1432">S78/$P$2-1</f>
+        <v>4.8578495519446818E-3</v>
+      </c>
+      <c r="AF78" s="8">
+        <f t="shared" ref="AF78" si="1433">T78/$T$2-1</f>
+        <v>-3.0599795841155242E-3</v>
+      </c>
+      <c r="AI78" s="8">
+        <f t="shared" ref="AI78" si="1434">MIN(0,(F78-MAX(F49:F78))/MAX(F49:F78))</f>
+        <v>-8.9097481424687652E-4</v>
+      </c>
+      <c r="AJ78" s="8">
+        <f t="shared" ref="AJ78" si="1435">MIN(0,(P78-MAX(P49:P78))/MAX(P49:P78))</f>
+        <v>-2.2333513806171625E-2</v>
+      </c>
+      <c r="AK78" s="8">
+        <f t="shared" ref="AK78" si="1436">MIN(0,(Q78-MAX(Q49:Q78))/MAX(Q49:Q78))</f>
+        <v>-1.0327668763498389E-3</v>
+      </c>
+      <c r="AL78" s="8">
+        <f t="shared" ref="AL78" si="1437">MIN(0,(R78-MAX(R49:R78))/MAX(R49:R78))</f>
+        <v>-4.7657146832712528E-3</v>
+      </c>
+      <c r="AM78" s="8">
+        <f t="shared" ref="AM78" si="1438">MIN(0,(S78-MAX(S49:S78))/MAX(S49:S78))</f>
+        <v>-1.212628444746704E-2</v>
+      </c>
+      <c r="AN78" s="8">
+        <f t="shared" ref="AN78" si="1439">MIN(0,(T78-MAX(T49:T78))/MAX(T49:T78))</f>
+        <v>-3.9128004471771866E-2</v>
+      </c>
+    </row>
+    <row r="79" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="C79" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -13010,7 +13180,7 @@
   <dimension ref="A1:J87"/>
   <sheetViews>
     <sheetView topLeftCell="A51" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="G89" sqref="G89"/>
+      <selection activeCell="A80" sqref="A80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15857,37 +16027,40 @@
       </c>
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B79" t="str">
+      <c r="A79" s="13">
+        <v>43328</v>
+      </c>
+      <c r="B79">
         <f t="array" ref="B79">_xll.HistoricalData(B$1,"Adj. Close",$A79,$A79,"Daily","RemoveHeaders = True","ReverseOrder =True","RemoveDates =""True")</f>
-        <v>--</v>
-      </c>
-      <c r="C79" t="str">
+        <v>72.23</v>
+      </c>
+      <c r="C79">
         <f t="array" ref="C79">_xll.HistoricalData(C$1,"Adj. Close",$A79,$A79,"Daily","RemoveHeaders = True","ReverseOrder =True","RemoveDates =""True")</f>
-        <v>--</v>
-      </c>
-      <c r="D79" t="str">
+        <v>106.4</v>
+      </c>
+      <c r="D79">
         <f t="array" ref="D79">_xll.HistoricalData(D$1,"Adj. Close",$A79,$A79,"Daily","RemoveHeaders = True","ReverseOrder =True","RemoveDates =""True")</f>
-        <v>--</v>
-      </c>
-      <c r="E79" t="str">
+        <v>286.10000000000002</v>
+      </c>
+      <c r="E79">
         <f t="array" ref="E79">_xll.HistoricalData(E$1,"Adj. Close",$A79,$A79,"Daily","RemoveHeaders = True","ReverseOrder =True","RemoveDates =""True")</f>
-        <v>--</v>
-      </c>
-      <c r="G79" s="5" t="e">
+        <v>17.190000000000001</v>
+      </c>
+      <c r="G79" s="5">
         <f t="shared" ref="G79:G87" si="224">B79/B78-1</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="H79" s="5" t="e">
+        <v>7.5324313014368816E-3</v>
+      </c>
+      <c r="H79" s="5">
         <f t="shared" ref="H79:H87" si="225">C79/C78-1</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I79" s="5" t="e">
+        <v>5.6422794809107835E-4</v>
+      </c>
+      <c r="I79" s="5">
         <f t="shared" ref="I79:I87" si="226">D79/D78-1</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="J79" s="5" t="e">
+        <v>8.6374052529527567E-3</v>
+      </c>
+      <c r="J79" s="5">
         <f t="shared" ref="J79:J87" si="227">E79/E78-1</f>
-        <v>#VALUE!</v>
+        <v>-7.3796902608874726E-3</v>
       </c>
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.25">
@@ -16171,8 +16344,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W40"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O17" sqref="O17"/>
+    <sheetView topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="Q35" sqref="Q35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16210,7 +16383,7 @@
       </c>
       <c r="G2" s="74">
         <f>SUM(G5:G10)</f>
-        <v>0.99259518039800376</v>
+        <v>0.99264713057690579</v>
       </c>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.25">
@@ -16261,7 +16434,7 @@
       </c>
       <c r="C5">
         <f>_xll.RealtimeData(A5,"Last")</f>
-        <v>350.45</v>
+        <v>349.02</v>
       </c>
       <c r="D5">
         <f>ROUNDDOWN(($C$2/6)/B5,0)</f>
@@ -16269,19 +16442,19 @@
       </c>
       <c r="E5" s="8">
         <f>C5/B5-1</f>
-        <v>5.573128483205303E-2</v>
+        <v>5.142340713962934E-2</v>
       </c>
       <c r="F5">
         <f>C5*D5</f>
-        <v>12265.75</v>
+        <v>12215.699999999999</v>
       </c>
       <c r="G5" s="73">
         <f>F5/$F$13</f>
-        <v>0.17119798321148061</v>
+        <v>0.16930323829319843</v>
       </c>
       <c r="H5" s="8">
         <f>F5/$F$31</f>
-        <v>0.12070182862175602</v>
+        <v>0.11925673336845445</v>
       </c>
       <c r="I5">
         <f>B5*D5</f>
@@ -16298,7 +16471,7 @@
       </c>
       <c r="C6">
         <f>_xll.RealtimeData(A6,"Last")</f>
-        <v>1882.62</v>
+        <v>1875.4999</v>
       </c>
       <c r="D6">
         <f t="shared" ref="D6:D10" si="0">ROUNDDOWN(($C$2/6)/B6,0)</f>
@@ -16306,19 +16479,19 @@
       </c>
       <c r="E6" s="8">
         <f t="shared" ref="E6:E10" si="1">C6/B6-1</f>
-        <v>0.15525091739178465</v>
+        <v>0.15088173930118698</v>
       </c>
       <c r="F6">
         <f t="shared" ref="F6:F9" si="2">C6*D6</f>
-        <v>13178.34</v>
+        <v>13128.499299999999</v>
       </c>
       <c r="G6" s="73">
         <f t="shared" ref="G6:G10" si="3">F6/$F$13</f>
-        <v>0.18393536718710093</v>
+        <v>0.18195416107304443</v>
       </c>
       <c r="H6" s="8">
         <f t="shared" ref="H6:H10" si="4">F6/$F$31</f>
-        <v>0.12968222376937669</v>
+        <v>0.12816800842751877</v>
       </c>
       <c r="I6">
         <f t="shared" ref="I6:I10" si="5">B6*D6</f>
@@ -16335,7 +16508,7 @@
       </c>
       <c r="C7">
         <f>_xll.RealtimeData(A7,"Last")</f>
-        <v>43.86</v>
+        <v>45.720999999999997</v>
       </c>
       <c r="D7">
         <f t="shared" si="0"/>
@@ -16343,19 +16516,19 @@
       </c>
       <c r="E7" s="8">
         <f t="shared" si="1"/>
-        <v>3.492213308164227E-2</v>
+        <v>7.8834355828220737E-2</v>
       </c>
       <c r="F7">
         <f t="shared" si="2"/>
-        <v>12061.5</v>
+        <v>12573.275</v>
       </c>
       <c r="G7" s="73">
         <f t="shared" si="3"/>
-        <v>0.16834718419218339</v>
+        <v>0.17425904151632035</v>
       </c>
       <c r="H7" s="8">
         <f t="shared" si="4"/>
-        <v>0.11869189457809838</v>
+        <v>0.12274758746885191</v>
       </c>
       <c r="I7">
         <f t="shared" si="5"/>
@@ -16372,7 +16545,7 @@
       </c>
       <c r="C8">
         <f>_xll.RealtimeData(A8,"Last")</f>
-        <v>522.77</v>
+        <v>521.35</v>
       </c>
       <c r="D8">
         <f t="shared" si="0"/>
@@ -16380,19 +16553,19 @@
       </c>
       <c r="E8" s="8">
         <f t="shared" si="1"/>
-        <v>0.13727239106315392</v>
+        <v>0.1341832183958056</v>
       </c>
       <c r="F8">
         <f t="shared" si="2"/>
-        <v>13069.25</v>
+        <v>13033.75</v>
       </c>
       <c r="G8" s="73">
         <f t="shared" si="3"/>
-        <v>0.18241275438408927</v>
+        <v>0.18064098513421048</v>
       </c>
       <c r="H8" s="8">
         <f t="shared" si="4"/>
-        <v>0.12860871725861728</v>
+        <v>0.12724301092373694</v>
       </c>
       <c r="I8">
         <f t="shared" si="5"/>
@@ -16409,7 +16582,7 @@
       </c>
       <c r="C9">
         <f>_xll.RealtimeData(A9,"Last")</f>
-        <v>47.49</v>
+        <v>47.189900000000002</v>
       </c>
       <c r="D9">
         <f t="shared" si="0"/>
@@ -16417,19 +16590,19 @@
       </c>
       <c r="E9" s="8">
         <f t="shared" si="1"/>
-        <v>-0.17537766973432889</v>
+        <v>-0.18058864386178153</v>
       </c>
       <c r="F9">
         <f t="shared" si="2"/>
-        <v>9592.98</v>
+        <v>9532.3598000000002</v>
       </c>
       <c r="G9" s="73">
         <f t="shared" si="3"/>
-        <v>0.13389306230667258</v>
+        <v>0.1321135409936316</v>
       </c>
       <c r="H9" s="8">
         <f t="shared" si="4"/>
-        <v>9.4400279471857237E-2</v>
+        <v>9.3060413323900706E-2</v>
       </c>
       <c r="I9">
         <f t="shared" si="5"/>
@@ -16446,7 +16619,7 @@
       </c>
       <c r="C10">
         <f>_xll.RealtimeData(A10,"Last")</f>
-        <v>52.89</v>
+        <v>53.81</v>
       </c>
       <c r="D10">
         <f t="shared" si="0"/>
@@ -16454,19 +16627,19 @@
       </c>
       <c r="E10" s="8">
         <f t="shared" si="1"/>
-        <v>-6.1401952085181954E-2</v>
+        <v>-4.5075421472936972E-2</v>
       </c>
       <c r="F10">
         <f>C10*D10</f>
-        <v>10948.23</v>
+        <v>11138.67</v>
       </c>
       <c r="G10" s="73">
         <f t="shared" si="3"/>
-        <v>0.15280882911647703</v>
+        <v>0.15437616356650055</v>
       </c>
       <c r="H10" s="8">
         <f t="shared" si="4"/>
-        <v>0.10773669618014127</v>
+        <v>0.10874214316569682</v>
       </c>
       <c r="I10">
         <f t="shared" si="5"/>
@@ -16485,7 +16658,7 @@
       </c>
       <c r="F13" s="75">
         <f>SUM(F5:F10)+I13</f>
-        <v>71646.579999999987</v>
+        <v>72152.784100000004</v>
       </c>
       <c r="H13" t="s">
         <v>26</v>
@@ -16501,7 +16674,7 @@
       </c>
       <c r="F14" s="8">
         <f>F13/C2-1</f>
-        <v>2.3522571428571171E-2</v>
+        <v>3.0754058571428544E-2</v>
       </c>
     </row>
     <row r="15" spans="1:23" x14ac:dyDescent="0.25">
@@ -16512,7 +16685,7 @@
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H17" s="11">
         <f>SUM(H20:H23)</f>
-        <v>0.98817028411936192</v>
+        <v>0.98828963860565788</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
@@ -16554,7 +16727,7 @@
       </c>
       <c r="C20">
         <f>_xll.RealtimeData(A20,"Last")</f>
-        <v>16.61</v>
+        <v>16.77</v>
       </c>
       <c r="D20">
         <f>ROUNDDOWN(($C$3*E20)/B20,0)</f>
@@ -16565,19 +16738,19 @@
       </c>
       <c r="F20" s="8">
         <f>C20/B20-1</f>
-        <v>-2.2941176470588243E-2</v>
+        <v>-1.3529411764705901E-2</v>
       </c>
       <c r="G20">
         <f>D20*C20</f>
-        <v>4152.5</v>
+        <v>4192.5</v>
       </c>
       <c r="H20" s="8">
         <f>G20/$G$27</f>
-        <v>0.13853825707696121</v>
+        <v>0.13846153236442957</v>
       </c>
       <c r="I20" s="8">
         <f>G20/$F$31</f>
-        <v>4.0862918561999216E-2</v>
+        <v>4.0929611454705445E-2</v>
       </c>
       <c r="J20">
         <f>B20*D20</f>
@@ -16594,7 +16767,7 @@
       </c>
       <c r="C21">
         <f>_xll.RealtimeData(A21,"Last")</f>
-        <v>283.64999999999998</v>
+        <v>286.48</v>
       </c>
       <c r="D21">
         <f t="shared" ref="D21:D22" si="6">ROUNDDOWN(($C$3*E21)/B21,0)</f>
@@ -16605,19 +16778,19 @@
       </c>
       <c r="F21" s="8">
         <f t="shared" ref="F21:F23" si="7">C21/B21-1</f>
-        <v>2.722002262443457E-3</v>
+        <v>1.272624434389158E-2</v>
       </c>
       <c r="G21">
         <f t="shared" ref="G21:G22" si="8">D21*C21</f>
-        <v>10778.699999999999</v>
+        <v>10886.240000000002</v>
       </c>
       <c r="H21" s="8">
         <f t="shared" ref="H21:H23" si="9">G21/$G$27</f>
-        <v>0.35960561386043144</v>
+        <v>0.35952903329444197</v>
       </c>
       <c r="I21" s="8">
         <f t="shared" ref="I21:I23" si="10">G21/$F$31</f>
-        <v>0.10606842632250954</v>
+        <v>0.10627777540910499</v>
       </c>
       <c r="J21">
         <f t="shared" ref="J21:J23" si="11">B21*D21</f>
@@ -16634,7 +16807,7 @@
       </c>
       <c r="C22">
         <f>_xll.RealtimeData(A22,"Last")</f>
-        <v>81.760000000000005</v>
+        <v>82.854500000000002</v>
       </c>
       <c r="D22">
         <f t="shared" si="6"/>
@@ -16645,19 +16818,19 @@
       </c>
       <c r="F22" s="8">
         <f t="shared" si="7"/>
-        <v>2.9440628066732533E-3</v>
+        <v>1.63702158979393E-2</v>
       </c>
       <c r="G22">
         <f t="shared" si="8"/>
-        <v>11773.44</v>
+        <v>11931.048000000001</v>
       </c>
       <c r="H22" s="8">
         <f t="shared" si="9"/>
-        <v>0.39279274109576839</v>
+        <v>0.39403486912189928</v>
       </c>
       <c r="I22" s="8">
         <f t="shared" si="10"/>
-        <v>0.11585722333885227</v>
+        <v>0.11647779579903174</v>
       </c>
       <c r="J22">
         <f t="shared" si="11"/>
@@ -16674,7 +16847,7 @@
       </c>
       <c r="C23">
         <f>_xll.RealtimeData(A23,"Last")</f>
-        <v>83.27</v>
+        <v>83.28</v>
       </c>
       <c r="D23">
         <f>ROUNDDOWN(($C$3*E23)/B23,0)</f>
@@ -16685,19 +16858,19 @@
       </c>
       <c r="F23" s="8">
         <f t="shared" si="7"/>
-        <v>2.5282928003851346E-3</v>
+        <v>2.6486876956417493E-3</v>
       </c>
       <c r="G23">
         <f>D23*C23</f>
-        <v>2914.45</v>
+        <v>2914.8</v>
       </c>
       <c r="H23" s="8">
         <f t="shared" si="9"/>
-        <v>9.723367208620097E-2</v>
+        <v>9.6264203824887137E-2</v>
       </c>
       <c r="I23" s="8">
         <f t="shared" si="10"/>
-        <v>2.867981529271971E-2</v>
+        <v>2.8455964572015609E-2</v>
       </c>
       <c r="J23">
         <f t="shared" si="11"/>
@@ -16713,7 +16886,7 @@
       </c>
       <c r="G27">
         <f>SUM(G20:G23)+J28</f>
-        <v>29973.670000000002</v>
+        <v>30279.168000000001</v>
       </c>
       <c r="J27">
         <f>SUM(J20:J23)</f>
@@ -16726,7 +16899,7 @@
       </c>
       <c r="G28" s="8">
         <f>G27/J27-1</f>
-        <v>1.1072536668396138E-2</v>
+        <v>2.1377602341272395E-2</v>
       </c>
       <c r="I28" t="s">
         <v>26</v>
@@ -16742,7 +16915,7 @@
       </c>
       <c r="F31" s="75">
         <f>SUM(F13,G27)</f>
-        <v>101620.24999999999</v>
+        <v>102431.95210000001</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
@@ -16751,11 +16924,11 @@
       </c>
       <c r="F33" s="8">
         <f>F31/B1-1</f>
-        <v>1.6202499999999898E-2</v>
+        <v>2.4319521000000011E-2</v>
       </c>
       <c r="H33" s="11">
         <f>F33-F37</f>
-        <v>-1.5604292600616965E-4</v>
+        <v>2.8174701551390464E-3</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
@@ -16768,16 +16941,16 @@
       </c>
       <c r="C37">
         <f>_xll.RealtimeData(A37,"Last")</f>
-        <v>37.71</v>
+        <v>38.061999999999998</v>
       </c>
       <c r="D37" s="8">
         <f>C37/B37-1</f>
-        <v>-1.4375326711970615E-2</v>
+        <v>-5.1751176163095103E-3</v>
       </c>
       <c r="E37" s="11"/>
       <c r="F37" s="8">
         <f>D37*$B$3+D40*$B$2</f>
-        <v>1.6358542926006067E-2</v>
+        <v>2.1502050844860964E-2</v>
       </c>
       <c r="H37" s="8"/>
       <c r="I37" s="8"/>
@@ -16792,11 +16965,11 @@
       </c>
       <c r="C38">
         <f>_xll.RealtimeData(A38,"Last")</f>
-        <v>283.64999999999998</v>
+        <v>286.48</v>
       </c>
       <c r="D38" s="8">
         <f t="shared" ref="D38:D39" si="12">C38/B38-1</f>
-        <v>4.0039599604003717E-2</v>
+        <v>5.0416162505041662E-2</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
@@ -16809,11 +16982,11 @@
       </c>
       <c r="C39">
         <f>_xll.RealtimeData(A39,"Last")</f>
-        <v>179.23</v>
+        <v>179.33</v>
       </c>
       <c r="D39" s="8">
         <f t="shared" si="12"/>
-        <v>5.3860175221967399E-2</v>
+        <v>5.4448168401246555E-2</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
@@ -16826,11 +16999,11 @@
       </c>
       <c r="C40">
         <f>_xll.RealtimeData(A40,"Last")</f>
-        <v>46.02</v>
+        <v>46.172199999999997</v>
       </c>
       <c r="D40" s="8">
         <f>C40/B40-1</f>
-        <v>2.9530201342281792E-2</v>
+        <v>3.2935123042505454E-2</v>
       </c>
     </row>
   </sheetData>

--- a/Portfolio.xlsx
+++ b/Portfolio.xlsx
@@ -1032,9 +1032,117 @@
 <file path=xl/volatileDependencies.xml><?xml version="1.0" encoding="utf-8"?>
 <volTypes xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <volType type="realTimeData">
-    <main first="rtdsrv.e8774570e22448968e819133d388f0d6">
+    <main first="rtdsrv.3b5559bbf91d410893ea2c6ef2942c28">
+      <tp t="s">
+        <v>ISHARES TR-1 3 YR TREAS BD</v>
+        <stp/>
+        <stp>SHY</stp>
+        <stp>description</stp>
+        <tr r="B12" s="1"/>
+      </tp>
       <tp>
-        <v>3.71</v>
+        <v>48.06</v>
+        <stp/>
+        <stp>MU</stp>
+        <stp>last</stp>
+        <tr r="C9" s="4"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.3b5559bbf91d410893ea2c6ef2942c28">
+      <tp t="s">
+        <v>SPDR INDEX SHS FDS-DJ INTL RL ETF</v>
+        <stp/>
+        <stp>RWX</stp>
+        <stp>description</stp>
+        <tr r="B6" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.3b5559bbf91d410893ea2c6ef2942c28">
+      <tp t="s">
+        <v>ISHARES TR-20 YR TR BD ETF</v>
+        <stp/>
+        <stp>TLT</stp>
+        <stp>description</stp>
+        <tr r="B5" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.3b5559bbf91d410893ea2c6ef2942c28">
+      <tp t="s">
+        <v>SPDR GOLD TRUST-GOLD SHS</v>
+        <stp/>
+        <stp>GLD</stp>
+        <stp>description</stp>
+        <tr r="B8" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.3b5559bbf91d410893ea2c6ef2942c28">
+      <tp t="s">
+        <v>ISHARES TR-MSCI EMG MKT ETF</v>
+        <stp/>
+        <stp>EEM</stp>
+        <stp>description</stp>
+        <tr r="B10" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>ISHARES INC-MSCI JPN ETF NEW</v>
+        <stp/>
+        <stp>EWJ</stp>
+        <stp>description</stp>
+        <tr r="B7" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>--</v>
+        <stp/>
+        <stp>DBC</stp>
+        <stp>dividend yield</stp>
+        <tr r="M2" s="1"/>
+      </tp>
+      <tp>
+        <v>1.61</v>
+        <stp/>
+        <stp>EWJ</stp>
+        <stp>dividend yield</stp>
+        <tr r="M7" s="1"/>
+      </tp>
+      <tp>
+        <v>1.37</v>
+        <stp/>
+        <stp>EEM</stp>
+        <stp>dividend yield</stp>
+        <tr r="M10" s="1"/>
+      </tp>
+      <tp>
+        <v>0.48</v>
+        <stp/>
+        <stp>IYR</stp>
+        <stp>dividend yield</stp>
+        <tr r="M4" s="1"/>
+      </tp>
+      <tp>
+        <v>1.78</v>
+        <stp/>
+        <stp>IVV</stp>
+        <stp>dividend yield</stp>
+        <tr r="M3" s="1"/>
+      </tp>
+      <tp>
+        <v>2.21</v>
+        <stp/>
+        <stp>IEF</stp>
+        <stp>dividend yield</stp>
+        <tr r="M11" s="1"/>
+      </tp>
+      <tp>
+        <v>4.79</v>
+        <stp/>
+        <stp>IEV</stp>
+        <stp>dividend yield</stp>
+        <tr r="M9" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.3b5559bbf91d410893ea2c6ef2942c28">
+      <tp>
+        <v>3.68</v>
         <stp/>
         <stp>RWX</stp>
         <stp>dividend yield</stp>
@@ -1047,6 +1155,8 @@
         <stp>dividend yield</stp>
         <tr r="M12" s="1"/>
       </tp>
+    </main>
+    <main first="rtdsrv.3b5559bbf91d410893ea2c6ef2942c28">
       <tp>
         <v>2.73</v>
         <stp/>
@@ -1055,310 +1165,7 @@
         <tr r="M5" s="1"/>
       </tp>
     </main>
-    <main first="rtdsrv.e8774570e22448968e819133d388f0d6">
-      <tp t="s">
-        <v>--</v>
-        <stp/>
-        <stp>DBC</stp>
-        <stp>dividend yield</stp>
-        <tr r="M2" s="1"/>
-      </tp>
-      <tp>
-        <v>1.62</v>
-        <stp/>
-        <stp>EWJ</stp>
-        <stp>dividend yield</stp>
-        <tr r="M7" s="1"/>
-      </tp>
-      <tp>
-        <v>1.39</v>
-        <stp/>
-        <stp>EEM</stp>
-        <stp>dividend yield</stp>
-        <tr r="M10" s="1"/>
-      </tp>
-      <tp>
-        <v>1.79</v>
-        <stp/>
-        <stp>IVV</stp>
-        <stp>dividend yield</stp>
-        <tr r="M3" s="1"/>
-      </tp>
-      <tp>
-        <v>0.49</v>
-        <stp/>
-        <stp>IYR</stp>
-        <stp>dividend yield</stp>
-        <tr r="M4" s="1"/>
-      </tp>
-      <tp>
-        <v>2.2200000000000002</v>
-        <stp/>
-        <stp>IEF</stp>
-        <stp>dividend yield</stp>
-        <tr r="M11" s="1"/>
-      </tp>
-      <tp>
-        <v>4.82</v>
-        <stp/>
-        <stp>IEV</stp>
-        <stp>dividend yield</stp>
-        <tr r="M9" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.e8774570e22448968e819133d388f0d6">
-      <tp>
-        <v>1.7921146953405675E-3</v>
-        <stp/>
-        <stp>DBC</stp>
-        <stp>change in percent</stp>
-        <tr r="L2" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.e8774570e22448968e819133d388f0d6">
-      <tp>
-        <v>1.2361838278068586E-2</v>
-        <stp/>
-        <stp>GYLD</stp>
-        <stp>change in percent</stp>
-        <tr r="K26" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.e8774570e22448968e819133d388f0d6">
-      <tp>
-        <v>7.5187969924810419E-4</v>
-        <stp/>
-        <stp>AGG</stp>
-        <stp>change in percent</stp>
-        <tr r="K23" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.e8774570e22448968e819133d388f0d6">
-      <tp>
-        <v>9.7599063049003522E-4</v>
-        <stp/>
-        <stp>IEF</stp>
-        <stp>change in percent</stp>
-        <tr r="L11" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.e8774570e22448968e819133d388f0d6">
-      <tp>
-        <v>4.5904590459046359E-3</v>
-        <stp/>
-        <stp>GLD</stp>
-        <stp>change in percent</stp>
-        <tr r="L8" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.e8774570e22448968e819133d388f0d6">
-      <tp>
-        <v>2.6304859476671467E-3</v>
-        <stp/>
-        <stp>ACWI</stp>
-        <stp>change in percent</stp>
-        <tr r="K22" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.e8774570e22448968e819133d388f0d6">
-      <tp>
-        <v>3.1578947368421052E-3</v>
-        <stp/>
-        <stp>EWJ</stp>
-        <stp>change in percent</stp>
-        <tr r="L7" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.e8774570e22448968e819133d388f0d6">
-      <tp>
-        <v>-3.0658329000000002</v>
-        <stp/>
-        <stp>GLD</stp>
-        <stp>mtd percent change</stp>
-        <tr r="U8" s="1"/>
-      </tp>
-      <tp>
-        <v>-1.35294118</v>
-        <stp/>
-        <stp>DBC</stp>
-        <stp>mtd percent change</stp>
-        <tr r="U2" s="1"/>
-      </tp>
-      <tp>
-        <v>-2.9451706</v>
-        <stp/>
-        <stp>EWJ</stp>
-        <stp>mtd percent change</stp>
-        <tr r="U7" s="1"/>
-      </tp>
-      <tp>
-        <v>-5.8816914100000002</v>
-        <stp/>
-        <stp>EEM</stp>
-        <stp>mtd percent change</stp>
-        <tr r="U10" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.e8774570e22448968e819133d388f0d6">
-      <tp>
-        <v>1.27262443</v>
-        <stp/>
-        <stp>IVV</stp>
-        <stp>mtd percent change</stp>
-        <tr r="U3" s="1"/>
-      </tp>
-      <tp>
-        <v>1.6315014699999999</v>
-        <stp/>
-        <stp>IYR</stp>
-        <stp>mtd percent change</stp>
-        <tr r="U4" s="1"/>
-      </tp>
-      <tp>
-        <v>-4.0217391300000003</v>
-        <stp/>
-        <stp>IEV</stp>
-        <stp>mtd percent change</stp>
-        <tr r="U9" s="1"/>
-      </tp>
-      <tp>
-        <v>1.20386817</v>
-        <stp/>
-        <stp>IEF</stp>
-        <stp>mtd percent change</stp>
-        <tr r="U11" s="1"/>
-      </tp>
-      <tp>
-        <v>-1.9582278500000001</v>
-        <stp/>
-        <stp>RWX</stp>
-        <stp>mtd percent change</stp>
-        <tr r="U6" s="1"/>
-      </tp>
-      <tp>
-        <v>0.26486876999999998</v>
-        <stp/>
-        <stp>SHY</stp>
-        <stp>mtd percent change</stp>
-        <tr r="U12" s="1"/>
-      </tp>
-      <tp>
-        <v>2.23704204</v>
-        <stp/>
-        <stp>TLT</stp>
-        <stp>mtd percent change</stp>
-        <tr r="U5" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.e8774570e22448968e819133d388f0d6">
-      <tp>
-        <v>1.795547043332432E-3</v>
-        <stp/>
-        <stp>EEM</stp>
-        <stp>change in percent</stp>
-        <tr r="L10" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.e8774570e22448968e819133d388f0d6">
-      <tp>
-        <v>5.2717786944916278E-3</v>
-        <stp/>
-        <stp>IYR</stp>
-        <stp>change in percent</stp>
-        <tr r="L4" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.e8774570e22448968e819133d388f0d6">
-      <tp>
-        <v>5.4657253473013442E-3</v>
-        <stp/>
-        <stp>IEV</stp>
-        <stp>change in percent</stp>
-        <tr r="L9" s="1"/>
-      </tp>
-      <tp>
-        <v>1.3282069206570954E-3</v>
-        <stp/>
-        <stp>IVV</stp>
-        <stp>change in percent</stp>
-        <tr r="K24" s="1"/>
-        <tr r="L3" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.e8774570e22448968e819133d388f0d6">
-      <tp>
-        <v>2.3173053049739389E-3</v>
-        <stp/>
-        <stp>TLT</stp>
-        <stp>change in percent</stp>
-        <tr r="L5" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.e8774570e22448968e819133d388f0d6">
-      <tp>
-        <v>3.6036036036037354E-4</v>
-        <stp/>
-        <stp>SHY</stp>
-        <stp>change in percent</stp>
-        <tr r="L12" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.e8774570e22448968e819133d388f0d6">
-      <tp>
-        <v>4.5784695201038653E-3</v>
-        <stp/>
-        <stp>RWX</stp>
-        <stp>change in percent</stp>
-        <tr r="L6" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.e8774570e22448968e819133d388f0d6">
-      <tp>
-        <v>16.77</v>
-        <stp/>
-        <stp>DBC</stp>
-        <stp>last</stp>
-        <tr r="J2" s="1"/>
-        <tr r="C20" s="4"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.e8774570e22448968e819133d388f0d6">
-      <tp>
-        <v>38.061999999999998</v>
-        <stp/>
-        <stp>GAL</stp>
-        <stp>last</stp>
-        <tr r="C37" s="4"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.e8774570e22448968e819133d388f0d6">
-      <tp>
-        <v>521.35</v>
-        <stp/>
-        <stp>ISRG</stp>
-        <stp>last</stp>
-        <tr r="C8" s="4"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.e8774570e22448968e819133d388f0d6">
-      <tp t="s">
-        <v>ISHARES TR-MSCI EMG MKT ETF</v>
-        <stp/>
-        <stp>EEM</stp>
-        <stp>description</stp>
-        <tr r="B10" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.e8774570e22448968e819133d388f0d6">
-      <tp t="s">
-        <v>ISHARES INC-MSCI JPN ETF NEW</v>
-        <stp/>
-        <stp>EWJ</stp>
-        <stp>description</stp>
-        <tr r="B7" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.e8774570e22448968e819133d388f0d6">
+    <main first="rtdsrv.3b5559bbf91d410893ea2c6ef2942c28">
       <tp t="s">
         <v>INVESCO DB COMMDY INDX TRCK-UNIT</v>
         <stp/>
@@ -1367,55 +1174,7 @@
         <tr r="B2" s="1"/>
       </tp>
     </main>
-    <main first="rtdsrv.e8774570e22448968e819133d388f0d6">
-      <tp t="s">
-        <v>ARROW ETF TR-ARROW DJ GLB YLD</v>
-        <stp/>
-        <stp>GYLD</stp>
-        <stp>description</stp>
-        <tr r="L26" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.e8774570e22448968e819133d388f0d6">
-      <tp t="s">
-        <v>SPDR GOLD TRUST-GOLD SHS</v>
-        <stp/>
-        <stp>GLD</stp>
-        <stp>description</stp>
-        <tr r="B8" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.e8774570e22448968e819133d388f0d6">
-      <tp>
-        <v>102.56</v>
-        <stp/>
-        <stp>IEF</stp>
-        <stp>last</stp>
-        <tr r="J11" s="1"/>
-      </tp>
-      <tp>
-        <v>46.172199999999997</v>
-        <stp/>
-        <stp>QQQE</stp>
-        <stp>last</stp>
-        <tr r="C40" s="4"/>
-      </tp>
-      <tp>
-        <v>41.844999999999999</v>
-        <stp/>
-        <stp>EEM</stp>
-        <stp>last</stp>
-        <tr r="J10" s="1"/>
-      </tp>
-      <tp>
-        <v>44.15</v>
-        <stp/>
-        <stp>IEV</stp>
-        <stp>last</stp>
-        <tr r="J9" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.e8774570e22448968e819133d388f0d6">
+    <main first="rtdsrv.3b5559bbf91d410893ea2c6ef2942c28">
       <tp t="s">
         <v>ISHARES TR-EUROPE ETF</v>
         <stp/>
@@ -1430,8 +1189,13 @@
         <stp>description</stp>
         <tr r="B11" s="1"/>
       </tp>
-    </main>
-    <main first="rtdsrv.e8774570e22448968e819133d388f0d6">
+      <tp t="s">
+        <v>ISHARES TR-U.S. REAL ES ETF</v>
+        <stp/>
+        <stp>IYR</stp>
+        <stp>description</stp>
+        <tr r="B4" s="1"/>
+      </tp>
       <tp t="s">
         <v>ISHARES TR-CORE S&amp;P500 ETF</v>
         <stp/>
@@ -1439,26 +1203,214 @@
         <stp>description</stp>
         <tr r="B3" s="1"/>
       </tp>
-      <tp t="s">
-        <v>ISHARES TR-U.S. REAL ES ETF</v>
+    </main>
+    <main first="rtdsrv.3b5559bbf91d410893ea2c6ef2942c28">
+      <tp>
+        <v>4.0216821122574581E-3</v>
+        <stp/>
+        <stp>EWJ</stp>
+        <stp>change in percent</stp>
+        <tr r="L7" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.3b5559bbf91d410893ea2c6ef2942c28">
+      <tp>
+        <v>4.5013030087656478E-3</v>
+        <stp/>
+        <stp>EEM</stp>
+        <stp>change in percent</stp>
+        <tr r="L10" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.3b5559bbf91d410893ea2c6ef2942c28">
+      <tp>
+        <v>9.030963302752236E-3</v>
+        <stp/>
+        <stp>GYLD</stp>
+        <stp>change in percent</stp>
+        <tr r="K26" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.3b5559bbf91d410893ea2c6ef2942c28">
+      <tp>
+        <v>1.7846519928614575E-3</v>
+        <stp/>
+        <stp>DBC</stp>
+        <stp>change in percent</stp>
+        <tr r="L2" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.3b5559bbf91d410893ea2c6ef2942c28">
+      <tp>
+        <v>3.7210584343990629E-3</v>
+        <stp/>
+        <stp>ACWI</stp>
+        <stp>change in percent</stp>
+        <tr r="K22" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.3b5559bbf91d410893ea2c6ef2942c28">
+      <tp>
+        <v>1.9725718579749014E-3</v>
+        <stp/>
+        <stp>AGG</stp>
+        <stp>change in percent</stp>
+        <tr r="K23" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.3b5559bbf91d410893ea2c6ef2942c28">
+      <tp>
+        <v>3.1219512195121268E-3</v>
+        <stp/>
+        <stp>IEF</stp>
+        <stp>change in percent</stp>
+        <tr r="L11" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.3b5559bbf91d410893ea2c6ef2942c28">
+      <tp>
+        <v>-1.1139240500000001</v>
+        <stp/>
+        <stp>RWX</stp>
+        <stp>mtd percent change</stp>
+        <tr r="U6" s="1"/>
+      </tp>
+      <tp>
+        <v>0.32506622000000002</v>
+        <stp/>
+        <stp>SHY</stp>
+        <stp>mtd percent change</stp>
+        <tr r="U12" s="1"/>
+      </tp>
+      <tp>
+        <v>2.81107547</v>
+        <stp/>
+        <stp>TLT</stp>
+        <stp>mtd percent change</stp>
+        <tr r="U5" s="1"/>
+      </tp>
+      <tp>
+        <v>-0.94117647000000004</v>
+        <stp/>
+        <stp>DBC</stp>
+        <stp>mtd percent change</stp>
+        <tr r="U2" s="1"/>
+      </tp>
+      <tp>
+        <v>-2.5292819600000001</v>
+        <stp/>
+        <stp>EWJ</stp>
+        <stp>mtd percent change</stp>
+        <tr r="U7" s="1"/>
+      </tp>
+      <tp>
+        <v>-4.6333783200000003</v>
+        <stp/>
+        <stp>EEM</stp>
+        <stp>mtd percent change</stp>
+        <tr r="U10" s="1"/>
+      </tp>
+      <tp>
+        <v>-2.1278443600000001</v>
+        <stp/>
+        <stp>GLD</stp>
+        <stp>mtd percent change</stp>
+        <tr r="U8" s="1"/>
+      </tp>
+      <tp>
+        <v>2.1221786100000002</v>
         <stp/>
         <stp>IYR</stp>
-        <stp>description</stp>
-        <tr r="B4" s="1"/>
+        <stp>mtd percent change</stp>
+        <tr r="U4" s="1"/>
+      </tp>
+      <tp>
+        <v>1.7109728500000001</v>
+        <stp/>
+        <stp>IVV</stp>
+        <stp>mtd percent change</stp>
+        <tr r="U3" s="1"/>
+      </tp>
+      <tp>
+        <v>-3.3043478300000002</v>
+        <stp/>
+        <stp>IEV</stp>
+        <stp>mtd percent change</stp>
+        <tr r="U9" s="1"/>
+      </tp>
+      <tp>
+        <v>1.4604302300000001</v>
+        <stp/>
+        <stp>IEF</stp>
+        <stp>mtd percent change</stp>
+        <tr r="U11" s="1"/>
       </tp>
     </main>
-    <main first="rtdsrv.e8774570e22448968e819133d388f0d6">
+    <main first="rtdsrv.3b5559bbf91d410893ea2c6ef2942c28">
       <tp>
-        <v>82.42</v>
+        <v>4.9942031570498714E-3</v>
+        <stp/>
+        <stp>GLD</stp>
+        <stp>change in percent</stp>
+        <tr r="L8" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.3b5559bbf91d410893ea2c6ef2942c28">
+      <tp>
+        <v>6.0038424591735346E-4</v>
+        <stp/>
+        <stp>SHY</stp>
+        <stp>change in percent</stp>
+        <tr r="L12" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.3b5559bbf91d410893ea2c6ef2942c28">
+      <tp>
+        <v>6.7010309278351813E-3</v>
+        <stp/>
+        <stp>RWX</stp>
+        <stp>change in percent</stp>
+        <tr r="L6" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.3b5559bbf91d410893ea2c6ef2942c28">
+      <tp>
+        <v>1.0822510822511232E-3</v>
         <stp/>
         <stp>IYR</stp>
-        <stp>close</stp>
-        <tr r="G4" s="1"/>
+        <stp>change in percent</stp>
+        <tr r="L4" s="1"/>
       </tp>
     </main>
-    <main first="rtdsrv.e8774570e22448968e819133d388f0d6">
+    <main first="rtdsrv.3b5559bbf91d410893ea2c6ef2942c28">
       <tp>
-        <v>83.28</v>
+        <v>7.0183382386233865E-3</v>
+        <stp/>
+        <stp>IEV</stp>
+        <stp>change in percent</stp>
+        <tr r="L9" s="1"/>
+      </tp>
+      <tp>
+        <v>2.3690078037904368E-3</v>
+        <stp/>
+        <stp>IVV</stp>
+        <stp>change in percent</stp>
+        <tr r="K24" s="1"/>
+        <tr r="L3" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.3b5559bbf91d410893ea2c6ef2942c28">
+      <tp>
+        <v>6.6953215407505543E-3</v>
+        <stp/>
+        <stp>TLT</stp>
+        <stp>change in percent</stp>
+        <tr r="L5" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.3b5559bbf91d410893ea2c6ef2942c28">
+      <tp>
+        <v>83.33</v>
         <stp/>
         <stp>SHY</stp>
         <stp>last</stp>
@@ -1466,163 +1418,209 @@
         <tr r="C23" s="4"/>
       </tp>
     </main>
-    <main first="rtdsrv.e8774570e22448968e819133d388f0d6">
+    <main first="rtdsrv.3b5559bbf91d410893ea2c6ef2942c28">
       <tp>
-        <v>120.83</v>
+        <v>83.16</v>
+        <stp/>
+        <stp>IYR</stp>
+        <stp>close</stp>
+        <tr r="G4" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.3b5559bbf91d410893ea2c6ef2942c28">
+      <tp>
+        <v>120.98</v>
         <stp/>
         <stp>TLT</stp>
         <stp>close</stp>
         <tr r="G5" s="1"/>
       </tp>
     </main>
-    <main first="rtdsrv.e8774570e22448968e819133d388f0d6">
+    <main first="rtdsrv.3b5559bbf91d410893ea2c6ef2942c28">
       <tp>
-        <v>1875.4999</v>
+        <v>112.69</v>
+        <stp/>
+        <stp>GLD</stp>
+        <stp>last</stp>
+        <tr r="J8" s="1"/>
+      </tp>
+      <tp>
+        <v>1876.71</v>
         <stp/>
         <stp>AMZN</stp>
         <stp>last</stp>
         <tr r="C6" s="4"/>
       </tp>
     </main>
-    <main first="rtdsrv.e8774570e22448968e819133d388f0d6">
+    <main first="rtdsrv.3b5559bbf91d410893ea2c6ef2942c28">
       <tp>
-        <v>286.10000000000002</v>
+        <v>121.79</v>
+        <stp/>
+        <stp>TLT</stp>
+        <stp>last</stp>
+        <tr r="J5" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.3b5559bbf91d410893ea2c6ef2942c28">
+      <tp>
+        <v>287.04000000000002</v>
         <stp/>
         <stp>IVV</stp>
         <stp>close</stp>
         <tr r="G3" s="1"/>
       </tp>
     </main>
-    <main first="rtdsrv.e8774570e22448968e819133d388f0d6">
+    <main first="rtdsrv.3b5559bbf91d410893ea2c6ef2942c28">
       <tp>
-        <v>111.61</v>
+        <v>38.212000000000003</v>
         <stp/>
-        <stp>GLD</stp>
+        <stp>GAL</stp>
         <stp>last</stp>
-        <tr r="J8" s="1"/>
+        <tr r="C37" s="4"/>
       </tp>
     </main>
-    <main first="rtdsrv.e8774570e22448968e819133d388f0d6">
+    <main first="rtdsrv.3b5559bbf91d410893ea2c6ef2942c28">
       <tp>
-        <v>121.11</v>
+        <v>16.84</v>
         <stp/>
-        <stp>TLT</stp>
+        <stp>DBC</stp>
         <stp>last</stp>
-        <tr r="J5" s="1"/>
+        <tr r="J2" s="1"/>
+        <tr r="C20" s="4"/>
       </tp>
     </main>
-    <main first="rtdsrv.e8774570e22448968e819133d388f0d6">
+    <main first="rtdsrv.3b5559bbf91d410893ea2c6ef2942c28">
       <tp>
-        <v>349.02</v>
+        <v>525.36</v>
+        <stp/>
+        <stp>ISRG</stp>
+        <stp>last</stp>
+        <tr r="C8" s="4"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.3b5559bbf91d410893ea2c6ef2942c28">
+      <tp>
+        <v>42.4</v>
+        <stp/>
+        <stp>EEM</stp>
+        <stp>last</stp>
+        <tr r="J10" s="1"/>
+      </tp>
+      <tp>
+        <v>102.82</v>
+        <stp/>
+        <stp>IEF</stp>
+        <stp>last</stp>
+        <tr r="J11" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.3b5559bbf91d410893ea2c6ef2942c28">
+      <tp>
+        <v>44.48</v>
+        <stp/>
+        <stp>IEV</stp>
+        <stp>last</stp>
+        <tr r="J9" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.3b5559bbf91d410893ea2c6ef2942c28">
+      <tp>
+        <v>46.52</v>
+        <stp/>
+        <stp>QQQE</stp>
+        <stp>last</stp>
+        <tr r="C40" s="4"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.3b5559bbf91d410893ea2c6ef2942c28">
+      <tp t="s">
+        <v>ARROW ETF TR-ARROW DJ GLB YLD</v>
+        <stp/>
+        <stp>GYLD</stp>
+        <stp>description</stp>
+        <tr r="L26" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.3b5559bbf91d410893ea2c6ef2942c28">
+      <tp>
+        <v>83.25</v>
+        <stp/>
+        <stp>IYR</stp>
+        <stp>last</stp>
+        <tr r="J4" s="1"/>
+        <tr r="C22" s="4"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.3b5559bbf91d410893ea2c6ef2942c28">
+      <tp>
+        <v>16.809999999999999</v>
+        <stp/>
+        <stp>DBC</stp>
+        <stp>close</stp>
+        <tr r="G2" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.3b5559bbf91d410893ea2c6ef2942c28">
+      <tp>
+        <v>352.28</v>
         <stp/>
         <stp>ALGN</stp>
         <stp>last</stp>
         <tr r="C5" s="4"/>
       </tp>
-    </main>
-    <main first="rtdsrv.e8774570e22448968e819133d388f0d6">
       <tp>
-        <v>47.189900000000002</v>
-        <stp/>
-        <stp>MU</stp>
-        <stp>last</stp>
-        <tr r="C9" s="4"/>
-      </tp>
-      <tp t="s">
-        <v>ISHARES TR-1 3 YR TREAS BD</v>
-        <stp/>
-        <stp>SHY</stp>
-        <stp>description</stp>
-        <tr r="B12" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.e8774570e22448968e819133d388f0d6">
-      <tp>
-        <v>179.33</v>
+        <v>179.7</v>
         <stp/>
         <stp>QQQ</stp>
         <stp>last</stp>
         <tr r="C39" s="4"/>
       </tp>
     </main>
-    <main first="rtdsrv.e8774570e22448968e819133d388f0d6">
-      <tp t="s">
-        <v>SPDR INDEX SHS FDS-DJ INTL RL ETF</v>
+    <main first="rtdsrv.3b5559bbf91d410893ea2c6ef2942c28">
+      <tp>
+        <v>54.54</v>
         <stp/>
-        <stp>RWX</stp>
-        <stp>description</stp>
-        <tr r="B6" s="1"/>
+        <stp>STX</stp>
+        <stp>last</stp>
+        <tr r="C10" s="4"/>
       </tp>
     </main>
-    <main first="rtdsrv.e8774570e22448968e819133d388f0d6">
+    <main first="rtdsrv.3b5559bbf91d410893ea2c6ef2942c28">
       <tp>
-        <v>286.48</v>
-        <stp/>
-        <stp>IVV</stp>
-        <stp>last</stp>
-        <tr r="J3" s="1"/>
-        <tr r="C21" s="4"/>
-        <tr r="C38" s="4"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.e8774570e22448968e819133d388f0d6">
-      <tp>
-        <v>45.720999999999997</v>
+        <v>46.22</v>
         <stp/>
         <stp>CSCO</stp>
         <stp>last</stp>
         <tr r="C7" s="4"/>
       </tp>
     </main>
-    <main first="rtdsrv.e8774570e22448968e819133d388f0d6">
-      <tp t="s">
-        <v>ISHARES TR-20 YR TR BD ETF</v>
+    <main first="rtdsrv.3b5559bbf91d410893ea2c6ef2942c28">
+      <tp>
+        <v>287.72000000000003</v>
         <stp/>
-        <stp>TLT</stp>
-        <stp>description</stp>
-        <tr r="B5" s="1"/>
+        <stp>IVV</stp>
+        <stp>last</stp>
+        <tr r="J3" s="1"/>
+        <tr r="C38" s="4"/>
+        <tr r="C21" s="4"/>
       </tp>
+    </main>
+    <main first="rtdsrv.3b5559bbf91d410893ea2c6ef2942c28">
       <tp>
-        <v>57.18</v>
+        <v>57.42</v>
         <stp/>
         <stp>EWJ</stp>
         <stp>last</stp>
         <tr r="J7" s="1"/>
       </tp>
+    </main>
+    <main first="rtdsrv.3b5559bbf91d410893ea2c6ef2942c28">
       <tp>
-        <v>38.726500000000001</v>
+        <v>39.06</v>
         <stp/>
         <stp>RWX</stp>
         <stp>last</stp>
         <tr r="J6" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.e8774570e22448968e819133d388f0d6">
-      <tp>
-        <v>53.81</v>
-        <stp/>
-        <stp>STX</stp>
-        <stp>last</stp>
-        <tr r="C10" s="4"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.e8774570e22448968e819133d388f0d6">
-      <tp>
-        <v>16.739999999999998</v>
-        <stp/>
-        <stp>DBC</stp>
-        <stp>close</stp>
-        <tr r="G2" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.e8774570e22448968e819133d388f0d6">
-      <tp>
-        <v>82.854500000000002</v>
-        <stp/>
-        <stp>IYR</stp>
-        <stp>last</stp>
-        <tr r="J4" s="1"/>
-        <tr r="C22" s="4"/>
       </tp>
     </main>
   </volType>
@@ -1896,7 +1894,7 @@
   <dimension ref="A1:V46"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="P25" sqref="P25"/>
+      <selection activeCell="S27" sqref="S27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1996,34 +1994,34 @@
       </c>
       <c r="E2" s="5">
         <f>G2/D2-1</f>
-        <v>-6.0965496876868919E-2</v>
+        <v>-5.703882930108517E-2</v>
       </c>
       <c r="F2" s="5">
         <f>I2/$I$21</f>
-        <v>0.14710906304752591</v>
+        <v>0.14710143702535453</v>
       </c>
       <c r="G2" s="4">
         <f>_xll.RealtimeData(A2,"Close")</f>
-        <v>16.739999999999998</v>
+        <v>16.809999999999999</v>
       </c>
       <c r="H2" s="4">
         <v>176</v>
       </c>
       <c r="I2" s="4">
         <f>H2*G2</f>
-        <v>2946.24</v>
+        <v>2958.56</v>
       </c>
       <c r="J2" s="4">
         <f>_xll.RealtimeData(A2,"Last")</f>
-        <v>16.77</v>
+        <v>16.84</v>
       </c>
       <c r="K2" s="5">
         <f>J2/D2-1</f>
-        <v>-5.9282639344390042E-2</v>
+        <v>-5.5355971768606405E-2</v>
       </c>
       <c r="L2" s="8">
         <f>_xll.RealtimeData(A2,"Change in Percent")</f>
-        <v>1.7921146953405675E-3</v>
+        <v>1.7846519928614575E-3</v>
       </c>
       <c r="M2" s="29" t="str">
         <f>_xll.RealtimeData(A2,"Dividend Yield")</f>
@@ -2038,7 +2036,7 @@
       </c>
       <c r="P2" s="60">
         <f t="shared" ref="P2:P12" si="1">O2-F2</f>
-        <v>-5.1090630475259247E-3</v>
+        <v>-5.1014370253545382E-3</v>
       </c>
       <c r="Q2" s="31">
         <f>O2*Daily!$D$68</f>
@@ -2058,7 +2056,7 @@
       </c>
       <c r="U2">
         <f>_xll.RealtimeData(T2,"MTD Percent Change")</f>
-        <v>-1.35294118</v>
+        <v>-0.94117647000000004</v>
       </c>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.25">
@@ -2077,38 +2075,38 @@
       </c>
       <c r="E3" s="5">
         <f>G3/D3-1</f>
-        <v>7.4112243039951675E-2</v>
+        <v>7.7641308081746629E-2</v>
       </c>
       <c r="F3" s="5">
         <f>I3/$I$21</f>
-        <v>0.41427350969337801</v>
+        <v>0.41388239482348682</v>
       </c>
       <c r="G3" s="4">
         <f>_xll.RealtimeData(A3,"Close")</f>
-        <v>286.10000000000002</v>
+        <v>287.04000000000002</v>
       </c>
       <c r="H3" s="4">
         <v>29</v>
       </c>
       <c r="I3" s="4">
         <f>H3*G3</f>
-        <v>8296.9000000000015</v>
+        <v>8324.16</v>
       </c>
       <c r="J3" s="4">
         <f>_xll.RealtimeData(A3,"Last")</f>
-        <v>286.48</v>
+        <v>287.72000000000003</v>
       </c>
       <c r="K3" s="5">
         <f>J3/D3-1</f>
-        <v>7.5538886354719725E-2</v>
+        <v>8.019424875027914E-2</v>
       </c>
       <c r="L3" s="8">
         <f>_xll.RealtimeData(A3,"Change in Percent")</f>
-        <v>1.3282069206570954E-3</v>
+        <v>2.3690078037904368E-3</v>
       </c>
       <c r="M3" s="29">
         <f>_xll.RealtimeData(A3,"Dividend Yield")</f>
-        <v>1.79</v>
+        <v>1.78</v>
       </c>
       <c r="N3" s="4" t="str">
         <f t="shared" si="0"/>
@@ -2119,7 +2117,7 @@
       </c>
       <c r="P3" s="60">
         <f t="shared" si="1"/>
-        <v>-4.8273509693378014E-2</v>
+        <v>-4.7882394823486829E-2</v>
       </c>
       <c r="Q3" s="31">
         <f>O3*Daily!$D$68</f>
@@ -2139,7 +2137,7 @@
       </c>
       <c r="U3">
         <f>_xll.RealtimeData(T3,"MTD Percent Change")</f>
-        <v>1.27262443</v>
+        <v>1.7109728500000001</v>
       </c>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.25">
@@ -2158,38 +2156,38 @@
       </c>
       <c r="E4" s="5">
         <f>G4/D4-1</f>
-        <v>5.0873390284329911E-2</v>
+        <v>6.0308555399719355E-2</v>
       </c>
       <c r="F4" s="5">
         <f>I4/$I$21</f>
-        <v>0.22222743725031316</v>
+        <v>0.22327740426543249</v>
       </c>
       <c r="G4" s="4">
         <f>_xll.RealtimeData(A4,"Close")</f>
-        <v>82.42</v>
+        <v>83.16</v>
       </c>
       <c r="H4" s="4">
         <v>54</v>
       </c>
       <c r="I4" s="4">
         <f>H4*G4</f>
-        <v>4450.68</v>
+        <v>4490.6399999999994</v>
       </c>
       <c r="J4" s="4">
         <f>_xll.RealtimeData(A4,"Last")</f>
-        <v>82.854500000000002</v>
+        <v>83.25</v>
       </c>
       <c r="K4" s="5">
         <f>J4/D4-1</f>
-        <v>5.6413362233838971E-2</v>
+        <v>6.1456075481320926E-2</v>
       </c>
       <c r="L4" s="8">
         <f t="array" ref="L4">_xll.RealtimeData(A4,"Change in Percent")</f>
-        <v>5.2717786944916278E-3</v>
+        <v>1.0822510822511232E-3</v>
       </c>
       <c r="M4" s="29">
         <f>_xll.RealtimeData(A4,"Dividend Yield")</f>
-        <v>0.49</v>
+        <v>0.48</v>
       </c>
       <c r="N4" s="4" t="str">
         <f t="shared" si="0"/>
@@ -2200,7 +2198,7 @@
       </c>
       <c r="P4" s="60">
         <f t="shared" si="1"/>
-        <v>0.17077256274968686</v>
+        <v>0.16972259573456752</v>
       </c>
       <c r="Q4" s="31">
         <f>O4*Daily!$D$68</f>
@@ -2220,7 +2218,7 @@
       </c>
       <c r="U4">
         <f>_xll.RealtimeData(T4,"MTD Percent Change")</f>
-        <v>1.6315014699999999</v>
+        <v>2.1221786100000002</v>
       </c>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.25">
@@ -2239,34 +2237,34 @@
       </c>
       <c r="E5" s="5">
         <f>G5/D5-1</f>
-        <v>-1.1969535659207664E-2</v>
+        <v>-1.0742981246800731E-2</v>
       </c>
       <c r="F5" s="5">
         <f>I5/$I$21</f>
-        <v>0.21116120312029552</v>
+        <v>0.21053202057638132</v>
       </c>
       <c r="G5" s="4">
         <f>_xll.RealtimeData(A5,"Close")</f>
-        <v>120.83</v>
+        <v>120.98</v>
       </c>
       <c r="H5" s="4">
         <v>35</v>
       </c>
       <c r="I5" s="4">
         <f>H5*G5</f>
-        <v>4229.05</v>
+        <v>4234.3</v>
       </c>
       <c r="J5" s="31">
         <f>_xll.RealtimeData(A5,"Last")</f>
-        <v>121.11</v>
+        <v>121.79</v>
       </c>
       <c r="K5" s="5">
         <f>J5/D5-1</f>
-        <v>-9.6799674227148191E-3</v>
+        <v>-4.119587419803783E-3</v>
       </c>
       <c r="L5" s="8">
         <f t="array" ref="L5">_xll.RealtimeData(A5,"Change in Percent")</f>
-        <v>2.3173053049739389E-3</v>
+        <v>6.6953215407505543E-3</v>
       </c>
       <c r="M5" s="29">
         <f>_xll.RealtimeData(A5,"Dividend Yield")</f>
@@ -2281,7 +2279,7 @@
       </c>
       <c r="P5" s="60">
         <f t="shared" si="1"/>
-        <v>-0.21116120312029552</v>
+        <v>-0.21053202057638132</v>
       </c>
       <c r="Q5" s="31">
         <f>O5*Daily!$D$68</f>
@@ -2301,7 +2299,7 @@
       </c>
       <c r="U5">
         <f>_xll.RealtimeData(T5,"MTD Percent Change")</f>
-        <v>2.23704204</v>
+        <v>2.81107547</v>
       </c>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.25">
@@ -2321,16 +2319,16 @@
       <c r="I6" s="4"/>
       <c r="J6" s="31">
         <f>_xll.RealtimeData(A6,"Last")</f>
-        <v>38.726500000000001</v>
+        <v>39.06</v>
       </c>
       <c r="K6" s="5"/>
       <c r="L6" s="8">
         <f>_xll.RealtimeData(A6,"Change in Percent")</f>
-        <v>4.5784695201038653E-3</v>
+        <v>6.7010309278351813E-3</v>
       </c>
       <c r="M6" s="29">
         <f>_xll.RealtimeData(A6,"Dividend Yield")</f>
-        <v>3.71</v>
+        <v>3.68</v>
       </c>
       <c r="N6" s="4" t="str">
         <f t="shared" si="0"/>
@@ -2361,7 +2359,7 @@
       </c>
       <c r="U6">
         <f>_xll.RealtimeData(T6,"MTD Percent Change")</f>
-        <v>-1.9582278500000001</v>
+        <v>-1.1139240500000001</v>
       </c>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.25">
@@ -2381,16 +2379,16 @@
       <c r="I7" s="4"/>
       <c r="J7" s="31">
         <f>_xll.RealtimeData(A7,"Last")</f>
-        <v>57.18</v>
+        <v>57.42</v>
       </c>
       <c r="K7" s="5"/>
       <c r="L7" s="8">
         <f>_xll.RealtimeData(A7,"Change in Percent")</f>
-        <v>3.1578947368421052E-3</v>
+        <v>4.0216821122574581E-3</v>
       </c>
       <c r="M7" s="29">
         <f>_xll.RealtimeData(A7,"Dividend Yield")</f>
-        <v>1.62</v>
+        <v>1.61</v>
       </c>
       <c r="N7" s="4" t="str">
         <f t="shared" si="0"/>
@@ -2421,7 +2419,7 @@
       </c>
       <c r="U7">
         <f>_xll.RealtimeData(T7,"MTD Percent Change")</f>
-        <v>-2.9451706</v>
+        <v>-2.5292819600000001</v>
       </c>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.25">
@@ -2441,12 +2439,12 @@
       <c r="I8" s="4"/>
       <c r="J8" s="31">
         <f>_xll.RealtimeData(A8,"Last")</f>
-        <v>111.61</v>
+        <v>112.69</v>
       </c>
       <c r="K8" s="5"/>
       <c r="L8" s="8">
         <f>_xll.RealtimeData(A8,"Change in Percent")</f>
-        <v>4.5904590459046359E-3</v>
+        <v>4.9942031570498714E-3</v>
       </c>
       <c r="M8" s="29">
         <v>0</v>
@@ -2480,7 +2478,7 @@
       </c>
       <c r="U8">
         <f>_xll.RealtimeData(T8,"MTD Percent Change")</f>
-        <v>-3.0658329000000002</v>
+        <v>-2.1278443600000001</v>
       </c>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.25">
@@ -2500,16 +2498,16 @@
       <c r="I9" s="4"/>
       <c r="J9" s="31">
         <f>_xll.RealtimeData(A9,"Last")</f>
-        <v>44.15</v>
+        <v>44.48</v>
       </c>
       <c r="K9" s="5"/>
       <c r="L9" s="8">
         <f>_xll.RealtimeData(A9,"Change in Percent")</f>
-        <v>5.4657253473013442E-3</v>
+        <v>7.0183382386233865E-3</v>
       </c>
       <c r="M9" s="29">
         <f>_xll.RealtimeData(A9,"Dividend Yield")</f>
-        <v>4.82</v>
+        <v>4.79</v>
       </c>
       <c r="N9" s="4" t="str">
         <f t="shared" si="0"/>
@@ -2540,7 +2538,7 @@
       </c>
       <c r="U9">
         <f>_xll.RealtimeData(T9,"MTD Percent Change")</f>
-        <v>-4.0217391300000003</v>
+        <v>-3.3043478300000002</v>
       </c>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.25">
@@ -2554,16 +2552,16 @@
       <c r="G10" s="4"/>
       <c r="J10" s="31">
         <f>_xll.RealtimeData(A10,"Last")</f>
-        <v>41.844999999999999</v>
+        <v>42.4</v>
       </c>
       <c r="K10" s="5"/>
       <c r="L10" s="8">
         <f t="array" ref="L10">_xll.RealtimeData(A10,"Change in Percent")</f>
-        <v>1.795547043332432E-3</v>
+        <v>4.5013030087656478E-3</v>
       </c>
       <c r="M10" s="29">
         <f>_xll.RealtimeData(A10,"Dividend Yield")</f>
-        <v>1.39</v>
+        <v>1.37</v>
       </c>
       <c r="N10" s="4" t="str">
         <f t="shared" si="0"/>
@@ -2594,7 +2592,7 @@
       </c>
       <c r="U10">
         <f>_xll.RealtimeData(T10,"MTD Percent Change")</f>
-        <v>-5.8816914100000002</v>
+        <v>-4.6333783200000003</v>
       </c>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.25">
@@ -2608,16 +2606,16 @@
       <c r="G11" s="4"/>
       <c r="J11" s="31">
         <f>_xll.RealtimeData(A11,"Last")</f>
-        <v>102.56</v>
+        <v>102.82</v>
       </c>
       <c r="K11" s="5"/>
       <c r="L11" s="8">
         <f t="array" ref="L11">_xll.RealtimeData(A11,"Change in Percent")</f>
-        <v>9.7599063049003522E-4</v>
+        <v>3.1219512195121268E-3</v>
       </c>
       <c r="M11" s="29">
         <f>_xll.RealtimeData(A11,"Dividend Yield")</f>
-        <v>2.2200000000000002</v>
+        <v>2.21</v>
       </c>
       <c r="N11" s="4" t="str">
         <f t="shared" si="0"/>
@@ -2648,7 +2646,7 @@
       </c>
       <c r="U11">
         <f>_xll.RealtimeData(T11,"MTD Percent Change")</f>
-        <v>1.20386817</v>
+        <v>1.4604302300000001</v>
       </c>
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.25">
@@ -2661,11 +2659,11 @@
       </c>
       <c r="J12" s="31">
         <f>_xll.RealtimeData(A12,"Last")</f>
-        <v>83.28</v>
+        <v>83.33</v>
       </c>
       <c r="L12" s="8">
         <f t="array" ref="L12">_xll.RealtimeData(A12,"Change in Percent")</f>
-        <v>3.6036036036037354E-4</v>
+        <v>6.0038424591735346E-4</v>
       </c>
       <c r="M12" s="29">
         <f>_xll.RealtimeData(A12,"Dividend Yield")</f>
@@ -2700,7 +2698,7 @@
       </c>
       <c r="U12">
         <f>_xll.RealtimeData(T12,"MTD Percent Change")</f>
-        <v>0.26486876999999998</v>
+        <v>0.32506622000000002</v>
       </c>
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.25">
@@ -2717,11 +2715,11 @@
     <row r="14" spans="1:22" x14ac:dyDescent="0.25">
       <c r="U14" s="29">
         <f t="array" ref="U14">MMULT(TRANSPOSE(O2:O12),U2:U12)</f>
-        <v>0.94106497976000003</v>
+        <v>1.3587667538700001</v>
       </c>
       <c r="V14" s="8">
         <f>U14*0.01</f>
-        <v>9.4106497976E-3</v>
+        <v>1.3587667538700001E-2</v>
       </c>
     </row>
     <row r="19" spans="5:16" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
@@ -2731,7 +2729,7 @@
       </c>
       <c r="F20" s="11">
         <f>SUM(F2:F5)</f>
-        <v>0.99477121311151251</v>
+        <v>0.99479325669065521</v>
       </c>
       <c r="H20" s="2" t="s">
         <v>14</v>
@@ -2750,32 +2748,32 @@
       </c>
       <c r="F21" s="11">
         <f>1-F20</f>
-        <v>5.2287868884874911E-3</v>
+        <v>5.2067433093447857E-3</v>
       </c>
       <c r="H21" s="2" t="s">
         <v>16</v>
       </c>
       <c r="I21" s="6">
         <f>SUM(I2:I20)</f>
-        <v>20027.590000000004</v>
+        <v>20112.38</v>
       </c>
       <c r="J21" t="s">
         <v>33</v>
       </c>
       <c r="K21" s="8">
         <f>SUMPRODUCT(K2:K7,F2:F7)</f>
-        <v>3.3065309388315256E-2</v>
+        <v>3.790249267511648E-2</v>
       </c>
       <c r="M21" t="s">
         <v>34</v>
       </c>
       <c r="N21" s="76">
         <f t="array" ref="N21">MMULT(TRANSPOSE(F2:F5),L2:L5)</f>
-        <v>2.4747361015479185E-3</v>
+        <v>2.8942372807196689E-3</v>
       </c>
       <c r="P21" s="8">
         <f>SUMPRODUCT(L2:L12,O2:O12)</f>
-        <v>2.8480887223097441E-3</v>
+        <v>1.6052401548441362E-3</v>
       </c>
     </row>
     <row r="22" spans="5:16" x14ac:dyDescent="0.25">
@@ -2790,7 +2788,7 @@
       </c>
       <c r="K22" s="8">
         <f>_xll.RealtimeData(J22,"Change in Percent")</f>
-        <v>2.6304859476671467E-3</v>
+        <v>3.7210584343990629E-3</v>
       </c>
       <c r="L22" s="12">
         <v>0.6</v>
@@ -2802,7 +2800,7 @@
       </c>
       <c r="K23" s="8">
         <f>_xll.RealtimeData(J23,"Change in Percent")</f>
-        <v>7.5187969924810419E-4</v>
+        <v>1.9725718579749014E-3</v>
       </c>
       <c r="L23" s="12">
         <v>0.4</v>
@@ -2814,7 +2812,7 @@
       </c>
       <c r="K24" s="8">
         <f>_xll.RealtimeData(J24,"Change in Percent")</f>
-        <v>1.3282069206570954E-3</v>
+        <v>2.3690078037904368E-3</v>
       </c>
     </row>
     <row r="25" spans="5:16" x14ac:dyDescent="0.25">
@@ -2823,7 +2821,7 @@
       </c>
       <c r="K25" s="8">
         <f t="array" ref="K25">SUMPRODUCT(K22:K23,L22:L23)</f>
-        <v>1.8790434482995298E-3</v>
+        <v>3.0216638038293984E-3</v>
       </c>
     </row>
     <row r="26" spans="5:16" x14ac:dyDescent="0.25">
@@ -2832,14 +2830,14 @@
       </c>
       <c r="I26" s="6">
         <f>SUM(I2:I18)</f>
-        <v>19922.870000000003</v>
+        <v>20007.66</v>
       </c>
       <c r="J26" t="s">
         <v>56</v>
       </c>
       <c r="K26" s="8">
         <f>_xll.RealtimeData(J26,"Change in Percent")</f>
-        <v>1.2361838278068586E-2</v>
+        <v>9.030963302752236E-3</v>
       </c>
       <c r="L26" t="str">
         <f>_xll.RealtimeData(J26,"Description")</f>
@@ -2852,7 +2850,7 @@
       </c>
       <c r="K27" s="8">
         <f>AVERAGE(L2:L11)</f>
-        <v>3.1273491939437653E-3</v>
+        <v>4.2289741083697246E-3</v>
       </c>
     </row>
     <row r="28" spans="5:16" x14ac:dyDescent="0.25">
@@ -2861,20 +2859,20 @@
       </c>
       <c r="K28" s="8">
         <f>SUMPRODUCT(F2:F7,M2:M7)*0.01</f>
-        <v>1.4269111111222069E-2</v>
+        <v>1.4186362330067351E-2</v>
       </c>
       <c r="L28" t="s">
         <v>65</v>
       </c>
       <c r="M28" s="8">
         <f>AVERAGE(M2:M11)*0.01</f>
-        <v>2.0855555555555558E-2</v>
+        <v>2.0722222222222225E-2</v>
       </c>
     </row>
     <row r="29" spans="5:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="30" spans="5:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H30" s="30">
-        <v>43328</v>
+        <v>43329</v>
       </c>
       <c r="I30" s="15" t="s">
         <v>61</v>
@@ -2895,19 +2893,19 @@
       </c>
       <c r="I31" s="21">
         <f>$N$21</f>
-        <v>2.4747361015479185E-3</v>
+        <v>2.8942372807196689E-3</v>
       </c>
       <c r="J31" s="21">
         <f>LOOKUP(2,1/(Daily!E:E&lt;&gt;""),Daily!E:E)</f>
-        <v>6.493995993643642E-3</v>
+        <v>4.23365755257743E-3</v>
       </c>
       <c r="K31" s="22">
         <f>VLOOKUP($H$30,Daily!$A:$AF,7,0)</f>
-        <v>9.0304690160805112E-3</v>
+        <v>1.3302358482011334E-2</v>
       </c>
       <c r="L31" s="23">
         <f>VLOOKUP($H$30,Daily!$A:$AF,8,0)</f>
-        <v>1.3800000000003809E-3</v>
+        <v>5.6195000000003326E-3</v>
       </c>
     </row>
     <row r="32" spans="5:16" x14ac:dyDescent="0.25">
@@ -2916,19 +2914,19 @@
       </c>
       <c r="I32" s="24">
         <f>$K$25</f>
-        <v>1.8790434482995298E-3</v>
+        <v>3.0216638038293984E-3</v>
       </c>
       <c r="J32" s="24">
         <f>LOOKUP(2,1/(Daily!M:M&lt;&gt;""),Daily!M:M)</f>
-        <v>4.7451499600985603E-3</v>
+        <v>2.966807160501217E-3</v>
       </c>
       <c r="K32" s="14">
         <f>VLOOKUP($H$30,Daily!$A:$AF,25,0)</f>
-        <v>1.0660184758320312E-2</v>
+        <v>1.3658618631294583E-2</v>
       </c>
       <c r="L32" s="25">
         <f>VLOOKUP($H$30,Daily!$A:$AF,31,0)</f>
-        <v>4.8578495519446818E-3</v>
+        <v>7.839069015281197E-3</v>
       </c>
     </row>
     <row r="33" spans="8:18" x14ac:dyDescent="0.25">
@@ -2937,19 +2935,19 @@
       </c>
       <c r="I33" s="24">
         <f>$K$24</f>
-        <v>1.3282069206570954E-3</v>
+        <v>2.3690078037904368E-3</v>
       </c>
       <c r="J33" s="24">
         <f>LOOKUP(2,1/(Daily!L:L&lt;&gt;""),Daily!L:L)</f>
-        <v>8.6374052529527567E-3</v>
+        <v>3.2855644879412615E-3</v>
       </c>
       <c r="K33" s="14">
         <f>VLOOKUP($H$30,Daily!$A:$AF,24,0)</f>
-        <v>4.7793444424098164E-2</v>
+        <v>5.1236037355795627E-2</v>
       </c>
       <c r="L33" s="25">
         <f>VLOOKUP($H$30,Daily!$A:$AF,30,0)</f>
-        <v>7.4408929841490945E-2</v>
+        <v>7.7938969666905056E-2</v>
       </c>
     </row>
     <row r="34" spans="8:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2958,19 +2956,19 @@
       </c>
       <c r="I34" s="26">
         <f>$K$26</f>
-        <v>1.2361838278068586E-2</v>
+        <v>9.030963302752236E-3</v>
       </c>
       <c r="J34" s="26">
         <f>LOOKUP(2,1/(Daily!N:N&lt;&gt;""),Daily!N:N)</f>
-        <v>-7.3796902608874726E-3</v>
+        <v>1.4543339150669077E-2</v>
       </c>
       <c r="K34" s="27">
         <f>VLOOKUP($H$30,Daily!$A:$AF,26,0)</f>
-        <v>-1.2068965517241015E-2</v>
+        <v>2.2988505747130183E-3</v>
       </c>
       <c r="L34" s="28">
         <f>VLOOKUP($H$30,Daily!$A:$AF,32,0)</f>
-        <v>-3.0599795841155242E-3</v>
+        <v>1.1438857245667622E-2</v>
       </c>
     </row>
     <row r="35" spans="8:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -3005,7 +3003,7 @@
       </c>
       <c r="I37" s="46">
         <f>AVERAGE(Daily!E$3:E380)</f>
-        <v>3.0192689668774369E-5</v>
+        <v>8.4783142433821849E-5</v>
       </c>
       <c r="J37" s="44"/>
       <c r="K37" s="22"/>
@@ -3013,23 +3011,23 @@
       <c r="M37" s="50"/>
       <c r="N37" s="38">
         <f>AVERAGE(Daily!J$3:J380)</f>
-        <v>6.3317447527857563E-5</v>
+        <v>1.2182941251076127E-4</v>
       </c>
       <c r="O37" s="22">
         <f>AVERAGE(Daily!K$3:K380)</f>
-        <v>8.0899583146541295E-5</v>
+        <v>8.7172442773675538E-5</v>
       </c>
       <c r="P37" s="22">
         <f>AVERAGE(Daily!L$3:L380)</f>
-        <v>9.6189232486826738E-4</v>
+        <v>9.9206988542765691E-4</v>
       </c>
       <c r="Q37" s="22">
         <f>AVERAGE(Daily!M$3:M380)</f>
-        <v>7.0350301775331031E-5</v>
+        <v>1.0796662461592695E-4</v>
       </c>
       <c r="R37" s="23">
         <f>AVERAGE(Daily!N$3:N380)</f>
-        <v>-8.9649527585205726E-6</v>
+        <v>1.8002600962365603E-4</v>
       </c>
     </row>
     <row r="38" spans="8:18" x14ac:dyDescent="0.25">
@@ -3038,7 +3036,7 @@
       </c>
       <c r="I38" s="47">
         <f>STDEV(Daily!E$3:E380)</f>
-        <v>4.9396419940802121E-3</v>
+        <v>4.9303629297255628E-3</v>
       </c>
       <c r="J38" s="45"/>
       <c r="K38" s="14"/>
@@ -3046,23 +3044,23 @@
       <c r="M38" s="51"/>
       <c r="N38" s="40">
         <f>STDEV(Daily!J$3:J380)</f>
-        <v>6.2785213193181973E-3</v>
+        <v>6.2581761750183495E-3</v>
       </c>
       <c r="O38" s="14">
         <f>STDEV(Daily!K$3:K380)</f>
-        <v>1.7434895829659507E-3</v>
+        <v>1.732855733331656E-3</v>
       </c>
       <c r="P38" s="14">
         <f>STDEV(Daily!L$3:L380)</f>
-        <v>5.8850498389313504E-3</v>
+        <v>5.8521984174043995E-3</v>
       </c>
       <c r="Q38" s="14">
         <f>STDEV(Daily!M$3:M380)</f>
-        <v>3.6514559254586972E-3</v>
+        <v>3.6423410748946633E-3</v>
       </c>
       <c r="R38" s="25">
         <f>STDEV(Daily!N$3:N380)</f>
-        <v>7.9730060400798729E-3</v>
+        <v>8.0921349074575839E-3</v>
       </c>
     </row>
     <row r="39" spans="8:18" x14ac:dyDescent="0.25">
@@ -3071,7 +3069,7 @@
       </c>
       <c r="I39" s="48">
         <f>COUNTIF(Daily!E$3:E380,"&gt;0")</f>
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J39" s="45"/>
       <c r="K39" s="14"/>
@@ -3079,23 +3077,23 @@
       <c r="M39" s="51"/>
       <c r="N39" s="41">
         <f>COUNTIF(Daily!J$3:J380,"&gt;0")</f>
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="O39" s="33">
         <f>COUNTIF(Daily!K$3:K380,"&gt;0")</f>
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="P39" s="33">
         <f>COUNTIF(Daily!L$3:L380,"&gt;0")</f>
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q39" s="33">
         <f>COUNTIF(Daily!M$3:M380,"&gt;0")</f>
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="R39" s="35">
         <f>COUNTIF(Daily!N$3:N380,"&gt;0")</f>
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="40" spans="8:18" x14ac:dyDescent="0.25">
@@ -3104,7 +3102,7 @@
       </c>
       <c r="I40" s="47">
         <f>SUMIF(Daily!E$3:E380,"&gt;0")</f>
-        <v>0.14093049025918436</v>
+        <v>0.14516414781176179</v>
       </c>
       <c r="J40" s="45"/>
       <c r="K40" s="14"/>
@@ -3112,23 +3110,23 @@
       <c r="M40" s="51"/>
       <c r="N40" s="40">
         <f>SUMIF(Daily!J$3:J380,"&gt;0")</f>
-        <v>0.18766740857810493</v>
+        <v>0.19223614732931638</v>
       </c>
       <c r="O40" s="14">
         <f>SUMIF(Daily!K$3:K380,"&gt;0")</f>
-        <v>5.4036011599053912E-2</v>
+        <v>5.459992137348979E-2</v>
       </c>
       <c r="P40" s="14">
         <f>SUMIF(Daily!L$3:L380,"&gt;0")</f>
-        <v>0.21670516268606005</v>
+        <v>0.21999072717400131</v>
       </c>
       <c r="Q40" s="14">
         <f>SUMIF(Daily!M$3:M380,"&gt;0")</f>
-        <v>0.11033794484954813</v>
+        <v>0.11330475201004934</v>
       </c>
       <c r="R40" s="25">
         <f>SUMIF(Daily!N$3:N380,"&gt;0")</f>
-        <v>0.23739702873543292</v>
+        <v>0.25194036788610197</v>
       </c>
     </row>
     <row r="41" spans="8:18" x14ac:dyDescent="0.25">
@@ -3170,7 +3168,7 @@
       </c>
       <c r="I42" s="48">
         <f>COUNT(Daily!E$3:E380)</f>
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J42" s="45"/>
       <c r="K42" s="14"/>
@@ -3178,23 +3176,23 @@
       <c r="M42" s="51"/>
       <c r="N42" s="41">
         <f>COUNT(Daily!J$3:J380)</f>
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="O42" s="33">
         <f>COUNT(Daily!K$3:K380)</f>
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P42" s="33">
         <f>COUNT(Daily!L$3:L380)</f>
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Q42" s="33">
         <f>COUNT(Daily!M$3:M380)</f>
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="R42" s="35">
         <f>COUNT(Daily!N$3:N380)</f>
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="43" spans="8:18" x14ac:dyDescent="0.25">
@@ -3236,7 +3234,7 @@
       </c>
       <c r="I44" s="49">
         <f>(I40/I41)*(I39/I43)*-1</f>
-        <v>1.3245975332728726</v>
+        <v>1.3961194228197269</v>
       </c>
       <c r="J44" s="45"/>
       <c r="K44" s="14"/>
@@ -3244,23 +3242,23 @@
       <c r="M44" s="51"/>
       <c r="N44" s="42">
         <f>(N40/N41)*(N39/N43)*-1</f>
-        <v>1.0263165818596496</v>
+        <v>1.0789679715185048</v>
       </c>
       <c r="O44" s="34">
         <f>(O40/O41)*(O39/O43)*-1</f>
-        <v>1.2537683789717291</v>
+        <v>1.2985237845804165</v>
       </c>
       <c r="P44" s="34">
         <f>(P40/P41)*(P39/P43)*-1</f>
-        <v>1.9663701049903277</v>
+        <v>2.042605990429637</v>
       </c>
       <c r="Q44" s="34">
         <f>(Q40/Q41)*(Q39/Q43)*-1</f>
-        <v>1.1676938080576995</v>
+        <v>1.229068467463343</v>
       </c>
       <c r="R44" s="36">
         <f>(R40/R41)*(R39/R43)*-1</f>
-        <v>1.2317589335136183</v>
+        <v>1.3383427976479501</v>
       </c>
     </row>
     <row r="45" spans="8:18" x14ac:dyDescent="0.25">
@@ -3269,7 +3267,7 @@
       </c>
       <c r="I45" s="62">
         <f>I39/I42</f>
-        <v>0.56578947368421051</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="J45" s="63"/>
       <c r="K45" s="64"/>
@@ -3277,23 +3275,23 @@
       <c r="M45" s="66"/>
       <c r="N45" s="67">
         <f>N39/N42</f>
-        <v>0.5</v>
+        <v>0.50649350649350644</v>
       </c>
       <c r="O45" s="64">
         <f>O39/O42</f>
-        <v>0.52631578947368418</v>
+        <v>0.53246753246753242</v>
       </c>
       <c r="P45" s="64">
         <f>P39/P42</f>
-        <v>0.56578947368421051</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="Q45" s="64">
         <f>Q39/Q42</f>
-        <v>0.52631578947368418</v>
+        <v>0.53246753246753242</v>
       </c>
       <c r="R45" s="68">
         <f>R39/R42</f>
-        <v>0.55263157894736847</v>
+        <v>0.55844155844155841</v>
       </c>
     </row>
     <row r="46" spans="8:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3344,10 +3342,10 @@
   <dimension ref="A1:AN79"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="L72" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="J31" sqref="J31"/>
+      <selection pane="bottomRight" activeCell="AG95" sqref="AG95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9363,7 +9361,7 @@
         <v>43291</v>
       </c>
       <c r="B51" s="4">
-        <f t="shared" ref="B51:B78" si="812">D51-C51</f>
+        <f t="shared" ref="B51:B79" si="812">D51-C51</f>
         <v>19902.79</v>
       </c>
       <c r="C51" s="4">
@@ -13167,7 +13165,140 @@
       </c>
     </row>
     <row r="79" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="C79" s="4"/>
+      <c r="A79" s="9">
+        <v>43329</v>
+      </c>
+      <c r="B79" s="4">
+        <f t="shared" si="812"/>
+        <v>20007.669999999998</v>
+      </c>
+      <c r="C79" s="4">
+        <v>104.72</v>
+      </c>
+      <c r="D79" s="4">
+        <f>20124.46-12.07</f>
+        <v>20112.39</v>
+      </c>
+      <c r="E79" s="5">
+        <f t="shared" ref="E79" si="1440">D79/D78-1</f>
+        <v>4.23365755257743E-3</v>
+      </c>
+      <c r="F79" s="10">
+        <f t="shared" ref="F79" si="1441">F78*(1+E79)</f>
+        <v>100.56195000000004</v>
+      </c>
+      <c r="G79" s="5">
+        <f t="shared" ref="G79" si="1442">F79/F$45-1</f>
+        <v>1.3302358482011334E-2</v>
+      </c>
+      <c r="H79" s="8">
+        <f t="shared" ref="H79" si="1443">F79/$F$2-1</f>
+        <v>5.6195000000003326E-3</v>
+      </c>
+      <c r="J79" s="11">
+        <f>VLOOKUP($A79,Prices!$A:$J,MATCH(J$1,Prices!$1:$1,0),0)</f>
+        <v>4.568738751211443E-3</v>
+      </c>
+      <c r="K79" s="11">
+        <f>VLOOKUP($A79,Prices!$A:$J,MATCH(K$1,Prices!$1:$1,0),0)</f>
+        <v>5.6390977443587786E-4</v>
+      </c>
+      <c r="L79" s="11">
+        <f>VLOOKUP($A79,Prices!$A:$J,MATCH(L$1,Prices!$1:$1,0),0)</f>
+        <v>3.2855644879412615E-3</v>
+      </c>
+      <c r="M79" s="11">
+        <f t="shared" ref="M79" si="1444">0.6*J79 + 0.4*K79</f>
+        <v>2.966807160501217E-3</v>
+      </c>
+      <c r="N79" s="11">
+        <f>VLOOKUP($A79,Prices!$A:$J,MATCH(N$1,Prices!$1:$1,0),0)</f>
+        <v>1.4543339150669077E-2</v>
+      </c>
+      <c r="P79" s="10">
+        <f t="shared" ref="P79" si="1445">P78*(1+J79)</f>
+        <v>100.79209476116759</v>
+      </c>
+      <c r="Q79" s="10">
+        <f t="shared" ref="Q79" si="1446">Q78*(1+K79)</f>
+        <v>100.66197501656086</v>
+      </c>
+      <c r="R79" s="10">
+        <f t="shared" ref="R79" si="1447">R78*(1+L79)</f>
+        <v>107.79389696669051</v>
+      </c>
+      <c r="S79" s="10">
+        <f t="shared" ref="S79" si="1448">S78*(1+M79)</f>
+        <v>100.78390690152811</v>
+      </c>
+      <c r="T79" s="10">
+        <f t="shared" ref="T79" si="1449">T78*(1+N79)</f>
+        <v>101.14388572456676</v>
+      </c>
+      <c r="V79" s="5">
+        <f t="shared" ref="V79" si="1450">P79/P$45-1</f>
+        <v>2.0247469066367207E-2</v>
+      </c>
+      <c r="W79" s="5">
+        <f t="shared" ref="W79" si="1451">Q79/Q$45-1</f>
+        <v>3.4800378543651256E-3</v>
+      </c>
+      <c r="X79" s="5">
+        <f t="shared" ref="X79" si="1452">R79/R$45-1</f>
+        <v>5.1236037355795627E-2</v>
+      </c>
+      <c r="Y79" s="5">
+        <f t="shared" ref="Y79" si="1453">S79/S$45-1</f>
+        <v>1.3658618631294583E-2</v>
+      </c>
+      <c r="Z79" s="5">
+        <f t="shared" ref="Z79" si="1454">T79/T$45-1</f>
+        <v>2.2988505747130183E-3</v>
+      </c>
+      <c r="AB79" s="8">
+        <f t="shared" ref="AB79" si="1455">P79/$P$2-1</f>
+        <v>7.9209476116759436E-3</v>
+      </c>
+      <c r="AC79" s="8">
+        <f t="shared" ref="AC79" si="1456">Q79/$P$2-1</f>
+        <v>6.6197501656086732E-3</v>
+      </c>
+      <c r="AD79" s="8">
+        <f t="shared" ref="AD79" si="1457">R79/$P$2-1</f>
+        <v>7.7938969666905056E-2</v>
+      </c>
+      <c r="AE79" s="8">
+        <f t="shared" ref="AE79" si="1458">S79/$P$2-1</f>
+        <v>7.839069015281197E-3</v>
+      </c>
+      <c r="AF79" s="8">
+        <f t="shared" ref="AF79" si="1459">T79/$T$2-1</f>
+        <v>1.1438857245667622E-2</v>
+      </c>
+      <c r="AI79" s="8">
+        <f t="shared" ref="AI79" si="1460">MIN(0,(F79-MAX(F50:F79))/MAX(F50:F79))</f>
+        <v>0</v>
+      </c>
+      <c r="AJ79" s="8">
+        <f t="shared" ref="AJ79" si="1461">MIN(0,(P79-MAX(P50:P79))/MAX(P50:P79))</f>
+        <v>-1.7866811044937106E-2</v>
+      </c>
+      <c r="AK79" s="8">
+        <f t="shared" ref="AK79" si="1462">MIN(0,(Q79-MAX(Q50:Q79))/MAX(Q50:Q79))</f>
+        <v>-4.6943948925031159E-4</v>
+      </c>
+      <c r="AL79" s="8">
+        <f t="shared" ref="AL79" si="1463">MIN(0,(R79-MAX(R50:R79))/MAX(R50:R79))</f>
+        <v>-1.4958082582529537E-3</v>
+      </c>
+      <c r="AM79" s="8">
+        <f t="shared" ref="AM79" si="1464">MIN(0,(S79-MAX(S50:S79))/MAX(S50:S79))</f>
+        <v>-9.1954536344948917E-3</v>
+      </c>
+      <c r="AN79" s="8">
+        <f t="shared" ref="AN79" si="1465">MIN(0,(T79-MAX(T50:T79))/MAX(T50:T79))</f>
+        <v>-2.5153717160424725E-2</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -13180,7 +13311,7 @@
   <dimension ref="A1:J87"/>
   <sheetViews>
     <sheetView topLeftCell="A51" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A80" sqref="A80"/>
+      <selection activeCell="P62" sqref="P62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16064,37 +16195,40 @@
       </c>
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B80" t="str">
+      <c r="A80" s="13">
+        <v>43329</v>
+      </c>
+      <c r="B80">
         <f t="array" ref="B80">_xll.HistoricalData(B$1,"Adj. Close",$A80,$A80,"Daily","RemoveHeaders = True","ReverseOrder =True","RemoveDates =""True")</f>
-        <v>--</v>
-      </c>
-      <c r="C80" t="str">
+        <v>72.56</v>
+      </c>
+      <c r="C80">
         <f t="array" ref="C80">_xll.HistoricalData(C$1,"Adj. Close",$A80,$A80,"Daily","RemoveHeaders = True","ReverseOrder =True","RemoveDates =""True")</f>
-        <v>--</v>
-      </c>
-      <c r="D80" t="str">
+        <v>106.46</v>
+      </c>
+      <c r="D80">
         <f t="array" ref="D80">_xll.HistoricalData(D$1,"Adj. Close",$A80,$A80,"Daily","RemoveHeaders = True","ReverseOrder =True","RemoveDates =""True")</f>
-        <v>--</v>
-      </c>
-      <c r="E80" t="str">
+        <v>287.04000000000002</v>
+      </c>
+      <c r="E80">
         <f t="array" ref="E80">_xll.HistoricalData(E$1,"Adj. Close",$A80,$A80,"Daily","RemoveHeaders = True","ReverseOrder =True","RemoveDates =""True")</f>
-        <v>--</v>
-      </c>
-      <c r="G80" s="5" t="e">
+        <v>17.440000000000001</v>
+      </c>
+      <c r="G80" s="5">
         <f t="shared" si="224"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="H80" s="5" t="e">
+        <v>4.568738751211443E-3</v>
+      </c>
+      <c r="H80" s="5">
         <f t="shared" si="225"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I80" s="5" t="e">
+        <v>5.6390977443587786E-4</v>
+      </c>
+      <c r="I80" s="5">
         <f t="shared" si="226"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="J80" s="5" t="e">
+        <v>3.2855644879412615E-3</v>
+      </c>
+      <c r="J80" s="5">
         <f t="shared" si="227"/>
-        <v>#VALUE!</v>
+        <v>1.4543339150669077E-2</v>
       </c>
     </row>
     <row r="81" spans="2:10" x14ac:dyDescent="0.25">
@@ -16344,8 +16478,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W40"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="Q35" sqref="Q35"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O31" sqref="O31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16383,7 +16517,7 @@
       </c>
       <c r="G2" s="74">
         <f>SUM(G5:G10)</f>
-        <v>0.99264713057690579</v>
+        <v>0.99271647192396439</v>
       </c>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.25">
@@ -16434,7 +16568,7 @@
       </c>
       <c r="C5">
         <f>_xll.RealtimeData(A5,"Last")</f>
-        <v>349.02</v>
+        <v>352.28</v>
       </c>
       <c r="D5">
         <f>ROUNDDOWN(($C$2/6)/B5,0)</f>
@@ -16442,19 +16576,19 @@
       </c>
       <c r="E5" s="8">
         <f>C5/B5-1</f>
-        <v>5.142340713962934E-2</v>
+        <v>6.124416327760196E-2</v>
       </c>
       <c r="F5">
         <f>C5*D5</f>
-        <v>12215.699999999999</v>
+        <v>12329.8</v>
       </c>
       <c r="G5" s="73">
         <f>F5/$F$13</f>
-        <v>0.16930323829319843</v>
+        <v>0.16927307498520722</v>
       </c>
       <c r="H5" s="8">
         <f>F5/$F$31</f>
-        <v>0.11925673336845445</v>
+        <v>0.11942598273050967</v>
       </c>
       <c r="I5">
         <f>B5*D5</f>
@@ -16471,7 +16605,7 @@
       </c>
       <c r="C6">
         <f>_xll.RealtimeData(A6,"Last")</f>
-        <v>1875.4999</v>
+        <v>1876.71</v>
       </c>
       <c r="D6">
         <f t="shared" ref="D6:D10" si="0">ROUNDDOWN(($C$2/6)/B6,0)</f>
@@ -16479,19 +16613,19 @@
       </c>
       <c r="E6" s="8">
         <f t="shared" ref="E6:E10" si="1">C6/B6-1</f>
-        <v>0.15088173930118698</v>
+        <v>0.15162430505271174</v>
       </c>
       <c r="F6">
         <f t="shared" ref="F6:F9" si="2">C6*D6</f>
-        <v>13128.499299999999</v>
+        <v>13136.970000000001</v>
       </c>
       <c r="G6" s="73">
         <f t="shared" ref="G6:G10" si="3">F6/$F$13</f>
-        <v>0.18195416107304443</v>
+        <v>0.18035453193794043</v>
       </c>
       <c r="H6" s="8">
         <f t="shared" ref="H6:H10" si="4">F6/$F$31</f>
-        <v>0.12816800842751877</v>
+        <v>0.12724420123207381</v>
       </c>
       <c r="I6">
         <f t="shared" ref="I6:I10" si="5">B6*D6</f>
@@ -16508,7 +16642,7 @@
       </c>
       <c r="C7">
         <f>_xll.RealtimeData(A7,"Last")</f>
-        <v>45.720999999999997</v>
+        <v>46.22</v>
       </c>
       <c r="D7">
         <f t="shared" si="0"/>
@@ -16516,19 +16650,19 @@
       </c>
       <c r="E7" s="8">
         <f t="shared" si="1"/>
-        <v>7.8834355828220737E-2</v>
+        <v>9.0608777725342149E-2</v>
       </c>
       <c r="F7">
         <f t="shared" si="2"/>
-        <v>12573.275</v>
+        <v>12710.5</v>
       </c>
       <c r="G7" s="73">
         <f t="shared" si="3"/>
-        <v>0.17425904151632035</v>
+        <v>0.17449962039931519</v>
       </c>
       <c r="H7" s="8">
         <f t="shared" si="4"/>
-        <v>0.12274758746885191</v>
+        <v>0.12311342872521397</v>
       </c>
       <c r="I7">
         <f t="shared" si="5"/>
@@ -16545,7 +16679,7 @@
       </c>
       <c r="C8">
         <f>_xll.RealtimeData(A8,"Last")</f>
-        <v>521.35</v>
+        <v>525.36</v>
       </c>
       <c r="D8">
         <f t="shared" si="0"/>
@@ -16553,19 +16687,19 @@
       </c>
       <c r="E8" s="8">
         <f t="shared" si="1"/>
-        <v>0.1341832183958056</v>
+        <v>0.14290686797050056</v>
       </c>
       <c r="F8">
         <f t="shared" si="2"/>
-        <v>13033.75</v>
+        <v>13134</v>
       </c>
       <c r="G8" s="73">
         <f t="shared" si="3"/>
-        <v>0.18064098513421048</v>
+        <v>0.18031375747017078</v>
       </c>
       <c r="H8" s="8">
         <f t="shared" si="4"/>
-        <v>0.12724301092373694</v>
+        <v>0.12721543392289525</v>
       </c>
       <c r="I8">
         <f t="shared" si="5"/>
@@ -16582,7 +16716,7 @@
       </c>
       <c r="C9">
         <f>_xll.RealtimeData(A9,"Last")</f>
-        <v>47.189900000000002</v>
+        <v>48.06</v>
       </c>
       <c r="D9">
         <f t="shared" si="0"/>
@@ -16590,19 +16724,19 @@
       </c>
       <c r="E9" s="8">
         <f t="shared" si="1"/>
-        <v>-0.18058864386178153</v>
+        <v>-0.16548011807605489</v>
       </c>
       <c r="F9">
         <f t="shared" si="2"/>
-        <v>9532.3598000000002</v>
+        <v>9708.1200000000008</v>
       </c>
       <c r="G9" s="73">
         <f t="shared" si="3"/>
-        <v>0.1321135409936316</v>
+        <v>0.13328061482955036</v>
       </c>
       <c r="H9" s="8">
         <f t="shared" si="4"/>
-        <v>9.3060413323900706E-2</v>
+        <v>9.4032488074884887E-2</v>
       </c>
       <c r="I9">
         <f t="shared" si="5"/>
@@ -16619,7 +16753,7 @@
       </c>
       <c r="C10">
         <f>_xll.RealtimeData(A10,"Last")</f>
-        <v>53.81</v>
+        <v>54.54</v>
       </c>
       <c r="D10">
         <f t="shared" si="0"/>
@@ -16627,19 +16761,19 @@
       </c>
       <c r="E10" s="8">
         <f t="shared" si="1"/>
-        <v>-4.5075421472936972E-2</v>
+        <v>-3.2120674356699186E-2</v>
       </c>
       <c r="F10">
         <f>C10*D10</f>
-        <v>11138.67</v>
+        <v>11289.78</v>
       </c>
       <c r="G10" s="73">
         <f t="shared" si="3"/>
-        <v>0.15437616356650055</v>
+        <v>0.15499487230178047</v>
       </c>
       <c r="H10" s="8">
         <f t="shared" si="4"/>
-        <v>0.10874214316569682</v>
+        <v>0.10935238781742231</v>
       </c>
       <c r="I10">
         <f t="shared" si="5"/>
@@ -16658,7 +16792,7 @@
       </c>
       <c r="F13" s="75">
         <f>SUM(F5:F10)+I13</f>
-        <v>72152.784100000004</v>
+        <v>72839.700000000012</v>
       </c>
       <c r="H13" t="s">
         <v>26</v>
@@ -16674,7 +16808,7 @@
       </c>
       <c r="F14" s="8">
         <f>F13/C2-1</f>
-        <v>3.0754058571428544E-2</v>
+        <v>4.0567142857143024E-2</v>
       </c>
     </row>
     <row r="15" spans="1:23" x14ac:dyDescent="0.25">
@@ -16685,7 +16819,7 @@
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H17" s="11">
         <f>SUM(H20:H23)</f>
-        <v>0.98828963860565788</v>
+        <v>0.9883371394908772</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
@@ -16727,7 +16861,7 @@
       </c>
       <c r="C20">
         <f>_xll.RealtimeData(A20,"Last")</f>
-        <v>16.77</v>
+        <v>16.84</v>
       </c>
       <c r="D20">
         <f>ROUNDDOWN(($C$3*E20)/B20,0)</f>
@@ -16738,19 +16872,19 @@
       </c>
       <c r="F20" s="8">
         <f>C20/B20-1</f>
-        <v>-1.3529411764705901E-2</v>
+        <v>-9.4117647058823417E-3</v>
       </c>
       <c r="G20">
         <f>D20*C20</f>
-        <v>4192.5</v>
+        <v>4210</v>
       </c>
       <c r="H20" s="8">
         <f>G20/$G$27</f>
-        <v>0.13846153236442957</v>
+        <v>0.13847549986859628</v>
       </c>
       <c r="I20" s="8">
         <f>G20/$F$31</f>
-        <v>4.0929611454705445E-2</v>
+        <v>4.0777902909653496E-2</v>
       </c>
       <c r="J20">
         <f>B20*D20</f>
@@ -16767,7 +16901,7 @@
       </c>
       <c r="C21">
         <f>_xll.RealtimeData(A21,"Last")</f>
-        <v>286.48</v>
+        <v>287.72000000000003</v>
       </c>
       <c r="D21">
         <f t="shared" ref="D21:D22" si="6">ROUNDDOWN(($C$3*E21)/B21,0)</f>
@@ -16778,19 +16912,19 @@
       </c>
       <c r="F21" s="8">
         <f t="shared" ref="F21:F23" si="7">C21/B21-1</f>
-        <v>1.272624434389158E-2</v>
+        <v>1.7109728506787381E-2</v>
       </c>
       <c r="G21">
         <f t="shared" ref="G21:G22" si="8">D21*C21</f>
-        <v>10886.240000000002</v>
+        <v>10933.36</v>
       </c>
       <c r="H21" s="8">
         <f t="shared" ref="H21:H23" si="9">G21/$G$27</f>
-        <v>0.35952903329444197</v>
+        <v>0.3596205442383173</v>
       </c>
       <c r="I21" s="8">
         <f t="shared" ref="I21:I23" si="10">G21/$F$31</f>
-        <v>0.10627777540910499</v>
+        <v>0.10590011699674327</v>
       </c>
       <c r="J21">
         <f t="shared" ref="J21:J23" si="11">B21*D21</f>
@@ -16807,7 +16941,7 @@
       </c>
       <c r="C22">
         <f>_xll.RealtimeData(A22,"Last")</f>
-        <v>82.854500000000002</v>
+        <v>83.25</v>
       </c>
       <c r="D22">
         <f t="shared" si="6"/>
@@ -16818,19 +16952,19 @@
       </c>
       <c r="F22" s="8">
         <f t="shared" si="7"/>
-        <v>1.63702158979393E-2</v>
+        <v>2.1221786064769432E-2</v>
       </c>
       <c r="G22">
         <f t="shared" si="8"/>
-        <v>11931.048000000001</v>
+        <v>11988</v>
       </c>
       <c r="H22" s="8">
         <f t="shared" si="9"/>
-        <v>0.39403486912189928</v>
+        <v>0.39430980817689604</v>
       </c>
       <c r="I22" s="8">
         <f t="shared" si="10"/>
-        <v>0.11647779579903174</v>
+        <v>0.1161153206843055</v>
       </c>
       <c r="J22">
         <f t="shared" si="11"/>
@@ -16847,7 +16981,7 @@
       </c>
       <c r="C23">
         <f>_xll.RealtimeData(A23,"Last")</f>
-        <v>83.28</v>
+        <v>83.33</v>
       </c>
       <c r="D23">
         <f>ROUNDDOWN(($C$3*E23)/B23,0)</f>
@@ -16858,19 +16992,19 @@
       </c>
       <c r="F23" s="8">
         <f t="shared" si="7"/>
-        <v>2.6486876956417493E-3</v>
+        <v>3.2506621719239348E-3</v>
       </c>
       <c r="G23">
         <f>D23*C23</f>
-        <v>2914.8</v>
+        <v>2916.5499999999997</v>
       </c>
       <c r="H23" s="8">
         <f t="shared" si="9"/>
-        <v>9.6264203824887137E-2</v>
+        <v>9.5931287207067562E-2</v>
       </c>
       <c r="I23" s="8">
         <f t="shared" si="10"/>
-        <v>2.8455964572015609E-2</v>
+        <v>2.8249594472957221E-2</v>
       </c>
       <c r="J23">
         <f t="shared" si="11"/>
@@ -16886,7 +17020,7 @@
       </c>
       <c r="G27">
         <f>SUM(G20:G23)+J28</f>
-        <v>30279.168000000001</v>
+        <v>30402.49</v>
       </c>
       <c r="J27">
         <f>SUM(J20:J23)</f>
@@ -16899,7 +17033,7 @@
       </c>
       <c r="G28" s="8">
         <f>G27/J27-1</f>
-        <v>2.1377602341272395E-2</v>
+        <v>2.553750292625323E-2</v>
       </c>
       <c r="I28" t="s">
         <v>26</v>
@@ -16915,7 +17049,7 @@
       </c>
       <c r="F31" s="75">
         <f>SUM(F13,G27)</f>
-        <v>102431.95210000001</v>
+        <v>103242.19000000002</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
@@ -16924,11 +17058,11 @@
       </c>
       <c r="F33" s="8">
         <f>F31/B1-1</f>
-        <v>2.4319521000000011E-2</v>
+        <v>3.2421900000000115E-2</v>
       </c>
       <c r="H33" s="11">
         <f>F33-F37</f>
-        <v>2.8174701551390464E-3</v>
+        <v>4.2971536220443932E-3</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
@@ -16941,16 +17075,16 @@
       </c>
       <c r="C37">
         <f>_xll.RealtimeData(A37,"Last")</f>
-        <v>38.061999999999998</v>
+        <v>38.212000000000003</v>
       </c>
       <c r="D37" s="8">
         <f>C37/B37-1</f>
-        <v>-5.1751176163095103E-3</v>
+        <v>-1.2545739675899892E-3</v>
       </c>
       <c r="E37" s="11"/>
       <c r="F37" s="8">
         <f>D37*$B$3+D40*$B$2</f>
-        <v>2.1502050844860964E-2</v>
+        <v>2.8124746377955721E-2</v>
       </c>
       <c r="H37" s="8"/>
       <c r="I37" s="8"/>
@@ -16965,11 +17099,11 @@
       </c>
       <c r="C38">
         <f>_xll.RealtimeData(A38,"Last")</f>
-        <v>286.48</v>
+        <v>287.72000000000003</v>
       </c>
       <c r="D38" s="8">
         <f t="shared" ref="D38:D39" si="12">C38/B38-1</f>
-        <v>5.0416162505041662E-2</v>
+        <v>5.4962783705496232E-2</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
@@ -16982,11 +17116,11 @@
       </c>
       <c r="C39">
         <f>_xll.RealtimeData(A39,"Last")</f>
-        <v>179.33</v>
+        <v>179.7</v>
       </c>
       <c r="D39" s="8">
         <f t="shared" si="12"/>
-        <v>5.4448168401246555E-2</v>
+        <v>5.6623743164579299E-2</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
@@ -16999,11 +17133,11 @@
       </c>
       <c r="C40">
         <f>_xll.RealtimeData(A40,"Last")</f>
-        <v>46.172199999999997</v>
+        <v>46.52</v>
       </c>
       <c r="D40" s="8">
         <f>C40/B40-1</f>
-        <v>3.2935123042505454E-2</v>
+        <v>4.0715883668903885E-2</v>
       </c>
     </row>
   </sheetData>

--- a/Portfolio.xlsx
+++ b/Portfolio.xlsx
@@ -1032,63 +1032,387 @@
 <file path=xl/volatileDependencies.xml><?xml version="1.0" encoding="utf-8"?>
 <volTypes xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <volType type="realTimeData">
-    <main first="rtdsrv.3b5559bbf91d410893ea2c6ef2942c28">
-      <tp t="s">
-        <v>ISHARES TR-1 3 YR TREAS BD</v>
+    <main first="rtdsrv.4b86c05bef1847308d30bfc58374b548">
+      <tp>
+        <v>0</v>
+        <stp/>
+        <stp>GYLD</stp>
+        <stp>change in percent</stp>
+        <tr r="K26" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.4b86c05bef1847308d30bfc58374b548">
+      <tp>
+        <v>-2.0670488100000002</v>
+        <stp/>
+        <stp>GLD</stp>
+        <stp>mtd percent change</stp>
+        <tr r="U8" s="1"/>
+      </tp>
+      <tp>
+        <v>-0.41176470999999998</v>
+        <stp/>
+        <stp>DBC</stp>
+        <stp>mtd percent change</stp>
+        <tr r="U2" s="1"/>
+      </tp>
+      <tp>
+        <v>-3.5200179899999999</v>
+        <stp/>
+        <stp>EEM</stp>
+        <stp>mtd percent change</stp>
+        <tr r="U10" s="1"/>
+      </tp>
+      <tp>
+        <v>-2.5632320499999999</v>
+        <stp/>
+        <stp>EWJ</stp>
+        <stp>mtd percent change</stp>
+        <tr r="U7" s="1"/>
+      </tp>
+      <tp>
+        <v>-2.32608696</v>
+        <stp/>
+        <stp>IEV</stp>
+        <stp>mtd percent change</stp>
+        <tr r="U9" s="1"/>
+      </tp>
+      <tp>
+        <v>1.30254589</v>
+        <stp/>
+        <stp>IEF</stp>
+        <stp>mtd percent change</stp>
+        <tr r="U11" s="1"/>
+      </tp>
+      <tp>
+        <v>1.74190383</v>
+        <stp/>
+        <stp>IYR</stp>
+        <stp>mtd percent change</stp>
+        <tr r="U4" s="1"/>
+      </tp>
+      <tp>
+        <v>2.0326640299999998</v>
+        <stp/>
+        <stp>IVV</stp>
+        <stp>mtd percent change</stp>
+        <tr r="U3" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.4b86c05bef1847308d30bfc58374b548">
+      <tp>
+        <v>-0.91139241000000004</v>
+        <stp/>
+        <stp>RWX</stp>
+        <stp>mtd percent change</stp>
+        <tr r="U6" s="1"/>
+      </tp>
+      <tp>
+        <v>0.29484709999999997</v>
         <stp/>
         <stp>SHY</stp>
-        <stp>description</stp>
-        <tr r="B12" s="1"/>
+        <stp>mtd percent change</stp>
+        <tr r="U12" s="1"/>
       </tp>
       <tp>
-        <v>48.06</v>
+        <v>2.3214587199999999</v>
         <stp/>
-        <stp>MU</stp>
-        <stp>last</stp>
-        <tr r="C9" s="4"/>
+        <stp>TLT</stp>
+        <stp>mtd percent change</stp>
+        <tr r="U5" s="1"/>
       </tp>
     </main>
-    <main first="rtdsrv.3b5559bbf91d410893ea2c6ef2942c28">
-      <tp t="s">
-        <v>SPDR INDEX SHS FDS-DJ INTL RL ETF</v>
+    <main first="rtdsrv.4b86c05bef1847308d30bfc58374b548">
+      <tp>
+        <v>5.217630097487231E-3</v>
+        <stp/>
+        <stp>ACWI</stp>
+        <stp>change in percent</stp>
+        <tr r="K22" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.4b86c05bef1847308d30bfc58374b548">
+      <tp>
+        <v>82.94</v>
+        <stp/>
+        <stp>IYR</stp>
+        <stp>last</stp>
+        <tr r="J4" s="1"/>
+        <tr r="C22" s="4"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.4b86c05bef1847308d30bfc58374b548">
+      <tp>
+        <v>288.63</v>
+        <stp/>
+        <stp>IVV</stp>
+        <stp>last</stp>
+        <tr r="J3" s="1"/>
+        <tr r="C38" s="4"/>
+        <tr r="C21" s="4"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.4b86c05bef1847308d30bfc58374b548">
+      <tp>
+        <v>57.4</v>
+        <stp/>
+        <stp>EWJ</stp>
+        <stp>last</stp>
+        <tr r="J7" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.4b86c05bef1847308d30bfc58374b548">
+      <tp>
+        <v>39.14</v>
         <stp/>
         <stp>RWX</stp>
-        <stp>description</stp>
-        <tr r="B6" s="1"/>
+        <stp>last</stp>
+        <tr r="J6" s="1"/>
       </tp>
     </main>
-    <main first="rtdsrv.3b5559bbf91d410893ea2c6ef2942c28">
-      <tp t="s">
-        <v>ISHARES TR-20 YR TR BD ETF</v>
+    <main first="rtdsrv.4b86c05bef1847308d30bfc58374b548">
+      <tp>
+        <v>55.256</v>
+        <stp/>
+        <stp>STX</stp>
+        <stp>last</stp>
+        <tr r="C10" s="4"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.4b86c05bef1847308d30bfc58374b548">
+      <tp>
+        <v>180.45</v>
+        <stp/>
+        <stp>QQQ</stp>
+        <stp>last</stp>
+        <tr r="C39" s="4"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.4b86c05bef1847308d30bfc58374b548">
+      <tp>
+        <v>112.76</v>
+        <stp/>
+        <stp>GLD</stp>
+        <stp>last</stp>
+        <tr r="J8" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.4b86c05bef1847308d30bfc58374b548">
+      <tp>
+        <v>121.22</v>
         <stp/>
         <stp>TLT</stp>
-        <stp>description</stp>
-        <tr r="B5" s="1"/>
+        <stp>last</stp>
+        <tr r="J5" s="1"/>
       </tp>
     </main>
-    <main first="rtdsrv.3b5559bbf91d410893ea2c6ef2942c28">
+    <main first="rtdsrv.4b86c05bef1847308d30bfc58374b548">
+      <tp>
+        <v>83.304900000000004</v>
+        <stp/>
+        <stp>SHY</stp>
+        <stp>last</stp>
+        <tr r="J12" s="1"/>
+        <tr r="C23" s="4"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.4b86c05bef1847308d30bfc58374b548">
       <tp t="s">
-        <v>SPDR GOLD TRUST-GOLD SHS</v>
+        <v>ARROW ETF TR-ARROW DJ GLB YLD</v>
+        <stp/>
+        <stp>GYLD</stp>
+        <stp>description</stp>
+        <tr r="L26" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.4b86c05bef1847308d30bfc58374b548">
+      <tp>
+        <v>102.66</v>
+        <stp/>
+        <stp>IEF</stp>
+        <stp>last</stp>
+        <tr r="J11" s="1"/>
+      </tp>
+      <tp>
+        <v>42.895000000000003</v>
+        <stp/>
+        <stp>EEM</stp>
+        <stp>last</stp>
+        <tr r="J10" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.4b86c05bef1847308d30bfc58374b548">
+      <tp>
+        <v>44.93</v>
+        <stp/>
+        <stp>IEV</stp>
+        <stp>last</stp>
+        <tr r="J9" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.4b86c05bef1847308d30bfc58374b548">
+      <tp>
+        <v>16.93</v>
+        <stp/>
+        <stp>DBC</stp>
+        <stp>last</stp>
+        <tr r="J2" s="1"/>
+        <tr r="C20" s="4"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.4b86c05bef1847308d30bfc58374b548">
+      <tp>
+        <v>38.212000000000003</v>
+        <stp/>
+        <stp>GAL</stp>
+        <stp>last</stp>
+        <tr r="C37" s="4"/>
+      </tp>
+      <tp>
+        <v>-1.5561174868702298E-3</v>
+        <stp/>
+        <stp>IEF</stp>
+        <stp>change in percent</stp>
+        <tr r="L11" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.4b86c05bef1847308d30bfc58374b548">
+      <tp>
+        <v>-1.1718383800506235E-3</v>
+        <stp/>
+        <stp>AGG</stp>
+        <stp>change in percent</stp>
+        <tr r="K23" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.4b86c05bef1847308d30bfc58374b548">
+      <tp>
+        <v>6.2117312982524987E-4</v>
         <stp/>
         <stp>GLD</stp>
-        <stp>description</stp>
-        <tr r="B8" s="1"/>
+        <stp>change in percent</stp>
+        <tr r="L8" s="1"/>
       </tp>
     </main>
-    <main first="rtdsrv.3b5559bbf91d410893ea2c6ef2942c28">
-      <tp t="s">
-        <v>ISHARES TR-MSCI EMG MKT ETF</v>
+    <main first="rtdsrv.4b86c05bef1847308d30bfc58374b548">
+      <tp>
+        <v>5.3444180522565264E-3</v>
+        <stp/>
+        <stp>DBC</stp>
+        <stp>change in percent</stp>
+        <tr r="L2" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.4b86c05bef1847308d30bfc58374b548">
+      <tp>
+        <v>1.1674528301886911E-2</v>
         <stp/>
         <stp>EEM</stp>
-        <stp>description</stp>
-        <tr r="B10" s="1"/>
+        <stp>change in percent</stp>
+        <tr r="L10" s="1"/>
       </tp>
-      <tp t="s">
-        <v>ISHARES INC-MSCI JPN ETF NEW</v>
+    </main>
+    <main first="rtdsrv.4b86c05bef1847308d30bfc58374b548">
+      <tp>
+        <v>-3.483106931383333E-4</v>
         <stp/>
         <stp>EWJ</stp>
-        <stp>description</stp>
-        <tr r="B7" s="1"/>
+        <stp>change in percent</stp>
+        <tr r="L7" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.4b86c05bef1847308d30bfc58374b548">
+      <tp>
+        <v>3.0930701327586919E-3</v>
+        <stp/>
+        <stp>IVV</stp>
+        <stp>change in percent</stp>
+        <tr r="K24" s="1"/>
+        <tr r="L3" s="1"/>
+      </tp>
+      <tp>
+        <v>1.0116906474820213E-2</v>
+        <stp/>
+        <stp>IEV</stp>
+        <stp>change in percent</stp>
+        <tr r="L9" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.4b86c05bef1847308d30bfc58374b548">
+      <tp>
+        <v>-4.6801872074883561E-3</v>
+        <stp/>
+        <stp>TLT</stp>
+        <stp>change in percent</stp>
+        <tr r="L5" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.4b86c05bef1847308d30bfc58374b548">
+      <tp>
+        <v>-4.2021851362709691E-3</v>
+        <stp/>
+        <stp>IYR</stp>
+        <stp>change in percent</stp>
+        <tr r="L4" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.4b86c05bef1847308d30bfc58374b548">
+      <tp>
+        <v>2.0481310803891011E-3</v>
+        <stp/>
+        <stp>RWX</stp>
+        <stp>change in percent</stp>
+        <tr r="L6" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.4b86c05bef1847308d30bfc58374b548">
+      <tp>
+        <v>-3.0121204848187691E-4</v>
+        <stp/>
+        <stp>SHY</stp>
+        <stp>change in percent</stp>
+        <tr r="L12" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.4b86c05bef1847308d30bfc58374b548">
+      <tp>
+        <v>529.57000000000005</v>
+        <stp/>
+        <stp>ISRG</stp>
+        <stp>last</stp>
+        <tr r="C8" s="4"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.4b86c05bef1847308d30bfc58374b548">
+      <tp>
+        <v>46.625599999999999</v>
+        <stp/>
+        <stp>QQQE</stp>
+        <stp>last</stp>
+        <tr r="C40" s="4"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.4b86c05bef1847308d30bfc58374b548">
+      <tp>
+        <v>3.67</v>
+        <stp/>
+        <stp>RWX</stp>
+        <stp>dividend yield</stp>
+        <tr r="M6" s="1"/>
+      </tp>
+      <tp>
+        <v>1.87</v>
+        <stp/>
+        <stp>SHY</stp>
+        <stp>dividend yield</stp>
+        <tr r="M12" s="1"/>
+      </tp>
+      <tp>
+        <v>2.71</v>
+        <stp/>
+        <stp>TLT</stp>
+        <stp>dividend yield</stp>
+        <tr r="M5" s="1"/>
       </tp>
       <tp t="s">
         <v>--</v>
@@ -1098,18 +1422,32 @@
         <tr r="M2" s="1"/>
       </tp>
       <tp>
-        <v>1.61</v>
+        <v>1.35</v>
+        <stp/>
+        <stp>EEM</stp>
+        <stp>dividend yield</stp>
+        <tr r="M10" s="1"/>
+      </tp>
+      <tp>
+        <v>1.6</v>
         <stp/>
         <stp>EWJ</stp>
         <stp>dividend yield</stp>
         <tr r="M7" s="1"/>
       </tp>
       <tp>
-        <v>1.37</v>
+        <v>2.2200000000000002</v>
         <stp/>
-        <stp>EEM</stp>
+        <stp>IEF</stp>
         <stp>dividend yield</stp>
-        <tr r="M10" s="1"/>
+        <tr r="M11" s="1"/>
+      </tp>
+      <tp>
+        <v>4.75</v>
+        <stp/>
+        <stp>IEV</stp>
+        <stp>dividend yield</stp>
+        <tr r="M9" s="1"/>
       </tp>
       <tp>
         <v>0.48</v>
@@ -1125,47 +1463,26 @@
         <stp>dividend yield</stp>
         <tr r="M3" s="1"/>
       </tp>
-      <tp>
-        <v>2.21</v>
+    </main>
+    <main first="rtdsrv.4b86c05bef1847308d30bfc58374b548">
+      <tp t="s">
+        <v>ISHARES INC-MSCI JPN ETF NEW</v>
         <stp/>
-        <stp>IEF</stp>
-        <stp>dividend yield</stp>
-        <tr r="M11" s="1"/>
-      </tp>
-      <tp>
-        <v>4.79</v>
-        <stp/>
-        <stp>IEV</stp>
-        <stp>dividend yield</stp>
-        <tr r="M9" s="1"/>
+        <stp>EWJ</stp>
+        <stp>description</stp>
+        <tr r="B7" s="1"/>
       </tp>
     </main>
-    <main first="rtdsrv.3b5559bbf91d410893ea2c6ef2942c28">
-      <tp>
-        <v>3.68</v>
+    <main first="rtdsrv.4b86c05bef1847308d30bfc58374b548">
+      <tp t="s">
+        <v>ISHARES TR-MSCI EMG MKT ETF</v>
         <stp/>
-        <stp>RWX</stp>
-        <stp>dividend yield</stp>
-        <tr r="M6" s="1"/>
-      </tp>
-      <tp>
-        <v>1.87</v>
-        <stp/>
-        <stp>SHY</stp>
-        <stp>dividend yield</stp>
-        <tr r="M12" s="1"/>
+        <stp>EEM</stp>
+        <stp>description</stp>
+        <tr r="B10" s="1"/>
       </tp>
     </main>
-    <main first="rtdsrv.3b5559bbf91d410893ea2c6ef2942c28">
-      <tp>
-        <v>2.73</v>
-        <stp/>
-        <stp>TLT</stp>
-        <stp>dividend yield</stp>
-        <tr r="M5" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.3b5559bbf91d410893ea2c6ef2942c28">
+    <main first="rtdsrv.4b86c05bef1847308d30bfc58374b548">
       <tp t="s">
         <v>INVESCO DB COMMDY INDX TRCK-UNIT</v>
         <stp/>
@@ -1174,7 +1491,30 @@
         <tr r="B2" s="1"/>
       </tp>
     </main>
-    <main first="rtdsrv.3b5559bbf91d410893ea2c6ef2942c28">
+    <main first="rtdsrv.4b86c05bef1847308d30bfc58374b548">
+      <tp t="s">
+        <v>SPDR GOLD TRUST-GOLD SHS</v>
+        <stp/>
+        <stp>GLD</stp>
+        <stp>description</stp>
+        <tr r="B8" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.4b86c05bef1847308d30bfc58374b548">
+      <tp t="s">
+        <v>ISHARES TR-U.S. REAL ES ETF</v>
+        <stp/>
+        <stp>IYR</stp>
+        <stp>description</stp>
+        <tr r="B4" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>ISHARES TR-CORE S&amp;P500 ETF</v>
+        <stp/>
+        <stp>IVV</stp>
+        <stp>description</stp>
+        <tr r="B3" s="1"/>
+      </tp>
       <tp t="s">
         <v>ISHARES TR-EUROPE ETF</v>
         <stp/>
@@ -1189,438 +1529,102 @@
         <stp>description</stp>
         <tr r="B11" s="1"/>
       </tp>
-      <tp t="s">
-        <v>ISHARES TR-U.S. REAL ES ETF</v>
+    </main>
+    <main first="rtdsrv.4b86c05bef1847308d30bfc58374b548">
+      <tp>
+        <v>1885.37</v>
         <stp/>
-        <stp>IYR</stp>
-        <stp>description</stp>
-        <tr r="B4" s="1"/>
+        <stp>AMZN</stp>
+        <stp>last</stp>
+        <tr r="C6" s="4"/>
       </tp>
-      <tp t="s">
-        <v>ISHARES TR-CORE S&amp;P500 ETF</v>
+    </main>
+    <main first="rtdsrv.4b86c05bef1847308d30bfc58374b548">
+      <tp>
+        <v>121.79</v>
+        <stp/>
+        <stp>TLT</stp>
+        <stp>close</stp>
+        <tr r="G5" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.4b86c05bef1847308d30bfc58374b548">
+      <tp>
+        <v>287.74</v>
         <stp/>
         <stp>IVV</stp>
-        <stp>description</stp>
-        <tr r="B3" s="1"/>
+        <stp>close</stp>
+        <tr r="G3" s="1"/>
       </tp>
     </main>
-    <main first="rtdsrv.3b5559bbf91d410893ea2c6ef2942c28">
+    <main first="rtdsrv.4b86c05bef1847308d30bfc58374b548">
       <tp>
-        <v>4.0216821122574581E-3</v>
-        <stp/>
-        <stp>EWJ</stp>
-        <stp>change in percent</stp>
-        <tr r="L7" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.3b5559bbf91d410893ea2c6ef2942c28">
-      <tp>
-        <v>4.5013030087656478E-3</v>
-        <stp/>
-        <stp>EEM</stp>
-        <stp>change in percent</stp>
-        <tr r="L10" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.3b5559bbf91d410893ea2c6ef2942c28">
-      <tp>
-        <v>9.030963302752236E-3</v>
-        <stp/>
-        <stp>GYLD</stp>
-        <stp>change in percent</stp>
-        <tr r="K26" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.3b5559bbf91d410893ea2c6ef2942c28">
-      <tp>
-        <v>1.7846519928614575E-3</v>
-        <stp/>
-        <stp>DBC</stp>
-        <stp>change in percent</stp>
-        <tr r="L2" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.3b5559bbf91d410893ea2c6ef2942c28">
-      <tp>
-        <v>3.7210584343990629E-3</v>
-        <stp/>
-        <stp>ACWI</stp>
-        <stp>change in percent</stp>
-        <tr r="K22" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.3b5559bbf91d410893ea2c6ef2942c28">
-      <tp>
-        <v>1.9725718579749014E-3</v>
-        <stp/>
-        <stp>AGG</stp>
-        <stp>change in percent</stp>
-        <tr r="K23" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.3b5559bbf91d410893ea2c6ef2942c28">
-      <tp>
-        <v>3.1219512195121268E-3</v>
-        <stp/>
-        <stp>IEF</stp>
-        <stp>change in percent</stp>
-        <tr r="L11" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.3b5559bbf91d410893ea2c6ef2942c28">
-      <tp>
-        <v>-1.1139240500000001</v>
-        <stp/>
-        <stp>RWX</stp>
-        <stp>mtd percent change</stp>
-        <tr r="U6" s="1"/>
-      </tp>
-      <tp>
-        <v>0.32506622000000002</v>
-        <stp/>
-        <stp>SHY</stp>
-        <stp>mtd percent change</stp>
-        <tr r="U12" s="1"/>
-      </tp>
-      <tp>
-        <v>2.81107547</v>
-        <stp/>
-        <stp>TLT</stp>
-        <stp>mtd percent change</stp>
-        <tr r="U5" s="1"/>
-      </tp>
-      <tp>
-        <v>-0.94117647000000004</v>
-        <stp/>
-        <stp>DBC</stp>
-        <stp>mtd percent change</stp>
-        <tr r="U2" s="1"/>
-      </tp>
-      <tp>
-        <v>-2.5292819600000001</v>
-        <stp/>
-        <stp>EWJ</stp>
-        <stp>mtd percent change</stp>
-        <tr r="U7" s="1"/>
-      </tp>
-      <tp>
-        <v>-4.6333783200000003</v>
-        <stp/>
-        <stp>EEM</stp>
-        <stp>mtd percent change</stp>
-        <tr r="U10" s="1"/>
-      </tp>
-      <tp>
-        <v>-2.1278443600000001</v>
-        <stp/>
-        <stp>GLD</stp>
-        <stp>mtd percent change</stp>
-        <tr r="U8" s="1"/>
-      </tp>
-      <tp>
-        <v>2.1221786100000002</v>
-        <stp/>
-        <stp>IYR</stp>
-        <stp>mtd percent change</stp>
-        <tr r="U4" s="1"/>
-      </tp>
-      <tp>
-        <v>1.7109728500000001</v>
-        <stp/>
-        <stp>IVV</stp>
-        <stp>mtd percent change</stp>
-        <tr r="U3" s="1"/>
-      </tp>
-      <tp>
-        <v>-3.3043478300000002</v>
-        <stp/>
-        <stp>IEV</stp>
-        <stp>mtd percent change</stp>
-        <tr r="U9" s="1"/>
-      </tp>
-      <tp>
-        <v>1.4604302300000001</v>
-        <stp/>
-        <stp>IEF</stp>
-        <stp>mtd percent change</stp>
-        <tr r="U11" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.3b5559bbf91d410893ea2c6ef2942c28">
-      <tp>
-        <v>4.9942031570498714E-3</v>
-        <stp/>
-        <stp>GLD</stp>
-        <stp>change in percent</stp>
-        <tr r="L8" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.3b5559bbf91d410893ea2c6ef2942c28">
-      <tp>
-        <v>6.0038424591735346E-4</v>
-        <stp/>
-        <stp>SHY</stp>
-        <stp>change in percent</stp>
-        <tr r="L12" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.3b5559bbf91d410893ea2c6ef2942c28">
-      <tp>
-        <v>6.7010309278351813E-3</v>
-        <stp/>
-        <stp>RWX</stp>
-        <stp>change in percent</stp>
-        <tr r="L6" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.3b5559bbf91d410893ea2c6ef2942c28">
-      <tp>
-        <v>1.0822510822511232E-3</v>
-        <stp/>
-        <stp>IYR</stp>
-        <stp>change in percent</stp>
-        <tr r="L4" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.3b5559bbf91d410893ea2c6ef2942c28">
-      <tp>
-        <v>7.0183382386233865E-3</v>
-        <stp/>
-        <stp>IEV</stp>
-        <stp>change in percent</stp>
-        <tr r="L9" s="1"/>
-      </tp>
-      <tp>
-        <v>2.3690078037904368E-3</v>
-        <stp/>
-        <stp>IVV</stp>
-        <stp>change in percent</stp>
-        <tr r="K24" s="1"/>
-        <tr r="L3" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.3b5559bbf91d410893ea2c6ef2942c28">
-      <tp>
-        <v>6.6953215407505543E-3</v>
-        <stp/>
-        <stp>TLT</stp>
-        <stp>change in percent</stp>
-        <tr r="L5" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.3b5559bbf91d410893ea2c6ef2942c28">
-      <tp>
-        <v>83.33</v>
-        <stp/>
-        <stp>SHY</stp>
-        <stp>last</stp>
-        <tr r="J12" s="1"/>
-        <tr r="C23" s="4"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.3b5559bbf91d410893ea2c6ef2942c28">
-      <tp>
-        <v>83.16</v>
+        <v>83.29</v>
         <stp/>
         <stp>IYR</stp>
         <stp>close</stp>
         <tr r="G4" s="1"/>
       </tp>
     </main>
-    <main first="rtdsrv.3b5559bbf91d410893ea2c6ef2942c28">
+    <main first="rtdsrv.4b86c05bef1847308d30bfc58374b548">
       <tp>
-        <v>120.98</v>
-        <stp/>
-        <stp>TLT</stp>
-        <stp>close</stp>
-        <tr r="G5" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.3b5559bbf91d410893ea2c6ef2942c28">
-      <tp>
-        <v>112.69</v>
-        <stp/>
-        <stp>GLD</stp>
-        <stp>last</stp>
-        <tr r="J8" s="1"/>
-      </tp>
-      <tp>
-        <v>1876.71</v>
-        <stp/>
-        <stp>AMZN</stp>
-        <stp>last</stp>
-        <tr r="C6" s="4"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.3b5559bbf91d410893ea2c6ef2942c28">
-      <tp>
-        <v>121.79</v>
-        <stp/>
-        <stp>TLT</stp>
-        <stp>last</stp>
-        <tr r="J5" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.3b5559bbf91d410893ea2c6ef2942c28">
-      <tp>
-        <v>287.04000000000002</v>
-        <stp/>
-        <stp>IVV</stp>
-        <stp>close</stp>
-        <tr r="G3" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.3b5559bbf91d410893ea2c6ef2942c28">
-      <tp>
-        <v>38.212000000000003</v>
-        <stp/>
-        <stp>GAL</stp>
-        <stp>last</stp>
-        <tr r="C37" s="4"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.3b5559bbf91d410893ea2c6ef2942c28">
-      <tp>
-        <v>16.84</v>
-        <stp/>
-        <stp>DBC</stp>
-        <stp>last</stp>
-        <tr r="J2" s="1"/>
-        <tr r="C20" s="4"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.3b5559bbf91d410893ea2c6ef2942c28">
-      <tp>
-        <v>525.36</v>
-        <stp/>
-        <stp>ISRG</stp>
-        <stp>last</stp>
-        <tr r="C8" s="4"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.3b5559bbf91d410893ea2c6ef2942c28">
-      <tp>
-        <v>42.4</v>
-        <stp/>
-        <stp>EEM</stp>
-        <stp>last</stp>
-        <tr r="J10" s="1"/>
-      </tp>
-      <tp>
-        <v>102.82</v>
-        <stp/>
-        <stp>IEF</stp>
-        <stp>last</stp>
-        <tr r="J11" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.3b5559bbf91d410893ea2c6ef2942c28">
-      <tp>
-        <v>44.48</v>
-        <stp/>
-        <stp>IEV</stp>
-        <stp>last</stp>
-        <tr r="J9" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.3b5559bbf91d410893ea2c6ef2942c28">
-      <tp>
-        <v>46.52</v>
-        <stp/>
-        <stp>QQQE</stp>
-        <stp>last</stp>
-        <tr r="C40" s="4"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.3b5559bbf91d410893ea2c6ef2942c28">
-      <tp t="s">
-        <v>ARROW ETF TR-ARROW DJ GLB YLD</v>
-        <stp/>
-        <stp>GYLD</stp>
-        <stp>description</stp>
-        <tr r="L26" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.3b5559bbf91d410893ea2c6ef2942c28">
-      <tp>
-        <v>83.25</v>
-        <stp/>
-        <stp>IYR</stp>
-        <stp>last</stp>
-        <tr r="J4" s="1"/>
-        <tr r="C22" s="4"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.3b5559bbf91d410893ea2c6ef2942c28">
-      <tp>
-        <v>16.809999999999999</v>
-        <stp/>
-        <stp>DBC</stp>
-        <stp>close</stp>
-        <tr r="G2" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.3b5559bbf91d410893ea2c6ef2942c28">
-      <tp>
-        <v>352.28</v>
-        <stp/>
-        <stp>ALGN</stp>
-        <stp>last</stp>
-        <tr r="C5" s="4"/>
-      </tp>
-      <tp>
-        <v>179.7</v>
-        <stp/>
-        <stp>QQQ</stp>
-        <stp>last</stp>
-        <tr r="C39" s="4"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.3b5559bbf91d410893ea2c6ef2942c28">
-      <tp>
-        <v>54.54</v>
-        <stp/>
-        <stp>STX</stp>
-        <stp>last</stp>
-        <tr r="C10" s="4"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.3b5559bbf91d410893ea2c6ef2942c28">
-      <tp>
-        <v>46.22</v>
+        <v>46.31</v>
         <stp/>
         <stp>CSCO</stp>
         <stp>last</stp>
         <tr r="C7" s="4"/>
       </tp>
     </main>
-    <main first="rtdsrv.3b5559bbf91d410893ea2c6ef2942c28">
+    <main first="rtdsrv.4b86c05bef1847308d30bfc58374b548">
+      <tp t="s">
+        <v>ISHARES TR-1 3 YR TREAS BD</v>
+        <stp/>
+        <stp>SHY</stp>
+        <stp>description</stp>
+        <tr r="B12" s="1"/>
+      </tp>
       <tp>
-        <v>287.72000000000003</v>
+        <v>49.55</v>
         <stp/>
-        <stp>IVV</stp>
+        <stp>MU</stp>
         <stp>last</stp>
-        <tr r="J3" s="1"/>
-        <tr r="C38" s="4"/>
-        <tr r="C21" s="4"/>
+        <tr r="C9" s="4"/>
       </tp>
     </main>
-    <main first="rtdsrv.3b5559bbf91d410893ea2c6ef2942c28">
-      <tp>
-        <v>57.42</v>
+    <main first="rtdsrv.4b86c05bef1847308d30bfc58374b548">
+      <tp t="s">
+        <v>SPDR INDEX SHS FDS-DJ INTL RL ETF</v>
         <stp/>
-        <stp>EWJ</stp>
-        <stp>last</stp>
-        <tr r="J7" s="1"/>
+        <stp>RWX</stp>
+        <stp>description</stp>
+        <tr r="B6" s="1"/>
       </tp>
     </main>
-    <main first="rtdsrv.3b5559bbf91d410893ea2c6ef2942c28">
+    <main first="rtdsrv.4b86c05bef1847308d30bfc58374b548">
       <tp>
-        <v>39.06</v>
+        <v>354.57</v>
         <stp/>
-        <stp>RWX</stp>
+        <stp>ALGN</stp>
         <stp>last</stp>
-        <tr r="J6" s="1"/>
+        <tr r="C5" s="4"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.4b86c05bef1847308d30bfc58374b548">
+      <tp t="s">
+        <v>ISHARES TR-20 YR TR BD ETF</v>
+        <stp/>
+        <stp>TLT</stp>
+        <stp>description</stp>
+        <tr r="B5" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.4b86c05bef1847308d30bfc58374b548">
+      <tp>
+        <v>16.84</v>
+        <stp/>
+        <stp>DBC</stp>
+        <stp>close</stp>
+        <tr r="G2" s="1"/>
       </tp>
     </main>
   </volType>
@@ -1894,7 +1898,7 @@
   <dimension ref="A1:V46"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="S27" sqref="S27"/>
+      <selection activeCell="P24" sqref="P24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1994,34 +1998,34 @@
       </c>
       <c r="E2" s="5">
         <f>G2/D2-1</f>
-        <v>-5.703882930108517E-2</v>
+        <v>-5.5355971768606405E-2</v>
       </c>
       <c r="F2" s="5">
         <f>I2/$I$21</f>
-        <v>0.14710143702535453</v>
+        <v>0.14691872883653811</v>
       </c>
       <c r="G2" s="4">
         <f>_xll.RealtimeData(A2,"Close")</f>
-        <v>16.809999999999999</v>
+        <v>16.84</v>
       </c>
       <c r="H2" s="4">
         <v>176</v>
       </c>
       <c r="I2" s="4">
         <f>H2*G2</f>
-        <v>2958.56</v>
+        <v>2963.84</v>
       </c>
       <c r="J2" s="4">
         <f>_xll.RealtimeData(A2,"Last")</f>
-        <v>16.84</v>
+        <v>16.93</v>
       </c>
       <c r="K2" s="5">
         <f>J2/D2-1</f>
-        <v>-5.5355971768606405E-2</v>
+        <v>-5.030739917117022E-2</v>
       </c>
       <c r="L2" s="8">
         <f>_xll.RealtimeData(A2,"Change in Percent")</f>
-        <v>1.7846519928614575E-3</v>
+        <v>5.3444180522565264E-3</v>
       </c>
       <c r="M2" s="29" t="str">
         <f>_xll.RealtimeData(A2,"Dividend Yield")</f>
@@ -2036,7 +2040,7 @@
       </c>
       <c r="P2" s="60">
         <f t="shared" ref="P2:P12" si="1">O2-F2</f>
-        <v>-5.1014370253545382E-3</v>
+        <v>-4.9187288365381276E-3</v>
       </c>
       <c r="Q2" s="31">
         <f>O2*Daily!$D$68</f>
@@ -2044,11 +2048,11 @@
       </c>
       <c r="R2">
         <f t="shared" ref="R2:R11" si="2">ROUND(Q2/J2,0)</f>
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="S2">
         <f t="shared" ref="S2:S11" si="3">R2-H2</f>
-        <v>-8</v>
+        <v>-9</v>
       </c>
       <c r="T2" t="str">
         <f t="shared" ref="T2:T12" si="4">A2</f>
@@ -2056,7 +2060,7 @@
       </c>
       <c r="U2">
         <f>_xll.RealtimeData(T2,"MTD Percent Change")</f>
-        <v>-0.94117647000000004</v>
+        <v>-0.41176470999999998</v>
       </c>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.25">
@@ -2075,34 +2079,34 @@
       </c>
       <c r="E3" s="5">
         <f>G3/D3-1</f>
-        <v>7.7641308081746629E-2</v>
+        <v>8.0269335240530149E-2</v>
       </c>
       <c r="F3" s="5">
         <f>I3/$I$21</f>
-        <v>0.41388239482348682</v>
+        <v>0.41363820450069466</v>
       </c>
       <c r="G3" s="4">
         <f>_xll.RealtimeData(A3,"Close")</f>
-        <v>287.04000000000002</v>
+        <v>287.74</v>
       </c>
       <c r="H3" s="4">
         <v>29</v>
       </c>
       <c r="I3" s="4">
         <f>H3*G3</f>
-        <v>8324.16</v>
+        <v>8344.4600000000009</v>
       </c>
       <c r="J3" s="4">
         <f>_xll.RealtimeData(A3,"Last")</f>
-        <v>287.72000000000003</v>
+        <v>288.63</v>
       </c>
       <c r="K3" s="5">
         <f>J3/D3-1</f>
-        <v>8.019424875027914E-2</v>
+        <v>8.3610684056697693E-2</v>
       </c>
       <c r="L3" s="8">
         <f>_xll.RealtimeData(A3,"Change in Percent")</f>
-        <v>2.3690078037904368E-3</v>
+        <v>3.0930701327586919E-3</v>
       </c>
       <c r="M3" s="29">
         <f>_xll.RealtimeData(A3,"Dividend Yield")</f>
@@ -2117,7 +2121,7 @@
       </c>
       <c r="P3" s="60">
         <f t="shared" si="1"/>
-        <v>-4.7882394823486829E-2</v>
+        <v>-4.763820450069467E-2</v>
       </c>
       <c r="Q3" s="31">
         <f>O3*Daily!$D$68</f>
@@ -2137,7 +2141,7 @@
       </c>
       <c r="U3">
         <f>_xll.RealtimeData(T3,"MTD Percent Change")</f>
-        <v>1.7109728500000001</v>
+        <v>2.0326640299999998</v>
       </c>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.25">
@@ -2156,34 +2160,34 @@
       </c>
       <c r="E4" s="5">
         <f>G4/D4-1</f>
-        <v>6.0308555399719355E-2</v>
+        <v>6.1966084406477107E-2</v>
       </c>
       <c r="F4" s="5">
         <f>I4/$I$21</f>
-        <v>0.22327740426543249</v>
+        <v>0.22295079691850575</v>
       </c>
       <c r="G4" s="4">
         <f>_xll.RealtimeData(A4,"Close")</f>
-        <v>83.16</v>
+        <v>83.29</v>
       </c>
       <c r="H4" s="4">
         <v>54</v>
       </c>
       <c r="I4" s="4">
         <f>H4*G4</f>
-        <v>4490.6399999999994</v>
+        <v>4497.6600000000008</v>
       </c>
       <c r="J4" s="4">
         <f>_xll.RealtimeData(A4,"Last")</f>
-        <v>83.25</v>
+        <v>82.94</v>
       </c>
       <c r="K4" s="5">
         <f>J4/D4-1</f>
-        <v>6.1456075481320926E-2</v>
+        <v>5.7503506311360253E-2</v>
       </c>
       <c r="L4" s="8">
         <f t="array" ref="L4">_xll.RealtimeData(A4,"Change in Percent")</f>
-        <v>1.0822510822511232E-3</v>
+        <v>-4.2021851362709691E-3</v>
       </c>
       <c r="M4" s="29">
         <f>_xll.RealtimeData(A4,"Dividend Yield")</f>
@@ -2198,7 +2202,7 @@
       </c>
       <c r="P4" s="60">
         <f t="shared" si="1"/>
-        <v>0.16972259573456752</v>
+        <v>0.17004920308149427</v>
       </c>
       <c r="Q4" s="31">
         <f>O4*Daily!$D$68</f>
@@ -2218,7 +2222,7 @@
       </c>
       <c r="U4">
         <f>_xll.RealtimeData(T4,"MTD Percent Change")</f>
-        <v>2.1221786100000002</v>
+        <v>1.74190383</v>
       </c>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.25">
@@ -2237,38 +2241,38 @@
       </c>
       <c r="E5" s="5">
         <f>G5/D5-1</f>
-        <v>-1.0742981246800731E-2</v>
+        <v>-4.119587419803783E-3</v>
       </c>
       <c r="F5" s="5">
         <f>I5/$I$21</f>
-        <v>0.21053202057638132</v>
+        <v>0.21130125765057128</v>
       </c>
       <c r="G5" s="4">
         <f>_xll.RealtimeData(A5,"Close")</f>
-        <v>120.98</v>
+        <v>121.79</v>
       </c>
       <c r="H5" s="4">
         <v>35</v>
       </c>
       <c r="I5" s="4">
         <f>H5*G5</f>
-        <v>4234.3</v>
+        <v>4262.6500000000005</v>
       </c>
       <c r="J5" s="31">
         <f>_xll.RealtimeData(A5,"Last")</f>
-        <v>121.79</v>
+        <v>121.22</v>
       </c>
       <c r="K5" s="5">
         <f>J5/D5-1</f>
-        <v>-4.119587419803783E-3</v>
+        <v>-8.7804941869498165E-3</v>
       </c>
       <c r="L5" s="8">
         <f t="array" ref="L5">_xll.RealtimeData(A5,"Change in Percent")</f>
-        <v>6.6953215407505543E-3</v>
+        <v>-4.6801872074883561E-3</v>
       </c>
       <c r="M5" s="29">
         <f>_xll.RealtimeData(A5,"Dividend Yield")</f>
-        <v>2.73</v>
+        <v>2.71</v>
       </c>
       <c r="N5" s="4" t="str">
         <f t="shared" si="0"/>
@@ -2279,7 +2283,7 @@
       </c>
       <c r="P5" s="60">
         <f t="shared" si="1"/>
-        <v>-0.21053202057638132</v>
+        <v>-0.21130125765057128</v>
       </c>
       <c r="Q5" s="31">
         <f>O5*Daily!$D$68</f>
@@ -2299,7 +2303,7 @@
       </c>
       <c r="U5">
         <f>_xll.RealtimeData(T5,"MTD Percent Change")</f>
-        <v>2.81107547</v>
+        <v>2.3214587199999999</v>
       </c>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.25">
@@ -2319,16 +2323,16 @@
       <c r="I6" s="4"/>
       <c r="J6" s="31">
         <f>_xll.RealtimeData(A6,"Last")</f>
-        <v>39.06</v>
+        <v>39.14</v>
       </c>
       <c r="K6" s="5"/>
       <c r="L6" s="8">
         <f>_xll.RealtimeData(A6,"Change in Percent")</f>
-        <v>6.7010309278351813E-3</v>
+        <v>2.0481310803891011E-3</v>
       </c>
       <c r="M6" s="29">
         <f>_xll.RealtimeData(A6,"Dividend Yield")</f>
-        <v>3.68</v>
+        <v>3.67</v>
       </c>
       <c r="N6" s="4" t="str">
         <f t="shared" si="0"/>
@@ -2359,7 +2363,7 @@
       </c>
       <c r="U6">
         <f>_xll.RealtimeData(T6,"MTD Percent Change")</f>
-        <v>-1.1139240500000001</v>
+        <v>-0.91139241000000004</v>
       </c>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.25">
@@ -2379,16 +2383,16 @@
       <c r="I7" s="4"/>
       <c r="J7" s="31">
         <f>_xll.RealtimeData(A7,"Last")</f>
-        <v>57.42</v>
+        <v>57.4</v>
       </c>
       <c r="K7" s="5"/>
       <c r="L7" s="8">
         <f>_xll.RealtimeData(A7,"Change in Percent")</f>
-        <v>4.0216821122574581E-3</v>
+        <v>-3.483106931383333E-4</v>
       </c>
       <c r="M7" s="29">
         <f>_xll.RealtimeData(A7,"Dividend Yield")</f>
-        <v>1.61</v>
+        <v>1.6</v>
       </c>
       <c r="N7" s="4" t="str">
         <f t="shared" si="0"/>
@@ -2419,7 +2423,7 @@
       </c>
       <c r="U7">
         <f>_xll.RealtimeData(T7,"MTD Percent Change")</f>
-        <v>-2.5292819600000001</v>
+        <v>-2.5632320499999999</v>
       </c>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.25">
@@ -2439,12 +2443,12 @@
       <c r="I8" s="4"/>
       <c r="J8" s="31">
         <f>_xll.RealtimeData(A8,"Last")</f>
-        <v>112.69</v>
+        <v>112.76</v>
       </c>
       <c r="K8" s="5"/>
       <c r="L8" s="8">
         <f>_xll.RealtimeData(A8,"Change in Percent")</f>
-        <v>4.9942031570498714E-3</v>
+        <v>6.2117312982524987E-4</v>
       </c>
       <c r="M8" s="29">
         <v>0</v>
@@ -2478,7 +2482,7 @@
       </c>
       <c r="U8">
         <f>_xll.RealtimeData(T8,"MTD Percent Change")</f>
-        <v>-2.1278443600000001</v>
+        <v>-2.0670488100000002</v>
       </c>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.25">
@@ -2498,16 +2502,16 @@
       <c r="I9" s="4"/>
       <c r="J9" s="31">
         <f>_xll.RealtimeData(A9,"Last")</f>
-        <v>44.48</v>
+        <v>44.93</v>
       </c>
       <c r="K9" s="5"/>
       <c r="L9" s="8">
         <f>_xll.RealtimeData(A9,"Change in Percent")</f>
-        <v>7.0183382386233865E-3</v>
+        <v>1.0116906474820213E-2</v>
       </c>
       <c r="M9" s="29">
         <f>_xll.RealtimeData(A9,"Dividend Yield")</f>
-        <v>4.79</v>
+        <v>4.75</v>
       </c>
       <c r="N9" s="4" t="str">
         <f t="shared" si="0"/>
@@ -2538,7 +2542,7 @@
       </c>
       <c r="U9">
         <f>_xll.RealtimeData(T9,"MTD Percent Change")</f>
-        <v>-3.3043478300000002</v>
+        <v>-2.32608696</v>
       </c>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.25">
@@ -2552,16 +2556,16 @@
       <c r="G10" s="4"/>
       <c r="J10" s="31">
         <f>_xll.RealtimeData(A10,"Last")</f>
-        <v>42.4</v>
+        <v>42.895000000000003</v>
       </c>
       <c r="K10" s="5"/>
       <c r="L10" s="8">
         <f t="array" ref="L10">_xll.RealtimeData(A10,"Change in Percent")</f>
-        <v>4.5013030087656478E-3</v>
+        <v>1.1674528301886911E-2</v>
       </c>
       <c r="M10" s="29">
         <f>_xll.RealtimeData(A10,"Dividend Yield")</f>
-        <v>1.37</v>
+        <v>1.35</v>
       </c>
       <c r="N10" s="4" t="str">
         <f t="shared" si="0"/>
@@ -2592,7 +2596,7 @@
       </c>
       <c r="U10">
         <f>_xll.RealtimeData(T10,"MTD Percent Change")</f>
-        <v>-4.6333783200000003</v>
+        <v>-3.5200179899999999</v>
       </c>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.25">
@@ -2606,16 +2610,16 @@
       <c r="G11" s="4"/>
       <c r="J11" s="31">
         <f>_xll.RealtimeData(A11,"Last")</f>
-        <v>102.82</v>
+        <v>102.66</v>
       </c>
       <c r="K11" s="5"/>
       <c r="L11" s="8">
         <f t="array" ref="L11">_xll.RealtimeData(A11,"Change in Percent")</f>
-        <v>3.1219512195121268E-3</v>
+        <v>-1.5561174868702298E-3</v>
       </c>
       <c r="M11" s="29">
         <f>_xll.RealtimeData(A11,"Dividend Yield")</f>
-        <v>2.21</v>
+        <v>2.2200000000000002</v>
       </c>
       <c r="N11" s="4" t="str">
         <f t="shared" si="0"/>
@@ -2646,7 +2650,7 @@
       </c>
       <c r="U11">
         <f>_xll.RealtimeData(T11,"MTD Percent Change")</f>
-        <v>1.4604302300000001</v>
+        <v>1.30254589</v>
       </c>
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.25">
@@ -2659,11 +2663,11 @@
       </c>
       <c r="J12" s="31">
         <f>_xll.RealtimeData(A12,"Last")</f>
-        <v>83.33</v>
+        <v>83.304900000000004</v>
       </c>
       <c r="L12" s="8">
         <f t="array" ref="L12">_xll.RealtimeData(A12,"Change in Percent")</f>
-        <v>6.0038424591735346E-4</v>
+        <v>-3.0121204848187691E-4</v>
       </c>
       <c r="M12" s="29">
         <f>_xll.RealtimeData(A12,"Dividend Yield")</f>
@@ -2698,7 +2702,7 @@
       </c>
       <c r="U12">
         <f>_xll.RealtimeData(T12,"MTD Percent Change")</f>
-        <v>0.32506622000000002</v>
+        <v>0.29484709999999997</v>
       </c>
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.25">
@@ -2715,11 +2719,11 @@
     <row r="14" spans="1:22" x14ac:dyDescent="0.25">
       <c r="U14" s="29">
         <f t="array" ref="U14">MMULT(TRANSPOSE(O2:O12),U2:U12)</f>
-        <v>1.3587667538700001</v>
+        <v>1.39924251425</v>
       </c>
       <c r="V14" s="8">
         <f>U14*0.01</f>
-        <v>1.3587667538700001E-2</v>
+        <v>1.3992425142500001E-2</v>
       </c>
     </row>
     <row r="19" spans="5:16" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
@@ -2729,7 +2733,7 @@
       </c>
       <c r="F20" s="11">
         <f>SUM(F2:F5)</f>
-        <v>0.99479325669065521</v>
+        <v>0.99480898790630978</v>
       </c>
       <c r="H20" s="2" t="s">
         <v>14</v>
@@ -2748,32 +2752,32 @@
       </c>
       <c r="F21" s="11">
         <f>1-F20</f>
-        <v>5.2067433093447857E-3</v>
+        <v>5.1910120936902171E-3</v>
       </c>
       <c r="H21" s="2" t="s">
         <v>16</v>
       </c>
       <c r="I21" s="6">
         <f>SUM(I2:I20)</f>
-        <v>20112.38</v>
+        <v>20173.330000000005</v>
       </c>
       <c r="J21" t="s">
         <v>33</v>
       </c>
       <c r="K21" s="8">
         <f>SUMPRODUCT(K2:K7,F2:F7)</f>
-        <v>3.790249267511648E-2</v>
+        <v>3.8158597186216711E-2</v>
       </c>
       <c r="M21" t="s">
         <v>34</v>
       </c>
       <c r="N21" s="76">
         <f t="array" ref="N21">MMULT(TRANSPOSE(F2:F5),L2:L5)</f>
-        <v>2.8942372807196689E-3</v>
+        <v>1.3879711480448945E-4</v>
       </c>
       <c r="P21" s="8">
         <f>SUMPRODUCT(L2:L12,O2:O12)</f>
-        <v>1.6052401548441362E-3</v>
+        <v>2.0969228065591115E-4</v>
       </c>
     </row>
     <row r="22" spans="5:16" x14ac:dyDescent="0.25">
@@ -2788,7 +2792,7 @@
       </c>
       <c r="K22" s="8">
         <f>_xll.RealtimeData(J22,"Change in Percent")</f>
-        <v>3.7210584343990629E-3</v>
+        <v>5.217630097487231E-3</v>
       </c>
       <c r="L22" s="12">
         <v>0.6</v>
@@ -2800,7 +2804,7 @@
       </c>
       <c r="K23" s="8">
         <f>_xll.RealtimeData(J23,"Change in Percent")</f>
-        <v>1.9725718579749014E-3</v>
+        <v>-1.1718383800506235E-3</v>
       </c>
       <c r="L23" s="12">
         <v>0.4</v>
@@ -2812,7 +2816,7 @@
       </c>
       <c r="K24" s="8">
         <f>_xll.RealtimeData(J24,"Change in Percent")</f>
-        <v>2.3690078037904368E-3</v>
+        <v>3.0930701327586919E-3</v>
       </c>
     </row>
     <row r="25" spans="5:16" x14ac:dyDescent="0.25">
@@ -2821,7 +2825,7 @@
       </c>
       <c r="K25" s="8">
         <f t="array" ref="K25">SUMPRODUCT(K22:K23,L22:L23)</f>
-        <v>3.0216638038293984E-3</v>
+        <v>2.6618427064720889E-3</v>
       </c>
     </row>
     <row r="26" spans="5:16" x14ac:dyDescent="0.25">
@@ -2830,14 +2834,14 @@
       </c>
       <c r="I26" s="6">
         <f>SUM(I2:I18)</f>
-        <v>20007.66</v>
+        <v>20068.610000000004</v>
       </c>
       <c r="J26" t="s">
         <v>56</v>
       </c>
       <c r="K26" s="8">
         <f>_xll.RealtimeData(J26,"Change in Percent")</f>
-        <v>9.030963302752236E-3</v>
+        <v>0</v>
       </c>
       <c r="L26" t="str">
         <f>_xll.RealtimeData(J26,"Description")</f>
@@ -2850,7 +2854,7 @@
       </c>
       <c r="K27" s="8">
         <f>AVERAGE(L2:L11)</f>
-        <v>4.2289741083697246E-3</v>
+        <v>2.2111426648168805E-3</v>
       </c>
     </row>
     <row r="28" spans="5:16" x14ac:dyDescent="0.25">
@@ -2859,20 +2863,20 @@
       </c>
       <c r="K28" s="8">
         <f>SUMPRODUCT(F2:F7,M2:M7)*0.01</f>
-        <v>1.4186362330067351E-2</v>
+        <v>1.4159187947651674E-2</v>
       </c>
       <c r="L28" t="s">
         <v>65</v>
       </c>
       <c r="M28" s="8">
         <f>AVERAGE(M2:M11)*0.01</f>
-        <v>2.0722222222222225E-2</v>
+        <v>2.0622222222222222E-2</v>
       </c>
     </row>
     <row r="29" spans="5:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="30" spans="5:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H30" s="30">
-        <v>43329</v>
+        <v>43332</v>
       </c>
       <c r="I30" s="15" t="s">
         <v>61</v>
@@ -2893,19 +2897,19 @@
       </c>
       <c r="I31" s="21">
         <f>$N$21</f>
-        <v>2.8942372807196689E-3</v>
+        <v>1.3879711480448945E-4</v>
       </c>
       <c r="J31" s="21">
         <f>LOOKUP(2,1/(Daily!E:E&lt;&gt;""),Daily!E:E)</f>
-        <v>4.23365755257743E-3</v>
+        <v>3.0304702723047416E-3</v>
       </c>
       <c r="K31" s="22">
         <f>VLOOKUP($H$30,Daily!$A:$AF,7,0)</f>
-        <v>1.3302358482011334E-2</v>
+        <v>1.6373141156247328E-2</v>
       </c>
       <c r="L31" s="23">
         <f>VLOOKUP($H$30,Daily!$A:$AF,8,0)</f>
-        <v>5.6195000000003326E-3</v>
+        <v>8.6670000000004244E-3</v>
       </c>
     </row>
     <row r="32" spans="5:16" x14ac:dyDescent="0.25">
@@ -2914,19 +2918,19 @@
       </c>
       <c r="I32" s="24">
         <f>$K$25</f>
-        <v>3.0216638038293984E-3</v>
+        <v>2.6618427064720889E-3</v>
       </c>
       <c r="J32" s="24">
         <f>LOOKUP(2,1/(Daily!M:M&lt;&gt;""),Daily!M:M)</f>
-        <v>2.966807160501217E-3</v>
+        <v>3.0216638038293108E-3</v>
       </c>
       <c r="K32" s="14">
         <f>VLOOKUP($H$30,Daily!$A:$AF,25,0)</f>
-        <v>1.3658618631294583E-2</v>
+        <v>1.672155418865251E-2</v>
       </c>
       <c r="L32" s="25">
         <f>VLOOKUP($H$30,Daily!$A:$AF,31,0)</f>
-        <v>7.839069015281197E-3</v>
+        <v>1.0884419850209825E-2</v>
       </c>
     </row>
     <row r="33" spans="8:18" x14ac:dyDescent="0.25">
@@ -2935,19 +2939,19 @@
       </c>
       <c r="I33" s="24">
         <f>$K$24</f>
-        <v>2.3690078037904368E-3</v>
+        <v>3.0930701327586919E-3</v>
       </c>
       <c r="J33" s="24">
         <f>LOOKUP(2,1/(Daily!L:L&lt;&gt;""),Daily!L:L)</f>
-        <v>3.2855644879412615E-3</v>
+        <v>2.4386845039019445E-3</v>
       </c>
       <c r="K33" s="14">
         <f>VLOOKUP($H$30,Daily!$A:$AF,24,0)</f>
-        <v>5.1236037355795627E-2</v>
+        <v>5.3799670390038523E-2</v>
       </c>
       <c r="L33" s="25">
         <f>VLOOKUP($H$30,Daily!$A:$AF,30,0)</f>
-        <v>7.7938969666905056E-2</v>
+        <v>8.0567722728383862E-2</v>
       </c>
     </row>
     <row r="34" spans="8:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2956,19 +2960,19 @@
       </c>
       <c r="I34" s="26">
         <f>$K$26</f>
-        <v>9.030963302752236E-3</v>
+        <v>0</v>
       </c>
       <c r="J34" s="26">
         <f>LOOKUP(2,1/(Daily!N:N&lt;&gt;""),Daily!N:N)</f>
-        <v>1.4543339150669077E-2</v>
+        <v>9.0309633027523262E-3</v>
       </c>
       <c r="K34" s="27">
         <f>VLOOKUP($H$30,Daily!$A:$AF,26,0)</f>
-        <v>2.2988505747130183E-3</v>
+        <v>1.1350574712644113E-2</v>
       </c>
       <c r="L34" s="28">
         <f>VLOOKUP($H$30,Daily!$A:$AF,32,0)</f>
-        <v>1.1438857245667622E-2</v>
+        <v>2.0573124448430846E-2</v>
       </c>
     </row>
     <row r="35" spans="8:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -3003,7 +3007,7 @@
       </c>
       <c r="I37" s="46">
         <f>AVERAGE(Daily!E$3:E380)</f>
-        <v>8.4783142433821849E-5</v>
+        <v>1.2254836204755157E-4</v>
       </c>
       <c r="J37" s="44"/>
       <c r="K37" s="22"/>
@@ -3011,23 +3015,23 @@
       <c r="M37" s="50"/>
       <c r="N37" s="38">
         <f>AVERAGE(Daily!J$3:J380)</f>
-        <v>1.2182941251076127E-4</v>
+        <v>1.6797337432984075E-4</v>
       </c>
       <c r="O37" s="22">
         <f>AVERAGE(Daily!K$3:K380)</f>
-        <v>8.7172442773675538E-5</v>
+        <v>1.1134423014804939E-4</v>
       </c>
       <c r="P37" s="22">
         <f>AVERAGE(Daily!L$3:L380)</f>
-        <v>9.9206988542765691E-4</v>
+        <v>1.0106162266901478E-3</v>
       </c>
       <c r="Q37" s="22">
         <f>AVERAGE(Daily!M$3:M380)</f>
-        <v>1.0796662461592695E-4</v>
+        <v>1.4532171665712417E-4</v>
       </c>
       <c r="R37" s="23">
         <f>AVERAGE(Daily!N$3:N380)</f>
-        <v>1.8002600962365603E-4</v>
+        <v>2.9349956466376715E-4</v>
       </c>
     </row>
     <row r="38" spans="8:18" x14ac:dyDescent="0.25">
@@ -3036,7 +3040,7 @@
       </c>
       <c r="I38" s="47">
         <f>STDEV(Daily!E$3:E380)</f>
-        <v>4.9303629297255628E-3</v>
+        <v>4.9095853809326814E-3</v>
       </c>
       <c r="J38" s="45"/>
       <c r="K38" s="14"/>
@@ -3044,23 +3048,23 @@
       <c r="M38" s="51"/>
       <c r="N38" s="40">
         <f>STDEV(Daily!J$3:J380)</f>
-        <v>6.2581761750183495E-3</v>
+        <v>6.2307478170767899E-3</v>
       </c>
       <c r="O38" s="14">
         <f>STDEV(Daily!K$3:K380)</f>
-        <v>1.732855733331656E-3</v>
+        <v>1.7347522032489311E-3</v>
       </c>
       <c r="P38" s="14">
         <f>STDEV(Daily!L$3:L380)</f>
-        <v>5.8521984174043995E-3</v>
+        <v>5.8163797645187617E-3</v>
       </c>
       <c r="Q38" s="14">
         <f>STDEV(Daily!M$3:M380)</f>
-        <v>3.6423410748946633E-3</v>
+        <v>3.6336202052133495E-3</v>
       </c>
       <c r="R38" s="25">
         <f>STDEV(Daily!N$3:N380)</f>
-        <v>8.0921349074575839E-3</v>
+        <v>8.1016399999560128E-3</v>
       </c>
     </row>
     <row r="39" spans="8:18" x14ac:dyDescent="0.25">
@@ -3069,7 +3073,7 @@
       </c>
       <c r="I39" s="48">
         <f>COUNTIF(Daily!E$3:E380,"&gt;0")</f>
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J39" s="45"/>
       <c r="K39" s="14"/>
@@ -3077,23 +3081,23 @@
       <c r="M39" s="51"/>
       <c r="N39" s="41">
         <f>COUNTIF(Daily!J$3:J380,"&gt;0")</f>
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="O39" s="33">
         <f>COUNTIF(Daily!K$3:K380,"&gt;0")</f>
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="P39" s="33">
         <f>COUNTIF(Daily!L$3:L380,"&gt;0")</f>
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="Q39" s="33">
         <f>COUNTIF(Daily!M$3:M380,"&gt;0")</f>
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="R39" s="35">
         <f>COUNTIF(Daily!N$3:N380,"&gt;0")</f>
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="40" spans="8:18" x14ac:dyDescent="0.25">
@@ -3102,7 +3106,7 @@
       </c>
       <c r="I40" s="47">
         <f>SUMIF(Daily!E$3:E380,"&gt;0")</f>
-        <v>0.14516414781176179</v>
+        <v>0.14819461808406653</v>
       </c>
       <c r="J40" s="45"/>
       <c r="K40" s="14"/>
@@ -3110,23 +3114,23 @@
       <c r="M40" s="51"/>
       <c r="N40" s="40">
         <f>SUMIF(Daily!J$3:J380,"&gt;0")</f>
-        <v>0.19223614732931638</v>
+        <v>0.19595720576371534</v>
       </c>
       <c r="O40" s="14">
         <f>SUMIF(Daily!K$3:K380,"&gt;0")</f>
-        <v>5.459992137348979E-2</v>
+        <v>5.6572493231464627E-2</v>
       </c>
       <c r="P40" s="14">
         <f>SUMIF(Daily!L$3:L380,"&gt;0")</f>
-        <v>0.21999072717400131</v>
+        <v>0.22242941167790325</v>
       </c>
       <c r="Q40" s="14">
         <f>SUMIF(Daily!M$3:M380,"&gt;0")</f>
-        <v>0.11330475201004934</v>
+        <v>0.11632641581387866</v>
       </c>
       <c r="R40" s="25">
         <f>SUMIF(Daily!N$3:N380,"&gt;0")</f>
-        <v>0.25194036788610197</v>
+        <v>0.26097133118885429</v>
       </c>
     </row>
     <row r="41" spans="8:18" x14ac:dyDescent="0.25">
@@ -3168,7 +3172,7 @@
       </c>
       <c r="I42" s="48">
         <f>COUNT(Daily!E$3:E380)</f>
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J42" s="45"/>
       <c r="K42" s="14"/>
@@ -3176,23 +3180,23 @@
       <c r="M42" s="51"/>
       <c r="N42" s="41">
         <f>COUNT(Daily!J$3:J380)</f>
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="O42" s="33">
         <f>COUNT(Daily!K$3:K380)</f>
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P42" s="33">
         <f>COUNT(Daily!L$3:L380)</f>
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Q42" s="33">
         <f>COUNT(Daily!M$3:M380)</f>
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R42" s="35">
         <f>COUNT(Daily!N$3:N380)</f>
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="43" spans="8:18" x14ac:dyDescent="0.25">
@@ -3234,7 +3238,7 @@
       </c>
       <c r="I44" s="49">
         <f>(I40/I41)*(I39/I43)*-1</f>
-        <v>1.3961194228197269</v>
+        <v>1.4576574253494989</v>
       </c>
       <c r="J44" s="45"/>
       <c r="K44" s="14"/>
@@ -3242,23 +3246,23 @@
       <c r="M44" s="51"/>
       <c r="N44" s="42">
         <f>(N40/N41)*(N39/N43)*-1</f>
-        <v>1.0789679715185048</v>
+        <v>1.1280546015110953</v>
       </c>
       <c r="O44" s="34">
         <f>(O40/O41)*(O39/O43)*-1</f>
-        <v>1.2985237845804165</v>
+        <v>1.3782520412954868</v>
       </c>
       <c r="P44" s="34">
         <f>(P40/P41)*(P39/P43)*-1</f>
-        <v>2.042605990429637</v>
+        <v>2.1121865676281959</v>
       </c>
       <c r="Q44" s="34">
         <f>(Q40/Q41)*(Q39/Q43)*-1</f>
-        <v>1.229068467463343</v>
+        <v>1.2926225644936509</v>
       </c>
       <c r="R44" s="36">
         <f>(R40/R41)*(R39/R43)*-1</f>
-        <v>1.3383427976479501</v>
+        <v>1.4185564692622292</v>
       </c>
     </row>
     <row r="45" spans="8:18" x14ac:dyDescent="0.25">
@@ -3267,7 +3271,7 @@
       </c>
       <c r="I45" s="62">
         <f>I39/I42</f>
-        <v>0.5714285714285714</v>
+        <v>0.57692307692307687</v>
       </c>
       <c r="J45" s="63"/>
       <c r="K45" s="64"/>
@@ -3275,23 +3279,23 @@
       <c r="M45" s="66"/>
       <c r="N45" s="67">
         <f>N39/N42</f>
-        <v>0.50649350649350644</v>
+        <v>0.51282051282051277</v>
       </c>
       <c r="O45" s="64">
         <f>O39/O42</f>
-        <v>0.53246753246753242</v>
+        <v>0.53846153846153844</v>
       </c>
       <c r="P45" s="64">
         <f>P39/P42</f>
-        <v>0.5714285714285714</v>
+        <v>0.57692307692307687</v>
       </c>
       <c r="Q45" s="64">
         <f>Q39/Q42</f>
-        <v>0.53246753246753242</v>
+        <v>0.53846153846153844</v>
       </c>
       <c r="R45" s="68">
         <f>R39/R42</f>
-        <v>0.55844155844155841</v>
+        <v>0.5641025641025641</v>
       </c>
     </row>
     <row r="46" spans="8:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3339,13 +3343,13 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:AN79"/>
+  <dimension ref="A1:AN80"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="L72" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="M72" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AG95" sqref="AG95"/>
+      <selection pane="bottomRight" activeCell="Z92" sqref="Z92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9361,7 +9365,7 @@
         <v>43291</v>
       </c>
       <c r="B51" s="4">
-        <f t="shared" ref="B51:B79" si="812">D51-C51</f>
+        <f t="shared" ref="B51:B80" si="812">D51-C51</f>
         <v>19902.79</v>
       </c>
       <c r="C51" s="4">
@@ -13298,6 +13302,142 @@
       <c r="AN79" s="8">
         <f t="shared" ref="AN79" si="1465">MIN(0,(T79-MAX(T50:T79))/MAX(T50:T79))</f>
         <v>-2.5153717160424725E-2</v>
+      </c>
+    </row>
+    <row r="80" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A80" s="9">
+        <v>43332</v>
+      </c>
+      <c r="B80" s="4">
+        <f t="shared" si="812"/>
+        <v>20068.62</v>
+      </c>
+      <c r="C80" s="4">
+        <v>104.72</v>
+      </c>
+      <c r="D80" s="4">
+        <f>20175.06-1.72</f>
+        <v>20173.34</v>
+      </c>
+      <c r="E80" s="5">
+        <f t="shared" ref="E80" si="1466">D80/D79-1</f>
+        <v>3.0304702723047416E-3</v>
+      </c>
+      <c r="F80" s="10">
+        <f t="shared" ref="F80" si="1467">F79*(1+E80)</f>
+        <v>100.86670000000004</v>
+      </c>
+      <c r="G80" s="5">
+        <f t="shared" ref="G80" si="1468">F80/F$45-1</f>
+        <v>1.6373141156247328E-2</v>
+      </c>
+      <c r="H80" s="8">
+        <f t="shared" ref="H80" si="1469">F80/$F$2-1</f>
+        <v>8.6670000000004244E-3</v>
+      </c>
+      <c r="J80" s="11">
+        <f>VLOOKUP($A80,Prices!$A:$J,MATCH(J$1,Prices!$1:$1,0),0)</f>
+        <v>3.7210584343989606E-3</v>
+      </c>
+      <c r="K80" s="11">
+        <f>VLOOKUP($A80,Prices!$A:$J,MATCH(K$1,Prices!$1:$1,0),0)</f>
+        <v>1.9725718579748364E-3</v>
+      </c>
+      <c r="L80" s="11">
+        <f>VLOOKUP($A80,Prices!$A:$J,MATCH(L$1,Prices!$1:$1,0),0)</f>
+        <v>2.4386845039019445E-3</v>
+      </c>
+      <c r="M80" s="11">
+        <f t="shared" ref="M80" si="1470">0.6*J80 + 0.4*K80</f>
+        <v>3.0216638038293108E-3</v>
+      </c>
+      <c r="N80" s="11">
+        <f>VLOOKUP($A80,Prices!$A:$J,MATCH(N$1,Prices!$1:$1,0),0)</f>
+        <v>9.0309633027523262E-3</v>
+      </c>
+      <c r="P80" s="10">
+        <f t="shared" ref="P80" si="1471">P79*(1+J80)</f>
+        <v>101.16714803549937</v>
+      </c>
+      <c r="Q80" s="10">
+        <f t="shared" ref="Q80" si="1472">Q79*(1+K80)</f>
+        <v>100.86053799564669</v>
+      </c>
+      <c r="R80" s="10">
+        <f t="shared" ref="R80" si="1473">R79*(1+L80)</f>
+        <v>108.05677227283839</v>
+      </c>
+      <c r="S80" s="10">
+        <f t="shared" ref="S80" si="1474">S79*(1+M80)</f>
+        <v>101.08844198502098</v>
+      </c>
+      <c r="T80" s="10">
+        <f t="shared" ref="T80" si="1475">T79*(1+N80)</f>
+        <v>102.05731244484309</v>
+      </c>
+      <c r="V80" s="5">
+        <f t="shared" ref="V80" si="1476">P80/P$45-1</f>
+        <v>2.4043869516310767E-2</v>
+      </c>
+      <c r="W80" s="5">
+        <f t="shared" ref="W80" si="1477">Q80/Q$45-1</f>
+        <v>5.4594743370763865E-3</v>
+      </c>
+      <c r="X80" s="5">
+        <f t="shared" ref="X80" si="1478">R80/R$45-1</f>
+        <v>5.3799670390038523E-2</v>
+      </c>
+      <c r="Y80" s="5">
+        <f t="shared" ref="Y80" si="1479">S80/S$45-1</f>
+        <v>1.672155418865251E-2</v>
+      </c>
+      <c r="Z80" s="5">
+        <f t="shared" ref="Z80" si="1480">T80/T$45-1</f>
+        <v>1.1350574712644113E-2</v>
+      </c>
+      <c r="AB80" s="8">
+        <f t="shared" ref="AB80" si="1481">P80/$P$2-1</f>
+        <v>1.1671480354993768E-2</v>
+      </c>
+      <c r="AC80" s="8">
+        <f t="shared" ref="AC80" si="1482">Q80/$P$2-1</f>
+        <v>8.6053799564669298E-3</v>
+      </c>
+      <c r="AD80" s="8">
+        <f t="shared" ref="AD80" si="1483">R80/$P$2-1</f>
+        <v>8.0567722728383862E-2</v>
+      </c>
+      <c r="AE80" s="8">
+        <f t="shared" ref="AE80" si="1484">S80/$P$2-1</f>
+        <v>1.0884419850209825E-2</v>
+      </c>
+      <c r="AF80" s="8">
+        <f t="shared" ref="AF80" si="1485">T80/$T$2-1</f>
+        <v>2.0573124448430846E-2</v>
+      </c>
+      <c r="AI80" s="8">
+        <f t="shared" ref="AI80" si="1486">MIN(0,(F80-MAX(F51:F80))/MAX(F51:F80))</f>
+        <v>0</v>
+      </c>
+      <c r="AJ80" s="8">
+        <f t="shared" ref="AJ80" si="1487">MIN(0,(P80-MAX(P51:P80))/MAX(P51:P80))</f>
+        <v>-1.4212236058472777E-2</v>
+      </c>
+      <c r="AK80" s="8">
+        <f t="shared" ref="AK80" si="1488">MIN(0,(Q80-MAX(Q51:Q80))/MAX(Q51:Q80))</f>
+        <v>0</v>
+      </c>
+      <c r="AL80" s="8">
+        <f t="shared" ref="AL80" si="1489">MIN(0,(R80-MAX(R51:R80))/MAX(R51:R80))</f>
+        <v>0</v>
+      </c>
+      <c r="AM80" s="8">
+        <f t="shared" ref="AM80" si="1490">MIN(0,(S80-MAX(S51:S80))/MAX(S51:S80))</f>
+        <v>-6.2015754000725775E-3</v>
+      </c>
+      <c r="AN80" s="8">
+        <f t="shared" ref="AN80" si="1491">MIN(0,(T80-MAX(T51:T80))/MAX(T51:T80))</f>
+        <v>-1.6349916154276035E-2</v>
       </c>
     </row>
   </sheetData>
@@ -13311,7 +13451,7 @@
   <dimension ref="A1:J87"/>
   <sheetViews>
     <sheetView topLeftCell="A51" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="P62" sqref="P62"/>
+      <selection activeCell="P74" sqref="P74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16231,41 +16371,44 @@
         <v>1.4543339150669077E-2</v>
       </c>
     </row>
-    <row r="81" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B81" t="str">
+    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A81" s="13">
+        <v>43332</v>
+      </c>
+      <c r="B81">
         <f t="array" ref="B81">_xll.HistoricalData(B$1,"Adj. Close",$A81,$A81,"Daily","RemoveHeaders = True","ReverseOrder =True","RemoveDates =""True")</f>
-        <v>--</v>
-      </c>
-      <c r="C81" t="str">
+        <v>72.83</v>
+      </c>
+      <c r="C81">
         <f t="array" ref="C81">_xll.HistoricalData(C$1,"Adj. Close",$A81,$A81,"Daily","RemoveHeaders = True","ReverseOrder =True","RemoveDates =""True")</f>
-        <v>--</v>
-      </c>
-      <c r="D81" t="str">
+        <v>106.67</v>
+      </c>
+      <c r="D81">
         <f t="array" ref="D81">_xll.HistoricalData(D$1,"Adj. Close",$A81,$A81,"Daily","RemoveHeaders = True","ReverseOrder =True","RemoveDates =""True")</f>
-        <v>--</v>
-      </c>
-      <c r="E81" t="str">
+        <v>287.74</v>
+      </c>
+      <c r="E81">
         <f t="array" ref="E81">_xll.HistoricalData(E$1,"Adj. Close",$A81,$A81,"Daily","RemoveHeaders = True","ReverseOrder =True","RemoveDates =""True")</f>
-        <v>--</v>
-      </c>
-      <c r="G81" s="5" t="e">
+        <v>17.5975</v>
+      </c>
+      <c r="G81" s="5">
         <f t="shared" si="224"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="H81" s="5" t="e">
+        <v>3.7210584343989606E-3</v>
+      </c>
+      <c r="H81" s="5">
         <f t="shared" si="225"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I81" s="5" t="e">
+        <v>1.9725718579748364E-3</v>
+      </c>
+      <c r="I81" s="5">
         <f t="shared" si="226"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="J81" s="5" t="e">
+        <v>2.4386845039019445E-3</v>
+      </c>
+      <c r="J81" s="5">
         <f t="shared" si="227"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="82" spans="2:10" x14ac:dyDescent="0.25">
+        <v>9.0309633027523262E-3</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B82" t="str">
         <f t="array" ref="B82">_xll.HistoricalData(B$1,"Adj. Close",$A82,$A82,"Daily","RemoveHeaders = True","ReverseOrder =True","RemoveDates =""True")</f>
         <v>--</v>
@@ -16299,7 +16442,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="83" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B83" t="str">
         <f t="array" ref="B83">_xll.HistoricalData(B$1,"Adj. Close",$A83,$A83,"Daily","RemoveHeaders = True","ReverseOrder =True","RemoveDates =""True")</f>
         <v>--</v>
@@ -16333,7 +16476,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="84" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B84" t="str">
         <f t="array" ref="B84">_xll.HistoricalData(B$1,"Adj. Close",$A84,$A84,"Daily","RemoveHeaders = True","ReverseOrder =True","RemoveDates =""True")</f>
         <v>--</v>
@@ -16367,7 +16510,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="85" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B85" t="str">
         <f t="array" ref="B85">_xll.HistoricalData(B$1,"Adj. Close",$A85,$A85,"Daily","RemoveHeaders = True","ReverseOrder =True","RemoveDates =""True")</f>
         <v>--</v>
@@ -16401,7 +16544,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="86" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B86" t="str">
         <f t="array" ref="B86">_xll.HistoricalData(B$1,"Adj. Close",$A86,$A86,"Daily","RemoveHeaders = True","ReverseOrder =True","RemoveDates =""True")</f>
         <v>--</v>
@@ -16435,7 +16578,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="87" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B87" t="str">
         <f t="array" ref="B87">_xll.HistoricalData(B$1,"Adj. Close",$A87,$A87,"Daily","RemoveHeaders = True","ReverseOrder =True","RemoveDates =""True")</f>
         <v>--</v>
@@ -16479,7 +16622,7 @@
   <dimension ref="A1:W40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O31" sqref="O31"/>
+      <selection activeCell="N27" sqref="N27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16517,7 +16660,7 @@
       </c>
       <c r="G2" s="74">
         <f>SUM(G5:G10)</f>
-        <v>0.99271647192396439</v>
+        <v>0.99278775913896955</v>
       </c>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.25">
@@ -16568,7 +16711,7 @@
       </c>
       <c r="C5">
         <f>_xll.RealtimeData(A5,"Last")</f>
-        <v>352.28</v>
+        <v>354.57</v>
       </c>
       <c r="D5">
         <f>ROUNDDOWN(($C$2/6)/B5,0)</f>
@@ -16576,19 +16719,19 @@
       </c>
       <c r="E5" s="8">
         <f>C5/B5-1</f>
-        <v>6.124416327760196E-2</v>
+        <v>6.8142792589245493E-2</v>
       </c>
       <c r="F5">
         <f>C5*D5</f>
-        <v>12329.8</v>
+        <v>12409.949999999999</v>
       </c>
       <c r="G5" s="73">
         <f>F5/$F$13</f>
-        <v>0.16927307498520722</v>
+        <v>0.16870591384718434</v>
       </c>
       <c r="H5" s="8">
         <f>F5/$F$31</f>
-        <v>0.11942598273050967</v>
+        <v>0.11935661026476657</v>
       </c>
       <c r="I5">
         <f>B5*D5</f>
@@ -16605,7 +16748,7 @@
       </c>
       <c r="C6">
         <f>_xll.RealtimeData(A6,"Last")</f>
-        <v>1876.71</v>
+        <v>1885.37</v>
       </c>
       <c r="D6">
         <f t="shared" ref="D6:D10" si="0">ROUNDDOWN(($C$2/6)/B6,0)</f>
@@ -16613,19 +16756,19 @@
       </c>
       <c r="E6" s="8">
         <f t="shared" ref="E6:E10" si="1">C6/B6-1</f>
-        <v>0.15162430505271174</v>
+        <v>0.15693842736343444</v>
       </c>
       <c r="F6">
         <f t="shared" ref="F6:F9" si="2">C6*D6</f>
-        <v>13136.970000000001</v>
+        <v>13197.59</v>
       </c>
       <c r="G6" s="73">
         <f t="shared" ref="G6:G10" si="3">F6/$F$13</f>
-        <v>0.18035453193794043</v>
+        <v>0.17941341274787262</v>
       </c>
       <c r="H6" s="8">
         <f t="shared" ref="H6:H10" si="4">F6/$F$31</f>
-        <v>0.12724420123207381</v>
+        <v>0.12693198651599572</v>
       </c>
       <c r="I6">
         <f t="shared" ref="I6:I10" si="5">B6*D6</f>
@@ -16642,7 +16785,7 @@
       </c>
       <c r="C7">
         <f>_xll.RealtimeData(A7,"Last")</f>
-        <v>46.22</v>
+        <v>46.31</v>
       </c>
       <c r="D7">
         <f t="shared" si="0"/>
@@ -16650,19 +16793,19 @@
       </c>
       <c r="E7" s="8">
         <f t="shared" si="1"/>
-        <v>9.0608777725342149E-2</v>
+        <v>9.2732420953279826E-2</v>
       </c>
       <c r="F7">
         <f t="shared" si="2"/>
-        <v>12710.5</v>
+        <v>12735.25</v>
       </c>
       <c r="G7" s="73">
         <f t="shared" si="3"/>
-        <v>0.17449962039931519</v>
+        <v>0.17312817451499438</v>
       </c>
       <c r="H7" s="8">
         <f t="shared" si="4"/>
-        <v>0.12311342872521397</v>
+        <v>0.12248528566790105</v>
       </c>
       <c r="I7">
         <f t="shared" si="5"/>
@@ -16679,7 +16822,7 @@
       </c>
       <c r="C8">
         <f>_xll.RealtimeData(A8,"Last")</f>
-        <v>525.36</v>
+        <v>529.57000000000005</v>
       </c>
       <c r="D8">
         <f t="shared" si="0"/>
@@ -16687,19 +16830,19 @@
       </c>
       <c r="E8" s="8">
         <f t="shared" si="1"/>
-        <v>0.14290686797050056</v>
+        <v>0.1520656122870756</v>
       </c>
       <c r="F8">
         <f t="shared" si="2"/>
-        <v>13134</v>
+        <v>13239.250000000002</v>
       </c>
       <c r="G8" s="73">
         <f t="shared" si="3"/>
-        <v>0.18031375747017078</v>
+        <v>0.17997975575254821</v>
       </c>
       <c r="H8" s="8">
         <f t="shared" si="4"/>
-        <v>0.12721543392289525</v>
+        <v>0.12733266471241311</v>
       </c>
       <c r="I8">
         <f t="shared" si="5"/>
@@ -16716,7 +16859,7 @@
       </c>
       <c r="C9">
         <f>_xll.RealtimeData(A9,"Last")</f>
-        <v>48.06</v>
+        <v>49.55</v>
       </c>
       <c r="D9">
         <f t="shared" si="0"/>
@@ -16724,19 +16867,19 @@
       </c>
       <c r="E9" s="8">
         <f t="shared" si="1"/>
-        <v>-0.16548011807605489</v>
+        <v>-0.13960757075881236</v>
       </c>
       <c r="F9">
         <f t="shared" si="2"/>
-        <v>9708.1200000000008</v>
+        <v>10009.099999999999</v>
       </c>
       <c r="G9" s="73">
         <f t="shared" si="3"/>
-        <v>0.13328061482955036</v>
+        <v>0.13606778127936475</v>
       </c>
       <c r="H9" s="8">
         <f t="shared" si="4"/>
-        <v>9.4032488074884887E-2</v>
+        <v>9.6265677766717433E-2</v>
       </c>
       <c r="I9">
         <f t="shared" si="5"/>
@@ -16753,7 +16896,7 @@
       </c>
       <c r="C10">
         <f>_xll.RealtimeData(A10,"Last")</f>
-        <v>54.54</v>
+        <v>55.256</v>
       </c>
       <c r="D10">
         <f t="shared" si="0"/>
@@ -16761,19 +16904,19 @@
       </c>
       <c r="E10" s="8">
         <f t="shared" si="1"/>
-        <v>-3.2120674356699186E-2</v>
+        <v>-1.9414374445430371E-2</v>
       </c>
       <c r="F10">
         <f>C10*D10</f>
-        <v>11289.78</v>
+        <v>11437.992</v>
       </c>
       <c r="G10" s="73">
         <f t="shared" si="3"/>
-        <v>0.15499487230178047</v>
+        <v>0.15549272099700515</v>
       </c>
       <c r="H10" s="8">
         <f t="shared" si="4"/>
-        <v>0.10935238781742231</v>
+        <v>0.11000849748431848</v>
       </c>
       <c r="I10">
         <f t="shared" si="5"/>
@@ -16792,7 +16935,7 @@
       </c>
       <c r="F13" s="75">
         <f>SUM(F5:F10)+I13</f>
-        <v>72839.700000000012</v>
+        <v>73559.661999999997</v>
       </c>
       <c r="H13" t="s">
         <v>26</v>
@@ -16808,7 +16951,7 @@
       </c>
       <c r="F14" s="8">
         <f>F13/C2-1</f>
-        <v>4.0567142857143024E-2</v>
+        <v>5.085231428571424E-2</v>
       </c>
     </row>
     <row r="15" spans="1:23" x14ac:dyDescent="0.25">
@@ -16819,7 +16962,7 @@
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H17" s="11">
         <f>SUM(H20:H23)</f>
-        <v>0.9883371394908772</v>
+        <v>0.98834157297326852</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
@@ -16861,7 +17004,7 @@
       </c>
       <c r="C20">
         <f>_xll.RealtimeData(A20,"Last")</f>
-        <v>16.84</v>
+        <v>16.93</v>
       </c>
       <c r="D20">
         <f>ROUNDDOWN(($C$3*E20)/B20,0)</f>
@@ -16872,19 +17015,19 @@
       </c>
       <c r="F20" s="8">
         <f>C20/B20-1</f>
-        <v>-9.4117647058823417E-3</v>
+        <v>-4.1176470588235592E-3</v>
       </c>
       <c r="G20">
         <f>D20*C20</f>
-        <v>4210</v>
+        <v>4232.5</v>
       </c>
       <c r="H20" s="8">
         <f>G20/$G$27</f>
-        <v>0.13847549986859628</v>
+        <v>0.13916264986925531</v>
       </c>
       <c r="I20" s="8">
         <f>G20/$F$31</f>
-        <v>4.0777902909653496E-2</v>
+        <v>4.070740437678029E-2</v>
       </c>
       <c r="J20">
         <f>B20*D20</f>
@@ -16901,7 +17044,7 @@
       </c>
       <c r="C21">
         <f>_xll.RealtimeData(A21,"Last")</f>
-        <v>287.72000000000003</v>
+        <v>288.63</v>
       </c>
       <c r="D21">
         <f t="shared" ref="D21:D22" si="6">ROUNDDOWN(($C$3*E21)/B21,0)</f>
@@ -16912,19 +17055,19 @@
       </c>
       <c r="F21" s="8">
         <f t="shared" ref="F21:F23" si="7">C21/B21-1</f>
-        <v>1.7109728506787381E-2</v>
+        <v>2.0326640271493224E-2</v>
       </c>
       <c r="G21">
         <f t="shared" ref="G21:G22" si="8">D21*C21</f>
-        <v>10933.36</v>
+        <v>10967.94</v>
       </c>
       <c r="H21" s="8">
         <f t="shared" ref="H21:H23" si="9">G21/$G$27</f>
-        <v>0.3596205442383173</v>
+        <v>0.36062081370513882</v>
       </c>
       <c r="I21" s="8">
         <f t="shared" ref="I21:I23" si="10">G21/$F$31</f>
-        <v>0.10590011699674327</v>
+        <v>0.10548762404259035</v>
       </c>
       <c r="J21">
         <f t="shared" ref="J21:J23" si="11">B21*D21</f>
@@ -16941,7 +17084,7 @@
       </c>
       <c r="C22">
         <f>_xll.RealtimeData(A22,"Last")</f>
-        <v>83.25</v>
+        <v>82.94</v>
       </c>
       <c r="D22">
         <f t="shared" si="6"/>
@@ -16952,19 +17095,19 @@
       </c>
       <c r="F22" s="8">
         <f t="shared" si="7"/>
-        <v>2.1221786064769432E-2</v>
+        <v>1.7419038272816545E-2</v>
       </c>
       <c r="G22">
         <f t="shared" si="8"/>
-        <v>11988</v>
+        <v>11943.36</v>
       </c>
       <c r="H22" s="8">
         <f t="shared" si="9"/>
-        <v>0.39430980817689604</v>
+        <v>0.39269217387890587</v>
       </c>
       <c r="I22" s="8">
         <f t="shared" si="10"/>
-        <v>0.1161153206843055</v>
+        <v>0.11486903370052279</v>
       </c>
       <c r="J22">
         <f t="shared" si="11"/>
@@ -16981,7 +17124,7 @@
       </c>
       <c r="C23">
         <f>_xll.RealtimeData(A23,"Last")</f>
-        <v>83.33</v>
+        <v>83.304900000000004</v>
       </c>
       <c r="D23">
         <f>ROUNDDOWN(($C$3*E23)/B23,0)</f>
@@ -16992,19 +17135,19 @@
       </c>
       <c r="F23" s="8">
         <f t="shared" si="7"/>
-        <v>3.2506621719239348E-3</v>
+        <v>2.9484709848301982E-3</v>
       </c>
       <c r="G23">
         <f>D23*C23</f>
-        <v>2916.5499999999997</v>
+        <v>2915.6714999999999</v>
       </c>
       <c r="H23" s="8">
         <f t="shared" si="9"/>
-        <v>9.5931287207067562E-2</v>
+        <v>9.5865935519968443E-2</v>
       </c>
       <c r="I23" s="8">
         <f t="shared" si="10"/>
-        <v>2.8249594472957221E-2</v>
+        <v>2.804239073369251E-2</v>
       </c>
       <c r="J23">
         <f t="shared" si="11"/>
@@ -17020,7 +17163,7 @@
       </c>
       <c r="G27">
         <f>SUM(G20:G23)+J28</f>
-        <v>30402.49</v>
+        <v>30414.051500000005</v>
       </c>
       <c r="J27">
         <f>SUM(J20:J23)</f>
@@ -17033,7 +17176,7 @@
       </c>
       <c r="G28" s="8">
         <f>G27/J27-1</f>
-        <v>2.553750292625323E-2</v>
+        <v>2.5927495714346716E-2</v>
       </c>
       <c r="I28" t="s">
         <v>26</v>
@@ -17049,7 +17192,7 @@
       </c>
       <c r="F31" s="75">
         <f>SUM(F13,G27)</f>
-        <v>103242.19000000002</v>
+        <v>103973.7135</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
@@ -17058,11 +17201,11 @@
       </c>
       <c r="F33" s="8">
         <f>F31/B1-1</f>
-        <v>3.2421900000000115E-2</v>
+        <v>3.9737134999999979E-2</v>
       </c>
       <c r="H33" s="11">
         <f>F33-F37</f>
-        <v>4.2971536220443932E-3</v>
+        <v>9.9586973468766445E-3</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
@@ -17084,7 +17227,7 @@
       <c r="E37" s="11"/>
       <c r="F37" s="8">
         <f>D37*$B$3+D40*$B$2</f>
-        <v>2.8124746377955721E-2</v>
+        <v>2.9778437653123335E-2</v>
       </c>
       <c r="H37" s="8"/>
       <c r="I37" s="8"/>
@@ -17099,11 +17242,11 @@
       </c>
       <c r="C38">
         <f>_xll.RealtimeData(A38,"Last")</f>
-        <v>287.72000000000003</v>
+        <v>288.63</v>
       </c>
       <c r="D38" s="8">
         <f t="shared" ref="D38:D39" si="12">C38/B38-1</f>
-        <v>5.4962783705496232E-2</v>
+        <v>5.8299417005829746E-2</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
@@ -17116,11 +17259,11 @@
       </c>
       <c r="C39">
         <f>_xll.RealtimeData(A39,"Last")</f>
-        <v>179.7</v>
+        <v>180.45</v>
       </c>
       <c r="D39" s="8">
         <f t="shared" si="12"/>
-        <v>5.6623743164579299E-2</v>
+        <v>6.1033692009172746E-2</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
@@ -17133,11 +17276,11 @@
       </c>
       <c r="C40">
         <f>_xll.RealtimeData(A40,"Last")</f>
-        <v>46.52</v>
+        <v>46.625599999999999</v>
       </c>
       <c r="D40" s="8">
         <f>C40/B40-1</f>
-        <v>4.0715883668903885E-2</v>
+        <v>4.3078299776286189E-2</v>
       </c>
     </row>
   </sheetData>

--- a/Portfolio.xlsx
+++ b/Portfolio.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12135"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12135" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Portfolio" sheetId="1" r:id="rId1"/>
@@ -1032,118 +1032,128 @@
 <file path=xl/volatileDependencies.xml><?xml version="1.0" encoding="utf-8"?>
 <volTypes xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <volType type="realTimeData">
-    <main first="rtdsrv.4b86c05bef1847308d30bfc58374b548">
+    <main first="rtdsrv.3073c66848b64aecaa42d795206db90b">
       <tp>
-        <v>0</v>
+        <v>-1.797625777275325E-3</v>
         <stp/>
         <stp>GYLD</stp>
         <stp>change in percent</stp>
         <tr r="K26" s="1"/>
       </tp>
     </main>
-    <main first="rtdsrv.4b86c05bef1847308d30bfc58374b548">
+    <main first="rtdsrv.3073c66848b64aecaa42d795206db90b">
       <tp>
-        <v>-2.0670488100000002</v>
+        <v>2.1866885335519613E-3</v>
+        <stp/>
+        <stp>ACWI</stp>
+        <stp>change in percent</stp>
+        <tr r="K22" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.3073c66848b64aecaa42d795206db90b">
+      <tp>
+        <v>0.31302672999999998</v>
+        <stp/>
+        <stp>SHY</stp>
+        <stp>mtd percent change</stp>
+        <tr r="U12" s="1"/>
+      </tp>
+      <tp>
+        <v>-0.60759494000000003</v>
+        <stp/>
+        <stp>RWX</stp>
+        <stp>mtd percent change</stp>
+        <tr r="U6" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.3073c66848b64aecaa42d795206db90b">
+      <tp>
+        <v>2.6971129500000002</v>
+        <stp/>
+        <stp>TLT</stp>
+        <stp>mtd percent change</stp>
+        <tr r="U5" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.3073c66848b64aecaa42d795206db90b">
+      <tp>
+        <v>-1.7196456499999999</v>
         <stp/>
         <stp>GLD</stp>
         <stp>mtd percent change</stp>
         <tr r="U8" s="1"/>
       </tp>
       <tp>
-        <v>-0.41176470999999998</v>
+        <v>-2.9820063000000001</v>
+        <stp/>
+        <stp>EEM</stp>
+        <stp>mtd percent change</stp>
+        <tr r="U10" s="1"/>
+      </tp>
+      <tp>
+        <v>-1.9181802699999999</v>
+        <stp/>
+        <stp>EWJ</stp>
+        <stp>mtd percent change</stp>
+        <tr r="U7" s="1"/>
+      </tp>
+      <tp>
+        <v>0.20588234999999999</v>
         <stp/>
         <stp>DBC</stp>
         <stp>mtd percent change</stp>
         <tr r="U2" s="1"/>
       </tp>
       <tp>
-        <v>-3.5200179899999999</v>
-        <stp/>
-        <stp>EEM</stp>
-        <stp>mtd percent change</stp>
-        <tr r="U10" s="1"/>
-      </tp>
-      <tp>
-        <v>-2.5632320499999999</v>
-        <stp/>
-        <stp>EWJ</stp>
-        <stp>mtd percent change</stp>
-        <tr r="U7" s="1"/>
-      </tp>
-      <tp>
-        <v>-2.32608696</v>
+        <v>-1.9347826100000001</v>
         <stp/>
         <stp>IEV</stp>
         <stp>mtd percent change</stp>
         <tr r="U9" s="1"/>
       </tp>
       <tp>
-        <v>1.30254589</v>
+        <v>1.4456285799999999</v>
         <stp/>
         <stp>IEF</stp>
         <stp>mtd percent change</stp>
         <tr r="U11" s="1"/>
       </tp>
       <tp>
-        <v>1.74190383</v>
+        <v>1.97256787</v>
+        <stp/>
+        <stp>IVV</stp>
+        <stp>mtd percent change</stp>
+        <tr r="U3" s="1"/>
+      </tp>
+      <tp>
+        <v>0.68694798999999995</v>
         <stp/>
         <stp>IYR</stp>
         <stp>mtd percent change</stp>
         <tr r="U4" s="1"/>
       </tp>
+    </main>
+    <main first="rtdsrv.3073c66848b64aecaa42d795206db90b">
       <tp>
-        <v>2.0326640299999998</v>
+        <v>55.44</v>
         <stp/>
-        <stp>IVV</stp>
-        <stp>mtd percent change</stp>
-        <tr r="U3" s="1"/>
+        <stp>STX</stp>
+        <stp>last</stp>
+        <tr r="C10" s="4"/>
       </tp>
     </main>
-    <main first="rtdsrv.4b86c05bef1847308d30bfc58374b548">
-      <tp>
-        <v>-0.91139241000000004</v>
+    <main first="rtdsrv.3073c66848b64aecaa42d795206db90b">
+      <tp t="s">
+        <v>SPDR INDEX SHS FDS-DJ INTL RL ETF</v>
         <stp/>
         <stp>RWX</stp>
-        <stp>mtd percent change</stp>
-        <tr r="U6" s="1"/>
-      </tp>
-      <tp>
-        <v>0.29484709999999997</v>
-        <stp/>
-        <stp>SHY</stp>
-        <stp>mtd percent change</stp>
-        <tr r="U12" s="1"/>
-      </tp>
-      <tp>
-        <v>2.3214587199999999</v>
-        <stp/>
-        <stp>TLT</stp>
-        <stp>mtd percent change</stp>
-        <tr r="U5" s="1"/>
+        <stp>description</stp>
+        <tr r="B6" s="1"/>
       </tp>
     </main>
-    <main first="rtdsrv.4b86c05bef1847308d30bfc58374b548">
+    <main first="rtdsrv.3073c66848b64aecaa42d795206db90b">
       <tp>
-        <v>5.217630097487231E-3</v>
-        <stp/>
-        <stp>ACWI</stp>
-        <stp>change in percent</stp>
-        <tr r="K22" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.4b86c05bef1847308d30bfc58374b548">
-      <tp>
-        <v>82.94</v>
-        <stp/>
-        <stp>IYR</stp>
-        <stp>last</stp>
-        <tr r="J4" s="1"/>
-        <tr r="C22" s="4"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.4b86c05bef1847308d30bfc58374b548">
-      <tp>
-        <v>288.63</v>
+        <v>288.45999999999998</v>
         <stp/>
         <stp>IVV</stp>
         <stp>last</stp>
@@ -1152,71 +1162,92 @@
         <tr r="C21" s="4"/>
       </tp>
     </main>
-    <main first="rtdsrv.4b86c05bef1847308d30bfc58374b548">
+    <main first="rtdsrv.3073c66848b64aecaa42d795206db90b">
       <tp>
-        <v>57.4</v>
+        <v>50.08</v>
+        <stp/>
+        <stp>MU</stp>
+        <stp>last</stp>
+        <tr r="C9" s="4"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.3073c66848b64aecaa42d795206db90b">
+      <tp t="s">
+        <v>ISHARES TR-1 3 YR TREAS BD</v>
+        <stp/>
+        <stp>SHY</stp>
+        <stp>description</stp>
+        <tr r="B12" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.3073c66848b64aecaa42d795206db90b">
+      <tp>
+        <v>57.78</v>
         <stp/>
         <stp>EWJ</stp>
         <stp>last</stp>
         <tr r="J7" s="1"/>
       </tp>
-    </main>
-    <main first="rtdsrv.4b86c05bef1847308d30bfc58374b548">
       <tp>
-        <v>39.14</v>
+        <v>39.26</v>
         <stp/>
         <stp>RWX</stp>
         <stp>last</stp>
         <tr r="J6" s="1"/>
       </tp>
-    </main>
-    <main first="rtdsrv.4b86c05bef1847308d30bfc58374b548">
-      <tp>
-        <v>55.256</v>
+      <tp t="s">
+        <v>ISHARES TR-20 YR TR BD ETF</v>
         <stp/>
-        <stp>STX</stp>
-        <stp>last</stp>
-        <tr r="C10" s="4"/>
+        <stp>TLT</stp>
+        <stp>description</stp>
+        <tr r="B5" s="1"/>
       </tp>
     </main>
-    <main first="rtdsrv.4b86c05bef1847308d30bfc58374b548">
+    <main first="rtdsrv.3073c66848b64aecaa42d795206db90b">
       <tp>
-        <v>180.45</v>
+        <v>180.89</v>
         <stp/>
         <stp>QQQ</stp>
         <stp>last</stp>
         <tr r="C39" s="4"/>
       </tp>
     </main>
-    <main first="rtdsrv.4b86c05bef1847308d30bfc58374b548">
+    <main first="rtdsrv.3073c66848b64aecaa42d795206db90b">
       <tp>
-        <v>112.76</v>
+        <v>82.08</v>
         <stp/>
-        <stp>GLD</stp>
+        <stp>IYR</stp>
         <stp>last</stp>
-        <tr r="J8" s="1"/>
+        <tr r="J4" s="1"/>
+        <tr r="C22" s="4"/>
       </tp>
     </main>
-    <main first="rtdsrv.4b86c05bef1847308d30bfc58374b548">
+    <main first="rtdsrv.3073c66848b64aecaa42d795206db90b">
       <tp>
-        <v>121.22</v>
+        <v>102.80500000000001</v>
         <stp/>
-        <stp>TLT</stp>
+        <stp>IEF</stp>
         <stp>last</stp>
-        <tr r="J5" s="1"/>
+        <tr r="J11" s="1"/>
       </tp>
     </main>
-    <main first="rtdsrv.4b86c05bef1847308d30bfc58374b548">
+    <main first="rtdsrv.3073c66848b64aecaa42d795206db90b">
       <tp>
-        <v>83.304900000000004</v>
+        <v>43.1342</v>
         <stp/>
-        <stp>SHY</stp>
+        <stp>EEM</stp>
         <stp>last</stp>
-        <tr r="J12" s="1"/>
-        <tr r="C23" s="4"/>
+        <tr r="J10" s="1"/>
+      </tp>
+      <tp>
+        <v>45.1</v>
+        <stp/>
+        <stp>IEV</stp>
+        <stp>last</stp>
+        <tr r="J9" s="1"/>
       </tp>
     </main>
-    <main first="rtdsrv.4b86c05bef1847308d30bfc58374b548">
+    <main first="rtdsrv.3073c66848b64aecaa42d795206db90b">
       <tp t="s">
         <v>ARROW ETF TR-ARROW DJ GLB YLD</v>
         <stp/>
@@ -1225,246 +1256,16 @@
         <tr r="L26" s="1"/>
       </tp>
     </main>
-    <main first="rtdsrv.4b86c05bef1847308d30bfc58374b548">
-      <tp>
-        <v>102.66</v>
+    <main first="rtdsrv.3073c66848b64aecaa42d795206db90b">
+      <tp t="s">
+        <v>INVESCO DB COMMDY INDX TRCK-UNIT</v>
         <stp/>
-        <stp>IEF</stp>
-        <stp>last</stp>
-        <tr r="J11" s="1"/>
-      </tp>
-      <tp>
-        <v>42.895000000000003</v>
-        <stp/>
-        <stp>EEM</stp>
-        <stp>last</stp>
-        <tr r="J10" s="1"/>
+        <stp>DBC</stp>
+        <stp>description</stp>
+        <tr r="B2" s="1"/>
       </tp>
     </main>
-    <main first="rtdsrv.4b86c05bef1847308d30bfc58374b548">
-      <tp>
-        <v>44.93</v>
-        <stp/>
-        <stp>IEV</stp>
-        <stp>last</stp>
-        <tr r="J9" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.4b86c05bef1847308d30bfc58374b548">
-      <tp>
-        <v>16.93</v>
-        <stp/>
-        <stp>DBC</stp>
-        <stp>last</stp>
-        <tr r="J2" s="1"/>
-        <tr r="C20" s="4"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.4b86c05bef1847308d30bfc58374b548">
-      <tp>
-        <v>38.212000000000003</v>
-        <stp/>
-        <stp>GAL</stp>
-        <stp>last</stp>
-        <tr r="C37" s="4"/>
-      </tp>
-      <tp>
-        <v>-1.5561174868702298E-3</v>
-        <stp/>
-        <stp>IEF</stp>
-        <stp>change in percent</stp>
-        <tr r="L11" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.4b86c05bef1847308d30bfc58374b548">
-      <tp>
-        <v>-1.1718383800506235E-3</v>
-        <stp/>
-        <stp>AGG</stp>
-        <stp>change in percent</stp>
-        <tr r="K23" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.4b86c05bef1847308d30bfc58374b548">
-      <tp>
-        <v>6.2117312982524987E-4</v>
-        <stp/>
-        <stp>GLD</stp>
-        <stp>change in percent</stp>
-        <tr r="L8" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.4b86c05bef1847308d30bfc58374b548">
-      <tp>
-        <v>5.3444180522565264E-3</v>
-        <stp/>
-        <stp>DBC</stp>
-        <stp>change in percent</stp>
-        <tr r="L2" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.4b86c05bef1847308d30bfc58374b548">
-      <tp>
-        <v>1.1674528301886911E-2</v>
-        <stp/>
-        <stp>EEM</stp>
-        <stp>change in percent</stp>
-        <tr r="L10" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.4b86c05bef1847308d30bfc58374b548">
-      <tp>
-        <v>-3.483106931383333E-4</v>
-        <stp/>
-        <stp>EWJ</stp>
-        <stp>change in percent</stp>
-        <tr r="L7" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.4b86c05bef1847308d30bfc58374b548">
-      <tp>
-        <v>3.0930701327586919E-3</v>
-        <stp/>
-        <stp>IVV</stp>
-        <stp>change in percent</stp>
-        <tr r="K24" s="1"/>
-        <tr r="L3" s="1"/>
-      </tp>
-      <tp>
-        <v>1.0116906474820213E-2</v>
-        <stp/>
-        <stp>IEV</stp>
-        <stp>change in percent</stp>
-        <tr r="L9" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.4b86c05bef1847308d30bfc58374b548">
-      <tp>
-        <v>-4.6801872074883561E-3</v>
-        <stp/>
-        <stp>TLT</stp>
-        <stp>change in percent</stp>
-        <tr r="L5" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.4b86c05bef1847308d30bfc58374b548">
-      <tp>
-        <v>-4.2021851362709691E-3</v>
-        <stp/>
-        <stp>IYR</stp>
-        <stp>change in percent</stp>
-        <tr r="L4" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.4b86c05bef1847308d30bfc58374b548">
-      <tp>
-        <v>2.0481310803891011E-3</v>
-        <stp/>
-        <stp>RWX</stp>
-        <stp>change in percent</stp>
-        <tr r="L6" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.4b86c05bef1847308d30bfc58374b548">
-      <tp>
-        <v>-3.0121204848187691E-4</v>
-        <stp/>
-        <stp>SHY</stp>
-        <stp>change in percent</stp>
-        <tr r="L12" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.4b86c05bef1847308d30bfc58374b548">
-      <tp>
-        <v>529.57000000000005</v>
-        <stp/>
-        <stp>ISRG</stp>
-        <stp>last</stp>
-        <tr r="C8" s="4"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.4b86c05bef1847308d30bfc58374b548">
-      <tp>
-        <v>46.625599999999999</v>
-        <stp/>
-        <stp>QQQE</stp>
-        <stp>last</stp>
-        <tr r="C40" s="4"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.4b86c05bef1847308d30bfc58374b548">
-      <tp>
-        <v>3.67</v>
-        <stp/>
-        <stp>RWX</stp>
-        <stp>dividend yield</stp>
-        <tr r="M6" s="1"/>
-      </tp>
-      <tp>
-        <v>1.87</v>
-        <stp/>
-        <stp>SHY</stp>
-        <stp>dividend yield</stp>
-        <tr r="M12" s="1"/>
-      </tp>
-      <tp>
-        <v>2.71</v>
-        <stp/>
-        <stp>TLT</stp>
-        <stp>dividend yield</stp>
-        <tr r="M5" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>--</v>
-        <stp/>
-        <stp>DBC</stp>
-        <stp>dividend yield</stp>
-        <tr r="M2" s="1"/>
-      </tp>
-      <tp>
-        <v>1.35</v>
-        <stp/>
-        <stp>EEM</stp>
-        <stp>dividend yield</stp>
-        <tr r="M10" s="1"/>
-      </tp>
-      <tp>
-        <v>1.6</v>
-        <stp/>
-        <stp>EWJ</stp>
-        <stp>dividend yield</stp>
-        <tr r="M7" s="1"/>
-      </tp>
-      <tp>
-        <v>2.2200000000000002</v>
-        <stp/>
-        <stp>IEF</stp>
-        <stp>dividend yield</stp>
-        <tr r="M11" s="1"/>
-      </tp>
-      <tp>
-        <v>4.75</v>
-        <stp/>
-        <stp>IEV</stp>
-        <stp>dividend yield</stp>
-        <tr r="M9" s="1"/>
-      </tp>
-      <tp>
-        <v>0.48</v>
-        <stp/>
-        <stp>IYR</stp>
-        <stp>dividend yield</stp>
-        <tr r="M4" s="1"/>
-      </tp>
-      <tp>
-        <v>1.78</v>
-        <stp/>
-        <stp>IVV</stp>
-        <stp>dividend yield</stp>
-        <tr r="M3" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.4b86c05bef1847308d30bfc58374b548">
+    <main first="rtdsrv.3073c66848b64aecaa42d795206db90b">
       <tp t="s">
         <v>ISHARES INC-MSCI JPN ETF NEW</v>
         <stp/>
@@ -1472,8 +1273,6 @@
         <stp>description</stp>
         <tr r="B7" s="1"/>
       </tp>
-    </main>
-    <main first="rtdsrv.4b86c05bef1847308d30bfc58374b548">
       <tp t="s">
         <v>ISHARES TR-MSCI EMG MKT ETF</v>
         <stp/>
@@ -1482,16 +1281,26 @@
         <tr r="B10" s="1"/>
       </tp>
     </main>
-    <main first="rtdsrv.4b86c05bef1847308d30bfc58374b548">
-      <tp t="s">
-        <v>INVESCO DB COMMDY INDX TRCK-UNIT</v>
+    <main first="rtdsrv.3073c66848b64aecaa42d795206db90b">
+      <tp>
+        <v>38.392899999999997</v>
+        <stp/>
+        <stp>GAL</stp>
+        <stp>last</stp>
+        <tr r="C37" s="4"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.3073c66848b64aecaa42d795206db90b">
+      <tp>
+        <v>17.035</v>
         <stp/>
         <stp>DBC</stp>
-        <stp>description</stp>
-        <tr r="B2" s="1"/>
+        <stp>last</stp>
+        <tr r="J2" s="1"/>
+        <tr r="C20" s="4"/>
       </tp>
     </main>
-    <main first="rtdsrv.4b86c05bef1847308d30bfc58374b548">
+    <main first="rtdsrv.3073c66848b64aecaa42d795206db90b">
       <tp t="s">
         <v>SPDR GOLD TRUST-GOLD SHS</v>
         <stp/>
@@ -1500,13 +1309,22 @@
         <tr r="B8" s="1"/>
       </tp>
     </main>
-    <main first="rtdsrv.4b86c05bef1847308d30bfc58374b548">
-      <tp t="s">
-        <v>ISHARES TR-U.S. REAL ES ETF</v>
+    <main first="rtdsrv.3073c66848b64aecaa42d795206db90b">
+      <tp>
+        <v>113.16</v>
         <stp/>
-        <stp>IYR</stp>
-        <stp>description</stp>
-        <tr r="B4" s="1"/>
+        <stp>GLD</stp>
+        <stp>last</stp>
+        <tr r="J8" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.3073c66848b64aecaa42d795206db90b">
+      <tp>
+        <v>121.655</v>
+        <stp/>
+        <stp>TLT</stp>
+        <stp>last</stp>
+        <tr r="J5" s="1"/>
       </tp>
       <tp t="s">
         <v>ISHARES TR-CORE S&amp;P500 ETF</v>
@@ -1514,6 +1332,15 @@
         <stp>IVV</stp>
         <stp>description</stp>
         <tr r="B3" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.3073c66848b64aecaa42d795206db90b">
+      <tp t="s">
+        <v>ISHARES TR-U.S. REAL ES ETF</v>
+        <stp/>
+        <stp>IYR</stp>
+        <stp>description</stp>
+        <tr r="B4" s="1"/>
       </tp>
       <tp t="s">
         <v>ISHARES TR-EUROPE ETF</v>
@@ -1530,97 +1357,270 @@
         <tr r="B11" s="1"/>
       </tp>
     </main>
-    <main first="rtdsrv.4b86c05bef1847308d30bfc58374b548">
+    <main first="rtdsrv.3073c66848b64aecaa42d795206db90b">
       <tp>
-        <v>1885.37</v>
+        <v>83.32</v>
+        <stp/>
+        <stp>SHY</stp>
+        <stp>last</stp>
+        <tr r="J12" s="1"/>
+        <tr r="C23" s="4"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.3073c66848b64aecaa42d795206db90b">
+      <tp>
+        <v>1.2387188108299507E-3</v>
+        <stp/>
+        <stp>GLD</stp>
+        <stp>change in percent</stp>
+        <tr r="L8" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.3073c66848b64aecaa42d795206db90b">
+      <tp>
+        <v>4.6913116907444645E-5</v>
+        <stp/>
+        <stp>AGG</stp>
+        <stp>change in percent</stp>
+        <tr r="K23" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.3073c66848b64aecaa42d795206db90b">
+      <tp>
+        <v>1.217374366965329E-3</v>
+        <stp/>
+        <stp>IEF</stp>
+        <stp>change in percent</stp>
+        <tr r="L11" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.3073c66848b64aecaa42d795206db90b">
+      <tp>
+        <v>9.7806757557794312E-3</v>
+        <stp/>
+        <stp>DBC</stp>
+        <stp>change in percent</stp>
+        <tr r="L2" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.3073c66848b64aecaa42d795206db90b">
+      <tp>
+        <v>4.5225896599907318E-3</v>
+        <stp/>
+        <stp>EEM</stp>
+        <stp>change in percent</stp>
+        <tr r="L10" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.3073c66848b64aecaa42d795206db90b">
+      <tp>
+        <v>6.4448702316670442E-3</v>
+        <stp/>
+        <stp>EWJ</stp>
+        <stp>change in percent</stp>
+        <tr r="L7" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.3073c66848b64aecaa42d795206db90b">
+      <tp>
+        <v>2.2656121272038722E-3</v>
+        <stp/>
+        <stp>TLT</stp>
+        <stp>change in percent</stp>
+        <tr r="L5" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.3073c66848b64aecaa42d795206db90b">
+      <tp>
+        <v>7.9797384033570759E-4</v>
+        <stp/>
+        <stp>IVV</stp>
+        <stp>change in percent</stp>
+        <tr r="K24" s="1"/>
+        <tr r="L3" s="1"/>
+      </tp>
+      <tp>
+        <v>3.1138790035587414E-3</v>
+        <stp/>
+        <stp>IEV</stp>
+        <stp>change in percent</stp>
+        <tr r="L9" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.3073c66848b64aecaa42d795206db90b">
+      <tp>
+        <v>-7.8568838389943916E-3</v>
+        <stp/>
+        <stp>IYR</stp>
+        <stp>change in percent</stp>
+        <tr r="L4" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.3073c66848b64aecaa42d795206db90b">
+      <tp>
+        <v>1.2003360941052586E-4</v>
+        <stp/>
+        <stp>SHY</stp>
+        <stp>change in percent</stp>
+        <tr r="L12" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.3073c66848b64aecaa42d795206db90b">
+      <tp>
+        <v>3.3222591362124967E-3</v>
+        <stp/>
+        <stp>RWX</stp>
+        <stp>change in percent</stp>
+        <tr r="L6" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.3073c66848b64aecaa42d795206db90b">
+      <tp>
+        <v>46.77</v>
+        <stp/>
+        <stp>QQQE</stp>
+        <stp>last</stp>
+        <tr r="C40" s="4"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.3073c66848b64aecaa42d795206db90b">
+      <tp>
+        <v>533.45600000000002</v>
+        <stp/>
+        <stp>ISRG</stp>
+        <stp>last</stp>
+        <tr r="C8" s="4"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.3073c66848b64aecaa42d795206db90b">
+      <tp>
+        <v>1.34</v>
+        <stp/>
+        <stp>EEM</stp>
+        <stp>dividend yield</stp>
+        <tr r="M10" s="1"/>
+      </tp>
+      <tp>
+        <v>1.6</v>
+        <stp/>
+        <stp>EWJ</stp>
+        <stp>dividend yield</stp>
+        <tr r="M7" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>--</v>
+        <stp/>
+        <stp>DBC</stp>
+        <stp>dividend yield</stp>
+        <tr r="M2" s="1"/>
+      </tp>
+      <tp>
+        <v>2.21</v>
+        <stp/>
+        <stp>IEF</stp>
+        <stp>dividend yield</stp>
+        <tr r="M11" s="1"/>
+      </tp>
+      <tp>
+        <v>4.7</v>
+        <stp/>
+        <stp>IEV</stp>
+        <stp>dividend yield</stp>
+        <tr r="M9" s="1"/>
+      </tp>
+      <tp>
+        <v>1.78</v>
+        <stp/>
+        <stp>IVV</stp>
+        <stp>dividend yield</stp>
+        <tr r="M3" s="1"/>
+      </tp>
+      <tp>
+        <v>0.48</v>
+        <stp/>
+        <stp>IYR</stp>
+        <stp>dividend yield</stp>
+        <tr r="M4" s="1"/>
+      </tp>
+      <tp>
+        <v>1.87</v>
+        <stp/>
+        <stp>SHY</stp>
+        <stp>dividend yield</stp>
+        <tr r="M12" s="1"/>
+      </tp>
+      <tp>
+        <v>3.65</v>
+        <stp/>
+        <stp>RWX</stp>
+        <stp>dividend yield</stp>
+        <tr r="M6" s="1"/>
+      </tp>
+      <tp>
+        <v>2.71</v>
+        <stp/>
+        <stp>TLT</stp>
+        <stp>dividend yield</stp>
+        <tr r="M5" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.3073c66848b64aecaa42d795206db90b">
+      <tp>
+        <v>288.23</v>
+        <stp/>
+        <stp>IVV</stp>
+        <stp>close</stp>
+        <tr r="G3" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.3073c66848b64aecaa42d795206db90b">
+      <tp>
+        <v>1897.2729999999999</v>
         <stp/>
         <stp>AMZN</stp>
         <stp>last</stp>
         <tr r="C6" s="4"/>
       </tp>
     </main>
-    <main first="rtdsrv.4b86c05bef1847308d30bfc58374b548">
+    <main first="rtdsrv.3073c66848b64aecaa42d795206db90b">
       <tp>
-        <v>121.79</v>
+        <v>121.38</v>
         <stp/>
         <stp>TLT</stp>
         <stp>close</stp>
         <tr r="G5" s="1"/>
       </tp>
     </main>
-    <main first="rtdsrv.4b86c05bef1847308d30bfc58374b548">
+    <main first="rtdsrv.3073c66848b64aecaa42d795206db90b">
       <tp>
-        <v>287.74</v>
-        <stp/>
-        <stp>IVV</stp>
-        <stp>close</stp>
-        <tr r="G3" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.4b86c05bef1847308d30bfc58374b548">
-      <tp>
-        <v>83.29</v>
+        <v>82.73</v>
         <stp/>
         <stp>IYR</stp>
         <stp>close</stp>
         <tr r="G4" s="1"/>
       </tp>
     </main>
-    <main first="rtdsrv.4b86c05bef1847308d30bfc58374b548">
+    <main first="rtdsrv.3073c66848b64aecaa42d795206db90b">
       <tp>
-        <v>46.31</v>
+        <v>46.096800000000002</v>
         <stp/>
         <stp>CSCO</stp>
         <stp>last</stp>
         <tr r="C7" s="4"/>
       </tp>
     </main>
-    <main first="rtdsrv.4b86c05bef1847308d30bfc58374b548">
-      <tp t="s">
-        <v>ISHARES TR-1 3 YR TREAS BD</v>
-        <stp/>
-        <stp>SHY</stp>
-        <stp>description</stp>
-        <tr r="B12" s="1"/>
-      </tp>
+    <main first="rtdsrv.3073c66848b64aecaa42d795206db90b">
       <tp>
-        <v>49.55</v>
-        <stp/>
-        <stp>MU</stp>
-        <stp>last</stp>
-        <tr r="C9" s="4"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.4b86c05bef1847308d30bfc58374b548">
-      <tp t="s">
-        <v>SPDR INDEX SHS FDS-DJ INTL RL ETF</v>
-        <stp/>
-        <stp>RWX</stp>
-        <stp>description</stp>
-        <tr r="B6" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.4b86c05bef1847308d30bfc58374b548">
-      <tp>
-        <v>354.57</v>
+        <v>359.19</v>
         <stp/>
         <stp>ALGN</stp>
         <stp>last</stp>
         <tr r="C5" s="4"/>
       </tp>
     </main>
-    <main first="rtdsrv.4b86c05bef1847308d30bfc58374b548">
-      <tp t="s">
-        <v>ISHARES TR-20 YR TR BD ETF</v>
-        <stp/>
-        <stp>TLT</stp>
-        <stp>description</stp>
-        <tr r="B5" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.4b86c05bef1847308d30bfc58374b548">
+    <main first="rtdsrv.3073c66848b64aecaa42d795206db90b">
       <tp>
-        <v>16.84</v>
+        <v>16.87</v>
         <stp/>
         <stp>DBC</stp>
         <stp>close</stp>
@@ -1897,8 +1897,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:V46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="P24" sqref="P24"/>
+    <sheetView topLeftCell="B1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1998,34 +1998,34 @@
       </c>
       <c r="E2" s="5">
         <f>G2/D2-1</f>
-        <v>-5.5355971768606405E-2</v>
+        <v>-5.3673114236127528E-2</v>
       </c>
       <c r="F2" s="5">
         <f>I2/$I$21</f>
-        <v>0.14691872883653811</v>
+        <v>0.14736381309921517</v>
       </c>
       <c r="G2" s="4">
         <f>_xll.RealtimeData(A2,"Close")</f>
-        <v>16.84</v>
+        <v>16.87</v>
       </c>
       <c r="H2" s="4">
         <v>176</v>
       </c>
       <c r="I2" s="4">
         <f>H2*G2</f>
-        <v>2963.84</v>
+        <v>2969.1200000000003</v>
       </c>
       <c r="J2" s="4">
         <f>_xll.RealtimeData(A2,"Last")</f>
-        <v>16.93</v>
+        <v>17.035</v>
       </c>
       <c r="K2" s="5">
         <f>J2/D2-1</f>
-        <v>-5.030739917117022E-2</v>
+        <v>-4.4417397807494652E-2</v>
       </c>
       <c r="L2" s="8">
         <f>_xll.RealtimeData(A2,"Change in Percent")</f>
-        <v>5.3444180522565264E-3</v>
+        <v>9.7806757557794312E-3</v>
       </c>
       <c r="M2" s="29" t="str">
         <f>_xll.RealtimeData(A2,"Dividend Yield")</f>
@@ -2040,7 +2040,7 @@
       </c>
       <c r="P2" s="60">
         <f t="shared" ref="P2:P12" si="1">O2-F2</f>
-        <v>-4.9187288365381276E-3</v>
+        <v>-5.3638130992151867E-3</v>
       </c>
       <c r="Q2" s="31">
         <f>O2*Daily!$D$68</f>
@@ -2048,11 +2048,11 @@
       </c>
       <c r="R2">
         <f t="shared" ref="R2:R11" si="2">ROUND(Q2/J2,0)</f>
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="S2">
         <f t="shared" ref="S2:S11" si="3">R2-H2</f>
-        <v>-9</v>
+        <v>-10</v>
       </c>
       <c r="T2" t="str">
         <f t="shared" ref="T2:T12" si="4">A2</f>
@@ -2060,7 +2060,7 @@
       </c>
       <c r="U2">
         <f>_xll.RealtimeData(T2,"MTD Percent Change")</f>
-        <v>-0.41176470999999998</v>
+        <v>0.20588234999999999</v>
       </c>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.25">
@@ -2079,34 +2079,34 @@
       </c>
       <c r="E3" s="5">
         <f>G3/D3-1</f>
-        <v>8.0269335240530149E-2</v>
+        <v>8.2108954251678634E-2</v>
       </c>
       <c r="F3" s="5">
         <f>I3/$I$21</f>
-        <v>0.41363820450069466</v>
+        <v>0.41485877419505329</v>
       </c>
       <c r="G3" s="4">
         <f>_xll.RealtimeData(A3,"Close")</f>
-        <v>287.74</v>
+        <v>288.23</v>
       </c>
       <c r="H3" s="4">
         <v>29</v>
       </c>
       <c r="I3" s="4">
         <f>H3*G3</f>
-        <v>8344.4600000000009</v>
+        <v>8358.67</v>
       </c>
       <c r="J3" s="4">
         <f>_xll.RealtimeData(A3,"Last")</f>
-        <v>288.63</v>
+        <v>288.45999999999998</v>
       </c>
       <c r="K3" s="5">
         <f>J3/D3-1</f>
-        <v>8.3610684056697693E-2</v>
+        <v>8.2972448889564454E-2</v>
       </c>
       <c r="L3" s="8">
         <f>_xll.RealtimeData(A3,"Change in Percent")</f>
-        <v>3.0930701327586919E-3</v>
+        <v>7.9797384033570759E-4</v>
       </c>
       <c r="M3" s="29">
         <f>_xll.RealtimeData(A3,"Dividend Yield")</f>
@@ -2121,7 +2121,7 @@
       </c>
       <c r="P3" s="60">
         <f t="shared" si="1"/>
-        <v>-4.763820450069467E-2</v>
+        <v>-4.8858774195053301E-2</v>
       </c>
       <c r="Q3" s="31">
         <f>O3*Daily!$D$68</f>
@@ -2141,7 +2141,7 @@
       </c>
       <c r="U3">
         <f>_xll.RealtimeData(T3,"MTD Percent Change")</f>
-        <v>2.0326640299999998</v>
+        <v>1.97256787</v>
       </c>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.25">
@@ -2160,34 +2160,34 @@
       </c>
       <c r="E4" s="5">
         <f>G4/D4-1</f>
-        <v>6.1966084406477107E-2</v>
+        <v>5.4825959454290363E-2</v>
       </c>
       <c r="F4" s="5">
         <f>I4/$I$21</f>
-        <v>0.22295079691850575</v>
+        <v>0.22172766540782984</v>
       </c>
       <c r="G4" s="4">
         <f>_xll.RealtimeData(A4,"Close")</f>
-        <v>83.29</v>
+        <v>82.73</v>
       </c>
       <c r="H4" s="4">
         <v>54</v>
       </c>
       <c r="I4" s="4">
         <f>H4*G4</f>
-        <v>4497.6600000000008</v>
+        <v>4467.42</v>
       </c>
       <c r="J4" s="4">
         <f>_xll.RealtimeData(A4,"Last")</f>
-        <v>82.94</v>
+        <v>82.08</v>
       </c>
       <c r="K4" s="5">
         <f>J4/D4-1</f>
-        <v>5.7503506311360253E-2</v>
+        <v>4.6538314420502269E-2</v>
       </c>
       <c r="L4" s="8">
         <f t="array" ref="L4">_xll.RealtimeData(A4,"Change in Percent")</f>
-        <v>-4.2021851362709691E-3</v>
+        <v>-7.8568838389943916E-3</v>
       </c>
       <c r="M4" s="29">
         <f>_xll.RealtimeData(A4,"Dividend Yield")</f>
@@ -2202,7 +2202,7 @@
       </c>
       <c r="P4" s="60">
         <f t="shared" si="1"/>
-        <v>0.17004920308149427</v>
+        <v>0.17127233459217017</v>
       </c>
       <c r="Q4" s="31">
         <f>O4*Daily!$D$68</f>
@@ -2210,11 +2210,11 @@
       </c>
       <c r="R4">
         <f t="shared" si="2"/>
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="S4">
         <f t="shared" si="3"/>
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="T4" t="str">
         <f t="shared" si="4"/>
@@ -2222,7 +2222,7 @@
       </c>
       <c r="U4">
         <f>_xll.RealtimeData(T4,"MTD Percent Change")</f>
-        <v>1.74190383</v>
+        <v>0.68694798999999995</v>
       </c>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.25">
@@ -2241,34 +2241,34 @@
       </c>
       <c r="E5" s="5">
         <f>G5/D5-1</f>
-        <v>-4.119587419803783E-3</v>
+        <v>-7.47216948038254E-3</v>
       </c>
       <c r="F5" s="5">
         <f>I5/$I$21</f>
-        <v>0.21130125765057128</v>
+        <v>0.21085226841265955</v>
       </c>
       <c r="G5" s="4">
         <f>_xll.RealtimeData(A5,"Close")</f>
-        <v>121.79</v>
+        <v>121.38</v>
       </c>
       <c r="H5" s="4">
         <v>35</v>
       </c>
       <c r="I5" s="4">
         <f>H5*G5</f>
-        <v>4262.6500000000005</v>
+        <v>4248.3</v>
       </c>
       <c r="J5" s="31">
         <f>_xll.RealtimeData(A5,"Last")</f>
-        <v>121.22</v>
+        <v>121.655</v>
       </c>
       <c r="K5" s="5">
         <f>J5/D5-1</f>
-        <v>-8.7804941869498165E-3</v>
+        <v>-5.2234863909699225E-3</v>
       </c>
       <c r="L5" s="8">
         <f t="array" ref="L5">_xll.RealtimeData(A5,"Change in Percent")</f>
-        <v>-4.6801872074883561E-3</v>
+        <v>2.2656121272038722E-3</v>
       </c>
       <c r="M5" s="29">
         <f>_xll.RealtimeData(A5,"Dividend Yield")</f>
@@ -2283,7 +2283,7 @@
       </c>
       <c r="P5" s="60">
         <f t="shared" si="1"/>
-        <v>-0.21130125765057128</v>
+        <v>-0.21085226841265955</v>
       </c>
       <c r="Q5" s="31">
         <f>O5*Daily!$D$68</f>
@@ -2303,7 +2303,7 @@
       </c>
       <c r="U5">
         <f>_xll.RealtimeData(T5,"MTD Percent Change")</f>
-        <v>2.3214587199999999</v>
+        <v>2.6971129500000002</v>
       </c>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.25">
@@ -2323,16 +2323,16 @@
       <c r="I6" s="4"/>
       <c r="J6" s="31">
         <f>_xll.RealtimeData(A6,"Last")</f>
-        <v>39.14</v>
+        <v>39.26</v>
       </c>
       <c r="K6" s="5"/>
       <c r="L6" s="8">
         <f>_xll.RealtimeData(A6,"Change in Percent")</f>
-        <v>2.0481310803891011E-3</v>
+        <v>3.3222591362124967E-3</v>
       </c>
       <c r="M6" s="29">
         <f>_xll.RealtimeData(A6,"Dividend Yield")</f>
-        <v>3.67</v>
+        <v>3.65</v>
       </c>
       <c r="N6" s="4" t="str">
         <f t="shared" si="0"/>
@@ -2363,7 +2363,7 @@
       </c>
       <c r="U6">
         <f>_xll.RealtimeData(T6,"MTD Percent Change")</f>
-        <v>-0.91139241000000004</v>
+        <v>-0.60759494000000003</v>
       </c>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.25">
@@ -2383,12 +2383,12 @@
       <c r="I7" s="4"/>
       <c r="J7" s="31">
         <f>_xll.RealtimeData(A7,"Last")</f>
-        <v>57.4</v>
+        <v>57.78</v>
       </c>
       <c r="K7" s="5"/>
       <c r="L7" s="8">
         <f>_xll.RealtimeData(A7,"Change in Percent")</f>
-        <v>-3.483106931383333E-4</v>
+        <v>6.4448702316670442E-3</v>
       </c>
       <c r="M7" s="29">
         <f>_xll.RealtimeData(A7,"Dividend Yield")</f>
@@ -2423,7 +2423,7 @@
       </c>
       <c r="U7">
         <f>_xll.RealtimeData(T7,"MTD Percent Change")</f>
-        <v>-2.5632320499999999</v>
+        <v>-1.9181802699999999</v>
       </c>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.25">
@@ -2443,12 +2443,12 @@
       <c r="I8" s="4"/>
       <c r="J8" s="31">
         <f>_xll.RealtimeData(A8,"Last")</f>
-        <v>112.76</v>
+        <v>113.16</v>
       </c>
       <c r="K8" s="5"/>
       <c r="L8" s="8">
         <f>_xll.RealtimeData(A8,"Change in Percent")</f>
-        <v>6.2117312982524987E-4</v>
+        <v>1.2387188108299507E-3</v>
       </c>
       <c r="M8" s="29">
         <v>0</v>
@@ -2482,7 +2482,7 @@
       </c>
       <c r="U8">
         <f>_xll.RealtimeData(T8,"MTD Percent Change")</f>
-        <v>-2.0670488100000002</v>
+        <v>-1.7196456499999999</v>
       </c>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.25">
@@ -2502,16 +2502,16 @@
       <c r="I9" s="4"/>
       <c r="J9" s="31">
         <f>_xll.RealtimeData(A9,"Last")</f>
-        <v>44.93</v>
+        <v>45.1</v>
       </c>
       <c r="K9" s="5"/>
       <c r="L9" s="8">
         <f>_xll.RealtimeData(A9,"Change in Percent")</f>
-        <v>1.0116906474820213E-2</v>
+        <v>3.1138790035587414E-3</v>
       </c>
       <c r="M9" s="29">
         <f>_xll.RealtimeData(A9,"Dividend Yield")</f>
-        <v>4.75</v>
+        <v>4.7</v>
       </c>
       <c r="N9" s="4" t="str">
         <f t="shared" si="0"/>
@@ -2542,7 +2542,7 @@
       </c>
       <c r="U9">
         <f>_xll.RealtimeData(T9,"MTD Percent Change")</f>
-        <v>-2.32608696</v>
+        <v>-1.9347826100000001</v>
       </c>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.25">
@@ -2556,16 +2556,16 @@
       <c r="G10" s="4"/>
       <c r="J10" s="31">
         <f>_xll.RealtimeData(A10,"Last")</f>
-        <v>42.895000000000003</v>
+        <v>43.1342</v>
       </c>
       <c r="K10" s="5"/>
       <c r="L10" s="8">
         <f t="array" ref="L10">_xll.RealtimeData(A10,"Change in Percent")</f>
-        <v>1.1674528301886911E-2</v>
+        <v>4.5225896599907318E-3</v>
       </c>
       <c r="M10" s="29">
         <f>_xll.RealtimeData(A10,"Dividend Yield")</f>
-        <v>1.35</v>
+        <v>1.34</v>
       </c>
       <c r="N10" s="4" t="str">
         <f t="shared" si="0"/>
@@ -2596,7 +2596,7 @@
       </c>
       <c r="U10">
         <f>_xll.RealtimeData(T10,"MTD Percent Change")</f>
-        <v>-3.5200179899999999</v>
+        <v>-2.9820063000000001</v>
       </c>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.25">
@@ -2610,16 +2610,16 @@
       <c r="G11" s="4"/>
       <c r="J11" s="31">
         <f>_xll.RealtimeData(A11,"Last")</f>
-        <v>102.66</v>
+        <v>102.80500000000001</v>
       </c>
       <c r="K11" s="5"/>
       <c r="L11" s="8">
         <f t="array" ref="L11">_xll.RealtimeData(A11,"Change in Percent")</f>
-        <v>-1.5561174868702298E-3</v>
+        <v>1.217374366965329E-3</v>
       </c>
       <c r="M11" s="29">
         <f>_xll.RealtimeData(A11,"Dividend Yield")</f>
-        <v>2.2200000000000002</v>
+        <v>2.21</v>
       </c>
       <c r="N11" s="4" t="str">
         <f t="shared" si="0"/>
@@ -2650,7 +2650,7 @@
       </c>
       <c r="U11">
         <f>_xll.RealtimeData(T11,"MTD Percent Change")</f>
-        <v>1.30254589</v>
+        <v>1.4456285799999999</v>
       </c>
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.25">
@@ -2663,11 +2663,11 @@
       </c>
       <c r="J12" s="31">
         <f>_xll.RealtimeData(A12,"Last")</f>
-        <v>83.304900000000004</v>
+        <v>83.32</v>
       </c>
       <c r="L12" s="8">
         <f t="array" ref="L12">_xll.RealtimeData(A12,"Change in Percent")</f>
-        <v>-3.0121204848187691E-4</v>
+        <v>1.2003360941052586E-4</v>
       </c>
       <c r="M12" s="29">
         <f>_xll.RealtimeData(A12,"Dividend Yield")</f>
@@ -2702,7 +2702,7 @@
       </c>
       <c r="U12">
         <f>_xll.RealtimeData(T12,"MTD Percent Change")</f>
-        <v>0.29484709999999997</v>
+        <v>0.31302672999999998</v>
       </c>
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.25">
@@ -2719,11 +2719,11 @@
     <row r="14" spans="1:22" x14ac:dyDescent="0.25">
       <c r="U14" s="29">
         <f t="array" ref="U14">MMULT(TRANSPOSE(O2:O12),U2:U12)</f>
-        <v>1.39924251425</v>
+        <v>1.0521553404599999</v>
       </c>
       <c r="V14" s="8">
         <f>U14*0.01</f>
-        <v>1.3992425142500001E-2</v>
+        <v>1.0521553404599999E-2</v>
       </c>
     </row>
     <row r="19" spans="5:16" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
@@ -2733,7 +2733,7 @@
       </c>
       <c r="F20" s="11">
         <f>SUM(F2:F5)</f>
-        <v>0.99480898790630978</v>
+        <v>0.99480252111475787</v>
       </c>
       <c r="H20" s="2" t="s">
         <v>14</v>
@@ -2752,32 +2752,32 @@
       </c>
       <c r="F21" s="11">
         <f>1-F20</f>
-        <v>5.1910120936902171E-3</v>
+        <v>5.197478885242135E-3</v>
       </c>
       <c r="H21" s="2" t="s">
         <v>16</v>
       </c>
       <c r="I21" s="6">
         <f>SUM(I2:I20)</f>
-        <v>20173.330000000005</v>
+        <v>20148.230000000003</v>
       </c>
       <c r="J21" t="s">
         <v>33</v>
       </c>
       <c r="K21" s="8">
         <f>SUMPRODUCT(K2:K7,F2:F7)</f>
-        <v>3.8158597186216711E-2</v>
+        <v>3.7093779183344132E-2</v>
       </c>
       <c r="M21" t="s">
         <v>34</v>
       </c>
       <c r="N21" s="76">
         <f t="array" ref="N21">MMULT(TRANSPOSE(F2:F5),L2:L5)</f>
-        <v>1.3879711480448945E-4</v>
+        <v>5.0798506866352937E-4</v>
       </c>
       <c r="P21" s="8">
         <f>SUMPRODUCT(L2:L12,O2:O12)</f>
-        <v>2.0969228065591115E-4</v>
+        <v>-1.3949576385096059E-3</v>
       </c>
     </row>
     <row r="22" spans="5:16" x14ac:dyDescent="0.25">
@@ -2792,7 +2792,7 @@
       </c>
       <c r="K22" s="8">
         <f>_xll.RealtimeData(J22,"Change in Percent")</f>
-        <v>5.217630097487231E-3</v>
+        <v>2.1866885335519613E-3</v>
       </c>
       <c r="L22" s="12">
         <v>0.6</v>
@@ -2804,7 +2804,7 @@
       </c>
       <c r="K23" s="8">
         <f>_xll.RealtimeData(J23,"Change in Percent")</f>
-        <v>-1.1718383800506235E-3</v>
+        <v>4.6913116907444645E-5</v>
       </c>
       <c r="L23" s="12">
         <v>0.4</v>
@@ -2816,7 +2816,7 @@
       </c>
       <c r="K24" s="8">
         <f>_xll.RealtimeData(J24,"Change in Percent")</f>
-        <v>3.0930701327586919E-3</v>
+        <v>7.9797384033570759E-4</v>
       </c>
     </row>
     <row r="25" spans="5:16" x14ac:dyDescent="0.25">
@@ -2825,7 +2825,7 @@
       </c>
       <c r="K25" s="8">
         <f t="array" ref="K25">SUMPRODUCT(K22:K23,L22:L23)</f>
-        <v>2.6618427064720889E-3</v>
+        <v>1.3307783668941547E-3</v>
       </c>
     </row>
     <row r="26" spans="5:16" x14ac:dyDescent="0.25">
@@ -2834,14 +2834,14 @@
       </c>
       <c r="I26" s="6">
         <f>SUM(I2:I18)</f>
-        <v>20068.610000000004</v>
+        <v>20043.510000000002</v>
       </c>
       <c r="J26" t="s">
         <v>56</v>
       </c>
       <c r="K26" s="8">
         <f>_xll.RealtimeData(J26,"Change in Percent")</f>
-        <v>0</v>
+        <v>-1.797625777275325E-3</v>
       </c>
       <c r="L26" t="str">
         <f>_xll.RealtimeData(J26,"Description")</f>
@@ -2854,7 +2854,7 @@
       </c>
       <c r="K27" s="8">
         <f>AVERAGE(L2:L11)</f>
-        <v>2.2111426648168805E-3</v>
+        <v>2.4847069093548915E-3</v>
       </c>
     </row>
     <row r="28" spans="5:16" x14ac:dyDescent="0.25">
@@ -2863,20 +2863,20 @@
       </c>
       <c r="K28" s="8">
         <f>SUMPRODUCT(F2:F7,M2:M7)*0.01</f>
-        <v>1.4159187947651674E-2</v>
+        <v>1.4162875448612607E-2</v>
       </c>
       <c r="L28" t="s">
         <v>65</v>
       </c>
       <c r="M28" s="8">
         <f>AVERAGE(M2:M11)*0.01</f>
-        <v>2.0622222222222222E-2</v>
+        <v>2.0522222222222219E-2</v>
       </c>
     </row>
     <row r="29" spans="5:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="30" spans="5:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H30" s="30">
-        <v>43332</v>
+        <v>43333</v>
       </c>
       <c r="I30" s="15" t="s">
         <v>61</v>
@@ -2897,19 +2897,19 @@
       </c>
       <c r="I31" s="21">
         <f>$N$21</f>
-        <v>1.3879711480448945E-4</v>
+        <v>5.0798506866352937E-4</v>
       </c>
       <c r="J31" s="21">
         <f>LOOKUP(2,1/(Daily!E:E&lt;&gt;""),Daily!E:E)</f>
-        <v>3.0304702723047416E-3</v>
+        <v>-1.2442163766633874E-3</v>
       </c>
       <c r="K31" s="22">
         <f>VLOOKUP($H$30,Daily!$A:$AF,7,0)</f>
-        <v>1.6373141156247328E-2</v>
+        <v>1.5108553049220097E-2</v>
       </c>
       <c r="L31" s="23">
         <f>VLOOKUP($H$30,Daily!$A:$AF,8,0)</f>
-        <v>8.6670000000004244E-3</v>
+        <v>7.4120000000004183E-3</v>
       </c>
     </row>
     <row r="32" spans="5:16" x14ac:dyDescent="0.25">
@@ -2918,19 +2918,19 @@
       </c>
       <c r="I32" s="24">
         <f>$K$25</f>
-        <v>2.6618427064720889E-3</v>
+        <v>1.3307783668941547E-3</v>
       </c>
       <c r="J32" s="24">
         <f>LOOKUP(2,1/(Daily!M:M&lt;&gt;""),Daily!M:M)</f>
-        <v>3.0216638038293108E-3</v>
+        <v>2.4635540725649551E-3</v>
       </c>
       <c r="K32" s="14">
         <f>VLOOKUP($H$30,Daily!$A:$AF,25,0)</f>
-        <v>1.672155418865251E-2</v>
+        <v>1.922630271413861E-2</v>
       </c>
       <c r="L32" s="25">
         <f>VLOOKUP($H$30,Daily!$A:$AF,31,0)</f>
-        <v>1.0884419850209825E-2</v>
+        <v>1.3374788279624239E-2</v>
       </c>
     </row>
     <row r="33" spans="8:18" x14ac:dyDescent="0.25">
@@ -2939,19 +2939,19 @@
       </c>
       <c r="I33" s="24">
         <f>$K$24</f>
-        <v>3.0930701327586919E-3</v>
+        <v>7.9797384033570759E-4</v>
       </c>
       <c r="J33" s="24">
         <f>LOOKUP(2,1/(Daily!L:L&lt;&gt;""),Daily!L:L)</f>
-        <v>2.4386845039019445E-3</v>
+        <v>1.7029262528671651E-3</v>
       </c>
       <c r="K33" s="14">
         <f>VLOOKUP($H$30,Daily!$A:$AF,24,0)</f>
-        <v>5.3799670390038523E-2</v>
+        <v>5.5594213514008395E-2</v>
       </c>
       <c r="L33" s="25">
         <f>VLOOKUP($H$30,Daily!$A:$AF,30,0)</f>
-        <v>8.0567722728383862E-2</v>
+        <v>8.2407849871418914E-2</v>
       </c>
     </row>
     <row r="34" spans="8:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2960,19 +2960,19 @@
       </c>
       <c r="I34" s="26">
         <f>$K$26</f>
-        <v>0</v>
+        <v>-1.797625777275325E-3</v>
       </c>
       <c r="J34" s="26">
         <f>LOOKUP(2,1/(Daily!N:N&lt;&gt;""),Daily!N:N)</f>
-        <v>9.0309633027523262E-3</v>
+        <v>5.2564284699532227E-3</v>
       </c>
       <c r="K34" s="27">
         <f>VLOOKUP($H$30,Daily!$A:$AF,26,0)</f>
-        <v>1.1350574712644113E-2</v>
+        <v>1.6666666666667274E-2</v>
       </c>
       <c r="L34" s="28">
         <f>VLOOKUP($H$30,Daily!$A:$AF,32,0)</f>
-        <v>2.0573124448430846E-2</v>
+        <v>2.5937694075450768E-2</v>
       </c>
     </row>
     <row r="35" spans="8:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -3007,7 +3007,7 @@
       </c>
       <c r="I37" s="46">
         <f>AVERAGE(Daily!E$3:E380)</f>
-        <v>1.2254836204755157E-4</v>
+        <v>1.0524754257019792E-4</v>
       </c>
       <c r="J37" s="44"/>
       <c r="K37" s="22"/>
@@ -3015,23 +3015,23 @@
       <c r="M37" s="50"/>
       <c r="N37" s="38">
         <f>AVERAGE(Daily!J$3:J380)</f>
-        <v>1.6797337432984075E-4</v>
+        <v>2.2494087435983334E-4</v>
       </c>
       <c r="O37" s="22">
         <f>AVERAGE(Daily!K$3:K380)</f>
-        <v>1.1134423014804939E-4</v>
+        <v>9.9254763517865288E-5</v>
       </c>
       <c r="P37" s="22">
         <f>AVERAGE(Daily!L$3:L380)</f>
-        <v>1.0106162266901478E-3</v>
+        <v>1.0193796447430213E-3</v>
       </c>
       <c r="Q37" s="22">
         <f>AVERAGE(Daily!M$3:M380)</f>
-        <v>1.4532171665712417E-4</v>
+        <v>1.7466643002304611E-4</v>
       </c>
       <c r="R37" s="23">
         <f>AVERAGE(Daily!N$3:N380)</f>
-        <v>2.9349956466376715E-4</v>
+        <v>3.5632144954084887E-4</v>
       </c>
     </row>
     <row r="38" spans="8:18" x14ac:dyDescent="0.25">
@@ -3040,7 +3040,7 @@
       </c>
       <c r="I38" s="47">
         <f>STDEV(Daily!E$3:E380)</f>
-        <v>4.9095853809326814E-3</v>
+        <v>4.8804353038254325E-3</v>
       </c>
       <c r="J38" s="45"/>
       <c r="K38" s="14"/>
@@ -3048,23 +3048,23 @@
       <c r="M38" s="51"/>
       <c r="N38" s="40">
         <f>STDEV(Daily!J$3:J380)</f>
-        <v>6.2307478170767899E-3</v>
+        <v>6.2113505778144317E-3</v>
       </c>
       <c r="O38" s="14">
         <f>STDEV(Daily!K$3:K380)</f>
-        <v>1.7347522032489311E-3</v>
+        <v>1.7269423448777893E-3</v>
       </c>
       <c r="P38" s="14">
         <f>STDEV(Daily!L$3:L380)</f>
-        <v>5.8163797645187617E-3</v>
+        <v>5.7794999014899248E-3</v>
       </c>
       <c r="Q38" s="14">
         <f>STDEV(Daily!M$3:M380)</f>
-        <v>3.6336202052133495E-3</v>
+        <v>3.6196618514390904E-3</v>
       </c>
       <c r="R38" s="25">
         <f>STDEV(Daily!N$3:N380)</f>
-        <v>8.1016399999560128E-3</v>
+        <v>8.0688820006997938E-3</v>
       </c>
     </row>
     <row r="39" spans="8:18" x14ac:dyDescent="0.25">
@@ -3081,7 +3081,7 @@
       <c r="M39" s="51"/>
       <c r="N39" s="41">
         <f>COUNTIF(Daily!J$3:J380,"&gt;0")</f>
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="O39" s="33">
         <f>COUNTIF(Daily!K$3:K380,"&gt;0")</f>
@@ -3089,15 +3089,15 @@
       </c>
       <c r="P39" s="33">
         <f>COUNTIF(Daily!L$3:L380,"&gt;0")</f>
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="Q39" s="33">
         <f>COUNTIF(Daily!M$3:M380,"&gt;0")</f>
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="R39" s="35">
         <f>COUNTIF(Daily!N$3:N380,"&gt;0")</f>
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="40" spans="8:18" x14ac:dyDescent="0.25">
@@ -3114,7 +3114,7 @@
       <c r="M40" s="51"/>
       <c r="N40" s="40">
         <f>SUMIF(Daily!J$3:J380,"&gt;0")</f>
-        <v>0.19595720576371534</v>
+        <v>0.20062561164041459</v>
       </c>
       <c r="O40" s="14">
         <f>SUMIF(Daily!K$3:K380,"&gt;0")</f>
@@ -3122,15 +3122,15 @@
       </c>
       <c r="P40" s="14">
         <f>SUMIF(Daily!L$3:L380,"&gt;0")</f>
-        <v>0.22242941167790325</v>
+        <v>0.22413233793077042</v>
       </c>
       <c r="Q40" s="14">
         <f>SUMIF(Daily!M$3:M380,"&gt;0")</f>
-        <v>0.11632641581387866</v>
+        <v>0.11878996988644362</v>
       </c>
       <c r="R40" s="25">
         <f>SUMIF(Daily!N$3:N380,"&gt;0")</f>
-        <v>0.26097133118885429</v>
+        <v>0.26622775965880752</v>
       </c>
     </row>
     <row r="41" spans="8:18" x14ac:dyDescent="0.25">
@@ -3139,7 +3139,7 @@
       </c>
       <c r="I41" s="47">
         <f>SUMIF(Daily!E$3:E380,"&lt;0")</f>
-        <v>-0.13863584584435751</v>
+        <v>-0.1398800622210209</v>
       </c>
       <c r="J41" s="45"/>
       <c r="K41" s="14"/>
@@ -3151,7 +3151,7 @@
       </c>
       <c r="O41" s="14">
         <f>SUMIF(Daily!K$3:K380,"&lt;0")</f>
-        <v>-4.7887643279916778E-2</v>
+        <v>-4.8731366913553273E-2</v>
       </c>
       <c r="P41" s="14">
         <f>SUMIF(Daily!L$3:L380,"&lt;0")</f>
@@ -3172,7 +3172,7 @@
       </c>
       <c r="I42" s="48">
         <f>COUNT(Daily!E$3:E380)</f>
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="J42" s="45"/>
       <c r="K42" s="14"/>
@@ -3180,23 +3180,23 @@
       <c r="M42" s="51"/>
       <c r="N42" s="41">
         <f>COUNT(Daily!J$3:J380)</f>
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="O42" s="33">
         <f>COUNT(Daily!K$3:K380)</f>
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="P42" s="33">
         <f>COUNT(Daily!L$3:L380)</f>
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Q42" s="33">
         <f>COUNT(Daily!M$3:M380)</f>
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="R42" s="35">
         <f>COUNT(Daily!N$3:N380)</f>
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="43" spans="8:18" x14ac:dyDescent="0.25">
@@ -3205,7 +3205,7 @@
       </c>
       <c r="I43" s="48">
         <f>I42-I39</f>
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J43" s="45"/>
       <c r="K43" s="14"/>
@@ -3217,7 +3217,7 @@
       </c>
       <c r="O43" s="33">
         <f>O42-O39</f>
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="P43" s="33">
         <f>P42-P39</f>
@@ -3238,7 +3238,7 @@
       </c>
       <c r="I44" s="49">
         <f>(I40/I41)*(I39/I43)*-1</f>
-        <v>1.4576574253494989</v>
+        <v>1.4022008039257525</v>
       </c>
       <c r="J44" s="45"/>
       <c r="K44" s="14"/>
@@ -3246,23 +3246,23 @@
       <c r="M44" s="51"/>
       <c r="N44" s="42">
         <f>(N40/N41)*(N39/N43)*-1</f>
-        <v>1.1280546015110953</v>
+        <v>1.1838021449512841</v>
       </c>
       <c r="O44" s="34">
         <f>(O40/O41)*(O39/O43)*-1</f>
-        <v>1.3782520412954868</v>
+        <v>1.3177841874033258</v>
       </c>
       <c r="P44" s="34">
         <f>(P40/P41)*(P39/P43)*-1</f>
-        <v>2.1121865676281959</v>
+        <v>2.1756543654262415</v>
       </c>
       <c r="Q44" s="34">
         <f>(Q40/Q41)*(Q39/Q43)*-1</f>
-        <v>1.2926225644936509</v>
+        <v>1.3514261655069564</v>
       </c>
       <c r="R44" s="36">
         <f>(R40/R41)*(R39/R43)*-1</f>
-        <v>1.4185564692622292</v>
+        <v>1.4800180181090177</v>
       </c>
     </row>
     <row r="45" spans="8:18" x14ac:dyDescent="0.25">
@@ -3271,7 +3271,7 @@
       </c>
       <c r="I45" s="62">
         <f>I39/I42</f>
-        <v>0.57692307692307687</v>
+        <v>0.569620253164557</v>
       </c>
       <c r="J45" s="63"/>
       <c r="K45" s="64"/>
@@ -3279,23 +3279,23 @@
       <c r="M45" s="66"/>
       <c r="N45" s="67">
         <f>N39/N42</f>
-        <v>0.51282051282051277</v>
+        <v>0.51898734177215189</v>
       </c>
       <c r="O45" s="64">
         <f>O39/O42</f>
-        <v>0.53846153846153844</v>
+        <v>0.53164556962025311</v>
       </c>
       <c r="P45" s="64">
         <f>P39/P42</f>
-        <v>0.57692307692307687</v>
+        <v>0.58227848101265822</v>
       </c>
       <c r="Q45" s="64">
         <f>Q39/Q42</f>
-        <v>0.53846153846153844</v>
+        <v>0.54430379746835444</v>
       </c>
       <c r="R45" s="68">
         <f>R39/R42</f>
-        <v>0.5641025641025641</v>
+        <v>0.569620253164557</v>
       </c>
     </row>
     <row r="46" spans="8:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3343,13 +3343,13 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:AN80"/>
+  <dimension ref="A1:AN81"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="M72" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B57" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="Z92" sqref="Z92"/>
+      <selection pane="bottomRight" activeCell="L91" sqref="L91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9365,7 +9365,7 @@
         <v>43291</v>
       </c>
       <c r="B51" s="4">
-        <f t="shared" ref="B51:B80" si="812">D51-C51</f>
+        <f t="shared" ref="B51:B81" si="812">D51-C51</f>
         <v>19902.79</v>
       </c>
       <c r="C51" s="4">
@@ -13438,6 +13438,142 @@
       <c r="AN80" s="8">
         <f t="shared" ref="AN80" si="1491">MIN(0,(T80-MAX(T51:T80))/MAX(T51:T80))</f>
         <v>-1.6349916154276035E-2</v>
+      </c>
+    </row>
+    <row r="81" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A81" s="9">
+        <v>43333</v>
+      </c>
+      <c r="B81" s="4">
+        <f t="shared" si="812"/>
+        <v>20043.52</v>
+      </c>
+      <c r="C81" s="4">
+        <v>104.72</v>
+      </c>
+      <c r="D81" s="4">
+        <f>20138.34+9.9</f>
+        <v>20148.240000000002</v>
+      </c>
+      <c r="E81" s="5">
+        <f t="shared" ref="E81" si="1492">D81/D80-1</f>
+        <v>-1.2442163766633874E-3</v>
+      </c>
+      <c r="F81" s="10">
+        <f t="shared" ref="F81" si="1493">F80*(1+E81)</f>
+        <v>100.74120000000005</v>
+      </c>
+      <c r="G81" s="5">
+        <f t="shared" ref="G81" si="1494">F81/F$45-1</f>
+        <v>1.5108553049220097E-2</v>
+      </c>
+      <c r="H81" s="8">
+        <f t="shared" ref="H81" si="1495">F81/$F$2-1</f>
+        <v>7.4120000000004183E-3</v>
+      </c>
+      <c r="J81" s="11">
+        <f>VLOOKUP($A81,Prices!$A:$J,MATCH(J$1,Prices!$1:$1,0),0)</f>
+        <v>4.6684058766992553E-3</v>
+      </c>
+      <c r="K81" s="11">
+        <f>VLOOKUP($A81,Prices!$A:$J,MATCH(K$1,Prices!$1:$1,0),0)</f>
+        <v>-8.4372363363649505E-4</v>
+      </c>
+      <c r="L81" s="11">
+        <f>VLOOKUP($A81,Prices!$A:$J,MATCH(L$1,Prices!$1:$1,0),0)</f>
+        <v>1.7029262528671651E-3</v>
+      </c>
+      <c r="M81" s="11">
+        <f t="shared" ref="M81" si="1496">0.6*J81 + 0.4*K81</f>
+        <v>2.4635540725649551E-3</v>
+      </c>
+      <c r="N81" s="11">
+        <f>VLOOKUP($A81,Prices!$A:$J,MATCH(N$1,Prices!$1:$1,0),0)</f>
+        <v>5.2564284699532227E-3</v>
+      </c>
+      <c r="P81" s="10">
+        <f t="shared" ref="P81" si="1497">P80*(1+J81)</f>
+        <v>101.63943734391719</v>
+      </c>
+      <c r="Q81" s="10">
+        <f t="shared" ref="Q81" si="1498">Q80*(1+K81)</f>
+        <v>100.77543957603848</v>
+      </c>
+      <c r="R81" s="10">
+        <f t="shared" ref="R81" si="1499">R80*(1+L81)</f>
+        <v>108.24078498714189</v>
+      </c>
+      <c r="S81" s="10">
+        <f t="shared" ref="S81" si="1500">S80*(1+M81)</f>
+        <v>101.33747882796243</v>
+      </c>
+      <c r="T81" s="10">
+        <f t="shared" ref="T81" si="1501">T80*(1+N81)</f>
+        <v>102.59376940754508</v>
+      </c>
+      <c r="V81" s="5">
+        <f t="shared" ref="V81" si="1502">P81/P$45-1</f>
+        <v>2.8824521934758485E-2</v>
+      </c>
+      <c r="W81" s="5">
+        <f t="shared" ref="W81" si="1503">Q81/Q$45-1</f>
+        <v>4.611144415914481E-3</v>
+      </c>
+      <c r="X81" s="5">
+        <f t="shared" ref="X81" si="1504">R81/R$45-1</f>
+        <v>5.5594213514008395E-2</v>
+      </c>
+      <c r="Y81" s="5">
+        <f t="shared" ref="Y81" si="1505">S81/S$45-1</f>
+        <v>1.922630271413861E-2</v>
+      </c>
+      <c r="Z81" s="5">
+        <f t="shared" ref="Z81" si="1506">T81/T$45-1</f>
+        <v>1.6666666666667274E-2</v>
+      </c>
+      <c r="AB81" s="8">
+        <f t="shared" ref="AB81" si="1507">P81/$P$2-1</f>
+        <v>1.639437343917205E-2</v>
+      </c>
+      <c r="AC81" s="8">
+        <f t="shared" ref="AC81" si="1508">Q81/$P$2-1</f>
+        <v>7.7543957603847247E-3</v>
+      </c>
+      <c r="AD81" s="8">
+        <f t="shared" ref="AD81" si="1509">R81/$P$2-1</f>
+        <v>8.2407849871418914E-2</v>
+      </c>
+      <c r="AE81" s="8">
+        <f t="shared" ref="AE81" si="1510">S81/$P$2-1</f>
+        <v>1.3374788279624239E-2</v>
+      </c>
+      <c r="AF81" s="8">
+        <f t="shared" ref="AF81" si="1511">T81/$T$2-1</f>
+        <v>2.5937694075450768E-2</v>
+      </c>
+      <c r="AI81" s="8">
+        <f t="shared" ref="AI81" si="1512">MIN(0,(F81-MAX(F52:F81))/MAX(F52:F81))</f>
+        <v>-1.2442163766633401E-3</v>
+      </c>
+      <c r="AJ81" s="8">
+        <f t="shared" ref="AJ81" si="1513">MIN(0,(P81-MAX(P52:P81))/MAX(P52:P81))</f>
+        <v>-9.6101786681099394E-3</v>
+      </c>
+      <c r="AK81" s="8">
+        <f t="shared" ref="AK81" si="1514">MIN(0,(Q81-MAX(Q52:Q81))/MAX(Q52:Q81))</f>
+        <v>-8.4372363363645916E-4</v>
+      </c>
+      <c r="AL81" s="8">
+        <f t="shared" ref="AL81" si="1515">MIN(0,(R81-MAX(R52:R81))/MAX(R52:R81))</f>
+        <v>0</v>
+      </c>
+      <c r="AM81" s="8">
+        <f t="shared" ref="AM81" si="1516">MIN(0,(S81-MAX(S52:S81))/MAX(S52:S81))</f>
+        <v>-3.7532992438407348E-3</v>
+      </c>
+      <c r="AN81" s="8">
+        <f t="shared" ref="AN81" si="1517">MIN(0,(T81-MAX(T52:T81))/MAX(T52:T81))</f>
+        <v>-6.1797752808986387E-3</v>
       </c>
     </row>
   </sheetData>
@@ -13451,7 +13587,7 @@
   <dimension ref="A1:J87"/>
   <sheetViews>
     <sheetView topLeftCell="A51" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="P74" sqref="P74"/>
+      <selection activeCell="A83" sqref="A83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16409,37 +16545,40 @@
       </c>
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B82" t="str">
+      <c r="A82" s="13">
+        <v>43333</v>
+      </c>
+      <c r="B82">
         <f t="array" ref="B82">_xll.HistoricalData(B$1,"Adj. Close",$A82,$A82,"Daily","RemoveHeaders = True","ReverseOrder =True","RemoveDates =""True")</f>
-        <v>--</v>
-      </c>
-      <c r="C82" t="str">
+        <v>73.17</v>
+      </c>
+      <c r="C82">
         <f t="array" ref="C82">_xll.HistoricalData(C$1,"Adj. Close",$A82,$A82,"Daily","RemoveHeaders = True","ReverseOrder =True","RemoveDates =""True")</f>
-        <v>--</v>
-      </c>
-      <c r="D82" t="str">
+        <v>106.58</v>
+      </c>
+      <c r="D82">
         <f t="array" ref="D82">_xll.HistoricalData(D$1,"Adj. Close",$A82,$A82,"Daily","RemoveHeaders = True","ReverseOrder =True","RemoveDates =""True")</f>
-        <v>--</v>
-      </c>
-      <c r="E82" t="str">
+        <v>288.23</v>
+      </c>
+      <c r="E82">
         <f t="array" ref="E82">_xll.HistoricalData(E$1,"Adj. Close",$A82,$A82,"Daily","RemoveHeaders = True","ReverseOrder =True","RemoveDates =""True")</f>
-        <v>--</v>
-      </c>
-      <c r="G82" s="5" t="e">
+        <v>17.690000000000001</v>
+      </c>
+      <c r="G82" s="5">
         <f t="shared" si="224"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="H82" s="5" t="e">
+        <v>4.6684058766992553E-3</v>
+      </c>
+      <c r="H82" s="5">
         <f t="shared" si="225"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I82" s="5" t="e">
+        <v>-8.4372363363649505E-4</v>
+      </c>
+      <c r="I82" s="5">
         <f t="shared" si="226"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="J82" s="5" t="e">
+        <v>1.7029262528671651E-3</v>
+      </c>
+      <c r="J82" s="5">
         <f t="shared" si="227"/>
-        <v>#VALUE!</v>
+        <v>5.2564284699532227E-3</v>
       </c>
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.25">
@@ -16621,8 +16760,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W40"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N27" sqref="N27"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="P20" sqref="P20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16660,7 +16799,7 @@
       </c>
       <c r="G2" s="74">
         <f>SUM(G5:G10)</f>
-        <v>0.99278775913896955</v>
+        <v>0.99282954691070213</v>
       </c>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.25">
@@ -16711,7 +16850,7 @@
       </c>
       <c r="C5">
         <f>_xll.RealtimeData(A5,"Last")</f>
-        <v>354.57</v>
+        <v>359.19</v>
       </c>
       <c r="D5">
         <f>ROUNDDOWN(($C$2/6)/B5,0)</f>
@@ -16719,19 +16858,19 @@
       </c>
       <c r="E5" s="8">
         <f>C5/B5-1</f>
-        <v>6.8142792589245493E-2</v>
+        <v>8.2060551287844508E-2</v>
       </c>
       <c r="F5">
         <f>C5*D5</f>
-        <v>12409.949999999999</v>
+        <v>12571.65</v>
       </c>
       <c r="G5" s="73">
         <f>F5/$F$13</f>
-        <v>0.16870591384718434</v>
+        <v>0.16991390982615626</v>
       </c>
       <c r="H5" s="8">
         <f>F5/$F$31</f>
-        <v>0.11935661026476657</v>
+        <v>0.12053485022528668</v>
       </c>
       <c r="I5">
         <f>B5*D5</f>
@@ -16748,7 +16887,7 @@
       </c>
       <c r="C6">
         <f>_xll.RealtimeData(A6,"Last")</f>
-        <v>1885.37</v>
+        <v>1897.2729999999999</v>
       </c>
       <c r="D6">
         <f t="shared" ref="D6:D10" si="0">ROUNDDOWN(($C$2/6)/B6,0)</f>
@@ -16756,19 +16895,19 @@
       </c>
       <c r="E6" s="8">
         <f t="shared" ref="E6:E10" si="1">C6/B6-1</f>
-        <v>0.15693842736343444</v>
+        <v>0.16424258416072468</v>
       </c>
       <c r="F6">
         <f t="shared" ref="F6:F9" si="2">C6*D6</f>
-        <v>13197.59</v>
+        <v>13280.911</v>
       </c>
       <c r="G6" s="73">
         <f t="shared" ref="G6:G10" si="3">F6/$F$13</f>
-        <v>0.17941341274787262</v>
+        <v>0.17950002697046186</v>
       </c>
       <c r="H6" s="8">
         <f t="shared" ref="H6:H10" si="4">F6/$F$31</f>
-        <v>0.12693198651599572</v>
+        <v>0.12733512452544912</v>
       </c>
       <c r="I6">
         <f t="shared" ref="I6:I10" si="5">B6*D6</f>
@@ -16785,7 +16924,7 @@
       </c>
       <c r="C7">
         <f>_xll.RealtimeData(A7,"Last")</f>
-        <v>46.31</v>
+        <v>46.096800000000002</v>
       </c>
       <c r="D7">
         <f t="shared" si="0"/>
@@ -16793,19 +16932,19 @@
       </c>
       <c r="E7" s="8">
         <f t="shared" si="1"/>
-        <v>9.2732420953279826E-2</v>
+        <v>8.7701746106654044E-2</v>
       </c>
       <c r="F7">
         <f t="shared" si="2"/>
-        <v>12735.25</v>
+        <v>12676.62</v>
       </c>
       <c r="G7" s="73">
         <f t="shared" si="3"/>
-        <v>0.17312817451499438</v>
+        <v>0.17133264667569087</v>
       </c>
       <c r="H7" s="8">
         <f t="shared" si="4"/>
-        <v>0.12248528566790105</v>
+        <v>0.12154128480055314</v>
       </c>
       <c r="I7">
         <f t="shared" si="5"/>
@@ -16822,7 +16961,7 @@
       </c>
       <c r="C8">
         <f>_xll.RealtimeData(A8,"Last")</f>
-        <v>529.57000000000005</v>
+        <v>533.45600000000002</v>
       </c>
       <c r="D8">
         <f t="shared" si="0"/>
@@ -16830,19 +16969,19 @@
       </c>
       <c r="E8" s="8">
         <f t="shared" si="1"/>
-        <v>0.1520656122870756</v>
+        <v>0.16051950312180474</v>
       </c>
       <c r="F8">
         <f t="shared" si="2"/>
-        <v>13239.250000000002</v>
+        <v>13336.4</v>
       </c>
       <c r="G8" s="73">
         <f t="shared" si="3"/>
-        <v>0.17997975575254821</v>
+        <v>0.18024999638118705</v>
       </c>
       <c r="H8" s="8">
         <f t="shared" si="4"/>
-        <v>0.12733266471241311</v>
+        <v>0.12786714365612417</v>
       </c>
       <c r="I8">
         <f t="shared" si="5"/>
@@ -16859,7 +16998,7 @@
       </c>
       <c r="C9">
         <f>_xll.RealtimeData(A9,"Last")</f>
-        <v>49.55</v>
+        <v>50.08</v>
       </c>
       <c r="D9">
         <f t="shared" si="0"/>
@@ -16867,19 +17006,19 @@
       </c>
       <c r="E9" s="8">
         <f t="shared" si="1"/>
-        <v>-0.13960757075881236</v>
+        <v>-0.1304045841291892</v>
       </c>
       <c r="F9">
         <f t="shared" si="2"/>
-        <v>10009.099999999999</v>
+        <v>10116.16</v>
       </c>
       <c r="G9" s="73">
         <f t="shared" si="3"/>
-        <v>0.13606778127936475</v>
+        <v>0.13672638818508062</v>
       </c>
       <c r="H9" s="8">
         <f t="shared" si="4"/>
-        <v>9.6265677766717433E-2</v>
+        <v>9.6992028131155109E-2</v>
       </c>
       <c r="I9">
         <f t="shared" si="5"/>
@@ -16896,7 +17035,7 @@
       </c>
       <c r="C10">
         <f>_xll.RealtimeData(A10,"Last")</f>
-        <v>55.256</v>
+        <v>55.44</v>
       </c>
       <c r="D10">
         <f t="shared" si="0"/>
@@ -16904,19 +17043,19 @@
       </c>
       <c r="E10" s="8">
         <f t="shared" si="1"/>
-        <v>-1.9414374445430371E-2</v>
+        <v>-1.6149068322981464E-2</v>
       </c>
       <c r="F10">
         <f>C10*D10</f>
-        <v>11437.992</v>
+        <v>11476.08</v>
       </c>
       <c r="G10" s="73">
         <f t="shared" si="3"/>
-        <v>0.15549272099700515</v>
+        <v>0.15510657887212539</v>
       </c>
       <c r="H10" s="8">
         <f t="shared" si="4"/>
-        <v>0.11000849748431848</v>
+        <v>0.11003071068423063</v>
       </c>
       <c r="I10">
         <f t="shared" si="5"/>
@@ -16935,7 +17074,7 @@
       </c>
       <c r="F13" s="75">
         <f>SUM(F5:F10)+I13</f>
-        <v>73559.661999999997</v>
+        <v>73988.35100000001</v>
       </c>
       <c r="H13" t="s">
         <v>26</v>
@@ -16951,7 +17090,7 @@
       </c>
       <c r="F14" s="8">
         <f>F13/C2-1</f>
-        <v>5.085231428571424E-2</v>
+        <v>5.6976442857143095E-2</v>
       </c>
     </row>
     <row r="15" spans="1:23" x14ac:dyDescent="0.25">
@@ -16962,7 +17101,7 @@
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H17" s="11">
         <f>SUM(H20:H23)</f>
-        <v>0.98834157297326852</v>
+        <v>0.98830175519860597</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
@@ -17004,7 +17143,7 @@
       </c>
       <c r="C20">
         <f>_xll.RealtimeData(A20,"Last")</f>
-        <v>16.93</v>
+        <v>17.035</v>
       </c>
       <c r="D20">
         <f>ROUNDDOWN(($C$3*E20)/B20,0)</f>
@@ -17015,19 +17154,19 @@
       </c>
       <c r="F20" s="8">
         <f>C20/B20-1</f>
-        <v>-4.1176470588235592E-3</v>
+        <v>2.0588235294116686E-3</v>
       </c>
       <c r="G20">
         <f>D20*C20</f>
-        <v>4232.5</v>
+        <v>4258.75</v>
       </c>
       <c r="H20" s="8">
         <f>G20/$G$27</f>
-        <v>0.13916264986925531</v>
+        <v>0.14050397667081374</v>
       </c>
       <c r="I20" s="8">
         <f>G20/$F$31</f>
-        <v>4.070740437678029E-2</v>
+        <v>4.0832173453519596E-2</v>
       </c>
       <c r="J20">
         <f>B20*D20</f>
@@ -17044,7 +17183,7 @@
       </c>
       <c r="C21">
         <f>_xll.RealtimeData(A21,"Last")</f>
-        <v>288.63</v>
+        <v>288.45999999999998</v>
       </c>
       <c r="D21">
         <f t="shared" ref="D21:D22" si="6">ROUNDDOWN(($C$3*E21)/B21,0)</f>
@@ -17055,19 +17194,19 @@
       </c>
       <c r="F21" s="8">
         <f t="shared" ref="F21:F23" si="7">C21/B21-1</f>
-        <v>2.0326640271493224E-2</v>
+        <v>1.9725678733031549E-2</v>
       </c>
       <c r="G21">
         <f t="shared" ref="G21:G22" si="8">D21*C21</f>
-        <v>10967.94</v>
+        <v>10961.48</v>
       </c>
       <c r="H21" s="8">
         <f t="shared" ref="H21:H23" si="9">G21/$G$27</f>
-        <v>0.36062081370513882</v>
+        <v>0.36163933788026797</v>
       </c>
       <c r="I21" s="8">
         <f t="shared" ref="I21:I23" si="10">G21/$F$31</f>
-        <v>0.10548762404259035</v>
+        <v>0.1050968130712735</v>
       </c>
       <c r="J21">
         <f t="shared" ref="J21:J23" si="11">B21*D21</f>
@@ -17084,7 +17223,7 @@
       </c>
       <c r="C22">
         <f>_xll.RealtimeData(A22,"Last")</f>
-        <v>82.94</v>
+        <v>82.08</v>
       </c>
       <c r="D22">
         <f t="shared" si="6"/>
@@ -17095,19 +17234,19 @@
       </c>
       <c r="F22" s="8">
         <f t="shared" si="7"/>
-        <v>1.7419038272816545E-2</v>
+        <v>6.8694798822375169E-3</v>
       </c>
       <c r="G22">
         <f t="shared" si="8"/>
-        <v>11943.36</v>
+        <v>11819.52</v>
       </c>
       <c r="H22" s="8">
         <f t="shared" si="9"/>
-        <v>0.39269217387890587</v>
+        <v>0.38994765185564223</v>
       </c>
       <c r="I22" s="8">
         <f t="shared" si="10"/>
-        <v>0.11486903370052279</v>
+        <v>0.11332355521628271</v>
       </c>
       <c r="J22">
         <f t="shared" si="11"/>
@@ -17124,7 +17263,7 @@
       </c>
       <c r="C23">
         <f>_xll.RealtimeData(A23,"Last")</f>
-        <v>83.304900000000004</v>
+        <v>83.32</v>
       </c>
       <c r="D23">
         <f>ROUNDDOWN(($C$3*E23)/B23,0)</f>
@@ -17135,19 +17274,19 @@
       </c>
       <c r="F23" s="8">
         <f t="shared" si="7"/>
-        <v>2.9484709848301982E-3</v>
+        <v>3.1302672766673201E-3</v>
       </c>
       <c r="G23">
         <f>D23*C23</f>
-        <v>2915.6714999999999</v>
+        <v>2916.2</v>
       </c>
       <c r="H23" s="8">
         <f t="shared" si="9"/>
-        <v>9.5865935519968443E-2</v>
+        <v>9.6210788791881885E-2</v>
       </c>
       <c r="I23" s="8">
         <f t="shared" si="10"/>
-        <v>2.804239073369251E-2</v>
+        <v>2.7960031517500171E-2</v>
       </c>
       <c r="J23">
         <f t="shared" si="11"/>
@@ -17163,7 +17302,7 @@
       </c>
       <c r="G27">
         <f>SUM(G20:G23)+J28</f>
-        <v>30414.051500000005</v>
+        <v>30310.530000000002</v>
       </c>
       <c r="J27">
         <f>SUM(J20:J23)</f>
@@ -17176,7 +17315,7 @@
       </c>
       <c r="G28" s="8">
         <f>G27/J27-1</f>
-        <v>2.5927495714346716E-2</v>
+        <v>2.2435506057934207E-2</v>
       </c>
       <c r="I28" t="s">
         <v>26</v>
@@ -17192,7 +17331,7 @@
       </c>
       <c r="F31" s="75">
         <f>SUM(F13,G27)</f>
-        <v>103973.7135</v>
+        <v>104298.88100000001</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
@@ -17201,11 +17340,11 @@
       </c>
       <c r="F33" s="8">
         <f>F31/B1-1</f>
-        <v>3.9737134999999979E-2</v>
+        <v>4.2988809999999988E-2</v>
       </c>
       <c r="H33" s="11">
         <f>F33-F37</f>
-        <v>9.9586973468766445E-3</v>
+        <v>9.5306221156201271E-3</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
@@ -17218,16 +17357,16 @@
       </c>
       <c r="C37">
         <f>_xll.RealtimeData(A37,"Last")</f>
-        <v>38.212000000000003</v>
+        <v>38.392899999999997</v>
       </c>
       <c r="D37" s="8">
         <f>C37/B37-1</f>
-        <v>-1.2545739675899892E-3</v>
+        <v>3.4736016727652252E-3</v>
       </c>
       <c r="E37" s="11"/>
       <c r="F37" s="8">
         <f>D37*$B$3+D40*$B$2</f>
-        <v>2.9778437653123335E-2</v>
+        <v>3.3458187884379861E-2</v>
       </c>
       <c r="H37" s="8"/>
       <c r="I37" s="8"/>
@@ -17242,11 +17381,11 @@
       </c>
       <c r="C38">
         <f>_xll.RealtimeData(A38,"Last")</f>
-        <v>288.63</v>
+        <v>288.45999999999998</v>
       </c>
       <c r="D38" s="8">
         <f t="shared" ref="D38:D39" si="12">C38/B38-1</f>
-        <v>5.8299417005829746E-2</v>
+        <v>5.7676089905767558E-2</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
@@ -17259,11 +17398,11 @@
       </c>
       <c r="C39">
         <f>_xll.RealtimeData(A39,"Last")</f>
-        <v>180.45</v>
+        <v>180.89</v>
       </c>
       <c r="D39" s="8">
         <f t="shared" si="12"/>
-        <v>6.1033692009172746E-2</v>
+        <v>6.3620861998000766E-2</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
@@ -17276,11 +17415,11 @@
       </c>
       <c r="C40">
         <f>_xll.RealtimeData(A40,"Last")</f>
-        <v>46.625599999999999</v>
+        <v>46.77</v>
       </c>
       <c r="D40" s="8">
         <f>C40/B40-1</f>
-        <v>4.3078299776286189E-2</v>
+        <v>4.6308724832214709E-2</v>
       </c>
     </row>
   </sheetData>

--- a/Portfolio.xlsx
+++ b/Portfolio.xlsx
@@ -1032,117 +1032,114 @@
 <file path=xl/volatileDependencies.xml><?xml version="1.0" encoding="utf-8"?>
 <volTypes xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <volType type="realTimeData">
-    <main first="rtdsrv.3073c66848b64aecaa42d795206db90b">
+    <main first="rtdsrv.ca09d44513bc4c889b61150bd6ffbb92">
       <tp>
-        <v>-1.797625777275325E-3</v>
+        <v>-9.0441176470588223E-3</v>
         <stp/>
         <stp>GYLD</stp>
         <stp>change in percent</stp>
         <tr r="K26" s="1"/>
       </tp>
     </main>
-    <main first="rtdsrv.3073c66848b64aecaa42d795206db90b">
+    <main first="rtdsrv.ca09d44513bc4c889b61150bd6ffbb92">
       <tp>
-        <v>2.1866885335519613E-3</v>
+        <v>0.32506622000000002</v>
+        <stp/>
+        <stp>SHY</stp>
+        <stp>mtd percent change</stp>
+        <tr r="U12" s="1"/>
+      </tp>
+      <tp>
+        <v>-0.89873418000000005</v>
+        <stp/>
+        <stp>RWX</stp>
+        <stp>mtd percent change</stp>
+        <tr r="U6" s="1"/>
+      </tp>
+      <tp>
+        <v>2.9039338200000002</v>
+        <stp/>
+        <stp>TLT</stp>
+        <stp>mtd percent change</stp>
+        <tr r="U5" s="1"/>
+      </tp>
+      <tp>
+        <v>-2.0652173899999999</v>
+        <stp/>
+        <stp>IEV</stp>
+        <stp>mtd percent change</stp>
+        <tr r="U9" s="1"/>
+      </tp>
+      <tp>
+        <v>1.5295046400000001</v>
+        <stp/>
+        <stp>IEF</stp>
+        <stp>mtd percent change</stp>
+        <tr r="U11" s="1"/>
+      </tp>
+      <tp>
+        <v>0.80961726999999994</v>
+        <stp/>
+        <stp>IYR</stp>
+        <stp>mtd percent change</stp>
+        <tr r="U4" s="1"/>
+      </tp>
+      <tp>
+        <v>2.02912896</v>
+        <stp/>
+        <stp>IVV</stp>
+        <stp>mtd percent change</stp>
+        <tr r="U3" s="1"/>
+      </tp>
+      <tp>
+        <v>-2.7440395899999999</v>
+        <stp/>
+        <stp>EEM</stp>
+        <stp>mtd percent change</stp>
+        <tr r="U10" s="1"/>
+      </tp>
+      <tp>
+        <v>-2.5123069099999999</v>
+        <stp/>
+        <stp>EWJ</stp>
+        <stp>mtd percent change</stp>
+        <tr r="U7" s="1"/>
+      </tp>
+      <tp>
+        <v>0.23529412</v>
+        <stp/>
+        <stp>DBC</stp>
+        <stp>mtd percent change</stp>
+        <tr r="U2" s="1"/>
+      </tp>
+      <tp>
+        <v>-2.0409935699999999</v>
+        <stp/>
+        <stp>GLD</stp>
+        <stp>mtd percent change</stp>
+        <tr r="U8" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.ca09d44513bc4c889b61150bd6ffbb92">
+      <tp>
+        <v>0</v>
         <stp/>
         <stp>ACWI</stp>
         <stp>change in percent</stp>
         <tr r="K22" s="1"/>
       </tp>
     </main>
-    <main first="rtdsrv.3073c66848b64aecaa42d795206db90b">
+    <main first="rtdsrv.ca09d44513bc4c889b61150bd6ffbb92">
       <tp>
-        <v>0.31302672999999998</v>
+        <v>82.18</v>
         <stp/>
-        <stp>SHY</stp>
-        <stp>mtd percent change</stp>
-        <tr r="U12" s="1"/>
-      </tp>
-      <tp>
-        <v>-0.60759494000000003</v>
-        <stp/>
-        <stp>RWX</stp>
-        <stp>mtd percent change</stp>
-        <tr r="U6" s="1"/>
+        <stp>IYR</stp>
+        <stp>last</stp>
+        <tr r="J4" s="1"/>
+        <tr r="C22" s="4"/>
       </tp>
     </main>
-    <main first="rtdsrv.3073c66848b64aecaa42d795206db90b">
-      <tp>
-        <v>2.6971129500000002</v>
-        <stp/>
-        <stp>TLT</stp>
-        <stp>mtd percent change</stp>
-        <tr r="U5" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.3073c66848b64aecaa42d795206db90b">
-      <tp>
-        <v>-1.7196456499999999</v>
-        <stp/>
-        <stp>GLD</stp>
-        <stp>mtd percent change</stp>
-        <tr r="U8" s="1"/>
-      </tp>
-      <tp>
-        <v>-2.9820063000000001</v>
-        <stp/>
-        <stp>EEM</stp>
-        <stp>mtd percent change</stp>
-        <tr r="U10" s="1"/>
-      </tp>
-      <tp>
-        <v>-1.9181802699999999</v>
-        <stp/>
-        <stp>EWJ</stp>
-        <stp>mtd percent change</stp>
-        <tr r="U7" s="1"/>
-      </tp>
-      <tp>
-        <v>0.20588234999999999</v>
-        <stp/>
-        <stp>DBC</stp>
-        <stp>mtd percent change</stp>
-        <tr r="U2" s="1"/>
-      </tp>
-      <tp>
-        <v>-1.9347826100000001</v>
-        <stp/>
-        <stp>IEV</stp>
-        <stp>mtd percent change</stp>
-        <tr r="U9" s="1"/>
-      </tp>
-      <tp>
-        <v>1.4456285799999999</v>
-        <stp/>
-        <stp>IEF</stp>
-        <stp>mtd percent change</stp>
-        <tr r="U11" s="1"/>
-      </tp>
-      <tp>
-        <v>1.97256787</v>
-        <stp/>
-        <stp>IVV</stp>
-        <stp>mtd percent change</stp>
-        <tr r="U3" s="1"/>
-      </tp>
-      <tp>
-        <v>0.68694798999999995</v>
-        <stp/>
-        <stp>IYR</stp>
-        <stp>mtd percent change</stp>
-        <tr r="U4" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.3073c66848b64aecaa42d795206db90b">
-      <tp>
-        <v>55.44</v>
-        <stp/>
-        <stp>STX</stp>
-        <stp>last</stp>
-        <tr r="C10" s="4"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.3073c66848b64aecaa42d795206db90b">
+    <main first="rtdsrv.ca09d44513bc4c889b61150bd6ffbb92">
       <tp t="s">
         <v>SPDR INDEX SHS FDS-DJ INTL RL ETF</v>
         <stp/>
@@ -1150,28 +1147,6 @@
         <stp>description</stp>
         <tr r="B6" s="1"/>
       </tp>
-    </main>
-    <main first="rtdsrv.3073c66848b64aecaa42d795206db90b">
-      <tp>
-        <v>288.45999999999998</v>
-        <stp/>
-        <stp>IVV</stp>
-        <stp>last</stp>
-        <tr r="J3" s="1"/>
-        <tr r="C38" s="4"/>
-        <tr r="C21" s="4"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.3073c66848b64aecaa42d795206db90b">
-      <tp>
-        <v>50.08</v>
-        <stp/>
-        <stp>MU</stp>
-        <stp>last</stp>
-        <tr r="C9" s="4"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.3073c66848b64aecaa42d795206db90b">
       <tp t="s">
         <v>ISHARES TR-1 3 YR TREAS BD</v>
         <stp/>
@@ -1179,21 +1154,44 @@
         <stp>description</stp>
         <tr r="B12" s="1"/>
       </tp>
+      <tp>
+        <v>50.094099999999997</v>
+        <stp/>
+        <stp>MU</stp>
+        <stp>last</stp>
+        <tr r="C9" s="4"/>
+      </tp>
     </main>
-    <main first="rtdsrv.3073c66848b64aecaa42d795206db90b">
+    <main first="rtdsrv.ca09d44513bc4c889b61150bd6ffbb92">
       <tp>
-        <v>57.78</v>
+        <v>181.86949999999999</v>
+        <stp/>
+        <stp>QQQ</stp>
+        <stp>last</stp>
+        <tr r="C39" s="4"/>
+      </tp>
+      <tp>
+        <v>57.43</v>
         <stp/>
         <stp>EWJ</stp>
         <stp>last</stp>
         <tr r="J7" s="1"/>
       </tp>
       <tp>
-        <v>39.26</v>
+        <v>39.145000000000003</v>
         <stp/>
         <stp>RWX</stp>
         <stp>last</stp>
         <tr r="J6" s="1"/>
+      </tp>
+      <tp>
+        <v>288.61320000000001</v>
+        <stp/>
+        <stp>IVV</stp>
+        <stp>last</stp>
+        <tr r="J3" s="1"/>
+        <tr r="C21" s="4"/>
+        <tr r="C38" s="4"/>
       </tp>
       <tp t="s">
         <v>ISHARES TR-20 YR TR BD ETF</v>
@@ -1202,129 +1200,21 @@
         <stp>description</stp>
         <tr r="B5" s="1"/>
       </tp>
-    </main>
-    <main first="rtdsrv.3073c66848b64aecaa42d795206db90b">
       <tp>
-        <v>180.89</v>
+        <v>55.28</v>
         <stp/>
-        <stp>QQQ</stp>
+        <stp>STX</stp>
         <stp>last</stp>
-        <tr r="C39" s="4"/>
+        <tr r="C10" s="4"/>
       </tp>
     </main>
-    <main first="rtdsrv.3073c66848b64aecaa42d795206db90b">
-      <tp>
-        <v>82.08</v>
+    <main first="rtdsrv.ca09d44513bc4c889b61150bd6ffbb92">
+      <tp t="s">
+        <v>ISHARES TR-U.S. REAL ES ETF</v>
         <stp/>
         <stp>IYR</stp>
-        <stp>last</stp>
-        <tr r="J4" s="1"/>
-        <tr r="C22" s="4"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.3073c66848b64aecaa42d795206db90b">
-      <tp>
-        <v>102.80500000000001</v>
-        <stp/>
-        <stp>IEF</stp>
-        <stp>last</stp>
-        <tr r="J11" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.3073c66848b64aecaa42d795206db90b">
-      <tp>
-        <v>43.1342</v>
-        <stp/>
-        <stp>EEM</stp>
-        <stp>last</stp>
-        <tr r="J10" s="1"/>
-      </tp>
-      <tp>
-        <v>45.1</v>
-        <stp/>
-        <stp>IEV</stp>
-        <stp>last</stp>
-        <tr r="J9" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.3073c66848b64aecaa42d795206db90b">
-      <tp t="s">
-        <v>ARROW ETF TR-ARROW DJ GLB YLD</v>
-        <stp/>
-        <stp>GYLD</stp>
         <stp>description</stp>
-        <tr r="L26" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.3073c66848b64aecaa42d795206db90b">
-      <tp t="s">
-        <v>INVESCO DB COMMDY INDX TRCK-UNIT</v>
-        <stp/>
-        <stp>DBC</stp>
-        <stp>description</stp>
-        <tr r="B2" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.3073c66848b64aecaa42d795206db90b">
-      <tp t="s">
-        <v>ISHARES INC-MSCI JPN ETF NEW</v>
-        <stp/>
-        <stp>EWJ</stp>
-        <stp>description</stp>
-        <tr r="B7" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>ISHARES TR-MSCI EMG MKT ETF</v>
-        <stp/>
-        <stp>EEM</stp>
-        <stp>description</stp>
-        <tr r="B10" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.3073c66848b64aecaa42d795206db90b">
-      <tp>
-        <v>38.392899999999997</v>
-        <stp/>
-        <stp>GAL</stp>
-        <stp>last</stp>
-        <tr r="C37" s="4"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.3073c66848b64aecaa42d795206db90b">
-      <tp>
-        <v>17.035</v>
-        <stp/>
-        <stp>DBC</stp>
-        <stp>last</stp>
-        <tr r="J2" s="1"/>
-        <tr r="C20" s="4"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.3073c66848b64aecaa42d795206db90b">
-      <tp t="s">
-        <v>SPDR GOLD TRUST-GOLD SHS</v>
-        <stp/>
-        <stp>GLD</stp>
-        <stp>description</stp>
-        <tr r="B8" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.3073c66848b64aecaa42d795206db90b">
-      <tp>
-        <v>113.16</v>
-        <stp/>
-        <stp>GLD</stp>
-        <stp>last</stp>
-        <tr r="J8" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.3073c66848b64aecaa42d795206db90b">
-      <tp>
-        <v>121.655</v>
-        <stp/>
-        <stp>TLT</stp>
-        <stp>last</stp>
-        <tr r="J5" s="1"/>
+        <tr r="B4" s="1"/>
       </tp>
       <tp t="s">
         <v>ISHARES TR-CORE S&amp;P500 ETF</v>
@@ -1332,15 +1222,6 @@
         <stp>IVV</stp>
         <stp>description</stp>
         <tr r="B3" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.3073c66848b64aecaa42d795206db90b">
-      <tp t="s">
-        <v>ISHARES TR-U.S. REAL ES ETF</v>
-        <stp/>
-        <stp>IYR</stp>
-        <stp>description</stp>
-        <tr r="B4" s="1"/>
       </tp>
       <tp t="s">
         <v>ISHARES TR-EUROPE ETF</v>
@@ -1356,10 +1237,8 @@
         <stp>description</stp>
         <tr r="B11" s="1"/>
       </tp>
-    </main>
-    <main first="rtdsrv.3073c66848b64aecaa42d795206db90b">
       <tp>
-        <v>83.32</v>
+        <v>83.33</v>
         <stp/>
         <stp>SHY</stp>
         <stp>last</stp>
@@ -1367,72 +1246,179 @@
         <tr r="C23" s="4"/>
       </tp>
     </main>
-    <main first="rtdsrv.3073c66848b64aecaa42d795206db90b">
+    <main first="rtdsrv.ca09d44513bc4c889b61150bd6ffbb92">
       <tp>
-        <v>1.2387188108299507E-3</v>
+        <v>112.79</v>
+        <stp/>
+        <stp>GLD</stp>
+        <stp>last</stp>
+        <tr r="J8" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.ca09d44513bc4c889b61150bd6ffbb92">
+      <tp>
+        <v>121.9</v>
+        <stp/>
+        <stp>TLT</stp>
+        <stp>last</stp>
+        <tr r="J5" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.ca09d44513bc4c889b61150bd6ffbb92">
+      <tp>
+        <v>17.040099999999999</v>
+        <stp/>
+        <stp>DBC</stp>
+        <stp>last</stp>
+        <tr r="J2" s="1"/>
+        <tr r="C20" s="4"/>
+      </tp>
+      <tp>
+        <v>38.380000000000003</v>
+        <stp/>
+        <stp>GAL</stp>
+        <stp>last</stp>
+        <tr r="C37" s="4"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.ca09d44513bc4c889b61150bd6ffbb92">
+      <tp t="s">
+        <v>ARROW ETF TR-ARROW DJ GLB YLD</v>
+        <stp/>
+        <stp>GYLD</stp>
+        <stp>description</stp>
+        <tr r="L26" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>SPDR GOLD TRUST-GOLD SHS</v>
+        <stp/>
+        <stp>GLD</stp>
+        <stp>description</stp>
+        <tr r="B8" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>INVESCO DB COMMDY INDX TRCK-UNIT</v>
+        <stp/>
+        <stp>DBC</stp>
+        <stp>description</stp>
+        <tr r="B2" s="1"/>
+      </tp>
+      <tp>
+        <v>43.24</v>
+        <stp/>
+        <stp>EEM</stp>
+        <stp>last</stp>
+        <tr r="J10" s="1"/>
+      </tp>
+      <tp>
+        <v>102.89</v>
+        <stp/>
+        <stp>IEF</stp>
+        <stp>last</stp>
+        <tr r="J11" s="1"/>
+      </tp>
+      <tp>
+        <v>45.05</v>
+        <stp/>
+        <stp>IEV</stp>
+        <stp>last</stp>
+        <tr r="J9" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>ISHARES INC-MSCI JPN ETF NEW</v>
+        <stp/>
+        <stp>EWJ</stp>
+        <stp>description</stp>
+        <tr r="B7" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>ISHARES TR-MSCI EMG MKT ETF</v>
+        <stp/>
+        <stp>EEM</stp>
+        <stp>description</stp>
+        <tr r="B10" s="1"/>
+      </tp>
+      <tp>
+        <v>-9.2421441774489599E-4</v>
+        <stp/>
+        <stp>EEM</stp>
+        <stp>change in percent</stp>
+        <tr r="L10" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.ca09d44513bc4c889b61150bd6ffbb92">
+      <tp>
+        <v>-3.8161318300086559E-3</v>
+        <stp/>
+        <stp>EWJ</stp>
+        <stp>change in percent</stp>
+        <tr r="L7" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.ca09d44513bc4c889b61150bd6ffbb92">
+      <tp>
+        <v>-4.2376622230068861E-3</v>
         <stp/>
         <stp>GLD</stp>
         <stp>change in percent</stp>
         <tr r="L8" s="1"/>
       </tp>
+      <tp>
+        <v>1.9442014192666473E-4</v>
+        <stp/>
+        <stp>IEF</stp>
+        <stp>change in percent</stp>
+        <tr r="L11" s="1"/>
+      </tp>
     </main>
-    <main first="rtdsrv.3073c66848b64aecaa42d795206db90b">
+    <main first="rtdsrv.ca09d44513bc4c889b61150bd6ffbb92">
       <tp>
-        <v>4.6913116907444645E-5</v>
+        <v>-8.2497421955638039E-5</v>
         <stp/>
         <stp>AGG</stp>
         <stp>change in percent</stp>
         <tr r="K23" s="1"/>
       </tp>
     </main>
-    <main first="rtdsrv.3073c66848b64aecaa42d795206db90b">
+    <main first="rtdsrv.ca09d44513bc4c889b61150bd6ffbb92">
       <tp>
-        <v>1.217374366965329E-3</v>
-        <stp/>
-        <stp>IEF</stp>
-        <stp>change in percent</stp>
-        <tr r="L11" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.3073c66848b64aecaa42d795206db90b">
-      <tp>
-        <v>9.7806757557794312E-3</v>
+        <v>-4.0853302162478381E-3</v>
         <stp/>
         <stp>DBC</stp>
         <stp>change in percent</stp>
         <tr r="L2" s="1"/>
       </tp>
     </main>
-    <main first="rtdsrv.3073c66848b64aecaa42d795206db90b">
+    <main first="rtdsrv.ca09d44513bc4c889b61150bd6ffbb92">
       <tp>
-        <v>4.5225896599907318E-3</v>
+        <v>-1.4030612244897882E-3</v>
         <stp/>
-        <stp>EEM</stp>
+        <stp>RWX</stp>
         <stp>change in percent</stp>
-        <tr r="L10" s="1"/>
+        <tr r="L6" s="1"/>
       </tp>
     </main>
-    <main first="rtdsrv.3073c66848b64aecaa42d795206db90b">
+    <main first="rtdsrv.ca09d44513bc4c889b61150bd6ffbb92">
       <tp>
-        <v>6.4448702316670442E-3</v>
+        <v>0</v>
         <stp/>
-        <stp>EWJ</stp>
+        <stp>SHY</stp>
         <stp>change in percent</stp>
-        <tr r="L7" s="1"/>
+        <tr r="L12" s="1"/>
       </tp>
     </main>
-    <main first="rtdsrv.3073c66848b64aecaa42d795206db90b">
+    <main first="rtdsrv.ca09d44513bc4c889b61150bd6ffbb92">
       <tp>
-        <v>2.2656121272038722E-3</v>
+        <v>3.2824552765473741E-4</v>
         <stp/>
         <stp>TLT</stp>
         <stp>change in percent</stp>
         <tr r="L5" s="1"/>
       </tp>
     </main>
-    <main first="rtdsrv.3073c66848b64aecaa42d795206db90b">
+    <main first="rtdsrv.ca09d44513bc4c889b61150bd6ffbb92">
       <tp>
-        <v>7.9797384033570759E-4</v>
+        <v>1.3642356533203072E-3</v>
         <stp/>
         <stp>IVV</stp>
         <stp>change in percent</stp>
@@ -1440,59 +1426,60 @@
         <tr r="L3" s="1"/>
       </tp>
       <tp>
-        <v>3.1138790035587414E-3</v>
+        <v>-1.330082021724724E-3</v>
         <stp/>
         <stp>IEV</stp>
         <stp>change in percent</stp>
         <tr r="L9" s="1"/>
       </tp>
     </main>
-    <main first="rtdsrv.3073c66848b64aecaa42d795206db90b">
+    <main first="rtdsrv.ca09d44513bc4c889b61150bd6ffbb92">
       <tp>
-        <v>-7.8568838389943916E-3</v>
+        <v>-1.0939589157650323E-3</v>
         <stp/>
         <stp>IYR</stp>
         <stp>change in percent</stp>
         <tr r="L4" s="1"/>
       </tp>
     </main>
-    <main first="rtdsrv.3073c66848b64aecaa42d795206db90b">
+    <main first="rtdsrv.ca09d44513bc4c889b61150bd6ffbb92">
       <tp>
-        <v>1.2003360941052586E-4</v>
+        <v>288.22000000000003</v>
         <stp/>
-        <stp>SHY</stp>
-        <stp>change in percent</stp>
-        <tr r="L12" s="1"/>
+        <stp>IVV</stp>
+        <stp>close</stp>
+        <tr r="G3" s="1"/>
       </tp>
     </main>
-    <main first="rtdsrv.3073c66848b64aecaa42d795206db90b">
+    <main first="rtdsrv.ca09d44513bc4c889b61150bd6ffbb92">
       <tp>
-        <v>3.3222591362124967E-3</v>
+        <v>2.21</v>
         <stp/>
-        <stp>RWX</stp>
-        <stp>change in percent</stp>
-        <tr r="L6" s="1"/>
+        <stp>IEF</stp>
+        <stp>dividend yield</stp>
+        <tr r="M11" s="1"/>
       </tp>
-    </main>
-    <main first="rtdsrv.3073c66848b64aecaa42d795206db90b">
       <tp>
-        <v>46.77</v>
+        <v>4.71</v>
         <stp/>
-        <stp>QQQE</stp>
-        <stp>last</stp>
-        <tr r="C40" s="4"/>
+        <stp>IEV</stp>
+        <stp>dividend yield</stp>
+        <tr r="M9" s="1"/>
       </tp>
-    </main>
-    <main first="rtdsrv.3073c66848b64aecaa42d795206db90b">
       <tp>
-        <v>533.45600000000002</v>
+        <v>0.49</v>
         <stp/>
-        <stp>ISRG</stp>
-        <stp>last</stp>
-        <tr r="C8" s="4"/>
+        <stp>IYR</stp>
+        <stp>dividend yield</stp>
+        <tr r="M4" s="1"/>
       </tp>
-    </main>
-    <main first="rtdsrv.3073c66848b64aecaa42d795206db90b">
+      <tp>
+        <v>1.78</v>
+        <stp/>
+        <stp>IVV</stp>
+        <stp>dividend yield</stp>
+        <tr r="M3" s="1"/>
+      </tp>
       <tp>
         <v>1.34</v>
         <stp/>
@@ -1501,7 +1488,7 @@
         <tr r="M10" s="1"/>
       </tp>
       <tp>
-        <v>1.6</v>
+        <v>1.61</v>
         <stp/>
         <stp>EWJ</stp>
         <stp>dividend yield</stp>
@@ -1515,34 +1502,6 @@
         <tr r="M2" s="1"/>
       </tp>
       <tp>
-        <v>2.21</v>
-        <stp/>
-        <stp>IEF</stp>
-        <stp>dividend yield</stp>
-        <tr r="M11" s="1"/>
-      </tp>
-      <tp>
-        <v>4.7</v>
-        <stp/>
-        <stp>IEV</stp>
-        <stp>dividend yield</stp>
-        <tr r="M9" s="1"/>
-      </tp>
-      <tp>
-        <v>1.78</v>
-        <stp/>
-        <stp>IVV</stp>
-        <stp>dividend yield</stp>
-        <tr r="M3" s="1"/>
-      </tp>
-      <tp>
-        <v>0.48</v>
-        <stp/>
-        <stp>IYR</stp>
-        <stp>dividend yield</stp>
-        <tr r="M4" s="1"/>
-      </tp>
-      <tp>
         <v>1.87</v>
         <stp/>
         <stp>SHY</stp>
@@ -1550,81 +1509,88 @@
         <tr r="M12" s="1"/>
       </tp>
       <tp>
-        <v>3.65</v>
+        <v>3.67</v>
         <stp/>
         <stp>RWX</stp>
         <stp>dividend yield</stp>
         <tr r="M6" s="1"/>
       </tp>
       <tp>
-        <v>2.71</v>
+        <v>2.7</v>
         <stp/>
         <stp>TLT</stp>
         <stp>dividend yield</stp>
         <tr r="M5" s="1"/>
       </tp>
     </main>
-    <main first="rtdsrv.3073c66848b64aecaa42d795206db90b">
+    <main first="rtdsrv.ca09d44513bc4c889b61150bd6ffbb92">
       <tp>
-        <v>288.23</v>
-        <stp/>
-        <stp>IVV</stp>
-        <stp>close</stp>
-        <tr r="G3" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.3073c66848b64aecaa42d795206db90b">
-      <tp>
-        <v>1897.2729999999999</v>
+        <v>1916.3571999999999</v>
         <stp/>
         <stp>AMZN</stp>
         <stp>last</stp>
         <tr r="C6" s="4"/>
       </tp>
-    </main>
-    <main first="rtdsrv.3073c66848b64aecaa42d795206db90b">
       <tp>
-        <v>121.38</v>
+        <v>121.86</v>
         <stp/>
         <stp>TLT</stp>
         <stp>close</stp>
         <tr r="G5" s="1"/>
       </tp>
     </main>
-    <main first="rtdsrv.3073c66848b64aecaa42d795206db90b">
+    <main first="rtdsrv.ca09d44513bc4c889b61150bd6ffbb92">
       <tp>
-        <v>82.73</v>
+        <v>82.27</v>
         <stp/>
         <stp>IYR</stp>
         <stp>close</stp>
         <tr r="G4" s="1"/>
       </tp>
     </main>
-    <main first="rtdsrv.3073c66848b64aecaa42d795206db90b">
+    <main first="rtdsrv.ca09d44513bc4c889b61150bd6ffbb92">
       <tp>
-        <v>46.096800000000002</v>
+        <v>46.965000000000003</v>
+        <stp/>
+        <stp>QQQE</stp>
+        <stp>last</stp>
+        <tr r="C40" s="4"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.ca09d44513bc4c889b61150bd6ffbb92">
+      <tp>
+        <v>539.20240000000001</v>
+        <stp/>
+        <stp>ISRG</stp>
+        <stp>last</stp>
+        <tr r="C8" s="4"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.ca09d44513bc4c889b61150bd6ffbb92">
+      <tp>
+        <v>17.11</v>
+        <stp/>
+        <stp>DBC</stp>
+        <stp>close</stp>
+        <tr r="G2" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.ca09d44513bc4c889b61150bd6ffbb92">
+      <tp>
+        <v>46.2</v>
         <stp/>
         <stp>CSCO</stp>
         <stp>last</stp>
         <tr r="C7" s="4"/>
       </tp>
     </main>
-    <main first="rtdsrv.3073c66848b64aecaa42d795206db90b">
+    <main first="rtdsrv.ca09d44513bc4c889b61150bd6ffbb92">
       <tp>
-        <v>359.19</v>
+        <v>365.26</v>
         <stp/>
         <stp>ALGN</stp>
         <stp>last</stp>
         <tr r="C5" s="4"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.3073c66848b64aecaa42d795206db90b">
-      <tp>
-        <v>16.87</v>
-        <stp/>
-        <stp>DBC</stp>
-        <stp>close</stp>
-        <tr r="G2" s="1"/>
       </tp>
     </main>
   </volType>
@@ -1897,8 +1863,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:V46"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="F31" sqref="F31"/>
+    <sheetView topLeftCell="B6" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="P29" sqref="P29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1998,34 +1964,34 @@
       </c>
       <c r="E2" s="5">
         <f>G2/D2-1</f>
-        <v>-5.3673114236127528E-2</v>
+        <v>-4.0210253976297849E-2</v>
       </c>
       <c r="F2" s="5">
         <f>I2/$I$21</f>
-        <v>0.14736381309921517</v>
+        <v>0.14920915225045506</v>
       </c>
       <c r="G2" s="4">
         <f>_xll.RealtimeData(A2,"Close")</f>
-        <v>16.87</v>
+        <v>17.11</v>
       </c>
       <c r="H2" s="4">
         <v>176</v>
       </c>
       <c r="I2" s="4">
         <f>H2*G2</f>
-        <v>2969.1200000000003</v>
+        <v>3011.3599999999997</v>
       </c>
       <c r="J2" s="4">
         <f>_xll.RealtimeData(A2,"Last")</f>
-        <v>17.035</v>
+        <v>17.040099999999999</v>
       </c>
       <c r="K2" s="5">
         <f>J2/D2-1</f>
-        <v>-4.4417397807494652E-2</v>
+        <v>-4.4131312026973291E-2</v>
       </c>
       <c r="L2" s="8">
         <f>_xll.RealtimeData(A2,"Change in Percent")</f>
-        <v>9.7806757557794312E-3</v>
+        <v>-4.0853302162478381E-3</v>
       </c>
       <c r="M2" s="29" t="str">
         <f>_xll.RealtimeData(A2,"Dividend Yield")</f>
@@ -2040,7 +2006,7 @@
       </c>
       <c r="P2" s="60">
         <f t="shared" ref="P2:P12" si="1">O2-F2</f>
-        <v>-5.3638130992151867E-3</v>
+        <v>-7.2091522504550698E-3</v>
       </c>
       <c r="Q2" s="31">
         <f>O2*Daily!$D$68</f>
@@ -2060,7 +2026,7 @@
       </c>
       <c r="U2">
         <f>_xll.RealtimeData(T2,"MTD Percent Change")</f>
-        <v>0.20588234999999999</v>
+        <v>0.23529412</v>
       </c>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.25">
@@ -2079,34 +2045,34 @@
       </c>
       <c r="E3" s="5">
         <f>G3/D3-1</f>
-        <v>8.2108954251678634E-2</v>
+        <v>8.2071411006553241E-2</v>
       </c>
       <c r="F3" s="5">
         <f>I3/$I$21</f>
-        <v>0.41485877419505329</v>
+        <v>0.41414735999254787</v>
       </c>
       <c r="G3" s="4">
         <f>_xll.RealtimeData(A3,"Close")</f>
-        <v>288.23</v>
+        <v>288.22000000000003</v>
       </c>
       <c r="H3" s="4">
         <v>29</v>
       </c>
       <c r="I3" s="4">
         <f>H3*G3</f>
-        <v>8358.67</v>
+        <v>8358.380000000001</v>
       </c>
       <c r="J3" s="4">
         <f>_xll.RealtimeData(A3,"Last")</f>
-        <v>288.45999999999998</v>
+        <v>288.61320000000001</v>
       </c>
       <c r="K3" s="5">
         <f>J3/D3-1</f>
-        <v>8.2972448889564454E-2</v>
+        <v>8.3547611404886979E-2</v>
       </c>
       <c r="L3" s="8">
         <f>_xll.RealtimeData(A3,"Change in Percent")</f>
-        <v>7.9797384033570759E-4</v>
+        <v>1.3642356533203072E-3</v>
       </c>
       <c r="M3" s="29">
         <f>_xll.RealtimeData(A3,"Dividend Yield")</f>
@@ -2121,7 +2087,7 @@
       </c>
       <c r="P3" s="60">
         <f t="shared" si="1"/>
-        <v>-4.8858774195053301E-2</v>
+        <v>-4.8147359992547878E-2</v>
       </c>
       <c r="Q3" s="31">
         <f>O3*Daily!$D$68</f>
@@ -2141,7 +2107,7 @@
       </c>
       <c r="U3">
         <f>_xll.RealtimeData(T3,"MTD Percent Change")</f>
-        <v>1.97256787</v>
+        <v>2.02912896</v>
       </c>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.25">
@@ -2160,38 +2126,38 @@
       </c>
       <c r="E4" s="5">
         <f>G4/D4-1</f>
-        <v>5.4825959454290363E-2</v>
+        <v>4.896085681499418E-2</v>
       </c>
       <c r="F4" s="5">
         <f>I4/$I$21</f>
-        <v>0.22172766540782984</v>
+        <v>0.22012432774720617</v>
       </c>
       <c r="G4" s="4">
         <f>_xll.RealtimeData(A4,"Close")</f>
-        <v>82.73</v>
+        <v>82.27</v>
       </c>
       <c r="H4" s="4">
         <v>54</v>
       </c>
       <c r="I4" s="4">
         <f>H4*G4</f>
-        <v>4467.42</v>
+        <v>4442.58</v>
       </c>
       <c r="J4" s="4">
         <f>_xll.RealtimeData(A4,"Last")</f>
-        <v>82.08</v>
+        <v>82.18</v>
       </c>
       <c r="K4" s="5">
         <f>J4/D4-1</f>
-        <v>4.6538314420502269E-2</v>
+        <v>4.7813336733392831E-2</v>
       </c>
       <c r="L4" s="8">
         <f t="array" ref="L4">_xll.RealtimeData(A4,"Change in Percent")</f>
-        <v>-7.8568838389943916E-3</v>
+        <v>-1.0939589157650323E-3</v>
       </c>
       <c r="M4" s="29">
         <f>_xll.RealtimeData(A4,"Dividend Yield")</f>
-        <v>0.48</v>
+        <v>0.49</v>
       </c>
       <c r="N4" s="4" t="str">
         <f t="shared" si="0"/>
@@ -2202,7 +2168,7 @@
       </c>
       <c r="P4" s="60">
         <f t="shared" si="1"/>
-        <v>0.17127233459217017</v>
+        <v>0.17287567225279385</v>
       </c>
       <c r="Q4" s="31">
         <f>O4*Daily!$D$68</f>
@@ -2222,7 +2188,7 @@
       </c>
       <c r="U4">
         <f>_xll.RealtimeData(T4,"MTD Percent Change")</f>
-        <v>0.68694798999999995</v>
+        <v>0.80961726999999994</v>
       </c>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.25">
@@ -2241,38 +2207,38 @@
       </c>
       <c r="E5" s="5">
         <f>G5/D5-1</f>
-        <v>-7.47216948038254E-3</v>
+        <v>-3.5471953606805995E-3</v>
       </c>
       <c r="F5" s="5">
         <f>I5/$I$21</f>
-        <v>0.21085226841265955</v>
+        <v>0.21133041392042667</v>
       </c>
       <c r="G5" s="4">
         <f>_xll.RealtimeData(A5,"Close")</f>
-        <v>121.38</v>
+        <v>121.86</v>
       </c>
       <c r="H5" s="4">
         <v>35</v>
       </c>
       <c r="I5" s="4">
         <f>H5*G5</f>
-        <v>4248.3</v>
+        <v>4265.1000000000004</v>
       </c>
       <c r="J5" s="31">
         <f>_xll.RealtimeData(A5,"Last")</f>
-        <v>121.655</v>
+        <v>121.9</v>
       </c>
       <c r="K5" s="5">
         <f>J5/D5-1</f>
-        <v>-5.2234863909699225E-3</v>
+        <v>-3.2201141840387804E-3</v>
       </c>
       <c r="L5" s="8">
         <f t="array" ref="L5">_xll.RealtimeData(A5,"Change in Percent")</f>
-        <v>2.2656121272038722E-3</v>
+        <v>3.2824552765473741E-4</v>
       </c>
       <c r="M5" s="29">
         <f>_xll.RealtimeData(A5,"Dividend Yield")</f>
-        <v>2.71</v>
+        <v>2.7</v>
       </c>
       <c r="N5" s="4" t="str">
         <f t="shared" si="0"/>
@@ -2283,7 +2249,7 @@
       </c>
       <c r="P5" s="60">
         <f t="shared" si="1"/>
-        <v>-0.21085226841265955</v>
+        <v>-0.21133041392042667</v>
       </c>
       <c r="Q5" s="31">
         <f>O5*Daily!$D$68</f>
@@ -2303,7 +2269,7 @@
       </c>
       <c r="U5">
         <f>_xll.RealtimeData(T5,"MTD Percent Change")</f>
-        <v>2.6971129500000002</v>
+        <v>2.9039338200000002</v>
       </c>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.25">
@@ -2323,16 +2289,16 @@
       <c r="I6" s="4"/>
       <c r="J6" s="31">
         <f>_xll.RealtimeData(A6,"Last")</f>
-        <v>39.26</v>
+        <v>39.145000000000003</v>
       </c>
       <c r="K6" s="5"/>
       <c r="L6" s="8">
         <f>_xll.RealtimeData(A6,"Change in Percent")</f>
-        <v>3.3222591362124967E-3</v>
+        <v>-1.4030612244897882E-3</v>
       </c>
       <c r="M6" s="29">
         <f>_xll.RealtimeData(A6,"Dividend Yield")</f>
-        <v>3.65</v>
+        <v>3.67</v>
       </c>
       <c r="N6" s="4" t="str">
         <f t="shared" si="0"/>
@@ -2363,7 +2329,7 @@
       </c>
       <c r="U6">
         <f>_xll.RealtimeData(T6,"MTD Percent Change")</f>
-        <v>-0.60759494000000003</v>
+        <v>-0.89873418000000005</v>
       </c>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.25">
@@ -2383,16 +2349,16 @@
       <c r="I7" s="4"/>
       <c r="J7" s="31">
         <f>_xll.RealtimeData(A7,"Last")</f>
-        <v>57.78</v>
+        <v>57.43</v>
       </c>
       <c r="K7" s="5"/>
       <c r="L7" s="8">
         <f>_xll.RealtimeData(A7,"Change in Percent")</f>
-        <v>6.4448702316670442E-3</v>
+        <v>-3.8161318300086559E-3</v>
       </c>
       <c r="M7" s="29">
         <f>_xll.RealtimeData(A7,"Dividend Yield")</f>
-        <v>1.6</v>
+        <v>1.61</v>
       </c>
       <c r="N7" s="4" t="str">
         <f t="shared" si="0"/>
@@ -2423,7 +2389,7 @@
       </c>
       <c r="U7">
         <f>_xll.RealtimeData(T7,"MTD Percent Change")</f>
-        <v>-1.9181802699999999</v>
+        <v>-2.5123069099999999</v>
       </c>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.25">
@@ -2443,12 +2409,12 @@
       <c r="I8" s="4"/>
       <c r="J8" s="31">
         <f>_xll.RealtimeData(A8,"Last")</f>
-        <v>113.16</v>
+        <v>112.79</v>
       </c>
       <c r="K8" s="5"/>
       <c r="L8" s="8">
         <f>_xll.RealtimeData(A8,"Change in Percent")</f>
-        <v>1.2387188108299507E-3</v>
+        <v>-4.2376622230068861E-3</v>
       </c>
       <c r="M8" s="29">
         <v>0</v>
@@ -2482,7 +2448,7 @@
       </c>
       <c r="U8">
         <f>_xll.RealtimeData(T8,"MTD Percent Change")</f>
-        <v>-1.7196456499999999</v>
+        <v>-2.0409935699999999</v>
       </c>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.25">
@@ -2502,16 +2468,16 @@
       <c r="I9" s="4"/>
       <c r="J9" s="31">
         <f>_xll.RealtimeData(A9,"Last")</f>
-        <v>45.1</v>
+        <v>45.05</v>
       </c>
       <c r="K9" s="5"/>
       <c r="L9" s="8">
         <f>_xll.RealtimeData(A9,"Change in Percent")</f>
-        <v>3.1138790035587414E-3</v>
+        <v>-1.330082021724724E-3</v>
       </c>
       <c r="M9" s="29">
         <f>_xll.RealtimeData(A9,"Dividend Yield")</f>
-        <v>4.7</v>
+        <v>4.71</v>
       </c>
       <c r="N9" s="4" t="str">
         <f t="shared" si="0"/>
@@ -2542,7 +2508,7 @@
       </c>
       <c r="U9">
         <f>_xll.RealtimeData(T9,"MTD Percent Change")</f>
-        <v>-1.9347826100000001</v>
+        <v>-2.0652173899999999</v>
       </c>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.25">
@@ -2556,12 +2522,12 @@
       <c r="G10" s="4"/>
       <c r="J10" s="31">
         <f>_xll.RealtimeData(A10,"Last")</f>
-        <v>43.1342</v>
+        <v>43.24</v>
       </c>
       <c r="K10" s="5"/>
       <c r="L10" s="8">
         <f t="array" ref="L10">_xll.RealtimeData(A10,"Change in Percent")</f>
-        <v>4.5225896599907318E-3</v>
+        <v>-9.2421441774489599E-4</v>
       </c>
       <c r="M10" s="29">
         <f>_xll.RealtimeData(A10,"Dividend Yield")</f>
@@ -2596,7 +2562,7 @@
       </c>
       <c r="U10">
         <f>_xll.RealtimeData(T10,"MTD Percent Change")</f>
-        <v>-2.9820063000000001</v>
+        <v>-2.7440395899999999</v>
       </c>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.25">
@@ -2610,12 +2576,12 @@
       <c r="G11" s="4"/>
       <c r="J11" s="31">
         <f>_xll.RealtimeData(A11,"Last")</f>
-        <v>102.80500000000001</v>
+        <v>102.89</v>
       </c>
       <c r="K11" s="5"/>
       <c r="L11" s="8">
         <f t="array" ref="L11">_xll.RealtimeData(A11,"Change in Percent")</f>
-        <v>1.217374366965329E-3</v>
+        <v>1.9442014192666473E-4</v>
       </c>
       <c r="M11" s="29">
         <f>_xll.RealtimeData(A11,"Dividend Yield")</f>
@@ -2650,7 +2616,7 @@
       </c>
       <c r="U11">
         <f>_xll.RealtimeData(T11,"MTD Percent Change")</f>
-        <v>1.4456285799999999</v>
+        <v>1.5295046400000001</v>
       </c>
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.25">
@@ -2663,11 +2629,11 @@
       </c>
       <c r="J12" s="31">
         <f>_xll.RealtimeData(A12,"Last")</f>
-        <v>83.32</v>
+        <v>83.33</v>
       </c>
       <c r="L12" s="8">
         <f t="array" ref="L12">_xll.RealtimeData(A12,"Change in Percent")</f>
-        <v>1.2003360941052586E-4</v>
+        <v>0</v>
       </c>
       <c r="M12" s="29">
         <f>_xll.RealtimeData(A12,"Dividend Yield")</f>
@@ -2702,7 +2668,7 @@
       </c>
       <c r="U12">
         <f>_xll.RealtimeData(T12,"MTD Percent Change")</f>
-        <v>0.31302672999999998</v>
+        <v>0.32506622000000002</v>
       </c>
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.25">
@@ -2719,11 +2685,11 @@
     <row r="14" spans="1:22" x14ac:dyDescent="0.25">
       <c r="U14" s="29">
         <f t="array" ref="U14">MMULT(TRANSPOSE(O2:O12),U2:U12)</f>
-        <v>1.0521553404599999</v>
+        <v>1.1264341072899999</v>
       </c>
       <c r="V14" s="8">
         <f>U14*0.01</f>
-        <v>1.0521553404599999E-2</v>
+        <v>1.1264341072899999E-2</v>
       </c>
     </row>
     <row r="19" spans="5:16" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
@@ -2733,7 +2699,7 @@
       </c>
       <c r="F20" s="11">
         <f>SUM(F2:F5)</f>
-        <v>0.99480252111475787</v>
+        <v>0.99481125391063574</v>
       </c>
       <c r="H20" s="2" t="s">
         <v>14</v>
@@ -2752,32 +2718,32 @@
       </c>
       <c r="F21" s="11">
         <f>1-F20</f>
-        <v>5.197478885242135E-3</v>
+        <v>5.1887460893642601E-3</v>
       </c>
       <c r="H21" s="2" t="s">
         <v>16</v>
       </c>
       <c r="I21" s="6">
         <f>SUM(I2:I20)</f>
-        <v>20148.230000000003</v>
+        <v>20182.140000000003</v>
       </c>
       <c r="J21" t="s">
         <v>33</v>
       </c>
       <c r="K21" s="8">
         <f>SUMPRODUCT(K2:K7,F2:F7)</f>
-        <v>3.7093779183344132E-2</v>
+        <v>3.7860597584177168E-2</v>
       </c>
       <c r="M21" t="s">
         <v>34</v>
       </c>
       <c r="N21" s="76">
         <f t="array" ref="N21">MMULT(TRANSPOSE(F2:F5),L2:L5)</f>
-        <v>5.0798506866352937E-4</v>
+        <v>-2.1601277168822986E-4</v>
       </c>
       <c r="P21" s="8">
         <f>SUMPRODUCT(L2:L12,O2:O12)</f>
-        <v>-1.3949576385096059E-3</v>
+        <v>-5.1073249548761824E-4</v>
       </c>
     </row>
     <row r="22" spans="5:16" x14ac:dyDescent="0.25">
@@ -2792,7 +2758,7 @@
       </c>
       <c r="K22" s="8">
         <f>_xll.RealtimeData(J22,"Change in Percent")</f>
-        <v>2.1866885335519613E-3</v>
+        <v>0</v>
       </c>
       <c r="L22" s="12">
         <v>0.6</v>
@@ -2804,7 +2770,7 @@
       </c>
       <c r="K23" s="8">
         <f>_xll.RealtimeData(J23,"Change in Percent")</f>
-        <v>4.6913116907444645E-5</v>
+        <v>-8.2497421955638039E-5</v>
       </c>
       <c r="L23" s="12">
         <v>0.4</v>
@@ -2816,7 +2782,7 @@
       </c>
       <c r="K24" s="8">
         <f>_xll.RealtimeData(J24,"Change in Percent")</f>
-        <v>7.9797384033570759E-4</v>
+        <v>1.3642356533203072E-3</v>
       </c>
     </row>
     <row r="25" spans="5:16" x14ac:dyDescent="0.25">
@@ -2825,7 +2791,7 @@
       </c>
       <c r="K25" s="8">
         <f t="array" ref="K25">SUMPRODUCT(K22:K23,L22:L23)</f>
-        <v>1.3307783668941547E-3</v>
+        <v>-3.2998968782255214E-5</v>
       </c>
     </row>
     <row r="26" spans="5:16" x14ac:dyDescent="0.25">
@@ -2834,14 +2800,14 @@
       </c>
       <c r="I26" s="6">
         <f>SUM(I2:I18)</f>
-        <v>20043.510000000002</v>
+        <v>20077.420000000002</v>
       </c>
       <c r="J26" t="s">
         <v>56</v>
       </c>
       <c r="K26" s="8">
         <f>_xll.RealtimeData(J26,"Change in Percent")</f>
-        <v>-1.797625777275325E-3</v>
+        <v>-9.0441176470588223E-3</v>
       </c>
       <c r="L26" t="str">
         <f>_xll.RealtimeData(J26,"Description")</f>
@@ -2854,7 +2820,7 @@
       </c>
       <c r="K27" s="8">
         <f>AVERAGE(L2:L11)</f>
-        <v>2.4847069093548915E-3</v>
+        <v>-1.5003539526086112E-3</v>
       </c>
     </row>
     <row r="28" spans="5:16" x14ac:dyDescent="0.25">
@@ -2863,20 +2829,20 @@
       </c>
       <c r="K28" s="8">
         <f>SUMPRODUCT(F2:F7,M2:M7)*0.01</f>
-        <v>1.4162875448612607E-2</v>
+        <v>1.4156353389680184E-2</v>
       </c>
       <c r="L28" t="s">
         <v>65</v>
       </c>
       <c r="M28" s="8">
         <f>AVERAGE(M2:M11)*0.01</f>
-        <v>2.0522222222222219E-2</v>
+        <v>2.0566666666666667E-2</v>
       </c>
     </row>
     <row r="29" spans="5:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="30" spans="5:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H30" s="30">
-        <v>43333</v>
+        <v>43334</v>
       </c>
       <c r="I30" s="15" t="s">
         <v>61</v>
@@ -2897,19 +2863,19 @@
       </c>
       <c r="I31" s="21">
         <f>$N$21</f>
-        <v>5.0798506866352937E-4</v>
+        <v>-2.1601277168822986E-4</v>
       </c>
       <c r="J31" s="21">
         <f>LOOKUP(2,1/(Daily!E:E&lt;&gt;""),Daily!E:E)</f>
-        <v>-1.2442163766633874E-3</v>
+        <v>1.6830254156192659E-3</v>
       </c>
       <c r="K31" s="22">
         <f>VLOOKUP($H$30,Daily!$A:$AF,7,0)</f>
-        <v>1.5108553049220097E-2</v>
+        <v>1.6817006543614399E-2</v>
       </c>
       <c r="L31" s="23">
         <f>VLOOKUP($H$30,Daily!$A:$AF,8,0)</f>
-        <v>7.4120000000004183E-3</v>
+        <v>9.1075000000002682E-3</v>
       </c>
     </row>
     <row r="32" spans="5:16" x14ac:dyDescent="0.25">
@@ -2918,19 +2884,19 @@
       </c>
       <c r="I32" s="24">
         <f>$K$25</f>
-        <v>1.3307783668941547E-3</v>
+        <v>-3.2998968782255214E-5</v>
       </c>
       <c r="J32" s="24">
         <f>LOOKUP(2,1/(Daily!M:M&lt;&gt;""),Daily!M:M)</f>
-        <v>2.4635540725649551E-3</v>
+        <v>1.2397834618240733E-3</v>
       </c>
       <c r="K32" s="14">
         <f>VLOOKUP($H$30,Daily!$A:$AF,25,0)</f>
-        <v>1.922630271413861E-2</v>
+        <v>2.0489922628099677E-2</v>
       </c>
       <c r="L32" s="25">
         <f>VLOOKUP($H$30,Daily!$A:$AF,31,0)</f>
-        <v>1.3374788279624239E-2</v>
+        <v>1.463115358276279E-2</v>
       </c>
     </row>
     <row r="33" spans="8:18" x14ac:dyDescent="0.25">
@@ -2939,19 +2905,19 @@
       </c>
       <c r="I33" s="24">
         <f>$K$24</f>
-        <v>7.9797384033570759E-4</v>
+        <v>1.3642356533203072E-3</v>
       </c>
       <c r="J33" s="24">
         <f>LOOKUP(2,1/(Daily!L:L&lt;&gt;""),Daily!L:L)</f>
-        <v>1.7029262528671651E-3</v>
+        <v>-3.4694514797206644E-5</v>
       </c>
       <c r="K33" s="14">
         <f>VLOOKUP($H$30,Daily!$A:$AF,24,0)</f>
-        <v>5.5594213514008395E-2</v>
+        <v>5.555759018494788E-2</v>
       </c>
       <c r="L33" s="25">
         <f>VLOOKUP($H$30,Daily!$A:$AF,30,0)</f>
-        <v>8.2407849871418914E-2</v>
+        <v>8.2370296256254916E-2</v>
       </c>
     </row>
     <row r="34" spans="8:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2960,19 +2926,19 @@
       </c>
       <c r="I34" s="26">
         <f>$K$26</f>
-        <v>-1.797625777275325E-3</v>
+        <v>-9.0441176470588223E-3</v>
       </c>
       <c r="J34" s="26">
         <f>LOOKUP(2,1/(Daily!N:N&lt;&gt;""),Daily!N:N)</f>
-        <v>5.2564284699532227E-3</v>
+        <v>-5.6529112492942346E-4</v>
       </c>
       <c r="K34" s="27">
         <f>VLOOKUP($H$30,Daily!$A:$AF,26,0)</f>
-        <v>1.6666666666667274E-2</v>
+        <v>1.609195402298913E-2</v>
       </c>
       <c r="L34" s="28">
         <f>VLOOKUP($H$30,Daily!$A:$AF,32,0)</f>
-        <v>2.5937694075450768E-2</v>
+        <v>2.5357740602259371E-2</v>
       </c>
     </row>
     <row r="35" spans="8:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -3007,7 +2973,7 @@
       </c>
       <c r="I37" s="46">
         <f>AVERAGE(Daily!E$3:E380)</f>
-        <v>1.0524754257019792E-4</v>
+        <v>1.2496976598331129E-4</v>
       </c>
       <c r="J37" s="44"/>
       <c r="K37" s="22"/>
@@ -3015,23 +2981,23 @@
       <c r="M37" s="50"/>
       <c r="N37" s="38">
         <f>AVERAGE(Daily!J$3:J380)</f>
-        <v>2.2494087435983334E-4</v>
+        <v>2.409209680155477E-4</v>
       </c>
       <c r="O37" s="22">
         <f>AVERAGE(Daily!K$3:K380)</f>
-        <v>9.9254763517865288E-5</v>
+        <v>1.0856953027807585E-4</v>
       </c>
       <c r="P37" s="22">
         <f>AVERAGE(Daily!L$3:L380)</f>
-        <v>1.0193796447430213E-3</v>
+        <v>1.0062037177487686E-3</v>
       </c>
       <c r="Q37" s="22">
         <f>AVERAGE(Daily!M$3:M380)</f>
-        <v>1.7466643002304611E-4</v>
+        <v>1.8798039292055894E-4</v>
       </c>
       <c r="R37" s="23">
         <f>AVERAGE(Daily!N$3:N380)</f>
-        <v>3.5632144954084887E-4</v>
+        <v>3.4480129235997048E-4</v>
       </c>
     </row>
     <row r="38" spans="8:18" x14ac:dyDescent="0.25">
@@ -3040,7 +3006,7 @@
       </c>
       <c r="I38" s="47">
         <f>STDEV(Daily!E$3:E380)</f>
-        <v>4.8804353038254325E-3</v>
+        <v>4.8526553720166137E-3</v>
       </c>
       <c r="J38" s="45"/>
       <c r="K38" s="14"/>
@@ -3048,23 +3014,23 @@
       <c r="M38" s="51"/>
       <c r="N38" s="40">
         <f>STDEV(Daily!J$3:J380)</f>
-        <v>6.2113505778144317E-3</v>
+        <v>6.1735678139129115E-3</v>
       </c>
       <c r="O38" s="14">
         <f>STDEV(Daily!K$3:K380)</f>
-        <v>1.7269423448777893E-3</v>
+        <v>1.717998848078089E-3</v>
       </c>
       <c r="P38" s="14">
         <f>STDEV(Daily!L$3:L380)</f>
-        <v>5.7794999014899248E-3</v>
+        <v>5.7440133662849556E-3</v>
       </c>
       <c r="Q38" s="14">
         <f>STDEV(Daily!M$3:M380)</f>
-        <v>3.6196618514390904E-3</v>
+        <v>3.5986504907762019E-3</v>
       </c>
       <c r="R38" s="25">
         <f>STDEV(Daily!N$3:N380)</f>
-        <v>8.0688820006997938E-3</v>
+        <v>8.0183125678555869E-3</v>
       </c>
     </row>
     <row r="39" spans="8:18" x14ac:dyDescent="0.25">
@@ -3073,7 +3039,7 @@
       </c>
       <c r="I39" s="48">
         <f>COUNTIF(Daily!E$3:E380,"&gt;0")</f>
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J39" s="45"/>
       <c r="K39" s="14"/>
@@ -3081,11 +3047,11 @@
       <c r="M39" s="51"/>
       <c r="N39" s="41">
         <f>COUNTIF(Daily!J$3:J380,"&gt;0")</f>
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="O39" s="33">
         <f>COUNTIF(Daily!K$3:K380,"&gt;0")</f>
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="P39" s="33">
         <f>COUNTIF(Daily!L$3:L380,"&gt;0")</f>
@@ -3093,7 +3059,7 @@
       </c>
       <c r="Q39" s="33">
         <f>COUNTIF(Daily!M$3:M380,"&gt;0")</f>
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="R39" s="35">
         <f>COUNTIF(Daily!N$3:N380,"&gt;0")</f>
@@ -3106,7 +3072,7 @@
       </c>
       <c r="I40" s="47">
         <f>SUMIF(Daily!E$3:E380,"&gt;0")</f>
-        <v>0.14819461808406653</v>
+        <v>0.1498776434996858</v>
       </c>
       <c r="J40" s="45"/>
       <c r="K40" s="14"/>
@@ -3114,11 +3080,11 @@
       <c r="M40" s="51"/>
       <c r="N40" s="40">
         <f>SUMIF(Daily!J$3:J380,"&gt;0")</f>
-        <v>0.20062561164041459</v>
+        <v>0.20212896000723157</v>
       </c>
       <c r="O40" s="14">
         <f>SUMIF(Daily!K$3:K380,"&gt;0")</f>
-        <v>5.6572493231464627E-2</v>
+        <v>5.7416929335799338E-2</v>
       </c>
       <c r="P40" s="14">
         <f>SUMIF(Daily!L$3:L380,"&gt;0")</f>
@@ -3126,7 +3092,7 @@
       </c>
       <c r="Q40" s="14">
         <f>SUMIF(Daily!M$3:M380,"&gt;0")</f>
-        <v>0.11878996988644362</v>
+        <v>0.1200297533482677</v>
       </c>
       <c r="R40" s="25">
         <f>SUMIF(Daily!N$3:N380,"&gt;0")</f>
@@ -3155,7 +3121,7 @@
       </c>
       <c r="P41" s="14">
         <f>SUMIF(Daily!L$3:L380,"&lt;0")</f>
-        <v>-0.14360134599607172</v>
+        <v>-0.14363604051086892</v>
       </c>
       <c r="Q41" s="14">
         <f>SUMIF(Daily!M$3:M380,"&lt;0")</f>
@@ -3163,7 +3129,7 @@
       </c>
       <c r="R41" s="25">
         <f>SUMIF(Daily!N$3:N380,"&lt;0")</f>
-        <v>-0.23807836514508046</v>
+        <v>-0.23864365627000989</v>
       </c>
     </row>
     <row r="42" spans="8:18" x14ac:dyDescent="0.25">
@@ -3172,7 +3138,7 @@
       </c>
       <c r="I42" s="48">
         <f>COUNT(Daily!E$3:E380)</f>
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="J42" s="45"/>
       <c r="K42" s="14"/>
@@ -3180,23 +3146,23 @@
       <c r="M42" s="51"/>
       <c r="N42" s="41">
         <f>COUNT(Daily!J$3:J380)</f>
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="O42" s="33">
         <f>COUNT(Daily!K$3:K380)</f>
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="P42" s="33">
         <f>COUNT(Daily!L$3:L380)</f>
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Q42" s="33">
         <f>COUNT(Daily!M$3:M380)</f>
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="R42" s="35">
         <f>COUNT(Daily!N$3:N380)</f>
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="43" spans="8:18" x14ac:dyDescent="0.25">
@@ -3221,7 +3187,7 @@
       </c>
       <c r="P43" s="33">
         <f>P42-P39</f>
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="Q43" s="33">
         <f>Q42-Q39</f>
@@ -3229,7 +3195,7 @@
       </c>
       <c r="R43" s="35">
         <f>R42-R39</f>
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="44" spans="8:18" x14ac:dyDescent="0.25">
@@ -3238,7 +3204,7 @@
       </c>
       <c r="I44" s="49">
         <f>(I40/I41)*(I39/I43)*-1</f>
-        <v>1.4022008039257525</v>
+        <v>1.4496392988637918</v>
       </c>
       <c r="J44" s="45"/>
       <c r="K44" s="14"/>
@@ -3246,23 +3212,23 @@
       <c r="M44" s="51"/>
       <c r="N44" s="42">
         <f>(N40/N41)*(N39/N43)*-1</f>
-        <v>1.1838021449512841</v>
+        <v>1.2217623111815235</v>
       </c>
       <c r="O44" s="34">
         <f>(O40/O41)*(O39/O43)*-1</f>
-        <v>1.3177841874033258</v>
+        <v>1.3692983999397348</v>
       </c>
       <c r="P44" s="34">
         <f>(P40/P41)*(P39/P43)*-1</f>
-        <v>2.1756543654262415</v>
+        <v>2.111154469913239</v>
       </c>
       <c r="Q44" s="34">
         <f>(Q40/Q41)*(Q39/Q43)*-1</f>
-        <v>1.3514261655069564</v>
+        <v>1.3972872156938947</v>
       </c>
       <c r="R44" s="36">
         <f>(R40/R41)*(R39/R43)*-1</f>
-        <v>1.4800180181090177</v>
+        <v>1.4343261379626031</v>
       </c>
     </row>
     <row r="45" spans="8:18" x14ac:dyDescent="0.25">
@@ -3271,7 +3237,7 @@
       </c>
       <c r="I45" s="62">
         <f>I39/I42</f>
-        <v>0.569620253164557</v>
+        <v>0.57499999999999996</v>
       </c>
       <c r="J45" s="63"/>
       <c r="K45" s="64"/>
@@ -3279,23 +3245,23 @@
       <c r="M45" s="66"/>
       <c r="N45" s="67">
         <f>N39/N42</f>
-        <v>0.51898734177215189</v>
+        <v>0.52500000000000002</v>
       </c>
       <c r="O45" s="64">
         <f>O39/O42</f>
-        <v>0.53164556962025311</v>
+        <v>0.53749999999999998</v>
       </c>
       <c r="P45" s="64">
         <f>P39/P42</f>
-        <v>0.58227848101265822</v>
+        <v>0.57499999999999996</v>
       </c>
       <c r="Q45" s="64">
         <f>Q39/Q42</f>
-        <v>0.54430379746835444</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="R45" s="68">
         <f>R39/R42</f>
-        <v>0.569620253164557</v>
+        <v>0.5625</v>
       </c>
     </row>
     <row r="46" spans="8:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3343,13 +3309,13 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:AN81"/>
+  <dimension ref="A1:AN82"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B57" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="L57" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="L91" sqref="L91"/>
+      <selection pane="bottomRight" activeCell="X94" sqref="X94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9365,7 +9331,7 @@
         <v>43291</v>
       </c>
       <c r="B51" s="4">
-        <f t="shared" ref="B51:B81" si="812">D51-C51</f>
+        <f t="shared" ref="B51:B82" si="812">D51-C51</f>
         <v>19902.79</v>
       </c>
       <c r="C51" s="4">
@@ -13574,6 +13540,142 @@
       <c r="AN81" s="8">
         <f t="shared" ref="AN81" si="1517">MIN(0,(T81-MAX(T52:T81))/MAX(T52:T81))</f>
         <v>-6.1797752808986387E-3</v>
+      </c>
+    </row>
+    <row r="82" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A82" s="9">
+        <v>43334</v>
+      </c>
+      <c r="B82" s="4">
+        <f t="shared" si="812"/>
+        <v>20077.429999999997</v>
+      </c>
+      <c r="C82" s="4">
+        <v>104.72</v>
+      </c>
+      <c r="D82" s="4">
+        <f>20180.05+2.1</f>
+        <v>20182.149999999998</v>
+      </c>
+      <c r="E82" s="5">
+        <f t="shared" ref="E82" si="1518">D82/D81-1</f>
+        <v>1.6830254156192659E-3</v>
+      </c>
+      <c r="F82" s="10">
+        <f t="shared" ref="F82" si="1519">F81*(1+E82)</f>
+        <v>100.91075000000004</v>
+      </c>
+      <c r="G82" s="5">
+        <f t="shared" ref="G82" si="1520">F82/F$45-1</f>
+        <v>1.6817006543614399E-2</v>
+      </c>
+      <c r="H82" s="8">
+        <f t="shared" ref="H82" si="1521">F82/$F$2-1</f>
+        <v>9.1075000000002682E-3</v>
+      </c>
+      <c r="J82" s="11">
+        <f>VLOOKUP($A82,Prices!$A:$J,MATCH(J$1,Prices!$1:$1,0),0)</f>
+        <v>1.5033483668169811E-3</v>
+      </c>
+      <c r="K82" s="11">
+        <f>VLOOKUP($A82,Prices!$A:$J,MATCH(K$1,Prices!$1:$1,0),0)</f>
+        <v>8.444361043347115E-4</v>
+      </c>
+      <c r="L82" s="11">
+        <f>VLOOKUP($A82,Prices!$A:$J,MATCH(L$1,Prices!$1:$1,0),0)</f>
+        <v>-3.4694514797206644E-5</v>
+      </c>
+      <c r="M82" s="11">
+        <f t="shared" ref="M82" si="1522">0.6*J82 + 0.4*K82</f>
+        <v>1.2397834618240733E-3</v>
+      </c>
+      <c r="N82" s="11">
+        <f>VLOOKUP($A82,Prices!$A:$J,MATCH(N$1,Prices!$1:$1,0),0)</f>
+        <v>-5.6529112492942346E-4</v>
+      </c>
+      <c r="P82" s="10">
+        <f t="shared" ref="P82" si="1523">P81*(1+J82)</f>
+        <v>101.79223682605237</v>
+      </c>
+      <c r="Q82" s="10">
+        <f t="shared" ref="Q82" si="1524">Q81*(1+K82)</f>
+        <v>100.86053799564668</v>
+      </c>
+      <c r="R82" s="10">
+        <f t="shared" ref="R82" si="1525">R81*(1+L82)</f>
+        <v>108.2370296256255</v>
+      </c>
+      <c r="S82" s="10">
+        <f t="shared" ref="S82" si="1526">S81*(1+M82)</f>
+        <v>101.46311535827628</v>
+      </c>
+      <c r="T82" s="10">
+        <f t="shared" ref="T82" si="1527">T81*(1+N82)</f>
+        <v>102.53577406022595</v>
+      </c>
+      <c r="V82" s="5">
+        <f t="shared" ref="V82" si="1528">P82/P$45-1</f>
+        <v>3.0371203599550478E-2</v>
+      </c>
+      <c r="W82" s="5">
+        <f t="shared" ref="W82" si="1529">Q82/Q$45-1</f>
+        <v>5.4594743370761645E-3</v>
+      </c>
+      <c r="X82" s="5">
+        <f t="shared" ref="X82" si="1530">R82/R$45-1</f>
+        <v>5.555759018494788E-2</v>
+      </c>
+      <c r="Y82" s="5">
+        <f t="shared" ref="Y82" si="1531">S82/S$45-1</f>
+        <v>2.0489922628099677E-2</v>
+      </c>
+      <c r="Z82" s="5">
+        <f t="shared" ref="Z82" si="1532">T82/T$45-1</f>
+        <v>1.609195402298913E-2</v>
+      </c>
+      <c r="AB82" s="8">
+        <f t="shared" ref="AB82" si="1533">P82/$P$2-1</f>
+        <v>1.7922368260523847E-2</v>
+      </c>
+      <c r="AC82" s="8">
+        <f t="shared" ref="AC82" si="1534">Q82/$P$2-1</f>
+        <v>8.6053799564667077E-3</v>
+      </c>
+      <c r="AD82" s="8">
+        <f t="shared" ref="AD82" si="1535">R82/$P$2-1</f>
+        <v>8.2370296256254916E-2</v>
+      </c>
+      <c r="AE82" s="8">
+        <f t="shared" ref="AE82" si="1536">S82/$P$2-1</f>
+        <v>1.463115358276279E-2</v>
+      </c>
+      <c r="AF82" s="8">
+        <f t="shared" ref="AF82" si="1537">T82/$T$2-1</f>
+        <v>2.5357740602259371E-2</v>
+      </c>
+      <c r="AI82" s="8">
+        <f t="shared" ref="AI82" si="1538">MIN(0,(F82-MAX(F53:F82))/MAX(F53:F82))</f>
+        <v>0</v>
+      </c>
+      <c r="AJ82" s="8">
+        <f t="shared" ref="AJ82" si="1539">MIN(0,(P82-MAX(P53:P82))/MAX(P53:P82))</f>
+        <v>-8.1212777476984323E-3</v>
+      </c>
+      <c r="AK82" s="8">
+        <f t="shared" ref="AK82" si="1540">MIN(0,(Q82-MAX(Q53:Q82))/MAX(Q53:Q82))</f>
+        <v>-1.4089608282493365E-16</v>
+      </c>
+      <c r="AL82" s="8">
+        <f t="shared" ref="AL82" si="1541">MIN(0,(R82-MAX(R53:R82))/MAX(R53:R82))</f>
+        <v>-3.4694514797202564E-5</v>
+      </c>
+      <c r="AM82" s="8">
+        <f t="shared" ref="AM82" si="1542">MIN(0,(S82-MAX(S53:S82))/MAX(S53:S82))</f>
+        <v>-2.5181690603464507E-3</v>
+      </c>
+      <c r="AN82" s="8">
+        <f t="shared" ref="AN82" si="1543">MIN(0,(T82-MAX(T53:T82))/MAX(T53:T82))</f>
+        <v>-6.7415730337076563E-3</v>
       </c>
     </row>
   </sheetData>
@@ -13586,8 +13688,8 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:J87"/>
   <sheetViews>
-    <sheetView topLeftCell="A51" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A83" sqref="A83"/>
+    <sheetView topLeftCell="A36" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="N74" sqref="N74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16582,37 +16684,40 @@
       </c>
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B83" t="str">
+      <c r="A83" s="13">
+        <v>43334</v>
+      </c>
+      <c r="B83">
         <f t="array" ref="B83">_xll.HistoricalData(B$1,"Adj. Close",$A83,$A83,"Daily","RemoveHeaders = True","ReverseOrder =True","RemoveDates =""True")</f>
-        <v>--</v>
-      </c>
-      <c r="C83" t="str">
+        <v>73.28</v>
+      </c>
+      <c r="C83">
         <f t="array" ref="C83">_xll.HistoricalData(C$1,"Adj. Close",$A83,$A83,"Daily","RemoveHeaders = True","ReverseOrder =True","RemoveDates =""True")</f>
-        <v>--</v>
-      </c>
-      <c r="D83" t="str">
+        <v>106.67</v>
+      </c>
+      <c r="D83">
         <f t="array" ref="D83">_xll.HistoricalData(D$1,"Adj. Close",$A83,$A83,"Daily","RemoveHeaders = True","ReverseOrder =True","RemoveDates =""True")</f>
-        <v>--</v>
-      </c>
-      <c r="E83" t="str">
+        <v>288.22000000000003</v>
+      </c>
+      <c r="E83">
         <f t="array" ref="E83">_xll.HistoricalData(E$1,"Adj. Close",$A83,$A83,"Daily","RemoveHeaders = True","ReverseOrder =True","RemoveDates =""True")</f>
-        <v>--</v>
-      </c>
-      <c r="G83" s="5" t="e">
+        <v>17.68</v>
+      </c>
+      <c r="G83" s="5">
         <f t="shared" si="224"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="H83" s="5" t="e">
+        <v>1.5033483668169811E-3</v>
+      </c>
+      <c r="H83" s="5">
         <f t="shared" si="225"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I83" s="5" t="e">
+        <v>8.444361043347115E-4</v>
+      </c>
+      <c r="I83" s="5">
         <f t="shared" si="226"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="J83" s="5" t="e">
+        <v>-3.4694514797206644E-5</v>
+      </c>
+      <c r="J83" s="5">
         <f t="shared" si="227"/>
-        <v>#VALUE!</v>
+        <v>-5.6529112492942346E-4</v>
       </c>
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.25">
@@ -16760,8 +16865,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="P20" sqref="P20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O44" sqref="O44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16799,7 +16904,7 @@
       </c>
       <c r="G2" s="74">
         <f>SUM(G5:G10)</f>
-        <v>0.99282954691070213</v>
+        <v>0.99287651229637941</v>
       </c>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.25">
@@ -16850,7 +16955,7 @@
       </c>
       <c r="C5">
         <f>_xll.RealtimeData(A5,"Last")</f>
-        <v>359.19</v>
+        <v>365.26</v>
       </c>
       <c r="D5">
         <f>ROUNDDOWN(($C$2/6)/B5,0)</f>
@@ -16858,19 +16963,19 @@
       </c>
       <c r="E5" s="8">
         <f>C5/B5-1</f>
-        <v>8.2060551287844508E-2</v>
+        <v>0.10034643771652352</v>
       </c>
       <c r="F5">
         <f>C5*D5</f>
-        <v>12571.65</v>
+        <v>12784.1</v>
       </c>
       <c r="G5" s="73">
         <f>F5/$F$13</f>
-        <v>0.16991390982615626</v>
+        <v>0.17165359009265552</v>
       </c>
       <c r="H5" s="8">
         <f>F5/$F$31</f>
-        <v>0.12053485022528668</v>
+        <v>0.12197575298237734</v>
       </c>
       <c r="I5">
         <f>B5*D5</f>
@@ -16887,7 +16992,7 @@
       </c>
       <c r="C6">
         <f>_xll.RealtimeData(A6,"Last")</f>
-        <v>1897.2729999999999</v>
+        <v>1916.3571999999999</v>
       </c>
       <c r="D6">
         <f t="shared" ref="D6:D10" si="0">ROUNDDOWN(($C$2/6)/B6,0)</f>
@@ -16895,19 +17000,19 @@
       </c>
       <c r="E6" s="8">
         <f t="shared" ref="E6:E10" si="1">C6/B6-1</f>
-        <v>0.16424258416072468</v>
+        <v>0.17595341245198259</v>
       </c>
       <c r="F6">
         <f t="shared" ref="F6:F9" si="2">C6*D6</f>
-        <v>13280.911</v>
+        <v>13414.500399999999</v>
       </c>
       <c r="G6" s="73">
         <f t="shared" ref="G6:G10" si="3">F6/$F$13</f>
-        <v>0.17950002697046186</v>
+        <v>0.18011804921420854</v>
       </c>
       <c r="H6" s="8">
         <f t="shared" ref="H6:H10" si="4">F6/$F$31</f>
-        <v>0.12733512452544912</v>
+        <v>0.12799053411443917</v>
       </c>
       <c r="I6">
         <f t="shared" ref="I6:I10" si="5">B6*D6</f>
@@ -16924,7 +17029,7 @@
       </c>
       <c r="C7">
         <f>_xll.RealtimeData(A7,"Last")</f>
-        <v>46.096800000000002</v>
+        <v>46.2</v>
       </c>
       <c r="D7">
         <f t="shared" si="0"/>
@@ -16932,19 +17037,19 @@
       </c>
       <c r="E7" s="8">
         <f t="shared" si="1"/>
-        <v>8.7701746106654044E-2</v>
+        <v>9.0136857008022764E-2</v>
       </c>
       <c r="F7">
         <f t="shared" si="2"/>
-        <v>12676.62</v>
+        <v>12705</v>
       </c>
       <c r="G7" s="73">
         <f t="shared" si="3"/>
-        <v>0.17133264667569087</v>
+        <v>0.17059150523910077</v>
       </c>
       <c r="H7" s="8">
         <f t="shared" si="4"/>
-        <v>0.12154128480055314</v>
+        <v>0.1212210434556288</v>
       </c>
       <c r="I7">
         <f t="shared" si="5"/>
@@ -16961,7 +17066,7 @@
       </c>
       <c r="C8">
         <f>_xll.RealtimeData(A8,"Last")</f>
-        <v>533.45600000000002</v>
+        <v>539.20240000000001</v>
       </c>
       <c r="D8">
         <f t="shared" si="0"/>
@@ -16969,19 +17074,19 @@
       </c>
       <c r="E8" s="8">
         <f t="shared" si="1"/>
-        <v>0.16051950312180474</v>
+        <v>0.17302064524550209</v>
       </c>
       <c r="F8">
         <f t="shared" si="2"/>
-        <v>13336.4</v>
+        <v>13480.06</v>
       </c>
       <c r="G8" s="73">
         <f t="shared" si="3"/>
-        <v>0.18024999638118705</v>
+        <v>0.1809983255500506</v>
       </c>
       <c r="H8" s="8">
         <f t="shared" si="4"/>
-        <v>0.12786714365612417</v>
+        <v>0.12861605187284403</v>
       </c>
       <c r="I8">
         <f t="shared" si="5"/>
@@ -16998,7 +17103,7 @@
       </c>
       <c r="C9">
         <f>_xll.RealtimeData(A9,"Last")</f>
-        <v>50.08</v>
+        <v>50.094099999999997</v>
       </c>
       <c r="D9">
         <f t="shared" si="0"/>
@@ -17006,19 +17111,19 @@
       </c>
       <c r="E9" s="8">
         <f t="shared" si="1"/>
-        <v>-0.1304045841291892</v>
+        <v>-0.13015974995658974</v>
       </c>
       <c r="F9">
         <f t="shared" si="2"/>
-        <v>10116.16</v>
+        <v>10119.0082</v>
       </c>
       <c r="G9" s="73">
         <f t="shared" si="3"/>
-        <v>0.13672638818508062</v>
+        <v>0.13586909408617109</v>
       </c>
       <c r="H9" s="8">
         <f t="shared" si="4"/>
-        <v>9.6992028131155109E-2</v>
+        <v>9.6547558657226612E-2</v>
       </c>
       <c r="I9">
         <f t="shared" si="5"/>
@@ -17035,7 +17140,7 @@
       </c>
       <c r="C10">
         <f>_xll.RealtimeData(A10,"Last")</f>
-        <v>55.44</v>
+        <v>55.28</v>
       </c>
       <c r="D10">
         <f t="shared" si="0"/>
@@ -17043,19 +17148,19 @@
       </c>
       <c r="E10" s="8">
         <f t="shared" si="1"/>
-        <v>-1.6149068322981464E-2</v>
+        <v>-1.8988464951197881E-2</v>
       </c>
       <c r="F10">
         <f>C10*D10</f>
-        <v>11476.08</v>
+        <v>11442.960000000001</v>
       </c>
       <c r="G10" s="73">
         <f t="shared" si="3"/>
-        <v>0.15510657887212539</v>
+        <v>0.15364594811419291</v>
       </c>
       <c r="H10" s="8">
         <f t="shared" si="4"/>
-        <v>0.11003071068423063</v>
+        <v>0.10917965772695963</v>
       </c>
       <c r="I10">
         <f t="shared" si="5"/>
@@ -17074,7 +17179,7 @@
       </c>
       <c r="F13" s="75">
         <f>SUM(F5:F10)+I13</f>
-        <v>73988.35100000001</v>
+        <v>74476.158599999995</v>
       </c>
       <c r="H13" t="s">
         <v>26</v>
@@ -17090,7 +17195,7 @@
       </c>
       <c r="F14" s="8">
         <f>F13/C2-1</f>
-        <v>5.6976442857143095E-2</v>
+        <v>6.3945122857142822E-2</v>
       </c>
     </row>
     <row r="15" spans="1:23" x14ac:dyDescent="0.25">
@@ -17101,7 +17206,7 @@
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H17" s="11">
         <f>SUM(H20:H23)</f>
-        <v>0.98830175519860597</v>
+        <v>0.98831018074594257</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
@@ -17143,7 +17248,7 @@
       </c>
       <c r="C20">
         <f>_xll.RealtimeData(A20,"Last")</f>
-        <v>17.035</v>
+        <v>17.040099999999999</v>
       </c>
       <c r="D20">
         <f>ROUNDDOWN(($C$3*E20)/B20,0)</f>
@@ -17154,19 +17259,19 @@
       </c>
       <c r="F20" s="8">
         <f>C20/B20-1</f>
-        <v>2.0588235294116686E-3</v>
+        <v>2.3588235294116355E-3</v>
       </c>
       <c r="G20">
         <f>D20*C20</f>
-        <v>4258.75</v>
+        <v>4260.0249999999996</v>
       </c>
       <c r="H20" s="8">
         <f>G20/$G$27</f>
-        <v>0.14050397667081374</v>
+        <v>0.14044481433742978</v>
       </c>
       <c r="I20" s="8">
         <f>G20/$F$31</f>
-        <v>4.0832173453519596E-2</v>
+        <v>4.0645783207167649E-2</v>
       </c>
       <c r="J20">
         <f>B20*D20</f>
@@ -17183,7 +17288,7 @@
       </c>
       <c r="C21">
         <f>_xll.RealtimeData(A21,"Last")</f>
-        <v>288.45999999999998</v>
+        <v>288.61320000000001</v>
       </c>
       <c r="D21">
         <f t="shared" ref="D21:D22" si="6">ROUNDDOWN(($C$3*E21)/B21,0)</f>
@@ -17194,19 +17299,19 @@
       </c>
       <c r="F21" s="8">
         <f t="shared" ref="F21:F23" si="7">C21/B21-1</f>
-        <v>1.9725678733031549E-2</v>
+        <v>2.0267251131221853E-2</v>
       </c>
       <c r="G21">
         <f t="shared" ref="G21:G22" si="8">D21*C21</f>
-        <v>10961.48</v>
+        <v>10967.301600000001</v>
       </c>
       <c r="H21" s="8">
         <f t="shared" ref="H21:H23" si="9">G21/$G$27</f>
-        <v>0.36163933788026797</v>
+        <v>0.36157079758794763</v>
       </c>
       <c r="I21" s="8">
         <f t="shared" ref="I21:I23" si="10">G21/$F$31</f>
-        <v>0.1050968130712735</v>
+        <v>0.10464130215226976</v>
       </c>
       <c r="J21">
         <f t="shared" ref="J21:J23" si="11">B21*D21</f>
@@ -17223,7 +17328,7 @@
       </c>
       <c r="C22">
         <f>_xll.RealtimeData(A22,"Last")</f>
-        <v>82.08</v>
+        <v>82.18</v>
       </c>
       <c r="D22">
         <f t="shared" si="6"/>
@@ -17234,19 +17339,19 @@
       </c>
       <c r="F22" s="8">
         <f t="shared" si="7"/>
-        <v>6.8694798822375169E-3</v>
+        <v>8.096172718351502E-3</v>
       </c>
       <c r="G22">
         <f t="shared" si="8"/>
-        <v>11819.52</v>
+        <v>11833.920000000002</v>
       </c>
       <c r="H22" s="8">
         <f t="shared" si="9"/>
-        <v>0.38994765185564223</v>
+        <v>0.39014153609051527</v>
       </c>
       <c r="I22" s="8">
         <f t="shared" si="10"/>
-        <v>0.11332355521628271</v>
+        <v>0.1129098882778776</v>
       </c>
       <c r="J22">
         <f t="shared" si="11"/>
@@ -17263,7 +17368,7 @@
       </c>
       <c r="C23">
         <f>_xll.RealtimeData(A23,"Last")</f>
-        <v>83.32</v>
+        <v>83.33</v>
       </c>
       <c r="D23">
         <f>ROUNDDOWN(($C$3*E23)/B23,0)</f>
@@ -17274,19 +17379,19 @@
       </c>
       <c r="F23" s="8">
         <f t="shared" si="7"/>
-        <v>3.1302672766673201E-3</v>
+        <v>3.2506621719239348E-3</v>
       </c>
       <c r="G23">
         <f>D23*C23</f>
-        <v>2916.2</v>
+        <v>2916.5499999999997</v>
       </c>
       <c r="H23" s="8">
         <f t="shared" si="9"/>
-        <v>9.6210788791881885E-2</v>
+        <v>9.6153032730049895E-2</v>
       </c>
       <c r="I23" s="8">
         <f t="shared" si="10"/>
-        <v>2.7960031517500171E-2</v>
+        <v>2.7827409231838972E-2</v>
       </c>
       <c r="J23">
         <f t="shared" si="11"/>
@@ -17302,7 +17407,7 @@
       </c>
       <c r="G27">
         <f>SUM(G20:G23)+J28</f>
-        <v>30310.530000000002</v>
+        <v>30332.376600000003</v>
       </c>
       <c r="J27">
         <f>SUM(J20:J23)</f>
@@ -17315,7 +17420,7 @@
       </c>
       <c r="G28" s="8">
         <f>G27/J27-1</f>
-        <v>2.2435506057934207E-2</v>
+        <v>2.3172436079502479E-2</v>
       </c>
       <c r="I28" t="s">
         <v>26</v>
@@ -17331,7 +17436,7 @@
       </c>
       <c r="F31" s="75">
         <f>SUM(F13,G27)</f>
-        <v>104298.88100000001</v>
+        <v>104808.5352</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
@@ -17340,11 +17445,11 @@
       </c>
       <c r="F33" s="8">
         <f>F31/B1-1</f>
-        <v>4.2988809999999988E-2</v>
+        <v>4.808535199999997E-2</v>
       </c>
       <c r="H33" s="11">
         <f>F33-F37</f>
-        <v>9.5306221156201271E-3</v>
+        <v>1.1674622866589247E-2</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
@@ -17357,16 +17462,16 @@
       </c>
       <c r="C37">
         <f>_xll.RealtimeData(A37,"Last")</f>
-        <v>38.392899999999997</v>
+        <v>38.380000000000003</v>
       </c>
       <c r="D37" s="8">
         <f>C37/B37-1</f>
-        <v>3.4736016727652252E-3</v>
+        <v>3.1364349189755281E-3</v>
       </c>
       <c r="E37" s="11"/>
       <c r="F37" s="8">
         <f>D37*$B$3+D40*$B$2</f>
-        <v>3.3458187884379861E-2</v>
+        <v>3.6410729133410723E-2</v>
       </c>
       <c r="H37" s="8"/>
       <c r="I37" s="8"/>
@@ -17381,11 +17486,11 @@
       </c>
       <c r="C38">
         <f>_xll.RealtimeData(A38,"Last")</f>
-        <v>288.45999999999998</v>
+        <v>288.61320000000001</v>
       </c>
       <c r="D38" s="8">
         <f t="shared" ref="D38:D39" si="12">C38/B38-1</f>
-        <v>5.7676089905767558E-2</v>
+        <v>5.8237817621823673E-2</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
@@ -17398,11 +17503,11 @@
       </c>
       <c r="C39">
         <f>_xll.RealtimeData(A39,"Last")</f>
-        <v>180.89</v>
+        <v>181.86949999999999</v>
       </c>
       <c r="D39" s="8">
         <f t="shared" si="12"/>
-        <v>6.3620861998000766E-2</v>
+        <v>6.9380255189039675E-2</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
@@ -17415,11 +17520,11 @@
       </c>
       <c r="C40">
         <f>_xll.RealtimeData(A40,"Last")</f>
-        <v>46.77</v>
+        <v>46.965000000000003</v>
       </c>
       <c r="D40" s="8">
         <f>C40/B40-1</f>
-        <v>4.6308724832214709E-2</v>
+        <v>5.0671140939597237E-2</v>
       </c>
     </row>
   </sheetData>

--- a/Portfolio.xlsx
+++ b/Portfolio.xlsx
@@ -1032,106 +1032,181 @@
 <file path=xl/volatileDependencies.xml><?xml version="1.0" encoding="utf-8"?>
 <volTypes xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <volType type="realTimeData">
-    <main first="rtdsrv.ca09d44513bc4c889b61150bd6ffbb92">
+    <main first="rtdsrv.c691d1dca4c74cb2a7ee10289151e2de">
       <tp>
-        <v>-9.0441176470588223E-3</v>
+        <v>3.5934291581109089E-3</v>
         <stp/>
-        <stp>GYLD</stp>
+        <stp>RWX</stp>
         <stp>change in percent</stp>
-        <tr r="K26" s="1"/>
+        <tr r="L6" s="1"/>
       </tp>
     </main>
-    <main first="rtdsrv.ca09d44513bc4c889b61150bd6ffbb92">
+    <main first="rtdsrv.c691d1dca4c74cb2a7ee10289151e2de">
       <tp>
-        <v>0.32506622000000002</v>
+        <v>-3.0004800768112703E-4</v>
         <stp/>
         <stp>SHY</stp>
-        <stp>mtd percent change</stp>
-        <tr r="U12" s="1"/>
+        <stp>change in percent</stp>
+        <tr r="L12" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.c691d1dca4c74cb2a7ee10289151e2de">
+      <tp>
+        <v>3.0403503284328814E-3</v>
+        <stp/>
+        <stp>IVV</stp>
+        <stp>change in percent</stp>
+        <tr r="K24" s="1"/>
+        <tr r="L3" s="1"/>
       </tp>
       <tp>
-        <v>-0.89873418000000005</v>
+        <v>7.0136251954433767E-3</v>
+        <stp/>
+        <stp>IEV</stp>
+        <stp>change in percent</stp>
+        <tr r="L9" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.c691d1dca4c74cb2a7ee10289151e2de">
+      <tp>
+        <v>-3.7107742728390005E-3</v>
+        <stp/>
+        <stp>TLT</stp>
+        <stp>change in percent</stp>
+        <tr r="L5" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.c691d1dca4c74cb2a7ee10289151e2de">
+      <tp>
+        <v>-1.8272627603850163E-3</v>
+        <stp/>
+        <stp>IYR</stp>
+        <stp>change in percent</stp>
+        <tr r="L4" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.c691d1dca4c74cb2a7ee10289151e2de">
+      <tp>
+        <v>1.5030530765617686E-2</v>
+        <stp/>
+        <stp>EEM</stp>
+        <stp>change in percent</stp>
+        <tr r="L10" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.c691d1dca4c74cb2a7ee10289151e2de">
+      <tp>
+        <v>1.7418568193694655E-3</v>
+        <stp/>
+        <stp>EWJ</stp>
+        <stp>change in percent</stp>
+        <tr r="L7" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.c691d1dca4c74cb2a7ee10289151e2de">
+      <tp>
+        <v>-1.6527318685592262E-3</v>
+        <stp/>
+        <stp>IEF</stp>
+        <stp>change in percent</stp>
+        <tr r="L11" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.c691d1dca4c74cb2a7ee10289151e2de">
+      <tp>
+        <v>-9.1079636056652744E-4</v>
+        <stp/>
+        <stp>AGG</stp>
+        <stp>change in percent</stp>
+        <tr r="K23" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.c691d1dca4c74cb2a7ee10289151e2de">
+      <tp>
+        <v>9.6256684491978616E-3</v>
+        <stp/>
+        <stp>GLD</stp>
+        <stp>change in percent</stp>
+        <tr r="L8" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.c691d1dca4c74cb2a7ee10289151e2de">
+      <tp>
+        <v>1.1709601873536478E-2</v>
+        <stp/>
+        <stp>DBC</stp>
+        <stp>change in percent</stp>
+        <tr r="L2" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.c691d1dca4c74cb2a7ee10289151e2de">
+      <tp>
+        <v>56.16</v>
+        <stp/>
+        <stp>STX</stp>
+        <stp>last</stp>
+        <tr r="C10" s="4"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.c691d1dca4c74cb2a7ee10289151e2de">
+      <tp>
+        <v>39.1</v>
         <stp/>
         <stp>RWX</stp>
-        <stp>mtd percent change</stp>
-        <tr r="U6" s="1"/>
+        <stp>last</stp>
+        <tr r="J6" s="1"/>
       </tp>
+    </main>
+    <main first="rtdsrv.c691d1dca4c74cb2a7ee10289151e2de">
       <tp>
-        <v>2.9039338200000002</v>
+        <v>57.51</v>
         <stp/>
-        <stp>TLT</stp>
-        <stp>mtd percent change</stp>
-        <tr r="U5" s="1"/>
+        <stp>EWJ</stp>
+        <stp>last</stp>
+        <tr r="J7" s="1"/>
       </tp>
+    </main>
+    <main first="rtdsrv.c691d1dca4c74cb2a7ee10289151e2de">
       <tp>
-        <v>-2.0652173899999999</v>
-        <stp/>
-        <stp>IEV</stp>
-        <stp>mtd percent change</stp>
-        <tr r="U9" s="1"/>
-      </tp>
-      <tp>
-        <v>1.5295046400000001</v>
-        <stp/>
-        <stp>IEF</stp>
-        <stp>mtd percent change</stp>
-        <tr r="U11" s="1"/>
-      </tp>
-      <tp>
-        <v>0.80961726999999994</v>
-        <stp/>
-        <stp>IYR</stp>
-        <stp>mtd percent change</stp>
-        <tr r="U4" s="1"/>
-      </tp>
-      <tp>
-        <v>2.02912896</v>
+        <v>288.60480000000001</v>
         <stp/>
         <stp>IVV</stp>
-        <stp>mtd percent change</stp>
-        <tr r="U3" s="1"/>
+        <stp>last</stp>
+        <tr r="J3" s="1"/>
+        <tr r="C21" s="4"/>
+        <tr r="C38" s="4"/>
       </tp>
+    </main>
+    <main first="rtdsrv.c691d1dca4c74cb2a7ee10289151e2de">
       <tp>
-        <v>-2.7440395899999999</v>
+        <v>181.66499999999999</v>
         <stp/>
-        <stp>EEM</stp>
-        <stp>mtd percent change</stp>
-        <tr r="U10" s="1"/>
+        <stp>QQQ</stp>
+        <stp>last</stp>
+        <tr r="C39" s="4"/>
       </tp>
+    </main>
+    <main first="rtdsrv.c691d1dca4c74cb2a7ee10289151e2de">
       <tp>
-        <v>-2.5123069099999999</v>
-        <stp/>
-        <stp>EWJ</stp>
-        <stp>mtd percent change</stp>
-        <tr r="U7" s="1"/>
-      </tp>
-      <tp>
-        <v>0.23529412</v>
+        <v>17.079999999999998</v>
         <stp/>
         <stp>DBC</stp>
-        <stp>mtd percent change</stp>
-        <tr r="U2" s="1"/>
-      </tp>
-      <tp>
-        <v>-2.0409935699999999</v>
-        <stp/>
-        <stp>GLD</stp>
-        <stp>mtd percent change</stp>
-        <tr r="U8" s="1"/>
+        <stp>close</stp>
+        <tr r="G2" s="1"/>
       </tp>
     </main>
-    <main first="rtdsrv.ca09d44513bc4c889b61150bd6ffbb92">
+    <main first="rtdsrv.c691d1dca4c74cb2a7ee10289151e2de">
       <tp>
-        <v>0</v>
+        <v>46.34</v>
         <stp/>
-        <stp>ACWI</stp>
-        <stp>change in percent</stp>
-        <tr r="K22" s="1"/>
+        <stp>CSCO</stp>
+        <stp>last</stp>
+        <tr r="C7" s="4"/>
       </tp>
     </main>
-    <main first="rtdsrv.ca09d44513bc4c889b61150bd6ffbb92">
+    <main first="rtdsrv.c691d1dca4c74cb2a7ee10289151e2de">
       <tp>
-        <v>82.18</v>
+        <v>81.94</v>
         <stp/>
         <stp>IYR</stp>
         <stp>last</stp>
@@ -1139,106 +1214,207 @@
         <tr r="C22" s="4"/>
       </tp>
     </main>
-    <main first="rtdsrv.ca09d44513bc4c889b61150bd6ffbb92">
-      <tp t="s">
-        <v>SPDR INDEX SHS FDS-DJ INTL RL ETF</v>
+    <main first="rtdsrv.c691d1dca4c74cb2a7ee10289151e2de">
+      <tp>
+        <v>366.73500000000001</v>
+        <stp/>
+        <stp>ALGN</stp>
+        <stp>last</stp>
+        <tr r="C5" s="4"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.c691d1dca4c74cb2a7ee10289151e2de">
+      <tp>
+        <v>45.084000000000003</v>
+        <stp/>
+        <stp>IEV</stp>
+        <stp>last</stp>
+        <tr r="J9" s="1"/>
+      </tp>
+      <tp>
+        <v>43.22</v>
+        <stp/>
+        <stp>EEM</stp>
+        <stp>last</stp>
+        <tr r="J10" s="1"/>
+      </tp>
+      <tp>
+        <v>102.69</v>
+        <stp/>
+        <stp>IEF</stp>
+        <stp>last</stp>
+        <tr r="J11" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.c691d1dca4c74cb2a7ee10289151e2de">
+      <tp>
+        <v>122.05</v>
+        <stp/>
+        <stp>TLT</stp>
+        <stp>close</stp>
+        <tr r="G5" s="1"/>
+      </tp>
+      <tp>
+        <v>2.71</v>
+        <stp/>
+        <stp>TLT</stp>
+        <stp>dividend yield</stp>
+        <tr r="M5" s="1"/>
+      </tp>
+      <tp>
+        <v>3.67</v>
         <stp/>
         <stp>RWX</stp>
-        <stp>description</stp>
-        <tr r="B6" s="1"/>
+        <stp>dividend yield</stp>
+        <tr r="M6" s="1"/>
+      </tp>
+      <tp>
+        <v>1.87</v>
+        <stp/>
+        <stp>SHY</stp>
+        <stp>dividend yield</stp>
+        <tr r="M12" s="1"/>
       </tp>
       <tp t="s">
-        <v>ISHARES TR-1 3 YR TREAS BD</v>
+        <v>--</v>
         <stp/>
-        <stp>SHY</stp>
-        <stp>description</stp>
-        <tr r="B12" s="1"/>
+        <stp>DBC</stp>
+        <stp>dividend yield</stp>
+        <tr r="M2" s="1"/>
       </tp>
       <tp>
-        <v>50.094099999999997</v>
+        <v>1.34</v>
         <stp/>
-        <stp>MU</stp>
-        <stp>last</stp>
-        <tr r="C9" s="4"/>
+        <stp>EEM</stp>
+        <stp>dividend yield</stp>
+        <tr r="M10" s="1"/>
+      </tp>
+      <tp>
+        <v>1.6</v>
+        <stp/>
+        <stp>EWJ</stp>
+        <stp>dividend yield</stp>
+        <tr r="M7" s="1"/>
+      </tp>
+      <tp>
+        <v>4.6900000000000004</v>
+        <stp/>
+        <stp>IEV</stp>
+        <stp>dividend yield</stp>
+        <tr r="M9" s="1"/>
+      </tp>
+      <tp>
+        <v>2.2200000000000002</v>
+        <stp/>
+        <stp>IEF</stp>
+        <stp>dividend yield</stp>
+        <tr r="M11" s="1"/>
+      </tp>
+      <tp>
+        <v>1.78</v>
+        <stp/>
+        <stp>IVV</stp>
+        <stp>dividend yield</stp>
+        <tr r="M3" s="1"/>
+      </tp>
+      <tp>
+        <v>0.49</v>
+        <stp/>
+        <stp>IYR</stp>
+        <stp>dividend yield</stp>
+        <tr r="M4" s="1"/>
       </tp>
     </main>
-    <main first="rtdsrv.ca09d44513bc4c889b61150bd6ffbb92">
+    <main first="rtdsrv.c691d1dca4c74cb2a7ee10289151e2de">
       <tp>
-        <v>181.86949999999999</v>
+        <v>1911.6447000000001</v>
         <stp/>
-        <stp>QQQ</stp>
+        <stp>AMZN</stp>
         <stp>last</stp>
-        <tr r="C39" s="4"/>
+        <tr r="C6" s="4"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.c691d1dca4c74cb2a7ee10289151e2de">
+      <tp t="s">
+        <v>ARROW ETF TR-ARROW DJ GLB YLD</v>
+        <stp/>
+        <stp>GYLD</stp>
+        <stp>description</stp>
+        <tr r="L26" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.c691d1dca4c74cb2a7ee10289151e2de">
+      <tp>
+        <v>287.73</v>
+        <stp/>
+        <stp>IVV</stp>
+        <stp>close</stp>
+        <tr r="G3" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.c691d1dca4c74cb2a7ee10289151e2de">
+      <tp>
+        <v>38.277299999999997</v>
+        <stp/>
+        <stp>GAL</stp>
+        <stp>last</stp>
+        <tr r="C37" s="4"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.c691d1dca4c74cb2a7ee10289151e2de">
+      <tp>
+        <v>82.09</v>
+        <stp/>
+        <stp>IYR</stp>
+        <stp>close</stp>
+        <tr r="G4" s="1"/>
       </tp>
       <tp>
-        <v>57.43</v>
+        <v>17.28</v>
         <stp/>
-        <stp>EWJ</stp>
+        <stp>DBC</stp>
         <stp>last</stp>
-        <tr r="J7" s="1"/>
+        <tr r="J2" s="1"/>
+        <tr r="C20" s="4"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.c691d1dca4c74cb2a7ee10289151e2de">
+      <tp>
+        <v>121.5971</v>
+        <stp/>
+        <stp>TLT</stp>
+        <stp>last</stp>
+        <tr r="J5" s="1"/>
       </tp>
       <tp>
-        <v>39.145000000000003</v>
+        <v>113.28</v>
         <stp/>
-        <stp>RWX</stp>
+        <stp>GLD</stp>
         <stp>last</stp>
-        <tr r="J6" s="1"/>
-      </tp>
-      <tp>
-        <v>288.61320000000001</v>
-        <stp/>
-        <stp>IVV</stp>
-        <stp>last</stp>
-        <tr r="J3" s="1"/>
-        <tr r="C21" s="4"/>
-        <tr r="C38" s="4"/>
-      </tp>
-      <tp t="s">
-        <v>ISHARES TR-20 YR TR BD ETF</v>
-        <stp/>
-        <stp>TLT</stp>
-        <stp>description</stp>
-        <tr r="B5" s="1"/>
-      </tp>
-      <tp>
-        <v>55.28</v>
-        <stp/>
-        <stp>STX</stp>
-        <stp>last</stp>
-        <tr r="C10" s="4"/>
+        <tr r="J8" s="1"/>
       </tp>
     </main>
-    <main first="rtdsrv.ca09d44513bc4c889b61150bd6ffbb92">
-      <tp t="s">
-        <v>ISHARES TR-U.S. REAL ES ETF</v>
+    <main first="rtdsrv.c691d1dca4c74cb2a7ee10289151e2de">
+      <tp>
+        <v>539.70000000000005</v>
         <stp/>
-        <stp>IYR</stp>
-        <stp>description</stp>
-        <tr r="B4" s="1"/>
+        <stp>ISRG</stp>
+        <stp>last</stp>
+        <tr r="C8" s="4"/>
       </tp>
-      <tp t="s">
-        <v>ISHARES TR-CORE S&amp;P500 ETF</v>
+    </main>
+    <main first="rtdsrv.c691d1dca4c74cb2a7ee10289151e2de">
+      <tp>
+        <v>46.882800000000003</v>
         <stp/>
-        <stp>IVV</stp>
-        <stp>description</stp>
-        <tr r="B3" s="1"/>
+        <stp>QQQE</stp>
+        <stp>last</stp>
+        <tr r="C40" s="4"/>
       </tp>
-      <tp t="s">
-        <v>ISHARES TR-EUROPE ETF</v>
-        <stp/>
-        <stp>IEV</stp>
-        <stp>description</stp>
-        <tr r="B9" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>ISHARES TR-BARCLAYS 7 10 YR</v>
-        <stp/>
-        <stp>IEF</stp>
-        <stp>description</stp>
-        <tr r="B11" s="1"/>
-      </tp>
+    </main>
+    <main first="rtdsrv.c691d1dca4c74cb2a7ee10289151e2de">
       <tp>
-        <v>83.33</v>
+        <v>83.295000000000002</v>
         <stp/>
         <stp>SHY</stp>
         <stp>last</stp>
@@ -1246,49 +1422,104 @@
         <tr r="C23" s="4"/>
       </tp>
     </main>
-    <main first="rtdsrv.ca09d44513bc4c889b61150bd6ffbb92">
+    <main first="rtdsrv.c691d1dca4c74cb2a7ee10289151e2de">
       <tp>
-        <v>112.79</v>
+        <v>1.1409013120365031E-2</v>
+        <stp/>
+        <stp>GYLD</stp>
+        <stp>change in percent</stp>
+        <tr r="K26" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.c691d1dca4c74cb2a7ee10289151e2de">
+      <tp>
+        <v>1.64705882</v>
+        <stp/>
+        <stp>DBC</stp>
+        <stp>mtd percent change</stp>
+        <tr r="U2" s="1"/>
+      </tp>
+      <tp>
+        <v>-2.8115159699999999</v>
+        <stp/>
+        <stp>EEM</stp>
+        <stp>mtd percent change</stp>
+        <tr r="U10" s="1"/>
+      </tp>
+      <tp>
+        <v>-2.3765065399999998</v>
+        <stp/>
+        <stp>EWJ</stp>
+        <stp>mtd percent change</stp>
+        <tr r="U7" s="1"/>
+      </tp>
+      <tp>
+        <v>-1.6154246999999999</v>
         <stp/>
         <stp>GLD</stp>
-        <stp>last</stp>
-        <tr r="J8" s="1"/>
+        <stp>mtd percent change</stp>
+        <tr r="U8" s="1"/>
+      </tp>
+      <tp>
+        <v>1.3321491999999999</v>
+        <stp/>
+        <stp>IEF</stp>
+        <stp>mtd percent change</stp>
+        <tr r="U11" s="1"/>
+      </tp>
+      <tp>
+        <v>-1.9913043500000001</v>
+        <stp/>
+        <stp>IEV</stp>
+        <stp>mtd percent change</stp>
+        <tr r="U9" s="1"/>
+      </tp>
+      <tp>
+        <v>2.02375566</v>
+        <stp/>
+        <stp>IVV</stp>
+        <stp>mtd percent change</stp>
+        <tr r="U3" s="1"/>
+      </tp>
+      <tp>
+        <v>0.51521099000000004</v>
+        <stp/>
+        <stp>IYR</stp>
+        <stp>mtd percent change</stp>
+        <tr r="U4" s="1"/>
+      </tp>
+      <tp>
+        <v>2.6482356899999999</v>
+        <stp/>
+        <stp>TLT</stp>
+        <stp>mtd percent change</stp>
+        <tr r="U5" s="1"/>
+      </tp>
+      <tp>
+        <v>-1.01265823</v>
+        <stp/>
+        <stp>RWX</stp>
+        <stp>mtd percent change</stp>
+        <tr r="U6" s="1"/>
+      </tp>
+      <tp>
+        <v>0.28292800000000001</v>
+        <stp/>
+        <stp>SHY</stp>
+        <stp>mtd percent change</stp>
+        <tr r="U12" s="1"/>
       </tp>
     </main>
-    <main first="rtdsrv.ca09d44513bc4c889b61150bd6ffbb92">
+    <main first="rtdsrv.c691d1dca4c74cb2a7ee10289151e2de">
       <tp>
-        <v>121.9</v>
+        <v>5.0047991224461122E-3</v>
         <stp/>
-        <stp>TLT</stp>
-        <stp>last</stp>
-        <tr r="J5" s="1"/>
+        <stp>ACWI</stp>
+        <stp>change in percent</stp>
+        <tr r="K22" s="1"/>
       </tp>
     </main>
-    <main first="rtdsrv.ca09d44513bc4c889b61150bd6ffbb92">
-      <tp>
-        <v>17.040099999999999</v>
-        <stp/>
-        <stp>DBC</stp>
-        <stp>last</stp>
-        <tr r="J2" s="1"/>
-        <tr r="C20" s="4"/>
-      </tp>
-      <tp>
-        <v>38.380000000000003</v>
-        <stp/>
-        <stp>GAL</stp>
-        <stp>last</stp>
-        <tr r="C37" s="4"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.ca09d44513bc4c889b61150bd6ffbb92">
-      <tp t="s">
-        <v>ARROW ETF TR-ARROW DJ GLB YLD</v>
-        <stp/>
-        <stp>GYLD</stp>
-        <stp>description</stp>
-        <tr r="L26" s="1"/>
-      </tp>
+    <main first="rtdsrv.c691d1dca4c74cb2a7ee10289151e2de">
       <tp t="s">
         <v>SPDR GOLD TRUST-GOLD SHS</v>
         <stp/>
@@ -1296,34 +1527,8 @@
         <stp>description</stp>
         <tr r="B8" s="1"/>
       </tp>
-      <tp t="s">
-        <v>INVESCO DB COMMDY INDX TRCK-UNIT</v>
-        <stp/>
-        <stp>DBC</stp>
-        <stp>description</stp>
-        <tr r="B2" s="1"/>
-      </tp>
-      <tp>
-        <v>43.24</v>
-        <stp/>
-        <stp>EEM</stp>
-        <stp>last</stp>
-        <tr r="J10" s="1"/>
-      </tp>
-      <tp>
-        <v>102.89</v>
-        <stp/>
-        <stp>IEF</stp>
-        <stp>last</stp>
-        <tr r="J11" s="1"/>
-      </tp>
-      <tp>
-        <v>45.05</v>
-        <stp/>
-        <stp>IEV</stp>
-        <stp>last</stp>
-        <tr r="J9" s="1"/>
-      </tp>
+    </main>
+    <main first="rtdsrv.c691d1dca4c74cb2a7ee10289151e2de">
       <tp t="s">
         <v>ISHARES INC-MSCI JPN ETF NEW</v>
         <stp/>
@@ -1338,259 +1543,80 @@
         <stp>description</stp>
         <tr r="B10" s="1"/>
       </tp>
-      <tp>
-        <v>-9.2421441774489599E-4</v>
+    </main>
+    <main first="rtdsrv.c691d1dca4c74cb2a7ee10289151e2de">
+      <tp t="s">
+        <v>INVESCO DB COMMDY INDX TRCK-UNIT</v>
         <stp/>
-        <stp>EEM</stp>
-        <stp>change in percent</stp>
-        <tr r="L10" s="1"/>
+        <stp>DBC</stp>
+        <stp>description</stp>
+        <tr r="B2" s="1"/>
       </tp>
     </main>
-    <main first="rtdsrv.ca09d44513bc4c889b61150bd6ffbb92">
-      <tp>
-        <v>-3.8161318300086559E-3</v>
+    <main first="rtdsrv.c691d1dca4c74cb2a7ee10289151e2de">
+      <tp t="s">
+        <v>ISHARES TR-CORE S&amp;P500 ETF</v>
         <stp/>
-        <stp>EWJ</stp>
-        <stp>change in percent</stp>
-        <tr r="L7" s="1"/>
+        <stp>IVV</stp>
+        <stp>description</stp>
+        <tr r="B3" s="1"/>
       </tp>
     </main>
-    <main first="rtdsrv.ca09d44513bc4c889b61150bd6ffbb92">
-      <tp>
-        <v>-4.2376622230068861E-3</v>
+    <main first="rtdsrv.c691d1dca4c74cb2a7ee10289151e2de">
+      <tp t="s">
+        <v>ISHARES TR-U.S. REAL ES ETF</v>
         <stp/>
-        <stp>GLD</stp>
-        <stp>change in percent</stp>
-        <tr r="L8" s="1"/>
+        <stp>IYR</stp>
+        <stp>description</stp>
+        <tr r="B4" s="1"/>
       </tp>
-      <tp>
-        <v>1.9442014192666473E-4</v>
+      <tp t="s">
+        <v>ISHARES TR-BARCLAYS 7 10 YR</v>
         <stp/>
         <stp>IEF</stp>
-        <stp>change in percent</stp>
-        <tr r="L11" s="1"/>
+        <stp>description</stp>
+        <tr r="B11" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>ISHARES TR-EUROPE ETF</v>
+        <stp/>
+        <stp>IEV</stp>
+        <stp>description</stp>
+        <tr r="B9" s="1"/>
       </tp>
     </main>
-    <main first="rtdsrv.ca09d44513bc4c889b61150bd6ffbb92">
-      <tp>
-        <v>-8.2497421955638039E-5</v>
+    <main first="rtdsrv.c691d1dca4c74cb2a7ee10289151e2de">
+      <tp t="s">
+        <v>ISHARES TR-20 YR TR BD ETF</v>
         <stp/>
-        <stp>AGG</stp>
-        <stp>change in percent</stp>
-        <tr r="K23" s="1"/>
+        <stp>TLT</stp>
+        <stp>description</stp>
+        <tr r="B5" s="1"/>
       </tp>
     </main>
-    <main first="rtdsrv.ca09d44513bc4c889b61150bd6ffbb92">
+    <main first="rtdsrv.c691d1dca4c74cb2a7ee10289151e2de">
       <tp>
-        <v>-4.0853302162478381E-3</v>
+        <v>50.23</v>
         <stp/>
-        <stp>DBC</stp>
-        <stp>change in percent</stp>
-        <tr r="L2" s="1"/>
+        <stp>MU</stp>
+        <stp>last</stp>
+        <tr r="C9" s="4"/>
+      </tp>
+      <tp t="s">
+        <v>ISHARES TR-1 3 YR TREAS BD</v>
+        <stp/>
+        <stp>SHY</stp>
+        <stp>description</stp>
+        <tr r="B12" s="1"/>
       </tp>
     </main>
-    <main first="rtdsrv.ca09d44513bc4c889b61150bd6ffbb92">
-      <tp>
-        <v>-1.4030612244897882E-3</v>
+    <main first="rtdsrv.c691d1dca4c74cb2a7ee10289151e2de">
+      <tp t="s">
+        <v>SPDR INDEX SHS FDS-DJ INTL RL ETF</v>
         <stp/>
         <stp>RWX</stp>
-        <stp>change in percent</stp>
-        <tr r="L6" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.ca09d44513bc4c889b61150bd6ffbb92">
-      <tp>
-        <v>0</v>
-        <stp/>
-        <stp>SHY</stp>
-        <stp>change in percent</stp>
-        <tr r="L12" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.ca09d44513bc4c889b61150bd6ffbb92">
-      <tp>
-        <v>3.2824552765473741E-4</v>
-        <stp/>
-        <stp>TLT</stp>
-        <stp>change in percent</stp>
-        <tr r="L5" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.ca09d44513bc4c889b61150bd6ffbb92">
-      <tp>
-        <v>1.3642356533203072E-3</v>
-        <stp/>
-        <stp>IVV</stp>
-        <stp>change in percent</stp>
-        <tr r="K24" s="1"/>
-        <tr r="L3" s="1"/>
-      </tp>
-      <tp>
-        <v>-1.330082021724724E-3</v>
-        <stp/>
-        <stp>IEV</stp>
-        <stp>change in percent</stp>
-        <tr r="L9" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.ca09d44513bc4c889b61150bd6ffbb92">
-      <tp>
-        <v>-1.0939589157650323E-3</v>
-        <stp/>
-        <stp>IYR</stp>
-        <stp>change in percent</stp>
-        <tr r="L4" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.ca09d44513bc4c889b61150bd6ffbb92">
-      <tp>
-        <v>288.22000000000003</v>
-        <stp/>
-        <stp>IVV</stp>
-        <stp>close</stp>
-        <tr r="G3" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.ca09d44513bc4c889b61150bd6ffbb92">
-      <tp>
-        <v>2.21</v>
-        <stp/>
-        <stp>IEF</stp>
-        <stp>dividend yield</stp>
-        <tr r="M11" s="1"/>
-      </tp>
-      <tp>
-        <v>4.71</v>
-        <stp/>
-        <stp>IEV</stp>
-        <stp>dividend yield</stp>
-        <tr r="M9" s="1"/>
-      </tp>
-      <tp>
-        <v>0.49</v>
-        <stp/>
-        <stp>IYR</stp>
-        <stp>dividend yield</stp>
-        <tr r="M4" s="1"/>
-      </tp>
-      <tp>
-        <v>1.78</v>
-        <stp/>
-        <stp>IVV</stp>
-        <stp>dividend yield</stp>
-        <tr r="M3" s="1"/>
-      </tp>
-      <tp>
-        <v>1.34</v>
-        <stp/>
-        <stp>EEM</stp>
-        <stp>dividend yield</stp>
-        <tr r="M10" s="1"/>
-      </tp>
-      <tp>
-        <v>1.61</v>
-        <stp/>
-        <stp>EWJ</stp>
-        <stp>dividend yield</stp>
-        <tr r="M7" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>--</v>
-        <stp/>
-        <stp>DBC</stp>
-        <stp>dividend yield</stp>
-        <tr r="M2" s="1"/>
-      </tp>
-      <tp>
-        <v>1.87</v>
-        <stp/>
-        <stp>SHY</stp>
-        <stp>dividend yield</stp>
-        <tr r="M12" s="1"/>
-      </tp>
-      <tp>
-        <v>3.67</v>
-        <stp/>
-        <stp>RWX</stp>
-        <stp>dividend yield</stp>
-        <tr r="M6" s="1"/>
-      </tp>
-      <tp>
-        <v>2.7</v>
-        <stp/>
-        <stp>TLT</stp>
-        <stp>dividend yield</stp>
-        <tr r="M5" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.ca09d44513bc4c889b61150bd6ffbb92">
-      <tp>
-        <v>1916.3571999999999</v>
-        <stp/>
-        <stp>AMZN</stp>
-        <stp>last</stp>
-        <tr r="C6" s="4"/>
-      </tp>
-      <tp>
-        <v>121.86</v>
-        <stp/>
-        <stp>TLT</stp>
-        <stp>close</stp>
-        <tr r="G5" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.ca09d44513bc4c889b61150bd6ffbb92">
-      <tp>
-        <v>82.27</v>
-        <stp/>
-        <stp>IYR</stp>
-        <stp>close</stp>
-        <tr r="G4" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.ca09d44513bc4c889b61150bd6ffbb92">
-      <tp>
-        <v>46.965000000000003</v>
-        <stp/>
-        <stp>QQQE</stp>
-        <stp>last</stp>
-        <tr r="C40" s="4"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.ca09d44513bc4c889b61150bd6ffbb92">
-      <tp>
-        <v>539.20240000000001</v>
-        <stp/>
-        <stp>ISRG</stp>
-        <stp>last</stp>
-        <tr r="C8" s="4"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.ca09d44513bc4c889b61150bd6ffbb92">
-      <tp>
-        <v>17.11</v>
-        <stp/>
-        <stp>DBC</stp>
-        <stp>close</stp>
-        <tr r="G2" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.ca09d44513bc4c889b61150bd6ffbb92">
-      <tp>
-        <v>46.2</v>
-        <stp/>
-        <stp>CSCO</stp>
-        <stp>last</stp>
-        <tr r="C7" s="4"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.ca09d44513bc4c889b61150bd6ffbb92">
-      <tp>
-        <v>365.26</v>
-        <stp/>
-        <stp>ALGN</stp>
-        <stp>last</stp>
-        <tr r="C5" s="4"/>
+        <stp>description</stp>
+        <tr r="B6" s="1"/>
       </tp>
     </main>
   </volType>
@@ -1863,8 +1889,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:V46"/>
   <sheetViews>
-    <sheetView topLeftCell="B6" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="P29" sqref="P29"/>
+    <sheetView topLeftCell="B1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1964,34 +1990,34 @@
       </c>
       <c r="E2" s="5">
         <f>G2/D2-1</f>
-        <v>-4.0210253976297849E-2</v>
+        <v>-4.1893111508776615E-2</v>
       </c>
       <c r="F2" s="5">
         <f>I2/$I$21</f>
-        <v>0.14920915225045506</v>
+        <v>0.14911421765731228</v>
       </c>
       <c r="G2" s="4">
         <f>_xll.RealtimeData(A2,"Close")</f>
-        <v>17.11</v>
+        <v>17.079999999999998</v>
       </c>
       <c r="H2" s="4">
         <v>176</v>
       </c>
       <c r="I2" s="4">
         <f>H2*G2</f>
-        <v>3011.3599999999997</v>
+        <v>3006.08</v>
       </c>
       <c r="J2" s="4">
         <f>_xll.RealtimeData(A2,"Last")</f>
-        <v>17.040099999999999</v>
+        <v>17.28</v>
       </c>
       <c r="K2" s="5">
         <f>J2/D2-1</f>
-        <v>-4.4131312026973291E-2</v>
+        <v>-3.0674061292251587E-2</v>
       </c>
       <c r="L2" s="8">
         <f>_xll.RealtimeData(A2,"Change in Percent")</f>
-        <v>-4.0853302162478381E-3</v>
+        <v>1.1709601873536478E-2</v>
       </c>
       <c r="M2" s="29" t="str">
         <f>_xll.RealtimeData(A2,"Dividend Yield")</f>
@@ -2006,7 +2032,7 @@
       </c>
       <c r="P2" s="60">
         <f t="shared" ref="P2:P12" si="1">O2-F2</f>
-        <v>-7.2091522504550698E-3</v>
+        <v>-7.1142176573122939E-3</v>
       </c>
       <c r="Q2" s="31">
         <f>O2*Daily!$D$68</f>
@@ -2014,11 +2040,11 @@
       </c>
       <c r="R2">
         <f t="shared" ref="R2:R11" si="2">ROUND(Q2/J2,0)</f>
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="S2">
         <f t="shared" ref="S2:S11" si="3">R2-H2</f>
-        <v>-10</v>
+        <v>-13</v>
       </c>
       <c r="T2" t="str">
         <f t="shared" ref="T2:T12" si="4">A2</f>
@@ -2026,7 +2052,7 @@
       </c>
       <c r="U2">
         <f>_xll.RealtimeData(T2,"MTD Percent Change")</f>
-        <v>0.23529412</v>
+        <v>1.64705882</v>
       </c>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.25">
@@ -2045,34 +2071,34 @@
       </c>
       <c r="E3" s="5">
         <f>G3/D3-1</f>
-        <v>8.2071411006553241E-2</v>
+        <v>8.0231791995404755E-2</v>
       </c>
       <c r="F3" s="5">
         <f>I3/$I$21</f>
-        <v>0.41414735999254787</v>
+        <v>0.41390594446908119</v>
       </c>
       <c r="G3" s="4">
         <f>_xll.RealtimeData(A3,"Close")</f>
-        <v>288.22000000000003</v>
+        <v>287.73</v>
       </c>
       <c r="H3" s="4">
         <v>29</v>
       </c>
       <c r="I3" s="4">
         <f>H3*G3</f>
-        <v>8358.380000000001</v>
+        <v>8344.17</v>
       </c>
       <c r="J3" s="4">
         <f>_xll.RealtimeData(A3,"Last")</f>
-        <v>288.61320000000001</v>
+        <v>288.60480000000001</v>
       </c>
       <c r="K3" s="5">
         <f>J3/D3-1</f>
-        <v>8.3547611404886979E-2</v>
+        <v>8.3516075078981622E-2</v>
       </c>
       <c r="L3" s="8">
         <f>_xll.RealtimeData(A3,"Change in Percent")</f>
-        <v>1.3642356533203072E-3</v>
+        <v>3.0403503284328814E-3</v>
       </c>
       <c r="M3" s="29">
         <f>_xll.RealtimeData(A3,"Dividend Yield")</f>
@@ -2087,7 +2113,7 @@
       </c>
       <c r="P3" s="60">
         <f t="shared" si="1"/>
-        <v>-4.8147359992547878E-2</v>
+        <v>-4.7905944469081196E-2</v>
       </c>
       <c r="Q3" s="31">
         <f>O3*Daily!$D$68</f>
@@ -2107,7 +2133,7 @@
       </c>
       <c r="U3">
         <f>_xll.RealtimeData(T3,"MTD Percent Change")</f>
-        <v>2.02912896</v>
+        <v>2.02375566</v>
       </c>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.25">
@@ -2126,34 +2152,34 @@
       </c>
       <c r="E4" s="5">
         <f>G4/D4-1</f>
-        <v>4.896085681499418E-2</v>
+        <v>4.6665816651791259E-2</v>
       </c>
       <c r="F4" s="5">
         <f>I4/$I$21</f>
-        <v>0.22012432774720617</v>
+        <v>0.21988850958204487</v>
       </c>
       <c r="G4" s="4">
         <f>_xll.RealtimeData(A4,"Close")</f>
-        <v>82.27</v>
+        <v>82.09</v>
       </c>
       <c r="H4" s="4">
         <v>54</v>
       </c>
       <c r="I4" s="4">
         <f>H4*G4</f>
-        <v>4442.58</v>
+        <v>4432.8600000000006</v>
       </c>
       <c r="J4" s="4">
         <f>_xll.RealtimeData(A4,"Last")</f>
-        <v>82.18</v>
+        <v>81.94</v>
       </c>
       <c r="K4" s="5">
         <f>J4/D4-1</f>
-        <v>4.7813336733392831E-2</v>
+        <v>4.4753283182455528E-2</v>
       </c>
       <c r="L4" s="8">
         <f t="array" ref="L4">_xll.RealtimeData(A4,"Change in Percent")</f>
-        <v>-1.0939589157650323E-3</v>
+        <v>-1.8272627603850163E-3</v>
       </c>
       <c r="M4" s="29">
         <f>_xll.RealtimeData(A4,"Dividend Yield")</f>
@@ -2168,7 +2194,7 @@
       </c>
       <c r="P4" s="60">
         <f t="shared" si="1"/>
-        <v>0.17287567225279385</v>
+        <v>0.17311149041795515</v>
       </c>
       <c r="Q4" s="31">
         <f>O4*Daily!$D$68</f>
@@ -2188,7 +2214,7 @@
       </c>
       <c r="U4">
         <f>_xll.RealtimeData(T4,"MTD Percent Change")</f>
-        <v>0.80961726999999994</v>
+        <v>0.51521099000000004</v>
       </c>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.25">
@@ -2207,38 +2233,38 @@
       </c>
       <c r="E5" s="5">
         <f>G5/D5-1</f>
-        <v>-3.5471953606805995E-3</v>
+        <v>-1.9935597716319586E-3</v>
       </c>
       <c r="F5" s="5">
         <f>I5/$I$21</f>
-        <v>0.21133041392042667</v>
+        <v>0.21189677562727</v>
       </c>
       <c r="G5" s="4">
         <f>_xll.RealtimeData(A5,"Close")</f>
-        <v>121.86</v>
+        <v>122.05</v>
       </c>
       <c r="H5" s="4">
         <v>35</v>
       </c>
       <c r="I5" s="4">
         <f>H5*G5</f>
-        <v>4265.1000000000004</v>
+        <v>4271.75</v>
       </c>
       <c r="J5" s="31">
         <f>_xll.RealtimeData(A5,"Last")</f>
-        <v>121.9</v>
+        <v>121.5971</v>
       </c>
       <c r="K5" s="5">
         <f>J5/D5-1</f>
-        <v>-3.2201141840387804E-3</v>
+        <v>-5.6969363941590245E-3</v>
       </c>
       <c r="L5" s="8">
         <f t="array" ref="L5">_xll.RealtimeData(A5,"Change in Percent")</f>
-        <v>3.2824552765473741E-4</v>
+        <v>-3.7107742728390005E-3</v>
       </c>
       <c r="M5" s="29">
         <f>_xll.RealtimeData(A5,"Dividend Yield")</f>
-        <v>2.7</v>
+        <v>2.71</v>
       </c>
       <c r="N5" s="4" t="str">
         <f t="shared" si="0"/>
@@ -2249,7 +2275,7 @@
       </c>
       <c r="P5" s="60">
         <f t="shared" si="1"/>
-        <v>-0.21133041392042667</v>
+        <v>-0.21189677562727</v>
       </c>
       <c r="Q5" s="31">
         <f>O5*Daily!$D$68</f>
@@ -2269,7 +2295,7 @@
       </c>
       <c r="U5">
         <f>_xll.RealtimeData(T5,"MTD Percent Change")</f>
-        <v>2.9039338200000002</v>
+        <v>2.6482356899999999</v>
       </c>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.25">
@@ -2289,12 +2315,12 @@
       <c r="I6" s="4"/>
       <c r="J6" s="31">
         <f>_xll.RealtimeData(A6,"Last")</f>
-        <v>39.145000000000003</v>
+        <v>39.1</v>
       </c>
       <c r="K6" s="5"/>
       <c r="L6" s="8">
         <f>_xll.RealtimeData(A6,"Change in Percent")</f>
-        <v>-1.4030612244897882E-3</v>
+        <v>3.5934291581109089E-3</v>
       </c>
       <c r="M6" s="29">
         <f>_xll.RealtimeData(A6,"Dividend Yield")</f>
@@ -2329,7 +2355,7 @@
       </c>
       <c r="U6">
         <f>_xll.RealtimeData(T6,"MTD Percent Change")</f>
-        <v>-0.89873418000000005</v>
+        <v>-1.01265823</v>
       </c>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.25">
@@ -2349,16 +2375,16 @@
       <c r="I7" s="4"/>
       <c r="J7" s="31">
         <f>_xll.RealtimeData(A7,"Last")</f>
-        <v>57.43</v>
+        <v>57.51</v>
       </c>
       <c r="K7" s="5"/>
       <c r="L7" s="8">
         <f>_xll.RealtimeData(A7,"Change in Percent")</f>
-        <v>-3.8161318300086559E-3</v>
+        <v>1.7418568193694655E-3</v>
       </c>
       <c r="M7" s="29">
         <f>_xll.RealtimeData(A7,"Dividend Yield")</f>
-        <v>1.61</v>
+        <v>1.6</v>
       </c>
       <c r="N7" s="4" t="str">
         <f t="shared" si="0"/>
@@ -2389,7 +2415,7 @@
       </c>
       <c r="U7">
         <f>_xll.RealtimeData(T7,"MTD Percent Change")</f>
-        <v>-2.5123069099999999</v>
+        <v>-2.3765065399999998</v>
       </c>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.25">
@@ -2409,12 +2435,12 @@
       <c r="I8" s="4"/>
       <c r="J8" s="31">
         <f>_xll.RealtimeData(A8,"Last")</f>
-        <v>112.79</v>
+        <v>113.28</v>
       </c>
       <c r="K8" s="5"/>
       <c r="L8" s="8">
         <f>_xll.RealtimeData(A8,"Change in Percent")</f>
-        <v>-4.2376622230068861E-3</v>
+        <v>9.6256684491978616E-3</v>
       </c>
       <c r="M8" s="29">
         <v>0</v>
@@ -2448,7 +2474,7 @@
       </c>
       <c r="U8">
         <f>_xll.RealtimeData(T8,"MTD Percent Change")</f>
-        <v>-2.0409935699999999</v>
+        <v>-1.6154246999999999</v>
       </c>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.25">
@@ -2468,16 +2494,16 @@
       <c r="I9" s="4"/>
       <c r="J9" s="31">
         <f>_xll.RealtimeData(A9,"Last")</f>
-        <v>45.05</v>
+        <v>45.084000000000003</v>
       </c>
       <c r="K9" s="5"/>
       <c r="L9" s="8">
         <f>_xll.RealtimeData(A9,"Change in Percent")</f>
-        <v>-1.330082021724724E-3</v>
+        <v>7.0136251954433767E-3</v>
       </c>
       <c r="M9" s="29">
         <f>_xll.RealtimeData(A9,"Dividend Yield")</f>
-        <v>4.71</v>
+        <v>4.6900000000000004</v>
       </c>
       <c r="N9" s="4" t="str">
         <f t="shared" si="0"/>
@@ -2508,7 +2534,7 @@
       </c>
       <c r="U9">
         <f>_xll.RealtimeData(T9,"MTD Percent Change")</f>
-        <v>-2.0652173899999999</v>
+        <v>-1.9913043500000001</v>
       </c>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.25">
@@ -2522,12 +2548,12 @@
       <c r="G10" s="4"/>
       <c r="J10" s="31">
         <f>_xll.RealtimeData(A10,"Last")</f>
-        <v>43.24</v>
+        <v>43.22</v>
       </c>
       <c r="K10" s="5"/>
       <c r="L10" s="8">
         <f t="array" ref="L10">_xll.RealtimeData(A10,"Change in Percent")</f>
-        <v>-9.2421441774489599E-4</v>
+        <v>1.5030530765617686E-2</v>
       </c>
       <c r="M10" s="29">
         <f>_xll.RealtimeData(A10,"Dividend Yield")</f>
@@ -2562,7 +2588,7 @@
       </c>
       <c r="U10">
         <f>_xll.RealtimeData(T10,"MTD Percent Change")</f>
-        <v>-2.7440395899999999</v>
+        <v>-2.8115159699999999</v>
       </c>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.25">
@@ -2576,16 +2602,16 @@
       <c r="G11" s="4"/>
       <c r="J11" s="31">
         <f>_xll.RealtimeData(A11,"Last")</f>
-        <v>102.89</v>
+        <v>102.69</v>
       </c>
       <c r="K11" s="5"/>
       <c r="L11" s="8">
         <f t="array" ref="L11">_xll.RealtimeData(A11,"Change in Percent")</f>
-        <v>1.9442014192666473E-4</v>
+        <v>-1.6527318685592262E-3</v>
       </c>
       <c r="M11" s="29">
         <f>_xll.RealtimeData(A11,"Dividend Yield")</f>
-        <v>2.21</v>
+        <v>2.2200000000000002</v>
       </c>
       <c r="N11" s="4" t="str">
         <f t="shared" si="0"/>
@@ -2616,7 +2642,7 @@
       </c>
       <c r="U11">
         <f>_xll.RealtimeData(T11,"MTD Percent Change")</f>
-        <v>1.5295046400000001</v>
+        <v>1.3321491999999999</v>
       </c>
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.25">
@@ -2629,11 +2655,11 @@
       </c>
       <c r="J12" s="31">
         <f>_xll.RealtimeData(A12,"Last")</f>
-        <v>83.33</v>
+        <v>83.295000000000002</v>
       </c>
       <c r="L12" s="8">
         <f t="array" ref="L12">_xll.RealtimeData(A12,"Change in Percent")</f>
-        <v>0</v>
+        <v>-3.0004800768112703E-4</v>
       </c>
       <c r="M12" s="29">
         <f>_xll.RealtimeData(A12,"Dividend Yield")</f>
@@ -2668,7 +2694,7 @@
       </c>
       <c r="U12">
         <f>_xll.RealtimeData(T12,"MTD Percent Change")</f>
-        <v>0.32506622000000002</v>
+        <v>0.28292800000000001</v>
       </c>
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.25">
@@ -2685,11 +2711,11 @@
     <row r="14" spans="1:22" x14ac:dyDescent="0.25">
       <c r="U14" s="29">
         <f t="array" ref="U14">MMULT(TRANSPOSE(O2:O12),U2:U12)</f>
-        <v>1.1264341072899999</v>
+        <v>1.20506471507</v>
       </c>
       <c r="V14" s="8">
         <f>U14*0.01</f>
-        <v>1.1264341072899999E-2</v>
+        <v>1.20506471507E-2</v>
       </c>
     </row>
     <row r="19" spans="5:16" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
@@ -2699,7 +2725,7 @@
       </c>
       <c r="F20" s="11">
         <f>SUM(F2:F5)</f>
-        <v>0.99481125391063574</v>
+        <v>0.99480544733570841</v>
       </c>
       <c r="H20" s="2" t="s">
         <v>14</v>
@@ -2718,32 +2744,32 @@
       </c>
       <c r="F21" s="11">
         <f>1-F20</f>
-        <v>5.1887460893642601E-3</v>
+        <v>5.1945526642915851E-3</v>
       </c>
       <c r="H21" s="2" t="s">
         <v>16</v>
       </c>
       <c r="I21" s="6">
         <f>SUM(I2:I20)</f>
-        <v>20182.140000000003</v>
+        <v>20159.580000000002</v>
       </c>
       <c r="J21" t="s">
         <v>33</v>
       </c>
       <c r="K21" s="8">
         <f>SUMPRODUCT(K2:K7,F2:F7)</f>
-        <v>3.7860597584177168E-2</v>
+        <v>3.8627431566967435E-2</v>
       </c>
       <c r="M21" t="s">
         <v>34</v>
       </c>
       <c r="N21" s="76">
         <f t="array" ref="N21">MMULT(TRANSPOSE(F2:F5),L2:L5)</f>
-        <v>-2.1601277168822986E-4</v>
+        <v>1.8163920081668366E-3</v>
       </c>
       <c r="P21" s="8">
         <f>SUMPRODUCT(L2:L12,O2:O12)</f>
-        <v>-5.1073249548761824E-4</v>
+        <v>2.0277126686568713E-3</v>
       </c>
     </row>
     <row r="22" spans="5:16" x14ac:dyDescent="0.25">
@@ -2758,7 +2784,7 @@
       </c>
       <c r="K22" s="8">
         <f>_xll.RealtimeData(J22,"Change in Percent")</f>
-        <v>0</v>
+        <v>5.0047991224461122E-3</v>
       </c>
       <c r="L22" s="12">
         <v>0.6</v>
@@ -2770,7 +2796,7 @@
       </c>
       <c r="K23" s="8">
         <f>_xll.RealtimeData(J23,"Change in Percent")</f>
-        <v>-8.2497421955638039E-5</v>
+        <v>-9.1079636056652744E-4</v>
       </c>
       <c r="L23" s="12">
         <v>0.4</v>
@@ -2782,7 +2808,7 @@
       </c>
       <c r="K24" s="8">
         <f>_xll.RealtimeData(J24,"Change in Percent")</f>
-        <v>1.3642356533203072E-3</v>
+        <v>3.0403503284328814E-3</v>
       </c>
     </row>
     <row r="25" spans="5:16" x14ac:dyDescent="0.25">
@@ -2791,7 +2817,7 @@
       </c>
       <c r="K25" s="8">
         <f t="array" ref="K25">SUMPRODUCT(K22:K23,L22:L23)</f>
-        <v>-3.2998968782255214E-5</v>
+        <v>2.6385609292410564E-3</v>
       </c>
     </row>
     <row r="26" spans="5:16" x14ac:dyDescent="0.25">
@@ -2800,14 +2826,14 @@
       </c>
       <c r="I26" s="6">
         <f>SUM(I2:I18)</f>
-        <v>20077.420000000002</v>
+        <v>20054.86</v>
       </c>
       <c r="J26" t="s">
         <v>56</v>
       </c>
       <c r="K26" s="8">
         <f>_xll.RealtimeData(J26,"Change in Percent")</f>
-        <v>-9.0441176470588223E-3</v>
+        <v>1.1409013120365031E-2</v>
       </c>
       <c r="L26" t="str">
         <f>_xll.RealtimeData(J26,"Description")</f>
@@ -2820,7 +2846,7 @@
       </c>
       <c r="K27" s="8">
         <f>AVERAGE(L2:L11)</f>
-        <v>-1.5003539526086112E-3</v>
+        <v>4.4564293687925412E-3</v>
       </c>
     </row>
     <row r="28" spans="5:16" x14ac:dyDescent="0.25">
@@ -2829,20 +2855,20 @@
       </c>
       <c r="K28" s="8">
         <f>SUMPRODUCT(F2:F7,M2:M7)*0.01</f>
-        <v>1.4156353389680184E-2</v>
+        <v>1.4187382128000681E-2</v>
       </c>
       <c r="L28" t="s">
         <v>65</v>
       </c>
       <c r="M28" s="8">
         <f>AVERAGE(M2:M11)*0.01</f>
-        <v>2.0566666666666667E-2</v>
+        <v>2.0555555555555553E-2</v>
       </c>
     </row>
     <row r="29" spans="5:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="30" spans="5:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H30" s="30">
-        <v>43334</v>
+        <v>43335</v>
       </c>
       <c r="I30" s="15" t="s">
         <v>61</v>
@@ -2863,19 +2889,19 @@
       </c>
       <c r="I31" s="21">
         <f>$N$21</f>
-        <v>-2.1601277168822986E-4</v>
+        <v>1.8163920081668366E-3</v>
       </c>
       <c r="J31" s="21">
         <f>LOOKUP(2,1/(Daily!E:E&lt;&gt;""),Daily!E:E)</f>
-        <v>1.6830254156192659E-3</v>
+        <v>-1.1178194592745827E-3</v>
       </c>
       <c r="K31" s="22">
         <f>VLOOKUP($H$30,Daily!$A:$AF,7,0)</f>
-        <v>1.6817006543614399E-2</v>
+        <v>1.5680388707178583E-2</v>
       </c>
       <c r="L31" s="23">
         <f>VLOOKUP($H$30,Daily!$A:$AF,8,0)</f>
-        <v>9.1075000000002682E-3</v>
+        <v>7.9795000000004723E-3</v>
       </c>
     </row>
     <row r="32" spans="5:16" x14ac:dyDescent="0.25">
@@ -2884,19 +2910,19 @@
       </c>
       <c r="I32" s="24">
         <f>$K$25</f>
-        <v>-3.2998968782255214E-5</v>
+        <v>2.6385609292410564E-3</v>
       </c>
       <c r="J32" s="24">
         <f>LOOKUP(2,1/(Daily!M:M&lt;&gt;""),Daily!M:M)</f>
-        <v>1.2397834618240733E-3</v>
+        <v>-3.0907134929871517E-3</v>
       </c>
       <c r="K32" s="14">
         <f>VLOOKUP($H$30,Daily!$A:$AF,25,0)</f>
-        <v>2.0489922628099677E-2</v>
+        <v>1.7335880654775648E-2</v>
       </c>
       <c r="L32" s="25">
         <f>VLOOKUP($H$30,Daily!$A:$AF,31,0)</f>
-        <v>1.463115358276279E-2</v>
+        <v>1.1495219385979416E-2</v>
       </c>
     </row>
     <row r="33" spans="8:18" x14ac:dyDescent="0.25">
@@ -2905,19 +2931,19 @@
       </c>
       <c r="I33" s="24">
         <f>$K$24</f>
-        <v>1.3642356533203072E-3</v>
+        <v>3.0403503284328814E-3</v>
       </c>
       <c r="J33" s="24">
         <f>LOOKUP(2,1/(Daily!L:L&lt;&gt;""),Daily!L:L)</f>
-        <v>-3.4694514797206644E-5</v>
+        <v>-1.700090208868299E-3</v>
       </c>
       <c r="K33" s="14">
         <f>VLOOKUP($H$30,Daily!$A:$AF,24,0)</f>
-        <v>5.555759018494788E-2</v>
+        <v>5.3763047060977787E-2</v>
       </c>
       <c r="L33" s="25">
         <f>VLOOKUP($H$30,Daily!$A:$AF,30,0)</f>
-        <v>8.2370296256254916E-2</v>
+        <v>8.0530169113219863E-2</v>
       </c>
     </row>
     <row r="34" spans="8:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2926,19 +2952,19 @@
       </c>
       <c r="I34" s="26">
         <f>$K$26</f>
-        <v>-9.0441176470588223E-3</v>
+        <v>1.1409013120365031E-2</v>
       </c>
       <c r="J34" s="26">
         <f>LOOKUP(2,1/(Daily!N:N&lt;&gt;""),Daily!N:N)</f>
-        <v>-5.6529112492942346E-4</v>
+        <v>-8.4841628959275717E-3</v>
       </c>
       <c r="K34" s="27">
         <f>VLOOKUP($H$30,Daily!$A:$AF,26,0)</f>
-        <v>1.609195402298913E-2</v>
+        <v>7.4712643678165325E-3</v>
       </c>
       <c r="L34" s="28">
         <f>VLOOKUP($H$30,Daily!$A:$AF,32,0)</f>
-        <v>2.5357740602259371E-2</v>
+        <v>1.6658438504389528E-2</v>
       </c>
     </row>
     <row r="35" spans="8:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -2973,7 +2999,7 @@
       </c>
       <c r="I37" s="46">
         <f>AVERAGE(Daily!E$3:E380)</f>
-        <v>1.2496976598331129E-4</v>
+        <v>1.0962668912827555E-4</v>
       </c>
       <c r="J37" s="44"/>
       <c r="K37" s="22"/>
@@ -2981,23 +3007,23 @@
       <c r="M37" s="50"/>
       <c r="N37" s="38">
         <f>AVERAGE(Daily!J$3:J380)</f>
-        <v>2.409209680155477E-4</v>
+        <v>1.7898119219606696E-4</v>
       </c>
       <c r="O37" s="22">
         <f>AVERAGE(Daily!K$3:K380)</f>
-        <v>1.0856953027807585E-4</v>
+        <v>1.0028493826940464E-4</v>
       </c>
       <c r="P37" s="22">
         <f>AVERAGE(Daily!L$3:L380)</f>
-        <v>1.0062037177487686E-3</v>
+        <v>9.727926816176936E-4</v>
       </c>
       <c r="Q37" s="22">
         <f>AVERAGE(Daily!M$3:M380)</f>
-        <v>1.8798039292055894E-4</v>
+        <v>1.4750269062540201E-4</v>
       </c>
       <c r="R37" s="23">
         <f>AVERAGE(Daily!N$3:N380)</f>
-        <v>3.4480129235997048E-4</v>
+        <v>2.3580173447987736E-4</v>
       </c>
     </row>
     <row r="38" spans="8:18" x14ac:dyDescent="0.25">
@@ -3006,7 +3032,7 @@
       </c>
       <c r="I38" s="47">
         <f>STDEV(Daily!E$3:E380)</f>
-        <v>4.8526553720166137E-3</v>
+        <v>4.8242076103920863E-3</v>
       </c>
       <c r="J38" s="45"/>
       <c r="K38" s="14"/>
@@ -3014,23 +3040,23 @@
       <c r="M38" s="51"/>
       <c r="N38" s="40">
         <f>STDEV(Daily!J$3:J380)</f>
-        <v>6.1735678139129115E-3</v>
+        <v>6.1601369473967982E-3</v>
       </c>
       <c r="O38" s="14">
         <f>STDEV(Daily!K$3:K380)</f>
-        <v>1.717998848078089E-3</v>
+        <v>1.7088550064641034E-3</v>
       </c>
       <c r="P38" s="14">
         <f>STDEV(Daily!L$3:L380)</f>
-        <v>5.7440133662849556E-3</v>
+        <v>5.7159153699843195E-3</v>
       </c>
       <c r="Q38" s="14">
         <f>STDEV(Daily!M$3:M380)</f>
-        <v>3.5986504907762019E-3</v>
+        <v>3.5945960528075997E-3</v>
       </c>
       <c r="R38" s="25">
         <f>STDEV(Daily!N$3:N380)</f>
-        <v>8.0183125678555869E-3</v>
+        <v>8.0282017241375715E-3</v>
       </c>
     </row>
     <row r="39" spans="8:18" x14ac:dyDescent="0.25">
@@ -3105,7 +3131,7 @@
       </c>
       <c r="I41" s="47">
         <f>SUMIF(Daily!E$3:E380,"&lt;0")</f>
-        <v>-0.1398800622210209</v>
+        <v>-0.14099788168029548</v>
       </c>
       <c r="J41" s="45"/>
       <c r="K41" s="14"/>
@@ -3113,23 +3139,23 @@
       <c r="M41" s="51"/>
       <c r="N41" s="40">
         <f>SUMIF(Daily!J$3:J380,"&lt;0")</f>
-        <v>-0.18285528256598776</v>
+        <v>-0.18763148343935016</v>
       </c>
       <c r="O41" s="14">
         <f>SUMIF(Daily!K$3:K380,"&lt;0")</f>
-        <v>-4.8731366913553273E-2</v>
+        <v>-4.9293849335977566E-2</v>
       </c>
       <c r="P41" s="14">
         <f>SUMIF(Daily!L$3:L380,"&lt;0")</f>
-        <v>-0.14363604051086892</v>
+        <v>-0.14533613071973722</v>
       </c>
       <c r="Q41" s="14">
         <f>SUMIF(Daily!M$3:M380,"&lt;0")</f>
-        <v>-0.104991321914623</v>
+        <v>-0.10808203540761015</v>
       </c>
       <c r="R41" s="25">
         <f>SUMIF(Daily!N$3:N380,"&lt;0")</f>
-        <v>-0.23864365627000989</v>
+        <v>-0.24712781916593746</v>
       </c>
     </row>
     <row r="42" spans="8:18" x14ac:dyDescent="0.25">
@@ -3138,7 +3164,7 @@
       </c>
       <c r="I42" s="48">
         <f>COUNT(Daily!E$3:E380)</f>
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="J42" s="45"/>
       <c r="K42" s="14"/>
@@ -3146,23 +3172,23 @@
       <c r="M42" s="51"/>
       <c r="N42" s="41">
         <f>COUNT(Daily!J$3:J380)</f>
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="O42" s="33">
         <f>COUNT(Daily!K$3:K380)</f>
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="P42" s="33">
         <f>COUNT(Daily!L$3:L380)</f>
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="Q42" s="33">
         <f>COUNT(Daily!M$3:M380)</f>
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="R42" s="35">
         <f>COUNT(Daily!N$3:N380)</f>
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="43" spans="8:18" x14ac:dyDescent="0.25">
@@ -3171,7 +3197,7 @@
       </c>
       <c r="I43" s="48">
         <f>I42-I39</f>
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="J43" s="45"/>
       <c r="K43" s="14"/>
@@ -3179,23 +3205,23 @@
       <c r="M43" s="51"/>
       <c r="N43" s="41">
         <f>N42-N39</f>
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="O43" s="33">
         <f>O42-O39</f>
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="P43" s="33">
         <f>P42-P39</f>
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="Q43" s="33">
         <f>Q42-Q39</f>
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="R43" s="35">
         <f>R42-R39</f>
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="44" spans="8:18" x14ac:dyDescent="0.25">
@@ -3204,7 +3230,7 @@
       </c>
       <c r="I44" s="49">
         <f>(I40/I41)*(I39/I43)*-1</f>
-        <v>1.4496392988637918</v>
+        <v>1.3970567741513276</v>
       </c>
       <c r="J44" s="45"/>
       <c r="K44" s="14"/>
@@ -3212,23 +3238,23 @@
       <c r="M44" s="51"/>
       <c r="N44" s="42">
         <f>(N40/N41)*(N39/N43)*-1</f>
-        <v>1.2217623111815235</v>
+        <v>1.1601322846046314</v>
       </c>
       <c r="O44" s="34">
         <f>(O40/O41)*(O39/O43)*-1</f>
-        <v>1.3692983999397348</v>
+        <v>1.3180506155259937</v>
       </c>
       <c r="P44" s="34">
         <f>(P40/P41)*(P39/P43)*-1</f>
-        <v>2.111154469913239</v>
+        <v>2.0268458255567512</v>
       </c>
       <c r="Q44" s="34">
         <f>(Q40/Q41)*(Q39/Q43)*-1</f>
-        <v>1.3972872156938947</v>
+        <v>1.320645790250861</v>
       </c>
       <c r="R44" s="36">
         <f>(R40/R41)*(R39/R43)*-1</f>
-        <v>1.4343261379626031</v>
+        <v>1.3466096237026899</v>
       </c>
     </row>
     <row r="45" spans="8:18" x14ac:dyDescent="0.25">
@@ -3237,7 +3263,7 @@
       </c>
       <c r="I45" s="62">
         <f>I39/I42</f>
-        <v>0.57499999999999996</v>
+        <v>0.5679012345679012</v>
       </c>
       <c r="J45" s="63"/>
       <c r="K45" s="64"/>
@@ -3245,23 +3271,23 @@
       <c r="M45" s="66"/>
       <c r="N45" s="67">
         <f>N39/N42</f>
-        <v>0.52500000000000002</v>
+        <v>0.51851851851851849</v>
       </c>
       <c r="O45" s="64">
         <f>O39/O42</f>
-        <v>0.53749999999999998</v>
+        <v>0.53086419753086422</v>
       </c>
       <c r="P45" s="64">
         <f>P39/P42</f>
-        <v>0.57499999999999996</v>
+        <v>0.5679012345679012</v>
       </c>
       <c r="Q45" s="64">
         <f>Q39/Q42</f>
-        <v>0.55000000000000004</v>
+        <v>0.54320987654320985</v>
       </c>
       <c r="R45" s="68">
         <f>R39/R42</f>
-        <v>0.5625</v>
+        <v>0.55555555555555558</v>
       </c>
     </row>
     <row r="46" spans="8:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3309,13 +3335,13 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:AN82"/>
+  <dimension ref="A1:AN83"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="L57" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B57" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="X94" sqref="X94"/>
+      <selection pane="bottomRight" activeCell="F93" sqref="F93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9331,7 +9357,7 @@
         <v>43291</v>
       </c>
       <c r="B51" s="4">
-        <f t="shared" ref="B51:B82" si="812">D51-C51</f>
+        <f t="shared" ref="B51:B83" si="812">D51-C51</f>
         <v>19902.79</v>
       </c>
       <c r="C51" s="4">
@@ -13676,6 +13702,142 @@
       <c r="AN82" s="8">
         <f t="shared" ref="AN82" si="1543">MIN(0,(T82-MAX(T53:T82))/MAX(T53:T82))</f>
         <v>-6.7415730337076563E-3</v>
+      </c>
+    </row>
+    <row r="83" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A83" s="9">
+        <v>43335</v>
+      </c>
+      <c r="B83" s="4">
+        <f t="shared" si="812"/>
+        <v>20054.87</v>
+      </c>
+      <c r="C83" s="4">
+        <v>104.72</v>
+      </c>
+      <c r="D83" s="4">
+        <f>20175.75-16.16</f>
+        <v>20159.59</v>
+      </c>
+      <c r="E83" s="5">
+        <f t="shared" ref="E83" si="1544">D83/D82-1</f>
+        <v>-1.1178194592745827E-3</v>
+      </c>
+      <c r="F83" s="10">
+        <f t="shared" ref="F83" si="1545">F82*(1+E83)</f>
+        <v>100.79795000000004</v>
+      </c>
+      <c r="G83" s="5">
+        <f t="shared" ref="G83" si="1546">F83/F$45-1</f>
+        <v>1.5680388707178583E-2</v>
+      </c>
+      <c r="H83" s="8">
+        <f t="shared" ref="H83" si="1547">F83/$F$2-1</f>
+        <v>7.9795000000004723E-3</v>
+      </c>
+      <c r="J83" s="11">
+        <f>VLOOKUP($A83,Prices!$A:$J,MATCH(J$1,Prices!$1:$1,0),0)</f>
+        <v>-4.7762008733623906E-3</v>
+      </c>
+      <c r="K83" s="11">
+        <f>VLOOKUP($A83,Prices!$A:$J,MATCH(K$1,Prices!$1:$1,0),0)</f>
+        <v>-5.6248242242429303E-4</v>
+      </c>
+      <c r="L83" s="11">
+        <f>VLOOKUP($A83,Prices!$A:$J,MATCH(L$1,Prices!$1:$1,0),0)</f>
+        <v>-1.700090208868299E-3</v>
+      </c>
+      <c r="M83" s="11">
+        <f t="shared" ref="M83" si="1548">0.6*J83 + 0.4*K83</f>
+        <v>-3.0907134929871517E-3</v>
+      </c>
+      <c r="N83" s="11">
+        <f>VLOOKUP($A83,Prices!$A:$J,MATCH(N$1,Prices!$1:$1,0),0)</f>
+        <v>-8.4841628959275717E-3</v>
+      </c>
+      <c r="P83" s="10">
+        <f t="shared" ref="P83" si="1549">P82*(1+J83)</f>
+        <v>101.30605665562227</v>
+      </c>
+      <c r="Q83" s="10">
+        <f t="shared" ref="Q83" si="1550">Q82*(1+K83)</f>
+        <v>100.80380571590787</v>
+      </c>
+      <c r="R83" s="10">
+        <f t="shared" ref="R83" si="1551">R82*(1+L83)</f>
+        <v>108.05301691132198</v>
+      </c>
+      <c r="S83" s="10">
+        <f t="shared" ref="S83" si="1552">S82*(1+M83)</f>
+        <v>101.14952193859794</v>
+      </c>
+      <c r="T83" s="10">
+        <f t="shared" ref="T83" si="1553">T82*(1+N83)</f>
+        <v>101.66584385043896</v>
+      </c>
+      <c r="V83" s="5">
+        <f t="shared" ref="V83" si="1554">P83/P$45-1</f>
+        <v>2.5449943757030802E-2</v>
+      </c>
+      <c r="W83" s="5">
+        <f t="shared" ref="W83" si="1555">Q83/Q$45-1</f>
+        <v>4.8939210563014868E-3</v>
+      </c>
+      <c r="X83" s="5">
+        <f t="shared" ref="X83" si="1556">R83/R$45-1</f>
+        <v>5.3763047060977787E-2</v>
+      </c>
+      <c r="Y83" s="5">
+        <f t="shared" ref="Y83" si="1557">S83/S$45-1</f>
+        <v>1.7335880654775648E-2</v>
+      </c>
+      <c r="Z83" s="5">
+        <f t="shared" ref="Z83" si="1558">T83/T$45-1</f>
+        <v>7.4712643678165325E-3</v>
+      </c>
+      <c r="AB83" s="8">
+        <f t="shared" ref="AB83" si="1559">P83/$P$2-1</f>
+        <v>1.3060566556222675E-2</v>
+      </c>
+      <c r="AC83" s="8">
+        <f t="shared" ref="AC83" si="1560">Q83/$P$2-1</f>
+        <v>8.038057159078793E-3</v>
+      </c>
+      <c r="AD83" s="8">
+        <f t="shared" ref="AD83" si="1561">R83/$P$2-1</f>
+        <v>8.0530169113219863E-2</v>
+      </c>
+      <c r="AE83" s="8">
+        <f t="shared" ref="AE83" si="1562">S83/$P$2-1</f>
+        <v>1.1495219385979416E-2</v>
+      </c>
+      <c r="AF83" s="8">
+        <f t="shared" ref="AF83" si="1563">T83/$T$2-1</f>
+        <v>1.6658438504389528E-2</v>
+      </c>
+      <c r="AI83" s="8">
+        <f t="shared" ref="AI83" si="1564">MIN(0,(F83-MAX(F54:F83))/MAX(F54:F83))</f>
+        <v>-1.1178194592745853E-3</v>
+      </c>
+      <c r="AJ83" s="8">
+        <f t="shared" ref="AJ83" si="1565">MIN(0,(P83-MAX(P54:P83))/MAX(P54:P83))</f>
+        <v>-1.285868976718945E-2</v>
+      </c>
+      <c r="AK83" s="8">
+        <f t="shared" ref="AK83" si="1566">MIN(0,(Q83-MAX(Q54:Q83))/MAX(Q54:Q83))</f>
+        <v>-5.6248242242444698E-4</v>
+      </c>
+      <c r="AL83" s="8">
+        <f t="shared" ref="AL83" si="1567">MIN(0,(R83-MAX(R54:R83))/MAX(R54:R83))</f>
+        <v>-1.7347257398606533E-3</v>
+      </c>
+      <c r="AM83" s="8">
+        <f t="shared" ref="AM83" si="1568">MIN(0,(S83-MAX(S54:S83))/MAX(S54:S83))</f>
+        <v>-5.6010996142412117E-3</v>
+      </c>
+      <c r="AN83" s="8">
+        <f t="shared" ref="AN83" si="1569">MIN(0,(T83-MAX(T54:T83))/MAX(T54:T83))</f>
+        <v>-1.5168539325842502E-2</v>
       </c>
     </row>
   </sheetData>
@@ -13688,8 +13850,8 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:J87"/>
   <sheetViews>
-    <sheetView topLeftCell="A36" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="N74" sqref="N74"/>
+    <sheetView topLeftCell="A56" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="I92" sqref="I92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16721,37 +16883,40 @@
       </c>
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B84" t="str">
+      <c r="A84" s="13">
+        <v>43335</v>
+      </c>
+      <c r="B84">
         <f t="array" ref="B84">_xll.HistoricalData(B$1,"Adj. Close",$A84,$A84,"Daily","RemoveHeaders = True","ReverseOrder =True","RemoveDates =""True")</f>
-        <v>--</v>
-      </c>
-      <c r="C84" t="str">
+        <v>72.930000000000007</v>
+      </c>
+      <c r="C84">
         <f t="array" ref="C84">_xll.HistoricalData(C$1,"Adj. Close",$A84,$A84,"Daily","RemoveHeaders = True","ReverseOrder =True","RemoveDates =""True")</f>
-        <v>--</v>
-      </c>
-      <c r="D84" t="str">
+        <v>106.61</v>
+      </c>
+      <c r="D84">
         <f t="array" ref="D84">_xll.HistoricalData(D$1,"Adj. Close",$A84,$A84,"Daily","RemoveHeaders = True","ReverseOrder =True","RemoveDates =""True")</f>
-        <v>--</v>
-      </c>
-      <c r="E84" t="str">
+        <v>287.73</v>
+      </c>
+      <c r="E84">
         <f t="array" ref="E84">_xll.HistoricalData(E$1,"Adj. Close",$A84,$A84,"Daily","RemoveHeaders = True","ReverseOrder =True","RemoveDates =""True")</f>
-        <v>--</v>
-      </c>
-      <c r="G84" s="5" t="e">
+        <v>17.53</v>
+      </c>
+      <c r="G84" s="5">
         <f t="shared" si="224"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="H84" s="5" t="e">
+        <v>-4.7762008733623906E-3</v>
+      </c>
+      <c r="H84" s="5">
         <f t="shared" si="225"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I84" s="5" t="e">
+        <v>-5.6248242242429303E-4</v>
+      </c>
+      <c r="I84" s="5">
         <f t="shared" si="226"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="J84" s="5" t="e">
+        <v>-1.700090208868299E-3</v>
+      </c>
+      <c r="J84" s="5">
         <f t="shared" si="227"/>
-        <v>#VALUE!</v>
+        <v>-8.4841628959275717E-3</v>
       </c>
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.25">
@@ -16866,7 +17031,7 @@
   <dimension ref="A1:W40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O44" sqref="O44"/>
+      <selection activeCell="R20" sqref="R20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16904,7 +17069,7 @@
       </c>
       <c r="G2" s="74">
         <f>SUM(G5:G10)</f>
-        <v>0.99287651229637941</v>
+        <v>0.99290311643376095</v>
       </c>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.25">
@@ -16955,7 +17120,7 @@
       </c>
       <c r="C5">
         <f>_xll.RealtimeData(A5,"Last")</f>
-        <v>365.26</v>
+        <v>366.73500000000001</v>
       </c>
       <c r="D5">
         <f>ROUNDDOWN(($C$2/6)/B5,0)</f>
@@ -16963,19 +17128,19 @@
       </c>
       <c r="E5" s="8">
         <f>C5/B5-1</f>
-        <v>0.10034643771652352</v>
+        <v>0.10478987799367379</v>
       </c>
       <c r="F5">
         <f>C5*D5</f>
-        <v>12784.1</v>
+        <v>12835.725</v>
       </c>
       <c r="G5" s="73">
         <f>F5/$F$13</f>
-        <v>0.17165359009265552</v>
+        <v>0.17170310032093372</v>
       </c>
       <c r="H5" s="8">
         <f>F5/$F$31</f>
-        <v>0.12197575298237734</v>
+        <v>0.12211521443819244</v>
       </c>
       <c r="I5">
         <f>B5*D5</f>
@@ -16992,7 +17157,7 @@
       </c>
       <c r="C6">
         <f>_xll.RealtimeData(A6,"Last")</f>
-        <v>1916.3571999999999</v>
+        <v>1911.6447000000001</v>
       </c>
       <c r="D6">
         <f t="shared" ref="D6:D10" si="0">ROUNDDOWN(($C$2/6)/B6,0)</f>
@@ -17000,19 +17165,19 @@
       </c>
       <c r="E6" s="8">
         <f t="shared" ref="E6:E10" si="1">C6/B6-1</f>
-        <v>0.17595341245198259</v>
+        <v>0.17306163400056462</v>
       </c>
       <c r="F6">
         <f t="shared" ref="F6:F9" si="2">C6*D6</f>
-        <v>13414.500399999999</v>
+        <v>13381.5129</v>
       </c>
       <c r="G6" s="73">
         <f t="shared" ref="G6:G10" si="3">F6/$F$13</f>
-        <v>0.18011804921420854</v>
+        <v>0.17900408834830667</v>
       </c>
       <c r="H6" s="8">
         <f t="shared" ref="H6:H10" si="4">F6/$F$31</f>
-        <v>0.12799053411443917</v>
+        <v>0.12730767582594191</v>
       </c>
       <c r="I6">
         <f t="shared" ref="I6:I10" si="5">B6*D6</f>
@@ -17029,7 +17194,7 @@
       </c>
       <c r="C7">
         <f>_xll.RealtimeData(A7,"Last")</f>
-        <v>46.2</v>
+        <v>46.34</v>
       </c>
       <c r="D7">
         <f t="shared" si="0"/>
@@ -17037,19 +17202,19 @@
       </c>
       <c r="E7" s="8">
         <f t="shared" si="1"/>
-        <v>9.0136857008022764E-2</v>
+        <v>9.3440302029259126E-2</v>
       </c>
       <c r="F7">
         <f t="shared" si="2"/>
-        <v>12705</v>
+        <v>12743.500000000002</v>
       </c>
       <c r="G7" s="73">
         <f t="shared" si="3"/>
-        <v>0.17059150523910077</v>
+        <v>0.17046940931967763</v>
       </c>
       <c r="H7" s="8">
         <f t="shared" si="4"/>
-        <v>0.1212210434556288</v>
+        <v>0.1212378136173146</v>
       </c>
       <c r="I7">
         <f t="shared" si="5"/>
@@ -17066,7 +17231,7 @@
       </c>
       <c r="C8">
         <f>_xll.RealtimeData(A8,"Last")</f>
-        <v>539.20240000000001</v>
+        <v>539.70000000000005</v>
       </c>
       <c r="D8">
         <f t="shared" si="0"/>
@@ -17074,19 +17239,19 @@
       </c>
       <c r="E8" s="8">
         <f t="shared" si="1"/>
-        <v>0.17302064524550209</v>
+        <v>0.17410316096329992</v>
       </c>
       <c r="F8">
         <f t="shared" si="2"/>
-        <v>13480.06</v>
+        <v>13492.500000000002</v>
       </c>
       <c r="G8" s="73">
         <f t="shared" si="3"/>
-        <v>0.1809983255500506</v>
+        <v>0.18048875938680506</v>
       </c>
       <c r="H8" s="8">
         <f t="shared" si="4"/>
-        <v>0.12861605187284403</v>
+        <v>0.12836357360470965</v>
       </c>
       <c r="I8">
         <f t="shared" si="5"/>
@@ -17103,7 +17268,7 @@
       </c>
       <c r="C9">
         <f>_xll.RealtimeData(A9,"Last")</f>
-        <v>50.094099999999997</v>
+        <v>50.23</v>
       </c>
       <c r="D9">
         <f t="shared" si="0"/>
@@ -17111,19 +17276,19 @@
       </c>
       <c r="E9" s="8">
         <f t="shared" si="1"/>
-        <v>-0.13015974995658974</v>
+        <v>-0.12779996527174864</v>
       </c>
       <c r="F9">
         <f t="shared" si="2"/>
-        <v>10119.0082</v>
+        <v>10146.459999999999</v>
       </c>
       <c r="G9" s="73">
         <f t="shared" si="3"/>
-        <v>0.13586909408617109</v>
+        <v>0.13572888475581557</v>
       </c>
       <c r="H9" s="8">
         <f t="shared" si="4"/>
-        <v>9.6547558657226612E-2</v>
+        <v>9.6530358720566381E-2</v>
       </c>
       <c r="I9">
         <f t="shared" si="5"/>
@@ -17140,7 +17305,7 @@
       </c>
       <c r="C10">
         <f>_xll.RealtimeData(A10,"Last")</f>
-        <v>55.28</v>
+        <v>56.16</v>
       </c>
       <c r="D10">
         <f t="shared" si="0"/>
@@ -17148,19 +17313,19 @@
       </c>
       <c r="E10" s="8">
         <f t="shared" si="1"/>
-        <v>-1.8988464951197881E-2</v>
+        <v>-3.3717834960071968E-3</v>
       </c>
       <c r="F10">
         <f>C10*D10</f>
-        <v>11442.960000000001</v>
+        <v>11625.119999999999</v>
       </c>
       <c r="G10" s="73">
         <f t="shared" si="3"/>
-        <v>0.15364594811419291</v>
+        <v>0.15550887430222232</v>
       </c>
       <c r="H10" s="8">
         <f t="shared" si="4"/>
-        <v>0.10917965772695963</v>
+        <v>0.11059788377124935</v>
       </c>
       <c r="I10">
         <f t="shared" si="5"/>
@@ -17179,7 +17344,7 @@
       </c>
       <c r="F13" s="75">
         <f>SUM(F5:F10)+I13</f>
-        <v>74476.158599999995</v>
+        <v>74755.347899999993</v>
       </c>
       <c r="H13" t="s">
         <v>26</v>
@@ -17195,7 +17360,7 @@
       </c>
       <c r="F14" s="8">
         <f>F13/C2-1</f>
-        <v>6.3945122857142822E-2</v>
+        <v>6.7933541428571331E-2</v>
       </c>
     </row>
     <row r="15" spans="1:23" x14ac:dyDescent="0.25">
@@ -17206,7 +17371,7 @@
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H17" s="11">
         <f>SUM(H20:H23)</f>
-        <v>0.98831018074594257</v>
+        <v>0.98831937309879736</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
@@ -17248,7 +17413,7 @@
       </c>
       <c r="C20">
         <f>_xll.RealtimeData(A20,"Last")</f>
-        <v>17.040099999999999</v>
+        <v>17.28</v>
       </c>
       <c r="D20">
         <f>ROUNDDOWN(($C$3*E20)/B20,0)</f>
@@ -17259,19 +17424,19 @@
       </c>
       <c r="F20" s="8">
         <f>C20/B20-1</f>
-        <v>2.3588235294116355E-3</v>
+        <v>1.6470588235294237E-2</v>
       </c>
       <c r="G20">
         <f>D20*C20</f>
-        <v>4260.0249999999996</v>
+        <v>4320</v>
       </c>
       <c r="H20" s="8">
         <f>G20/$G$27</f>
-        <v>0.14044481433742978</v>
+        <v>0.14231008013197308</v>
       </c>
       <c r="I20" s="8">
         <f>G20/$F$31</f>
-        <v>4.0645783207167649E-2</v>
+        <v>4.1099176429301137E-2</v>
       </c>
       <c r="J20">
         <f>B20*D20</f>
@@ -17288,7 +17453,7 @@
       </c>
       <c r="C21">
         <f>_xll.RealtimeData(A21,"Last")</f>
-        <v>288.61320000000001</v>
+        <v>288.60480000000001</v>
       </c>
       <c r="D21">
         <f t="shared" ref="D21:D22" si="6">ROUNDDOWN(($C$3*E21)/B21,0)</f>
@@ -17299,19 +17464,19 @@
       </c>
       <c r="F21" s="8">
         <f t="shared" ref="F21:F23" si="7">C21/B21-1</f>
-        <v>2.0267251131221853E-2</v>
+        <v>2.0237556561085945E-2</v>
       </c>
       <c r="G21">
         <f t="shared" ref="G21:G22" si="8">D21*C21</f>
-        <v>10967.301600000001</v>
+        <v>10966.982400000001</v>
       </c>
       <c r="H21" s="8">
         <f t="shared" ref="H21:H23" si="9">G21/$G$27</f>
-        <v>0.36157079758794763</v>
+        <v>0.36127595929396727</v>
       </c>
       <c r="I21" s="8">
         <f t="shared" ref="I21:I23" si="10">G21/$F$31</f>
-        <v>0.10464130215226976</v>
+        <v>0.10433656123950009</v>
       </c>
       <c r="J21">
         <f t="shared" ref="J21:J23" si="11">B21*D21</f>
@@ -17328,7 +17493,7 @@
       </c>
       <c r="C22">
         <f>_xll.RealtimeData(A22,"Last")</f>
-        <v>82.18</v>
+        <v>81.94</v>
       </c>
       <c r="D22">
         <f t="shared" si="6"/>
@@ -17339,19 +17504,19 @@
       </c>
       <c r="F22" s="8">
         <f t="shared" si="7"/>
-        <v>8.096172718351502E-3</v>
+        <v>5.1521099116780267E-3</v>
       </c>
       <c r="G22">
         <f t="shared" si="8"/>
-        <v>11833.920000000002</v>
+        <v>11799.36</v>
       </c>
       <c r="H22" s="8">
         <f t="shared" si="9"/>
-        <v>0.39014153609051527</v>
+        <v>0.38869626553379583</v>
       </c>
       <c r="I22" s="8">
         <f t="shared" si="10"/>
-        <v>0.1129098882778776</v>
+        <v>0.11225555055389784</v>
       </c>
       <c r="J22">
         <f t="shared" si="11"/>
@@ -17368,7 +17533,7 @@
       </c>
       <c r="C23">
         <f>_xll.RealtimeData(A23,"Last")</f>
-        <v>83.33</v>
+        <v>83.295000000000002</v>
       </c>
       <c r="D23">
         <f>ROUNDDOWN(($C$3*E23)/B23,0)</f>
@@ -17379,19 +17544,19 @@
       </c>
       <c r="F23" s="8">
         <f t="shared" si="7"/>
-        <v>3.2506621719239348E-3</v>
+        <v>2.8292800385263384E-3</v>
       </c>
       <c r="G23">
         <f>D23*C23</f>
-        <v>2916.5499999999997</v>
+        <v>2915.3250000000003</v>
       </c>
       <c r="H23" s="8">
         <f t="shared" si="9"/>
-        <v>9.6153032730049895E-2</v>
+        <v>9.603706813906121E-2</v>
       </c>
       <c r="I23" s="8">
         <f t="shared" si="10"/>
-        <v>2.7827409231838972E-2</v>
+        <v>2.7735522343461192E-2</v>
       </c>
       <c r="J23">
         <f t="shared" si="11"/>
@@ -17407,7 +17572,7 @@
       </c>
       <c r="G27">
         <f>SUM(G20:G23)+J28</f>
-        <v>30332.376600000003</v>
+        <v>30356.247400000004</v>
       </c>
       <c r="J27">
         <f>SUM(J20:J23)</f>
@@ -17420,7 +17585,7 @@
       </c>
       <c r="G28" s="8">
         <f>G27/J27-1</f>
-        <v>2.3172436079502479E-2</v>
+        <v>2.3977646462759017E-2</v>
       </c>
       <c r="I28" t="s">
         <v>26</v>
@@ -17436,7 +17601,7 @@
       </c>
       <c r="F31" s="75">
         <f>SUM(F13,G27)</f>
-        <v>104808.5352</v>
+        <v>105111.5953</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
@@ -17445,11 +17610,11 @@
       </c>
       <c r="F33" s="8">
         <f>F31/B1-1</f>
-        <v>4.808535199999997E-2</v>
+        <v>5.1115953000000047E-2</v>
       </c>
       <c r="H33" s="11">
         <f>F33-F37</f>
-        <v>1.1674622866589247E-2</v>
+        <v>1.6797751854183994E-2</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
@@ -17462,16 +17627,16 @@
       </c>
       <c r="C37">
         <f>_xll.RealtimeData(A37,"Last")</f>
-        <v>38.380000000000003</v>
+        <v>38.277299999999997</v>
       </c>
       <c r="D37" s="8">
         <f>C37/B37-1</f>
-        <v>3.1364349189755281E-3</v>
+        <v>4.5216936748548875E-4</v>
       </c>
       <c r="E37" s="11"/>
       <c r="F37" s="8">
         <f>D37*$B$3+D40*$B$2</f>
-        <v>3.6410729133410723E-2</v>
+        <v>3.4318201145816053E-2</v>
       </c>
       <c r="H37" s="8"/>
       <c r="I37" s="8"/>
@@ -17486,11 +17651,11 @@
       </c>
       <c r="C38">
         <f>_xll.RealtimeData(A38,"Last")</f>
-        <v>288.61320000000001</v>
+        <v>288.60480000000001</v>
       </c>
       <c r="D38" s="8">
         <f t="shared" ref="D38:D39" si="12">C38/B38-1</f>
-        <v>5.8237817621823673E-2</v>
+        <v>5.8207017929820637E-2</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
@@ -17503,11 +17668,11 @@
       </c>
       <c r="C39">
         <f>_xll.RealtimeData(A39,"Last")</f>
-        <v>181.86949999999999</v>
+        <v>181.66499999999999</v>
       </c>
       <c r="D39" s="8">
         <f t="shared" si="12"/>
-        <v>6.9380255189039675E-2</v>
+        <v>6.8177809137413892E-2</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
@@ -17520,11 +17685,11 @@
       </c>
       <c r="C40">
         <f>_xll.RealtimeData(A40,"Last")</f>
-        <v>46.965000000000003</v>
+        <v>46.882800000000003</v>
       </c>
       <c r="D40" s="8">
         <f>C40/B40-1</f>
-        <v>5.0671140939597237E-2</v>
+        <v>4.8832214765100579E-2</v>
       </c>
     </row>
   </sheetData>

--- a/Portfolio.xlsx
+++ b/Portfolio.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12135" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12135"/>
   </bookViews>
   <sheets>
     <sheet name="Portfolio" sheetId="1" r:id="rId1"/>
@@ -1032,27 +1032,30 @@
 <file path=xl/volatileDependencies.xml><?xml version="1.0" encoding="utf-8"?>
 <volTypes xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <volType type="realTimeData">
-    <main first="rtdsrv.c691d1dca4c74cb2a7ee10289151e2de">
+    <main first="rtdsrv.0ff990b09f2f4e599a937a9fb15f4b36">
       <tp>
-        <v>3.5934291581109089E-3</v>
+        <v>3.0549898167005346E-3</v>
         <stp/>
         <stp>RWX</stp>
         <stp>change in percent</stp>
         <tr r="L6" s="1"/>
       </tp>
-    </main>
-    <main first="rtdsrv.c691d1dca4c74cb2a7ee10289151e2de">
       <tp>
-        <v>-3.0004800768112703E-4</v>
+        <v>1.2001920307255282E-4</v>
         <stp/>
         <stp>SHY</stp>
         <stp>change in percent</stp>
         <tr r="L12" s="1"/>
       </tp>
-    </main>
-    <main first="rtdsrv.c691d1dca4c74cb2a7ee10289151e2de">
       <tp>
-        <v>3.0403503284328814E-3</v>
+        <v>3.5356200527704076E-3</v>
+        <stp/>
+        <stp>TLT</stp>
+        <stp>change in percent</stp>
+        <tr r="L5" s="1"/>
+      </tp>
+      <tp>
+        <v>1.4711416743645248E-3</v>
         <stp/>
         <stp>IVV</stp>
         <stp>change in percent</stp>
@@ -1060,361 +1063,270 @@
         <tr r="L3" s="1"/>
       </tp>
       <tp>
-        <v>7.0136251954433767E-3</v>
+        <v>-5.7243505063849622E-3</v>
         <stp/>
         <stp>IEV</stp>
         <stp>change in percent</stp>
         <tr r="L9" s="1"/>
       </tp>
     </main>
-    <main first="rtdsrv.c691d1dca4c74cb2a7ee10289151e2de">
+    <main first="rtdsrv.0ff990b09f2f4e599a937a9fb15f4b36">
       <tp>
-        <v>-3.7107742728390005E-3</v>
-        <stp/>
-        <stp>TLT</stp>
-        <stp>change in percent</stp>
-        <tr r="L5" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.c691d1dca4c74cb2a7ee10289151e2de">
-      <tp>
-        <v>-1.8272627603850163E-3</v>
+        <v>3.6201279111861585E-3</v>
         <stp/>
         <stp>IYR</stp>
         <stp>change in percent</stp>
         <tr r="L4" s="1"/>
       </tp>
     </main>
-    <main first="rtdsrv.c691d1dca4c74cb2a7ee10289151e2de">
+    <main first="rtdsrv.0ff990b09f2f4e599a937a9fb15f4b36">
       <tp>
-        <v>1.5030530765617686E-2</v>
+        <v>7.5669383003491497E-3</v>
         <stp/>
         <stp>EEM</stp>
         <stp>change in percent</stp>
         <tr r="L10" s="1"/>
       </tp>
     </main>
-    <main first="rtdsrv.c691d1dca4c74cb2a7ee10289151e2de">
+    <main first="rtdsrv.0ff990b09f2f4e599a937a9fb15f4b36">
       <tp>
-        <v>1.7418568193694655E-3</v>
+        <v>-9.1533180778032037E-3</v>
+        <stp/>
+        <stp>GYLD</stp>
+        <stp>change in percent</stp>
+        <tr r="K26" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.0ff990b09f2f4e599a937a9fb15f4b36">
+      <tp>
+        <v>3.786574870912203E-3</v>
         <stp/>
         <stp>EWJ</stp>
         <stp>change in percent</stp>
         <tr r="L7" s="1"/>
       </tp>
-    </main>
-    <main first="rtdsrv.c691d1dca4c74cb2a7ee10289151e2de">
       <tp>
-        <v>-1.6527318685592262E-3</v>
+        <v>2.2439281942977386E-3</v>
+        <stp/>
+        <stp>GLD</stp>
+        <stp>change in percent</stp>
+        <tr r="L8" s="1"/>
+      </tp>
+      <tp>
+        <v>1.4913734282092992E-3</v>
         <stp/>
         <stp>IEF</stp>
         <stp>change in percent</stp>
         <tr r="L11" s="1"/>
       </tp>
-    </main>
-    <main first="rtdsrv.c691d1dca4c74cb2a7ee10289151e2de">
       <tp>
-        <v>-9.1079636056652744E-4</v>
+        <v>0.32506622000000002</v>
+        <stp/>
+        <stp>SHY</stp>
+        <stp>mtd percent change</stp>
+        <tr r="U12" s="1"/>
+      </tp>
+      <tp>
+        <v>-0.25316455999999998</v>
+        <stp/>
+        <stp>RWX</stp>
+        <stp>mtd percent change</stp>
+        <tr r="U6" s="1"/>
+      </tp>
+      <tp>
+        <v>2.7425291199999999</v>
+        <stp/>
+        <stp>TLT</stp>
+        <stp>mtd percent change</stp>
+        <tr r="U5" s="1"/>
+      </tp>
+      <tp>
+        <v>1.38444839</v>
+        <stp/>
+        <stp>IEF</stp>
+        <stp>mtd percent change</stp>
+        <tr r="U11" s="1"/>
+      </tp>
+      <tp>
+        <v>-1.82608696</v>
+        <stp/>
+        <stp>IEV</stp>
+        <stp>mtd percent change</stp>
+        <tr r="U9" s="1"/>
+      </tp>
+      <tp>
+        <v>2.0240431800000001</v>
+        <stp/>
+        <stp>IYR</stp>
+        <stp>mtd percent change</stp>
+        <tr r="U4" s="1"/>
+      </tp>
+      <tp>
+        <v>3.4820418599999998</v>
+        <stp/>
+        <stp>IVV</stp>
+        <stp>mtd percent change</stp>
+        <tr r="U3" s="1"/>
+      </tp>
+      <tp>
+        <v>-1.0812923400000001</v>
+        <stp/>
+        <stp>GLD</stp>
+        <stp>mtd percent change</stp>
+        <tr r="U8" s="1"/>
+      </tp>
+      <tp>
+        <v>-2.6729644600000002</v>
+        <stp/>
+        <stp>EEM</stp>
+        <stp>mtd percent change</stp>
+        <tr r="U10" s="1"/>
+      </tp>
+      <tp>
+        <v>-1.0015277499999999</v>
+        <stp/>
+        <stp>EWJ</stp>
+        <stp>mtd percent change</stp>
+        <tr r="U7" s="1"/>
+      </tp>
+      <tp>
+        <v>2.6176470599999999</v>
+        <stp/>
+        <stp>DBC</stp>
+        <stp>mtd percent change</stp>
+        <tr r="U2" s="1"/>
+      </tp>
+      <tp>
+        <v>9.8665664348810377E-4</v>
         <stp/>
         <stp>AGG</stp>
         <stp>change in percent</stp>
         <tr r="K23" s="1"/>
       </tp>
     </main>
-    <main first="rtdsrv.c691d1dca4c74cb2a7ee10289151e2de">
+    <main first="rtdsrv.0ff990b09f2f4e599a937a9fb15f4b36">
       <tp>
-        <v>9.6256684491978616E-3</v>
-        <stp/>
-        <stp>GLD</stp>
-        <stp>change in percent</stp>
-        <tr r="L8" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.c691d1dca4c74cb2a7ee10289151e2de">
-      <tp>
-        <v>1.1709601873536478E-2</v>
+        <v>4.8963133640553512E-3</v>
         <stp/>
         <stp>DBC</stp>
         <stp>change in percent</stp>
         <tr r="L2" s="1"/>
       </tp>
     </main>
-    <main first="rtdsrv.c691d1dca4c74cb2a7ee10289151e2de">
+    <main first="rtdsrv.0ff990b09f2f4e599a937a9fb15f4b36">
       <tp>
-        <v>56.16</v>
+        <v>0</v>
         <stp/>
-        <stp>STX</stp>
-        <stp>last</stp>
-        <tr r="C10" s="4"/>
+        <stp>ACWI</stp>
+        <stp>change in percent</stp>
+        <tr r="K22" s="1"/>
       </tp>
     </main>
-    <main first="rtdsrv.c691d1dca4c74cb2a7ee10289151e2de">
+    <main first="rtdsrv.0ff990b09f2f4e599a937a9fb15f4b36">
       <tp>
-        <v>39.1</v>
+        <v>83.17</v>
         <stp/>
-        <stp>RWX</stp>
+        <stp>IYR</stp>
         <stp>last</stp>
-        <tr r="J6" s="1"/>
+        <tr r="J4" s="1"/>
+        <tr r="C22" s="4"/>
       </tp>
-    </main>
-    <main first="rtdsrv.c691d1dca4c74cb2a7ee10289151e2de">
       <tp>
-        <v>57.51</v>
+        <v>17.36</v>
         <stp/>
-        <stp>EWJ</stp>
-        <stp>last</stp>
-        <tr r="J7" s="1"/>
+        <stp>DBC</stp>
+        <stp>close</stp>
+        <tr r="G2" s="1"/>
       </tp>
-    </main>
-    <main first="rtdsrv.c691d1dca4c74cb2a7ee10289151e2de">
       <tp>
-        <v>288.60480000000001</v>
-        <stp/>
-        <stp>IVV</stp>
-        <stp>last</stp>
-        <tr r="J3" s="1"/>
-        <tr r="C21" s="4"/>
-        <tr r="C38" s="4"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.c691d1dca4c74cb2a7ee10289151e2de">
-      <tp>
-        <v>181.66499999999999</v>
+        <v>187.04</v>
         <stp/>
         <stp>QQQ</stp>
         <stp>last</stp>
         <tr r="C39" s="4"/>
       </tp>
-    </main>
-    <main first="rtdsrv.c691d1dca4c74cb2a7ee10289151e2de">
+      <tp t="s">
+        <v>SPDR INDEX SHS FDS-DJ INTL RL ETF</v>
+        <stp/>
+        <stp>RWX</stp>
+        <stp>description</stp>
+        <tr r="B6" s="1"/>
+      </tp>
       <tp>
-        <v>17.079999999999998</v>
-        <stp/>
-        <stp>DBC</stp>
-        <stp>close</stp>
-        <tr r="G2" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.c691d1dca4c74cb2a7ee10289151e2de">
-      <tp>
-        <v>46.34</v>
+        <v>47.405000000000001</v>
         <stp/>
         <stp>CSCO</stp>
         <stp>last</stp>
         <tr r="C7" s="4"/>
       </tp>
     </main>
-    <main first="rtdsrv.c691d1dca4c74cb2a7ee10289151e2de">
+    <main first="rtdsrv.0ff990b09f2f4e599a937a9fb15f4b36">
+      <tp t="s">
+        <v>ISHARES TR-1 3 YR TREAS BD</v>
+        <stp/>
+        <stp>SHY</stp>
+        <stp>description</stp>
+        <tr r="B12" s="1"/>
+      </tp>
       <tp>
-        <v>81.94</v>
+        <v>52.86</v>
         <stp/>
-        <stp>IYR</stp>
+        <stp>MU</stp>
         <stp>last</stp>
-        <tr r="J4" s="1"/>
-        <tr r="C22" s="4"/>
+        <tr r="C9" s="4"/>
       </tp>
     </main>
-    <main first="rtdsrv.c691d1dca4c74cb2a7ee10289151e2de">
+    <main first="rtdsrv.0ff990b09f2f4e599a937a9fb15f4b36">
       <tp>
-        <v>366.73500000000001</v>
+        <v>53.07</v>
+        <stp/>
+        <stp>STX</stp>
+        <stp>last</stp>
+        <tr r="C10" s="4"/>
+      </tp>
+      <tp t="s">
+        <v>ISHARES TR-20 YR TR BD ETF</v>
+        <stp/>
+        <stp>TLT</stp>
+        <stp>description</stp>
+        <tr r="B5" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.0ff990b09f2f4e599a937a9fb15f4b36">
+      <tp>
+        <v>292.72000000000003</v>
+        <stp/>
+        <stp>IVV</stp>
+        <stp>last</stp>
+        <tr r="J3" s="1"/>
+        <tr r="C38" s="4"/>
+        <tr r="C21" s="4"/>
+      </tp>
+      <tp>
+        <v>388.1</v>
         <stp/>
         <stp>ALGN</stp>
         <stp>last</stp>
         <tr r="C5" s="4"/>
       </tp>
     </main>
-    <main first="rtdsrv.c691d1dca4c74cb2a7ee10289151e2de">
+    <main first="rtdsrv.0ff990b09f2f4e599a937a9fb15f4b36">
       <tp>
-        <v>45.084000000000003</v>
+        <v>39.4</v>
         <stp/>
-        <stp>IEV</stp>
+        <stp>RWX</stp>
         <stp>last</stp>
-        <tr r="J9" s="1"/>
+        <tr r="J6" s="1"/>
       </tp>
       <tp>
-        <v>43.22</v>
+        <v>58.32</v>
         <stp/>
-        <stp>EEM</stp>
+        <stp>EWJ</stp>
         <stp>last</stp>
-        <tr r="J10" s="1"/>
+        <tr r="J7" s="1"/>
       </tp>
       <tp>
-        <v>102.69</v>
-        <stp/>
-        <stp>IEF</stp>
-        <stp>last</stp>
-        <tr r="J11" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.c691d1dca4c74cb2a7ee10289151e2de">
-      <tp>
-        <v>122.05</v>
-        <stp/>
-        <stp>TLT</stp>
-        <stp>close</stp>
-        <tr r="G5" s="1"/>
-      </tp>
-      <tp>
-        <v>2.71</v>
-        <stp/>
-        <stp>TLT</stp>
-        <stp>dividend yield</stp>
-        <tr r="M5" s="1"/>
-      </tp>
-      <tp>
-        <v>3.67</v>
-        <stp/>
-        <stp>RWX</stp>
-        <stp>dividend yield</stp>
-        <tr r="M6" s="1"/>
-      </tp>
-      <tp>
-        <v>1.87</v>
-        <stp/>
-        <stp>SHY</stp>
-        <stp>dividend yield</stp>
-        <tr r="M12" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>--</v>
-        <stp/>
-        <stp>DBC</stp>
-        <stp>dividend yield</stp>
-        <tr r="M2" s="1"/>
-      </tp>
-      <tp>
-        <v>1.34</v>
-        <stp/>
-        <stp>EEM</stp>
-        <stp>dividend yield</stp>
-        <tr r="M10" s="1"/>
-      </tp>
-      <tp>
-        <v>1.6</v>
-        <stp/>
-        <stp>EWJ</stp>
-        <stp>dividend yield</stp>
-        <tr r="M7" s="1"/>
-      </tp>
-      <tp>
-        <v>4.6900000000000004</v>
-        <stp/>
-        <stp>IEV</stp>
-        <stp>dividend yield</stp>
-        <tr r="M9" s="1"/>
-      </tp>
-      <tp>
-        <v>2.2200000000000002</v>
-        <stp/>
-        <stp>IEF</stp>
-        <stp>dividend yield</stp>
-        <tr r="M11" s="1"/>
-      </tp>
-      <tp>
-        <v>1.78</v>
-        <stp/>
-        <stp>IVV</stp>
-        <stp>dividend yield</stp>
-        <tr r="M3" s="1"/>
-      </tp>
-      <tp>
-        <v>0.49</v>
-        <stp/>
-        <stp>IYR</stp>
-        <stp>dividend yield</stp>
-        <tr r="M4" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.c691d1dca4c74cb2a7ee10289151e2de">
-      <tp>
-        <v>1911.6447000000001</v>
-        <stp/>
-        <stp>AMZN</stp>
-        <stp>last</stp>
-        <tr r="C6" s="4"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.c691d1dca4c74cb2a7ee10289151e2de">
-      <tp t="s">
-        <v>ARROW ETF TR-ARROW DJ GLB YLD</v>
-        <stp/>
-        <stp>GYLD</stp>
-        <stp>description</stp>
-        <tr r="L26" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.c691d1dca4c74cb2a7ee10289151e2de">
-      <tp>
-        <v>287.73</v>
-        <stp/>
-        <stp>IVV</stp>
-        <stp>close</stp>
-        <tr r="G3" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.c691d1dca4c74cb2a7ee10289151e2de">
-      <tp>
-        <v>38.277299999999997</v>
-        <stp/>
-        <stp>GAL</stp>
-        <stp>last</stp>
-        <tr r="C37" s="4"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.c691d1dca4c74cb2a7ee10289151e2de">
-      <tp>
-        <v>82.09</v>
-        <stp/>
-        <stp>IYR</stp>
-        <stp>close</stp>
-        <tr r="G4" s="1"/>
-      </tp>
-      <tp>
-        <v>17.28</v>
-        <stp/>
-        <stp>DBC</stp>
-        <stp>last</stp>
-        <tr r="J2" s="1"/>
-        <tr r="C20" s="4"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.c691d1dca4c74cb2a7ee10289151e2de">
-      <tp>
-        <v>121.5971</v>
-        <stp/>
-        <stp>TLT</stp>
-        <stp>last</stp>
-        <tr r="J5" s="1"/>
-      </tp>
-      <tp>
-        <v>113.28</v>
-        <stp/>
-        <stp>GLD</stp>
-        <stp>last</stp>
-        <tr r="J8" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.c691d1dca4c74cb2a7ee10289151e2de">
-      <tp>
-        <v>539.70000000000005</v>
-        <stp/>
-        <stp>ISRG</stp>
-        <stp>last</stp>
-        <tr r="C8" s="4"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.c691d1dca4c74cb2a7ee10289151e2de">
-      <tp>
-        <v>46.882800000000003</v>
-        <stp/>
-        <stp>QQQE</stp>
-        <stp>last</stp>
-        <tr r="C40" s="4"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.c691d1dca4c74cb2a7ee10289151e2de">
-      <tp>
-        <v>83.295000000000002</v>
+        <v>83.33</v>
         <stp/>
         <stp>SHY</stp>
         <stp>last</stp>
@@ -1422,153 +1334,22 @@
         <tr r="C23" s="4"/>
       </tp>
     </main>
-    <main first="rtdsrv.c691d1dca4c74cb2a7ee10289151e2de">
-      <tp>
-        <v>1.1409013120365031E-2</v>
+    <main first="rtdsrv.0ff990b09f2f4e599a937a9fb15f4b36">
+      <tp t="s">
+        <v>ISHARES TR-U.S. REAL ES ETF</v>
         <stp/>
-        <stp>GYLD</stp>
-        <stp>change in percent</stp>
-        <tr r="K26" s="1"/>
+        <stp>IYR</stp>
+        <stp>description</stp>
+        <tr r="B4" s="1"/>
       </tp>
     </main>
-    <main first="rtdsrv.c691d1dca4c74cb2a7ee10289151e2de">
-      <tp>
-        <v>1.64705882</v>
-        <stp/>
-        <stp>DBC</stp>
-        <stp>mtd percent change</stp>
-        <tr r="U2" s="1"/>
-      </tp>
-      <tp>
-        <v>-2.8115159699999999</v>
-        <stp/>
-        <stp>EEM</stp>
-        <stp>mtd percent change</stp>
-        <tr r="U10" s="1"/>
-      </tp>
-      <tp>
-        <v>-2.3765065399999998</v>
-        <stp/>
-        <stp>EWJ</stp>
-        <stp>mtd percent change</stp>
-        <tr r="U7" s="1"/>
-      </tp>
-      <tp>
-        <v>-1.6154246999999999</v>
-        <stp/>
-        <stp>GLD</stp>
-        <stp>mtd percent change</stp>
-        <tr r="U8" s="1"/>
-      </tp>
-      <tp>
-        <v>1.3321491999999999</v>
-        <stp/>
-        <stp>IEF</stp>
-        <stp>mtd percent change</stp>
-        <tr r="U11" s="1"/>
-      </tp>
-      <tp>
-        <v>-1.9913043500000001</v>
-        <stp/>
-        <stp>IEV</stp>
-        <stp>mtd percent change</stp>
-        <tr r="U9" s="1"/>
-      </tp>
-      <tp>
-        <v>2.02375566</v>
-        <stp/>
-        <stp>IVV</stp>
-        <stp>mtd percent change</stp>
-        <tr r="U3" s="1"/>
-      </tp>
-      <tp>
-        <v>0.51521099000000004</v>
-        <stp/>
-        <stp>IYR</stp>
-        <stp>mtd percent change</stp>
-        <tr r="U4" s="1"/>
-      </tp>
-      <tp>
-        <v>2.6482356899999999</v>
-        <stp/>
-        <stp>TLT</stp>
-        <stp>mtd percent change</stp>
-        <tr r="U5" s="1"/>
-      </tp>
-      <tp>
-        <v>-1.01265823</v>
-        <stp/>
-        <stp>RWX</stp>
-        <stp>mtd percent change</stp>
-        <tr r="U6" s="1"/>
-      </tp>
-      <tp>
-        <v>0.28292800000000001</v>
-        <stp/>
-        <stp>SHY</stp>
-        <stp>mtd percent change</stp>
-        <tr r="U12" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.c691d1dca4c74cb2a7ee10289151e2de">
-      <tp>
-        <v>5.0047991224461122E-3</v>
-        <stp/>
-        <stp>ACWI</stp>
-        <stp>change in percent</stp>
-        <tr r="K22" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.c691d1dca4c74cb2a7ee10289151e2de">
-      <tp t="s">
-        <v>SPDR GOLD TRUST-GOLD SHS</v>
-        <stp/>
-        <stp>GLD</stp>
-        <stp>description</stp>
-        <tr r="B8" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.c691d1dca4c74cb2a7ee10289151e2de">
-      <tp t="s">
-        <v>ISHARES INC-MSCI JPN ETF NEW</v>
-        <stp/>
-        <stp>EWJ</stp>
-        <stp>description</stp>
-        <tr r="B7" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>ISHARES TR-MSCI EMG MKT ETF</v>
-        <stp/>
-        <stp>EEM</stp>
-        <stp>description</stp>
-        <tr r="B10" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.c691d1dca4c74cb2a7ee10289151e2de">
-      <tp t="s">
-        <v>INVESCO DB COMMDY INDX TRCK-UNIT</v>
-        <stp/>
-        <stp>DBC</stp>
-        <stp>description</stp>
-        <tr r="B2" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.c691d1dca4c74cb2a7ee10289151e2de">
+    <main first="rtdsrv.0ff990b09f2f4e599a937a9fb15f4b36">
       <tp t="s">
         <v>ISHARES TR-CORE S&amp;P500 ETF</v>
         <stp/>
         <stp>IVV</stp>
         <stp>description</stp>
         <tr r="B3" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.c691d1dca4c74cb2a7ee10289151e2de">
-      <tp t="s">
-        <v>ISHARES TR-U.S. REAL ES ETF</v>
-        <stp/>
-        <stp>IYR</stp>
-        <stp>description</stp>
-        <tr r="B4" s="1"/>
       </tp>
       <tp t="s">
         <v>ISHARES TR-BARCLAYS 7 10 YR</v>
@@ -1584,39 +1365,214 @@
         <stp>description</stp>
         <tr r="B9" s="1"/>
       </tp>
+      <tp>
+        <v>292.29000000000002</v>
+        <stp/>
+        <stp>IVV</stp>
+        <stp>close</stp>
+        <tr r="G3" s="1"/>
+      </tp>
     </main>
-    <main first="rtdsrv.c691d1dca4c74cb2a7ee10289151e2de">
-      <tp t="s">
-        <v>ISHARES TR-20 YR TR BD ETF</v>
+    <main first="rtdsrv.0ff990b09f2f4e599a937a9fb15f4b36">
+      <tp>
+        <v>2021.1533999999999</v>
+        <stp/>
+        <stp>AMZN</stp>
+        <stp>last</stp>
+        <tr r="C6" s="4"/>
+      </tp>
+      <tp>
+        <v>121.28</v>
         <stp/>
         <stp>TLT</stp>
-        <stp>description</stp>
-        <tr r="B5" s="1"/>
+        <stp>close</stp>
+        <tr r="G5" s="1"/>
+      </tp>
+      <tp>
+        <v>121.7088</v>
+        <stp/>
+        <stp>TLT</stp>
+        <stp>last</stp>
+        <tr r="J5" s="1"/>
+      </tp>
+      <tp>
+        <v>113.895</v>
+        <stp/>
+        <stp>GLD</stp>
+        <stp>last</stp>
+        <tr r="J8" s="1"/>
       </tp>
     </main>
-    <main first="rtdsrv.c691d1dca4c74cb2a7ee10289151e2de">
+    <main first="rtdsrv.0ff990b09f2f4e599a937a9fb15f4b36">
       <tp>
-        <v>50.23</v>
+        <v>82.87</v>
         <stp/>
-        <stp>MU</stp>
+        <stp>IYR</stp>
+        <stp>close</stp>
+        <tr r="G4" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.0ff990b09f2f4e599a937a9fb15f4b36">
+      <tp>
+        <v>47.545000000000002</v>
+        <stp/>
+        <stp>QQQE</stp>
         <stp>last</stp>
-        <tr r="C9" s="4"/>
+        <tr r="C40" s="4"/>
+      </tp>
+      <tp>
+        <v>38.6601</v>
+        <stp/>
+        <stp>GAL</stp>
+        <stp>last</stp>
+        <tr r="C37" s="4"/>
+      </tp>
+      <tp>
+        <v>17.445</v>
+        <stp/>
+        <stp>DBC</stp>
+        <stp>last</stp>
+        <tr r="J2" s="1"/>
+        <tr r="C20" s="4"/>
+      </tp>
+      <tp>
+        <v>557.178</v>
+        <stp/>
+        <stp>ISRG</stp>
+        <stp>last</stp>
+        <tr r="C8" s="4"/>
       </tp>
       <tp t="s">
-        <v>ISHARES TR-1 3 YR TREAS BD</v>
+        <v>INVESCO DB COMMDY INDX TRCK-UNIT</v>
+        <stp/>
+        <stp>DBC</stp>
+        <stp>description</stp>
+        <tr r="B2" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.0ff990b09f2f4e599a937a9fb15f4b36">
+      <tp t="s">
+        <v>ISHARES INC-MSCI JPN ETF NEW</v>
+        <stp/>
+        <stp>EWJ</stp>
+        <stp>description</stp>
+        <tr r="B7" s="1"/>
+      </tp>
+      <tp>
+        <v>45.16</v>
+        <stp/>
+        <stp>IEV</stp>
+        <stp>last</stp>
+        <tr r="J9" s="1"/>
+      </tp>
+      <tp>
+        <v>43.274999999999999</v>
+        <stp/>
+        <stp>EEM</stp>
+        <stp>last</stp>
+        <tr r="J10" s="1"/>
+      </tp>
+      <tp>
+        <v>102.74299999999999</v>
+        <stp/>
+        <stp>IEF</stp>
+        <stp>last</stp>
+        <tr r="J11" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>ISHARES TR-MSCI EMG MKT ETF</v>
+        <stp/>
+        <stp>EEM</stp>
+        <stp>description</stp>
+        <tr r="B10" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.0ff990b09f2f4e599a937a9fb15f4b36">
+      <tp t="s">
+        <v>ARROW ETF TR-ARROW DJ GLB YLD</v>
+        <stp/>
+        <stp>GYLD</stp>
+        <stp>description</stp>
+        <tr r="L26" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>SPDR GOLD TRUST-GOLD SHS</v>
+        <stp/>
+        <stp>GLD</stp>
+        <stp>description</stp>
+        <tr r="B8" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.0ff990b09f2f4e599a937a9fb15f4b36">
+      <tp>
+        <v>4.66</v>
+        <stp/>
+        <stp>IEV</stp>
+        <stp>dividend yield</stp>
+        <tr r="M9" s="1"/>
+      </tp>
+      <tp>
+        <v>2.2200000000000002</v>
+        <stp/>
+        <stp>IEF</stp>
+        <stp>dividend yield</stp>
+        <tr r="M11" s="1"/>
+      </tp>
+      <tp>
+        <v>0.48</v>
+        <stp/>
+        <stp>IYR</stp>
+        <stp>dividend yield</stp>
+        <tr r="M4" s="1"/>
+      </tp>
+      <tp>
+        <v>1.75</v>
+        <stp/>
+        <stp>IVV</stp>
+        <stp>dividend yield</stp>
+        <tr r="M3" s="1"/>
+      </tp>
+      <tp>
+        <v>1.34</v>
+        <stp/>
+        <stp>EEM</stp>
+        <stp>dividend yield</stp>
+        <tr r="M10" s="1"/>
+      </tp>
+      <tp>
+        <v>1.58</v>
+        <stp/>
+        <stp>EWJ</stp>
+        <stp>dividend yield</stp>
+        <tr r="M7" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>--</v>
+        <stp/>
+        <stp>DBC</stp>
+        <stp>dividend yield</stp>
+        <tr r="M2" s="1"/>
+      </tp>
+      <tp>
+        <v>1.87</v>
         <stp/>
         <stp>SHY</stp>
-        <stp>description</stp>
-        <tr r="B12" s="1"/>
+        <stp>dividend yield</stp>
+        <tr r="M12" s="1"/>
       </tp>
-    </main>
-    <main first="rtdsrv.c691d1dca4c74cb2a7ee10289151e2de">
-      <tp t="s">
-        <v>SPDR INDEX SHS FDS-DJ INTL RL ETF</v>
+      <tp>
+        <v>3.66</v>
         <stp/>
         <stp>RWX</stp>
-        <stp>description</stp>
-        <tr r="B6" s="1"/>
+        <stp>dividend yield</stp>
+        <tr r="M6" s="1"/>
+      </tp>
+      <tp>
+        <v>2.71</v>
+        <stp/>
+        <stp>TLT</stp>
+        <stp>dividend yield</stp>
+        <tr r="M5" s="1"/>
       </tp>
     </main>
   </volType>
@@ -1889,8 +1845,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:V46"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D33" sqref="D33"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="O27" sqref="O27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1990,34 +1946,34 @@
       </c>
       <c r="E2" s="5">
         <f>G2/D2-1</f>
-        <v>-4.1893111508776615E-2</v>
+        <v>-2.6186441205641731E-2</v>
       </c>
       <c r="F2" s="5">
         <f>I2/$I$21</f>
-        <v>0.14911421765731228</v>
+        <v>0.1500942952711867</v>
       </c>
       <c r="G2" s="4">
         <f>_xll.RealtimeData(A2,"Close")</f>
-        <v>17.079999999999998</v>
+        <v>17.36</v>
       </c>
       <c r="H2" s="4">
         <v>176</v>
       </c>
       <c r="I2" s="4">
         <f>H2*G2</f>
-        <v>3006.08</v>
+        <v>3055.3599999999997</v>
       </c>
       <c r="J2" s="4">
         <f>_xll.RealtimeData(A2,"Last")</f>
-        <v>17.28</v>
+        <v>17.445</v>
       </c>
       <c r="K2" s="5">
         <f>J2/D2-1</f>
-        <v>-3.0674061292251587E-2</v>
+        <v>-2.1418344863618599E-2</v>
       </c>
       <c r="L2" s="8">
         <f>_xll.RealtimeData(A2,"Change in Percent")</f>
-        <v>1.1709601873536478E-2</v>
+        <v>4.8963133640553512E-3</v>
       </c>
       <c r="M2" s="29" t="str">
         <f>_xll.RealtimeData(A2,"Dividend Yield")</f>
@@ -2032,7 +1988,7 @@
       </c>
       <c r="P2" s="60">
         <f t="shared" ref="P2:P12" si="1">O2-F2</f>
-        <v>-7.1142176573122939E-3</v>
+        <v>-8.0942952711867133E-3</v>
       </c>
       <c r="Q2" s="31">
         <f>O2*Daily!$D$68</f>
@@ -2040,11 +1996,11 @@
       </c>
       <c r="R2">
         <f t="shared" ref="R2:R11" si="2">ROUND(Q2/J2,0)</f>
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="S2">
         <f t="shared" ref="S2:S11" si="3">R2-H2</f>
-        <v>-13</v>
+        <v>-14</v>
       </c>
       <c r="T2" t="str">
         <f t="shared" ref="T2:T12" si="4">A2</f>
@@ -2052,7 +2008,7 @@
       </c>
       <c r="U2">
         <f>_xll.RealtimeData(T2,"MTD Percent Change")</f>
-        <v>1.64705882</v>
+        <v>2.6176470599999999</v>
       </c>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.25">
@@ -2071,38 +2027,38 @@
       </c>
       <c r="E3" s="5">
         <f>G3/D3-1</f>
-        <v>8.0231791995404755E-2</v>
+        <v>9.7351511772623134E-2</v>
       </c>
       <c r="F3" s="5">
         <f>I3/$I$21</f>
-        <v>0.41390594446908119</v>
+        <v>0.41640290681937309</v>
       </c>
       <c r="G3" s="4">
         <f>_xll.RealtimeData(A3,"Close")</f>
-        <v>287.73</v>
+        <v>292.29000000000002</v>
       </c>
       <c r="H3" s="4">
         <v>29</v>
       </c>
       <c r="I3" s="4">
         <f>H3*G3</f>
-        <v>8344.17</v>
+        <v>8476.41</v>
       </c>
       <c r="J3" s="4">
         <f>_xll.RealtimeData(A3,"Last")</f>
-        <v>288.60480000000001</v>
+        <v>292.72000000000003</v>
       </c>
       <c r="K3" s="5">
         <f>J3/D3-1</f>
-        <v>8.3516075078981622E-2</v>
+        <v>9.8965871313018594E-2</v>
       </c>
       <c r="L3" s="8">
         <f>_xll.RealtimeData(A3,"Change in Percent")</f>
-        <v>3.0403503284328814E-3</v>
+        <v>1.4711416743645248E-3</v>
       </c>
       <c r="M3" s="29">
         <f>_xll.RealtimeData(A3,"Dividend Yield")</f>
-        <v>1.78</v>
+        <v>1.75</v>
       </c>
       <c r="N3" s="4" t="str">
         <f t="shared" si="0"/>
@@ -2113,7 +2069,7 @@
       </c>
       <c r="P3" s="60">
         <f t="shared" si="1"/>
-        <v>-4.7905944469081196E-2</v>
+        <v>-5.0402906819373094E-2</v>
       </c>
       <c r="Q3" s="31">
         <f>O3*Daily!$D$68</f>
@@ -2133,7 +2089,7 @@
       </c>
       <c r="U3">
         <f>_xll.RealtimeData(T3,"MTD Percent Change")</f>
-        <v>2.02375566</v>
+        <v>3.4820418599999998</v>
       </c>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.25">
@@ -2152,38 +2108,38 @@
       </c>
       <c r="E4" s="5">
         <f>G4/D4-1</f>
-        <v>4.6665816651791259E-2</v>
+        <v>5.6610990692337104E-2</v>
       </c>
       <c r="F4" s="5">
         <f>I4/$I$21</f>
-        <v>0.21988850958204487</v>
+        <v>0.21983300476953785</v>
       </c>
       <c r="G4" s="4">
         <f>_xll.RealtimeData(A4,"Close")</f>
-        <v>82.09</v>
+        <v>82.87</v>
       </c>
       <c r="H4" s="4">
         <v>54</v>
       </c>
       <c r="I4" s="4">
         <f>H4*G4</f>
-        <v>4432.8600000000006</v>
+        <v>4474.9800000000005</v>
       </c>
       <c r="J4" s="4">
         <f>_xll.RealtimeData(A4,"Last")</f>
-        <v>81.94</v>
+        <v>83.17</v>
       </c>
       <c r="K4" s="5">
         <f>J4/D4-1</f>
-        <v>4.4753283182455528E-2</v>
+        <v>6.0436057631008566E-2</v>
       </c>
       <c r="L4" s="8">
         <f t="array" ref="L4">_xll.RealtimeData(A4,"Change in Percent")</f>
-        <v>-1.8272627603850163E-3</v>
+        <v>3.6201279111861585E-3</v>
       </c>
       <c r="M4" s="29">
         <f>_xll.RealtimeData(A4,"Dividend Yield")</f>
-        <v>0.49</v>
+        <v>0.48</v>
       </c>
       <c r="N4" s="4" t="str">
         <f t="shared" si="0"/>
@@ -2194,7 +2150,7 @@
       </c>
       <c r="P4" s="60">
         <f t="shared" si="1"/>
-        <v>0.17311149041795515</v>
+        <v>0.17316699523046217</v>
       </c>
       <c r="Q4" s="31">
         <f>O4*Daily!$D$68</f>
@@ -2202,11 +2158,11 @@
       </c>
       <c r="R4">
         <f t="shared" si="2"/>
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="S4">
         <f t="shared" si="3"/>
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="T4" t="str">
         <f t="shared" si="4"/>
@@ -2214,7 +2170,7 @@
       </c>
       <c r="U4">
         <f>_xll.RealtimeData(T4,"MTD Percent Change")</f>
-        <v>0.51521099000000004</v>
+        <v>2.0240431800000001</v>
       </c>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.25">
@@ -2233,34 +2189,34 @@
       </c>
       <c r="E5" s="5">
         <f>G5/D5-1</f>
-        <v>-1.9935597716319586E-3</v>
+        <v>-8.2898724219870878E-3</v>
       </c>
       <c r="F5" s="5">
         <f>I5/$I$21</f>
-        <v>0.21189677562727</v>
+        <v>0.20852543221326894</v>
       </c>
       <c r="G5" s="4">
         <f>_xll.RealtimeData(A5,"Close")</f>
-        <v>122.05</v>
+        <v>121.28</v>
       </c>
       <c r="H5" s="4">
         <v>35</v>
       </c>
       <c r="I5" s="4">
         <f>H5*G5</f>
-        <v>4271.75</v>
+        <v>4244.8</v>
       </c>
       <c r="J5" s="31">
         <f>_xll.RealtimeData(A5,"Last")</f>
-        <v>121.5971</v>
+        <v>121.7088</v>
       </c>
       <c r="K5" s="5">
         <f>J5/D5-1</f>
-        <v>-5.6969363941590245E-3</v>
+        <v>-4.7835622083867158E-3</v>
       </c>
       <c r="L5" s="8">
         <f t="array" ref="L5">_xll.RealtimeData(A5,"Change in Percent")</f>
-        <v>-3.7107742728390005E-3</v>
+        <v>3.5356200527704076E-3</v>
       </c>
       <c r="M5" s="29">
         <f>_xll.RealtimeData(A5,"Dividend Yield")</f>
@@ -2275,7 +2231,7 @@
       </c>
       <c r="P5" s="60">
         <f t="shared" si="1"/>
-        <v>-0.21189677562727</v>
+        <v>-0.20852543221326894</v>
       </c>
       <c r="Q5" s="31">
         <f>O5*Daily!$D$68</f>
@@ -2295,7 +2251,7 @@
       </c>
       <c r="U5">
         <f>_xll.RealtimeData(T5,"MTD Percent Change")</f>
-        <v>2.6482356899999999</v>
+        <v>2.7425291199999999</v>
       </c>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.25">
@@ -2315,16 +2271,16 @@
       <c r="I6" s="4"/>
       <c r="J6" s="31">
         <f>_xll.RealtimeData(A6,"Last")</f>
-        <v>39.1</v>
+        <v>39.4</v>
       </c>
       <c r="K6" s="5"/>
       <c r="L6" s="8">
         <f>_xll.RealtimeData(A6,"Change in Percent")</f>
-        <v>3.5934291581109089E-3</v>
+        <v>3.0549898167005346E-3</v>
       </c>
       <c r="M6" s="29">
         <f>_xll.RealtimeData(A6,"Dividend Yield")</f>
-        <v>3.67</v>
+        <v>3.66</v>
       </c>
       <c r="N6" s="4" t="str">
         <f t="shared" si="0"/>
@@ -2355,7 +2311,7 @@
       </c>
       <c r="U6">
         <f>_xll.RealtimeData(T6,"MTD Percent Change")</f>
-        <v>-1.01265823</v>
+        <v>-0.25316455999999998</v>
       </c>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.25">
@@ -2375,16 +2331,16 @@
       <c r="I7" s="4"/>
       <c r="J7" s="31">
         <f>_xll.RealtimeData(A7,"Last")</f>
-        <v>57.51</v>
+        <v>58.32</v>
       </c>
       <c r="K7" s="5"/>
       <c r="L7" s="8">
         <f>_xll.RealtimeData(A7,"Change in Percent")</f>
-        <v>1.7418568193694655E-3</v>
+        <v>3.786574870912203E-3</v>
       </c>
       <c r="M7" s="29">
         <f>_xll.RealtimeData(A7,"Dividend Yield")</f>
-        <v>1.6</v>
+        <v>1.58</v>
       </c>
       <c r="N7" s="4" t="str">
         <f t="shared" si="0"/>
@@ -2415,7 +2371,7 @@
       </c>
       <c r="U7">
         <f>_xll.RealtimeData(T7,"MTD Percent Change")</f>
-        <v>-2.3765065399999998</v>
+        <v>-1.0015277499999999</v>
       </c>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.25">
@@ -2435,12 +2391,12 @@
       <c r="I8" s="4"/>
       <c r="J8" s="31">
         <f>_xll.RealtimeData(A8,"Last")</f>
-        <v>113.28</v>
+        <v>113.895</v>
       </c>
       <c r="K8" s="5"/>
       <c r="L8" s="8">
         <f>_xll.RealtimeData(A8,"Change in Percent")</f>
-        <v>9.6256684491978616E-3</v>
+        <v>2.2439281942977386E-3</v>
       </c>
       <c r="M8" s="29">
         <v>0</v>
@@ -2474,7 +2430,7 @@
       </c>
       <c r="U8">
         <f>_xll.RealtimeData(T8,"MTD Percent Change")</f>
-        <v>-1.6154246999999999</v>
+        <v>-1.0812923400000001</v>
       </c>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.25">
@@ -2494,16 +2450,16 @@
       <c r="I9" s="4"/>
       <c r="J9" s="31">
         <f>_xll.RealtimeData(A9,"Last")</f>
-        <v>45.084000000000003</v>
+        <v>45.16</v>
       </c>
       <c r="K9" s="5"/>
       <c r="L9" s="8">
         <f>_xll.RealtimeData(A9,"Change in Percent")</f>
-        <v>7.0136251954433767E-3</v>
+        <v>-5.7243505063849622E-3</v>
       </c>
       <c r="M9" s="29">
         <f>_xll.RealtimeData(A9,"Dividend Yield")</f>
-        <v>4.6900000000000004</v>
+        <v>4.66</v>
       </c>
       <c r="N9" s="4" t="str">
         <f t="shared" si="0"/>
@@ -2534,7 +2490,7 @@
       </c>
       <c r="U9">
         <f>_xll.RealtimeData(T9,"MTD Percent Change")</f>
-        <v>-1.9913043500000001</v>
+        <v>-1.82608696</v>
       </c>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.25">
@@ -2548,12 +2504,12 @@
       <c r="G10" s="4"/>
       <c r="J10" s="31">
         <f>_xll.RealtimeData(A10,"Last")</f>
-        <v>43.22</v>
+        <v>43.274999999999999</v>
       </c>
       <c r="K10" s="5"/>
       <c r="L10" s="8">
         <f t="array" ref="L10">_xll.RealtimeData(A10,"Change in Percent")</f>
-        <v>1.5030530765617686E-2</v>
+        <v>7.5669383003491497E-3</v>
       </c>
       <c r="M10" s="29">
         <f>_xll.RealtimeData(A10,"Dividend Yield")</f>
@@ -2588,7 +2544,7 @@
       </c>
       <c r="U10">
         <f>_xll.RealtimeData(T10,"MTD Percent Change")</f>
-        <v>-2.8115159699999999</v>
+        <v>-2.6729644600000002</v>
       </c>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.25">
@@ -2602,12 +2558,12 @@
       <c r="G11" s="4"/>
       <c r="J11" s="31">
         <f>_xll.RealtimeData(A11,"Last")</f>
-        <v>102.69</v>
+        <v>102.74299999999999</v>
       </c>
       <c r="K11" s="5"/>
       <c r="L11" s="8">
         <f t="array" ref="L11">_xll.RealtimeData(A11,"Change in Percent")</f>
-        <v>-1.6527318685592262E-3</v>
+        <v>1.4913734282092992E-3</v>
       </c>
       <c r="M11" s="29">
         <f>_xll.RealtimeData(A11,"Dividend Yield")</f>
@@ -2642,7 +2598,7 @@
       </c>
       <c r="U11">
         <f>_xll.RealtimeData(T11,"MTD Percent Change")</f>
-        <v>1.3321491999999999</v>
+        <v>1.38444839</v>
       </c>
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.25">
@@ -2655,11 +2611,11 @@
       </c>
       <c r="J12" s="31">
         <f>_xll.RealtimeData(A12,"Last")</f>
-        <v>83.295000000000002</v>
+        <v>83.33</v>
       </c>
       <c r="L12" s="8">
         <f t="array" ref="L12">_xll.RealtimeData(A12,"Change in Percent")</f>
-        <v>-3.0004800768112703E-4</v>
+        <v>1.2001920307255282E-4</v>
       </c>
       <c r="M12" s="29">
         <f>_xll.RealtimeData(A12,"Dividend Yield")</f>
@@ -2694,7 +2650,7 @@
       </c>
       <c r="U12">
         <f>_xll.RealtimeData(T12,"MTD Percent Change")</f>
-        <v>0.28292800000000001</v>
+        <v>0.32506622000000002</v>
       </c>
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.25">
@@ -2711,11 +2667,11 @@
     <row r="14" spans="1:22" x14ac:dyDescent="0.25">
       <c r="U14" s="29">
         <f t="array" ref="U14">MMULT(TRANSPOSE(O2:O12),U2:U12)</f>
-        <v>1.20506471507</v>
+        <v>2.4737637287999994</v>
       </c>
       <c r="V14" s="8">
         <f>U14*0.01</f>
-        <v>1.20506471507E-2</v>
+        <v>2.4737637287999995E-2</v>
       </c>
     </row>
     <row r="19" spans="5:16" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
@@ -2725,7 +2681,7 @@
       </c>
       <c r="F20" s="11">
         <f>SUM(F2:F5)</f>
-        <v>0.99480544733570841</v>
+        <v>0.99485563907336649</v>
       </c>
       <c r="H20" s="2" t="s">
         <v>14</v>
@@ -2744,32 +2700,32 @@
       </c>
       <c r="F21" s="11">
         <f>1-F20</f>
-        <v>5.1945526642915851E-3</v>
+        <v>5.1443609266335066E-3</v>
       </c>
       <c r="H21" s="2" t="s">
         <v>16</v>
       </c>
       <c r="I21" s="6">
         <f>SUM(I2:I20)</f>
-        <v>20159.580000000002</v>
+        <v>20356.27</v>
       </c>
       <c r="J21" t="s">
         <v>33</v>
       </c>
       <c r="K21" s="8">
         <f>SUMPRODUCT(K2:K7,F2:F7)</f>
-        <v>3.8627431566967435E-2</v>
+        <v>5.0283250880899542E-2</v>
       </c>
       <c r="M21" t="s">
         <v>34</v>
       </c>
       <c r="N21" s="76">
         <f t="array" ref="N21">MMULT(TRANSPOSE(F2:F5),L2:L5)</f>
-        <v>1.8163920081668366E-3</v>
+        <v>2.880586669365263E-3</v>
       </c>
       <c r="P21" s="8">
         <f>SUMPRODUCT(L2:L12,O2:O12)</f>
-        <v>2.0277126686568713E-3</v>
+        <v>2.6683065207136186E-3</v>
       </c>
     </row>
     <row r="22" spans="5:16" x14ac:dyDescent="0.25">
@@ -2784,7 +2740,7 @@
       </c>
       <c r="K22" s="8">
         <f>_xll.RealtimeData(J22,"Change in Percent")</f>
-        <v>5.0047991224461122E-3</v>
+        <v>0</v>
       </c>
       <c r="L22" s="12">
         <v>0.6</v>
@@ -2796,7 +2752,7 @@
       </c>
       <c r="K23" s="8">
         <f>_xll.RealtimeData(J23,"Change in Percent")</f>
-        <v>-9.1079636056652744E-4</v>
+        <v>9.8665664348810377E-4</v>
       </c>
       <c r="L23" s="12">
         <v>0.4</v>
@@ -2808,7 +2764,7 @@
       </c>
       <c r="K24" s="8">
         <f>_xll.RealtimeData(J24,"Change in Percent")</f>
-        <v>3.0403503284328814E-3</v>
+        <v>1.4711416743645248E-3</v>
       </c>
     </row>
     <row r="25" spans="5:16" x14ac:dyDescent="0.25">
@@ -2817,7 +2773,7 @@
       </c>
       <c r="K25" s="8">
         <f t="array" ref="K25">SUMPRODUCT(K22:K23,L22:L23)</f>
-        <v>2.6385609292410564E-3</v>
+        <v>3.9466265739524154E-4</v>
       </c>
     </row>
     <row r="26" spans="5:16" x14ac:dyDescent="0.25">
@@ -2826,14 +2782,14 @@
       </c>
       <c r="I26" s="6">
         <f>SUM(I2:I18)</f>
-        <v>20054.86</v>
+        <v>20251.55</v>
       </c>
       <c r="J26" t="s">
         <v>56</v>
       </c>
       <c r="K26" s="8">
         <f>_xll.RealtimeData(J26,"Change in Percent")</f>
-        <v>1.1409013120365031E-2</v>
+        <v>-9.1533180778032037E-3</v>
       </c>
       <c r="L26" t="str">
         <f>_xll.RealtimeData(J26,"Description")</f>
@@ -2846,7 +2802,7 @@
       </c>
       <c r="K27" s="8">
         <f>AVERAGE(L2:L11)</f>
-        <v>4.4564293687925412E-3</v>
+        <v>2.5942657106460408E-3</v>
       </c>
     </row>
     <row r="28" spans="5:16" x14ac:dyDescent="0.25">
@@ -2855,20 +2811,20 @@
       </c>
       <c r="K28" s="8">
         <f>SUMPRODUCT(F2:F7,M2:M7)*0.01</f>
-        <v>1.4187382128000681E-2</v>
+        <v>1.3993288505212398E-2</v>
       </c>
       <c r="L28" t="s">
         <v>65</v>
       </c>
       <c r="M28" s="8">
         <f>AVERAGE(M2:M11)*0.01</f>
-        <v>2.0555555555555553E-2</v>
+        <v>2.0444444444444442E-2</v>
       </c>
     </row>
     <row r="29" spans="5:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="30" spans="5:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H30" s="30">
-        <v>43335</v>
+        <v>43342</v>
       </c>
       <c r="I30" s="15" t="s">
         <v>61</v>
@@ -2889,19 +2845,19 @@
       </c>
       <c r="I31" s="21">
         <f>$N$21</f>
-        <v>1.8163920081668366E-3</v>
+        <v>2.880586669365263E-3</v>
       </c>
       <c r="J31" s="21">
         <f>LOOKUP(2,1/(Daily!E:E&lt;&gt;""),Daily!E:E)</f>
-        <v>-1.1178194592745827E-3</v>
+        <v>-2.3568469122804414E-3</v>
       </c>
       <c r="K31" s="22">
         <f>VLOOKUP($H$30,Daily!$A:$AF,7,0)</f>
-        <v>1.5680388707178583E-2</v>
+        <v>2.5590527378585026E-2</v>
       </c>
       <c r="L31" s="23">
         <f>VLOOKUP($H$30,Daily!$A:$AF,8,0)</f>
-        <v>7.9795000000004723E-3</v>
+        <v>1.7814500000000288E-2</v>
       </c>
     </row>
     <row r="32" spans="5:16" x14ac:dyDescent="0.25">
@@ -2910,19 +2866,19 @@
       </c>
       <c r="I32" s="24">
         <f>$K$25</f>
-        <v>2.6385609292410564E-3</v>
+        <v>3.9466265739524154E-4</v>
       </c>
       <c r="J32" s="24">
         <f>LOOKUP(2,1/(Daily!M:M&lt;&gt;""),Daily!M:M)</f>
-        <v>-3.0907134929871517E-3</v>
+        <v>-4.9539160006765838E-3</v>
       </c>
       <c r="K32" s="14">
         <f>VLOOKUP($H$30,Daily!$A:$AF,25,0)</f>
-        <v>1.7335880654775648E-2</v>
+        <v>2.5901293901688494E-2</v>
       </c>
       <c r="L32" s="25">
         <f>VLOOKUP($H$30,Daily!$A:$AF,31,0)</f>
-        <v>1.1495219385979416E-2</v>
+        <v>2.0011457450581638E-2</v>
       </c>
     </row>
     <row r="33" spans="8:18" x14ac:dyDescent="0.25">
@@ -2931,19 +2887,19 @@
       </c>
       <c r="I33" s="24">
         <f>$K$24</f>
-        <v>3.0403503284328814E-3</v>
+        <v>1.4711416743645248E-3</v>
       </c>
       <c r="J33" s="24">
         <f>LOOKUP(2,1/(Daily!L:L&lt;&gt;""),Daily!L:L)</f>
-        <v>-1.700090208868299E-3</v>
+        <v>-4.2583634257682412E-3</v>
       </c>
       <c r="K33" s="14">
         <f>VLOOKUP($H$30,Daily!$A:$AF,24,0)</f>
-        <v>5.3763047060977787E-2</v>
+        <v>7.0463285112616791E-2</v>
       </c>
       <c r="L33" s="25">
         <f>VLOOKUP($H$30,Daily!$A:$AF,30,0)</f>
-        <v>8.0530169113219863E-2</v>
+        <v>9.7654617627995099E-2</v>
       </c>
     </row>
     <row r="34" spans="8:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2952,19 +2908,19 @@
       </c>
       <c r="I34" s="26">
         <f>$K$26</f>
-        <v>1.1409013120365031E-2</v>
+        <v>-9.1533180778032037E-3</v>
       </c>
       <c r="J34" s="26">
         <f>LOOKUP(2,1/(Daily!N:N&lt;&gt;""),Daily!N:N)</f>
-        <v>-8.4841628959275717E-3</v>
+        <v>-3.9886039886040114E-3</v>
       </c>
       <c r="K34" s="27">
         <f>VLOOKUP($H$30,Daily!$A:$AF,26,0)</f>
-        <v>7.4712643678165325E-3</v>
+        <v>4.5977011494258146E-3</v>
       </c>
       <c r="L34" s="28">
         <f>VLOOKUP($H$30,Daily!$A:$AF,32,0)</f>
-        <v>1.6658438504389528E-2</v>
+        <v>1.3758671138432987E-2</v>
       </c>
     </row>
     <row r="35" spans="8:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -2999,7 +2955,7 @@
       </c>
       <c r="I37" s="46">
         <f>AVERAGE(Daily!E$3:E380)</f>
-        <v>1.0962668912827555E-4</v>
+        <v>2.1647598421738998E-4</v>
       </c>
       <c r="J37" s="44"/>
       <c r="K37" s="22"/>
@@ -3007,23 +2963,23 @@
       <c r="M37" s="50"/>
       <c r="N37" s="38">
         <f>AVERAGE(Daily!J$3:J380)</f>
-        <v>1.7898119219606696E-4</v>
+        <v>3.4573442252108669E-4</v>
       </c>
       <c r="O37" s="22">
         <f>AVERAGE(Daily!K$3:K380)</f>
-        <v>1.0028493826940464E-4</v>
+        <v>7.3752069032445905E-5</v>
       </c>
       <c r="P37" s="22">
         <f>AVERAGE(Daily!L$3:L380)</f>
-        <v>9.727926816176936E-4</v>
+        <v>1.0999484047293047E-3</v>
       </c>
       <c r="Q37" s="22">
         <f>AVERAGE(Daily!M$3:M380)</f>
-        <v>1.4750269062540201E-4</v>
+        <v>2.3694148112563036E-4</v>
       </c>
       <c r="R37" s="23">
         <f>AVERAGE(Daily!N$3:N380)</f>
-        <v>2.3580173447987736E-4</v>
+        <v>1.8945487018053405E-4</v>
       </c>
     </row>
     <row r="38" spans="8:18" x14ac:dyDescent="0.25">
@@ -3032,7 +2988,7 @@
       </c>
       <c r="I38" s="47">
         <f>STDEV(Daily!E$3:E380)</f>
-        <v>4.8242076103920863E-3</v>
+        <v>4.7447404534837444E-3</v>
       </c>
       <c r="J38" s="45"/>
       <c r="K38" s="14"/>
@@ -3040,23 +2996,23 @@
       <c r="M38" s="51"/>
       <c r="N38" s="40">
         <f>STDEV(Daily!J$3:J380)</f>
-        <v>6.1601369473967982E-3</v>
+        <v>6.2207026313976397E-3</v>
       </c>
       <c r="O38" s="14">
         <f>STDEV(Daily!K$3:K380)</f>
-        <v>1.7088550064641034E-3</v>
+        <v>1.6828765018090065E-3</v>
       </c>
       <c r="P38" s="14">
         <f>STDEV(Daily!L$3:L380)</f>
-        <v>5.7159153699843195E-3</v>
+        <v>5.6752973665053939E-3</v>
       </c>
       <c r="Q38" s="14">
         <f>STDEV(Daily!M$3:M380)</f>
-        <v>3.5945960528075997E-3</v>
+        <v>3.631294062267362E-3</v>
       </c>
       <c r="R38" s="25">
         <f>STDEV(Daily!N$3:N380)</f>
-        <v>8.0282017241375715E-3</v>
+        <v>7.8641644594355953E-3</v>
       </c>
     </row>
     <row r="39" spans="8:18" x14ac:dyDescent="0.25">
@@ -3065,7 +3021,7 @@
       </c>
       <c r="I39" s="48">
         <f>COUNTIF(Daily!E$3:E380,"&gt;0")</f>
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="J39" s="45"/>
       <c r="K39" s="14"/>
@@ -3073,23 +3029,23 @@
       <c r="M39" s="51"/>
       <c r="N39" s="41">
         <f>COUNTIF(Daily!J$3:J380,"&gt;0")</f>
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="O39" s="33">
         <f>COUNTIF(Daily!K$3:K380,"&gt;0")</f>
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="P39" s="33">
         <f>COUNTIF(Daily!L$3:L380,"&gt;0")</f>
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="Q39" s="33">
         <f>COUNTIF(Daily!M$3:M380,"&gt;0")</f>
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="R39" s="35">
         <f>COUNTIF(Daily!N$3:N380,"&gt;0")</f>
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="40" spans="8:18" x14ac:dyDescent="0.25">
@@ -3098,7 +3054,7 @@
       </c>
       <c r="I40" s="47">
         <f>SUMIF(Daily!E$3:E380,"&gt;0")</f>
-        <v>0.1498776434996858</v>
+        <v>0.16197166323527146</v>
       </c>
       <c r="J40" s="45"/>
       <c r="K40" s="14"/>
@@ -3106,23 +3062,23 @@
       <c r="M40" s="51"/>
       <c r="N40" s="40">
         <f>SUMIF(Daily!J$3:J380,"&gt;0")</f>
-        <v>0.20212896000723157</v>
+        <v>0.22593454200862206</v>
       </c>
       <c r="O40" s="14">
         <f>SUMIF(Daily!K$3:K380,"&gt;0")</f>
-        <v>5.7416929335799338E-2</v>
+        <v>5.9012584656719325E-2</v>
       </c>
       <c r="P40" s="14">
         <f>SUMIF(Daily!L$3:L380,"&gt;0")</f>
-        <v>0.22413233793077042</v>
+        <v>0.24419005695222568</v>
       </c>
       <c r="Q40" s="14">
         <f>SUMIF(Daily!M$3:M380,"&gt;0")</f>
-        <v>0.1200297533482677</v>
+        <v>0.13384000810055</v>
       </c>
       <c r="R40" s="25">
         <f>SUMIF(Daily!N$3:N380,"&gt;0")</f>
-        <v>0.26622775965880752</v>
+        <v>0.27414561476434096</v>
       </c>
     </row>
     <row r="41" spans="8:18" x14ac:dyDescent="0.25">
@@ -3131,7 +3087,7 @@
       </c>
       <c r="I41" s="47">
         <f>SUMIF(Daily!E$3:E380,"&lt;0")</f>
-        <v>-0.14099788168029548</v>
+        <v>-0.14335472859257592</v>
       </c>
       <c r="J41" s="45"/>
       <c r="K41" s="14"/>
@@ -3139,23 +3095,23 @@
       <c r="M41" s="51"/>
       <c r="N41" s="40">
         <f>SUMIF(Daily!J$3:J380,"&lt;0")</f>
-        <v>-0.18763148343935016</v>
+        <v>-0.19620138167180862</v>
       </c>
       <c r="O41" s="14">
         <f>SUMIF(Daily!K$3:K380,"&lt;0")</f>
-        <v>-4.9293849335977566E-2</v>
+        <v>-5.266990671992898E-2</v>
       </c>
       <c r="P41" s="14">
         <f>SUMIF(Daily!L$3:L380,"&lt;0")</f>
-        <v>-0.14533613071973722</v>
+        <v>-0.14959449414550546</v>
       </c>
       <c r="Q41" s="14">
         <f>SUMIF(Daily!M$3:M380,"&lt;0")</f>
-        <v>-0.10808203540761015</v>
+        <v>-0.1134630407237458</v>
       </c>
       <c r="R41" s="25">
         <f>SUMIF(Daily!N$3:N380,"&lt;0")</f>
-        <v>-0.24712781916593746</v>
+        <v>-0.25785249592881504</v>
       </c>
     </row>
     <row r="42" spans="8:18" x14ac:dyDescent="0.25">
@@ -3164,7 +3120,7 @@
       </c>
       <c r="I42" s="48">
         <f>COUNT(Daily!E$3:E380)</f>
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="J42" s="45"/>
       <c r="K42" s="14"/>
@@ -3172,23 +3128,23 @@
       <c r="M42" s="51"/>
       <c r="N42" s="41">
         <f>COUNT(Daily!J$3:J380)</f>
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="O42" s="33">
         <f>COUNT(Daily!K$3:K380)</f>
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="P42" s="33">
         <f>COUNT(Daily!L$3:L380)</f>
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="Q42" s="33">
         <f>COUNT(Daily!M$3:M380)</f>
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="R42" s="35">
         <f>COUNT(Daily!N$3:N380)</f>
-        <v>81</v>
+        <v>86</v>
       </c>
     </row>
     <row r="43" spans="8:18" x14ac:dyDescent="0.25">
@@ -3197,7 +3153,7 @@
       </c>
       <c r="I43" s="48">
         <f>I42-I39</f>
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="J43" s="45"/>
       <c r="K43" s="14"/>
@@ -3205,23 +3161,23 @@
       <c r="M43" s="51"/>
       <c r="N43" s="41">
         <f>N42-N39</f>
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="O43" s="33">
         <f>O42-O39</f>
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="P43" s="33">
         <f>P42-P39</f>
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="Q43" s="33">
         <f>Q42-Q39</f>
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="R43" s="35">
         <f>R42-R39</f>
-        <v>36</v>
+        <v>40</v>
       </c>
     </row>
     <row r="44" spans="8:18" x14ac:dyDescent="0.25">
@@ -3230,7 +3186,7 @@
       </c>
       <c r="I44" s="49">
         <f>(I40/I41)*(I39/I43)*-1</f>
-        <v>1.3970567741513276</v>
+        <v>1.5692586187489861</v>
       </c>
       <c r="J44" s="45"/>
       <c r="K44" s="14"/>
@@ -3238,23 +3194,23 @@
       <c r="M44" s="51"/>
       <c r="N44" s="42">
         <f>(N40/N41)*(N39/N43)*-1</f>
-        <v>1.1601322846046314</v>
+        <v>1.324275706399108</v>
       </c>
       <c r="O44" s="34">
         <f>(O40/O41)*(O39/O43)*-1</f>
-        <v>1.3180506155259937</v>
+        <v>1.2297327643562139</v>
       </c>
       <c r="P44" s="34">
         <f>(P40/P41)*(P39/P43)*-1</f>
-        <v>2.0268458255567512</v>
+        <v>2.2671479910765218</v>
       </c>
       <c r="Q44" s="34">
         <f>(Q40/Q41)*(Q39/Q43)*-1</f>
-        <v>1.320645790250861</v>
+        <v>1.4215586653390666</v>
       </c>
       <c r="R44" s="36">
         <f>(R40/R41)*(R39/R43)*-1</f>
-        <v>1.3466096237026899</v>
+        <v>1.2226659115451322</v>
       </c>
     </row>
     <row r="45" spans="8:18" x14ac:dyDescent="0.25">
@@ -3263,7 +3219,7 @@
       </c>
       <c r="I45" s="62">
         <f>I39/I42</f>
-        <v>0.5679012345679012</v>
+        <v>0.58139534883720934</v>
       </c>
       <c r="J45" s="63"/>
       <c r="K45" s="64"/>
@@ -3271,23 +3227,23 @@
       <c r="M45" s="66"/>
       <c r="N45" s="67">
         <f>N39/N42</f>
-        <v>0.51851851851851849</v>
+        <v>0.53488372093023251</v>
       </c>
       <c r="O45" s="64">
         <f>O39/O42</f>
-        <v>0.53086419753086422</v>
+        <v>0.52325581395348841</v>
       </c>
       <c r="P45" s="64">
         <f>P39/P42</f>
-        <v>0.5679012345679012</v>
+        <v>0.58139534883720934</v>
       </c>
       <c r="Q45" s="64">
         <f>Q39/Q42</f>
-        <v>0.54320987654320985</v>
+        <v>0.54651162790697672</v>
       </c>
       <c r="R45" s="68">
         <f>R39/R42</f>
-        <v>0.55555555555555558</v>
+        <v>0.53488372093023251</v>
       </c>
     </row>
     <row r="46" spans="8:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3335,13 +3291,13 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:AN83"/>
+  <dimension ref="A1:AN88"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B57" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B72" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F93" sqref="F93"/>
+      <selection pane="bottomRight" activeCell="B96" sqref="B95:B96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9357,7 +9313,7 @@
         <v>43291</v>
       </c>
       <c r="B51" s="4">
-        <f t="shared" ref="B51:B83" si="812">D51-C51</f>
+        <f t="shared" ref="B51:B88" si="812">D51-C51</f>
         <v>19902.79</v>
       </c>
       <c r="C51" s="4">
@@ -11980,7 +11936,7 @@
         <v>3.8522150236384167E-3</v>
       </c>
       <c r="M70" s="11">
-        <f t="shared" ref="M70" si="1210">0.6*J70 + 0.4*K70</f>
+        <f>0.6*J70 + 0.4*K70</f>
         <v>1.8244843109000989E-4</v>
       </c>
       <c r="N70" s="11">
@@ -11988,87 +11944,87 @@
         <v>5.6657223796041656E-4</v>
       </c>
       <c r="P70" s="10">
-        <f t="shared" ref="P70" si="1211">P69*(1+J70)</f>
+        <f t="shared" ref="P70" si="1210">P69*(1+J70)</f>
         <v>101.90336372215063</v>
       </c>
       <c r="Q70" s="10">
-        <f t="shared" ref="Q70" si="1212">Q69*(1+K70)</f>
+        <f t="shared" ref="Q70" si="1211">Q69*(1+K70)</f>
         <v>100.26484905838925</v>
       </c>
       <c r="R70" s="10">
-        <f t="shared" ref="R70" si="1213">R69*(1+L70)</f>
+        <f t="shared" ref="R70" si="1212">R69*(1+L70)</f>
         <v>107.64743786755095</v>
       </c>
       <c r="S70" s="10">
-        <f t="shared" ref="S70" si="1214">S69*(1+M70)</f>
+        <f t="shared" ref="S70" si="1213">S69*(1+M70)</f>
         <v>101.28194123662431</v>
       </c>
       <c r="T70" s="10">
-        <f t="shared" ref="T70" si="1215">T69*(1+N70)</f>
+        <f t="shared" ref="T70" si="1214">T69*(1+N70)</f>
         <v>102.41978336558765</v>
       </c>
       <c r="V70" s="5">
-        <f t="shared" ref="V70" si="1216">P70/P$45-1</f>
+        <f t="shared" ref="V70" si="1215">P70/P$45-1</f>
         <v>3.1496062992125928E-2</v>
       </c>
       <c r="W70" s="5">
-        <f t="shared" ref="W70" si="1217">Q70/Q$45-1</f>
+        <f t="shared" ref="W70" si="1216">Q70/Q$45-1</f>
         <v>-4.7883511105628607E-4</v>
       </c>
       <c r="X70" s="5">
-        <f t="shared" ref="X70" si="1218">R70/R$45-1</f>
+        <f t="shared" ref="X70" si="1217">R70/R$45-1</f>
         <v>4.9807727522431344E-2</v>
       </c>
       <c r="Y70" s="5">
-        <f t="shared" ref="Y70" si="1219">S70/S$45-1</f>
+        <f t="shared" ref="Y70" si="1218">S70/S$45-1</f>
         <v>1.8667719902173419E-2</v>
       </c>
       <c r="Z70" s="5">
-        <f t="shared" ref="Z70" si="1220">T70/T$45-1</f>
+        <f t="shared" ref="Z70" si="1219">T70/T$45-1</f>
         <v>1.4942528735632399E-2</v>
       </c>
       <c r="AB70" s="8">
-        <f t="shared" ref="AB70" si="1221">P70/$P$2-1</f>
+        <f t="shared" ref="AB70" si="1220">P70/$P$2-1</f>
         <v>1.9033637221506305E-2</v>
       </c>
       <c r="AC70" s="8">
-        <f t="shared" ref="AC70" si="1222">Q70/$P$2-1</f>
+        <f t="shared" ref="AC70" si="1221">Q70/$P$2-1</f>
         <v>2.6484905838923822E-3</v>
       </c>
       <c r="AD70" s="8">
-        <f t="shared" ref="AD70" si="1223">R70/$P$2-1</f>
+        <f t="shared" ref="AD70" si="1222">R70/$P$2-1</f>
         <v>7.6474378675509547E-2</v>
       </c>
       <c r="AE70" s="8">
-        <f t="shared" ref="AE70" si="1224">S70/$P$2-1</f>
+        <f t="shared" ref="AE70" si="1223">S70/$P$2-1</f>
         <v>1.2819412366243066E-2</v>
       </c>
       <c r="AF70" s="8">
-        <f t="shared" ref="AF70" si="1225">T70/$T$2-1</f>
+        <f t="shared" ref="AF70" si="1224">T70/$T$2-1</f>
         <v>2.4197833655876577E-2</v>
       </c>
       <c r="AI70" s="8">
-        <f t="shared" ref="AI70" si="1226">MIN(0,(F70-MAX(F41:F70))/MAX(F41:F70))</f>
+        <f t="shared" ref="AI70" si="1225">MIN(0,(F70-MAX(F41:F70))/MAX(F41:F70))</f>
         <v>0</v>
       </c>
       <c r="AJ70" s="8">
-        <f t="shared" ref="AJ70" si="1227">MIN(0,(P70-MAX(P41:P70))/MAX(P41:P70))</f>
+        <f t="shared" ref="AJ70" si="1226">MIN(0,(P70-MAX(P41:P70))/MAX(P41:P70))</f>
         <v>-7.0384407146724367E-3</v>
       </c>
       <c r="AK70" s="8">
-        <f t="shared" ref="AK70" si="1228">MIN(0,(Q70-MAX(Q41:Q70))/MAX(Q41:Q70))</f>
+        <f t="shared" ref="AK70" si="1227">MIN(0,(Q70-MAX(Q41:Q70))/MAX(Q41:Q70))</f>
         <v>-4.4127311989484138E-3</v>
       </c>
       <c r="AL70" s="8">
-        <f t="shared" ref="AL70" si="1229">MIN(0,(R70-MAX(R41:R70))/MAX(R41:R70))</f>
+        <f t="shared" ref="AL70" si="1228">MIN(0,(R70-MAX(R41:R70))/MAX(R41:R70))</f>
         <v>0</v>
       </c>
       <c r="AM70" s="8">
-        <f t="shared" ref="AM70" si="1230">MIN(0,(S70-MAX(S41:S70))/MAX(S41:S70))</f>
+        <f t="shared" ref="AM70" si="1229">MIN(0,(S70-MAX(S41:S70))/MAX(S41:S70))</f>
         <v>-4.2992881788178833E-3</v>
       </c>
       <c r="AN70" s="8">
-        <f t="shared" ref="AN70" si="1231">MIN(0,(T70-MAX(T41:T70))/MAX(T41:T70))</f>
+        <f t="shared" ref="AN70" si="1230">MIN(0,(T70-MAX(T41:T70))/MAX(T41:T70))</f>
         <v>-1.2856344326439456E-2</v>
       </c>
     </row>
@@ -12088,19 +12044,19 @@
         <v>19977.97</v>
       </c>
       <c r="E71" s="5">
-        <f t="shared" ref="E71" si="1232">D71/D70-1</f>
+        <f t="shared" ref="E71" si="1231">D71/D70-1</f>
         <v>-3.3668471564133329E-3</v>
       </c>
       <c r="F71" s="10">
-        <f t="shared" ref="F71" si="1233">F70*(1+E71)</f>
+        <f t="shared" ref="F71" si="1232">F70*(1+E71)</f>
         <v>99.88985000000001</v>
       </c>
       <c r="G71" s="5">
-        <f t="shared" ref="G71" si="1234">F71/F$45-1</f>
+        <f t="shared" ref="G71" si="1233">F71/F$45-1</f>
         <v>6.5300105399139774E-3</v>
       </c>
       <c r="H71" s="8">
-        <f t="shared" ref="H71" si="1235">F71/$F$2-1</f>
+        <f t="shared" ref="H71" si="1234">F71/$F$2-1</f>
         <v>-1.1014999999998665E-3</v>
       </c>
       <c r="J71" s="11">
@@ -12116,7 +12072,7 @@
         <v>2.8606314320602788E-3</v>
       </c>
       <c r="M71" s="11">
-        <f t="shared" ref="M71" si="1236">0.6*J71 + 0.4*K71</f>
+        <f t="shared" ref="M71" si="1235">0.6*J71 + 0.4*K71</f>
         <v>2.0640963040633674E-3</v>
       </c>
       <c r="N71" s="11">
@@ -12124,87 +12080,87 @@
         <v>1.1325028312569874E-3</v>
       </c>
       <c r="P71" s="10">
-        <f t="shared" ref="P71" si="1237">P70*(1+J71)</f>
+        <f t="shared" ref="P71" si="1236">P70*(1+J71)</f>
         <v>102.37565303056846</v>
       </c>
       <c r="Q71" s="10">
-        <f t="shared" ref="Q71" si="1238">Q70*(1+K71)</f>
+        <f t="shared" ref="Q71" si="1237">Q70*(1+K71)</f>
         <v>100.08519683921634</v>
       </c>
       <c r="R71" s="10">
-        <f t="shared" ref="R71" si="1239">R70*(1+L71)</f>
+        <f t="shared" ref="R71" si="1238">R70*(1+L71)</f>
         <v>107.95537751189562</v>
       </c>
       <c r="S71" s="10">
-        <f t="shared" ref="S71" si="1240">S70*(1+M71)</f>
+        <f t="shared" ref="S71" si="1239">S70*(1+M71)</f>
         <v>101.4909969171992</v>
       </c>
       <c r="T71" s="10">
-        <f t="shared" ref="T71" si="1241">T70*(1+N71)</f>
+        <f t="shared" ref="T71" si="1240">T70*(1+N71)</f>
         <v>102.5357740602259</v>
       </c>
       <c r="V71" s="5">
-        <f t="shared" ref="V71" si="1242">P71/P$45-1</f>
+        <f t="shared" ref="V71" si="1241">P71/P$45-1</f>
         <v>3.6276715410573646E-2</v>
       </c>
       <c r="W71" s="5">
-        <f t="shared" ref="W71" si="1243">Q71/Q$45-1</f>
+        <f t="shared" ref="W71" si="1242">Q71/Q$45-1</f>
         <v>-2.2697538335092471E-3</v>
       </c>
       <c r="X71" s="5">
-        <f t="shared" ref="X71" si="1244">R71/R$45-1</f>
+        <f t="shared" ref="X71" si="1243">R71/R$45-1</f>
         <v>5.2810840505401746E-2</v>
       </c>
       <c r="Y71" s="5">
-        <f t="shared" ref="Y71" si="1245">S71/S$45-1</f>
+        <f t="shared" ref="Y71" si="1244">S71/S$45-1</f>
         <v>2.0770348177892251E-2</v>
       </c>
       <c r="Z71" s="5">
-        <f t="shared" ref="Z71" si="1246">T71/T$45-1</f>
+        <f t="shared" ref="Z71" si="1245">T71/T$45-1</f>
         <v>1.6091954022988686E-2</v>
       </c>
       <c r="AB71" s="8">
-        <f t="shared" ref="AB71" si="1247">P71/$P$2-1</f>
+        <f t="shared" ref="AB71" si="1246">P71/$P$2-1</f>
         <v>2.3756530305684587E-2</v>
       </c>
       <c r="AC71" s="8">
-        <f t="shared" ref="AC71" si="1248">Q71/$P$2-1</f>
+        <f t="shared" ref="AC71" si="1247">Q71/$P$2-1</f>
         <v>8.5196839216328257E-4</v>
       </c>
       <c r="AD71" s="8">
-        <f t="shared" ref="AD71" si="1249">R71/$P$2-1</f>
+        <f t="shared" ref="AD71" si="1248">R71/$P$2-1</f>
         <v>7.9553775118956116E-2</v>
       </c>
       <c r="AE71" s="8">
-        <f t="shared" ref="AE71" si="1250">S71/$P$2-1</f>
+        <f t="shared" ref="AE71" si="1249">S71/$P$2-1</f>
         <v>1.4909969171992055E-2</v>
       </c>
       <c r="AF71" s="8">
-        <f t="shared" ref="AF71" si="1251">T71/$T$2-1</f>
+        <f t="shared" ref="AF71" si="1250">T71/$T$2-1</f>
         <v>2.5357740602259149E-2</v>
       </c>
       <c r="AI71" s="8">
-        <f t="shared" ref="AI71" si="1252">MIN(0,(F71-MAX(F42:F71))/MAX(F42:F71))</f>
+        <f t="shared" ref="AI71" si="1251">MIN(0,(F71-MAX(F42:F71))/MAX(F42:F71))</f>
         <v>-3.3668471564133706E-3</v>
       </c>
       <c r="AJ71" s="8">
-        <f t="shared" ref="AJ71" si="1253">MIN(0,(P71-MAX(P42:P71))/MAX(P42:P71))</f>
+        <f t="shared" ref="AJ71" si="1252">MIN(0,(P71-MAX(P42:P71))/MAX(P42:P71))</f>
         <v>-2.436383324309599E-3</v>
       </c>
       <c r="AK71" s="8">
-        <f t="shared" ref="AK71" si="1254">MIN(0,(Q71-MAX(Q42:Q71))/MAX(Q42:Q71))</f>
+        <f t="shared" ref="AK71" si="1253">MIN(0,(Q71-MAX(Q42:Q71))/MAX(Q42:Q71))</f>
         <v>-6.1966012580979037E-3</v>
       </c>
       <c r="AL71" s="8">
-        <f t="shared" ref="AL71" si="1255">MIN(0,(R71-MAX(R42:R71))/MAX(R42:R71))</f>
+        <f t="shared" ref="AL71" si="1254">MIN(0,(R71-MAX(R42:R71))/MAX(R42:R71))</f>
         <v>0</v>
       </c>
       <c r="AM71" s="8">
-        <f t="shared" ref="AM71" si="1256">MIN(0,(S71-MAX(S42:S71))/MAX(S42:S71))</f>
+        <f t="shared" ref="AM71" si="1255">MIN(0,(S71-MAX(S42:S71))/MAX(S42:S71))</f>
         <v>-2.2440660195943954E-3</v>
       </c>
       <c r="AN71" s="8">
-        <f t="shared" ref="AN71" si="1257">MIN(0,(T71-MAX(T42:T71))/MAX(T42:T71))</f>
+        <f t="shared" ref="AN71" si="1256">MIN(0,(T71-MAX(T42:T71))/MAX(T42:T71))</f>
         <v>-1.1738401341531765E-2</v>
       </c>
     </row>
@@ -12224,19 +12180,19 @@
         <v>20001.98</v>
       </c>
       <c r="E72" s="5">
-        <f t="shared" ref="E72" si="1258">D72/D71-1</f>
+        <f t="shared" ref="E72" si="1257">D72/D71-1</f>
         <v>1.2018238089255284E-3</v>
       </c>
       <c r="F72" s="10">
-        <f t="shared" ref="F72" si="1259">F71*(1+E72)</f>
+        <f t="shared" ref="F72" si="1258">F71*(1+E72)</f>
         <v>100.00990000000002</v>
       </c>
       <c r="G72" s="5">
-        <f t="shared" ref="G72" si="1260">F72/F$45-1</f>
+        <f t="shared" ref="G72" si="1259">F72/F$45-1</f>
         <v>7.739682270978987E-3</v>
       </c>
       <c r="H72" s="8">
-        <f t="shared" ref="H72" si="1261">F72/$F$2-1</f>
+        <f t="shared" ref="H72" si="1260">F72/$F$2-1</f>
         <v>9.9000000000071253E-5</v>
       </c>
       <c r="J72" s="11">
@@ -12252,7 +12208,7 @@
         <v>-3.4786238564032956E-4</v>
       </c>
       <c r="M72" s="11">
-        <f t="shared" ref="M72" si="1262">0.6*J72 + 0.4*K72</f>
+        <f t="shared" ref="M72" si="1261">0.6*J72 + 0.4*K72</f>
         <v>8.141112618722523E-5</v>
       </c>
       <c r="N72" s="11">
@@ -12260,87 +12216,87 @@
         <v>2.8280542986425239E-3</v>
       </c>
       <c r="P72" s="10">
-        <f t="shared" ref="P72" si="1263">P71*(1+J72)</f>
+        <f t="shared" ref="P72" si="1262">P71*(1+J72)</f>
         <v>102.38954389258075</v>
       </c>
       <c r="Q72" s="10">
-        <f t="shared" ref="Q72" si="1264">Q71*(1+K72)</f>
+        <f t="shared" ref="Q72" si="1263">Q71*(1+K72)</f>
         <v>100.08519683921634</v>
       </c>
       <c r="R72" s="10">
-        <f t="shared" ref="R72" si="1265">R71*(1+L72)</f>
+        <f t="shared" ref="R72" si="1264">R71*(1+L72)</f>
         <v>107.91782389673163</v>
       </c>
       <c r="S72" s="10">
-        <f t="shared" ref="S72" si="1266">S71*(1+M72)</f>
+        <f t="shared" ref="S72" si="1265">S71*(1+M72)</f>
         <v>101.4992594135561</v>
       </c>
       <c r="T72" s="10">
-        <f t="shared" ref="T72" si="1267">T71*(1+N72)</f>
+        <f t="shared" ref="T72" si="1266">T71*(1+N72)</f>
         <v>102.82575079682157</v>
       </c>
       <c r="V72" s="5">
-        <f t="shared" ref="V72" si="1268">P72/P$45-1</f>
+        <f t="shared" ref="V72" si="1267">P72/P$45-1</f>
         <v>3.6417322834645605E-2</v>
       </c>
       <c r="W72" s="5">
-        <f t="shared" ref="W72" si="1269">Q72/Q$45-1</f>
+        <f t="shared" ref="W72" si="1268">Q72/Q$45-1</f>
         <v>-2.2697538335092471E-3</v>
       </c>
       <c r="X72" s="5">
-        <f t="shared" ref="X72" si="1270">R72/R$45-1</f>
+        <f t="shared" ref="X72" si="1269">R72/R$45-1</f>
         <v>5.2444607214795713E-2</v>
       </c>
       <c r="Y72" s="5">
-        <f t="shared" ref="Y72" si="1271">S72/S$45-1</f>
+        <f t="shared" ref="Y72" si="1270">S72/S$45-1</f>
         <v>2.0853450241516081E-2</v>
       </c>
       <c r="Z72" s="5">
-        <f t="shared" ref="Z72" si="1272">T72/T$45-1</f>
+        <f t="shared" ref="Z72" si="1271">T72/T$45-1</f>
         <v>1.8965517241379404E-2</v>
       </c>
       <c r="AB72" s="8">
-        <f t="shared" ref="AB72" si="1273">P72/$P$2-1</f>
+        <f t="shared" ref="AB72" si="1272">P72/$P$2-1</f>
         <v>2.3895438925807477E-2</v>
       </c>
       <c r="AC72" s="8">
-        <f t="shared" ref="AC72" si="1274">Q72/$P$2-1</f>
+        <f t="shared" ref="AC72" si="1273">Q72/$P$2-1</f>
         <v>8.5196839216328257E-4</v>
       </c>
       <c r="AD72" s="8">
-        <f t="shared" ref="AD72" si="1275">R72/$P$2-1</f>
+        <f t="shared" ref="AD72" si="1274">R72/$P$2-1</f>
         <v>7.917823896731635E-2</v>
       </c>
       <c r="AE72" s="8">
-        <f t="shared" ref="AE72" si="1276">S72/$P$2-1</f>
+        <f t="shared" ref="AE72" si="1275">S72/$P$2-1</f>
         <v>1.4992594135561088E-2</v>
       </c>
       <c r="AF72" s="8">
-        <f t="shared" ref="AF72" si="1277">T72/$T$2-1</f>
+        <f t="shared" ref="AF72" si="1276">T72/$T$2-1</f>
         <v>2.8257507968215689E-2</v>
       </c>
       <c r="AI72" s="8">
-        <f t="shared" ref="AI72" si="1278">MIN(0,(F72-MAX(F43:F72))/MAX(F43:F72))</f>
+        <f t="shared" ref="AI72" si="1277">MIN(0,(F72-MAX(F43:F72))/MAX(F43:F72))</f>
         <v>-2.169069704561368E-3</v>
       </c>
       <c r="AJ72" s="8">
-        <f t="shared" ref="AJ72" si="1279">MIN(0,(P72-MAX(P43:P72))/MAX(P43:P72))</f>
+        <f t="shared" ref="AJ72" si="1278">MIN(0,(P72-MAX(P43:P72))/MAX(P43:P72))</f>
         <v>-2.3010286951812803E-3</v>
       </c>
       <c r="AK72" s="8">
-        <f t="shared" ref="AK72" si="1280">MIN(0,(Q72-MAX(Q43:Q72))/MAX(Q43:Q72))</f>
+        <f t="shared" ref="AK72" si="1279">MIN(0,(Q72-MAX(Q43:Q72))/MAX(Q43:Q72))</f>
         <v>-6.1966012580979037E-3</v>
       </c>
       <c r="AL72" s="8">
-        <f t="shared" ref="AL72" si="1281">MIN(0,(R72-MAX(R43:R72))/MAX(R43:R72))</f>
+        <f t="shared" ref="AL72" si="1280">MIN(0,(R72-MAX(R43:R72))/MAX(R43:R72))</f>
         <v>-3.4786238564029221E-4</v>
       </c>
       <c r="AM72" s="8">
-        <f t="shared" ref="AM72" si="1282">MIN(0,(S72-MAX(S43:S72))/MAX(S43:S72))</f>
+        <f t="shared" ref="AM72" si="1281">MIN(0,(S72-MAX(S43:S72))/MAX(S43:S72))</f>
         <v>-2.1628375853489398E-3</v>
       </c>
       <c r="AN72" s="8">
-        <f t="shared" ref="AN72" si="1283">MIN(0,(T72-MAX(T43:T72))/MAX(T43:T72))</f>
+        <f t="shared" ref="AN72" si="1282">MIN(0,(T72-MAX(T43:T72))/MAX(T43:T72))</f>
         <v>-8.9435438792623365E-3</v>
       </c>
     </row>
@@ -12360,19 +12316,19 @@
         <v>20022.52</v>
       </c>
       <c r="E73" s="5">
-        <f t="shared" ref="E73" si="1284">D73/D72-1</f>
+        <f t="shared" ref="E73" si="1283">D73/D72-1</f>
         <v>1.0268983370647078E-3</v>
       </c>
       <c r="F73" s="10">
-        <f t="shared" ref="F73" si="1285">F72*(1+E73)</f>
+        <f t="shared" ref="F73" si="1284">F72*(1+E73)</f>
         <v>100.11260000000003</v>
       </c>
       <c r="G73" s="5">
-        <f t="shared" ref="G73" si="1286">F73/F$45-1</f>
+        <f t="shared" ref="G73" si="1285">F73/F$45-1</f>
         <v>8.7745284748972363E-3</v>
       </c>
       <c r="H73" s="8">
-        <f t="shared" ref="H73" si="1287">F73/$F$2-1</f>
+        <f t="shared" ref="H73" si="1286">F73/$F$2-1</f>
         <v>1.1260000000001824E-3</v>
       </c>
       <c r="J73" s="11">
@@ -12388,7 +12344,7 @@
         <v>-9.0475693356995013E-4</v>
       </c>
       <c r="M73" s="11">
-        <f t="shared" ref="M73" si="1288">0.6*J73 + 0.4*K73</f>
+        <f t="shared" ref="M73" si="1287">0.6*J73 + 0.4*K73</f>
         <v>-9.7976167886415499E-4</v>
       </c>
       <c r="N73" s="11">
@@ -12396,87 +12352,87 @@
         <v>-6.2041737168639921E-3</v>
       </c>
       <c r="P73" s="10">
-        <f t="shared" ref="P73" si="1289">P72*(1+J73)</f>
+        <f t="shared" ref="P73" si="1288">P72*(1+J73)</f>
         <v>102.12561751434727</v>
       </c>
       <c r="Q73" s="10">
-        <f t="shared" ref="Q73" si="1290">Q72*(1+K73)</f>
+        <f t="shared" ref="Q73" si="1289">Q72*(1+K73)</f>
         <v>100.22702753856336</v>
       </c>
       <c r="R73" s="10">
-        <f t="shared" ref="R73" si="1291">R72*(1+L73)</f>
+        <f t="shared" ref="R73" si="1290">R72*(1+L73)</f>
         <v>107.82018449730529</v>
       </c>
       <c r="S73" s="10">
-        <f t="shared" ref="S73" si="1292">S72*(1+M73)</f>
+        <f t="shared" ref="S73" si="1291">S72*(1+M73)</f>
         <v>101.39981432874961</v>
       </c>
       <c r="T73" s="10">
-        <f t="shared" ref="T73" si="1293">T72*(1+N73)</f>
+        <f t="shared" ref="T73" si="1292">T72*(1+N73)</f>
         <v>102.18780197631112</v>
       </c>
       <c r="V73" s="5">
-        <f t="shared" ref="V73" si="1294">P73/P$45-1</f>
+        <f t="shared" ref="V73" si="1293">P73/P$45-1</f>
         <v>3.3745781777277939E-2</v>
       </c>
       <c r="W73" s="5">
-        <f t="shared" ref="W73" si="1295">Q73/Q$45-1</f>
+        <f t="shared" ref="W73" si="1294">Q73/Q$45-1</f>
         <v>-8.5587063157277488E-4</v>
       </c>
       <c r="X73" s="5">
-        <f t="shared" ref="X73" si="1296">R73/R$45-1</f>
+        <f t="shared" ref="X73" si="1295">R73/R$45-1</f>
         <v>5.1492400659219895E-2</v>
       </c>
       <c r="Y73" s="5">
-        <f t="shared" ref="Y73" si="1297">S73/S$45-1</f>
+        <f t="shared" ref="Y73" si="1296">S73/S$45-1</f>
         <v>1.9853257151233095E-2</v>
       </c>
       <c r="Z73" s="5">
-        <f t="shared" ref="Z73" si="1298">T73/T$45-1</f>
+        <f t="shared" ref="Z73" si="1297">T73/T$45-1</f>
         <v>1.2643678160919825E-2</v>
       </c>
       <c r="AB73" s="8">
-        <f t="shared" ref="AB73" si="1299">P73/$P$2-1</f>
+        <f t="shared" ref="AB73" si="1298">P73/$P$2-1</f>
         <v>2.1256175143472777E-2</v>
       </c>
       <c r="AC73" s="8">
-        <f t="shared" ref="AC73" si="1300">Q73/$P$2-1</f>
+        <f t="shared" ref="AC73" si="1299">Q73/$P$2-1</f>
         <v>2.2702753856336244E-3</v>
       </c>
       <c r="AD73" s="8">
-        <f t="shared" ref="AD73" si="1301">R73/$P$2-1</f>
+        <f t="shared" ref="AD73" si="1300">R73/$P$2-1</f>
         <v>7.8201844973052825E-2</v>
       </c>
       <c r="AE73" s="8">
-        <f t="shared" ref="AE73" si="1302">S73/$P$2-1</f>
+        <f t="shared" ref="AE73" si="1301">S73/$P$2-1</f>
         <v>1.3998143287496045E-2</v>
       </c>
       <c r="AF73" s="8">
-        <f t="shared" ref="AF73" si="1303">T73/$T$2-1</f>
+        <f t="shared" ref="AF73" si="1302">T73/$T$2-1</f>
         <v>2.1878019763111212E-2</v>
       </c>
       <c r="AI73" s="8">
-        <f t="shared" ref="AI73" si="1304">MIN(0,(F73-MAX(F44:F73))/MAX(F44:F73))</f>
+        <f t="shared" ref="AI73" si="1303">MIN(0,(F73-MAX(F44:F73))/MAX(F44:F73))</f>
         <v>-1.1443987815692004E-3</v>
       </c>
       <c r="AJ73" s="8">
-        <f t="shared" ref="AJ73" si="1305">MIN(0,(P73-MAX(P44:P73))/MAX(P44:P73))</f>
+        <f t="shared" ref="AJ73" si="1304">MIN(0,(P73-MAX(P44:P73))/MAX(P44:P73))</f>
         <v>-4.872766648619198E-3</v>
       </c>
       <c r="AK73" s="8">
-        <f t="shared" ref="AK73" si="1306">MIN(0,(Q73-MAX(Q44:Q73))/MAX(Q44:Q73))</f>
+        <f t="shared" ref="AK73" si="1305">MIN(0,(Q73-MAX(Q44:Q73))/MAX(Q44:Q73))</f>
         <v>-4.7882827903483801E-3</v>
       </c>
       <c r="AL73" s="8">
-        <f t="shared" ref="AL73" si="1307">MIN(0,(R73-MAX(R44:R73))/MAX(R44:R73))</f>
+        <f t="shared" ref="AL73" si="1306">MIN(0,(R73-MAX(R44:R73))/MAX(R44:R73))</f>
         <v>-1.2523045883048413E-3</v>
       </c>
       <c r="AM73" s="8">
-        <f t="shared" ref="AM73" si="1308">MIN(0,(S73-MAX(S44:S73))/MAX(S44:S73))</f>
+        <f t="shared" ref="AM73" si="1307">MIN(0,(S73-MAX(S44:S73))/MAX(S44:S73))</f>
         <v>-3.140480198829323E-3</v>
       </c>
       <c r="AN73" s="8">
-        <f t="shared" ref="AN73" si="1309">MIN(0,(T73-MAX(T44:T73))/MAX(T44:T73))</f>
+        <f t="shared" ref="AN73" si="1308">MIN(0,(T73-MAX(T44:T73))/MAX(T44:T73))</f>
         <v>-1.5092230296254972E-2</v>
       </c>
     </row>
@@ -12496,19 +12452,19 @@
         <v>19954.400000000001</v>
       </c>
       <c r="E74" s="5">
-        <f t="shared" ref="E74" si="1310">D74/D73-1</f>
+        <f t="shared" ref="E74" si="1309">D74/D73-1</f>
         <v>-3.4021691575285562E-3</v>
       </c>
       <c r="F74" s="10">
-        <f t="shared" ref="F74" si="1311">F73*(1+E74)</f>
+        <f t="shared" ref="F74" si="1310">F73*(1+E74)</f>
         <v>99.772000000000034</v>
       </c>
       <c r="G74" s="5">
-        <f t="shared" ref="G74" si="1312">F74/F$45-1</f>
+        <f t="shared" ref="G74" si="1311">F74/F$45-1</f>
         <v>5.3425068872194892E-3</v>
       </c>
       <c r="H74" s="8">
-        <f t="shared" ref="H74" si="1313">F74/$F$2-1</f>
+        <f t="shared" ref="H74" si="1312">F74/$F$2-1</f>
         <v>-2.2799999999996157E-3</v>
       </c>
       <c r="J74" s="11">
@@ -12524,7 +12480,7 @@
         <v>-7.1052906551496431E-3</v>
       </c>
       <c r="M74" s="11">
-        <f t="shared" ref="M74" si="1314">0.6*J74 + 0.4*K74</f>
+        <f t="shared" ref="M74" si="1313">0.6*J74 + 0.4*K74</f>
         <v>-6.2321842856262188E-3</v>
       </c>
       <c r="N74" s="11">
@@ -12532,87 +12488,87 @@
         <v>-3.9727582292848895E-3</v>
       </c>
       <c r="P74" s="10">
-        <f t="shared" ref="P74" si="1315">P73*(1+J74)</f>
+        <f t="shared" ref="P74" si="1314">P73*(1+J74)</f>
         <v>100.91711251927816</v>
       </c>
       <c r="Q74" s="10">
-        <f t="shared" ref="Q74" si="1316">Q73*(1+K74)</f>
+        <f t="shared" ref="Q74" si="1315">Q73*(1+K74)</f>
         <v>100.44450127756213</v>
       </c>
       <c r="R74" s="10">
-        <f t="shared" ref="R74" si="1317">R73*(1+L74)</f>
+        <f t="shared" ref="R74" si="1316">R73*(1+L74)</f>
         <v>107.05409074796007</v>
       </c>
       <c r="S74" s="10">
-        <f t="shared" ref="S74" si="1318">S73*(1+M74)</f>
+        <f t="shared" ref="S74" si="1317">S73*(1+M74)</f>
         <v>100.76787199932457</v>
       </c>
       <c r="T74" s="10">
-        <f t="shared" ref="T74" si="1319">T73*(1+N74)</f>
+        <f t="shared" ref="T74" si="1318">T73*(1+N74)</f>
         <v>101.7818345450772</v>
       </c>
       <c r="V74" s="5">
-        <f t="shared" ref="V74" si="1320">P74/P$45-1</f>
+        <f t="shared" ref="V74" si="1319">P74/P$45-1</f>
         <v>2.1512935883014839E-2</v>
       </c>
       <c r="W74" s="5">
-        <f t="shared" ref="W74" si="1321">Q74/Q$45-1</f>
+        <f t="shared" ref="W74" si="1320">Q74/Q$45-1</f>
         <v>1.3120836113964529E-3</v>
       </c>
       <c r="X74" s="5">
-        <f t="shared" ref="X74" si="1322">R74/R$45-1</f>
+        <f t="shared" ref="X74" si="1321">R74/R$45-1</f>
         <v>4.402124153085496E-2</v>
       </c>
       <c r="Y74" s="5">
-        <f t="shared" ref="Y74" si="1323">S74/S$45-1</f>
+        <f t="shared" ref="Y74" si="1322">S74/S$45-1</f>
         <v>1.3497343708370524E-2</v>
       </c>
       <c r="Z74" s="5">
-        <f t="shared" ref="Z74" si="1324">T74/T$45-1</f>
+        <f t="shared" ref="Z74" si="1323">T74/T$45-1</f>
         <v>8.6206896551728196E-3</v>
       </c>
       <c r="AB74" s="8">
-        <f t="shared" ref="AB74" si="1325">P74/$P$2-1</f>
+        <f t="shared" ref="AB74" si="1324">P74/$P$2-1</f>
         <v>9.1711251927817372E-3</v>
       </c>
       <c r="AC74" s="8">
-        <f t="shared" ref="AC74" si="1326">Q74/$P$2-1</f>
+        <f t="shared" ref="AC74" si="1325">Q74/$P$2-1</f>
         <v>4.4450127756212598E-3</v>
       </c>
       <c r="AD74" s="8">
-        <f t="shared" ref="AD74" si="1327">R74/$P$2-1</f>
+        <f t="shared" ref="AD74" si="1326">R74/$P$2-1</f>
         <v>7.0540907479600845E-2</v>
       </c>
       <c r="AE74" s="8">
-        <f t="shared" ref="AE74" si="1328">S74/$P$2-1</f>
+        <f t="shared" ref="AE74" si="1327">S74/$P$2-1</f>
         <v>7.6787199932457639E-3</v>
       </c>
       <c r="AF74" s="8">
-        <f t="shared" ref="AF74" si="1329">T74/$T$2-1</f>
+        <f t="shared" ref="AF74" si="1328">T74/$T$2-1</f>
         <v>1.78183454507721E-2</v>
       </c>
       <c r="AI74" s="8">
-        <f t="shared" ref="AI74" si="1330">MIN(0,(F74-MAX(F45:F74))/MAX(F45:F74))</f>
+        <f t="shared" ref="AI74" si="1329">MIN(0,(F74-MAX(F45:F74))/MAX(F45:F74))</f>
         <v>-4.5426745008592031E-3</v>
       </c>
       <c r="AJ74" s="8">
-        <f t="shared" ref="AJ74" si="1331">MIN(0,(P74-MAX(P45:P74))/MAX(P45:P74))</f>
+        <f t="shared" ref="AJ74" si="1330">MIN(0,(P74-MAX(P45:P74))/MAX(P45:P74))</f>
         <v>-1.6648619382782514E-2</v>
       </c>
       <c r="AK74" s="8">
-        <f t="shared" ref="AK74" si="1332">MIN(0,(Q74-MAX(Q45:Q74))/MAX(Q45:Q74))</f>
+        <f t="shared" ref="AK74" si="1331">MIN(0,(Q74-MAX(Q45:Q74))/MAX(Q45:Q74))</f>
         <v>-2.6288611397992049E-3</v>
       </c>
       <c r="AL74" s="8">
-        <f t="shared" ref="AL74" si="1333">MIN(0,(R74-MAX(R45:R74))/MAX(R45:R74))</f>
+        <f t="shared" ref="AL74" si="1332">MIN(0,(R74-MAX(R45:R74))/MAX(R45:R74))</f>
         <v>-8.3486972553658279E-3</v>
       </c>
       <c r="AM74" s="8">
-        <f t="shared" ref="AM74" si="1334">MIN(0,(S74-MAX(S45:S74))/MAX(S45:S74))</f>
+        <f t="shared" ref="AM74" si="1333">MIN(0,(S74-MAX(S45:S74))/MAX(S45:S74))</f>
         <v>-9.3530924331110231E-3</v>
       </c>
       <c r="AN74" s="8">
-        <f t="shared" ref="AN74" si="1335">MIN(0,(T74-MAX(T45:T74))/MAX(T45:T74))</f>
+        <f t="shared" ref="AN74" si="1334">MIN(0,(T74-MAX(T45:T74))/MAX(T45:T74))</f>
         <v>-1.9005030743432089E-2</v>
       </c>
     </row>
@@ -12632,19 +12588,19 @@
         <v>19899.810000000001</v>
       </c>
       <c r="E75" s="5">
-        <f t="shared" ref="E75" si="1336">D75/D74-1</f>
+        <f t="shared" ref="E75" si="1335">D75/D74-1</f>
         <v>-2.7357374814577229E-3</v>
       </c>
       <c r="F75" s="10">
-        <f t="shared" ref="F75" si="1337">F74*(1+E75)</f>
+        <f t="shared" ref="F75" si="1336">F74*(1+E75)</f>
         <v>99.49905000000004</v>
       </c>
       <c r="G75" s="5">
-        <f t="shared" ref="G75" si="1338">F75/F$45-1</f>
+        <f t="shared" ref="G75" si="1337">F75/F$45-1</f>
         <v>2.5921537094255598E-3</v>
       </c>
       <c r="H75" s="8">
-        <f t="shared" ref="H75" si="1339">F75/$F$2-1</f>
+        <f t="shared" ref="H75" si="1338">F75/$F$2-1</f>
         <v>-5.009499999999556E-3</v>
       </c>
       <c r="J75" s="11">
@@ -12660,7 +12616,7 @@
         <v>-3.3675939242991948E-3</v>
       </c>
       <c r="M75" s="11">
-        <f t="shared" ref="M75" si="1340">0.6*J75 + 0.4*K75</f>
+        <f t="shared" ref="M75" si="1339">0.6*J75 + 0.4*K75</f>
         <v>-3.3253483478271838E-3</v>
       </c>
       <c r="N75" s="11">
@@ -12668,87 +12624,87 @@
         <v>-9.1168091168091214E-3</v>
       </c>
       <c r="P75" s="10">
-        <f t="shared" ref="P75" si="1341">P74*(1+J75)</f>
+        <f t="shared" ref="P75" si="1340">P74*(1+J75)</f>
         <v>100.31980545274973</v>
       </c>
       <c r="Q75" s="10">
-        <f t="shared" ref="Q75" si="1342">Q74*(1+K75)</f>
+        <f t="shared" ref="Q75" si="1341">Q74*(1+K75)</f>
         <v>100.50123355730094</v>
       </c>
       <c r="R75" s="10">
-        <f t="shared" ref="R75" si="1343">R74*(1+L75)</f>
+        <f t="shared" ref="R75" si="1342">R74*(1+L75)</f>
         <v>106.69357604238587</v>
       </c>
       <c r="S75" s="10">
-        <f t="shared" ref="S75" si="1344">S74*(1+M75)</f>
+        <f t="shared" ref="S75" si="1343">S74*(1+M75)</f>
         <v>100.43278372265756</v>
       </c>
       <c r="T75" s="10">
-        <f t="shared" ref="T75" si="1345">T74*(1+N75)</f>
+        <f t="shared" ref="T75" si="1344">T74*(1+N75)</f>
         <v>100.85390898797108</v>
       </c>
       <c r="V75" s="5">
-        <f t="shared" ref="V75" si="1346">P75/P$45-1</f>
+        <f t="shared" ref="V75" si="1345">P75/P$45-1</f>
         <v>1.5466816647919268E-2</v>
       </c>
       <c r="W75" s="5">
-        <f t="shared" ref="W75" si="1347">Q75/Q$45-1</f>
+        <f t="shared" ref="W75" si="1346">Q75/Q$45-1</f>
         <v>1.8776368921709086E-3</v>
       </c>
       <c r="X75" s="5">
-        <f t="shared" ref="X75" si="1348">R75/R$45-1</f>
+        <f t="shared" ref="X75" si="1347">R75/R$45-1</f>
         <v>4.0505401941036467E-2</v>
       </c>
       <c r="Y75" s="5">
-        <f t="shared" ref="Y75" si="1349">S75/S$45-1</f>
+        <f t="shared" ref="Y75" si="1348">S75/S$45-1</f>
         <v>1.0127111990942739E-2</v>
       </c>
       <c r="Z75" s="5">
-        <f t="shared" ref="Z75" si="1350">T75/T$45-1</f>
+        <f t="shared" ref="Z75" si="1349">T75/T$45-1</f>
         <v>-5.7471264367792152E-4</v>
       </c>
       <c r="AB75" s="8">
-        <f t="shared" ref="AB75" si="1351">P75/$P$2-1</f>
+        <f t="shared" ref="AB75" si="1350">P75/$P$2-1</f>
         <v>3.1980545274974403E-3</v>
       </c>
       <c r="AC75" s="8">
-        <f t="shared" ref="AC75" si="1352">Q75/$P$2-1</f>
+        <f t="shared" ref="AC75" si="1351">Q75/$P$2-1</f>
         <v>5.0123355730093966E-3</v>
       </c>
       <c r="AD75" s="8">
-        <f t="shared" ref="AD75" si="1353">R75/$P$2-1</f>
+        <f t="shared" ref="AD75" si="1352">R75/$P$2-1</f>
         <v>6.6935760423858737E-2</v>
       </c>
       <c r="AE75" s="8">
-        <f t="shared" ref="AE75" si="1354">S75/$P$2-1</f>
+        <f t="shared" ref="AE75" si="1353">S75/$P$2-1</f>
         <v>4.3278372265755927E-3</v>
       </c>
       <c r="AF75" s="8">
-        <f t="shared" ref="AF75" si="1355">T75/$T$2-1</f>
+        <f t="shared" ref="AF75" si="1354">T75/$T$2-1</f>
         <v>8.5390898797108594E-3</v>
       </c>
       <c r="AI75" s="8">
-        <f t="shared" ref="AI75" si="1356">MIN(0,(F75-MAX(F46:F75))/MAX(F46:F75))</f>
+        <f t="shared" ref="AI75" si="1355">MIN(0,(F75-MAX(F46:F75))/MAX(F46:F75))</f>
         <v>-7.2659844174188084E-3</v>
       </c>
       <c r="AJ75" s="8">
-        <f t="shared" ref="AJ75" si="1357">MIN(0,(P75-MAX(P46:P75))/MAX(P46:P75))</f>
+        <f t="shared" ref="AJ75" si="1356">MIN(0,(P75-MAX(P46:P75))/MAX(P46:P75))</f>
         <v>-2.2468868435300222E-2</v>
       </c>
       <c r="AK75" s="8">
-        <f t="shared" ref="AK75" si="1358">MIN(0,(Q75-MAX(Q46:Q75))/MAX(Q46:Q75))</f>
+        <f t="shared" ref="AK75" si="1357">MIN(0,(Q75-MAX(Q46:Q75))/MAX(Q46:Q75))</f>
         <v>-2.0655337526993955E-3</v>
       </c>
       <c r="AL75" s="8">
-        <f t="shared" ref="AL75" si="1359">MIN(0,(R75-MAX(R46:R75))/MAX(R46:R75))</f>
+        <f t="shared" ref="AL75" si="1358">MIN(0,(R75-MAX(R46:R75))/MAX(R46:R75))</f>
         <v>-1.1688176157512029E-2</v>
       </c>
       <c r="AM75" s="8">
-        <f t="shared" ref="AM75" si="1360">MIN(0,(S75-MAX(S46:S75))/MAX(S46:S75))</f>
+        <f t="shared" ref="AM75" si="1359">MIN(0,(S75-MAX(S46:S75))/MAX(S46:S75))</f>
         <v>-1.264733849046862E-2</v>
       </c>
       <c r="AN75" s="8">
-        <f t="shared" ref="AN75" si="1361">MIN(0,(T75-MAX(T46:T75))/MAX(T46:T75))</f>
+        <f t="shared" ref="AN75" si="1360">MIN(0,(T75-MAX(T46:T75))/MAX(T46:T75))</f>
         <v>-2.7948574622694289E-2</v>
       </c>
     </row>
@@ -12768,19 +12724,19 @@
         <v>19972.18</v>
       </c>
       <c r="E76" s="5">
-        <f t="shared" ref="E76" si="1362">D76/D75-1</f>
+        <f t="shared" ref="E76" si="1361">D76/D75-1</f>
         <v>3.6367181395198234E-3</v>
       </c>
       <c r="F76" s="10">
-        <f t="shared" ref="F76" si="1363">F75*(1+E76)</f>
+        <f t="shared" ref="F76" si="1362">F75*(1+E76)</f>
         <v>99.860900000000029</v>
       </c>
       <c r="G76" s="5">
-        <f t="shared" ref="G76" si="1364">F76/F$45-1</f>
+        <f t="shared" ref="G76" si="1363">F76/F$45-1</f>
         <v>6.2382987813609514E-3</v>
       </c>
       <c r="H76" s="8">
-        <f t="shared" ref="H76" si="1365">F76/$F$2-1</f>
+        <f t="shared" ref="H76" si="1364">F76/$F$2-1</f>
         <v>-1.390999999999698E-3</v>
       </c>
       <c r="J76" s="11">
@@ -12796,7 +12752,7 @@
         <v>6.405969518848309E-3</v>
       </c>
       <c r="M76" s="11">
-        <f t="shared" ref="M76" si="1366">0.6*J76 + 0.4*K76</f>
+        <f t="shared" ref="M76" si="1365">0.6*J76 + 0.4*K76</f>
         <v>2.3652939076950208E-3</v>
       </c>
       <c r="N76" s="11">
@@ -12804,87 +12760,87 @@
         <v>4.025301897642386E-3</v>
       </c>
       <c r="P76" s="10">
-        <f t="shared" ref="P76" si="1367">P75*(1+J76)</f>
+        <f t="shared" ref="P76" si="1366">P75*(1+J76)</f>
         <v>100.77820389915527</v>
       </c>
       <c r="Q76" s="10">
-        <f t="shared" ref="Q76" si="1368">Q75*(1+K76)</f>
+        <f t="shared" ref="Q76" si="1367">Q75*(1+K76)</f>
         <v>100.40667975773624</v>
       </c>
       <c r="R76" s="10">
-        <f t="shared" ref="R76" si="1369">R75*(1+L76)</f>
+        <f t="shared" ref="R76" si="1368">R75*(1+L76)</f>
         <v>107.37705183837032</v>
       </c>
       <c r="S76" s="10">
-        <f t="shared" ref="S76" si="1370">S75*(1+M76)</f>
+        <f t="shared" ref="S76" si="1369">S75*(1+M76)</f>
         <v>100.67033677412961</v>
       </c>
       <c r="T76" s="10">
-        <f t="shared" ref="T76" si="1371">T75*(1+N76)</f>
+        <f t="shared" ref="T76" si="1370">T75*(1+N76)</f>
         <v>101.25987641920501</v>
       </c>
       <c r="V76" s="5">
-        <f t="shared" ref="V76" si="1372">P76/P$45-1</f>
+        <f t="shared" ref="V76" si="1371">P76/P$45-1</f>
         <v>2.0106861642295026E-2</v>
       </c>
       <c r="W76" s="5">
-        <f t="shared" ref="W76" si="1373">Q76/Q$45-1</f>
+        <f t="shared" ref="W76" si="1372">Q76/Q$45-1</f>
         <v>9.3504809087985308E-4</v>
       </c>
       <c r="X76" s="5">
-        <f t="shared" ref="X76" si="1374">R76/R$45-1</f>
+        <f t="shared" ref="X76" si="1373">R76/R$45-1</f>
         <v>4.7170847830067641E-2</v>
       </c>
       <c r="Y76" s="5">
-        <f t="shared" ref="Y76" si="1375">S76/S$45-1</f>
+        <f t="shared" ref="Y76" si="1374">S76/S$45-1</f>
         <v>1.2516359494932461E-2</v>
       </c>
       <c r="Z76" s="5">
-        <f t="shared" ref="Z76" si="1376">T76/T$45-1</f>
+        <f t="shared" ref="Z76" si="1375">T76/T$45-1</f>
         <v>3.4482758620693055E-3</v>
       </c>
       <c r="AB76" s="8">
-        <f t="shared" ref="AB76" si="1377">P76/$P$2-1</f>
+        <f t="shared" ref="AB76" si="1376">P76/$P$2-1</f>
         <v>7.782038991552831E-3</v>
       </c>
       <c r="AC76" s="8">
-        <f t="shared" ref="AC76" si="1378">Q76/$P$2-1</f>
+        <f t="shared" ref="AC76" si="1377">Q76/$P$2-1</f>
         <v>4.066797577362502E-3</v>
       </c>
       <c r="AD76" s="8">
-        <f t="shared" ref="AD76" si="1379">R76/$P$2-1</f>
+        <f t="shared" ref="AD76" si="1378">R76/$P$2-1</f>
         <v>7.3770518383703187E-2</v>
       </c>
       <c r="AE76" s="8">
-        <f t="shared" ref="AE76" si="1380">S76/$P$2-1</f>
+        <f t="shared" ref="AE76" si="1379">S76/$P$2-1</f>
         <v>6.7033677412959847E-3</v>
       </c>
       <c r="AF76" s="8">
-        <f t="shared" ref="AF76" si="1381">T76/$T$2-1</f>
+        <f t="shared" ref="AF76" si="1380">T76/$T$2-1</f>
         <v>1.2598764192050194E-2</v>
       </c>
       <c r="AI76" s="8">
-        <f t="shared" ref="AI76" si="1382">MIN(0,(F76-MAX(F47:F76))/MAX(F47:F76))</f>
+        <f t="shared" ref="AI76" si="1381">MIN(0,(F76-MAX(F47:F76))/MAX(F47:F76))</f>
         <v>-3.6556906152312822E-3</v>
       </c>
       <c r="AJ76" s="8">
-        <f t="shared" ref="AJ76" si="1383">MIN(0,(P76-MAX(P47:P76))/MAX(P47:P76))</f>
+        <f t="shared" ref="AJ76" si="1382">MIN(0,(P76-MAX(P47:P76))/MAX(P47:P76))</f>
         <v>-1.8002165674065703E-2</v>
       </c>
       <c r="AK76" s="8">
-        <f t="shared" ref="AK76" si="1384">MIN(0,(Q76-MAX(Q47:Q76))/MAX(Q47:Q76))</f>
+        <f t="shared" ref="AK76" si="1383">MIN(0,(Q76-MAX(Q47:Q76))/MAX(Q47:Q76))</f>
         <v>-3.0044127311991721E-3</v>
       </c>
       <c r="AL76" s="8">
-        <f t="shared" ref="AL76" si="1385">MIN(0,(R76-MAX(R47:R76))/MAX(R47:R76))</f>
+        <f t="shared" ref="AL76" si="1384">MIN(0,(R76-MAX(R47:R76))/MAX(R47:R76))</f>
         <v>-5.3570807388596577E-3</v>
       </c>
       <c r="AM76" s="8">
-        <f t="shared" ref="AM76" si="1386">MIN(0,(S76-MAX(S47:S76))/MAX(S47:S76))</f>
+        <f t="shared" ref="AM76" si="1385">MIN(0,(S76-MAX(S47:S76))/MAX(S47:S76))</f>
         <v>-1.0311959255453714E-2</v>
       </c>
       <c r="AN76" s="8">
-        <f t="shared" ref="AN76" si="1387">MIN(0,(T76-MAX(T47:T76))/MAX(T47:T76))</f>
+        <f t="shared" ref="AN76" si="1386">MIN(0,(T76-MAX(T47:T76))/MAX(T47:T76))</f>
         <v>-2.4035774175517034E-2</v>
       </c>
     </row>
@@ -12904,19 +12860,19 @@
         <v>19898.38</v>
       </c>
       <c r="E77" s="5">
-        <f t="shared" ref="E77" si="1388">D77/D76-1</f>
+        <f t="shared" ref="E77" si="1387">D77/D76-1</f>
         <v>-3.6951399396559781E-3</v>
       </c>
       <c r="F77" s="10">
-        <f t="shared" ref="F77" si="1389">F76*(1+E77)</f>
+        <f t="shared" ref="F77" si="1388">F76*(1+E77)</f>
         <v>99.491900000000044</v>
       </c>
       <c r="G77" s="5">
-        <f t="shared" ref="G77" si="1390">F77/F$45-1</f>
+        <f t="shared" ref="G77" si="1389">F77/F$45-1</f>
         <v>2.5201074547225311E-3</v>
       </c>
       <c r="H77" s="8">
-        <f t="shared" ref="H77" si="1391">F77/$F$2-1</f>
+        <f t="shared" ref="H77" si="1390">F77/$F$2-1</f>
         <v>-5.0809999999995581E-3</v>
       </c>
       <c r="J77" s="11">
@@ -12932,7 +12888,7 @@
         <v>-7.9739796453678347E-3</v>
       </c>
       <c r="M77" s="11">
-        <f t="shared" ref="M77" si="1392">0.6*J77 + 0.4*K77</f>
+        <f t="shared" ref="M77" si="1391">0.6*J77 + 0.4*K77</f>
         <v>-6.5473113645105659E-3</v>
       </c>
       <c r="N77" s="11">
@@ -12940,87 +12896,87 @@
         <v>-8.1443298969073874E-3</v>
       </c>
       <c r="P77" s="10">
-        <f t="shared" ref="P77" si="1393">P76*(1+J77)</f>
+        <f t="shared" ref="P77" si="1392">P76*(1+J77)</f>
         <v>99.583589766098441</v>
       </c>
       <c r="Q77" s="10">
-        <f t="shared" ref="Q77" si="1394">Q76*(1+K77)</f>
+        <f t="shared" ref="Q77" si="1393">Q76*(1+K77)</f>
         <v>100.54851045708327</v>
       </c>
       <c r="R77" s="10">
-        <f t="shared" ref="R77" si="1395">R76*(1+L77)</f>
+        <f t="shared" ref="R77" si="1394">R76*(1+L77)</f>
         <v>106.52082941263154</v>
       </c>
       <c r="S77" s="10">
-        <f t="shared" ref="S77" si="1396">S76*(1+M77)</f>
+        <f t="shared" ref="S77" si="1395">S76*(1+M77)</f>
         <v>100.01121673409924</v>
       </c>
       <c r="T77" s="10">
-        <f t="shared" ref="T77" si="1397">T76*(1+N77)</f>
+        <f t="shared" ref="T77" si="1396">T76*(1+N77)</f>
         <v>100.43518258032694</v>
       </c>
       <c r="V77" s="5">
-        <f t="shared" ref="V77" si="1398">P77/P$45-1</f>
+        <f t="shared" ref="V77" si="1397">P77/P$45-1</f>
         <v>8.0146231721038852E-3</v>
       </c>
       <c r="W77" s="5">
-        <f t="shared" ref="W77" si="1399">Q77/Q$45-1</f>
+        <f t="shared" ref="W77" si="1398">Q77/Q$45-1</f>
         <v>2.3489312928164363E-3</v>
       </c>
       <c r="X77" s="5">
-        <f t="shared" ref="X77" si="1400">R77/R$45-1</f>
+        <f t="shared" ref="X77" si="1399">R77/R$45-1</f>
         <v>3.8820728804248139E-2</v>
       </c>
       <c r="Y77" s="5">
-        <f t="shared" ref="Y77" si="1401">S77/S$45-1</f>
+        <f t="shared" ref="Y77" si="1400">S77/S$45-1</f>
         <v>5.887099627658321E-3</v>
       </c>
       <c r="Z77" s="5">
-        <f t="shared" ref="Z77" si="1402">T77/T$45-1</f>
+        <f t="shared" ref="Z77" si="1401">T77/T$45-1</f>
         <v>-4.7241379310343223E-3</v>
       </c>
       <c r="AB77" s="8">
-        <f t="shared" ref="AB77" si="1403">P77/$P$2-1</f>
+        <f t="shared" ref="AB77" si="1402">P77/$P$2-1</f>
         <v>-4.1641023390155407E-3</v>
       </c>
       <c r="AC77" s="8">
-        <f t="shared" ref="AC77" si="1404">Q77/$P$2-1</f>
+        <f t="shared" ref="AC77" si="1403">Q77/$P$2-1</f>
         <v>5.4851045708326218E-3</v>
       </c>
       <c r="AD77" s="8">
-        <f t="shared" ref="AD77" si="1405">R77/$P$2-1</f>
+        <f t="shared" ref="AD77" si="1404">R77/$P$2-1</f>
         <v>6.5208294126315458E-2</v>
       </c>
       <c r="AE77" s="8">
-        <f t="shared" ref="AE77" si="1406">S77/$P$2-1</f>
+        <f t="shared" ref="AE77" si="1405">S77/$P$2-1</f>
         <v>1.1216734099228631E-4</v>
       </c>
       <c r="AF77" s="8">
-        <f t="shared" ref="AF77" si="1407">T77/$T$2-1</f>
+        <f t="shared" ref="AF77" si="1406">T77/$T$2-1</f>
         <v>4.3518258032693158E-3</v>
       </c>
       <c r="AI77" s="8">
-        <f t="shared" ref="AI77" si="1408">MIN(0,(F77-MAX(F48:F77))/MAX(F48:F77))</f>
+        <f t="shared" ref="AI77" si="1407">MIN(0,(F77-MAX(F48:F77))/MAX(F48:F77))</f>
         <v>-7.3373222664878321E-3</v>
       </c>
       <c r="AJ77" s="8">
-        <f t="shared" ref="AJ77" si="1409">MIN(0,(P77-MAX(P48:P77))/MAX(P48:P77))</f>
+        <f t="shared" ref="AJ77" si="1408">MIN(0,(P77-MAX(P48:P77))/MAX(P48:P77))</f>
         <v>-2.9642663779100839E-2</v>
       </c>
       <c r="AK77" s="8">
-        <f t="shared" ref="AK77" si="1410">MIN(0,(Q77-MAX(Q48:Q77))/MAX(Q48:Q77))</f>
+        <f t="shared" ref="AK77" si="1409">MIN(0,(Q77-MAX(Q48:Q77))/MAX(Q48:Q77))</f>
         <v>-1.5960942634496483E-3</v>
       </c>
       <c r="AL77" s="8">
-        <f t="shared" ref="AL77" si="1411">MIN(0,(R77-MAX(R48:R77))/MAX(R48:R77))</f>
+        <f t="shared" ref="AL77" si="1410">MIN(0,(R77-MAX(R48:R77))/MAX(R48:R77))</f>
         <v>-1.3288343131457294E-2</v>
       </c>
       <c r="AM77" s="8">
-        <f t="shared" ref="AM77" si="1412">MIN(0,(S77-MAX(S48:S77))/MAX(S48:S77))</f>
+        <f t="shared" ref="AM77" si="1411">MIN(0,(S77-MAX(S48:S77))/MAX(S48:S77))</f>
         <v>-1.6791755011940763E-2</v>
       </c>
       <c r="AN77" s="8">
-        <f t="shared" ref="AN77" si="1413">MIN(0,(T77-MAX(T48:T77))/MAX(T48:T77))</f>
+        <f t="shared" ref="AN77" si="1412">MIN(0,(T77-MAX(T48:T77))/MAX(T48:T77))</f>
         <v>-3.1984348798211416E-2</v>
       </c>
     </row>
@@ -13040,19 +12996,19 @@
         <v>20027.599999999999</v>
       </c>
       <c r="E78" s="5">
-        <f t="shared" ref="E78" si="1414">D78/D77-1</f>
+        <f t="shared" ref="E78" si="1413">D78/D77-1</f>
         <v>6.493995993643642E-3</v>
       </c>
       <c r="F78" s="10">
-        <f t="shared" ref="F78" si="1415">F77*(1+E78)</f>
+        <f t="shared" ref="F78" si="1414">F77*(1+E78)</f>
         <v>100.13800000000003</v>
       </c>
       <c r="G78" s="5">
-        <f t="shared" ref="G78" si="1416">F78/F$45-1</f>
+        <f t="shared" ref="G78" si="1415">F78/F$45-1</f>
         <v>9.0304690160805112E-3</v>
       </c>
       <c r="H78" s="8">
-        <f t="shared" ref="H78" si="1417">F78/$F$2-1</f>
+        <f t="shared" ref="H78" si="1416">F78/$F$2-1</f>
         <v>1.3800000000003809E-3</v>
       </c>
       <c r="J78" s="11">
@@ -13068,7 +13024,7 @@
         <v>8.6374052529527567E-3</v>
       </c>
       <c r="M78" s="11">
-        <f t="shared" ref="M78" si="1418">0.6*J78 + 0.4*K78</f>
+        <f t="shared" ref="M78" si="1417">0.6*J78 + 0.4*K78</f>
         <v>4.7451499600985603E-3</v>
       </c>
       <c r="N78" s="11">
@@ -13076,87 +13032,87 @@
         <v>-7.3796902608874726E-3</v>
       </c>
       <c r="P78" s="10">
-        <f t="shared" ref="P78" si="1419">P77*(1+J78)</f>
+        <f t="shared" ref="P78" si="1418">P77*(1+J78)</f>
         <v>100.33369631476205</v>
       </c>
       <c r="Q78" s="10">
-        <f t="shared" ref="Q78" si="1420">Q77*(1+K78)</f>
+        <f t="shared" ref="Q78" si="1419">Q77*(1+K78)</f>
         <v>100.60524273682208</v>
       </c>
       <c r="R78" s="10">
-        <f t="shared" ref="R78" si="1421">R77*(1+L78)</f>
+        <f t="shared" ref="R78" si="1420">R77*(1+L78)</f>
         <v>107.44089298414909</v>
       </c>
       <c r="S78" s="10">
-        <f t="shared" ref="S78" si="1422">S77*(1+M78)</f>
+        <f t="shared" ref="S78" si="1421">S77*(1+M78)</f>
         <v>100.48578495519446</v>
       </c>
       <c r="T78" s="10">
-        <f t="shared" ref="T78" si="1423">T77*(1+N78)</f>
+        <f t="shared" ref="T78" si="1422">T77*(1+N78)</f>
         <v>99.694002041588448</v>
       </c>
       <c r="V78" s="5">
-        <f t="shared" ref="V78" si="1424">P78/P$45-1</f>
+        <f t="shared" ref="V78" si="1423">P78/P$45-1</f>
         <v>1.5607424071991449E-2</v>
       </c>
       <c r="W78" s="5">
-        <f t="shared" ref="W78" si="1425">Q78/Q$45-1</f>
+        <f t="shared" ref="W78" si="1424">Q78/Q$45-1</f>
         <v>2.914484573590892E-3</v>
       </c>
       <c r="X78" s="5">
-        <f t="shared" ref="X78" si="1426">R78/R$45-1</f>
+        <f t="shared" ref="X78" si="1425">R78/R$45-1</f>
         <v>4.7793444424098164E-2</v>
       </c>
       <c r="Y78" s="5">
-        <f t="shared" ref="Y78" si="1427">S78/S$45-1</f>
+        <f t="shared" ref="Y78" si="1426">S78/S$45-1</f>
         <v>1.0660184758320312E-2</v>
       </c>
       <c r="Z78" s="5">
-        <f t="shared" ref="Z78" si="1428">T78/T$45-1</f>
+        <f t="shared" ref="Z78" si="1427">T78/T$45-1</f>
         <v>-1.2068965517241015E-2</v>
       </c>
       <c r="AB78" s="8">
-        <f t="shared" ref="AB78" si="1429">P78/$P$2-1</f>
+        <f t="shared" ref="AB78" si="1428">P78/$P$2-1</f>
         <v>3.336963147620553E-3</v>
       </c>
       <c r="AC78" s="8">
-        <f t="shared" ref="AC78" si="1430">Q78/$P$2-1</f>
+        <f t="shared" ref="AC78" si="1429">Q78/$P$2-1</f>
         <v>6.0524273682207586E-3</v>
       </c>
       <c r="AD78" s="8">
-        <f t="shared" ref="AD78" si="1431">R78/$P$2-1</f>
+        <f t="shared" ref="AD78" si="1430">R78/$P$2-1</f>
         <v>7.4408929841490945E-2</v>
       </c>
       <c r="AE78" s="8">
-        <f t="shared" ref="AE78" si="1432">S78/$P$2-1</f>
+        <f t="shared" ref="AE78" si="1431">S78/$P$2-1</f>
         <v>4.8578495519446818E-3</v>
       </c>
       <c r="AF78" s="8">
-        <f t="shared" ref="AF78" si="1433">T78/$T$2-1</f>
+        <f t="shared" ref="AF78" si="1432">T78/$T$2-1</f>
         <v>-3.0599795841155242E-3</v>
       </c>
       <c r="AI78" s="8">
-        <f t="shared" ref="AI78" si="1434">MIN(0,(F78-MAX(F49:F78))/MAX(F49:F78))</f>
+        <f t="shared" ref="AI78" si="1433">MIN(0,(F78-MAX(F49:F78))/MAX(F49:F78))</f>
         <v>-8.9097481424687652E-4</v>
       </c>
       <c r="AJ78" s="8">
-        <f t="shared" ref="AJ78" si="1435">MIN(0,(P78-MAX(P49:P78))/MAX(P49:P78))</f>
+        <f t="shared" ref="AJ78" si="1434">MIN(0,(P78-MAX(P49:P78))/MAX(P49:P78))</f>
         <v>-2.2333513806171625E-2</v>
       </c>
       <c r="AK78" s="8">
-        <f t="shared" ref="AK78" si="1436">MIN(0,(Q78-MAX(Q49:Q78))/MAX(Q49:Q78))</f>
+        <f t="shared" ref="AK78" si="1435">MIN(0,(Q78-MAX(Q49:Q78))/MAX(Q49:Q78))</f>
         <v>-1.0327668763498389E-3</v>
       </c>
       <c r="AL78" s="8">
-        <f t="shared" ref="AL78" si="1437">MIN(0,(R78-MAX(R49:R78))/MAX(R49:R78))</f>
+        <f t="shared" ref="AL78" si="1436">MIN(0,(R78-MAX(R49:R78))/MAX(R49:R78))</f>
         <v>-4.7657146832712528E-3</v>
       </c>
       <c r="AM78" s="8">
-        <f t="shared" ref="AM78" si="1438">MIN(0,(S78-MAX(S49:S78))/MAX(S49:S78))</f>
+        <f t="shared" ref="AM78" si="1437">MIN(0,(S78-MAX(S49:S78))/MAX(S49:S78))</f>
         <v>-1.212628444746704E-2</v>
       </c>
       <c r="AN78" s="8">
-        <f t="shared" ref="AN78" si="1439">MIN(0,(T78-MAX(T49:T78))/MAX(T49:T78))</f>
+        <f t="shared" ref="AN78" si="1438">MIN(0,(T78-MAX(T49:T78))/MAX(T49:T78))</f>
         <v>-3.9128004471771866E-2</v>
       </c>
     </row>
@@ -13176,19 +13132,19 @@
         <v>20112.39</v>
       </c>
       <c r="E79" s="5">
-        <f t="shared" ref="E79" si="1440">D79/D78-1</f>
+        <f t="shared" ref="E79" si="1439">D79/D78-1</f>
         <v>4.23365755257743E-3</v>
       </c>
       <c r="F79" s="10">
-        <f t="shared" ref="F79" si="1441">F78*(1+E79)</f>
+        <f t="shared" ref="F79" si="1440">F78*(1+E79)</f>
         <v>100.56195000000004</v>
       </c>
       <c r="G79" s="5">
-        <f t="shared" ref="G79" si="1442">F79/F$45-1</f>
+        <f t="shared" ref="G79" si="1441">F79/F$45-1</f>
         <v>1.3302358482011334E-2</v>
       </c>
       <c r="H79" s="8">
-        <f t="shared" ref="H79" si="1443">F79/$F$2-1</f>
+        <f t="shared" ref="H79" si="1442">F79/$F$2-1</f>
         <v>5.6195000000003326E-3</v>
       </c>
       <c r="J79" s="11">
@@ -13204,7 +13160,7 @@
         <v>3.2855644879412615E-3</v>
       </c>
       <c r="M79" s="11">
-        <f t="shared" ref="M79" si="1444">0.6*J79 + 0.4*K79</f>
+        <f t="shared" ref="M79" si="1443">0.6*J79 + 0.4*K79</f>
         <v>2.966807160501217E-3</v>
       </c>
       <c r="N79" s="11">
@@ -13212,87 +13168,87 @@
         <v>1.4543339150669077E-2</v>
       </c>
       <c r="P79" s="10">
-        <f t="shared" ref="P79" si="1445">P78*(1+J79)</f>
+        <f t="shared" ref="P79" si="1444">P78*(1+J79)</f>
         <v>100.79209476116759</v>
       </c>
       <c r="Q79" s="10">
-        <f t="shared" ref="Q79" si="1446">Q78*(1+K79)</f>
+        <f t="shared" ref="Q79" si="1445">Q78*(1+K79)</f>
         <v>100.66197501656086</v>
       </c>
       <c r="R79" s="10">
-        <f t="shared" ref="R79" si="1447">R78*(1+L79)</f>
+        <f t="shared" ref="R79" si="1446">R78*(1+L79)</f>
         <v>107.79389696669051</v>
       </c>
       <c r="S79" s="10">
-        <f t="shared" ref="S79" si="1448">S78*(1+M79)</f>
+        <f t="shared" ref="S79" si="1447">S78*(1+M79)</f>
         <v>100.78390690152811</v>
       </c>
       <c r="T79" s="10">
-        <f t="shared" ref="T79" si="1449">T78*(1+N79)</f>
+        <f t="shared" ref="T79" si="1448">T78*(1+N79)</f>
         <v>101.14388572456676</v>
       </c>
       <c r="V79" s="5">
-        <f t="shared" ref="V79" si="1450">P79/P$45-1</f>
+        <f t="shared" ref="V79" si="1449">P79/P$45-1</f>
         <v>2.0247469066367207E-2</v>
       </c>
       <c r="W79" s="5">
-        <f t="shared" ref="W79" si="1451">Q79/Q$45-1</f>
+        <f t="shared" ref="W79" si="1450">Q79/Q$45-1</f>
         <v>3.4800378543651256E-3</v>
       </c>
       <c r="X79" s="5">
-        <f t="shared" ref="X79" si="1452">R79/R$45-1</f>
+        <f t="shared" ref="X79" si="1451">R79/R$45-1</f>
         <v>5.1236037355795627E-2</v>
       </c>
       <c r="Y79" s="5">
-        <f t="shared" ref="Y79" si="1453">S79/S$45-1</f>
+        <f t="shared" ref="Y79" si="1452">S79/S$45-1</f>
         <v>1.3658618631294583E-2</v>
       </c>
       <c r="Z79" s="5">
-        <f t="shared" ref="Z79" si="1454">T79/T$45-1</f>
+        <f t="shared" ref="Z79" si="1453">T79/T$45-1</f>
         <v>2.2988505747130183E-3</v>
       </c>
       <c r="AB79" s="8">
-        <f t="shared" ref="AB79" si="1455">P79/$P$2-1</f>
+        <f t="shared" ref="AB79" si="1454">P79/$P$2-1</f>
         <v>7.9209476116759436E-3</v>
       </c>
       <c r="AC79" s="8">
-        <f t="shared" ref="AC79" si="1456">Q79/$P$2-1</f>
+        <f t="shared" ref="AC79" si="1455">Q79/$P$2-1</f>
         <v>6.6197501656086732E-3</v>
       </c>
       <c r="AD79" s="8">
-        <f t="shared" ref="AD79" si="1457">R79/$P$2-1</f>
+        <f t="shared" ref="AD79" si="1456">R79/$P$2-1</f>
         <v>7.7938969666905056E-2</v>
       </c>
       <c r="AE79" s="8">
-        <f t="shared" ref="AE79" si="1458">S79/$P$2-1</f>
+        <f t="shared" ref="AE79" si="1457">S79/$P$2-1</f>
         <v>7.839069015281197E-3</v>
       </c>
       <c r="AF79" s="8">
-        <f t="shared" ref="AF79" si="1459">T79/$T$2-1</f>
+        <f t="shared" ref="AF79" si="1458">T79/$T$2-1</f>
         <v>1.1438857245667622E-2</v>
       </c>
       <c r="AI79" s="8">
-        <f t="shared" ref="AI79" si="1460">MIN(0,(F79-MAX(F50:F79))/MAX(F50:F79))</f>
+        <f t="shared" ref="AI79" si="1459">MIN(0,(F79-MAX(F50:F79))/MAX(F50:F79))</f>
         <v>0</v>
       </c>
       <c r="AJ79" s="8">
-        <f t="shared" ref="AJ79" si="1461">MIN(0,(P79-MAX(P50:P79))/MAX(P50:P79))</f>
+        <f t="shared" ref="AJ79" si="1460">MIN(0,(P79-MAX(P50:P79))/MAX(P50:P79))</f>
         <v>-1.7866811044937106E-2</v>
       </c>
       <c r="AK79" s="8">
-        <f t="shared" ref="AK79" si="1462">MIN(0,(Q79-MAX(Q50:Q79))/MAX(Q50:Q79))</f>
+        <f t="shared" ref="AK79" si="1461">MIN(0,(Q79-MAX(Q50:Q79))/MAX(Q50:Q79))</f>
         <v>-4.6943948925031159E-4</v>
       </c>
       <c r="AL79" s="8">
-        <f t="shared" ref="AL79" si="1463">MIN(0,(R79-MAX(R50:R79))/MAX(R50:R79))</f>
+        <f t="shared" ref="AL79" si="1462">MIN(0,(R79-MAX(R50:R79))/MAX(R50:R79))</f>
         <v>-1.4958082582529537E-3</v>
       </c>
       <c r="AM79" s="8">
-        <f t="shared" ref="AM79" si="1464">MIN(0,(S79-MAX(S50:S79))/MAX(S50:S79))</f>
+        <f t="shared" ref="AM79" si="1463">MIN(0,(S79-MAX(S50:S79))/MAX(S50:S79))</f>
         <v>-9.1954536344948917E-3</v>
       </c>
       <c r="AN79" s="8">
-        <f t="shared" ref="AN79" si="1465">MIN(0,(T79-MAX(T50:T79))/MAX(T50:T79))</f>
+        <f t="shared" ref="AN79" si="1464">MIN(0,(T79-MAX(T50:T79))/MAX(T50:T79))</f>
         <v>-2.5153717160424725E-2</v>
       </c>
     </row>
@@ -13312,19 +13268,19 @@
         <v>20173.34</v>
       </c>
       <c r="E80" s="5">
-        <f t="shared" ref="E80" si="1466">D80/D79-1</f>
+        <f t="shared" ref="E80" si="1465">D80/D79-1</f>
         <v>3.0304702723047416E-3</v>
       </c>
       <c r="F80" s="10">
-        <f t="shared" ref="F80" si="1467">F79*(1+E80)</f>
+        <f t="shared" ref="F80" si="1466">F79*(1+E80)</f>
         <v>100.86670000000004</v>
       </c>
       <c r="G80" s="5">
-        <f t="shared" ref="G80" si="1468">F80/F$45-1</f>
+        <f t="shared" ref="G80" si="1467">F80/F$45-1</f>
         <v>1.6373141156247328E-2</v>
       </c>
       <c r="H80" s="8">
-        <f t="shared" ref="H80" si="1469">F80/$F$2-1</f>
+        <f t="shared" ref="H80" si="1468">F80/$F$2-1</f>
         <v>8.6670000000004244E-3</v>
       </c>
       <c r="J80" s="11">
@@ -13340,7 +13296,7 @@
         <v>2.4386845039019445E-3</v>
       </c>
       <c r="M80" s="11">
-        <f t="shared" ref="M80" si="1470">0.6*J80 + 0.4*K80</f>
+        <f t="shared" ref="M80" si="1469">0.6*J80 + 0.4*K80</f>
         <v>3.0216638038293108E-3</v>
       </c>
       <c r="N80" s="11">
@@ -13348,87 +13304,87 @@
         <v>9.0309633027523262E-3</v>
       </c>
       <c r="P80" s="10">
-        <f t="shared" ref="P80" si="1471">P79*(1+J80)</f>
+        <f t="shared" ref="P80" si="1470">P79*(1+J80)</f>
         <v>101.16714803549937</v>
       </c>
       <c r="Q80" s="10">
-        <f t="shared" ref="Q80" si="1472">Q79*(1+K80)</f>
+        <f t="shared" ref="Q80" si="1471">Q79*(1+K80)</f>
         <v>100.86053799564669</v>
       </c>
       <c r="R80" s="10">
-        <f t="shared" ref="R80" si="1473">R79*(1+L80)</f>
+        <f t="shared" ref="R80" si="1472">R79*(1+L80)</f>
         <v>108.05677227283839</v>
       </c>
       <c r="S80" s="10">
-        <f t="shared" ref="S80" si="1474">S79*(1+M80)</f>
+        <f t="shared" ref="S80" si="1473">S79*(1+M80)</f>
         <v>101.08844198502098</v>
       </c>
       <c r="T80" s="10">
-        <f t="shared" ref="T80" si="1475">T79*(1+N80)</f>
+        <f t="shared" ref="T80" si="1474">T79*(1+N80)</f>
         <v>102.05731244484309</v>
       </c>
       <c r="V80" s="5">
-        <f t="shared" ref="V80" si="1476">P80/P$45-1</f>
+        <f t="shared" ref="V80" si="1475">P80/P$45-1</f>
         <v>2.4043869516310767E-2</v>
       </c>
       <c r="W80" s="5">
-        <f t="shared" ref="W80" si="1477">Q80/Q$45-1</f>
+        <f t="shared" ref="W80" si="1476">Q80/Q$45-1</f>
         <v>5.4594743370763865E-3</v>
       </c>
       <c r="X80" s="5">
-        <f t="shared" ref="X80" si="1478">R80/R$45-1</f>
+        <f t="shared" ref="X80" si="1477">R80/R$45-1</f>
         <v>5.3799670390038523E-2</v>
       </c>
       <c r="Y80" s="5">
-        <f t="shared" ref="Y80" si="1479">S80/S$45-1</f>
+        <f t="shared" ref="Y80" si="1478">S80/S$45-1</f>
         <v>1.672155418865251E-2</v>
       </c>
       <c r="Z80" s="5">
-        <f t="shared" ref="Z80" si="1480">T80/T$45-1</f>
+        <f t="shared" ref="Z80" si="1479">T80/T$45-1</f>
         <v>1.1350574712644113E-2</v>
       </c>
       <c r="AB80" s="8">
-        <f t="shared" ref="AB80" si="1481">P80/$P$2-1</f>
+        <f t="shared" ref="AB80" si="1480">P80/$P$2-1</f>
         <v>1.1671480354993768E-2</v>
       </c>
       <c r="AC80" s="8">
-        <f t="shared" ref="AC80" si="1482">Q80/$P$2-1</f>
+        <f t="shared" ref="AC80" si="1481">Q80/$P$2-1</f>
         <v>8.6053799564669298E-3</v>
       </c>
       <c r="AD80" s="8">
-        <f t="shared" ref="AD80" si="1483">R80/$P$2-1</f>
+        <f t="shared" ref="AD80" si="1482">R80/$P$2-1</f>
         <v>8.0567722728383862E-2</v>
       </c>
       <c r="AE80" s="8">
-        <f t="shared" ref="AE80" si="1484">S80/$P$2-1</f>
+        <f t="shared" ref="AE80" si="1483">S80/$P$2-1</f>
         <v>1.0884419850209825E-2</v>
       </c>
       <c r="AF80" s="8">
-        <f t="shared" ref="AF80" si="1485">T80/$T$2-1</f>
+        <f t="shared" ref="AF80" si="1484">T80/$T$2-1</f>
         <v>2.0573124448430846E-2</v>
       </c>
       <c r="AI80" s="8">
-        <f t="shared" ref="AI80" si="1486">MIN(0,(F80-MAX(F51:F80))/MAX(F51:F80))</f>
+        <f t="shared" ref="AI80" si="1485">MIN(0,(F80-MAX(F51:F80))/MAX(F51:F80))</f>
         <v>0</v>
       </c>
       <c r="AJ80" s="8">
-        <f t="shared" ref="AJ80" si="1487">MIN(0,(P80-MAX(P51:P80))/MAX(P51:P80))</f>
+        <f t="shared" ref="AJ80" si="1486">MIN(0,(P80-MAX(P51:P80))/MAX(P51:P80))</f>
         <v>-1.4212236058472777E-2</v>
       </c>
       <c r="AK80" s="8">
-        <f t="shared" ref="AK80" si="1488">MIN(0,(Q80-MAX(Q51:Q80))/MAX(Q51:Q80))</f>
+        <f t="shared" ref="AK80" si="1487">MIN(0,(Q80-MAX(Q51:Q80))/MAX(Q51:Q80))</f>
         <v>0</v>
       </c>
       <c r="AL80" s="8">
-        <f t="shared" ref="AL80" si="1489">MIN(0,(R80-MAX(R51:R80))/MAX(R51:R80))</f>
+        <f t="shared" ref="AL80" si="1488">MIN(0,(R80-MAX(R51:R80))/MAX(R51:R80))</f>
         <v>0</v>
       </c>
       <c r="AM80" s="8">
-        <f t="shared" ref="AM80" si="1490">MIN(0,(S80-MAX(S51:S80))/MAX(S51:S80))</f>
+        <f t="shared" ref="AM80" si="1489">MIN(0,(S80-MAX(S51:S80))/MAX(S51:S80))</f>
         <v>-6.2015754000725775E-3</v>
       </c>
       <c r="AN80" s="8">
-        <f t="shared" ref="AN80" si="1491">MIN(0,(T80-MAX(T51:T80))/MAX(T51:T80))</f>
+        <f t="shared" ref="AN80" si="1490">MIN(0,(T80-MAX(T51:T80))/MAX(T51:T80))</f>
         <v>-1.6349916154276035E-2</v>
       </c>
     </row>
@@ -13448,19 +13404,19 @@
         <v>20148.240000000002</v>
       </c>
       <c r="E81" s="5">
-        <f t="shared" ref="E81" si="1492">D81/D80-1</f>
+        <f t="shared" ref="E81" si="1491">D81/D80-1</f>
         <v>-1.2442163766633874E-3</v>
       </c>
       <c r="F81" s="10">
-        <f t="shared" ref="F81" si="1493">F80*(1+E81)</f>
+        <f t="shared" ref="F81" si="1492">F80*(1+E81)</f>
         <v>100.74120000000005</v>
       </c>
       <c r="G81" s="5">
-        <f t="shared" ref="G81" si="1494">F81/F$45-1</f>
+        <f t="shared" ref="G81" si="1493">F81/F$45-1</f>
         <v>1.5108553049220097E-2</v>
       </c>
       <c r="H81" s="8">
-        <f t="shared" ref="H81" si="1495">F81/$F$2-1</f>
+        <f t="shared" ref="H81" si="1494">F81/$F$2-1</f>
         <v>7.4120000000004183E-3</v>
       </c>
       <c r="J81" s="11">
@@ -13476,7 +13432,7 @@
         <v>1.7029262528671651E-3</v>
       </c>
       <c r="M81" s="11">
-        <f t="shared" ref="M81" si="1496">0.6*J81 + 0.4*K81</f>
+        <f t="shared" ref="M81" si="1495">0.6*J81 + 0.4*K81</f>
         <v>2.4635540725649551E-3</v>
       </c>
       <c r="N81" s="11">
@@ -13484,87 +13440,87 @@
         <v>5.2564284699532227E-3</v>
       </c>
       <c r="P81" s="10">
-        <f t="shared" ref="P81" si="1497">P80*(1+J81)</f>
+        <f t="shared" ref="P81" si="1496">P80*(1+J81)</f>
         <v>101.63943734391719</v>
       </c>
       <c r="Q81" s="10">
-        <f t="shared" ref="Q81" si="1498">Q80*(1+K81)</f>
+        <f t="shared" ref="Q81" si="1497">Q80*(1+K81)</f>
         <v>100.77543957603848</v>
       </c>
       <c r="R81" s="10">
-        <f t="shared" ref="R81" si="1499">R80*(1+L81)</f>
+        <f t="shared" ref="R81" si="1498">R80*(1+L81)</f>
         <v>108.24078498714189</v>
       </c>
       <c r="S81" s="10">
-        <f t="shared" ref="S81" si="1500">S80*(1+M81)</f>
+        <f t="shared" ref="S81" si="1499">S80*(1+M81)</f>
         <v>101.33747882796243</v>
       </c>
       <c r="T81" s="10">
-        <f t="shared" ref="T81" si="1501">T80*(1+N81)</f>
+        <f t="shared" ref="T81" si="1500">T80*(1+N81)</f>
         <v>102.59376940754508</v>
       </c>
       <c r="V81" s="5">
-        <f t="shared" ref="V81" si="1502">P81/P$45-1</f>
+        <f t="shared" ref="V81" si="1501">P81/P$45-1</f>
         <v>2.8824521934758485E-2</v>
       </c>
       <c r="W81" s="5">
-        <f t="shared" ref="W81" si="1503">Q81/Q$45-1</f>
+        <f t="shared" ref="W81" si="1502">Q81/Q$45-1</f>
         <v>4.611144415914481E-3</v>
       </c>
       <c r="X81" s="5">
-        <f t="shared" ref="X81" si="1504">R81/R$45-1</f>
+        <f t="shared" ref="X81" si="1503">R81/R$45-1</f>
         <v>5.5594213514008395E-2</v>
       </c>
       <c r="Y81" s="5">
-        <f t="shared" ref="Y81" si="1505">S81/S$45-1</f>
+        <f t="shared" ref="Y81" si="1504">S81/S$45-1</f>
         <v>1.922630271413861E-2</v>
       </c>
       <c r="Z81" s="5">
-        <f t="shared" ref="Z81" si="1506">T81/T$45-1</f>
+        <f t="shared" ref="Z81" si="1505">T81/T$45-1</f>
         <v>1.6666666666667274E-2</v>
       </c>
       <c r="AB81" s="8">
-        <f t="shared" ref="AB81" si="1507">P81/$P$2-1</f>
+        <f t="shared" ref="AB81" si="1506">P81/$P$2-1</f>
         <v>1.639437343917205E-2</v>
       </c>
       <c r="AC81" s="8">
-        <f t="shared" ref="AC81" si="1508">Q81/$P$2-1</f>
+        <f t="shared" ref="AC81" si="1507">Q81/$P$2-1</f>
         <v>7.7543957603847247E-3</v>
       </c>
       <c r="AD81" s="8">
-        <f t="shared" ref="AD81" si="1509">R81/$P$2-1</f>
+        <f t="shared" ref="AD81" si="1508">R81/$P$2-1</f>
         <v>8.2407849871418914E-2</v>
       </c>
       <c r="AE81" s="8">
-        <f t="shared" ref="AE81" si="1510">S81/$P$2-1</f>
+        <f t="shared" ref="AE81" si="1509">S81/$P$2-1</f>
         <v>1.3374788279624239E-2</v>
       </c>
       <c r="AF81" s="8">
-        <f t="shared" ref="AF81" si="1511">T81/$T$2-1</f>
+        <f t="shared" ref="AF81" si="1510">T81/$T$2-1</f>
         <v>2.5937694075450768E-2</v>
       </c>
       <c r="AI81" s="8">
-        <f t="shared" ref="AI81" si="1512">MIN(0,(F81-MAX(F52:F81))/MAX(F52:F81))</f>
+        <f t="shared" ref="AI81" si="1511">MIN(0,(F81-MAX(F52:F81))/MAX(F52:F81))</f>
         <v>-1.2442163766633401E-3</v>
       </c>
       <c r="AJ81" s="8">
-        <f t="shared" ref="AJ81" si="1513">MIN(0,(P81-MAX(P52:P81))/MAX(P52:P81))</f>
+        <f t="shared" ref="AJ81" si="1512">MIN(0,(P81-MAX(P52:P81))/MAX(P52:P81))</f>
         <v>-9.6101786681099394E-3</v>
       </c>
       <c r="AK81" s="8">
-        <f t="shared" ref="AK81" si="1514">MIN(0,(Q81-MAX(Q52:Q81))/MAX(Q52:Q81))</f>
+        <f t="shared" ref="AK81" si="1513">MIN(0,(Q81-MAX(Q52:Q81))/MAX(Q52:Q81))</f>
         <v>-8.4372363363645916E-4</v>
       </c>
       <c r="AL81" s="8">
-        <f t="shared" ref="AL81" si="1515">MIN(0,(R81-MAX(R52:R81))/MAX(R52:R81))</f>
+        <f t="shared" ref="AL81" si="1514">MIN(0,(R81-MAX(R52:R81))/MAX(R52:R81))</f>
         <v>0</v>
       </c>
       <c r="AM81" s="8">
-        <f t="shared" ref="AM81" si="1516">MIN(0,(S81-MAX(S52:S81))/MAX(S52:S81))</f>
+        <f t="shared" ref="AM81" si="1515">MIN(0,(S81-MAX(S52:S81))/MAX(S52:S81))</f>
         <v>-3.7532992438407348E-3</v>
       </c>
       <c r="AN81" s="8">
-        <f t="shared" ref="AN81" si="1517">MIN(0,(T81-MAX(T52:T81))/MAX(T52:T81))</f>
+        <f t="shared" ref="AN81" si="1516">MIN(0,(T81-MAX(T52:T81))/MAX(T52:T81))</f>
         <v>-6.1797752808986387E-3</v>
       </c>
     </row>
@@ -13584,19 +13540,19 @@
         <v>20182.149999999998</v>
       </c>
       <c r="E82" s="5">
-        <f t="shared" ref="E82" si="1518">D82/D81-1</f>
+        <f t="shared" ref="E82" si="1517">D82/D81-1</f>
         <v>1.6830254156192659E-3</v>
       </c>
       <c r="F82" s="10">
-        <f t="shared" ref="F82" si="1519">F81*(1+E82)</f>
+        <f t="shared" ref="F82" si="1518">F81*(1+E82)</f>
         <v>100.91075000000004</v>
       </c>
       <c r="G82" s="5">
-        <f t="shared" ref="G82" si="1520">F82/F$45-1</f>
+        <f t="shared" ref="G82" si="1519">F82/F$45-1</f>
         <v>1.6817006543614399E-2</v>
       </c>
       <c r="H82" s="8">
-        <f t="shared" ref="H82" si="1521">F82/$F$2-1</f>
+        <f t="shared" ref="H82" si="1520">F82/$F$2-1</f>
         <v>9.1075000000002682E-3</v>
       </c>
       <c r="J82" s="11">
@@ -13612,7 +13568,7 @@
         <v>-3.4694514797206644E-5</v>
       </c>
       <c r="M82" s="11">
-        <f t="shared" ref="M82" si="1522">0.6*J82 + 0.4*K82</f>
+        <f t="shared" ref="M82" si="1521">0.6*J82 + 0.4*K82</f>
         <v>1.2397834618240733E-3</v>
       </c>
       <c r="N82" s="11">
@@ -13620,87 +13576,87 @@
         <v>-5.6529112492942346E-4</v>
       </c>
       <c r="P82" s="10">
-        <f t="shared" ref="P82" si="1523">P81*(1+J82)</f>
+        <f t="shared" ref="P82" si="1522">P81*(1+J82)</f>
         <v>101.79223682605237</v>
       </c>
       <c r="Q82" s="10">
-        <f t="shared" ref="Q82" si="1524">Q81*(1+K82)</f>
+        <f t="shared" ref="Q82" si="1523">Q81*(1+K82)</f>
         <v>100.86053799564668</v>
       </c>
       <c r="R82" s="10">
-        <f t="shared" ref="R82" si="1525">R81*(1+L82)</f>
+        <f t="shared" ref="R82" si="1524">R81*(1+L82)</f>
         <v>108.2370296256255</v>
       </c>
       <c r="S82" s="10">
-        <f t="shared" ref="S82" si="1526">S81*(1+M82)</f>
+        <f t="shared" ref="S82" si="1525">S81*(1+M82)</f>
         <v>101.46311535827628</v>
       </c>
       <c r="T82" s="10">
-        <f t="shared" ref="T82" si="1527">T81*(1+N82)</f>
+        <f t="shared" ref="T82" si="1526">T81*(1+N82)</f>
         <v>102.53577406022595</v>
       </c>
       <c r="V82" s="5">
-        <f t="shared" ref="V82" si="1528">P82/P$45-1</f>
+        <f t="shared" ref="V82" si="1527">P82/P$45-1</f>
         <v>3.0371203599550478E-2</v>
       </c>
       <c r="W82" s="5">
-        <f t="shared" ref="W82" si="1529">Q82/Q$45-1</f>
+        <f t="shared" ref="W82" si="1528">Q82/Q$45-1</f>
         <v>5.4594743370761645E-3</v>
       </c>
       <c r="X82" s="5">
-        <f t="shared" ref="X82" si="1530">R82/R$45-1</f>
+        <f t="shared" ref="X82" si="1529">R82/R$45-1</f>
         <v>5.555759018494788E-2</v>
       </c>
       <c r="Y82" s="5">
-        <f t="shared" ref="Y82" si="1531">S82/S$45-1</f>
+        <f t="shared" ref="Y82" si="1530">S82/S$45-1</f>
         <v>2.0489922628099677E-2</v>
       </c>
       <c r="Z82" s="5">
-        <f t="shared" ref="Z82" si="1532">T82/T$45-1</f>
+        <f t="shared" ref="Z82" si="1531">T82/T$45-1</f>
         <v>1.609195402298913E-2</v>
       </c>
       <c r="AB82" s="8">
-        <f t="shared" ref="AB82" si="1533">P82/$P$2-1</f>
+        <f t="shared" ref="AB82" si="1532">P82/$P$2-1</f>
         <v>1.7922368260523847E-2</v>
       </c>
       <c r="AC82" s="8">
-        <f t="shared" ref="AC82" si="1534">Q82/$P$2-1</f>
+        <f t="shared" ref="AC82" si="1533">Q82/$P$2-1</f>
         <v>8.6053799564667077E-3</v>
       </c>
       <c r="AD82" s="8">
-        <f t="shared" ref="AD82" si="1535">R82/$P$2-1</f>
+        <f t="shared" ref="AD82" si="1534">R82/$P$2-1</f>
         <v>8.2370296256254916E-2</v>
       </c>
       <c r="AE82" s="8">
-        <f t="shared" ref="AE82" si="1536">S82/$P$2-1</f>
+        <f t="shared" ref="AE82" si="1535">S82/$P$2-1</f>
         <v>1.463115358276279E-2</v>
       </c>
       <c r="AF82" s="8">
-        <f t="shared" ref="AF82" si="1537">T82/$T$2-1</f>
+        <f t="shared" ref="AF82" si="1536">T82/$T$2-1</f>
         <v>2.5357740602259371E-2</v>
       </c>
       <c r="AI82" s="8">
-        <f t="shared" ref="AI82" si="1538">MIN(0,(F82-MAX(F53:F82))/MAX(F53:F82))</f>
+        <f t="shared" ref="AI82" si="1537">MIN(0,(F82-MAX(F53:F82))/MAX(F53:F82))</f>
         <v>0</v>
       </c>
       <c r="AJ82" s="8">
-        <f t="shared" ref="AJ82" si="1539">MIN(0,(P82-MAX(P53:P82))/MAX(P53:P82))</f>
+        <f t="shared" ref="AJ82" si="1538">MIN(0,(P82-MAX(P53:P82))/MAX(P53:P82))</f>
         <v>-8.1212777476984323E-3</v>
       </c>
       <c r="AK82" s="8">
-        <f t="shared" ref="AK82" si="1540">MIN(0,(Q82-MAX(Q53:Q82))/MAX(Q53:Q82))</f>
+        <f t="shared" ref="AK82" si="1539">MIN(0,(Q82-MAX(Q53:Q82))/MAX(Q53:Q82))</f>
         <v>-1.4089608282493365E-16</v>
       </c>
       <c r="AL82" s="8">
-        <f t="shared" ref="AL82" si="1541">MIN(0,(R82-MAX(R53:R82))/MAX(R53:R82))</f>
+        <f t="shared" ref="AL82" si="1540">MIN(0,(R82-MAX(R53:R82))/MAX(R53:R82))</f>
         <v>-3.4694514797202564E-5</v>
       </c>
       <c r="AM82" s="8">
-        <f t="shared" ref="AM82" si="1542">MIN(0,(S82-MAX(S53:S82))/MAX(S53:S82))</f>
+        <f t="shared" ref="AM82" si="1541">MIN(0,(S82-MAX(S53:S82))/MAX(S53:S82))</f>
         <v>-2.5181690603464507E-3</v>
       </c>
       <c r="AN82" s="8">
-        <f t="shared" ref="AN82" si="1543">MIN(0,(T82-MAX(T53:T82))/MAX(T53:T82))</f>
+        <f t="shared" ref="AN82" si="1542">MIN(0,(T82-MAX(T53:T82))/MAX(T53:T82))</f>
         <v>-6.7415730337076563E-3</v>
       </c>
     </row>
@@ -13720,19 +13676,19 @@
         <v>20159.59</v>
       </c>
       <c r="E83" s="5">
-        <f t="shared" ref="E83" si="1544">D83/D82-1</f>
+        <f t="shared" ref="E83" si="1543">D83/D82-1</f>
         <v>-1.1178194592745827E-3</v>
       </c>
       <c r="F83" s="10">
-        <f t="shared" ref="F83" si="1545">F82*(1+E83)</f>
+        <f t="shared" ref="F83" si="1544">F82*(1+E83)</f>
         <v>100.79795000000004</v>
       </c>
       <c r="G83" s="5">
-        <f t="shared" ref="G83" si="1546">F83/F$45-1</f>
+        <f t="shared" ref="G83" si="1545">F83/F$45-1</f>
         <v>1.5680388707178583E-2</v>
       </c>
       <c r="H83" s="8">
-        <f t="shared" ref="H83" si="1547">F83/$F$2-1</f>
+        <f t="shared" ref="H83" si="1546">F83/$F$2-1</f>
         <v>7.9795000000004723E-3</v>
       </c>
       <c r="J83" s="11">
@@ -13748,7 +13704,7 @@
         <v>-1.700090208868299E-3</v>
       </c>
       <c r="M83" s="11">
-        <f t="shared" ref="M83" si="1548">0.6*J83 + 0.4*K83</f>
+        <f t="shared" ref="M83" si="1547">0.6*J83 + 0.4*K83</f>
         <v>-3.0907134929871517E-3</v>
       </c>
       <c r="N83" s="11">
@@ -13756,88 +13712,768 @@
         <v>-8.4841628959275717E-3</v>
       </c>
       <c r="P83" s="10">
-        <f t="shared" ref="P83" si="1549">P82*(1+J83)</f>
+        <f t="shared" ref="P83" si="1548">P82*(1+J83)</f>
         <v>101.30605665562227</v>
       </c>
       <c r="Q83" s="10">
-        <f t="shared" ref="Q83" si="1550">Q82*(1+K83)</f>
+        <f t="shared" ref="Q83" si="1549">Q82*(1+K83)</f>
         <v>100.80380571590787</v>
       </c>
       <c r="R83" s="10">
-        <f t="shared" ref="R83" si="1551">R82*(1+L83)</f>
+        <f t="shared" ref="R83" si="1550">R82*(1+L83)</f>
         <v>108.05301691132198</v>
       </c>
       <c r="S83" s="10">
-        <f t="shared" ref="S83" si="1552">S82*(1+M83)</f>
+        <f t="shared" ref="S83" si="1551">S82*(1+M83)</f>
         <v>101.14952193859794</v>
       </c>
       <c r="T83" s="10">
-        <f t="shared" ref="T83" si="1553">T82*(1+N83)</f>
+        <f t="shared" ref="T83" si="1552">T82*(1+N83)</f>
         <v>101.66584385043896</v>
       </c>
       <c r="V83" s="5">
-        <f t="shared" ref="V83" si="1554">P83/P$45-1</f>
+        <f t="shared" ref="V83" si="1553">P83/P$45-1</f>
         <v>2.5449943757030802E-2</v>
       </c>
       <c r="W83" s="5">
-        <f t="shared" ref="W83" si="1555">Q83/Q$45-1</f>
+        <f t="shared" ref="W83" si="1554">Q83/Q$45-1</f>
         <v>4.8939210563014868E-3</v>
       </c>
       <c r="X83" s="5">
-        <f t="shared" ref="X83" si="1556">R83/R$45-1</f>
+        <f t="shared" ref="X83" si="1555">R83/R$45-1</f>
         <v>5.3763047060977787E-2</v>
       </c>
       <c r="Y83" s="5">
-        <f t="shared" ref="Y83" si="1557">S83/S$45-1</f>
+        <f t="shared" ref="Y83" si="1556">S83/S$45-1</f>
         <v>1.7335880654775648E-2</v>
       </c>
       <c r="Z83" s="5">
-        <f t="shared" ref="Z83" si="1558">T83/T$45-1</f>
+        <f t="shared" ref="Z83" si="1557">T83/T$45-1</f>
         <v>7.4712643678165325E-3</v>
       </c>
       <c r="AB83" s="8">
-        <f t="shared" ref="AB83" si="1559">P83/$P$2-1</f>
+        <f t="shared" ref="AB83" si="1558">P83/$P$2-1</f>
         <v>1.3060566556222675E-2</v>
       </c>
       <c r="AC83" s="8">
-        <f t="shared" ref="AC83" si="1560">Q83/$P$2-1</f>
+        <f t="shared" ref="AC83" si="1559">Q83/$P$2-1</f>
         <v>8.038057159078793E-3</v>
       </c>
       <c r="AD83" s="8">
-        <f t="shared" ref="AD83" si="1561">R83/$P$2-1</f>
+        <f t="shared" ref="AD83" si="1560">R83/$P$2-1</f>
         <v>8.0530169113219863E-2</v>
       </c>
       <c r="AE83" s="8">
-        <f t="shared" ref="AE83" si="1562">S83/$P$2-1</f>
+        <f t="shared" ref="AE83" si="1561">S83/$P$2-1</f>
         <v>1.1495219385979416E-2</v>
       </c>
       <c r="AF83" s="8">
-        <f t="shared" ref="AF83" si="1563">T83/$T$2-1</f>
+        <f t="shared" ref="AF83" si="1562">T83/$T$2-1</f>
         <v>1.6658438504389528E-2</v>
       </c>
       <c r="AI83" s="8">
-        <f t="shared" ref="AI83" si="1564">MIN(0,(F83-MAX(F54:F83))/MAX(F54:F83))</f>
+        <f t="shared" ref="AI83" si="1563">MIN(0,(F83-MAX(F54:F83))/MAX(F54:F83))</f>
         <v>-1.1178194592745853E-3</v>
       </c>
       <c r="AJ83" s="8">
-        <f t="shared" ref="AJ83" si="1565">MIN(0,(P83-MAX(P54:P83))/MAX(P54:P83))</f>
+        <f t="shared" ref="AJ83" si="1564">MIN(0,(P83-MAX(P54:P83))/MAX(P54:P83))</f>
         <v>-1.285868976718945E-2</v>
       </c>
       <c r="AK83" s="8">
-        <f t="shared" ref="AK83" si="1566">MIN(0,(Q83-MAX(Q54:Q83))/MAX(Q54:Q83))</f>
+        <f t="shared" ref="AK83" si="1565">MIN(0,(Q83-MAX(Q54:Q83))/MAX(Q54:Q83))</f>
         <v>-5.6248242242444698E-4</v>
       </c>
       <c r="AL83" s="8">
-        <f t="shared" ref="AL83" si="1567">MIN(0,(R83-MAX(R54:R83))/MAX(R54:R83))</f>
+        <f t="shared" ref="AL83" si="1566">MIN(0,(R83-MAX(R54:R83))/MAX(R54:R83))</f>
         <v>-1.7347257398606533E-3</v>
       </c>
       <c r="AM83" s="8">
-        <f t="shared" ref="AM83" si="1568">MIN(0,(S83-MAX(S54:S83))/MAX(S54:S83))</f>
+        <f t="shared" ref="AM83" si="1567">MIN(0,(S83-MAX(S54:S83))/MAX(S54:S83))</f>
         <v>-5.6010996142412117E-3</v>
       </c>
       <c r="AN83" s="8">
-        <f t="shared" ref="AN83" si="1569">MIN(0,(T83-MAX(T54:T83))/MAX(T54:T83))</f>
+        <f t="shared" ref="AN83" si="1568">MIN(0,(T83-MAX(T54:T83))/MAX(T54:T83))</f>
         <v>-1.5168539325842502E-2</v>
+      </c>
+    </row>
+    <row r="84" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A84" s="9">
+        <v>43336</v>
+      </c>
+      <c r="B84" s="4">
+        <f t="shared" si="812"/>
+        <v>20160.739999999998</v>
+      </c>
+      <c r="C84" s="4">
+        <v>104.72</v>
+      </c>
+      <c r="D84" s="4">
+        <f>20289.82-24.36</f>
+        <v>20265.46</v>
+      </c>
+      <c r="E84" s="5">
+        <f t="shared" ref="E84" si="1569">D84/D83-1</f>
+        <v>5.2515948985072392E-3</v>
+      </c>
+      <c r="F84" s="10">
+        <f t="shared" ref="F84" si="1570">F83*(1+E84)</f>
+        <v>101.32730000000004</v>
+      </c>
+      <c r="G84" s="5">
+        <f t="shared" ref="G84" si="1571">F84/F$45-1</f>
+        <v>2.1014330655027003E-2</v>
+      </c>
+      <c r="H84" s="8">
+        <f t="shared" ref="H84" si="1572">F84/$F$2-1</f>
+        <v>1.3273000000000312E-2</v>
+      </c>
+      <c r="J84" s="11">
+        <f>VLOOKUP($A84,Prices!$A:$J,MATCH(J$1,Prices!$1:$1,0),0)</f>
+        <v>7.678595913889863E-3</v>
+      </c>
+      <c r="K84" s="11">
+        <f>VLOOKUP($A84,Prices!$A:$J,MATCH(K$1,Prices!$1:$1,0),0)</f>
+        <v>1.1255979739237532E-3</v>
+      </c>
+      <c r="L84" s="11">
+        <f>VLOOKUP($A84,Prices!$A:$J,MATCH(L$1,Prices!$1:$1,0),0)</f>
+        <v>6.2211100684668175E-3</v>
+      </c>
+      <c r="M84" s="11">
+        <f t="shared" ref="M84" si="1573">0.6*J84 + 0.4*K84</f>
+        <v>5.0573967379034194E-3</v>
+      </c>
+      <c r="N84" s="11">
+        <f>VLOOKUP($A84,Prices!$A:$J,MATCH(N$1,Prices!$1:$1,0),0)</f>
+        <v>7.9178551055334445E-3</v>
+      </c>
+      <c r="P84" s="10">
+        <f t="shared" ref="P84" si="1574">P83*(1+J84)</f>
+        <v>102.08394492831043</v>
+      </c>
+      <c r="Q84" s="10">
+        <f t="shared" ref="Q84" si="1575">Q83*(1+K84)</f>
+        <v>100.9172702753855</v>
+      </c>
+      <c r="R84" s="10">
+        <f t="shared" ref="R84" si="1576">R83*(1+L84)</f>
+        <v>108.72522662275722</v>
+      </c>
+      <c r="S84" s="10">
+        <f t="shared" ref="S84" si="1577">S83*(1+M84)</f>
+        <v>101.66107520089071</v>
+      </c>
+      <c r="T84" s="10">
+        <f t="shared" ref="T84" si="1578">T83*(1+N84)</f>
+        <v>102.47081927122852</v>
+      </c>
+      <c r="V84" s="5">
+        <f t="shared" ref="V84" si="1579">P84/P$45-1</f>
+        <v>3.3323959505062284E-2</v>
+      </c>
+      <c r="W84" s="5">
+        <f t="shared" ref="W84" si="1580">Q84/Q$45-1</f>
+        <v>6.0250276178508422E-3</v>
+      </c>
+      <c r="X84" s="5">
+        <f t="shared" ref="X84" si="1581">R84/R$45-1</f>
+        <v>6.0318622962827195E-2</v>
+      </c>
+      <c r="Y84" s="5">
+        <f t="shared" ref="Y84" si="1582">S84/S$45-1</f>
+        <v>2.2480951818951267E-2</v>
+      </c>
+      <c r="Z84" s="5">
+        <f t="shared" ref="Z84" si="1583">T84/T$45-1</f>
+        <v>1.5448275862069538E-2</v>
+      </c>
+      <c r="AB84" s="8">
+        <f t="shared" ref="AB84" si="1584">P84/$P$2-1</f>
+        <v>2.0839449283104328E-2</v>
+      </c>
+      <c r="AC84" s="8">
+        <f t="shared" ref="AC84" si="1585">Q84/$P$2-1</f>
+        <v>9.1727027538550665E-3</v>
+      </c>
+      <c r="AD84" s="8">
+        <f t="shared" ref="AD84" si="1586">R84/$P$2-1</f>
+        <v>8.7252266227572095E-2</v>
+      </c>
+      <c r="AE84" s="8">
+        <f t="shared" ref="AE84" si="1587">S84/$P$2-1</f>
+        <v>1.6610752008907159E-2</v>
+      </c>
+      <c r="AF84" s="8">
+        <f t="shared" ref="AF84" si="1588">T84/$T$2-1</f>
+        <v>2.4708192712285193E-2</v>
+      </c>
+      <c r="AI84" s="8">
+        <f t="shared" ref="AI84" si="1589">MIN(0,(F84-MAX(F55:F84))/MAX(F55:F84))</f>
+        <v>0</v>
+      </c>
+      <c r="AJ84" s="8">
+        <f t="shared" ref="AJ84" si="1590">MIN(0,(P84-MAX(P55:P84))/MAX(P55:P84))</f>
+        <v>-5.2788305360038775E-3</v>
+      </c>
+      <c r="AK84" s="8">
+        <f t="shared" ref="AK84" si="1591">MIN(0,(Q84-MAX(Q55:Q84))/MAX(Q55:Q84))</f>
+        <v>0</v>
+      </c>
+      <c r="AL84" s="8">
+        <f t="shared" ref="AL84" si="1592">MIN(0,(R84-MAX(R55:R84))/MAX(R55:R84))</f>
+        <v>0</v>
+      </c>
+      <c r="AM84" s="8">
+        <f t="shared" ref="AM84" si="1593">MIN(0,(S84-MAX(S55:S84))/MAX(S55:S84))</f>
+        <v>-5.7202985925544007E-4</v>
+      </c>
+      <c r="AN84" s="8">
+        <f t="shared" ref="AN84" si="1594">MIN(0,(T84-MAX(T55:T84))/MAX(T55:T84))</f>
+        <v>-7.3707865168537003E-3</v>
+      </c>
+    </row>
+    <row r="85" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A85" s="9">
+        <v>43339</v>
+      </c>
+      <c r="B85" s="4">
+        <f t="shared" si="812"/>
+        <v>20205.12</v>
+      </c>
+      <c r="C85" s="4">
+        <v>104.72</v>
+      </c>
+      <c r="D85" s="4">
+        <f>20315.83-5.99</f>
+        <v>20309.84</v>
+      </c>
+      <c r="E85" s="5">
+        <f t="shared" ref="E85" si="1595">D85/D84-1</f>
+        <v>2.1899330190382482E-3</v>
+      </c>
+      <c r="F85" s="10">
+        <f t="shared" ref="F85" si="1596">F84*(1+E85)</f>
+        <v>101.54920000000003</v>
+      </c>
+      <c r="G85" s="5">
+        <f t="shared" ref="G85" si="1597">F85/F$45-1</f>
+        <v>2.3250283650639636E-2</v>
+      </c>
+      <c r="H85" s="8">
+        <f t="shared" ref="H85" si="1598">F85/$F$2-1</f>
+        <v>1.5492000000000283E-2</v>
+      </c>
+      <c r="J85" s="11">
+        <f>VLOOKUP($A85,Prices!$A:$J,MATCH(J$1,Prices!$1:$1,0),0)</f>
+        <v>9.6611783916180638E-3</v>
+      </c>
+      <c r="K85" s="11">
+        <f>VLOOKUP($A85,Prices!$A:$J,MATCH(K$1,Prices!$1:$1,0),0)</f>
+        <v>-1.3117211655579997E-3</v>
+      </c>
+      <c r="L85" s="11">
+        <f>VLOOKUP($A85,Prices!$A:$J,MATCH(L$1,Prices!$1:$1,0),0)</f>
+        <v>7.9096435479415472E-3</v>
+      </c>
+      <c r="M85" s="11">
+        <f t="shared" ref="M85" si="1599">0.6*J85 + 0.4*K85</f>
+        <v>5.2720185687476382E-3</v>
+      </c>
+      <c r="N85" s="11">
+        <f>VLOOKUP($A85,Prices!$A:$J,MATCH(N$1,Prices!$1:$1,0),0)</f>
+        <v>-3.8938694195417289E-3</v>
+      </c>
+      <c r="P85" s="10">
+        <f t="shared" ref="P85" si="1600">P84*(1+J85)</f>
+        <v>103.07019613118295</v>
+      </c>
+      <c r="Q85" s="10">
+        <f t="shared" ref="Q85" si="1601">Q84*(1+K85)</f>
+        <v>100.78489495599494</v>
+      </c>
+      <c r="R85" s="10">
+        <f t="shared" ref="R85" si="1602">R84*(1+L85)</f>
+        <v>109.58520441001239</v>
+      </c>
+      <c r="S85" s="10">
+        <f t="shared" ref="S85" si="1603">S84*(1+M85)</f>
+        <v>102.19703427706865</v>
+      </c>
+      <c r="T85" s="10">
+        <f t="shared" ref="T85" si="1604">T84*(1+N85)</f>
+        <v>102.07181128167289</v>
+      </c>
+      <c r="V85" s="5">
+        <f t="shared" ref="V85" si="1605">P85/P$45-1</f>
+        <v>4.3307086614173818E-2</v>
+      </c>
+      <c r="W85" s="5">
+        <f t="shared" ref="W85" si="1606">Q85/Q$45-1</f>
+        <v>4.7054032960434089E-3</v>
+      </c>
+      <c r="X85" s="5">
+        <f t="shared" ref="X85" si="1607">R85/R$45-1</f>
+        <v>6.8705365317707434E-2</v>
+      </c>
+      <c r="Y85" s="5">
+        <f t="shared" ref="Y85" si="1608">S85/S$45-1</f>
+        <v>2.7871490383131636E-2</v>
+      </c>
+      <c r="Z85" s="5">
+        <f t="shared" ref="Z85" si="1609">T85/T$45-1</f>
+        <v>1.1494252873563759E-2</v>
+      </c>
+      <c r="AB85" s="8">
+        <f t="shared" ref="AB85" si="1610">P85/$P$2-1</f>
+        <v>3.0701961311829562E-2</v>
+      </c>
+      <c r="AC85" s="8">
+        <f t="shared" ref="AC85" si="1611">Q85/$P$2-1</f>
+        <v>7.8489495599494141E-3</v>
+      </c>
+      <c r="AD85" s="8">
+        <f t="shared" ref="AD85" si="1612">R85/$P$2-1</f>
+        <v>9.5852044100124045E-2</v>
+      </c>
+      <c r="AE85" s="8">
+        <f t="shared" ref="AE85" si="1613">S85/$P$2-1</f>
+        <v>2.1970342770686546E-2</v>
+      </c>
+      <c r="AF85" s="8">
+        <f t="shared" ref="AF85" si="1614">T85/$T$2-1</f>
+        <v>2.0718112816728862E-2</v>
+      </c>
+      <c r="AI85" s="8">
+        <f t="shared" ref="AI85" si="1615">MIN(0,(F85-MAX(F56:F85))/MAX(F56:F85))</f>
+        <v>0</v>
+      </c>
+      <c r="AJ85" s="8">
+        <f t="shared" ref="AJ85" si="1616">MIN(0,(P85-MAX(P56:P85))/MAX(P56:P85))</f>
+        <v>0</v>
+      </c>
+      <c r="AK85" s="8">
+        <f t="shared" ref="AK85" si="1617">MIN(0,(Q85-MAX(Q56:Q85))/MAX(Q56:Q85))</f>
+        <v>-1.3117211655580129E-3</v>
+      </c>
+      <c r="AL85" s="8">
+        <f t="shared" ref="AL85" si="1618">MIN(0,(R85-MAX(R56:R85))/MAX(R56:R85))</f>
+        <v>0</v>
+      </c>
+      <c r="AM85" s="8">
+        <f t="shared" ref="AM85" si="1619">MIN(0,(S85-MAX(S56:S85))/MAX(S56:S85))</f>
+        <v>0</v>
+      </c>
+      <c r="AN85" s="8">
+        <f t="shared" ref="AN85" si="1620">MIN(0,(T85-MAX(T56:T85))/MAX(T56:T85))</f>
+        <v>-1.1235955056179518E-2</v>
+      </c>
+    </row>
+    <row r="86" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A86" s="9">
+        <v>43340</v>
+      </c>
+      <c r="B86" s="4">
+        <f t="shared" si="812"/>
+        <v>20217.09</v>
+      </c>
+      <c r="C86" s="4">
+        <v>104.72</v>
+      </c>
+      <c r="D86" s="4">
+        <f>20324.2-2.39</f>
+        <v>20321.810000000001</v>
+      </c>
+      <c r="E86" s="5">
+        <f t="shared" ref="E86" si="1621">D86/D85-1</f>
+        <v>5.8936948789356514E-4</v>
+      </c>
+      <c r="F86" s="10">
+        <f t="shared" ref="F86" si="1622">F85*(1+E86)</f>
+        <v>101.60905000000002</v>
+      </c>
+      <c r="G86" s="5">
+        <f t="shared" ref="G86" si="1623">F86/F$45-1</f>
+        <v>2.3853356146301907E-2</v>
+      </c>
+      <c r="H86" s="8">
+        <f t="shared" ref="H86" si="1624">F86/$F$2-1</f>
+        <v>1.609050000000023E-2</v>
+      </c>
+      <c r="J86" s="11">
+        <f>VLOOKUP($A86,Prices!$A:$J,MATCH(J$1,Prices!$1:$1,0),0)</f>
+        <v>5.3908355795129204E-4</v>
+      </c>
+      <c r="K86" s="11">
+        <f>VLOOKUP($A86,Prices!$A:$J,MATCH(K$1,Prices!$1:$1,0),0)</f>
+        <v>-1.8763486255746198E-3</v>
+      </c>
+      <c r="L86" s="11">
+        <f>VLOOKUP($A86,Prices!$A:$J,MATCH(L$1,Prices!$1:$1,0),0)</f>
+        <v>2.7415098865701815E-4</v>
+      </c>
+      <c r="M86" s="11">
+        <f t="shared" ref="M86" si="1625">0.6*J86 + 0.4*K86</f>
+        <v>-4.2708931545907273E-4</v>
+      </c>
+      <c r="N86" s="11">
+        <f>VLOOKUP($A86,Prices!$A:$J,MATCH(N$1,Prices!$1:$1,0),0)</f>
+        <v>-2.2727272727274261E-3</v>
+      </c>
+      <c r="P86" s="10">
+        <f t="shared" ref="P86" si="1626">P85*(1+J86)</f>
+        <v>103.1257595792321</v>
+      </c>
+      <c r="Q86" s="10">
+        <f t="shared" ref="Q86" si="1627">Q85*(1+K86)</f>
+        <v>100.59578735686559</v>
+      </c>
+      <c r="R86" s="10">
+        <f t="shared" ref="R86" si="1628">R85*(1+L86)</f>
+        <v>109.61524730214359</v>
+      </c>
+      <c r="S86" s="10">
+        <f t="shared" ref="S86" si="1629">S85*(1+M86)</f>
+        <v>102.15338701565732</v>
+      </c>
+      <c r="T86" s="10">
+        <f t="shared" ref="T86" si="1630">T85*(1+N86)</f>
+        <v>101.83982989239635</v>
+      </c>
+      <c r="V86" s="5">
+        <f t="shared" ref="V86" si="1631">P86/P$45-1</f>
+        <v>4.3869516310461654E-2</v>
+      </c>
+      <c r="W86" s="5">
+        <f t="shared" ref="W86" si="1632">Q86/Q$45-1</f>
+        <v>2.82022569346152E-3</v>
+      </c>
+      <c r="X86" s="5">
+        <f t="shared" ref="X86" si="1633">R86/R$45-1</f>
+        <v>6.8998351950192216E-2</v>
+      </c>
+      <c r="Y86" s="5">
+        <f t="shared" ref="Y86" si="1634">S86/S$45-1</f>
+        <v>2.7432497451923998E-2</v>
+      </c>
+      <c r="Z86" s="5">
+        <f t="shared" ref="Z86" si="1635">T86/T$45-1</f>
+        <v>9.1954022988509632E-3</v>
+      </c>
+      <c r="AB86" s="8">
+        <f t="shared" ref="AB86" si="1636">P86/$P$2-1</f>
+        <v>3.1257595792320902E-2</v>
+      </c>
+      <c r="AC86" s="8">
+        <f t="shared" ref="AC86" si="1637">Q86/$P$2-1</f>
+        <v>5.9578735686558471E-3</v>
+      </c>
+      <c r="AD86" s="8">
+        <f t="shared" ref="AD86" si="1638">R86/$P$2-1</f>
+        <v>9.6152473021435814E-2</v>
+      </c>
+      <c r="AE86" s="8">
+        <f t="shared" ref="AE86" si="1639">S86/$P$2-1</f>
+        <v>2.1533870156573265E-2</v>
+      </c>
+      <c r="AF86" s="8">
+        <f t="shared" ref="AF86" si="1640">T86/$T$2-1</f>
+        <v>1.8398298923963496E-2</v>
+      </c>
+      <c r="AI86" s="8">
+        <f t="shared" ref="AI86" si="1641">MIN(0,(F86-MAX(F57:F86))/MAX(F57:F86))</f>
+        <v>0</v>
+      </c>
+      <c r="AJ86" s="8">
+        <f t="shared" ref="AJ86" si="1642">MIN(0,(P86-MAX(P57:P86))/MAX(P57:P86))</f>
+        <v>0</v>
+      </c>
+      <c r="AK86" s="8">
+        <f t="shared" ref="AK86" si="1643">MIN(0,(Q86-MAX(Q57:Q86))/MAX(Q57:Q86))</f>
+        <v>-3.185608544926442E-3</v>
+      </c>
+      <c r="AL86" s="8">
+        <f t="shared" ref="AL86" si="1644">MIN(0,(R86-MAX(R57:R86))/MAX(R57:R86))</f>
+        <v>0</v>
+      </c>
+      <c r="AM86" s="8">
+        <f t="shared" ref="AM86" si="1645">MIN(0,(S86-MAX(S57:S86))/MAX(S57:S86))</f>
+        <v>-4.2708931545903722E-4</v>
+      </c>
+      <c r="AN86" s="8">
+        <f t="shared" ref="AN86" si="1646">MIN(0,(T86-MAX(T57:T86))/MAX(T57:T86))</f>
+        <v>-1.3483146067415587E-2</v>
+      </c>
+    </row>
+    <row r="87" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A87" s="9">
+        <v>43341</v>
+      </c>
+      <c r="B87" s="4">
+        <f t="shared" si="812"/>
+        <v>20299.659999999996</v>
+      </c>
+      <c r="C87" s="4">
+        <v>104.72</v>
+      </c>
+      <c r="D87" s="4">
+        <f>20393.94+10.44</f>
+        <v>20404.379999999997</v>
+      </c>
+      <c r="E87" s="5">
+        <f t="shared" ref="E87" si="1647">D87/D86-1</f>
+        <v>4.0631223301466068E-3</v>
+      </c>
+      <c r="F87" s="10">
+        <f t="shared" ref="F87" si="1648">F86*(1+E87)</f>
+        <v>102.0219</v>
+      </c>
+      <c r="G87" s="5">
+        <f t="shared" ref="G87" si="1649">F87/F$45-1</f>
+        <v>2.801339758045529E-2</v>
+      </c>
+      <c r="H87" s="8">
+        <f t="shared" ref="H87" si="1650">F87/$F$2-1</f>
+        <v>2.0218999999999987E-2</v>
+      </c>
+      <c r="J87" s="11">
+        <f>VLOOKUP($A87,Prices!$A:$J,MATCH(J$1,Prices!$1:$1,0),0)</f>
+        <v>5.9267241379312718E-3</v>
+      </c>
+      <c r="K87" s="11">
+        <f>VLOOKUP($A87,Prices!$A:$J,MATCH(K$1,Prices!$1:$1,0),0)</f>
+        <v>-1.8798759281879462E-4</v>
+      </c>
+      <c r="L87" s="11">
+        <f>VLOOKUP($A87,Prices!$A:$J,MATCH(L$1,Prices!$1:$1,0),0)</f>
+        <v>5.652814416389873E-3</v>
+      </c>
+      <c r="M87" s="11">
+        <f t="shared" ref="M87" si="1651">0.6*J87 + 0.4*K87</f>
+        <v>3.4808394456312453E-3</v>
+      </c>
+      <c r="N87" s="11">
+        <f>VLOOKUP($A87,Prices!$A:$J,MATCH(N$1,Prices!$1:$1,0),0)</f>
+        <v>-5.6947608200441646E-4</v>
+      </c>
+      <c r="P87" s="10">
+        <f t="shared" ref="P87" si="1652">P86*(1+J87)</f>
+        <v>103.73695750777283</v>
+      </c>
+      <c r="Q87" s="10">
+        <f t="shared" ref="Q87" si="1653">Q86*(1+K87)</f>
+        <v>100.57687659695266</v>
+      </c>
+      <c r="R87" s="10">
+        <f t="shared" ref="R87" si="1654">R86*(1+L87)</f>
+        <v>110.23488195234928</v>
+      </c>
+      <c r="S87" s="10">
+        <f t="shared" ref="S87" si="1655">S86*(1+M87)</f>
+        <v>102.50896655468624</v>
+      </c>
+      <c r="T87" s="10">
+        <f t="shared" ref="T87" si="1656">T86*(1+N87)</f>
+        <v>101.78183454507723</v>
+      </c>
+      <c r="V87" s="5">
+        <f t="shared" ref="V87" si="1657">P87/P$45-1</f>
+        <v>5.0056242969629405E-2</v>
+      </c>
+      <c r="W87" s="5">
+        <f t="shared" ref="W87" si="1658">Q87/Q$45-1</f>
+        <v>2.6317079332034421E-3</v>
+      </c>
+      <c r="X87" s="5">
+        <f t="shared" ref="X87" si="1659">R87/R$45-1</f>
+        <v>7.5041201245193312E-2</v>
+      </c>
+      <c r="Y87" s="5">
+        <f t="shared" ref="Y87" si="1660">S87/S$45-1</f>
+        <v>3.100882501677793E-2</v>
+      </c>
+      <c r="Z87" s="5">
+        <f t="shared" ref="Z87" si="1661">T87/T$45-1</f>
+        <v>8.6206896551730416E-3</v>
+      </c>
+      <c r="AB87" s="8">
+        <f t="shared" ref="AB87" si="1662">P87/$P$2-1</f>
+        <v>3.7369575077728312E-2</v>
+      </c>
+      <c r="AC87" s="8">
+        <f t="shared" ref="AC87" si="1663">Q87/$P$2-1</f>
+        <v>5.7687659695266902E-3</v>
+      </c>
+      <c r="AD87" s="8">
+        <f t="shared" ref="AD87" si="1664">R87/$P$2-1</f>
+        <v>0.10234881952349273</v>
+      </c>
+      <c r="AE87" s="8">
+        <f t="shared" ref="AE87" si="1665">S87/$P$2-1</f>
+        <v>2.5089665546862427E-2</v>
+      </c>
+      <c r="AF87" s="8">
+        <f t="shared" ref="AF87" si="1666">T87/$T$2-1</f>
+        <v>1.7818345450772322E-2</v>
+      </c>
+      <c r="AI87" s="8">
+        <f t="shared" ref="AI87" si="1667">MIN(0,(F87-MAX(F58:F87))/MAX(F58:F87))</f>
+        <v>0</v>
+      </c>
+      <c r="AJ87" s="8">
+        <f t="shared" ref="AJ87" si="1668">MIN(0,(P87-MAX(P58:P87))/MAX(P58:P87))</f>
+        <v>0</v>
+      </c>
+      <c r="AK87" s="8">
+        <f t="shared" ref="AK87" si="1669">MIN(0,(Q87-MAX(Q58:Q87))/MAX(Q58:Q87))</f>
+        <v>-3.3729972828632003E-3</v>
+      </c>
+      <c r="AL87" s="8">
+        <f t="shared" ref="AL87" si="1670">MIN(0,(R87-MAX(R58:R87))/MAX(R58:R87))</f>
+        <v>0</v>
+      </c>
+      <c r="AM87" s="8">
+        <f t="shared" ref="AM87" si="1671">MIN(0,(S87-MAX(S58:S87))/MAX(S58:S87))</f>
+        <v>0</v>
+      </c>
+      <c r="AN87" s="8">
+        <f t="shared" ref="AN87" si="1672">MIN(0,(T87-MAX(T58:T87))/MAX(T58:T87))</f>
+        <v>-1.4044943820224467E-2</v>
+      </c>
+    </row>
+    <row r="88" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A88" s="9">
+        <v>43342</v>
+      </c>
+      <c r="B88" s="4">
+        <f t="shared" si="812"/>
+        <v>20251.57</v>
+      </c>
+      <c r="C88" s="4">
+        <v>104.72</v>
+      </c>
+      <c r="D88" s="4">
+        <f>20365.59-9.3</f>
+        <v>20356.29</v>
+      </c>
+      <c r="E88" s="5">
+        <f t="shared" ref="E88" si="1673">D88/D87-1</f>
+        <v>-2.3568469122804414E-3</v>
+      </c>
+      <c r="F88" s="10">
+        <f t="shared" ref="F88" si="1674">F87*(1+E88)</f>
+        <v>101.78145000000002</v>
+      </c>
+      <c r="G88" s="5">
+        <f t="shared" ref="G88" si="1675">F88/F$45-1</f>
+        <v>2.5590527378585026E-2</v>
+      </c>
+      <c r="H88" s="8">
+        <f t="shared" ref="H88" si="1676">F88/$F$2-1</f>
+        <v>1.7814500000000288E-2</v>
+      </c>
+      <c r="J88" s="11">
+        <f>VLOOKUP($A88,Prices!$A:$J,MATCH(J$1,Prices!$1:$1,0),0)</f>
+        <v>-8.5698982324584616E-3</v>
+      </c>
+      <c r="K88" s="11">
+        <f>VLOOKUP($A88,Prices!$A:$J,MATCH(K$1,Prices!$1:$1,0),0)</f>
+        <v>4.7005734699623325E-4</v>
+      </c>
+      <c r="L88" s="11">
+        <f>VLOOKUP($A88,Prices!$A:$J,MATCH(L$1,Prices!$1:$1,0),0)</f>
+        <v>-4.2583634257682412E-3</v>
+      </c>
+      <c r="M88" s="11">
+        <f t="shared" ref="M88" si="1677">0.6*J88 + 0.4*K88</f>
+        <v>-4.9539160006765838E-3</v>
+      </c>
+      <c r="N88" s="11">
+        <f>VLOOKUP($A88,Prices!$A:$J,MATCH(N$1,Prices!$1:$1,0),0)</f>
+        <v>-3.9886039886040114E-3</v>
+      </c>
+      <c r="P88" s="10">
+        <f t="shared" ref="P88" si="1678">P87*(1+J88)</f>
+        <v>102.84794233898634</v>
+      </c>
+      <c r="Q88" s="10">
+        <f t="shared" ref="Q88" si="1679">Q87*(1+K88)</f>
+        <v>100.62415349673499</v>
+      </c>
+      <c r="R88" s="10">
+        <f t="shared" ref="R88" si="1680">R87*(1+L88)</f>
+        <v>109.76546176279952</v>
+      </c>
+      <c r="S88" s="10">
+        <f t="shared" ref="S88" si="1681">S87*(1+M88)</f>
+        <v>102.00114574505815</v>
+      </c>
+      <c r="T88" s="10">
+        <f t="shared" ref="T88" si="1682">T87*(1+N88)</f>
+        <v>101.3758671138433</v>
+      </c>
+      <c r="V88" s="5">
+        <f t="shared" ref="V88" si="1683">P88/P$45-1</f>
+        <v>4.1057367829022029E-2</v>
+      </c>
+      <c r="W88" s="5">
+        <f t="shared" ref="W88" si="1684">Q88/Q$45-1</f>
+        <v>3.1030023338489698E-3</v>
+      </c>
+      <c r="X88" s="5">
+        <f t="shared" ref="X88" si="1685">R88/R$45-1</f>
+        <v>7.0463285112616791E-2</v>
+      </c>
+      <c r="Y88" s="5">
+        <f t="shared" ref="Y88" si="1686">S88/S$45-1</f>
+        <v>2.5901293901688494E-2</v>
+      </c>
+      <c r="Z88" s="5">
+        <f t="shared" ref="Z88" si="1687">T88/T$45-1</f>
+        <v>4.5977011494258146E-3</v>
+      </c>
+      <c r="AB88" s="8">
+        <f t="shared" ref="AB88" si="1688">P88/$P$2-1</f>
+        <v>2.8479423389863534E-2</v>
+      </c>
+      <c r="AC88" s="8">
+        <f t="shared" ref="AC88" si="1689">Q88/$P$2-1</f>
+        <v>6.2415349673499154E-3</v>
+      </c>
+      <c r="AD88" s="8">
+        <f t="shared" ref="AD88" si="1690">R88/$P$2-1</f>
+        <v>9.7654617627995099E-2</v>
+      </c>
+      <c r="AE88" s="8">
+        <f t="shared" ref="AE88" si="1691">S88/$P$2-1</f>
+        <v>2.0011457450581638E-2</v>
+      </c>
+      <c r="AF88" s="8">
+        <f t="shared" ref="AF88" si="1692">T88/$T$2-1</f>
+        <v>1.3758671138432987E-2</v>
+      </c>
+      <c r="AI88" s="8">
+        <f t="shared" ref="AI88" si="1693">MIN(0,(F88-MAX(F59:F88))/MAX(F59:F88))</f>
+        <v>-2.3568469122804163E-3</v>
+      </c>
+      <c r="AJ88" s="8">
+        <f t="shared" ref="AJ88" si="1694">MIN(0,(P88-MAX(P59:P88))/MAX(P59:P88))</f>
+        <v>-8.5698982324585084E-3</v>
+      </c>
+      <c r="AK88" s="8">
+        <f t="shared" ref="AK88" si="1695">MIN(0,(Q88-MAX(Q59:Q88))/MAX(Q59:Q88))</f>
+        <v>-2.9045254380211634E-3</v>
+      </c>
+      <c r="AL88" s="8">
+        <f t="shared" ref="AL88" si="1696">MIN(0,(R88-MAX(R59:R88))/MAX(R59:R88))</f>
+        <v>-4.2583634257682577E-3</v>
+      </c>
+      <c r="AM88" s="8">
+        <f t="shared" ref="AM88" si="1697">MIN(0,(S88-MAX(S59:S88))/MAX(S59:S88))</f>
+        <v>-4.9539160006766341E-3</v>
+      </c>
+      <c r="AN88" s="8">
+        <f t="shared" ref="AN88" si="1698">MIN(0,(T88-MAX(T59:T88))/MAX(T59:T88))</f>
+        <v>-1.7977528089887451E-2</v>
       </c>
     </row>
   </sheetData>
@@ -13848,10 +14484,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:J87"/>
+  <dimension ref="A1:J92"/>
   <sheetViews>
-    <sheetView topLeftCell="A56" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="I92" sqref="I92"/>
+    <sheetView topLeftCell="A68" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="A90" sqref="A90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16920,104 +17556,289 @@
       </c>
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B85" t="str">
+      <c r="A85" s="13">
+        <v>43336</v>
+      </c>
+      <c r="B85">
         <f t="array" ref="B85">_xll.HistoricalData(B$1,"Adj. Close",$A85,$A85,"Daily","RemoveHeaders = True","ReverseOrder =True","RemoveDates =""True")</f>
+        <v>73.489999999999995</v>
+      </c>
+      <c r="C85">
+        <f t="array" ref="C85">_xll.HistoricalData(C$1,"Adj. Close",$A85,$A85,"Daily","RemoveHeaders = True","ReverseOrder =True","RemoveDates =""True")</f>
+        <v>106.73</v>
+      </c>
+      <c r="D85">
+        <f t="array" ref="D85">_xll.HistoricalData(D$1,"Adj. Close",$A85,$A85,"Daily","RemoveHeaders = True","ReverseOrder =True","RemoveDates =""True")</f>
+        <v>289.52</v>
+      </c>
+      <c r="E85">
+        <f t="array" ref="E85">_xll.HistoricalData(E$1,"Adj. Close",$A85,$A85,"Daily","RemoveHeaders = True","ReverseOrder =True","RemoveDates =""True")</f>
+        <v>17.668800000000001</v>
+      </c>
+      <c r="G85" s="5">
+        <f t="shared" si="224"/>
+        <v>7.678595913889863E-3</v>
+      </c>
+      <c r="H85" s="5">
+        <f t="shared" si="225"/>
+        <v>1.1255979739237532E-3</v>
+      </c>
+      <c r="I85" s="5">
+        <f t="shared" si="226"/>
+        <v>6.2211100684668175E-3</v>
+      </c>
+      <c r="J85" s="5">
+        <f t="shared" si="227"/>
+        <v>7.9178551055334445E-3</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A86" s="13">
+        <v>43339</v>
+      </c>
+      <c r="B86">
+        <f t="array" ref="B86">_xll.HistoricalData(B$1,"Adj. Close",$A86,$A86,"Daily","RemoveHeaders = True","ReverseOrder =True","RemoveDates =""True")</f>
+        <v>74.2</v>
+      </c>
+      <c r="C86">
+        <f t="array" ref="C86">_xll.HistoricalData(C$1,"Adj. Close",$A86,$A86,"Daily","RemoveHeaders = True","ReverseOrder =True","RemoveDates =""True")</f>
+        <v>106.59</v>
+      </c>
+      <c r="D86">
+        <f t="array" ref="D86">_xll.HistoricalData(D$1,"Adj. Close",$A86,$A86,"Daily","RemoveHeaders = True","ReverseOrder =True","RemoveDates =""True")</f>
+        <v>291.81</v>
+      </c>
+      <c r="E86">
+        <f t="array" ref="E86">_xll.HistoricalData(E$1,"Adj. Close",$A86,$A86,"Daily","RemoveHeaders = True","ReverseOrder =True","RemoveDates =""True")</f>
+        <v>17.600000000000001</v>
+      </c>
+      <c r="G86" s="5">
+        <f t="shared" si="224"/>
+        <v>9.6611783916180638E-3</v>
+      </c>
+      <c r="H86" s="5">
+        <f t="shared" si="225"/>
+        <v>-1.3117211655579997E-3</v>
+      </c>
+      <c r="I86" s="5">
+        <f t="shared" si="226"/>
+        <v>7.9096435479415472E-3</v>
+      </c>
+      <c r="J86" s="5">
+        <f t="shared" si="227"/>
+        <v>-3.8938694195417289E-3</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A87" s="13">
+        <v>43340</v>
+      </c>
+      <c r="B87">
+        <f t="array" ref="B87">_xll.HistoricalData(B$1,"Adj. Close",$A87,$A87,"Daily","RemoveHeaders = True","ReverseOrder =True","RemoveDates =""True")</f>
+        <v>74.239999999999995</v>
+      </c>
+      <c r="C87">
+        <f t="array" ref="C87">_xll.HistoricalData(C$1,"Adj. Close",$A87,$A87,"Daily","RemoveHeaders = True","ReverseOrder =True","RemoveDates =""True")</f>
+        <v>106.39</v>
+      </c>
+      <c r="D87">
+        <f t="array" ref="D87">_xll.HistoricalData(D$1,"Adj. Close",$A87,$A87,"Daily","RemoveHeaders = True","ReverseOrder =True","RemoveDates =""True")</f>
+        <v>291.89</v>
+      </c>
+      <c r="E87">
+        <f t="array" ref="E87">_xll.HistoricalData(E$1,"Adj. Close",$A87,$A87,"Daily","RemoveHeaders = True","ReverseOrder =True","RemoveDates =""True")</f>
+        <v>17.559999999999999</v>
+      </c>
+      <c r="G87" s="5">
+        <f t="shared" si="224"/>
+        <v>5.3908355795129204E-4</v>
+      </c>
+      <c r="H87" s="5">
+        <f t="shared" si="225"/>
+        <v>-1.8763486255746198E-3</v>
+      </c>
+      <c r="I87" s="5">
+        <f t="shared" si="226"/>
+        <v>2.7415098865701815E-4</v>
+      </c>
+      <c r="J87" s="5">
+        <f t="shared" si="227"/>
+        <v>-2.2727272727274261E-3</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A88" s="13">
+        <v>43341</v>
+      </c>
+      <c r="B88">
+        <f t="array" ref="B88">_xll.HistoricalData(B$1,"Adj. Close",$A88,$A88,"Daily","RemoveHeaders = True","ReverseOrder =True","RemoveDates =""True")</f>
+        <v>74.680000000000007</v>
+      </c>
+      <c r="C88">
+        <f t="array" ref="C88">_xll.HistoricalData(C$1,"Adj. Close",$A88,$A88,"Daily","RemoveHeaders = True","ReverseOrder =True","RemoveDates =""True")</f>
+        <v>106.37</v>
+      </c>
+      <c r="D88">
+        <f t="array" ref="D88">_xll.HistoricalData(D$1,"Adj. Close",$A88,$A88,"Daily","RemoveHeaders = True","ReverseOrder =True","RemoveDates =""True")</f>
+        <v>293.54000000000002</v>
+      </c>
+      <c r="E88">
+        <f t="array" ref="E88">_xll.HistoricalData(E$1,"Adj. Close",$A88,$A88,"Daily","RemoveHeaders = True","ReverseOrder =True","RemoveDates =""True")</f>
+        <v>17.55</v>
+      </c>
+      <c r="G88" s="5">
+        <f t="shared" ref="G88:G92" si="228">B88/B87-1</f>
+        <v>5.9267241379312718E-3</v>
+      </c>
+      <c r="H88" s="5">
+        <f t="shared" ref="H88:H92" si="229">C88/C87-1</f>
+        <v>-1.8798759281879462E-4</v>
+      </c>
+      <c r="I88" s="5">
+        <f t="shared" ref="I88:I92" si="230">D88/D87-1</f>
+        <v>5.652814416389873E-3</v>
+      </c>
+      <c r="J88" s="5">
+        <f t="shared" ref="J88:J92" si="231">E88/E87-1</f>
+        <v>-5.6947608200441646E-4</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A89" s="13">
+        <v>43342</v>
+      </c>
+      <c r="B89">
+        <f t="array" ref="B89">_xll.HistoricalData(B$1,"Adj. Close",$A89,$A89,"Daily","RemoveHeaders = True","ReverseOrder =True","RemoveDates =""True")</f>
+        <v>74.040000000000006</v>
+      </c>
+      <c r="C89">
+        <f t="array" ref="C89">_xll.HistoricalData(C$1,"Adj. Close",$A89,$A89,"Daily","RemoveHeaders = True","ReverseOrder =True","RemoveDates =""True")</f>
+        <v>106.42</v>
+      </c>
+      <c r="D89">
+        <f t="array" ref="D89">_xll.HistoricalData(D$1,"Adj. Close",$A89,$A89,"Daily","RemoveHeaders = True","ReverseOrder =True","RemoveDates =""True")</f>
+        <v>292.29000000000002</v>
+      </c>
+      <c r="E89">
+        <f t="array" ref="E89">_xll.HistoricalData(E$1,"Adj. Close",$A89,$A89,"Daily","RemoveHeaders = True","ReverseOrder =True","RemoveDates =""True")</f>
+        <v>17.48</v>
+      </c>
+      <c r="G89" s="5">
+        <f t="shared" si="228"/>
+        <v>-8.5698982324584616E-3</v>
+      </c>
+      <c r="H89" s="5">
+        <f t="shared" si="229"/>
+        <v>4.7005734699623325E-4</v>
+      </c>
+      <c r="I89" s="5">
+        <f t="shared" si="230"/>
+        <v>-4.2583634257682412E-3</v>
+      </c>
+      <c r="J89" s="5">
+        <f t="shared" si="231"/>
+        <v>-3.9886039886040114E-3</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B90" t="str">
+        <f t="array" ref="B90">_xll.HistoricalData(B$1,"Adj. Close",$A90,$A90,"Daily","RemoveHeaders = True","ReverseOrder =True","RemoveDates =""True")</f>
         <v>--</v>
       </c>
-      <c r="C85" t="str">
-        <f t="array" ref="C85">_xll.HistoricalData(C$1,"Adj. Close",$A85,$A85,"Daily","RemoveHeaders = True","ReverseOrder =True","RemoveDates =""True")</f>
+      <c r="C90" t="str">
+        <f t="array" ref="C90">_xll.HistoricalData(C$1,"Adj. Close",$A90,$A90,"Daily","RemoveHeaders = True","ReverseOrder =True","RemoveDates =""True")</f>
         <v>--</v>
       </c>
-      <c r="D85" t="str">
-        <f t="array" ref="D85">_xll.HistoricalData(D$1,"Adj. Close",$A85,$A85,"Daily","RemoveHeaders = True","ReverseOrder =True","RemoveDates =""True")</f>
+      <c r="D90" t="str">
+        <f t="array" ref="D90">_xll.HistoricalData(D$1,"Adj. Close",$A90,$A90,"Daily","RemoveHeaders = True","ReverseOrder =True","RemoveDates =""True")</f>
         <v>--</v>
       </c>
-      <c r="E85" t="str">
-        <f t="array" ref="E85">_xll.HistoricalData(E$1,"Adj. Close",$A85,$A85,"Daily","RemoveHeaders = True","ReverseOrder =True","RemoveDates =""True")</f>
+      <c r="E90" t="str">
+        <f t="array" ref="E90">_xll.HistoricalData(E$1,"Adj. Close",$A90,$A90,"Daily","RemoveHeaders = True","ReverseOrder =True","RemoveDates =""True")</f>
         <v>--</v>
       </c>
-      <c r="G85" s="5" t="e">
-        <f t="shared" si="224"/>
+      <c r="G90" s="5" t="e">
+        <f t="shared" si="228"/>
         <v>#VALUE!</v>
       </c>
-      <c r="H85" s="5" t="e">
-        <f t="shared" si="225"/>
+      <c r="H90" s="5" t="e">
+        <f t="shared" si="229"/>
         <v>#VALUE!</v>
       </c>
-      <c r="I85" s="5" t="e">
-        <f t="shared" si="226"/>
+      <c r="I90" s="5" t="e">
+        <f t="shared" si="230"/>
         <v>#VALUE!</v>
       </c>
-      <c r="J85" s="5" t="e">
-        <f t="shared" si="227"/>
+      <c r="J90" s="5" t="e">
+        <f t="shared" si="231"/>
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B86" t="str">
-        <f t="array" ref="B86">_xll.HistoricalData(B$1,"Adj. Close",$A86,$A86,"Daily","RemoveHeaders = True","ReverseOrder =True","RemoveDates =""True")</f>
+    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B91" t="str">
+        <f t="array" ref="B91">_xll.HistoricalData(B$1,"Adj. Close",$A91,$A91,"Daily","RemoveHeaders = True","ReverseOrder =True","RemoveDates =""True")</f>
         <v>--</v>
       </c>
-      <c r="C86" t="str">
-        <f t="array" ref="C86">_xll.HistoricalData(C$1,"Adj. Close",$A86,$A86,"Daily","RemoveHeaders = True","ReverseOrder =True","RemoveDates =""True")</f>
+      <c r="C91" t="str">
+        <f t="array" ref="C91">_xll.HistoricalData(C$1,"Adj. Close",$A91,$A91,"Daily","RemoveHeaders = True","ReverseOrder =True","RemoveDates =""True")</f>
         <v>--</v>
       </c>
-      <c r="D86" t="str">
-        <f t="array" ref="D86">_xll.HistoricalData(D$1,"Adj. Close",$A86,$A86,"Daily","RemoveHeaders = True","ReverseOrder =True","RemoveDates =""True")</f>
+      <c r="D91" t="str">
+        <f t="array" ref="D91">_xll.HistoricalData(D$1,"Adj. Close",$A91,$A91,"Daily","RemoveHeaders = True","ReverseOrder =True","RemoveDates =""True")</f>
         <v>--</v>
       </c>
-      <c r="E86" t="str">
-        <f t="array" ref="E86">_xll.HistoricalData(E$1,"Adj. Close",$A86,$A86,"Daily","RemoveHeaders = True","ReverseOrder =True","RemoveDates =""True")</f>
+      <c r="E91" t="str">
+        <f t="array" ref="E91">_xll.HistoricalData(E$1,"Adj. Close",$A91,$A91,"Daily","RemoveHeaders = True","ReverseOrder =True","RemoveDates =""True")</f>
         <v>--</v>
       </c>
-      <c r="G86" s="5" t="e">
-        <f t="shared" si="224"/>
+      <c r="G91" s="5" t="e">
+        <f t="shared" si="228"/>
         <v>#VALUE!</v>
       </c>
-      <c r="H86" s="5" t="e">
-        <f t="shared" si="225"/>
+      <c r="H91" s="5" t="e">
+        <f t="shared" si="229"/>
         <v>#VALUE!</v>
       </c>
-      <c r="I86" s="5" t="e">
-        <f t="shared" si="226"/>
+      <c r="I91" s="5" t="e">
+        <f t="shared" si="230"/>
         <v>#VALUE!</v>
       </c>
-      <c r="J86" s="5" t="e">
-        <f t="shared" si="227"/>
+      <c r="J91" s="5" t="e">
+        <f t="shared" si="231"/>
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B87" t="str">
-        <f t="array" ref="B87">_xll.HistoricalData(B$1,"Adj. Close",$A87,$A87,"Daily","RemoveHeaders = True","ReverseOrder =True","RemoveDates =""True")</f>
+    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B92" t="str">
+        <f t="array" ref="B92">_xll.HistoricalData(B$1,"Adj. Close",$A92,$A92,"Daily","RemoveHeaders = True","ReverseOrder =True","RemoveDates =""True")</f>
         <v>--</v>
       </c>
-      <c r="C87" t="str">
-        <f t="array" ref="C87">_xll.HistoricalData(C$1,"Adj. Close",$A87,$A87,"Daily","RemoveHeaders = True","ReverseOrder =True","RemoveDates =""True")</f>
+      <c r="C92" t="str">
+        <f t="array" ref="C92">_xll.HistoricalData(C$1,"Adj. Close",$A92,$A92,"Daily","RemoveHeaders = True","ReverseOrder =True","RemoveDates =""True")</f>
         <v>--</v>
       </c>
-      <c r="D87" t="str">
-        <f t="array" ref="D87">_xll.HistoricalData(D$1,"Adj. Close",$A87,$A87,"Daily","RemoveHeaders = True","ReverseOrder =True","RemoveDates =""True")</f>
+      <c r="D92" t="str">
+        <f t="array" ref="D92">_xll.HistoricalData(D$1,"Adj. Close",$A92,$A92,"Daily","RemoveHeaders = True","ReverseOrder =True","RemoveDates =""True")</f>
         <v>--</v>
       </c>
-      <c r="E87" t="str">
-        <f t="array" ref="E87">_xll.HistoricalData(E$1,"Adj. Close",$A87,$A87,"Daily","RemoveHeaders = True","ReverseOrder =True","RemoveDates =""True")</f>
+      <c r="E92" t="str">
+        <f t="array" ref="E92">_xll.HistoricalData(E$1,"Adj. Close",$A92,$A92,"Daily","RemoveHeaders = True","ReverseOrder =True","RemoveDates =""True")</f>
         <v>--</v>
       </c>
-      <c r="G87" s="5" t="e">
-        <f t="shared" si="224"/>
+      <c r="G92" s="5" t="e">
+        <f t="shared" si="228"/>
         <v>#VALUE!</v>
       </c>
-      <c r="H87" s="5" t="e">
-        <f t="shared" si="225"/>
+      <c r="H92" s="5" t="e">
+        <f t="shared" si="229"/>
         <v>#VALUE!</v>
       </c>
-      <c r="I87" s="5" t="e">
-        <f t="shared" si="226"/>
+      <c r="I92" s="5" t="e">
+        <f t="shared" si="230"/>
         <v>#VALUE!</v>
       </c>
-      <c r="J87" s="5" t="e">
-        <f t="shared" si="227"/>
+      <c r="J92" s="5" t="e">
+        <f t="shared" si="231"/>
         <v>#VALUE!</v>
       </c>
     </row>
@@ -17030,8 +17851,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R20" sqref="R20"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="P18" sqref="P18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17069,7 +17890,7 @@
       </c>
       <c r="G2" s="74">
         <f>SUM(G5:G10)</f>
-        <v>0.99290311643376095</v>
+        <v>0.99310024525218754</v>
       </c>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.25">
@@ -17120,7 +17941,7 @@
       </c>
       <c r="C5">
         <f>_xll.RealtimeData(A5,"Last")</f>
-        <v>366.73500000000001</v>
+        <v>388.1</v>
       </c>
       <c r="D5">
         <f>ROUNDDOWN(($C$2/6)/B5,0)</f>
@@ -17128,19 +17949,19 @@
       </c>
       <c r="E5" s="8">
         <f>C5/B5-1</f>
-        <v>0.10478987799367379</v>
+        <v>0.16915198071998816</v>
       </c>
       <c r="F5">
         <f>C5*D5</f>
-        <v>12835.725</v>
+        <v>13583.5</v>
       </c>
       <c r="G5" s="73">
         <f>F5/$F$13</f>
-        <v>0.17170310032093372</v>
+        <v>0.17665884797638087</v>
       </c>
       <c r="H5" s="8">
         <f>F5/$F$31</f>
-        <v>0.12211521443819244</v>
+        <v>0.12621330677146642</v>
       </c>
       <c r="I5">
         <f>B5*D5</f>
@@ -17157,7 +17978,7 @@
       </c>
       <c r="C6">
         <f>_xll.RealtimeData(A6,"Last")</f>
-        <v>1911.6447000000001</v>
+        <v>2021.1533999999999</v>
       </c>
       <c r="D6">
         <f t="shared" ref="D6:D10" si="0">ROUNDDOWN(($C$2/6)/B6,0)</f>
@@ -17165,19 +17986,19 @@
       </c>
       <c r="E6" s="8">
         <f t="shared" ref="E6:E10" si="1">C6/B6-1</f>
-        <v>0.17306163400056462</v>
+        <v>0.24026055153962278</v>
       </c>
       <c r="F6">
         <f t="shared" ref="F6:F9" si="2">C6*D6</f>
-        <v>13381.5129</v>
+        <v>14148.0738</v>
       </c>
       <c r="G6" s="73">
         <f t="shared" ref="G6:G10" si="3">F6/$F$13</f>
-        <v>0.17900408834830667</v>
+        <v>0.18400135595338588</v>
       </c>
       <c r="H6" s="8">
         <f t="shared" ref="H6:H10" si="4">F6/$F$31</f>
-        <v>0.12730767582594191</v>
+        <v>0.13145913635990331</v>
       </c>
       <c r="I6">
         <f t="shared" ref="I6:I10" si="5">B6*D6</f>
@@ -17194,7 +18015,7 @@
       </c>
       <c r="C7">
         <f>_xll.RealtimeData(A7,"Last")</f>
-        <v>46.34</v>
+        <v>47.405000000000001</v>
       </c>
       <c r="D7">
         <f t="shared" si="0"/>
@@ -17202,19 +18023,19 @@
       </c>
       <c r="E7" s="8">
         <f t="shared" si="1"/>
-        <v>9.3440302029259126E-2</v>
+        <v>0.11857008022652193</v>
       </c>
       <c r="F7">
         <f t="shared" si="2"/>
-        <v>12743.500000000002</v>
+        <v>13036.375</v>
       </c>
       <c r="G7" s="73">
         <f t="shared" si="3"/>
-        <v>0.17046940931967763</v>
+        <v>0.16954326861914029</v>
       </c>
       <c r="H7" s="8">
         <f t="shared" si="4"/>
-        <v>0.1212378136173146</v>
+        <v>0.12112960555548095</v>
       </c>
       <c r="I7">
         <f t="shared" si="5"/>
@@ -17231,7 +18052,7 @@
       </c>
       <c r="C8">
         <f>_xll.RealtimeData(A8,"Last")</f>
-        <v>539.70000000000005</v>
+        <v>557.178</v>
       </c>
       <c r="D8">
         <f t="shared" si="0"/>
@@ -17239,19 +18060,19 @@
       </c>
       <c r="E8" s="8">
         <f t="shared" si="1"/>
-        <v>0.17410316096329992</v>
+        <v>0.21212609045619679</v>
       </c>
       <c r="F8">
         <f t="shared" si="2"/>
-        <v>13492.500000000002</v>
+        <v>13929.45</v>
       </c>
       <c r="G8" s="73">
         <f t="shared" si="3"/>
-        <v>0.18048875938680506</v>
+        <v>0.18115806603192097</v>
       </c>
       <c r="H8" s="8">
         <f t="shared" si="4"/>
-        <v>0.12836357360470965</v>
+        <v>0.12942775764771988</v>
       </c>
       <c r="I8">
         <f t="shared" si="5"/>
@@ -17268,7 +18089,7 @@
       </c>
       <c r="C9">
         <f>_xll.RealtimeData(A9,"Last")</f>
-        <v>50.23</v>
+        <v>52.86</v>
       </c>
       <c r="D9">
         <f t="shared" si="0"/>
@@ -17276,19 +18097,19 @@
       </c>
       <c r="E9" s="8">
         <f t="shared" si="1"/>
-        <v>-0.12779996527174864</v>
+        <v>-8.2132314637958004E-2</v>
       </c>
       <c r="F9">
         <f t="shared" si="2"/>
-        <v>10146.459999999999</v>
+        <v>10677.72</v>
       </c>
       <c r="G9" s="73">
         <f t="shared" si="3"/>
-        <v>0.13572888475581557</v>
+        <v>0.13886801738980095</v>
       </c>
       <c r="H9" s="8">
         <f t="shared" si="4"/>
-        <v>9.6530358720566381E-2</v>
+        <v>9.9213777743572887E-2</v>
       </c>
       <c r="I9">
         <f t="shared" si="5"/>
@@ -17305,7 +18126,7 @@
       </c>
       <c r="C10">
         <f>_xll.RealtimeData(A10,"Last")</f>
-        <v>56.16</v>
+        <v>53.07</v>
       </c>
       <c r="D10">
         <f t="shared" si="0"/>
@@ -17313,19 +18134,19 @@
       </c>
       <c r="E10" s="8">
         <f t="shared" si="1"/>
-        <v>-3.3717834960071968E-3</v>
+        <v>-5.8207630878438388E-2</v>
       </c>
       <c r="F10">
         <f>C10*D10</f>
-        <v>11625.119999999999</v>
+        <v>10985.49</v>
       </c>
       <c r="G10" s="73">
         <f t="shared" si="3"/>
-        <v>0.15550887430222232</v>
+        <v>0.14287068928155866</v>
       </c>
       <c r="H10" s="8">
         <f t="shared" si="4"/>
-        <v>0.11059788377124935</v>
+        <v>0.1020734729197097</v>
       </c>
       <c r="I10">
         <f t="shared" si="5"/>
@@ -17344,7 +18165,7 @@
       </c>
       <c r="F13" s="75">
         <f>SUM(F5:F10)+I13</f>
-        <v>74755.347899999993</v>
+        <v>76891.138800000001</v>
       </c>
       <c r="H13" t="s">
         <v>26</v>
@@ -17360,7 +18181,7 @@
       </c>
       <c r="F14" s="8">
         <f>F13/C2-1</f>
-        <v>6.7933541428571331E-2</v>
+        <v>9.8444839999999978E-2</v>
       </c>
     </row>
     <row r="15" spans="1:23" x14ac:dyDescent="0.25">
@@ -17371,7 +18192,7 @@
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H17" s="11">
         <f>SUM(H20:H23)</f>
-        <v>0.98831937309879736</v>
+        <v>0.98846227184368707</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
@@ -17413,7 +18234,7 @@
       </c>
       <c r="C20">
         <f>_xll.RealtimeData(A20,"Last")</f>
-        <v>17.28</v>
+        <v>17.445</v>
       </c>
       <c r="D20">
         <f>ROUNDDOWN(($C$3*E20)/B20,0)</f>
@@ -17424,19 +18245,19 @@
       </c>
       <c r="F20" s="8">
         <f>C20/B20-1</f>
-        <v>1.6470588235294237E-2</v>
+        <v>2.6176470588235246E-2</v>
       </c>
       <c r="G20">
         <f>D20*C20</f>
-        <v>4320</v>
+        <v>4361.25</v>
       </c>
       <c r="H20" s="8">
         <f>G20/$G$27</f>
-        <v>0.14231008013197308</v>
+        <v>0.14191132303491255</v>
       </c>
       <c r="I20" s="8">
         <f>G20/$F$31</f>
-        <v>4.1099176429301137E-2</v>
+        <v>4.0523266032838214E-2</v>
       </c>
       <c r="J20">
         <f>B20*D20</f>
@@ -17453,7 +18274,7 @@
       </c>
       <c r="C21">
         <f>_xll.RealtimeData(A21,"Last")</f>
-        <v>288.60480000000001</v>
+        <v>292.72000000000003</v>
       </c>
       <c r="D21">
         <f t="shared" ref="D21:D22" si="6">ROUNDDOWN(($C$3*E21)/B21,0)</f>
@@ -17464,19 +18285,19 @@
       </c>
       <c r="F21" s="8">
         <f t="shared" ref="F21:F23" si="7">C21/B21-1</f>
-        <v>2.0237556561085945E-2</v>
+        <v>3.4785067873303266E-2</v>
       </c>
       <c r="G21">
         <f t="shared" ref="G21:G22" si="8">D21*C21</f>
-        <v>10966.982400000001</v>
+        <v>11123.36</v>
       </c>
       <c r="H21" s="8">
         <f t="shared" ref="H21:H23" si="9">G21/$G$27</f>
-        <v>0.36127595929396727</v>
+        <v>0.36194456502003436</v>
       </c>
       <c r="I21" s="8">
         <f t="shared" ref="I21:I23" si="10">G21/$F$31</f>
-        <v>0.10433656123950009</v>
+        <v>0.10335451452199056</v>
       </c>
       <c r="J21">
         <f t="shared" ref="J21:J23" si="11">B21*D21</f>
@@ -17493,7 +18314,7 @@
       </c>
       <c r="C22">
         <f>_xll.RealtimeData(A22,"Last")</f>
-        <v>81.94</v>
+        <v>83.17</v>
       </c>
       <c r="D22">
         <f t="shared" si="6"/>
@@ -17504,19 +18325,19 @@
       </c>
       <c r="F22" s="8">
         <f t="shared" si="7"/>
-        <v>5.1521099116780267E-3</v>
+        <v>2.0240431795878422E-2</v>
       </c>
       <c r="G22">
         <f t="shared" si="8"/>
-        <v>11799.36</v>
+        <v>11976.48</v>
       </c>
       <c r="H22" s="8">
         <f t="shared" si="9"/>
-        <v>0.38869626553379583</v>
+        <v>0.38970435588447561</v>
       </c>
       <c r="I22" s="8">
         <f t="shared" si="10"/>
-        <v>0.11225555055389784</v>
+        <v>0.11128141821197277</v>
       </c>
       <c r="J22">
         <f t="shared" si="11"/>
@@ -17533,7 +18354,7 @@
       </c>
       <c r="C23">
         <f>_xll.RealtimeData(A23,"Last")</f>
-        <v>83.295000000000002</v>
+        <v>83.33</v>
       </c>
       <c r="D23">
         <f>ROUNDDOWN(($C$3*E23)/B23,0)</f>
@@ -17544,19 +18365,19 @@
       </c>
       <c r="F23" s="8">
         <f t="shared" si="7"/>
-        <v>2.8292800385263384E-3</v>
+        <v>3.2506621719239348E-3</v>
       </c>
       <c r="G23">
         <f>D23*C23</f>
-        <v>2915.3250000000003</v>
+        <v>2916.5499999999997</v>
       </c>
       <c r="H23" s="8">
         <f t="shared" si="9"/>
-        <v>9.603706813906121E-2</v>
+        <v>9.4902027904264635E-2</v>
       </c>
       <c r="I23" s="8">
         <f t="shared" si="10"/>
-        <v>2.7735522343461192E-2</v>
+        <v>2.7099600240315113E-2</v>
       </c>
       <c r="J23">
         <f t="shared" si="11"/>
@@ -17572,7 +18393,7 @@
       </c>
       <c r="G27">
         <f>SUM(G20:G23)+J28</f>
-        <v>30356.247400000004</v>
+        <v>30732.22</v>
       </c>
       <c r="J27">
         <f>SUM(J20:J23)</f>
@@ -17585,7 +18406,7 @@
       </c>
       <c r="G28" s="8">
         <f>G27/J27-1</f>
-        <v>2.3977646462759017E-2</v>
+        <v>3.6659962989224137E-2</v>
       </c>
       <c r="I28" t="s">
         <v>26</v>
@@ -17601,7 +18422,7 @@
       </c>
       <c r="F31" s="75">
         <f>SUM(F13,G27)</f>
-        <v>105111.5953</v>
+        <v>107623.3588</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
@@ -17610,11 +18431,11 @@
       </c>
       <c r="F33" s="8">
         <f>F31/B1-1</f>
-        <v>5.1115953000000047E-2</v>
+        <v>7.6233588000000019E-2</v>
       </c>
       <c r="H33" s="11">
         <f>F33-F37</f>
-        <v>1.6797751854183994E-2</v>
+        <v>2.8543796265359703E-2</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
@@ -17627,16 +18448,16 @@
       </c>
       <c r="C37">
         <f>_xll.RealtimeData(A37,"Last")</f>
-        <v>38.277299999999997</v>
+        <v>38.6601</v>
       </c>
       <c r="D37" s="8">
         <f>C37/B37-1</f>
-        <v>4.5216936748548875E-4</v>
+        <v>1.0457396759017357E-2</v>
       </c>
       <c r="E37" s="11"/>
       <c r="F37" s="8">
         <f>D37*$B$3+D40*$B$2</f>
-        <v>3.4318201145816053E-2</v>
+        <v>4.7689791734640316E-2</v>
       </c>
       <c r="H37" s="8"/>
       <c r="I37" s="8"/>
@@ -17651,11 +18472,11 @@
       </c>
       <c r="C38">
         <f>_xll.RealtimeData(A38,"Last")</f>
-        <v>288.60480000000001</v>
+        <v>292.72000000000003</v>
       </c>
       <c r="D38" s="8">
         <f t="shared" ref="D38:D39" si="12">C38/B38-1</f>
-        <v>5.8207017929820637E-2</v>
+        <v>7.3295933707329564E-2</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
@@ -17668,11 +18489,11 @@
       </c>
       <c r="C39">
         <f>_xll.RealtimeData(A39,"Last")</f>
-        <v>181.66499999999999</v>
+        <v>187.04</v>
       </c>
       <c r="D39" s="8">
         <f t="shared" si="12"/>
-        <v>6.8177809137413892E-2</v>
+        <v>9.9782442523666637E-2</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
@@ -17685,11 +18506,11 @@
       </c>
       <c r="C40">
         <f>_xll.RealtimeData(A40,"Last")</f>
-        <v>46.882800000000003</v>
+        <v>47.545000000000002</v>
       </c>
       <c r="D40" s="8">
         <f>C40/B40-1</f>
-        <v>4.8832214765100579E-2</v>
+        <v>6.3646532438478731E-2</v>
       </c>
     </row>
   </sheetData>
